--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/06_プロダクト開発/プロダクト資料/01_要件定義/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/02_SpecificationDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="239">
   <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
@@ -2461,6 +2461,32 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サクj</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ユーザと一般ユーザの自ユーザ削除を不可に変更。</t>
+    <rPh sb="0" eb="3">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッp</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジブn</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サk</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フk</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2510,7 +2536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2526,6 +2552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3677,7 +3709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3822,6 +3854,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3994,8 +4035,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3654906" y="15109408"/>
-          <a:ext cx="2001854" cy="2001725"/>
+          <a:off x="3691035" y="15261253"/>
+          <a:ext cx="2022928" cy="2022669"/>
           <a:chOff x="3479800" y="21310600"/>
           <a:chExt cx="1981200" cy="1981200"/>
         </a:xfrm>
@@ -4113,8 +4154,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6811562" y="15109408"/>
-          <a:ext cx="1998903" cy="2001725"/>
+          <a:off x="6880808" y="15261253"/>
+          <a:ext cx="2016968" cy="2022669"/>
           <a:chOff x="6743700" y="21310600"/>
           <a:chExt cx="1981200" cy="1981200"/>
         </a:xfrm>
@@ -5547,10 +5588,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="B7" s="83">
+        <v>42937</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>238</v>
+      </c>
       <c r="F7" s="82"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6111,7 +6160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ243"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="98" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -6121,15 +6170,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="146"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="149"/>
       <c r="H1" s="55"/>
       <c r="I1" s="52" t="s">
         <v>81</v>
@@ -6140,53 +6189,53 @@
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
       <c r="O1" s="54"/>
-      <c r="P1" s="153" t="s">
+      <c r="P1" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="155"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
       <c r="AA1" s="52" t="s">
         <v>76</v>
       </c>
       <c r="AB1" s="50"/>
       <c r="AC1" s="51"/>
-      <c r="AD1" s="150">
+      <c r="AD1" s="153">
         <v>42760</v>
       </c>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="152"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="155"/>
       <c r="AI1" s="52" t="s">
         <v>78</v>
       </c>
       <c r="AJ1" s="53"/>
       <c r="AK1" s="54"/>
-      <c r="AL1" s="141" t="s">
+      <c r="AL1" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="143"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="146"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
       <c r="H2" s="56"/>
       <c r="I2" s="52" t="s">
         <v>82</v>
@@ -6197,41 +6246,41 @@
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="54"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
       <c r="AA2" s="52" t="s">
         <v>77</v>
       </c>
       <c r="AB2" s="50"/>
       <c r="AC2" s="51"/>
-      <c r="AD2" s="150">
+      <c r="AD2" s="153">
         <v>42929</v>
       </c>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="152"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="155"/>
       <c r="AI2" s="52" t="s">
         <v>79</v>
       </c>
       <c r="AJ2" s="53"/>
       <c r="AK2" s="54"/>
-      <c r="AL2" s="141" t="s">
+      <c r="AL2" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="143"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="146"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -6758,27 +6807,27 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="135" t="s">
+      <c r="L18" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="137"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="140"/>
       <c r="AE18" s="2"/>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="2"/>
@@ -6794,27 +6843,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="135" t="s">
+      <c r="L19" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="137"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="140"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -6830,27 +6879,27 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="43"/>
-      <c r="L20" s="135" t="s">
+      <c r="L20" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="136"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="136"/>
-      <c r="W20" s="136"/>
-      <c r="X20" s="136"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="136"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="136"/>
-      <c r="AD20" s="137"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="140"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7270,27 +7319,27 @@
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
       <c r="K38" s="62"/>
-      <c r="L38" s="132" t="s">
+      <c r="L38" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="M38" s="133"/>
-      <c r="N38" s="133"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="133"/>
-      <c r="R38" s="133"/>
-      <c r="S38" s="133"/>
-      <c r="T38" s="133"/>
-      <c r="U38" s="133"/>
-      <c r="V38" s="133"/>
-      <c r="W38" s="133"/>
-      <c r="X38" s="133"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="133"/>
-      <c r="AA38" s="133"/>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="134"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="136"/>
+      <c r="P38" s="136"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="136"/>
+      <c r="S38" s="136"/>
+      <c r="T38" s="136"/>
+      <c r="U38" s="136"/>
+      <c r="V38" s="136"/>
+      <c r="W38" s="136"/>
+      <c r="X38" s="136"/>
+      <c r="Y38" s="136"/>
+      <c r="Z38" s="136"/>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="137"/>
       <c r="AE38" s="2"/>
       <c r="AP38" s="5"/>
       <c r="AQ38" s="2"/>
@@ -7306,27 +7355,27 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="135" t="s">
+      <c r="L39" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="136"/>
-      <c r="Q39" s="136"/>
-      <c r="R39" s="136"/>
-      <c r="S39" s="136"/>
-      <c r="T39" s="136"/>
-      <c r="U39" s="136"/>
-      <c r="V39" s="136"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="136"/>
-      <c r="Z39" s="136"/>
-      <c r="AA39" s="136"/>
-      <c r="AB39" s="136"/>
-      <c r="AC39" s="136"/>
-      <c r="AD39" s="137"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="139"/>
+      <c r="T39" s="139"/>
+      <c r="U39" s="139"/>
+      <c r="V39" s="139"/>
+      <c r="W39" s="139"/>
+      <c r="X39" s="139"/>
+      <c r="Y39" s="139"/>
+      <c r="Z39" s="139"/>
+      <c r="AA39" s="139"/>
+      <c r="AB39" s="139"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="140"/>
       <c r="AE39" s="2"/>
       <c r="AP39" s="5"/>
       <c r="AQ39" s="2"/>
@@ -7342,27 +7391,27 @@
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="135" t="s">
+      <c r="L40" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="136"/>
-      <c r="U40" s="136"/>
-      <c r="V40" s="136"/>
-      <c r="W40" s="136"/>
-      <c r="X40" s="136"/>
-      <c r="Y40" s="136"/>
-      <c r="Z40" s="136"/>
-      <c r="AA40" s="136"/>
-      <c r="AB40" s="136"/>
-      <c r="AC40" s="136"/>
-      <c r="AD40" s="137"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
+      <c r="O40" s="139"/>
+      <c r="P40" s="139"/>
+      <c r="Q40" s="139"/>
+      <c r="R40" s="139"/>
+      <c r="S40" s="139"/>
+      <c r="T40" s="139"/>
+      <c r="U40" s="139"/>
+      <c r="V40" s="139"/>
+      <c r="W40" s="139"/>
+      <c r="X40" s="139"/>
+      <c r="Y40" s="139"/>
+      <c r="Z40" s="139"/>
+      <c r="AA40" s="139"/>
+      <c r="AB40" s="139"/>
+      <c r="AC40" s="139"/>
+      <c r="AD40" s="140"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -7378,27 +7427,27 @@
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
       <c r="K41" s="41"/>
-      <c r="L41" s="135" t="s">
+      <c r="L41" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="136"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="136"/>
-      <c r="T41" s="136"/>
-      <c r="U41" s="136"/>
-      <c r="V41" s="136"/>
-      <c r="W41" s="136"/>
-      <c r="X41" s="136"/>
-      <c r="Y41" s="136"/>
-      <c r="Z41" s="136"/>
-      <c r="AA41" s="136"/>
-      <c r="AB41" s="136"/>
-      <c r="AC41" s="136"/>
-      <c r="AD41" s="137"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="139"/>
+      <c r="O41" s="139"/>
+      <c r="P41" s="139"/>
+      <c r="Q41" s="139"/>
+      <c r="R41" s="139"/>
+      <c r="S41" s="139"/>
+      <c r="T41" s="139"/>
+      <c r="U41" s="139"/>
+      <c r="V41" s="139"/>
+      <c r="W41" s="139"/>
+      <c r="X41" s="139"/>
+      <c r="Y41" s="139"/>
+      <c r="Z41" s="139"/>
+      <c r="AA41" s="139"/>
+      <c r="AB41" s="139"/>
+      <c r="AC41" s="139"/>
+      <c r="AD41" s="140"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -7414,27 +7463,27 @@
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="135" t="s">
+      <c r="L42" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="136"/>
-      <c r="S42" s="136"/>
-      <c r="T42" s="136"/>
-      <c r="U42" s="136"/>
-      <c r="V42" s="136"/>
-      <c r="W42" s="136"/>
-      <c r="X42" s="136"/>
-      <c r="Y42" s="136"/>
-      <c r="Z42" s="136"/>
-      <c r="AA42" s="136"/>
-      <c r="AB42" s="136"/>
-      <c r="AC42" s="136"/>
-      <c r="AD42" s="137"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="139"/>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="139"/>
+      <c r="R42" s="139"/>
+      <c r="S42" s="139"/>
+      <c r="T42" s="139"/>
+      <c r="U42" s="139"/>
+      <c r="V42" s="139"/>
+      <c r="W42" s="139"/>
+      <c r="X42" s="139"/>
+      <c r="Y42" s="139"/>
+      <c r="Z42" s="139"/>
+      <c r="AA42" s="139"/>
+      <c r="AB42" s="139"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="140"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -7450,27 +7499,27 @@
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
       <c r="K43" s="41"/>
-      <c r="L43" s="135" t="s">
+      <c r="L43" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="136"/>
-      <c r="P43" s="136"/>
-      <c r="Q43" s="136"/>
-      <c r="R43" s="136"/>
-      <c r="S43" s="136"/>
-      <c r="T43" s="136"/>
-      <c r="U43" s="136"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="136"/>
-      <c r="AA43" s="136"/>
-      <c r="AB43" s="136"/>
-      <c r="AC43" s="136"/>
-      <c r="AD43" s="137"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="139"/>
+      <c r="P43" s="139"/>
+      <c r="Q43" s="139"/>
+      <c r="R43" s="139"/>
+      <c r="S43" s="139"/>
+      <c r="T43" s="139"/>
+      <c r="U43" s="139"/>
+      <c r="V43" s="139"/>
+      <c r="W43" s="139"/>
+      <c r="X43" s="139"/>
+      <c r="Y43" s="139"/>
+      <c r="Z43" s="139"/>
+      <c r="AA43" s="139"/>
+      <c r="AB43" s="139"/>
+      <c r="AC43" s="139"/>
+      <c r="AD43" s="140"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -7545,27 +7594,27 @@
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
       <c r="K46" s="62"/>
-      <c r="L46" s="132" t="s">
+      <c r="L46" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="M46" s="133"/>
-      <c r="N46" s="133"/>
-      <c r="O46" s="133"/>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="133"/>
-      <c r="R46" s="133"/>
-      <c r="S46" s="133"/>
-      <c r="T46" s="133"/>
-      <c r="U46" s="133"/>
-      <c r="V46" s="133"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="133"/>
-      <c r="Y46" s="133"/>
-      <c r="Z46" s="133"/>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="133"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="134"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="136"/>
+      <c r="P46" s="136"/>
+      <c r="Q46" s="136"/>
+      <c r="R46" s="136"/>
+      <c r="S46" s="136"/>
+      <c r="T46" s="136"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="136"/>
+      <c r="W46" s="136"/>
+      <c r="X46" s="136"/>
+      <c r="Y46" s="136"/>
+      <c r="Z46" s="136"/>
+      <c r="AA46" s="136"/>
+      <c r="AB46" s="136"/>
+      <c r="AC46" s="136"/>
+      <c r="AD46" s="137"/>
       <c r="AP46" s="5"/>
       <c r="AQ46" s="2"/>
     </row>
@@ -7579,27 +7628,27 @@
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="13"/>
-      <c r="L47" s="135" t="s">
+      <c r="L47" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="M47" s="136"/>
-      <c r="N47" s="136"/>
-      <c r="O47" s="136"/>
-      <c r="P47" s="136"/>
-      <c r="Q47" s="136"/>
-      <c r="R47" s="136"/>
-      <c r="S47" s="136"/>
-      <c r="T47" s="136"/>
-      <c r="U47" s="136"/>
-      <c r="V47" s="136"/>
-      <c r="W47" s="136"/>
-      <c r="X47" s="136"/>
-      <c r="Y47" s="136"/>
-      <c r="Z47" s="136"/>
-      <c r="AA47" s="136"/>
-      <c r="AB47" s="136"/>
-      <c r="AC47" s="136"/>
-      <c r="AD47" s="137"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
+      <c r="P47" s="139"/>
+      <c r="Q47" s="139"/>
+      <c r="R47" s="139"/>
+      <c r="S47" s="139"/>
+      <c r="T47" s="139"/>
+      <c r="U47" s="139"/>
+      <c r="V47" s="139"/>
+      <c r="W47" s="139"/>
+      <c r="X47" s="139"/>
+      <c r="Y47" s="139"/>
+      <c r="Z47" s="139"/>
+      <c r="AA47" s="139"/>
+      <c r="AB47" s="139"/>
+      <c r="AC47" s="139"/>
+      <c r="AD47" s="140"/>
       <c r="AP47" s="5"/>
       <c r="AQ47" s="2"/>
     </row>
@@ -7613,27 +7662,27 @@
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
       <c r="K48" s="41"/>
-      <c r="L48" s="135" t="s">
+      <c r="L48" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="M48" s="136"/>
-      <c r="N48" s="136"/>
-      <c r="O48" s="136"/>
-      <c r="P48" s="136"/>
-      <c r="Q48" s="136"/>
-      <c r="R48" s="136"/>
-      <c r="S48" s="136"/>
-      <c r="T48" s="136"/>
-      <c r="U48" s="136"/>
-      <c r="V48" s="136"/>
-      <c r="W48" s="136"/>
-      <c r="X48" s="136"/>
-      <c r="Y48" s="136"/>
-      <c r="Z48" s="136"/>
-      <c r="AA48" s="136"/>
-      <c r="AB48" s="136"/>
-      <c r="AC48" s="136"/>
-      <c r="AD48" s="137"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="139"/>
+      <c r="P48" s="139"/>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="139"/>
+      <c r="S48" s="139"/>
+      <c r="T48" s="139"/>
+      <c r="U48" s="139"/>
+      <c r="V48" s="139"/>
+      <c r="W48" s="139"/>
+      <c r="X48" s="139"/>
+      <c r="Y48" s="139"/>
+      <c r="Z48" s="139"/>
+      <c r="AA48" s="139"/>
+      <c r="AB48" s="139"/>
+      <c r="AC48" s="139"/>
+      <c r="AD48" s="140"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -10236,30 +10285,30 @@
       <c r="P123" s="61"/>
       <c r="Q123" s="61"/>
       <c r="R123" s="62"/>
-      <c r="S123" s="132" t="s">
+      <c r="S123" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="T123" s="133"/>
-      <c r="U123" s="133"/>
-      <c r="V123" s="133"/>
-      <c r="W123" s="133"/>
-      <c r="X123" s="134"/>
-      <c r="Y123" s="132" t="s">
+      <c r="T123" s="136"/>
+      <c r="U123" s="136"/>
+      <c r="V123" s="136"/>
+      <c r="W123" s="136"/>
+      <c r="X123" s="137"/>
+      <c r="Y123" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="Z123" s="133"/>
-      <c r="AA123" s="133"/>
-      <c r="AB123" s="133"/>
-      <c r="AC123" s="133"/>
-      <c r="AD123" s="134"/>
-      <c r="AE123" s="132" t="s">
+      <c r="Z123" s="136"/>
+      <c r="AA123" s="136"/>
+      <c r="AB123" s="136"/>
+      <c r="AC123" s="136"/>
+      <c r="AD123" s="137"/>
+      <c r="AE123" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AF123" s="133"/>
-      <c r="AG123" s="133"/>
-      <c r="AH123" s="133"/>
-      <c r="AI123" s="133"/>
-      <c r="AJ123" s="134"/>
+      <c r="AF123" s="136"/>
+      <c r="AG123" s="136"/>
+      <c r="AH123" s="136"/>
+      <c r="AI123" s="136"/>
+      <c r="AJ123" s="137"/>
       <c r="AP123" s="5"/>
       <c r="AQ123" s="2"/>
     </row>
@@ -10281,30 +10330,30 @@
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
       <c r="R124" s="13"/>
-      <c r="S124" s="135" t="s">
+      <c r="S124" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="T124" s="136"/>
-      <c r="U124" s="136"/>
-      <c r="V124" s="136"/>
-      <c r="W124" s="136"/>
-      <c r="X124" s="137"/>
-      <c r="Y124" s="135" t="s">
+      <c r="T124" s="139"/>
+      <c r="U124" s="139"/>
+      <c r="V124" s="139"/>
+      <c r="W124" s="139"/>
+      <c r="X124" s="140"/>
+      <c r="Y124" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="Z124" s="136"/>
-      <c r="AA124" s="136"/>
-      <c r="AB124" s="136"/>
-      <c r="AC124" s="136"/>
-      <c r="AD124" s="137"/>
-      <c r="AE124" s="135" t="s">
+      <c r="Z124" s="139"/>
+      <c r="AA124" s="139"/>
+      <c r="AB124" s="139"/>
+      <c r="AC124" s="139"/>
+      <c r="AD124" s="140"/>
+      <c r="AE124" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AF124" s="136"/>
-      <c r="AG124" s="136"/>
-      <c r="AH124" s="136"/>
-      <c r="AI124" s="136"/>
-      <c r="AJ124" s="137"/>
+      <c r="AF124" s="139"/>
+      <c r="AG124" s="139"/>
+      <c r="AH124" s="139"/>
+      <c r="AI124" s="139"/>
+      <c r="AJ124" s="140"/>
       <c r="AP124" s="5"/>
       <c r="AQ124" s="2"/>
     </row>
@@ -10365,30 +10414,30 @@
       <c r="P126" s="19"/>
       <c r="Q126" s="19"/>
       <c r="R126" s="20"/>
-      <c r="S126" s="138" t="s">
+      <c r="S126" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="T126" s="139"/>
-      <c r="U126" s="139"/>
-      <c r="V126" s="139"/>
-      <c r="W126" s="139"/>
-      <c r="X126" s="140"/>
-      <c r="Y126" s="138" t="s">
+      <c r="T126" s="142"/>
+      <c r="U126" s="142"/>
+      <c r="V126" s="142"/>
+      <c r="W126" s="142"/>
+      <c r="X126" s="143"/>
+      <c r="Y126" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="Z126" s="139"/>
-      <c r="AA126" s="139"/>
-      <c r="AB126" s="139"/>
-      <c r="AC126" s="139"/>
-      <c r="AD126" s="140"/>
-      <c r="AE126" s="138" t="s">
+      <c r="Z126" s="142"/>
+      <c r="AA126" s="142"/>
+      <c r="AB126" s="142"/>
+      <c r="AC126" s="142"/>
+      <c r="AD126" s="143"/>
+      <c r="AE126" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="AF126" s="139"/>
-      <c r="AG126" s="139"/>
-      <c r="AH126" s="139"/>
-      <c r="AI126" s="139"/>
-      <c r="AJ126" s="140"/>
+      <c r="AF126" s="142"/>
+      <c r="AG126" s="142"/>
+      <c r="AH126" s="142"/>
+      <c r="AI126" s="142"/>
+      <c r="AJ126" s="143"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11085,22 +11134,22 @@
       <c r="V142" s="124"/>
       <c r="W142" s="124"/>
       <c r="X142" s="125"/>
-      <c r="Y142" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z142" s="121"/>
-      <c r="AA142" s="121"/>
-      <c r="AB142" s="121"/>
-      <c r="AC142" s="121"/>
-      <c r="AD142" s="122"/>
-      <c r="AE142" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF142" s="121"/>
-      <c r="AG142" s="121"/>
-      <c r="AH142" s="121"/>
-      <c r="AI142" s="121"/>
-      <c r="AJ142" s="122"/>
+      <c r="Y142" s="126" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z142" s="127"/>
+      <c r="AA142" s="127"/>
+      <c r="AB142" s="127"/>
+      <c r="AC142" s="127"/>
+      <c r="AD142" s="128"/>
+      <c r="AE142" s="126" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF142" s="127"/>
+      <c r="AG142" s="127"/>
+      <c r="AH142" s="127"/>
+      <c r="AI142" s="127"/>
+      <c r="AJ142" s="128"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -12505,30 +12554,30 @@
       <c r="P174" s="27"/>
       <c r="Q174" s="27"/>
       <c r="R174" s="28"/>
-      <c r="S174" s="126" t="s">
+      <c r="S174" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="127"/>
-      <c r="U174" s="127"/>
-      <c r="V174" s="127"/>
-      <c r="W174" s="127"/>
-      <c r="X174" s="128"/>
-      <c r="Y174" s="129" t="s">
+      <c r="T174" s="130"/>
+      <c r="U174" s="130"/>
+      <c r="V174" s="130"/>
+      <c r="W174" s="130"/>
+      <c r="X174" s="131"/>
+      <c r="Y174" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="Z174" s="130"/>
-      <c r="AA174" s="130"/>
-      <c r="AB174" s="130"/>
-      <c r="AC174" s="130"/>
-      <c r="AD174" s="131"/>
-      <c r="AE174" s="129" t="s">
+      <c r="Z174" s="133"/>
+      <c r="AA174" s="133"/>
+      <c r="AB174" s="133"/>
+      <c r="AC174" s="133"/>
+      <c r="AD174" s="134"/>
+      <c r="AE174" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AF174" s="130"/>
-      <c r="AG174" s="130"/>
-      <c r="AH174" s="130"/>
-      <c r="AI174" s="130"/>
-      <c r="AJ174" s="131"/>
+      <c r="AF174" s="133"/>
+      <c r="AG174" s="133"/>
+      <c r="AH174" s="133"/>
+      <c r="AI174" s="133"/>
+      <c r="AJ174" s="134"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="261">
   <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
@@ -2503,6 +2503,198 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヘンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール設定を追加。</t>
+    <rPh sb="3" eb="5">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール通知設定</t>
+    <rPh sb="3" eb="5">
+      <t>ツウt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗登録リマインダー</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skrumからのお知らせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skrumからの重要なお知らせやサービスの更新情報</t>
+    <rPh sb="8" eb="10">
+      <t>ジュ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウs</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署/チームのメンバーの目標進捗率が一定の値に達した時</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾk</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブsh</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンチョk</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>リt</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッt</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイn</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タッs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署/チームのメンバーがタイムラインに投稿した時</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾk</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブsh</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署/チームのメンバーの進捗状況レポート</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾk</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブsh</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部署/チームの進捗状況レポート</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾk</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適時</t>
+    <rPh sb="0" eb="2">
+      <t>テk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎日</t>
+    <rPh sb="0" eb="2">
+      <t>マイニt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週一回（金曜日）</t>
+    <rPh sb="0" eb="3">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパー管理者</t>
+    <rPh sb="4" eb="7">
+      <t>カンr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（10%ごと）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバック対象者自動抽出レポート</t>
+    <rPh sb="7" eb="10">
+      <t>タイsh</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ジド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週一回（月曜日）</t>
+    <rPh sb="0" eb="3">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2552,7 +2744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2577,8 +2769,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="88">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -3721,11 +3919,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3854,6 +4061,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3881,76 +4160,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5204,6 +5456,131 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>51835</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>129590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38877</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>246224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11676223" y="60001019"/>
+          <a:ext cx="1477348" cy="635001"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72183"/>
+            <a:gd name="adj2" fmla="val -43622"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>48725</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>139440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>35767</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>256074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形吹き出し 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11673113" y="60010869"/>
+          <a:ext cx="1477348" cy="635001"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73060"/>
+            <a:gd name="adj2" fmla="val 29847"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>まずはこの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>つだけ。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5472,7 +5849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5642,10 +6019,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="B9" s="83">
+        <v>42947</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>240</v>
+      </c>
       <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6182,9 +6567,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ244"/>
+  <dimension ref="A1:AQ258"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -6194,15 +6579,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="149"/>
       <c r="H1" s="55"/>
       <c r="I1" s="52" t="s">
         <v>79</v>
@@ -6213,53 +6598,53 @@
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
       <c r="O1" s="54"/>
-      <c r="P1" s="132" t="s">
+      <c r="P1" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="134"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
       <c r="AA1" s="52" t="s">
         <v>74</v>
       </c>
       <c r="AB1" s="50"/>
       <c r="AC1" s="51"/>
-      <c r="AD1" s="129">
+      <c r="AD1" s="153">
         <v>42760</v>
       </c>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="131"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="155"/>
       <c r="AI1" s="52" t="s">
         <v>76</v>
       </c>
       <c r="AJ1" s="53"/>
       <c r="AK1" s="54"/>
-      <c r="AL1" s="120" t="s">
+      <c r="AL1" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="122"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="146"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
       <c r="H2" s="56"/>
       <c r="I2" s="52" t="s">
         <v>80</v>
@@ -6270,41 +6655,41 @@
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="54"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
       <c r="AA2" s="52" t="s">
         <v>75</v>
       </c>
       <c r="AB2" s="50"/>
       <c r="AC2" s="51"/>
-      <c r="AD2" s="129">
-        <v>42929</v>
-      </c>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="131"/>
+      <c r="AD2" s="153">
+        <v>42947</v>
+      </c>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="155"/>
       <c r="AI2" s="52" t="s">
         <v>77</v>
       </c>
       <c r="AJ2" s="53"/>
       <c r="AK2" s="54"/>
-      <c r="AL2" s="120" t="s">
+      <c r="AL2" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="121"/>
-      <c r="AN2" s="121"/>
-      <c r="AO2" s="121"/>
-      <c r="AP2" s="122"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="146"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -10472,30 +10857,30 @@
       <c r="P127" s="19"/>
       <c r="Q127" s="19"/>
       <c r="R127" s="20"/>
-      <c r="S127" s="147" t="s">
+      <c r="S127" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="T127" s="148"/>
-      <c r="U127" s="148"/>
-      <c r="V127" s="148"/>
-      <c r="W127" s="148"/>
-      <c r="X127" s="149"/>
-      <c r="Y127" s="147" t="s">
+      <c r="T127" s="142"/>
+      <c r="U127" s="142"/>
+      <c r="V127" s="142"/>
+      <c r="W127" s="142"/>
+      <c r="X127" s="143"/>
+      <c r="Y127" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="Z127" s="148"/>
-      <c r="AA127" s="148"/>
-      <c r="AB127" s="148"/>
-      <c r="AC127" s="148"/>
-      <c r="AD127" s="149"/>
-      <c r="AE127" s="147" t="s">
+      <c r="Z127" s="142"/>
+      <c r="AA127" s="142"/>
+      <c r="AB127" s="142"/>
+      <c r="AC127" s="142"/>
+      <c r="AD127" s="143"/>
+      <c r="AE127" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="AF127" s="148"/>
-      <c r="AG127" s="148"/>
-      <c r="AH127" s="148"/>
-      <c r="AI127" s="148"/>
-      <c r="AJ127" s="149"/>
+      <c r="AF127" s="142"/>
+      <c r="AG127" s="142"/>
+      <c r="AH127" s="142"/>
+      <c r="AI127" s="142"/>
+      <c r="AJ127" s="143"/>
       <c r="AP127" s="5"/>
       <c r="AQ127" s="2"/>
     </row>
@@ -10517,30 +10902,30 @@
       <c r="P128" s="22"/>
       <c r="Q128" s="22"/>
       <c r="R128" s="23"/>
-      <c r="S128" s="144" t="s">
+      <c r="S128" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="145"/>
-      <c r="U128" s="145"/>
-      <c r="V128" s="145"/>
-      <c r="W128" s="145"/>
-      <c r="X128" s="146"/>
-      <c r="Y128" s="144" t="s">
+      <c r="T128" s="121"/>
+      <c r="U128" s="121"/>
+      <c r="V128" s="121"/>
+      <c r="W128" s="121"/>
+      <c r="X128" s="122"/>
+      <c r="Y128" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="145"/>
-      <c r="AA128" s="145"/>
-      <c r="AB128" s="145"/>
-      <c r="AC128" s="145"/>
-      <c r="AD128" s="146"/>
-      <c r="AE128" s="144" t="s">
+      <c r="Z128" s="121"/>
+      <c r="AA128" s="121"/>
+      <c r="AB128" s="121"/>
+      <c r="AC128" s="121"/>
+      <c r="AD128" s="122"/>
+      <c r="AE128" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="145"/>
-      <c r="AG128" s="145"/>
-      <c r="AH128" s="145"/>
-      <c r="AI128" s="145"/>
-      <c r="AJ128" s="146"/>
+      <c r="AF128" s="121"/>
+      <c r="AG128" s="121"/>
+      <c r="AH128" s="121"/>
+      <c r="AI128" s="121"/>
+      <c r="AJ128" s="122"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -10564,30 +10949,30 @@
       <c r="P129" s="22"/>
       <c r="Q129" s="22"/>
       <c r="R129" s="23"/>
-      <c r="S129" s="144" t="s">
+      <c r="S129" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="145"/>
-      <c r="U129" s="145"/>
-      <c r="V129" s="145"/>
-      <c r="W129" s="145"/>
-      <c r="X129" s="146"/>
-      <c r="Y129" s="144" t="s">
+      <c r="T129" s="121"/>
+      <c r="U129" s="121"/>
+      <c r="V129" s="121"/>
+      <c r="W129" s="121"/>
+      <c r="X129" s="122"/>
+      <c r="Y129" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="145"/>
-      <c r="AA129" s="145"/>
-      <c r="AB129" s="145"/>
-      <c r="AC129" s="145"/>
-      <c r="AD129" s="146"/>
-      <c r="AE129" s="144" t="s">
+      <c r="Z129" s="121"/>
+      <c r="AA129" s="121"/>
+      <c r="AB129" s="121"/>
+      <c r="AC129" s="121"/>
+      <c r="AD129" s="122"/>
+      <c r="AE129" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="145"/>
-      <c r="AG129" s="145"/>
-      <c r="AH129" s="145"/>
-      <c r="AI129" s="145"/>
-      <c r="AJ129" s="146"/>
+      <c r="AF129" s="121"/>
+      <c r="AG129" s="121"/>
+      <c r="AH129" s="121"/>
+      <c r="AI129" s="121"/>
+      <c r="AJ129" s="122"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -10605,30 +10990,30 @@
       <c r="P130" s="22"/>
       <c r="Q130" s="22"/>
       <c r="R130" s="23"/>
-      <c r="S130" s="144" t="s">
+      <c r="S130" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="145"/>
-      <c r="U130" s="145"/>
-      <c r="V130" s="145"/>
-      <c r="W130" s="145"/>
-      <c r="X130" s="146"/>
-      <c r="Y130" s="144" t="s">
+      <c r="T130" s="121"/>
+      <c r="U130" s="121"/>
+      <c r="V130" s="121"/>
+      <c r="W130" s="121"/>
+      <c r="X130" s="122"/>
+      <c r="Y130" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z130" s="145"/>
-      <c r="AA130" s="145"/>
-      <c r="AB130" s="145"/>
-      <c r="AC130" s="145"/>
-      <c r="AD130" s="146"/>
-      <c r="AE130" s="144" t="s">
+      <c r="Z130" s="121"/>
+      <c r="AA130" s="121"/>
+      <c r="AB130" s="121"/>
+      <c r="AC130" s="121"/>
+      <c r="AD130" s="122"/>
+      <c r="AE130" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="145"/>
-      <c r="AG130" s="145"/>
-      <c r="AH130" s="145"/>
-      <c r="AI130" s="145"/>
-      <c r="AJ130" s="146"/>
+      <c r="AF130" s="121"/>
+      <c r="AG130" s="121"/>
+      <c r="AH130" s="121"/>
+      <c r="AI130" s="121"/>
+      <c r="AJ130" s="122"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -10650,30 +11035,30 @@
       <c r="P131" s="22"/>
       <c r="Q131" s="22"/>
       <c r="R131" s="23"/>
-      <c r="S131" s="144" t="s">
+      <c r="S131" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="145"/>
-      <c r="U131" s="145"/>
-      <c r="V131" s="145"/>
-      <c r="W131" s="145"/>
-      <c r="X131" s="146"/>
-      <c r="Y131" s="144" t="s">
+      <c r="T131" s="121"/>
+      <c r="U131" s="121"/>
+      <c r="V131" s="121"/>
+      <c r="W131" s="121"/>
+      <c r="X131" s="122"/>
+      <c r="Y131" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="145"/>
-      <c r="AA131" s="145"/>
-      <c r="AB131" s="145"/>
-      <c r="AC131" s="145"/>
-      <c r="AD131" s="146"/>
-      <c r="AE131" s="144" t="s">
+      <c r="Z131" s="121"/>
+      <c r="AA131" s="121"/>
+      <c r="AB131" s="121"/>
+      <c r="AC131" s="121"/>
+      <c r="AD131" s="122"/>
+      <c r="AE131" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="145"/>
-      <c r="AG131" s="145"/>
-      <c r="AH131" s="145"/>
-      <c r="AI131" s="145"/>
-      <c r="AJ131" s="146"/>
+      <c r="AF131" s="121"/>
+      <c r="AG131" s="121"/>
+      <c r="AH131" s="121"/>
+      <c r="AI131" s="121"/>
+      <c r="AJ131" s="122"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -10697,30 +11082,30 @@
       <c r="P132" s="22"/>
       <c r="Q132" s="22"/>
       <c r="R132" s="25"/>
-      <c r="S132" s="144" t="s">
+      <c r="S132" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="145"/>
-      <c r="U132" s="145"/>
-      <c r="V132" s="145"/>
-      <c r="W132" s="145"/>
-      <c r="X132" s="146"/>
-      <c r="Y132" s="144" t="s">
+      <c r="T132" s="121"/>
+      <c r="U132" s="121"/>
+      <c r="V132" s="121"/>
+      <c r="W132" s="121"/>
+      <c r="X132" s="122"/>
+      <c r="Y132" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Z132" s="145"/>
-      <c r="AA132" s="145"/>
-      <c r="AB132" s="145"/>
-      <c r="AC132" s="145"/>
-      <c r="AD132" s="146"/>
-      <c r="AE132" s="144" t="s">
+      <c r="Z132" s="121"/>
+      <c r="AA132" s="121"/>
+      <c r="AB132" s="121"/>
+      <c r="AC132" s="121"/>
+      <c r="AD132" s="122"/>
+      <c r="AE132" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="145"/>
-      <c r="AG132" s="145"/>
-      <c r="AH132" s="145"/>
-      <c r="AI132" s="145"/>
-      <c r="AJ132" s="146"/>
+      <c r="AF132" s="121"/>
+      <c r="AG132" s="121"/>
+      <c r="AH132" s="121"/>
+      <c r="AI132" s="121"/>
+      <c r="AJ132" s="122"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -10738,30 +11123,30 @@
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
       <c r="R133" s="25"/>
-      <c r="S133" s="144" t="s">
+      <c r="S133" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T133" s="145"/>
-      <c r="U133" s="145"/>
-      <c r="V133" s="145"/>
-      <c r="W133" s="145"/>
-      <c r="X133" s="146"/>
-      <c r="Y133" s="144" t="s">
+      <c r="T133" s="121"/>
+      <c r="U133" s="121"/>
+      <c r="V133" s="121"/>
+      <c r="W133" s="121"/>
+      <c r="X133" s="122"/>
+      <c r="Y133" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z133" s="145"/>
-      <c r="AA133" s="145"/>
-      <c r="AB133" s="145"/>
-      <c r="AC133" s="145"/>
-      <c r="AD133" s="146"/>
-      <c r="AE133" s="144" t="s">
+      <c r="Z133" s="121"/>
+      <c r="AA133" s="121"/>
+      <c r="AB133" s="121"/>
+      <c r="AC133" s="121"/>
+      <c r="AD133" s="122"/>
+      <c r="AE133" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF133" s="145"/>
-      <c r="AG133" s="145"/>
-      <c r="AH133" s="145"/>
-      <c r="AI133" s="145"/>
-      <c r="AJ133" s="146"/>
+      <c r="AF133" s="121"/>
+      <c r="AG133" s="121"/>
+      <c r="AH133" s="121"/>
+      <c r="AI133" s="121"/>
+      <c r="AJ133" s="122"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -10783,30 +11168,30 @@
       <c r="P134" s="22"/>
       <c r="Q134" s="22"/>
       <c r="R134" s="25"/>
-      <c r="S134" s="144" t="s">
+      <c r="S134" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="145"/>
-      <c r="U134" s="145"/>
-      <c r="V134" s="145"/>
-      <c r="W134" s="145"/>
-      <c r="X134" s="146"/>
-      <c r="Y134" s="144" t="s">
+      <c r="T134" s="121"/>
+      <c r="U134" s="121"/>
+      <c r="V134" s="121"/>
+      <c r="W134" s="121"/>
+      <c r="X134" s="122"/>
+      <c r="Y134" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z134" s="145"/>
-      <c r="AA134" s="145"/>
-      <c r="AB134" s="145"/>
-      <c r="AC134" s="145"/>
-      <c r="AD134" s="146"/>
-      <c r="AE134" s="144" t="s">
+      <c r="Z134" s="121"/>
+      <c r="AA134" s="121"/>
+      <c r="AB134" s="121"/>
+      <c r="AC134" s="121"/>
+      <c r="AD134" s="122"/>
+      <c r="AE134" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="145"/>
-      <c r="AG134" s="145"/>
-      <c r="AH134" s="145"/>
-      <c r="AI134" s="145"/>
-      <c r="AJ134" s="146"/>
+      <c r="AF134" s="121"/>
+      <c r="AG134" s="121"/>
+      <c r="AH134" s="121"/>
+      <c r="AI134" s="121"/>
+      <c r="AJ134" s="122"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -10828,30 +11213,30 @@
       <c r="P135" s="22"/>
       <c r="Q135" s="22"/>
       <c r="R135" s="25"/>
-      <c r="S135" s="144" t="s">
+      <c r="S135" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="145"/>
-      <c r="U135" s="145"/>
-      <c r="V135" s="145"/>
-      <c r="W135" s="145"/>
-      <c r="X135" s="146"/>
-      <c r="Y135" s="144" t="s">
+      <c r="T135" s="121"/>
+      <c r="U135" s="121"/>
+      <c r="V135" s="121"/>
+      <c r="W135" s="121"/>
+      <c r="X135" s="122"/>
+      <c r="Y135" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="145"/>
-      <c r="AA135" s="145"/>
-      <c r="AB135" s="145"/>
-      <c r="AC135" s="145"/>
-      <c r="AD135" s="146"/>
-      <c r="AE135" s="141" t="s">
+      <c r="Z135" s="121"/>
+      <c r="AA135" s="121"/>
+      <c r="AB135" s="121"/>
+      <c r="AC135" s="121"/>
+      <c r="AD135" s="122"/>
+      <c r="AE135" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AF135" s="142"/>
-      <c r="AG135" s="142"/>
-      <c r="AH135" s="142"/>
-      <c r="AI135" s="142"/>
-      <c r="AJ135" s="143"/>
+      <c r="AF135" s="124"/>
+      <c r="AG135" s="124"/>
+      <c r="AH135" s="124"/>
+      <c r="AI135" s="124"/>
+      <c r="AJ135" s="125"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -10875,30 +11260,30 @@
       <c r="P136" s="22"/>
       <c r="Q136" s="22"/>
       <c r="R136" s="25"/>
-      <c r="S136" s="144" t="s">
+      <c r="S136" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="145"/>
-      <c r="U136" s="145"/>
-      <c r="V136" s="145"/>
-      <c r="W136" s="145"/>
-      <c r="X136" s="146"/>
-      <c r="Y136" s="144" t="s">
+      <c r="T136" s="121"/>
+      <c r="U136" s="121"/>
+      <c r="V136" s="121"/>
+      <c r="W136" s="121"/>
+      <c r="X136" s="122"/>
+      <c r="Y136" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Z136" s="145"/>
-      <c r="AA136" s="145"/>
-      <c r="AB136" s="145"/>
-      <c r="AC136" s="145"/>
-      <c r="AD136" s="146"/>
-      <c r="AE136" s="144" t="s">
+      <c r="Z136" s="121"/>
+      <c r="AA136" s="121"/>
+      <c r="AB136" s="121"/>
+      <c r="AC136" s="121"/>
+      <c r="AD136" s="122"/>
+      <c r="AE136" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="145"/>
-      <c r="AG136" s="145"/>
-      <c r="AH136" s="145"/>
-      <c r="AI136" s="145"/>
-      <c r="AJ136" s="146"/>
+      <c r="AF136" s="121"/>
+      <c r="AG136" s="121"/>
+      <c r="AH136" s="121"/>
+      <c r="AI136" s="121"/>
+      <c r="AJ136" s="122"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -10916,30 +11301,30 @@
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
       <c r="R137" s="25"/>
-      <c r="S137" s="144" t="s">
+      <c r="S137" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T137" s="145"/>
-      <c r="U137" s="145"/>
-      <c r="V137" s="145"/>
-      <c r="W137" s="145"/>
-      <c r="X137" s="146"/>
-      <c r="Y137" s="144" t="s">
+      <c r="T137" s="121"/>
+      <c r="U137" s="121"/>
+      <c r="V137" s="121"/>
+      <c r="W137" s="121"/>
+      <c r="X137" s="122"/>
+      <c r="Y137" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z137" s="145"/>
-      <c r="AA137" s="145"/>
-      <c r="AB137" s="145"/>
-      <c r="AC137" s="145"/>
-      <c r="AD137" s="146"/>
-      <c r="AE137" s="144" t="s">
+      <c r="Z137" s="121"/>
+      <c r="AA137" s="121"/>
+      <c r="AB137" s="121"/>
+      <c r="AC137" s="121"/>
+      <c r="AD137" s="122"/>
+      <c r="AE137" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF137" s="145"/>
-      <c r="AG137" s="145"/>
-      <c r="AH137" s="145"/>
-      <c r="AI137" s="145"/>
-      <c r="AJ137" s="146"/>
+      <c r="AF137" s="121"/>
+      <c r="AG137" s="121"/>
+      <c r="AH137" s="121"/>
+      <c r="AI137" s="121"/>
+      <c r="AJ137" s="122"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -10961,30 +11346,30 @@
       <c r="P138" s="22"/>
       <c r="Q138" s="22"/>
       <c r="R138" s="25"/>
-      <c r="S138" s="144" t="s">
+      <c r="S138" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="145"/>
-      <c r="U138" s="145"/>
-      <c r="V138" s="145"/>
-      <c r="W138" s="145"/>
-      <c r="X138" s="146"/>
-      <c r="Y138" s="144" t="s">
+      <c r="T138" s="121"/>
+      <c r="U138" s="121"/>
+      <c r="V138" s="121"/>
+      <c r="W138" s="121"/>
+      <c r="X138" s="122"/>
+      <c r="Y138" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z138" s="145"/>
-      <c r="AA138" s="145"/>
-      <c r="AB138" s="145"/>
-      <c r="AC138" s="145"/>
-      <c r="AD138" s="146"/>
-      <c r="AE138" s="144" t="s">
+      <c r="Z138" s="121"/>
+      <c r="AA138" s="121"/>
+      <c r="AB138" s="121"/>
+      <c r="AC138" s="121"/>
+      <c r="AD138" s="122"/>
+      <c r="AE138" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="145"/>
-      <c r="AG138" s="145"/>
-      <c r="AH138" s="145"/>
-      <c r="AI138" s="145"/>
-      <c r="AJ138" s="146"/>
+      <c r="AF138" s="121"/>
+      <c r="AG138" s="121"/>
+      <c r="AH138" s="121"/>
+      <c r="AI138" s="121"/>
+      <c r="AJ138" s="122"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11006,30 +11391,30 @@
       <c r="P139" s="22"/>
       <c r="Q139" s="22"/>
       <c r="R139" s="25"/>
-      <c r="S139" s="144" t="s">
+      <c r="S139" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="145"/>
-      <c r="U139" s="145"/>
-      <c r="V139" s="145"/>
-      <c r="W139" s="145"/>
-      <c r="X139" s="146"/>
-      <c r="Y139" s="144" t="s">
+      <c r="T139" s="121"/>
+      <c r="U139" s="121"/>
+      <c r="V139" s="121"/>
+      <c r="W139" s="121"/>
+      <c r="X139" s="122"/>
+      <c r="Y139" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="145"/>
-      <c r="AA139" s="145"/>
-      <c r="AB139" s="145"/>
-      <c r="AC139" s="145"/>
-      <c r="AD139" s="146"/>
-      <c r="AE139" s="141" t="s">
+      <c r="Z139" s="121"/>
+      <c r="AA139" s="121"/>
+      <c r="AB139" s="121"/>
+      <c r="AC139" s="121"/>
+      <c r="AD139" s="122"/>
+      <c r="AE139" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AF139" s="142"/>
-      <c r="AG139" s="142"/>
-      <c r="AH139" s="142"/>
-      <c r="AI139" s="142"/>
-      <c r="AJ139" s="143"/>
+      <c r="AF139" s="124"/>
+      <c r="AG139" s="124"/>
+      <c r="AH139" s="124"/>
+      <c r="AI139" s="124"/>
+      <c r="AJ139" s="125"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11053,30 +11438,30 @@
       <c r="P140" s="22"/>
       <c r="Q140" s="22"/>
       <c r="R140" s="25"/>
-      <c r="S140" s="144" t="s">
+      <c r="S140" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="145"/>
-      <c r="U140" s="145"/>
-      <c r="V140" s="145"/>
-      <c r="W140" s="145"/>
-      <c r="X140" s="146"/>
-      <c r="Y140" s="144" t="s">
+      <c r="T140" s="121"/>
+      <c r="U140" s="121"/>
+      <c r="V140" s="121"/>
+      <c r="W140" s="121"/>
+      <c r="X140" s="122"/>
+      <c r="Y140" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Z140" s="145"/>
-      <c r="AA140" s="145"/>
-      <c r="AB140" s="145"/>
-      <c r="AC140" s="145"/>
-      <c r="AD140" s="146"/>
-      <c r="AE140" s="144" t="s">
+      <c r="Z140" s="121"/>
+      <c r="AA140" s="121"/>
+      <c r="AB140" s="121"/>
+      <c r="AC140" s="121"/>
+      <c r="AD140" s="122"/>
+      <c r="AE140" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="145"/>
-      <c r="AG140" s="145"/>
-      <c r="AH140" s="145"/>
-      <c r="AI140" s="145"/>
-      <c r="AJ140" s="146"/>
+      <c r="AF140" s="121"/>
+      <c r="AG140" s="121"/>
+      <c r="AH140" s="121"/>
+      <c r="AI140" s="121"/>
+      <c r="AJ140" s="122"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11094,30 +11479,30 @@
       <c r="P141" s="22"/>
       <c r="Q141" s="22"/>
       <c r="R141" s="25"/>
-      <c r="S141" s="144" t="s">
+      <c r="S141" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="145"/>
-      <c r="U141" s="145"/>
-      <c r="V141" s="145"/>
-      <c r="W141" s="145"/>
-      <c r="X141" s="146"/>
-      <c r="Y141" s="144" t="s">
+      <c r="T141" s="121"/>
+      <c r="U141" s="121"/>
+      <c r="V141" s="121"/>
+      <c r="W141" s="121"/>
+      <c r="X141" s="122"/>
+      <c r="Y141" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z141" s="145"/>
-      <c r="AA141" s="145"/>
-      <c r="AB141" s="145"/>
-      <c r="AC141" s="145"/>
-      <c r="AD141" s="146"/>
-      <c r="AE141" s="144" t="s">
+      <c r="Z141" s="121"/>
+      <c r="AA141" s="121"/>
+      <c r="AB141" s="121"/>
+      <c r="AC141" s="121"/>
+      <c r="AD141" s="122"/>
+      <c r="AE141" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF141" s="145"/>
-      <c r="AG141" s="145"/>
-      <c r="AH141" s="145"/>
-      <c r="AI141" s="145"/>
-      <c r="AJ141" s="146"/>
+      <c r="AF141" s="121"/>
+      <c r="AG141" s="121"/>
+      <c r="AH141" s="121"/>
+      <c r="AI141" s="121"/>
+      <c r="AJ141" s="122"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11139,30 +11524,30 @@
       <c r="P142" s="22"/>
       <c r="Q142" s="22"/>
       <c r="R142" s="25"/>
-      <c r="S142" s="144" t="s">
+      <c r="S142" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="145"/>
-      <c r="U142" s="145"/>
-      <c r="V142" s="145"/>
-      <c r="W142" s="145"/>
-      <c r="X142" s="146"/>
-      <c r="Y142" s="144" t="s">
+      <c r="T142" s="121"/>
+      <c r="U142" s="121"/>
+      <c r="V142" s="121"/>
+      <c r="W142" s="121"/>
+      <c r="X142" s="122"/>
+      <c r="Y142" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z142" s="145"/>
-      <c r="AA142" s="145"/>
-      <c r="AB142" s="145"/>
-      <c r="AC142" s="145"/>
-      <c r="AD142" s="146"/>
-      <c r="AE142" s="144" t="s">
+      <c r="Z142" s="121"/>
+      <c r="AA142" s="121"/>
+      <c r="AB142" s="121"/>
+      <c r="AC142" s="121"/>
+      <c r="AD142" s="122"/>
+      <c r="AE142" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="145"/>
-      <c r="AG142" s="145"/>
-      <c r="AH142" s="145"/>
-      <c r="AI142" s="145"/>
-      <c r="AJ142" s="146"/>
+      <c r="AF142" s="121"/>
+      <c r="AG142" s="121"/>
+      <c r="AH142" s="121"/>
+      <c r="AI142" s="121"/>
+      <c r="AJ142" s="122"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11184,30 +11569,30 @@
       <c r="P143" s="88"/>
       <c r="Q143" s="88"/>
       <c r="R143" s="89"/>
-      <c r="S143" s="141" t="s">
+      <c r="S143" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="T143" s="142"/>
-      <c r="U143" s="142"/>
-      <c r="V143" s="142"/>
-      <c r="W143" s="142"/>
-      <c r="X143" s="143"/>
-      <c r="Y143" s="156" t="s">
+      <c r="T143" s="124"/>
+      <c r="U143" s="124"/>
+      <c r="V143" s="124"/>
+      <c r="W143" s="124"/>
+      <c r="X143" s="125"/>
+      <c r="Y143" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="Z143" s="157"/>
-      <c r="AA143" s="157"/>
-      <c r="AB143" s="157"/>
-      <c r="AC143" s="157"/>
-      <c r="AD143" s="158"/>
-      <c r="AE143" s="156" t="s">
+      <c r="Z143" s="127"/>
+      <c r="AA143" s="127"/>
+      <c r="AB143" s="127"/>
+      <c r="AC143" s="127"/>
+      <c r="AD143" s="128"/>
+      <c r="AE143" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="AF143" s="157"/>
-      <c r="AG143" s="157"/>
-      <c r="AH143" s="157"/>
-      <c r="AI143" s="157"/>
-      <c r="AJ143" s="158"/>
+      <c r="AF143" s="127"/>
+      <c r="AG143" s="127"/>
+      <c r="AH143" s="127"/>
+      <c r="AI143" s="127"/>
+      <c r="AJ143" s="128"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11231,30 +11616,30 @@
       <c r="P144" s="85"/>
       <c r="Q144" s="85"/>
       <c r="R144" s="86"/>
-      <c r="S144" s="141" t="s">
+      <c r="S144" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="142"/>
-      <c r="U144" s="142"/>
-      <c r="V144" s="142"/>
-      <c r="W144" s="142"/>
-      <c r="X144" s="143"/>
-      <c r="Y144" s="144" t="s">
+      <c r="T144" s="124"/>
+      <c r="U144" s="124"/>
+      <c r="V144" s="124"/>
+      <c r="W144" s="124"/>
+      <c r="X144" s="125"/>
+      <c r="Y144" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Z144" s="145"/>
-      <c r="AA144" s="145"/>
-      <c r="AB144" s="145"/>
-      <c r="AC144" s="145"/>
-      <c r="AD144" s="146"/>
-      <c r="AE144" s="144" t="s">
+      <c r="Z144" s="121"/>
+      <c r="AA144" s="121"/>
+      <c r="AB144" s="121"/>
+      <c r="AC144" s="121"/>
+      <c r="AD144" s="122"/>
+      <c r="AE144" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="145"/>
-      <c r="AG144" s="145"/>
-      <c r="AH144" s="145"/>
-      <c r="AI144" s="145"/>
-      <c r="AJ144" s="146"/>
+      <c r="AF144" s="121"/>
+      <c r="AG144" s="121"/>
+      <c r="AH144" s="121"/>
+      <c r="AI144" s="121"/>
+      <c r="AJ144" s="122"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -11272,30 +11657,30 @@
       <c r="P145" s="22"/>
       <c r="Q145" s="22"/>
       <c r="R145" s="25"/>
-      <c r="S145" s="141" t="s">
+      <c r="S145" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="142"/>
-      <c r="U145" s="142"/>
-      <c r="V145" s="142"/>
-      <c r="W145" s="142"/>
-      <c r="X145" s="143"/>
-      <c r="Y145" s="141" t="s">
+      <c r="T145" s="124"/>
+      <c r="U145" s="124"/>
+      <c r="V145" s="124"/>
+      <c r="W145" s="124"/>
+      <c r="X145" s="125"/>
+      <c r="Y145" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="142"/>
-      <c r="AA145" s="142"/>
-      <c r="AB145" s="142"/>
-      <c r="AC145" s="142"/>
-      <c r="AD145" s="143"/>
-      <c r="AE145" s="144" t="s">
+      <c r="Z145" s="124"/>
+      <c r="AA145" s="124"/>
+      <c r="AB145" s="124"/>
+      <c r="AC145" s="124"/>
+      <c r="AD145" s="125"/>
+      <c r="AE145" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF145" s="145"/>
-      <c r="AG145" s="145"/>
-      <c r="AH145" s="145"/>
-      <c r="AI145" s="145"/>
-      <c r="AJ145" s="146"/>
+      <c r="AF145" s="121"/>
+      <c r="AG145" s="121"/>
+      <c r="AH145" s="121"/>
+      <c r="AI145" s="121"/>
+      <c r="AJ145" s="122"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -11317,30 +11702,30 @@
       <c r="P146" s="22"/>
       <c r="Q146" s="22"/>
       <c r="R146" s="25"/>
-      <c r="S146" s="141" t="s">
+      <c r="S146" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="142"/>
-      <c r="U146" s="142"/>
-      <c r="V146" s="142"/>
-      <c r="W146" s="142"/>
-      <c r="X146" s="143"/>
-      <c r="Y146" s="141" t="s">
+      <c r="T146" s="124"/>
+      <c r="U146" s="124"/>
+      <c r="V146" s="124"/>
+      <c r="W146" s="124"/>
+      <c r="X146" s="125"/>
+      <c r="Y146" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z146" s="142"/>
-      <c r="AA146" s="142"/>
-      <c r="AB146" s="142"/>
-      <c r="AC146" s="142"/>
-      <c r="AD146" s="143"/>
-      <c r="AE146" s="144" t="s">
+      <c r="Z146" s="124"/>
+      <c r="AA146" s="124"/>
+      <c r="AB146" s="124"/>
+      <c r="AC146" s="124"/>
+      <c r="AD146" s="125"/>
+      <c r="AE146" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="145"/>
-      <c r="AG146" s="145"/>
-      <c r="AH146" s="145"/>
-      <c r="AI146" s="145"/>
-      <c r="AJ146" s="146"/>
+      <c r="AF146" s="121"/>
+      <c r="AG146" s="121"/>
+      <c r="AH146" s="121"/>
+      <c r="AI146" s="121"/>
+      <c r="AJ146" s="122"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -11364,30 +11749,30 @@
       <c r="P147" s="22"/>
       <c r="Q147" s="22"/>
       <c r="R147" s="25"/>
-      <c r="S147" s="141" t="s">
+      <c r="S147" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="142"/>
-      <c r="U147" s="142"/>
-      <c r="V147" s="142"/>
-      <c r="W147" s="142"/>
-      <c r="X147" s="143"/>
-      <c r="Y147" s="141" t="s">
+      <c r="T147" s="124"/>
+      <c r="U147" s="124"/>
+      <c r="V147" s="124"/>
+      <c r="W147" s="124"/>
+      <c r="X147" s="125"/>
+      <c r="Y147" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="142"/>
-      <c r="AA147" s="142"/>
-      <c r="AB147" s="142"/>
-      <c r="AC147" s="142"/>
-      <c r="AD147" s="143"/>
-      <c r="AE147" s="144" t="s">
+      <c r="Z147" s="124"/>
+      <c r="AA147" s="124"/>
+      <c r="AB147" s="124"/>
+      <c r="AC147" s="124"/>
+      <c r="AD147" s="125"/>
+      <c r="AE147" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="145"/>
-      <c r="AG147" s="145"/>
-      <c r="AH147" s="145"/>
-      <c r="AI147" s="145"/>
-      <c r="AJ147" s="146"/>
+      <c r="AF147" s="121"/>
+      <c r="AG147" s="121"/>
+      <c r="AH147" s="121"/>
+      <c r="AI147" s="121"/>
+      <c r="AJ147" s="122"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -11405,30 +11790,30 @@
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
       <c r="R148" s="25"/>
-      <c r="S148" s="141" t="s">
+      <c r="S148" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="142"/>
-      <c r="U148" s="142"/>
-      <c r="V148" s="142"/>
-      <c r="W148" s="142"/>
-      <c r="X148" s="143"/>
-      <c r="Y148" s="141" t="s">
+      <c r="T148" s="124"/>
+      <c r="U148" s="124"/>
+      <c r="V148" s="124"/>
+      <c r="W148" s="124"/>
+      <c r="X148" s="125"/>
+      <c r="Y148" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="142"/>
-      <c r="AA148" s="142"/>
-      <c r="AB148" s="142"/>
-      <c r="AC148" s="142"/>
-      <c r="AD148" s="143"/>
-      <c r="AE148" s="144" t="s">
+      <c r="Z148" s="124"/>
+      <c r="AA148" s="124"/>
+      <c r="AB148" s="124"/>
+      <c r="AC148" s="124"/>
+      <c r="AD148" s="125"/>
+      <c r="AE148" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF148" s="145"/>
-      <c r="AG148" s="145"/>
-      <c r="AH148" s="145"/>
-      <c r="AI148" s="145"/>
-      <c r="AJ148" s="146"/>
+      <c r="AF148" s="121"/>
+      <c r="AG148" s="121"/>
+      <c r="AH148" s="121"/>
+      <c r="AI148" s="121"/>
+      <c r="AJ148" s="122"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -11450,30 +11835,30 @@
       <c r="P149" s="22"/>
       <c r="Q149" s="22"/>
       <c r="R149" s="25"/>
-      <c r="S149" s="141" t="s">
+      <c r="S149" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="142"/>
-      <c r="U149" s="142"/>
-      <c r="V149" s="142"/>
-      <c r="W149" s="142"/>
-      <c r="X149" s="143"/>
-      <c r="Y149" s="141" t="s">
+      <c r="T149" s="124"/>
+      <c r="U149" s="124"/>
+      <c r="V149" s="124"/>
+      <c r="W149" s="124"/>
+      <c r="X149" s="125"/>
+      <c r="Y149" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="142"/>
-      <c r="AA149" s="142"/>
-      <c r="AB149" s="142"/>
-      <c r="AC149" s="142"/>
-      <c r="AD149" s="143"/>
-      <c r="AE149" s="144" t="s">
+      <c r="Z149" s="124"/>
+      <c r="AA149" s="124"/>
+      <c r="AB149" s="124"/>
+      <c r="AC149" s="124"/>
+      <c r="AD149" s="125"/>
+      <c r="AE149" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF149" s="145"/>
-      <c r="AG149" s="145"/>
-      <c r="AH149" s="145"/>
-      <c r="AI149" s="145"/>
-      <c r="AJ149" s="146"/>
+      <c r="AF149" s="121"/>
+      <c r="AG149" s="121"/>
+      <c r="AH149" s="121"/>
+      <c r="AI149" s="121"/>
+      <c r="AJ149" s="122"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -11497,30 +11882,30 @@
       <c r="P150" s="22"/>
       <c r="Q150" s="22"/>
       <c r="R150" s="25"/>
-      <c r="S150" s="141" t="s">
+      <c r="S150" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="142"/>
-      <c r="U150" s="142"/>
-      <c r="V150" s="142"/>
-      <c r="W150" s="142"/>
-      <c r="X150" s="143"/>
-      <c r="Y150" s="141" t="s">
+      <c r="T150" s="124"/>
+      <c r="U150" s="124"/>
+      <c r="V150" s="124"/>
+      <c r="W150" s="124"/>
+      <c r="X150" s="125"/>
+      <c r="Y150" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="142"/>
-      <c r="AA150" s="142"/>
-      <c r="AB150" s="142"/>
-      <c r="AC150" s="142"/>
-      <c r="AD150" s="143"/>
-      <c r="AE150" s="144" t="s">
+      <c r="Z150" s="124"/>
+      <c r="AA150" s="124"/>
+      <c r="AB150" s="124"/>
+      <c r="AC150" s="124"/>
+      <c r="AD150" s="125"/>
+      <c r="AE150" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF150" s="145"/>
-      <c r="AG150" s="145"/>
-      <c r="AH150" s="145"/>
-      <c r="AI150" s="145"/>
-      <c r="AJ150" s="146"/>
+      <c r="AF150" s="121"/>
+      <c r="AG150" s="121"/>
+      <c r="AH150" s="121"/>
+      <c r="AI150" s="121"/>
+      <c r="AJ150" s="122"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -11540,30 +11925,30 @@
       <c r="P151" s="22"/>
       <c r="Q151" s="22"/>
       <c r="R151" s="25"/>
-      <c r="S151" s="141" t="s">
+      <c r="S151" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="142"/>
-      <c r="U151" s="142"/>
-      <c r="V151" s="142"/>
-      <c r="W151" s="142"/>
-      <c r="X151" s="143"/>
-      <c r="Y151" s="141" t="s">
+      <c r="T151" s="124"/>
+      <c r="U151" s="124"/>
+      <c r="V151" s="124"/>
+      <c r="W151" s="124"/>
+      <c r="X151" s="125"/>
+      <c r="Y151" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="142"/>
-      <c r="AA151" s="142"/>
-      <c r="AB151" s="142"/>
-      <c r="AC151" s="142"/>
-      <c r="AD151" s="143"/>
-      <c r="AE151" s="144" t="s">
+      <c r="Z151" s="124"/>
+      <c r="AA151" s="124"/>
+      <c r="AB151" s="124"/>
+      <c r="AC151" s="124"/>
+      <c r="AD151" s="125"/>
+      <c r="AE151" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF151" s="145"/>
-      <c r="AG151" s="145"/>
-      <c r="AH151" s="145"/>
-      <c r="AI151" s="145"/>
-      <c r="AJ151" s="146"/>
+      <c r="AF151" s="121"/>
+      <c r="AG151" s="121"/>
+      <c r="AH151" s="121"/>
+      <c r="AI151" s="121"/>
+      <c r="AJ151" s="122"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -11585,30 +11970,30 @@
       <c r="P152" s="22"/>
       <c r="Q152" s="22"/>
       <c r="R152" s="25"/>
-      <c r="S152" s="141" t="s">
+      <c r="S152" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="142"/>
-      <c r="U152" s="142"/>
-      <c r="V152" s="142"/>
-      <c r="W152" s="142"/>
-      <c r="X152" s="143"/>
-      <c r="Y152" s="141" t="s">
+      <c r="T152" s="124"/>
+      <c r="U152" s="124"/>
+      <c r="V152" s="124"/>
+      <c r="W152" s="124"/>
+      <c r="X152" s="125"/>
+      <c r="Y152" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="142"/>
-      <c r="AA152" s="142"/>
-      <c r="AB152" s="142"/>
-      <c r="AC152" s="142"/>
-      <c r="AD152" s="143"/>
-      <c r="AE152" s="144" t="s">
+      <c r="Z152" s="124"/>
+      <c r="AA152" s="124"/>
+      <c r="AB152" s="124"/>
+      <c r="AC152" s="124"/>
+      <c r="AD152" s="125"/>
+      <c r="AE152" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF152" s="145"/>
-      <c r="AG152" s="145"/>
-      <c r="AH152" s="145"/>
-      <c r="AI152" s="145"/>
-      <c r="AJ152" s="146"/>
+      <c r="AF152" s="121"/>
+      <c r="AG152" s="121"/>
+      <c r="AH152" s="121"/>
+      <c r="AI152" s="121"/>
+      <c r="AJ152" s="122"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -11632,30 +12017,30 @@
       <c r="P153" s="22"/>
       <c r="Q153" s="22"/>
       <c r="R153" s="25"/>
-      <c r="S153" s="141" t="s">
+      <c r="S153" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="142"/>
-      <c r="U153" s="142"/>
-      <c r="V153" s="142"/>
-      <c r="W153" s="142"/>
-      <c r="X153" s="143"/>
-      <c r="Y153" s="141" t="s">
+      <c r="T153" s="124"/>
+      <c r="U153" s="124"/>
+      <c r="V153" s="124"/>
+      <c r="W153" s="124"/>
+      <c r="X153" s="125"/>
+      <c r="Y153" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="142"/>
-      <c r="AA153" s="142"/>
-      <c r="AB153" s="142"/>
-      <c r="AC153" s="142"/>
-      <c r="AD153" s="143"/>
-      <c r="AE153" s="144" t="s">
+      <c r="Z153" s="124"/>
+      <c r="AA153" s="124"/>
+      <c r="AB153" s="124"/>
+      <c r="AC153" s="124"/>
+      <c r="AD153" s="125"/>
+      <c r="AE153" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF153" s="145"/>
-      <c r="AG153" s="145"/>
-      <c r="AH153" s="145"/>
-      <c r="AI153" s="145"/>
-      <c r="AJ153" s="146"/>
+      <c r="AF153" s="121"/>
+      <c r="AG153" s="121"/>
+      <c r="AH153" s="121"/>
+      <c r="AI153" s="121"/>
+      <c r="AJ153" s="122"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -11675,30 +12060,30 @@
       <c r="P154" s="22"/>
       <c r="Q154" s="22"/>
       <c r="R154" s="25"/>
-      <c r="S154" s="141" t="s">
+      <c r="S154" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="142"/>
-      <c r="U154" s="142"/>
-      <c r="V154" s="142"/>
-      <c r="W154" s="142"/>
-      <c r="X154" s="143"/>
-      <c r="Y154" s="141" t="s">
+      <c r="T154" s="124"/>
+      <c r="U154" s="124"/>
+      <c r="V154" s="124"/>
+      <c r="W154" s="124"/>
+      <c r="X154" s="125"/>
+      <c r="Y154" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="142"/>
-      <c r="AA154" s="142"/>
-      <c r="AB154" s="142"/>
-      <c r="AC154" s="142"/>
-      <c r="AD154" s="143"/>
-      <c r="AE154" s="144" t="s">
+      <c r="Z154" s="124"/>
+      <c r="AA154" s="124"/>
+      <c r="AB154" s="124"/>
+      <c r="AC154" s="124"/>
+      <c r="AD154" s="125"/>
+      <c r="AE154" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF154" s="145"/>
-      <c r="AG154" s="145"/>
-      <c r="AH154" s="145"/>
-      <c r="AI154" s="145"/>
-      <c r="AJ154" s="146"/>
+      <c r="AF154" s="121"/>
+      <c r="AG154" s="121"/>
+      <c r="AH154" s="121"/>
+      <c r="AI154" s="121"/>
+      <c r="AJ154" s="122"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -11720,30 +12105,30 @@
       <c r="P155" s="22"/>
       <c r="Q155" s="22"/>
       <c r="R155" s="25"/>
-      <c r="S155" s="141" t="s">
+      <c r="S155" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="142"/>
-      <c r="U155" s="142"/>
-      <c r="V155" s="142"/>
-      <c r="W155" s="142"/>
-      <c r="X155" s="143"/>
-      <c r="Y155" s="141" t="s">
+      <c r="T155" s="124"/>
+      <c r="U155" s="124"/>
+      <c r="V155" s="124"/>
+      <c r="W155" s="124"/>
+      <c r="X155" s="125"/>
+      <c r="Y155" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="142"/>
-      <c r="AA155" s="142"/>
-      <c r="AB155" s="142"/>
-      <c r="AC155" s="142"/>
-      <c r="AD155" s="143"/>
-      <c r="AE155" s="144" t="s">
+      <c r="Z155" s="124"/>
+      <c r="AA155" s="124"/>
+      <c r="AB155" s="124"/>
+      <c r="AC155" s="124"/>
+      <c r="AD155" s="125"/>
+      <c r="AE155" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF155" s="145"/>
-      <c r="AG155" s="145"/>
-      <c r="AH155" s="145"/>
-      <c r="AI155" s="145"/>
-      <c r="AJ155" s="146"/>
+      <c r="AF155" s="121"/>
+      <c r="AG155" s="121"/>
+      <c r="AH155" s="121"/>
+      <c r="AI155" s="121"/>
+      <c r="AJ155" s="122"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -11767,30 +12152,30 @@
       <c r="P156" s="22"/>
       <c r="Q156" s="22"/>
       <c r="R156" s="25"/>
-      <c r="S156" s="141" t="s">
+      <c r="S156" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="142"/>
-      <c r="U156" s="142"/>
-      <c r="V156" s="142"/>
-      <c r="W156" s="142"/>
-      <c r="X156" s="143"/>
-      <c r="Y156" s="141" t="s">
+      <c r="T156" s="124"/>
+      <c r="U156" s="124"/>
+      <c r="V156" s="124"/>
+      <c r="W156" s="124"/>
+      <c r="X156" s="125"/>
+      <c r="Y156" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="142"/>
-      <c r="AA156" s="142"/>
-      <c r="AB156" s="142"/>
-      <c r="AC156" s="142"/>
-      <c r="AD156" s="143"/>
-      <c r="AE156" s="144" t="s">
+      <c r="Z156" s="124"/>
+      <c r="AA156" s="124"/>
+      <c r="AB156" s="124"/>
+      <c r="AC156" s="124"/>
+      <c r="AD156" s="125"/>
+      <c r="AE156" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF156" s="145"/>
-      <c r="AG156" s="145"/>
-      <c r="AH156" s="145"/>
-      <c r="AI156" s="145"/>
-      <c r="AJ156" s="146"/>
+      <c r="AF156" s="121"/>
+      <c r="AG156" s="121"/>
+      <c r="AH156" s="121"/>
+      <c r="AI156" s="121"/>
+      <c r="AJ156" s="122"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -11808,30 +12193,30 @@
       <c r="P157" s="22"/>
       <c r="Q157" s="22"/>
       <c r="R157" s="25"/>
-      <c r="S157" s="141" t="s">
+      <c r="S157" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="142"/>
-      <c r="U157" s="142"/>
-      <c r="V157" s="142"/>
-      <c r="W157" s="142"/>
-      <c r="X157" s="143"/>
-      <c r="Y157" s="141" t="s">
+      <c r="T157" s="124"/>
+      <c r="U157" s="124"/>
+      <c r="V157" s="124"/>
+      <c r="W157" s="124"/>
+      <c r="X157" s="125"/>
+      <c r="Y157" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="142"/>
-      <c r="AA157" s="142"/>
-      <c r="AB157" s="142"/>
-      <c r="AC157" s="142"/>
-      <c r="AD157" s="143"/>
-      <c r="AE157" s="144" t="s">
+      <c r="Z157" s="124"/>
+      <c r="AA157" s="124"/>
+      <c r="AB157" s="124"/>
+      <c r="AC157" s="124"/>
+      <c r="AD157" s="125"/>
+      <c r="AE157" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF157" s="145"/>
-      <c r="AG157" s="145"/>
-      <c r="AH157" s="145"/>
-      <c r="AI157" s="145"/>
-      <c r="AJ157" s="146"/>
+      <c r="AF157" s="121"/>
+      <c r="AG157" s="121"/>
+      <c r="AH157" s="121"/>
+      <c r="AI157" s="121"/>
+      <c r="AJ157" s="122"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -11853,30 +12238,30 @@
       <c r="P158" s="22"/>
       <c r="Q158" s="22"/>
       <c r="R158" s="25"/>
-      <c r="S158" s="141" t="s">
+      <c r="S158" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="142"/>
-      <c r="U158" s="142"/>
-      <c r="V158" s="142"/>
-      <c r="W158" s="142"/>
-      <c r="X158" s="143"/>
-      <c r="Y158" s="141" t="s">
+      <c r="T158" s="124"/>
+      <c r="U158" s="124"/>
+      <c r="V158" s="124"/>
+      <c r="W158" s="124"/>
+      <c r="X158" s="125"/>
+      <c r="Y158" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="142"/>
-      <c r="AA158" s="142"/>
-      <c r="AB158" s="142"/>
-      <c r="AC158" s="142"/>
-      <c r="AD158" s="143"/>
-      <c r="AE158" s="144" t="s">
+      <c r="Z158" s="124"/>
+      <c r="AA158" s="124"/>
+      <c r="AB158" s="124"/>
+      <c r="AC158" s="124"/>
+      <c r="AD158" s="125"/>
+      <c r="AE158" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF158" s="145"/>
-      <c r="AG158" s="145"/>
-      <c r="AH158" s="145"/>
-      <c r="AI158" s="145"/>
-      <c r="AJ158" s="146"/>
+      <c r="AF158" s="121"/>
+      <c r="AG158" s="121"/>
+      <c r="AH158" s="121"/>
+      <c r="AI158" s="121"/>
+      <c r="AJ158" s="122"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -11898,30 +12283,30 @@
       <c r="P159" s="88"/>
       <c r="Q159" s="88"/>
       <c r="R159" s="89"/>
-      <c r="S159" s="141" t="s">
+      <c r="S159" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="142"/>
-      <c r="U159" s="142"/>
-      <c r="V159" s="142"/>
-      <c r="W159" s="142"/>
-      <c r="X159" s="143"/>
-      <c r="Y159" s="141" t="s">
+      <c r="T159" s="124"/>
+      <c r="U159" s="124"/>
+      <c r="V159" s="124"/>
+      <c r="W159" s="124"/>
+      <c r="X159" s="125"/>
+      <c r="Y159" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="142"/>
-      <c r="AA159" s="142"/>
-      <c r="AB159" s="142"/>
-      <c r="AC159" s="142"/>
-      <c r="AD159" s="143"/>
-      <c r="AE159" s="144" t="s">
+      <c r="Z159" s="124"/>
+      <c r="AA159" s="124"/>
+      <c r="AB159" s="124"/>
+      <c r="AC159" s="124"/>
+      <c r="AD159" s="125"/>
+      <c r="AE159" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF159" s="145"/>
-      <c r="AG159" s="145"/>
-      <c r="AH159" s="145"/>
-      <c r="AI159" s="145"/>
-      <c r="AJ159" s="146"/>
+      <c r="AF159" s="121"/>
+      <c r="AG159" s="121"/>
+      <c r="AH159" s="121"/>
+      <c r="AI159" s="121"/>
+      <c r="AJ159" s="122"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -11943,30 +12328,30 @@
       <c r="P160" s="88"/>
       <c r="Q160" s="88"/>
       <c r="R160" s="89"/>
-      <c r="S160" s="141" t="s">
+      <c r="S160" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="142"/>
-      <c r="U160" s="142"/>
-      <c r="V160" s="142"/>
-      <c r="W160" s="142"/>
-      <c r="X160" s="143"/>
-      <c r="Y160" s="141" t="s">
+      <c r="T160" s="124"/>
+      <c r="U160" s="124"/>
+      <c r="V160" s="124"/>
+      <c r="W160" s="124"/>
+      <c r="X160" s="125"/>
+      <c r="Y160" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="142"/>
-      <c r="AA160" s="142"/>
-      <c r="AB160" s="142"/>
-      <c r="AC160" s="142"/>
-      <c r="AD160" s="143"/>
-      <c r="AE160" s="144" t="s">
+      <c r="Z160" s="124"/>
+      <c r="AA160" s="124"/>
+      <c r="AB160" s="124"/>
+      <c r="AC160" s="124"/>
+      <c r="AD160" s="125"/>
+      <c r="AE160" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF160" s="145"/>
-      <c r="AG160" s="145"/>
-      <c r="AH160" s="145"/>
-      <c r="AI160" s="145"/>
-      <c r="AJ160" s="146"/>
+      <c r="AF160" s="121"/>
+      <c r="AG160" s="121"/>
+      <c r="AH160" s="121"/>
+      <c r="AI160" s="121"/>
+      <c r="AJ160" s="122"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -11990,30 +12375,30 @@
       <c r="P161" s="85"/>
       <c r="Q161" s="85"/>
       <c r="R161" s="86"/>
-      <c r="S161" s="141" t="s">
+      <c r="S161" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="142"/>
-      <c r="U161" s="142"/>
-      <c r="V161" s="142"/>
-      <c r="W161" s="142"/>
-      <c r="X161" s="143"/>
-      <c r="Y161" s="144" t="s">
+      <c r="T161" s="124"/>
+      <c r="U161" s="124"/>
+      <c r="V161" s="124"/>
+      <c r="W161" s="124"/>
+      <c r="X161" s="125"/>
+      <c r="Y161" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="Z161" s="145"/>
-      <c r="AA161" s="145"/>
-      <c r="AB161" s="145"/>
-      <c r="AC161" s="145"/>
-      <c r="AD161" s="146"/>
-      <c r="AE161" s="144" t="s">
+      <c r="Z161" s="121"/>
+      <c r="AA161" s="121"/>
+      <c r="AB161" s="121"/>
+      <c r="AC161" s="121"/>
+      <c r="AD161" s="122"/>
+      <c r="AE161" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF161" s="145"/>
-      <c r="AG161" s="145"/>
-      <c r="AH161" s="145"/>
-      <c r="AI161" s="145"/>
-      <c r="AJ161" s="146"/>
+      <c r="AF161" s="121"/>
+      <c r="AG161" s="121"/>
+      <c r="AH161" s="121"/>
+      <c r="AI161" s="121"/>
+      <c r="AJ161" s="122"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -12031,30 +12416,30 @@
       <c r="P162" s="22"/>
       <c r="Q162" s="22"/>
       <c r="R162" s="25"/>
-      <c r="S162" s="141" t="s">
+      <c r="S162" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="142"/>
-      <c r="U162" s="142"/>
-      <c r="V162" s="142"/>
-      <c r="W162" s="142"/>
-      <c r="X162" s="143"/>
-      <c r="Y162" s="144" t="s">
+      <c r="T162" s="124"/>
+      <c r="U162" s="124"/>
+      <c r="V162" s="124"/>
+      <c r="W162" s="124"/>
+      <c r="X162" s="125"/>
+      <c r="Y162" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="145"/>
-      <c r="AA162" s="145"/>
-      <c r="AB162" s="145"/>
-      <c r="AC162" s="145"/>
-      <c r="AD162" s="146"/>
-      <c r="AE162" s="144" t="s">
+      <c r="Z162" s="121"/>
+      <c r="AA162" s="121"/>
+      <c r="AB162" s="121"/>
+      <c r="AC162" s="121"/>
+      <c r="AD162" s="122"/>
+      <c r="AE162" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF162" s="145"/>
-      <c r="AG162" s="145"/>
-      <c r="AH162" s="145"/>
-      <c r="AI162" s="145"/>
-      <c r="AJ162" s="146"/>
+      <c r="AF162" s="121"/>
+      <c r="AG162" s="121"/>
+      <c r="AH162" s="121"/>
+      <c r="AI162" s="121"/>
+      <c r="AJ162" s="122"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -12076,30 +12461,30 @@
       <c r="P163" s="22"/>
       <c r="Q163" s="22"/>
       <c r="R163" s="25"/>
-      <c r="S163" s="141" t="s">
+      <c r="S163" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="142"/>
-      <c r="U163" s="142"/>
-      <c r="V163" s="142"/>
-      <c r="W163" s="142"/>
-      <c r="X163" s="143"/>
-      <c r="Y163" s="144" t="s">
+      <c r="T163" s="124"/>
+      <c r="U163" s="124"/>
+      <c r="V163" s="124"/>
+      <c r="W163" s="124"/>
+      <c r="X163" s="125"/>
+      <c r="Y163" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="145"/>
-      <c r="AA163" s="145"/>
-      <c r="AB163" s="145"/>
-      <c r="AC163" s="145"/>
-      <c r="AD163" s="146"/>
-      <c r="AE163" s="144" t="s">
+      <c r="Z163" s="121"/>
+      <c r="AA163" s="121"/>
+      <c r="AB163" s="121"/>
+      <c r="AC163" s="121"/>
+      <c r="AD163" s="122"/>
+      <c r="AE163" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF163" s="145"/>
-      <c r="AG163" s="145"/>
-      <c r="AH163" s="145"/>
-      <c r="AI163" s="145"/>
-      <c r="AJ163" s="146"/>
+      <c r="AF163" s="121"/>
+      <c r="AG163" s="121"/>
+      <c r="AH163" s="121"/>
+      <c r="AI163" s="121"/>
+      <c r="AJ163" s="122"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -12121,30 +12506,30 @@
       <c r="P164" s="88"/>
       <c r="Q164" s="88"/>
       <c r="R164" s="89"/>
-      <c r="S164" s="141" t="s">
+      <c r="S164" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="142"/>
-      <c r="U164" s="142"/>
-      <c r="V164" s="142"/>
-      <c r="W164" s="142"/>
-      <c r="X164" s="143"/>
-      <c r="Y164" s="144" t="s">
+      <c r="T164" s="124"/>
+      <c r="U164" s="124"/>
+      <c r="V164" s="124"/>
+      <c r="W164" s="124"/>
+      <c r="X164" s="125"/>
+      <c r="Y164" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="145"/>
-      <c r="AA164" s="145"/>
-      <c r="AB164" s="145"/>
-      <c r="AC164" s="145"/>
-      <c r="AD164" s="146"/>
-      <c r="AE164" s="144" t="s">
+      <c r="Z164" s="121"/>
+      <c r="AA164" s="121"/>
+      <c r="AB164" s="121"/>
+      <c r="AC164" s="121"/>
+      <c r="AD164" s="122"/>
+      <c r="AE164" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AF164" s="145"/>
-      <c r="AG164" s="145"/>
-      <c r="AH164" s="145"/>
-      <c r="AI164" s="145"/>
-      <c r="AJ164" s="146"/>
+      <c r="AF164" s="121"/>
+      <c r="AG164" s="121"/>
+      <c r="AH164" s="121"/>
+      <c r="AI164" s="121"/>
+      <c r="AJ164" s="122"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -12168,30 +12553,30 @@
       <c r="P165" s="85"/>
       <c r="Q165" s="85"/>
       <c r="R165" s="86"/>
-      <c r="S165" s="141" t="s">
+      <c r="S165" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="142"/>
-      <c r="U165" s="142"/>
-      <c r="V165" s="142"/>
-      <c r="W165" s="142"/>
-      <c r="X165" s="143"/>
-      <c r="Y165" s="144" t="s">
+      <c r="T165" s="124"/>
+      <c r="U165" s="124"/>
+      <c r="V165" s="124"/>
+      <c r="W165" s="124"/>
+      <c r="X165" s="125"/>
+      <c r="Y165" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="Z165" s="145"/>
-      <c r="AA165" s="145"/>
-      <c r="AB165" s="145"/>
-      <c r="AC165" s="145"/>
-      <c r="AD165" s="146"/>
-      <c r="AE165" s="144" t="s">
+      <c r="Z165" s="121"/>
+      <c r="AA165" s="121"/>
+      <c r="AB165" s="121"/>
+      <c r="AC165" s="121"/>
+      <c r="AD165" s="122"/>
+      <c r="AE165" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF165" s="145"/>
-      <c r="AG165" s="145"/>
-      <c r="AH165" s="145"/>
-      <c r="AI165" s="145"/>
-      <c r="AJ165" s="146"/>
+      <c r="AF165" s="121"/>
+      <c r="AG165" s="121"/>
+      <c r="AH165" s="121"/>
+      <c r="AI165" s="121"/>
+      <c r="AJ165" s="122"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -12209,30 +12594,30 @@
       <c r="P166" s="22"/>
       <c r="Q166" s="22"/>
       <c r="R166" s="25"/>
-      <c r="S166" s="141" t="s">
+      <c r="S166" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="142"/>
-      <c r="U166" s="142"/>
-      <c r="V166" s="142"/>
-      <c r="W166" s="142"/>
-      <c r="X166" s="143"/>
-      <c r="Y166" s="144" t="s">
+      <c r="T166" s="124"/>
+      <c r="U166" s="124"/>
+      <c r="V166" s="124"/>
+      <c r="W166" s="124"/>
+      <c r="X166" s="125"/>
+      <c r="Y166" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z166" s="145"/>
-      <c r="AA166" s="145"/>
-      <c r="AB166" s="145"/>
-      <c r="AC166" s="145"/>
-      <c r="AD166" s="146"/>
-      <c r="AE166" s="144" t="s">
+      <c r="Z166" s="121"/>
+      <c r="AA166" s="121"/>
+      <c r="AB166" s="121"/>
+      <c r="AC166" s="121"/>
+      <c r="AD166" s="122"/>
+      <c r="AE166" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF166" s="145"/>
-      <c r="AG166" s="145"/>
-      <c r="AH166" s="145"/>
-      <c r="AI166" s="145"/>
-      <c r="AJ166" s="146"/>
+      <c r="AF166" s="121"/>
+      <c r="AG166" s="121"/>
+      <c r="AH166" s="121"/>
+      <c r="AI166" s="121"/>
+      <c r="AJ166" s="122"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12254,30 +12639,30 @@
       <c r="P167" s="22"/>
       <c r="Q167" s="22"/>
       <c r="R167" s="25"/>
-      <c r="S167" s="141" t="s">
+      <c r="S167" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="142"/>
-      <c r="U167" s="142"/>
-      <c r="V167" s="142"/>
-      <c r="W167" s="142"/>
-      <c r="X167" s="143"/>
-      <c r="Y167" s="144" t="s">
+      <c r="T167" s="124"/>
+      <c r="U167" s="124"/>
+      <c r="V167" s="124"/>
+      <c r="W167" s="124"/>
+      <c r="X167" s="125"/>
+      <c r="Y167" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="145"/>
-      <c r="AA167" s="145"/>
-      <c r="AB167" s="145"/>
-      <c r="AC167" s="145"/>
-      <c r="AD167" s="146"/>
-      <c r="AE167" s="144" t="s">
+      <c r="Z167" s="121"/>
+      <c r="AA167" s="121"/>
+      <c r="AB167" s="121"/>
+      <c r="AC167" s="121"/>
+      <c r="AD167" s="122"/>
+      <c r="AE167" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF167" s="145"/>
-      <c r="AG167" s="145"/>
-      <c r="AH167" s="145"/>
-      <c r="AI167" s="145"/>
-      <c r="AJ167" s="146"/>
+      <c r="AF167" s="121"/>
+      <c r="AG167" s="121"/>
+      <c r="AH167" s="121"/>
+      <c r="AI167" s="121"/>
+      <c r="AJ167" s="122"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -12299,30 +12684,30 @@
       <c r="P168" s="88"/>
       <c r="Q168" s="88"/>
       <c r="R168" s="89"/>
-      <c r="S168" s="141" t="s">
+      <c r="S168" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="142"/>
-      <c r="U168" s="142"/>
-      <c r="V168" s="142"/>
-      <c r="W168" s="142"/>
-      <c r="X168" s="143"/>
-      <c r="Y168" s="144" t="s">
+      <c r="T168" s="124"/>
+      <c r="U168" s="124"/>
+      <c r="V168" s="124"/>
+      <c r="W168" s="124"/>
+      <c r="X168" s="125"/>
+      <c r="Y168" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z168" s="145"/>
-      <c r="AA168" s="145"/>
-      <c r="AB168" s="145"/>
-      <c r="AC168" s="145"/>
-      <c r="AD168" s="146"/>
-      <c r="AE168" s="144" t="s">
+      <c r="Z168" s="121"/>
+      <c r="AA168" s="121"/>
+      <c r="AB168" s="121"/>
+      <c r="AC168" s="121"/>
+      <c r="AD168" s="122"/>
+      <c r="AE168" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AF168" s="145"/>
-      <c r="AG168" s="145"/>
-      <c r="AH168" s="145"/>
-      <c r="AI168" s="145"/>
-      <c r="AJ168" s="146"/>
+      <c r="AF168" s="121"/>
+      <c r="AG168" s="121"/>
+      <c r="AH168" s="121"/>
+      <c r="AI168" s="121"/>
+      <c r="AJ168" s="122"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -12346,30 +12731,30 @@
       <c r="P169" s="85"/>
       <c r="Q169" s="85"/>
       <c r="R169" s="86"/>
-      <c r="S169" s="141" t="s">
+      <c r="S169" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="142"/>
-      <c r="U169" s="142"/>
-      <c r="V169" s="142"/>
-      <c r="W169" s="142"/>
-      <c r="X169" s="143"/>
-      <c r="Y169" s="144" t="s">
+      <c r="T169" s="124"/>
+      <c r="U169" s="124"/>
+      <c r="V169" s="124"/>
+      <c r="W169" s="124"/>
+      <c r="X169" s="125"/>
+      <c r="Y169" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="Z169" s="145"/>
-      <c r="AA169" s="145"/>
-      <c r="AB169" s="145"/>
-      <c r="AC169" s="145"/>
-      <c r="AD169" s="146"/>
-      <c r="AE169" s="144" t="s">
+      <c r="Z169" s="121"/>
+      <c r="AA169" s="121"/>
+      <c r="AB169" s="121"/>
+      <c r="AC169" s="121"/>
+      <c r="AD169" s="122"/>
+      <c r="AE169" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF169" s="145"/>
-      <c r="AG169" s="145"/>
-      <c r="AH169" s="145"/>
-      <c r="AI169" s="145"/>
-      <c r="AJ169" s="146"/>
+      <c r="AF169" s="121"/>
+      <c r="AG169" s="121"/>
+      <c r="AH169" s="121"/>
+      <c r="AI169" s="121"/>
+      <c r="AJ169" s="122"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -12387,30 +12772,30 @@
       <c r="P170" s="22"/>
       <c r="Q170" s="22"/>
       <c r="R170" s="25"/>
-      <c r="S170" s="141" t="s">
+      <c r="S170" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="142"/>
-      <c r="U170" s="142"/>
-      <c r="V170" s="142"/>
-      <c r="W170" s="142"/>
-      <c r="X170" s="143"/>
-      <c r="Y170" s="144" t="s">
+      <c r="T170" s="124"/>
+      <c r="U170" s="124"/>
+      <c r="V170" s="124"/>
+      <c r="W170" s="124"/>
+      <c r="X170" s="125"/>
+      <c r="Y170" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="145"/>
-      <c r="AA170" s="145"/>
-      <c r="AB170" s="145"/>
-      <c r="AC170" s="145"/>
-      <c r="AD170" s="146"/>
-      <c r="AE170" s="144" t="s">
+      <c r="Z170" s="121"/>
+      <c r="AA170" s="121"/>
+      <c r="AB170" s="121"/>
+      <c r="AC170" s="121"/>
+      <c r="AD170" s="122"/>
+      <c r="AE170" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF170" s="145"/>
-      <c r="AG170" s="145"/>
-      <c r="AH170" s="145"/>
-      <c r="AI170" s="145"/>
-      <c r="AJ170" s="146"/>
+      <c r="AF170" s="121"/>
+      <c r="AG170" s="121"/>
+      <c r="AH170" s="121"/>
+      <c r="AI170" s="121"/>
+      <c r="AJ170" s="122"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -12432,30 +12817,30 @@
       <c r="P171" s="22"/>
       <c r="Q171" s="22"/>
       <c r="R171" s="25"/>
-      <c r="S171" s="141" t="s">
+      <c r="S171" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="142"/>
-      <c r="U171" s="142"/>
-      <c r="V171" s="142"/>
-      <c r="W171" s="142"/>
-      <c r="X171" s="143"/>
-      <c r="Y171" s="144" t="s">
+      <c r="T171" s="124"/>
+      <c r="U171" s="124"/>
+      <c r="V171" s="124"/>
+      <c r="W171" s="124"/>
+      <c r="X171" s="125"/>
+      <c r="Y171" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="145"/>
-      <c r="AA171" s="145"/>
-      <c r="AB171" s="145"/>
-      <c r="AC171" s="145"/>
-      <c r="AD171" s="146"/>
-      <c r="AE171" s="144" t="s">
+      <c r="Z171" s="121"/>
+      <c r="AA171" s="121"/>
+      <c r="AB171" s="121"/>
+      <c r="AC171" s="121"/>
+      <c r="AD171" s="122"/>
+      <c r="AE171" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF171" s="145"/>
-      <c r="AG171" s="145"/>
-      <c r="AH171" s="145"/>
-      <c r="AI171" s="145"/>
-      <c r="AJ171" s="146"/>
+      <c r="AF171" s="121"/>
+      <c r="AG171" s="121"/>
+      <c r="AH171" s="121"/>
+      <c r="AI171" s="121"/>
+      <c r="AJ171" s="122"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -12477,30 +12862,30 @@
       <c r="P172" s="22"/>
       <c r="Q172" s="22"/>
       <c r="R172" s="25"/>
-      <c r="S172" s="141" t="s">
+      <c r="S172" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="142"/>
-      <c r="U172" s="142"/>
-      <c r="V172" s="142"/>
-      <c r="W172" s="142"/>
-      <c r="X172" s="143"/>
-      <c r="Y172" s="144" t="s">
+      <c r="T172" s="124"/>
+      <c r="U172" s="124"/>
+      <c r="V172" s="124"/>
+      <c r="W172" s="124"/>
+      <c r="X172" s="125"/>
+      <c r="Y172" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="145"/>
-      <c r="AA172" s="145"/>
-      <c r="AB172" s="145"/>
-      <c r="AC172" s="145"/>
-      <c r="AD172" s="146"/>
-      <c r="AE172" s="144" t="s">
+      <c r="Z172" s="121"/>
+      <c r="AA172" s="121"/>
+      <c r="AB172" s="121"/>
+      <c r="AC172" s="121"/>
+      <c r="AD172" s="122"/>
+      <c r="AE172" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF172" s="145"/>
-      <c r="AG172" s="145"/>
-      <c r="AH172" s="145"/>
-      <c r="AI172" s="145"/>
-      <c r="AJ172" s="146"/>
+      <c r="AF172" s="121"/>
+      <c r="AG172" s="121"/>
+      <c r="AH172" s="121"/>
+      <c r="AI172" s="121"/>
+      <c r="AJ172" s="122"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -12522,30 +12907,30 @@
       <c r="P173" s="22"/>
       <c r="Q173" s="22"/>
       <c r="R173" s="25"/>
-      <c r="S173" s="141" t="s">
+      <c r="S173" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="142"/>
-      <c r="U173" s="142"/>
-      <c r="V173" s="142"/>
-      <c r="W173" s="142"/>
-      <c r="X173" s="143"/>
-      <c r="Y173" s="144" t="s">
+      <c r="T173" s="124"/>
+      <c r="U173" s="124"/>
+      <c r="V173" s="124"/>
+      <c r="W173" s="124"/>
+      <c r="X173" s="125"/>
+      <c r="Y173" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Z173" s="145"/>
-      <c r="AA173" s="145"/>
-      <c r="AB173" s="145"/>
-      <c r="AC173" s="145"/>
-      <c r="AD173" s="146"/>
-      <c r="AE173" s="144" t="s">
+      <c r="Z173" s="121"/>
+      <c r="AA173" s="121"/>
+      <c r="AB173" s="121"/>
+      <c r="AC173" s="121"/>
+      <c r="AD173" s="122"/>
+      <c r="AE173" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF173" s="145"/>
-      <c r="AG173" s="145"/>
-      <c r="AH173" s="145"/>
-      <c r="AI173" s="145"/>
-      <c r="AJ173" s="146"/>
+      <c r="AF173" s="121"/>
+      <c r="AG173" s="121"/>
+      <c r="AH173" s="121"/>
+      <c r="AI173" s="121"/>
+      <c r="AJ173" s="122"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -12567,30 +12952,30 @@
       <c r="P174" s="22"/>
       <c r="Q174" s="22"/>
       <c r="R174" s="25"/>
-      <c r="S174" s="141" t="s">
+      <c r="S174" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="142"/>
-      <c r="U174" s="142"/>
-      <c r="V174" s="142"/>
-      <c r="W174" s="142"/>
-      <c r="X174" s="143"/>
-      <c r="Y174" s="144" t="s">
+      <c r="T174" s="124"/>
+      <c r="U174" s="124"/>
+      <c r="V174" s="124"/>
+      <c r="W174" s="124"/>
+      <c r="X174" s="125"/>
+      <c r="Y174" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Z174" s="145"/>
-      <c r="AA174" s="145"/>
-      <c r="AB174" s="145"/>
-      <c r="AC174" s="145"/>
-      <c r="AD174" s="146"/>
-      <c r="AE174" s="144" t="s">
+      <c r="Z174" s="121"/>
+      <c r="AA174" s="121"/>
+      <c r="AB174" s="121"/>
+      <c r="AC174" s="121"/>
+      <c r="AD174" s="122"/>
+      <c r="AE174" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AF174" s="145"/>
-      <c r="AG174" s="145"/>
-      <c r="AH174" s="145"/>
-      <c r="AI174" s="145"/>
-      <c r="AJ174" s="146"/>
+      <c r="AF174" s="121"/>
+      <c r="AG174" s="121"/>
+      <c r="AH174" s="121"/>
+      <c r="AI174" s="121"/>
+      <c r="AJ174" s="122"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -12612,30 +12997,30 @@
       <c r="P175" s="27"/>
       <c r="Q175" s="27"/>
       <c r="R175" s="28"/>
-      <c r="S175" s="150" t="s">
+      <c r="S175" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="151"/>
-      <c r="U175" s="151"/>
-      <c r="V175" s="151"/>
-      <c r="W175" s="151"/>
-      <c r="X175" s="152"/>
-      <c r="Y175" s="153" t="s">
+      <c r="T175" s="130"/>
+      <c r="U175" s="130"/>
+      <c r="V175" s="130"/>
+      <c r="W175" s="130"/>
+      <c r="X175" s="131"/>
+      <c r="Y175" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="Z175" s="154"/>
-      <c r="AA175" s="154"/>
-      <c r="AB175" s="154"/>
-      <c r="AC175" s="154"/>
-      <c r="AD175" s="155"/>
-      <c r="AE175" s="153" t="s">
+      <c r="Z175" s="133"/>
+      <c r="AA175" s="133"/>
+      <c r="AB175" s="133"/>
+      <c r="AC175" s="133"/>
+      <c r="AD175" s="134"/>
+      <c r="AE175" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AF175" s="154"/>
-      <c r="AG175" s="154"/>
-      <c r="AH175" s="154"/>
-      <c r="AI175" s="154"/>
-      <c r="AJ175" s="155"/>
+      <c r="AF175" s="133"/>
+      <c r="AG175" s="133"/>
+      <c r="AH175" s="133"/>
+      <c r="AI175" s="133"/>
+      <c r="AJ175" s="134"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -14501,37 +14886,41 @@
     </row>
     <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
-      <c r="F223" s="105"/>
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="16"/>
-      <c r="J223" s="104"/>
-      <c r="K223" s="105"/>
-      <c r="L223" s="16"/>
-      <c r="M223" s="16"/>
-      <c r="N223" s="104"/>
-      <c r="O223" s="16"/>
-      <c r="P223" s="16"/>
-      <c r="Q223" s="105"/>
-      <c r="R223" s="16"/>
-      <c r="S223" s="16"/>
-      <c r="T223" s="16"/>
-      <c r="U223" s="16"/>
-      <c r="V223" s="16"/>
-      <c r="W223" s="16"/>
-      <c r="X223" s="16"/>
-      <c r="Y223" s="16"/>
-      <c r="Z223" s="16"/>
-      <c r="AA223" s="16"/>
-      <c r="AB223" s="16"/>
-      <c r="AC223" s="16"/>
-      <c r="AD223" s="16"/>
-      <c r="AE223" s="16"/>
-      <c r="AF223" s="16"/>
-      <c r="AG223" s="16"/>
-      <c r="AH223" s="16"/>
-      <c r="AI223" s="16"/>
-      <c r="AJ223" s="104"/>
+      <c r="F223" s="107"/>
+      <c r="G223" s="107"/>
+      <c r="H223" s="107"/>
+      <c r="I223" s="107"/>
+      <c r="J223" s="107"/>
+      <c r="K223" s="107"/>
+      <c r="L223" s="107"/>
+      <c r="M223" s="107"/>
+      <c r="N223" s="107"/>
+      <c r="O223" s="107"/>
+      <c r="P223" s="107"/>
+      <c r="Q223" s="107"/>
+      <c r="R223" s="107"/>
+      <c r="S223" s="107"/>
+      <c r="T223" s="107"/>
+      <c r="U223" s="107"/>
+      <c r="V223" s="107"/>
+      <c r="W223" s="107"/>
+      <c r="X223" s="107"/>
+      <c r="Y223" s="107"/>
+      <c r="Z223" s="107"/>
+      <c r="AA223" s="107"/>
+      <c r="AB223" s="107"/>
+      <c r="AC223" s="107"/>
+      <c r="AD223" s="107"/>
+      <c r="AE223" s="107"/>
+      <c r="AF223" s="107"/>
+      <c r="AG223" s="107"/>
+      <c r="AH223" s="107"/>
+      <c r="AI223" s="107"/>
+      <c r="AJ223" s="107"/>
+      <c r="AK223" s="107"/>
+      <c r="AL223" s="107"/>
+      <c r="AM223" s="107"/>
+      <c r="AN223" s="2"/>
       <c r="AP223" s="5"/>
       <c r="AQ223" s="2"/>
     </row>
@@ -14541,247 +14930,1104 @@
         <v>11</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F224" s="107"/>
+      <c r="G224" s="107"/>
+      <c r="H224" s="107"/>
+      <c r="I224" s="107"/>
+      <c r="J224" s="107"/>
+      <c r="K224" s="107"/>
+      <c r="L224" s="107"/>
+      <c r="M224" s="107"/>
+      <c r="N224" s="107"/>
+      <c r="O224" s="107"/>
+      <c r="P224" s="107"/>
+      <c r="Q224" s="107"/>
+      <c r="R224" s="107"/>
+      <c r="S224" s="107"/>
+      <c r="T224" s="107"/>
+      <c r="U224" s="107"/>
+      <c r="V224" s="107"/>
+      <c r="W224" s="107"/>
+      <c r="X224" s="107"/>
+      <c r="Y224" s="107"/>
+      <c r="Z224" s="107"/>
+      <c r="AA224" s="107"/>
+      <c r="AB224" s="107"/>
+      <c r="AC224" s="107"/>
+      <c r="AD224" s="107"/>
+      <c r="AE224" s="107"/>
+      <c r="AF224" s="107"/>
+      <c r="AG224" s="107"/>
+      <c r="AH224" s="107"/>
+      <c r="AI224" s="107"/>
+      <c r="AJ224" s="107"/>
+      <c r="AK224" s="107"/>
+      <c r="AL224" s="107"/>
+      <c r="AM224" s="107"/>
+      <c r="AN224" s="2"/>
       <c r="AP224" s="5"/>
       <c r="AQ224" s="2"/>
     </row>
     <row r="225" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
-      <c r="C225" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="107"/>
+      <c r="G225" s="107"/>
+      <c r="H225" s="107"/>
+      <c r="I225" s="107"/>
+      <c r="J225" s="107"/>
+      <c r="K225" s="107"/>
+      <c r="L225" s="107"/>
+      <c r="M225" s="107"/>
+      <c r="N225" s="107"/>
+      <c r="O225" s="107"/>
+      <c r="P225" s="107"/>
+      <c r="Q225" s="107"/>
+      <c r="R225" s="107"/>
+      <c r="S225" s="107"/>
+      <c r="T225" s="107"/>
+      <c r="U225" s="107"/>
+      <c r="V225" s="107"/>
+      <c r="W225" s="107"/>
+      <c r="X225" s="107"/>
+      <c r="Y225" s="107"/>
+      <c r="Z225" s="107"/>
+      <c r="AA225" s="107"/>
+      <c r="AB225" s="107"/>
+      <c r="AC225" s="107"/>
+      <c r="AD225" s="107"/>
+      <c r="AE225" s="107"/>
+      <c r="AF225" s="107"/>
+      <c r="AG225" s="107"/>
+      <c r="AH225" s="107"/>
+      <c r="AI225" s="107"/>
+      <c r="AJ225" s="107"/>
+      <c r="AK225" s="107"/>
+      <c r="AL225" s="107"/>
+      <c r="AM225" s="107"/>
+      <c r="AN225" s="2"/>
       <c r="AP225" s="5"/>
       <c r="AQ225" s="2"/>
     </row>
     <row r="226" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
-      <c r="C226" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="B226" s="9"/>
+      <c r="C226" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D226" s="70"/>
+      <c r="E226" s="70"/>
+      <c r="F226" s="70"/>
+      <c r="G226" s="70"/>
+      <c r="H226" s="71"/>
+      <c r="I226" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="J226" s="70"/>
+      <c r="K226" s="70"/>
+      <c r="L226" s="70"/>
+      <c r="M226" s="70"/>
+      <c r="N226" s="70"/>
+      <c r="O226" s="70"/>
+      <c r="P226" s="70"/>
+      <c r="Q226" s="70"/>
+      <c r="R226" s="70"/>
+      <c r="S226" s="70"/>
+      <c r="T226" s="70"/>
+      <c r="U226" s="70"/>
+      <c r="V226" s="70"/>
+      <c r="W226" s="70"/>
+      <c r="X226" s="70"/>
+      <c r="Y226" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z226" s="70"/>
+      <c r="AA226" s="70"/>
+      <c r="AB226" s="70"/>
+      <c r="AC226" s="71"/>
+      <c r="AD226" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE226" s="136"/>
+      <c r="AF226" s="136"/>
+      <c r="AG226" s="136"/>
+      <c r="AH226" s="136"/>
+      <c r="AI226" s="136"/>
+      <c r="AJ226" s="136"/>
+      <c r="AK226" s="136"/>
+      <c r="AL226" s="137"/>
+      <c r="AM226" s="107"/>
+      <c r="AN226" s="2"/>
       <c r="AP226" s="5"/>
       <c r="AQ226" s="2"/>
     </row>
     <row r="227" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
-      <c r="C227" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="B227" s="9"/>
+      <c r="C227" s="72"/>
+      <c r="D227" s="73"/>
+      <c r="E227" s="73"/>
+      <c r="F227" s="73"/>
+      <c r="G227" s="73"/>
+      <c r="H227" s="74"/>
+      <c r="I227" s="73"/>
+      <c r="J227" s="73"/>
+      <c r="K227" s="73"/>
+      <c r="L227" s="73"/>
+      <c r="M227" s="73"/>
+      <c r="N227" s="73"/>
+      <c r="O227" s="73"/>
+      <c r="P227" s="73"/>
+      <c r="Q227" s="73"/>
+      <c r="R227" s="73"/>
+      <c r="S227" s="73"/>
+      <c r="T227" s="73"/>
+      <c r="U227" s="73"/>
+      <c r="V227" s="73"/>
+      <c r="W227" s="73"/>
+      <c r="X227" s="73"/>
+      <c r="Y227" s="72"/>
+      <c r="Z227" s="73"/>
+      <c r="AA227" s="73"/>
+      <c r="AB227" s="73"/>
+      <c r="AC227" s="74"/>
+      <c r="AD227" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE227" s="61"/>
+      <c r="AF227" s="61"/>
+      <c r="AG227" s="62"/>
+      <c r="AH227" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI227" s="62"/>
+      <c r="AJ227" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK227" s="61"/>
+      <c r="AL227" s="62"/>
+      <c r="AM227" s="107"/>
+      <c r="AN227" s="2"/>
       <c r="AP227" s="5"/>
       <c r="AQ227" s="2"/>
     </row>
     <row r="228" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
-      <c r="C228" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="B228" s="9"/>
+      <c r="C228" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D228" s="109"/>
+      <c r="E228" s="109"/>
+      <c r="F228" s="115"/>
+      <c r="G228" s="115"/>
+      <c r="H228" s="112"/>
+      <c r="I228" s="108" t="s">
+        <v>247</v>
+      </c>
+      <c r="J228" s="115"/>
+      <c r="K228" s="115"/>
+      <c r="L228" s="115"/>
+      <c r="M228" s="115"/>
+      <c r="N228" s="115"/>
+      <c r="O228" s="115"/>
+      <c r="P228" s="115"/>
+      <c r="Q228" s="115"/>
+      <c r="R228" s="115"/>
+      <c r="S228" s="115"/>
+      <c r="T228" s="115"/>
+      <c r="U228" s="115"/>
+      <c r="V228" s="115"/>
+      <c r="W228" s="115"/>
+      <c r="X228" s="115"/>
+      <c r="Y228" s="161" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z228" s="115"/>
+      <c r="AA228" s="115"/>
+      <c r="AB228" s="115"/>
+      <c r="AC228" s="119"/>
+      <c r="AD228" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE228" s="165"/>
+      <c r="AF228" s="165"/>
+      <c r="AG228" s="167"/>
+      <c r="AH228" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI228" s="167"/>
+      <c r="AJ228" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK228" s="165"/>
+      <c r="AL228" s="167"/>
+      <c r="AM228" s="107"/>
+      <c r="AN228" s="2"/>
       <c r="AP228" s="5"/>
       <c r="AQ228" s="2"/>
     </row>
     <row r="229" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
-      <c r="D229" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="B229" s="9"/>
+      <c r="C229" s="99"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="107"/>
+      <c r="G229" s="107"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J229" s="114"/>
+      <c r="K229" s="114"/>
+      <c r="L229" s="114"/>
+      <c r="M229" s="114"/>
+      <c r="N229" s="114"/>
+      <c r="O229" s="114"/>
+      <c r="P229" s="114"/>
+      <c r="Q229" s="114"/>
+      <c r="R229" s="114"/>
+      <c r="S229" s="114"/>
+      <c r="T229" s="114"/>
+      <c r="U229" s="114"/>
+      <c r="V229" s="114"/>
+      <c r="W229" s="114"/>
+      <c r="X229" s="114"/>
+      <c r="Y229" s="162"/>
+      <c r="Z229" s="114"/>
+      <c r="AA229" s="114"/>
+      <c r="AB229" s="114"/>
+      <c r="AC229" s="118"/>
+      <c r="AD229" s="168"/>
+      <c r="AE229" s="169"/>
+      <c r="AF229" s="169"/>
+      <c r="AG229" s="170"/>
+      <c r="AH229" s="168"/>
+      <c r="AI229" s="170"/>
+      <c r="AJ229" s="168"/>
+      <c r="AK229" s="169"/>
+      <c r="AL229" s="170"/>
+      <c r="AM229" s="107"/>
+      <c r="AN229" s="2"/>
       <c r="AP229" s="5"/>
       <c r="AQ229" s="2"/>
     </row>
     <row r="230" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="99"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="107"/>
+      <c r="G230" s="107"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="J230" s="113"/>
+      <c r="K230" s="113"/>
+      <c r="L230" s="113"/>
+      <c r="M230" s="113"/>
+      <c r="N230" s="113"/>
+      <c r="O230" s="113"/>
+      <c r="P230" s="113"/>
+      <c r="Q230" s="113"/>
+      <c r="R230" s="113"/>
+      <c r="S230" s="113"/>
+      <c r="T230" s="113"/>
+      <c r="U230" s="113"/>
+      <c r="V230" s="113"/>
+      <c r="W230" s="113"/>
+      <c r="X230" s="113"/>
+      <c r="Y230" s="163" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z230" s="113"/>
+      <c r="AA230" s="113"/>
+      <c r="AB230" s="113"/>
+      <c r="AC230" s="117"/>
+      <c r="AD230" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE230" s="165"/>
+      <c r="AF230" s="165"/>
+      <c r="AG230" s="167"/>
+      <c r="AH230" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI230" s="167"/>
+      <c r="AJ230" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK230" s="165"/>
+      <c r="AL230" s="167"/>
+      <c r="AM230" s="107"/>
+      <c r="AN230" s="2"/>
       <c r="AP230" s="5"/>
       <c r="AQ230" s="2"/>
     </row>
     <row r="231" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="39"/>
+      <c r="D231" s="40"/>
+      <c r="E231" s="40"/>
+      <c r="F231" s="114"/>
+      <c r="G231" s="114"/>
+      <c r="H231" s="41"/>
+      <c r="I231" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="J231" s="113"/>
+      <c r="K231" s="113"/>
+      <c r="L231" s="113"/>
+      <c r="M231" s="113"/>
+      <c r="N231" s="113"/>
+      <c r="O231" s="113"/>
+      <c r="P231" s="113"/>
+      <c r="Q231" s="113"/>
+      <c r="R231" s="113"/>
+      <c r="S231" s="113"/>
+      <c r="T231" s="113"/>
+      <c r="U231" s="113"/>
+      <c r="V231" s="113"/>
+      <c r="W231" s="113"/>
+      <c r="X231" s="113"/>
+      <c r="Y231" s="164" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z231" s="113"/>
+      <c r="AA231" s="113"/>
+      <c r="AB231" s="113"/>
+      <c r="AC231" s="117"/>
+      <c r="AD231" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE231" s="165"/>
+      <c r="AF231" s="165"/>
+      <c r="AG231" s="167"/>
+      <c r="AH231" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI231" s="167"/>
+      <c r="AJ231" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK231" s="165"/>
+      <c r="AL231" s="167"/>
+      <c r="AM231" s="107"/>
+      <c r="AN231" s="2"/>
       <c r="AP231" s="5"/>
       <c r="AQ231" s="2"/>
     </row>
     <row r="232" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
-      <c r="B232" s="1">
-        <v>12</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="B232" s="9"/>
+      <c r="C232" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D232" s="109"/>
+      <c r="E232" s="109"/>
+      <c r="F232" s="115"/>
+      <c r="G232" s="115"/>
+      <c r="H232" s="112"/>
+      <c r="I232" s="171" t="s">
+        <v>249</v>
+      </c>
+      <c r="J232" s="171"/>
+      <c r="K232" s="171"/>
+      <c r="L232" s="171"/>
+      <c r="M232" s="171"/>
+      <c r="N232" s="171"/>
+      <c r="O232" s="171"/>
+      <c r="P232" s="171"/>
+      <c r="Q232" s="171"/>
+      <c r="R232" s="171"/>
+      <c r="S232" s="171"/>
+      <c r="T232" s="171"/>
+      <c r="U232" s="171"/>
+      <c r="V232" s="171"/>
+      <c r="W232" s="171"/>
+      <c r="X232" s="171"/>
+      <c r="Y232" s="172" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z232" s="171"/>
+      <c r="AA232" s="171"/>
+      <c r="AB232" s="171"/>
+      <c r="AC232" s="173"/>
+      <c r="AD232" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE232" s="175"/>
+      <c r="AF232" s="175"/>
+      <c r="AG232" s="176"/>
+      <c r="AH232" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI232" s="176"/>
+      <c r="AJ232" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK232" s="175"/>
+      <c r="AL232" s="176"/>
+      <c r="AM232" s="107"/>
+      <c r="AN232" s="2"/>
       <c r="AP232" s="5"/>
       <c r="AQ232" s="2"/>
     </row>
     <row r="233" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
-      <c r="C233" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="B233" s="9"/>
+      <c r="C233" s="99"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="107"/>
+      <c r="G233" s="107"/>
+      <c r="H233" s="159"/>
+      <c r="I233" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="J233" s="113"/>
+      <c r="K233" s="113"/>
+      <c r="L233" s="113"/>
+      <c r="M233" s="113"/>
+      <c r="N233" s="113"/>
+      <c r="O233" s="113"/>
+      <c r="P233" s="113"/>
+      <c r="Q233" s="113"/>
+      <c r="R233" s="113"/>
+      <c r="S233" s="113"/>
+      <c r="T233" s="113"/>
+      <c r="U233" s="113"/>
+      <c r="V233" s="113"/>
+      <c r="W233" s="113"/>
+      <c r="X233" s="113"/>
+      <c r="Y233" s="164" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z233" s="113"/>
+      <c r="AA233" s="113"/>
+      <c r="AB233" s="113"/>
+      <c r="AC233" s="117"/>
+      <c r="AD233" s="166" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE233" s="165"/>
+      <c r="AF233" s="165"/>
+      <c r="AG233" s="167"/>
+      <c r="AH233" s="166" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI233" s="167"/>
+      <c r="AJ233" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK233" s="165"/>
+      <c r="AL233" s="167"/>
+      <c r="AM233" s="107"/>
+      <c r="AN233" s="2"/>
       <c r="AP233" s="5"/>
       <c r="AQ233" s="2"/>
     </row>
     <row r="234" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
-      <c r="C234" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="B234" s="9"/>
+      <c r="C234" s="39"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="40"/>
+      <c r="F234" s="114"/>
+      <c r="G234" s="114"/>
+      <c r="H234" s="118"/>
+      <c r="I234" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="J234" s="171"/>
+      <c r="K234" s="171"/>
+      <c r="L234" s="171"/>
+      <c r="M234" s="171"/>
+      <c r="N234" s="171"/>
+      <c r="O234" s="171"/>
+      <c r="P234" s="171"/>
+      <c r="Q234" s="171"/>
+      <c r="R234" s="171"/>
+      <c r="S234" s="171"/>
+      <c r="T234" s="171"/>
+      <c r="U234" s="171"/>
+      <c r="V234" s="171"/>
+      <c r="W234" s="171"/>
+      <c r="X234" s="171"/>
+      <c r="Y234" s="172" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z234" s="171"/>
+      <c r="AA234" s="171"/>
+      <c r="AB234" s="171"/>
+      <c r="AC234" s="173"/>
+      <c r="AD234" s="177" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE234" s="178"/>
+      <c r="AF234" s="178"/>
+      <c r="AG234" s="179"/>
+      <c r="AH234" s="177" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI234" s="179"/>
+      <c r="AJ234" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK234" s="175"/>
+      <c r="AL234" s="176"/>
+      <c r="AM234" s="107"/>
+      <c r="AN234" s="2"/>
       <c r="AP234" s="5"/>
       <c r="AQ234" s="2"/>
     </row>
     <row r="235" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="113"/>
+      <c r="G235" s="113"/>
+      <c r="H235" s="117"/>
+      <c r="I235" s="160" t="s">
+        <v>246</v>
+      </c>
+      <c r="J235" s="113"/>
+      <c r="K235" s="113"/>
+      <c r="L235" s="113"/>
+      <c r="M235" s="113"/>
+      <c r="N235" s="113"/>
+      <c r="O235" s="113"/>
+      <c r="P235" s="113"/>
+      <c r="Q235" s="113"/>
+      <c r="R235" s="113"/>
+      <c r="S235" s="113"/>
+      <c r="T235" s="113"/>
+      <c r="U235" s="113"/>
+      <c r="V235" s="113"/>
+      <c r="W235" s="113"/>
+      <c r="X235" s="113"/>
+      <c r="Y235" s="164" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z235" s="113"/>
+      <c r="AA235" s="113"/>
+      <c r="AB235" s="113"/>
+      <c r="AC235" s="117"/>
+      <c r="AD235" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE235" s="139"/>
+      <c r="AF235" s="139"/>
+      <c r="AG235" s="140"/>
+      <c r="AH235" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI235" s="140"/>
+      <c r="AJ235" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK235" s="139"/>
+      <c r="AL235" s="140"/>
+      <c r="AM235" s="107"/>
+      <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
       <c r="AQ235" s="2"/>
     </row>
     <row r="236" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="107"/>
+      <c r="G236" s="107"/>
+      <c r="H236" s="107"/>
+      <c r="I236" s="107"/>
+      <c r="J236" s="107"/>
+      <c r="K236" s="107"/>
+      <c r="L236" s="107"/>
+      <c r="M236" s="107"/>
+      <c r="N236" s="107"/>
+      <c r="O236" s="107"/>
+      <c r="P236" s="107"/>
+      <c r="Q236" s="107"/>
+      <c r="R236" s="107"/>
+      <c r="S236" s="107"/>
+      <c r="T236" s="107"/>
+      <c r="U236" s="107"/>
+      <c r="V236" s="107"/>
+      <c r="W236" s="107"/>
+      <c r="X236" s="107"/>
+      <c r="Y236" s="107"/>
+      <c r="Z236" s="107"/>
+      <c r="AA236" s="107"/>
+      <c r="AB236" s="107"/>
+      <c r="AC236" s="107"/>
+      <c r="AD236" s="107"/>
+      <c r="AE236" s="107"/>
+      <c r="AF236" s="107"/>
+      <c r="AG236" s="107"/>
+      <c r="AH236" s="107"/>
+      <c r="AI236" s="107"/>
+      <c r="AJ236" s="107"/>
+      <c r="AK236" s="107"/>
+      <c r="AL236" s="107"/>
+      <c r="AM236" s="107"/>
+      <c r="AN236" s="2"/>
       <c r="AP236" s="5"/>
       <c r="AQ236" s="2"/>
     </row>
     <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
+      <c r="F237" s="107"/>
+      <c r="G237" s="107"/>
+      <c r="H237" s="107"/>
+      <c r="I237" s="107"/>
+      <c r="J237" s="107"/>
+      <c r="K237" s="107"/>
+      <c r="L237" s="107"/>
+      <c r="M237" s="107"/>
+      <c r="N237" s="107"/>
+      <c r="O237" s="107"/>
+      <c r="P237" s="107"/>
+      <c r="Q237" s="107"/>
+      <c r="R237" s="107"/>
+      <c r="S237" s="107"/>
+      <c r="T237" s="107"/>
+      <c r="U237" s="107"/>
+      <c r="V237" s="107"/>
+      <c r="W237" s="107"/>
+      <c r="X237" s="107"/>
+      <c r="Y237" s="107"/>
+      <c r="Z237" s="107"/>
+      <c r="AA237" s="107"/>
+      <c r="AB237" s="107"/>
+      <c r="AC237" s="107"/>
+      <c r="AD237" s="107"/>
+      <c r="AE237" s="107"/>
+      <c r="AF237" s="107"/>
+      <c r="AG237" s="107"/>
+      <c r="AH237" s="107"/>
+      <c r="AI237" s="107"/>
+      <c r="AJ237" s="107"/>
+      <c r="AK237" s="107"/>
+      <c r="AL237" s="107"/>
+      <c r="AM237" s="107"/>
+      <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
       <c r="AQ237" s="2"/>
     </row>
     <row r="238" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
+      <c r="B238" s="1">
+        <v>12</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="AP238" s="5"/>
       <c r="AQ238" s="2"/>
     </row>
     <row r="239" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
+      <c r="C239" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="AP239" s="5"/>
       <c r="AQ239" s="2"/>
     </row>
     <row r="240" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
+      <c r="C240" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="AP240" s="5"/>
       <c r="AQ240" s="2"/>
     </row>
     <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
+      <c r="C241" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="AP241" s="5"/>
       <c r="AQ241" s="2"/>
     </row>
     <row r="242" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
+      <c r="C242" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AP242" s="5"/>
       <c r="AQ242" s="2"/>
     </row>
     <row r="243" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A243" s="6"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="7"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="7"/>
-      <c r="J243" s="7"/>
-      <c r="K243" s="7"/>
-      <c r="L243" s="7"/>
-      <c r="M243" s="7"/>
-      <c r="N243" s="7"/>
-      <c r="O243" s="7"/>
-      <c r="P243" s="7"/>
-      <c r="Q243" s="7"/>
-      <c r="R243" s="7"/>
-      <c r="S243" s="7"/>
-      <c r="T243" s="7"/>
-      <c r="U243" s="7"/>
-      <c r="V243" s="7"/>
-      <c r="W243" s="7"/>
-      <c r="X243" s="7"/>
-      <c r="Y243" s="7"/>
-      <c r="Z243" s="7"/>
-      <c r="AA243" s="7"/>
-      <c r="AB243" s="7"/>
-      <c r="AC243" s="7"/>
-      <c r="AD243" s="7"/>
-      <c r="AE243" s="7"/>
-      <c r="AF243" s="7"/>
-      <c r="AG243" s="7"/>
-      <c r="AH243" s="7"/>
-      <c r="AI243" s="7"/>
-      <c r="AJ243" s="7"/>
-      <c r="AK243" s="7"/>
-      <c r="AL243" s="7"/>
-      <c r="AM243" s="7"/>
-      <c r="AN243" s="7"/>
-      <c r="AO243" s="7"/>
-      <c r="AP243" s="8"/>
+      <c r="A243" s="4"/>
+      <c r="D243" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP243" s="5"/>
       <c r="AQ243" s="2"/>
     </row>
     <row r="244" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
-      <c r="O244" s="3"/>
-      <c r="P244" s="3"/>
-      <c r="Q244" s="3"/>
-      <c r="R244" s="3"/>
-      <c r="S244" s="3"/>
-      <c r="T244" s="3"/>
-      <c r="U244" s="3"/>
-      <c r="V244" s="3"/>
-      <c r="W244" s="3"/>
-      <c r="X244" s="3"/>
-      <c r="Y244" s="3"/>
-      <c r="Z244" s="3"/>
-      <c r="AA244" s="3"/>
-      <c r="AB244" s="3"/>
-      <c r="AC244" s="3"/>
-      <c r="AD244" s="3"/>
-      <c r="AE244" s="3"/>
-      <c r="AF244" s="3"/>
-      <c r="AG244" s="3"/>
-      <c r="AH244" s="3"/>
-      <c r="AI244" s="3"/>
-      <c r="AJ244" s="3"/>
-      <c r="AK244" s="3"/>
-      <c r="AL244" s="3"/>
-      <c r="AM244" s="3"/>
-      <c r="AN244" s="3"/>
-      <c r="AO244" s="3"/>
-      <c r="AP244" s="3"/>
+      <c r="A244" s="4"/>
+      <c r="AP244" s="5"/>
+      <c r="AQ244" s="2"/>
+    </row>
+    <row r="245" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A245" s="4"/>
+      <c r="AP245" s="5"/>
+      <c r="AQ245" s="2"/>
+    </row>
+    <row r="246" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A246" s="4"/>
+      <c r="B246" s="1">
+        <v>13</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP246" s="5"/>
+      <c r="AQ246" s="2"/>
+    </row>
+    <row r="247" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A247" s="4"/>
+      <c r="C247" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP247" s="5"/>
+      <c r="AQ247" s="2"/>
+    </row>
+    <row r="248" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A248" s="4"/>
+      <c r="C248" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP248" s="5"/>
+      <c r="AQ248" s="2"/>
+    </row>
+    <row r="249" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A249" s="4"/>
+      <c r="AP249" s="5"/>
+      <c r="AQ249" s="2"/>
+    </row>
+    <row r="250" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A250" s="4"/>
+      <c r="AP250" s="5"/>
+      <c r="AQ250" s="2"/>
+    </row>
+    <row r="251" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A251" s="4"/>
+      <c r="AP251" s="5"/>
+      <c r="AQ251" s="2"/>
+    </row>
+    <row r="252" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A252" s="4"/>
+      <c r="AP252" s="5"/>
+      <c r="AQ252" s="2"/>
+    </row>
+    <row r="253" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A253" s="4"/>
+      <c r="AP253" s="5"/>
+      <c r="AQ253" s="2"/>
+    </row>
+    <row r="254" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A254" s="4"/>
+      <c r="AP254" s="5"/>
+      <c r="AQ254" s="2"/>
+    </row>
+    <row r="255" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A255" s="4"/>
+      <c r="AP255" s="5"/>
+      <c r="AQ255" s="2"/>
+    </row>
+    <row r="256" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A256" s="4"/>
+      <c r="AP256" s="5"/>
+      <c r="AQ256" s="2"/>
+    </row>
+    <row r="257" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A257" s="6"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7"/>
+      <c r="H257" s="7"/>
+      <c r="I257" s="7"/>
+      <c r="J257" s="7"/>
+      <c r="K257" s="7"/>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7"/>
+      <c r="N257" s="7"/>
+      <c r="O257" s="7"/>
+      <c r="P257" s="7"/>
+      <c r="Q257" s="7"/>
+      <c r="R257" s="7"/>
+      <c r="S257" s="7"/>
+      <c r="T257" s="7"/>
+      <c r="U257" s="7"/>
+      <c r="V257" s="7"/>
+      <c r="W257" s="7"/>
+      <c r="X257" s="7"/>
+      <c r="Y257" s="7"/>
+      <c r="Z257" s="7"/>
+      <c r="AA257" s="7"/>
+      <c r="AB257" s="7"/>
+      <c r="AC257" s="7"/>
+      <c r="AD257" s="7"/>
+      <c r="AE257" s="7"/>
+      <c r="AF257" s="7"/>
+      <c r="AG257" s="7"/>
+      <c r="AH257" s="7"/>
+      <c r="AI257" s="7"/>
+      <c r="AJ257" s="7"/>
+      <c r="AK257" s="7"/>
+      <c r="AL257" s="7"/>
+      <c r="AM257" s="7"/>
+      <c r="AN257" s="7"/>
+      <c r="AO257" s="7"/>
+      <c r="AP257" s="8"/>
+      <c r="AQ257" s="2"/>
+    </row>
+    <row r="258" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+      <c r="Q258" s="3"/>
+      <c r="R258" s="3"/>
+      <c r="S258" s="3"/>
+      <c r="T258" s="3"/>
+      <c r="U258" s="3"/>
+      <c r="V258" s="3"/>
+      <c r="W258" s="3"/>
+      <c r="X258" s="3"/>
+      <c r="Y258" s="3"/>
+      <c r="Z258" s="3"/>
+      <c r="AA258" s="3"/>
+      <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
+      <c r="AD258" s="3"/>
+      <c r="AE258" s="3"/>
+      <c r="AF258" s="3"/>
+      <c r="AG258" s="3"/>
+      <c r="AH258" s="3"/>
+      <c r="AI258" s="3"/>
+      <c r="AJ258" s="3"/>
+      <c r="AK258" s="3"/>
+      <c r="AL258" s="3"/>
+      <c r="AM258" s="3"/>
+      <c r="AN258" s="3"/>
+      <c r="AO258" s="3"/>
+      <c r="AP258" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y167:AD167"/>
+  <mergeCells count="197">
+    <mergeCell ref="AJ234:AL234"/>
+    <mergeCell ref="AD226:AL226"/>
+    <mergeCell ref="AD228:AG228"/>
+    <mergeCell ref="AD229:AG229"/>
+    <mergeCell ref="AD230:AG230"/>
+    <mergeCell ref="AD231:AG231"/>
+    <mergeCell ref="AD232:AG232"/>
+    <mergeCell ref="AD233:AG233"/>
+    <mergeCell ref="AD235:AG235"/>
+    <mergeCell ref="AH228:AI228"/>
+    <mergeCell ref="AH229:AI229"/>
+    <mergeCell ref="AH230:AI230"/>
+    <mergeCell ref="AH231:AI231"/>
+    <mergeCell ref="AH232:AI232"/>
+    <mergeCell ref="AH233:AI233"/>
+    <mergeCell ref="AH235:AI235"/>
+    <mergeCell ref="AJ228:AL228"/>
+    <mergeCell ref="AJ229:AL229"/>
+    <mergeCell ref="AJ230:AL230"/>
+    <mergeCell ref="AJ231:AL231"/>
+    <mergeCell ref="AJ232:AL232"/>
+    <mergeCell ref="AJ233:AL233"/>
+    <mergeCell ref="AJ235:AL235"/>
+    <mergeCell ref="AD234:AG234"/>
+    <mergeCell ref="AH234:AI234"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L47:AD47"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L18:AD18"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L39:AD39"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="S156:X156"/>
+    <mergeCell ref="S157:X157"/>
+    <mergeCell ref="S158:X158"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="S131:X131"/>
+    <mergeCell ref="S132:X132"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="S134:X134"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="AE155:AJ155"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="S124:X124"/>
+    <mergeCell ref="Y124:AD124"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="AE124:AJ124"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="S127:X127"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="Y127:AD127"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="AE127:AJ127"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE173:AJ173"/>
     <mergeCell ref="AE174:AJ174"/>
     <mergeCell ref="Y129:AD129"/>
     <mergeCell ref="Y130:AD130"/>
@@ -14806,144 +16052,16 @@
     <mergeCell ref="Y149:AD149"/>
     <mergeCell ref="Y150:AD150"/>
     <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="S124:X124"/>
-    <mergeCell ref="Y124:AD124"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="AE124:AJ124"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="S127:X127"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="Y127:AD127"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="AE127:AJ127"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="S131:X131"/>
-    <mergeCell ref="S132:X132"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="S134:X134"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="S156:X156"/>
-    <mergeCell ref="S157:X157"/>
-    <mergeCell ref="S158:X158"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L47:AD47"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L18:AD18"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L39:AD39"/>
-    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y167:AD167"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -2858,7 +2858,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2880,12 +2880,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4057,7 +4051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4186,49 +4180,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4240,13 +4251,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4276,63 +4287,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5584,131 +5583,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>51835</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>129590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>38877</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>246224</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11676223" y="60001019"/>
-          <a:ext cx="1477348" cy="635001"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -72183"/>
-            <a:gd name="adj2" fmla="val -43622"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>48725</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>139440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>35767</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>256074</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="四角形吹き出し 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11673113" y="60010869"/>
-          <a:ext cx="1477348" cy="635001"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -73060"/>
-            <a:gd name="adj2" fmla="val 29847"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>まずはこの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>つだけ。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6707,15 +6581,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="157"/>
       <c r="H1" s="55"/>
       <c r="I1" s="52" t="s">
         <v>73</v>
@@ -6726,53 +6600,53 @@
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
       <c r="O1" s="54"/>
-      <c r="P1" s="159" t="s">
+      <c r="P1" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="161"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="166"/>
       <c r="AA1" s="52" t="s">
         <v>68</v>
       </c>
       <c r="AB1" s="50"/>
       <c r="AC1" s="51"/>
-      <c r="AD1" s="156">
+      <c r="AD1" s="161">
         <v>42760</v>
       </c>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="158"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="162"/>
+      <c r="AH1" s="163"/>
       <c r="AI1" s="52" t="s">
         <v>70</v>
       </c>
       <c r="AJ1" s="53"/>
       <c r="AK1" s="54"/>
-      <c r="AL1" s="147" t="s">
+      <c r="AL1" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="148"/>
-      <c r="AO1" s="148"/>
-      <c r="AP1" s="149"/>
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="154"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="155"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="160"/>
       <c r="H2" s="56"/>
       <c r="I2" s="52" t="s">
         <v>74</v>
@@ -6783,41 +6657,41 @@
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="54"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="161"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="166"/>
       <c r="AA2" s="52" t="s">
         <v>69</v>
       </c>
       <c r="AB2" s="50"/>
       <c r="AC2" s="51"/>
-      <c r="AD2" s="156">
+      <c r="AD2" s="161">
         <v>42950</v>
       </c>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="158"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="163"/>
       <c r="AI2" s="52" t="s">
         <v>71</v>
       </c>
       <c r="AJ2" s="53"/>
       <c r="AK2" s="54"/>
-      <c r="AL2" s="147" t="s">
+      <c r="AL2" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="148"/>
-      <c r="AO2" s="148"/>
-      <c r="AP2" s="149"/>
+      <c r="AM2" s="153"/>
+      <c r="AN2" s="153"/>
+      <c r="AO2" s="153"/>
+      <c r="AP2" s="154"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7355,27 +7229,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="141" t="s">
+      <c r="L19" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="142"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="142"/>
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="143"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="148"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7391,27 +7265,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
-      <c r="L20" s="141" t="s">
+      <c r="L20" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="142"/>
-      <c r="AD20" s="143"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="148"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7427,27 +7301,27 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="43"/>
-      <c r="L21" s="141" t="s">
+      <c r="L21" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="142"/>
-      <c r="V21" s="142"/>
-      <c r="W21" s="142"/>
-      <c r="X21" s="142"/>
-      <c r="Y21" s="142"/>
-      <c r="Z21" s="142"/>
-      <c r="AA21" s="142"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="142"/>
-      <c r="AD21" s="143"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="148"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -7901,27 +7775,27 @@
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
       <c r="K40" s="62"/>
-      <c r="L40" s="132" t="s">
+      <c r="L40" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="133"/>
-      <c r="U40" s="133"/>
-      <c r="V40" s="133"/>
-      <c r="W40" s="133"/>
-      <c r="X40" s="133"/>
-      <c r="Y40" s="133"/>
-      <c r="Z40" s="133"/>
-      <c r="AA40" s="133"/>
-      <c r="AB40" s="133"/>
-      <c r="AC40" s="133"/>
-      <c r="AD40" s="134"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="150"/>
+      <c r="P40" s="150"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="150"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="150"/>
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150"/>
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="150"/>
+      <c r="AC40" s="150"/>
+      <c r="AD40" s="151"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -7937,27 +7811,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="141" t="s">
+      <c r="L41" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="142"/>
-      <c r="N41" s="142"/>
-      <c r="O41" s="142"/>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="142"/>
-      <c r="R41" s="142"/>
-      <c r="S41" s="142"/>
-      <c r="T41" s="142"/>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
-      <c r="W41" s="142"/>
-      <c r="X41" s="142"/>
-      <c r="Y41" s="142"/>
-      <c r="Z41" s="142"/>
-      <c r="AA41" s="142"/>
-      <c r="AB41" s="142"/>
-      <c r="AC41" s="142"/>
-      <c r="AD41" s="143"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="147"/>
+      <c r="W41" s="147"/>
+      <c r="X41" s="147"/>
+      <c r="Y41" s="147"/>
+      <c r="Z41" s="147"/>
+      <c r="AA41" s="147"/>
+      <c r="AB41" s="147"/>
+      <c r="AC41" s="147"/>
+      <c r="AD41" s="148"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -7973,27 +7847,27 @@
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="141" t="s">
+      <c r="L42" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="142"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="142"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="142"/>
-      <c r="R42" s="142"/>
-      <c r="S42" s="142"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
-      <c r="W42" s="142"/>
-      <c r="X42" s="142"/>
-      <c r="Y42" s="142"/>
-      <c r="Z42" s="142"/>
-      <c r="AA42" s="142"/>
-      <c r="AB42" s="142"/>
-      <c r="AC42" s="142"/>
-      <c r="AD42" s="143"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="147"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="147"/>
+      <c r="AD42" s="148"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8009,27 +7883,27 @@
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
       <c r="K43" s="41"/>
-      <c r="L43" s="141" t="s">
+      <c r="L43" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="M43" s="142"/>
-      <c r="N43" s="142"/>
-      <c r="O43" s="142"/>
-      <c r="P43" s="142"/>
-      <c r="Q43" s="142"/>
-      <c r="R43" s="142"/>
-      <c r="S43" s="142"/>
-      <c r="T43" s="142"/>
-      <c r="U43" s="142"/>
-      <c r="V43" s="142"/>
-      <c r="W43" s="142"/>
-      <c r="X43" s="142"/>
-      <c r="Y43" s="142"/>
-      <c r="Z43" s="142"/>
-      <c r="AA43" s="142"/>
-      <c r="AB43" s="142"/>
-      <c r="AC43" s="142"/>
-      <c r="AD43" s="143"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="147"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="147"/>
+      <c r="R43" s="147"/>
+      <c r="S43" s="147"/>
+      <c r="T43" s="147"/>
+      <c r="U43" s="147"/>
+      <c r="V43" s="147"/>
+      <c r="W43" s="147"/>
+      <c r="X43" s="147"/>
+      <c r="Y43" s="147"/>
+      <c r="Z43" s="147"/>
+      <c r="AA43" s="147"/>
+      <c r="AB43" s="147"/>
+      <c r="AC43" s="147"/>
+      <c r="AD43" s="148"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8045,27 +7919,27 @@
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="141" t="s">
+      <c r="L44" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="142"/>
-      <c r="N44" s="142"/>
-      <c r="O44" s="142"/>
-      <c r="P44" s="142"/>
-      <c r="Q44" s="142"/>
-      <c r="R44" s="142"/>
-      <c r="S44" s="142"/>
-      <c r="T44" s="142"/>
-      <c r="U44" s="142"/>
-      <c r="V44" s="142"/>
-      <c r="W44" s="142"/>
-      <c r="X44" s="142"/>
-      <c r="Y44" s="142"/>
-      <c r="Z44" s="142"/>
-      <c r="AA44" s="142"/>
-      <c r="AB44" s="142"/>
-      <c r="AC44" s="142"/>
-      <c r="AD44" s="143"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="147"/>
+      <c r="R44" s="147"/>
+      <c r="S44" s="147"/>
+      <c r="T44" s="147"/>
+      <c r="U44" s="147"/>
+      <c r="V44" s="147"/>
+      <c r="W44" s="147"/>
+      <c r="X44" s="147"/>
+      <c r="Y44" s="147"/>
+      <c r="Z44" s="147"/>
+      <c r="AA44" s="147"/>
+      <c r="AB44" s="147"/>
+      <c r="AC44" s="147"/>
+      <c r="AD44" s="148"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8081,27 +7955,27 @@
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
       <c r="K45" s="41"/>
-      <c r="L45" s="141" t="s">
+      <c r="L45" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
-      <c r="O45" s="142"/>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="142"/>
-      <c r="S45" s="142"/>
-      <c r="T45" s="142"/>
-      <c r="U45" s="142"/>
-      <c r="V45" s="142"/>
-      <c r="W45" s="142"/>
-      <c r="X45" s="142"/>
-      <c r="Y45" s="142"/>
-      <c r="Z45" s="142"/>
-      <c r="AA45" s="142"/>
-      <c r="AB45" s="142"/>
-      <c r="AC45" s="142"/>
-      <c r="AD45" s="143"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="147"/>
+      <c r="R45" s="147"/>
+      <c r="S45" s="147"/>
+      <c r="T45" s="147"/>
+      <c r="U45" s="147"/>
+      <c r="V45" s="147"/>
+      <c r="W45" s="147"/>
+      <c r="X45" s="147"/>
+      <c r="Y45" s="147"/>
+      <c r="Z45" s="147"/>
+      <c r="AA45" s="147"/>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="147"/>
+      <c r="AD45" s="148"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8176,27 +8050,27 @@
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
       <c r="K48" s="62"/>
-      <c r="L48" s="132" t="s">
+      <c r="L48" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="133"/>
-      <c r="N48" s="133"/>
-      <c r="O48" s="133"/>
-      <c r="P48" s="133"/>
-      <c r="Q48" s="133"/>
-      <c r="R48" s="133"/>
-      <c r="S48" s="133"/>
-      <c r="T48" s="133"/>
-      <c r="U48" s="133"/>
-      <c r="V48" s="133"/>
-      <c r="W48" s="133"/>
-      <c r="X48" s="133"/>
-      <c r="Y48" s="133"/>
-      <c r="Z48" s="133"/>
-      <c r="AA48" s="133"/>
-      <c r="AB48" s="133"/>
-      <c r="AC48" s="133"/>
-      <c r="AD48" s="134"/>
+      <c r="M48" s="150"/>
+      <c r="N48" s="150"/>
+      <c r="O48" s="150"/>
+      <c r="P48" s="150"/>
+      <c r="Q48" s="150"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="150"/>
+      <c r="T48" s="150"/>
+      <c r="U48" s="150"/>
+      <c r="V48" s="150"/>
+      <c r="W48" s="150"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="150"/>
+      <c r="Z48" s="150"/>
+      <c r="AA48" s="150"/>
+      <c r="AB48" s="150"/>
+      <c r="AC48" s="150"/>
+      <c r="AD48" s="151"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8210,27 +8084,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="141" t="s">
+      <c r="L49" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="142"/>
-      <c r="N49" s="142"/>
-      <c r="O49" s="142"/>
-      <c r="P49" s="142"/>
-      <c r="Q49" s="142"/>
-      <c r="R49" s="142"/>
-      <c r="S49" s="142"/>
-      <c r="T49" s="142"/>
-      <c r="U49" s="142"/>
-      <c r="V49" s="142"/>
-      <c r="W49" s="142"/>
-      <c r="X49" s="142"/>
-      <c r="Y49" s="142"/>
-      <c r="Z49" s="142"/>
-      <c r="AA49" s="142"/>
-      <c r="AB49" s="142"/>
-      <c r="AC49" s="142"/>
-      <c r="AD49" s="143"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="147"/>
+      <c r="R49" s="147"/>
+      <c r="S49" s="147"/>
+      <c r="T49" s="147"/>
+      <c r="U49" s="147"/>
+      <c r="V49" s="147"/>
+      <c r="W49" s="147"/>
+      <c r="X49" s="147"/>
+      <c r="Y49" s="147"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="147"/>
+      <c r="AB49" s="147"/>
+      <c r="AC49" s="147"/>
+      <c r="AD49" s="148"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8244,27 +8118,27 @@
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="141" t="s">
+      <c r="L50" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="142"/>
-      <c r="R50" s="142"/>
-      <c r="S50" s="142"/>
-      <c r="T50" s="142"/>
-      <c r="U50" s="142"/>
-      <c r="V50" s="142"/>
-      <c r="W50" s="142"/>
-      <c r="X50" s="142"/>
-      <c r="Y50" s="142"/>
-      <c r="Z50" s="142"/>
-      <c r="AA50" s="142"/>
-      <c r="AB50" s="142"/>
-      <c r="AC50" s="142"/>
-      <c r="AD50" s="143"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="147"/>
+      <c r="S50" s="147"/>
+      <c r="T50" s="147"/>
+      <c r="U50" s="147"/>
+      <c r="V50" s="147"/>
+      <c r="W50" s="147"/>
+      <c r="X50" s="147"/>
+      <c r="Y50" s="147"/>
+      <c r="Z50" s="147"/>
+      <c r="AA50" s="147"/>
+      <c r="AB50" s="147"/>
+      <c r="AC50" s="147"/>
+      <c r="AD50" s="148"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -10867,30 +10741,30 @@
       <c r="P125" s="61"/>
       <c r="Q125" s="61"/>
       <c r="R125" s="62"/>
-      <c r="S125" s="132" t="s">
+      <c r="S125" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="133"/>
-      <c r="U125" s="133"/>
-      <c r="V125" s="133"/>
-      <c r="W125" s="133"/>
-      <c r="X125" s="134"/>
-      <c r="Y125" s="132" t="s">
+      <c r="T125" s="150"/>
+      <c r="U125" s="150"/>
+      <c r="V125" s="150"/>
+      <c r="W125" s="150"/>
+      <c r="X125" s="151"/>
+      <c r="Y125" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="133"/>
-      <c r="AA125" s="133"/>
-      <c r="AB125" s="133"/>
-      <c r="AC125" s="133"/>
-      <c r="AD125" s="134"/>
-      <c r="AE125" s="132" t="s">
+      <c r="Z125" s="150"/>
+      <c r="AA125" s="150"/>
+      <c r="AB125" s="150"/>
+      <c r="AC125" s="150"/>
+      <c r="AD125" s="151"/>
+      <c r="AE125" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="133"/>
-      <c r="AG125" s="133"/>
-      <c r="AH125" s="133"/>
-      <c r="AI125" s="133"/>
-      <c r="AJ125" s="134"/>
+      <c r="AF125" s="150"/>
+      <c r="AG125" s="150"/>
+      <c r="AH125" s="150"/>
+      <c r="AI125" s="150"/>
+      <c r="AJ125" s="151"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -10912,30 +10786,30 @@
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
       <c r="R126" s="13"/>
-      <c r="S126" s="141" t="s">
+      <c r="S126" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="142"/>
-      <c r="U126" s="142"/>
-      <c r="V126" s="142"/>
-      <c r="W126" s="142"/>
-      <c r="X126" s="143"/>
-      <c r="Y126" s="141" t="s">
+      <c r="T126" s="147"/>
+      <c r="U126" s="147"/>
+      <c r="V126" s="147"/>
+      <c r="W126" s="147"/>
+      <c r="X126" s="148"/>
+      <c r="Y126" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="142"/>
-      <c r="AA126" s="142"/>
-      <c r="AB126" s="142"/>
-      <c r="AC126" s="142"/>
-      <c r="AD126" s="143"/>
-      <c r="AE126" s="141" t="s">
+      <c r="Z126" s="147"/>
+      <c r="AA126" s="147"/>
+      <c r="AB126" s="147"/>
+      <c r="AC126" s="147"/>
+      <c r="AD126" s="148"/>
+      <c r="AE126" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="142"/>
-      <c r="AG126" s="142"/>
-      <c r="AH126" s="142"/>
-      <c r="AI126" s="142"/>
-      <c r="AJ126" s="143"/>
+      <c r="AF126" s="147"/>
+      <c r="AG126" s="147"/>
+      <c r="AH126" s="147"/>
+      <c r="AI126" s="147"/>
+      <c r="AJ126" s="148"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -10996,30 +10870,30 @@
       <c r="P128" s="19"/>
       <c r="Q128" s="19"/>
       <c r="R128" s="20"/>
-      <c r="S128" s="168" t="s">
+      <c r="S128" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="169"/>
-      <c r="U128" s="169"/>
-      <c r="V128" s="169"/>
-      <c r="W128" s="169"/>
-      <c r="X128" s="170"/>
-      <c r="Y128" s="168" t="s">
+      <c r="T128" s="144"/>
+      <c r="U128" s="144"/>
+      <c r="V128" s="144"/>
+      <c r="W128" s="144"/>
+      <c r="X128" s="145"/>
+      <c r="Y128" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="169"/>
-      <c r="AA128" s="169"/>
-      <c r="AB128" s="169"/>
-      <c r="AC128" s="169"/>
-      <c r="AD128" s="170"/>
-      <c r="AE128" s="168" t="s">
+      <c r="Z128" s="144"/>
+      <c r="AA128" s="144"/>
+      <c r="AB128" s="144"/>
+      <c r="AC128" s="144"/>
+      <c r="AD128" s="145"/>
+      <c r="AE128" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="169"/>
-      <c r="AG128" s="169"/>
-      <c r="AH128" s="169"/>
-      <c r="AI128" s="169"/>
-      <c r="AJ128" s="170"/>
+      <c r="AF128" s="144"/>
+      <c r="AG128" s="144"/>
+      <c r="AH128" s="144"/>
+      <c r="AI128" s="144"/>
+      <c r="AJ128" s="145"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11041,30 +10915,30 @@
       <c r="P129" s="22"/>
       <c r="Q129" s="22"/>
       <c r="R129" s="23"/>
-      <c r="S129" s="165" t="s">
+      <c r="S129" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="166"/>
-      <c r="U129" s="166"/>
-      <c r="V129" s="166"/>
-      <c r="W129" s="166"/>
-      <c r="X129" s="167"/>
-      <c r="Y129" s="165" t="s">
+      <c r="T129" s="132"/>
+      <c r="U129" s="132"/>
+      <c r="V129" s="132"/>
+      <c r="W129" s="132"/>
+      <c r="X129" s="133"/>
+      <c r="Y129" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="166"/>
-      <c r="AA129" s="166"/>
-      <c r="AB129" s="166"/>
-      <c r="AC129" s="166"/>
-      <c r="AD129" s="167"/>
-      <c r="AE129" s="165" t="s">
+      <c r="Z129" s="132"/>
+      <c r="AA129" s="132"/>
+      <c r="AB129" s="132"/>
+      <c r="AC129" s="132"/>
+      <c r="AD129" s="133"/>
+      <c r="AE129" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="166"/>
-      <c r="AG129" s="166"/>
-      <c r="AH129" s="166"/>
-      <c r="AI129" s="166"/>
-      <c r="AJ129" s="167"/>
+      <c r="AF129" s="132"/>
+      <c r="AG129" s="132"/>
+      <c r="AH129" s="132"/>
+      <c r="AI129" s="132"/>
+      <c r="AJ129" s="133"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11088,30 +10962,30 @@
       <c r="P130" s="22"/>
       <c r="Q130" s="22"/>
       <c r="R130" s="23"/>
-      <c r="S130" s="165" t="s">
+      <c r="S130" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="166"/>
-      <c r="U130" s="166"/>
-      <c r="V130" s="166"/>
-      <c r="W130" s="166"/>
-      <c r="X130" s="167"/>
-      <c r="Y130" s="165" t="s">
+      <c r="T130" s="132"/>
+      <c r="U130" s="132"/>
+      <c r="V130" s="132"/>
+      <c r="W130" s="132"/>
+      <c r="X130" s="133"/>
+      <c r="Y130" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="166"/>
-      <c r="AA130" s="166"/>
-      <c r="AB130" s="166"/>
-      <c r="AC130" s="166"/>
-      <c r="AD130" s="167"/>
-      <c r="AE130" s="165" t="s">
+      <c r="Z130" s="132"/>
+      <c r="AA130" s="132"/>
+      <c r="AB130" s="132"/>
+      <c r="AC130" s="132"/>
+      <c r="AD130" s="133"/>
+      <c r="AE130" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="166"/>
-      <c r="AG130" s="166"/>
-      <c r="AH130" s="166"/>
-      <c r="AI130" s="166"/>
-      <c r="AJ130" s="167"/>
+      <c r="AF130" s="132"/>
+      <c r="AG130" s="132"/>
+      <c r="AH130" s="132"/>
+      <c r="AI130" s="132"/>
+      <c r="AJ130" s="133"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11129,30 +11003,30 @@
       <c r="P131" s="22"/>
       <c r="Q131" s="22"/>
       <c r="R131" s="23"/>
-      <c r="S131" s="165" t="s">
+      <c r="S131" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="166"/>
-      <c r="U131" s="166"/>
-      <c r="V131" s="166"/>
-      <c r="W131" s="166"/>
-      <c r="X131" s="167"/>
-      <c r="Y131" s="165" t="s">
+      <c r="T131" s="132"/>
+      <c r="U131" s="132"/>
+      <c r="V131" s="132"/>
+      <c r="W131" s="132"/>
+      <c r="X131" s="133"/>
+      <c r="Y131" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="166"/>
-      <c r="AA131" s="166"/>
-      <c r="AB131" s="166"/>
-      <c r="AC131" s="166"/>
-      <c r="AD131" s="167"/>
-      <c r="AE131" s="165" t="s">
+      <c r="Z131" s="132"/>
+      <c r="AA131" s="132"/>
+      <c r="AB131" s="132"/>
+      <c r="AC131" s="132"/>
+      <c r="AD131" s="133"/>
+      <c r="AE131" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="166"/>
-      <c r="AG131" s="166"/>
-      <c r="AH131" s="166"/>
-      <c r="AI131" s="166"/>
-      <c r="AJ131" s="167"/>
+      <c r="AF131" s="132"/>
+      <c r="AG131" s="132"/>
+      <c r="AH131" s="132"/>
+      <c r="AI131" s="132"/>
+      <c r="AJ131" s="133"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11174,30 +11048,30 @@
       <c r="P132" s="22"/>
       <c r="Q132" s="22"/>
       <c r="R132" s="23"/>
-      <c r="S132" s="165" t="s">
+      <c r="S132" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="166"/>
-      <c r="U132" s="166"/>
-      <c r="V132" s="166"/>
-      <c r="W132" s="166"/>
-      <c r="X132" s="167"/>
-      <c r="Y132" s="165" t="s">
+      <c r="T132" s="132"/>
+      <c r="U132" s="132"/>
+      <c r="V132" s="132"/>
+      <c r="W132" s="132"/>
+      <c r="X132" s="133"/>
+      <c r="Y132" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="166"/>
-      <c r="AA132" s="166"/>
-      <c r="AB132" s="166"/>
-      <c r="AC132" s="166"/>
-      <c r="AD132" s="167"/>
-      <c r="AE132" s="165" t="s">
+      <c r="Z132" s="132"/>
+      <c r="AA132" s="132"/>
+      <c r="AB132" s="132"/>
+      <c r="AC132" s="132"/>
+      <c r="AD132" s="133"/>
+      <c r="AE132" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="166"/>
-      <c r="AG132" s="166"/>
-      <c r="AH132" s="166"/>
-      <c r="AI132" s="166"/>
-      <c r="AJ132" s="167"/>
+      <c r="AF132" s="132"/>
+      <c r="AG132" s="132"/>
+      <c r="AH132" s="132"/>
+      <c r="AI132" s="132"/>
+      <c r="AJ132" s="133"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11221,30 +11095,30 @@
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
       <c r="R133" s="25"/>
-      <c r="S133" s="165" t="s">
+      <c r="S133" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T133" s="166"/>
-      <c r="U133" s="166"/>
-      <c r="V133" s="166"/>
-      <c r="W133" s="166"/>
-      <c r="X133" s="167"/>
-      <c r="Y133" s="165" t="s">
+      <c r="T133" s="132"/>
+      <c r="U133" s="132"/>
+      <c r="V133" s="132"/>
+      <c r="W133" s="132"/>
+      <c r="X133" s="133"/>
+      <c r="Y133" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="166"/>
-      <c r="AA133" s="166"/>
-      <c r="AB133" s="166"/>
-      <c r="AC133" s="166"/>
-      <c r="AD133" s="167"/>
-      <c r="AE133" s="165" t="s">
+      <c r="Z133" s="132"/>
+      <c r="AA133" s="132"/>
+      <c r="AB133" s="132"/>
+      <c r="AC133" s="132"/>
+      <c r="AD133" s="133"/>
+      <c r="AE133" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF133" s="166"/>
-      <c r="AG133" s="166"/>
-      <c r="AH133" s="166"/>
-      <c r="AI133" s="166"/>
-      <c r="AJ133" s="167"/>
+      <c r="AF133" s="132"/>
+      <c r="AG133" s="132"/>
+      <c r="AH133" s="132"/>
+      <c r="AI133" s="132"/>
+      <c r="AJ133" s="133"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11262,30 +11136,30 @@
       <c r="P134" s="22"/>
       <c r="Q134" s="22"/>
       <c r="R134" s="25"/>
-      <c r="S134" s="165" t="s">
+      <c r="S134" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="166"/>
-      <c r="U134" s="166"/>
-      <c r="V134" s="166"/>
-      <c r="W134" s="166"/>
-      <c r="X134" s="167"/>
-      <c r="Y134" s="165" t="s">
+      <c r="T134" s="132"/>
+      <c r="U134" s="132"/>
+      <c r="V134" s="132"/>
+      <c r="W134" s="132"/>
+      <c r="X134" s="133"/>
+      <c r="Y134" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z134" s="166"/>
-      <c r="AA134" s="166"/>
-      <c r="AB134" s="166"/>
-      <c r="AC134" s="166"/>
-      <c r="AD134" s="167"/>
-      <c r="AE134" s="165" t="s">
+      <c r="Z134" s="132"/>
+      <c r="AA134" s="132"/>
+      <c r="AB134" s="132"/>
+      <c r="AC134" s="132"/>
+      <c r="AD134" s="133"/>
+      <c r="AE134" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="166"/>
-      <c r="AG134" s="166"/>
-      <c r="AH134" s="166"/>
-      <c r="AI134" s="166"/>
-      <c r="AJ134" s="167"/>
+      <c r="AF134" s="132"/>
+      <c r="AG134" s="132"/>
+      <c r="AH134" s="132"/>
+      <c r="AI134" s="132"/>
+      <c r="AJ134" s="133"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11307,30 +11181,30 @@
       <c r="P135" s="22"/>
       <c r="Q135" s="22"/>
       <c r="R135" s="25"/>
-      <c r="S135" s="165" t="s">
+      <c r="S135" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="166"/>
-      <c r="U135" s="166"/>
-      <c r="V135" s="166"/>
-      <c r="W135" s="166"/>
-      <c r="X135" s="167"/>
-      <c r="Y135" s="165" t="s">
+      <c r="T135" s="132"/>
+      <c r="U135" s="132"/>
+      <c r="V135" s="132"/>
+      <c r="W135" s="132"/>
+      <c r="X135" s="133"/>
+      <c r="Y135" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="166"/>
-      <c r="AA135" s="166"/>
-      <c r="AB135" s="166"/>
-      <c r="AC135" s="166"/>
-      <c r="AD135" s="167"/>
-      <c r="AE135" s="165" t="s">
+      <c r="Z135" s="132"/>
+      <c r="AA135" s="132"/>
+      <c r="AB135" s="132"/>
+      <c r="AC135" s="132"/>
+      <c r="AD135" s="133"/>
+      <c r="AE135" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="166"/>
-      <c r="AG135" s="166"/>
-      <c r="AH135" s="166"/>
-      <c r="AI135" s="166"/>
-      <c r="AJ135" s="167"/>
+      <c r="AF135" s="132"/>
+      <c r="AG135" s="132"/>
+      <c r="AH135" s="132"/>
+      <c r="AI135" s="132"/>
+      <c r="AJ135" s="133"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11352,30 +11226,30 @@
       <c r="P136" s="22"/>
       <c r="Q136" s="22"/>
       <c r="R136" s="25"/>
-      <c r="S136" s="165" t="s">
+      <c r="S136" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="166"/>
-      <c r="U136" s="166"/>
-      <c r="V136" s="166"/>
-      <c r="W136" s="166"/>
-      <c r="X136" s="167"/>
-      <c r="Y136" s="165" t="s">
+      <c r="T136" s="132"/>
+      <c r="U136" s="132"/>
+      <c r="V136" s="132"/>
+      <c r="W136" s="132"/>
+      <c r="X136" s="133"/>
+      <c r="Y136" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="166"/>
-      <c r="AA136" s="166"/>
-      <c r="AB136" s="166"/>
-      <c r="AC136" s="166"/>
-      <c r="AD136" s="167"/>
-      <c r="AE136" s="162" t="s">
+      <c r="Z136" s="132"/>
+      <c r="AA136" s="132"/>
+      <c r="AB136" s="132"/>
+      <c r="AC136" s="132"/>
+      <c r="AD136" s="133"/>
+      <c r="AE136" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="AF136" s="163"/>
-      <c r="AG136" s="163"/>
-      <c r="AH136" s="163"/>
-      <c r="AI136" s="163"/>
-      <c r="AJ136" s="164"/>
+      <c r="AF136" s="129"/>
+      <c r="AG136" s="129"/>
+      <c r="AH136" s="129"/>
+      <c r="AI136" s="129"/>
+      <c r="AJ136" s="130"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11399,30 +11273,30 @@
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
       <c r="R137" s="25"/>
-      <c r="S137" s="165" t="s">
+      <c r="S137" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T137" s="166"/>
-      <c r="U137" s="166"/>
-      <c r="V137" s="166"/>
-      <c r="W137" s="166"/>
-      <c r="X137" s="167"/>
-      <c r="Y137" s="165" t="s">
+      <c r="T137" s="132"/>
+      <c r="U137" s="132"/>
+      <c r="V137" s="132"/>
+      <c r="W137" s="132"/>
+      <c r="X137" s="133"/>
+      <c r="Y137" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="Z137" s="166"/>
-      <c r="AA137" s="166"/>
-      <c r="AB137" s="166"/>
-      <c r="AC137" s="166"/>
-      <c r="AD137" s="167"/>
-      <c r="AE137" s="165" t="s">
+      <c r="Z137" s="132"/>
+      <c r="AA137" s="132"/>
+      <c r="AB137" s="132"/>
+      <c r="AC137" s="132"/>
+      <c r="AD137" s="133"/>
+      <c r="AE137" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF137" s="166"/>
-      <c r="AG137" s="166"/>
-      <c r="AH137" s="166"/>
-      <c r="AI137" s="166"/>
-      <c r="AJ137" s="167"/>
+      <c r="AF137" s="132"/>
+      <c r="AG137" s="132"/>
+      <c r="AH137" s="132"/>
+      <c r="AI137" s="132"/>
+      <c r="AJ137" s="133"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11440,30 +11314,30 @@
       <c r="P138" s="22"/>
       <c r="Q138" s="22"/>
       <c r="R138" s="25"/>
-      <c r="S138" s="165" t="s">
+      <c r="S138" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="166"/>
-      <c r="U138" s="166"/>
-      <c r="V138" s="166"/>
-      <c r="W138" s="166"/>
-      <c r="X138" s="167"/>
-      <c r="Y138" s="165" t="s">
+      <c r="T138" s="132"/>
+      <c r="U138" s="132"/>
+      <c r="V138" s="132"/>
+      <c r="W138" s="132"/>
+      <c r="X138" s="133"/>
+      <c r="Y138" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z138" s="166"/>
-      <c r="AA138" s="166"/>
-      <c r="AB138" s="166"/>
-      <c r="AC138" s="166"/>
-      <c r="AD138" s="167"/>
-      <c r="AE138" s="165" t="s">
+      <c r="Z138" s="132"/>
+      <c r="AA138" s="132"/>
+      <c r="AB138" s="132"/>
+      <c r="AC138" s="132"/>
+      <c r="AD138" s="133"/>
+      <c r="AE138" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="166"/>
-      <c r="AG138" s="166"/>
-      <c r="AH138" s="166"/>
-      <c r="AI138" s="166"/>
-      <c r="AJ138" s="167"/>
+      <c r="AF138" s="132"/>
+      <c r="AG138" s="132"/>
+      <c r="AH138" s="132"/>
+      <c r="AI138" s="132"/>
+      <c r="AJ138" s="133"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11485,30 +11359,30 @@
       <c r="P139" s="22"/>
       <c r="Q139" s="22"/>
       <c r="R139" s="25"/>
-      <c r="S139" s="165" t="s">
+      <c r="S139" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="166"/>
-      <c r="U139" s="166"/>
-      <c r="V139" s="166"/>
-      <c r="W139" s="166"/>
-      <c r="X139" s="167"/>
-      <c r="Y139" s="165" t="s">
+      <c r="T139" s="132"/>
+      <c r="U139" s="132"/>
+      <c r="V139" s="132"/>
+      <c r="W139" s="132"/>
+      <c r="X139" s="133"/>
+      <c r="Y139" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="166"/>
-      <c r="AA139" s="166"/>
-      <c r="AB139" s="166"/>
-      <c r="AC139" s="166"/>
-      <c r="AD139" s="167"/>
-      <c r="AE139" s="165" t="s">
+      <c r="Z139" s="132"/>
+      <c r="AA139" s="132"/>
+      <c r="AB139" s="132"/>
+      <c r="AC139" s="132"/>
+      <c r="AD139" s="133"/>
+      <c r="AE139" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="166"/>
-      <c r="AG139" s="166"/>
-      <c r="AH139" s="166"/>
-      <c r="AI139" s="166"/>
-      <c r="AJ139" s="167"/>
+      <c r="AF139" s="132"/>
+      <c r="AG139" s="132"/>
+      <c r="AH139" s="132"/>
+      <c r="AI139" s="132"/>
+      <c r="AJ139" s="133"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11530,30 +11404,30 @@
       <c r="P140" s="22"/>
       <c r="Q140" s="22"/>
       <c r="R140" s="25"/>
-      <c r="S140" s="165" t="s">
+      <c r="S140" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="166"/>
-      <c r="U140" s="166"/>
-      <c r="V140" s="166"/>
-      <c r="W140" s="166"/>
-      <c r="X140" s="167"/>
-      <c r="Y140" s="165" t="s">
+      <c r="T140" s="132"/>
+      <c r="U140" s="132"/>
+      <c r="V140" s="132"/>
+      <c r="W140" s="132"/>
+      <c r="X140" s="133"/>
+      <c r="Y140" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="166"/>
-      <c r="AA140" s="166"/>
-      <c r="AB140" s="166"/>
-      <c r="AC140" s="166"/>
-      <c r="AD140" s="167"/>
-      <c r="AE140" s="162" t="s">
+      <c r="Z140" s="132"/>
+      <c r="AA140" s="132"/>
+      <c r="AB140" s="132"/>
+      <c r="AC140" s="132"/>
+      <c r="AD140" s="133"/>
+      <c r="AE140" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="AF140" s="163"/>
-      <c r="AG140" s="163"/>
-      <c r="AH140" s="163"/>
-      <c r="AI140" s="163"/>
-      <c r="AJ140" s="164"/>
+      <c r="AF140" s="129"/>
+      <c r="AG140" s="129"/>
+      <c r="AH140" s="129"/>
+      <c r="AI140" s="129"/>
+      <c r="AJ140" s="130"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11577,30 +11451,30 @@
       <c r="P141" s="22"/>
       <c r="Q141" s="22"/>
       <c r="R141" s="25"/>
-      <c r="S141" s="165" t="s">
+      <c r="S141" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="166"/>
-      <c r="U141" s="166"/>
-      <c r="V141" s="166"/>
-      <c r="W141" s="166"/>
-      <c r="X141" s="167"/>
-      <c r="Y141" s="165" t="s">
+      <c r="T141" s="132"/>
+      <c r="U141" s="132"/>
+      <c r="V141" s="132"/>
+      <c r="W141" s="132"/>
+      <c r="X141" s="133"/>
+      <c r="Y141" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="Z141" s="166"/>
-      <c r="AA141" s="166"/>
-      <c r="AB141" s="166"/>
-      <c r="AC141" s="166"/>
-      <c r="AD141" s="167"/>
-      <c r="AE141" s="165" t="s">
+      <c r="Z141" s="132"/>
+      <c r="AA141" s="132"/>
+      <c r="AB141" s="132"/>
+      <c r="AC141" s="132"/>
+      <c r="AD141" s="133"/>
+      <c r="AE141" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF141" s="166"/>
-      <c r="AG141" s="166"/>
-      <c r="AH141" s="166"/>
-      <c r="AI141" s="166"/>
-      <c r="AJ141" s="167"/>
+      <c r="AF141" s="132"/>
+      <c r="AG141" s="132"/>
+      <c r="AH141" s="132"/>
+      <c r="AI141" s="132"/>
+      <c r="AJ141" s="133"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11618,30 +11492,30 @@
       <c r="P142" s="22"/>
       <c r="Q142" s="22"/>
       <c r="R142" s="25"/>
-      <c r="S142" s="165" t="s">
+      <c r="S142" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="166"/>
-      <c r="U142" s="166"/>
-      <c r="V142" s="166"/>
-      <c r="W142" s="166"/>
-      <c r="X142" s="167"/>
-      <c r="Y142" s="165" t="s">
+      <c r="T142" s="132"/>
+      <c r="U142" s="132"/>
+      <c r="V142" s="132"/>
+      <c r="W142" s="132"/>
+      <c r="X142" s="133"/>
+      <c r="Y142" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z142" s="166"/>
-      <c r="AA142" s="166"/>
-      <c r="AB142" s="166"/>
-      <c r="AC142" s="166"/>
-      <c r="AD142" s="167"/>
-      <c r="AE142" s="165" t="s">
+      <c r="Z142" s="132"/>
+      <c r="AA142" s="132"/>
+      <c r="AB142" s="132"/>
+      <c r="AC142" s="132"/>
+      <c r="AD142" s="133"/>
+      <c r="AE142" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="166"/>
-      <c r="AG142" s="166"/>
-      <c r="AH142" s="166"/>
-      <c r="AI142" s="166"/>
-      <c r="AJ142" s="167"/>
+      <c r="AF142" s="132"/>
+      <c r="AG142" s="132"/>
+      <c r="AH142" s="132"/>
+      <c r="AI142" s="132"/>
+      <c r="AJ142" s="133"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11663,30 +11537,30 @@
       <c r="P143" s="22"/>
       <c r="Q143" s="22"/>
       <c r="R143" s="25"/>
-      <c r="S143" s="165" t="s">
+      <c r="S143" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="166"/>
-      <c r="U143" s="166"/>
-      <c r="V143" s="166"/>
-      <c r="W143" s="166"/>
-      <c r="X143" s="167"/>
-      <c r="Y143" s="165" t="s">
+      <c r="T143" s="132"/>
+      <c r="U143" s="132"/>
+      <c r="V143" s="132"/>
+      <c r="W143" s="132"/>
+      <c r="X143" s="133"/>
+      <c r="Y143" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="166"/>
-      <c r="AA143" s="166"/>
-      <c r="AB143" s="166"/>
-      <c r="AC143" s="166"/>
-      <c r="AD143" s="167"/>
-      <c r="AE143" s="165" t="s">
+      <c r="Z143" s="132"/>
+      <c r="AA143" s="132"/>
+      <c r="AB143" s="132"/>
+      <c r="AC143" s="132"/>
+      <c r="AD143" s="133"/>
+      <c r="AE143" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="166"/>
-      <c r="AG143" s="166"/>
-      <c r="AH143" s="166"/>
-      <c r="AI143" s="166"/>
-      <c r="AJ143" s="167"/>
+      <c r="AF143" s="132"/>
+      <c r="AG143" s="132"/>
+      <c r="AH143" s="132"/>
+      <c r="AI143" s="132"/>
+      <c r="AJ143" s="133"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11708,30 +11582,30 @@
       <c r="P144" s="88"/>
       <c r="Q144" s="88"/>
       <c r="R144" s="89"/>
-      <c r="S144" s="162" t="s">
+      <c r="S144" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="T144" s="163"/>
-      <c r="U144" s="163"/>
-      <c r="V144" s="163"/>
-      <c r="W144" s="163"/>
-      <c r="X144" s="164"/>
-      <c r="Y144" s="177" t="s">
+      <c r="T144" s="129"/>
+      <c r="U144" s="129"/>
+      <c r="V144" s="129"/>
+      <c r="W144" s="129"/>
+      <c r="X144" s="130"/>
+      <c r="Y144" s="134" t="s">
         <v>225</v>
       </c>
-      <c r="Z144" s="178"/>
-      <c r="AA144" s="178"/>
-      <c r="AB144" s="178"/>
-      <c r="AC144" s="178"/>
-      <c r="AD144" s="179"/>
-      <c r="AE144" s="177" t="s">
+      <c r="Z144" s="135"/>
+      <c r="AA144" s="135"/>
+      <c r="AB144" s="135"/>
+      <c r="AC144" s="135"/>
+      <c r="AD144" s="136"/>
+      <c r="AE144" s="134" t="s">
         <v>225</v>
       </c>
-      <c r="AF144" s="178"/>
-      <c r="AG144" s="178"/>
-      <c r="AH144" s="178"/>
-      <c r="AI144" s="178"/>
-      <c r="AJ144" s="179"/>
+      <c r="AF144" s="135"/>
+      <c r="AG144" s="135"/>
+      <c r="AH144" s="135"/>
+      <c r="AI144" s="135"/>
+      <c r="AJ144" s="136"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -11755,30 +11629,30 @@
       <c r="P145" s="85"/>
       <c r="Q145" s="85"/>
       <c r="R145" s="86"/>
-      <c r="S145" s="162" t="s">
+      <c r="S145" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="163"/>
-      <c r="U145" s="163"/>
-      <c r="V145" s="163"/>
-      <c r="W145" s="163"/>
-      <c r="X145" s="164"/>
-      <c r="Y145" s="165" t="s">
+      <c r="T145" s="129"/>
+      <c r="U145" s="129"/>
+      <c r="V145" s="129"/>
+      <c r="W145" s="129"/>
+      <c r="X145" s="130"/>
+      <c r="Y145" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="Z145" s="166"/>
-      <c r="AA145" s="166"/>
-      <c r="AB145" s="166"/>
-      <c r="AC145" s="166"/>
-      <c r="AD145" s="167"/>
-      <c r="AE145" s="165" t="s">
+      <c r="Z145" s="132"/>
+      <c r="AA145" s="132"/>
+      <c r="AB145" s="132"/>
+      <c r="AC145" s="132"/>
+      <c r="AD145" s="133"/>
+      <c r="AE145" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF145" s="166"/>
-      <c r="AG145" s="166"/>
-      <c r="AH145" s="166"/>
-      <c r="AI145" s="166"/>
-      <c r="AJ145" s="167"/>
+      <c r="AF145" s="132"/>
+      <c r="AG145" s="132"/>
+      <c r="AH145" s="132"/>
+      <c r="AI145" s="132"/>
+      <c r="AJ145" s="133"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -11796,30 +11670,30 @@
       <c r="P146" s="22"/>
       <c r="Q146" s="22"/>
       <c r="R146" s="25"/>
-      <c r="S146" s="162" t="s">
+      <c r="S146" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="163"/>
-      <c r="U146" s="163"/>
-      <c r="V146" s="163"/>
-      <c r="W146" s="163"/>
-      <c r="X146" s="164"/>
-      <c r="Y146" s="162" t="s">
+      <c r="T146" s="129"/>
+      <c r="U146" s="129"/>
+      <c r="V146" s="129"/>
+      <c r="W146" s="129"/>
+      <c r="X146" s="130"/>
+      <c r="Y146" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z146" s="163"/>
-      <c r="AA146" s="163"/>
-      <c r="AB146" s="163"/>
-      <c r="AC146" s="163"/>
-      <c r="AD146" s="164"/>
-      <c r="AE146" s="165" t="s">
+      <c r="Z146" s="129"/>
+      <c r="AA146" s="129"/>
+      <c r="AB146" s="129"/>
+      <c r="AC146" s="129"/>
+      <c r="AD146" s="130"/>
+      <c r="AE146" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="166"/>
-      <c r="AG146" s="166"/>
-      <c r="AH146" s="166"/>
-      <c r="AI146" s="166"/>
-      <c r="AJ146" s="167"/>
+      <c r="AF146" s="132"/>
+      <c r="AG146" s="132"/>
+      <c r="AH146" s="132"/>
+      <c r="AI146" s="132"/>
+      <c r="AJ146" s="133"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -11841,30 +11715,30 @@
       <c r="P147" s="22"/>
       <c r="Q147" s="22"/>
       <c r="R147" s="25"/>
-      <c r="S147" s="162" t="s">
+      <c r="S147" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="163"/>
-      <c r="U147" s="163"/>
-      <c r="V147" s="163"/>
-      <c r="W147" s="163"/>
-      <c r="X147" s="164"/>
-      <c r="Y147" s="162" t="s">
+      <c r="T147" s="129"/>
+      <c r="U147" s="129"/>
+      <c r="V147" s="129"/>
+      <c r="W147" s="129"/>
+      <c r="X147" s="130"/>
+      <c r="Y147" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="163"/>
-      <c r="AA147" s="163"/>
-      <c r="AB147" s="163"/>
-      <c r="AC147" s="163"/>
-      <c r="AD147" s="164"/>
-      <c r="AE147" s="165" t="s">
+      <c r="Z147" s="129"/>
+      <c r="AA147" s="129"/>
+      <c r="AB147" s="129"/>
+      <c r="AC147" s="129"/>
+      <c r="AD147" s="130"/>
+      <c r="AE147" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="166"/>
-      <c r="AG147" s="166"/>
-      <c r="AH147" s="166"/>
-      <c r="AI147" s="166"/>
-      <c r="AJ147" s="167"/>
+      <c r="AF147" s="132"/>
+      <c r="AG147" s="132"/>
+      <c r="AH147" s="132"/>
+      <c r="AI147" s="132"/>
+      <c r="AJ147" s="133"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -11888,30 +11762,30 @@
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
       <c r="R148" s="25"/>
-      <c r="S148" s="162" t="s">
+      <c r="S148" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="163"/>
-      <c r="U148" s="163"/>
-      <c r="V148" s="163"/>
-      <c r="W148" s="163"/>
-      <c r="X148" s="164"/>
-      <c r="Y148" s="162" t="s">
+      <c r="T148" s="129"/>
+      <c r="U148" s="129"/>
+      <c r="V148" s="129"/>
+      <c r="W148" s="129"/>
+      <c r="X148" s="130"/>
+      <c r="Y148" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="163"/>
-      <c r="AA148" s="163"/>
-      <c r="AB148" s="163"/>
-      <c r="AC148" s="163"/>
-      <c r="AD148" s="164"/>
-      <c r="AE148" s="165" t="s">
+      <c r="Z148" s="129"/>
+      <c r="AA148" s="129"/>
+      <c r="AB148" s="129"/>
+      <c r="AC148" s="129"/>
+      <c r="AD148" s="130"/>
+      <c r="AE148" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="166"/>
-      <c r="AG148" s="166"/>
-      <c r="AH148" s="166"/>
-      <c r="AI148" s="166"/>
-      <c r="AJ148" s="167"/>
+      <c r="AF148" s="132"/>
+      <c r="AG148" s="132"/>
+      <c r="AH148" s="132"/>
+      <c r="AI148" s="132"/>
+      <c r="AJ148" s="133"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -11929,30 +11803,30 @@
       <c r="P149" s="22"/>
       <c r="Q149" s="22"/>
       <c r="R149" s="25"/>
-      <c r="S149" s="162" t="s">
+      <c r="S149" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="163"/>
-      <c r="U149" s="163"/>
-      <c r="V149" s="163"/>
-      <c r="W149" s="163"/>
-      <c r="X149" s="164"/>
-      <c r="Y149" s="162" t="s">
+      <c r="T149" s="129"/>
+      <c r="U149" s="129"/>
+      <c r="V149" s="129"/>
+      <c r="W149" s="129"/>
+      <c r="X149" s="130"/>
+      <c r="Y149" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="163"/>
-      <c r="AA149" s="163"/>
-      <c r="AB149" s="163"/>
-      <c r="AC149" s="163"/>
-      <c r="AD149" s="164"/>
-      <c r="AE149" s="165" t="s">
+      <c r="Z149" s="129"/>
+      <c r="AA149" s="129"/>
+      <c r="AB149" s="129"/>
+      <c r="AC149" s="129"/>
+      <c r="AD149" s="130"/>
+      <c r="AE149" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF149" s="166"/>
-      <c r="AG149" s="166"/>
-      <c r="AH149" s="166"/>
-      <c r="AI149" s="166"/>
-      <c r="AJ149" s="167"/>
+      <c r="AF149" s="132"/>
+      <c r="AG149" s="132"/>
+      <c r="AH149" s="132"/>
+      <c r="AI149" s="132"/>
+      <c r="AJ149" s="133"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -11974,30 +11848,30 @@
       <c r="P150" s="22"/>
       <c r="Q150" s="22"/>
       <c r="R150" s="25"/>
-      <c r="S150" s="162" t="s">
+      <c r="S150" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="163"/>
-      <c r="U150" s="163"/>
-      <c r="V150" s="163"/>
-      <c r="W150" s="163"/>
-      <c r="X150" s="164"/>
-      <c r="Y150" s="162" t="s">
+      <c r="T150" s="129"/>
+      <c r="U150" s="129"/>
+      <c r="V150" s="129"/>
+      <c r="W150" s="129"/>
+      <c r="X150" s="130"/>
+      <c r="Y150" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="163"/>
-      <c r="AA150" s="163"/>
-      <c r="AB150" s="163"/>
-      <c r="AC150" s="163"/>
-      <c r="AD150" s="164"/>
-      <c r="AE150" s="165" t="s">
+      <c r="Z150" s="129"/>
+      <c r="AA150" s="129"/>
+      <c r="AB150" s="129"/>
+      <c r="AC150" s="129"/>
+      <c r="AD150" s="130"/>
+      <c r="AE150" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF150" s="166"/>
-      <c r="AG150" s="166"/>
-      <c r="AH150" s="166"/>
-      <c r="AI150" s="166"/>
-      <c r="AJ150" s="167"/>
+      <c r="AF150" s="132"/>
+      <c r="AG150" s="132"/>
+      <c r="AH150" s="132"/>
+      <c r="AI150" s="132"/>
+      <c r="AJ150" s="133"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12021,30 +11895,30 @@
       <c r="P151" s="22"/>
       <c r="Q151" s="22"/>
       <c r="R151" s="25"/>
-      <c r="S151" s="162" t="s">
+      <c r="S151" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="163"/>
-      <c r="U151" s="163"/>
-      <c r="V151" s="163"/>
-      <c r="W151" s="163"/>
-      <c r="X151" s="164"/>
-      <c r="Y151" s="162" t="s">
+      <c r="T151" s="129"/>
+      <c r="U151" s="129"/>
+      <c r="V151" s="129"/>
+      <c r="W151" s="129"/>
+      <c r="X151" s="130"/>
+      <c r="Y151" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="163"/>
-      <c r="AA151" s="163"/>
-      <c r="AB151" s="163"/>
-      <c r="AC151" s="163"/>
-      <c r="AD151" s="164"/>
-      <c r="AE151" s="165" t="s">
+      <c r="Z151" s="129"/>
+      <c r="AA151" s="129"/>
+      <c r="AB151" s="129"/>
+      <c r="AC151" s="129"/>
+      <c r="AD151" s="130"/>
+      <c r="AE151" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF151" s="166"/>
-      <c r="AG151" s="166"/>
-      <c r="AH151" s="166"/>
-      <c r="AI151" s="166"/>
-      <c r="AJ151" s="167"/>
+      <c r="AF151" s="132"/>
+      <c r="AG151" s="132"/>
+      <c r="AH151" s="132"/>
+      <c r="AI151" s="132"/>
+      <c r="AJ151" s="133"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12064,30 +11938,30 @@
       <c r="P152" s="22"/>
       <c r="Q152" s="22"/>
       <c r="R152" s="25"/>
-      <c r="S152" s="162" t="s">
+      <c r="S152" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="163"/>
-      <c r="U152" s="163"/>
-      <c r="V152" s="163"/>
-      <c r="W152" s="163"/>
-      <c r="X152" s="164"/>
-      <c r="Y152" s="162" t="s">
+      <c r="T152" s="129"/>
+      <c r="U152" s="129"/>
+      <c r="V152" s="129"/>
+      <c r="W152" s="129"/>
+      <c r="X152" s="130"/>
+      <c r="Y152" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="163"/>
-      <c r="AA152" s="163"/>
-      <c r="AB152" s="163"/>
-      <c r="AC152" s="163"/>
-      <c r="AD152" s="164"/>
-      <c r="AE152" s="165" t="s">
+      <c r="Z152" s="129"/>
+      <c r="AA152" s="129"/>
+      <c r="AB152" s="129"/>
+      <c r="AC152" s="129"/>
+      <c r="AD152" s="130"/>
+      <c r="AE152" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF152" s="166"/>
-      <c r="AG152" s="166"/>
-      <c r="AH152" s="166"/>
-      <c r="AI152" s="166"/>
-      <c r="AJ152" s="167"/>
+      <c r="AF152" s="132"/>
+      <c r="AG152" s="132"/>
+      <c r="AH152" s="132"/>
+      <c r="AI152" s="132"/>
+      <c r="AJ152" s="133"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12109,30 +11983,30 @@
       <c r="P153" s="22"/>
       <c r="Q153" s="22"/>
       <c r="R153" s="25"/>
-      <c r="S153" s="162" t="s">
+      <c r="S153" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="163"/>
-      <c r="U153" s="163"/>
-      <c r="V153" s="163"/>
-      <c r="W153" s="163"/>
-      <c r="X153" s="164"/>
-      <c r="Y153" s="162" t="s">
+      <c r="T153" s="129"/>
+      <c r="U153" s="129"/>
+      <c r="V153" s="129"/>
+      <c r="W153" s="129"/>
+      <c r="X153" s="130"/>
+      <c r="Y153" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="163"/>
-      <c r="AA153" s="163"/>
-      <c r="AB153" s="163"/>
-      <c r="AC153" s="163"/>
-      <c r="AD153" s="164"/>
-      <c r="AE153" s="165" t="s">
+      <c r="Z153" s="129"/>
+      <c r="AA153" s="129"/>
+      <c r="AB153" s="129"/>
+      <c r="AC153" s="129"/>
+      <c r="AD153" s="130"/>
+      <c r="AE153" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF153" s="166"/>
-      <c r="AG153" s="166"/>
-      <c r="AH153" s="166"/>
-      <c r="AI153" s="166"/>
-      <c r="AJ153" s="167"/>
+      <c r="AF153" s="132"/>
+      <c r="AG153" s="132"/>
+      <c r="AH153" s="132"/>
+      <c r="AI153" s="132"/>
+      <c r="AJ153" s="133"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12156,30 +12030,30 @@
       <c r="P154" s="22"/>
       <c r="Q154" s="22"/>
       <c r="R154" s="25"/>
-      <c r="S154" s="162" t="s">
+      <c r="S154" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="163"/>
-      <c r="U154" s="163"/>
-      <c r="V154" s="163"/>
-      <c r="W154" s="163"/>
-      <c r="X154" s="164"/>
-      <c r="Y154" s="162" t="s">
+      <c r="T154" s="129"/>
+      <c r="U154" s="129"/>
+      <c r="V154" s="129"/>
+      <c r="W154" s="129"/>
+      <c r="X154" s="130"/>
+      <c r="Y154" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="163"/>
-      <c r="AA154" s="163"/>
-      <c r="AB154" s="163"/>
-      <c r="AC154" s="163"/>
-      <c r="AD154" s="164"/>
-      <c r="AE154" s="165" t="s">
+      <c r="Z154" s="129"/>
+      <c r="AA154" s="129"/>
+      <c r="AB154" s="129"/>
+      <c r="AC154" s="129"/>
+      <c r="AD154" s="130"/>
+      <c r="AE154" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF154" s="166"/>
-      <c r="AG154" s="166"/>
-      <c r="AH154" s="166"/>
-      <c r="AI154" s="166"/>
-      <c r="AJ154" s="167"/>
+      <c r="AF154" s="132"/>
+      <c r="AG154" s="132"/>
+      <c r="AH154" s="132"/>
+      <c r="AI154" s="132"/>
+      <c r="AJ154" s="133"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12199,30 +12073,30 @@
       <c r="P155" s="22"/>
       <c r="Q155" s="22"/>
       <c r="R155" s="25"/>
-      <c r="S155" s="162" t="s">
+      <c r="S155" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="163"/>
-      <c r="U155" s="163"/>
-      <c r="V155" s="163"/>
-      <c r="W155" s="163"/>
-      <c r="X155" s="164"/>
-      <c r="Y155" s="162" t="s">
+      <c r="T155" s="129"/>
+      <c r="U155" s="129"/>
+      <c r="V155" s="129"/>
+      <c r="W155" s="129"/>
+      <c r="X155" s="130"/>
+      <c r="Y155" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="163"/>
-      <c r="AA155" s="163"/>
-      <c r="AB155" s="163"/>
-      <c r="AC155" s="163"/>
-      <c r="AD155" s="164"/>
-      <c r="AE155" s="165" t="s">
+      <c r="Z155" s="129"/>
+      <c r="AA155" s="129"/>
+      <c r="AB155" s="129"/>
+      <c r="AC155" s="129"/>
+      <c r="AD155" s="130"/>
+      <c r="AE155" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF155" s="166"/>
-      <c r="AG155" s="166"/>
-      <c r="AH155" s="166"/>
-      <c r="AI155" s="166"/>
-      <c r="AJ155" s="167"/>
+      <c r="AF155" s="132"/>
+      <c r="AG155" s="132"/>
+      <c r="AH155" s="132"/>
+      <c r="AI155" s="132"/>
+      <c r="AJ155" s="133"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12244,30 +12118,30 @@
       <c r="P156" s="22"/>
       <c r="Q156" s="22"/>
       <c r="R156" s="25"/>
-      <c r="S156" s="162" t="s">
+      <c r="S156" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="163"/>
-      <c r="U156" s="163"/>
-      <c r="V156" s="163"/>
-      <c r="W156" s="163"/>
-      <c r="X156" s="164"/>
-      <c r="Y156" s="162" t="s">
+      <c r="T156" s="129"/>
+      <c r="U156" s="129"/>
+      <c r="V156" s="129"/>
+      <c r="W156" s="129"/>
+      <c r="X156" s="130"/>
+      <c r="Y156" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="163"/>
-      <c r="AA156" s="163"/>
-      <c r="AB156" s="163"/>
-      <c r="AC156" s="163"/>
-      <c r="AD156" s="164"/>
-      <c r="AE156" s="165" t="s">
+      <c r="Z156" s="129"/>
+      <c r="AA156" s="129"/>
+      <c r="AB156" s="129"/>
+      <c r="AC156" s="129"/>
+      <c r="AD156" s="130"/>
+      <c r="AE156" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF156" s="166"/>
-      <c r="AG156" s="166"/>
-      <c r="AH156" s="166"/>
-      <c r="AI156" s="166"/>
-      <c r="AJ156" s="167"/>
+      <c r="AF156" s="132"/>
+      <c r="AG156" s="132"/>
+      <c r="AH156" s="132"/>
+      <c r="AI156" s="132"/>
+      <c r="AJ156" s="133"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12291,30 +12165,30 @@
       <c r="P157" s="22"/>
       <c r="Q157" s="22"/>
       <c r="R157" s="25"/>
-      <c r="S157" s="162" t="s">
+      <c r="S157" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="163"/>
-      <c r="U157" s="163"/>
-      <c r="V157" s="163"/>
-      <c r="W157" s="163"/>
-      <c r="X157" s="164"/>
-      <c r="Y157" s="162" t="s">
+      <c r="T157" s="129"/>
+      <c r="U157" s="129"/>
+      <c r="V157" s="129"/>
+      <c r="W157" s="129"/>
+      <c r="X157" s="130"/>
+      <c r="Y157" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="163"/>
-      <c r="AA157" s="163"/>
-      <c r="AB157" s="163"/>
-      <c r="AC157" s="163"/>
-      <c r="AD157" s="164"/>
-      <c r="AE157" s="165" t="s">
+      <c r="Z157" s="129"/>
+      <c r="AA157" s="129"/>
+      <c r="AB157" s="129"/>
+      <c r="AC157" s="129"/>
+      <c r="AD157" s="130"/>
+      <c r="AE157" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF157" s="166"/>
-      <c r="AG157" s="166"/>
-      <c r="AH157" s="166"/>
-      <c r="AI157" s="166"/>
-      <c r="AJ157" s="167"/>
+      <c r="AF157" s="132"/>
+      <c r="AG157" s="132"/>
+      <c r="AH157" s="132"/>
+      <c r="AI157" s="132"/>
+      <c r="AJ157" s="133"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12332,30 +12206,30 @@
       <c r="P158" s="22"/>
       <c r="Q158" s="22"/>
       <c r="R158" s="25"/>
-      <c r="S158" s="162" t="s">
+      <c r="S158" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="163"/>
-      <c r="U158" s="163"/>
-      <c r="V158" s="163"/>
-      <c r="W158" s="163"/>
-      <c r="X158" s="164"/>
-      <c r="Y158" s="162" t="s">
+      <c r="T158" s="129"/>
+      <c r="U158" s="129"/>
+      <c r="V158" s="129"/>
+      <c r="W158" s="129"/>
+      <c r="X158" s="130"/>
+      <c r="Y158" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="163"/>
-      <c r="AA158" s="163"/>
-      <c r="AB158" s="163"/>
-      <c r="AC158" s="163"/>
-      <c r="AD158" s="164"/>
-      <c r="AE158" s="165" t="s">
+      <c r="Z158" s="129"/>
+      <c r="AA158" s="129"/>
+      <c r="AB158" s="129"/>
+      <c r="AC158" s="129"/>
+      <c r="AD158" s="130"/>
+      <c r="AE158" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF158" s="166"/>
-      <c r="AG158" s="166"/>
-      <c r="AH158" s="166"/>
-      <c r="AI158" s="166"/>
-      <c r="AJ158" s="167"/>
+      <c r="AF158" s="132"/>
+      <c r="AG158" s="132"/>
+      <c r="AH158" s="132"/>
+      <c r="AI158" s="132"/>
+      <c r="AJ158" s="133"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12377,30 +12251,30 @@
       <c r="P159" s="22"/>
       <c r="Q159" s="22"/>
       <c r="R159" s="25"/>
-      <c r="S159" s="162" t="s">
+      <c r="S159" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="163"/>
-      <c r="U159" s="163"/>
-      <c r="V159" s="163"/>
-      <c r="W159" s="163"/>
-      <c r="X159" s="164"/>
-      <c r="Y159" s="162" t="s">
+      <c r="T159" s="129"/>
+      <c r="U159" s="129"/>
+      <c r="V159" s="129"/>
+      <c r="W159" s="129"/>
+      <c r="X159" s="130"/>
+      <c r="Y159" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="163"/>
-      <c r="AA159" s="163"/>
-      <c r="AB159" s="163"/>
-      <c r="AC159" s="163"/>
-      <c r="AD159" s="164"/>
-      <c r="AE159" s="165" t="s">
+      <c r="Z159" s="129"/>
+      <c r="AA159" s="129"/>
+      <c r="AB159" s="129"/>
+      <c r="AC159" s="129"/>
+      <c r="AD159" s="130"/>
+      <c r="AE159" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF159" s="166"/>
-      <c r="AG159" s="166"/>
-      <c r="AH159" s="166"/>
-      <c r="AI159" s="166"/>
-      <c r="AJ159" s="167"/>
+      <c r="AF159" s="132"/>
+      <c r="AG159" s="132"/>
+      <c r="AH159" s="132"/>
+      <c r="AI159" s="132"/>
+      <c r="AJ159" s="133"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12422,30 +12296,30 @@
       <c r="P160" s="88"/>
       <c r="Q160" s="88"/>
       <c r="R160" s="89"/>
-      <c r="S160" s="162" t="s">
+      <c r="S160" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="163"/>
-      <c r="U160" s="163"/>
-      <c r="V160" s="163"/>
-      <c r="W160" s="163"/>
-      <c r="X160" s="164"/>
-      <c r="Y160" s="162" t="s">
+      <c r="T160" s="129"/>
+      <c r="U160" s="129"/>
+      <c r="V160" s="129"/>
+      <c r="W160" s="129"/>
+      <c r="X160" s="130"/>
+      <c r="Y160" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="163"/>
-      <c r="AA160" s="163"/>
-      <c r="AB160" s="163"/>
-      <c r="AC160" s="163"/>
-      <c r="AD160" s="164"/>
-      <c r="AE160" s="165" t="s">
+      <c r="Z160" s="129"/>
+      <c r="AA160" s="129"/>
+      <c r="AB160" s="129"/>
+      <c r="AC160" s="129"/>
+      <c r="AD160" s="130"/>
+      <c r="AE160" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF160" s="166"/>
-      <c r="AG160" s="166"/>
-      <c r="AH160" s="166"/>
-      <c r="AI160" s="166"/>
-      <c r="AJ160" s="167"/>
+      <c r="AF160" s="132"/>
+      <c r="AG160" s="132"/>
+      <c r="AH160" s="132"/>
+      <c r="AI160" s="132"/>
+      <c r="AJ160" s="133"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -12467,30 +12341,30 @@
       <c r="P161" s="88"/>
       <c r="Q161" s="88"/>
       <c r="R161" s="89"/>
-      <c r="S161" s="162" t="s">
+      <c r="S161" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="163"/>
-      <c r="U161" s="163"/>
-      <c r="V161" s="163"/>
-      <c r="W161" s="163"/>
-      <c r="X161" s="164"/>
-      <c r="Y161" s="162" t="s">
+      <c r="T161" s="129"/>
+      <c r="U161" s="129"/>
+      <c r="V161" s="129"/>
+      <c r="W161" s="129"/>
+      <c r="X161" s="130"/>
+      <c r="Y161" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Z161" s="163"/>
-      <c r="AA161" s="163"/>
-      <c r="AB161" s="163"/>
-      <c r="AC161" s="163"/>
-      <c r="AD161" s="164"/>
-      <c r="AE161" s="165" t="s">
+      <c r="Z161" s="129"/>
+      <c r="AA161" s="129"/>
+      <c r="AB161" s="129"/>
+      <c r="AC161" s="129"/>
+      <c r="AD161" s="130"/>
+      <c r="AE161" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF161" s="166"/>
-      <c r="AG161" s="166"/>
-      <c r="AH161" s="166"/>
-      <c r="AI161" s="166"/>
-      <c r="AJ161" s="167"/>
+      <c r="AF161" s="132"/>
+      <c r="AG161" s="132"/>
+      <c r="AH161" s="132"/>
+      <c r="AI161" s="132"/>
+      <c r="AJ161" s="133"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -12514,30 +12388,30 @@
       <c r="P162" s="85"/>
       <c r="Q162" s="85"/>
       <c r="R162" s="86"/>
-      <c r="S162" s="162" t="s">
+      <c r="S162" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="163"/>
-      <c r="U162" s="163"/>
-      <c r="V162" s="163"/>
-      <c r="W162" s="163"/>
-      <c r="X162" s="164"/>
-      <c r="Y162" s="165" t="s">
+      <c r="T162" s="129"/>
+      <c r="U162" s="129"/>
+      <c r="V162" s="129"/>
+      <c r="W162" s="129"/>
+      <c r="X162" s="130"/>
+      <c r="Y162" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="Z162" s="166"/>
-      <c r="AA162" s="166"/>
-      <c r="AB162" s="166"/>
-      <c r="AC162" s="166"/>
-      <c r="AD162" s="167"/>
-      <c r="AE162" s="165" t="s">
+      <c r="Z162" s="132"/>
+      <c r="AA162" s="132"/>
+      <c r="AB162" s="132"/>
+      <c r="AC162" s="132"/>
+      <c r="AD162" s="133"/>
+      <c r="AE162" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF162" s="166"/>
-      <c r="AG162" s="166"/>
-      <c r="AH162" s="166"/>
-      <c r="AI162" s="166"/>
-      <c r="AJ162" s="167"/>
+      <c r="AF162" s="132"/>
+      <c r="AG162" s="132"/>
+      <c r="AH162" s="132"/>
+      <c r="AI162" s="132"/>
+      <c r="AJ162" s="133"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -12555,30 +12429,30 @@
       <c r="P163" s="22"/>
       <c r="Q163" s="22"/>
       <c r="R163" s="25"/>
-      <c r="S163" s="162" t="s">
+      <c r="S163" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="163"/>
-      <c r="U163" s="163"/>
-      <c r="V163" s="163"/>
-      <c r="W163" s="163"/>
-      <c r="X163" s="164"/>
-      <c r="Y163" s="165" t="s">
+      <c r="T163" s="129"/>
+      <c r="U163" s="129"/>
+      <c r="V163" s="129"/>
+      <c r="W163" s="129"/>
+      <c r="X163" s="130"/>
+      <c r="Y163" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="166"/>
-      <c r="AA163" s="166"/>
-      <c r="AB163" s="166"/>
-      <c r="AC163" s="166"/>
-      <c r="AD163" s="167"/>
-      <c r="AE163" s="165" t="s">
+      <c r="Z163" s="132"/>
+      <c r="AA163" s="132"/>
+      <c r="AB163" s="132"/>
+      <c r="AC163" s="132"/>
+      <c r="AD163" s="133"/>
+      <c r="AE163" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF163" s="166"/>
-      <c r="AG163" s="166"/>
-      <c r="AH163" s="166"/>
-      <c r="AI163" s="166"/>
-      <c r="AJ163" s="167"/>
+      <c r="AF163" s="132"/>
+      <c r="AG163" s="132"/>
+      <c r="AH163" s="132"/>
+      <c r="AI163" s="132"/>
+      <c r="AJ163" s="133"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -12600,30 +12474,30 @@
       <c r="P164" s="22"/>
       <c r="Q164" s="22"/>
       <c r="R164" s="25"/>
-      <c r="S164" s="162" t="s">
+      <c r="S164" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="163"/>
-      <c r="U164" s="163"/>
-      <c r="V164" s="163"/>
-      <c r="W164" s="163"/>
-      <c r="X164" s="164"/>
-      <c r="Y164" s="165" t="s">
+      <c r="T164" s="129"/>
+      <c r="U164" s="129"/>
+      <c r="V164" s="129"/>
+      <c r="W164" s="129"/>
+      <c r="X164" s="130"/>
+      <c r="Y164" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="166"/>
-      <c r="AA164" s="166"/>
-      <c r="AB164" s="166"/>
-      <c r="AC164" s="166"/>
-      <c r="AD164" s="167"/>
-      <c r="AE164" s="165" t="s">
+      <c r="Z164" s="132"/>
+      <c r="AA164" s="132"/>
+      <c r="AB164" s="132"/>
+      <c r="AC164" s="132"/>
+      <c r="AD164" s="133"/>
+      <c r="AE164" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF164" s="166"/>
-      <c r="AG164" s="166"/>
-      <c r="AH164" s="166"/>
-      <c r="AI164" s="166"/>
-      <c r="AJ164" s="167"/>
+      <c r="AF164" s="132"/>
+      <c r="AG164" s="132"/>
+      <c r="AH164" s="132"/>
+      <c r="AI164" s="132"/>
+      <c r="AJ164" s="133"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -12645,30 +12519,30 @@
       <c r="P165" s="88"/>
       <c r="Q165" s="88"/>
       <c r="R165" s="89"/>
-      <c r="S165" s="162" t="s">
+      <c r="S165" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="163"/>
-      <c r="U165" s="163"/>
-      <c r="V165" s="163"/>
-      <c r="W165" s="163"/>
-      <c r="X165" s="164"/>
-      <c r="Y165" s="165" t="s">
+      <c r="T165" s="129"/>
+      <c r="U165" s="129"/>
+      <c r="V165" s="129"/>
+      <c r="W165" s="129"/>
+      <c r="X165" s="130"/>
+      <c r="Y165" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="166"/>
-      <c r="AA165" s="166"/>
-      <c r="AB165" s="166"/>
-      <c r="AC165" s="166"/>
-      <c r="AD165" s="167"/>
-      <c r="AE165" s="165" t="s">
+      <c r="Z165" s="132"/>
+      <c r="AA165" s="132"/>
+      <c r="AB165" s="132"/>
+      <c r="AC165" s="132"/>
+      <c r="AD165" s="133"/>
+      <c r="AE165" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AF165" s="166"/>
-      <c r="AG165" s="166"/>
-      <c r="AH165" s="166"/>
-      <c r="AI165" s="166"/>
-      <c r="AJ165" s="167"/>
+      <c r="AF165" s="132"/>
+      <c r="AG165" s="132"/>
+      <c r="AH165" s="132"/>
+      <c r="AI165" s="132"/>
+      <c r="AJ165" s="133"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -12692,30 +12566,30 @@
       <c r="P166" s="85"/>
       <c r="Q166" s="85"/>
       <c r="R166" s="86"/>
-      <c r="S166" s="162" t="s">
+      <c r="S166" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="163"/>
-      <c r="U166" s="163"/>
-      <c r="V166" s="163"/>
-      <c r="W166" s="163"/>
-      <c r="X166" s="164"/>
-      <c r="Y166" s="165" t="s">
+      <c r="T166" s="129"/>
+      <c r="U166" s="129"/>
+      <c r="V166" s="129"/>
+      <c r="W166" s="129"/>
+      <c r="X166" s="130"/>
+      <c r="Y166" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="Z166" s="166"/>
-      <c r="AA166" s="166"/>
-      <c r="AB166" s="166"/>
-      <c r="AC166" s="166"/>
-      <c r="AD166" s="167"/>
-      <c r="AE166" s="165" t="s">
+      <c r="Z166" s="132"/>
+      <c r="AA166" s="132"/>
+      <c r="AB166" s="132"/>
+      <c r="AC166" s="132"/>
+      <c r="AD166" s="133"/>
+      <c r="AE166" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF166" s="166"/>
-      <c r="AG166" s="166"/>
-      <c r="AH166" s="166"/>
-      <c r="AI166" s="166"/>
-      <c r="AJ166" s="167"/>
+      <c r="AF166" s="132"/>
+      <c r="AG166" s="132"/>
+      <c r="AH166" s="132"/>
+      <c r="AI166" s="132"/>
+      <c r="AJ166" s="133"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12733,30 +12607,30 @@
       <c r="P167" s="22"/>
       <c r="Q167" s="22"/>
       <c r="R167" s="25"/>
-      <c r="S167" s="162" t="s">
+      <c r="S167" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="163"/>
-      <c r="U167" s="163"/>
-      <c r="V167" s="163"/>
-      <c r="W167" s="163"/>
-      <c r="X167" s="164"/>
-      <c r="Y167" s="165" t="s">
+      <c r="T167" s="129"/>
+      <c r="U167" s="129"/>
+      <c r="V167" s="129"/>
+      <c r="W167" s="129"/>
+      <c r="X167" s="130"/>
+      <c r="Y167" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="166"/>
-      <c r="AA167" s="166"/>
-      <c r="AB167" s="166"/>
-      <c r="AC167" s="166"/>
-      <c r="AD167" s="167"/>
-      <c r="AE167" s="165" t="s">
+      <c r="Z167" s="132"/>
+      <c r="AA167" s="132"/>
+      <c r="AB167" s="132"/>
+      <c r="AC167" s="132"/>
+      <c r="AD167" s="133"/>
+      <c r="AE167" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF167" s="166"/>
-      <c r="AG167" s="166"/>
-      <c r="AH167" s="166"/>
-      <c r="AI167" s="166"/>
-      <c r="AJ167" s="167"/>
+      <c r="AF167" s="132"/>
+      <c r="AG167" s="132"/>
+      <c r="AH167" s="132"/>
+      <c r="AI167" s="132"/>
+      <c r="AJ167" s="133"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -12778,30 +12652,30 @@
       <c r="P168" s="22"/>
       <c r="Q168" s="22"/>
       <c r="R168" s="25"/>
-      <c r="S168" s="162" t="s">
+      <c r="S168" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="163"/>
-      <c r="U168" s="163"/>
-      <c r="V168" s="163"/>
-      <c r="W168" s="163"/>
-      <c r="X168" s="164"/>
-      <c r="Y168" s="165" t="s">
+      <c r="T168" s="129"/>
+      <c r="U168" s="129"/>
+      <c r="V168" s="129"/>
+      <c r="W168" s="129"/>
+      <c r="X168" s="130"/>
+      <c r="Y168" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z168" s="166"/>
-      <c r="AA168" s="166"/>
-      <c r="AB168" s="166"/>
-      <c r="AC168" s="166"/>
-      <c r="AD168" s="167"/>
-      <c r="AE168" s="165" t="s">
+      <c r="Z168" s="132"/>
+      <c r="AA168" s="132"/>
+      <c r="AB168" s="132"/>
+      <c r="AC168" s="132"/>
+      <c r="AD168" s="133"/>
+      <c r="AE168" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF168" s="166"/>
-      <c r="AG168" s="166"/>
-      <c r="AH168" s="166"/>
-      <c r="AI168" s="166"/>
-      <c r="AJ168" s="167"/>
+      <c r="AF168" s="132"/>
+      <c r="AG168" s="132"/>
+      <c r="AH168" s="132"/>
+      <c r="AI168" s="132"/>
+      <c r="AJ168" s="133"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -12823,30 +12697,30 @@
       <c r="P169" s="88"/>
       <c r="Q169" s="88"/>
       <c r="R169" s="89"/>
-      <c r="S169" s="162" t="s">
+      <c r="S169" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="163"/>
-      <c r="U169" s="163"/>
-      <c r="V169" s="163"/>
-      <c r="W169" s="163"/>
-      <c r="X169" s="164"/>
-      <c r="Y169" s="165" t="s">
+      <c r="T169" s="129"/>
+      <c r="U169" s="129"/>
+      <c r="V169" s="129"/>
+      <c r="W169" s="129"/>
+      <c r="X169" s="130"/>
+      <c r="Y169" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="166"/>
-      <c r="AA169" s="166"/>
-      <c r="AB169" s="166"/>
-      <c r="AC169" s="166"/>
-      <c r="AD169" s="167"/>
-      <c r="AE169" s="165" t="s">
+      <c r="Z169" s="132"/>
+      <c r="AA169" s="132"/>
+      <c r="AB169" s="132"/>
+      <c r="AC169" s="132"/>
+      <c r="AD169" s="133"/>
+      <c r="AE169" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="AF169" s="166"/>
-      <c r="AG169" s="166"/>
-      <c r="AH169" s="166"/>
-      <c r="AI169" s="166"/>
-      <c r="AJ169" s="167"/>
+      <c r="AF169" s="132"/>
+      <c r="AG169" s="132"/>
+      <c r="AH169" s="132"/>
+      <c r="AI169" s="132"/>
+      <c r="AJ169" s="133"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -12870,30 +12744,30 @@
       <c r="P170" s="85"/>
       <c r="Q170" s="85"/>
       <c r="R170" s="86"/>
-      <c r="S170" s="162" t="s">
+      <c r="S170" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="163"/>
-      <c r="U170" s="163"/>
-      <c r="V170" s="163"/>
-      <c r="W170" s="163"/>
-      <c r="X170" s="164"/>
-      <c r="Y170" s="165" t="s">
+      <c r="T170" s="129"/>
+      <c r="U170" s="129"/>
+      <c r="V170" s="129"/>
+      <c r="W170" s="129"/>
+      <c r="X170" s="130"/>
+      <c r="Y170" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="Z170" s="166"/>
-      <c r="AA170" s="166"/>
-      <c r="AB170" s="166"/>
-      <c r="AC170" s="166"/>
-      <c r="AD170" s="167"/>
-      <c r="AE170" s="165" t="s">
+      <c r="Z170" s="132"/>
+      <c r="AA170" s="132"/>
+      <c r="AB170" s="132"/>
+      <c r="AC170" s="132"/>
+      <c r="AD170" s="133"/>
+      <c r="AE170" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF170" s="166"/>
-      <c r="AG170" s="166"/>
-      <c r="AH170" s="166"/>
-      <c r="AI170" s="166"/>
-      <c r="AJ170" s="167"/>
+      <c r="AF170" s="132"/>
+      <c r="AG170" s="132"/>
+      <c r="AH170" s="132"/>
+      <c r="AI170" s="132"/>
+      <c r="AJ170" s="133"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -12911,30 +12785,30 @@
       <c r="P171" s="22"/>
       <c r="Q171" s="22"/>
       <c r="R171" s="25"/>
-      <c r="S171" s="162" t="s">
+      <c r="S171" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="163"/>
-      <c r="U171" s="163"/>
-      <c r="V171" s="163"/>
-      <c r="W171" s="163"/>
-      <c r="X171" s="164"/>
-      <c r="Y171" s="165" t="s">
+      <c r="T171" s="129"/>
+      <c r="U171" s="129"/>
+      <c r="V171" s="129"/>
+      <c r="W171" s="129"/>
+      <c r="X171" s="130"/>
+      <c r="Y171" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="166"/>
-      <c r="AA171" s="166"/>
-      <c r="AB171" s="166"/>
-      <c r="AC171" s="166"/>
-      <c r="AD171" s="167"/>
-      <c r="AE171" s="165" t="s">
+      <c r="Z171" s="132"/>
+      <c r="AA171" s="132"/>
+      <c r="AB171" s="132"/>
+      <c r="AC171" s="132"/>
+      <c r="AD171" s="133"/>
+      <c r="AE171" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF171" s="166"/>
-      <c r="AG171" s="166"/>
-      <c r="AH171" s="166"/>
-      <c r="AI171" s="166"/>
-      <c r="AJ171" s="167"/>
+      <c r="AF171" s="132"/>
+      <c r="AG171" s="132"/>
+      <c r="AH171" s="132"/>
+      <c r="AI171" s="132"/>
+      <c r="AJ171" s="133"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -12956,30 +12830,30 @@
       <c r="P172" s="22"/>
       <c r="Q172" s="22"/>
       <c r="R172" s="25"/>
-      <c r="S172" s="162" t="s">
+      <c r="S172" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="163"/>
-      <c r="U172" s="163"/>
-      <c r="V172" s="163"/>
-      <c r="W172" s="163"/>
-      <c r="X172" s="164"/>
-      <c r="Y172" s="165" t="s">
+      <c r="T172" s="129"/>
+      <c r="U172" s="129"/>
+      <c r="V172" s="129"/>
+      <c r="W172" s="129"/>
+      <c r="X172" s="130"/>
+      <c r="Y172" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="166"/>
-      <c r="AA172" s="166"/>
-      <c r="AB172" s="166"/>
-      <c r="AC172" s="166"/>
-      <c r="AD172" s="167"/>
-      <c r="AE172" s="165" t="s">
+      <c r="Z172" s="132"/>
+      <c r="AA172" s="132"/>
+      <c r="AB172" s="132"/>
+      <c r="AC172" s="132"/>
+      <c r="AD172" s="133"/>
+      <c r="AE172" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF172" s="166"/>
-      <c r="AG172" s="166"/>
-      <c r="AH172" s="166"/>
-      <c r="AI172" s="166"/>
-      <c r="AJ172" s="167"/>
+      <c r="AF172" s="132"/>
+      <c r="AG172" s="132"/>
+      <c r="AH172" s="132"/>
+      <c r="AI172" s="132"/>
+      <c r="AJ172" s="133"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13001,30 +12875,30 @@
       <c r="P173" s="22"/>
       <c r="Q173" s="22"/>
       <c r="R173" s="25"/>
-      <c r="S173" s="162" t="s">
+      <c r="S173" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="163"/>
-      <c r="U173" s="163"/>
-      <c r="V173" s="163"/>
-      <c r="W173" s="163"/>
-      <c r="X173" s="164"/>
-      <c r="Y173" s="165" t="s">
+      <c r="T173" s="129"/>
+      <c r="U173" s="129"/>
+      <c r="V173" s="129"/>
+      <c r="W173" s="129"/>
+      <c r="X173" s="130"/>
+      <c r="Y173" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="166"/>
-      <c r="AA173" s="166"/>
-      <c r="AB173" s="166"/>
-      <c r="AC173" s="166"/>
-      <c r="AD173" s="167"/>
-      <c r="AE173" s="165" t="s">
+      <c r="Z173" s="132"/>
+      <c r="AA173" s="132"/>
+      <c r="AB173" s="132"/>
+      <c r="AC173" s="132"/>
+      <c r="AD173" s="133"/>
+      <c r="AE173" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF173" s="166"/>
-      <c r="AG173" s="166"/>
-      <c r="AH173" s="166"/>
-      <c r="AI173" s="166"/>
-      <c r="AJ173" s="167"/>
+      <c r="AF173" s="132"/>
+      <c r="AG173" s="132"/>
+      <c r="AH173" s="132"/>
+      <c r="AI173" s="132"/>
+      <c r="AJ173" s="133"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13046,30 +12920,30 @@
       <c r="P174" s="22"/>
       <c r="Q174" s="22"/>
       <c r="R174" s="25"/>
-      <c r="S174" s="162" t="s">
+      <c r="S174" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="163"/>
-      <c r="U174" s="163"/>
-      <c r="V174" s="163"/>
-      <c r="W174" s="163"/>
-      <c r="X174" s="164"/>
-      <c r="Y174" s="165" t="s">
+      <c r="T174" s="129"/>
+      <c r="U174" s="129"/>
+      <c r="V174" s="129"/>
+      <c r="W174" s="129"/>
+      <c r="X174" s="130"/>
+      <c r="Y174" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="Z174" s="166"/>
-      <c r="AA174" s="166"/>
-      <c r="AB174" s="166"/>
-      <c r="AC174" s="166"/>
-      <c r="AD174" s="167"/>
-      <c r="AE174" s="165" t="s">
+      <c r="Z174" s="132"/>
+      <c r="AA174" s="132"/>
+      <c r="AB174" s="132"/>
+      <c r="AC174" s="132"/>
+      <c r="AD174" s="133"/>
+      <c r="AE174" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF174" s="166"/>
-      <c r="AG174" s="166"/>
-      <c r="AH174" s="166"/>
-      <c r="AI174" s="166"/>
-      <c r="AJ174" s="167"/>
+      <c r="AF174" s="132"/>
+      <c r="AG174" s="132"/>
+      <c r="AH174" s="132"/>
+      <c r="AI174" s="132"/>
+      <c r="AJ174" s="133"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13091,30 +12965,30 @@
       <c r="P175" s="22"/>
       <c r="Q175" s="22"/>
       <c r="R175" s="25"/>
-      <c r="S175" s="162" t="s">
+      <c r="S175" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="163"/>
-      <c r="U175" s="163"/>
-      <c r="V175" s="163"/>
-      <c r="W175" s="163"/>
-      <c r="X175" s="164"/>
-      <c r="Y175" s="165" t="s">
+      <c r="T175" s="129"/>
+      <c r="U175" s="129"/>
+      <c r="V175" s="129"/>
+      <c r="W175" s="129"/>
+      <c r="X175" s="130"/>
+      <c r="Y175" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="Z175" s="166"/>
-      <c r="AA175" s="166"/>
-      <c r="AB175" s="166"/>
-      <c r="AC175" s="166"/>
-      <c r="AD175" s="167"/>
-      <c r="AE175" s="165" t="s">
+      <c r="Z175" s="132"/>
+      <c r="AA175" s="132"/>
+      <c r="AB175" s="132"/>
+      <c r="AC175" s="132"/>
+      <c r="AD175" s="133"/>
+      <c r="AE175" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AF175" s="166"/>
-      <c r="AG175" s="166"/>
-      <c r="AH175" s="166"/>
-      <c r="AI175" s="166"/>
-      <c r="AJ175" s="167"/>
+      <c r="AF175" s="132"/>
+      <c r="AG175" s="132"/>
+      <c r="AH175" s="132"/>
+      <c r="AI175" s="132"/>
+      <c r="AJ175" s="133"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13136,30 +13010,30 @@
       <c r="P176" s="27"/>
       <c r="Q176" s="27"/>
       <c r="R176" s="28"/>
-      <c r="S176" s="171" t="s">
+      <c r="S176" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="172"/>
-      <c r="U176" s="172"/>
-      <c r="V176" s="172"/>
-      <c r="W176" s="172"/>
-      <c r="X176" s="173"/>
-      <c r="Y176" s="174" t="s">
+      <c r="T176" s="138"/>
+      <c r="U176" s="138"/>
+      <c r="V176" s="138"/>
+      <c r="W176" s="138"/>
+      <c r="X176" s="139"/>
+      <c r="Y176" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="Z176" s="175"/>
-      <c r="AA176" s="175"/>
-      <c r="AB176" s="175"/>
-      <c r="AC176" s="175"/>
-      <c r="AD176" s="176"/>
-      <c r="AE176" s="174" t="s">
+      <c r="Z176" s="141"/>
+      <c r="AA176" s="141"/>
+      <c r="AB176" s="141"/>
+      <c r="AC176" s="141"/>
+      <c r="AD176" s="142"/>
+      <c r="AE176" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF176" s="175"/>
-      <c r="AG176" s="175"/>
-      <c r="AH176" s="175"/>
-      <c r="AI176" s="175"/>
-      <c r="AJ176" s="176"/>
+      <c r="AF176" s="141"/>
+      <c r="AG176" s="141"/>
+      <c r="AH176" s="141"/>
+      <c r="AI176" s="141"/>
+      <c r="AJ176" s="142"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -15188,17 +15062,17 @@
       <c r="AA227" s="70"/>
       <c r="AB227" s="70"/>
       <c r="AC227" s="71"/>
-      <c r="AD227" s="132" t="s">
+      <c r="AD227" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="AE227" s="133"/>
-      <c r="AF227" s="133"/>
-      <c r="AG227" s="133"/>
-      <c r="AH227" s="133"/>
-      <c r="AI227" s="133"/>
-      <c r="AJ227" s="133"/>
-      <c r="AK227" s="133"/>
-      <c r="AL227" s="134"/>
+      <c r="AE227" s="150"/>
+      <c r="AF227" s="150"/>
+      <c r="AG227" s="150"/>
+      <c r="AH227" s="150"/>
+      <c r="AI227" s="150"/>
+      <c r="AJ227" s="150"/>
+      <c r="AK227" s="150"/>
+      <c r="AL227" s="151"/>
       <c r="AM227" s="107"/>
       <c r="AN227" s="2"/>
       <c r="AP227" s="5"/>
@@ -15283,28 +15157,28 @@
       <c r="V229" s="115"/>
       <c r="W229" s="115"/>
       <c r="X229" s="115"/>
-      <c r="Y229" s="122" t="s">
+      <c r="Y229" s="121" t="s">
         <v>243</v>
       </c>
       <c r="Z229" s="115"/>
       <c r="AA229" s="115"/>
       <c r="AB229" s="115"/>
       <c r="AC229" s="119"/>
-      <c r="AD229" s="135" t="s">
+      <c r="AD229" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AE229" s="136"/>
-      <c r="AF229" s="136"/>
-      <c r="AG229" s="137"/>
-      <c r="AH229" s="135" t="s">
+      <c r="AE229" s="168"/>
+      <c r="AF229" s="168"/>
+      <c r="AG229" s="169"/>
+      <c r="AH229" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AI229" s="137"/>
-      <c r="AJ229" s="135" t="s">
+      <c r="AI229" s="169"/>
+      <c r="AJ229" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AK229" s="136"/>
-      <c r="AL229" s="137"/>
+      <c r="AK229" s="168"/>
+      <c r="AL229" s="169"/>
       <c r="AM229" s="107"/>
       <c r="AN229" s="2"/>
       <c r="AP229" s="5"/>
@@ -15337,20 +15211,20 @@
       <c r="V230" s="114"/>
       <c r="W230" s="114"/>
       <c r="X230" s="114"/>
-      <c r="Y230" s="123"/>
+      <c r="Y230" s="122"/>
       <c r="Z230" s="114"/>
       <c r="AA230" s="114"/>
       <c r="AB230" s="114"/>
       <c r="AC230" s="118"/>
-      <c r="AD230" s="138"/>
-      <c r="AE230" s="139"/>
-      <c r="AF230" s="139"/>
-      <c r="AG230" s="140"/>
-      <c r="AH230" s="138"/>
-      <c r="AI230" s="140"/>
-      <c r="AJ230" s="138"/>
-      <c r="AK230" s="139"/>
-      <c r="AL230" s="140"/>
+      <c r="AD230" s="170"/>
+      <c r="AE230" s="171"/>
+      <c r="AF230" s="171"/>
+      <c r="AG230" s="172"/>
+      <c r="AH230" s="170"/>
+      <c r="AI230" s="172"/>
+      <c r="AJ230" s="170"/>
+      <c r="AK230" s="171"/>
+      <c r="AL230" s="172"/>
       <c r="AM230" s="107"/>
       <c r="AN230" s="2"/>
       <c r="AP230" s="5"/>
@@ -15383,28 +15257,28 @@
       <c r="V231" s="113"/>
       <c r="W231" s="113"/>
       <c r="X231" s="113"/>
-      <c r="Y231" s="124" t="s">
+      <c r="Y231" s="123" t="s">
         <v>243</v>
       </c>
       <c r="Z231" s="113"/>
       <c r="AA231" s="113"/>
       <c r="AB231" s="113"/>
       <c r="AC231" s="117"/>
-      <c r="AD231" s="135" t="s">
+      <c r="AD231" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AE231" s="136"/>
-      <c r="AF231" s="136"/>
-      <c r="AG231" s="137"/>
-      <c r="AH231" s="135" t="s">
+      <c r="AE231" s="168"/>
+      <c r="AF231" s="168"/>
+      <c r="AG231" s="169"/>
+      <c r="AH231" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AI231" s="137"/>
-      <c r="AJ231" s="135" t="s">
+      <c r="AI231" s="169"/>
+      <c r="AJ231" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AK231" s="136"/>
-      <c r="AL231" s="137"/>
+      <c r="AK231" s="168"/>
+      <c r="AL231" s="169"/>
       <c r="AM231" s="107"/>
       <c r="AN231" s="2"/>
       <c r="AP231" s="5"/>
@@ -15417,48 +15291,48 @@
       <c r="D232" s="40"/>
       <c r="E232" s="40"/>
       <c r="F232" s="114"/>
-      <c r="G232" s="114"/>
-      <c r="H232" s="41"/>
-      <c r="I232" s="48" t="s">
+      <c r="G232" s="173"/>
+      <c r="H232" s="174"/>
+      <c r="I232" s="175" t="s">
         <v>233</v>
       </c>
-      <c r="J232" s="113"/>
-      <c r="K232" s="113"/>
-      <c r="L232" s="113"/>
-      <c r="M232" s="113"/>
-      <c r="N232" s="113"/>
-      <c r="O232" s="113"/>
-      <c r="P232" s="113"/>
-      <c r="Q232" s="113"/>
-      <c r="R232" s="113"/>
-      <c r="S232" s="113"/>
-      <c r="T232" s="113"/>
-      <c r="U232" s="113"/>
-      <c r="V232" s="113"/>
-      <c r="W232" s="113"/>
-      <c r="X232" s="113"/>
-      <c r="Y232" s="125" t="s">
+      <c r="J232" s="120"/>
+      <c r="K232" s="120"/>
+      <c r="L232" s="120"/>
+      <c r="M232" s="120"/>
+      <c r="N232" s="120"/>
+      <c r="O232" s="120"/>
+      <c r="P232" s="120"/>
+      <c r="Q232" s="120"/>
+      <c r="R232" s="120"/>
+      <c r="S232" s="120"/>
+      <c r="T232" s="120"/>
+      <c r="U232" s="120"/>
+      <c r="V232" s="120"/>
+      <c r="W232" s="120"/>
+      <c r="X232" s="120"/>
+      <c r="Y232" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="Z232" s="113"/>
-      <c r="AA232" s="113"/>
-      <c r="AB232" s="113"/>
-      <c r="AC232" s="117"/>
-      <c r="AD232" s="135" t="s">
+      <c r="Z232" s="120"/>
+      <c r="AA232" s="120"/>
+      <c r="AB232" s="120"/>
+      <c r="AC232" s="176"/>
+      <c r="AD232" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AE232" s="136"/>
-      <c r="AF232" s="136"/>
-      <c r="AG232" s="137"/>
-      <c r="AH232" s="135" t="s">
+      <c r="AE232" s="178"/>
+      <c r="AF232" s="178"/>
+      <c r="AG232" s="179"/>
+      <c r="AH232" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AI232" s="137"/>
-      <c r="AJ232" s="135" t="s">
+      <c r="AI232" s="179"/>
+      <c r="AJ232" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AK232" s="136"/>
-      <c r="AL232" s="137"/>
+      <c r="AK232" s="178"/>
+      <c r="AL232" s="179"/>
       <c r="AM232" s="107"/>
       <c r="AN232" s="2"/>
       <c r="AP232" s="5"/>
@@ -15473,48 +15347,48 @@
       <c r="D233" s="109"/>
       <c r="E233" s="109"/>
       <c r="F233" s="115"/>
-      <c r="G233" s="115"/>
-      <c r="H233" s="112"/>
-      <c r="I233" s="126" t="s">
+      <c r="G233" s="180"/>
+      <c r="H233" s="181"/>
+      <c r="I233" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="J233" s="126"/>
-      <c r="K233" s="126"/>
-      <c r="L233" s="126"/>
-      <c r="M233" s="126"/>
-      <c r="N233" s="126"/>
-      <c r="O233" s="126"/>
-      <c r="P233" s="126"/>
-      <c r="Q233" s="126"/>
-      <c r="R233" s="126"/>
-      <c r="S233" s="126"/>
-      <c r="T233" s="126"/>
-      <c r="U233" s="126"/>
-      <c r="V233" s="126"/>
-      <c r="W233" s="126"/>
-      <c r="X233" s="126"/>
-      <c r="Y233" s="127" t="s">
+      <c r="J233" s="120"/>
+      <c r="K233" s="120"/>
+      <c r="L233" s="120"/>
+      <c r="M233" s="120"/>
+      <c r="N233" s="120"/>
+      <c r="O233" s="120"/>
+      <c r="P233" s="120"/>
+      <c r="Q233" s="120"/>
+      <c r="R233" s="120"/>
+      <c r="S233" s="120"/>
+      <c r="T233" s="120"/>
+      <c r="U233" s="120"/>
+      <c r="V233" s="120"/>
+      <c r="W233" s="120"/>
+      <c r="X233" s="120"/>
+      <c r="Y233" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="Z233" s="126"/>
-      <c r="AA233" s="126"/>
-      <c r="AB233" s="126"/>
-      <c r="AC233" s="128"/>
-      <c r="AD233" s="129" t="s">
+      <c r="Z233" s="120"/>
+      <c r="AA233" s="120"/>
+      <c r="AB233" s="120"/>
+      <c r="AC233" s="176"/>
+      <c r="AD233" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AE233" s="130"/>
-      <c r="AF233" s="130"/>
-      <c r="AG233" s="131"/>
-      <c r="AH233" s="129" t="s">
+      <c r="AE233" s="178"/>
+      <c r="AF233" s="178"/>
+      <c r="AG233" s="179"/>
+      <c r="AH233" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AI233" s="131"/>
-      <c r="AJ233" s="129" t="s">
+      <c r="AI233" s="179"/>
+      <c r="AJ233" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AK233" s="130"/>
-      <c r="AL233" s="131"/>
+      <c r="AK233" s="178"/>
+      <c r="AL233" s="179"/>
       <c r="AM233" s="107"/>
       <c r="AN233" s="2"/>
       <c r="AP233" s="5"/>
@@ -15527,48 +15401,48 @@
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
       <c r="F234" s="107"/>
-      <c r="G234" s="107"/>
-      <c r="H234" s="120"/>
-      <c r="I234" s="121" t="s">
+      <c r="G234" s="182"/>
+      <c r="H234" s="183"/>
+      <c r="I234" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="J234" s="113"/>
-      <c r="K234" s="113"/>
-      <c r="L234" s="113"/>
-      <c r="M234" s="113"/>
-      <c r="N234" s="113"/>
-      <c r="O234" s="113"/>
-      <c r="P234" s="113"/>
-      <c r="Q234" s="113"/>
-      <c r="R234" s="113"/>
-      <c r="S234" s="113"/>
-      <c r="T234" s="113"/>
-      <c r="U234" s="113"/>
-      <c r="V234" s="113"/>
-      <c r="W234" s="113"/>
-      <c r="X234" s="113"/>
-      <c r="Y234" s="125" t="s">
+      <c r="J234" s="120"/>
+      <c r="K234" s="120"/>
+      <c r="L234" s="120"/>
+      <c r="M234" s="120"/>
+      <c r="N234" s="120"/>
+      <c r="O234" s="120"/>
+      <c r="P234" s="120"/>
+      <c r="Q234" s="120"/>
+      <c r="R234" s="120"/>
+      <c r="S234" s="120"/>
+      <c r="T234" s="120"/>
+      <c r="U234" s="120"/>
+      <c r="V234" s="120"/>
+      <c r="W234" s="120"/>
+      <c r="X234" s="120"/>
+      <c r="Y234" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="Z234" s="113"/>
-      <c r="AA234" s="113"/>
-      <c r="AB234" s="113"/>
-      <c r="AC234" s="117"/>
-      <c r="AD234" s="135" t="s">
+      <c r="Z234" s="120"/>
+      <c r="AA234" s="120"/>
+      <c r="AB234" s="120"/>
+      <c r="AC234" s="176"/>
+      <c r="AD234" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AE234" s="136"/>
-      <c r="AF234" s="136"/>
-      <c r="AG234" s="137"/>
-      <c r="AH234" s="135" t="s">
+      <c r="AE234" s="178"/>
+      <c r="AF234" s="178"/>
+      <c r="AG234" s="179"/>
+      <c r="AH234" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AI234" s="137"/>
-      <c r="AJ234" s="135" t="s">
+      <c r="AI234" s="179"/>
+      <c r="AJ234" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AK234" s="136"/>
-      <c r="AL234" s="137"/>
+      <c r="AK234" s="178"/>
+      <c r="AL234" s="179"/>
       <c r="AM234" s="107"/>
       <c r="AN234" s="2"/>
       <c r="AP234" s="5"/>
@@ -15581,48 +15455,48 @@
       <c r="D235" s="40"/>
       <c r="E235" s="40"/>
       <c r="F235" s="114"/>
-      <c r="G235" s="114"/>
-      <c r="H235" s="118"/>
-      <c r="I235" s="126" t="s">
+      <c r="G235" s="173"/>
+      <c r="H235" s="184"/>
+      <c r="I235" s="120" t="s">
         <v>249</v>
       </c>
-      <c r="J235" s="126"/>
-      <c r="K235" s="126"/>
-      <c r="L235" s="126"/>
-      <c r="M235" s="126"/>
-      <c r="N235" s="126"/>
-      <c r="O235" s="126"/>
-      <c r="P235" s="126"/>
-      <c r="Q235" s="126"/>
-      <c r="R235" s="126"/>
-      <c r="S235" s="126"/>
-      <c r="T235" s="126"/>
-      <c r="U235" s="126"/>
-      <c r="V235" s="126"/>
-      <c r="W235" s="126"/>
-      <c r="X235" s="126"/>
-      <c r="Y235" s="127" t="s">
+      <c r="J235" s="120"/>
+      <c r="K235" s="120"/>
+      <c r="L235" s="120"/>
+      <c r="M235" s="120"/>
+      <c r="N235" s="120"/>
+      <c r="O235" s="120"/>
+      <c r="P235" s="120"/>
+      <c r="Q235" s="120"/>
+      <c r="R235" s="120"/>
+      <c r="S235" s="120"/>
+      <c r="T235" s="120"/>
+      <c r="U235" s="120"/>
+      <c r="V235" s="120"/>
+      <c r="W235" s="120"/>
+      <c r="X235" s="120"/>
+      <c r="Y235" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="Z235" s="126"/>
-      <c r="AA235" s="126"/>
-      <c r="AB235" s="126"/>
-      <c r="AC235" s="128"/>
-      <c r="AD235" s="144" t="s">
+      <c r="Z235" s="120"/>
+      <c r="AA235" s="120"/>
+      <c r="AB235" s="120"/>
+      <c r="AC235" s="176"/>
+      <c r="AD235" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="AE235" s="145"/>
-      <c r="AF235" s="145"/>
-      <c r="AG235" s="146"/>
-      <c r="AH235" s="144" t="s">
+      <c r="AE235" s="186"/>
+      <c r="AF235" s="186"/>
+      <c r="AG235" s="187"/>
+      <c r="AH235" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="AI235" s="146"/>
-      <c r="AJ235" s="129" t="s">
+      <c r="AI235" s="187"/>
+      <c r="AJ235" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AK235" s="130"/>
-      <c r="AL235" s="131"/>
+      <c r="AK235" s="178"/>
+      <c r="AL235" s="179"/>
       <c r="AM235" s="107"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -15639,7 +15513,7 @@
       <c r="F236" s="113"/>
       <c r="G236" s="113"/>
       <c r="H236" s="117"/>
-      <c r="I236" s="121" t="s">
+      <c r="I236" s="120" t="s">
         <v>236</v>
       </c>
       <c r="J236" s="113"/>
@@ -15657,28 +15531,28 @@
       <c r="V236" s="113"/>
       <c r="W236" s="113"/>
       <c r="X236" s="113"/>
-      <c r="Y236" s="125" t="s">
+      <c r="Y236" s="124" t="s">
         <v>243</v>
       </c>
       <c r="Z236" s="113"/>
       <c r="AA236" s="113"/>
       <c r="AB236" s="113"/>
       <c r="AC236" s="117"/>
-      <c r="AD236" s="141" t="s">
+      <c r="AD236" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AE236" s="142"/>
-      <c r="AF236" s="142"/>
-      <c r="AG236" s="143"/>
-      <c r="AH236" s="141" t="s">
+      <c r="AE236" s="147"/>
+      <c r="AF236" s="147"/>
+      <c r="AG236" s="148"/>
+      <c r="AH236" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AI236" s="143"/>
-      <c r="AJ236" s="141" t="s">
+      <c r="AI236" s="148"/>
+      <c r="AJ236" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AK236" s="142"/>
-      <c r="AL236" s="143"/>
+      <c r="AK236" s="147"/>
+      <c r="AL236" s="148"/>
       <c r="AM236" s="107"/>
       <c r="AN236" s="2"/>
       <c r="AP236" s="5"/>
@@ -15768,18 +15642,18 @@
       <c r="AK238" s="107"/>
       <c r="AL238" s="107"/>
       <c r="AM238" s="107"/>
-      <c r="AN238" s="180"/>
+      <c r="AN238" s="125"/>
       <c r="AP238" s="5"/>
       <c r="AQ238" s="2"/>
     </row>
     <row r="239" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="9"/>
-      <c r="C239" s="181" t="s">
+      <c r="C239" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="D239" s="182"/>
-      <c r="E239" s="182"/>
+      <c r="D239" s="127"/>
+      <c r="E239" s="127"/>
       <c r="F239" s="70"/>
       <c r="G239" s="70"/>
       <c r="H239" s="70"/>
@@ -16280,21 +16154,164 @@
     </row>
   </sheetData>
   <mergeCells count="197">
-    <mergeCell ref="Y148:AD148"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="AJ235:AL235"/>
+    <mergeCell ref="AD227:AL227"/>
+    <mergeCell ref="AD229:AG229"/>
+    <mergeCell ref="AD230:AG230"/>
+    <mergeCell ref="AD231:AG231"/>
+    <mergeCell ref="AD232:AG232"/>
+    <mergeCell ref="AD233:AG233"/>
+    <mergeCell ref="AD234:AG234"/>
+    <mergeCell ref="AD236:AG236"/>
+    <mergeCell ref="AH229:AI229"/>
+    <mergeCell ref="AH230:AI230"/>
+    <mergeCell ref="AH231:AI231"/>
+    <mergeCell ref="AH232:AI232"/>
+    <mergeCell ref="AH233:AI233"/>
+    <mergeCell ref="AH234:AI234"/>
+    <mergeCell ref="AH236:AI236"/>
+    <mergeCell ref="AJ229:AL229"/>
+    <mergeCell ref="AJ230:AL230"/>
+    <mergeCell ref="AJ231:AL231"/>
+    <mergeCell ref="AJ232:AL232"/>
+    <mergeCell ref="AJ233:AL233"/>
+    <mergeCell ref="AJ234:AL234"/>
+    <mergeCell ref="AJ236:AL236"/>
+    <mergeCell ref="AD235:AG235"/>
+    <mergeCell ref="AH235:AI235"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="S131:X131"/>
+    <mergeCell ref="S132:X132"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="S134:X134"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="AE155:AJ155"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="Y129:AD129"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="S156:X156"/>
+    <mergeCell ref="S157:X157"/>
+    <mergeCell ref="S158:X158"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="Y170:AD170"/>
     <mergeCell ref="AE145:AJ145"/>
     <mergeCell ref="AE146:AJ146"/>
     <mergeCell ref="AE147:AJ147"/>
@@ -16319,164 +16336,21 @@
     <mergeCell ref="Y145:AD145"/>
     <mergeCell ref="Y146:AD146"/>
     <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="Y129:AD129"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="S156:X156"/>
-    <mergeCell ref="S157:X157"/>
-    <mergeCell ref="S158:X158"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="S131:X131"/>
-    <mergeCell ref="S132:X132"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="S134:X134"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="AH235:AI235"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="AJ235:AL235"/>
-    <mergeCell ref="AD227:AL227"/>
-    <mergeCell ref="AD229:AG229"/>
-    <mergeCell ref="AD230:AG230"/>
-    <mergeCell ref="AD231:AG231"/>
-    <mergeCell ref="AD232:AG232"/>
-    <mergeCell ref="AD233:AG233"/>
-    <mergeCell ref="AD234:AG234"/>
-    <mergeCell ref="AD236:AG236"/>
-    <mergeCell ref="AH229:AI229"/>
-    <mergeCell ref="AH230:AI230"/>
-    <mergeCell ref="AH231:AI231"/>
-    <mergeCell ref="AH232:AI232"/>
-    <mergeCell ref="AH233:AI233"/>
-    <mergeCell ref="AH234:AI234"/>
-    <mergeCell ref="AH236:AI236"/>
-    <mergeCell ref="AJ229:AL229"/>
-    <mergeCell ref="AJ230:AL230"/>
-    <mergeCell ref="AJ231:AL231"/>
-    <mergeCell ref="AJ232:AL232"/>
-    <mergeCell ref="AJ233:AL233"/>
-    <mergeCell ref="AJ234:AL234"/>
-    <mergeCell ref="AJ236:AL236"/>
-    <mergeCell ref="AD235:AG235"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="266">
   <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
@@ -2801,6 +2801,25 @@
     </rPh>
     <rPh sb="60" eb="64">
       <t>シュウケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのユーザに対して自パスワードリセットを不可に変更。</t>
+    <rPh sb="0" eb="1">
+      <t>スベt</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイs</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フカn</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4188,6 +4207,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4233,6 +4261,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4242,15 +4279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4258,6 +4286,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4287,6 +4321,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4305,31 +4348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6040,10 +6059,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
+      <c r="B10" s="83">
+        <v>42974</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>265</v>
+      </c>
       <c r="F10" s="82"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6581,15 +6608,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="157"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="168"/>
       <c r="H1" s="55"/>
       <c r="I1" s="52" t="s">
         <v>73</v>
@@ -6600,53 +6627,53 @@
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
       <c r="O1" s="54"/>
-      <c r="P1" s="164" t="s">
+      <c r="P1" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="166"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="177"/>
       <c r="AA1" s="52" t="s">
         <v>68</v>
       </c>
       <c r="AB1" s="50"/>
       <c r="AC1" s="51"/>
-      <c r="AD1" s="161">
+      <c r="AD1" s="172">
         <v>42760</v>
       </c>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="163"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="174"/>
       <c r="AI1" s="52" t="s">
         <v>70</v>
       </c>
       <c r="AJ1" s="53"/>
       <c r="AK1" s="54"/>
-      <c r="AL1" s="152" t="s">
+      <c r="AL1" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="153"/>
-      <c r="AN1" s="153"/>
-      <c r="AO1" s="153"/>
-      <c r="AP1" s="154"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="165"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="160"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
       <c r="H2" s="56"/>
       <c r="I2" s="52" t="s">
         <v>74</v>
@@ -6657,41 +6684,41 @@
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="54"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="166"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
       <c r="AA2" s="52" t="s">
         <v>69</v>
       </c>
       <c r="AB2" s="50"/>
       <c r="AC2" s="51"/>
-      <c r="AD2" s="161">
+      <c r="AD2" s="172">
         <v>42950</v>
       </c>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="163"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="174"/>
       <c r="AI2" s="52" t="s">
         <v>71</v>
       </c>
       <c r="AJ2" s="53"/>
       <c r="AK2" s="54"/>
-      <c r="AL2" s="152" t="s">
+      <c r="AL2" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="153"/>
-      <c r="AN2" s="153"/>
-      <c r="AO2" s="153"/>
-      <c r="AP2" s="154"/>
+      <c r="AM2" s="164"/>
+      <c r="AN2" s="164"/>
+      <c r="AO2" s="164"/>
+      <c r="AP2" s="165"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7229,27 +7256,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="146" t="s">
+      <c r="L19" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="147"/>
-      <c r="AD19" s="148"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="153"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="153"/>
+      <c r="Y19" s="153"/>
+      <c r="Z19" s="153"/>
+      <c r="AA19" s="153"/>
+      <c r="AB19" s="153"/>
+      <c r="AC19" s="153"/>
+      <c r="AD19" s="154"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7265,27 +7292,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="42"/>
-      <c r="L20" s="146" t="s">
+      <c r="L20" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="148"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="153"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="153"/>
+      <c r="Z20" s="153"/>
+      <c r="AA20" s="153"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="153"/>
+      <c r="AD20" s="154"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7301,27 +7328,27 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="43"/>
-      <c r="L21" s="146" t="s">
+      <c r="L21" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="148"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="153"/>
+      <c r="W21" s="153"/>
+      <c r="X21" s="153"/>
+      <c r="Y21" s="153"/>
+      <c r="Z21" s="153"/>
+      <c r="AA21" s="153"/>
+      <c r="AB21" s="153"/>
+      <c r="AC21" s="153"/>
+      <c r="AD21" s="154"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -7775,27 +7802,27 @@
       <c r="I40" s="61"/>
       <c r="J40" s="61"/>
       <c r="K40" s="62"/>
-      <c r="L40" s="149" t="s">
+      <c r="L40" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="150"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="150"/>
-      <c r="P40" s="150"/>
-      <c r="Q40" s="150"/>
-      <c r="R40" s="150"/>
-      <c r="S40" s="150"/>
-      <c r="T40" s="150"/>
-      <c r="U40" s="150"/>
-      <c r="V40" s="150"/>
-      <c r="W40" s="150"/>
-      <c r="X40" s="150"/>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="150"/>
-      <c r="AA40" s="150"/>
-      <c r="AB40" s="150"/>
-      <c r="AC40" s="150"/>
-      <c r="AD40" s="151"/>
+      <c r="M40" s="159"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="159"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="159"/>
+      <c r="R40" s="159"/>
+      <c r="S40" s="159"/>
+      <c r="T40" s="159"/>
+      <c r="U40" s="159"/>
+      <c r="V40" s="159"/>
+      <c r="W40" s="159"/>
+      <c r="X40" s="159"/>
+      <c r="Y40" s="159"/>
+      <c r="Z40" s="159"/>
+      <c r="AA40" s="159"/>
+      <c r="AB40" s="159"/>
+      <c r="AC40" s="159"/>
+      <c r="AD40" s="160"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -7811,27 +7838,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="146" t="s">
+      <c r="L41" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="147"/>
-      <c r="P41" s="147"/>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="147"/>
-      <c r="V41" s="147"/>
-      <c r="W41" s="147"/>
-      <c r="X41" s="147"/>
-      <c r="Y41" s="147"/>
-      <c r="Z41" s="147"/>
-      <c r="AA41" s="147"/>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
-      <c r="AD41" s="148"/>
+      <c r="M41" s="153"/>
+      <c r="N41" s="153"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="153"/>
+      <c r="R41" s="153"/>
+      <c r="S41" s="153"/>
+      <c r="T41" s="153"/>
+      <c r="U41" s="153"/>
+      <c r="V41" s="153"/>
+      <c r="W41" s="153"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
+      <c r="Z41" s="153"/>
+      <c r="AA41" s="153"/>
+      <c r="AB41" s="153"/>
+      <c r="AC41" s="153"/>
+      <c r="AD41" s="154"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -7847,27 +7874,27 @@
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="146" t="s">
+      <c r="L42" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147"/>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="147"/>
-      <c r="R42" s="147"/>
-      <c r="S42" s="147"/>
-      <c r="T42" s="147"/>
-      <c r="U42" s="147"/>
-      <c r="V42" s="147"/>
-      <c r="W42" s="147"/>
-      <c r="X42" s="147"/>
-      <c r="Y42" s="147"/>
-      <c r="Z42" s="147"/>
-      <c r="AA42" s="147"/>
-      <c r="AB42" s="147"/>
-      <c r="AC42" s="147"/>
-      <c r="AD42" s="148"/>
+      <c r="M42" s="153"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="153"/>
+      <c r="R42" s="153"/>
+      <c r="S42" s="153"/>
+      <c r="T42" s="153"/>
+      <c r="U42" s="153"/>
+      <c r="V42" s="153"/>
+      <c r="W42" s="153"/>
+      <c r="X42" s="153"/>
+      <c r="Y42" s="153"/>
+      <c r="Z42" s="153"/>
+      <c r="AA42" s="153"/>
+      <c r="AB42" s="153"/>
+      <c r="AC42" s="153"/>
+      <c r="AD42" s="154"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -7883,27 +7910,27 @@
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
       <c r="K43" s="41"/>
-      <c r="L43" s="146" t="s">
+      <c r="L43" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
-      <c r="AA43" s="147"/>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="148"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="153"/>
+      <c r="P43" s="153"/>
+      <c r="Q43" s="153"/>
+      <c r="R43" s="153"/>
+      <c r="S43" s="153"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="153"/>
+      <c r="V43" s="153"/>
+      <c r="W43" s="153"/>
+      <c r="X43" s="153"/>
+      <c r="Y43" s="153"/>
+      <c r="Z43" s="153"/>
+      <c r="AA43" s="153"/>
+      <c r="AB43" s="153"/>
+      <c r="AC43" s="153"/>
+      <c r="AD43" s="154"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -7919,27 +7946,27 @@
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="146" t="s">
+      <c r="L44" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="147"/>
-      <c r="N44" s="147"/>
-      <c r="O44" s="147"/>
-      <c r="P44" s="147"/>
-      <c r="Q44" s="147"/>
-      <c r="R44" s="147"/>
-      <c r="S44" s="147"/>
-      <c r="T44" s="147"/>
-      <c r="U44" s="147"/>
-      <c r="V44" s="147"/>
-      <c r="W44" s="147"/>
-      <c r="X44" s="147"/>
-      <c r="Y44" s="147"/>
-      <c r="Z44" s="147"/>
-      <c r="AA44" s="147"/>
-      <c r="AB44" s="147"/>
-      <c r="AC44" s="147"/>
-      <c r="AD44" s="148"/>
+      <c r="M44" s="153"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="153"/>
+      <c r="P44" s="153"/>
+      <c r="Q44" s="153"/>
+      <c r="R44" s="153"/>
+      <c r="S44" s="153"/>
+      <c r="T44" s="153"/>
+      <c r="U44" s="153"/>
+      <c r="V44" s="153"/>
+      <c r="W44" s="153"/>
+      <c r="X44" s="153"/>
+      <c r="Y44" s="153"/>
+      <c r="Z44" s="153"/>
+      <c r="AA44" s="153"/>
+      <c r="AB44" s="153"/>
+      <c r="AC44" s="153"/>
+      <c r="AD44" s="154"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -7955,27 +7982,27 @@
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
       <c r="K45" s="41"/>
-      <c r="L45" s="146" t="s">
+      <c r="L45" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="M45" s="147"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147"/>
-      <c r="Q45" s="147"/>
-      <c r="R45" s="147"/>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="147"/>
-      <c r="X45" s="147"/>
-      <c r="Y45" s="147"/>
-      <c r="Z45" s="147"/>
-      <c r="AA45" s="147"/>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="147"/>
-      <c r="AD45" s="148"/>
+      <c r="M45" s="153"/>
+      <c r="N45" s="153"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="153"/>
+      <c r="S45" s="153"/>
+      <c r="T45" s="153"/>
+      <c r="U45" s="153"/>
+      <c r="V45" s="153"/>
+      <c r="W45" s="153"/>
+      <c r="X45" s="153"/>
+      <c r="Y45" s="153"/>
+      <c r="Z45" s="153"/>
+      <c r="AA45" s="153"/>
+      <c r="AB45" s="153"/>
+      <c r="AC45" s="153"/>
+      <c r="AD45" s="154"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8050,27 +8077,27 @@
       <c r="I48" s="61"/>
       <c r="J48" s="61"/>
       <c r="K48" s="62"/>
-      <c r="L48" s="149" t="s">
+      <c r="L48" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="150"/>
-      <c r="N48" s="150"/>
-      <c r="O48" s="150"/>
-      <c r="P48" s="150"/>
-      <c r="Q48" s="150"/>
-      <c r="R48" s="150"/>
-      <c r="S48" s="150"/>
-      <c r="T48" s="150"/>
-      <c r="U48" s="150"/>
-      <c r="V48" s="150"/>
-      <c r="W48" s="150"/>
-      <c r="X48" s="150"/>
-      <c r="Y48" s="150"/>
-      <c r="Z48" s="150"/>
-      <c r="AA48" s="150"/>
-      <c r="AB48" s="150"/>
-      <c r="AC48" s="150"/>
-      <c r="AD48" s="151"/>
+      <c r="M48" s="159"/>
+      <c r="N48" s="159"/>
+      <c r="O48" s="159"/>
+      <c r="P48" s="159"/>
+      <c r="Q48" s="159"/>
+      <c r="R48" s="159"/>
+      <c r="S48" s="159"/>
+      <c r="T48" s="159"/>
+      <c r="U48" s="159"/>
+      <c r="V48" s="159"/>
+      <c r="W48" s="159"/>
+      <c r="X48" s="159"/>
+      <c r="Y48" s="159"/>
+      <c r="Z48" s="159"/>
+      <c r="AA48" s="159"/>
+      <c r="AB48" s="159"/>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="160"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8084,27 +8111,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="146" t="s">
+      <c r="L49" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="147"/>
-      <c r="N49" s="147"/>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="147"/>
-      <c r="R49" s="147"/>
-      <c r="S49" s="147"/>
-      <c r="T49" s="147"/>
-      <c r="U49" s="147"/>
-      <c r="V49" s="147"/>
-      <c r="W49" s="147"/>
-      <c r="X49" s="147"/>
-      <c r="Y49" s="147"/>
-      <c r="Z49" s="147"/>
-      <c r="AA49" s="147"/>
-      <c r="AB49" s="147"/>
-      <c r="AC49" s="147"/>
-      <c r="AD49" s="148"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="153"/>
+      <c r="R49" s="153"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="153"/>
+      <c r="V49" s="153"/>
+      <c r="W49" s="153"/>
+      <c r="X49" s="153"/>
+      <c r="Y49" s="153"/>
+      <c r="Z49" s="153"/>
+      <c r="AA49" s="153"/>
+      <c r="AB49" s="153"/>
+      <c r="AC49" s="153"/>
+      <c r="AD49" s="154"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8118,27 +8145,27 @@
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="146" t="s">
+      <c r="L50" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="M50" s="147"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="147"/>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-      <c r="V50" s="147"/>
-      <c r="W50" s="147"/>
-      <c r="X50" s="147"/>
-      <c r="Y50" s="147"/>
-      <c r="Z50" s="147"/>
-      <c r="AA50" s="147"/>
-      <c r="AB50" s="147"/>
-      <c r="AC50" s="147"/>
-      <c r="AD50" s="148"/>
+      <c r="M50" s="153"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="153"/>
+      <c r="P50" s="153"/>
+      <c r="Q50" s="153"/>
+      <c r="R50" s="153"/>
+      <c r="S50" s="153"/>
+      <c r="T50" s="153"/>
+      <c r="U50" s="153"/>
+      <c r="V50" s="153"/>
+      <c r="W50" s="153"/>
+      <c r="X50" s="153"/>
+      <c r="Y50" s="153"/>
+      <c r="Z50" s="153"/>
+      <c r="AA50" s="153"/>
+      <c r="AB50" s="153"/>
+      <c r="AC50" s="153"/>
+      <c r="AD50" s="154"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -10741,30 +10768,30 @@
       <c r="P125" s="61"/>
       <c r="Q125" s="61"/>
       <c r="R125" s="62"/>
-      <c r="S125" s="149" t="s">
+      <c r="S125" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="150"/>
-      <c r="U125" s="150"/>
-      <c r="V125" s="150"/>
-      <c r="W125" s="150"/>
-      <c r="X125" s="151"/>
-      <c r="Y125" s="149" t="s">
+      <c r="T125" s="159"/>
+      <c r="U125" s="159"/>
+      <c r="V125" s="159"/>
+      <c r="W125" s="159"/>
+      <c r="X125" s="160"/>
+      <c r="Y125" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="150"/>
-      <c r="AA125" s="150"/>
-      <c r="AB125" s="150"/>
-      <c r="AC125" s="150"/>
-      <c r="AD125" s="151"/>
-      <c r="AE125" s="149" t="s">
+      <c r="Z125" s="159"/>
+      <c r="AA125" s="159"/>
+      <c r="AB125" s="159"/>
+      <c r="AC125" s="159"/>
+      <c r="AD125" s="160"/>
+      <c r="AE125" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="150"/>
-      <c r="AG125" s="150"/>
-      <c r="AH125" s="150"/>
-      <c r="AI125" s="150"/>
-      <c r="AJ125" s="151"/>
+      <c r="AF125" s="159"/>
+      <c r="AG125" s="159"/>
+      <c r="AH125" s="159"/>
+      <c r="AI125" s="159"/>
+      <c r="AJ125" s="160"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -10786,30 +10813,30 @@
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
       <c r="R126" s="13"/>
-      <c r="S126" s="146" t="s">
+      <c r="S126" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="147"/>
-      <c r="U126" s="147"/>
-      <c r="V126" s="147"/>
-      <c r="W126" s="147"/>
-      <c r="X126" s="148"/>
-      <c r="Y126" s="146" t="s">
+      <c r="T126" s="153"/>
+      <c r="U126" s="153"/>
+      <c r="V126" s="153"/>
+      <c r="W126" s="153"/>
+      <c r="X126" s="154"/>
+      <c r="Y126" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="147"/>
-      <c r="AA126" s="147"/>
-      <c r="AB126" s="147"/>
-      <c r="AC126" s="147"/>
-      <c r="AD126" s="148"/>
-      <c r="AE126" s="146" t="s">
+      <c r="Z126" s="153"/>
+      <c r="AA126" s="153"/>
+      <c r="AB126" s="153"/>
+      <c r="AC126" s="153"/>
+      <c r="AD126" s="154"/>
+      <c r="AE126" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="147"/>
-      <c r="AG126" s="147"/>
-      <c r="AH126" s="147"/>
-      <c r="AI126" s="147"/>
-      <c r="AJ126" s="148"/>
+      <c r="AF126" s="153"/>
+      <c r="AG126" s="153"/>
+      <c r="AH126" s="153"/>
+      <c r="AI126" s="153"/>
+      <c r="AJ126" s="154"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -10870,30 +10897,30 @@
       <c r="P128" s="19"/>
       <c r="Q128" s="19"/>
       <c r="R128" s="20"/>
-      <c r="S128" s="143" t="s">
+      <c r="S128" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="144"/>
-      <c r="U128" s="144"/>
-      <c r="V128" s="144"/>
-      <c r="W128" s="144"/>
-      <c r="X128" s="145"/>
-      <c r="Y128" s="143" t="s">
+      <c r="T128" s="156"/>
+      <c r="U128" s="156"/>
+      <c r="V128" s="156"/>
+      <c r="W128" s="156"/>
+      <c r="X128" s="157"/>
+      <c r="Y128" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="144"/>
-      <c r="AA128" s="144"/>
-      <c r="AB128" s="144"/>
-      <c r="AC128" s="144"/>
-      <c r="AD128" s="145"/>
-      <c r="AE128" s="143" t="s">
+      <c r="Z128" s="156"/>
+      <c r="AA128" s="156"/>
+      <c r="AB128" s="156"/>
+      <c r="AC128" s="156"/>
+      <c r="AD128" s="157"/>
+      <c r="AE128" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="144"/>
-      <c r="AG128" s="144"/>
-      <c r="AH128" s="144"/>
-      <c r="AI128" s="144"/>
-      <c r="AJ128" s="145"/>
+      <c r="AF128" s="156"/>
+      <c r="AG128" s="156"/>
+      <c r="AH128" s="156"/>
+      <c r="AI128" s="156"/>
+      <c r="AJ128" s="157"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -10915,30 +10942,30 @@
       <c r="P129" s="22"/>
       <c r="Q129" s="22"/>
       <c r="R129" s="23"/>
-      <c r="S129" s="131" t="s">
+      <c r="S129" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="132"/>
-      <c r="U129" s="132"/>
-      <c r="V129" s="132"/>
-      <c r="W129" s="132"/>
-      <c r="X129" s="133"/>
-      <c r="Y129" s="131" t="s">
+      <c r="T129" s="141"/>
+      <c r="U129" s="141"/>
+      <c r="V129" s="141"/>
+      <c r="W129" s="141"/>
+      <c r="X129" s="142"/>
+      <c r="Y129" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="132"/>
-      <c r="AA129" s="132"/>
-      <c r="AB129" s="132"/>
-      <c r="AC129" s="132"/>
-      <c r="AD129" s="133"/>
-      <c r="AE129" s="131" t="s">
+      <c r="Z129" s="141"/>
+      <c r="AA129" s="141"/>
+      <c r="AB129" s="141"/>
+      <c r="AC129" s="141"/>
+      <c r="AD129" s="142"/>
+      <c r="AE129" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="132"/>
-      <c r="AG129" s="132"/>
-      <c r="AH129" s="132"/>
-      <c r="AI129" s="132"/>
-      <c r="AJ129" s="133"/>
+      <c r="AF129" s="141"/>
+      <c r="AG129" s="141"/>
+      <c r="AH129" s="141"/>
+      <c r="AI129" s="141"/>
+      <c r="AJ129" s="142"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -10962,30 +10989,30 @@
       <c r="P130" s="22"/>
       <c r="Q130" s="22"/>
       <c r="R130" s="23"/>
-      <c r="S130" s="131" t="s">
+      <c r="S130" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="132"/>
-      <c r="U130" s="132"/>
-      <c r="V130" s="132"/>
-      <c r="W130" s="132"/>
-      <c r="X130" s="133"/>
-      <c r="Y130" s="131" t="s">
+      <c r="T130" s="141"/>
+      <c r="U130" s="141"/>
+      <c r="V130" s="141"/>
+      <c r="W130" s="141"/>
+      <c r="X130" s="142"/>
+      <c r="Y130" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="132"/>
-      <c r="AA130" s="132"/>
-      <c r="AB130" s="132"/>
-      <c r="AC130" s="132"/>
-      <c r="AD130" s="133"/>
-      <c r="AE130" s="131" t="s">
+      <c r="Z130" s="141"/>
+      <c r="AA130" s="141"/>
+      <c r="AB130" s="141"/>
+      <c r="AC130" s="141"/>
+      <c r="AD130" s="142"/>
+      <c r="AE130" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="132"/>
-      <c r="AG130" s="132"/>
-      <c r="AH130" s="132"/>
-      <c r="AI130" s="132"/>
-      <c r="AJ130" s="133"/>
+      <c r="AF130" s="141"/>
+      <c r="AG130" s="141"/>
+      <c r="AH130" s="141"/>
+      <c r="AI130" s="141"/>
+      <c r="AJ130" s="142"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11003,30 +11030,30 @@
       <c r="P131" s="22"/>
       <c r="Q131" s="22"/>
       <c r="R131" s="23"/>
-      <c r="S131" s="131" t="s">
+      <c r="S131" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="132"/>
-      <c r="U131" s="132"/>
-      <c r="V131" s="132"/>
-      <c r="W131" s="132"/>
-      <c r="X131" s="133"/>
-      <c r="Y131" s="131" t="s">
+      <c r="T131" s="141"/>
+      <c r="U131" s="141"/>
+      <c r="V131" s="141"/>
+      <c r="W131" s="141"/>
+      <c r="X131" s="142"/>
+      <c r="Y131" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="132"/>
-      <c r="AA131" s="132"/>
-      <c r="AB131" s="132"/>
-      <c r="AC131" s="132"/>
-      <c r="AD131" s="133"/>
-      <c r="AE131" s="131" t="s">
+      <c r="Z131" s="141"/>
+      <c r="AA131" s="141"/>
+      <c r="AB131" s="141"/>
+      <c r="AC131" s="141"/>
+      <c r="AD131" s="142"/>
+      <c r="AE131" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="132"/>
-      <c r="AG131" s="132"/>
-      <c r="AH131" s="132"/>
-      <c r="AI131" s="132"/>
-      <c r="AJ131" s="133"/>
+      <c r="AF131" s="141"/>
+      <c r="AG131" s="141"/>
+      <c r="AH131" s="141"/>
+      <c r="AI131" s="141"/>
+      <c r="AJ131" s="142"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11048,30 +11075,30 @@
       <c r="P132" s="22"/>
       <c r="Q132" s="22"/>
       <c r="R132" s="23"/>
-      <c r="S132" s="131" t="s">
+      <c r="S132" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="132"/>
-      <c r="U132" s="132"/>
-      <c r="V132" s="132"/>
-      <c r="W132" s="132"/>
-      <c r="X132" s="133"/>
-      <c r="Y132" s="131" t="s">
+      <c r="T132" s="141"/>
+      <c r="U132" s="141"/>
+      <c r="V132" s="141"/>
+      <c r="W132" s="141"/>
+      <c r="X132" s="142"/>
+      <c r="Y132" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="132"/>
-      <c r="AA132" s="132"/>
-      <c r="AB132" s="132"/>
-      <c r="AC132" s="132"/>
-      <c r="AD132" s="133"/>
-      <c r="AE132" s="131" t="s">
+      <c r="Z132" s="141"/>
+      <c r="AA132" s="141"/>
+      <c r="AB132" s="141"/>
+      <c r="AC132" s="141"/>
+      <c r="AD132" s="142"/>
+      <c r="AE132" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="132"/>
-      <c r="AG132" s="132"/>
-      <c r="AH132" s="132"/>
-      <c r="AI132" s="132"/>
-      <c r="AJ132" s="133"/>
+      <c r="AF132" s="141"/>
+      <c r="AG132" s="141"/>
+      <c r="AH132" s="141"/>
+      <c r="AI132" s="141"/>
+      <c r="AJ132" s="142"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11095,30 +11122,30 @@
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
       <c r="R133" s="25"/>
-      <c r="S133" s="131" t="s">
+      <c r="S133" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T133" s="132"/>
-      <c r="U133" s="132"/>
-      <c r="V133" s="132"/>
-      <c r="W133" s="132"/>
-      <c r="X133" s="133"/>
-      <c r="Y133" s="131" t="s">
+      <c r="T133" s="141"/>
+      <c r="U133" s="141"/>
+      <c r="V133" s="141"/>
+      <c r="W133" s="141"/>
+      <c r="X133" s="142"/>
+      <c r="Y133" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="132"/>
-      <c r="AA133" s="132"/>
-      <c r="AB133" s="132"/>
-      <c r="AC133" s="132"/>
-      <c r="AD133" s="133"/>
-      <c r="AE133" s="131" t="s">
+      <c r="Z133" s="141"/>
+      <c r="AA133" s="141"/>
+      <c r="AB133" s="141"/>
+      <c r="AC133" s="141"/>
+      <c r="AD133" s="142"/>
+      <c r="AE133" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF133" s="132"/>
-      <c r="AG133" s="132"/>
-      <c r="AH133" s="132"/>
-      <c r="AI133" s="132"/>
-      <c r="AJ133" s="133"/>
+      <c r="AF133" s="141"/>
+      <c r="AG133" s="141"/>
+      <c r="AH133" s="141"/>
+      <c r="AI133" s="141"/>
+      <c r="AJ133" s="142"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11136,30 +11163,30 @@
       <c r="P134" s="22"/>
       <c r="Q134" s="22"/>
       <c r="R134" s="25"/>
-      <c r="S134" s="131" t="s">
+      <c r="S134" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="132"/>
-      <c r="U134" s="132"/>
-      <c r="V134" s="132"/>
-      <c r="W134" s="132"/>
-      <c r="X134" s="133"/>
-      <c r="Y134" s="131" t="s">
+      <c r="T134" s="141"/>
+      <c r="U134" s="141"/>
+      <c r="V134" s="141"/>
+      <c r="W134" s="141"/>
+      <c r="X134" s="142"/>
+      <c r="Y134" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z134" s="132"/>
-      <c r="AA134" s="132"/>
-      <c r="AB134" s="132"/>
-      <c r="AC134" s="132"/>
-      <c r="AD134" s="133"/>
-      <c r="AE134" s="131" t="s">
+      <c r="Z134" s="141"/>
+      <c r="AA134" s="141"/>
+      <c r="AB134" s="141"/>
+      <c r="AC134" s="141"/>
+      <c r="AD134" s="142"/>
+      <c r="AE134" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="132"/>
-      <c r="AG134" s="132"/>
-      <c r="AH134" s="132"/>
-      <c r="AI134" s="132"/>
-      <c r="AJ134" s="133"/>
+      <c r="AF134" s="141"/>
+      <c r="AG134" s="141"/>
+      <c r="AH134" s="141"/>
+      <c r="AI134" s="141"/>
+      <c r="AJ134" s="142"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11181,30 +11208,30 @@
       <c r="P135" s="22"/>
       <c r="Q135" s="22"/>
       <c r="R135" s="25"/>
-      <c r="S135" s="131" t="s">
+      <c r="S135" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="132"/>
-      <c r="U135" s="132"/>
-      <c r="V135" s="132"/>
-      <c r="W135" s="132"/>
-      <c r="X135" s="133"/>
-      <c r="Y135" s="131" t="s">
+      <c r="T135" s="141"/>
+      <c r="U135" s="141"/>
+      <c r="V135" s="141"/>
+      <c r="W135" s="141"/>
+      <c r="X135" s="142"/>
+      <c r="Y135" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="132"/>
-      <c r="AA135" s="132"/>
-      <c r="AB135" s="132"/>
-      <c r="AC135" s="132"/>
-      <c r="AD135" s="133"/>
-      <c r="AE135" s="131" t="s">
+      <c r="Z135" s="141"/>
+      <c r="AA135" s="141"/>
+      <c r="AB135" s="141"/>
+      <c r="AC135" s="141"/>
+      <c r="AD135" s="142"/>
+      <c r="AE135" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="132"/>
-      <c r="AG135" s="132"/>
-      <c r="AH135" s="132"/>
-      <c r="AI135" s="132"/>
-      <c r="AJ135" s="133"/>
+      <c r="AF135" s="141"/>
+      <c r="AG135" s="141"/>
+      <c r="AH135" s="141"/>
+      <c r="AI135" s="141"/>
+      <c r="AJ135" s="142"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11226,30 +11253,30 @@
       <c r="P136" s="22"/>
       <c r="Q136" s="22"/>
       <c r="R136" s="25"/>
-      <c r="S136" s="131" t="s">
+      <c r="S136" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="132"/>
-      <c r="U136" s="132"/>
-      <c r="V136" s="132"/>
-      <c r="W136" s="132"/>
-      <c r="X136" s="133"/>
-      <c r="Y136" s="131" t="s">
+      <c r="T136" s="141"/>
+      <c r="U136" s="141"/>
+      <c r="V136" s="141"/>
+      <c r="W136" s="141"/>
+      <c r="X136" s="142"/>
+      <c r="Y136" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="132"/>
-      <c r="AA136" s="132"/>
-      <c r="AB136" s="132"/>
-      <c r="AC136" s="132"/>
-      <c r="AD136" s="133"/>
-      <c r="AE136" s="128" t="s">
+      <c r="Z136" s="141"/>
+      <c r="AA136" s="141"/>
+      <c r="AB136" s="141"/>
+      <c r="AC136" s="141"/>
+      <c r="AD136" s="142"/>
+      <c r="AE136" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="AF136" s="129"/>
-      <c r="AG136" s="129"/>
-      <c r="AH136" s="129"/>
-      <c r="AI136" s="129"/>
-      <c r="AJ136" s="130"/>
+      <c r="AF136" s="138"/>
+      <c r="AG136" s="138"/>
+      <c r="AH136" s="138"/>
+      <c r="AI136" s="138"/>
+      <c r="AJ136" s="139"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11273,30 +11300,30 @@
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
       <c r="R137" s="25"/>
-      <c r="S137" s="131" t="s">
+      <c r="S137" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T137" s="132"/>
-      <c r="U137" s="132"/>
-      <c r="V137" s="132"/>
-      <c r="W137" s="132"/>
-      <c r="X137" s="133"/>
-      <c r="Y137" s="131" t="s">
+      <c r="T137" s="141"/>
+      <c r="U137" s="141"/>
+      <c r="V137" s="141"/>
+      <c r="W137" s="141"/>
+      <c r="X137" s="142"/>
+      <c r="Y137" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="Z137" s="132"/>
-      <c r="AA137" s="132"/>
-      <c r="AB137" s="132"/>
-      <c r="AC137" s="132"/>
-      <c r="AD137" s="133"/>
-      <c r="AE137" s="131" t="s">
+      <c r="Z137" s="141"/>
+      <c r="AA137" s="141"/>
+      <c r="AB137" s="141"/>
+      <c r="AC137" s="141"/>
+      <c r="AD137" s="142"/>
+      <c r="AE137" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF137" s="132"/>
-      <c r="AG137" s="132"/>
-      <c r="AH137" s="132"/>
-      <c r="AI137" s="132"/>
-      <c r="AJ137" s="133"/>
+      <c r="AF137" s="141"/>
+      <c r="AG137" s="141"/>
+      <c r="AH137" s="141"/>
+      <c r="AI137" s="141"/>
+      <c r="AJ137" s="142"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11314,30 +11341,30 @@
       <c r="P138" s="22"/>
       <c r="Q138" s="22"/>
       <c r="R138" s="25"/>
-      <c r="S138" s="131" t="s">
+      <c r="S138" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="132"/>
-      <c r="U138" s="132"/>
-      <c r="V138" s="132"/>
-      <c r="W138" s="132"/>
-      <c r="X138" s="133"/>
-      <c r="Y138" s="131" t="s">
+      <c r="T138" s="141"/>
+      <c r="U138" s="141"/>
+      <c r="V138" s="141"/>
+      <c r="W138" s="141"/>
+      <c r="X138" s="142"/>
+      <c r="Y138" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z138" s="132"/>
-      <c r="AA138" s="132"/>
-      <c r="AB138" s="132"/>
-      <c r="AC138" s="132"/>
-      <c r="AD138" s="133"/>
-      <c r="AE138" s="131" t="s">
+      <c r="Z138" s="141"/>
+      <c r="AA138" s="141"/>
+      <c r="AB138" s="141"/>
+      <c r="AC138" s="141"/>
+      <c r="AD138" s="142"/>
+      <c r="AE138" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="132"/>
-      <c r="AG138" s="132"/>
-      <c r="AH138" s="132"/>
-      <c r="AI138" s="132"/>
-      <c r="AJ138" s="133"/>
+      <c r="AF138" s="141"/>
+      <c r="AG138" s="141"/>
+      <c r="AH138" s="141"/>
+      <c r="AI138" s="141"/>
+      <c r="AJ138" s="142"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11359,30 +11386,30 @@
       <c r="P139" s="22"/>
       <c r="Q139" s="22"/>
       <c r="R139" s="25"/>
-      <c r="S139" s="131" t="s">
+      <c r="S139" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="132"/>
-      <c r="U139" s="132"/>
-      <c r="V139" s="132"/>
-      <c r="W139" s="132"/>
-      <c r="X139" s="133"/>
-      <c r="Y139" s="131" t="s">
+      <c r="T139" s="141"/>
+      <c r="U139" s="141"/>
+      <c r="V139" s="141"/>
+      <c r="W139" s="141"/>
+      <c r="X139" s="142"/>
+      <c r="Y139" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="132"/>
-      <c r="AA139" s="132"/>
-      <c r="AB139" s="132"/>
-      <c r="AC139" s="132"/>
-      <c r="AD139" s="133"/>
-      <c r="AE139" s="131" t="s">
+      <c r="Z139" s="141"/>
+      <c r="AA139" s="141"/>
+      <c r="AB139" s="141"/>
+      <c r="AC139" s="141"/>
+      <c r="AD139" s="142"/>
+      <c r="AE139" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="132"/>
-      <c r="AG139" s="132"/>
-      <c r="AH139" s="132"/>
-      <c r="AI139" s="132"/>
-      <c r="AJ139" s="133"/>
+      <c r="AF139" s="141"/>
+      <c r="AG139" s="141"/>
+      <c r="AH139" s="141"/>
+      <c r="AI139" s="141"/>
+      <c r="AJ139" s="142"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11404,30 +11431,30 @@
       <c r="P140" s="22"/>
       <c r="Q140" s="22"/>
       <c r="R140" s="25"/>
-      <c r="S140" s="131" t="s">
-        <v>8</v>
-      </c>
-      <c r="T140" s="132"/>
-      <c r="U140" s="132"/>
-      <c r="V140" s="132"/>
-      <c r="W140" s="132"/>
-      <c r="X140" s="133"/>
-      <c r="Y140" s="131" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z140" s="132"/>
-      <c r="AA140" s="132"/>
-      <c r="AB140" s="132"/>
-      <c r="AC140" s="132"/>
-      <c r="AD140" s="133"/>
-      <c r="AE140" s="128" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF140" s="129"/>
-      <c r="AG140" s="129"/>
-      <c r="AH140" s="129"/>
-      <c r="AI140" s="129"/>
-      <c r="AJ140" s="130"/>
+      <c r="S140" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="T140" s="144"/>
+      <c r="U140" s="144"/>
+      <c r="V140" s="144"/>
+      <c r="W140" s="144"/>
+      <c r="X140" s="145"/>
+      <c r="Y140" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z140" s="144"/>
+      <c r="AA140" s="144"/>
+      <c r="AB140" s="144"/>
+      <c r="AC140" s="144"/>
+      <c r="AD140" s="145"/>
+      <c r="AE140" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF140" s="144"/>
+      <c r="AG140" s="144"/>
+      <c r="AH140" s="144"/>
+      <c r="AI140" s="144"/>
+      <c r="AJ140" s="145"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11451,30 +11478,30 @@
       <c r="P141" s="22"/>
       <c r="Q141" s="22"/>
       <c r="R141" s="25"/>
-      <c r="S141" s="131" t="s">
+      <c r="S141" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T141" s="132"/>
-      <c r="U141" s="132"/>
-      <c r="V141" s="132"/>
-      <c r="W141" s="132"/>
-      <c r="X141" s="133"/>
-      <c r="Y141" s="131" t="s">
+      <c r="T141" s="141"/>
+      <c r="U141" s="141"/>
+      <c r="V141" s="141"/>
+      <c r="W141" s="141"/>
+      <c r="X141" s="142"/>
+      <c r="Y141" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Z141" s="132"/>
-      <c r="AA141" s="132"/>
-      <c r="AB141" s="132"/>
-      <c r="AC141" s="132"/>
-      <c r="AD141" s="133"/>
-      <c r="AE141" s="131" t="s">
+      <c r="Z141" s="141"/>
+      <c r="AA141" s="141"/>
+      <c r="AB141" s="141"/>
+      <c r="AC141" s="141"/>
+      <c r="AD141" s="142"/>
+      <c r="AE141" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF141" s="132"/>
-      <c r="AG141" s="132"/>
-      <c r="AH141" s="132"/>
-      <c r="AI141" s="132"/>
-      <c r="AJ141" s="133"/>
+      <c r="AF141" s="141"/>
+      <c r="AG141" s="141"/>
+      <c r="AH141" s="141"/>
+      <c r="AI141" s="141"/>
+      <c r="AJ141" s="142"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11492,30 +11519,30 @@
       <c r="P142" s="22"/>
       <c r="Q142" s="22"/>
       <c r="R142" s="25"/>
-      <c r="S142" s="131" t="s">
+      <c r="S142" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="132"/>
-      <c r="U142" s="132"/>
-      <c r="V142" s="132"/>
-      <c r="W142" s="132"/>
-      <c r="X142" s="133"/>
-      <c r="Y142" s="131" t="s">
+      <c r="T142" s="141"/>
+      <c r="U142" s="141"/>
+      <c r="V142" s="141"/>
+      <c r="W142" s="141"/>
+      <c r="X142" s="142"/>
+      <c r="Y142" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z142" s="132"/>
-      <c r="AA142" s="132"/>
-      <c r="AB142" s="132"/>
-      <c r="AC142" s="132"/>
-      <c r="AD142" s="133"/>
-      <c r="AE142" s="131" t="s">
+      <c r="Z142" s="141"/>
+      <c r="AA142" s="141"/>
+      <c r="AB142" s="141"/>
+      <c r="AC142" s="141"/>
+      <c r="AD142" s="142"/>
+      <c r="AE142" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="132"/>
-      <c r="AG142" s="132"/>
-      <c r="AH142" s="132"/>
-      <c r="AI142" s="132"/>
-      <c r="AJ142" s="133"/>
+      <c r="AF142" s="141"/>
+      <c r="AG142" s="141"/>
+      <c r="AH142" s="141"/>
+      <c r="AI142" s="141"/>
+      <c r="AJ142" s="142"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11537,30 +11564,30 @@
       <c r="P143" s="22"/>
       <c r="Q143" s="22"/>
       <c r="R143" s="25"/>
-      <c r="S143" s="131" t="s">
+      <c r="S143" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="132"/>
-      <c r="U143" s="132"/>
-      <c r="V143" s="132"/>
-      <c r="W143" s="132"/>
-      <c r="X143" s="133"/>
-      <c r="Y143" s="131" t="s">
+      <c r="T143" s="141"/>
+      <c r="U143" s="141"/>
+      <c r="V143" s="141"/>
+      <c r="W143" s="141"/>
+      <c r="X143" s="142"/>
+      <c r="Y143" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="132"/>
-      <c r="AA143" s="132"/>
-      <c r="AB143" s="132"/>
-      <c r="AC143" s="132"/>
-      <c r="AD143" s="133"/>
-      <c r="AE143" s="131" t="s">
+      <c r="Z143" s="141"/>
+      <c r="AA143" s="141"/>
+      <c r="AB143" s="141"/>
+      <c r="AC143" s="141"/>
+      <c r="AD143" s="142"/>
+      <c r="AE143" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="132"/>
-      <c r="AG143" s="132"/>
-      <c r="AH143" s="132"/>
-      <c r="AI143" s="132"/>
-      <c r="AJ143" s="133"/>
+      <c r="AF143" s="141"/>
+      <c r="AG143" s="141"/>
+      <c r="AH143" s="141"/>
+      <c r="AI143" s="141"/>
+      <c r="AJ143" s="142"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11582,30 +11609,30 @@
       <c r="P144" s="88"/>
       <c r="Q144" s="88"/>
       <c r="R144" s="89"/>
-      <c r="S144" s="128" t="s">
+      <c r="S144" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="T144" s="129"/>
-      <c r="U144" s="129"/>
-      <c r="V144" s="129"/>
-      <c r="W144" s="129"/>
-      <c r="X144" s="130"/>
-      <c r="Y144" s="134" t="s">
+      <c r="T144" s="138"/>
+      <c r="U144" s="138"/>
+      <c r="V144" s="138"/>
+      <c r="W144" s="138"/>
+      <c r="X144" s="139"/>
+      <c r="Y144" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="Z144" s="135"/>
-      <c r="AA144" s="135"/>
-      <c r="AB144" s="135"/>
-      <c r="AC144" s="135"/>
-      <c r="AD144" s="136"/>
-      <c r="AE144" s="134" t="s">
+      <c r="Z144" s="144"/>
+      <c r="AA144" s="144"/>
+      <c r="AB144" s="144"/>
+      <c r="AC144" s="144"/>
+      <c r="AD144" s="145"/>
+      <c r="AE144" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="AF144" s="135"/>
-      <c r="AG144" s="135"/>
-      <c r="AH144" s="135"/>
-      <c r="AI144" s="135"/>
-      <c r="AJ144" s="136"/>
+      <c r="AF144" s="144"/>
+      <c r="AG144" s="144"/>
+      <c r="AH144" s="144"/>
+      <c r="AI144" s="144"/>
+      <c r="AJ144" s="145"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -11629,30 +11656,30 @@
       <c r="P145" s="85"/>
       <c r="Q145" s="85"/>
       <c r="R145" s="86"/>
-      <c r="S145" s="128" t="s">
+      <c r="S145" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="129"/>
-      <c r="U145" s="129"/>
-      <c r="V145" s="129"/>
-      <c r="W145" s="129"/>
-      <c r="X145" s="130"/>
-      <c r="Y145" s="131" t="s">
+      <c r="T145" s="138"/>
+      <c r="U145" s="138"/>
+      <c r="V145" s="138"/>
+      <c r="W145" s="138"/>
+      <c r="X145" s="139"/>
+      <c r="Y145" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="Z145" s="132"/>
-      <c r="AA145" s="132"/>
-      <c r="AB145" s="132"/>
-      <c r="AC145" s="132"/>
-      <c r="AD145" s="133"/>
-      <c r="AE145" s="131" t="s">
+      <c r="Z145" s="141"/>
+      <c r="AA145" s="141"/>
+      <c r="AB145" s="141"/>
+      <c r="AC145" s="141"/>
+      <c r="AD145" s="142"/>
+      <c r="AE145" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF145" s="132"/>
-      <c r="AG145" s="132"/>
-      <c r="AH145" s="132"/>
-      <c r="AI145" s="132"/>
-      <c r="AJ145" s="133"/>
+      <c r="AF145" s="141"/>
+      <c r="AG145" s="141"/>
+      <c r="AH145" s="141"/>
+      <c r="AI145" s="141"/>
+      <c r="AJ145" s="142"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -11670,30 +11697,30 @@
       <c r="P146" s="22"/>
       <c r="Q146" s="22"/>
       <c r="R146" s="25"/>
-      <c r="S146" s="128" t="s">
+      <c r="S146" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="129"/>
-      <c r="U146" s="129"/>
-      <c r="V146" s="129"/>
-      <c r="W146" s="129"/>
-      <c r="X146" s="130"/>
-      <c r="Y146" s="128" t="s">
+      <c r="T146" s="138"/>
+      <c r="U146" s="138"/>
+      <c r="V146" s="138"/>
+      <c r="W146" s="138"/>
+      <c r="X146" s="139"/>
+      <c r="Y146" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z146" s="129"/>
-      <c r="AA146" s="129"/>
-      <c r="AB146" s="129"/>
-      <c r="AC146" s="129"/>
-      <c r="AD146" s="130"/>
-      <c r="AE146" s="131" t="s">
+      <c r="Z146" s="138"/>
+      <c r="AA146" s="138"/>
+      <c r="AB146" s="138"/>
+      <c r="AC146" s="138"/>
+      <c r="AD146" s="139"/>
+      <c r="AE146" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="132"/>
-      <c r="AG146" s="132"/>
-      <c r="AH146" s="132"/>
-      <c r="AI146" s="132"/>
-      <c r="AJ146" s="133"/>
+      <c r="AF146" s="141"/>
+      <c r="AG146" s="141"/>
+      <c r="AH146" s="141"/>
+      <c r="AI146" s="141"/>
+      <c r="AJ146" s="142"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -11715,30 +11742,30 @@
       <c r="P147" s="22"/>
       <c r="Q147" s="22"/>
       <c r="R147" s="25"/>
-      <c r="S147" s="128" t="s">
+      <c r="S147" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="129"/>
-      <c r="U147" s="129"/>
-      <c r="V147" s="129"/>
-      <c r="W147" s="129"/>
-      <c r="X147" s="130"/>
-      <c r="Y147" s="128" t="s">
+      <c r="T147" s="138"/>
+      <c r="U147" s="138"/>
+      <c r="V147" s="138"/>
+      <c r="W147" s="138"/>
+      <c r="X147" s="139"/>
+      <c r="Y147" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="129"/>
-      <c r="AA147" s="129"/>
-      <c r="AB147" s="129"/>
-      <c r="AC147" s="129"/>
-      <c r="AD147" s="130"/>
-      <c r="AE147" s="131" t="s">
+      <c r="Z147" s="138"/>
+      <c r="AA147" s="138"/>
+      <c r="AB147" s="138"/>
+      <c r="AC147" s="138"/>
+      <c r="AD147" s="139"/>
+      <c r="AE147" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="132"/>
-      <c r="AG147" s="132"/>
-      <c r="AH147" s="132"/>
-      <c r="AI147" s="132"/>
-      <c r="AJ147" s="133"/>
+      <c r="AF147" s="141"/>
+      <c r="AG147" s="141"/>
+      <c r="AH147" s="141"/>
+      <c r="AI147" s="141"/>
+      <c r="AJ147" s="142"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -11762,30 +11789,30 @@
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
       <c r="R148" s="25"/>
-      <c r="S148" s="128" t="s">
+      <c r="S148" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="129"/>
-      <c r="U148" s="129"/>
-      <c r="V148" s="129"/>
-      <c r="W148" s="129"/>
-      <c r="X148" s="130"/>
-      <c r="Y148" s="128" t="s">
+      <c r="T148" s="138"/>
+      <c r="U148" s="138"/>
+      <c r="V148" s="138"/>
+      <c r="W148" s="138"/>
+      <c r="X148" s="139"/>
+      <c r="Y148" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="129"/>
-      <c r="AA148" s="129"/>
-      <c r="AB148" s="129"/>
-      <c r="AC148" s="129"/>
-      <c r="AD148" s="130"/>
-      <c r="AE148" s="131" t="s">
+      <c r="Z148" s="138"/>
+      <c r="AA148" s="138"/>
+      <c r="AB148" s="138"/>
+      <c r="AC148" s="138"/>
+      <c r="AD148" s="139"/>
+      <c r="AE148" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="132"/>
-      <c r="AG148" s="132"/>
-      <c r="AH148" s="132"/>
-      <c r="AI148" s="132"/>
-      <c r="AJ148" s="133"/>
+      <c r="AF148" s="141"/>
+      <c r="AG148" s="141"/>
+      <c r="AH148" s="141"/>
+      <c r="AI148" s="141"/>
+      <c r="AJ148" s="142"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -11803,30 +11830,30 @@
       <c r="P149" s="22"/>
       <c r="Q149" s="22"/>
       <c r="R149" s="25"/>
-      <c r="S149" s="128" t="s">
+      <c r="S149" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="129"/>
-      <c r="U149" s="129"/>
-      <c r="V149" s="129"/>
-      <c r="W149" s="129"/>
-      <c r="X149" s="130"/>
-      <c r="Y149" s="128" t="s">
+      <c r="T149" s="138"/>
+      <c r="U149" s="138"/>
+      <c r="V149" s="138"/>
+      <c r="W149" s="138"/>
+      <c r="X149" s="139"/>
+      <c r="Y149" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="129"/>
-      <c r="AA149" s="129"/>
-      <c r="AB149" s="129"/>
-      <c r="AC149" s="129"/>
-      <c r="AD149" s="130"/>
-      <c r="AE149" s="131" t="s">
+      <c r="Z149" s="138"/>
+      <c r="AA149" s="138"/>
+      <c r="AB149" s="138"/>
+      <c r="AC149" s="138"/>
+      <c r="AD149" s="139"/>
+      <c r="AE149" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF149" s="132"/>
-      <c r="AG149" s="132"/>
-      <c r="AH149" s="132"/>
-      <c r="AI149" s="132"/>
-      <c r="AJ149" s="133"/>
+      <c r="AF149" s="141"/>
+      <c r="AG149" s="141"/>
+      <c r="AH149" s="141"/>
+      <c r="AI149" s="141"/>
+      <c r="AJ149" s="142"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -11848,30 +11875,30 @@
       <c r="P150" s="22"/>
       <c r="Q150" s="22"/>
       <c r="R150" s="25"/>
-      <c r="S150" s="128" t="s">
+      <c r="S150" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="129"/>
-      <c r="U150" s="129"/>
-      <c r="V150" s="129"/>
-      <c r="W150" s="129"/>
-      <c r="X150" s="130"/>
-      <c r="Y150" s="128" t="s">
+      <c r="T150" s="138"/>
+      <c r="U150" s="138"/>
+      <c r="V150" s="138"/>
+      <c r="W150" s="138"/>
+      <c r="X150" s="139"/>
+      <c r="Y150" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="129"/>
-      <c r="AA150" s="129"/>
-      <c r="AB150" s="129"/>
-      <c r="AC150" s="129"/>
-      <c r="AD150" s="130"/>
-      <c r="AE150" s="131" t="s">
+      <c r="Z150" s="138"/>
+      <c r="AA150" s="138"/>
+      <c r="AB150" s="138"/>
+      <c r="AC150" s="138"/>
+      <c r="AD150" s="139"/>
+      <c r="AE150" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF150" s="132"/>
-      <c r="AG150" s="132"/>
-      <c r="AH150" s="132"/>
-      <c r="AI150" s="132"/>
-      <c r="AJ150" s="133"/>
+      <c r="AF150" s="141"/>
+      <c r="AG150" s="141"/>
+      <c r="AH150" s="141"/>
+      <c r="AI150" s="141"/>
+      <c r="AJ150" s="142"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -11895,30 +11922,30 @@
       <c r="P151" s="22"/>
       <c r="Q151" s="22"/>
       <c r="R151" s="25"/>
-      <c r="S151" s="128" t="s">
+      <c r="S151" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="129"/>
-      <c r="U151" s="129"/>
-      <c r="V151" s="129"/>
-      <c r="W151" s="129"/>
-      <c r="X151" s="130"/>
-      <c r="Y151" s="128" t="s">
+      <c r="T151" s="138"/>
+      <c r="U151" s="138"/>
+      <c r="V151" s="138"/>
+      <c r="W151" s="138"/>
+      <c r="X151" s="139"/>
+      <c r="Y151" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="129"/>
-      <c r="AA151" s="129"/>
-      <c r="AB151" s="129"/>
-      <c r="AC151" s="129"/>
-      <c r="AD151" s="130"/>
-      <c r="AE151" s="131" t="s">
+      <c r="Z151" s="138"/>
+      <c r="AA151" s="138"/>
+      <c r="AB151" s="138"/>
+      <c r="AC151" s="138"/>
+      <c r="AD151" s="139"/>
+      <c r="AE151" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF151" s="132"/>
-      <c r="AG151" s="132"/>
-      <c r="AH151" s="132"/>
-      <c r="AI151" s="132"/>
-      <c r="AJ151" s="133"/>
+      <c r="AF151" s="141"/>
+      <c r="AG151" s="141"/>
+      <c r="AH151" s="141"/>
+      <c r="AI151" s="141"/>
+      <c r="AJ151" s="142"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -11938,30 +11965,30 @@
       <c r="P152" s="22"/>
       <c r="Q152" s="22"/>
       <c r="R152" s="25"/>
-      <c r="S152" s="128" t="s">
+      <c r="S152" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="129"/>
-      <c r="U152" s="129"/>
-      <c r="V152" s="129"/>
-      <c r="W152" s="129"/>
-      <c r="X152" s="130"/>
-      <c r="Y152" s="128" t="s">
+      <c r="T152" s="138"/>
+      <c r="U152" s="138"/>
+      <c r="V152" s="138"/>
+      <c r="W152" s="138"/>
+      <c r="X152" s="139"/>
+      <c r="Y152" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="129"/>
-      <c r="AA152" s="129"/>
-      <c r="AB152" s="129"/>
-      <c r="AC152" s="129"/>
-      <c r="AD152" s="130"/>
-      <c r="AE152" s="131" t="s">
+      <c r="Z152" s="138"/>
+      <c r="AA152" s="138"/>
+      <c r="AB152" s="138"/>
+      <c r="AC152" s="138"/>
+      <c r="AD152" s="139"/>
+      <c r="AE152" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF152" s="132"/>
-      <c r="AG152" s="132"/>
-      <c r="AH152" s="132"/>
-      <c r="AI152" s="132"/>
-      <c r="AJ152" s="133"/>
+      <c r="AF152" s="141"/>
+      <c r="AG152" s="141"/>
+      <c r="AH152" s="141"/>
+      <c r="AI152" s="141"/>
+      <c r="AJ152" s="142"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -11983,30 +12010,30 @@
       <c r="P153" s="22"/>
       <c r="Q153" s="22"/>
       <c r="R153" s="25"/>
-      <c r="S153" s="128" t="s">
+      <c r="S153" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="129"/>
-      <c r="U153" s="129"/>
-      <c r="V153" s="129"/>
-      <c r="W153" s="129"/>
-      <c r="X153" s="130"/>
-      <c r="Y153" s="128" t="s">
+      <c r="T153" s="138"/>
+      <c r="U153" s="138"/>
+      <c r="V153" s="138"/>
+      <c r="W153" s="138"/>
+      <c r="X153" s="139"/>
+      <c r="Y153" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="129"/>
-      <c r="AA153" s="129"/>
-      <c r="AB153" s="129"/>
-      <c r="AC153" s="129"/>
-      <c r="AD153" s="130"/>
-      <c r="AE153" s="131" t="s">
+      <c r="Z153" s="138"/>
+      <c r="AA153" s="138"/>
+      <c r="AB153" s="138"/>
+      <c r="AC153" s="138"/>
+      <c r="AD153" s="139"/>
+      <c r="AE153" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF153" s="132"/>
-      <c r="AG153" s="132"/>
-      <c r="AH153" s="132"/>
-      <c r="AI153" s="132"/>
-      <c r="AJ153" s="133"/>
+      <c r="AF153" s="141"/>
+      <c r="AG153" s="141"/>
+      <c r="AH153" s="141"/>
+      <c r="AI153" s="141"/>
+      <c r="AJ153" s="142"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12030,30 +12057,30 @@
       <c r="P154" s="22"/>
       <c r="Q154" s="22"/>
       <c r="R154" s="25"/>
-      <c r="S154" s="128" t="s">
+      <c r="S154" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="129"/>
-      <c r="U154" s="129"/>
-      <c r="V154" s="129"/>
-      <c r="W154" s="129"/>
-      <c r="X154" s="130"/>
-      <c r="Y154" s="128" t="s">
+      <c r="T154" s="138"/>
+      <c r="U154" s="138"/>
+      <c r="V154" s="138"/>
+      <c r="W154" s="138"/>
+      <c r="X154" s="139"/>
+      <c r="Y154" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="129"/>
-      <c r="AA154" s="129"/>
-      <c r="AB154" s="129"/>
-      <c r="AC154" s="129"/>
-      <c r="AD154" s="130"/>
-      <c r="AE154" s="131" t="s">
+      <c r="Z154" s="138"/>
+      <c r="AA154" s="138"/>
+      <c r="AB154" s="138"/>
+      <c r="AC154" s="138"/>
+      <c r="AD154" s="139"/>
+      <c r="AE154" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF154" s="132"/>
-      <c r="AG154" s="132"/>
-      <c r="AH154" s="132"/>
-      <c r="AI154" s="132"/>
-      <c r="AJ154" s="133"/>
+      <c r="AF154" s="141"/>
+      <c r="AG154" s="141"/>
+      <c r="AH154" s="141"/>
+      <c r="AI154" s="141"/>
+      <c r="AJ154" s="142"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12073,30 +12100,30 @@
       <c r="P155" s="22"/>
       <c r="Q155" s="22"/>
       <c r="R155" s="25"/>
-      <c r="S155" s="128" t="s">
+      <c r="S155" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="129"/>
-      <c r="U155" s="129"/>
-      <c r="V155" s="129"/>
-      <c r="W155" s="129"/>
-      <c r="X155" s="130"/>
-      <c r="Y155" s="128" t="s">
+      <c r="T155" s="138"/>
+      <c r="U155" s="138"/>
+      <c r="V155" s="138"/>
+      <c r="W155" s="138"/>
+      <c r="X155" s="139"/>
+      <c r="Y155" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="129"/>
-      <c r="AA155" s="129"/>
-      <c r="AB155" s="129"/>
-      <c r="AC155" s="129"/>
-      <c r="AD155" s="130"/>
-      <c r="AE155" s="131" t="s">
+      <c r="Z155" s="138"/>
+      <c r="AA155" s="138"/>
+      <c r="AB155" s="138"/>
+      <c r="AC155" s="138"/>
+      <c r="AD155" s="139"/>
+      <c r="AE155" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF155" s="132"/>
-      <c r="AG155" s="132"/>
-      <c r="AH155" s="132"/>
-      <c r="AI155" s="132"/>
-      <c r="AJ155" s="133"/>
+      <c r="AF155" s="141"/>
+      <c r="AG155" s="141"/>
+      <c r="AH155" s="141"/>
+      <c r="AI155" s="141"/>
+      <c r="AJ155" s="142"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12118,30 +12145,30 @@
       <c r="P156" s="22"/>
       <c r="Q156" s="22"/>
       <c r="R156" s="25"/>
-      <c r="S156" s="128" t="s">
+      <c r="S156" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="129"/>
-      <c r="U156" s="129"/>
-      <c r="V156" s="129"/>
-      <c r="W156" s="129"/>
-      <c r="X156" s="130"/>
-      <c r="Y156" s="128" t="s">
+      <c r="T156" s="138"/>
+      <c r="U156" s="138"/>
+      <c r="V156" s="138"/>
+      <c r="W156" s="138"/>
+      <c r="X156" s="139"/>
+      <c r="Y156" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="129"/>
-      <c r="AA156" s="129"/>
-      <c r="AB156" s="129"/>
-      <c r="AC156" s="129"/>
-      <c r="AD156" s="130"/>
-      <c r="AE156" s="131" t="s">
+      <c r="Z156" s="138"/>
+      <c r="AA156" s="138"/>
+      <c r="AB156" s="138"/>
+      <c r="AC156" s="138"/>
+      <c r="AD156" s="139"/>
+      <c r="AE156" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF156" s="132"/>
-      <c r="AG156" s="132"/>
-      <c r="AH156" s="132"/>
-      <c r="AI156" s="132"/>
-      <c r="AJ156" s="133"/>
+      <c r="AF156" s="141"/>
+      <c r="AG156" s="141"/>
+      <c r="AH156" s="141"/>
+      <c r="AI156" s="141"/>
+      <c r="AJ156" s="142"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12165,30 +12192,30 @@
       <c r="P157" s="22"/>
       <c r="Q157" s="22"/>
       <c r="R157" s="25"/>
-      <c r="S157" s="128" t="s">
+      <c r="S157" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="129"/>
-      <c r="U157" s="129"/>
-      <c r="V157" s="129"/>
-      <c r="W157" s="129"/>
-      <c r="X157" s="130"/>
-      <c r="Y157" s="128" t="s">
+      <c r="T157" s="138"/>
+      <c r="U157" s="138"/>
+      <c r="V157" s="138"/>
+      <c r="W157" s="138"/>
+      <c r="X157" s="139"/>
+      <c r="Y157" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="129"/>
-      <c r="AA157" s="129"/>
-      <c r="AB157" s="129"/>
-      <c r="AC157" s="129"/>
-      <c r="AD157" s="130"/>
-      <c r="AE157" s="131" t="s">
+      <c r="Z157" s="138"/>
+      <c r="AA157" s="138"/>
+      <c r="AB157" s="138"/>
+      <c r="AC157" s="138"/>
+      <c r="AD157" s="139"/>
+      <c r="AE157" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF157" s="132"/>
-      <c r="AG157" s="132"/>
-      <c r="AH157" s="132"/>
-      <c r="AI157" s="132"/>
-      <c r="AJ157" s="133"/>
+      <c r="AF157" s="141"/>
+      <c r="AG157" s="141"/>
+      <c r="AH157" s="141"/>
+      <c r="AI157" s="141"/>
+      <c r="AJ157" s="142"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12206,30 +12233,30 @@
       <c r="P158" s="22"/>
       <c r="Q158" s="22"/>
       <c r="R158" s="25"/>
-      <c r="S158" s="128" t="s">
+      <c r="S158" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="129"/>
-      <c r="U158" s="129"/>
-      <c r="V158" s="129"/>
-      <c r="W158" s="129"/>
-      <c r="X158" s="130"/>
-      <c r="Y158" s="128" t="s">
+      <c r="T158" s="138"/>
+      <c r="U158" s="138"/>
+      <c r="V158" s="138"/>
+      <c r="W158" s="138"/>
+      <c r="X158" s="139"/>
+      <c r="Y158" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="129"/>
-      <c r="AA158" s="129"/>
-      <c r="AB158" s="129"/>
-      <c r="AC158" s="129"/>
-      <c r="AD158" s="130"/>
-      <c r="AE158" s="131" t="s">
+      <c r="Z158" s="138"/>
+      <c r="AA158" s="138"/>
+      <c r="AB158" s="138"/>
+      <c r="AC158" s="138"/>
+      <c r="AD158" s="139"/>
+      <c r="AE158" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF158" s="132"/>
-      <c r="AG158" s="132"/>
-      <c r="AH158" s="132"/>
-      <c r="AI158" s="132"/>
-      <c r="AJ158" s="133"/>
+      <c r="AF158" s="141"/>
+      <c r="AG158" s="141"/>
+      <c r="AH158" s="141"/>
+      <c r="AI158" s="141"/>
+      <c r="AJ158" s="142"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12251,30 +12278,30 @@
       <c r="P159" s="22"/>
       <c r="Q159" s="22"/>
       <c r="R159" s="25"/>
-      <c r="S159" s="128" t="s">
+      <c r="S159" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="129"/>
-      <c r="U159" s="129"/>
-      <c r="V159" s="129"/>
-      <c r="W159" s="129"/>
-      <c r="X159" s="130"/>
-      <c r="Y159" s="128" t="s">
+      <c r="T159" s="138"/>
+      <c r="U159" s="138"/>
+      <c r="V159" s="138"/>
+      <c r="W159" s="138"/>
+      <c r="X159" s="139"/>
+      <c r="Y159" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="129"/>
-      <c r="AA159" s="129"/>
-      <c r="AB159" s="129"/>
-      <c r="AC159" s="129"/>
-      <c r="AD159" s="130"/>
-      <c r="AE159" s="131" t="s">
+      <c r="Z159" s="138"/>
+      <c r="AA159" s="138"/>
+      <c r="AB159" s="138"/>
+      <c r="AC159" s="138"/>
+      <c r="AD159" s="139"/>
+      <c r="AE159" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF159" s="132"/>
-      <c r="AG159" s="132"/>
-      <c r="AH159" s="132"/>
-      <c r="AI159" s="132"/>
-      <c r="AJ159" s="133"/>
+      <c r="AF159" s="141"/>
+      <c r="AG159" s="141"/>
+      <c r="AH159" s="141"/>
+      <c r="AI159" s="141"/>
+      <c r="AJ159" s="142"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12296,30 +12323,30 @@
       <c r="P160" s="88"/>
       <c r="Q160" s="88"/>
       <c r="R160" s="89"/>
-      <c r="S160" s="128" t="s">
+      <c r="S160" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="129"/>
-      <c r="U160" s="129"/>
-      <c r="V160" s="129"/>
-      <c r="W160" s="129"/>
-      <c r="X160" s="130"/>
-      <c r="Y160" s="128" t="s">
+      <c r="T160" s="138"/>
+      <c r="U160" s="138"/>
+      <c r="V160" s="138"/>
+      <c r="W160" s="138"/>
+      <c r="X160" s="139"/>
+      <c r="Y160" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="129"/>
-      <c r="AA160" s="129"/>
-      <c r="AB160" s="129"/>
-      <c r="AC160" s="129"/>
-      <c r="AD160" s="130"/>
-      <c r="AE160" s="131" t="s">
+      <c r="Z160" s="138"/>
+      <c r="AA160" s="138"/>
+      <c r="AB160" s="138"/>
+      <c r="AC160" s="138"/>
+      <c r="AD160" s="139"/>
+      <c r="AE160" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF160" s="132"/>
-      <c r="AG160" s="132"/>
-      <c r="AH160" s="132"/>
-      <c r="AI160" s="132"/>
-      <c r="AJ160" s="133"/>
+      <c r="AF160" s="141"/>
+      <c r="AG160" s="141"/>
+      <c r="AH160" s="141"/>
+      <c r="AI160" s="141"/>
+      <c r="AJ160" s="142"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -12341,30 +12368,30 @@
       <c r="P161" s="88"/>
       <c r="Q161" s="88"/>
       <c r="R161" s="89"/>
-      <c r="S161" s="128" t="s">
+      <c r="S161" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="129"/>
-      <c r="U161" s="129"/>
-      <c r="V161" s="129"/>
-      <c r="W161" s="129"/>
-      <c r="X161" s="130"/>
-      <c r="Y161" s="128" t="s">
+      <c r="T161" s="138"/>
+      <c r="U161" s="138"/>
+      <c r="V161" s="138"/>
+      <c r="W161" s="138"/>
+      <c r="X161" s="139"/>
+      <c r="Y161" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="Z161" s="129"/>
-      <c r="AA161" s="129"/>
-      <c r="AB161" s="129"/>
-      <c r="AC161" s="129"/>
-      <c r="AD161" s="130"/>
-      <c r="AE161" s="131" t="s">
+      <c r="Z161" s="138"/>
+      <c r="AA161" s="138"/>
+      <c r="AB161" s="138"/>
+      <c r="AC161" s="138"/>
+      <c r="AD161" s="139"/>
+      <c r="AE161" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF161" s="132"/>
-      <c r="AG161" s="132"/>
-      <c r="AH161" s="132"/>
-      <c r="AI161" s="132"/>
-      <c r="AJ161" s="133"/>
+      <c r="AF161" s="141"/>
+      <c r="AG161" s="141"/>
+      <c r="AH161" s="141"/>
+      <c r="AI161" s="141"/>
+      <c r="AJ161" s="142"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -12388,30 +12415,30 @@
       <c r="P162" s="85"/>
       <c r="Q162" s="85"/>
       <c r="R162" s="86"/>
-      <c r="S162" s="128" t="s">
+      <c r="S162" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="129"/>
-      <c r="U162" s="129"/>
-      <c r="V162" s="129"/>
-      <c r="W162" s="129"/>
-      <c r="X162" s="130"/>
-      <c r="Y162" s="131" t="s">
+      <c r="T162" s="138"/>
+      <c r="U162" s="138"/>
+      <c r="V162" s="138"/>
+      <c r="W162" s="138"/>
+      <c r="X162" s="139"/>
+      <c r="Y162" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="Z162" s="132"/>
-      <c r="AA162" s="132"/>
-      <c r="AB162" s="132"/>
-      <c r="AC162" s="132"/>
-      <c r="AD162" s="133"/>
-      <c r="AE162" s="131" t="s">
+      <c r="Z162" s="141"/>
+      <c r="AA162" s="141"/>
+      <c r="AB162" s="141"/>
+      <c r="AC162" s="141"/>
+      <c r="AD162" s="142"/>
+      <c r="AE162" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF162" s="132"/>
-      <c r="AG162" s="132"/>
-      <c r="AH162" s="132"/>
-      <c r="AI162" s="132"/>
-      <c r="AJ162" s="133"/>
+      <c r="AF162" s="141"/>
+      <c r="AG162" s="141"/>
+      <c r="AH162" s="141"/>
+      <c r="AI162" s="141"/>
+      <c r="AJ162" s="142"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -12429,30 +12456,30 @@
       <c r="P163" s="22"/>
       <c r="Q163" s="22"/>
       <c r="R163" s="25"/>
-      <c r="S163" s="128" t="s">
+      <c r="S163" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="129"/>
-      <c r="U163" s="129"/>
-      <c r="V163" s="129"/>
-      <c r="W163" s="129"/>
-      <c r="X163" s="130"/>
-      <c r="Y163" s="131" t="s">
+      <c r="T163" s="138"/>
+      <c r="U163" s="138"/>
+      <c r="V163" s="138"/>
+      <c r="W163" s="138"/>
+      <c r="X163" s="139"/>
+      <c r="Y163" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="132"/>
-      <c r="AA163" s="132"/>
-      <c r="AB163" s="132"/>
-      <c r="AC163" s="132"/>
-      <c r="AD163" s="133"/>
-      <c r="AE163" s="131" t="s">
+      <c r="Z163" s="141"/>
+      <c r="AA163" s="141"/>
+      <c r="AB163" s="141"/>
+      <c r="AC163" s="141"/>
+      <c r="AD163" s="142"/>
+      <c r="AE163" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF163" s="132"/>
-      <c r="AG163" s="132"/>
-      <c r="AH163" s="132"/>
-      <c r="AI163" s="132"/>
-      <c r="AJ163" s="133"/>
+      <c r="AF163" s="141"/>
+      <c r="AG163" s="141"/>
+      <c r="AH163" s="141"/>
+      <c r="AI163" s="141"/>
+      <c r="AJ163" s="142"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -12474,30 +12501,30 @@
       <c r="P164" s="22"/>
       <c r="Q164" s="22"/>
       <c r="R164" s="25"/>
-      <c r="S164" s="128" t="s">
+      <c r="S164" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="129"/>
-      <c r="U164" s="129"/>
-      <c r="V164" s="129"/>
-      <c r="W164" s="129"/>
-      <c r="X164" s="130"/>
-      <c r="Y164" s="131" t="s">
+      <c r="T164" s="138"/>
+      <c r="U164" s="138"/>
+      <c r="V164" s="138"/>
+      <c r="W164" s="138"/>
+      <c r="X164" s="139"/>
+      <c r="Y164" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="132"/>
-      <c r="AA164" s="132"/>
-      <c r="AB164" s="132"/>
-      <c r="AC164" s="132"/>
-      <c r="AD164" s="133"/>
-      <c r="AE164" s="131" t="s">
+      <c r="Z164" s="141"/>
+      <c r="AA164" s="141"/>
+      <c r="AB164" s="141"/>
+      <c r="AC164" s="141"/>
+      <c r="AD164" s="142"/>
+      <c r="AE164" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF164" s="132"/>
-      <c r="AG164" s="132"/>
-      <c r="AH164" s="132"/>
-      <c r="AI164" s="132"/>
-      <c r="AJ164" s="133"/>
+      <c r="AF164" s="141"/>
+      <c r="AG164" s="141"/>
+      <c r="AH164" s="141"/>
+      <c r="AI164" s="141"/>
+      <c r="AJ164" s="142"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -12519,30 +12546,30 @@
       <c r="P165" s="88"/>
       <c r="Q165" s="88"/>
       <c r="R165" s="89"/>
-      <c r="S165" s="128" t="s">
+      <c r="S165" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="129"/>
-      <c r="U165" s="129"/>
-      <c r="V165" s="129"/>
-      <c r="W165" s="129"/>
-      <c r="X165" s="130"/>
-      <c r="Y165" s="131" t="s">
+      <c r="T165" s="138"/>
+      <c r="U165" s="138"/>
+      <c r="V165" s="138"/>
+      <c r="W165" s="138"/>
+      <c r="X165" s="139"/>
+      <c r="Y165" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="132"/>
-      <c r="AA165" s="132"/>
-      <c r="AB165" s="132"/>
-      <c r="AC165" s="132"/>
-      <c r="AD165" s="133"/>
-      <c r="AE165" s="131" t="s">
+      <c r="Z165" s="141"/>
+      <c r="AA165" s="141"/>
+      <c r="AB165" s="141"/>
+      <c r="AC165" s="141"/>
+      <c r="AD165" s="142"/>
+      <c r="AE165" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF165" s="132"/>
-      <c r="AG165" s="132"/>
-      <c r="AH165" s="132"/>
-      <c r="AI165" s="132"/>
-      <c r="AJ165" s="133"/>
+      <c r="AF165" s="141"/>
+      <c r="AG165" s="141"/>
+      <c r="AH165" s="141"/>
+      <c r="AI165" s="141"/>
+      <c r="AJ165" s="142"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -12566,30 +12593,30 @@
       <c r="P166" s="85"/>
       <c r="Q166" s="85"/>
       <c r="R166" s="86"/>
-      <c r="S166" s="128" t="s">
+      <c r="S166" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="129"/>
-      <c r="U166" s="129"/>
-      <c r="V166" s="129"/>
-      <c r="W166" s="129"/>
-      <c r="X166" s="130"/>
-      <c r="Y166" s="131" t="s">
+      <c r="T166" s="138"/>
+      <c r="U166" s="138"/>
+      <c r="V166" s="138"/>
+      <c r="W166" s="138"/>
+      <c r="X166" s="139"/>
+      <c r="Y166" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="Z166" s="132"/>
-      <c r="AA166" s="132"/>
-      <c r="AB166" s="132"/>
-      <c r="AC166" s="132"/>
-      <c r="AD166" s="133"/>
-      <c r="AE166" s="131" t="s">
+      <c r="Z166" s="141"/>
+      <c r="AA166" s="141"/>
+      <c r="AB166" s="141"/>
+      <c r="AC166" s="141"/>
+      <c r="AD166" s="142"/>
+      <c r="AE166" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF166" s="132"/>
-      <c r="AG166" s="132"/>
-      <c r="AH166" s="132"/>
-      <c r="AI166" s="132"/>
-      <c r="AJ166" s="133"/>
+      <c r="AF166" s="141"/>
+      <c r="AG166" s="141"/>
+      <c r="AH166" s="141"/>
+      <c r="AI166" s="141"/>
+      <c r="AJ166" s="142"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12607,30 +12634,30 @@
       <c r="P167" s="22"/>
       <c r="Q167" s="22"/>
       <c r="R167" s="25"/>
-      <c r="S167" s="128" t="s">
+      <c r="S167" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="129"/>
-      <c r="U167" s="129"/>
-      <c r="V167" s="129"/>
-      <c r="W167" s="129"/>
-      <c r="X167" s="130"/>
-      <c r="Y167" s="131" t="s">
+      <c r="T167" s="138"/>
+      <c r="U167" s="138"/>
+      <c r="V167" s="138"/>
+      <c r="W167" s="138"/>
+      <c r="X167" s="139"/>
+      <c r="Y167" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="132"/>
-      <c r="AA167" s="132"/>
-      <c r="AB167" s="132"/>
-      <c r="AC167" s="132"/>
-      <c r="AD167" s="133"/>
-      <c r="AE167" s="131" t="s">
+      <c r="Z167" s="141"/>
+      <c r="AA167" s="141"/>
+      <c r="AB167" s="141"/>
+      <c r="AC167" s="141"/>
+      <c r="AD167" s="142"/>
+      <c r="AE167" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF167" s="132"/>
-      <c r="AG167" s="132"/>
-      <c r="AH167" s="132"/>
-      <c r="AI167" s="132"/>
-      <c r="AJ167" s="133"/>
+      <c r="AF167" s="141"/>
+      <c r="AG167" s="141"/>
+      <c r="AH167" s="141"/>
+      <c r="AI167" s="141"/>
+      <c r="AJ167" s="142"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -12652,30 +12679,30 @@
       <c r="P168" s="22"/>
       <c r="Q168" s="22"/>
       <c r="R168" s="25"/>
-      <c r="S168" s="128" t="s">
+      <c r="S168" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="129"/>
-      <c r="U168" s="129"/>
-      <c r="V168" s="129"/>
-      <c r="W168" s="129"/>
-      <c r="X168" s="130"/>
-      <c r="Y168" s="131" t="s">
+      <c r="T168" s="138"/>
+      <c r="U168" s="138"/>
+      <c r="V168" s="138"/>
+      <c r="W168" s="138"/>
+      <c r="X168" s="139"/>
+      <c r="Y168" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z168" s="132"/>
-      <c r="AA168" s="132"/>
-      <c r="AB168" s="132"/>
-      <c r="AC168" s="132"/>
-      <c r="AD168" s="133"/>
-      <c r="AE168" s="131" t="s">
+      <c r="Z168" s="141"/>
+      <c r="AA168" s="141"/>
+      <c r="AB168" s="141"/>
+      <c r="AC168" s="141"/>
+      <c r="AD168" s="142"/>
+      <c r="AE168" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF168" s="132"/>
-      <c r="AG168" s="132"/>
-      <c r="AH168" s="132"/>
-      <c r="AI168" s="132"/>
-      <c r="AJ168" s="133"/>
+      <c r="AF168" s="141"/>
+      <c r="AG168" s="141"/>
+      <c r="AH168" s="141"/>
+      <c r="AI168" s="141"/>
+      <c r="AJ168" s="142"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -12697,30 +12724,30 @@
       <c r="P169" s="88"/>
       <c r="Q169" s="88"/>
       <c r="R169" s="89"/>
-      <c r="S169" s="128" t="s">
+      <c r="S169" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="129"/>
-      <c r="U169" s="129"/>
-      <c r="V169" s="129"/>
-      <c r="W169" s="129"/>
-      <c r="X169" s="130"/>
-      <c r="Y169" s="131" t="s">
+      <c r="T169" s="138"/>
+      <c r="U169" s="138"/>
+      <c r="V169" s="138"/>
+      <c r="W169" s="138"/>
+      <c r="X169" s="139"/>
+      <c r="Y169" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="132"/>
-      <c r="AA169" s="132"/>
-      <c r="AB169" s="132"/>
-      <c r="AC169" s="132"/>
-      <c r="AD169" s="133"/>
-      <c r="AE169" s="131" t="s">
+      <c r="Z169" s="141"/>
+      <c r="AA169" s="141"/>
+      <c r="AB169" s="141"/>
+      <c r="AC169" s="141"/>
+      <c r="AD169" s="142"/>
+      <c r="AE169" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="AF169" s="132"/>
-      <c r="AG169" s="132"/>
-      <c r="AH169" s="132"/>
-      <c r="AI169" s="132"/>
-      <c r="AJ169" s="133"/>
+      <c r="AF169" s="141"/>
+      <c r="AG169" s="141"/>
+      <c r="AH169" s="141"/>
+      <c r="AI169" s="141"/>
+      <c r="AJ169" s="142"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -12744,30 +12771,30 @@
       <c r="P170" s="85"/>
       <c r="Q170" s="85"/>
       <c r="R170" s="86"/>
-      <c r="S170" s="128" t="s">
+      <c r="S170" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="129"/>
-      <c r="U170" s="129"/>
-      <c r="V170" s="129"/>
-      <c r="W170" s="129"/>
-      <c r="X170" s="130"/>
-      <c r="Y170" s="131" t="s">
+      <c r="T170" s="138"/>
+      <c r="U170" s="138"/>
+      <c r="V170" s="138"/>
+      <c r="W170" s="138"/>
+      <c r="X170" s="139"/>
+      <c r="Y170" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="Z170" s="132"/>
-      <c r="AA170" s="132"/>
-      <c r="AB170" s="132"/>
-      <c r="AC170" s="132"/>
-      <c r="AD170" s="133"/>
-      <c r="AE170" s="131" t="s">
+      <c r="Z170" s="141"/>
+      <c r="AA170" s="141"/>
+      <c r="AB170" s="141"/>
+      <c r="AC170" s="141"/>
+      <c r="AD170" s="142"/>
+      <c r="AE170" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF170" s="132"/>
-      <c r="AG170" s="132"/>
-      <c r="AH170" s="132"/>
-      <c r="AI170" s="132"/>
-      <c r="AJ170" s="133"/>
+      <c r="AF170" s="141"/>
+      <c r="AG170" s="141"/>
+      <c r="AH170" s="141"/>
+      <c r="AI170" s="141"/>
+      <c r="AJ170" s="142"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -12785,30 +12812,30 @@
       <c r="P171" s="22"/>
       <c r="Q171" s="22"/>
       <c r="R171" s="25"/>
-      <c r="S171" s="128" t="s">
+      <c r="S171" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="129"/>
-      <c r="U171" s="129"/>
-      <c r="V171" s="129"/>
-      <c r="W171" s="129"/>
-      <c r="X171" s="130"/>
-      <c r="Y171" s="131" t="s">
+      <c r="T171" s="138"/>
+      <c r="U171" s="138"/>
+      <c r="V171" s="138"/>
+      <c r="W171" s="138"/>
+      <c r="X171" s="139"/>
+      <c r="Y171" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="132"/>
-      <c r="AA171" s="132"/>
-      <c r="AB171" s="132"/>
-      <c r="AC171" s="132"/>
-      <c r="AD171" s="133"/>
-      <c r="AE171" s="131" t="s">
+      <c r="Z171" s="141"/>
+      <c r="AA171" s="141"/>
+      <c r="AB171" s="141"/>
+      <c r="AC171" s="141"/>
+      <c r="AD171" s="142"/>
+      <c r="AE171" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF171" s="132"/>
-      <c r="AG171" s="132"/>
-      <c r="AH171" s="132"/>
-      <c r="AI171" s="132"/>
-      <c r="AJ171" s="133"/>
+      <c r="AF171" s="141"/>
+      <c r="AG171" s="141"/>
+      <c r="AH171" s="141"/>
+      <c r="AI171" s="141"/>
+      <c r="AJ171" s="142"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -12830,30 +12857,30 @@
       <c r="P172" s="22"/>
       <c r="Q172" s="22"/>
       <c r="R172" s="25"/>
-      <c r="S172" s="128" t="s">
+      <c r="S172" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="129"/>
-      <c r="U172" s="129"/>
-      <c r="V172" s="129"/>
-      <c r="W172" s="129"/>
-      <c r="X172" s="130"/>
-      <c r="Y172" s="131" t="s">
+      <c r="T172" s="138"/>
+      <c r="U172" s="138"/>
+      <c r="V172" s="138"/>
+      <c r="W172" s="138"/>
+      <c r="X172" s="139"/>
+      <c r="Y172" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="132"/>
-      <c r="AA172" s="132"/>
-      <c r="AB172" s="132"/>
-      <c r="AC172" s="132"/>
-      <c r="AD172" s="133"/>
-      <c r="AE172" s="131" t="s">
+      <c r="Z172" s="141"/>
+      <c r="AA172" s="141"/>
+      <c r="AB172" s="141"/>
+      <c r="AC172" s="141"/>
+      <c r="AD172" s="142"/>
+      <c r="AE172" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF172" s="132"/>
-      <c r="AG172" s="132"/>
-      <c r="AH172" s="132"/>
-      <c r="AI172" s="132"/>
-      <c r="AJ172" s="133"/>
+      <c r="AF172" s="141"/>
+      <c r="AG172" s="141"/>
+      <c r="AH172" s="141"/>
+      <c r="AI172" s="141"/>
+      <c r="AJ172" s="142"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -12875,30 +12902,30 @@
       <c r="P173" s="22"/>
       <c r="Q173" s="22"/>
       <c r="R173" s="25"/>
-      <c r="S173" s="128" t="s">
+      <c r="S173" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="129"/>
-      <c r="U173" s="129"/>
-      <c r="V173" s="129"/>
-      <c r="W173" s="129"/>
-      <c r="X173" s="130"/>
-      <c r="Y173" s="131" t="s">
+      <c r="T173" s="138"/>
+      <c r="U173" s="138"/>
+      <c r="V173" s="138"/>
+      <c r="W173" s="138"/>
+      <c r="X173" s="139"/>
+      <c r="Y173" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="132"/>
-      <c r="AA173" s="132"/>
-      <c r="AB173" s="132"/>
-      <c r="AC173" s="132"/>
-      <c r="AD173" s="133"/>
-      <c r="AE173" s="131" t="s">
+      <c r="Z173" s="141"/>
+      <c r="AA173" s="141"/>
+      <c r="AB173" s="141"/>
+      <c r="AC173" s="141"/>
+      <c r="AD173" s="142"/>
+      <c r="AE173" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF173" s="132"/>
-      <c r="AG173" s="132"/>
-      <c r="AH173" s="132"/>
-      <c r="AI173" s="132"/>
-      <c r="AJ173" s="133"/>
+      <c r="AF173" s="141"/>
+      <c r="AG173" s="141"/>
+      <c r="AH173" s="141"/>
+      <c r="AI173" s="141"/>
+      <c r="AJ173" s="142"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -12920,30 +12947,30 @@
       <c r="P174" s="22"/>
       <c r="Q174" s="22"/>
       <c r="R174" s="25"/>
-      <c r="S174" s="128" t="s">
+      <c r="S174" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="129"/>
-      <c r="U174" s="129"/>
-      <c r="V174" s="129"/>
-      <c r="W174" s="129"/>
-      <c r="X174" s="130"/>
-      <c r="Y174" s="131" t="s">
+      <c r="T174" s="138"/>
+      <c r="U174" s="138"/>
+      <c r="V174" s="138"/>
+      <c r="W174" s="138"/>
+      <c r="X174" s="139"/>
+      <c r="Y174" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="Z174" s="132"/>
-      <c r="AA174" s="132"/>
-      <c r="AB174" s="132"/>
-      <c r="AC174" s="132"/>
-      <c r="AD174" s="133"/>
-      <c r="AE174" s="131" t="s">
+      <c r="Z174" s="141"/>
+      <c r="AA174" s="141"/>
+      <c r="AB174" s="141"/>
+      <c r="AC174" s="141"/>
+      <c r="AD174" s="142"/>
+      <c r="AE174" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF174" s="132"/>
-      <c r="AG174" s="132"/>
-      <c r="AH174" s="132"/>
-      <c r="AI174" s="132"/>
-      <c r="AJ174" s="133"/>
+      <c r="AF174" s="141"/>
+      <c r="AG174" s="141"/>
+      <c r="AH174" s="141"/>
+      <c r="AI174" s="141"/>
+      <c r="AJ174" s="142"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -12965,30 +12992,30 @@
       <c r="P175" s="22"/>
       <c r="Q175" s="22"/>
       <c r="R175" s="25"/>
-      <c r="S175" s="128" t="s">
+      <c r="S175" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="129"/>
-      <c r="U175" s="129"/>
-      <c r="V175" s="129"/>
-      <c r="W175" s="129"/>
-      <c r="X175" s="130"/>
-      <c r="Y175" s="131" t="s">
+      <c r="T175" s="138"/>
+      <c r="U175" s="138"/>
+      <c r="V175" s="138"/>
+      <c r="W175" s="138"/>
+      <c r="X175" s="139"/>
+      <c r="Y175" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="Z175" s="132"/>
-      <c r="AA175" s="132"/>
-      <c r="AB175" s="132"/>
-      <c r="AC175" s="132"/>
-      <c r="AD175" s="133"/>
-      <c r="AE175" s="131" t="s">
+      <c r="Z175" s="141"/>
+      <c r="AA175" s="141"/>
+      <c r="AB175" s="141"/>
+      <c r="AC175" s="141"/>
+      <c r="AD175" s="142"/>
+      <c r="AE175" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AF175" s="132"/>
-      <c r="AG175" s="132"/>
-      <c r="AH175" s="132"/>
-      <c r="AI175" s="132"/>
-      <c r="AJ175" s="133"/>
+      <c r="AF175" s="141"/>
+      <c r="AG175" s="141"/>
+      <c r="AH175" s="141"/>
+      <c r="AI175" s="141"/>
+      <c r="AJ175" s="142"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13010,30 +13037,30 @@
       <c r="P176" s="27"/>
       <c r="Q176" s="27"/>
       <c r="R176" s="28"/>
-      <c r="S176" s="137" t="s">
+      <c r="S176" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="138"/>
-      <c r="U176" s="138"/>
-      <c r="V176" s="138"/>
-      <c r="W176" s="138"/>
-      <c r="X176" s="139"/>
-      <c r="Y176" s="140" t="s">
+      <c r="T176" s="147"/>
+      <c r="U176" s="147"/>
+      <c r="V176" s="147"/>
+      <c r="W176" s="147"/>
+      <c r="X176" s="148"/>
+      <c r="Y176" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="Z176" s="141"/>
-      <c r="AA176" s="141"/>
-      <c r="AB176" s="141"/>
-      <c r="AC176" s="141"/>
-      <c r="AD176" s="142"/>
-      <c r="AE176" s="140" t="s">
+      <c r="Z176" s="150"/>
+      <c r="AA176" s="150"/>
+      <c r="AB176" s="150"/>
+      <c r="AC176" s="150"/>
+      <c r="AD176" s="151"/>
+      <c r="AE176" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AF176" s="141"/>
-      <c r="AG176" s="141"/>
-      <c r="AH176" s="141"/>
-      <c r="AI176" s="141"/>
-      <c r="AJ176" s="142"/>
+      <c r="AF176" s="150"/>
+      <c r="AG176" s="150"/>
+      <c r="AH176" s="150"/>
+      <c r="AI176" s="150"/>
+      <c r="AJ176" s="151"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -15062,17 +15089,17 @@
       <c r="AA227" s="70"/>
       <c r="AB227" s="70"/>
       <c r="AC227" s="71"/>
-      <c r="AD227" s="149" t="s">
+      <c r="AD227" s="158" t="s">
         <v>246</v>
       </c>
-      <c r="AE227" s="150"/>
-      <c r="AF227" s="150"/>
-      <c r="AG227" s="150"/>
-      <c r="AH227" s="150"/>
-      <c r="AI227" s="150"/>
-      <c r="AJ227" s="150"/>
-      <c r="AK227" s="150"/>
-      <c r="AL227" s="151"/>
+      <c r="AE227" s="159"/>
+      <c r="AF227" s="159"/>
+      <c r="AG227" s="159"/>
+      <c r="AH227" s="159"/>
+      <c r="AI227" s="159"/>
+      <c r="AJ227" s="159"/>
+      <c r="AK227" s="159"/>
+      <c r="AL227" s="160"/>
       <c r="AM227" s="107"/>
       <c r="AN227" s="2"/>
       <c r="AP227" s="5"/>
@@ -15164,21 +15191,21 @@
       <c r="AA229" s="115"/>
       <c r="AB229" s="115"/>
       <c r="AC229" s="119"/>
-      <c r="AD229" s="167" t="s">
+      <c r="AD229" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="AE229" s="168"/>
-      <c r="AF229" s="168"/>
-      <c r="AG229" s="169"/>
-      <c r="AH229" s="167" t="s">
+      <c r="AE229" s="182"/>
+      <c r="AF229" s="182"/>
+      <c r="AG229" s="183"/>
+      <c r="AH229" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="AI229" s="169"/>
-      <c r="AJ229" s="167" t="s">
+      <c r="AI229" s="183"/>
+      <c r="AJ229" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="AK229" s="168"/>
-      <c r="AL229" s="169"/>
+      <c r="AK229" s="182"/>
+      <c r="AL229" s="183"/>
       <c r="AM229" s="107"/>
       <c r="AN229" s="2"/>
       <c r="AP229" s="5"/>
@@ -15216,15 +15243,15 @@
       <c r="AA230" s="114"/>
       <c r="AB230" s="114"/>
       <c r="AC230" s="118"/>
-      <c r="AD230" s="170"/>
-      <c r="AE230" s="171"/>
-      <c r="AF230" s="171"/>
-      <c r="AG230" s="172"/>
-      <c r="AH230" s="170"/>
-      <c r="AI230" s="172"/>
-      <c r="AJ230" s="170"/>
-      <c r="AK230" s="171"/>
-      <c r="AL230" s="172"/>
+      <c r="AD230" s="184"/>
+      <c r="AE230" s="185"/>
+      <c r="AF230" s="185"/>
+      <c r="AG230" s="186"/>
+      <c r="AH230" s="184"/>
+      <c r="AI230" s="186"/>
+      <c r="AJ230" s="184"/>
+      <c r="AK230" s="185"/>
+      <c r="AL230" s="186"/>
       <c r="AM230" s="107"/>
       <c r="AN230" s="2"/>
       <c r="AP230" s="5"/>
@@ -15264,21 +15291,21 @@
       <c r="AA231" s="113"/>
       <c r="AB231" s="113"/>
       <c r="AC231" s="117"/>
-      <c r="AD231" s="167" t="s">
+      <c r="AD231" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="AE231" s="168"/>
-      <c r="AF231" s="168"/>
-      <c r="AG231" s="169"/>
-      <c r="AH231" s="167" t="s">
+      <c r="AE231" s="182"/>
+      <c r="AF231" s="182"/>
+      <c r="AG231" s="183"/>
+      <c r="AH231" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="AI231" s="169"/>
-      <c r="AJ231" s="167" t="s">
+      <c r="AI231" s="183"/>
+      <c r="AJ231" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="AK231" s="168"/>
-      <c r="AL231" s="169"/>
+      <c r="AK231" s="182"/>
+      <c r="AL231" s="183"/>
       <c r="AM231" s="107"/>
       <c r="AN231" s="2"/>
       <c r="AP231" s="5"/>
@@ -15291,9 +15318,9 @@
       <c r="D232" s="40"/>
       <c r="E232" s="40"/>
       <c r="F232" s="114"/>
-      <c r="G232" s="173"/>
-      <c r="H232" s="174"/>
-      <c r="I232" s="175" t="s">
+      <c r="G232" s="128"/>
+      <c r="H232" s="129"/>
+      <c r="I232" s="130" t="s">
         <v>233</v>
       </c>
       <c r="J232" s="120"/>
@@ -15317,22 +15344,22 @@
       <c r="Z232" s="120"/>
       <c r="AA232" s="120"/>
       <c r="AB232" s="120"/>
-      <c r="AC232" s="176"/>
-      <c r="AD232" s="177" t="s">
+      <c r="AC232" s="131"/>
+      <c r="AD232" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AE232" s="178"/>
-      <c r="AF232" s="178"/>
-      <c r="AG232" s="179"/>
-      <c r="AH232" s="177" t="s">
+      <c r="AE232" s="179"/>
+      <c r="AF232" s="179"/>
+      <c r="AG232" s="180"/>
+      <c r="AH232" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AI232" s="179"/>
-      <c r="AJ232" s="177" t="s">
+      <c r="AI232" s="180"/>
+      <c r="AJ232" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AK232" s="178"/>
-      <c r="AL232" s="179"/>
+      <c r="AK232" s="179"/>
+      <c r="AL232" s="180"/>
       <c r="AM232" s="107"/>
       <c r="AN232" s="2"/>
       <c r="AP232" s="5"/>
@@ -15347,8 +15374,8 @@
       <c r="D233" s="109"/>
       <c r="E233" s="109"/>
       <c r="F233" s="115"/>
-      <c r="G233" s="180"/>
-      <c r="H233" s="181"/>
+      <c r="G233" s="132"/>
+      <c r="H233" s="133"/>
       <c r="I233" s="120" t="s">
         <v>239</v>
       </c>
@@ -15373,22 +15400,22 @@
       <c r="Z233" s="120"/>
       <c r="AA233" s="120"/>
       <c r="AB233" s="120"/>
-      <c r="AC233" s="176"/>
-      <c r="AD233" s="177" t="s">
+      <c r="AC233" s="131"/>
+      <c r="AD233" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AE233" s="178"/>
-      <c r="AF233" s="178"/>
-      <c r="AG233" s="179"/>
-      <c r="AH233" s="177" t="s">
+      <c r="AE233" s="179"/>
+      <c r="AF233" s="179"/>
+      <c r="AG233" s="180"/>
+      <c r="AH233" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AI233" s="179"/>
-      <c r="AJ233" s="177" t="s">
+      <c r="AI233" s="180"/>
+      <c r="AJ233" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AK233" s="178"/>
-      <c r="AL233" s="179"/>
+      <c r="AK233" s="179"/>
+      <c r="AL233" s="180"/>
       <c r="AM233" s="107"/>
       <c r="AN233" s="2"/>
       <c r="AP233" s="5"/>
@@ -15401,8 +15428,8 @@
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
       <c r="F234" s="107"/>
-      <c r="G234" s="182"/>
-      <c r="H234" s="183"/>
+      <c r="G234" s="134"/>
+      <c r="H234" s="135"/>
       <c r="I234" s="120" t="s">
         <v>240</v>
       </c>
@@ -15427,22 +15454,22 @@
       <c r="Z234" s="120"/>
       <c r="AA234" s="120"/>
       <c r="AB234" s="120"/>
-      <c r="AC234" s="176"/>
-      <c r="AD234" s="177" t="s">
+      <c r="AC234" s="131"/>
+      <c r="AD234" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AE234" s="178"/>
-      <c r="AF234" s="178"/>
-      <c r="AG234" s="179"/>
-      <c r="AH234" s="177" t="s">
+      <c r="AE234" s="179"/>
+      <c r="AF234" s="179"/>
+      <c r="AG234" s="180"/>
+      <c r="AH234" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AI234" s="179"/>
-      <c r="AJ234" s="177" t="s">
+      <c r="AI234" s="180"/>
+      <c r="AJ234" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AK234" s="178"/>
-      <c r="AL234" s="179"/>
+      <c r="AK234" s="179"/>
+      <c r="AL234" s="180"/>
       <c r="AM234" s="107"/>
       <c r="AN234" s="2"/>
       <c r="AP234" s="5"/>
@@ -15455,8 +15482,8 @@
       <c r="D235" s="40"/>
       <c r="E235" s="40"/>
       <c r="F235" s="114"/>
-      <c r="G235" s="173"/>
-      <c r="H235" s="184"/>
+      <c r="G235" s="128"/>
+      <c r="H235" s="136"/>
       <c r="I235" s="120" t="s">
         <v>249</v>
       </c>
@@ -15481,22 +15508,22 @@
       <c r="Z235" s="120"/>
       <c r="AA235" s="120"/>
       <c r="AB235" s="120"/>
-      <c r="AC235" s="176"/>
-      <c r="AD235" s="185" t="s">
+      <c r="AC235" s="131"/>
+      <c r="AD235" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="AE235" s="186"/>
-      <c r="AF235" s="186"/>
-      <c r="AG235" s="187"/>
-      <c r="AH235" s="185" t="s">
+      <c r="AE235" s="187"/>
+      <c r="AF235" s="187"/>
+      <c r="AG235" s="162"/>
+      <c r="AH235" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="AI235" s="187"/>
-      <c r="AJ235" s="177" t="s">
+      <c r="AI235" s="162"/>
+      <c r="AJ235" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AK235" s="178"/>
-      <c r="AL235" s="179"/>
+      <c r="AK235" s="179"/>
+      <c r="AL235" s="180"/>
       <c r="AM235" s="107"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -15538,21 +15565,21 @@
       <c r="AA236" s="113"/>
       <c r="AB236" s="113"/>
       <c r="AC236" s="117"/>
-      <c r="AD236" s="146" t="s">
+      <c r="AD236" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="AE236" s="147"/>
-      <c r="AF236" s="147"/>
-      <c r="AG236" s="148"/>
-      <c r="AH236" s="146" t="s">
+      <c r="AE236" s="153"/>
+      <c r="AF236" s="153"/>
+      <c r="AG236" s="154"/>
+      <c r="AH236" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="AI236" s="148"/>
-      <c r="AJ236" s="146" t="s">
+      <c r="AI236" s="154"/>
+      <c r="AJ236" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="AK236" s="147"/>
-      <c r="AL236" s="148"/>
+      <c r="AK236" s="153"/>
+      <c r="AL236" s="154"/>
       <c r="AM236" s="107"/>
       <c r="AN236" s="2"/>
       <c r="AP236" s="5"/>
@@ -16293,16 +16320,6 @@
     <mergeCell ref="S171:X171"/>
     <mergeCell ref="S172:X172"/>
     <mergeCell ref="S173:X173"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="Y173:AD173"/>
     <mergeCell ref="S168:X168"/>
     <mergeCell ref="S169:X169"/>
     <mergeCell ref="S170:X170"/>
@@ -16316,6 +16333,17 @@
     <mergeCell ref="AE146:AJ146"/>
     <mergeCell ref="AE147:AJ147"/>
     <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="Y173:AD173"/>
     <mergeCell ref="AE174:AJ174"/>
     <mergeCell ref="AE175:AJ175"/>
     <mergeCell ref="Y130:AD130"/>
@@ -16336,7 +16364,6 @@
     <mergeCell ref="Y145:AD145"/>
     <mergeCell ref="Y146:AD146"/>
     <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="Y148:AD148"/>
     <mergeCell ref="Y149:AD149"/>
     <mergeCell ref="Y150:AD150"/>
     <mergeCell ref="Y151:AD151"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -4393,40 +4393,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4438,13 +4438,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4474,52 +4486,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6851,15 +6851,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="201"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>73</v>
@@ -6870,53 +6870,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="204" t="s">
+      <c r="P1" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="206"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="209"/>
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
       <c r="AA1" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="201">
+      <c r="AD1" s="205">
         <v>42760</v>
       </c>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="202"/>
-      <c r="AH1" s="203"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="207"/>
       <c r="AI1" s="44" t="s">
         <v>70</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="192" t="s">
+      <c r="AL1" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="193"/>
-      <c r="AN1" s="193"/>
-      <c r="AO1" s="193"/>
-      <c r="AP1" s="194"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="198"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="200"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="204"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>74</v>
@@ -6927,41 +6927,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="210"/>
       <c r="AA2" s="44" t="s">
         <v>69</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="201">
+      <c r="AD2" s="205">
         <v>42978</v>
       </c>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="203"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="207"/>
       <c r="AI2" s="44" t="s">
         <v>71</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="192" t="s">
+      <c r="AL2" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="193"/>
-      <c r="AN2" s="193"/>
-      <c r="AO2" s="193"/>
-      <c r="AP2" s="194"/>
+      <c r="AM2" s="197"/>
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="198"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -8045,27 +8045,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="177" t="s">
+      <c r="L40" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="178"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
-      <c r="S40" s="178"/>
-      <c r="T40" s="178"/>
-      <c r="U40" s="178"/>
-      <c r="V40" s="178"/>
-      <c r="W40" s="178"/>
-      <c r="X40" s="178"/>
-      <c r="Y40" s="178"/>
-      <c r="Z40" s="178"/>
-      <c r="AA40" s="178"/>
-      <c r="AB40" s="178"/>
-      <c r="AC40" s="178"/>
-      <c r="AD40" s="179"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="194"/>
+      <c r="O40" s="194"/>
+      <c r="P40" s="194"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="194"/>
+      <c r="S40" s="194"/>
+      <c r="T40" s="194"/>
+      <c r="U40" s="194"/>
+      <c r="V40" s="194"/>
+      <c r="W40" s="194"/>
+      <c r="X40" s="194"/>
+      <c r="Y40" s="194"/>
+      <c r="Z40" s="194"/>
+      <c r="AA40" s="194"/>
+      <c r="AB40" s="194"/>
+      <c r="AC40" s="194"/>
+      <c r="AD40" s="195"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8320,27 +8320,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="177" t="s">
+      <c r="L48" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="178"/>
-      <c r="N48" s="178"/>
-      <c r="O48" s="178"/>
-      <c r="P48" s="178"/>
-      <c r="Q48" s="178"/>
-      <c r="R48" s="178"/>
-      <c r="S48" s="178"/>
-      <c r="T48" s="178"/>
-      <c r="U48" s="178"/>
-      <c r="V48" s="178"/>
-      <c r="W48" s="178"/>
-      <c r="X48" s="178"/>
-      <c r="Y48" s="178"/>
-      <c r="Z48" s="178"/>
-      <c r="AA48" s="178"/>
-      <c r="AB48" s="178"/>
-      <c r="AC48" s="178"/>
-      <c r="AD48" s="179"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="194"/>
+      <c r="O48" s="194"/>
+      <c r="P48" s="194"/>
+      <c r="Q48" s="194"/>
+      <c r="R48" s="194"/>
+      <c r="S48" s="194"/>
+      <c r="T48" s="194"/>
+      <c r="U48" s="194"/>
+      <c r="V48" s="194"/>
+      <c r="W48" s="194"/>
+      <c r="X48" s="194"/>
+      <c r="Y48" s="194"/>
+      <c r="Z48" s="194"/>
+      <c r="AA48" s="194"/>
+      <c r="AB48" s="194"/>
+      <c r="AC48" s="194"/>
+      <c r="AD48" s="195"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -11011,30 +11011,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="177" t="s">
+      <c r="S125" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="178"/>
-      <c r="U125" s="178"/>
-      <c r="V125" s="178"/>
-      <c r="W125" s="178"/>
-      <c r="X125" s="179"/>
-      <c r="Y125" s="177" t="s">
+      <c r="T125" s="194"/>
+      <c r="U125" s="194"/>
+      <c r="V125" s="194"/>
+      <c r="W125" s="194"/>
+      <c r="X125" s="195"/>
+      <c r="Y125" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="178"/>
-      <c r="AA125" s="178"/>
-      <c r="AB125" s="178"/>
-      <c r="AC125" s="178"/>
-      <c r="AD125" s="179"/>
-      <c r="AE125" s="177" t="s">
+      <c r="Z125" s="194"/>
+      <c r="AA125" s="194"/>
+      <c r="AB125" s="194"/>
+      <c r="AC125" s="194"/>
+      <c r="AD125" s="195"/>
+      <c r="AE125" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="178"/>
-      <c r="AG125" s="178"/>
-      <c r="AH125" s="178"/>
-      <c r="AI125" s="178"/>
-      <c r="AJ125" s="179"/>
+      <c r="AF125" s="194"/>
+      <c r="AG125" s="194"/>
+      <c r="AH125" s="194"/>
+      <c r="AI125" s="194"/>
+      <c r="AJ125" s="195"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11140,30 +11140,30 @@
       <c r="P128" s="142"/>
       <c r="Q128" s="142"/>
       <c r="R128" s="143"/>
-      <c r="S128" s="213" t="s">
+      <c r="S128" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="214"/>
-      <c r="U128" s="214"/>
-      <c r="V128" s="214"/>
-      <c r="W128" s="214"/>
-      <c r="X128" s="215"/>
-      <c r="Y128" s="213" t="s">
+      <c r="T128" s="190"/>
+      <c r="U128" s="190"/>
+      <c r="V128" s="190"/>
+      <c r="W128" s="190"/>
+      <c r="X128" s="191"/>
+      <c r="Y128" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="214"/>
-      <c r="AA128" s="214"/>
-      <c r="AB128" s="214"/>
-      <c r="AC128" s="214"/>
-      <c r="AD128" s="215"/>
-      <c r="AE128" s="213" t="s">
+      <c r="Z128" s="190"/>
+      <c r="AA128" s="190"/>
+      <c r="AB128" s="190"/>
+      <c r="AC128" s="190"/>
+      <c r="AD128" s="191"/>
+      <c r="AE128" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="214"/>
-      <c r="AG128" s="214"/>
-      <c r="AH128" s="214"/>
-      <c r="AI128" s="214"/>
-      <c r="AJ128" s="215"/>
+      <c r="AF128" s="190"/>
+      <c r="AG128" s="190"/>
+      <c r="AH128" s="190"/>
+      <c r="AI128" s="190"/>
+      <c r="AJ128" s="191"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11185,30 +11185,30 @@
       <c r="P129" s="139"/>
       <c r="Q129" s="139"/>
       <c r="R129" s="144"/>
-      <c r="S129" s="216" t="s">
+      <c r="S129" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="216"/>
-      <c r="U129" s="216"/>
-      <c r="V129" s="216"/>
-      <c r="W129" s="216"/>
-      <c r="X129" s="216"/>
-      <c r="Y129" s="216" t="s">
+      <c r="T129" s="192"/>
+      <c r="U129" s="192"/>
+      <c r="V129" s="192"/>
+      <c r="W129" s="192"/>
+      <c r="X129" s="192"/>
+      <c r="Y129" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="216"/>
-      <c r="AA129" s="216"/>
-      <c r="AB129" s="216"/>
-      <c r="AC129" s="216"/>
-      <c r="AD129" s="216"/>
-      <c r="AE129" s="216" t="s">
+      <c r="Z129" s="192"/>
+      <c r="AA129" s="192"/>
+      <c r="AB129" s="192"/>
+      <c r="AC129" s="192"/>
+      <c r="AD129" s="192"/>
+      <c r="AE129" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="216"/>
-      <c r="AG129" s="216"/>
-      <c r="AH129" s="216"/>
-      <c r="AI129" s="216"/>
-      <c r="AJ129" s="216"/>
+      <c r="AF129" s="192"/>
+      <c r="AG129" s="192"/>
+      <c r="AH129" s="192"/>
+      <c r="AI129" s="192"/>
+      <c r="AJ129" s="192"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11363,30 +11363,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="207" t="s">
+      <c r="S133" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="208"/>
-      <c r="U133" s="208"/>
-      <c r="V133" s="208"/>
-      <c r="W133" s="208"/>
-      <c r="X133" s="209"/>
-      <c r="Y133" s="207" t="s">
+      <c r="T133" s="178"/>
+      <c r="U133" s="178"/>
+      <c r="V133" s="178"/>
+      <c r="W133" s="178"/>
+      <c r="X133" s="179"/>
+      <c r="Y133" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="208"/>
-      <c r="AA133" s="208"/>
-      <c r="AB133" s="208"/>
-      <c r="AC133" s="208"/>
-      <c r="AD133" s="209"/>
-      <c r="AE133" s="207" t="s">
+      <c r="Z133" s="178"/>
+      <c r="AA133" s="178"/>
+      <c r="AB133" s="178"/>
+      <c r="AC133" s="178"/>
+      <c r="AD133" s="179"/>
+      <c r="AE133" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="208"/>
-      <c r="AG133" s="208"/>
-      <c r="AH133" s="208"/>
-      <c r="AI133" s="208"/>
-      <c r="AJ133" s="209"/>
+      <c r="AF133" s="178"/>
+      <c r="AG133" s="178"/>
+      <c r="AH133" s="178"/>
+      <c r="AI133" s="178"/>
+      <c r="AJ133" s="179"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11410,30 +11410,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="207" t="s">
+      <c r="S134" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="208"/>
-      <c r="U134" s="208"/>
-      <c r="V134" s="208"/>
-      <c r="W134" s="208"/>
-      <c r="X134" s="209"/>
-      <c r="Y134" s="207" t="s">
+      <c r="T134" s="178"/>
+      <c r="U134" s="178"/>
+      <c r="V134" s="178"/>
+      <c r="W134" s="178"/>
+      <c r="X134" s="179"/>
+      <c r="Y134" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="208"/>
-      <c r="AA134" s="208"/>
-      <c r="AB134" s="208"/>
-      <c r="AC134" s="208"/>
-      <c r="AD134" s="209"/>
-      <c r="AE134" s="207" t="s">
+      <c r="Z134" s="178"/>
+      <c r="AA134" s="178"/>
+      <c r="AB134" s="178"/>
+      <c r="AC134" s="178"/>
+      <c r="AD134" s="179"/>
+      <c r="AE134" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="208"/>
-      <c r="AG134" s="208"/>
-      <c r="AH134" s="208"/>
-      <c r="AI134" s="208"/>
-      <c r="AJ134" s="209"/>
+      <c r="AF134" s="178"/>
+      <c r="AG134" s="178"/>
+      <c r="AH134" s="178"/>
+      <c r="AI134" s="178"/>
+      <c r="AJ134" s="179"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11451,30 +11451,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="207" t="s">
+      <c r="S135" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="208"/>
-      <c r="U135" s="208"/>
-      <c r="V135" s="208"/>
-      <c r="W135" s="208"/>
-      <c r="X135" s="209"/>
-      <c r="Y135" s="207" t="s">
+      <c r="T135" s="178"/>
+      <c r="U135" s="178"/>
+      <c r="V135" s="178"/>
+      <c r="W135" s="178"/>
+      <c r="X135" s="179"/>
+      <c r="Y135" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="208"/>
-      <c r="AA135" s="208"/>
-      <c r="AB135" s="208"/>
-      <c r="AC135" s="208"/>
-      <c r="AD135" s="209"/>
-      <c r="AE135" s="207" t="s">
+      <c r="Z135" s="178"/>
+      <c r="AA135" s="178"/>
+      <c r="AB135" s="178"/>
+      <c r="AC135" s="178"/>
+      <c r="AD135" s="179"/>
+      <c r="AE135" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="208"/>
-      <c r="AG135" s="208"/>
-      <c r="AH135" s="208"/>
-      <c r="AI135" s="208"/>
-      <c r="AJ135" s="209"/>
+      <c r="AF135" s="178"/>
+      <c r="AG135" s="178"/>
+      <c r="AH135" s="178"/>
+      <c r="AI135" s="178"/>
+      <c r="AJ135" s="179"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11496,30 +11496,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="207" t="s">
+      <c r="S136" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="208"/>
-      <c r="U136" s="208"/>
-      <c r="V136" s="208"/>
-      <c r="W136" s="208"/>
-      <c r="X136" s="209"/>
-      <c r="Y136" s="207" t="s">
+      <c r="T136" s="178"/>
+      <c r="U136" s="178"/>
+      <c r="V136" s="178"/>
+      <c r="W136" s="178"/>
+      <c r="X136" s="179"/>
+      <c r="Y136" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="208"/>
-      <c r="AA136" s="208"/>
-      <c r="AB136" s="208"/>
-      <c r="AC136" s="208"/>
-      <c r="AD136" s="209"/>
-      <c r="AE136" s="207" t="s">
+      <c r="Z136" s="178"/>
+      <c r="AA136" s="178"/>
+      <c r="AB136" s="178"/>
+      <c r="AC136" s="178"/>
+      <c r="AD136" s="179"/>
+      <c r="AE136" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="208"/>
-      <c r="AG136" s="208"/>
-      <c r="AH136" s="208"/>
-      <c r="AI136" s="208"/>
-      <c r="AJ136" s="209"/>
+      <c r="AF136" s="178"/>
+      <c r="AG136" s="178"/>
+      <c r="AH136" s="178"/>
+      <c r="AI136" s="178"/>
+      <c r="AJ136" s="179"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11541,30 +11541,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="220" t="s">
+      <c r="S137" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="221"/>
-      <c r="U137" s="221"/>
-      <c r="V137" s="221"/>
-      <c r="W137" s="221"/>
-      <c r="X137" s="222"/>
-      <c r="Y137" s="220" t="s">
+      <c r="T137" s="175"/>
+      <c r="U137" s="175"/>
+      <c r="V137" s="175"/>
+      <c r="W137" s="175"/>
+      <c r="X137" s="176"/>
+      <c r="Y137" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="221"/>
-      <c r="AA137" s="221"/>
-      <c r="AB137" s="221"/>
-      <c r="AC137" s="221"/>
-      <c r="AD137" s="222"/>
-      <c r="AE137" s="207" t="s">
+      <c r="Z137" s="175"/>
+      <c r="AA137" s="175"/>
+      <c r="AB137" s="175"/>
+      <c r="AC137" s="175"/>
+      <c r="AD137" s="176"/>
+      <c r="AE137" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="208"/>
-      <c r="AG137" s="208"/>
-      <c r="AH137" s="208"/>
-      <c r="AI137" s="208"/>
-      <c r="AJ137" s="209"/>
+      <c r="AF137" s="178"/>
+      <c r="AG137" s="178"/>
+      <c r="AH137" s="178"/>
+      <c r="AI137" s="178"/>
+      <c r="AJ137" s="179"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11588,30 +11588,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="207" t="s">
+      <c r="S138" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="208"/>
-      <c r="U138" s="208"/>
-      <c r="V138" s="208"/>
-      <c r="W138" s="208"/>
-      <c r="X138" s="209"/>
-      <c r="Y138" s="207" t="s">
+      <c r="T138" s="178"/>
+      <c r="U138" s="178"/>
+      <c r="V138" s="178"/>
+      <c r="W138" s="178"/>
+      <c r="X138" s="179"/>
+      <c r="Y138" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="208"/>
-      <c r="AA138" s="208"/>
-      <c r="AB138" s="208"/>
-      <c r="AC138" s="208"/>
-      <c r="AD138" s="209"/>
-      <c r="AE138" s="207" t="s">
+      <c r="Z138" s="178"/>
+      <c r="AA138" s="178"/>
+      <c r="AB138" s="178"/>
+      <c r="AC138" s="178"/>
+      <c r="AD138" s="179"/>
+      <c r="AE138" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="208"/>
-      <c r="AG138" s="208"/>
-      <c r="AH138" s="208"/>
-      <c r="AI138" s="208"/>
-      <c r="AJ138" s="209"/>
+      <c r="AF138" s="178"/>
+      <c r="AG138" s="178"/>
+      <c r="AH138" s="178"/>
+      <c r="AI138" s="178"/>
+      <c r="AJ138" s="179"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11629,30 +11629,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="207" t="s">
+      <c r="S139" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="208"/>
-      <c r="U139" s="208"/>
-      <c r="V139" s="208"/>
-      <c r="W139" s="208"/>
-      <c r="X139" s="209"/>
-      <c r="Y139" s="207" t="s">
+      <c r="T139" s="178"/>
+      <c r="U139" s="178"/>
+      <c r="V139" s="178"/>
+      <c r="W139" s="178"/>
+      <c r="X139" s="179"/>
+      <c r="Y139" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="208"/>
-      <c r="AA139" s="208"/>
-      <c r="AB139" s="208"/>
-      <c r="AC139" s="208"/>
-      <c r="AD139" s="209"/>
-      <c r="AE139" s="207" t="s">
+      <c r="Z139" s="178"/>
+      <c r="AA139" s="178"/>
+      <c r="AB139" s="178"/>
+      <c r="AC139" s="178"/>
+      <c r="AD139" s="179"/>
+      <c r="AE139" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="208"/>
-      <c r="AG139" s="208"/>
-      <c r="AH139" s="208"/>
-      <c r="AI139" s="208"/>
-      <c r="AJ139" s="209"/>
+      <c r="AF139" s="178"/>
+      <c r="AG139" s="178"/>
+      <c r="AH139" s="178"/>
+      <c r="AI139" s="178"/>
+      <c r="AJ139" s="179"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11674,30 +11674,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="207" t="s">
+      <c r="S140" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="208"/>
-      <c r="U140" s="208"/>
-      <c r="V140" s="208"/>
-      <c r="W140" s="208"/>
-      <c r="X140" s="209"/>
-      <c r="Y140" s="207" t="s">
+      <c r="T140" s="178"/>
+      <c r="U140" s="178"/>
+      <c r="V140" s="178"/>
+      <c r="W140" s="178"/>
+      <c r="X140" s="179"/>
+      <c r="Y140" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="208"/>
-      <c r="AA140" s="208"/>
-      <c r="AB140" s="208"/>
-      <c r="AC140" s="208"/>
-      <c r="AD140" s="209"/>
-      <c r="AE140" s="207" t="s">
+      <c r="Z140" s="178"/>
+      <c r="AA140" s="178"/>
+      <c r="AB140" s="178"/>
+      <c r="AC140" s="178"/>
+      <c r="AD140" s="179"/>
+      <c r="AE140" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="208"/>
-      <c r="AG140" s="208"/>
-      <c r="AH140" s="208"/>
-      <c r="AI140" s="208"/>
-      <c r="AJ140" s="209"/>
+      <c r="AF140" s="178"/>
+      <c r="AG140" s="178"/>
+      <c r="AH140" s="178"/>
+      <c r="AI140" s="178"/>
+      <c r="AJ140" s="179"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11719,30 +11719,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="207" t="s">
+      <c r="S141" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="T141" s="208"/>
-      <c r="U141" s="208"/>
-      <c r="V141" s="208"/>
-      <c r="W141" s="208"/>
-      <c r="X141" s="209"/>
-      <c r="Y141" s="207" t="s">
+      <c r="T141" s="178"/>
+      <c r="U141" s="178"/>
+      <c r="V141" s="178"/>
+      <c r="W141" s="178"/>
+      <c r="X141" s="179"/>
+      <c r="Y141" s="177" t="s">
         <v>220</v>
       </c>
-      <c r="Z141" s="208"/>
-      <c r="AA141" s="208"/>
-      <c r="AB141" s="208"/>
-      <c r="AC141" s="208"/>
-      <c r="AD141" s="209"/>
-      <c r="AE141" s="207" t="s">
+      <c r="Z141" s="178"/>
+      <c r="AA141" s="178"/>
+      <c r="AB141" s="178"/>
+      <c r="AC141" s="178"/>
+      <c r="AD141" s="179"/>
+      <c r="AE141" s="177" t="s">
         <v>220</v>
       </c>
-      <c r="AF141" s="208"/>
-      <c r="AG141" s="208"/>
-      <c r="AH141" s="208"/>
-      <c r="AI141" s="208"/>
-      <c r="AJ141" s="209"/>
+      <c r="AF141" s="178"/>
+      <c r="AG141" s="178"/>
+      <c r="AH141" s="178"/>
+      <c r="AI141" s="178"/>
+      <c r="AJ141" s="179"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11766,30 +11766,30 @@
       <c r="P142" s="146"/>
       <c r="Q142" s="146"/>
       <c r="R142" s="147"/>
-      <c r="S142" s="207" t="s">
+      <c r="S142" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="208"/>
-      <c r="U142" s="208"/>
-      <c r="V142" s="208"/>
-      <c r="W142" s="208"/>
-      <c r="X142" s="209"/>
-      <c r="Y142" s="207" t="s">
+      <c r="T142" s="178"/>
+      <c r="U142" s="178"/>
+      <c r="V142" s="178"/>
+      <c r="W142" s="178"/>
+      <c r="X142" s="179"/>
+      <c r="Y142" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="208"/>
-      <c r="AA142" s="208"/>
-      <c r="AB142" s="208"/>
-      <c r="AC142" s="208"/>
-      <c r="AD142" s="209"/>
-      <c r="AE142" s="207" t="s">
+      <c r="Z142" s="178"/>
+      <c r="AA142" s="178"/>
+      <c r="AB142" s="178"/>
+      <c r="AC142" s="178"/>
+      <c r="AD142" s="179"/>
+      <c r="AE142" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="208"/>
-      <c r="AG142" s="208"/>
-      <c r="AH142" s="208"/>
-      <c r="AI142" s="208"/>
-      <c r="AJ142" s="209"/>
+      <c r="AF142" s="178"/>
+      <c r="AG142" s="178"/>
+      <c r="AH142" s="178"/>
+      <c r="AI142" s="178"/>
+      <c r="AJ142" s="179"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11807,30 +11807,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="207" t="s">
+      <c r="S143" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="208"/>
-      <c r="U143" s="208"/>
-      <c r="V143" s="208"/>
-      <c r="W143" s="208"/>
-      <c r="X143" s="209"/>
-      <c r="Y143" s="207" t="s">
+      <c r="T143" s="178"/>
+      <c r="U143" s="178"/>
+      <c r="V143" s="178"/>
+      <c r="W143" s="178"/>
+      <c r="X143" s="179"/>
+      <c r="Y143" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="208"/>
-      <c r="AA143" s="208"/>
-      <c r="AB143" s="208"/>
-      <c r="AC143" s="208"/>
-      <c r="AD143" s="209"/>
-      <c r="AE143" s="207" t="s">
+      <c r="Z143" s="178"/>
+      <c r="AA143" s="178"/>
+      <c r="AB143" s="178"/>
+      <c r="AC143" s="178"/>
+      <c r="AD143" s="179"/>
+      <c r="AE143" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="208"/>
-      <c r="AG143" s="208"/>
-      <c r="AH143" s="208"/>
-      <c r="AI143" s="208"/>
-      <c r="AJ143" s="209"/>
+      <c r="AF143" s="178"/>
+      <c r="AG143" s="178"/>
+      <c r="AH143" s="178"/>
+      <c r="AI143" s="178"/>
+      <c r="AJ143" s="179"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11897,30 +11897,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="207" t="s">
+      <c r="S145" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="208"/>
-      <c r="U145" s="208"/>
-      <c r="V145" s="208"/>
-      <c r="W145" s="208"/>
-      <c r="X145" s="209"/>
-      <c r="Y145" s="207" t="s">
+      <c r="T145" s="178"/>
+      <c r="U145" s="178"/>
+      <c r="V145" s="178"/>
+      <c r="W145" s="178"/>
+      <c r="X145" s="179"/>
+      <c r="Y145" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="208"/>
-      <c r="AA145" s="208"/>
-      <c r="AB145" s="208"/>
-      <c r="AC145" s="208"/>
-      <c r="AD145" s="209"/>
-      <c r="AE145" s="207" t="s">
+      <c r="Z145" s="178"/>
+      <c r="AA145" s="178"/>
+      <c r="AB145" s="178"/>
+      <c r="AC145" s="178"/>
+      <c r="AD145" s="179"/>
+      <c r="AE145" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="208"/>
-      <c r="AG145" s="208"/>
-      <c r="AH145" s="208"/>
-      <c r="AI145" s="208"/>
-      <c r="AJ145" s="209"/>
+      <c r="AF145" s="178"/>
+      <c r="AG145" s="178"/>
+      <c r="AH145" s="178"/>
+      <c r="AI145" s="178"/>
+      <c r="AJ145" s="179"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -11944,30 +11944,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="207" t="s">
+      <c r="S146" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="208"/>
-      <c r="U146" s="208"/>
-      <c r="V146" s="208"/>
-      <c r="W146" s="208"/>
-      <c r="X146" s="209"/>
-      <c r="Y146" s="207" t="s">
+      <c r="T146" s="178"/>
+      <c r="U146" s="178"/>
+      <c r="V146" s="178"/>
+      <c r="W146" s="178"/>
+      <c r="X146" s="179"/>
+      <c r="Y146" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="208"/>
-      <c r="AA146" s="208"/>
-      <c r="AB146" s="208"/>
-      <c r="AC146" s="208"/>
-      <c r="AD146" s="209"/>
-      <c r="AE146" s="207" t="s">
+      <c r="Z146" s="175"/>
+      <c r="AA146" s="175"/>
+      <c r="AB146" s="175"/>
+      <c r="AC146" s="175"/>
+      <c r="AD146" s="176"/>
+      <c r="AE146" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="208"/>
-      <c r="AG146" s="208"/>
-      <c r="AH146" s="208"/>
-      <c r="AI146" s="208"/>
-      <c r="AJ146" s="209"/>
+      <c r="AF146" s="175"/>
+      <c r="AG146" s="175"/>
+      <c r="AH146" s="175"/>
+      <c r="AI146" s="175"/>
+      <c r="AJ146" s="176"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -11987,30 +11987,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="207" t="s">
+      <c r="S147" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="208"/>
-      <c r="U147" s="208"/>
-      <c r="V147" s="208"/>
-      <c r="W147" s="208"/>
-      <c r="X147" s="209"/>
-      <c r="Y147" s="207" t="s">
+      <c r="T147" s="178"/>
+      <c r="U147" s="178"/>
+      <c r="V147" s="178"/>
+      <c r="W147" s="178"/>
+      <c r="X147" s="179"/>
+      <c r="Y147" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="208"/>
-      <c r="AA147" s="208"/>
-      <c r="AB147" s="208"/>
-      <c r="AC147" s="208"/>
-      <c r="AD147" s="209"/>
-      <c r="AE147" s="207" t="s">
+      <c r="Z147" s="178"/>
+      <c r="AA147" s="178"/>
+      <c r="AB147" s="178"/>
+      <c r="AC147" s="178"/>
+      <c r="AD147" s="179"/>
+      <c r="AE147" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="208"/>
-      <c r="AG147" s="208"/>
-      <c r="AH147" s="208"/>
-      <c r="AI147" s="208"/>
-      <c r="AJ147" s="209"/>
+      <c r="AF147" s="175"/>
+      <c r="AG147" s="175"/>
+      <c r="AH147" s="175"/>
+      <c r="AI147" s="175"/>
+      <c r="AJ147" s="176"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12032,30 +12032,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="207" t="s">
+      <c r="S148" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="208"/>
-      <c r="U148" s="208"/>
-      <c r="V148" s="208"/>
-      <c r="W148" s="208"/>
-      <c r="X148" s="209"/>
-      <c r="Y148" s="207" t="s">
+      <c r="T148" s="178"/>
+      <c r="U148" s="178"/>
+      <c r="V148" s="178"/>
+      <c r="W148" s="178"/>
+      <c r="X148" s="179"/>
+      <c r="Y148" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="208"/>
-      <c r="AA148" s="208"/>
-      <c r="AB148" s="208"/>
-      <c r="AC148" s="208"/>
-      <c r="AD148" s="209"/>
-      <c r="AE148" s="207" t="s">
+      <c r="Z148" s="178"/>
+      <c r="AA148" s="178"/>
+      <c r="AB148" s="178"/>
+      <c r="AC148" s="178"/>
+      <c r="AD148" s="179"/>
+      <c r="AE148" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="208"/>
-      <c r="AG148" s="208"/>
-      <c r="AH148" s="208"/>
-      <c r="AI148" s="208"/>
-      <c r="AJ148" s="209"/>
+      <c r="AF148" s="175"/>
+      <c r="AG148" s="175"/>
+      <c r="AH148" s="175"/>
+      <c r="AI148" s="175"/>
+      <c r="AJ148" s="176"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12361,14 +12361,14 @@
       <c r="AB155" s="169"/>
       <c r="AC155" s="169"/>
       <c r="AD155" s="170"/>
-      <c r="AE155" s="210" t="s">
+      <c r="AE155" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="AF155" s="211"/>
-      <c r="AG155" s="211"/>
-      <c r="AH155" s="211"/>
-      <c r="AI155" s="211"/>
-      <c r="AJ155" s="212"/>
+      <c r="AF155" s="181"/>
+      <c r="AG155" s="181"/>
+      <c r="AH155" s="181"/>
+      <c r="AI155" s="181"/>
+      <c r="AJ155" s="182"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12496,14 +12496,14 @@
       <c r="AB158" s="169"/>
       <c r="AC158" s="169"/>
       <c r="AD158" s="170"/>
-      <c r="AE158" s="210" t="s">
+      <c r="AE158" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="AF158" s="211"/>
-      <c r="AG158" s="211"/>
-      <c r="AH158" s="211"/>
-      <c r="AI158" s="211"/>
-      <c r="AJ158" s="212"/>
+      <c r="AF158" s="181"/>
+      <c r="AG158" s="181"/>
+      <c r="AH158" s="181"/>
+      <c r="AI158" s="181"/>
+      <c r="AJ158" s="182"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12848,22 +12848,22 @@
       <c r="V166" s="169"/>
       <c r="W166" s="169"/>
       <c r="X166" s="170"/>
-      <c r="Y166" s="168" t="s">
+      <c r="Y166" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="Z166" s="169"/>
-      <c r="AA166" s="169"/>
-      <c r="AB166" s="169"/>
-      <c r="AC166" s="169"/>
-      <c r="AD166" s="170"/>
-      <c r="AE166" s="210" t="s">
+      <c r="Z166" s="181"/>
+      <c r="AA166" s="181"/>
+      <c r="AB166" s="181"/>
+      <c r="AC166" s="181"/>
+      <c r="AD166" s="182"/>
+      <c r="AE166" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="211"/>
-      <c r="AG166" s="211"/>
-      <c r="AH166" s="211"/>
-      <c r="AI166" s="211"/>
-      <c r="AJ166" s="212"/>
+      <c r="AF166" s="181"/>
+      <c r="AG166" s="181"/>
+      <c r="AH166" s="181"/>
+      <c r="AI166" s="181"/>
+      <c r="AJ166" s="182"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12903,14 +12903,14 @@
       <c r="AB167" s="169"/>
       <c r="AC167" s="169"/>
       <c r="AD167" s="170"/>
-      <c r="AE167" s="210" t="s">
+      <c r="AE167" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="AF167" s="211"/>
-      <c r="AG167" s="211"/>
-      <c r="AH167" s="211"/>
-      <c r="AI167" s="211"/>
-      <c r="AJ167" s="212"/>
+      <c r="AF167" s="181"/>
+      <c r="AG167" s="181"/>
+      <c r="AH167" s="181"/>
+      <c r="AI167" s="181"/>
+      <c r="AJ167" s="182"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -12950,14 +12950,14 @@
       <c r="AB168" s="169"/>
       <c r="AC168" s="169"/>
       <c r="AD168" s="170"/>
-      <c r="AE168" s="210" t="s">
+      <c r="AE168" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="AF168" s="211"/>
-      <c r="AG168" s="211"/>
-      <c r="AH168" s="211"/>
-      <c r="AI168" s="211"/>
-      <c r="AJ168" s="212"/>
+      <c r="AF168" s="181"/>
+      <c r="AG168" s="181"/>
+      <c r="AH168" s="181"/>
+      <c r="AI168" s="181"/>
+      <c r="AJ168" s="182"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -12997,14 +12997,14 @@
       <c r="AB169" s="169"/>
       <c r="AC169" s="169"/>
       <c r="AD169" s="170"/>
-      <c r="AE169" s="210" t="s">
+      <c r="AE169" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF169" s="211"/>
-      <c r="AG169" s="211"/>
-      <c r="AH169" s="211"/>
-      <c r="AI169" s="211"/>
-      <c r="AJ169" s="212"/>
+      <c r="AF169" s="181"/>
+      <c r="AG169" s="181"/>
+      <c r="AH169" s="181"/>
+      <c r="AI169" s="181"/>
+      <c r="AJ169" s="182"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13134,14 +13134,14 @@
       <c r="AB172" s="169"/>
       <c r="AC172" s="169"/>
       <c r="AD172" s="170"/>
-      <c r="AE172" s="210" t="s">
+      <c r="AE172" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF172" s="211"/>
-      <c r="AG172" s="211"/>
-      <c r="AH172" s="211"/>
-      <c r="AI172" s="211"/>
-      <c r="AJ172" s="212"/>
+      <c r="AF172" s="181"/>
+      <c r="AG172" s="181"/>
+      <c r="AH172" s="181"/>
+      <c r="AI172" s="181"/>
+      <c r="AJ172" s="182"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13218,22 +13218,22 @@
       <c r="V174" s="169"/>
       <c r="W174" s="169"/>
       <c r="X174" s="170"/>
-      <c r="Y174" s="168" t="s">
+      <c r="Y174" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="Z174" s="169"/>
-      <c r="AA174" s="169"/>
-      <c r="AB174" s="169"/>
-      <c r="AC174" s="169"/>
-      <c r="AD174" s="170"/>
-      <c r="AE174" s="210" t="s">
+      <c r="Z174" s="181"/>
+      <c r="AA174" s="181"/>
+      <c r="AB174" s="181"/>
+      <c r="AC174" s="181"/>
+      <c r="AD174" s="182"/>
+      <c r="AE174" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF174" s="211"/>
-      <c r="AG174" s="211"/>
-      <c r="AH174" s="211"/>
-      <c r="AI174" s="211"/>
-      <c r="AJ174" s="212"/>
+      <c r="AF174" s="181"/>
+      <c r="AG174" s="181"/>
+      <c r="AH174" s="181"/>
+      <c r="AI174" s="181"/>
+      <c r="AJ174" s="182"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13271,14 +13271,14 @@
       <c r="AB175" s="169"/>
       <c r="AC175" s="169"/>
       <c r="AD175" s="170"/>
-      <c r="AE175" s="210" t="s">
+      <c r="AE175" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="AF175" s="211"/>
-      <c r="AG175" s="211"/>
-      <c r="AH175" s="211"/>
-      <c r="AI175" s="211"/>
-      <c r="AJ175" s="212"/>
+      <c r="AF175" s="181"/>
+      <c r="AG175" s="181"/>
+      <c r="AH175" s="181"/>
+      <c r="AI175" s="181"/>
+      <c r="AJ175" s="182"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13316,14 +13316,14 @@
       <c r="AB176" s="169"/>
       <c r="AC176" s="169"/>
       <c r="AD176" s="170"/>
-      <c r="AE176" s="210" t="s">
+      <c r="AE176" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="AF176" s="211"/>
-      <c r="AG176" s="211"/>
-      <c r="AH176" s="211"/>
-      <c r="AI176" s="211"/>
-      <c r="AJ176" s="212"/>
+      <c r="AF176" s="181"/>
+      <c r="AG176" s="181"/>
+      <c r="AH176" s="181"/>
+      <c r="AI176" s="181"/>
+      <c r="AJ176" s="182"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13361,14 +13361,14 @@
       <c r="AB177" s="169"/>
       <c r="AC177" s="169"/>
       <c r="AD177" s="170"/>
-      <c r="AE177" s="210" t="s">
+      <c r="AE177" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="211"/>
-      <c r="AG177" s="211"/>
-      <c r="AH177" s="211"/>
-      <c r="AI177" s="211"/>
-      <c r="AJ177" s="212"/>
+      <c r="AF177" s="181"/>
+      <c r="AG177" s="181"/>
+      <c r="AH177" s="181"/>
+      <c r="AI177" s="181"/>
+      <c r="AJ177" s="182"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13496,14 +13496,14 @@
       <c r="AB180" s="169"/>
       <c r="AC180" s="169"/>
       <c r="AD180" s="170"/>
-      <c r="AE180" s="210" t="s">
+      <c r="AE180" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="211"/>
-      <c r="AG180" s="211"/>
-      <c r="AH180" s="211"/>
-      <c r="AI180" s="211"/>
-      <c r="AJ180" s="212"/>
+      <c r="AF180" s="181"/>
+      <c r="AG180" s="181"/>
+      <c r="AH180" s="181"/>
+      <c r="AI180" s="181"/>
+      <c r="AJ180" s="182"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13660,30 +13660,30 @@
       <c r="P184" s="166"/>
       <c r="Q184" s="166"/>
       <c r="R184" s="167"/>
-      <c r="S184" s="217" t="s">
+      <c r="S184" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="218"/>
-      <c r="U184" s="218"/>
-      <c r="V184" s="218"/>
-      <c r="W184" s="218"/>
-      <c r="X184" s="219"/>
-      <c r="Y184" s="217" t="s">
+      <c r="T184" s="184"/>
+      <c r="U184" s="184"/>
+      <c r="V184" s="184"/>
+      <c r="W184" s="184"/>
+      <c r="X184" s="185"/>
+      <c r="Y184" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="218"/>
-      <c r="AA184" s="218"/>
-      <c r="AB184" s="218"/>
-      <c r="AC184" s="218"/>
-      <c r="AD184" s="219"/>
-      <c r="AE184" s="217" t="s">
+      <c r="Z184" s="184"/>
+      <c r="AA184" s="184"/>
+      <c r="AB184" s="184"/>
+      <c r="AC184" s="184"/>
+      <c r="AD184" s="185"/>
+      <c r="AE184" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="218"/>
-      <c r="AG184" s="218"/>
-      <c r="AH184" s="218"/>
-      <c r="AI184" s="218"/>
-      <c r="AJ184" s="219"/>
+      <c r="AF184" s="184"/>
+      <c r="AG184" s="184"/>
+      <c r="AH184" s="184"/>
+      <c r="AI184" s="184"/>
+      <c r="AJ184" s="185"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -15713,17 +15713,17 @@
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="177" t="s">
+      <c r="AD235" s="193" t="s">
         <v>241</v>
       </c>
-      <c r="AE235" s="178"/>
-      <c r="AF235" s="178"/>
-      <c r="AG235" s="178"/>
-      <c r="AH235" s="178"/>
-      <c r="AI235" s="178"/>
-      <c r="AJ235" s="178"/>
-      <c r="AK235" s="178"/>
-      <c r="AL235" s="179"/>
+      <c r="AE235" s="194"/>
+      <c r="AF235" s="194"/>
+      <c r="AG235" s="194"/>
+      <c r="AH235" s="194"/>
+      <c r="AI235" s="194"/>
+      <c r="AJ235" s="194"/>
+      <c r="AK235" s="194"/>
+      <c r="AL235" s="195"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -15815,21 +15815,21 @@
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="180" t="s">
+      <c r="AD237" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="181"/>
-      <c r="AF237" s="181"/>
-      <c r="AG237" s="182"/>
-      <c r="AH237" s="180" t="s">
+      <c r="AE237" s="217"/>
+      <c r="AF237" s="217"/>
+      <c r="AG237" s="212"/>
+      <c r="AH237" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="182"/>
-      <c r="AJ237" s="180" t="s">
+      <c r="AI237" s="212"/>
+      <c r="AJ237" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="181"/>
-      <c r="AL237" s="182"/>
+      <c r="AK237" s="217"/>
+      <c r="AL237" s="212"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -15867,15 +15867,15 @@
       <c r="AA238" s="99"/>
       <c r="AB238" s="99"/>
       <c r="AC238" s="103"/>
-      <c r="AD238" s="183"/>
-      <c r="AE238" s="184"/>
-      <c r="AF238" s="184"/>
-      <c r="AG238" s="185"/>
-      <c r="AH238" s="183"/>
-      <c r="AI238" s="185"/>
-      <c r="AJ238" s="183"/>
-      <c r="AK238" s="184"/>
-      <c r="AL238" s="185"/>
+      <c r="AD238" s="213"/>
+      <c r="AE238" s="218"/>
+      <c r="AF238" s="218"/>
+      <c r="AG238" s="214"/>
+      <c r="AH238" s="213"/>
+      <c r="AI238" s="214"/>
+      <c r="AJ238" s="213"/>
+      <c r="AK238" s="218"/>
+      <c r="AL238" s="214"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -15915,21 +15915,21 @@
       <c r="AA239" s="98"/>
       <c r="AB239" s="98"/>
       <c r="AC239" s="102"/>
-      <c r="AD239" s="180" t="s">
+      <c r="AD239" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AE239" s="181"/>
-      <c r="AF239" s="181"/>
-      <c r="AG239" s="182"/>
-      <c r="AH239" s="180" t="s">
+      <c r="AE239" s="217"/>
+      <c r="AF239" s="217"/>
+      <c r="AG239" s="212"/>
+      <c r="AH239" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AI239" s="182"/>
-      <c r="AJ239" s="180" t="s">
+      <c r="AI239" s="212"/>
+      <c r="AJ239" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="AK239" s="181"/>
-      <c r="AL239" s="182"/>
+      <c r="AK239" s="217"/>
+      <c r="AL239" s="212"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -15969,21 +15969,21 @@
       <c r="AA240" s="105"/>
       <c r="AB240" s="105"/>
       <c r="AC240" s="116"/>
-      <c r="AD240" s="174" t="s">
+      <c r="AD240" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="AE240" s="175"/>
-      <c r="AF240" s="175"/>
-      <c r="AG240" s="176"/>
-      <c r="AH240" s="174" t="s">
+      <c r="AE240" s="219"/>
+      <c r="AF240" s="219"/>
+      <c r="AG240" s="216"/>
+      <c r="AH240" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="AI240" s="176"/>
-      <c r="AJ240" s="174" t="s">
+      <c r="AI240" s="216"/>
+      <c r="AJ240" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="AK240" s="175"/>
-      <c r="AL240" s="176"/>
+      <c r="AK240" s="219"/>
+      <c r="AL240" s="216"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16025,21 +16025,21 @@
       <c r="AA241" s="105"/>
       <c r="AB241" s="105"/>
       <c r="AC241" s="116"/>
-      <c r="AD241" s="174" t="s">
+      <c r="AD241" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="175"/>
-      <c r="AF241" s="175"/>
-      <c r="AG241" s="176"/>
-      <c r="AH241" s="174" t="s">
+      <c r="AE241" s="219"/>
+      <c r="AF241" s="219"/>
+      <c r="AG241" s="216"/>
+      <c r="AH241" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="176"/>
-      <c r="AJ241" s="174" t="s">
+      <c r="AI241" s="216"/>
+      <c r="AJ241" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AK241" s="175"/>
-      <c r="AL241" s="176"/>
+      <c r="AK241" s="219"/>
+      <c r="AL241" s="216"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16079,21 +16079,21 @@
       <c r="AA242" s="105"/>
       <c r="AB242" s="105"/>
       <c r="AC242" s="116"/>
-      <c r="AD242" s="174" t="s">
+      <c r="AD242" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AE242" s="175"/>
-      <c r="AF242" s="175"/>
-      <c r="AG242" s="176"/>
-      <c r="AH242" s="174" t="s">
+      <c r="AE242" s="219"/>
+      <c r="AF242" s="219"/>
+      <c r="AG242" s="216"/>
+      <c r="AH242" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AI242" s="176"/>
-      <c r="AJ242" s="174" t="s">
+      <c r="AI242" s="216"/>
+      <c r="AJ242" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="AK242" s="175"/>
-      <c r="AL242" s="176"/>
+      <c r="AK242" s="219"/>
+      <c r="AL242" s="216"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16133,21 +16133,21 @@
       <c r="AA243" s="105"/>
       <c r="AB243" s="105"/>
       <c r="AC243" s="116"/>
-      <c r="AD243" s="189" t="s">
+      <c r="AD243" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="AE243" s="190"/>
-      <c r="AF243" s="190"/>
-      <c r="AG243" s="191"/>
-      <c r="AH243" s="189" t="s">
+      <c r="AE243" s="221"/>
+      <c r="AF243" s="221"/>
+      <c r="AG243" s="222"/>
+      <c r="AH243" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="AI243" s="191"/>
-      <c r="AJ243" s="174" t="s">
+      <c r="AI243" s="222"/>
+      <c r="AJ243" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AK243" s="175"/>
-      <c r="AL243" s="176"/>
+      <c r="AK243" s="219"/>
+      <c r="AL243" s="216"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16805,6 +16805,203 @@
     </row>
   </sheetData>
   <mergeCells count="221">
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="AJ243:AL243"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="AD237:AG237"/>
+    <mergeCell ref="AD238:AG238"/>
+    <mergeCell ref="AD239:AG239"/>
+    <mergeCell ref="AD240:AG240"/>
+    <mergeCell ref="AD241:AG241"/>
+    <mergeCell ref="AD242:AG242"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="S156:X156"/>
+    <mergeCell ref="S157:X157"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="AD244:AG244"/>
+    <mergeCell ref="AH237:AI237"/>
+    <mergeCell ref="AH238:AI238"/>
+    <mergeCell ref="AH239:AI239"/>
+    <mergeCell ref="AH240:AI240"/>
+    <mergeCell ref="AH241:AI241"/>
+    <mergeCell ref="AH242:AI242"/>
+    <mergeCell ref="AH244:AI244"/>
+    <mergeCell ref="AJ237:AL237"/>
+    <mergeCell ref="AJ238:AL238"/>
+    <mergeCell ref="AJ239:AL239"/>
+    <mergeCell ref="AJ240:AL240"/>
+    <mergeCell ref="AJ241:AL241"/>
+    <mergeCell ref="AJ242:AL242"/>
+    <mergeCell ref="AJ244:AL244"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AH243:AI243"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="S131:X131"/>
+    <mergeCell ref="S132:X132"/>
+    <mergeCell ref="S134:X134"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="Y129:AD129"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="AE155:AJ155"/>
+    <mergeCell ref="S158:X158"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="S184:X184"/>
+    <mergeCell ref="Y184:AD184"/>
+    <mergeCell ref="AE184:AJ184"/>
+    <mergeCell ref="AE181:AJ181"/>
+    <mergeCell ref="Y181:AD181"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="S182:X182"/>
+    <mergeCell ref="S181:X181"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="Y130:AD130"/>
+    <mergeCell ref="Y131:AD131"/>
+    <mergeCell ref="Y132:AD132"/>
+    <mergeCell ref="Y134:AD134"/>
+    <mergeCell ref="Y135:AD135"/>
+    <mergeCell ref="Y136:AD136"/>
+    <mergeCell ref="Y145:AD145"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="Y133:AD133"/>
+    <mergeCell ref="Y138:AD138"/>
+    <mergeCell ref="Y139:AD139"/>
+    <mergeCell ref="Y140:AD140"/>
+    <mergeCell ref="Y141:AD141"/>
+    <mergeCell ref="Y142:AD142"/>
+    <mergeCell ref="Y143:AD143"/>
+    <mergeCell ref="Y144:AD144"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S142:X142"/>
     <mergeCell ref="Y170:AD170"/>
     <mergeCell ref="S171:X171"/>
     <mergeCell ref="S183:X183"/>
@@ -16829,203 +17026,6 @@
     <mergeCell ref="AE171:AJ171"/>
     <mergeCell ref="AE172:AJ172"/>
     <mergeCell ref="S169:X169"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="Y130:AD130"/>
-    <mergeCell ref="Y131:AD131"/>
-    <mergeCell ref="Y132:AD132"/>
-    <mergeCell ref="Y134:AD134"/>
-    <mergeCell ref="Y135:AD135"/>
-    <mergeCell ref="Y136:AD136"/>
-    <mergeCell ref="Y145:AD145"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="Y133:AD133"/>
-    <mergeCell ref="Y138:AD138"/>
-    <mergeCell ref="Y139:AD139"/>
-    <mergeCell ref="Y140:AD140"/>
-    <mergeCell ref="Y141:AD141"/>
-    <mergeCell ref="Y142:AD142"/>
-    <mergeCell ref="Y143:AD143"/>
-    <mergeCell ref="Y144:AD144"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="S182:X182"/>
-    <mergeCell ref="S181:X181"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="Y148:AD148"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="S184:X184"/>
-    <mergeCell ref="Y184:AD184"/>
-    <mergeCell ref="AE184:AJ184"/>
-    <mergeCell ref="AE181:AJ181"/>
-    <mergeCell ref="Y181:AD181"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="S158:X158"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="Y129:AD129"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="S131:X131"/>
-    <mergeCell ref="S132:X132"/>
-    <mergeCell ref="S134:X134"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="AD244:AG244"/>
-    <mergeCell ref="AH237:AI237"/>
-    <mergeCell ref="AH238:AI238"/>
-    <mergeCell ref="AH239:AI239"/>
-    <mergeCell ref="AH240:AI240"/>
-    <mergeCell ref="AH241:AI241"/>
-    <mergeCell ref="AH242:AI242"/>
-    <mergeCell ref="AH244:AI244"/>
-    <mergeCell ref="AJ237:AL237"/>
-    <mergeCell ref="AJ238:AL238"/>
-    <mergeCell ref="AJ239:AL239"/>
-    <mergeCell ref="AJ240:AL240"/>
-    <mergeCell ref="AJ241:AL241"/>
-    <mergeCell ref="AJ242:AL242"/>
-    <mergeCell ref="AJ244:AL244"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AH243:AI243"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="AJ243:AL243"/>
-    <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="AD237:AG237"/>
-    <mergeCell ref="AD238:AG238"/>
-    <mergeCell ref="AD239:AG239"/>
-    <mergeCell ref="AD240:AG240"/>
-    <mergeCell ref="AD241:AG241"/>
-    <mergeCell ref="AD242:AG242"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="S156:X156"/>
-    <mergeCell ref="S157:X157"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE173:AJ173"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="274">
   <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
@@ -2828,13 +2828,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　OKR削除）</t>
-    <rPh sb="4" eb="6">
-      <t>サク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自ユーザ権限変更</t>
     <rPh sb="0" eb="1">
       <t>ジ</t>
@@ -2882,6 +2875,20 @@
   </si>
   <si>
     <t>（画像変更含む）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　OKR削除、</t>
+    <rPh sb="4" eb="6">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　進捗登録）</t>
+    <rPh sb="1" eb="5">
+      <t>シンチョk</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2956,7 +2963,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2990,6 +2997,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4198,7 +4211,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4393,22 +4406,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4420,15 +4451,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4438,25 +4460,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4486,40 +4496,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6323,7 +6345,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" s="71"/>
     </row>
@@ -6851,15 +6873,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="201"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>73</v>
@@ -6870,53 +6892,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="208" t="s">
+      <c r="P1" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
-      <c r="X1" s="209"/>
-      <c r="Y1" s="209"/>
-      <c r="Z1" s="210"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
       <c r="AA1" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="205">
+      <c r="AD1" s="204">
         <v>42760</v>
       </c>
-      <c r="AE1" s="206"/>
-      <c r="AF1" s="206"/>
-      <c r="AG1" s="206"/>
-      <c r="AH1" s="207"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
+      <c r="AH1" s="206"/>
       <c r="AI1" s="44" t="s">
         <v>70</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="196" t="s">
+      <c r="AL1" s="195" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
-      <c r="AP1" s="198"/>
+      <c r="AM1" s="196"/>
+      <c r="AN1" s="196"/>
+      <c r="AO1" s="196"/>
+      <c r="AP1" s="197"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="202"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="204"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="203"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>74</v>
@@ -6927,41 +6949,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
       <c r="AA2" s="44" t="s">
         <v>69</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="205">
+      <c r="AD2" s="204">
         <v>42978</v>
       </c>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="207"/>
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="205"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="206"/>
       <c r="AI2" s="44" t="s">
         <v>71</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="196" t="s">
+      <c r="AL2" s="195" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="198"/>
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="196"/>
+      <c r="AO2" s="196"/>
+      <c r="AP2" s="197"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7499,27 +7521,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="186" t="s">
+      <c r="L19" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="187"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="187"/>
-      <c r="AD19" s="188"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="190"/>
+      <c r="S19" s="190"/>
+      <c r="T19" s="190"/>
+      <c r="U19" s="190"/>
+      <c r="V19" s="190"/>
+      <c r="W19" s="190"/>
+      <c r="X19" s="190"/>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="190"/>
+      <c r="AA19" s="190"/>
+      <c r="AB19" s="190"/>
+      <c r="AC19" s="190"/>
+      <c r="AD19" s="191"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7535,27 +7557,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="186" t="s">
+      <c r="L20" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="187"/>
-      <c r="Q20" s="187"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="187"/>
-      <c r="Z20" s="187"/>
-      <c r="AA20" s="187"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="187"/>
-      <c r="AD20" s="188"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="190"/>
+      <c r="S20" s="190"/>
+      <c r="T20" s="190"/>
+      <c r="U20" s="190"/>
+      <c r="V20" s="190"/>
+      <c r="W20" s="190"/>
+      <c r="X20" s="190"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="190"/>
+      <c r="AA20" s="190"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="191"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7571,27 +7593,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="186" t="s">
+      <c r="L21" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="187"/>
-      <c r="Q21" s="187"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="187"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="187"/>
-      <c r="X21" s="187"/>
-      <c r="Y21" s="187"/>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="187"/>
-      <c r="AD21" s="188"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="190"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="190"/>
+      <c r="W21" s="190"/>
+      <c r="X21" s="190"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="190"/>
+      <c r="AA21" s="190"/>
+      <c r="AB21" s="190"/>
+      <c r="AC21" s="190"/>
+      <c r="AD21" s="191"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -8045,27 +8067,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="193" t="s">
+      <c r="L40" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="194"/>
-      <c r="N40" s="194"/>
-      <c r="O40" s="194"/>
-      <c r="P40" s="194"/>
-      <c r="Q40" s="194"/>
-      <c r="R40" s="194"/>
-      <c r="S40" s="194"/>
-      <c r="T40" s="194"/>
-      <c r="U40" s="194"/>
-      <c r="V40" s="194"/>
-      <c r="W40" s="194"/>
-      <c r="X40" s="194"/>
-      <c r="Y40" s="194"/>
-      <c r="Z40" s="194"/>
-      <c r="AA40" s="194"/>
-      <c r="AB40" s="194"/>
-      <c r="AC40" s="194"/>
-      <c r="AD40" s="195"/>
+      <c r="M40" s="178"/>
+      <c r="N40" s="178"/>
+      <c r="O40" s="178"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="178"/>
+      <c r="S40" s="178"/>
+      <c r="T40" s="178"/>
+      <c r="U40" s="178"/>
+      <c r="V40" s="178"/>
+      <c r="W40" s="178"/>
+      <c r="X40" s="178"/>
+      <c r="Y40" s="178"/>
+      <c r="Z40" s="178"/>
+      <c r="AA40" s="178"/>
+      <c r="AB40" s="178"/>
+      <c r="AC40" s="178"/>
+      <c r="AD40" s="179"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8081,27 +8103,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="186" t="s">
+      <c r="L41" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="187"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="187"/>
-      <c r="S41" s="187"/>
-      <c r="T41" s="187"/>
-      <c r="U41" s="187"/>
-      <c r="V41" s="187"/>
-      <c r="W41" s="187"/>
-      <c r="X41" s="187"/>
-      <c r="Y41" s="187"/>
-      <c r="Z41" s="187"/>
-      <c r="AA41" s="187"/>
-      <c r="AB41" s="187"/>
-      <c r="AC41" s="187"/>
-      <c r="AD41" s="188"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="190"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="190"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="190"/>
+      <c r="S41" s="190"/>
+      <c r="T41" s="190"/>
+      <c r="U41" s="190"/>
+      <c r="V41" s="190"/>
+      <c r="W41" s="190"/>
+      <c r="X41" s="190"/>
+      <c r="Y41" s="190"/>
+      <c r="Z41" s="190"/>
+      <c r="AA41" s="190"/>
+      <c r="AB41" s="190"/>
+      <c r="AC41" s="190"/>
+      <c r="AD41" s="191"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8117,27 +8139,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="186" t="s">
+      <c r="L42" s="189" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="187"/>
-      <c r="N42" s="187"/>
-      <c r="O42" s="187"/>
-      <c r="P42" s="187"/>
-      <c r="Q42" s="187"/>
-      <c r="R42" s="187"/>
-      <c r="S42" s="187"/>
-      <c r="T42" s="187"/>
-      <c r="U42" s="187"/>
-      <c r="V42" s="187"/>
-      <c r="W42" s="187"/>
-      <c r="X42" s="187"/>
-      <c r="Y42" s="187"/>
-      <c r="Z42" s="187"/>
-      <c r="AA42" s="187"/>
-      <c r="AB42" s="187"/>
-      <c r="AC42" s="187"/>
-      <c r="AD42" s="188"/>
+      <c r="M42" s="190"/>
+      <c r="N42" s="190"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="190"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="190"/>
+      <c r="S42" s="190"/>
+      <c r="T42" s="190"/>
+      <c r="U42" s="190"/>
+      <c r="V42" s="190"/>
+      <c r="W42" s="190"/>
+      <c r="X42" s="190"/>
+      <c r="Y42" s="190"/>
+      <c r="Z42" s="190"/>
+      <c r="AA42" s="190"/>
+      <c r="AB42" s="190"/>
+      <c r="AC42" s="190"/>
+      <c r="AD42" s="191"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8153,27 +8175,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="186" t="s">
+      <c r="L43" s="189" t="s">
         <v>191</v>
       </c>
-      <c r="M43" s="187"/>
-      <c r="N43" s="187"/>
-      <c r="O43" s="187"/>
-      <c r="P43" s="187"/>
-      <c r="Q43" s="187"/>
-      <c r="R43" s="187"/>
-      <c r="S43" s="187"/>
-      <c r="T43" s="187"/>
-      <c r="U43" s="187"/>
-      <c r="V43" s="187"/>
-      <c r="W43" s="187"/>
-      <c r="X43" s="187"/>
-      <c r="Y43" s="187"/>
-      <c r="Z43" s="187"/>
-      <c r="AA43" s="187"/>
-      <c r="AB43" s="187"/>
-      <c r="AC43" s="187"/>
-      <c r="AD43" s="188"/>
+      <c r="M43" s="190"/>
+      <c r="N43" s="190"/>
+      <c r="O43" s="190"/>
+      <c r="P43" s="190"/>
+      <c r="Q43" s="190"/>
+      <c r="R43" s="190"/>
+      <c r="S43" s="190"/>
+      <c r="T43" s="190"/>
+      <c r="U43" s="190"/>
+      <c r="V43" s="190"/>
+      <c r="W43" s="190"/>
+      <c r="X43" s="190"/>
+      <c r="Y43" s="190"/>
+      <c r="Z43" s="190"/>
+      <c r="AA43" s="190"/>
+      <c r="AB43" s="190"/>
+      <c r="AC43" s="190"/>
+      <c r="AD43" s="191"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8189,27 +8211,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="186" t="s">
+      <c r="L44" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="187"/>
-      <c r="N44" s="187"/>
-      <c r="O44" s="187"/>
-      <c r="P44" s="187"/>
-      <c r="Q44" s="187"/>
-      <c r="R44" s="187"/>
-      <c r="S44" s="187"/>
-      <c r="T44" s="187"/>
-      <c r="U44" s="187"/>
-      <c r="V44" s="187"/>
-      <c r="W44" s="187"/>
-      <c r="X44" s="187"/>
-      <c r="Y44" s="187"/>
-      <c r="Z44" s="187"/>
-      <c r="AA44" s="187"/>
-      <c r="AB44" s="187"/>
-      <c r="AC44" s="187"/>
-      <c r="AD44" s="188"/>
+      <c r="M44" s="190"/>
+      <c r="N44" s="190"/>
+      <c r="O44" s="190"/>
+      <c r="P44" s="190"/>
+      <c r="Q44" s="190"/>
+      <c r="R44" s="190"/>
+      <c r="S44" s="190"/>
+      <c r="T44" s="190"/>
+      <c r="U44" s="190"/>
+      <c r="V44" s="190"/>
+      <c r="W44" s="190"/>
+      <c r="X44" s="190"/>
+      <c r="Y44" s="190"/>
+      <c r="Z44" s="190"/>
+      <c r="AA44" s="190"/>
+      <c r="AB44" s="190"/>
+      <c r="AC44" s="190"/>
+      <c r="AD44" s="191"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8225,27 +8247,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="186" t="s">
+      <c r="L45" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="M45" s="187"/>
-      <c r="N45" s="187"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="187"/>
-      <c r="Q45" s="187"/>
-      <c r="R45" s="187"/>
-      <c r="S45" s="187"/>
-      <c r="T45" s="187"/>
-      <c r="U45" s="187"/>
-      <c r="V45" s="187"/>
-      <c r="W45" s="187"/>
-      <c r="X45" s="187"/>
-      <c r="Y45" s="187"/>
-      <c r="Z45" s="187"/>
-      <c r="AA45" s="187"/>
-      <c r="AB45" s="187"/>
-      <c r="AC45" s="187"/>
-      <c r="AD45" s="188"/>
+      <c r="M45" s="190"/>
+      <c r="N45" s="190"/>
+      <c r="O45" s="190"/>
+      <c r="P45" s="190"/>
+      <c r="Q45" s="190"/>
+      <c r="R45" s="190"/>
+      <c r="S45" s="190"/>
+      <c r="T45" s="190"/>
+      <c r="U45" s="190"/>
+      <c r="V45" s="190"/>
+      <c r="W45" s="190"/>
+      <c r="X45" s="190"/>
+      <c r="Y45" s="190"/>
+      <c r="Z45" s="190"/>
+      <c r="AA45" s="190"/>
+      <c r="AB45" s="190"/>
+      <c r="AC45" s="190"/>
+      <c r="AD45" s="191"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8320,27 +8342,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="193" t="s">
+      <c r="L48" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="194"/>
-      <c r="N48" s="194"/>
-      <c r="O48" s="194"/>
-      <c r="P48" s="194"/>
-      <c r="Q48" s="194"/>
-      <c r="R48" s="194"/>
-      <c r="S48" s="194"/>
-      <c r="T48" s="194"/>
-      <c r="U48" s="194"/>
-      <c r="V48" s="194"/>
-      <c r="W48" s="194"/>
-      <c r="X48" s="194"/>
-      <c r="Y48" s="194"/>
-      <c r="Z48" s="194"/>
-      <c r="AA48" s="194"/>
-      <c r="AB48" s="194"/>
-      <c r="AC48" s="194"/>
-      <c r="AD48" s="195"/>
+      <c r="M48" s="178"/>
+      <c r="N48" s="178"/>
+      <c r="O48" s="178"/>
+      <c r="P48" s="178"/>
+      <c r="Q48" s="178"/>
+      <c r="R48" s="178"/>
+      <c r="S48" s="178"/>
+      <c r="T48" s="178"/>
+      <c r="U48" s="178"/>
+      <c r="V48" s="178"/>
+      <c r="W48" s="178"/>
+      <c r="X48" s="178"/>
+      <c r="Y48" s="178"/>
+      <c r="Z48" s="178"/>
+      <c r="AA48" s="178"/>
+      <c r="AB48" s="178"/>
+      <c r="AC48" s="178"/>
+      <c r="AD48" s="179"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8354,27 +8376,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="186" t="s">
+      <c r="L49" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="187"/>
-      <c r="N49" s="187"/>
-      <c r="O49" s="187"/>
-      <c r="P49" s="187"/>
-      <c r="Q49" s="187"/>
-      <c r="R49" s="187"/>
-      <c r="S49" s="187"/>
-      <c r="T49" s="187"/>
-      <c r="U49" s="187"/>
-      <c r="V49" s="187"/>
-      <c r="W49" s="187"/>
-      <c r="X49" s="187"/>
-      <c r="Y49" s="187"/>
-      <c r="Z49" s="187"/>
-      <c r="AA49" s="187"/>
-      <c r="AB49" s="187"/>
-      <c r="AC49" s="187"/>
-      <c r="AD49" s="188"/>
+      <c r="M49" s="190"/>
+      <c r="N49" s="190"/>
+      <c r="O49" s="190"/>
+      <c r="P49" s="190"/>
+      <c r="Q49" s="190"/>
+      <c r="R49" s="190"/>
+      <c r="S49" s="190"/>
+      <c r="T49" s="190"/>
+      <c r="U49" s="190"/>
+      <c r="V49" s="190"/>
+      <c r="W49" s="190"/>
+      <c r="X49" s="190"/>
+      <c r="Y49" s="190"/>
+      <c r="Z49" s="190"/>
+      <c r="AA49" s="190"/>
+      <c r="AB49" s="190"/>
+      <c r="AC49" s="190"/>
+      <c r="AD49" s="191"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8388,27 +8410,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="186" t="s">
+      <c r="L50" s="189" t="s">
         <v>191</v>
       </c>
-      <c r="M50" s="187"/>
-      <c r="N50" s="187"/>
-      <c r="O50" s="187"/>
-      <c r="P50" s="187"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="187"/>
-      <c r="S50" s="187"/>
-      <c r="T50" s="187"/>
-      <c r="U50" s="187"/>
-      <c r="V50" s="187"/>
-      <c r="W50" s="187"/>
-      <c r="X50" s="187"/>
-      <c r="Y50" s="187"/>
-      <c r="Z50" s="187"/>
-      <c r="AA50" s="187"/>
-      <c r="AB50" s="187"/>
-      <c r="AC50" s="187"/>
-      <c r="AD50" s="188"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="190"/>
+      <c r="O50" s="190"/>
+      <c r="P50" s="190"/>
+      <c r="Q50" s="190"/>
+      <c r="R50" s="190"/>
+      <c r="S50" s="190"/>
+      <c r="T50" s="190"/>
+      <c r="U50" s="190"/>
+      <c r="V50" s="190"/>
+      <c r="W50" s="190"/>
+      <c r="X50" s="190"/>
+      <c r="Y50" s="190"/>
+      <c r="Z50" s="190"/>
+      <c r="AA50" s="190"/>
+      <c r="AB50" s="190"/>
+      <c r="AC50" s="190"/>
+      <c r="AD50" s="191"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11011,30 +11033,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="193" t="s">
+      <c r="S125" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="194"/>
-      <c r="U125" s="194"/>
-      <c r="V125" s="194"/>
-      <c r="W125" s="194"/>
-      <c r="X125" s="195"/>
-      <c r="Y125" s="193" t="s">
+      <c r="T125" s="178"/>
+      <c r="U125" s="178"/>
+      <c r="V125" s="178"/>
+      <c r="W125" s="178"/>
+      <c r="X125" s="179"/>
+      <c r="Y125" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="194"/>
-      <c r="AA125" s="194"/>
-      <c r="AB125" s="194"/>
-      <c r="AC125" s="194"/>
-      <c r="AD125" s="195"/>
-      <c r="AE125" s="193" t="s">
+      <c r="Z125" s="178"/>
+      <c r="AA125" s="178"/>
+      <c r="AB125" s="178"/>
+      <c r="AC125" s="178"/>
+      <c r="AD125" s="179"/>
+      <c r="AE125" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="194"/>
-      <c r="AG125" s="194"/>
-      <c r="AH125" s="194"/>
-      <c r="AI125" s="194"/>
-      <c r="AJ125" s="195"/>
+      <c r="AF125" s="178"/>
+      <c r="AG125" s="178"/>
+      <c r="AH125" s="178"/>
+      <c r="AI125" s="178"/>
+      <c r="AJ125" s="179"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11056,30 +11078,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="186" t="s">
+      <c r="S126" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="187"/>
-      <c r="U126" s="187"/>
-      <c r="V126" s="187"/>
-      <c r="W126" s="187"/>
-      <c r="X126" s="188"/>
-      <c r="Y126" s="186" t="s">
+      <c r="T126" s="190"/>
+      <c r="U126" s="190"/>
+      <c r="V126" s="190"/>
+      <c r="W126" s="190"/>
+      <c r="X126" s="191"/>
+      <c r="Y126" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="187"/>
-      <c r="AA126" s="187"/>
-      <c r="AB126" s="187"/>
-      <c r="AC126" s="187"/>
-      <c r="AD126" s="188"/>
-      <c r="AE126" s="186" t="s">
+      <c r="Z126" s="190"/>
+      <c r="AA126" s="190"/>
+      <c r="AB126" s="190"/>
+      <c r="AC126" s="190"/>
+      <c r="AD126" s="191"/>
+      <c r="AE126" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="187"/>
-      <c r="AG126" s="187"/>
-      <c r="AH126" s="187"/>
-      <c r="AI126" s="187"/>
-      <c r="AJ126" s="188"/>
+      <c r="AF126" s="190"/>
+      <c r="AG126" s="190"/>
+      <c r="AH126" s="190"/>
+      <c r="AI126" s="190"/>
+      <c r="AJ126" s="191"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11140,30 +11162,30 @@
       <c r="P128" s="142"/>
       <c r="Q128" s="142"/>
       <c r="R128" s="143"/>
-      <c r="S128" s="189" t="s">
+      <c r="S128" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="190"/>
-      <c r="U128" s="190"/>
-      <c r="V128" s="190"/>
-      <c r="W128" s="190"/>
-      <c r="X128" s="191"/>
-      <c r="Y128" s="189" t="s">
+      <c r="T128" s="214"/>
+      <c r="U128" s="214"/>
+      <c r="V128" s="214"/>
+      <c r="W128" s="214"/>
+      <c r="X128" s="215"/>
+      <c r="Y128" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="190"/>
-      <c r="AA128" s="190"/>
-      <c r="AB128" s="190"/>
-      <c r="AC128" s="190"/>
-      <c r="AD128" s="191"/>
-      <c r="AE128" s="189" t="s">
+      <c r="Z128" s="214"/>
+      <c r="AA128" s="214"/>
+      <c r="AB128" s="214"/>
+      <c r="AC128" s="214"/>
+      <c r="AD128" s="215"/>
+      <c r="AE128" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="190"/>
-      <c r="AG128" s="190"/>
-      <c r="AH128" s="190"/>
-      <c r="AI128" s="190"/>
-      <c r="AJ128" s="191"/>
+      <c r="AF128" s="214"/>
+      <c r="AG128" s="214"/>
+      <c r="AH128" s="214"/>
+      <c r="AI128" s="214"/>
+      <c r="AJ128" s="215"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11185,30 +11207,30 @@
       <c r="P129" s="139"/>
       <c r="Q129" s="139"/>
       <c r="R129" s="144"/>
-      <c r="S129" s="192" t="s">
+      <c r="S129" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="192"/>
-      <c r="U129" s="192"/>
-      <c r="V129" s="192"/>
-      <c r="W129" s="192"/>
-      <c r="X129" s="192"/>
-      <c r="Y129" s="192" t="s">
+      <c r="T129" s="216"/>
+      <c r="U129" s="216"/>
+      <c r="V129" s="216"/>
+      <c r="W129" s="216"/>
+      <c r="X129" s="216"/>
+      <c r="Y129" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="192"/>
-      <c r="AA129" s="192"/>
-      <c r="AB129" s="192"/>
-      <c r="AC129" s="192"/>
-      <c r="AD129" s="192"/>
-      <c r="AE129" s="192" t="s">
+      <c r="Z129" s="216"/>
+      <c r="AA129" s="216"/>
+      <c r="AB129" s="216"/>
+      <c r="AC129" s="216"/>
+      <c r="AD129" s="216"/>
+      <c r="AE129" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="192"/>
-      <c r="AG129" s="192"/>
-      <c r="AH129" s="192"/>
-      <c r="AI129" s="192"/>
-      <c r="AJ129" s="192"/>
+      <c r="AF129" s="216"/>
+      <c r="AG129" s="216"/>
+      <c r="AH129" s="216"/>
+      <c r="AI129" s="216"/>
+      <c r="AJ129" s="216"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11350,7 +11372,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="68"/>
       <c r="G133" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
@@ -11363,30 +11385,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="177" t="s">
+      <c r="S133" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="178"/>
-      <c r="U133" s="178"/>
-      <c r="V133" s="178"/>
-      <c r="W133" s="178"/>
-      <c r="X133" s="179"/>
-      <c r="Y133" s="177" t="s">
+      <c r="T133" s="211"/>
+      <c r="U133" s="211"/>
+      <c r="V133" s="211"/>
+      <c r="W133" s="211"/>
+      <c r="X133" s="212"/>
+      <c r="Y133" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="178"/>
-      <c r="AA133" s="178"/>
-      <c r="AB133" s="178"/>
-      <c r="AC133" s="178"/>
-      <c r="AD133" s="179"/>
-      <c r="AE133" s="177" t="s">
+      <c r="Z133" s="211"/>
+      <c r="AA133" s="211"/>
+      <c r="AB133" s="211"/>
+      <c r="AC133" s="211"/>
+      <c r="AD133" s="212"/>
+      <c r="AE133" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="178"/>
-      <c r="AG133" s="178"/>
-      <c r="AH133" s="178"/>
-      <c r="AI133" s="178"/>
-      <c r="AJ133" s="179"/>
+      <c r="AF133" s="211"/>
+      <c r="AG133" s="211"/>
+      <c r="AH133" s="211"/>
+      <c r="AI133" s="211"/>
+      <c r="AJ133" s="212"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11410,30 +11432,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="177" t="s">
+      <c r="S134" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="178"/>
-      <c r="U134" s="178"/>
-      <c r="V134" s="178"/>
-      <c r="W134" s="178"/>
-      <c r="X134" s="179"/>
-      <c r="Y134" s="177" t="s">
+      <c r="T134" s="211"/>
+      <c r="U134" s="211"/>
+      <c r="V134" s="211"/>
+      <c r="W134" s="211"/>
+      <c r="X134" s="212"/>
+      <c r="Y134" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="178"/>
-      <c r="AA134" s="178"/>
-      <c r="AB134" s="178"/>
-      <c r="AC134" s="178"/>
-      <c r="AD134" s="179"/>
-      <c r="AE134" s="177" t="s">
+      <c r="Z134" s="211"/>
+      <c r="AA134" s="211"/>
+      <c r="AB134" s="211"/>
+      <c r="AC134" s="211"/>
+      <c r="AD134" s="212"/>
+      <c r="AE134" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="178"/>
-      <c r="AG134" s="178"/>
-      <c r="AH134" s="178"/>
-      <c r="AI134" s="178"/>
-      <c r="AJ134" s="179"/>
+      <c r="AF134" s="211"/>
+      <c r="AG134" s="211"/>
+      <c r="AH134" s="211"/>
+      <c r="AI134" s="211"/>
+      <c r="AJ134" s="212"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11451,30 +11473,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="177" t="s">
+      <c r="S135" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="178"/>
-      <c r="U135" s="178"/>
-      <c r="V135" s="178"/>
-      <c r="W135" s="178"/>
-      <c r="X135" s="179"/>
-      <c r="Y135" s="177" t="s">
+      <c r="T135" s="211"/>
+      <c r="U135" s="211"/>
+      <c r="V135" s="211"/>
+      <c r="W135" s="211"/>
+      <c r="X135" s="212"/>
+      <c r="Y135" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="178"/>
-      <c r="AA135" s="178"/>
-      <c r="AB135" s="178"/>
-      <c r="AC135" s="178"/>
-      <c r="AD135" s="179"/>
-      <c r="AE135" s="177" t="s">
+      <c r="Z135" s="211"/>
+      <c r="AA135" s="211"/>
+      <c r="AB135" s="211"/>
+      <c r="AC135" s="211"/>
+      <c r="AD135" s="212"/>
+      <c r="AE135" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="178"/>
-      <c r="AG135" s="178"/>
-      <c r="AH135" s="178"/>
-      <c r="AI135" s="178"/>
-      <c r="AJ135" s="179"/>
+      <c r="AF135" s="211"/>
+      <c r="AG135" s="211"/>
+      <c r="AH135" s="211"/>
+      <c r="AI135" s="211"/>
+      <c r="AJ135" s="212"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11496,30 +11518,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="177" t="s">
+      <c r="S136" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="178"/>
-      <c r="U136" s="178"/>
-      <c r="V136" s="178"/>
-      <c r="W136" s="178"/>
-      <c r="X136" s="179"/>
-      <c r="Y136" s="177" t="s">
+      <c r="T136" s="211"/>
+      <c r="U136" s="211"/>
+      <c r="V136" s="211"/>
+      <c r="W136" s="211"/>
+      <c r="X136" s="212"/>
+      <c r="Y136" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="178"/>
-      <c r="AA136" s="178"/>
-      <c r="AB136" s="178"/>
-      <c r="AC136" s="178"/>
-      <c r="AD136" s="179"/>
-      <c r="AE136" s="177" t="s">
+      <c r="Z136" s="211"/>
+      <c r="AA136" s="211"/>
+      <c r="AB136" s="211"/>
+      <c r="AC136" s="211"/>
+      <c r="AD136" s="212"/>
+      <c r="AE136" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="178"/>
-      <c r="AG136" s="178"/>
-      <c r="AH136" s="178"/>
-      <c r="AI136" s="178"/>
-      <c r="AJ136" s="179"/>
+      <c r="AF136" s="211"/>
+      <c r="AG136" s="211"/>
+      <c r="AH136" s="211"/>
+      <c r="AI136" s="211"/>
+      <c r="AJ136" s="212"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11541,30 +11563,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="174" t="s">
+      <c r="S137" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="175"/>
-      <c r="U137" s="175"/>
-      <c r="V137" s="175"/>
-      <c r="W137" s="175"/>
-      <c r="X137" s="176"/>
-      <c r="Y137" s="174" t="s">
+      <c r="T137" s="218"/>
+      <c r="U137" s="218"/>
+      <c r="V137" s="218"/>
+      <c r="W137" s="218"/>
+      <c r="X137" s="219"/>
+      <c r="Y137" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="175"/>
-      <c r="AA137" s="175"/>
-      <c r="AB137" s="175"/>
-      <c r="AC137" s="175"/>
-      <c r="AD137" s="176"/>
-      <c r="AE137" s="177" t="s">
+      <c r="Z137" s="218"/>
+      <c r="AA137" s="218"/>
+      <c r="AB137" s="218"/>
+      <c r="AC137" s="218"/>
+      <c r="AD137" s="219"/>
+      <c r="AE137" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="178"/>
-      <c r="AG137" s="178"/>
-      <c r="AH137" s="178"/>
-      <c r="AI137" s="178"/>
-      <c r="AJ137" s="179"/>
+      <c r="AF137" s="211"/>
+      <c r="AG137" s="211"/>
+      <c r="AH137" s="211"/>
+      <c r="AI137" s="211"/>
+      <c r="AJ137" s="212"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11588,30 +11610,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="177" t="s">
+      <c r="S138" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="178"/>
-      <c r="U138" s="178"/>
-      <c r="V138" s="178"/>
-      <c r="W138" s="178"/>
-      <c r="X138" s="179"/>
-      <c r="Y138" s="177" t="s">
+      <c r="T138" s="211"/>
+      <c r="U138" s="211"/>
+      <c r="V138" s="211"/>
+      <c r="W138" s="211"/>
+      <c r="X138" s="212"/>
+      <c r="Y138" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="178"/>
-      <c r="AA138" s="178"/>
-      <c r="AB138" s="178"/>
-      <c r="AC138" s="178"/>
-      <c r="AD138" s="179"/>
-      <c r="AE138" s="177" t="s">
+      <c r="Z138" s="211"/>
+      <c r="AA138" s="211"/>
+      <c r="AB138" s="211"/>
+      <c r="AC138" s="211"/>
+      <c r="AD138" s="212"/>
+      <c r="AE138" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="178"/>
-      <c r="AG138" s="178"/>
-      <c r="AH138" s="178"/>
-      <c r="AI138" s="178"/>
-      <c r="AJ138" s="179"/>
+      <c r="AF138" s="211"/>
+      <c r="AG138" s="211"/>
+      <c r="AH138" s="211"/>
+      <c r="AI138" s="211"/>
+      <c r="AJ138" s="212"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11629,30 +11651,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="177" t="s">
+      <c r="S139" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="178"/>
-      <c r="U139" s="178"/>
-      <c r="V139" s="178"/>
-      <c r="W139" s="178"/>
-      <c r="X139" s="179"/>
-      <c r="Y139" s="177" t="s">
+      <c r="T139" s="211"/>
+      <c r="U139" s="211"/>
+      <c r="V139" s="211"/>
+      <c r="W139" s="211"/>
+      <c r="X139" s="212"/>
+      <c r="Y139" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="178"/>
-      <c r="AA139" s="178"/>
-      <c r="AB139" s="178"/>
-      <c r="AC139" s="178"/>
-      <c r="AD139" s="179"/>
-      <c r="AE139" s="177" t="s">
+      <c r="Z139" s="211"/>
+      <c r="AA139" s="211"/>
+      <c r="AB139" s="211"/>
+      <c r="AC139" s="211"/>
+      <c r="AD139" s="212"/>
+      <c r="AE139" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="178"/>
-      <c r="AG139" s="178"/>
-      <c r="AH139" s="178"/>
-      <c r="AI139" s="178"/>
-      <c r="AJ139" s="179"/>
+      <c r="AF139" s="211"/>
+      <c r="AG139" s="211"/>
+      <c r="AH139" s="211"/>
+      <c r="AI139" s="211"/>
+      <c r="AJ139" s="212"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11674,30 +11696,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="177" t="s">
+      <c r="S140" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="178"/>
-      <c r="U140" s="178"/>
-      <c r="V140" s="178"/>
-      <c r="W140" s="178"/>
-      <c r="X140" s="179"/>
-      <c r="Y140" s="177" t="s">
+      <c r="T140" s="211"/>
+      <c r="U140" s="211"/>
+      <c r="V140" s="211"/>
+      <c r="W140" s="211"/>
+      <c r="X140" s="212"/>
+      <c r="Y140" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="178"/>
-      <c r="AA140" s="178"/>
-      <c r="AB140" s="178"/>
-      <c r="AC140" s="178"/>
-      <c r="AD140" s="179"/>
-      <c r="AE140" s="177" t="s">
+      <c r="Z140" s="211"/>
+      <c r="AA140" s="211"/>
+      <c r="AB140" s="211"/>
+      <c r="AC140" s="211"/>
+      <c r="AD140" s="212"/>
+      <c r="AE140" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="178"/>
-      <c r="AG140" s="178"/>
-      <c r="AH140" s="178"/>
-      <c r="AI140" s="178"/>
-      <c r="AJ140" s="179"/>
+      <c r="AF140" s="211"/>
+      <c r="AG140" s="211"/>
+      <c r="AH140" s="211"/>
+      <c r="AI140" s="211"/>
+      <c r="AJ140" s="212"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11719,30 +11741,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="177" t="s">
+      <c r="S141" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="T141" s="178"/>
-      <c r="U141" s="178"/>
-      <c r="V141" s="178"/>
-      <c r="W141" s="178"/>
-      <c r="X141" s="179"/>
-      <c r="Y141" s="177" t="s">
+      <c r="T141" s="211"/>
+      <c r="U141" s="211"/>
+      <c r="V141" s="211"/>
+      <c r="W141" s="211"/>
+      <c r="X141" s="212"/>
+      <c r="Y141" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="Z141" s="178"/>
-      <c r="AA141" s="178"/>
-      <c r="AB141" s="178"/>
-      <c r="AC141" s="178"/>
-      <c r="AD141" s="179"/>
-      <c r="AE141" s="177" t="s">
+      <c r="Z141" s="211"/>
+      <c r="AA141" s="211"/>
+      <c r="AB141" s="211"/>
+      <c r="AC141" s="211"/>
+      <c r="AD141" s="212"/>
+      <c r="AE141" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="AF141" s="178"/>
-      <c r="AG141" s="178"/>
-      <c r="AH141" s="178"/>
-      <c r="AI141" s="178"/>
-      <c r="AJ141" s="179"/>
+      <c r="AF141" s="211"/>
+      <c r="AG141" s="211"/>
+      <c r="AH141" s="211"/>
+      <c r="AI141" s="211"/>
+      <c r="AJ141" s="212"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11766,30 +11788,30 @@
       <c r="P142" s="146"/>
       <c r="Q142" s="146"/>
       <c r="R142" s="147"/>
-      <c r="S142" s="177" t="s">
+      <c r="S142" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="178"/>
-      <c r="U142" s="178"/>
-      <c r="V142" s="178"/>
-      <c r="W142" s="178"/>
-      <c r="X142" s="179"/>
-      <c r="Y142" s="177" t="s">
+      <c r="T142" s="211"/>
+      <c r="U142" s="211"/>
+      <c r="V142" s="211"/>
+      <c r="W142" s="211"/>
+      <c r="X142" s="212"/>
+      <c r="Y142" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="178"/>
-      <c r="AA142" s="178"/>
-      <c r="AB142" s="178"/>
-      <c r="AC142" s="178"/>
-      <c r="AD142" s="179"/>
-      <c r="AE142" s="177" t="s">
+      <c r="Z142" s="211"/>
+      <c r="AA142" s="211"/>
+      <c r="AB142" s="211"/>
+      <c r="AC142" s="211"/>
+      <c r="AD142" s="212"/>
+      <c r="AE142" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="178"/>
-      <c r="AG142" s="178"/>
-      <c r="AH142" s="178"/>
-      <c r="AI142" s="178"/>
-      <c r="AJ142" s="179"/>
+      <c r="AF142" s="211"/>
+      <c r="AG142" s="211"/>
+      <c r="AH142" s="211"/>
+      <c r="AI142" s="211"/>
+      <c r="AJ142" s="212"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11807,30 +11829,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="177" t="s">
+      <c r="S143" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="178"/>
-      <c r="U143" s="178"/>
-      <c r="V143" s="178"/>
-      <c r="W143" s="178"/>
-      <c r="X143" s="179"/>
-      <c r="Y143" s="177" t="s">
+      <c r="T143" s="211"/>
+      <c r="U143" s="211"/>
+      <c r="V143" s="211"/>
+      <c r="W143" s="211"/>
+      <c r="X143" s="212"/>
+      <c r="Y143" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="178"/>
-      <c r="AA143" s="178"/>
-      <c r="AB143" s="178"/>
-      <c r="AC143" s="178"/>
-      <c r="AD143" s="179"/>
-      <c r="AE143" s="177" t="s">
+      <c r="Z143" s="211"/>
+      <c r="AA143" s="211"/>
+      <c r="AB143" s="211"/>
+      <c r="AC143" s="211"/>
+      <c r="AD143" s="212"/>
+      <c r="AE143" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="178"/>
-      <c r="AG143" s="178"/>
-      <c r="AH143" s="178"/>
-      <c r="AI143" s="178"/>
-      <c r="AJ143" s="179"/>
+      <c r="AF143" s="211"/>
+      <c r="AG143" s="211"/>
+      <c r="AH143" s="211"/>
+      <c r="AI143" s="211"/>
+      <c r="AJ143" s="212"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11897,30 +11919,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="177" t="s">
+      <c r="S145" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="178"/>
-      <c r="U145" s="178"/>
-      <c r="V145" s="178"/>
-      <c r="W145" s="178"/>
-      <c r="X145" s="179"/>
-      <c r="Y145" s="177" t="s">
+      <c r="T145" s="211"/>
+      <c r="U145" s="211"/>
+      <c r="V145" s="211"/>
+      <c r="W145" s="211"/>
+      <c r="X145" s="212"/>
+      <c r="Y145" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="178"/>
-      <c r="AA145" s="178"/>
-      <c r="AB145" s="178"/>
-      <c r="AC145" s="178"/>
-      <c r="AD145" s="179"/>
-      <c r="AE145" s="177" t="s">
+      <c r="Z145" s="211"/>
+      <c r="AA145" s="211"/>
+      <c r="AB145" s="211"/>
+      <c r="AC145" s="211"/>
+      <c r="AD145" s="212"/>
+      <c r="AE145" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="178"/>
-      <c r="AG145" s="178"/>
-      <c r="AH145" s="178"/>
-      <c r="AI145" s="178"/>
-      <c r="AJ145" s="179"/>
+      <c r="AF145" s="211"/>
+      <c r="AG145" s="211"/>
+      <c r="AH145" s="211"/>
+      <c r="AI145" s="211"/>
+      <c r="AJ145" s="212"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -11944,30 +11966,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="177" t="s">
+      <c r="S146" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="178"/>
-      <c r="U146" s="178"/>
-      <c r="V146" s="178"/>
-      <c r="W146" s="178"/>
-      <c r="X146" s="179"/>
-      <c r="Y146" s="174" t="s">
+      <c r="T146" s="211"/>
+      <c r="U146" s="211"/>
+      <c r="V146" s="211"/>
+      <c r="W146" s="211"/>
+      <c r="X146" s="212"/>
+      <c r="Y146" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="175"/>
-      <c r="AA146" s="175"/>
-      <c r="AB146" s="175"/>
-      <c r="AC146" s="175"/>
-      <c r="AD146" s="176"/>
-      <c r="AE146" s="174" t="s">
+      <c r="Z146" s="218"/>
+      <c r="AA146" s="218"/>
+      <c r="AB146" s="218"/>
+      <c r="AC146" s="218"/>
+      <c r="AD146" s="219"/>
+      <c r="AE146" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="175"/>
-      <c r="AG146" s="175"/>
-      <c r="AH146" s="175"/>
-      <c r="AI146" s="175"/>
-      <c r="AJ146" s="176"/>
+      <c r="AF146" s="218"/>
+      <c r="AG146" s="218"/>
+      <c r="AH146" s="218"/>
+      <c r="AI146" s="218"/>
+      <c r="AJ146" s="219"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -11976,7 +11998,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="15"/>
       <c r="G147" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L147" s="79"/>
       <c r="M147" s="75" t="s">
@@ -11987,30 +12009,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="177" t="s">
+      <c r="S147" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="178"/>
-      <c r="U147" s="178"/>
-      <c r="V147" s="178"/>
-      <c r="W147" s="178"/>
-      <c r="X147" s="179"/>
-      <c r="Y147" s="177" t="s">
+      <c r="T147" s="211"/>
+      <c r="U147" s="211"/>
+      <c r="V147" s="211"/>
+      <c r="W147" s="211"/>
+      <c r="X147" s="212"/>
+      <c r="Y147" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="178"/>
-      <c r="AA147" s="178"/>
-      <c r="AB147" s="178"/>
-      <c r="AC147" s="178"/>
-      <c r="AD147" s="179"/>
-      <c r="AE147" s="174" t="s">
+      <c r="Z147" s="211"/>
+      <c r="AA147" s="211"/>
+      <c r="AB147" s="211"/>
+      <c r="AC147" s="211"/>
+      <c r="AD147" s="212"/>
+      <c r="AE147" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="175"/>
-      <c r="AG147" s="175"/>
-      <c r="AH147" s="175"/>
-      <c r="AI147" s="175"/>
-      <c r="AJ147" s="176"/>
+      <c r="AF147" s="218"/>
+      <c r="AG147" s="218"/>
+      <c r="AH147" s="218"/>
+      <c r="AI147" s="218"/>
+      <c r="AJ147" s="219"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12032,30 +12054,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="177" t="s">
+      <c r="S148" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="178"/>
-      <c r="U148" s="178"/>
-      <c r="V148" s="178"/>
-      <c r="W148" s="178"/>
-      <c r="X148" s="179"/>
-      <c r="Y148" s="177" t="s">
+      <c r="T148" s="211"/>
+      <c r="U148" s="211"/>
+      <c r="V148" s="211"/>
+      <c r="W148" s="211"/>
+      <c r="X148" s="212"/>
+      <c r="Y148" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="178"/>
-      <c r="AA148" s="178"/>
-      <c r="AB148" s="178"/>
-      <c r="AC148" s="178"/>
-      <c r="AD148" s="179"/>
-      <c r="AE148" s="174" t="s">
+      <c r="Z148" s="211"/>
+      <c r="AA148" s="211"/>
+      <c r="AB148" s="211"/>
+      <c r="AC148" s="211"/>
+      <c r="AD148" s="212"/>
+      <c r="AE148" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="175"/>
-      <c r="AG148" s="175"/>
-      <c r="AH148" s="175"/>
-      <c r="AI148" s="175"/>
-      <c r="AJ148" s="176"/>
+      <c r="AF148" s="218"/>
+      <c r="AG148" s="218"/>
+      <c r="AH148" s="218"/>
+      <c r="AI148" s="218"/>
+      <c r="AJ148" s="219"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12197,7 +12219,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="15"/>
       <c r="G152" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H152" s="23"/>
       <c r="I152" s="23"/>
@@ -12361,14 +12383,14 @@
       <c r="AB155" s="169"/>
       <c r="AC155" s="169"/>
       <c r="AD155" s="170"/>
-      <c r="AE155" s="180" t="s">
+      <c r="AE155" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="AF155" s="181"/>
-      <c r="AG155" s="181"/>
-      <c r="AH155" s="181"/>
-      <c r="AI155" s="181"/>
-      <c r="AJ155" s="182"/>
+      <c r="AF155" s="187"/>
+      <c r="AG155" s="187"/>
+      <c r="AH155" s="187"/>
+      <c r="AI155" s="187"/>
+      <c r="AJ155" s="188"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12496,14 +12518,14 @@
       <c r="AB158" s="169"/>
       <c r="AC158" s="169"/>
       <c r="AD158" s="170"/>
-      <c r="AE158" s="180" t="s">
+      <c r="AE158" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="AF158" s="181"/>
-      <c r="AG158" s="181"/>
-      <c r="AH158" s="181"/>
-      <c r="AI158" s="181"/>
-      <c r="AJ158" s="182"/>
+      <c r="AF158" s="187"/>
+      <c r="AG158" s="187"/>
+      <c r="AH158" s="187"/>
+      <c r="AI158" s="187"/>
+      <c r="AJ158" s="188"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12555,7 +12577,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="15"/>
       <c r="G160" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H160" s="26"/>
       <c r="I160" s="26"/>
@@ -12848,22 +12870,22 @@
       <c r="V166" s="169"/>
       <c r="W166" s="169"/>
       <c r="X166" s="170"/>
-      <c r="Y166" s="180" t="s">
+      <c r="Y166" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="Z166" s="181"/>
-      <c r="AA166" s="181"/>
-      <c r="AB166" s="181"/>
-      <c r="AC166" s="181"/>
-      <c r="AD166" s="182"/>
-      <c r="AE166" s="180" t="s">
+      <c r="Z166" s="187"/>
+      <c r="AA166" s="187"/>
+      <c r="AB166" s="187"/>
+      <c r="AC166" s="187"/>
+      <c r="AD166" s="188"/>
+      <c r="AE166" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="181"/>
-      <c r="AG166" s="181"/>
-      <c r="AH166" s="181"/>
-      <c r="AI166" s="181"/>
-      <c r="AJ166" s="182"/>
+      <c r="AF166" s="224"/>
+      <c r="AG166" s="224"/>
+      <c r="AH166" s="224"/>
+      <c r="AI166" s="224"/>
+      <c r="AJ166" s="225"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12903,14 +12925,14 @@
       <c r="AB167" s="169"/>
       <c r="AC167" s="169"/>
       <c r="AD167" s="170"/>
-      <c r="AE167" s="180" t="s">
+      <c r="AE167" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="AF167" s="181"/>
-      <c r="AG167" s="181"/>
-      <c r="AH167" s="181"/>
-      <c r="AI167" s="181"/>
-      <c r="AJ167" s="182"/>
+      <c r="AF167" s="224"/>
+      <c r="AG167" s="224"/>
+      <c r="AH167" s="224"/>
+      <c r="AI167" s="224"/>
+      <c r="AJ167" s="225"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -12950,14 +12972,14 @@
       <c r="AB168" s="169"/>
       <c r="AC168" s="169"/>
       <c r="AD168" s="170"/>
-      <c r="AE168" s="180" t="s">
+      <c r="AE168" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="AF168" s="181"/>
-      <c r="AG168" s="181"/>
-      <c r="AH168" s="181"/>
-      <c r="AI168" s="181"/>
-      <c r="AJ168" s="182"/>
+      <c r="AF168" s="224"/>
+      <c r="AG168" s="224"/>
+      <c r="AH168" s="224"/>
+      <c r="AI168" s="224"/>
+      <c r="AJ168" s="225"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -12997,14 +13019,14 @@
       <c r="AB169" s="169"/>
       <c r="AC169" s="169"/>
       <c r="AD169" s="170"/>
-      <c r="AE169" s="180" t="s">
+      <c r="AE169" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="AF169" s="181"/>
-      <c r="AG169" s="181"/>
-      <c r="AH169" s="181"/>
-      <c r="AI169" s="181"/>
-      <c r="AJ169" s="182"/>
+      <c r="AF169" s="224"/>
+      <c r="AG169" s="224"/>
+      <c r="AH169" s="224"/>
+      <c r="AI169" s="224"/>
+      <c r="AJ169" s="225"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13013,7 +13035,7 @@
       <c r="E170" s="9"/>
       <c r="F170" s="15"/>
       <c r="G170" s="153" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H170" s="92"/>
       <c r="I170" s="92"/>
@@ -13059,7 +13081,9 @@
       <c r="A171" s="4"/>
       <c r="E171" s="9"/>
       <c r="F171" s="15"/>
-      <c r="G171" s="153"/>
+      <c r="G171" s="153" t="s">
+        <v>273</v>
+      </c>
       <c r="H171" s="92"/>
       <c r="I171" s="92"/>
       <c r="J171" s="92"/>
@@ -13134,14 +13158,14 @@
       <c r="AB172" s="169"/>
       <c r="AC172" s="169"/>
       <c r="AD172" s="170"/>
-      <c r="AE172" s="180" t="s">
+      <c r="AE172" s="223" t="s">
         <v>14</v>
       </c>
-      <c r="AF172" s="181"/>
-      <c r="AG172" s="181"/>
-      <c r="AH172" s="181"/>
-      <c r="AI172" s="181"/>
-      <c r="AJ172" s="182"/>
+      <c r="AF172" s="224"/>
+      <c r="AG172" s="224"/>
+      <c r="AH172" s="224"/>
+      <c r="AI172" s="224"/>
+      <c r="AJ172" s="225"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13218,22 +13242,22 @@
       <c r="V174" s="169"/>
       <c r="W174" s="169"/>
       <c r="X174" s="170"/>
-      <c r="Y174" s="180" t="s">
+      <c r="Y174" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="Z174" s="181"/>
-      <c r="AA174" s="181"/>
-      <c r="AB174" s="181"/>
-      <c r="AC174" s="181"/>
-      <c r="AD174" s="182"/>
-      <c r="AE174" s="180" t="s">
+      <c r="Z174" s="187"/>
+      <c r="AA174" s="187"/>
+      <c r="AB174" s="187"/>
+      <c r="AC174" s="187"/>
+      <c r="AD174" s="188"/>
+      <c r="AE174" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF174" s="181"/>
-      <c r="AG174" s="181"/>
-      <c r="AH174" s="181"/>
-      <c r="AI174" s="181"/>
-      <c r="AJ174" s="182"/>
+      <c r="AF174" s="187"/>
+      <c r="AG174" s="187"/>
+      <c r="AH174" s="187"/>
+      <c r="AI174" s="187"/>
+      <c r="AJ174" s="188"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13271,14 +13295,14 @@
       <c r="AB175" s="169"/>
       <c r="AC175" s="169"/>
       <c r="AD175" s="170"/>
-      <c r="AE175" s="180" t="s">
+      <c r="AE175" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="AF175" s="181"/>
-      <c r="AG175" s="181"/>
-      <c r="AH175" s="181"/>
-      <c r="AI175" s="181"/>
-      <c r="AJ175" s="182"/>
+      <c r="AF175" s="187"/>
+      <c r="AG175" s="187"/>
+      <c r="AH175" s="187"/>
+      <c r="AI175" s="187"/>
+      <c r="AJ175" s="188"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13316,14 +13340,14 @@
       <c r="AB176" s="169"/>
       <c r="AC176" s="169"/>
       <c r="AD176" s="170"/>
-      <c r="AE176" s="180" t="s">
+      <c r="AE176" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="AF176" s="181"/>
-      <c r="AG176" s="181"/>
-      <c r="AH176" s="181"/>
-      <c r="AI176" s="181"/>
-      <c r="AJ176" s="182"/>
+      <c r="AF176" s="187"/>
+      <c r="AG176" s="187"/>
+      <c r="AH176" s="187"/>
+      <c r="AI176" s="187"/>
+      <c r="AJ176" s="188"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13361,14 +13385,14 @@
       <c r="AB177" s="169"/>
       <c r="AC177" s="169"/>
       <c r="AD177" s="170"/>
-      <c r="AE177" s="180" t="s">
+      <c r="AE177" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="181"/>
-      <c r="AG177" s="181"/>
-      <c r="AH177" s="181"/>
-      <c r="AI177" s="181"/>
-      <c r="AJ177" s="182"/>
+      <c r="AF177" s="187"/>
+      <c r="AG177" s="187"/>
+      <c r="AH177" s="187"/>
+      <c r="AI177" s="187"/>
+      <c r="AJ177" s="188"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13496,14 +13520,14 @@
       <c r="AB180" s="169"/>
       <c r="AC180" s="169"/>
       <c r="AD180" s="170"/>
-      <c r="AE180" s="180" t="s">
+      <c r="AE180" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="181"/>
-      <c r="AG180" s="181"/>
-      <c r="AH180" s="181"/>
-      <c r="AI180" s="181"/>
-      <c r="AJ180" s="182"/>
+      <c r="AF180" s="187"/>
+      <c r="AG180" s="187"/>
+      <c r="AH180" s="187"/>
+      <c r="AI180" s="187"/>
+      <c r="AJ180" s="188"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13660,30 +13684,30 @@
       <c r="P184" s="166"/>
       <c r="Q184" s="166"/>
       <c r="R184" s="167"/>
-      <c r="S184" s="183" t="s">
+      <c r="S184" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="184"/>
-      <c r="U184" s="184"/>
-      <c r="V184" s="184"/>
-      <c r="W184" s="184"/>
-      <c r="X184" s="185"/>
-      <c r="Y184" s="183" t="s">
+      <c r="T184" s="221"/>
+      <c r="U184" s="221"/>
+      <c r="V184" s="221"/>
+      <c r="W184" s="221"/>
+      <c r="X184" s="222"/>
+      <c r="Y184" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="184"/>
-      <c r="AA184" s="184"/>
-      <c r="AB184" s="184"/>
-      <c r="AC184" s="184"/>
-      <c r="AD184" s="185"/>
-      <c r="AE184" s="183" t="s">
+      <c r="Z184" s="221"/>
+      <c r="AA184" s="221"/>
+      <c r="AB184" s="221"/>
+      <c r="AC184" s="221"/>
+      <c r="AD184" s="222"/>
+      <c r="AE184" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="184"/>
-      <c r="AG184" s="184"/>
-      <c r="AH184" s="184"/>
-      <c r="AI184" s="184"/>
-      <c r="AJ184" s="185"/>
+      <c r="AF184" s="221"/>
+      <c r="AG184" s="221"/>
+      <c r="AH184" s="221"/>
+      <c r="AI184" s="221"/>
+      <c r="AJ184" s="222"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -15713,17 +15737,17 @@
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="193" t="s">
+      <c r="AD235" s="177" t="s">
         <v>241</v>
       </c>
-      <c r="AE235" s="194"/>
-      <c r="AF235" s="194"/>
-      <c r="AG235" s="194"/>
-      <c r="AH235" s="194"/>
-      <c r="AI235" s="194"/>
-      <c r="AJ235" s="194"/>
-      <c r="AK235" s="194"/>
-      <c r="AL235" s="195"/>
+      <c r="AE235" s="178"/>
+      <c r="AF235" s="178"/>
+      <c r="AG235" s="178"/>
+      <c r="AH235" s="178"/>
+      <c r="AI235" s="178"/>
+      <c r="AJ235" s="178"/>
+      <c r="AK235" s="178"/>
+      <c r="AL235" s="179"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -15815,21 +15839,21 @@
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="211" t="s">
+      <c r="AD237" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="217"/>
-      <c r="AF237" s="217"/>
-      <c r="AG237" s="212"/>
-      <c r="AH237" s="211" t="s">
+      <c r="AE237" s="181"/>
+      <c r="AF237" s="181"/>
+      <c r="AG237" s="182"/>
+      <c r="AH237" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="212"/>
-      <c r="AJ237" s="211" t="s">
+      <c r="AI237" s="182"/>
+      <c r="AJ237" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="217"/>
-      <c r="AL237" s="212"/>
+      <c r="AK237" s="181"/>
+      <c r="AL237" s="182"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -15867,15 +15891,15 @@
       <c r="AA238" s="99"/>
       <c r="AB238" s="99"/>
       <c r="AC238" s="103"/>
-      <c r="AD238" s="213"/>
-      <c r="AE238" s="218"/>
-      <c r="AF238" s="218"/>
-      <c r="AG238" s="214"/>
-      <c r="AH238" s="213"/>
-      <c r="AI238" s="214"/>
-      <c r="AJ238" s="213"/>
-      <c r="AK238" s="218"/>
-      <c r="AL238" s="214"/>
+      <c r="AD238" s="183"/>
+      <c r="AE238" s="184"/>
+      <c r="AF238" s="184"/>
+      <c r="AG238" s="185"/>
+      <c r="AH238" s="183"/>
+      <c r="AI238" s="185"/>
+      <c r="AJ238" s="183"/>
+      <c r="AK238" s="184"/>
+      <c r="AL238" s="185"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -15915,21 +15939,21 @@
       <c r="AA239" s="98"/>
       <c r="AB239" s="98"/>
       <c r="AC239" s="102"/>
-      <c r="AD239" s="211" t="s">
+      <c r="AD239" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AE239" s="217"/>
-      <c r="AF239" s="217"/>
-      <c r="AG239" s="212"/>
-      <c r="AH239" s="211" t="s">
+      <c r="AE239" s="181"/>
+      <c r="AF239" s="181"/>
+      <c r="AG239" s="182"/>
+      <c r="AH239" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AI239" s="212"/>
-      <c r="AJ239" s="211" t="s">
+      <c r="AI239" s="182"/>
+      <c r="AJ239" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AK239" s="217"/>
-      <c r="AL239" s="212"/>
+      <c r="AK239" s="181"/>
+      <c r="AL239" s="182"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -15969,21 +15993,21 @@
       <c r="AA240" s="105"/>
       <c r="AB240" s="105"/>
       <c r="AC240" s="116"/>
-      <c r="AD240" s="215" t="s">
+      <c r="AD240" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AE240" s="219"/>
-      <c r="AF240" s="219"/>
-      <c r="AG240" s="216"/>
-      <c r="AH240" s="215" t="s">
+      <c r="AE240" s="175"/>
+      <c r="AF240" s="175"/>
+      <c r="AG240" s="176"/>
+      <c r="AH240" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AI240" s="216"/>
-      <c r="AJ240" s="215" t="s">
+      <c r="AI240" s="176"/>
+      <c r="AJ240" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AK240" s="219"/>
-      <c r="AL240" s="216"/>
+      <c r="AK240" s="175"/>
+      <c r="AL240" s="176"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16025,21 +16049,21 @@
       <c r="AA241" s="105"/>
       <c r="AB241" s="105"/>
       <c r="AC241" s="116"/>
-      <c r="AD241" s="215" t="s">
+      <c r="AD241" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="219"/>
-      <c r="AF241" s="219"/>
-      <c r="AG241" s="216"/>
-      <c r="AH241" s="215" t="s">
+      <c r="AE241" s="175"/>
+      <c r="AF241" s="175"/>
+      <c r="AG241" s="176"/>
+      <c r="AH241" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="216"/>
-      <c r="AJ241" s="215" t="s">
+      <c r="AI241" s="176"/>
+      <c r="AJ241" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AK241" s="219"/>
-      <c r="AL241" s="216"/>
+      <c r="AK241" s="175"/>
+      <c r="AL241" s="176"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16079,21 +16103,21 @@
       <c r="AA242" s="105"/>
       <c r="AB242" s="105"/>
       <c r="AC242" s="116"/>
-      <c r="AD242" s="215" t="s">
+      <c r="AD242" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AE242" s="219"/>
-      <c r="AF242" s="219"/>
-      <c r="AG242" s="216"/>
-      <c r="AH242" s="215" t="s">
+      <c r="AE242" s="175"/>
+      <c r="AF242" s="175"/>
+      <c r="AG242" s="176"/>
+      <c r="AH242" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AI242" s="216"/>
-      <c r="AJ242" s="215" t="s">
+      <c r="AI242" s="176"/>
+      <c r="AJ242" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AK242" s="219"/>
-      <c r="AL242" s="216"/>
+      <c r="AK242" s="175"/>
+      <c r="AL242" s="176"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16133,21 +16157,21 @@
       <c r="AA243" s="105"/>
       <c r="AB243" s="105"/>
       <c r="AC243" s="116"/>
-      <c r="AD243" s="220" t="s">
+      <c r="AD243" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE243" s="221"/>
-      <c r="AF243" s="221"/>
-      <c r="AG243" s="222"/>
-      <c r="AH243" s="220" t="s">
+      <c r="AE243" s="193"/>
+      <c r="AF243" s="193"/>
+      <c r="AG243" s="194"/>
+      <c r="AH243" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI243" s="222"/>
-      <c r="AJ243" s="215" t="s">
+      <c r="AI243" s="194"/>
+      <c r="AJ243" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AK243" s="219"/>
-      <c r="AL243" s="216"/>
+      <c r="AK243" s="175"/>
+      <c r="AL243" s="176"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16189,21 +16213,21 @@
       <c r="AA244" s="98"/>
       <c r="AB244" s="98"/>
       <c r="AC244" s="102"/>
-      <c r="AD244" s="186" t="s">
+      <c r="AD244" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AE244" s="187"/>
-      <c r="AF244" s="187"/>
-      <c r="AG244" s="188"/>
-      <c r="AH244" s="186" t="s">
+      <c r="AE244" s="190"/>
+      <c r="AF244" s="190"/>
+      <c r="AG244" s="191"/>
+      <c r="AH244" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AI244" s="188"/>
-      <c r="AJ244" s="186" t="s">
+      <c r="AI244" s="191"/>
+      <c r="AJ244" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AK244" s="187"/>
-      <c r="AL244" s="188"/>
+      <c r="AK244" s="190"/>
+      <c r="AL244" s="191"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
       <c r="AP244" s="5"/>
@@ -16805,6 +16829,203 @@
     </row>
   </sheetData>
   <mergeCells count="221">
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="S183:X183"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="Y137:AD137"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="S180:X180"/>
+    <mergeCell ref="Y180:AD180"/>
+    <mergeCell ref="AE180:AJ180"/>
+    <mergeCell ref="S177:X177"/>
+    <mergeCell ref="Y177:AD177"/>
+    <mergeCell ref="AE177:AJ177"/>
+    <mergeCell ref="S178:X178"/>
+    <mergeCell ref="Y178:AD178"/>
+    <mergeCell ref="AE178:AJ178"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="AE179:AJ179"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="Y130:AD130"/>
+    <mergeCell ref="Y131:AD131"/>
+    <mergeCell ref="Y132:AD132"/>
+    <mergeCell ref="Y134:AD134"/>
+    <mergeCell ref="Y135:AD135"/>
+    <mergeCell ref="Y136:AD136"/>
+    <mergeCell ref="Y145:AD145"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="Y133:AD133"/>
+    <mergeCell ref="Y138:AD138"/>
+    <mergeCell ref="Y139:AD139"/>
+    <mergeCell ref="Y140:AD140"/>
+    <mergeCell ref="Y141:AD141"/>
+    <mergeCell ref="Y142:AD142"/>
+    <mergeCell ref="Y143:AD143"/>
+    <mergeCell ref="Y144:AD144"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="S182:X182"/>
+    <mergeCell ref="S181:X181"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="S184:X184"/>
+    <mergeCell ref="Y184:AD184"/>
+    <mergeCell ref="AE184:AJ184"/>
+    <mergeCell ref="AE181:AJ181"/>
+    <mergeCell ref="Y181:AD181"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="AE155:AJ155"/>
+    <mergeCell ref="S158:X158"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="Y129:AD129"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="S131:X131"/>
+    <mergeCell ref="S132:X132"/>
+    <mergeCell ref="S134:X134"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="AD244:AG244"/>
+    <mergeCell ref="AH237:AI237"/>
+    <mergeCell ref="AH238:AI238"/>
+    <mergeCell ref="AH239:AI239"/>
+    <mergeCell ref="AH240:AI240"/>
+    <mergeCell ref="AH241:AI241"/>
+    <mergeCell ref="AH242:AI242"/>
+    <mergeCell ref="AH244:AI244"/>
+    <mergeCell ref="AJ237:AL237"/>
+    <mergeCell ref="AJ238:AL238"/>
+    <mergeCell ref="AJ239:AL239"/>
+    <mergeCell ref="AJ240:AL240"/>
+    <mergeCell ref="AJ241:AL241"/>
+    <mergeCell ref="AJ242:AL242"/>
+    <mergeCell ref="AJ244:AL244"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AH243:AI243"/>
     <mergeCell ref="AE152:AJ152"/>
     <mergeCell ref="S153:X153"/>
     <mergeCell ref="Y153:AD153"/>
@@ -16829,203 +17050,6 @@
     <mergeCell ref="AE167:AJ167"/>
     <mergeCell ref="AE168:AJ168"/>
     <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="AD244:AG244"/>
-    <mergeCell ref="AH237:AI237"/>
-    <mergeCell ref="AH238:AI238"/>
-    <mergeCell ref="AH239:AI239"/>
-    <mergeCell ref="AH240:AI240"/>
-    <mergeCell ref="AH241:AI241"/>
-    <mergeCell ref="AH242:AI242"/>
-    <mergeCell ref="AH244:AI244"/>
-    <mergeCell ref="AJ237:AL237"/>
-    <mergeCell ref="AJ238:AL238"/>
-    <mergeCell ref="AJ239:AL239"/>
-    <mergeCell ref="AJ240:AL240"/>
-    <mergeCell ref="AJ241:AL241"/>
-    <mergeCell ref="AJ242:AL242"/>
-    <mergeCell ref="AJ244:AL244"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AH243:AI243"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="S131:X131"/>
-    <mergeCell ref="S132:X132"/>
-    <mergeCell ref="S134:X134"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="Y129:AD129"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="S158:X158"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="S184:X184"/>
-    <mergeCell ref="Y184:AD184"/>
-    <mergeCell ref="AE184:AJ184"/>
-    <mergeCell ref="AE181:AJ181"/>
-    <mergeCell ref="Y181:AD181"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="S182:X182"/>
-    <mergeCell ref="S181:X181"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="Y148:AD148"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="Y130:AD130"/>
-    <mergeCell ref="Y131:AD131"/>
-    <mergeCell ref="Y132:AD132"/>
-    <mergeCell ref="Y134:AD134"/>
-    <mergeCell ref="Y135:AD135"/>
-    <mergeCell ref="Y136:AD136"/>
-    <mergeCell ref="Y145:AD145"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="Y133:AD133"/>
-    <mergeCell ref="Y138:AD138"/>
-    <mergeCell ref="Y139:AD139"/>
-    <mergeCell ref="Y140:AD140"/>
-    <mergeCell ref="Y141:AD141"/>
-    <mergeCell ref="Y142:AD142"/>
-    <mergeCell ref="Y143:AD143"/>
-    <mergeCell ref="Y144:AD144"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="S183:X183"/>
-    <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="S180:X180"/>
-    <mergeCell ref="Y180:AD180"/>
-    <mergeCell ref="AE180:AJ180"/>
-    <mergeCell ref="S177:X177"/>
-    <mergeCell ref="Y177:AD177"/>
-    <mergeCell ref="AE177:AJ177"/>
-    <mergeCell ref="S178:X178"/>
-    <mergeCell ref="Y178:AD178"/>
-    <mergeCell ref="AE178:AJ178"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="AE179:AJ179"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="S169:X169"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="277">
   <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
@@ -305,10 +305,6 @@
   </si>
   <si>
     <t>グループ（チーム）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グループ（その他）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2861,23 +2857,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（画像変更含む）</t>
-    <rPh sb="1" eb="3">
-      <t>ガゾ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンコ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（画像変更含む）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　OKR削除、</t>
     <rPh sb="4" eb="6">
       <t>サク</t>
@@ -2885,9 +2864,78 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>自投稿操作</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウk</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他投稿操作</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>　進捗登録）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（公開範囲変更、</t>
     <rPh sb="1" eb="5">
-      <t>シンチョk</t>
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　投稿削除）</t>
+    <rPh sb="1" eb="5">
+      <t>トウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田澤</t>
+    <rPh sb="0" eb="2">
+      <t>タザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ権限に「自・他投稿操作」の項目を追加。</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウs</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4211,7 +4259,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4368,8 +4416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
@@ -4388,6 +4434,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4397,49 +4452,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4451,6 +4479,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4460,13 +4506,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4496,52 +4554,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6141,22 +6187,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="70" t="s">
+      <c r="D1" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="70" t="s">
+      <c r="F1" s="70" t="s">
         <v>158</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6168,13 +6214,13 @@
         <v>42761</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="71"/>
     </row>
@@ -6187,13 +6233,13 @@
         <v>42771</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="71"/>
     </row>
@@ -6206,13 +6252,13 @@
         <v>42805</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="71"/>
     </row>
@@ -6225,13 +6271,13 @@
         <v>42913</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="71"/>
     </row>
@@ -6244,13 +6290,13 @@
         <v>42929</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="71"/>
     </row>
@@ -6263,13 +6309,13 @@
         <v>42937</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" s="71"/>
     </row>
@@ -6282,13 +6328,13 @@
         <v>42941</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="71"/>
     </row>
@@ -6301,13 +6347,13 @@
         <v>42947</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F9" s="71"/>
     </row>
@@ -6320,13 +6366,13 @@
         <v>42974</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" s="71"/>
     </row>
@@ -6339,13 +6385,13 @@
         <v>42978</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" s="71"/>
     </row>
@@ -6354,10 +6400,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
+      <c r="B12" s="72">
+        <v>42979</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>276</v>
+      </c>
       <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6873,18 +6927,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="198" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="A1" s="200" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="202"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
@@ -6892,56 +6946,56 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="207" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
+      <c r="P1" s="209" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
       <c r="AA1" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="204">
+      <c r="AD1" s="206">
         <v>42760</v>
       </c>
-      <c r="AE1" s="205"/>
-      <c r="AF1" s="205"/>
-      <c r="AG1" s="205"/>
-      <c r="AH1" s="206"/>
+      <c r="AE1" s="207"/>
+      <c r="AF1" s="207"/>
+      <c r="AG1" s="207"/>
+      <c r="AH1" s="208"/>
       <c r="AI1" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="195" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM1" s="196"/>
-      <c r="AN1" s="196"/>
-      <c r="AO1" s="196"/>
-      <c r="AP1" s="197"/>
+      <c r="AL1" s="197" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="198"/>
+      <c r="AO1" s="198"/>
+      <c r="AP1" s="199"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="201"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="203"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="205"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
@@ -6949,41 +7003,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
       <c r="AA2" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="204">
-        <v>42978</v>
-      </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="205"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="206"/>
+      <c r="AD2" s="206">
+        <v>42979</v>
+      </c>
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="208"/>
       <c r="AI2" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="195" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="197"/>
+      <c r="AL2" s="197" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="198"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="199"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7127,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -7177,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -7226,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -7272,10 +7326,10 @@
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -7424,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="2"/>
@@ -7432,10 +7486,10 @@
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="2"/>
@@ -7446,7 +7500,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP15" s="5"/>
       <c r="AQ15" s="2"/>
@@ -7457,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="2"/>
@@ -7465,13 +7519,13 @@
     <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>44</v>
-      </c>
       <c r="AM17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="2"/>
@@ -7479,10 +7533,10 @@
     <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -7521,27 +7575,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="189" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="191"/>
+      <c r="L19" s="187" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
+      <c r="P19" s="188"/>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="188"/>
+      <c r="V19" s="188"/>
+      <c r="W19" s="188"/>
+      <c r="X19" s="188"/>
+      <c r="Y19" s="188"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="188"/>
+      <c r="AB19" s="188"/>
+      <c r="AC19" s="188"/>
+      <c r="AD19" s="189"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7550,34 +7604,34 @@
       <c r="A20" s="4"/>
       <c r="E20" s="9"/>
       <c r="F20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="189" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="191"/>
+      <c r="L20" s="187" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="188"/>
+      <c r="Z20" s="188"/>
+      <c r="AA20" s="188"/>
+      <c r="AB20" s="188"/>
+      <c r="AC20" s="188"/>
+      <c r="AD20" s="189"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7586,34 +7640,34 @@
       <c r="A21" s="4"/>
       <c r="E21" s="9"/>
       <c r="F21" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="189" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="191"/>
+      <c r="L21" s="187" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="188"/>
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="188"/>
+      <c r="AC21" s="188"/>
+      <c r="AD21" s="189"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -7699,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -7746,10 +7800,10 @@
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -7898,7 +7952,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AP29" s="5"/>
       <c r="AQ29" s="2"/>
@@ -7906,7 +7960,7 @@
     <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>21</v>
@@ -7937,7 +7991,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="2"/>
@@ -7945,10 +7999,10 @@
     <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="2"/>
@@ -7959,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AP34" s="5"/>
       <c r="AQ34" s="2"/>
@@ -7986,10 +8040,10 @@
     <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AP37" s="5"/>
       <c r="AQ37" s="2"/>
@@ -8028,7 +8082,7 @@
       <c r="A39" s="4"/>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -8067,27 +8121,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="177" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" s="178"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
-      <c r="S40" s="178"/>
-      <c r="T40" s="178"/>
-      <c r="U40" s="178"/>
-      <c r="V40" s="178"/>
-      <c r="W40" s="178"/>
-      <c r="X40" s="178"/>
-      <c r="Y40" s="178"/>
-      <c r="Z40" s="178"/>
-      <c r="AA40" s="178"/>
-      <c r="AB40" s="178"/>
-      <c r="AC40" s="178"/>
-      <c r="AD40" s="179"/>
+      <c r="L40" s="194" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="195"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="195"/>
+      <c r="P40" s="195"/>
+      <c r="Q40" s="195"/>
+      <c r="R40" s="195"/>
+      <c r="S40" s="195"/>
+      <c r="T40" s="195"/>
+      <c r="U40" s="195"/>
+      <c r="V40" s="195"/>
+      <c r="W40" s="195"/>
+      <c r="X40" s="195"/>
+      <c r="Y40" s="195"/>
+      <c r="Z40" s="195"/>
+      <c r="AA40" s="195"/>
+      <c r="AB40" s="195"/>
+      <c r="AC40" s="195"/>
+      <c r="AD40" s="196"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8096,34 +8150,34 @@
       <c r="A41" s="4"/>
       <c r="E41" s="9"/>
       <c r="F41" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="189" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="190"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="190"/>
-      <c r="S41" s="190"/>
-      <c r="T41" s="190"/>
-      <c r="U41" s="190"/>
-      <c r="V41" s="190"/>
-      <c r="W41" s="190"/>
-      <c r="X41" s="190"/>
-      <c r="Y41" s="190"/>
-      <c r="Z41" s="190"/>
-      <c r="AA41" s="190"/>
-      <c r="AB41" s="190"/>
-      <c r="AC41" s="190"/>
-      <c r="AD41" s="191"/>
+      <c r="L41" s="187" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="188"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="188"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="188"/>
+      <c r="S41" s="188"/>
+      <c r="T41" s="188"/>
+      <c r="U41" s="188"/>
+      <c r="V41" s="188"/>
+      <c r="W41" s="188"/>
+      <c r="X41" s="188"/>
+      <c r="Y41" s="188"/>
+      <c r="Z41" s="188"/>
+      <c r="AA41" s="188"/>
+      <c r="AB41" s="188"/>
+      <c r="AC41" s="188"/>
+      <c r="AD41" s="189"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8132,34 +8186,34 @@
       <c r="A42" s="4"/>
       <c r="E42" s="9"/>
       <c r="F42" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="189" t="s">
-        <v>64</v>
-      </c>
-      <c r="M42" s="190"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="190"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="190"/>
-      <c r="S42" s="190"/>
-      <c r="T42" s="190"/>
-      <c r="U42" s="190"/>
-      <c r="V42" s="190"/>
-      <c r="W42" s="190"/>
-      <c r="X42" s="190"/>
-      <c r="Y42" s="190"/>
-      <c r="Z42" s="190"/>
-      <c r="AA42" s="190"/>
-      <c r="AB42" s="190"/>
-      <c r="AC42" s="190"/>
-      <c r="AD42" s="191"/>
+      <c r="L42" s="187" t="s">
+        <v>63</v>
+      </c>
+      <c r="M42" s="188"/>
+      <c r="N42" s="188"/>
+      <c r="O42" s="188"/>
+      <c r="P42" s="188"/>
+      <c r="Q42" s="188"/>
+      <c r="R42" s="188"/>
+      <c r="S42" s="188"/>
+      <c r="T42" s="188"/>
+      <c r="U42" s="188"/>
+      <c r="V42" s="188"/>
+      <c r="W42" s="188"/>
+      <c r="X42" s="188"/>
+      <c r="Y42" s="188"/>
+      <c r="Z42" s="188"/>
+      <c r="AA42" s="188"/>
+      <c r="AB42" s="188"/>
+      <c r="AC42" s="188"/>
+      <c r="AD42" s="189"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8168,34 +8222,34 @@
       <c r="A43" s="4"/>
       <c r="E43" s="9"/>
       <c r="F43" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="189" t="s">
-        <v>191</v>
-      </c>
-      <c r="M43" s="190"/>
-      <c r="N43" s="190"/>
-      <c r="O43" s="190"/>
-      <c r="P43" s="190"/>
-      <c r="Q43" s="190"/>
-      <c r="R43" s="190"/>
-      <c r="S43" s="190"/>
-      <c r="T43" s="190"/>
-      <c r="U43" s="190"/>
-      <c r="V43" s="190"/>
-      <c r="W43" s="190"/>
-      <c r="X43" s="190"/>
-      <c r="Y43" s="190"/>
-      <c r="Z43" s="190"/>
-      <c r="AA43" s="190"/>
-      <c r="AB43" s="190"/>
-      <c r="AC43" s="190"/>
-      <c r="AD43" s="191"/>
+      <c r="L43" s="187" t="s">
+        <v>190</v>
+      </c>
+      <c r="M43" s="188"/>
+      <c r="N43" s="188"/>
+      <c r="O43" s="188"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="188"/>
+      <c r="R43" s="188"/>
+      <c r="S43" s="188"/>
+      <c r="T43" s="188"/>
+      <c r="U43" s="188"/>
+      <c r="V43" s="188"/>
+      <c r="W43" s="188"/>
+      <c r="X43" s="188"/>
+      <c r="Y43" s="188"/>
+      <c r="Z43" s="188"/>
+      <c r="AA43" s="188"/>
+      <c r="AB43" s="188"/>
+      <c r="AC43" s="188"/>
+      <c r="AD43" s="189"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8204,34 +8258,34 @@
       <c r="A44" s="4"/>
       <c r="E44" s="9"/>
       <c r="F44" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="189" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" s="190"/>
-      <c r="N44" s="190"/>
-      <c r="O44" s="190"/>
-      <c r="P44" s="190"/>
-      <c r="Q44" s="190"/>
-      <c r="R44" s="190"/>
-      <c r="S44" s="190"/>
-      <c r="T44" s="190"/>
-      <c r="U44" s="190"/>
-      <c r="V44" s="190"/>
-      <c r="W44" s="190"/>
-      <c r="X44" s="190"/>
-      <c r="Y44" s="190"/>
-      <c r="Z44" s="190"/>
-      <c r="AA44" s="190"/>
-      <c r="AB44" s="190"/>
-      <c r="AC44" s="190"/>
-      <c r="AD44" s="191"/>
+      <c r="L44" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="188"/>
+      <c r="N44" s="188"/>
+      <c r="O44" s="188"/>
+      <c r="P44" s="188"/>
+      <c r="Q44" s="188"/>
+      <c r="R44" s="188"/>
+      <c r="S44" s="188"/>
+      <c r="T44" s="188"/>
+      <c r="U44" s="188"/>
+      <c r="V44" s="188"/>
+      <c r="W44" s="188"/>
+      <c r="X44" s="188"/>
+      <c r="Y44" s="188"/>
+      <c r="Z44" s="188"/>
+      <c r="AA44" s="188"/>
+      <c r="AB44" s="188"/>
+      <c r="AC44" s="188"/>
+      <c r="AD44" s="189"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8240,34 +8294,34 @@
       <c r="A45" s="4"/>
       <c r="E45" s="9"/>
       <c r="F45" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="189" t="s">
-        <v>62</v>
-      </c>
-      <c r="M45" s="190"/>
-      <c r="N45" s="190"/>
-      <c r="O45" s="190"/>
-      <c r="P45" s="190"/>
-      <c r="Q45" s="190"/>
-      <c r="R45" s="190"/>
-      <c r="S45" s="190"/>
-      <c r="T45" s="190"/>
-      <c r="U45" s="190"/>
-      <c r="V45" s="190"/>
-      <c r="W45" s="190"/>
-      <c r="X45" s="190"/>
-      <c r="Y45" s="190"/>
-      <c r="Z45" s="190"/>
-      <c r="AA45" s="190"/>
-      <c r="AB45" s="190"/>
-      <c r="AC45" s="190"/>
-      <c r="AD45" s="191"/>
+      <c r="L45" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="M45" s="188"/>
+      <c r="N45" s="188"/>
+      <c r="O45" s="188"/>
+      <c r="P45" s="188"/>
+      <c r="Q45" s="188"/>
+      <c r="R45" s="188"/>
+      <c r="S45" s="188"/>
+      <c r="T45" s="188"/>
+      <c r="U45" s="188"/>
+      <c r="V45" s="188"/>
+      <c r="W45" s="188"/>
+      <c r="X45" s="188"/>
+      <c r="Y45" s="188"/>
+      <c r="Z45" s="188"/>
+      <c r="AA45" s="188"/>
+      <c r="AB45" s="188"/>
+      <c r="AC45" s="188"/>
+      <c r="AD45" s="189"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8305,7 +8359,7 @@
     <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="F47" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -8342,95 +8396,95 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="177" t="s">
-        <v>53</v>
-      </c>
-      <c r="M48" s="178"/>
-      <c r="N48" s="178"/>
-      <c r="O48" s="178"/>
-      <c r="P48" s="178"/>
-      <c r="Q48" s="178"/>
-      <c r="R48" s="178"/>
-      <c r="S48" s="178"/>
-      <c r="T48" s="178"/>
-      <c r="U48" s="178"/>
-      <c r="V48" s="178"/>
-      <c r="W48" s="178"/>
-      <c r="X48" s="178"/>
-      <c r="Y48" s="178"/>
-      <c r="Z48" s="178"/>
-      <c r="AA48" s="178"/>
-      <c r="AB48" s="178"/>
-      <c r="AC48" s="178"/>
-      <c r="AD48" s="179"/>
+      <c r="L48" s="194" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="195"/>
+      <c r="N48" s="195"/>
+      <c r="O48" s="195"/>
+      <c r="P48" s="195"/>
+      <c r="Q48" s="195"/>
+      <c r="R48" s="195"/>
+      <c r="S48" s="195"/>
+      <c r="T48" s="195"/>
+      <c r="U48" s="195"/>
+      <c r="V48" s="195"/>
+      <c r="W48" s="195"/>
+      <c r="X48" s="195"/>
+      <c r="Y48" s="195"/>
+      <c r="Z48" s="195"/>
+      <c r="AA48" s="195"/>
+      <c r="AB48" s="195"/>
+      <c r="AC48" s="195"/>
+      <c r="AD48" s="196"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="F49" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="189" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" s="190"/>
-      <c r="N49" s="190"/>
-      <c r="O49" s="190"/>
-      <c r="P49" s="190"/>
-      <c r="Q49" s="190"/>
-      <c r="R49" s="190"/>
-      <c r="S49" s="190"/>
-      <c r="T49" s="190"/>
-      <c r="U49" s="190"/>
-      <c r="V49" s="190"/>
-      <c r="W49" s="190"/>
-      <c r="X49" s="190"/>
-      <c r="Y49" s="190"/>
-      <c r="Z49" s="190"/>
-      <c r="AA49" s="190"/>
-      <c r="AB49" s="190"/>
-      <c r="AC49" s="190"/>
-      <c r="AD49" s="191"/>
+      <c r="L49" s="187" t="s">
+        <v>50</v>
+      </c>
+      <c r="M49" s="188"/>
+      <c r="N49" s="188"/>
+      <c r="O49" s="188"/>
+      <c r="P49" s="188"/>
+      <c r="Q49" s="188"/>
+      <c r="R49" s="188"/>
+      <c r="S49" s="188"/>
+      <c r="T49" s="188"/>
+      <c r="U49" s="188"/>
+      <c r="V49" s="188"/>
+      <c r="W49" s="188"/>
+      <c r="X49" s="188"/>
+      <c r="Y49" s="188"/>
+      <c r="Z49" s="188"/>
+      <c r="AA49" s="188"/>
+      <c r="AB49" s="188"/>
+      <c r="AC49" s="188"/>
+      <c r="AD49" s="189"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="F50" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="189" t="s">
-        <v>191</v>
-      </c>
-      <c r="M50" s="190"/>
-      <c r="N50" s="190"/>
-      <c r="O50" s="190"/>
-      <c r="P50" s="190"/>
-      <c r="Q50" s="190"/>
-      <c r="R50" s="190"/>
-      <c r="S50" s="190"/>
-      <c r="T50" s="190"/>
-      <c r="U50" s="190"/>
-      <c r="V50" s="190"/>
-      <c r="W50" s="190"/>
-      <c r="X50" s="190"/>
-      <c r="Y50" s="190"/>
-      <c r="Z50" s="190"/>
-      <c r="AA50" s="190"/>
-      <c r="AB50" s="190"/>
-      <c r="AC50" s="190"/>
-      <c r="AD50" s="191"/>
+      <c r="L50" s="187" t="s">
+        <v>190</v>
+      </c>
+      <c r="M50" s="188"/>
+      <c r="N50" s="188"/>
+      <c r="O50" s="188"/>
+      <c r="P50" s="188"/>
+      <c r="Q50" s="188"/>
+      <c r="R50" s="188"/>
+      <c r="S50" s="188"/>
+      <c r="T50" s="188"/>
+      <c r="U50" s="188"/>
+      <c r="V50" s="188"/>
+      <c r="W50" s="188"/>
+      <c r="X50" s="188"/>
+      <c r="Y50" s="188"/>
+      <c r="Z50" s="188"/>
+      <c r="AA50" s="188"/>
+      <c r="AB50" s="188"/>
+      <c r="AC50" s="188"/>
+      <c r="AD50" s="189"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -8450,7 +8504,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP53" s="5"/>
       <c r="AQ53" s="2"/>
@@ -8458,10 +8512,10 @@
     <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AP54" s="5"/>
       <c r="AQ54" s="2"/>
@@ -8469,10 +8523,10 @@
     <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="C55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AP55" s="5"/>
       <c r="AQ55" s="2"/>
@@ -8480,10 +8534,10 @@
     <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="AP56" s="5"/>
       <c r="AQ56" s="2"/>
@@ -8491,10 +8545,10 @@
     <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="C57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AP57" s="5"/>
       <c r="AQ57" s="2"/>
@@ -8630,7 +8684,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -8677,10 +8731,10 @@
       <c r="A76" s="14"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -8726,10 +8780,10 @@
       <c r="A77" s="14"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -8775,10 +8829,10 @@
       <c r="A78" s="14"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -8824,10 +8878,10 @@
       <c r="A79" s="14"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -8874,7 +8928,7 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -9012,7 +9066,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -9059,7 +9113,7 @@
       <c r="A84" s="14"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -9106,10 +9160,10 @@
       <c r="A85" s="14"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -9156,7 +9210,7 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -9202,10 +9256,10 @@
       <c r="A87" s="14"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -9252,7 +9306,7 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -9346,13 +9400,13 @@
       <c r="D90" s="3"/>
       <c r="E90" s="38"/>
       <c r="F90" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G90" s="62"/>
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K90" s="56"/>
       <c r="L90" s="56"/>
@@ -9365,14 +9419,14 @@
       <c r="S90" s="56"/>
       <c r="T90" s="57"/>
       <c r="U90" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V90" s="62"/>
       <c r="W90" s="62"/>
       <c r="X90" s="62"/>
       <c r="Y90" s="62"/>
       <c r="Z90" s="61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA90" s="62"/>
       <c r="AB90" s="62"/>
@@ -9380,7 +9434,7 @@
       <c r="AD90" s="62"/>
       <c r="AE90" s="63"/>
       <c r="AF90" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG90" s="62"/>
       <c r="AH90" s="62"/>
@@ -9405,13 +9459,13 @@
       <c r="H91" s="65"/>
       <c r="I91" s="65"/>
       <c r="J91" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K91" s="59"/>
       <c r="L91" s="59"/>
       <c r="M91" s="60"/>
       <c r="N91" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O91" s="59"/>
       <c r="P91" s="59"/>
@@ -9450,19 +9504,19 @@
       <c r="D92" s="3"/>
       <c r="E92" s="38"/>
       <c r="F92" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="34"/>
       <c r="J92" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="34"/>
       <c r="N92" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O92" s="12"/>
       <c r="P92" s="12"/>
@@ -9471,14 +9525,14 @@
       <c r="S92" s="12"/>
       <c r="T92" s="13"/>
       <c r="U92" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA92" s="12"/>
       <c r="AB92" s="12"/>
@@ -9486,7 +9540,7 @@
       <c r="AD92" s="12"/>
       <c r="AE92" s="13"/>
       <c r="AF92" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG92" s="12"/>
       <c r="AH92" s="12"/>
@@ -9507,19 +9561,19 @@
       <c r="D93" s="3"/>
       <c r="E93" s="38"/>
       <c r="F93" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="34"/>
       <c r="J93" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="34"/>
       <c r="N93" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
@@ -9528,14 +9582,14 @@
       <c r="S93" s="12"/>
       <c r="T93" s="13"/>
       <c r="U93" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
@@ -9543,7 +9597,7 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="13"/>
       <c r="AF93" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG93" s="12"/>
       <c r="AH93" s="12"/>
@@ -9564,19 +9618,19 @@
       <c r="D94" s="3"/>
       <c r="E94" s="38"/>
       <c r="F94" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="34"/>
       <c r="J94" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="34"/>
       <c r="N94" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
@@ -9585,14 +9639,14 @@
       <c r="S94" s="12"/>
       <c r="T94" s="13"/>
       <c r="U94" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
@@ -9600,7 +9654,7 @@
       <c r="AD94" s="12"/>
       <c r="AE94" s="13"/>
       <c r="AF94" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG94" s="12"/>
       <c r="AH94" s="12"/>
@@ -9627,13 +9681,13 @@
       <c r="H95" s="12"/>
       <c r="I95" s="34"/>
       <c r="J95" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="34"/>
       <c r="N95" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
@@ -9642,14 +9696,14 @@
       <c r="S95" s="12"/>
       <c r="T95" s="13"/>
       <c r="U95" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V95" s="12"/>
       <c r="W95" s="12"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA95" s="12"/>
       <c r="AB95" s="12"/>
@@ -9657,7 +9711,7 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="13"/>
       <c r="AF95" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG95" s="12"/>
       <c r="AH95" s="12"/>
@@ -9684,13 +9738,13 @@
       <c r="H96" s="12"/>
       <c r="I96" s="34"/>
       <c r="J96" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="34"/>
       <c r="N96" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
@@ -9699,14 +9753,14 @@
       <c r="S96" s="12"/>
       <c r="T96" s="13"/>
       <c r="U96" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA96" s="12"/>
       <c r="AB96" s="12"/>
@@ -9714,7 +9768,7 @@
       <c r="AD96" s="12"/>
       <c r="AE96" s="13"/>
       <c r="AF96" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG96" s="12"/>
       <c r="AH96" s="12"/>
@@ -9777,7 +9831,7 @@
       <c r="A98" s="14"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -9824,10 +9878,10 @@
       <c r="A99" s="14"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -9873,10 +9927,10 @@
       <c r="A100" s="14"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -9923,7 +9977,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -10017,13 +10071,13 @@
       <c r="D103" s="3"/>
       <c r="E103" s="38"/>
       <c r="F103" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G103" s="62"/>
       <c r="H103" s="62"/>
       <c r="I103" s="62"/>
       <c r="J103" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K103" s="56"/>
       <c r="L103" s="56"/>
@@ -10036,14 +10090,14 @@
       <c r="S103" s="56"/>
       <c r="T103" s="57"/>
       <c r="U103" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V103" s="62"/>
       <c r="W103" s="62"/>
       <c r="X103" s="62"/>
       <c r="Y103" s="62"/>
       <c r="Z103" s="61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA103" s="62"/>
       <c r="AB103" s="62"/>
@@ -10051,7 +10105,7 @@
       <c r="AD103" s="62"/>
       <c r="AE103" s="63"/>
       <c r="AF103" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG103" s="62"/>
       <c r="AH103" s="62"/>
@@ -10076,13 +10130,13 @@
       <c r="H104" s="65"/>
       <c r="I104" s="65"/>
       <c r="J104" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K104" s="59"/>
       <c r="L104" s="59"/>
       <c r="M104" s="60"/>
       <c r="N104" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O104" s="59"/>
       <c r="P104" s="59"/>
@@ -10121,19 +10175,19 @@
       <c r="D105" s="3"/>
       <c r="E105" s="38"/>
       <c r="F105" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="34"/>
       <c r="J105" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="34"/>
       <c r="N105" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
@@ -10142,14 +10196,14 @@
       <c r="S105" s="12"/>
       <c r="T105" s="13"/>
       <c r="U105" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V105" s="12"/>
       <c r="W105" s="12"/>
       <c r="X105" s="12"/>
       <c r="Y105" s="13"/>
       <c r="Z105" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA105" s="12"/>
       <c r="AB105" s="12"/>
@@ -10157,7 +10211,7 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="13"/>
       <c r="AF105" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG105" s="12"/>
       <c r="AH105" s="12"/>
@@ -10178,19 +10232,19 @@
       <c r="D106" s="3"/>
       <c r="E106" s="38"/>
       <c r="F106" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="34"/>
       <c r="J106" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="34"/>
       <c r="N106" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
@@ -10199,14 +10253,14 @@
       <c r="S106" s="12"/>
       <c r="T106" s="13"/>
       <c r="U106" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V106" s="12"/>
       <c r="W106" s="12"/>
       <c r="X106" s="12"/>
       <c r="Y106" s="13"/>
       <c r="Z106" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA106" s="12"/>
       <c r="AB106" s="12"/>
@@ -10214,7 +10268,7 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="13"/>
       <c r="AF106" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG106" s="12"/>
       <c r="AH106" s="12"/>
@@ -10235,19 +10289,19 @@
       <c r="D107" s="3"/>
       <c r="E107" s="38"/>
       <c r="F107" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="34"/>
       <c r="J107" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="34"/>
       <c r="N107" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -10256,14 +10310,14 @@
       <c r="S107" s="12"/>
       <c r="T107" s="13"/>
       <c r="U107" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA107" s="12"/>
       <c r="AB107" s="12"/>
@@ -10271,7 +10325,7 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="13"/>
       <c r="AF107" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG107" s="12"/>
       <c r="AH107" s="12"/>
@@ -10298,13 +10352,13 @@
       <c r="H108" s="12"/>
       <c r="I108" s="34"/>
       <c r="J108" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="34"/>
       <c r="N108" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
@@ -10313,14 +10367,14 @@
       <c r="S108" s="12"/>
       <c r="T108" s="13"/>
       <c r="U108" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="13"/>
       <c r="Z108" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA108" s="12"/>
       <c r="AB108" s="12"/>
@@ -10328,7 +10382,7 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="13"/>
       <c r="AF108" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG108" s="12"/>
       <c r="AH108" s="12"/>
@@ -10355,13 +10409,13 @@
       <c r="H109" s="12"/>
       <c r="I109" s="34"/>
       <c r="J109" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="34"/>
       <c r="N109" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
@@ -10370,14 +10424,14 @@
       <c r="S109" s="12"/>
       <c r="T109" s="13"/>
       <c r="U109" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V109" s="12"/>
       <c r="W109" s="12"/>
       <c r="X109" s="12"/>
       <c r="Y109" s="13"/>
       <c r="Z109" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA109" s="12"/>
       <c r="AB109" s="12"/>
@@ -10385,7 +10439,7 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="13"/>
       <c r="AF109" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG109" s="12"/>
       <c r="AH109" s="12"/>
@@ -10488,7 +10542,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -10538,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -10587,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -10681,14 +10735,14 @@
       <c r="D116" s="3"/>
       <c r="E116" s="38"/>
       <c r="F116" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G116" s="86"/>
       <c r="H116" s="86"/>
       <c r="I116" s="86"/>
       <c r="J116" s="86"/>
       <c r="K116" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L116" s="86"/>
       <c r="M116" s="86"/>
@@ -10730,14 +10784,14 @@
       <c r="D117" s="3"/>
       <c r="E117" s="38"/>
       <c r="F117" s="84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="17"/>
       <c r="K117" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -10779,14 +10833,14 @@
       <c r="D118" s="3"/>
       <c r="E118" s="38"/>
       <c r="F118" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G118" s="105"/>
       <c r="H118" s="105"/>
       <c r="I118" s="105"/>
       <c r="J118" s="105"/>
       <c r="K118" s="109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L118" s="105"/>
       <c r="M118" s="105"/>
@@ -10828,14 +10882,14 @@
       <c r="D119" s="3"/>
       <c r="E119" s="38"/>
       <c r="F119" s="125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G119" s="113"/>
       <c r="H119" s="113"/>
       <c r="I119" s="113"/>
       <c r="J119" s="113"/>
       <c r="K119" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L119" s="113"/>
       <c r="M119" s="113"/>
@@ -10977,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP123" s="5"/>
       <c r="AQ123" s="2"/>
@@ -11033,30 +11087,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="177" t="s">
+      <c r="S125" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="178"/>
-      <c r="U125" s="178"/>
-      <c r="V125" s="178"/>
-      <c r="W125" s="178"/>
-      <c r="X125" s="179"/>
-      <c r="Y125" s="177" t="s">
+      <c r="T125" s="195"/>
+      <c r="U125" s="195"/>
+      <c r="V125" s="195"/>
+      <c r="W125" s="195"/>
+      <c r="X125" s="196"/>
+      <c r="Y125" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="178"/>
-      <c r="AA125" s="178"/>
-      <c r="AB125" s="178"/>
-      <c r="AC125" s="178"/>
-      <c r="AD125" s="179"/>
-      <c r="AE125" s="177" t="s">
+      <c r="Z125" s="195"/>
+      <c r="AA125" s="195"/>
+      <c r="AB125" s="195"/>
+      <c r="AC125" s="195"/>
+      <c r="AD125" s="196"/>
+      <c r="AE125" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="178"/>
-      <c r="AG125" s="178"/>
-      <c r="AH125" s="178"/>
-      <c r="AI125" s="178"/>
-      <c r="AJ125" s="179"/>
+      <c r="AF125" s="195"/>
+      <c r="AG125" s="195"/>
+      <c r="AH125" s="195"/>
+      <c r="AI125" s="195"/>
+      <c r="AJ125" s="196"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11078,30 +11132,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="189" t="s">
+      <c r="S126" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="190"/>
-      <c r="U126" s="190"/>
-      <c r="V126" s="190"/>
-      <c r="W126" s="190"/>
-      <c r="X126" s="191"/>
-      <c r="Y126" s="189" t="s">
+      <c r="T126" s="188"/>
+      <c r="U126" s="188"/>
+      <c r="V126" s="188"/>
+      <c r="W126" s="188"/>
+      <c r="X126" s="189"/>
+      <c r="Y126" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="190"/>
-      <c r="AA126" s="190"/>
-      <c r="AB126" s="190"/>
-      <c r="AC126" s="190"/>
-      <c r="AD126" s="191"/>
-      <c r="AE126" s="189" t="s">
+      <c r="Z126" s="188"/>
+      <c r="AA126" s="188"/>
+      <c r="AB126" s="188"/>
+      <c r="AC126" s="188"/>
+      <c r="AD126" s="189"/>
+      <c r="AE126" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="190"/>
-      <c r="AG126" s="190"/>
-      <c r="AH126" s="190"/>
-      <c r="AI126" s="190"/>
-      <c r="AJ126" s="191"/>
+      <c r="AF126" s="188"/>
+      <c r="AG126" s="188"/>
+      <c r="AH126" s="188"/>
+      <c r="AI126" s="188"/>
+      <c r="AJ126" s="189"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11162,30 +11216,30 @@
       <c r="P128" s="142"/>
       <c r="Q128" s="142"/>
       <c r="R128" s="143"/>
-      <c r="S128" s="213" t="s">
+      <c r="S128" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="214"/>
-      <c r="U128" s="214"/>
-      <c r="V128" s="214"/>
-      <c r="W128" s="214"/>
-      <c r="X128" s="215"/>
-      <c r="Y128" s="213" t="s">
+      <c r="T128" s="191"/>
+      <c r="U128" s="191"/>
+      <c r="V128" s="191"/>
+      <c r="W128" s="191"/>
+      <c r="X128" s="192"/>
+      <c r="Y128" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="214"/>
-      <c r="AA128" s="214"/>
-      <c r="AB128" s="214"/>
-      <c r="AC128" s="214"/>
-      <c r="AD128" s="215"/>
-      <c r="AE128" s="213" t="s">
+      <c r="Z128" s="191"/>
+      <c r="AA128" s="191"/>
+      <c r="AB128" s="191"/>
+      <c r="AC128" s="191"/>
+      <c r="AD128" s="192"/>
+      <c r="AE128" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="214"/>
-      <c r="AG128" s="214"/>
-      <c r="AH128" s="214"/>
-      <c r="AI128" s="214"/>
-      <c r="AJ128" s="215"/>
+      <c r="AF128" s="191"/>
+      <c r="AG128" s="191"/>
+      <c r="AH128" s="191"/>
+      <c r="AI128" s="191"/>
+      <c r="AJ128" s="192"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11207,30 +11261,30 @@
       <c r="P129" s="139"/>
       <c r="Q129" s="139"/>
       <c r="R129" s="144"/>
-      <c r="S129" s="216" t="s">
+      <c r="S129" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="216"/>
-      <c r="U129" s="216"/>
-      <c r="V129" s="216"/>
-      <c r="W129" s="216"/>
-      <c r="X129" s="216"/>
-      <c r="Y129" s="216" t="s">
+      <c r="T129" s="193"/>
+      <c r="U129" s="193"/>
+      <c r="V129" s="193"/>
+      <c r="W129" s="193"/>
+      <c r="X129" s="193"/>
+      <c r="Y129" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="216"/>
-      <c r="AA129" s="216"/>
-      <c r="AB129" s="216"/>
-      <c r="AC129" s="216"/>
-      <c r="AD129" s="216"/>
-      <c r="AE129" s="216" t="s">
+      <c r="Z129" s="193"/>
+      <c r="AA129" s="193"/>
+      <c r="AB129" s="193"/>
+      <c r="AC129" s="193"/>
+      <c r="AD129" s="193"/>
+      <c r="AE129" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="216"/>
-      <c r="AG129" s="216"/>
-      <c r="AH129" s="216"/>
-      <c r="AI129" s="216"/>
-      <c r="AJ129" s="216"/>
+      <c r="AF129" s="193"/>
+      <c r="AG129" s="193"/>
+      <c r="AH129" s="193"/>
+      <c r="AI129" s="193"/>
+      <c r="AJ129" s="193"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11254,30 +11308,30 @@
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
       <c r="R130" s="145"/>
-      <c r="S130" s="168" t="s">
+      <c r="S130" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="169"/>
-      <c r="U130" s="169"/>
-      <c r="V130" s="169"/>
-      <c r="W130" s="169"/>
-      <c r="X130" s="170"/>
-      <c r="Y130" s="168" t="s">
+      <c r="T130" s="170"/>
+      <c r="U130" s="170"/>
+      <c r="V130" s="170"/>
+      <c r="W130" s="170"/>
+      <c r="X130" s="171"/>
+      <c r="Y130" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="169"/>
-      <c r="AA130" s="169"/>
-      <c r="AB130" s="169"/>
-      <c r="AC130" s="169"/>
-      <c r="AD130" s="170"/>
-      <c r="AE130" s="168" t="s">
+      <c r="Z130" s="170"/>
+      <c r="AA130" s="170"/>
+      <c r="AB130" s="170"/>
+      <c r="AC130" s="170"/>
+      <c r="AD130" s="171"/>
+      <c r="AE130" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="169"/>
-      <c r="AG130" s="169"/>
-      <c r="AH130" s="169"/>
-      <c r="AI130" s="169"/>
-      <c r="AJ130" s="170"/>
+      <c r="AF130" s="170"/>
+      <c r="AG130" s="170"/>
+      <c r="AH130" s="170"/>
+      <c r="AI130" s="170"/>
+      <c r="AJ130" s="171"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11295,30 +11349,30 @@
       <c r="P131" s="75"/>
       <c r="Q131" s="75"/>
       <c r="R131" s="145"/>
-      <c r="S131" s="168" t="s">
+      <c r="S131" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="169"/>
-      <c r="U131" s="169"/>
-      <c r="V131" s="169"/>
-      <c r="W131" s="169"/>
-      <c r="X131" s="170"/>
-      <c r="Y131" s="168" t="s">
+      <c r="T131" s="170"/>
+      <c r="U131" s="170"/>
+      <c r="V131" s="170"/>
+      <c r="W131" s="170"/>
+      <c r="X131" s="171"/>
+      <c r="Y131" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="169"/>
-      <c r="AA131" s="169"/>
-      <c r="AB131" s="169"/>
-      <c r="AC131" s="169"/>
-      <c r="AD131" s="170"/>
-      <c r="AE131" s="168" t="s">
+      <c r="Z131" s="170"/>
+      <c r="AA131" s="170"/>
+      <c r="AB131" s="170"/>
+      <c r="AC131" s="170"/>
+      <c r="AD131" s="171"/>
+      <c r="AE131" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="169"/>
-      <c r="AG131" s="169"/>
-      <c r="AH131" s="169"/>
-      <c r="AI131" s="169"/>
-      <c r="AJ131" s="170"/>
+      <c r="AF131" s="170"/>
+      <c r="AG131" s="170"/>
+      <c r="AH131" s="170"/>
+      <c r="AI131" s="170"/>
+      <c r="AJ131" s="171"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11340,30 +11394,30 @@
       <c r="P132" s="75"/>
       <c r="Q132" s="75"/>
       <c r="R132" s="145"/>
-      <c r="S132" s="168" t="s">
+      <c r="S132" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="169"/>
-      <c r="U132" s="169"/>
-      <c r="V132" s="169"/>
-      <c r="W132" s="169"/>
-      <c r="X132" s="170"/>
-      <c r="Y132" s="168" t="s">
+      <c r="T132" s="170"/>
+      <c r="U132" s="170"/>
+      <c r="V132" s="170"/>
+      <c r="W132" s="170"/>
+      <c r="X132" s="171"/>
+      <c r="Y132" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="169"/>
-      <c r="AA132" s="169"/>
-      <c r="AB132" s="169"/>
-      <c r="AC132" s="169"/>
-      <c r="AD132" s="170"/>
-      <c r="AE132" s="168" t="s">
+      <c r="Z132" s="170"/>
+      <c r="AA132" s="170"/>
+      <c r="AB132" s="170"/>
+      <c r="AC132" s="170"/>
+      <c r="AD132" s="171"/>
+      <c r="AE132" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="169"/>
-      <c r="AG132" s="169"/>
-      <c r="AH132" s="169"/>
-      <c r="AI132" s="169"/>
-      <c r="AJ132" s="170"/>
+      <c r="AF132" s="170"/>
+      <c r="AG132" s="170"/>
+      <c r="AH132" s="170"/>
+      <c r="AI132" s="170"/>
+      <c r="AJ132" s="171"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11372,7 +11426,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="68"/>
       <c r="G133" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
@@ -11385,30 +11439,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="210" t="s">
+      <c r="S133" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="211"/>
-      <c r="U133" s="211"/>
-      <c r="V133" s="211"/>
-      <c r="W133" s="211"/>
-      <c r="X133" s="212"/>
-      <c r="Y133" s="210" t="s">
+      <c r="T133" s="176"/>
+      <c r="U133" s="176"/>
+      <c r="V133" s="176"/>
+      <c r="W133" s="176"/>
+      <c r="X133" s="177"/>
+      <c r="Y133" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="211"/>
-      <c r="AA133" s="211"/>
-      <c r="AB133" s="211"/>
-      <c r="AC133" s="211"/>
-      <c r="AD133" s="212"/>
-      <c r="AE133" s="210" t="s">
+      <c r="Z133" s="176"/>
+      <c r="AA133" s="176"/>
+      <c r="AB133" s="176"/>
+      <c r="AC133" s="176"/>
+      <c r="AD133" s="177"/>
+      <c r="AE133" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="211"/>
-      <c r="AG133" s="211"/>
-      <c r="AH133" s="211"/>
-      <c r="AI133" s="211"/>
-      <c r="AJ133" s="212"/>
+      <c r="AF133" s="176"/>
+      <c r="AG133" s="176"/>
+      <c r="AH133" s="176"/>
+      <c r="AI133" s="176"/>
+      <c r="AJ133" s="177"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11417,7 +11471,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="15"/>
       <c r="G134" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H134" s="23"/>
       <c r="I134" s="23"/>
@@ -11432,30 +11486,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="210" t="s">
+      <c r="S134" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="211"/>
-      <c r="U134" s="211"/>
-      <c r="V134" s="211"/>
-      <c r="W134" s="211"/>
-      <c r="X134" s="212"/>
-      <c r="Y134" s="210" t="s">
+      <c r="T134" s="176"/>
+      <c r="U134" s="176"/>
+      <c r="V134" s="176"/>
+      <c r="W134" s="176"/>
+      <c r="X134" s="177"/>
+      <c r="Y134" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="211"/>
-      <c r="AA134" s="211"/>
-      <c r="AB134" s="211"/>
-      <c r="AC134" s="211"/>
-      <c r="AD134" s="212"/>
-      <c r="AE134" s="210" t="s">
+      <c r="Z134" s="176"/>
+      <c r="AA134" s="176"/>
+      <c r="AB134" s="176"/>
+      <c r="AC134" s="176"/>
+      <c r="AD134" s="177"/>
+      <c r="AE134" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="211"/>
-      <c r="AG134" s="211"/>
-      <c r="AH134" s="211"/>
-      <c r="AI134" s="211"/>
-      <c r="AJ134" s="212"/>
+      <c r="AF134" s="176"/>
+      <c r="AG134" s="176"/>
+      <c r="AH134" s="176"/>
+      <c r="AI134" s="176"/>
+      <c r="AJ134" s="177"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11473,30 +11527,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="210" t="s">
+      <c r="S135" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="211"/>
-      <c r="U135" s="211"/>
-      <c r="V135" s="211"/>
-      <c r="W135" s="211"/>
-      <c r="X135" s="212"/>
-      <c r="Y135" s="210" t="s">
+      <c r="T135" s="176"/>
+      <c r="U135" s="176"/>
+      <c r="V135" s="176"/>
+      <c r="W135" s="176"/>
+      <c r="X135" s="177"/>
+      <c r="Y135" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="211"/>
-      <c r="AA135" s="211"/>
-      <c r="AB135" s="211"/>
-      <c r="AC135" s="211"/>
-      <c r="AD135" s="212"/>
-      <c r="AE135" s="210" t="s">
+      <c r="Z135" s="176"/>
+      <c r="AA135" s="176"/>
+      <c r="AB135" s="176"/>
+      <c r="AC135" s="176"/>
+      <c r="AD135" s="177"/>
+      <c r="AE135" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="211"/>
-      <c r="AG135" s="211"/>
-      <c r="AH135" s="211"/>
-      <c r="AI135" s="211"/>
-      <c r="AJ135" s="212"/>
+      <c r="AF135" s="176"/>
+      <c r="AG135" s="176"/>
+      <c r="AH135" s="176"/>
+      <c r="AI135" s="176"/>
+      <c r="AJ135" s="177"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11518,30 +11572,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="210" t="s">
+      <c r="S136" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="211"/>
-      <c r="U136" s="211"/>
-      <c r="V136" s="211"/>
-      <c r="W136" s="211"/>
-      <c r="X136" s="212"/>
-      <c r="Y136" s="210" t="s">
+      <c r="T136" s="176"/>
+      <c r="U136" s="176"/>
+      <c r="V136" s="176"/>
+      <c r="W136" s="176"/>
+      <c r="X136" s="177"/>
+      <c r="Y136" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="211"/>
-      <c r="AA136" s="211"/>
-      <c r="AB136" s="211"/>
-      <c r="AC136" s="211"/>
-      <c r="AD136" s="212"/>
-      <c r="AE136" s="210" t="s">
+      <c r="Z136" s="176"/>
+      <c r="AA136" s="176"/>
+      <c r="AB136" s="176"/>
+      <c r="AC136" s="176"/>
+      <c r="AD136" s="177"/>
+      <c r="AE136" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="211"/>
-      <c r="AG136" s="211"/>
-      <c r="AH136" s="211"/>
-      <c r="AI136" s="211"/>
-      <c r="AJ136" s="212"/>
+      <c r="AF136" s="176"/>
+      <c r="AG136" s="176"/>
+      <c r="AH136" s="176"/>
+      <c r="AI136" s="176"/>
+      <c r="AJ136" s="177"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11550,7 +11604,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="68"/>
       <c r="G137" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
@@ -11563,30 +11617,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="217" t="s">
+      <c r="S137" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="218"/>
-      <c r="U137" s="218"/>
-      <c r="V137" s="218"/>
-      <c r="W137" s="218"/>
-      <c r="X137" s="219"/>
-      <c r="Y137" s="217" t="s">
+      <c r="T137" s="173"/>
+      <c r="U137" s="173"/>
+      <c r="V137" s="173"/>
+      <c r="W137" s="173"/>
+      <c r="X137" s="174"/>
+      <c r="Y137" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="218"/>
-      <c r="AA137" s="218"/>
-      <c r="AB137" s="218"/>
-      <c r="AC137" s="218"/>
-      <c r="AD137" s="219"/>
-      <c r="AE137" s="210" t="s">
+      <c r="Z137" s="173"/>
+      <c r="AA137" s="173"/>
+      <c r="AB137" s="173"/>
+      <c r="AC137" s="173"/>
+      <c r="AD137" s="174"/>
+      <c r="AE137" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="211"/>
-      <c r="AG137" s="211"/>
-      <c r="AH137" s="211"/>
-      <c r="AI137" s="211"/>
-      <c r="AJ137" s="212"/>
+      <c r="AF137" s="176"/>
+      <c r="AG137" s="176"/>
+      <c r="AH137" s="176"/>
+      <c r="AI137" s="176"/>
+      <c r="AJ137" s="177"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11595,7 +11649,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="15"/>
       <c r="G138" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H138" s="23"/>
       <c r="I138" s="23"/>
@@ -11610,30 +11664,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="210" t="s">
+      <c r="S138" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="211"/>
-      <c r="U138" s="211"/>
-      <c r="V138" s="211"/>
-      <c r="W138" s="211"/>
-      <c r="X138" s="212"/>
-      <c r="Y138" s="210" t="s">
+      <c r="T138" s="176"/>
+      <c r="U138" s="176"/>
+      <c r="V138" s="176"/>
+      <c r="W138" s="176"/>
+      <c r="X138" s="177"/>
+      <c r="Y138" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="211"/>
-      <c r="AA138" s="211"/>
-      <c r="AB138" s="211"/>
-      <c r="AC138" s="211"/>
-      <c r="AD138" s="212"/>
-      <c r="AE138" s="210" t="s">
+      <c r="Z138" s="176"/>
+      <c r="AA138" s="176"/>
+      <c r="AB138" s="176"/>
+      <c r="AC138" s="176"/>
+      <c r="AD138" s="177"/>
+      <c r="AE138" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="211"/>
-      <c r="AG138" s="211"/>
-      <c r="AH138" s="211"/>
-      <c r="AI138" s="211"/>
-      <c r="AJ138" s="212"/>
+      <c r="AF138" s="176"/>
+      <c r="AG138" s="176"/>
+      <c r="AH138" s="176"/>
+      <c r="AI138" s="176"/>
+      <c r="AJ138" s="177"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11651,30 +11705,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="210" t="s">
+      <c r="S139" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="211"/>
-      <c r="U139" s="211"/>
-      <c r="V139" s="211"/>
-      <c r="W139" s="211"/>
-      <c r="X139" s="212"/>
-      <c r="Y139" s="210" t="s">
+      <c r="T139" s="176"/>
+      <c r="U139" s="176"/>
+      <c r="V139" s="176"/>
+      <c r="W139" s="176"/>
+      <c r="X139" s="177"/>
+      <c r="Y139" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="211"/>
-      <c r="AA139" s="211"/>
-      <c r="AB139" s="211"/>
-      <c r="AC139" s="211"/>
-      <c r="AD139" s="212"/>
-      <c r="AE139" s="210" t="s">
+      <c r="Z139" s="176"/>
+      <c r="AA139" s="176"/>
+      <c r="AB139" s="176"/>
+      <c r="AC139" s="176"/>
+      <c r="AD139" s="177"/>
+      <c r="AE139" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="211"/>
-      <c r="AG139" s="211"/>
-      <c r="AH139" s="211"/>
-      <c r="AI139" s="211"/>
-      <c r="AJ139" s="212"/>
+      <c r="AF139" s="176"/>
+      <c r="AG139" s="176"/>
+      <c r="AH139" s="176"/>
+      <c r="AI139" s="176"/>
+      <c r="AJ139" s="177"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11696,30 +11750,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="210" t="s">
+      <c r="S140" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="211"/>
-      <c r="U140" s="211"/>
-      <c r="V140" s="211"/>
-      <c r="W140" s="211"/>
-      <c r="X140" s="212"/>
-      <c r="Y140" s="210" t="s">
+      <c r="T140" s="176"/>
+      <c r="U140" s="176"/>
+      <c r="V140" s="176"/>
+      <c r="W140" s="176"/>
+      <c r="X140" s="177"/>
+      <c r="Y140" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="211"/>
-      <c r="AA140" s="211"/>
-      <c r="AB140" s="211"/>
-      <c r="AC140" s="211"/>
-      <c r="AD140" s="212"/>
-      <c r="AE140" s="210" t="s">
+      <c r="Z140" s="176"/>
+      <c r="AA140" s="176"/>
+      <c r="AB140" s="176"/>
+      <c r="AC140" s="176"/>
+      <c r="AD140" s="177"/>
+      <c r="AE140" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="211"/>
-      <c r="AG140" s="211"/>
-      <c r="AH140" s="211"/>
-      <c r="AI140" s="211"/>
-      <c r="AJ140" s="212"/>
+      <c r="AF140" s="176"/>
+      <c r="AG140" s="176"/>
+      <c r="AH140" s="176"/>
+      <c r="AI140" s="176"/>
+      <c r="AJ140" s="177"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11728,7 +11782,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="15"/>
       <c r="G141" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H141" s="75"/>
       <c r="I141" s="75"/>
@@ -11741,30 +11795,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="210" t="s">
-        <v>40</v>
-      </c>
-      <c r="T141" s="211"/>
-      <c r="U141" s="211"/>
-      <c r="V141" s="211"/>
-      <c r="W141" s="211"/>
-      <c r="X141" s="212"/>
-      <c r="Y141" s="210" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z141" s="211"/>
-      <c r="AA141" s="211"/>
-      <c r="AB141" s="211"/>
-      <c r="AC141" s="211"/>
-      <c r="AD141" s="212"/>
-      <c r="AE141" s="210" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF141" s="211"/>
-      <c r="AG141" s="211"/>
-      <c r="AH141" s="211"/>
-      <c r="AI141" s="211"/>
-      <c r="AJ141" s="212"/>
+      <c r="S141" s="175" t="s">
+        <v>39</v>
+      </c>
+      <c r="T141" s="176"/>
+      <c r="U141" s="176"/>
+      <c r="V141" s="176"/>
+      <c r="W141" s="176"/>
+      <c r="X141" s="177"/>
+      <c r="Y141" s="175" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z141" s="176"/>
+      <c r="AA141" s="176"/>
+      <c r="AB141" s="176"/>
+      <c r="AC141" s="176"/>
+      <c r="AD141" s="177"/>
+      <c r="AE141" s="175" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF141" s="176"/>
+      <c r="AG141" s="176"/>
+      <c r="AH141" s="176"/>
+      <c r="AI141" s="176"/>
+      <c r="AJ141" s="177"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11773,7 +11827,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="15"/>
       <c r="G142" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -11788,30 +11842,30 @@
       <c r="P142" s="146"/>
       <c r="Q142" s="146"/>
       <c r="R142" s="147"/>
-      <c r="S142" s="210" t="s">
+      <c r="S142" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="211"/>
-      <c r="U142" s="211"/>
-      <c r="V142" s="211"/>
-      <c r="W142" s="211"/>
-      <c r="X142" s="212"/>
-      <c r="Y142" s="210" t="s">
+      <c r="T142" s="176"/>
+      <c r="U142" s="176"/>
+      <c r="V142" s="176"/>
+      <c r="W142" s="176"/>
+      <c r="X142" s="177"/>
+      <c r="Y142" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="211"/>
-      <c r="AA142" s="211"/>
-      <c r="AB142" s="211"/>
-      <c r="AC142" s="211"/>
-      <c r="AD142" s="212"/>
-      <c r="AE142" s="210" t="s">
+      <c r="Z142" s="176"/>
+      <c r="AA142" s="176"/>
+      <c r="AB142" s="176"/>
+      <c r="AC142" s="176"/>
+      <c r="AD142" s="177"/>
+      <c r="AE142" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="211"/>
-      <c r="AG142" s="211"/>
-      <c r="AH142" s="211"/>
-      <c r="AI142" s="211"/>
-      <c r="AJ142" s="212"/>
+      <c r="AF142" s="176"/>
+      <c r="AG142" s="176"/>
+      <c r="AH142" s="176"/>
+      <c r="AI142" s="176"/>
+      <c r="AJ142" s="177"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11829,30 +11883,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="210" t="s">
+      <c r="S143" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="211"/>
-      <c r="U143" s="211"/>
-      <c r="V143" s="211"/>
-      <c r="W143" s="211"/>
-      <c r="X143" s="212"/>
-      <c r="Y143" s="210" t="s">
+      <c r="T143" s="176"/>
+      <c r="U143" s="176"/>
+      <c r="V143" s="176"/>
+      <c r="W143" s="176"/>
+      <c r="X143" s="177"/>
+      <c r="Y143" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="211"/>
-      <c r="AA143" s="211"/>
-      <c r="AB143" s="211"/>
-      <c r="AC143" s="211"/>
-      <c r="AD143" s="212"/>
-      <c r="AE143" s="210" t="s">
+      <c r="Z143" s="176"/>
+      <c r="AA143" s="176"/>
+      <c r="AB143" s="176"/>
+      <c r="AC143" s="176"/>
+      <c r="AD143" s="177"/>
+      <c r="AE143" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="211"/>
-      <c r="AG143" s="211"/>
-      <c r="AH143" s="211"/>
-      <c r="AI143" s="211"/>
-      <c r="AJ143" s="212"/>
+      <c r="AF143" s="176"/>
+      <c r="AG143" s="176"/>
+      <c r="AH143" s="176"/>
+      <c r="AI143" s="176"/>
+      <c r="AJ143" s="177"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11874,30 +11928,30 @@
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="76"/>
-      <c r="S144" s="168" t="s">
+      <c r="S144" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="169"/>
-      <c r="U144" s="169"/>
-      <c r="V144" s="169"/>
-      <c r="W144" s="169"/>
-      <c r="X144" s="170"/>
-      <c r="Y144" s="168" t="s">
+      <c r="T144" s="170"/>
+      <c r="U144" s="170"/>
+      <c r="V144" s="170"/>
+      <c r="W144" s="170"/>
+      <c r="X144" s="171"/>
+      <c r="Y144" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z144" s="169"/>
-      <c r="AA144" s="169"/>
-      <c r="AB144" s="169"/>
-      <c r="AC144" s="169"/>
-      <c r="AD144" s="170"/>
-      <c r="AE144" s="168" t="s">
+      <c r="Z144" s="170"/>
+      <c r="AA144" s="170"/>
+      <c r="AB144" s="170"/>
+      <c r="AC144" s="170"/>
+      <c r="AD144" s="171"/>
+      <c r="AE144" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="169"/>
-      <c r="AG144" s="169"/>
-      <c r="AH144" s="169"/>
-      <c r="AI144" s="169"/>
-      <c r="AJ144" s="170"/>
+      <c r="AF144" s="170"/>
+      <c r="AG144" s="170"/>
+      <c r="AH144" s="170"/>
+      <c r="AI144" s="170"/>
+      <c r="AJ144" s="171"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -11919,30 +11973,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="210" t="s">
+      <c r="S145" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="211"/>
-      <c r="U145" s="211"/>
-      <c r="V145" s="211"/>
-      <c r="W145" s="211"/>
-      <c r="X145" s="212"/>
-      <c r="Y145" s="210" t="s">
+      <c r="T145" s="176"/>
+      <c r="U145" s="176"/>
+      <c r="V145" s="176"/>
+      <c r="W145" s="176"/>
+      <c r="X145" s="177"/>
+      <c r="Y145" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="211"/>
-      <c r="AA145" s="211"/>
-      <c r="AB145" s="211"/>
-      <c r="AC145" s="211"/>
-      <c r="AD145" s="212"/>
-      <c r="AE145" s="210" t="s">
+      <c r="Z145" s="176"/>
+      <c r="AA145" s="176"/>
+      <c r="AB145" s="176"/>
+      <c r="AC145" s="176"/>
+      <c r="AD145" s="177"/>
+      <c r="AE145" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="211"/>
-      <c r="AG145" s="211"/>
-      <c r="AH145" s="211"/>
-      <c r="AI145" s="211"/>
-      <c r="AJ145" s="212"/>
+      <c r="AF145" s="176"/>
+      <c r="AG145" s="176"/>
+      <c r="AH145" s="176"/>
+      <c r="AI145" s="176"/>
+      <c r="AJ145" s="177"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -11951,7 +12005,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="15"/>
       <c r="G146" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H146" s="23"/>
       <c r="I146" s="23"/>
@@ -11966,30 +12020,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="210" t="s">
+      <c r="S146" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="211"/>
-      <c r="U146" s="211"/>
-      <c r="V146" s="211"/>
-      <c r="W146" s="211"/>
-      <c r="X146" s="212"/>
-      <c r="Y146" s="217" t="s">
+      <c r="T146" s="176"/>
+      <c r="U146" s="176"/>
+      <c r="V146" s="176"/>
+      <c r="W146" s="176"/>
+      <c r="X146" s="177"/>
+      <c r="Y146" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="218"/>
-      <c r="AA146" s="218"/>
-      <c r="AB146" s="218"/>
-      <c r="AC146" s="218"/>
-      <c r="AD146" s="219"/>
-      <c r="AE146" s="217" t="s">
+      <c r="Z146" s="173"/>
+      <c r="AA146" s="173"/>
+      <c r="AB146" s="173"/>
+      <c r="AC146" s="173"/>
+      <c r="AD146" s="174"/>
+      <c r="AE146" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="218"/>
-      <c r="AG146" s="218"/>
-      <c r="AH146" s="218"/>
-      <c r="AI146" s="218"/>
-      <c r="AJ146" s="219"/>
+      <c r="AF146" s="173"/>
+      <c r="AG146" s="173"/>
+      <c r="AH146" s="173"/>
+      <c r="AI146" s="173"/>
+      <c r="AJ146" s="174"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -11997,9 +12051,7 @@
       <c r="A147" s="4"/>
       <c r="E147" s="9"/>
       <c r="F147" s="15"/>
-      <c r="G147" s="24" t="s">
-        <v>270</v>
-      </c>
+      <c r="G147" s="24"/>
       <c r="L147" s="79"/>
       <c r="M147" s="75" t="s">
         <v>31</v>
@@ -12009,30 +12061,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="210" t="s">
+      <c r="S147" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="211"/>
-      <c r="U147" s="211"/>
-      <c r="V147" s="211"/>
-      <c r="W147" s="211"/>
-      <c r="X147" s="212"/>
-      <c r="Y147" s="210" t="s">
+      <c r="T147" s="176"/>
+      <c r="U147" s="176"/>
+      <c r="V147" s="176"/>
+      <c r="W147" s="176"/>
+      <c r="X147" s="177"/>
+      <c r="Y147" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="211"/>
-      <c r="AA147" s="211"/>
-      <c r="AB147" s="211"/>
-      <c r="AC147" s="211"/>
-      <c r="AD147" s="212"/>
-      <c r="AE147" s="217" t="s">
+      <c r="Z147" s="176"/>
+      <c r="AA147" s="176"/>
+      <c r="AB147" s="176"/>
+      <c r="AC147" s="176"/>
+      <c r="AD147" s="177"/>
+      <c r="AE147" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="218"/>
-      <c r="AG147" s="218"/>
-      <c r="AH147" s="218"/>
-      <c r="AI147" s="218"/>
-      <c r="AJ147" s="219"/>
+      <c r="AF147" s="173"/>
+      <c r="AG147" s="173"/>
+      <c r="AH147" s="173"/>
+      <c r="AI147" s="173"/>
+      <c r="AJ147" s="174"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12054,30 +12106,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="210" t="s">
+      <c r="S148" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="211"/>
-      <c r="U148" s="211"/>
-      <c r="V148" s="211"/>
-      <c r="W148" s="211"/>
-      <c r="X148" s="212"/>
-      <c r="Y148" s="210" t="s">
+      <c r="T148" s="176"/>
+      <c r="U148" s="176"/>
+      <c r="V148" s="176"/>
+      <c r="W148" s="176"/>
+      <c r="X148" s="177"/>
+      <c r="Y148" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="211"/>
-      <c r="AA148" s="211"/>
-      <c r="AB148" s="211"/>
-      <c r="AC148" s="211"/>
-      <c r="AD148" s="212"/>
-      <c r="AE148" s="217" t="s">
+      <c r="Z148" s="176"/>
+      <c r="AA148" s="176"/>
+      <c r="AB148" s="176"/>
+      <c r="AC148" s="176"/>
+      <c r="AD148" s="177"/>
+      <c r="AE148" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="218"/>
-      <c r="AG148" s="218"/>
-      <c r="AH148" s="218"/>
-      <c r="AI148" s="218"/>
-      <c r="AJ148" s="219"/>
+      <c r="AF148" s="173"/>
+      <c r="AG148" s="173"/>
+      <c r="AH148" s="173"/>
+      <c r="AI148" s="173"/>
+      <c r="AJ148" s="174"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12101,30 +12153,30 @@
       <c r="P149" s="75"/>
       <c r="Q149" s="75"/>
       <c r="R149" s="76"/>
-      <c r="S149" s="168" t="s">
+      <c r="S149" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="169"/>
-      <c r="U149" s="169"/>
-      <c r="V149" s="169"/>
-      <c r="W149" s="169"/>
-      <c r="X149" s="170"/>
-      <c r="Y149" s="168" t="s">
+      <c r="T149" s="170"/>
+      <c r="U149" s="170"/>
+      <c r="V149" s="170"/>
+      <c r="W149" s="170"/>
+      <c r="X149" s="171"/>
+      <c r="Y149" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="169"/>
-      <c r="AA149" s="169"/>
-      <c r="AB149" s="169"/>
-      <c r="AC149" s="169"/>
-      <c r="AD149" s="170"/>
-      <c r="AE149" s="168" t="s">
+      <c r="Z149" s="170"/>
+      <c r="AA149" s="170"/>
+      <c r="AB149" s="170"/>
+      <c r="AC149" s="170"/>
+      <c r="AD149" s="171"/>
+      <c r="AE149" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AF149" s="169"/>
-      <c r="AG149" s="169"/>
-      <c r="AH149" s="169"/>
-      <c r="AI149" s="169"/>
-      <c r="AJ149" s="170"/>
+      <c r="AF149" s="170"/>
+      <c r="AG149" s="170"/>
+      <c r="AH149" s="170"/>
+      <c r="AI149" s="170"/>
+      <c r="AJ149" s="171"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -12132,8 +12184,12 @@
       <c r="A150" s="4"/>
       <c r="E150" s="9"/>
       <c r="F150" s="15"/>
-      <c r="G150" s="24"/>
-      <c r="L150" s="79"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="80"/>
       <c r="M150" s="75" t="s">
         <v>35</v>
       </c>
@@ -12142,30 +12198,30 @@
       <c r="P150" s="75"/>
       <c r="Q150" s="75"/>
       <c r="R150" s="76"/>
-      <c r="S150" s="168" t="s">
+      <c r="S150" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="169"/>
-      <c r="U150" s="169"/>
-      <c r="V150" s="169"/>
-      <c r="W150" s="169"/>
-      <c r="X150" s="170"/>
-      <c r="Y150" s="168" t="s">
+      <c r="T150" s="170"/>
+      <c r="U150" s="170"/>
+      <c r="V150" s="170"/>
+      <c r="W150" s="170"/>
+      <c r="X150" s="171"/>
+      <c r="Y150" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="169"/>
-      <c r="AA150" s="169"/>
-      <c r="AB150" s="169"/>
-      <c r="AC150" s="169"/>
-      <c r="AD150" s="170"/>
-      <c r="AE150" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF150" s="169"/>
-      <c r="AG150" s="169"/>
-      <c r="AH150" s="169"/>
-      <c r="AI150" s="169"/>
-      <c r="AJ150" s="170"/>
+      <c r="Z150" s="170"/>
+      <c r="AA150" s="170"/>
+      <c r="AB150" s="170"/>
+      <c r="AC150" s="170"/>
+      <c r="AD150" s="171"/>
+      <c r="AE150" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF150" s="170"/>
+      <c r="AG150" s="170"/>
+      <c r="AH150" s="170"/>
+      <c r="AI150" s="170"/>
+      <c r="AJ150" s="171"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12173,44 +12229,46 @@
       <c r="A151" s="4"/>
       <c r="E151" s="9"/>
       <c r="F151" s="15"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="26"/>
-      <c r="K151" s="26"/>
-      <c r="L151" s="80"/>
-      <c r="M151" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="N151" s="148"/>
-      <c r="O151" s="148"/>
-      <c r="P151" s="148"/>
-      <c r="Q151" s="148"/>
-      <c r="R151" s="149"/>
-      <c r="S151" s="171" t="s">
+      <c r="G151" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="23"/>
+      <c r="K151" s="23"/>
+      <c r="L151" s="78"/>
+      <c r="M151" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N151" s="75"/>
+      <c r="O151" s="75"/>
+      <c r="P151" s="75"/>
+      <c r="Q151" s="75"/>
+      <c r="R151" s="76"/>
+      <c r="S151" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="172"/>
-      <c r="U151" s="172"/>
-      <c r="V151" s="172"/>
-      <c r="W151" s="172"/>
-      <c r="X151" s="173"/>
-      <c r="Y151" s="171" t="s">
+      <c r="T151" s="170"/>
+      <c r="U151" s="170"/>
+      <c r="V151" s="170"/>
+      <c r="W151" s="170"/>
+      <c r="X151" s="171"/>
+      <c r="Y151" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="172"/>
-      <c r="AA151" s="172"/>
-      <c r="AB151" s="172"/>
-      <c r="AC151" s="172"/>
-      <c r="AD151" s="173"/>
-      <c r="AE151" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF151" s="172"/>
-      <c r="AG151" s="172"/>
-      <c r="AH151" s="172"/>
-      <c r="AI151" s="172"/>
-      <c r="AJ151" s="173"/>
+      <c r="Z151" s="170"/>
+      <c r="AA151" s="170"/>
+      <c r="AB151" s="170"/>
+      <c r="AC151" s="170"/>
+      <c r="AD151" s="171"/>
+      <c r="AE151" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF151" s="170"/>
+      <c r="AG151" s="170"/>
+      <c r="AH151" s="170"/>
+      <c r="AI151" s="170"/>
+      <c r="AJ151" s="171"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12218,46 +12276,44 @@
       <c r="A152" s="4"/>
       <c r="E152" s="9"/>
       <c r="F152" s="15"/>
-      <c r="G152" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="H152" s="23"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="78"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="80"/>
       <c r="M152" s="75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N152" s="75"/>
       <c r="O152" s="75"/>
       <c r="P152" s="75"/>
       <c r="Q152" s="75"/>
       <c r="R152" s="76"/>
-      <c r="S152" s="168" t="s">
+      <c r="S152" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="169"/>
-      <c r="U152" s="169"/>
-      <c r="V152" s="169"/>
-      <c r="W152" s="169"/>
-      <c r="X152" s="170"/>
-      <c r="Y152" s="168" t="s">
+      <c r="T152" s="170"/>
+      <c r="U152" s="170"/>
+      <c r="V152" s="170"/>
+      <c r="W152" s="170"/>
+      <c r="X152" s="171"/>
+      <c r="Y152" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="169"/>
-      <c r="AA152" s="169"/>
-      <c r="AB152" s="169"/>
-      <c r="AC152" s="169"/>
-      <c r="AD152" s="170"/>
-      <c r="AE152" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF152" s="169"/>
-      <c r="AG152" s="169"/>
-      <c r="AH152" s="169"/>
-      <c r="AI152" s="169"/>
-      <c r="AJ152" s="170"/>
+      <c r="Z152" s="170"/>
+      <c r="AA152" s="170"/>
+      <c r="AB152" s="170"/>
+      <c r="AC152" s="170"/>
+      <c r="AD152" s="171"/>
+      <c r="AE152" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF152" s="170"/>
+      <c r="AG152" s="170"/>
+      <c r="AH152" s="170"/>
+      <c r="AI152" s="170"/>
+      <c r="AJ152" s="171"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12265,40 +12321,46 @@
       <c r="A153" s="4"/>
       <c r="E153" s="9"/>
       <c r="F153" s="15"/>
-      <c r="G153" s="24"/>
-      <c r="L153" s="79"/>
+      <c r="G153" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H153" s="23"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="23"/>
+      <c r="L153" s="78"/>
       <c r="M153" s="75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N153" s="75"/>
       <c r="O153" s="75"/>
       <c r="P153" s="75"/>
       <c r="Q153" s="75"/>
       <c r="R153" s="76"/>
-      <c r="S153" s="168" t="s">
+      <c r="S153" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="169"/>
-      <c r="U153" s="169"/>
-      <c r="V153" s="169"/>
-      <c r="W153" s="169"/>
-      <c r="X153" s="170"/>
-      <c r="Y153" s="168" t="s">
+      <c r="T153" s="170"/>
+      <c r="U153" s="170"/>
+      <c r="V153" s="170"/>
+      <c r="W153" s="170"/>
+      <c r="X153" s="171"/>
+      <c r="Y153" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="169"/>
-      <c r="AA153" s="169"/>
-      <c r="AB153" s="169"/>
-      <c r="AC153" s="169"/>
-      <c r="AD153" s="170"/>
-      <c r="AE153" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF153" s="169"/>
-      <c r="AG153" s="169"/>
-      <c r="AH153" s="169"/>
-      <c r="AI153" s="169"/>
-      <c r="AJ153" s="170"/>
+      <c r="Z153" s="170"/>
+      <c r="AA153" s="170"/>
+      <c r="AB153" s="170"/>
+      <c r="AC153" s="170"/>
+      <c r="AD153" s="171"/>
+      <c r="AE153" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF153" s="179"/>
+      <c r="AG153" s="179"/>
+      <c r="AH153" s="179"/>
+      <c r="AI153" s="179"/>
+      <c r="AJ153" s="180"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12306,44 +12368,46 @@
       <c r="A154" s="4"/>
       <c r="E154" s="9"/>
       <c r="F154" s="15"/>
-      <c r="G154" s="25"/>
+      <c r="G154" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="H154" s="26"/>
       <c r="I154" s="26"/>
       <c r="J154" s="26"/>
       <c r="K154" s="26"/>
       <c r="L154" s="80"/>
-      <c r="M154" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="N154" s="148"/>
-      <c r="O154" s="148"/>
-      <c r="P154" s="148"/>
-      <c r="Q154" s="148"/>
-      <c r="R154" s="149"/>
-      <c r="S154" s="171" t="s">
+      <c r="M154" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="N154" s="75"/>
+      <c r="O154" s="75"/>
+      <c r="P154" s="75"/>
+      <c r="Q154" s="75"/>
+      <c r="R154" s="76"/>
+      <c r="S154" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="172"/>
-      <c r="U154" s="172"/>
-      <c r="V154" s="172"/>
-      <c r="W154" s="172"/>
-      <c r="X154" s="173"/>
-      <c r="Y154" s="171" t="s">
+      <c r="T154" s="170"/>
+      <c r="U154" s="170"/>
+      <c r="V154" s="170"/>
+      <c r="W154" s="170"/>
+      <c r="X154" s="171"/>
+      <c r="Y154" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="172"/>
-      <c r="AA154" s="172"/>
-      <c r="AB154" s="172"/>
-      <c r="AC154" s="172"/>
-      <c r="AD154" s="173"/>
-      <c r="AE154" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF154" s="172"/>
-      <c r="AG154" s="172"/>
-      <c r="AH154" s="172"/>
-      <c r="AI154" s="172"/>
-      <c r="AJ154" s="173"/>
+      <c r="Z154" s="170"/>
+      <c r="AA154" s="170"/>
+      <c r="AB154" s="170"/>
+      <c r="AC154" s="170"/>
+      <c r="AD154" s="171"/>
+      <c r="AE154" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF154" s="170"/>
+      <c r="AG154" s="170"/>
+      <c r="AH154" s="170"/>
+      <c r="AI154" s="170"/>
+      <c r="AJ154" s="171"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12352,7 +12416,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="15"/>
       <c r="G155" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155" s="23"/>
       <c r="I155" s="23"/>
@@ -12367,30 +12431,30 @@
       <c r="P155" s="75"/>
       <c r="Q155" s="75"/>
       <c r="R155" s="76"/>
-      <c r="S155" s="168" t="s">
+      <c r="S155" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="169"/>
-      <c r="U155" s="169"/>
-      <c r="V155" s="169"/>
-      <c r="W155" s="169"/>
-      <c r="X155" s="170"/>
-      <c r="Y155" s="168" t="s">
+      <c r="T155" s="170"/>
+      <c r="U155" s="170"/>
+      <c r="V155" s="170"/>
+      <c r="W155" s="170"/>
+      <c r="X155" s="171"/>
+      <c r="Y155" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="169"/>
-      <c r="AA155" s="169"/>
-      <c r="AB155" s="169"/>
-      <c r="AC155" s="169"/>
-      <c r="AD155" s="170"/>
-      <c r="AE155" s="186" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF155" s="187"/>
-      <c r="AG155" s="187"/>
-      <c r="AH155" s="187"/>
-      <c r="AI155" s="187"/>
-      <c r="AJ155" s="188"/>
+      <c r="Z155" s="170"/>
+      <c r="AA155" s="170"/>
+      <c r="AB155" s="170"/>
+      <c r="AC155" s="170"/>
+      <c r="AD155" s="171"/>
+      <c r="AE155" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF155" s="179"/>
+      <c r="AG155" s="179"/>
+      <c r="AH155" s="179"/>
+      <c r="AI155" s="179"/>
+      <c r="AJ155" s="180"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12398,10 +12462,14 @@
       <c r="A156" s="4"/>
       <c r="E156" s="9"/>
       <c r="F156" s="15"/>
-      <c r="G156" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L156" s="79"/>
+      <c r="G156" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="80"/>
       <c r="M156" s="75" t="s">
         <v>35</v>
       </c>
@@ -12410,30 +12478,30 @@
       <c r="P156" s="75"/>
       <c r="Q156" s="75"/>
       <c r="R156" s="76"/>
-      <c r="S156" s="168" t="s">
+      <c r="S156" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="169"/>
-      <c r="U156" s="169"/>
-      <c r="V156" s="169"/>
-      <c r="W156" s="169"/>
-      <c r="X156" s="170"/>
-      <c r="Y156" s="168" t="s">
+      <c r="T156" s="170"/>
+      <c r="U156" s="170"/>
+      <c r="V156" s="170"/>
+      <c r="W156" s="170"/>
+      <c r="X156" s="171"/>
+      <c r="Y156" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="169"/>
-      <c r="AA156" s="169"/>
-      <c r="AB156" s="169"/>
-      <c r="AC156" s="169"/>
-      <c r="AD156" s="170"/>
-      <c r="AE156" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF156" s="169"/>
-      <c r="AG156" s="169"/>
-      <c r="AH156" s="169"/>
-      <c r="AI156" s="169"/>
-      <c r="AJ156" s="170"/>
+      <c r="Z156" s="170"/>
+      <c r="AA156" s="170"/>
+      <c r="AB156" s="170"/>
+      <c r="AC156" s="170"/>
+      <c r="AD156" s="171"/>
+      <c r="AE156" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF156" s="170"/>
+      <c r="AG156" s="170"/>
+      <c r="AH156" s="170"/>
+      <c r="AI156" s="170"/>
+      <c r="AJ156" s="171"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12441,44 +12509,46 @@
       <c r="A157" s="4"/>
       <c r="E157" s="9"/>
       <c r="F157" s="15"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="26"/>
-      <c r="L157" s="80"/>
-      <c r="M157" s="148" t="s">
+      <c r="G157" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="N157" s="148"/>
-      <c r="O157" s="148"/>
-      <c r="P157" s="148"/>
-      <c r="Q157" s="148"/>
-      <c r="R157" s="149"/>
-      <c r="S157" s="171" t="s">
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="23"/>
+      <c r="L157" s="78"/>
+      <c r="M157" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N157" s="75"/>
+      <c r="O157" s="75"/>
+      <c r="P157" s="75"/>
+      <c r="Q157" s="75"/>
+      <c r="R157" s="76"/>
+      <c r="S157" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="172"/>
-      <c r="U157" s="172"/>
-      <c r="V157" s="172"/>
-      <c r="W157" s="172"/>
-      <c r="X157" s="173"/>
-      <c r="Y157" s="171" t="s">
+      <c r="T157" s="170"/>
+      <c r="U157" s="170"/>
+      <c r="V157" s="170"/>
+      <c r="W157" s="170"/>
+      <c r="X157" s="171"/>
+      <c r="Y157" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="172"/>
-      <c r="AA157" s="172"/>
-      <c r="AB157" s="172"/>
-      <c r="AC157" s="172"/>
-      <c r="AD157" s="173"/>
-      <c r="AE157" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF157" s="172"/>
-      <c r="AG157" s="172"/>
-      <c r="AH157" s="172"/>
-      <c r="AI157" s="172"/>
-      <c r="AJ157" s="173"/>
+      <c r="Z157" s="170"/>
+      <c r="AA157" s="170"/>
+      <c r="AB157" s="170"/>
+      <c r="AC157" s="170"/>
+      <c r="AD157" s="171"/>
+      <c r="AE157" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF157" s="170"/>
+      <c r="AG157" s="170"/>
+      <c r="AH157" s="170"/>
+      <c r="AI157" s="170"/>
+      <c r="AJ157" s="171"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12486,46 +12556,44 @@
       <c r="A158" s="4"/>
       <c r="E158" s="9"/>
       <c r="F158" s="15"/>
-      <c r="G158" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H158" s="23"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="23"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="78"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="80"/>
       <c r="M158" s="75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N158" s="75"/>
       <c r="O158" s="75"/>
       <c r="P158" s="75"/>
       <c r="Q158" s="75"/>
       <c r="R158" s="76"/>
-      <c r="S158" s="168" t="s">
+      <c r="S158" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="169"/>
-      <c r="U158" s="169"/>
-      <c r="V158" s="169"/>
-      <c r="W158" s="169"/>
-      <c r="X158" s="170"/>
-      <c r="Y158" s="168" t="s">
+      <c r="T158" s="170"/>
+      <c r="U158" s="170"/>
+      <c r="V158" s="170"/>
+      <c r="W158" s="170"/>
+      <c r="X158" s="171"/>
+      <c r="Y158" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="169"/>
-      <c r="AA158" s="169"/>
-      <c r="AB158" s="169"/>
-      <c r="AC158" s="169"/>
-      <c r="AD158" s="170"/>
-      <c r="AE158" s="186" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF158" s="187"/>
-      <c r="AG158" s="187"/>
-      <c r="AH158" s="187"/>
-      <c r="AI158" s="187"/>
-      <c r="AJ158" s="188"/>
+      <c r="Z158" s="170"/>
+      <c r="AA158" s="170"/>
+      <c r="AB158" s="170"/>
+      <c r="AC158" s="170"/>
+      <c r="AD158" s="171"/>
+      <c r="AE158" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF158" s="170"/>
+      <c r="AG158" s="170"/>
+      <c r="AH158" s="170"/>
+      <c r="AI158" s="170"/>
+      <c r="AJ158" s="171"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12533,42 +12601,44 @@
       <c r="A159" s="4"/>
       <c r="E159" s="9"/>
       <c r="F159" s="15"/>
-      <c r="G159" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L159" s="79"/>
-      <c r="M159" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="N159" s="75"/>
-      <c r="O159" s="75"/>
-      <c r="P159" s="75"/>
-      <c r="Q159" s="75"/>
-      <c r="R159" s="76"/>
-      <c r="S159" s="168" t="s">
+      <c r="G159" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="H159" s="146"/>
+      <c r="I159" s="146"/>
+      <c r="J159" s="146"/>
+      <c r="K159" s="146"/>
+      <c r="L159" s="146"/>
+      <c r="M159" s="146"/>
+      <c r="N159" s="146"/>
+      <c r="O159" s="146"/>
+      <c r="P159" s="146"/>
+      <c r="Q159" s="146"/>
+      <c r="R159" s="147"/>
+      <c r="S159" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="169"/>
-      <c r="U159" s="169"/>
-      <c r="V159" s="169"/>
-      <c r="W159" s="169"/>
-      <c r="X159" s="170"/>
-      <c r="Y159" s="168" t="s">
+      <c r="T159" s="191"/>
+      <c r="U159" s="191"/>
+      <c r="V159" s="191"/>
+      <c r="W159" s="191"/>
+      <c r="X159" s="192"/>
+      <c r="Y159" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="169"/>
-      <c r="AA159" s="169"/>
-      <c r="AB159" s="169"/>
-      <c r="AC159" s="169"/>
-      <c r="AD159" s="170"/>
-      <c r="AE159" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF159" s="169"/>
-      <c r="AG159" s="169"/>
-      <c r="AH159" s="169"/>
-      <c r="AI159" s="169"/>
-      <c r="AJ159" s="170"/>
+      <c r="Z159" s="191"/>
+      <c r="AA159" s="191"/>
+      <c r="AB159" s="191"/>
+      <c r="AC159" s="191"/>
+      <c r="AD159" s="192"/>
+      <c r="AE159" s="190" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF159" s="191"/>
+      <c r="AG159" s="191"/>
+      <c r="AH159" s="191"/>
+      <c r="AI159" s="191"/>
+      <c r="AJ159" s="192"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12576,46 +12646,44 @@
       <c r="A160" s="4"/>
       <c r="E160" s="9"/>
       <c r="F160" s="15"/>
-      <c r="G160" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="H160" s="26"/>
-      <c r="I160" s="26"/>
-      <c r="J160" s="26"/>
-      <c r="K160" s="26"/>
-      <c r="L160" s="80"/>
-      <c r="M160" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="N160" s="148"/>
-      <c r="O160" s="148"/>
-      <c r="P160" s="148"/>
-      <c r="Q160" s="148"/>
-      <c r="R160" s="149"/>
-      <c r="S160" s="171" t="s">
+      <c r="G160" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="H160" s="75"/>
+      <c r="I160" s="75"/>
+      <c r="J160" s="75"/>
+      <c r="K160" s="75"/>
+      <c r="L160" s="75"/>
+      <c r="M160" s="75"/>
+      <c r="N160" s="75"/>
+      <c r="O160" s="75"/>
+      <c r="P160" s="75"/>
+      <c r="Q160" s="75"/>
+      <c r="R160" s="76"/>
+      <c r="S160" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="172"/>
-      <c r="U160" s="172"/>
-      <c r="V160" s="172"/>
-      <c r="W160" s="172"/>
-      <c r="X160" s="173"/>
-      <c r="Y160" s="171" t="s">
+      <c r="T160" s="170"/>
+      <c r="U160" s="170"/>
+      <c r="V160" s="170"/>
+      <c r="W160" s="170"/>
+      <c r="X160" s="171"/>
+      <c r="Y160" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="172"/>
-      <c r="AA160" s="172"/>
-      <c r="AB160" s="172"/>
-      <c r="AC160" s="172"/>
-      <c r="AD160" s="173"/>
-      <c r="AE160" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF160" s="172"/>
-      <c r="AG160" s="172"/>
-      <c r="AH160" s="172"/>
-      <c r="AI160" s="172"/>
-      <c r="AJ160" s="173"/>
+      <c r="Z160" s="170"/>
+      <c r="AA160" s="170"/>
+      <c r="AB160" s="170"/>
+      <c r="AC160" s="170"/>
+      <c r="AD160" s="171"/>
+      <c r="AE160" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF160" s="170"/>
+      <c r="AG160" s="170"/>
+      <c r="AH160" s="170"/>
+      <c r="AI160" s="170"/>
+      <c r="AJ160" s="171"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -12623,46 +12691,46 @@
       <c r="A161" s="4"/>
       <c r="E161" s="9"/>
       <c r="F161" s="15"/>
-      <c r="G161" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
-      <c r="J161" s="23"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="78"/>
-      <c r="M161" s="75" t="s">
-        <v>33</v>
+      <c r="G161" s="149" t="s">
+        <v>261</v>
+      </c>
+      <c r="H161" s="150"/>
+      <c r="I161" s="150"/>
+      <c r="J161" s="150"/>
+      <c r="K161" s="150"/>
+      <c r="L161" s="152"/>
+      <c r="M161" s="153" t="s">
+        <v>6</v>
       </c>
       <c r="N161" s="75"/>
       <c r="O161" s="75"/>
       <c r="P161" s="75"/>
       <c r="Q161" s="75"/>
       <c r="R161" s="76"/>
-      <c r="S161" s="168" t="s">
+      <c r="S161" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="169"/>
-      <c r="U161" s="169"/>
-      <c r="V161" s="169"/>
-      <c r="W161" s="169"/>
-      <c r="X161" s="170"/>
-      <c r="Y161" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z161" s="169"/>
-      <c r="AA161" s="169"/>
-      <c r="AB161" s="169"/>
-      <c r="AC161" s="169"/>
-      <c r="AD161" s="170"/>
-      <c r="AE161" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF161" s="169"/>
-      <c r="AG161" s="169"/>
-      <c r="AH161" s="169"/>
-      <c r="AI161" s="169"/>
-      <c r="AJ161" s="170"/>
+      <c r="T161" s="170"/>
+      <c r="U161" s="170"/>
+      <c r="V161" s="170"/>
+      <c r="W161" s="170"/>
+      <c r="X161" s="171"/>
+      <c r="Y161" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z161" s="179"/>
+      <c r="AA161" s="179"/>
+      <c r="AB161" s="179"/>
+      <c r="AC161" s="179"/>
+      <c r="AD161" s="180"/>
+      <c r="AE161" s="181" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF161" s="182"/>
+      <c r="AG161" s="182"/>
+      <c r="AH161" s="182"/>
+      <c r="AI161" s="182"/>
+      <c r="AJ161" s="183"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -12670,40 +12738,46 @@
       <c r="A162" s="4"/>
       <c r="E162" s="9"/>
       <c r="F162" s="15"/>
-      <c r="G162" s="24"/>
-      <c r="L162" s="79"/>
-      <c r="M162" s="75" t="s">
-        <v>35</v>
+      <c r="G162" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="89"/>
+      <c r="M162" s="153" t="s">
+        <v>31</v>
       </c>
       <c r="N162" s="75"/>
       <c r="O162" s="75"/>
       <c r="P162" s="75"/>
       <c r="Q162" s="75"/>
       <c r="R162" s="76"/>
-      <c r="S162" s="168" t="s">
+      <c r="S162" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="169"/>
-      <c r="U162" s="169"/>
-      <c r="V162" s="169"/>
-      <c r="W162" s="169"/>
-      <c r="X162" s="170"/>
-      <c r="Y162" s="168" t="s">
+      <c r="T162" s="170"/>
+      <c r="U162" s="170"/>
+      <c r="V162" s="170"/>
+      <c r="W162" s="170"/>
+      <c r="X162" s="171"/>
+      <c r="Y162" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="169"/>
-      <c r="AA162" s="169"/>
-      <c r="AB162" s="169"/>
-      <c r="AC162" s="169"/>
-      <c r="AD162" s="170"/>
-      <c r="AE162" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF162" s="169"/>
-      <c r="AG162" s="169"/>
-      <c r="AH162" s="169"/>
-      <c r="AI162" s="169"/>
-      <c r="AJ162" s="170"/>
+      <c r="Z162" s="170"/>
+      <c r="AA162" s="170"/>
+      <c r="AB162" s="170"/>
+      <c r="AC162" s="170"/>
+      <c r="AD162" s="171"/>
+      <c r="AE162" s="181" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF162" s="182"/>
+      <c r="AG162" s="182"/>
+      <c r="AH162" s="182"/>
+      <c r="AI162" s="182"/>
+      <c r="AJ162" s="183"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -12711,44 +12785,46 @@
       <c r="A163" s="4"/>
       <c r="E163" s="9"/>
       <c r="F163" s="15"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="26"/>
-      <c r="L163" s="80"/>
-      <c r="M163" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="N163" s="148"/>
-      <c r="O163" s="148"/>
-      <c r="P163" s="148"/>
-      <c r="Q163" s="148"/>
-      <c r="R163" s="149"/>
-      <c r="S163" s="171" t="s">
+      <c r="G163" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="89"/>
+      <c r="M163" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="N163" s="75"/>
+      <c r="O163" s="75"/>
+      <c r="P163" s="75"/>
+      <c r="Q163" s="75"/>
+      <c r="R163" s="76"/>
+      <c r="S163" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="172"/>
-      <c r="U163" s="172"/>
-      <c r="V163" s="172"/>
-      <c r="W163" s="172"/>
-      <c r="X163" s="173"/>
-      <c r="Y163" s="171" t="s">
+      <c r="T163" s="170"/>
+      <c r="U163" s="170"/>
+      <c r="V163" s="170"/>
+      <c r="W163" s="170"/>
+      <c r="X163" s="171"/>
+      <c r="Y163" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="172"/>
-      <c r="AA163" s="172"/>
-      <c r="AB163" s="172"/>
-      <c r="AC163" s="172"/>
-      <c r="AD163" s="173"/>
-      <c r="AE163" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF163" s="172"/>
-      <c r="AG163" s="172"/>
-      <c r="AH163" s="172"/>
-      <c r="AI163" s="172"/>
-      <c r="AJ163" s="173"/>
+      <c r="Z163" s="170"/>
+      <c r="AA163" s="170"/>
+      <c r="AB163" s="170"/>
+      <c r="AC163" s="170"/>
+      <c r="AD163" s="171"/>
+      <c r="AE163" s="181" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF163" s="182"/>
+      <c r="AG163" s="182"/>
+      <c r="AH163" s="182"/>
+      <c r="AI163" s="182"/>
+      <c r="AJ163" s="183"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -12756,44 +12832,46 @@
       <c r="A164" s="4"/>
       <c r="E164" s="9"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="H164" s="75"/>
-      <c r="I164" s="75"/>
-      <c r="J164" s="75"/>
-      <c r="K164" s="75"/>
-      <c r="L164" s="75"/>
-      <c r="M164" s="75"/>
+      <c r="G164" s="151" t="s">
+        <v>265</v>
+      </c>
+      <c r="H164" s="92"/>
+      <c r="I164" s="92"/>
+      <c r="J164" s="92"/>
+      <c r="K164" s="92"/>
+      <c r="L164" s="92"/>
+      <c r="M164" s="153" t="s">
+        <v>33</v>
+      </c>
       <c r="N164" s="75"/>
       <c r="O164" s="75"/>
       <c r="P164" s="75"/>
       <c r="Q164" s="75"/>
       <c r="R164" s="76"/>
-      <c r="S164" s="168" t="s">
+      <c r="S164" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="169"/>
-      <c r="U164" s="169"/>
-      <c r="V164" s="169"/>
-      <c r="W164" s="169"/>
-      <c r="X164" s="170"/>
-      <c r="Y164" s="168" t="s">
+      <c r="T164" s="170"/>
+      <c r="U164" s="170"/>
+      <c r="V164" s="170"/>
+      <c r="W164" s="170"/>
+      <c r="X164" s="171"/>
+      <c r="Y164" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="169"/>
-      <c r="AA164" s="169"/>
-      <c r="AB164" s="169"/>
-      <c r="AC164" s="169"/>
-      <c r="AD164" s="170"/>
-      <c r="AE164" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF164" s="169"/>
-      <c r="AG164" s="169"/>
-      <c r="AH164" s="169"/>
-      <c r="AI164" s="169"/>
-      <c r="AJ164" s="170"/>
+      <c r="Z164" s="170"/>
+      <c r="AA164" s="170"/>
+      <c r="AB164" s="170"/>
+      <c r="AC164" s="170"/>
+      <c r="AD164" s="171"/>
+      <c r="AE164" s="181" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF164" s="182"/>
+      <c r="AG164" s="182"/>
+      <c r="AH164" s="182"/>
+      <c r="AI164" s="182"/>
+      <c r="AJ164" s="183"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -12801,44 +12879,46 @@
       <c r="A165" s="4"/>
       <c r="E165" s="9"/>
       <c r="F165" s="15"/>
-      <c r="G165" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="H165" s="75"/>
-      <c r="I165" s="75"/>
-      <c r="J165" s="75"/>
-      <c r="K165" s="75"/>
-      <c r="L165" s="75"/>
-      <c r="M165" s="75"/>
+      <c r="G165" s="151" t="s">
+        <v>269</v>
+      </c>
+      <c r="H165" s="92"/>
+      <c r="I165" s="92"/>
+      <c r="J165" s="92"/>
+      <c r="K165" s="92"/>
+      <c r="L165" s="92"/>
+      <c r="M165" s="153" t="s">
+        <v>35</v>
+      </c>
       <c r="N165" s="75"/>
       <c r="O165" s="75"/>
       <c r="P165" s="75"/>
       <c r="Q165" s="75"/>
       <c r="R165" s="76"/>
-      <c r="S165" s="168" t="s">
+      <c r="S165" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="169"/>
-      <c r="U165" s="169"/>
-      <c r="V165" s="169"/>
-      <c r="W165" s="169"/>
-      <c r="X165" s="170"/>
-      <c r="Y165" s="168" t="s">
+      <c r="T165" s="170"/>
+      <c r="U165" s="170"/>
+      <c r="V165" s="170"/>
+      <c r="W165" s="170"/>
+      <c r="X165" s="171"/>
+      <c r="Y165" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="169"/>
-      <c r="AA165" s="169"/>
-      <c r="AB165" s="169"/>
-      <c r="AC165" s="169"/>
-      <c r="AD165" s="170"/>
-      <c r="AE165" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF165" s="169"/>
-      <c r="AG165" s="169"/>
-      <c r="AH165" s="169"/>
-      <c r="AI165" s="169"/>
-      <c r="AJ165" s="170"/>
+      <c r="Z165" s="170"/>
+      <c r="AA165" s="170"/>
+      <c r="AB165" s="170"/>
+      <c r="AC165" s="170"/>
+      <c r="AD165" s="171"/>
+      <c r="AE165" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF165" s="170"/>
+      <c r="AG165" s="170"/>
+      <c r="AH165" s="170"/>
+      <c r="AI165" s="170"/>
+      <c r="AJ165" s="171"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -12846,46 +12926,46 @@
       <c r="A166" s="4"/>
       <c r="E166" s="9"/>
       <c r="F166" s="15"/>
-      <c r="G166" s="151" t="s">
-        <v>262</v>
-      </c>
-      <c r="H166" s="152"/>
-      <c r="I166" s="152"/>
-      <c r="J166" s="152"/>
-      <c r="K166" s="152"/>
-      <c r="L166" s="154"/>
-      <c r="M166" s="155" t="s">
-        <v>6</v>
+      <c r="G166" s="148" t="s">
+        <v>272</v>
+      </c>
+      <c r="H166" s="146"/>
+      <c r="I166" s="146"/>
+      <c r="J166" s="146"/>
+      <c r="K166" s="146"/>
+      <c r="L166" s="146"/>
+      <c r="M166" s="153" t="s">
+        <v>204</v>
       </c>
       <c r="N166" s="75"/>
       <c r="O166" s="75"/>
       <c r="P166" s="75"/>
       <c r="Q166" s="75"/>
       <c r="R166" s="76"/>
-      <c r="S166" s="168" t="s">
+      <c r="S166" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="169"/>
-      <c r="U166" s="169"/>
-      <c r="V166" s="169"/>
-      <c r="W166" s="169"/>
-      <c r="X166" s="170"/>
-      <c r="Y166" s="186" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z166" s="187"/>
-      <c r="AA166" s="187"/>
-      <c r="AB166" s="187"/>
-      <c r="AC166" s="187"/>
-      <c r="AD166" s="188"/>
-      <c r="AE166" s="223" t="s">
+      <c r="T166" s="170"/>
+      <c r="U166" s="170"/>
+      <c r="V166" s="170"/>
+      <c r="W166" s="170"/>
+      <c r="X166" s="171"/>
+      <c r="Y166" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z166" s="170"/>
+      <c r="AA166" s="170"/>
+      <c r="AB166" s="170"/>
+      <c r="AC166" s="170"/>
+      <c r="AD166" s="171"/>
+      <c r="AE166" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="224"/>
-      <c r="AG166" s="224"/>
-      <c r="AH166" s="224"/>
-      <c r="AI166" s="224"/>
-      <c r="AJ166" s="225"/>
+      <c r="AF166" s="182"/>
+      <c r="AG166" s="182"/>
+      <c r="AH166" s="182"/>
+      <c r="AI166" s="182"/>
+      <c r="AJ166" s="183"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12893,46 +12973,44 @@
       <c r="A167" s="4"/>
       <c r="E167" s="9"/>
       <c r="F167" s="15"/>
-      <c r="G167" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="H167" s="16"/>
-      <c r="I167" s="16"/>
-      <c r="J167" s="16"/>
-      <c r="K167" s="16"/>
-      <c r="L167" s="89"/>
-      <c r="M167" s="155" t="s">
-        <v>31</v>
-      </c>
+      <c r="G167" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="H167" s="75"/>
+      <c r="I167" s="75"/>
+      <c r="J167" s="75"/>
+      <c r="K167" s="75"/>
+      <c r="L167" s="75"/>
+      <c r="M167" s="75"/>
       <c r="N167" s="75"/>
       <c r="O167" s="75"/>
       <c r="P167" s="75"/>
       <c r="Q167" s="75"/>
       <c r="R167" s="76"/>
-      <c r="S167" s="168" t="s">
+      <c r="S167" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="169"/>
-      <c r="U167" s="169"/>
-      <c r="V167" s="169"/>
-      <c r="W167" s="169"/>
-      <c r="X167" s="170"/>
-      <c r="Y167" s="168" t="s">
+      <c r="T167" s="170"/>
+      <c r="U167" s="170"/>
+      <c r="V167" s="170"/>
+      <c r="W167" s="170"/>
+      <c r="X167" s="171"/>
+      <c r="Y167" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="169"/>
-      <c r="AA167" s="169"/>
-      <c r="AB167" s="169"/>
-      <c r="AC167" s="169"/>
-      <c r="AD167" s="170"/>
-      <c r="AE167" s="223" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF167" s="224"/>
-      <c r="AG167" s="224"/>
-      <c r="AH167" s="224"/>
-      <c r="AI167" s="224"/>
-      <c r="AJ167" s="225"/>
+      <c r="Z167" s="170"/>
+      <c r="AA167" s="170"/>
+      <c r="AB167" s="170"/>
+      <c r="AC167" s="170"/>
+      <c r="AD167" s="171"/>
+      <c r="AE167" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF167" s="170"/>
+      <c r="AG167" s="170"/>
+      <c r="AH167" s="170"/>
+      <c r="AI167" s="170"/>
+      <c r="AJ167" s="171"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -12940,46 +13018,46 @@
       <c r="A168" s="4"/>
       <c r="E168" s="9"/>
       <c r="F168" s="15"/>
-      <c r="G168" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="H168" s="16"/>
-      <c r="I168" s="16"/>
-      <c r="J168" s="16"/>
-      <c r="K168" s="16"/>
-      <c r="L168" s="89"/>
-      <c r="M168" s="155" t="s">
-        <v>26</v>
+      <c r="G168" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H168" s="23"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="23"/>
+      <c r="K168" s="23"/>
+      <c r="L168" s="155"/>
+      <c r="M168" s="75" t="s">
+        <v>6</v>
       </c>
       <c r="N168" s="75"/>
-      <c r="O168" s="75"/>
-      <c r="P168" s="75"/>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="76"/>
-      <c r="S168" s="168" t="s">
+      <c r="O168" s="146"/>
+      <c r="P168" s="146"/>
+      <c r="Q168" s="146"/>
+      <c r="R168" s="147"/>
+      <c r="S168" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="169"/>
-      <c r="U168" s="169"/>
-      <c r="V168" s="169"/>
-      <c r="W168" s="169"/>
-      <c r="X168" s="170"/>
-      <c r="Y168" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z168" s="169"/>
-      <c r="AA168" s="169"/>
-      <c r="AB168" s="169"/>
-      <c r="AC168" s="169"/>
-      <c r="AD168" s="170"/>
-      <c r="AE168" s="223" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF168" s="224"/>
-      <c r="AG168" s="224"/>
-      <c r="AH168" s="224"/>
-      <c r="AI168" s="224"/>
-      <c r="AJ168" s="225"/>
+      <c r="T168" s="170"/>
+      <c r="U168" s="170"/>
+      <c r="V168" s="170"/>
+      <c r="W168" s="170"/>
+      <c r="X168" s="171"/>
+      <c r="Y168" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z168" s="179"/>
+      <c r="AA168" s="179"/>
+      <c r="AB168" s="179"/>
+      <c r="AC168" s="179"/>
+      <c r="AD168" s="180"/>
+      <c r="AE168" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF168" s="179"/>
+      <c r="AG168" s="179"/>
+      <c r="AH168" s="179"/>
+      <c r="AI168" s="179"/>
+      <c r="AJ168" s="180"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -12987,46 +13065,44 @@
       <c r="A169" s="4"/>
       <c r="E169" s="9"/>
       <c r="F169" s="15"/>
-      <c r="G169" s="153" t="s">
-        <v>266</v>
-      </c>
-      <c r="H169" s="92"/>
-      <c r="I169" s="92"/>
-      <c r="J169" s="92"/>
-      <c r="K169" s="92"/>
-      <c r="L169" s="92"/>
-      <c r="M169" s="155" t="s">
-        <v>33</v>
+      <c r="G169" s="154"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="156"/>
+      <c r="M169" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="N169" s="75"/>
       <c r="O169" s="75"/>
       <c r="P169" s="75"/>
       <c r="Q169" s="75"/>
       <c r="R169" s="76"/>
-      <c r="S169" s="168" t="s">
+      <c r="S169" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="169"/>
-      <c r="U169" s="169"/>
-      <c r="V169" s="169"/>
-      <c r="W169" s="169"/>
-      <c r="X169" s="170"/>
-      <c r="Y169" s="168" t="s">
+      <c r="T169" s="170"/>
+      <c r="U169" s="170"/>
+      <c r="V169" s="170"/>
+      <c r="W169" s="170"/>
+      <c r="X169" s="171"/>
+      <c r="Y169" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="169"/>
-      <c r="AA169" s="169"/>
-      <c r="AB169" s="169"/>
-      <c r="AC169" s="169"/>
-      <c r="AD169" s="170"/>
-      <c r="AE169" s="223" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF169" s="224"/>
-      <c r="AG169" s="224"/>
-      <c r="AH169" s="224"/>
-      <c r="AI169" s="224"/>
-      <c r="AJ169" s="225"/>
+      <c r="Z169" s="170"/>
+      <c r="AA169" s="170"/>
+      <c r="AB169" s="170"/>
+      <c r="AC169" s="170"/>
+      <c r="AD169" s="171"/>
+      <c r="AE169" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF169" s="179"/>
+      <c r="AG169" s="179"/>
+      <c r="AH169" s="179"/>
+      <c r="AI169" s="179"/>
+      <c r="AJ169" s="180"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13034,46 +13110,44 @@
       <c r="A170" s="4"/>
       <c r="E170" s="9"/>
       <c r="F170" s="15"/>
-      <c r="G170" s="153" t="s">
-        <v>272</v>
-      </c>
-      <c r="H170" s="92"/>
-      <c r="I170" s="92"/>
-      <c r="J170" s="92"/>
-      <c r="K170" s="92"/>
-      <c r="L170" s="92"/>
-      <c r="M170" s="155" t="s">
-        <v>35</v>
+      <c r="G170" s="49"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="16"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="16"/>
+      <c r="L170" s="157"/>
+      <c r="M170" s="75" t="s">
+        <v>26</v>
       </c>
       <c r="N170" s="75"/>
       <c r="O170" s="75"/>
       <c r="P170" s="75"/>
       <c r="Q170" s="75"/>
       <c r="R170" s="76"/>
-      <c r="S170" s="168" t="s">
+      <c r="S170" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="169"/>
-      <c r="U170" s="169"/>
-      <c r="V170" s="169"/>
-      <c r="W170" s="169"/>
-      <c r="X170" s="170"/>
-      <c r="Y170" s="168" t="s">
+      <c r="T170" s="170"/>
+      <c r="U170" s="170"/>
+      <c r="V170" s="170"/>
+      <c r="W170" s="170"/>
+      <c r="X170" s="171"/>
+      <c r="Y170" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="169"/>
-      <c r="AA170" s="169"/>
-      <c r="AB170" s="169"/>
-      <c r="AC170" s="169"/>
-      <c r="AD170" s="170"/>
-      <c r="AE170" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF170" s="169"/>
-      <c r="AG170" s="169"/>
-      <c r="AH170" s="169"/>
-      <c r="AI170" s="169"/>
-      <c r="AJ170" s="170"/>
+      <c r="Z170" s="170"/>
+      <c r="AA170" s="170"/>
+      <c r="AB170" s="170"/>
+      <c r="AC170" s="170"/>
+      <c r="AD170" s="171"/>
+      <c r="AE170" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF170" s="179"/>
+      <c r="AG170" s="179"/>
+      <c r="AH170" s="179"/>
+      <c r="AI170" s="179"/>
+      <c r="AJ170" s="180"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13081,46 +13155,44 @@
       <c r="A171" s="4"/>
       <c r="E171" s="9"/>
       <c r="F171" s="15"/>
-      <c r="G171" s="153" t="s">
-        <v>273</v>
-      </c>
+      <c r="G171" s="151"/>
       <c r="H171" s="92"/>
       <c r="I171" s="92"/>
       <c r="J171" s="92"/>
       <c r="K171" s="92"/>
-      <c r="L171" s="92"/>
-      <c r="M171" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="N171" s="148"/>
-      <c r="O171" s="148"/>
-      <c r="P171" s="148"/>
-      <c r="Q171" s="148"/>
-      <c r="R171" s="149"/>
-      <c r="S171" s="171" t="s">
+      <c r="L171" s="158"/>
+      <c r="M171" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N171" s="75"/>
+      <c r="O171" s="75"/>
+      <c r="P171" s="75"/>
+      <c r="Q171" s="75"/>
+      <c r="R171" s="76"/>
+      <c r="S171" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="172"/>
-      <c r="U171" s="172"/>
-      <c r="V171" s="172"/>
-      <c r="W171" s="172"/>
-      <c r="X171" s="173"/>
-      <c r="Y171" s="171" t="s">
+      <c r="T171" s="170"/>
+      <c r="U171" s="170"/>
+      <c r="V171" s="170"/>
+      <c r="W171" s="170"/>
+      <c r="X171" s="171"/>
+      <c r="Y171" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="172"/>
-      <c r="AA171" s="172"/>
-      <c r="AB171" s="172"/>
-      <c r="AC171" s="172"/>
-      <c r="AD171" s="173"/>
-      <c r="AE171" s="171" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF171" s="172"/>
-      <c r="AG171" s="172"/>
-      <c r="AH171" s="172"/>
-      <c r="AI171" s="172"/>
-      <c r="AJ171" s="173"/>
+      <c r="Z171" s="170"/>
+      <c r="AA171" s="170"/>
+      <c r="AB171" s="170"/>
+      <c r="AC171" s="170"/>
+      <c r="AD171" s="171"/>
+      <c r="AE171" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF171" s="179"/>
+      <c r="AG171" s="179"/>
+      <c r="AH171" s="179"/>
+      <c r="AI171" s="179"/>
+      <c r="AJ171" s="180"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13128,44 +13200,44 @@
       <c r="A172" s="4"/>
       <c r="E172" s="9"/>
       <c r="F172" s="15"/>
-      <c r="G172" s="150"/>
-      <c r="H172" s="146"/>
-      <c r="I172" s="146"/>
-      <c r="J172" s="146"/>
-      <c r="K172" s="146"/>
-      <c r="L172" s="146"/>
-      <c r="M172" s="155" t="s">
-        <v>205</v>
+      <c r="G172" s="151"/>
+      <c r="H172" s="92"/>
+      <c r="I172" s="92"/>
+      <c r="J172" s="92"/>
+      <c r="K172" s="92"/>
+      <c r="L172" s="158"/>
+      <c r="M172" s="75" t="s">
+        <v>35</v>
       </c>
       <c r="N172" s="75"/>
       <c r="O172" s="75"/>
       <c r="P172" s="75"/>
       <c r="Q172" s="75"/>
       <c r="R172" s="76"/>
-      <c r="S172" s="168" t="s">
+      <c r="S172" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="169"/>
-      <c r="U172" s="169"/>
-      <c r="V172" s="169"/>
-      <c r="W172" s="169"/>
-      <c r="X172" s="170"/>
-      <c r="Y172" s="168" t="s">
+      <c r="T172" s="170"/>
+      <c r="U172" s="170"/>
+      <c r="V172" s="170"/>
+      <c r="W172" s="170"/>
+      <c r="X172" s="171"/>
+      <c r="Y172" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="169"/>
-      <c r="AA172" s="169"/>
-      <c r="AB172" s="169"/>
-      <c r="AC172" s="169"/>
-      <c r="AD172" s="170"/>
-      <c r="AE172" s="223" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF172" s="224"/>
-      <c r="AG172" s="224"/>
-      <c r="AH172" s="224"/>
-      <c r="AI172" s="224"/>
-      <c r="AJ172" s="225"/>
+      <c r="Z172" s="170"/>
+      <c r="AA172" s="170"/>
+      <c r="AB172" s="170"/>
+      <c r="AC172" s="170"/>
+      <c r="AD172" s="171"/>
+      <c r="AE172" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF172" s="170"/>
+      <c r="AG172" s="170"/>
+      <c r="AH172" s="170"/>
+      <c r="AI172" s="170"/>
+      <c r="AJ172" s="171"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13173,44 +13245,44 @@
       <c r="A173" s="4"/>
       <c r="E173" s="9"/>
       <c r="F173" s="15"/>
-      <c r="G173" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="H173" s="75"/>
-      <c r="I173" s="75"/>
-      <c r="J173" s="75"/>
-      <c r="K173" s="75"/>
-      <c r="L173" s="75"/>
-      <c r="M173" s="75"/>
+      <c r="G173" s="148"/>
+      <c r="H173" s="146"/>
+      <c r="I173" s="146"/>
+      <c r="J173" s="146"/>
+      <c r="K173" s="146"/>
+      <c r="L173" s="159"/>
+      <c r="M173" s="75" t="s">
+        <v>204</v>
+      </c>
       <c r="N173" s="75"/>
       <c r="O173" s="75"/>
       <c r="P173" s="75"/>
       <c r="Q173" s="75"/>
       <c r="R173" s="76"/>
-      <c r="S173" s="168" t="s">
+      <c r="S173" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="169"/>
-      <c r="U173" s="169"/>
-      <c r="V173" s="169"/>
-      <c r="W173" s="169"/>
-      <c r="X173" s="170"/>
-      <c r="Y173" s="168" t="s">
+      <c r="T173" s="170"/>
+      <c r="U173" s="170"/>
+      <c r="V173" s="170"/>
+      <c r="W173" s="170"/>
+      <c r="X173" s="171"/>
+      <c r="Y173" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="169"/>
-      <c r="AA173" s="169"/>
-      <c r="AB173" s="169"/>
-      <c r="AC173" s="169"/>
-      <c r="AD173" s="170"/>
-      <c r="AE173" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF173" s="169"/>
-      <c r="AG173" s="169"/>
-      <c r="AH173" s="169"/>
-      <c r="AI173" s="169"/>
-      <c r="AJ173" s="170"/>
+      <c r="Z173" s="170"/>
+      <c r="AA173" s="170"/>
+      <c r="AB173" s="170"/>
+      <c r="AC173" s="170"/>
+      <c r="AD173" s="171"/>
+      <c r="AE173" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF173" s="179"/>
+      <c r="AG173" s="179"/>
+      <c r="AH173" s="179"/>
+      <c r="AI173" s="179"/>
+      <c r="AJ173" s="180"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13218,46 +13290,44 @@
       <c r="A174" s="4"/>
       <c r="E174" s="9"/>
       <c r="F174" s="15"/>
-      <c r="G174" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="H174" s="23"/>
-      <c r="I174" s="23"/>
-      <c r="J174" s="23"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="157"/>
-      <c r="M174" s="75" t="s">
-        <v>6</v>
-      </c>
+      <c r="G174" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="H174" s="75"/>
+      <c r="I174" s="75"/>
+      <c r="J174" s="75"/>
+      <c r="K174" s="75"/>
+      <c r="L174" s="75"/>
+      <c r="M174" s="75"/>
       <c r="N174" s="75"/>
-      <c r="O174" s="146"/>
-      <c r="P174" s="146"/>
-      <c r="Q174" s="146"/>
-      <c r="R174" s="147"/>
-      <c r="S174" s="168" t="s">
+      <c r="O174" s="75"/>
+      <c r="P174" s="75"/>
+      <c r="Q174" s="75"/>
+      <c r="R174" s="76"/>
+      <c r="S174" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="169"/>
-      <c r="U174" s="169"/>
-      <c r="V174" s="169"/>
-      <c r="W174" s="169"/>
-      <c r="X174" s="170"/>
-      <c r="Y174" s="186" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z174" s="187"/>
-      <c r="AA174" s="187"/>
-      <c r="AB174" s="187"/>
-      <c r="AC174" s="187"/>
-      <c r="AD174" s="188"/>
-      <c r="AE174" s="186" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF174" s="187"/>
-      <c r="AG174" s="187"/>
-      <c r="AH174" s="187"/>
-      <c r="AI174" s="187"/>
-      <c r="AJ174" s="188"/>
+      <c r="T174" s="170"/>
+      <c r="U174" s="170"/>
+      <c r="V174" s="170"/>
+      <c r="W174" s="170"/>
+      <c r="X174" s="171"/>
+      <c r="Y174" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z174" s="170"/>
+      <c r="AA174" s="170"/>
+      <c r="AB174" s="170"/>
+      <c r="AC174" s="170"/>
+      <c r="AD174" s="171"/>
+      <c r="AE174" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF174" s="170"/>
+      <c r="AG174" s="170"/>
+      <c r="AH174" s="170"/>
+      <c r="AI174" s="170"/>
+      <c r="AJ174" s="171"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13265,44 +13335,46 @@
       <c r="A175" s="4"/>
       <c r="E175" s="9"/>
       <c r="F175" s="15"/>
-      <c r="G175" s="156"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="158"/>
+      <c r="G175" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="H175" s="23"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="23"/>
+      <c r="K175" s="23"/>
+      <c r="L175" s="155"/>
       <c r="M175" s="75" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="N175" s="75"/>
-      <c r="O175" s="75"/>
-      <c r="P175" s="75"/>
-      <c r="Q175" s="75"/>
-      <c r="R175" s="76"/>
-      <c r="S175" s="168" t="s">
+      <c r="O175" s="146"/>
+      <c r="P175" s="146"/>
+      <c r="Q175" s="146"/>
+      <c r="R175" s="147"/>
+      <c r="S175" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="169"/>
-      <c r="U175" s="169"/>
-      <c r="V175" s="169"/>
-      <c r="W175" s="169"/>
-      <c r="X175" s="170"/>
-      <c r="Y175" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z175" s="169"/>
-      <c r="AA175" s="169"/>
-      <c r="AB175" s="169"/>
-      <c r="AC175" s="169"/>
-      <c r="AD175" s="170"/>
-      <c r="AE175" s="186" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF175" s="187"/>
-      <c r="AG175" s="187"/>
-      <c r="AH175" s="187"/>
-      <c r="AI175" s="187"/>
-      <c r="AJ175" s="188"/>
+      <c r="T175" s="170"/>
+      <c r="U175" s="170"/>
+      <c r="V175" s="170"/>
+      <c r="W175" s="170"/>
+      <c r="X175" s="171"/>
+      <c r="Y175" s="169" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z175" s="170"/>
+      <c r="AA175" s="170"/>
+      <c r="AB175" s="170"/>
+      <c r="AC175" s="170"/>
+      <c r="AD175" s="171"/>
+      <c r="AE175" s="169" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF175" s="170"/>
+      <c r="AG175" s="170"/>
+      <c r="AH175" s="170"/>
+      <c r="AI175" s="170"/>
+      <c r="AJ175" s="171"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13310,44 +13382,46 @@
       <c r="A176" s="4"/>
       <c r="E176" s="9"/>
       <c r="F176" s="15"/>
-      <c r="G176" s="49"/>
-      <c r="H176" s="16"/>
-      <c r="I176" s="16"/>
-      <c r="J176" s="16"/>
-      <c r="K176" s="16"/>
-      <c r="L176" s="159"/>
+      <c r="G176" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="156"/>
       <c r="M176" s="75" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N176" s="75"/>
       <c r="O176" s="75"/>
       <c r="P176" s="75"/>
       <c r="Q176" s="75"/>
       <c r="R176" s="76"/>
-      <c r="S176" s="168" t="s">
+      <c r="S176" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="169"/>
-      <c r="U176" s="169"/>
-      <c r="V176" s="169"/>
-      <c r="W176" s="169"/>
-      <c r="X176" s="170"/>
-      <c r="Y176" s="168" t="s">
+      <c r="T176" s="170"/>
+      <c r="U176" s="170"/>
+      <c r="V176" s="170"/>
+      <c r="W176" s="170"/>
+      <c r="X176" s="171"/>
+      <c r="Y176" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="169"/>
-      <c r="AA176" s="169"/>
-      <c r="AB176" s="169"/>
-      <c r="AC176" s="169"/>
-      <c r="AD176" s="170"/>
-      <c r="AE176" s="186" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF176" s="187"/>
-      <c r="AG176" s="187"/>
-      <c r="AH176" s="187"/>
-      <c r="AI176" s="187"/>
-      <c r="AJ176" s="188"/>
+      <c r="Z176" s="179"/>
+      <c r="AA176" s="179"/>
+      <c r="AB176" s="179"/>
+      <c r="AC176" s="179"/>
+      <c r="AD176" s="180"/>
+      <c r="AE176" s="169" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF176" s="170"/>
+      <c r="AG176" s="170"/>
+      <c r="AH176" s="170"/>
+      <c r="AI176" s="170"/>
+      <c r="AJ176" s="171"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13355,44 +13429,46 @@
       <c r="A177" s="4"/>
       <c r="E177" s="9"/>
       <c r="F177" s="15"/>
-      <c r="G177" s="153"/>
-      <c r="H177" s="92"/>
-      <c r="I177" s="92"/>
-      <c r="J177" s="92"/>
-      <c r="K177" s="92"/>
-      <c r="L177" s="160"/>
+      <c r="G177" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="16"/>
+      <c r="L177" s="157"/>
       <c r="M177" s="75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N177" s="75"/>
       <c r="O177" s="75"/>
       <c r="P177" s="75"/>
       <c r="Q177" s="75"/>
       <c r="R177" s="76"/>
-      <c r="S177" s="168" t="s">
+      <c r="S177" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T177" s="169"/>
-      <c r="U177" s="169"/>
-      <c r="V177" s="169"/>
-      <c r="W177" s="169"/>
-      <c r="X177" s="170"/>
-      <c r="Y177" s="168" t="s">
+      <c r="T177" s="170"/>
+      <c r="U177" s="170"/>
+      <c r="V177" s="170"/>
+      <c r="W177" s="170"/>
+      <c r="X177" s="171"/>
+      <c r="Y177" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="169"/>
-      <c r="AA177" s="169"/>
-      <c r="AB177" s="169"/>
-      <c r="AC177" s="169"/>
-      <c r="AD177" s="170"/>
-      <c r="AE177" s="186" t="s">
+      <c r="Z177" s="179"/>
+      <c r="AA177" s="179"/>
+      <c r="AB177" s="179"/>
+      <c r="AC177" s="179"/>
+      <c r="AD177" s="180"/>
+      <c r="AE177" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="187"/>
-      <c r="AG177" s="187"/>
-      <c r="AH177" s="187"/>
-      <c r="AI177" s="187"/>
-      <c r="AJ177" s="188"/>
+      <c r="AF177" s="170"/>
+      <c r="AG177" s="170"/>
+      <c r="AH177" s="170"/>
+      <c r="AI177" s="170"/>
+      <c r="AJ177" s="171"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13400,44 +13476,44 @@
       <c r="A178" s="4"/>
       <c r="E178" s="9"/>
       <c r="F178" s="15"/>
-      <c r="G178" s="153"/>
+      <c r="G178" s="151"/>
       <c r="H178" s="92"/>
       <c r="I178" s="92"/>
       <c r="J178" s="92"/>
       <c r="K178" s="92"/>
-      <c r="L178" s="160"/>
+      <c r="L178" s="158"/>
       <c r="M178" s="75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N178" s="75"/>
       <c r="O178" s="75"/>
       <c r="P178" s="75"/>
       <c r="Q178" s="75"/>
       <c r="R178" s="76"/>
-      <c r="S178" s="168" t="s">
+      <c r="S178" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T178" s="169"/>
-      <c r="U178" s="169"/>
-      <c r="V178" s="169"/>
-      <c r="W178" s="169"/>
-      <c r="X178" s="170"/>
-      <c r="Y178" s="168" t="s">
+      <c r="T178" s="170"/>
+      <c r="U178" s="170"/>
+      <c r="V178" s="170"/>
+      <c r="W178" s="170"/>
+      <c r="X178" s="171"/>
+      <c r="Y178" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="169"/>
-      <c r="AA178" s="169"/>
-      <c r="AB178" s="169"/>
-      <c r="AC178" s="169"/>
-      <c r="AD178" s="170"/>
-      <c r="AE178" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF178" s="169"/>
-      <c r="AG178" s="169"/>
-      <c r="AH178" s="169"/>
-      <c r="AI178" s="169"/>
-      <c r="AJ178" s="170"/>
+      <c r="Z178" s="179"/>
+      <c r="AA178" s="179"/>
+      <c r="AB178" s="179"/>
+      <c r="AC178" s="179"/>
+      <c r="AD178" s="180"/>
+      <c r="AE178" s="169" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF178" s="170"/>
+      <c r="AG178" s="170"/>
+      <c r="AH178" s="170"/>
+      <c r="AI178" s="170"/>
+      <c r="AJ178" s="171"/>
       <c r="AP178" s="5"/>
       <c r="AQ178" s="2"/>
     </row>
@@ -13445,44 +13521,44 @@
       <c r="A179" s="4"/>
       <c r="E179" s="9"/>
       <c r="F179" s="15"/>
-      <c r="G179" s="153"/>
+      <c r="G179" s="151"/>
       <c r="H179" s="92"/>
       <c r="I179" s="92"/>
       <c r="J179" s="92"/>
       <c r="K179" s="92"/>
-      <c r="L179" s="160"/>
-      <c r="M179" s="148" t="s">
-        <v>36</v>
-      </c>
-      <c r="N179" s="148"/>
-      <c r="O179" s="148"/>
-      <c r="P179" s="148"/>
-      <c r="Q179" s="148"/>
-      <c r="R179" s="149"/>
-      <c r="S179" s="171" t="s">
+      <c r="L179" s="158"/>
+      <c r="M179" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="N179" s="75"/>
+      <c r="O179" s="75"/>
+      <c r="P179" s="75"/>
+      <c r="Q179" s="75"/>
+      <c r="R179" s="76"/>
+      <c r="S179" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T179" s="172"/>
-      <c r="U179" s="172"/>
-      <c r="V179" s="172"/>
-      <c r="W179" s="172"/>
-      <c r="X179" s="173"/>
-      <c r="Y179" s="171" t="s">
+      <c r="T179" s="170"/>
+      <c r="U179" s="170"/>
+      <c r="V179" s="170"/>
+      <c r="W179" s="170"/>
+      <c r="X179" s="171"/>
+      <c r="Y179" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="172"/>
-      <c r="AA179" s="172"/>
-      <c r="AB179" s="172"/>
-      <c r="AC179" s="172"/>
-      <c r="AD179" s="173"/>
-      <c r="AE179" s="171" t="s">
+      <c r="Z179" s="179"/>
+      <c r="AA179" s="179"/>
+      <c r="AB179" s="179"/>
+      <c r="AC179" s="179"/>
+      <c r="AD179" s="180"/>
+      <c r="AE179" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="172"/>
-      <c r="AG179" s="172"/>
-      <c r="AH179" s="172"/>
-      <c r="AI179" s="172"/>
-      <c r="AJ179" s="173"/>
+      <c r="AF179" s="179"/>
+      <c r="AG179" s="179"/>
+      <c r="AH179" s="179"/>
+      <c r="AI179" s="179"/>
+      <c r="AJ179" s="180"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13490,44 +13566,44 @@
       <c r="A180" s="4"/>
       <c r="E180" s="9"/>
       <c r="F180" s="15"/>
-      <c r="G180" s="150"/>
+      <c r="G180" s="148"/>
       <c r="H180" s="146"/>
       <c r="I180" s="146"/>
       <c r="J180" s="146"/>
       <c r="K180" s="146"/>
-      <c r="L180" s="161"/>
+      <c r="L180" s="159"/>
       <c r="M180" s="75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N180" s="75"/>
       <c r="O180" s="75"/>
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="168" t="s">
+      <c r="S180" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="169"/>
-      <c r="U180" s="169"/>
-      <c r="V180" s="169"/>
-      <c r="W180" s="169"/>
-      <c r="X180" s="170"/>
-      <c r="Y180" s="168" t="s">
+      <c r="T180" s="179"/>
+      <c r="U180" s="179"/>
+      <c r="V180" s="179"/>
+      <c r="W180" s="179"/>
+      <c r="X180" s="180"/>
+      <c r="Y180" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="169"/>
-      <c r="AA180" s="169"/>
-      <c r="AB180" s="169"/>
-      <c r="AC180" s="169"/>
-      <c r="AD180" s="170"/>
-      <c r="AE180" s="186" t="s">
+      <c r="Z180" s="179"/>
+      <c r="AA180" s="179"/>
+      <c r="AB180" s="179"/>
+      <c r="AC180" s="179"/>
+      <c r="AD180" s="180"/>
+      <c r="AE180" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="187"/>
-      <c r="AG180" s="187"/>
-      <c r="AH180" s="187"/>
-      <c r="AI180" s="187"/>
-      <c r="AJ180" s="188"/>
+      <c r="AF180" s="179"/>
+      <c r="AG180" s="179"/>
+      <c r="AH180" s="179"/>
+      <c r="AI180" s="179"/>
+      <c r="AJ180" s="180"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13535,44 +13611,44 @@
       <c r="A181" s="4"/>
       <c r="E181" s="9"/>
       <c r="F181" s="15"/>
-      <c r="G181" s="162" t="s">
+      <c r="G181" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="H181" s="163"/>
-      <c r="I181" s="163"/>
-      <c r="J181" s="163"/>
-      <c r="K181" s="163"/>
-      <c r="L181" s="163"/>
-      <c r="M181" s="163"/>
-      <c r="N181" s="163"/>
-      <c r="O181" s="163"/>
-      <c r="P181" s="163"/>
-      <c r="Q181" s="163"/>
-      <c r="R181" s="164"/>
-      <c r="S181" s="171" t="s">
+      <c r="H181" s="161"/>
+      <c r="I181" s="161"/>
+      <c r="J181" s="161"/>
+      <c r="K181" s="161"/>
+      <c r="L181" s="161"/>
+      <c r="M181" s="161"/>
+      <c r="N181" s="161"/>
+      <c r="O181" s="161"/>
+      <c r="P181" s="161"/>
+      <c r="Q181" s="161"/>
+      <c r="R181" s="162"/>
+      <c r="S181" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="172"/>
-      <c r="U181" s="172"/>
-      <c r="V181" s="172"/>
-      <c r="W181" s="172"/>
-      <c r="X181" s="173"/>
-      <c r="Y181" s="171" t="s">
+      <c r="T181" s="167"/>
+      <c r="U181" s="167"/>
+      <c r="V181" s="167"/>
+      <c r="W181" s="167"/>
+      <c r="X181" s="168"/>
+      <c r="Y181" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="172"/>
-      <c r="AA181" s="172"/>
-      <c r="AB181" s="172"/>
-      <c r="AC181" s="172"/>
-      <c r="AD181" s="173"/>
-      <c r="AE181" s="171" t="s">
+      <c r="Z181" s="167"/>
+      <c r="AA181" s="167"/>
+      <c r="AB181" s="167"/>
+      <c r="AC181" s="167"/>
+      <c r="AD181" s="168"/>
+      <c r="AE181" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="172"/>
-      <c r="AG181" s="172"/>
-      <c r="AH181" s="172"/>
-      <c r="AI181" s="172"/>
-      <c r="AJ181" s="173"/>
+      <c r="AF181" s="167"/>
+      <c r="AG181" s="167"/>
+      <c r="AH181" s="167"/>
+      <c r="AI181" s="167"/>
+      <c r="AJ181" s="168"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -13581,7 +13657,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="15"/>
       <c r="G182" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H182" s="20"/>
       <c r="I182" s="20"/>
@@ -13594,30 +13670,30 @@
       <c r="P182" s="75"/>
       <c r="Q182" s="75"/>
       <c r="R182" s="76"/>
-      <c r="S182" s="168" t="s">
+      <c r="S182" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="T182" s="169"/>
-      <c r="U182" s="169"/>
-      <c r="V182" s="169"/>
-      <c r="W182" s="169"/>
-      <c r="X182" s="170"/>
-      <c r="Y182" s="168" t="s">
+      <c r="T182" s="170"/>
+      <c r="U182" s="170"/>
+      <c r="V182" s="170"/>
+      <c r="W182" s="170"/>
+      <c r="X182" s="171"/>
+      <c r="Y182" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="Z182" s="169"/>
-      <c r="AA182" s="169"/>
-      <c r="AB182" s="169"/>
-      <c r="AC182" s="169"/>
-      <c r="AD182" s="170"/>
-      <c r="AE182" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF182" s="169"/>
-      <c r="AG182" s="169"/>
-      <c r="AH182" s="169"/>
-      <c r="AI182" s="169"/>
-      <c r="AJ182" s="170"/>
+      <c r="Z182" s="170"/>
+      <c r="AA182" s="170"/>
+      <c r="AB182" s="170"/>
+      <c r="AC182" s="170"/>
+      <c r="AD182" s="171"/>
+      <c r="AE182" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF182" s="170"/>
+      <c r="AG182" s="170"/>
+      <c r="AH182" s="170"/>
+      <c r="AI182" s="170"/>
+      <c r="AJ182" s="171"/>
       <c r="AP182" s="5"/>
       <c r="AQ182" s="2"/>
     </row>
@@ -13625,44 +13701,44 @@
       <c r="A183" s="4"/>
       <c r="E183" s="9"/>
       <c r="F183" s="15"/>
-      <c r="G183" s="162" t="s">
+      <c r="G183" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="H183" s="163"/>
-      <c r="I183" s="163"/>
-      <c r="J183" s="163"/>
-      <c r="K183" s="163"/>
-      <c r="L183" s="163"/>
-      <c r="M183" s="163"/>
-      <c r="N183" s="163"/>
-      <c r="O183" s="163"/>
-      <c r="P183" s="163"/>
-      <c r="Q183" s="163"/>
-      <c r="R183" s="164"/>
-      <c r="S183" s="171" t="s">
+      <c r="H183" s="161"/>
+      <c r="I183" s="161"/>
+      <c r="J183" s="161"/>
+      <c r="K183" s="161"/>
+      <c r="L183" s="161"/>
+      <c r="M183" s="161"/>
+      <c r="N183" s="161"/>
+      <c r="O183" s="161"/>
+      <c r="P183" s="161"/>
+      <c r="Q183" s="161"/>
+      <c r="R183" s="162"/>
+      <c r="S183" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="172"/>
-      <c r="U183" s="172"/>
-      <c r="V183" s="172"/>
-      <c r="W183" s="172"/>
-      <c r="X183" s="173"/>
-      <c r="Y183" s="171" t="s">
+      <c r="T183" s="167"/>
+      <c r="U183" s="167"/>
+      <c r="V183" s="167"/>
+      <c r="W183" s="167"/>
+      <c r="X183" s="168"/>
+      <c r="Y183" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="172"/>
-      <c r="AA183" s="172"/>
-      <c r="AB183" s="172"/>
-      <c r="AC183" s="172"/>
-      <c r="AD183" s="173"/>
-      <c r="AE183" s="171" t="s">
+      <c r="Z183" s="167"/>
+      <c r="AA183" s="167"/>
+      <c r="AB183" s="167"/>
+      <c r="AC183" s="167"/>
+      <c r="AD183" s="168"/>
+      <c r="AE183" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="172"/>
-      <c r="AG183" s="172"/>
-      <c r="AH183" s="172"/>
-      <c r="AI183" s="172"/>
-      <c r="AJ183" s="173"/>
+      <c r="AF183" s="167"/>
+      <c r="AG183" s="167"/>
+      <c r="AH183" s="167"/>
+      <c r="AI183" s="167"/>
+      <c r="AJ183" s="168"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -13670,44 +13746,44 @@
       <c r="A184" s="4"/>
       <c r="E184" s="9"/>
       <c r="F184" s="77"/>
-      <c r="G184" s="165" t="s">
+      <c r="G184" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="H184" s="166"/>
-      <c r="I184" s="166"/>
-      <c r="J184" s="166"/>
-      <c r="K184" s="166"/>
-      <c r="L184" s="166"/>
-      <c r="M184" s="166"/>
-      <c r="N184" s="166"/>
-      <c r="O184" s="166"/>
-      <c r="P184" s="166"/>
-      <c r="Q184" s="166"/>
-      <c r="R184" s="167"/>
-      <c r="S184" s="220" t="s">
+      <c r="H184" s="164"/>
+      <c r="I184" s="164"/>
+      <c r="J184" s="164"/>
+      <c r="K184" s="164"/>
+      <c r="L184" s="164"/>
+      <c r="M184" s="164"/>
+      <c r="N184" s="164"/>
+      <c r="O184" s="164"/>
+      <c r="P184" s="164"/>
+      <c r="Q184" s="164"/>
+      <c r="R184" s="165"/>
+      <c r="S184" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="221"/>
-      <c r="U184" s="221"/>
-      <c r="V184" s="221"/>
-      <c r="W184" s="221"/>
-      <c r="X184" s="222"/>
-      <c r="Y184" s="220" t="s">
+      <c r="T184" s="185"/>
+      <c r="U184" s="185"/>
+      <c r="V184" s="185"/>
+      <c r="W184" s="185"/>
+      <c r="X184" s="186"/>
+      <c r="Y184" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="221"/>
-      <c r="AA184" s="221"/>
-      <c r="AB184" s="221"/>
-      <c r="AC184" s="221"/>
-      <c r="AD184" s="222"/>
-      <c r="AE184" s="220" t="s">
+      <c r="Z184" s="185"/>
+      <c r="AA184" s="185"/>
+      <c r="AB184" s="185"/>
+      <c r="AC184" s="185"/>
+      <c r="AD184" s="186"/>
+      <c r="AE184" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="221"/>
-      <c r="AG184" s="221"/>
-      <c r="AH184" s="221"/>
-      <c r="AI184" s="221"/>
-      <c r="AJ184" s="222"/>
+      <c r="AF184" s="185"/>
+      <c r="AG184" s="185"/>
+      <c r="AH184" s="185"/>
+      <c r="AI184" s="185"/>
+      <c r="AJ184" s="186"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -13758,7 +13834,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AP187" s="5"/>
       <c r="AQ187" s="2"/>
@@ -13766,10 +13842,10 @@
     <row r="188" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="C188" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AP188" s="5"/>
       <c r="AQ188" s="2"/>
@@ -13777,10 +13853,10 @@
     <row r="189" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="C189" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP189" s="5"/>
       <c r="AQ189" s="2"/>
@@ -13788,10 +13864,10 @@
     <row r="190" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="C190" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AP190" s="5"/>
       <c r="AQ190" s="2"/>
@@ -13799,10 +13875,10 @@
     <row r="191" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="C191" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AP191" s="5"/>
       <c r="AQ191" s="2"/>
@@ -13873,7 +13949,7 @@
         <v>10</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -13909,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -13972,7 +14048,7 @@
     <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="F197" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G197" s="92"/>
       <c r="H197" s="92"/>
@@ -14013,7 +14089,7 @@
     <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="F198" s="85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G198" s="86"/>
       <c r="H198" s="86"/>
@@ -14024,13 +14100,13 @@
       <c r="M198" s="86"/>
       <c r="N198" s="86"/>
       <c r="O198" s="85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P198" s="86"/>
       <c r="Q198" s="86"/>
       <c r="R198" s="86"/>
       <c r="S198" s="85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T198" s="86"/>
       <c r="U198" s="86"/>
@@ -14052,7 +14128,7 @@
       <c r="AK198" s="86"/>
       <c r="AL198" s="87"/>
       <c r="AM198" s="85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN198" s="86"/>
       <c r="AO198" s="87"/>
@@ -14062,7 +14138,7 @@
     <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="F199" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G199" s="16"/>
       <c r="H199" s="16"/>
@@ -14079,7 +14155,7 @@
       <c r="Q199" s="16"/>
       <c r="R199" s="16"/>
       <c r="S199" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T199" s="16"/>
       <c r="U199" s="16"/>
@@ -14101,7 +14177,7 @@
       <c r="AK199" s="98"/>
       <c r="AL199" s="102"/>
       <c r="AM199" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN199" s="130"/>
       <c r="AO199" s="131"/>
@@ -14111,7 +14187,7 @@
     <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="F200" s="93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G200" s="94"/>
       <c r="H200" s="94"/>
@@ -14122,13 +14198,13 @@
       <c r="M200" s="96"/>
       <c r="N200" s="97"/>
       <c r="O200" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P200" s="34"/>
       <c r="Q200" s="12"/>
       <c r="R200" s="12"/>
       <c r="S200" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T200" s="12"/>
       <c r="U200" s="12"/>
@@ -14150,7 +14226,7 @@
       <c r="AK200" s="99"/>
       <c r="AL200" s="103"/>
       <c r="AM200" s="132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN200" s="133"/>
       <c r="AO200" s="134"/>
@@ -14169,13 +14245,13 @@
       <c r="M201" s="90"/>
       <c r="N201" s="17"/>
       <c r="O201" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P201" s="95"/>
       <c r="Q201" s="94"/>
       <c r="R201" s="94"/>
       <c r="S201" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T201" s="94"/>
       <c r="U201" s="94"/>
@@ -14197,7 +14273,7 @@
       <c r="AK201" s="100"/>
       <c r="AL201" s="104"/>
       <c r="AM201" s="135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN201" s="130"/>
       <c r="AO201" s="131"/>
@@ -14220,7 +14296,7 @@
       <c r="Q202" s="32"/>
       <c r="R202" s="32"/>
       <c r="S202" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T202" s="32"/>
       <c r="U202" s="32"/>
@@ -14259,13 +14335,13 @@
       <c r="M203" s="91"/>
       <c r="N203" s="33"/>
       <c r="O203" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P203" s="35"/>
       <c r="Q203" s="32"/>
       <c r="R203" s="32"/>
       <c r="S203" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T203" s="32"/>
       <c r="U203" s="32"/>
@@ -14287,7 +14363,7 @@
       <c r="AK203" s="99"/>
       <c r="AL203" s="103"/>
       <c r="AM203" s="132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN203" s="136"/>
       <c r="AO203" s="137"/>
@@ -14330,7 +14406,7 @@
     <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="F205" s="92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G205" s="92"/>
       <c r="H205" s="92"/>
@@ -14370,7 +14446,7 @@
     <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="F206" s="85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G206" s="86"/>
       <c r="H206" s="86"/>
@@ -14381,13 +14457,13 @@
       <c r="M206" s="86"/>
       <c r="N206" s="86"/>
       <c r="O206" s="85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P206" s="86"/>
       <c r="Q206" s="86"/>
       <c r="R206" s="86"/>
       <c r="S206" s="85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T206" s="86"/>
       <c r="U206" s="86"/>
@@ -14409,7 +14485,7 @@
       <c r="AK206" s="86"/>
       <c r="AL206" s="87"/>
       <c r="AM206" s="85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN206" s="86"/>
       <c r="AO206" s="87"/>
@@ -14419,7 +14495,7 @@
     <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="F207" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G207" s="94"/>
       <c r="H207" s="94"/>
@@ -14430,13 +14506,13 @@
       <c r="M207" s="96"/>
       <c r="N207" s="97"/>
       <c r="O207" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P207" s="34"/>
       <c r="Q207" s="12"/>
       <c r="R207" s="12"/>
       <c r="S207" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T207" s="12"/>
       <c r="U207" s="12"/>
@@ -14458,7 +14534,7 @@
       <c r="AK207" s="40"/>
       <c r="AL207" s="17"/>
       <c r="AM207" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN207" s="127"/>
       <c r="AO207" s="128"/>
@@ -14477,13 +14553,13 @@
       <c r="M208" s="90"/>
       <c r="N208" s="17"/>
       <c r="O208" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P208" s="95"/>
       <c r="Q208" s="94"/>
       <c r="R208" s="94"/>
       <c r="S208" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T208" s="94"/>
       <c r="U208" s="94"/>
@@ -14505,7 +14581,7 @@
       <c r="AK208" s="90"/>
       <c r="AL208" s="97"/>
       <c r="AM208" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN208" s="95"/>
       <c r="AO208" s="97"/>
@@ -14528,7 +14604,7 @@
       <c r="Q209" s="32"/>
       <c r="R209" s="32"/>
       <c r="S209" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T209" s="32"/>
       <c r="U209" s="32"/>
@@ -14567,13 +14643,13 @@
       <c r="M210" s="91"/>
       <c r="N210" s="33"/>
       <c r="O210" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P210" s="35"/>
       <c r="Q210" s="32"/>
       <c r="R210" s="32"/>
       <c r="S210" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T210" s="32"/>
       <c r="U210" s="32"/>
@@ -14595,7 +14671,7 @@
       <c r="AK210" s="91"/>
       <c r="AL210" s="33"/>
       <c r="AM210" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN210" s="35"/>
       <c r="AO210" s="33"/>
@@ -14605,7 +14681,7 @@
     <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="F211" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G211" s="94"/>
       <c r="H211" s="94"/>
@@ -14616,13 +14692,13 @@
       <c r="M211" s="96"/>
       <c r="N211" s="97"/>
       <c r="O211" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P211" s="34"/>
       <c r="Q211" s="12"/>
       <c r="R211" s="12"/>
       <c r="S211" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T211" s="12"/>
       <c r="U211" s="12"/>
@@ -14644,7 +14720,7 @@
       <c r="AK211" s="40"/>
       <c r="AL211" s="17"/>
       <c r="AM211" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN211" s="127"/>
       <c r="AO211" s="128"/>
@@ -14663,13 +14739,13 @@
       <c r="M212" s="90"/>
       <c r="N212" s="17"/>
       <c r="O212" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P212" s="95"/>
       <c r="Q212" s="94"/>
       <c r="R212" s="94"/>
       <c r="S212" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T212" s="94"/>
       <c r="U212" s="94"/>
@@ -14691,7 +14767,7 @@
       <c r="AK212" s="90"/>
       <c r="AL212" s="97"/>
       <c r="AM212" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN212" s="95"/>
       <c r="AO212" s="97"/>
@@ -14714,7 +14790,7 @@
       <c r="Q213" s="32"/>
       <c r="R213" s="32"/>
       <c r="S213" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T213" s="32"/>
       <c r="U213" s="32"/>
@@ -14753,13 +14829,13 @@
       <c r="M214" s="91"/>
       <c r="N214" s="33"/>
       <c r="O214" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P214" s="35"/>
       <c r="Q214" s="32"/>
       <c r="R214" s="32"/>
       <c r="S214" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T214" s="32"/>
       <c r="U214" s="32"/>
@@ -14781,7 +14857,7 @@
       <c r="AK214" s="91"/>
       <c r="AL214" s="33"/>
       <c r="AM214" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN214" s="35"/>
       <c r="AO214" s="33"/>
@@ -14791,7 +14867,7 @@
     <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="F215" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G215" s="94"/>
       <c r="H215" s="94"/>
@@ -14802,13 +14878,13 @@
       <c r="M215" s="96"/>
       <c r="N215" s="97"/>
       <c r="O215" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P215" s="34"/>
       <c r="Q215" s="12"/>
       <c r="R215" s="12"/>
       <c r="S215" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T215" s="12"/>
       <c r="U215" s="12"/>
@@ -14830,7 +14906,7 @@
       <c r="AK215" s="40"/>
       <c r="AL215" s="17"/>
       <c r="AM215" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN215" s="127"/>
       <c r="AO215" s="128"/>
@@ -14849,13 +14925,13 @@
       <c r="M216" s="90"/>
       <c r="N216" s="17"/>
       <c r="O216" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P216" s="95"/>
       <c r="Q216" s="94"/>
       <c r="R216" s="94"/>
       <c r="S216" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T216" s="94"/>
       <c r="U216" s="94"/>
@@ -14877,7 +14953,7 @@
       <c r="AK216" s="90"/>
       <c r="AL216" s="97"/>
       <c r="AM216" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN216" s="95"/>
       <c r="AO216" s="97"/>
@@ -14900,7 +14976,7 @@
       <c r="Q217" s="32"/>
       <c r="R217" s="32"/>
       <c r="S217" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T217" s="32"/>
       <c r="U217" s="32"/>
@@ -14939,13 +15015,13 @@
       <c r="M218" s="91"/>
       <c r="N218" s="33"/>
       <c r="O218" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P218" s="35"/>
       <c r="Q218" s="32"/>
       <c r="R218" s="32"/>
       <c r="S218" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T218" s="32"/>
       <c r="U218" s="32"/>
@@ -14967,7 +15043,7 @@
       <c r="AK218" s="91"/>
       <c r="AL218" s="33"/>
       <c r="AM218" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN218" s="35"/>
       <c r="AO218" s="33"/>
@@ -14977,7 +15053,7 @@
     <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="F219" s="84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G219" s="94"/>
       <c r="H219" s="94"/>
@@ -14988,13 +15064,13 @@
       <c r="M219" s="96"/>
       <c r="N219" s="97"/>
       <c r="O219" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P219" s="34"/>
       <c r="Q219" s="12"/>
       <c r="R219" s="12"/>
       <c r="S219" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T219" s="12"/>
       <c r="U219" s="12"/>
@@ -15016,7 +15092,7 @@
       <c r="AK219" s="40"/>
       <c r="AL219" s="17"/>
       <c r="AM219" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN219" s="127"/>
       <c r="AO219" s="128"/>
@@ -15035,13 +15111,13 @@
       <c r="M220" s="90"/>
       <c r="N220" s="17"/>
       <c r="O220" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P220" s="95"/>
       <c r="Q220" s="94"/>
       <c r="R220" s="94"/>
       <c r="S220" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T220" s="94"/>
       <c r="U220" s="94"/>
@@ -15063,7 +15139,7 @@
       <c r="AK220" s="90"/>
       <c r="AL220" s="97"/>
       <c r="AM220" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN220" s="95"/>
       <c r="AO220" s="97"/>
@@ -15086,7 +15162,7 @@
       <c r="Q221" s="32"/>
       <c r="R221" s="32"/>
       <c r="S221" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T221" s="32"/>
       <c r="U221" s="32"/>
@@ -15125,13 +15201,13 @@
       <c r="M222" s="91"/>
       <c r="N222" s="33"/>
       <c r="O222" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P222" s="35"/>
       <c r="Q222" s="32"/>
       <c r="R222" s="32"/>
       <c r="S222" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T222" s="32"/>
       <c r="U222" s="32"/>
@@ -15153,7 +15229,7 @@
       <c r="AK222" s="91"/>
       <c r="AL222" s="33"/>
       <c r="AM222" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN222" s="35"/>
       <c r="AO222" s="33"/>
@@ -15163,7 +15239,7 @@
     <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="F223" s="84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G223" s="94"/>
       <c r="H223" s="94"/>
@@ -15174,13 +15250,13 @@
       <c r="M223" s="96"/>
       <c r="N223" s="97"/>
       <c r="O223" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P223" s="34"/>
       <c r="Q223" s="12"/>
       <c r="R223" s="12"/>
       <c r="S223" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T223" s="12"/>
       <c r="U223" s="12"/>
@@ -15202,7 +15278,7 @@
       <c r="AK223" s="40"/>
       <c r="AL223" s="17"/>
       <c r="AM223" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN223" s="127"/>
       <c r="AO223" s="128"/>
@@ -15221,13 +15297,13 @@
       <c r="M224" s="90"/>
       <c r="N224" s="17"/>
       <c r="O224" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P224" s="95"/>
       <c r="Q224" s="94"/>
       <c r="R224" s="94"/>
       <c r="S224" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T224" s="94"/>
       <c r="U224" s="94"/>
@@ -15249,7 +15325,7 @@
       <c r="AK224" s="90"/>
       <c r="AL224" s="97"/>
       <c r="AM224" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN224" s="95"/>
       <c r="AO224" s="97"/>
@@ -15272,7 +15348,7 @@
       <c r="Q225" s="32"/>
       <c r="R225" s="32"/>
       <c r="S225" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T225" s="32"/>
       <c r="U225" s="32"/>
@@ -15311,13 +15387,13 @@
       <c r="M226" s="91"/>
       <c r="N226" s="33"/>
       <c r="O226" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P226" s="35"/>
       <c r="Q226" s="32"/>
       <c r="R226" s="32"/>
       <c r="S226" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T226" s="32"/>
       <c r="U226" s="32"/>
@@ -15339,7 +15415,7 @@
       <c r="AK226" s="91"/>
       <c r="AL226" s="33"/>
       <c r="AM226" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN226" s="35"/>
       <c r="AO226" s="33"/>
@@ -15349,7 +15425,7 @@
     <row r="227" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="F227" s="84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G227" s="94"/>
       <c r="H227" s="94"/>
@@ -15360,13 +15436,13 @@
       <c r="M227" s="96"/>
       <c r="N227" s="97"/>
       <c r="O227" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P227" s="34"/>
       <c r="Q227" s="12"/>
       <c r="R227" s="12"/>
       <c r="S227" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T227" s="12"/>
       <c r="U227" s="12"/>
@@ -15388,7 +15464,7 @@
       <c r="AK227" s="40"/>
       <c r="AL227" s="17"/>
       <c r="AM227" s="126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN227" s="127"/>
       <c r="AO227" s="128"/>
@@ -15407,13 +15483,13 @@
       <c r="M228" s="90"/>
       <c r="N228" s="17"/>
       <c r="O228" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P228" s="95"/>
       <c r="Q228" s="94"/>
       <c r="R228" s="94"/>
       <c r="S228" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T228" s="94"/>
       <c r="U228" s="94"/>
@@ -15435,7 +15511,7 @@
       <c r="AK228" s="90"/>
       <c r="AL228" s="97"/>
       <c r="AM228" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN228" s="95"/>
       <c r="AO228" s="97"/>
@@ -15458,7 +15534,7 @@
       <c r="Q229" s="32"/>
       <c r="R229" s="32"/>
       <c r="S229" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T229" s="32"/>
       <c r="U229" s="32"/>
@@ -15497,13 +15573,13 @@
       <c r="M230" s="91"/>
       <c r="N230" s="33"/>
       <c r="O230" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P230" s="35"/>
       <c r="Q230" s="32"/>
       <c r="R230" s="32"/>
       <c r="S230" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T230" s="32"/>
       <c r="U230" s="32"/>
@@ -15525,7 +15601,7 @@
       <c r="AK230" s="91"/>
       <c r="AL230" s="33"/>
       <c r="AM230" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN230" s="35"/>
       <c r="AO230" s="33"/>
@@ -15618,7 +15694,7 @@
         <v>11</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F233" s="92"/>
       <c r="G233" s="92"/>
@@ -15705,7 +15781,7 @@
       <c r="A235" s="4"/>
       <c r="B235" s="9"/>
       <c r="C235" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D235" s="62"/>
       <c r="E235" s="62"/>
@@ -15713,7 +15789,7 @@
       <c r="G235" s="62"/>
       <c r="H235" s="63"/>
       <c r="I235" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J235" s="62"/>
       <c r="K235" s="62"/>
@@ -15731,23 +15807,23 @@
       <c r="W235" s="62"/>
       <c r="X235" s="62"/>
       <c r="Y235" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z235" s="62"/>
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="177" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE235" s="178"/>
-      <c r="AF235" s="178"/>
-      <c r="AG235" s="178"/>
-      <c r="AH235" s="178"/>
-      <c r="AI235" s="178"/>
-      <c r="AJ235" s="178"/>
-      <c r="AK235" s="178"/>
-      <c r="AL235" s="179"/>
+      <c r="AD235" s="194" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE235" s="195"/>
+      <c r="AF235" s="195"/>
+      <c r="AG235" s="195"/>
+      <c r="AH235" s="195"/>
+      <c r="AI235" s="195"/>
+      <c r="AJ235" s="195"/>
+      <c r="AK235" s="195"/>
+      <c r="AL235" s="196"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -15784,7 +15860,7 @@
       <c r="AB236" s="65"/>
       <c r="AC236" s="66"/>
       <c r="AD236" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE236" s="53"/>
       <c r="AF236" s="53"/>
@@ -15807,7 +15883,7 @@
       <c r="A237" s="4"/>
       <c r="B237" s="9"/>
       <c r="C237" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D237" s="94"/>
       <c r="E237" s="94"/>
@@ -15815,7 +15891,7 @@
       <c r="G237" s="100"/>
       <c r="H237" s="97"/>
       <c r="I237" s="93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J237" s="100"/>
       <c r="K237" s="100"/>
@@ -15833,27 +15909,27 @@
       <c r="W237" s="100"/>
       <c r="X237" s="100"/>
       <c r="Y237" s="106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z237" s="100"/>
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="180" t="s">
+      <c r="AD237" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="181"/>
-      <c r="AF237" s="181"/>
-      <c r="AG237" s="182"/>
-      <c r="AH237" s="180" t="s">
+      <c r="AE237" s="218"/>
+      <c r="AF237" s="218"/>
+      <c r="AG237" s="213"/>
+      <c r="AH237" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="182"/>
-      <c r="AJ237" s="180" t="s">
+      <c r="AI237" s="213"/>
+      <c r="AJ237" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="181"/>
-      <c r="AL237" s="182"/>
+      <c r="AK237" s="218"/>
+      <c r="AL237" s="213"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -15869,7 +15945,7 @@
       <c r="G238" s="92"/>
       <c r="H238" s="17"/>
       <c r="I238" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J238" s="99"/>
       <c r="K238" s="99"/>
@@ -15891,15 +15967,15 @@
       <c r="AA238" s="99"/>
       <c r="AB238" s="99"/>
       <c r="AC238" s="103"/>
-      <c r="AD238" s="183"/>
-      <c r="AE238" s="184"/>
-      <c r="AF238" s="184"/>
-      <c r="AG238" s="185"/>
-      <c r="AH238" s="183"/>
-      <c r="AI238" s="185"/>
-      <c r="AJ238" s="183"/>
-      <c r="AK238" s="184"/>
-      <c r="AL238" s="185"/>
+      <c r="AD238" s="214"/>
+      <c r="AE238" s="219"/>
+      <c r="AF238" s="219"/>
+      <c r="AG238" s="215"/>
+      <c r="AH238" s="214"/>
+      <c r="AI238" s="215"/>
+      <c r="AJ238" s="214"/>
+      <c r="AK238" s="219"/>
+      <c r="AL238" s="215"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -15915,7 +15991,7 @@
       <c r="G239" s="92"/>
       <c r="H239" s="17"/>
       <c r="I239" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J239" s="98"/>
       <c r="K239" s="98"/>
@@ -15933,27 +16009,27 @@
       <c r="W239" s="98"/>
       <c r="X239" s="98"/>
       <c r="Y239" s="108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z239" s="98"/>
       <c r="AA239" s="98"/>
       <c r="AB239" s="98"/>
       <c r="AC239" s="102"/>
-      <c r="AD239" s="180" t="s">
+      <c r="AD239" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="AE239" s="181"/>
-      <c r="AF239" s="181"/>
-      <c r="AG239" s="182"/>
-      <c r="AH239" s="180" t="s">
+      <c r="AE239" s="218"/>
+      <c r="AF239" s="218"/>
+      <c r="AG239" s="213"/>
+      <c r="AH239" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="AI239" s="182"/>
-      <c r="AJ239" s="180" t="s">
+      <c r="AI239" s="213"/>
+      <c r="AJ239" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="AK239" s="181"/>
-      <c r="AL239" s="182"/>
+      <c r="AK239" s="218"/>
+      <c r="AL239" s="213"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -15969,7 +16045,7 @@
       <c r="G240" s="113"/>
       <c r="H240" s="114"/>
       <c r="I240" s="115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J240" s="105"/>
       <c r="K240" s="105"/>
@@ -15987,27 +16063,27 @@
       <c r="W240" s="105"/>
       <c r="X240" s="105"/>
       <c r="Y240" s="109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z240" s="105"/>
       <c r="AA240" s="105"/>
       <c r="AB240" s="105"/>
       <c r="AC240" s="116"/>
-      <c r="AD240" s="174" t="s">
+      <c r="AD240" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="AE240" s="175"/>
-      <c r="AF240" s="175"/>
-      <c r="AG240" s="176"/>
-      <c r="AH240" s="174" t="s">
+      <c r="AE240" s="220"/>
+      <c r="AF240" s="220"/>
+      <c r="AG240" s="217"/>
+      <c r="AH240" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="AI240" s="176"/>
-      <c r="AJ240" s="174" t="s">
+      <c r="AI240" s="217"/>
+      <c r="AJ240" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="AK240" s="175"/>
-      <c r="AL240" s="176"/>
+      <c r="AK240" s="220"/>
+      <c r="AL240" s="217"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16017,7 +16093,7 @@
       <c r="A241" s="4"/>
       <c r="B241" s="9"/>
       <c r="C241" s="93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D241" s="94"/>
       <c r="E241" s="94"/>
@@ -16025,7 +16101,7 @@
       <c r="G241" s="117"/>
       <c r="H241" s="118"/>
       <c r="I241" s="105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J241" s="105"/>
       <c r="K241" s="105"/>
@@ -16043,27 +16119,27 @@
       <c r="W241" s="105"/>
       <c r="X241" s="105"/>
       <c r="Y241" s="109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z241" s="105"/>
       <c r="AA241" s="105"/>
       <c r="AB241" s="105"/>
       <c r="AC241" s="116"/>
-      <c r="AD241" s="174" t="s">
+      <c r="AD241" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="175"/>
-      <c r="AF241" s="175"/>
-      <c r="AG241" s="176"/>
-      <c r="AH241" s="174" t="s">
+      <c r="AE241" s="220"/>
+      <c r="AF241" s="220"/>
+      <c r="AG241" s="217"/>
+      <c r="AH241" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="176"/>
-      <c r="AJ241" s="174" t="s">
+      <c r="AI241" s="217"/>
+      <c r="AJ241" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="AK241" s="175"/>
-      <c r="AL241" s="176"/>
+      <c r="AK241" s="220"/>
+      <c r="AL241" s="217"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16079,7 +16155,7 @@
       <c r="G242" s="119"/>
       <c r="H242" s="120"/>
       <c r="I242" s="105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J242" s="105"/>
       <c r="K242" s="105"/>
@@ -16097,27 +16173,27 @@
       <c r="W242" s="105"/>
       <c r="X242" s="105"/>
       <c r="Y242" s="109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z242" s="105"/>
       <c r="AA242" s="105"/>
       <c r="AB242" s="105"/>
       <c r="AC242" s="116"/>
-      <c r="AD242" s="174" t="s">
+      <c r="AD242" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="AE242" s="175"/>
-      <c r="AF242" s="175"/>
-      <c r="AG242" s="176"/>
-      <c r="AH242" s="174" t="s">
+      <c r="AE242" s="220"/>
+      <c r="AF242" s="220"/>
+      <c r="AG242" s="217"/>
+      <c r="AH242" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="AI242" s="176"/>
-      <c r="AJ242" s="174" t="s">
+      <c r="AI242" s="217"/>
+      <c r="AJ242" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="AK242" s="175"/>
-      <c r="AL242" s="176"/>
+      <c r="AK242" s="220"/>
+      <c r="AL242" s="217"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16133,7 +16209,7 @@
       <c r="G243" s="113"/>
       <c r="H243" s="121"/>
       <c r="I243" s="105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J243" s="105"/>
       <c r="K243" s="105"/>
@@ -16151,27 +16227,27 @@
       <c r="W243" s="105"/>
       <c r="X243" s="105"/>
       <c r="Y243" s="109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z243" s="105"/>
       <c r="AA243" s="105"/>
       <c r="AB243" s="105"/>
       <c r="AC243" s="116"/>
-      <c r="AD243" s="192" t="s">
+      <c r="AD243" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="AE243" s="193"/>
-      <c r="AF243" s="193"/>
-      <c r="AG243" s="194"/>
-      <c r="AH243" s="192" t="s">
+      <c r="AE243" s="222"/>
+      <c r="AF243" s="222"/>
+      <c r="AG243" s="223"/>
+      <c r="AH243" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="AI243" s="194"/>
-      <c r="AJ243" s="174" t="s">
+      <c r="AI243" s="223"/>
+      <c r="AJ243" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="AK243" s="175"/>
-      <c r="AL243" s="176"/>
+      <c r="AK243" s="220"/>
+      <c r="AL243" s="217"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16181,7 +16257,7 @@
       <c r="A244" s="4"/>
       <c r="B244" s="9"/>
       <c r="C244" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="12"/>
@@ -16189,7 +16265,7 @@
       <c r="G244" s="98"/>
       <c r="H244" s="102"/>
       <c r="I244" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J244" s="98"/>
       <c r="K244" s="98"/>
@@ -16207,27 +16283,27 @@
       <c r="W244" s="98"/>
       <c r="X244" s="98"/>
       <c r="Y244" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z244" s="98"/>
       <c r="AA244" s="98"/>
       <c r="AB244" s="98"/>
       <c r="AC244" s="102"/>
-      <c r="AD244" s="189" t="s">
+      <c r="AD244" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="AE244" s="190"/>
-      <c r="AF244" s="190"/>
-      <c r="AG244" s="191"/>
-      <c r="AH244" s="189" t="s">
+      <c r="AE244" s="188"/>
+      <c r="AF244" s="188"/>
+      <c r="AG244" s="189"/>
+      <c r="AH244" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="AI244" s="191"/>
-      <c r="AJ244" s="189" t="s">
+      <c r="AI244" s="189"/>
+      <c r="AJ244" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="AK244" s="190"/>
-      <c r="AL244" s="191"/>
+      <c r="AK244" s="188"/>
+      <c r="AL244" s="189"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
       <c r="AP244" s="5"/>
@@ -16279,7 +16355,7 @@
     <row r="246" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="C246" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
@@ -16325,7 +16401,7 @@
       <c r="A247" s="4"/>
       <c r="B247" s="9"/>
       <c r="C247" s="111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D247" s="112"/>
       <c r="E247" s="112"/>
@@ -16372,7 +16448,7 @@
       <c r="A248" s="4"/>
       <c r="B248" s="9"/>
       <c r="C248" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D248" s="94"/>
       <c r="E248" s="94"/>
@@ -16419,7 +16495,7 @@
       <c r="A249" s="4"/>
       <c r="B249" s="9"/>
       <c r="C249" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D249" s="94"/>
       <c r="E249" s="94"/>
@@ -16466,7 +16542,7 @@
       <c r="A250" s="4"/>
       <c r="B250" s="9"/>
       <c r="C250" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
@@ -16598,7 +16674,7 @@
         <v>12</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AP253" s="5"/>
       <c r="AQ253" s="2"/>
@@ -16606,10 +16682,10 @@
     <row r="254" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="C254" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="AP254" s="5"/>
       <c r="AQ254" s="2"/>
@@ -16617,10 +16693,10 @@
     <row r="255" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="C255" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AP255" s="5"/>
       <c r="AQ255" s="2"/>
@@ -16628,10 +16704,10 @@
     <row r="256" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="C256" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP256" s="5"/>
       <c r="AQ256" s="2"/>
@@ -16639,10 +16715,10 @@
     <row r="257" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="C257" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AP257" s="5"/>
       <c r="AQ257" s="2"/>
@@ -16650,7 +16726,7 @@
     <row r="258" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="D258" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AP258" s="5"/>
       <c r="AQ258" s="2"/>
@@ -16671,7 +16747,7 @@
         <v>13</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP261" s="5"/>
       <c r="AQ261" s="2"/>
@@ -16679,10 +16755,10 @@
     <row r="262" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="C262" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AP262" s="5"/>
       <c r="AQ262" s="2"/>
@@ -16690,10 +16766,10 @@
     <row r="263" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="C263" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AP263" s="5"/>
       <c r="AQ263" s="2"/>
@@ -16829,12 +16905,6 @@
     </row>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="S183:X183"/>
-    <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="AE137:AJ137"/>
     <mergeCell ref="S180:X180"/>
     <mergeCell ref="Y180:AD180"/>
     <mergeCell ref="AE180:AJ180"/>
@@ -16847,13 +16917,174 @@
     <mergeCell ref="S179:X179"/>
     <mergeCell ref="Y179:AD179"/>
     <mergeCell ref="AE179:AJ179"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AJ243:AL243"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="AD237:AG237"/>
+    <mergeCell ref="AD238:AG238"/>
+    <mergeCell ref="AD239:AG239"/>
+    <mergeCell ref="AD240:AG240"/>
+    <mergeCell ref="AD241:AG241"/>
+    <mergeCell ref="AD242:AG242"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AD244:AG244"/>
+    <mergeCell ref="AH237:AI237"/>
+    <mergeCell ref="AH238:AI238"/>
+    <mergeCell ref="AH239:AI239"/>
+    <mergeCell ref="AH240:AI240"/>
+    <mergeCell ref="AH241:AI241"/>
+    <mergeCell ref="AH242:AI242"/>
+    <mergeCell ref="AH244:AI244"/>
+    <mergeCell ref="AJ237:AL237"/>
+    <mergeCell ref="AJ238:AL238"/>
+    <mergeCell ref="AJ239:AL239"/>
+    <mergeCell ref="AJ240:AL240"/>
+    <mergeCell ref="AJ241:AL241"/>
+    <mergeCell ref="AJ242:AL242"/>
+    <mergeCell ref="AJ244:AL244"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AH243:AI243"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="S131:X131"/>
+    <mergeCell ref="S132:X132"/>
+    <mergeCell ref="S134:X134"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="AE155:AJ155"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="Y129:AD129"/>
+    <mergeCell ref="S156:X156"/>
+    <mergeCell ref="S157:X157"/>
+    <mergeCell ref="S158:X158"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="S184:X184"/>
+    <mergeCell ref="Y184:AD184"/>
+    <mergeCell ref="AE184:AJ184"/>
+    <mergeCell ref="AE181:AJ181"/>
+    <mergeCell ref="Y181:AD181"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="S182:X182"/>
+    <mergeCell ref="S181:X181"/>
+    <mergeCell ref="S170:X170"/>
     <mergeCell ref="AE169:AJ169"/>
     <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="S165:X165"/>
     <mergeCell ref="Y130:AD130"/>
     <mergeCell ref="Y131:AD131"/>
     <mergeCell ref="Y132:AD132"/>
@@ -16874,182 +17105,27 @@
     <mergeCell ref="S140:X140"/>
     <mergeCell ref="S141:X141"/>
     <mergeCell ref="S142:X142"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="S182:X182"/>
-    <mergeCell ref="S181:X181"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="S183:X183"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="Y137:AD137"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="S171:X171"/>
     <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="AE171:AJ171"/>
     <mergeCell ref="S172:X172"/>
     <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="S184:X184"/>
-    <mergeCell ref="Y184:AD184"/>
-    <mergeCell ref="AE184:AJ184"/>
-    <mergeCell ref="AE181:AJ181"/>
-    <mergeCell ref="Y181:AD181"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="S164:X164"/>
     <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="S158:X158"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="Y129:AD129"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="S131:X131"/>
-    <mergeCell ref="S132:X132"/>
-    <mergeCell ref="S134:X134"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="AD244:AG244"/>
-    <mergeCell ref="AH237:AI237"/>
-    <mergeCell ref="AH238:AI238"/>
-    <mergeCell ref="AH239:AI239"/>
-    <mergeCell ref="AH240:AI240"/>
-    <mergeCell ref="AH241:AI241"/>
-    <mergeCell ref="AH242:AI242"/>
-    <mergeCell ref="AH244:AI244"/>
-    <mergeCell ref="AJ237:AL237"/>
-    <mergeCell ref="AJ238:AL238"/>
-    <mergeCell ref="AJ239:AL239"/>
-    <mergeCell ref="AJ240:AL240"/>
-    <mergeCell ref="AJ241:AL241"/>
-    <mergeCell ref="AJ242:AL242"/>
-    <mergeCell ref="AJ244:AL244"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AH243:AI243"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="AJ243:AL243"/>
-    <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="AD237:AG237"/>
-    <mergeCell ref="AD238:AG238"/>
-    <mergeCell ref="AD239:AG239"/>
-    <mergeCell ref="AD240:AG240"/>
-    <mergeCell ref="AD241:AG241"/>
-    <mergeCell ref="AD242:AG242"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="S156:X156"/>
-    <mergeCell ref="S157:X157"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE173:AJ173"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -2137,25 +2137,6 @@
   </si>
   <si>
     <t>目標100%達成時</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>親/祖父母OKRの所有グループ（親/祖父母OKRのオーナーがグループの場合のみ）</t>
-    <rPh sb="0" eb="1">
-      <t>オy</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ソフb</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショユ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オy</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2936,6 +2917,13 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>コウモk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作ユーザ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウs</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3011,7 +2999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3027,12 +3015,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4259,7 +4241,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4394,25 +4376,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4428,12 +4398,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4443,31 +4440,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4479,24 +4485,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4506,25 +4494,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4554,40 +4530,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6173,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6277,7 +6265,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="71"/>
     </row>
@@ -6296,7 +6284,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="71"/>
     </row>
@@ -6315,7 +6303,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="71"/>
     </row>
@@ -6334,7 +6322,7 @@
         <v>66</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="71"/>
     </row>
@@ -6353,7 +6341,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F9" s="71"/>
     </row>
@@ -6372,7 +6360,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F10" s="71"/>
     </row>
@@ -6391,7 +6379,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="71"/>
     </row>
@@ -6404,13 +6392,13 @@
         <v>42979</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="71" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F12" s="71"/>
     </row>
@@ -6917,7 +6905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ273"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -6927,15 +6915,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="202"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="204"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>72</v>
@@ -6946,53 +6934,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="209" t="s">
+      <c r="P1" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="213"/>
       <c r="AA1" s="44" t="s">
         <v>67</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="206">
+      <c r="AD1" s="208">
         <v>42760</v>
       </c>
-      <c r="AE1" s="207"/>
-      <c r="AF1" s="207"/>
-      <c r="AG1" s="207"/>
-      <c r="AH1" s="208"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
+      <c r="AH1" s="210"/>
       <c r="AI1" s="44" t="s">
         <v>69</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="197" t="s">
+      <c r="AL1" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="198"/>
-      <c r="AN1" s="198"/>
-      <c r="AO1" s="198"/>
-      <c r="AP1" s="199"/>
+      <c r="AM1" s="200"/>
+      <c r="AN1" s="200"/>
+      <c r="AO1" s="200"/>
+      <c r="AP1" s="201"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="203"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="205"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="207"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>73</v>
@@ -7003,41 +6991,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
       <c r="AA2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="206">
+      <c r="AD2" s="208">
         <v>42979</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="207"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="208"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="210"/>
       <c r="AI2" s="44" t="s">
         <v>70</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="197" t="s">
+      <c r="AL2" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" s="198"/>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="198"/>
-      <c r="AP2" s="199"/>
+      <c r="AM2" s="200"/>
+      <c r="AN2" s="200"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="201"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7280,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -7478,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="2"/>
@@ -7489,7 +7477,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="2"/>
@@ -7500,7 +7488,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AP15" s="5"/>
       <c r="AQ15" s="2"/>
@@ -7511,7 +7499,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="2"/>
@@ -7575,27 +7563,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="187" t="s">
+      <c r="L19" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="188"/>
-      <c r="T19" s="188"/>
-      <c r="U19" s="188"/>
-      <c r="V19" s="188"/>
-      <c r="W19" s="188"/>
-      <c r="X19" s="188"/>
-      <c r="Y19" s="188"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="188"/>
-      <c r="AB19" s="188"/>
-      <c r="AC19" s="188"/>
-      <c r="AD19" s="189"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="195"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7611,27 +7599,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="187" t="s">
+      <c r="L20" s="193" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
-      <c r="X20" s="188"/>
-      <c r="Y20" s="188"/>
-      <c r="Z20" s="188"/>
-      <c r="AA20" s="188"/>
-      <c r="AB20" s="188"/>
-      <c r="AC20" s="188"/>
-      <c r="AD20" s="189"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="195"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7647,27 +7635,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="187" t="s">
+      <c r="L21" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="188"/>
-      <c r="AB21" s="188"/>
-      <c r="AC21" s="188"/>
-      <c r="AD21" s="189"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="195"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -7991,7 +7979,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="2"/>
@@ -8013,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP34" s="5"/>
       <c r="AQ34" s="2"/>
@@ -8082,7 +8070,7 @@
       <c r="A39" s="4"/>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -8121,27 +8109,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="194" t="s">
+      <c r="L40" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="195"/>
-      <c r="N40" s="195"/>
-      <c r="O40" s="195"/>
-      <c r="P40" s="195"/>
-      <c r="Q40" s="195"/>
-      <c r="R40" s="195"/>
-      <c r="S40" s="195"/>
-      <c r="T40" s="195"/>
-      <c r="U40" s="195"/>
-      <c r="V40" s="195"/>
-      <c r="W40" s="195"/>
-      <c r="X40" s="195"/>
-      <c r="Y40" s="195"/>
-      <c r="Z40" s="195"/>
-      <c r="AA40" s="195"/>
-      <c r="AB40" s="195"/>
-      <c r="AC40" s="195"/>
-      <c r="AD40" s="196"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="182"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="182"/>
+      <c r="S40" s="182"/>
+      <c r="T40" s="182"/>
+      <c r="U40" s="182"/>
+      <c r="V40" s="182"/>
+      <c r="W40" s="182"/>
+      <c r="X40" s="182"/>
+      <c r="Y40" s="182"/>
+      <c r="Z40" s="182"/>
+      <c r="AA40" s="182"/>
+      <c r="AB40" s="182"/>
+      <c r="AC40" s="182"/>
+      <c r="AD40" s="183"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8157,27 +8145,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="187" t="s">
+      <c r="L41" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="188"/>
-      <c r="N41" s="188"/>
-      <c r="O41" s="188"/>
-      <c r="P41" s="188"/>
-      <c r="Q41" s="188"/>
-      <c r="R41" s="188"/>
-      <c r="S41" s="188"/>
-      <c r="T41" s="188"/>
-      <c r="U41" s="188"/>
-      <c r="V41" s="188"/>
-      <c r="W41" s="188"/>
-      <c r="X41" s="188"/>
-      <c r="Y41" s="188"/>
-      <c r="Z41" s="188"/>
-      <c r="AA41" s="188"/>
-      <c r="AB41" s="188"/>
-      <c r="AC41" s="188"/>
-      <c r="AD41" s="189"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="194"/>
+      <c r="P41" s="194"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="194"/>
+      <c r="S41" s="194"/>
+      <c r="T41" s="194"/>
+      <c r="U41" s="194"/>
+      <c r="V41" s="194"/>
+      <c r="W41" s="194"/>
+      <c r="X41" s="194"/>
+      <c r="Y41" s="194"/>
+      <c r="Z41" s="194"/>
+      <c r="AA41" s="194"/>
+      <c r="AB41" s="194"/>
+      <c r="AC41" s="194"/>
+      <c r="AD41" s="195"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8193,27 +8181,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="187" t="s">
+      <c r="L42" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="188"/>
-      <c r="N42" s="188"/>
-      <c r="O42" s="188"/>
-      <c r="P42" s="188"/>
-      <c r="Q42" s="188"/>
-      <c r="R42" s="188"/>
-      <c r="S42" s="188"/>
-      <c r="T42" s="188"/>
-      <c r="U42" s="188"/>
-      <c r="V42" s="188"/>
-      <c r="W42" s="188"/>
-      <c r="X42" s="188"/>
-      <c r="Y42" s="188"/>
-      <c r="Z42" s="188"/>
-      <c r="AA42" s="188"/>
-      <c r="AB42" s="188"/>
-      <c r="AC42" s="188"/>
-      <c r="AD42" s="189"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="194"/>
+      <c r="O42" s="194"/>
+      <c r="P42" s="194"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="194"/>
+      <c r="S42" s="194"/>
+      <c r="T42" s="194"/>
+      <c r="U42" s="194"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="194"/>
+      <c r="X42" s="194"/>
+      <c r="Y42" s="194"/>
+      <c r="Z42" s="194"/>
+      <c r="AA42" s="194"/>
+      <c r="AB42" s="194"/>
+      <c r="AC42" s="194"/>
+      <c r="AD42" s="195"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8229,27 +8217,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="187" t="s">
+      <c r="L43" s="193" t="s">
         <v>190</v>
       </c>
-      <c r="M43" s="188"/>
-      <c r="N43" s="188"/>
-      <c r="O43" s="188"/>
-      <c r="P43" s="188"/>
-      <c r="Q43" s="188"/>
-      <c r="R43" s="188"/>
-      <c r="S43" s="188"/>
-      <c r="T43" s="188"/>
-      <c r="U43" s="188"/>
-      <c r="V43" s="188"/>
-      <c r="W43" s="188"/>
-      <c r="X43" s="188"/>
-      <c r="Y43" s="188"/>
-      <c r="Z43" s="188"/>
-      <c r="AA43" s="188"/>
-      <c r="AB43" s="188"/>
-      <c r="AC43" s="188"/>
-      <c r="AD43" s="189"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="194"/>
+      <c r="O43" s="194"/>
+      <c r="P43" s="194"/>
+      <c r="Q43" s="194"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="194"/>
+      <c r="T43" s="194"/>
+      <c r="U43" s="194"/>
+      <c r="V43" s="194"/>
+      <c r="W43" s="194"/>
+      <c r="X43" s="194"/>
+      <c r="Y43" s="194"/>
+      <c r="Z43" s="194"/>
+      <c r="AA43" s="194"/>
+      <c r="AB43" s="194"/>
+      <c r="AC43" s="194"/>
+      <c r="AD43" s="195"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8265,27 +8253,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="187" t="s">
+      <c r="L44" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="188"/>
-      <c r="N44" s="188"/>
-      <c r="O44" s="188"/>
-      <c r="P44" s="188"/>
-      <c r="Q44" s="188"/>
-      <c r="R44" s="188"/>
-      <c r="S44" s="188"/>
-      <c r="T44" s="188"/>
-      <c r="U44" s="188"/>
-      <c r="V44" s="188"/>
-      <c r="W44" s="188"/>
-      <c r="X44" s="188"/>
-      <c r="Y44" s="188"/>
-      <c r="Z44" s="188"/>
-      <c r="AA44" s="188"/>
-      <c r="AB44" s="188"/>
-      <c r="AC44" s="188"/>
-      <c r="AD44" s="189"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="194"/>
+      <c r="O44" s="194"/>
+      <c r="P44" s="194"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="194"/>
+      <c r="S44" s="194"/>
+      <c r="T44" s="194"/>
+      <c r="U44" s="194"/>
+      <c r="V44" s="194"/>
+      <c r="W44" s="194"/>
+      <c r="X44" s="194"/>
+      <c r="Y44" s="194"/>
+      <c r="Z44" s="194"/>
+      <c r="AA44" s="194"/>
+      <c r="AB44" s="194"/>
+      <c r="AC44" s="194"/>
+      <c r="AD44" s="195"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8301,27 +8289,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="187" t="s">
+      <c r="L45" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="188"/>
-      <c r="N45" s="188"/>
-      <c r="O45" s="188"/>
-      <c r="P45" s="188"/>
-      <c r="Q45" s="188"/>
-      <c r="R45" s="188"/>
-      <c r="S45" s="188"/>
-      <c r="T45" s="188"/>
-      <c r="U45" s="188"/>
-      <c r="V45" s="188"/>
-      <c r="W45" s="188"/>
-      <c r="X45" s="188"/>
-      <c r="Y45" s="188"/>
-      <c r="Z45" s="188"/>
-      <c r="AA45" s="188"/>
-      <c r="AB45" s="188"/>
-      <c r="AC45" s="188"/>
-      <c r="AD45" s="189"/>
+      <c r="M45" s="194"/>
+      <c r="N45" s="194"/>
+      <c r="O45" s="194"/>
+      <c r="P45" s="194"/>
+      <c r="Q45" s="194"/>
+      <c r="R45" s="194"/>
+      <c r="S45" s="194"/>
+      <c r="T45" s="194"/>
+      <c r="U45" s="194"/>
+      <c r="V45" s="194"/>
+      <c r="W45" s="194"/>
+      <c r="X45" s="194"/>
+      <c r="Y45" s="194"/>
+      <c r="Z45" s="194"/>
+      <c r="AA45" s="194"/>
+      <c r="AB45" s="194"/>
+      <c r="AC45" s="194"/>
+      <c r="AD45" s="195"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8359,7 +8347,7 @@
     <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="F47" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -8396,27 +8384,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="194" t="s">
+      <c r="L48" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="195"/>
-      <c r="N48" s="195"/>
-      <c r="O48" s="195"/>
-      <c r="P48" s="195"/>
-      <c r="Q48" s="195"/>
-      <c r="R48" s="195"/>
-      <c r="S48" s="195"/>
-      <c r="T48" s="195"/>
-      <c r="U48" s="195"/>
-      <c r="V48" s="195"/>
-      <c r="W48" s="195"/>
-      <c r="X48" s="195"/>
-      <c r="Y48" s="195"/>
-      <c r="Z48" s="195"/>
-      <c r="AA48" s="195"/>
-      <c r="AB48" s="195"/>
-      <c r="AC48" s="195"/>
-      <c r="AD48" s="196"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="182"/>
+      <c r="P48" s="182"/>
+      <c r="Q48" s="182"/>
+      <c r="R48" s="182"/>
+      <c r="S48" s="182"/>
+      <c r="T48" s="182"/>
+      <c r="U48" s="182"/>
+      <c r="V48" s="182"/>
+      <c r="W48" s="182"/>
+      <c r="X48" s="182"/>
+      <c r="Y48" s="182"/>
+      <c r="Z48" s="182"/>
+      <c r="AA48" s="182"/>
+      <c r="AB48" s="182"/>
+      <c r="AC48" s="182"/>
+      <c r="AD48" s="183"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8430,27 +8418,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="187" t="s">
+      <c r="L49" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="M49" s="188"/>
-      <c r="N49" s="188"/>
-      <c r="O49" s="188"/>
-      <c r="P49" s="188"/>
-      <c r="Q49" s="188"/>
-      <c r="R49" s="188"/>
-      <c r="S49" s="188"/>
-      <c r="T49" s="188"/>
-      <c r="U49" s="188"/>
-      <c r="V49" s="188"/>
-      <c r="W49" s="188"/>
-      <c r="X49" s="188"/>
-      <c r="Y49" s="188"/>
-      <c r="Z49" s="188"/>
-      <c r="AA49" s="188"/>
-      <c r="AB49" s="188"/>
-      <c r="AC49" s="188"/>
-      <c r="AD49" s="189"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="194"/>
+      <c r="O49" s="194"/>
+      <c r="P49" s="194"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="194"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
+      <c r="V49" s="194"/>
+      <c r="W49" s="194"/>
+      <c r="X49" s="194"/>
+      <c r="Y49" s="194"/>
+      <c r="Z49" s="194"/>
+      <c r="AA49" s="194"/>
+      <c r="AB49" s="194"/>
+      <c r="AC49" s="194"/>
+      <c r="AD49" s="195"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8464,27 +8452,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="187" t="s">
+      <c r="L50" s="193" t="s">
         <v>190</v>
       </c>
-      <c r="M50" s="188"/>
-      <c r="N50" s="188"/>
-      <c r="O50" s="188"/>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="188"/>
-      <c r="R50" s="188"/>
-      <c r="S50" s="188"/>
-      <c r="T50" s="188"/>
-      <c r="U50" s="188"/>
-      <c r="V50" s="188"/>
-      <c r="W50" s="188"/>
-      <c r="X50" s="188"/>
-      <c r="Y50" s="188"/>
-      <c r="Z50" s="188"/>
-      <c r="AA50" s="188"/>
-      <c r="AB50" s="188"/>
-      <c r="AC50" s="188"/>
-      <c r="AD50" s="189"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="194"/>
+      <c r="O50" s="194"/>
+      <c r="P50" s="194"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="194"/>
+      <c r="S50" s="194"/>
+      <c r="T50" s="194"/>
+      <c r="U50" s="194"/>
+      <c r="V50" s="194"/>
+      <c r="W50" s="194"/>
+      <c r="X50" s="194"/>
+      <c r="Y50" s="194"/>
+      <c r="Z50" s="194"/>
+      <c r="AA50" s="194"/>
+      <c r="AB50" s="194"/>
+      <c r="AC50" s="194"/>
+      <c r="AD50" s="195"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11087,30 +11075,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="194" t="s">
+      <c r="S125" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="195"/>
-      <c r="U125" s="195"/>
-      <c r="V125" s="195"/>
-      <c r="W125" s="195"/>
-      <c r="X125" s="196"/>
-      <c r="Y125" s="194" t="s">
+      <c r="T125" s="182"/>
+      <c r="U125" s="182"/>
+      <c r="V125" s="182"/>
+      <c r="W125" s="182"/>
+      <c r="X125" s="183"/>
+      <c r="Y125" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="195"/>
-      <c r="AA125" s="195"/>
-      <c r="AB125" s="195"/>
-      <c r="AC125" s="195"/>
-      <c r="AD125" s="196"/>
-      <c r="AE125" s="194" t="s">
+      <c r="Z125" s="182"/>
+      <c r="AA125" s="182"/>
+      <c r="AB125" s="182"/>
+      <c r="AC125" s="182"/>
+      <c r="AD125" s="183"/>
+      <c r="AE125" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="195"/>
-      <c r="AG125" s="195"/>
-      <c r="AH125" s="195"/>
-      <c r="AI125" s="195"/>
-      <c r="AJ125" s="196"/>
+      <c r="AF125" s="182"/>
+      <c r="AG125" s="182"/>
+      <c r="AH125" s="182"/>
+      <c r="AI125" s="182"/>
+      <c r="AJ125" s="183"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11132,30 +11120,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="187" t="s">
+      <c r="S126" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="188"/>
-      <c r="U126" s="188"/>
-      <c r="V126" s="188"/>
-      <c r="W126" s="188"/>
-      <c r="X126" s="189"/>
-      <c r="Y126" s="187" t="s">
+      <c r="T126" s="194"/>
+      <c r="U126" s="194"/>
+      <c r="V126" s="194"/>
+      <c r="W126" s="194"/>
+      <c r="X126" s="195"/>
+      <c r="Y126" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="188"/>
-      <c r="AA126" s="188"/>
-      <c r="AB126" s="188"/>
-      <c r="AC126" s="188"/>
-      <c r="AD126" s="189"/>
-      <c r="AE126" s="187" t="s">
+      <c r="Z126" s="194"/>
+      <c r="AA126" s="194"/>
+      <c r="AB126" s="194"/>
+      <c r="AC126" s="194"/>
+      <c r="AD126" s="195"/>
+      <c r="AE126" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="188"/>
-      <c r="AG126" s="188"/>
-      <c r="AH126" s="188"/>
-      <c r="AI126" s="188"/>
-      <c r="AJ126" s="189"/>
+      <c r="AF126" s="194"/>
+      <c r="AG126" s="194"/>
+      <c r="AH126" s="194"/>
+      <c r="AI126" s="194"/>
+      <c r="AJ126" s="195"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11176,7 +11164,7 @@
       <c r="O127" s="92"/>
       <c r="P127" s="92"/>
       <c r="Q127" s="92"/>
-      <c r="R127" s="140"/>
+      <c r="R127" s="128"/>
       <c r="S127" s="122"/>
       <c r="T127" s="123"/>
       <c r="U127" s="123"/>
@@ -11210,36 +11198,36 @@
       <c r="J128" s="19"/>
       <c r="K128" s="27"/>
       <c r="L128" s="29"/>
-      <c r="M128" s="141"/>
-      <c r="N128" s="142"/>
-      <c r="O128" s="142"/>
-      <c r="P128" s="142"/>
-      <c r="Q128" s="142"/>
-      <c r="R128" s="143"/>
-      <c r="S128" s="190" t="s">
+      <c r="M128" s="129"/>
+      <c r="N128" s="130"/>
+      <c r="O128" s="130"/>
+      <c r="P128" s="130"/>
+      <c r="Q128" s="130"/>
+      <c r="R128" s="131"/>
+      <c r="S128" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="191"/>
-      <c r="U128" s="191"/>
-      <c r="V128" s="191"/>
-      <c r="W128" s="191"/>
-      <c r="X128" s="192"/>
-      <c r="Y128" s="190" t="s">
+      <c r="T128" s="215"/>
+      <c r="U128" s="215"/>
+      <c r="V128" s="215"/>
+      <c r="W128" s="215"/>
+      <c r="X128" s="216"/>
+      <c r="Y128" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="191"/>
-      <c r="AA128" s="191"/>
-      <c r="AB128" s="191"/>
-      <c r="AC128" s="191"/>
-      <c r="AD128" s="192"/>
-      <c r="AE128" s="190" t="s">
+      <c r="Z128" s="215"/>
+      <c r="AA128" s="215"/>
+      <c r="AB128" s="215"/>
+      <c r="AC128" s="215"/>
+      <c r="AD128" s="216"/>
+      <c r="AE128" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="191"/>
-      <c r="AG128" s="191"/>
-      <c r="AH128" s="191"/>
-      <c r="AI128" s="191"/>
-      <c r="AJ128" s="192"/>
+      <c r="AF128" s="215"/>
+      <c r="AG128" s="215"/>
+      <c r="AH128" s="215"/>
+      <c r="AI128" s="215"/>
+      <c r="AJ128" s="216"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11247,44 +11235,44 @@
       <c r="A129" s="4"/>
       <c r="E129" s="9"/>
       <c r="F129" s="15"/>
-      <c r="G129" s="138" t="s">
+      <c r="G129" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="H129" s="139"/>
-      <c r="I129" s="139"/>
-      <c r="J129" s="139"/>
-      <c r="K129" s="139"/>
-      <c r="L129" s="139"/>
-      <c r="M129" s="139"/>
-      <c r="N129" s="139"/>
-      <c r="O129" s="139"/>
-      <c r="P129" s="139"/>
-      <c r="Q129" s="139"/>
-      <c r="R129" s="144"/>
-      <c r="S129" s="193" t="s">
+      <c r="H129" s="127"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="127"/>
+      <c r="K129" s="127"/>
+      <c r="L129" s="127"/>
+      <c r="M129" s="127"/>
+      <c r="N129" s="127"/>
+      <c r="O129" s="127"/>
+      <c r="P129" s="127"/>
+      <c r="Q129" s="127"/>
+      <c r="R129" s="132"/>
+      <c r="S129" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="193"/>
-      <c r="U129" s="193"/>
-      <c r="V129" s="193"/>
-      <c r="W129" s="193"/>
-      <c r="X129" s="193"/>
-      <c r="Y129" s="193" t="s">
+      <c r="T129" s="217"/>
+      <c r="U129" s="217"/>
+      <c r="V129" s="217"/>
+      <c r="W129" s="217"/>
+      <c r="X129" s="217"/>
+      <c r="Y129" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="193"/>
-      <c r="AA129" s="193"/>
-      <c r="AB129" s="193"/>
-      <c r="AC129" s="193"/>
-      <c r="AD129" s="193"/>
-      <c r="AE129" s="193" t="s">
+      <c r="Z129" s="217"/>
+      <c r="AA129" s="217"/>
+      <c r="AB129" s="217"/>
+      <c r="AC129" s="217"/>
+      <c r="AD129" s="217"/>
+      <c r="AE129" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="193"/>
-      <c r="AG129" s="193"/>
-      <c r="AH129" s="193"/>
-      <c r="AI129" s="193"/>
-      <c r="AJ129" s="193"/>
+      <c r="AF129" s="217"/>
+      <c r="AG129" s="217"/>
+      <c r="AH129" s="217"/>
+      <c r="AI129" s="217"/>
+      <c r="AJ129" s="217"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11307,31 +11295,31 @@
       <c r="O130" s="75"/>
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
-      <c r="R130" s="145"/>
-      <c r="S130" s="169" t="s">
+      <c r="R130" s="133"/>
+      <c r="S130" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="170"/>
-      <c r="U130" s="170"/>
-      <c r="V130" s="170"/>
-      <c r="W130" s="170"/>
-      <c r="X130" s="171"/>
-      <c r="Y130" s="169" t="s">
+      <c r="T130" s="173"/>
+      <c r="U130" s="173"/>
+      <c r="V130" s="173"/>
+      <c r="W130" s="173"/>
+      <c r="X130" s="174"/>
+      <c r="Y130" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="170"/>
-      <c r="AA130" s="170"/>
-      <c r="AB130" s="170"/>
-      <c r="AC130" s="170"/>
-      <c r="AD130" s="171"/>
-      <c r="AE130" s="169" t="s">
+      <c r="Z130" s="173"/>
+      <c r="AA130" s="173"/>
+      <c r="AB130" s="173"/>
+      <c r="AC130" s="173"/>
+      <c r="AD130" s="174"/>
+      <c r="AE130" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="170"/>
-      <c r="AG130" s="170"/>
-      <c r="AH130" s="170"/>
-      <c r="AI130" s="170"/>
-      <c r="AJ130" s="171"/>
+      <c r="AF130" s="173"/>
+      <c r="AG130" s="173"/>
+      <c r="AH130" s="173"/>
+      <c r="AI130" s="173"/>
+      <c r="AJ130" s="174"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11348,31 +11336,31 @@
       <c r="O131" s="75"/>
       <c r="P131" s="75"/>
       <c r="Q131" s="75"/>
-      <c r="R131" s="145"/>
-      <c r="S131" s="169" t="s">
+      <c r="R131" s="133"/>
+      <c r="S131" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="170"/>
-      <c r="U131" s="170"/>
-      <c r="V131" s="170"/>
-      <c r="W131" s="170"/>
-      <c r="X131" s="171"/>
-      <c r="Y131" s="169" t="s">
+      <c r="T131" s="173"/>
+      <c r="U131" s="173"/>
+      <c r="V131" s="173"/>
+      <c r="W131" s="173"/>
+      <c r="X131" s="174"/>
+      <c r="Y131" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="170"/>
-      <c r="AA131" s="170"/>
-      <c r="AB131" s="170"/>
-      <c r="AC131" s="170"/>
-      <c r="AD131" s="171"/>
-      <c r="AE131" s="169" t="s">
+      <c r="Z131" s="173"/>
+      <c r="AA131" s="173"/>
+      <c r="AB131" s="173"/>
+      <c r="AC131" s="173"/>
+      <c r="AD131" s="174"/>
+      <c r="AE131" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="170"/>
-      <c r="AG131" s="170"/>
-      <c r="AH131" s="170"/>
-      <c r="AI131" s="170"/>
-      <c r="AJ131" s="171"/>
+      <c r="AF131" s="173"/>
+      <c r="AG131" s="173"/>
+      <c r="AH131" s="173"/>
+      <c r="AI131" s="173"/>
+      <c r="AJ131" s="174"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11393,31 +11381,31 @@
       <c r="O132" s="75"/>
       <c r="P132" s="75"/>
       <c r="Q132" s="75"/>
-      <c r="R132" s="145"/>
-      <c r="S132" s="169" t="s">
+      <c r="R132" s="133"/>
+      <c r="S132" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="170"/>
-      <c r="U132" s="170"/>
-      <c r="V132" s="170"/>
-      <c r="W132" s="170"/>
-      <c r="X132" s="171"/>
-      <c r="Y132" s="169" t="s">
+      <c r="T132" s="173"/>
+      <c r="U132" s="173"/>
+      <c r="V132" s="173"/>
+      <c r="W132" s="173"/>
+      <c r="X132" s="174"/>
+      <c r="Y132" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="170"/>
-      <c r="AA132" s="170"/>
-      <c r="AB132" s="170"/>
-      <c r="AC132" s="170"/>
-      <c r="AD132" s="171"/>
-      <c r="AE132" s="169" t="s">
+      <c r="Z132" s="173"/>
+      <c r="AA132" s="173"/>
+      <c r="AB132" s="173"/>
+      <c r="AC132" s="173"/>
+      <c r="AD132" s="174"/>
+      <c r="AE132" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="170"/>
-      <c r="AG132" s="170"/>
-      <c r="AH132" s="170"/>
-      <c r="AI132" s="170"/>
-      <c r="AJ132" s="171"/>
+      <c r="AF132" s="173"/>
+      <c r="AG132" s="173"/>
+      <c r="AH132" s="173"/>
+      <c r="AI132" s="173"/>
+      <c r="AJ132" s="174"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11426,7 +11414,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="68"/>
       <c r="G133" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
@@ -11439,30 +11427,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="175" t="s">
+      <c r="S133" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="176"/>
-      <c r="U133" s="176"/>
-      <c r="V133" s="176"/>
-      <c r="W133" s="176"/>
-      <c r="X133" s="177"/>
-      <c r="Y133" s="175" t="s">
+      <c r="T133" s="219"/>
+      <c r="U133" s="219"/>
+      <c r="V133" s="219"/>
+      <c r="W133" s="219"/>
+      <c r="X133" s="220"/>
+      <c r="Y133" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="176"/>
-      <c r="AA133" s="176"/>
-      <c r="AB133" s="176"/>
-      <c r="AC133" s="176"/>
-      <c r="AD133" s="177"/>
-      <c r="AE133" s="175" t="s">
+      <c r="Z133" s="219"/>
+      <c r="AA133" s="219"/>
+      <c r="AB133" s="219"/>
+      <c r="AC133" s="219"/>
+      <c r="AD133" s="220"/>
+      <c r="AE133" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="176"/>
-      <c r="AG133" s="176"/>
-      <c r="AH133" s="176"/>
-      <c r="AI133" s="176"/>
-      <c r="AJ133" s="177"/>
+      <c r="AF133" s="219"/>
+      <c r="AG133" s="219"/>
+      <c r="AH133" s="219"/>
+      <c r="AI133" s="219"/>
+      <c r="AJ133" s="220"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11486,30 +11474,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="175" t="s">
+      <c r="S134" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="176"/>
-      <c r="U134" s="176"/>
-      <c r="V134" s="176"/>
-      <c r="W134" s="176"/>
-      <c r="X134" s="177"/>
-      <c r="Y134" s="175" t="s">
+      <c r="T134" s="219"/>
+      <c r="U134" s="219"/>
+      <c r="V134" s="219"/>
+      <c r="W134" s="219"/>
+      <c r="X134" s="220"/>
+      <c r="Y134" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="176"/>
-      <c r="AA134" s="176"/>
-      <c r="AB134" s="176"/>
-      <c r="AC134" s="176"/>
-      <c r="AD134" s="177"/>
-      <c r="AE134" s="175" t="s">
+      <c r="Z134" s="219"/>
+      <c r="AA134" s="219"/>
+      <c r="AB134" s="219"/>
+      <c r="AC134" s="219"/>
+      <c r="AD134" s="220"/>
+      <c r="AE134" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="176"/>
-      <c r="AG134" s="176"/>
-      <c r="AH134" s="176"/>
-      <c r="AI134" s="176"/>
-      <c r="AJ134" s="177"/>
+      <c r="AF134" s="219"/>
+      <c r="AG134" s="219"/>
+      <c r="AH134" s="219"/>
+      <c r="AI134" s="219"/>
+      <c r="AJ134" s="220"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11527,30 +11515,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="175" t="s">
+      <c r="S135" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="176"/>
-      <c r="U135" s="176"/>
-      <c r="V135" s="176"/>
-      <c r="W135" s="176"/>
-      <c r="X135" s="177"/>
-      <c r="Y135" s="175" t="s">
+      <c r="T135" s="219"/>
+      <c r="U135" s="219"/>
+      <c r="V135" s="219"/>
+      <c r="W135" s="219"/>
+      <c r="X135" s="220"/>
+      <c r="Y135" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="176"/>
-      <c r="AA135" s="176"/>
-      <c r="AB135" s="176"/>
-      <c r="AC135" s="176"/>
-      <c r="AD135" s="177"/>
-      <c r="AE135" s="175" t="s">
+      <c r="Z135" s="219"/>
+      <c r="AA135" s="219"/>
+      <c r="AB135" s="219"/>
+      <c r="AC135" s="219"/>
+      <c r="AD135" s="220"/>
+      <c r="AE135" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="176"/>
-      <c r="AG135" s="176"/>
-      <c r="AH135" s="176"/>
-      <c r="AI135" s="176"/>
-      <c r="AJ135" s="177"/>
+      <c r="AF135" s="219"/>
+      <c r="AG135" s="219"/>
+      <c r="AH135" s="219"/>
+      <c r="AI135" s="219"/>
+      <c r="AJ135" s="220"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11572,30 +11560,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="175" t="s">
+      <c r="S136" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="176"/>
-      <c r="U136" s="176"/>
-      <c r="V136" s="176"/>
-      <c r="W136" s="176"/>
-      <c r="X136" s="177"/>
-      <c r="Y136" s="175" t="s">
+      <c r="T136" s="219"/>
+      <c r="U136" s="219"/>
+      <c r="V136" s="219"/>
+      <c r="W136" s="219"/>
+      <c r="X136" s="220"/>
+      <c r="Y136" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="176"/>
-      <c r="AA136" s="176"/>
-      <c r="AB136" s="176"/>
-      <c r="AC136" s="176"/>
-      <c r="AD136" s="177"/>
-      <c r="AE136" s="175" t="s">
+      <c r="Z136" s="219"/>
+      <c r="AA136" s="219"/>
+      <c r="AB136" s="219"/>
+      <c r="AC136" s="219"/>
+      <c r="AD136" s="220"/>
+      <c r="AE136" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="176"/>
-      <c r="AG136" s="176"/>
-      <c r="AH136" s="176"/>
-      <c r="AI136" s="176"/>
-      <c r="AJ136" s="177"/>
+      <c r="AF136" s="219"/>
+      <c r="AG136" s="219"/>
+      <c r="AH136" s="219"/>
+      <c r="AI136" s="219"/>
+      <c r="AJ136" s="220"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11617,30 +11605,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="172" t="s">
+      <c r="S137" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="173"/>
-      <c r="U137" s="173"/>
-      <c r="V137" s="173"/>
-      <c r="W137" s="173"/>
-      <c r="X137" s="174"/>
-      <c r="Y137" s="172" t="s">
+      <c r="T137" s="222"/>
+      <c r="U137" s="222"/>
+      <c r="V137" s="222"/>
+      <c r="W137" s="222"/>
+      <c r="X137" s="223"/>
+      <c r="Y137" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="173"/>
-      <c r="AA137" s="173"/>
-      <c r="AB137" s="173"/>
-      <c r="AC137" s="173"/>
-      <c r="AD137" s="174"/>
-      <c r="AE137" s="175" t="s">
+      <c r="Z137" s="222"/>
+      <c r="AA137" s="222"/>
+      <c r="AB137" s="222"/>
+      <c r="AC137" s="222"/>
+      <c r="AD137" s="223"/>
+      <c r="AE137" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="176"/>
-      <c r="AG137" s="176"/>
-      <c r="AH137" s="176"/>
-      <c r="AI137" s="176"/>
-      <c r="AJ137" s="177"/>
+      <c r="AF137" s="219"/>
+      <c r="AG137" s="219"/>
+      <c r="AH137" s="219"/>
+      <c r="AI137" s="219"/>
+      <c r="AJ137" s="220"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11664,30 +11652,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="175" t="s">
+      <c r="S138" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="176"/>
-      <c r="U138" s="176"/>
-      <c r="V138" s="176"/>
-      <c r="W138" s="176"/>
-      <c r="X138" s="177"/>
-      <c r="Y138" s="175" t="s">
+      <c r="T138" s="219"/>
+      <c r="U138" s="219"/>
+      <c r="V138" s="219"/>
+      <c r="W138" s="219"/>
+      <c r="X138" s="220"/>
+      <c r="Y138" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="176"/>
-      <c r="AA138" s="176"/>
-      <c r="AB138" s="176"/>
-      <c r="AC138" s="176"/>
-      <c r="AD138" s="177"/>
-      <c r="AE138" s="175" t="s">
+      <c r="Z138" s="219"/>
+      <c r="AA138" s="219"/>
+      <c r="AB138" s="219"/>
+      <c r="AC138" s="219"/>
+      <c r="AD138" s="220"/>
+      <c r="AE138" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="176"/>
-      <c r="AG138" s="176"/>
-      <c r="AH138" s="176"/>
-      <c r="AI138" s="176"/>
-      <c r="AJ138" s="177"/>
+      <c r="AF138" s="219"/>
+      <c r="AG138" s="219"/>
+      <c r="AH138" s="219"/>
+      <c r="AI138" s="219"/>
+      <c r="AJ138" s="220"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11705,30 +11693,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="175" t="s">
+      <c r="S139" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="176"/>
-      <c r="U139" s="176"/>
-      <c r="V139" s="176"/>
-      <c r="W139" s="176"/>
-      <c r="X139" s="177"/>
-      <c r="Y139" s="175" t="s">
+      <c r="T139" s="219"/>
+      <c r="U139" s="219"/>
+      <c r="V139" s="219"/>
+      <c r="W139" s="219"/>
+      <c r="X139" s="220"/>
+      <c r="Y139" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="176"/>
-      <c r="AA139" s="176"/>
-      <c r="AB139" s="176"/>
-      <c r="AC139" s="176"/>
-      <c r="AD139" s="177"/>
-      <c r="AE139" s="175" t="s">
+      <c r="Z139" s="219"/>
+      <c r="AA139" s="219"/>
+      <c r="AB139" s="219"/>
+      <c r="AC139" s="219"/>
+      <c r="AD139" s="220"/>
+      <c r="AE139" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="176"/>
-      <c r="AG139" s="176"/>
-      <c r="AH139" s="176"/>
-      <c r="AI139" s="176"/>
-      <c r="AJ139" s="177"/>
+      <c r="AF139" s="219"/>
+      <c r="AG139" s="219"/>
+      <c r="AH139" s="219"/>
+      <c r="AI139" s="219"/>
+      <c r="AJ139" s="220"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11750,30 +11738,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="175" t="s">
+      <c r="S140" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="176"/>
-      <c r="U140" s="176"/>
-      <c r="V140" s="176"/>
-      <c r="W140" s="176"/>
-      <c r="X140" s="177"/>
-      <c r="Y140" s="175" t="s">
+      <c r="T140" s="219"/>
+      <c r="U140" s="219"/>
+      <c r="V140" s="219"/>
+      <c r="W140" s="219"/>
+      <c r="X140" s="220"/>
+      <c r="Y140" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="176"/>
-      <c r="AA140" s="176"/>
-      <c r="AB140" s="176"/>
-      <c r="AC140" s="176"/>
-      <c r="AD140" s="177"/>
-      <c r="AE140" s="175" t="s">
+      <c r="Z140" s="219"/>
+      <c r="AA140" s="219"/>
+      <c r="AB140" s="219"/>
+      <c r="AC140" s="219"/>
+      <c r="AD140" s="220"/>
+      <c r="AE140" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="176"/>
-      <c r="AG140" s="176"/>
-      <c r="AH140" s="176"/>
-      <c r="AI140" s="176"/>
-      <c r="AJ140" s="177"/>
+      <c r="AF140" s="219"/>
+      <c r="AG140" s="219"/>
+      <c r="AH140" s="219"/>
+      <c r="AI140" s="219"/>
+      <c r="AJ140" s="220"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11795,30 +11783,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="175" t="s">
+      <c r="S141" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="T141" s="176"/>
-      <c r="U141" s="176"/>
-      <c r="V141" s="176"/>
-      <c r="W141" s="176"/>
-      <c r="X141" s="177"/>
-      <c r="Y141" s="175" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z141" s="176"/>
-      <c r="AA141" s="176"/>
-      <c r="AB141" s="176"/>
-      <c r="AC141" s="176"/>
-      <c r="AD141" s="177"/>
-      <c r="AE141" s="175" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF141" s="176"/>
-      <c r="AG141" s="176"/>
-      <c r="AH141" s="176"/>
-      <c r="AI141" s="176"/>
-      <c r="AJ141" s="177"/>
+      <c r="T141" s="219"/>
+      <c r="U141" s="219"/>
+      <c r="V141" s="219"/>
+      <c r="W141" s="219"/>
+      <c r="X141" s="220"/>
+      <c r="Y141" s="218" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z141" s="219"/>
+      <c r="AA141" s="219"/>
+      <c r="AB141" s="219"/>
+      <c r="AC141" s="219"/>
+      <c r="AD141" s="220"/>
+      <c r="AE141" s="218" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF141" s="219"/>
+      <c r="AG141" s="219"/>
+      <c r="AH141" s="219"/>
+      <c r="AI141" s="219"/>
+      <c r="AJ141" s="220"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11838,34 +11826,34 @@
         <v>6</v>
       </c>
       <c r="N142" s="75"/>
-      <c r="O142" s="146"/>
-      <c r="P142" s="146"/>
-      <c r="Q142" s="146"/>
-      <c r="R142" s="147"/>
-      <c r="S142" s="175" t="s">
+      <c r="O142" s="134"/>
+      <c r="P142" s="134"/>
+      <c r="Q142" s="134"/>
+      <c r="R142" s="135"/>
+      <c r="S142" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="176"/>
-      <c r="U142" s="176"/>
-      <c r="V142" s="176"/>
-      <c r="W142" s="176"/>
-      <c r="X142" s="177"/>
-      <c r="Y142" s="175" t="s">
+      <c r="T142" s="219"/>
+      <c r="U142" s="219"/>
+      <c r="V142" s="219"/>
+      <c r="W142" s="219"/>
+      <c r="X142" s="220"/>
+      <c r="Y142" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="176"/>
-      <c r="AA142" s="176"/>
-      <c r="AB142" s="176"/>
-      <c r="AC142" s="176"/>
-      <c r="AD142" s="177"/>
-      <c r="AE142" s="175" t="s">
+      <c r="Z142" s="219"/>
+      <c r="AA142" s="219"/>
+      <c r="AB142" s="219"/>
+      <c r="AC142" s="219"/>
+      <c r="AD142" s="220"/>
+      <c r="AE142" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="176"/>
-      <c r="AG142" s="176"/>
-      <c r="AH142" s="176"/>
-      <c r="AI142" s="176"/>
-      <c r="AJ142" s="177"/>
+      <c r="AF142" s="219"/>
+      <c r="AG142" s="219"/>
+      <c r="AH142" s="219"/>
+      <c r="AI142" s="219"/>
+      <c r="AJ142" s="220"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11883,30 +11871,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="175" t="s">
+      <c r="S143" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="176"/>
-      <c r="U143" s="176"/>
-      <c r="V143" s="176"/>
-      <c r="W143" s="176"/>
-      <c r="X143" s="177"/>
-      <c r="Y143" s="175" t="s">
+      <c r="T143" s="219"/>
+      <c r="U143" s="219"/>
+      <c r="V143" s="219"/>
+      <c r="W143" s="219"/>
+      <c r="X143" s="220"/>
+      <c r="Y143" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="176"/>
-      <c r="AA143" s="176"/>
-      <c r="AB143" s="176"/>
-      <c r="AC143" s="176"/>
-      <c r="AD143" s="177"/>
-      <c r="AE143" s="175" t="s">
+      <c r="Z143" s="219"/>
+      <c r="AA143" s="219"/>
+      <c r="AB143" s="219"/>
+      <c r="AC143" s="219"/>
+      <c r="AD143" s="220"/>
+      <c r="AE143" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="176"/>
-      <c r="AG143" s="176"/>
-      <c r="AH143" s="176"/>
-      <c r="AI143" s="176"/>
-      <c r="AJ143" s="177"/>
+      <c r="AF143" s="219"/>
+      <c r="AG143" s="219"/>
+      <c r="AH143" s="219"/>
+      <c r="AI143" s="219"/>
+      <c r="AJ143" s="220"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11928,30 +11916,30 @@
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="76"/>
-      <c r="S144" s="169" t="s">
+      <c r="S144" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="170"/>
-      <c r="U144" s="170"/>
-      <c r="V144" s="170"/>
-      <c r="W144" s="170"/>
-      <c r="X144" s="171"/>
-      <c r="Y144" s="169" t="s">
+      <c r="T144" s="173"/>
+      <c r="U144" s="173"/>
+      <c r="V144" s="173"/>
+      <c r="W144" s="173"/>
+      <c r="X144" s="174"/>
+      <c r="Y144" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z144" s="170"/>
-      <c r="AA144" s="170"/>
-      <c r="AB144" s="170"/>
-      <c r="AC144" s="170"/>
-      <c r="AD144" s="171"/>
-      <c r="AE144" s="169" t="s">
+      <c r="Z144" s="173"/>
+      <c r="AA144" s="173"/>
+      <c r="AB144" s="173"/>
+      <c r="AC144" s="173"/>
+      <c r="AD144" s="174"/>
+      <c r="AE144" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="170"/>
-      <c r="AG144" s="170"/>
-      <c r="AH144" s="170"/>
-      <c r="AI144" s="170"/>
-      <c r="AJ144" s="171"/>
+      <c r="AF144" s="173"/>
+      <c r="AG144" s="173"/>
+      <c r="AH144" s="173"/>
+      <c r="AI144" s="173"/>
+      <c r="AJ144" s="174"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -11973,30 +11961,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="175" t="s">
+      <c r="S145" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="176"/>
-      <c r="U145" s="176"/>
-      <c r="V145" s="176"/>
-      <c r="W145" s="176"/>
-      <c r="X145" s="177"/>
-      <c r="Y145" s="175" t="s">
+      <c r="T145" s="219"/>
+      <c r="U145" s="219"/>
+      <c r="V145" s="219"/>
+      <c r="W145" s="219"/>
+      <c r="X145" s="220"/>
+      <c r="Y145" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="176"/>
-      <c r="AA145" s="176"/>
-      <c r="AB145" s="176"/>
-      <c r="AC145" s="176"/>
-      <c r="AD145" s="177"/>
-      <c r="AE145" s="175" t="s">
+      <c r="Z145" s="219"/>
+      <c r="AA145" s="219"/>
+      <c r="AB145" s="219"/>
+      <c r="AC145" s="219"/>
+      <c r="AD145" s="220"/>
+      <c r="AE145" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="176"/>
-      <c r="AG145" s="176"/>
-      <c r="AH145" s="176"/>
-      <c r="AI145" s="176"/>
-      <c r="AJ145" s="177"/>
+      <c r="AF145" s="219"/>
+      <c r="AG145" s="219"/>
+      <c r="AH145" s="219"/>
+      <c r="AI145" s="219"/>
+      <c r="AJ145" s="220"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -12020,30 +12008,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="175" t="s">
+      <c r="S146" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="176"/>
-      <c r="U146" s="176"/>
-      <c r="V146" s="176"/>
-      <c r="W146" s="176"/>
-      <c r="X146" s="177"/>
-      <c r="Y146" s="172" t="s">
+      <c r="T146" s="219"/>
+      <c r="U146" s="219"/>
+      <c r="V146" s="219"/>
+      <c r="W146" s="219"/>
+      <c r="X146" s="220"/>
+      <c r="Y146" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="173"/>
-      <c r="AA146" s="173"/>
-      <c r="AB146" s="173"/>
-      <c r="AC146" s="173"/>
-      <c r="AD146" s="174"/>
-      <c r="AE146" s="172" t="s">
+      <c r="Z146" s="222"/>
+      <c r="AA146" s="222"/>
+      <c r="AB146" s="222"/>
+      <c r="AC146" s="222"/>
+      <c r="AD146" s="223"/>
+      <c r="AE146" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="173"/>
-      <c r="AG146" s="173"/>
-      <c r="AH146" s="173"/>
-      <c r="AI146" s="173"/>
-      <c r="AJ146" s="174"/>
+      <c r="AF146" s="222"/>
+      <c r="AG146" s="222"/>
+      <c r="AH146" s="222"/>
+      <c r="AI146" s="222"/>
+      <c r="AJ146" s="223"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -12061,30 +12049,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="175" t="s">
+      <c r="S147" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="176"/>
-      <c r="U147" s="176"/>
-      <c r="V147" s="176"/>
-      <c r="W147" s="176"/>
-      <c r="X147" s="177"/>
-      <c r="Y147" s="175" t="s">
+      <c r="T147" s="219"/>
+      <c r="U147" s="219"/>
+      <c r="V147" s="219"/>
+      <c r="W147" s="219"/>
+      <c r="X147" s="220"/>
+      <c r="Y147" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="176"/>
-      <c r="AA147" s="176"/>
-      <c r="AB147" s="176"/>
-      <c r="AC147" s="176"/>
-      <c r="AD147" s="177"/>
-      <c r="AE147" s="172" t="s">
+      <c r="Z147" s="219"/>
+      <c r="AA147" s="219"/>
+      <c r="AB147" s="219"/>
+      <c r="AC147" s="219"/>
+      <c r="AD147" s="220"/>
+      <c r="AE147" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="173"/>
-      <c r="AG147" s="173"/>
-      <c r="AH147" s="173"/>
-      <c r="AI147" s="173"/>
-      <c r="AJ147" s="174"/>
+      <c r="AF147" s="222"/>
+      <c r="AG147" s="222"/>
+      <c r="AH147" s="222"/>
+      <c r="AI147" s="222"/>
+      <c r="AJ147" s="223"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12106,30 +12094,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="175" t="s">
+      <c r="S148" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="176"/>
-      <c r="U148" s="176"/>
-      <c r="V148" s="176"/>
-      <c r="W148" s="176"/>
-      <c r="X148" s="177"/>
-      <c r="Y148" s="175" t="s">
+      <c r="T148" s="219"/>
+      <c r="U148" s="219"/>
+      <c r="V148" s="219"/>
+      <c r="W148" s="219"/>
+      <c r="X148" s="220"/>
+      <c r="Y148" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="176"/>
-      <c r="AA148" s="176"/>
-      <c r="AB148" s="176"/>
-      <c r="AC148" s="176"/>
-      <c r="AD148" s="177"/>
-      <c r="AE148" s="172" t="s">
+      <c r="Z148" s="219"/>
+      <c r="AA148" s="219"/>
+      <c r="AB148" s="219"/>
+      <c r="AC148" s="219"/>
+      <c r="AD148" s="220"/>
+      <c r="AE148" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="173"/>
-      <c r="AG148" s="173"/>
-      <c r="AH148" s="173"/>
-      <c r="AI148" s="173"/>
-      <c r="AJ148" s="174"/>
+      <c r="AF148" s="222"/>
+      <c r="AG148" s="222"/>
+      <c r="AH148" s="222"/>
+      <c r="AI148" s="222"/>
+      <c r="AJ148" s="223"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12153,30 +12141,30 @@
       <c r="P149" s="75"/>
       <c r="Q149" s="75"/>
       <c r="R149" s="76"/>
-      <c r="S149" s="169" t="s">
+      <c r="S149" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="170"/>
-      <c r="U149" s="170"/>
-      <c r="V149" s="170"/>
-      <c r="W149" s="170"/>
-      <c r="X149" s="171"/>
-      <c r="Y149" s="169" t="s">
+      <c r="T149" s="173"/>
+      <c r="U149" s="173"/>
+      <c r="V149" s="173"/>
+      <c r="W149" s="173"/>
+      <c r="X149" s="174"/>
+      <c r="Y149" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="170"/>
-      <c r="AA149" s="170"/>
-      <c r="AB149" s="170"/>
-      <c r="AC149" s="170"/>
-      <c r="AD149" s="171"/>
-      <c r="AE149" s="169" t="s">
+      <c r="Z149" s="173"/>
+      <c r="AA149" s="173"/>
+      <c r="AB149" s="173"/>
+      <c r="AC149" s="173"/>
+      <c r="AD149" s="174"/>
+      <c r="AE149" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF149" s="170"/>
-      <c r="AG149" s="170"/>
-      <c r="AH149" s="170"/>
-      <c r="AI149" s="170"/>
-      <c r="AJ149" s="171"/>
+      <c r="AF149" s="173"/>
+      <c r="AG149" s="173"/>
+      <c r="AH149" s="173"/>
+      <c r="AI149" s="173"/>
+      <c r="AJ149" s="174"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -12198,30 +12186,30 @@
       <c r="P150" s="75"/>
       <c r="Q150" s="75"/>
       <c r="R150" s="76"/>
-      <c r="S150" s="169" t="s">
+      <c r="S150" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="170"/>
-      <c r="U150" s="170"/>
-      <c r="V150" s="170"/>
-      <c r="W150" s="170"/>
-      <c r="X150" s="171"/>
-      <c r="Y150" s="169" t="s">
+      <c r="T150" s="173"/>
+      <c r="U150" s="173"/>
+      <c r="V150" s="173"/>
+      <c r="W150" s="173"/>
+      <c r="X150" s="174"/>
+      <c r="Y150" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="170"/>
-      <c r="AA150" s="170"/>
-      <c r="AB150" s="170"/>
-      <c r="AC150" s="170"/>
-      <c r="AD150" s="171"/>
-      <c r="AE150" s="169" t="s">
+      <c r="Z150" s="173"/>
+      <c r="AA150" s="173"/>
+      <c r="AB150" s="173"/>
+      <c r="AC150" s="173"/>
+      <c r="AD150" s="174"/>
+      <c r="AE150" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF150" s="170"/>
-      <c r="AG150" s="170"/>
-      <c r="AH150" s="170"/>
-      <c r="AI150" s="170"/>
-      <c r="AJ150" s="171"/>
+      <c r="AF150" s="173"/>
+      <c r="AG150" s="173"/>
+      <c r="AH150" s="173"/>
+      <c r="AI150" s="173"/>
+      <c r="AJ150" s="174"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12230,7 +12218,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="15"/>
       <c r="G151" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H151" s="23"/>
       <c r="I151" s="23"/>
@@ -12245,30 +12233,30 @@
       <c r="P151" s="75"/>
       <c r="Q151" s="75"/>
       <c r="R151" s="76"/>
-      <c r="S151" s="169" t="s">
+      <c r="S151" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="170"/>
-      <c r="U151" s="170"/>
-      <c r="V151" s="170"/>
-      <c r="W151" s="170"/>
-      <c r="X151" s="171"/>
-      <c r="Y151" s="169" t="s">
+      <c r="T151" s="173"/>
+      <c r="U151" s="173"/>
+      <c r="V151" s="173"/>
+      <c r="W151" s="173"/>
+      <c r="X151" s="174"/>
+      <c r="Y151" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="170"/>
-      <c r="AA151" s="170"/>
-      <c r="AB151" s="170"/>
-      <c r="AC151" s="170"/>
-      <c r="AD151" s="171"/>
-      <c r="AE151" s="169" t="s">
+      <c r="Z151" s="173"/>
+      <c r="AA151" s="173"/>
+      <c r="AB151" s="173"/>
+      <c r="AC151" s="173"/>
+      <c r="AD151" s="174"/>
+      <c r="AE151" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF151" s="170"/>
-      <c r="AG151" s="170"/>
-      <c r="AH151" s="170"/>
-      <c r="AI151" s="170"/>
-      <c r="AJ151" s="171"/>
+      <c r="AF151" s="173"/>
+      <c r="AG151" s="173"/>
+      <c r="AH151" s="173"/>
+      <c r="AI151" s="173"/>
+      <c r="AJ151" s="174"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12290,30 +12278,30 @@
       <c r="P152" s="75"/>
       <c r="Q152" s="75"/>
       <c r="R152" s="76"/>
-      <c r="S152" s="169" t="s">
+      <c r="S152" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="170"/>
-      <c r="U152" s="170"/>
-      <c r="V152" s="170"/>
-      <c r="W152" s="170"/>
-      <c r="X152" s="171"/>
-      <c r="Y152" s="169" t="s">
+      <c r="T152" s="173"/>
+      <c r="U152" s="173"/>
+      <c r="V152" s="173"/>
+      <c r="W152" s="173"/>
+      <c r="X152" s="174"/>
+      <c r="Y152" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="170"/>
-      <c r="AA152" s="170"/>
-      <c r="AB152" s="170"/>
-      <c r="AC152" s="170"/>
-      <c r="AD152" s="171"/>
-      <c r="AE152" s="169" t="s">
+      <c r="Z152" s="173"/>
+      <c r="AA152" s="173"/>
+      <c r="AB152" s="173"/>
+      <c r="AC152" s="173"/>
+      <c r="AD152" s="174"/>
+      <c r="AE152" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF152" s="170"/>
-      <c r="AG152" s="170"/>
-      <c r="AH152" s="170"/>
-      <c r="AI152" s="170"/>
-      <c r="AJ152" s="171"/>
+      <c r="AF152" s="173"/>
+      <c r="AG152" s="173"/>
+      <c r="AH152" s="173"/>
+      <c r="AI152" s="173"/>
+      <c r="AJ152" s="174"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12337,30 +12325,30 @@
       <c r="P153" s="75"/>
       <c r="Q153" s="75"/>
       <c r="R153" s="76"/>
-      <c r="S153" s="169" t="s">
+      <c r="S153" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="170"/>
-      <c r="U153" s="170"/>
-      <c r="V153" s="170"/>
-      <c r="W153" s="170"/>
-      <c r="X153" s="171"/>
-      <c r="Y153" s="169" t="s">
+      <c r="T153" s="173"/>
+      <c r="U153" s="173"/>
+      <c r="V153" s="173"/>
+      <c r="W153" s="173"/>
+      <c r="X153" s="174"/>
+      <c r="Y153" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="170"/>
-      <c r="AA153" s="170"/>
-      <c r="AB153" s="170"/>
-      <c r="AC153" s="170"/>
-      <c r="AD153" s="171"/>
-      <c r="AE153" s="178" t="s">
+      <c r="Z153" s="173"/>
+      <c r="AA153" s="173"/>
+      <c r="AB153" s="173"/>
+      <c r="AC153" s="173"/>
+      <c r="AD153" s="174"/>
+      <c r="AE153" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="AF153" s="179"/>
-      <c r="AG153" s="179"/>
-      <c r="AH153" s="179"/>
-      <c r="AI153" s="179"/>
-      <c r="AJ153" s="180"/>
+      <c r="AF153" s="176"/>
+      <c r="AG153" s="176"/>
+      <c r="AH153" s="176"/>
+      <c r="AI153" s="176"/>
+      <c r="AJ153" s="177"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12384,30 +12372,30 @@
       <c r="P154" s="75"/>
       <c r="Q154" s="75"/>
       <c r="R154" s="76"/>
-      <c r="S154" s="169" t="s">
+      <c r="S154" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="170"/>
-      <c r="U154" s="170"/>
-      <c r="V154" s="170"/>
-      <c r="W154" s="170"/>
-      <c r="X154" s="171"/>
-      <c r="Y154" s="169" t="s">
+      <c r="T154" s="173"/>
+      <c r="U154" s="173"/>
+      <c r="V154" s="173"/>
+      <c r="W154" s="173"/>
+      <c r="X154" s="174"/>
+      <c r="Y154" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="170"/>
-      <c r="AA154" s="170"/>
-      <c r="AB154" s="170"/>
-      <c r="AC154" s="170"/>
-      <c r="AD154" s="171"/>
-      <c r="AE154" s="169" t="s">
+      <c r="Z154" s="173"/>
+      <c r="AA154" s="173"/>
+      <c r="AB154" s="173"/>
+      <c r="AC154" s="173"/>
+      <c r="AD154" s="174"/>
+      <c r="AE154" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF154" s="170"/>
-      <c r="AG154" s="170"/>
-      <c r="AH154" s="170"/>
-      <c r="AI154" s="170"/>
-      <c r="AJ154" s="171"/>
+      <c r="AF154" s="173"/>
+      <c r="AG154" s="173"/>
+      <c r="AH154" s="173"/>
+      <c r="AI154" s="173"/>
+      <c r="AJ154" s="174"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12431,30 +12419,30 @@
       <c r="P155" s="75"/>
       <c r="Q155" s="75"/>
       <c r="R155" s="76"/>
-      <c r="S155" s="169" t="s">
+      <c r="S155" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="170"/>
-      <c r="U155" s="170"/>
-      <c r="V155" s="170"/>
-      <c r="W155" s="170"/>
-      <c r="X155" s="171"/>
-      <c r="Y155" s="169" t="s">
+      <c r="T155" s="173"/>
+      <c r="U155" s="173"/>
+      <c r="V155" s="173"/>
+      <c r="W155" s="173"/>
+      <c r="X155" s="174"/>
+      <c r="Y155" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="170"/>
-      <c r="AA155" s="170"/>
-      <c r="AB155" s="170"/>
-      <c r="AC155" s="170"/>
-      <c r="AD155" s="171"/>
-      <c r="AE155" s="178" t="s">
+      <c r="Z155" s="173"/>
+      <c r="AA155" s="173"/>
+      <c r="AB155" s="173"/>
+      <c r="AC155" s="173"/>
+      <c r="AD155" s="174"/>
+      <c r="AE155" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="AF155" s="179"/>
-      <c r="AG155" s="179"/>
-      <c r="AH155" s="179"/>
-      <c r="AI155" s="179"/>
-      <c r="AJ155" s="180"/>
+      <c r="AF155" s="176"/>
+      <c r="AG155" s="176"/>
+      <c r="AH155" s="176"/>
+      <c r="AI155" s="176"/>
+      <c r="AJ155" s="177"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12478,30 +12466,30 @@
       <c r="P156" s="75"/>
       <c r="Q156" s="75"/>
       <c r="R156" s="76"/>
-      <c r="S156" s="169" t="s">
+      <c r="S156" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="170"/>
-      <c r="U156" s="170"/>
-      <c r="V156" s="170"/>
-      <c r="W156" s="170"/>
-      <c r="X156" s="171"/>
-      <c r="Y156" s="169" t="s">
+      <c r="T156" s="173"/>
+      <c r="U156" s="173"/>
+      <c r="V156" s="173"/>
+      <c r="W156" s="173"/>
+      <c r="X156" s="174"/>
+      <c r="Y156" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="170"/>
-      <c r="AA156" s="170"/>
-      <c r="AB156" s="170"/>
-      <c r="AC156" s="170"/>
-      <c r="AD156" s="171"/>
-      <c r="AE156" s="169" t="s">
+      <c r="Z156" s="173"/>
+      <c r="AA156" s="173"/>
+      <c r="AB156" s="173"/>
+      <c r="AC156" s="173"/>
+      <c r="AD156" s="174"/>
+      <c r="AE156" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF156" s="170"/>
-      <c r="AG156" s="170"/>
-      <c r="AH156" s="170"/>
-      <c r="AI156" s="170"/>
-      <c r="AJ156" s="171"/>
+      <c r="AF156" s="173"/>
+      <c r="AG156" s="173"/>
+      <c r="AH156" s="173"/>
+      <c r="AI156" s="173"/>
+      <c r="AJ156" s="174"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12525,30 +12513,30 @@
       <c r="P157" s="75"/>
       <c r="Q157" s="75"/>
       <c r="R157" s="76"/>
-      <c r="S157" s="169" t="s">
+      <c r="S157" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="170"/>
-      <c r="U157" s="170"/>
-      <c r="V157" s="170"/>
-      <c r="W157" s="170"/>
-      <c r="X157" s="171"/>
-      <c r="Y157" s="169" t="s">
+      <c r="T157" s="173"/>
+      <c r="U157" s="173"/>
+      <c r="V157" s="173"/>
+      <c r="W157" s="173"/>
+      <c r="X157" s="174"/>
+      <c r="Y157" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="170"/>
-      <c r="AA157" s="170"/>
-      <c r="AB157" s="170"/>
-      <c r="AC157" s="170"/>
-      <c r="AD157" s="171"/>
-      <c r="AE157" s="169" t="s">
+      <c r="Z157" s="173"/>
+      <c r="AA157" s="173"/>
+      <c r="AB157" s="173"/>
+      <c r="AC157" s="173"/>
+      <c r="AD157" s="174"/>
+      <c r="AE157" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="AF157" s="170"/>
-      <c r="AG157" s="170"/>
-      <c r="AH157" s="170"/>
-      <c r="AI157" s="170"/>
-      <c r="AJ157" s="171"/>
+      <c r="AF157" s="173"/>
+      <c r="AG157" s="173"/>
+      <c r="AH157" s="173"/>
+      <c r="AI157" s="173"/>
+      <c r="AJ157" s="174"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12570,30 +12558,30 @@
       <c r="P158" s="75"/>
       <c r="Q158" s="75"/>
       <c r="R158" s="76"/>
-      <c r="S158" s="169" t="s">
+      <c r="S158" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="170"/>
-      <c r="U158" s="170"/>
-      <c r="V158" s="170"/>
-      <c r="W158" s="170"/>
-      <c r="X158" s="171"/>
-      <c r="Y158" s="169" t="s">
+      <c r="T158" s="173"/>
+      <c r="U158" s="173"/>
+      <c r="V158" s="173"/>
+      <c r="W158" s="173"/>
+      <c r="X158" s="174"/>
+      <c r="Y158" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="170"/>
-      <c r="AA158" s="170"/>
-      <c r="AB158" s="170"/>
-      <c r="AC158" s="170"/>
-      <c r="AD158" s="171"/>
-      <c r="AE158" s="169" t="s">
+      <c r="Z158" s="173"/>
+      <c r="AA158" s="173"/>
+      <c r="AB158" s="173"/>
+      <c r="AC158" s="173"/>
+      <c r="AD158" s="174"/>
+      <c r="AE158" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF158" s="170"/>
-      <c r="AG158" s="170"/>
-      <c r="AH158" s="170"/>
-      <c r="AI158" s="170"/>
-      <c r="AJ158" s="171"/>
+      <c r="AF158" s="173"/>
+      <c r="AG158" s="173"/>
+      <c r="AH158" s="173"/>
+      <c r="AI158" s="173"/>
+      <c r="AJ158" s="174"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12601,44 +12589,44 @@
       <c r="A159" s="4"/>
       <c r="E159" s="9"/>
       <c r="F159" s="15"/>
-      <c r="G159" s="148" t="s">
+      <c r="G159" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="H159" s="146"/>
-      <c r="I159" s="146"/>
-      <c r="J159" s="146"/>
-      <c r="K159" s="146"/>
-      <c r="L159" s="146"/>
-      <c r="M159" s="146"/>
-      <c r="N159" s="146"/>
-      <c r="O159" s="146"/>
-      <c r="P159" s="146"/>
-      <c r="Q159" s="146"/>
-      <c r="R159" s="147"/>
-      <c r="S159" s="190" t="s">
+      <c r="H159" s="134"/>
+      <c r="I159" s="134"/>
+      <c r="J159" s="134"/>
+      <c r="K159" s="134"/>
+      <c r="L159" s="134"/>
+      <c r="M159" s="134"/>
+      <c r="N159" s="134"/>
+      <c r="O159" s="134"/>
+      <c r="P159" s="134"/>
+      <c r="Q159" s="134"/>
+      <c r="R159" s="135"/>
+      <c r="S159" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="191"/>
-      <c r="U159" s="191"/>
-      <c r="V159" s="191"/>
-      <c r="W159" s="191"/>
-      <c r="X159" s="192"/>
-      <c r="Y159" s="190" t="s">
+      <c r="T159" s="215"/>
+      <c r="U159" s="215"/>
+      <c r="V159" s="215"/>
+      <c r="W159" s="215"/>
+      <c r="X159" s="216"/>
+      <c r="Y159" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="191"/>
-      <c r="AA159" s="191"/>
-      <c r="AB159" s="191"/>
-      <c r="AC159" s="191"/>
-      <c r="AD159" s="192"/>
-      <c r="AE159" s="190" t="s">
+      <c r="Z159" s="215"/>
+      <c r="AA159" s="215"/>
+      <c r="AB159" s="215"/>
+      <c r="AC159" s="215"/>
+      <c r="AD159" s="216"/>
+      <c r="AE159" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="AF159" s="191"/>
-      <c r="AG159" s="191"/>
-      <c r="AH159" s="191"/>
-      <c r="AI159" s="191"/>
-      <c r="AJ159" s="192"/>
+      <c r="AF159" s="215"/>
+      <c r="AG159" s="215"/>
+      <c r="AH159" s="215"/>
+      <c r="AI159" s="215"/>
+      <c r="AJ159" s="216"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12647,7 +12635,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="15"/>
       <c r="G160" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H160" s="75"/>
       <c r="I160" s="75"/>
@@ -12660,30 +12648,30 @@
       <c r="P160" s="75"/>
       <c r="Q160" s="75"/>
       <c r="R160" s="76"/>
-      <c r="S160" s="169" t="s">
+      <c r="S160" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="170"/>
-      <c r="U160" s="170"/>
-      <c r="V160" s="170"/>
-      <c r="W160" s="170"/>
-      <c r="X160" s="171"/>
-      <c r="Y160" s="169" t="s">
+      <c r="T160" s="173"/>
+      <c r="U160" s="173"/>
+      <c r="V160" s="173"/>
+      <c r="W160" s="173"/>
+      <c r="X160" s="174"/>
+      <c r="Y160" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="170"/>
-      <c r="AA160" s="170"/>
-      <c r="AB160" s="170"/>
-      <c r="AC160" s="170"/>
-      <c r="AD160" s="171"/>
-      <c r="AE160" s="169" t="s">
+      <c r="Z160" s="173"/>
+      <c r="AA160" s="173"/>
+      <c r="AB160" s="173"/>
+      <c r="AC160" s="173"/>
+      <c r="AD160" s="174"/>
+      <c r="AE160" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF160" s="170"/>
-      <c r="AG160" s="170"/>
-      <c r="AH160" s="170"/>
-      <c r="AI160" s="170"/>
-      <c r="AJ160" s="171"/>
+      <c r="AF160" s="173"/>
+      <c r="AG160" s="173"/>
+      <c r="AH160" s="173"/>
+      <c r="AI160" s="173"/>
+      <c r="AJ160" s="174"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -12691,15 +12679,15 @@
       <c r="A161" s="4"/>
       <c r="E161" s="9"/>
       <c r="F161" s="15"/>
-      <c r="G161" s="149" t="s">
-        <v>261</v>
-      </c>
-      <c r="H161" s="150"/>
-      <c r="I161" s="150"/>
-      <c r="J161" s="150"/>
-      <c r="K161" s="150"/>
-      <c r="L161" s="152"/>
-      <c r="M161" s="153" t="s">
+      <c r="G161" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="H161" s="138"/>
+      <c r="I161" s="138"/>
+      <c r="J161" s="138"/>
+      <c r="K161" s="138"/>
+      <c r="L161" s="140"/>
+      <c r="M161" s="141" t="s">
         <v>6</v>
       </c>
       <c r="N161" s="75"/>
@@ -12707,30 +12695,30 @@
       <c r="P161" s="75"/>
       <c r="Q161" s="75"/>
       <c r="R161" s="76"/>
-      <c r="S161" s="169" t="s">
+      <c r="S161" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="170"/>
-      <c r="U161" s="170"/>
-      <c r="V161" s="170"/>
-      <c r="W161" s="170"/>
-      <c r="X161" s="171"/>
-      <c r="Y161" s="178" t="s">
+      <c r="T161" s="173"/>
+      <c r="U161" s="173"/>
+      <c r="V161" s="173"/>
+      <c r="W161" s="173"/>
+      <c r="X161" s="174"/>
+      <c r="Y161" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="Z161" s="179"/>
-      <c r="AA161" s="179"/>
-      <c r="AB161" s="179"/>
-      <c r="AC161" s="179"/>
-      <c r="AD161" s="180"/>
-      <c r="AE161" s="181" t="s">
+      <c r="Z161" s="176"/>
+      <c r="AA161" s="176"/>
+      <c r="AB161" s="176"/>
+      <c r="AC161" s="176"/>
+      <c r="AD161" s="177"/>
+      <c r="AE161" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="AF161" s="182"/>
-      <c r="AG161" s="182"/>
-      <c r="AH161" s="182"/>
-      <c r="AI161" s="182"/>
-      <c r="AJ161" s="183"/>
+      <c r="AF161" s="191"/>
+      <c r="AG161" s="191"/>
+      <c r="AH161" s="191"/>
+      <c r="AI161" s="191"/>
+      <c r="AJ161" s="192"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -12739,14 +12727,14 @@
       <c r="E162" s="9"/>
       <c r="F162" s="15"/>
       <c r="G162" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H162" s="16"/>
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
       <c r="K162" s="16"/>
       <c r="L162" s="89"/>
-      <c r="M162" s="153" t="s">
+      <c r="M162" s="141" t="s">
         <v>31</v>
       </c>
       <c r="N162" s="75"/>
@@ -12754,30 +12742,30 @@
       <c r="P162" s="75"/>
       <c r="Q162" s="75"/>
       <c r="R162" s="76"/>
-      <c r="S162" s="169" t="s">
+      <c r="S162" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="170"/>
-      <c r="U162" s="170"/>
-      <c r="V162" s="170"/>
-      <c r="W162" s="170"/>
-      <c r="X162" s="171"/>
-      <c r="Y162" s="169" t="s">
+      <c r="T162" s="173"/>
+      <c r="U162" s="173"/>
+      <c r="V162" s="173"/>
+      <c r="W162" s="173"/>
+      <c r="X162" s="174"/>
+      <c r="Y162" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="170"/>
-      <c r="AA162" s="170"/>
-      <c r="AB162" s="170"/>
-      <c r="AC162" s="170"/>
-      <c r="AD162" s="171"/>
-      <c r="AE162" s="181" t="s">
+      <c r="Z162" s="173"/>
+      <c r="AA162" s="173"/>
+      <c r="AB162" s="173"/>
+      <c r="AC162" s="173"/>
+      <c r="AD162" s="174"/>
+      <c r="AE162" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="AF162" s="182"/>
-      <c r="AG162" s="182"/>
-      <c r="AH162" s="182"/>
-      <c r="AI162" s="182"/>
-      <c r="AJ162" s="183"/>
+      <c r="AF162" s="191"/>
+      <c r="AG162" s="191"/>
+      <c r="AH162" s="191"/>
+      <c r="AI162" s="191"/>
+      <c r="AJ162" s="192"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -12786,14 +12774,14 @@
       <c r="E163" s="9"/>
       <c r="F163" s="15"/>
       <c r="G163" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16"/>
       <c r="K163" s="16"/>
       <c r="L163" s="89"/>
-      <c r="M163" s="153" t="s">
+      <c r="M163" s="141" t="s">
         <v>26</v>
       </c>
       <c r="N163" s="75"/>
@@ -12801,30 +12789,30 @@
       <c r="P163" s="75"/>
       <c r="Q163" s="75"/>
       <c r="R163" s="76"/>
-      <c r="S163" s="169" t="s">
+      <c r="S163" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="170"/>
-      <c r="U163" s="170"/>
-      <c r="V163" s="170"/>
-      <c r="W163" s="170"/>
-      <c r="X163" s="171"/>
-      <c r="Y163" s="169" t="s">
+      <c r="T163" s="173"/>
+      <c r="U163" s="173"/>
+      <c r="V163" s="173"/>
+      <c r="W163" s="173"/>
+      <c r="X163" s="174"/>
+      <c r="Y163" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="170"/>
-      <c r="AA163" s="170"/>
-      <c r="AB163" s="170"/>
-      <c r="AC163" s="170"/>
-      <c r="AD163" s="171"/>
-      <c r="AE163" s="181" t="s">
+      <c r="Z163" s="173"/>
+      <c r="AA163" s="173"/>
+      <c r="AB163" s="173"/>
+      <c r="AC163" s="173"/>
+      <c r="AD163" s="174"/>
+      <c r="AE163" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="AF163" s="182"/>
-      <c r="AG163" s="182"/>
-      <c r="AH163" s="182"/>
-      <c r="AI163" s="182"/>
-      <c r="AJ163" s="183"/>
+      <c r="AF163" s="191"/>
+      <c r="AG163" s="191"/>
+      <c r="AH163" s="191"/>
+      <c r="AI163" s="191"/>
+      <c r="AJ163" s="192"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -12832,15 +12820,15 @@
       <c r="A164" s="4"/>
       <c r="E164" s="9"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="151" t="s">
-        <v>265</v>
+      <c r="G164" s="139" t="s">
+        <v>264</v>
       </c>
       <c r="H164" s="92"/>
       <c r="I164" s="92"/>
       <c r="J164" s="92"/>
       <c r="K164" s="92"/>
       <c r="L164" s="92"/>
-      <c r="M164" s="153" t="s">
+      <c r="M164" s="141" t="s">
         <v>33</v>
       </c>
       <c r="N164" s="75"/>
@@ -12848,30 +12836,30 @@
       <c r="P164" s="75"/>
       <c r="Q164" s="75"/>
       <c r="R164" s="76"/>
-      <c r="S164" s="169" t="s">
+      <c r="S164" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="170"/>
-      <c r="U164" s="170"/>
-      <c r="V164" s="170"/>
-      <c r="W164" s="170"/>
-      <c r="X164" s="171"/>
-      <c r="Y164" s="169" t="s">
+      <c r="T164" s="173"/>
+      <c r="U164" s="173"/>
+      <c r="V164" s="173"/>
+      <c r="W164" s="173"/>
+      <c r="X164" s="174"/>
+      <c r="Y164" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="170"/>
-      <c r="AA164" s="170"/>
-      <c r="AB164" s="170"/>
-      <c r="AC164" s="170"/>
-      <c r="AD164" s="171"/>
-      <c r="AE164" s="181" t="s">
+      <c r="Z164" s="173"/>
+      <c r="AA164" s="173"/>
+      <c r="AB164" s="173"/>
+      <c r="AC164" s="173"/>
+      <c r="AD164" s="174"/>
+      <c r="AE164" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="AF164" s="182"/>
-      <c r="AG164" s="182"/>
-      <c r="AH164" s="182"/>
-      <c r="AI164" s="182"/>
-      <c r="AJ164" s="183"/>
+      <c r="AF164" s="191"/>
+      <c r="AG164" s="191"/>
+      <c r="AH164" s="191"/>
+      <c r="AI164" s="191"/>
+      <c r="AJ164" s="192"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -12879,15 +12867,15 @@
       <c r="A165" s="4"/>
       <c r="E165" s="9"/>
       <c r="F165" s="15"/>
-      <c r="G165" s="151" t="s">
-        <v>269</v>
+      <c r="G165" s="139" t="s">
+        <v>268</v>
       </c>
       <c r="H165" s="92"/>
       <c r="I165" s="92"/>
       <c r="J165" s="92"/>
       <c r="K165" s="92"/>
       <c r="L165" s="92"/>
-      <c r="M165" s="153" t="s">
+      <c r="M165" s="141" t="s">
         <v>35</v>
       </c>
       <c r="N165" s="75"/>
@@ -12895,30 +12883,30 @@
       <c r="P165" s="75"/>
       <c r="Q165" s="75"/>
       <c r="R165" s="76"/>
-      <c r="S165" s="169" t="s">
+      <c r="S165" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="170"/>
-      <c r="U165" s="170"/>
-      <c r="V165" s="170"/>
-      <c r="W165" s="170"/>
-      <c r="X165" s="171"/>
-      <c r="Y165" s="169" t="s">
+      <c r="T165" s="173"/>
+      <c r="U165" s="173"/>
+      <c r="V165" s="173"/>
+      <c r="W165" s="173"/>
+      <c r="X165" s="174"/>
+      <c r="Y165" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="170"/>
-      <c r="AA165" s="170"/>
-      <c r="AB165" s="170"/>
-      <c r="AC165" s="170"/>
-      <c r="AD165" s="171"/>
-      <c r="AE165" s="169" t="s">
+      <c r="Z165" s="173"/>
+      <c r="AA165" s="173"/>
+      <c r="AB165" s="173"/>
+      <c r="AC165" s="173"/>
+      <c r="AD165" s="174"/>
+      <c r="AE165" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="AF165" s="170"/>
-      <c r="AG165" s="170"/>
-      <c r="AH165" s="170"/>
-      <c r="AI165" s="170"/>
-      <c r="AJ165" s="171"/>
+      <c r="AF165" s="173"/>
+      <c r="AG165" s="173"/>
+      <c r="AH165" s="173"/>
+      <c r="AI165" s="173"/>
+      <c r="AJ165" s="174"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -12926,15 +12914,15 @@
       <c r="A166" s="4"/>
       <c r="E166" s="9"/>
       <c r="F166" s="15"/>
-      <c r="G166" s="148" t="s">
-        <v>272</v>
-      </c>
-      <c r="H166" s="146"/>
-      <c r="I166" s="146"/>
-      <c r="J166" s="146"/>
-      <c r="K166" s="146"/>
-      <c r="L166" s="146"/>
-      <c r="M166" s="153" t="s">
+      <c r="G166" s="136" t="s">
+        <v>271</v>
+      </c>
+      <c r="H166" s="134"/>
+      <c r="I166" s="134"/>
+      <c r="J166" s="134"/>
+      <c r="K166" s="134"/>
+      <c r="L166" s="134"/>
+      <c r="M166" s="141" t="s">
         <v>204</v>
       </c>
       <c r="N166" s="75"/>
@@ -12942,30 +12930,30 @@
       <c r="P166" s="75"/>
       <c r="Q166" s="75"/>
       <c r="R166" s="76"/>
-      <c r="S166" s="169" t="s">
+      <c r="S166" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="170"/>
-      <c r="U166" s="170"/>
-      <c r="V166" s="170"/>
-      <c r="W166" s="170"/>
-      <c r="X166" s="171"/>
-      <c r="Y166" s="169" t="s">
+      <c r="T166" s="173"/>
+      <c r="U166" s="173"/>
+      <c r="V166" s="173"/>
+      <c r="W166" s="173"/>
+      <c r="X166" s="174"/>
+      <c r="Y166" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z166" s="170"/>
-      <c r="AA166" s="170"/>
-      <c r="AB166" s="170"/>
-      <c r="AC166" s="170"/>
-      <c r="AD166" s="171"/>
-      <c r="AE166" s="181" t="s">
+      <c r="Z166" s="173"/>
+      <c r="AA166" s="173"/>
+      <c r="AB166" s="173"/>
+      <c r="AC166" s="173"/>
+      <c r="AD166" s="174"/>
+      <c r="AE166" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="182"/>
-      <c r="AG166" s="182"/>
-      <c r="AH166" s="182"/>
-      <c r="AI166" s="182"/>
-      <c r="AJ166" s="183"/>
+      <c r="AF166" s="191"/>
+      <c r="AG166" s="191"/>
+      <c r="AH166" s="191"/>
+      <c r="AI166" s="191"/>
+      <c r="AJ166" s="192"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12987,30 +12975,30 @@
       <c r="P167" s="75"/>
       <c r="Q167" s="75"/>
       <c r="R167" s="76"/>
-      <c r="S167" s="169" t="s">
+      <c r="S167" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="170"/>
-      <c r="U167" s="170"/>
-      <c r="V167" s="170"/>
-      <c r="W167" s="170"/>
-      <c r="X167" s="171"/>
-      <c r="Y167" s="169" t="s">
+      <c r="T167" s="173"/>
+      <c r="U167" s="173"/>
+      <c r="V167" s="173"/>
+      <c r="W167" s="173"/>
+      <c r="X167" s="174"/>
+      <c r="Y167" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="170"/>
-      <c r="AA167" s="170"/>
-      <c r="AB167" s="170"/>
-      <c r="AC167" s="170"/>
-      <c r="AD167" s="171"/>
-      <c r="AE167" s="169" t="s">
+      <c r="Z167" s="173"/>
+      <c r="AA167" s="173"/>
+      <c r="AB167" s="173"/>
+      <c r="AC167" s="173"/>
+      <c r="AD167" s="174"/>
+      <c r="AE167" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF167" s="170"/>
-      <c r="AG167" s="170"/>
-      <c r="AH167" s="170"/>
-      <c r="AI167" s="170"/>
-      <c r="AJ167" s="171"/>
+      <c r="AF167" s="173"/>
+      <c r="AG167" s="173"/>
+      <c r="AH167" s="173"/>
+      <c r="AI167" s="173"/>
+      <c r="AJ167" s="174"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -13025,39 +13013,39 @@
       <c r="I168" s="23"/>
       <c r="J168" s="23"/>
       <c r="K168" s="23"/>
-      <c r="L168" s="155"/>
+      <c r="L168" s="143"/>
       <c r="M168" s="75" t="s">
         <v>6</v>
       </c>
       <c r="N168" s="75"/>
-      <c r="O168" s="146"/>
-      <c r="P168" s="146"/>
-      <c r="Q168" s="146"/>
-      <c r="R168" s="147"/>
-      <c r="S168" s="169" t="s">
+      <c r="O168" s="134"/>
+      <c r="P168" s="134"/>
+      <c r="Q168" s="134"/>
+      <c r="R168" s="135"/>
+      <c r="S168" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="170"/>
-      <c r="U168" s="170"/>
-      <c r="V168" s="170"/>
-      <c r="W168" s="170"/>
-      <c r="X168" s="171"/>
-      <c r="Y168" s="178" t="s">
+      <c r="T168" s="173"/>
+      <c r="U168" s="173"/>
+      <c r="V168" s="173"/>
+      <c r="W168" s="173"/>
+      <c r="X168" s="174"/>
+      <c r="Y168" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="Z168" s="179"/>
-      <c r="AA168" s="179"/>
-      <c r="AB168" s="179"/>
-      <c r="AC168" s="179"/>
-      <c r="AD168" s="180"/>
-      <c r="AE168" s="178" t="s">
+      <c r="Z168" s="176"/>
+      <c r="AA168" s="176"/>
+      <c r="AB168" s="176"/>
+      <c r="AC168" s="176"/>
+      <c r="AD168" s="177"/>
+      <c r="AE168" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AF168" s="179"/>
-      <c r="AG168" s="179"/>
-      <c r="AH168" s="179"/>
-      <c r="AI168" s="179"/>
-      <c r="AJ168" s="180"/>
+      <c r="AF168" s="176"/>
+      <c r="AG168" s="176"/>
+      <c r="AH168" s="176"/>
+      <c r="AI168" s="176"/>
+      <c r="AJ168" s="177"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -13065,12 +13053,12 @@
       <c r="A169" s="4"/>
       <c r="E169" s="9"/>
       <c r="F169" s="15"/>
-      <c r="G169" s="154"/>
+      <c r="G169" s="142"/>
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
-      <c r="L169" s="156"/>
+      <c r="L169" s="144"/>
       <c r="M169" s="75" t="s">
         <v>31</v>
       </c>
@@ -13079,30 +13067,30 @@
       <c r="P169" s="75"/>
       <c r="Q169" s="75"/>
       <c r="R169" s="76"/>
-      <c r="S169" s="169" t="s">
+      <c r="S169" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="170"/>
-      <c r="U169" s="170"/>
-      <c r="V169" s="170"/>
-      <c r="W169" s="170"/>
-      <c r="X169" s="171"/>
-      <c r="Y169" s="169" t="s">
+      <c r="T169" s="173"/>
+      <c r="U169" s="173"/>
+      <c r="V169" s="173"/>
+      <c r="W169" s="173"/>
+      <c r="X169" s="174"/>
+      <c r="Y169" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="170"/>
-      <c r="AA169" s="170"/>
-      <c r="AB169" s="170"/>
-      <c r="AC169" s="170"/>
-      <c r="AD169" s="171"/>
-      <c r="AE169" s="178" t="s">
+      <c r="Z169" s="173"/>
+      <c r="AA169" s="173"/>
+      <c r="AB169" s="173"/>
+      <c r="AC169" s="173"/>
+      <c r="AD169" s="174"/>
+      <c r="AE169" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="AF169" s="179"/>
-      <c r="AG169" s="179"/>
-      <c r="AH169" s="179"/>
-      <c r="AI169" s="179"/>
-      <c r="AJ169" s="180"/>
+      <c r="AF169" s="176"/>
+      <c r="AG169" s="176"/>
+      <c r="AH169" s="176"/>
+      <c r="AI169" s="176"/>
+      <c r="AJ169" s="177"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13115,7 +13103,7 @@
       <c r="I170" s="16"/>
       <c r="J170" s="16"/>
       <c r="K170" s="16"/>
-      <c r="L170" s="157"/>
+      <c r="L170" s="145"/>
       <c r="M170" s="75" t="s">
         <v>26</v>
       </c>
@@ -13124,30 +13112,30 @@
       <c r="P170" s="75"/>
       <c r="Q170" s="75"/>
       <c r="R170" s="76"/>
-      <c r="S170" s="169" t="s">
+      <c r="S170" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="170"/>
-      <c r="U170" s="170"/>
-      <c r="V170" s="170"/>
-      <c r="W170" s="170"/>
-      <c r="X170" s="171"/>
-      <c r="Y170" s="169" t="s">
+      <c r="T170" s="173"/>
+      <c r="U170" s="173"/>
+      <c r="V170" s="173"/>
+      <c r="W170" s="173"/>
+      <c r="X170" s="174"/>
+      <c r="Y170" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="170"/>
-      <c r="AA170" s="170"/>
-      <c r="AB170" s="170"/>
-      <c r="AC170" s="170"/>
-      <c r="AD170" s="171"/>
-      <c r="AE170" s="178" t="s">
+      <c r="Z170" s="173"/>
+      <c r="AA170" s="173"/>
+      <c r="AB170" s="173"/>
+      <c r="AC170" s="173"/>
+      <c r="AD170" s="174"/>
+      <c r="AE170" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="AF170" s="179"/>
-      <c r="AG170" s="179"/>
-      <c r="AH170" s="179"/>
-      <c r="AI170" s="179"/>
-      <c r="AJ170" s="180"/>
+      <c r="AF170" s="176"/>
+      <c r="AG170" s="176"/>
+      <c r="AH170" s="176"/>
+      <c r="AI170" s="176"/>
+      <c r="AJ170" s="177"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13155,12 +13143,12 @@
       <c r="A171" s="4"/>
       <c r="E171" s="9"/>
       <c r="F171" s="15"/>
-      <c r="G171" s="151"/>
+      <c r="G171" s="139"/>
       <c r="H171" s="92"/>
       <c r="I171" s="92"/>
       <c r="J171" s="92"/>
       <c r="K171" s="92"/>
-      <c r="L171" s="158"/>
+      <c r="L171" s="146"/>
       <c r="M171" s="75" t="s">
         <v>33</v>
       </c>
@@ -13169,30 +13157,30 @@
       <c r="P171" s="75"/>
       <c r="Q171" s="75"/>
       <c r="R171" s="76"/>
-      <c r="S171" s="169" t="s">
+      <c r="S171" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="170"/>
-      <c r="U171" s="170"/>
-      <c r="V171" s="170"/>
-      <c r="W171" s="170"/>
-      <c r="X171" s="171"/>
-      <c r="Y171" s="169" t="s">
+      <c r="T171" s="173"/>
+      <c r="U171" s="173"/>
+      <c r="V171" s="173"/>
+      <c r="W171" s="173"/>
+      <c r="X171" s="174"/>
+      <c r="Y171" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="170"/>
-      <c r="AA171" s="170"/>
-      <c r="AB171" s="170"/>
-      <c r="AC171" s="170"/>
-      <c r="AD171" s="171"/>
-      <c r="AE171" s="178" t="s">
+      <c r="Z171" s="173"/>
+      <c r="AA171" s="173"/>
+      <c r="AB171" s="173"/>
+      <c r="AC171" s="173"/>
+      <c r="AD171" s="174"/>
+      <c r="AE171" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AF171" s="179"/>
-      <c r="AG171" s="179"/>
-      <c r="AH171" s="179"/>
-      <c r="AI171" s="179"/>
-      <c r="AJ171" s="180"/>
+      <c r="AF171" s="176"/>
+      <c r="AG171" s="176"/>
+      <c r="AH171" s="176"/>
+      <c r="AI171" s="176"/>
+      <c r="AJ171" s="177"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13200,12 +13188,12 @@
       <c r="A172" s="4"/>
       <c r="E172" s="9"/>
       <c r="F172" s="15"/>
-      <c r="G172" s="151"/>
+      <c r="G172" s="139"/>
       <c r="H172" s="92"/>
       <c r="I172" s="92"/>
       <c r="J172" s="92"/>
       <c r="K172" s="92"/>
-      <c r="L172" s="158"/>
+      <c r="L172" s="146"/>
       <c r="M172" s="75" t="s">
         <v>35</v>
       </c>
@@ -13214,30 +13202,30 @@
       <c r="P172" s="75"/>
       <c r="Q172" s="75"/>
       <c r="R172" s="76"/>
-      <c r="S172" s="169" t="s">
+      <c r="S172" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="170"/>
-      <c r="U172" s="170"/>
-      <c r="V172" s="170"/>
-      <c r="W172" s="170"/>
-      <c r="X172" s="171"/>
-      <c r="Y172" s="169" t="s">
+      <c r="T172" s="173"/>
+      <c r="U172" s="173"/>
+      <c r="V172" s="173"/>
+      <c r="W172" s="173"/>
+      <c r="X172" s="174"/>
+      <c r="Y172" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="170"/>
-      <c r="AA172" s="170"/>
-      <c r="AB172" s="170"/>
-      <c r="AC172" s="170"/>
-      <c r="AD172" s="171"/>
-      <c r="AE172" s="169" t="s">
+      <c r="Z172" s="173"/>
+      <c r="AA172" s="173"/>
+      <c r="AB172" s="173"/>
+      <c r="AC172" s="173"/>
+      <c r="AD172" s="174"/>
+      <c r="AE172" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="AF172" s="170"/>
-      <c r="AG172" s="170"/>
-      <c r="AH172" s="170"/>
-      <c r="AI172" s="170"/>
-      <c r="AJ172" s="171"/>
+      <c r="AF172" s="173"/>
+      <c r="AG172" s="173"/>
+      <c r="AH172" s="173"/>
+      <c r="AI172" s="173"/>
+      <c r="AJ172" s="174"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13245,12 +13233,12 @@
       <c r="A173" s="4"/>
       <c r="E173" s="9"/>
       <c r="F173" s="15"/>
-      <c r="G173" s="148"/>
-      <c r="H173" s="146"/>
-      <c r="I173" s="146"/>
-      <c r="J173" s="146"/>
-      <c r="K173" s="146"/>
-      <c r="L173" s="159"/>
+      <c r="G173" s="136"/>
+      <c r="H173" s="134"/>
+      <c r="I173" s="134"/>
+      <c r="J173" s="134"/>
+      <c r="K173" s="134"/>
+      <c r="L173" s="147"/>
       <c r="M173" s="75" t="s">
         <v>204</v>
       </c>
@@ -13259,30 +13247,30 @@
       <c r="P173" s="75"/>
       <c r="Q173" s="75"/>
       <c r="R173" s="76"/>
-      <c r="S173" s="169" t="s">
+      <c r="S173" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="170"/>
-      <c r="U173" s="170"/>
-      <c r="V173" s="170"/>
-      <c r="W173" s="170"/>
-      <c r="X173" s="171"/>
-      <c r="Y173" s="169" t="s">
+      <c r="T173" s="173"/>
+      <c r="U173" s="173"/>
+      <c r="V173" s="173"/>
+      <c r="W173" s="173"/>
+      <c r="X173" s="174"/>
+      <c r="Y173" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="170"/>
-      <c r="AA173" s="170"/>
-      <c r="AB173" s="170"/>
-      <c r="AC173" s="170"/>
-      <c r="AD173" s="171"/>
-      <c r="AE173" s="178" t="s">
+      <c r="Z173" s="173"/>
+      <c r="AA173" s="173"/>
+      <c r="AB173" s="173"/>
+      <c r="AC173" s="173"/>
+      <c r="AD173" s="174"/>
+      <c r="AE173" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AF173" s="179"/>
-      <c r="AG173" s="179"/>
-      <c r="AH173" s="179"/>
-      <c r="AI173" s="179"/>
-      <c r="AJ173" s="180"/>
+      <c r="AF173" s="176"/>
+      <c r="AG173" s="176"/>
+      <c r="AH173" s="176"/>
+      <c r="AI173" s="176"/>
+      <c r="AJ173" s="177"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13291,7 +13279,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="15"/>
       <c r="G174" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H174" s="75"/>
       <c r="I174" s="75"/>
@@ -13304,30 +13292,30 @@
       <c r="P174" s="75"/>
       <c r="Q174" s="75"/>
       <c r="R174" s="76"/>
-      <c r="S174" s="169" t="s">
+      <c r="S174" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="170"/>
-      <c r="U174" s="170"/>
-      <c r="V174" s="170"/>
-      <c r="W174" s="170"/>
-      <c r="X174" s="171"/>
-      <c r="Y174" s="169" t="s">
+      <c r="T174" s="173"/>
+      <c r="U174" s="173"/>
+      <c r="V174" s="173"/>
+      <c r="W174" s="173"/>
+      <c r="X174" s="174"/>
+      <c r="Y174" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="Z174" s="170"/>
-      <c r="AA174" s="170"/>
-      <c r="AB174" s="170"/>
-      <c r="AC174" s="170"/>
-      <c r="AD174" s="171"/>
-      <c r="AE174" s="169" t="s">
+      <c r="Z174" s="173"/>
+      <c r="AA174" s="173"/>
+      <c r="AB174" s="173"/>
+      <c r="AC174" s="173"/>
+      <c r="AD174" s="174"/>
+      <c r="AE174" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AF174" s="170"/>
-      <c r="AG174" s="170"/>
-      <c r="AH174" s="170"/>
-      <c r="AI174" s="170"/>
-      <c r="AJ174" s="171"/>
+      <c r="AF174" s="173"/>
+      <c r="AG174" s="173"/>
+      <c r="AH174" s="173"/>
+      <c r="AI174" s="173"/>
+      <c r="AJ174" s="174"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13336,45 +13324,45 @@
       <c r="E175" s="9"/>
       <c r="F175" s="15"/>
       <c r="G175" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H175" s="23"/>
       <c r="I175" s="23"/>
       <c r="J175" s="23"/>
       <c r="K175" s="23"/>
-      <c r="L175" s="155"/>
+      <c r="L175" s="143"/>
       <c r="M175" s="75" t="s">
         <v>6</v>
       </c>
       <c r="N175" s="75"/>
-      <c r="O175" s="146"/>
-      <c r="P175" s="146"/>
-      <c r="Q175" s="146"/>
-      <c r="R175" s="147"/>
-      <c r="S175" s="169" t="s">
+      <c r="O175" s="134"/>
+      <c r="P175" s="134"/>
+      <c r="Q175" s="134"/>
+      <c r="R175" s="135"/>
+      <c r="S175" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="170"/>
-      <c r="U175" s="170"/>
-      <c r="V175" s="170"/>
-      <c r="W175" s="170"/>
-      <c r="X175" s="171"/>
-      <c r="Y175" s="169" t="s">
+      <c r="T175" s="173"/>
+      <c r="U175" s="173"/>
+      <c r="V175" s="173"/>
+      <c r="W175" s="173"/>
+      <c r="X175" s="174"/>
+      <c r="Y175" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="Z175" s="170"/>
-      <c r="AA175" s="170"/>
-      <c r="AB175" s="170"/>
-      <c r="AC175" s="170"/>
-      <c r="AD175" s="171"/>
-      <c r="AE175" s="169" t="s">
+      <c r="Z175" s="173"/>
+      <c r="AA175" s="173"/>
+      <c r="AB175" s="173"/>
+      <c r="AC175" s="173"/>
+      <c r="AD175" s="174"/>
+      <c r="AE175" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="AF175" s="170"/>
-      <c r="AG175" s="170"/>
-      <c r="AH175" s="170"/>
-      <c r="AI175" s="170"/>
-      <c r="AJ175" s="171"/>
+      <c r="AF175" s="173"/>
+      <c r="AG175" s="173"/>
+      <c r="AH175" s="173"/>
+      <c r="AI175" s="173"/>
+      <c r="AJ175" s="174"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13383,13 +13371,13 @@
       <c r="E176" s="9"/>
       <c r="F176" s="15"/>
       <c r="G176" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
       <c r="K176" s="10"/>
-      <c r="L176" s="156"/>
+      <c r="L176" s="144"/>
       <c r="M176" s="75" t="s">
         <v>31</v>
       </c>
@@ -13398,30 +13386,30 @@
       <c r="P176" s="75"/>
       <c r="Q176" s="75"/>
       <c r="R176" s="76"/>
-      <c r="S176" s="169" t="s">
+      <c r="S176" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="170"/>
-      <c r="U176" s="170"/>
-      <c r="V176" s="170"/>
-      <c r="W176" s="170"/>
-      <c r="X176" s="171"/>
-      <c r="Y176" s="178" t="s">
+      <c r="T176" s="173"/>
+      <c r="U176" s="173"/>
+      <c r="V176" s="173"/>
+      <c r="W176" s="173"/>
+      <c r="X176" s="174"/>
+      <c r="Y176" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="179"/>
-      <c r="AA176" s="179"/>
-      <c r="AB176" s="179"/>
-      <c r="AC176" s="179"/>
-      <c r="AD176" s="180"/>
-      <c r="AE176" s="169" t="s">
+      <c r="Z176" s="176"/>
+      <c r="AA176" s="176"/>
+      <c r="AB176" s="176"/>
+      <c r="AC176" s="176"/>
+      <c r="AD176" s="177"/>
+      <c r="AE176" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="AF176" s="170"/>
-      <c r="AG176" s="170"/>
-      <c r="AH176" s="170"/>
-      <c r="AI176" s="170"/>
-      <c r="AJ176" s="171"/>
+      <c r="AF176" s="173"/>
+      <c r="AG176" s="173"/>
+      <c r="AH176" s="173"/>
+      <c r="AI176" s="173"/>
+      <c r="AJ176" s="174"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13430,13 +13418,13 @@
       <c r="E177" s="9"/>
       <c r="F177" s="15"/>
       <c r="G177" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16"/>
       <c r="K177" s="16"/>
-      <c r="L177" s="157"/>
+      <c r="L177" s="145"/>
       <c r="M177" s="75" t="s">
         <v>26</v>
       </c>
@@ -13445,30 +13433,30 @@
       <c r="P177" s="75"/>
       <c r="Q177" s="75"/>
       <c r="R177" s="76"/>
-      <c r="S177" s="169" t="s">
+      <c r="S177" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T177" s="170"/>
-      <c r="U177" s="170"/>
-      <c r="V177" s="170"/>
-      <c r="W177" s="170"/>
-      <c r="X177" s="171"/>
-      <c r="Y177" s="178" t="s">
+      <c r="T177" s="173"/>
+      <c r="U177" s="173"/>
+      <c r="V177" s="173"/>
+      <c r="W177" s="173"/>
+      <c r="X177" s="174"/>
+      <c r="Y177" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="179"/>
-      <c r="AA177" s="179"/>
-      <c r="AB177" s="179"/>
-      <c r="AC177" s="179"/>
-      <c r="AD177" s="180"/>
-      <c r="AE177" s="169" t="s">
+      <c r="Z177" s="176"/>
+      <c r="AA177" s="176"/>
+      <c r="AB177" s="176"/>
+      <c r="AC177" s="176"/>
+      <c r="AD177" s="177"/>
+      <c r="AE177" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="170"/>
-      <c r="AG177" s="170"/>
-      <c r="AH177" s="170"/>
-      <c r="AI177" s="170"/>
-      <c r="AJ177" s="171"/>
+      <c r="AF177" s="173"/>
+      <c r="AG177" s="173"/>
+      <c r="AH177" s="173"/>
+      <c r="AI177" s="173"/>
+      <c r="AJ177" s="174"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13476,12 +13464,12 @@
       <c r="A178" s="4"/>
       <c r="E178" s="9"/>
       <c r="F178" s="15"/>
-      <c r="G178" s="151"/>
+      <c r="G178" s="139"/>
       <c r="H178" s="92"/>
       <c r="I178" s="92"/>
       <c r="J178" s="92"/>
       <c r="K178" s="92"/>
-      <c r="L178" s="158"/>
+      <c r="L178" s="146"/>
       <c r="M178" s="75" t="s">
         <v>33</v>
       </c>
@@ -13490,30 +13478,30 @@
       <c r="P178" s="75"/>
       <c r="Q178" s="75"/>
       <c r="R178" s="76"/>
-      <c r="S178" s="169" t="s">
+      <c r="S178" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T178" s="170"/>
-      <c r="U178" s="170"/>
-      <c r="V178" s="170"/>
-      <c r="W178" s="170"/>
-      <c r="X178" s="171"/>
-      <c r="Y178" s="178" t="s">
+      <c r="T178" s="173"/>
+      <c r="U178" s="173"/>
+      <c r="V178" s="173"/>
+      <c r="W178" s="173"/>
+      <c r="X178" s="174"/>
+      <c r="Y178" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="179"/>
-      <c r="AA178" s="179"/>
-      <c r="AB178" s="179"/>
-      <c r="AC178" s="179"/>
-      <c r="AD178" s="180"/>
-      <c r="AE178" s="169" t="s">
+      <c r="Z178" s="176"/>
+      <c r="AA178" s="176"/>
+      <c r="AB178" s="176"/>
+      <c r="AC178" s="176"/>
+      <c r="AD178" s="177"/>
+      <c r="AE178" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="AF178" s="170"/>
-      <c r="AG178" s="170"/>
-      <c r="AH178" s="170"/>
-      <c r="AI178" s="170"/>
-      <c r="AJ178" s="171"/>
+      <c r="AF178" s="173"/>
+      <c r="AG178" s="173"/>
+      <c r="AH178" s="173"/>
+      <c r="AI178" s="173"/>
+      <c r="AJ178" s="174"/>
       <c r="AP178" s="5"/>
       <c r="AQ178" s="2"/>
     </row>
@@ -13521,12 +13509,12 @@
       <c r="A179" s="4"/>
       <c r="E179" s="9"/>
       <c r="F179" s="15"/>
-      <c r="G179" s="151"/>
+      <c r="G179" s="139"/>
       <c r="H179" s="92"/>
       <c r="I179" s="92"/>
       <c r="J179" s="92"/>
       <c r="K179" s="92"/>
-      <c r="L179" s="158"/>
+      <c r="L179" s="146"/>
       <c r="M179" s="75" t="s">
         <v>35</v>
       </c>
@@ -13535,30 +13523,30 @@
       <c r="P179" s="75"/>
       <c r="Q179" s="75"/>
       <c r="R179" s="76"/>
-      <c r="S179" s="169" t="s">
+      <c r="S179" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T179" s="170"/>
-      <c r="U179" s="170"/>
-      <c r="V179" s="170"/>
-      <c r="W179" s="170"/>
-      <c r="X179" s="171"/>
-      <c r="Y179" s="178" t="s">
+      <c r="T179" s="173"/>
+      <c r="U179" s="173"/>
+      <c r="V179" s="173"/>
+      <c r="W179" s="173"/>
+      <c r="X179" s="174"/>
+      <c r="Y179" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="179"/>
-      <c r="AA179" s="179"/>
-      <c r="AB179" s="179"/>
-      <c r="AC179" s="179"/>
-      <c r="AD179" s="180"/>
-      <c r="AE179" s="178" t="s">
+      <c r="Z179" s="176"/>
+      <c r="AA179" s="176"/>
+      <c r="AB179" s="176"/>
+      <c r="AC179" s="176"/>
+      <c r="AD179" s="177"/>
+      <c r="AE179" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="179"/>
-      <c r="AG179" s="179"/>
-      <c r="AH179" s="179"/>
-      <c r="AI179" s="179"/>
-      <c r="AJ179" s="180"/>
+      <c r="AF179" s="176"/>
+      <c r="AG179" s="176"/>
+      <c r="AH179" s="176"/>
+      <c r="AI179" s="176"/>
+      <c r="AJ179" s="177"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13566,12 +13554,12 @@
       <c r="A180" s="4"/>
       <c r="E180" s="9"/>
       <c r="F180" s="15"/>
-      <c r="G180" s="148"/>
-      <c r="H180" s="146"/>
-      <c r="I180" s="146"/>
-      <c r="J180" s="146"/>
-      <c r="K180" s="146"/>
-      <c r="L180" s="159"/>
+      <c r="G180" s="136"/>
+      <c r="H180" s="134"/>
+      <c r="I180" s="134"/>
+      <c r="J180" s="134"/>
+      <c r="K180" s="134"/>
+      <c r="L180" s="147"/>
       <c r="M180" s="75" t="s">
         <v>204</v>
       </c>
@@ -13580,30 +13568,30 @@
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="178" t="s">
+      <c r="S180" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="179"/>
-      <c r="U180" s="179"/>
-      <c r="V180" s="179"/>
-      <c r="W180" s="179"/>
-      <c r="X180" s="180"/>
-      <c r="Y180" s="178" t="s">
+      <c r="T180" s="176"/>
+      <c r="U180" s="176"/>
+      <c r="V180" s="176"/>
+      <c r="W180" s="176"/>
+      <c r="X180" s="177"/>
+      <c r="Y180" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="179"/>
-      <c r="AA180" s="179"/>
-      <c r="AB180" s="179"/>
-      <c r="AC180" s="179"/>
-      <c r="AD180" s="180"/>
-      <c r="AE180" s="178" t="s">
+      <c r="Z180" s="176"/>
+      <c r="AA180" s="176"/>
+      <c r="AB180" s="176"/>
+      <c r="AC180" s="176"/>
+      <c r="AD180" s="177"/>
+      <c r="AE180" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="179"/>
-      <c r="AG180" s="179"/>
-      <c r="AH180" s="179"/>
-      <c r="AI180" s="179"/>
-      <c r="AJ180" s="180"/>
+      <c r="AF180" s="176"/>
+      <c r="AG180" s="176"/>
+      <c r="AH180" s="176"/>
+      <c r="AI180" s="176"/>
+      <c r="AJ180" s="177"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13611,44 +13599,44 @@
       <c r="A181" s="4"/>
       <c r="E181" s="9"/>
       <c r="F181" s="15"/>
-      <c r="G181" s="160" t="s">
+      <c r="G181" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="H181" s="161"/>
-      <c r="I181" s="161"/>
-      <c r="J181" s="161"/>
-      <c r="K181" s="161"/>
-      <c r="L181" s="161"/>
-      <c r="M181" s="161"/>
-      <c r="N181" s="161"/>
-      <c r="O181" s="161"/>
-      <c r="P181" s="161"/>
-      <c r="Q181" s="161"/>
-      <c r="R181" s="162"/>
-      <c r="S181" s="166" t="s">
+      <c r="H181" s="149"/>
+      <c r="I181" s="149"/>
+      <c r="J181" s="149"/>
+      <c r="K181" s="149"/>
+      <c r="L181" s="149"/>
+      <c r="M181" s="149"/>
+      <c r="N181" s="149"/>
+      <c r="O181" s="149"/>
+      <c r="P181" s="149"/>
+      <c r="Q181" s="149"/>
+      <c r="R181" s="150"/>
+      <c r="S181" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="167"/>
-      <c r="U181" s="167"/>
-      <c r="V181" s="167"/>
-      <c r="W181" s="167"/>
-      <c r="X181" s="168"/>
-      <c r="Y181" s="166" t="s">
+      <c r="T181" s="228"/>
+      <c r="U181" s="228"/>
+      <c r="V181" s="228"/>
+      <c r="W181" s="228"/>
+      <c r="X181" s="229"/>
+      <c r="Y181" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="167"/>
-      <c r="AA181" s="167"/>
-      <c r="AB181" s="167"/>
-      <c r="AC181" s="167"/>
-      <c r="AD181" s="168"/>
-      <c r="AE181" s="166" t="s">
+      <c r="Z181" s="228"/>
+      <c r="AA181" s="228"/>
+      <c r="AB181" s="228"/>
+      <c r="AC181" s="228"/>
+      <c r="AD181" s="229"/>
+      <c r="AE181" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="167"/>
-      <c r="AG181" s="167"/>
-      <c r="AH181" s="167"/>
-      <c r="AI181" s="167"/>
-      <c r="AJ181" s="168"/>
+      <c r="AF181" s="228"/>
+      <c r="AG181" s="228"/>
+      <c r="AH181" s="228"/>
+      <c r="AI181" s="228"/>
+      <c r="AJ181" s="229"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -13670,30 +13658,30 @@
       <c r="P182" s="75"/>
       <c r="Q182" s="75"/>
       <c r="R182" s="76"/>
-      <c r="S182" s="169" t="s">
+      <c r="S182" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="T182" s="170"/>
-      <c r="U182" s="170"/>
-      <c r="V182" s="170"/>
-      <c r="W182" s="170"/>
-      <c r="X182" s="171"/>
-      <c r="Y182" s="169" t="s">
+      <c r="T182" s="173"/>
+      <c r="U182" s="173"/>
+      <c r="V182" s="173"/>
+      <c r="W182" s="173"/>
+      <c r="X182" s="174"/>
+      <c r="Y182" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="Z182" s="170"/>
-      <c r="AA182" s="170"/>
-      <c r="AB182" s="170"/>
-      <c r="AC182" s="170"/>
-      <c r="AD182" s="171"/>
-      <c r="AE182" s="169" t="s">
+      <c r="Z182" s="173"/>
+      <c r="AA182" s="173"/>
+      <c r="AB182" s="173"/>
+      <c r="AC182" s="173"/>
+      <c r="AD182" s="174"/>
+      <c r="AE182" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="AF182" s="170"/>
-      <c r="AG182" s="170"/>
-      <c r="AH182" s="170"/>
-      <c r="AI182" s="170"/>
-      <c r="AJ182" s="171"/>
+      <c r="AF182" s="173"/>
+      <c r="AG182" s="173"/>
+      <c r="AH182" s="173"/>
+      <c r="AI182" s="173"/>
+      <c r="AJ182" s="174"/>
       <c r="AP182" s="5"/>
       <c r="AQ182" s="2"/>
     </row>
@@ -13701,44 +13689,44 @@
       <c r="A183" s="4"/>
       <c r="E183" s="9"/>
       <c r="F183" s="15"/>
-      <c r="G183" s="160" t="s">
+      <c r="G183" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="H183" s="161"/>
-      <c r="I183" s="161"/>
-      <c r="J183" s="161"/>
-      <c r="K183" s="161"/>
-      <c r="L183" s="161"/>
-      <c r="M183" s="161"/>
-      <c r="N183" s="161"/>
-      <c r="O183" s="161"/>
-      <c r="P183" s="161"/>
-      <c r="Q183" s="161"/>
-      <c r="R183" s="162"/>
-      <c r="S183" s="166" t="s">
+      <c r="H183" s="149"/>
+      <c r="I183" s="149"/>
+      <c r="J183" s="149"/>
+      <c r="K183" s="149"/>
+      <c r="L183" s="149"/>
+      <c r="M183" s="149"/>
+      <c r="N183" s="149"/>
+      <c r="O183" s="149"/>
+      <c r="P183" s="149"/>
+      <c r="Q183" s="149"/>
+      <c r="R183" s="150"/>
+      <c r="S183" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="167"/>
-      <c r="U183" s="167"/>
-      <c r="V183" s="167"/>
-      <c r="W183" s="167"/>
-      <c r="X183" s="168"/>
-      <c r="Y183" s="166" t="s">
+      <c r="T183" s="228"/>
+      <c r="U183" s="228"/>
+      <c r="V183" s="228"/>
+      <c r="W183" s="228"/>
+      <c r="X183" s="229"/>
+      <c r="Y183" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="167"/>
-      <c r="AA183" s="167"/>
-      <c r="AB183" s="167"/>
-      <c r="AC183" s="167"/>
-      <c r="AD183" s="168"/>
-      <c r="AE183" s="166" t="s">
+      <c r="Z183" s="228"/>
+      <c r="AA183" s="228"/>
+      <c r="AB183" s="228"/>
+      <c r="AC183" s="228"/>
+      <c r="AD183" s="229"/>
+      <c r="AE183" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="167"/>
-      <c r="AG183" s="167"/>
-      <c r="AH183" s="167"/>
-      <c r="AI183" s="167"/>
-      <c r="AJ183" s="168"/>
+      <c r="AF183" s="228"/>
+      <c r="AG183" s="228"/>
+      <c r="AH183" s="228"/>
+      <c r="AI183" s="228"/>
+      <c r="AJ183" s="229"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -13746,44 +13734,44 @@
       <c r="A184" s="4"/>
       <c r="E184" s="9"/>
       <c r="F184" s="77"/>
-      <c r="G184" s="163" t="s">
+      <c r="G184" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="H184" s="164"/>
-      <c r="I184" s="164"/>
-      <c r="J184" s="164"/>
-      <c r="K184" s="164"/>
-      <c r="L184" s="164"/>
-      <c r="M184" s="164"/>
-      <c r="N184" s="164"/>
-      <c r="O184" s="164"/>
-      <c r="P184" s="164"/>
-      <c r="Q184" s="164"/>
-      <c r="R184" s="165"/>
-      <c r="S184" s="184" t="s">
+      <c r="H184" s="152"/>
+      <c r="I184" s="152"/>
+      <c r="J184" s="152"/>
+      <c r="K184" s="152"/>
+      <c r="L184" s="152"/>
+      <c r="M184" s="152"/>
+      <c r="N184" s="152"/>
+      <c r="O184" s="152"/>
+      <c r="P184" s="152"/>
+      <c r="Q184" s="152"/>
+      <c r="R184" s="153"/>
+      <c r="S184" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="185"/>
-      <c r="U184" s="185"/>
-      <c r="V184" s="185"/>
-      <c r="W184" s="185"/>
-      <c r="X184" s="186"/>
-      <c r="Y184" s="184" t="s">
+      <c r="T184" s="225"/>
+      <c r="U184" s="225"/>
+      <c r="V184" s="225"/>
+      <c r="W184" s="225"/>
+      <c r="X184" s="226"/>
+      <c r="Y184" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="185"/>
-      <c r="AA184" s="185"/>
-      <c r="AB184" s="185"/>
-      <c r="AC184" s="185"/>
-      <c r="AD184" s="186"/>
-      <c r="AE184" s="184" t="s">
+      <c r="Z184" s="225"/>
+      <c r="AA184" s="225"/>
+      <c r="AB184" s="225"/>
+      <c r="AC184" s="225"/>
+      <c r="AD184" s="226"/>
+      <c r="AE184" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="185"/>
-      <c r="AG184" s="185"/>
-      <c r="AH184" s="185"/>
-      <c r="AI184" s="185"/>
-      <c r="AJ184" s="186"/>
+      <c r="AF184" s="225"/>
+      <c r="AG184" s="225"/>
+      <c r="AH184" s="225"/>
+      <c r="AI184" s="225"/>
+      <c r="AJ184" s="226"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -13845,7 +13833,7 @@
         <v>137</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AP188" s="5"/>
       <c r="AQ188" s="2"/>
@@ -13856,7 +13844,7 @@
         <v>138</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP189" s="5"/>
       <c r="AQ189" s="2"/>
@@ -13878,7 +13866,7 @@
         <v>140</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AP191" s="5"/>
       <c r="AQ191" s="2"/>
@@ -14176,11 +14164,11 @@
       <c r="AJ199" s="92"/>
       <c r="AK199" s="98"/>
       <c r="AL199" s="102"/>
-      <c r="AM199" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN199" s="130"/>
-      <c r="AO199" s="131"/>
+      <c r="AM199" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN199" s="170"/>
+      <c r="AO199" s="171"/>
       <c r="AP199" s="101"/>
       <c r="AQ199" s="2"/>
     </row>
@@ -14204,7 +14192,7 @@
       <c r="Q200" s="12"/>
       <c r="R200" s="12"/>
       <c r="S200" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="T200" s="12"/>
       <c r="U200" s="12"/>
@@ -14225,11 +14213,11 @@
       <c r="AJ200" s="98"/>
       <c r="AK200" s="99"/>
       <c r="AL200" s="103"/>
-      <c r="AM200" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN200" s="133"/>
-      <c r="AO200" s="134"/>
+      <c r="AM200" s="125" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN200" s="105"/>
+      <c r="AO200" s="116"/>
       <c r="AP200" s="101"/>
       <c r="AQ200" s="2"/>
     </row>
@@ -14251,7 +14239,7 @@
       <c r="Q201" s="94"/>
       <c r="R201" s="94"/>
       <c r="S201" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T201" s="94"/>
       <c r="U201" s="94"/>
@@ -14272,11 +14260,11 @@
       <c r="AJ201" s="100"/>
       <c r="AK201" s="100"/>
       <c r="AL201" s="104"/>
-      <c r="AM201" s="135" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN201" s="130"/>
-      <c r="AO201" s="131"/>
+      <c r="AM201" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN201" s="161"/>
+      <c r="AO201" s="162"/>
       <c r="AP201" s="101"/>
       <c r="AQ201" s="2"/>
     </row>
@@ -14317,9 +14305,9 @@
       <c r="AJ202" s="99"/>
       <c r="AK202" s="99"/>
       <c r="AL202" s="103"/>
-      <c r="AM202" s="132"/>
-      <c r="AN202" s="136"/>
-      <c r="AO202" s="137"/>
+      <c r="AM202" s="163"/>
+      <c r="AN202" s="164"/>
+      <c r="AO202" s="165"/>
       <c r="AP202" s="101"/>
       <c r="AQ202" s="2"/>
     </row>
@@ -14362,11 +14350,11 @@
       <c r="AJ203" s="99"/>
       <c r="AK203" s="99"/>
       <c r="AL203" s="103"/>
-      <c r="AM203" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN203" s="136"/>
-      <c r="AO203" s="137"/>
+      <c r="AM203" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN203" s="164"/>
+      <c r="AO203" s="165"/>
       <c r="AP203" s="101"/>
       <c r="AQ203" s="2"/>
     </row>
@@ -14399,7 +14387,9 @@
       <c r="AD204" s="3"/>
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
-      <c r="AN204" s="3"/>
+      <c r="AM204" s="158"/>
+      <c r="AN204" s="159"/>
+      <c r="AO204" s="158"/>
       <c r="AP204" s="5"/>
       <c r="AQ204" s="2"/>
     </row>
@@ -14533,11 +14523,11 @@
       <c r="AJ207" s="34"/>
       <c r="AK207" s="40"/>
       <c r="AL207" s="17"/>
-      <c r="AM207" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN207" s="127"/>
-      <c r="AO207" s="128"/>
+      <c r="AM207" s="125" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN207" s="155"/>
+      <c r="AO207" s="51"/>
       <c r="AP207" s="5"/>
       <c r="AQ207" s="2"/>
     </row>
@@ -14559,7 +14549,7 @@
       <c r="Q208" s="94"/>
       <c r="R208" s="94"/>
       <c r="S208" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T208" s="94"/>
       <c r="U208" s="94"/>
@@ -14580,11 +14570,11 @@
       <c r="AJ208" s="95"/>
       <c r="AK208" s="90"/>
       <c r="AL208" s="97"/>
-      <c r="AM208" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN208" s="95"/>
-      <c r="AO208" s="97"/>
+      <c r="AM208" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN208" s="161"/>
+      <c r="AO208" s="162"/>
       <c r="AP208" s="5"/>
       <c r="AQ208" s="2"/>
     </row>
@@ -14625,9 +14615,9 @@
       <c r="AJ209" s="35"/>
       <c r="AK209" s="91"/>
       <c r="AL209" s="33"/>
-      <c r="AM209" s="31"/>
-      <c r="AN209" s="35"/>
-      <c r="AO209" s="33"/>
+      <c r="AM209" s="163"/>
+      <c r="AN209" s="164"/>
+      <c r="AO209" s="165"/>
       <c r="AP209" s="5"/>
       <c r="AQ209" s="2"/>
     </row>
@@ -14670,11 +14660,11 @@
       <c r="AJ210" s="35"/>
       <c r="AK210" s="91"/>
       <c r="AL210" s="33"/>
-      <c r="AM210" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN210" s="35"/>
-      <c r="AO210" s="33"/>
+      <c r="AM210" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN210" s="164"/>
+      <c r="AO210" s="165"/>
       <c r="AP210" s="5"/>
       <c r="AQ210" s="2"/>
     </row>
@@ -14719,11 +14709,11 @@
       <c r="AJ211" s="34"/>
       <c r="AK211" s="40"/>
       <c r="AL211" s="17"/>
-      <c r="AM211" s="126" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN211" s="127"/>
-      <c r="AO211" s="128"/>
+      <c r="AM211" s="125" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN211" s="155"/>
+      <c r="AO211" s="51"/>
       <c r="AP211" s="5"/>
       <c r="AQ211" s="2"/>
     </row>
@@ -14745,7 +14735,7 @@
       <c r="Q212" s="94"/>
       <c r="R212" s="94"/>
       <c r="S212" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T212" s="94"/>
       <c r="U212" s="94"/>
@@ -14766,11 +14756,11 @@
       <c r="AJ212" s="95"/>
       <c r="AK212" s="90"/>
       <c r="AL212" s="97"/>
-      <c r="AM212" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN212" s="95"/>
-      <c r="AO212" s="97"/>
+      <c r="AM212" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN212" s="161"/>
+      <c r="AO212" s="162"/>
       <c r="AP212" s="5"/>
       <c r="AQ212" s="2"/>
     </row>
@@ -14811,9 +14801,9 @@
       <c r="AJ213" s="35"/>
       <c r="AK213" s="91"/>
       <c r="AL213" s="33"/>
-      <c r="AM213" s="31"/>
-      <c r="AN213" s="35"/>
-      <c r="AO213" s="33"/>
+      <c r="AM213" s="163"/>
+      <c r="AN213" s="164"/>
+      <c r="AO213" s="165"/>
       <c r="AP213" s="5"/>
       <c r="AQ213" s="2"/>
     </row>
@@ -14856,11 +14846,11 @@
       <c r="AJ214" s="35"/>
       <c r="AK214" s="91"/>
       <c r="AL214" s="33"/>
-      <c r="AM214" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN214" s="35"/>
-      <c r="AO214" s="33"/>
+      <c r="AM214" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN214" s="164"/>
+      <c r="AO214" s="165"/>
       <c r="AP214" s="5"/>
       <c r="AQ214" s="2"/>
     </row>
@@ -14905,11 +14895,11 @@
       <c r="AJ215" s="34"/>
       <c r="AK215" s="40"/>
       <c r="AL215" s="17"/>
-      <c r="AM215" s="126" t="s">
+      <c r="AM215" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="AN215" s="127"/>
-      <c r="AO215" s="128"/>
+      <c r="AN215" s="167"/>
+      <c r="AO215" s="168"/>
       <c r="AP215" s="5"/>
       <c r="AQ215" s="2"/>
     </row>
@@ -14931,7 +14921,7 @@
       <c r="Q216" s="94"/>
       <c r="R216" s="94"/>
       <c r="S216" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T216" s="94"/>
       <c r="U216" s="94"/>
@@ -14952,11 +14942,11 @@
       <c r="AJ216" s="95"/>
       <c r="AK216" s="90"/>
       <c r="AL216" s="97"/>
-      <c r="AM216" s="84" t="s">
+      <c r="AM216" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="AN216" s="95"/>
-      <c r="AO216" s="97"/>
+      <c r="AN216" s="156"/>
+      <c r="AO216" s="118"/>
       <c r="AP216" s="5"/>
       <c r="AQ216" s="2"/>
     </row>
@@ -14997,9 +14987,9 @@
       <c r="AJ217" s="35"/>
       <c r="AK217" s="91"/>
       <c r="AL217" s="33"/>
-      <c r="AM217" s="31"/>
-      <c r="AN217" s="35"/>
-      <c r="AO217" s="33"/>
+      <c r="AM217" s="154"/>
+      <c r="AN217" s="157"/>
+      <c r="AO217" s="114"/>
       <c r="AP217" s="5"/>
       <c r="AQ217" s="2"/>
     </row>
@@ -15042,11 +15032,11 @@
       <c r="AJ218" s="35"/>
       <c r="AK218" s="91"/>
       <c r="AL218" s="33"/>
-      <c r="AM218" s="31" t="s">
+      <c r="AM218" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="AN218" s="35"/>
-      <c r="AO218" s="33"/>
+      <c r="AN218" s="157"/>
+      <c r="AO218" s="114"/>
       <c r="AP218" s="5"/>
       <c r="AQ218" s="2"/>
     </row>
@@ -15091,11 +15081,11 @@
       <c r="AJ219" s="34"/>
       <c r="AK219" s="40"/>
       <c r="AL219" s="17"/>
-      <c r="AM219" s="126" t="s">
+      <c r="AM219" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="AN219" s="127"/>
-      <c r="AO219" s="128"/>
+      <c r="AN219" s="167"/>
+      <c r="AO219" s="168"/>
       <c r="AP219" s="5"/>
       <c r="AQ219" s="2"/>
     </row>
@@ -15117,7 +15107,7 @@
       <c r="Q220" s="94"/>
       <c r="R220" s="94"/>
       <c r="S220" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T220" s="94"/>
       <c r="U220" s="94"/>
@@ -15138,11 +15128,11 @@
       <c r="AJ220" s="95"/>
       <c r="AK220" s="90"/>
       <c r="AL220" s="97"/>
-      <c r="AM220" s="84" t="s">
+      <c r="AM220" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="AN220" s="95"/>
-      <c r="AO220" s="97"/>
+      <c r="AN220" s="156"/>
+      <c r="AO220" s="118"/>
       <c r="AP220" s="5"/>
       <c r="AQ220" s="2"/>
     </row>
@@ -15183,9 +15173,9 @@
       <c r="AJ221" s="35"/>
       <c r="AK221" s="91"/>
       <c r="AL221" s="33"/>
-      <c r="AM221" s="31"/>
-      <c r="AN221" s="35"/>
-      <c r="AO221" s="33"/>
+      <c r="AM221" s="154"/>
+      <c r="AN221" s="157"/>
+      <c r="AO221" s="114"/>
       <c r="AP221" s="5"/>
       <c r="AQ221" s="2"/>
     </row>
@@ -15228,11 +15218,11 @@
       <c r="AJ222" s="35"/>
       <c r="AK222" s="91"/>
       <c r="AL222" s="33"/>
-      <c r="AM222" s="31" t="s">
+      <c r="AM222" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="AN222" s="35"/>
-      <c r="AO222" s="33"/>
+      <c r="AN222" s="157"/>
+      <c r="AO222" s="114"/>
       <c r="AP222" s="5"/>
       <c r="AQ222" s="2"/>
     </row>
@@ -15277,11 +15267,11 @@
       <c r="AJ223" s="34"/>
       <c r="AK223" s="40"/>
       <c r="AL223" s="17"/>
-      <c r="AM223" s="126" t="s">
+      <c r="AM223" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="AN223" s="127"/>
-      <c r="AO223" s="128"/>
+      <c r="AN223" s="167"/>
+      <c r="AO223" s="168"/>
       <c r="AP223" s="5"/>
       <c r="AQ223" s="2"/>
     </row>
@@ -15303,7 +15293,7 @@
       <c r="Q224" s="94"/>
       <c r="R224" s="94"/>
       <c r="S224" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T224" s="94"/>
       <c r="U224" s="94"/>
@@ -15324,11 +15314,11 @@
       <c r="AJ224" s="95"/>
       <c r="AK224" s="90"/>
       <c r="AL224" s="97"/>
-      <c r="AM224" s="84" t="s">
+      <c r="AM224" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="AN224" s="95"/>
-      <c r="AO224" s="97"/>
+      <c r="AN224" s="156"/>
+      <c r="AO224" s="118"/>
       <c r="AP224" s="5"/>
       <c r="AQ224" s="2"/>
     </row>
@@ -15369,9 +15359,9 @@
       <c r="AJ225" s="35"/>
       <c r="AK225" s="91"/>
       <c r="AL225" s="33"/>
-      <c r="AM225" s="31"/>
-      <c r="AN225" s="35"/>
-      <c r="AO225" s="33"/>
+      <c r="AM225" s="154"/>
+      <c r="AN225" s="157"/>
+      <c r="AO225" s="114"/>
       <c r="AP225" s="5"/>
       <c r="AQ225" s="2"/>
     </row>
@@ -15414,11 +15404,11 @@
       <c r="AJ226" s="35"/>
       <c r="AK226" s="91"/>
       <c r="AL226" s="33"/>
-      <c r="AM226" s="31" t="s">
+      <c r="AM226" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="AN226" s="35"/>
-      <c r="AO226" s="33"/>
+      <c r="AN226" s="157"/>
+      <c r="AO226" s="114"/>
       <c r="AP226" s="5"/>
       <c r="AQ226" s="2"/>
     </row>
@@ -15463,11 +15453,11 @@
       <c r="AJ227" s="34"/>
       <c r="AK227" s="40"/>
       <c r="AL227" s="17"/>
-      <c r="AM227" s="126" t="s">
+      <c r="AM227" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="AN227" s="127"/>
-      <c r="AO227" s="128"/>
+      <c r="AN227" s="167"/>
+      <c r="AO227" s="168"/>
       <c r="AP227" s="5"/>
       <c r="AQ227" s="2"/>
     </row>
@@ -15489,7 +15479,7 @@
       <c r="Q228" s="94"/>
       <c r="R228" s="94"/>
       <c r="S228" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T228" s="94"/>
       <c r="U228" s="94"/>
@@ -15510,11 +15500,11 @@
       <c r="AJ228" s="95"/>
       <c r="AK228" s="90"/>
       <c r="AL228" s="97"/>
-      <c r="AM228" s="84" t="s">
+      <c r="AM228" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="AN228" s="95"/>
-      <c r="AO228" s="97"/>
+      <c r="AN228" s="156"/>
+      <c r="AO228" s="118"/>
       <c r="AP228" s="5"/>
       <c r="AQ228" s="2"/>
     </row>
@@ -15555,9 +15545,9 @@
       <c r="AJ229" s="35"/>
       <c r="AK229" s="91"/>
       <c r="AL229" s="33"/>
-      <c r="AM229" s="31"/>
-      <c r="AN229" s="35"/>
-      <c r="AO229" s="33"/>
+      <c r="AM229" s="154"/>
+      <c r="AN229" s="157"/>
+      <c r="AO229" s="114"/>
       <c r="AP229" s="5"/>
       <c r="AQ229" s="2"/>
     </row>
@@ -15600,11 +15590,11 @@
       <c r="AJ230" s="35"/>
       <c r="AK230" s="91"/>
       <c r="AL230" s="33"/>
-      <c r="AM230" s="31" t="s">
+      <c r="AM230" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="AN230" s="35"/>
-      <c r="AO230" s="33"/>
+      <c r="AN230" s="157"/>
+      <c r="AO230" s="114"/>
       <c r="AP230" s="5"/>
       <c r="AQ230" s="2"/>
     </row>
@@ -15694,7 +15684,7 @@
         <v>11</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F233" s="92"/>
       <c r="G233" s="92"/>
@@ -15781,7 +15771,7 @@
       <c r="A235" s="4"/>
       <c r="B235" s="9"/>
       <c r="C235" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D235" s="62"/>
       <c r="E235" s="62"/>
@@ -15789,7 +15779,7 @@
       <c r="G235" s="62"/>
       <c r="H235" s="63"/>
       <c r="I235" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J235" s="62"/>
       <c r="K235" s="62"/>
@@ -15807,23 +15797,23 @@
       <c r="W235" s="62"/>
       <c r="X235" s="62"/>
       <c r="Y235" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z235" s="62"/>
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="194" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE235" s="195"/>
-      <c r="AF235" s="195"/>
-      <c r="AG235" s="195"/>
-      <c r="AH235" s="195"/>
-      <c r="AI235" s="195"/>
-      <c r="AJ235" s="195"/>
-      <c r="AK235" s="195"/>
-      <c r="AL235" s="196"/>
+      <c r="AD235" s="181" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE235" s="182"/>
+      <c r="AF235" s="182"/>
+      <c r="AG235" s="182"/>
+      <c r="AH235" s="182"/>
+      <c r="AI235" s="182"/>
+      <c r="AJ235" s="182"/>
+      <c r="AK235" s="182"/>
+      <c r="AL235" s="183"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -15860,7 +15850,7 @@
       <c r="AB236" s="65"/>
       <c r="AC236" s="66"/>
       <c r="AD236" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE236" s="53"/>
       <c r="AF236" s="53"/>
@@ -15891,7 +15881,7 @@
       <c r="G237" s="100"/>
       <c r="H237" s="97"/>
       <c r="I237" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J237" s="100"/>
       <c r="K237" s="100"/>
@@ -15909,27 +15899,27 @@
       <c r="W237" s="100"/>
       <c r="X237" s="100"/>
       <c r="Y237" s="106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z237" s="100"/>
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="212" t="s">
+      <c r="AD237" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="218"/>
-      <c r="AF237" s="218"/>
-      <c r="AG237" s="213"/>
-      <c r="AH237" s="212" t="s">
+      <c r="AE237" s="185"/>
+      <c r="AF237" s="185"/>
+      <c r="AG237" s="186"/>
+      <c r="AH237" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="213"/>
-      <c r="AJ237" s="212" t="s">
+      <c r="AI237" s="186"/>
+      <c r="AJ237" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="218"/>
-      <c r="AL237" s="213"/>
+      <c r="AK237" s="185"/>
+      <c r="AL237" s="186"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -15945,7 +15935,7 @@
       <c r="G238" s="92"/>
       <c r="H238" s="17"/>
       <c r="I238" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J238" s="99"/>
       <c r="K238" s="99"/>
@@ -15967,15 +15957,15 @@
       <c r="AA238" s="99"/>
       <c r="AB238" s="99"/>
       <c r="AC238" s="103"/>
-      <c r="AD238" s="214"/>
-      <c r="AE238" s="219"/>
-      <c r="AF238" s="219"/>
-      <c r="AG238" s="215"/>
-      <c r="AH238" s="214"/>
-      <c r="AI238" s="215"/>
-      <c r="AJ238" s="214"/>
-      <c r="AK238" s="219"/>
-      <c r="AL238" s="215"/>
+      <c r="AD238" s="187"/>
+      <c r="AE238" s="188"/>
+      <c r="AF238" s="188"/>
+      <c r="AG238" s="189"/>
+      <c r="AH238" s="187"/>
+      <c r="AI238" s="189"/>
+      <c r="AJ238" s="187"/>
+      <c r="AK238" s="188"/>
+      <c r="AL238" s="189"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -15991,7 +15981,7 @@
       <c r="G239" s="92"/>
       <c r="H239" s="17"/>
       <c r="I239" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J239" s="98"/>
       <c r="K239" s="98"/>
@@ -16009,27 +15999,27 @@
       <c r="W239" s="98"/>
       <c r="X239" s="98"/>
       <c r="Y239" s="108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z239" s="98"/>
       <c r="AA239" s="98"/>
       <c r="AB239" s="98"/>
       <c r="AC239" s="102"/>
-      <c r="AD239" s="212" t="s">
+      <c r="AD239" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AE239" s="218"/>
-      <c r="AF239" s="218"/>
-      <c r="AG239" s="213"/>
-      <c r="AH239" s="212" t="s">
+      <c r="AE239" s="185"/>
+      <c r="AF239" s="185"/>
+      <c r="AG239" s="186"/>
+      <c r="AH239" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AI239" s="213"/>
-      <c r="AJ239" s="212" t="s">
+      <c r="AI239" s="186"/>
+      <c r="AJ239" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AK239" s="218"/>
-      <c r="AL239" s="213"/>
+      <c r="AK239" s="185"/>
+      <c r="AL239" s="186"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -16045,7 +16035,7 @@
       <c r="G240" s="113"/>
       <c r="H240" s="114"/>
       <c r="I240" s="115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J240" s="105"/>
       <c r="K240" s="105"/>
@@ -16063,27 +16053,27 @@
       <c r="W240" s="105"/>
       <c r="X240" s="105"/>
       <c r="Y240" s="109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z240" s="105"/>
       <c r="AA240" s="105"/>
       <c r="AB240" s="105"/>
       <c r="AC240" s="116"/>
-      <c r="AD240" s="216" t="s">
+      <c r="AD240" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AE240" s="220"/>
-      <c r="AF240" s="220"/>
-      <c r="AG240" s="217"/>
-      <c r="AH240" s="216" t="s">
+      <c r="AE240" s="179"/>
+      <c r="AF240" s="179"/>
+      <c r="AG240" s="180"/>
+      <c r="AH240" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AI240" s="217"/>
-      <c r="AJ240" s="216" t="s">
+      <c r="AI240" s="180"/>
+      <c r="AJ240" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AK240" s="220"/>
-      <c r="AL240" s="217"/>
+      <c r="AK240" s="179"/>
+      <c r="AL240" s="180"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16093,7 +16083,7 @@
       <c r="A241" s="4"/>
       <c r="B241" s="9"/>
       <c r="C241" s="93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D241" s="94"/>
       <c r="E241" s="94"/>
@@ -16101,7 +16091,7 @@
       <c r="G241" s="117"/>
       <c r="H241" s="118"/>
       <c r="I241" s="105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J241" s="105"/>
       <c r="K241" s="105"/>
@@ -16119,27 +16109,27 @@
       <c r="W241" s="105"/>
       <c r="X241" s="105"/>
       <c r="Y241" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z241" s="105"/>
       <c r="AA241" s="105"/>
       <c r="AB241" s="105"/>
       <c r="AC241" s="116"/>
-      <c r="AD241" s="216" t="s">
+      <c r="AD241" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="220"/>
-      <c r="AF241" s="220"/>
-      <c r="AG241" s="217"/>
-      <c r="AH241" s="216" t="s">
+      <c r="AE241" s="179"/>
+      <c r="AF241" s="179"/>
+      <c r="AG241" s="180"/>
+      <c r="AH241" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="217"/>
-      <c r="AJ241" s="216" t="s">
+      <c r="AI241" s="180"/>
+      <c r="AJ241" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AK241" s="220"/>
-      <c r="AL241" s="217"/>
+      <c r="AK241" s="179"/>
+      <c r="AL241" s="180"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16155,7 +16145,7 @@
       <c r="G242" s="119"/>
       <c r="H242" s="120"/>
       <c r="I242" s="105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J242" s="105"/>
       <c r="K242" s="105"/>
@@ -16173,27 +16163,27 @@
       <c r="W242" s="105"/>
       <c r="X242" s="105"/>
       <c r="Y242" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z242" s="105"/>
       <c r="AA242" s="105"/>
       <c r="AB242" s="105"/>
       <c r="AC242" s="116"/>
-      <c r="AD242" s="216" t="s">
+      <c r="AD242" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AE242" s="220"/>
-      <c r="AF242" s="220"/>
-      <c r="AG242" s="217"/>
-      <c r="AH242" s="216" t="s">
+      <c r="AE242" s="179"/>
+      <c r="AF242" s="179"/>
+      <c r="AG242" s="180"/>
+      <c r="AH242" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AI242" s="217"/>
-      <c r="AJ242" s="216" t="s">
+      <c r="AI242" s="180"/>
+      <c r="AJ242" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AK242" s="220"/>
-      <c r="AL242" s="217"/>
+      <c r="AK242" s="179"/>
+      <c r="AL242" s="180"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16209,7 +16199,7 @@
       <c r="G243" s="113"/>
       <c r="H243" s="121"/>
       <c r="I243" s="105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J243" s="105"/>
       <c r="K243" s="105"/>
@@ -16227,27 +16217,27 @@
       <c r="W243" s="105"/>
       <c r="X243" s="105"/>
       <c r="Y243" s="109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z243" s="105"/>
       <c r="AA243" s="105"/>
       <c r="AB243" s="105"/>
       <c r="AC243" s="116"/>
-      <c r="AD243" s="221" t="s">
+      <c r="AD243" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="AE243" s="222"/>
-      <c r="AF243" s="222"/>
-      <c r="AG243" s="223"/>
-      <c r="AH243" s="221" t="s">
+      <c r="AE243" s="197"/>
+      <c r="AF243" s="197"/>
+      <c r="AG243" s="198"/>
+      <c r="AH243" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="AI243" s="223"/>
-      <c r="AJ243" s="216" t="s">
+      <c r="AI243" s="198"/>
+      <c r="AJ243" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AK243" s="220"/>
-      <c r="AL243" s="217"/>
+      <c r="AK243" s="179"/>
+      <c r="AL243" s="180"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16257,7 +16247,7 @@
       <c r="A244" s="4"/>
       <c r="B244" s="9"/>
       <c r="C244" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="12"/>
@@ -16265,7 +16255,7 @@
       <c r="G244" s="98"/>
       <c r="H244" s="102"/>
       <c r="I244" s="105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J244" s="98"/>
       <c r="K244" s="98"/>
@@ -16283,27 +16273,27 @@
       <c r="W244" s="98"/>
       <c r="X244" s="98"/>
       <c r="Y244" s="109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z244" s="98"/>
       <c r="AA244" s="98"/>
       <c r="AB244" s="98"/>
       <c r="AC244" s="102"/>
-      <c r="AD244" s="187" t="s">
+      <c r="AD244" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="AE244" s="188"/>
-      <c r="AF244" s="188"/>
-      <c r="AG244" s="189"/>
-      <c r="AH244" s="187" t="s">
+      <c r="AE244" s="194"/>
+      <c r="AF244" s="194"/>
+      <c r="AG244" s="195"/>
+      <c r="AH244" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="AI244" s="189"/>
-      <c r="AJ244" s="187" t="s">
+      <c r="AI244" s="195"/>
+      <c r="AJ244" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="AK244" s="188"/>
-      <c r="AL244" s="189"/>
+      <c r="AK244" s="194"/>
+      <c r="AL244" s="195"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
       <c r="AP244" s="5"/>
@@ -16355,7 +16345,7 @@
     <row r="246" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="C246" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
@@ -16401,7 +16391,7 @@
       <c r="A247" s="4"/>
       <c r="B247" s="9"/>
       <c r="C247" s="111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D247" s="112"/>
       <c r="E247" s="112"/>
@@ -16448,7 +16438,7 @@
       <c r="A248" s="4"/>
       <c r="B248" s="9"/>
       <c r="C248" s="93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D248" s="94"/>
       <c r="E248" s="94"/>
@@ -16495,7 +16485,7 @@
       <c r="A249" s="4"/>
       <c r="B249" s="9"/>
       <c r="C249" s="93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D249" s="94"/>
       <c r="E249" s="94"/>
@@ -16542,7 +16532,7 @@
       <c r="A250" s="4"/>
       <c r="B250" s="9"/>
       <c r="C250" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
@@ -16905,97 +16895,121 @@
     </row>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="S180:X180"/>
-    <mergeCell ref="Y180:AD180"/>
-    <mergeCell ref="AE180:AJ180"/>
-    <mergeCell ref="S177:X177"/>
-    <mergeCell ref="Y177:AD177"/>
-    <mergeCell ref="AE177:AJ177"/>
-    <mergeCell ref="S178:X178"/>
-    <mergeCell ref="Y178:AD178"/>
-    <mergeCell ref="AE178:AJ178"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="AE179:AJ179"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="S183:X183"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="Y137:AD137"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="S182:X182"/>
+    <mergeCell ref="S181:X181"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="AE181:AJ181"/>
+    <mergeCell ref="Y181:AD181"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="S142:X142"/>
     <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="AJ243:AL243"/>
-    <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="AD237:AG237"/>
-    <mergeCell ref="AD238:AG238"/>
-    <mergeCell ref="AD239:AG239"/>
-    <mergeCell ref="AD240:AG240"/>
-    <mergeCell ref="AD241:AG241"/>
-    <mergeCell ref="AD242:AG242"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AD244:AG244"/>
-    <mergeCell ref="AH237:AI237"/>
-    <mergeCell ref="AH238:AI238"/>
-    <mergeCell ref="AH239:AI239"/>
-    <mergeCell ref="AH240:AI240"/>
-    <mergeCell ref="AH241:AI241"/>
-    <mergeCell ref="AH242:AI242"/>
-    <mergeCell ref="AH244:AI244"/>
-    <mergeCell ref="AJ237:AL237"/>
-    <mergeCell ref="AJ238:AL238"/>
-    <mergeCell ref="AJ239:AL239"/>
-    <mergeCell ref="AJ240:AL240"/>
-    <mergeCell ref="AJ241:AL241"/>
-    <mergeCell ref="AJ242:AL242"/>
-    <mergeCell ref="AJ244:AL244"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AH243:AI243"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="S131:X131"/>
-    <mergeCell ref="S132:X132"/>
-    <mergeCell ref="S134:X134"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="Y130:AD130"/>
+    <mergeCell ref="Y131:AD131"/>
     <mergeCell ref="S148:X148"/>
     <mergeCell ref="S143:X143"/>
     <mergeCell ref="S144:X144"/>
     <mergeCell ref="S149:X149"/>
     <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="Y132:AD132"/>
+    <mergeCell ref="Y134:AD134"/>
+    <mergeCell ref="Y135:AD135"/>
+    <mergeCell ref="Y136:AD136"/>
+    <mergeCell ref="Y145:AD145"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="Y133:AD133"/>
+    <mergeCell ref="Y138:AD138"/>
+    <mergeCell ref="Y139:AD139"/>
+    <mergeCell ref="Y140:AD140"/>
+    <mergeCell ref="Y141:AD141"/>
+    <mergeCell ref="Y142:AD142"/>
+    <mergeCell ref="Y143:AD143"/>
+    <mergeCell ref="Y144:AD144"/>
     <mergeCell ref="L50:AD50"/>
     <mergeCell ref="AE160:AJ160"/>
     <mergeCell ref="AE154:AJ154"/>
@@ -17015,117 +17029,93 @@
     <mergeCell ref="Y129:AD129"/>
     <mergeCell ref="S156:X156"/>
     <mergeCell ref="S157:X157"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="S131:X131"/>
+    <mergeCell ref="S132:X132"/>
+    <mergeCell ref="S134:X134"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="AD244:AG244"/>
+    <mergeCell ref="AH237:AI237"/>
+    <mergeCell ref="AH238:AI238"/>
+    <mergeCell ref="AH239:AI239"/>
+    <mergeCell ref="AH240:AI240"/>
+    <mergeCell ref="AH241:AI241"/>
+    <mergeCell ref="AH242:AI242"/>
+    <mergeCell ref="AH244:AI244"/>
+    <mergeCell ref="AJ237:AL237"/>
+    <mergeCell ref="AJ238:AL238"/>
+    <mergeCell ref="AJ239:AL239"/>
+    <mergeCell ref="AJ240:AL240"/>
+    <mergeCell ref="AJ241:AL241"/>
+    <mergeCell ref="AJ242:AL242"/>
+    <mergeCell ref="AJ244:AL244"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AH243:AI243"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AJ243:AL243"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="AD237:AG237"/>
+    <mergeCell ref="AD238:AG238"/>
+    <mergeCell ref="AD239:AG239"/>
+    <mergeCell ref="AD240:AG240"/>
+    <mergeCell ref="AD241:AG241"/>
+    <mergeCell ref="AD242:AG242"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="Y156:AD156"/>
     <mergeCell ref="S158:X158"/>
     <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="S161:X161"/>
     <mergeCell ref="S162:X162"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="S180:X180"/>
+    <mergeCell ref="Y180:AD180"/>
+    <mergeCell ref="AE180:AJ180"/>
+    <mergeCell ref="S177:X177"/>
+    <mergeCell ref="Y177:AD177"/>
+    <mergeCell ref="AE177:AJ177"/>
+    <mergeCell ref="S178:X178"/>
+    <mergeCell ref="Y178:AD178"/>
+    <mergeCell ref="AE178:AJ178"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="AE179:AJ179"/>
     <mergeCell ref="S184:X184"/>
     <mergeCell ref="Y184:AD184"/>
     <mergeCell ref="AE184:AJ184"/>
-    <mergeCell ref="AE181:AJ181"/>
-    <mergeCell ref="Y181:AD181"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="S182:X182"/>
-    <mergeCell ref="S181:X181"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="Y148:AD148"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="Y130:AD130"/>
-    <mergeCell ref="Y131:AD131"/>
-    <mergeCell ref="Y132:AD132"/>
-    <mergeCell ref="Y134:AD134"/>
-    <mergeCell ref="Y135:AD135"/>
-    <mergeCell ref="Y136:AD136"/>
-    <mergeCell ref="Y145:AD145"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="Y133:AD133"/>
-    <mergeCell ref="Y138:AD138"/>
-    <mergeCell ref="Y139:AD139"/>
-    <mergeCell ref="Y140:AD140"/>
-    <mergeCell ref="Y141:AD141"/>
-    <mergeCell ref="Y142:AD142"/>
-    <mergeCell ref="Y143:AD143"/>
-    <mergeCell ref="Y144:AD144"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="S183:X183"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="Y164:AD164"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="297">
   <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
@@ -2924,6 +2924,287 @@
     <t>操作ユーザ</t>
     <rPh sb="0" eb="2">
       <t>ソウs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1on1コミュニケーション機能</t>
+    <rPh sb="13" eb="15">
+      <t>キノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒアリング/フィードバック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバック面談メモ</t>
+    <rPh sb="7" eb="9">
+      <t>メンダn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヒアリング機能によって、他の人の仕事状況をヒアリングできる。</t>
+    <rPh sb="6" eb="8">
+      <t>キノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホk</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シゴt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フィードバック機能によって、他の人にフィードバックを与える。</t>
+    <rPh sb="8" eb="10">
+      <t>キノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホk</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・上記2機能は他の人に直接（目標に紐付けず）、または他の人の目標に紐付け</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>h</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョk</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒモヅk</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホk</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モクヒョウn</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒモヅk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　て発信することができる。</t>
+    <rPh sb="2" eb="4">
+      <t>ハッs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フィードバックを上記ヒアリング/フィードバック機能を使わずに対面で</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウk</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカワz</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　行った場合に、面談のメモを記録として残しておける。</t>
+    <rPh sb="1" eb="2">
+      <t>オコナッタバ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メンダn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キロk</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ノコs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・面談メモを他の人の目標に紐づけることはできない。</t>
+    <rPh sb="1" eb="3">
+      <t>メンダn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホk</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒモヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・面談メモを面談相手と共有することもできる。</t>
+    <rPh sb="1" eb="3">
+      <t>メンダn</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>メンダn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・発信相手は3人まで同時指定できる。</t>
+    <rPh sb="1" eb="5">
+      <t>ハッシn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニンマd</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ドウj</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送受信一元管理</t>
+    <rPh sb="0" eb="3">
+      <t>ソウジュシn</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>イチゲンカンr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・上記3機能で発信された内容は全て、送受信一元管理画面で管理し、そこから</t>
+    <rPh sb="1" eb="3">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッシn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スベt</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ソウジュシn</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>イチゲn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　その後のやり取りを行っていく。</t>
+    <rPh sb="10" eb="11">
+      <t>オコナッt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1on1コミュニケーションの項を追加</t>
+    <rPh sb="14" eb="15">
+      <t>koubann</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日報/進捗メモ</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・日報は他の人に直接（目標に紐付けず）、進捗メモは他の人の目標に紐付け</t>
+    <rPh sb="1" eb="3">
+      <t>ニッポ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>h</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョk</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒモヅk</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンチョk</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ホk</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モクヒョウn</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒモヅk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　て発信する。</t>
+    <rPh sb="2" eb="4">
+      <t>ハッs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・いわゆる日報や進捗状況を他の人に発信できる。</t>
+    <rPh sb="5" eb="7">
+      <t>ニッポ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンチョk</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シゴt</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホk</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッシn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4241,7 +4522,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4422,32 +4703,61 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4458,22 +4768,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4494,13 +4840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4530,34 +4870,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4567,15 +4913,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6161,7 +6498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6407,10 +6744,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="72">
+        <v>42991</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>292</v>
+      </c>
       <c r="F13" s="71"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6903,9 +7248,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ273"/>
+  <dimension ref="A1:AQ293"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -6915,15 +7260,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="204"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="225"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>72</v>
@@ -6934,53 +7279,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="211" t="s">
+      <c r="P1" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="213"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="234"/>
       <c r="AA1" s="44" t="s">
         <v>67</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="208">
+      <c r="AD1" s="229">
         <v>42760</v>
       </c>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="209"/>
-      <c r="AH1" s="210"/>
+      <c r="AE1" s="230"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="230"/>
+      <c r="AH1" s="231"/>
       <c r="AI1" s="44" t="s">
         <v>69</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="199" t="s">
+      <c r="AL1" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="200"/>
-      <c r="AN1" s="200"/>
-      <c r="AO1" s="200"/>
-      <c r="AP1" s="201"/>
+      <c r="AM1" s="221"/>
+      <c r="AN1" s="221"/>
+      <c r="AO1" s="221"/>
+      <c r="AP1" s="222"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="205"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>73</v>
@@ -6991,41 +7336,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="213"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="234"/>
       <c r="AA2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="208">
-        <v>42979</v>
-      </c>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="209"/>
-      <c r="AH2" s="210"/>
+      <c r="AD2" s="229">
+        <v>42991</v>
+      </c>
+      <c r="AE2" s="230"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="231"/>
       <c r="AI2" s="44" t="s">
         <v>70</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="199" t="s">
+      <c r="AL2" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" s="200"/>
-      <c r="AN2" s="200"/>
-      <c r="AO2" s="200"/>
-      <c r="AP2" s="201"/>
+      <c r="AM2" s="221"/>
+      <c r="AN2" s="221"/>
+      <c r="AO2" s="221"/>
+      <c r="AP2" s="222"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7563,27 +7908,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="193" t="s">
+      <c r="L19" s="216" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="194"/>
-      <c r="T19" s="194"/>
-      <c r="U19" s="194"/>
-      <c r="V19" s="194"/>
-      <c r="W19" s="194"/>
-      <c r="X19" s="194"/>
-      <c r="Y19" s="194"/>
-      <c r="Z19" s="194"/>
-      <c r="AA19" s="194"/>
-      <c r="AB19" s="194"/>
-      <c r="AC19" s="194"/>
-      <c r="AD19" s="195"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="217"/>
+      <c r="Q19" s="217"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="217"/>
+      <c r="U19" s="217"/>
+      <c r="V19" s="217"/>
+      <c r="W19" s="217"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="217"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="217"/>
+      <c r="AB19" s="217"/>
+      <c r="AC19" s="217"/>
+      <c r="AD19" s="218"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7599,27 +7944,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="193" t="s">
+      <c r="L20" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="194"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="194"/>
-      <c r="Q20" s="194"/>
-      <c r="R20" s="194"/>
-      <c r="S20" s="194"/>
-      <c r="T20" s="194"/>
-      <c r="U20" s="194"/>
-      <c r="V20" s="194"/>
-      <c r="W20" s="194"/>
-      <c r="X20" s="194"/>
-      <c r="Y20" s="194"/>
-      <c r="Z20" s="194"/>
-      <c r="AA20" s="194"/>
-      <c r="AB20" s="194"/>
-      <c r="AC20" s="194"/>
-      <c r="AD20" s="195"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="217"/>
+      <c r="Q20" s="217"/>
+      <c r="R20" s="217"/>
+      <c r="S20" s="217"/>
+      <c r="T20" s="217"/>
+      <c r="U20" s="217"/>
+      <c r="V20" s="217"/>
+      <c r="W20" s="217"/>
+      <c r="X20" s="217"/>
+      <c r="Y20" s="217"/>
+      <c r="Z20" s="217"/>
+      <c r="AA20" s="217"/>
+      <c r="AB20" s="217"/>
+      <c r="AC20" s="217"/>
+      <c r="AD20" s="218"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7635,27 +7980,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="193" t="s">
+      <c r="L21" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="194"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="194"/>
-      <c r="P21" s="194"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="194"/>
-      <c r="S21" s="194"/>
-      <c r="T21" s="194"/>
-      <c r="U21" s="194"/>
-      <c r="V21" s="194"/>
-      <c r="W21" s="194"/>
-      <c r="X21" s="194"/>
-      <c r="Y21" s="194"/>
-      <c r="Z21" s="194"/>
-      <c r="AA21" s="194"/>
-      <c r="AB21" s="194"/>
-      <c r="AC21" s="194"/>
-      <c r="AD21" s="195"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="217"/>
+      <c r="Q21" s="217"/>
+      <c r="R21" s="217"/>
+      <c r="S21" s="217"/>
+      <c r="T21" s="217"/>
+      <c r="U21" s="217"/>
+      <c r="V21" s="217"/>
+      <c r="W21" s="217"/>
+      <c r="X21" s="217"/>
+      <c r="Y21" s="217"/>
+      <c r="Z21" s="217"/>
+      <c r="AA21" s="217"/>
+      <c r="AB21" s="217"/>
+      <c r="AC21" s="217"/>
+      <c r="AD21" s="218"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -8109,27 +8454,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="181" t="s">
+      <c r="L40" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="182"/>
-      <c r="N40" s="182"/>
-      <c r="O40" s="182"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="182"/>
-      <c r="S40" s="182"/>
-      <c r="T40" s="182"/>
-      <c r="U40" s="182"/>
-      <c r="V40" s="182"/>
-      <c r="W40" s="182"/>
-      <c r="X40" s="182"/>
-      <c r="Y40" s="182"/>
-      <c r="Z40" s="182"/>
-      <c r="AA40" s="182"/>
-      <c r="AB40" s="182"/>
-      <c r="AC40" s="182"/>
-      <c r="AD40" s="183"/>
+      <c r="M40" s="193"/>
+      <c r="N40" s="193"/>
+      <c r="O40" s="193"/>
+      <c r="P40" s="193"/>
+      <c r="Q40" s="193"/>
+      <c r="R40" s="193"/>
+      <c r="S40" s="193"/>
+      <c r="T40" s="193"/>
+      <c r="U40" s="193"/>
+      <c r="V40" s="193"/>
+      <c r="W40" s="193"/>
+      <c r="X40" s="193"/>
+      <c r="Y40" s="193"/>
+      <c r="Z40" s="193"/>
+      <c r="AA40" s="193"/>
+      <c r="AB40" s="193"/>
+      <c r="AC40" s="193"/>
+      <c r="AD40" s="194"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8145,27 +8490,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="193" t="s">
+      <c r="L41" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="194"/>
-      <c r="N41" s="194"/>
-      <c r="O41" s="194"/>
-      <c r="P41" s="194"/>
-      <c r="Q41" s="194"/>
-      <c r="R41" s="194"/>
-      <c r="S41" s="194"/>
-      <c r="T41" s="194"/>
-      <c r="U41" s="194"/>
-      <c r="V41" s="194"/>
-      <c r="W41" s="194"/>
-      <c r="X41" s="194"/>
-      <c r="Y41" s="194"/>
-      <c r="Z41" s="194"/>
-      <c r="AA41" s="194"/>
-      <c r="AB41" s="194"/>
-      <c r="AC41" s="194"/>
-      <c r="AD41" s="195"/>
+      <c r="M41" s="217"/>
+      <c r="N41" s="217"/>
+      <c r="O41" s="217"/>
+      <c r="P41" s="217"/>
+      <c r="Q41" s="217"/>
+      <c r="R41" s="217"/>
+      <c r="S41" s="217"/>
+      <c r="T41" s="217"/>
+      <c r="U41" s="217"/>
+      <c r="V41" s="217"/>
+      <c r="W41" s="217"/>
+      <c r="X41" s="217"/>
+      <c r="Y41" s="217"/>
+      <c r="Z41" s="217"/>
+      <c r="AA41" s="217"/>
+      <c r="AB41" s="217"/>
+      <c r="AC41" s="217"/>
+      <c r="AD41" s="218"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8181,27 +8526,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="193" t="s">
+      <c r="L42" s="216" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="194"/>
-      <c r="N42" s="194"/>
-      <c r="O42" s="194"/>
-      <c r="P42" s="194"/>
-      <c r="Q42" s="194"/>
-      <c r="R42" s="194"/>
-      <c r="S42" s="194"/>
-      <c r="T42" s="194"/>
-      <c r="U42" s="194"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194"/>
-      <c r="X42" s="194"/>
-      <c r="Y42" s="194"/>
-      <c r="Z42" s="194"/>
-      <c r="AA42" s="194"/>
-      <c r="AB42" s="194"/>
-      <c r="AC42" s="194"/>
-      <c r="AD42" s="195"/>
+      <c r="M42" s="217"/>
+      <c r="N42" s="217"/>
+      <c r="O42" s="217"/>
+      <c r="P42" s="217"/>
+      <c r="Q42" s="217"/>
+      <c r="R42" s="217"/>
+      <c r="S42" s="217"/>
+      <c r="T42" s="217"/>
+      <c r="U42" s="217"/>
+      <c r="V42" s="217"/>
+      <c r="W42" s="217"/>
+      <c r="X42" s="217"/>
+      <c r="Y42" s="217"/>
+      <c r="Z42" s="217"/>
+      <c r="AA42" s="217"/>
+      <c r="AB42" s="217"/>
+      <c r="AC42" s="217"/>
+      <c r="AD42" s="218"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8217,27 +8562,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="193" t="s">
+      <c r="L43" s="216" t="s">
         <v>190</v>
       </c>
-      <c r="M43" s="194"/>
-      <c r="N43" s="194"/>
-      <c r="O43" s="194"/>
-      <c r="P43" s="194"/>
-      <c r="Q43" s="194"/>
-      <c r="R43" s="194"/>
-      <c r="S43" s="194"/>
-      <c r="T43" s="194"/>
-      <c r="U43" s="194"/>
-      <c r="V43" s="194"/>
-      <c r="W43" s="194"/>
-      <c r="X43" s="194"/>
-      <c r="Y43" s="194"/>
-      <c r="Z43" s="194"/>
-      <c r="AA43" s="194"/>
-      <c r="AB43" s="194"/>
-      <c r="AC43" s="194"/>
-      <c r="AD43" s="195"/>
+      <c r="M43" s="217"/>
+      <c r="N43" s="217"/>
+      <c r="O43" s="217"/>
+      <c r="P43" s="217"/>
+      <c r="Q43" s="217"/>
+      <c r="R43" s="217"/>
+      <c r="S43" s="217"/>
+      <c r="T43" s="217"/>
+      <c r="U43" s="217"/>
+      <c r="V43" s="217"/>
+      <c r="W43" s="217"/>
+      <c r="X43" s="217"/>
+      <c r="Y43" s="217"/>
+      <c r="Z43" s="217"/>
+      <c r="AA43" s="217"/>
+      <c r="AB43" s="217"/>
+      <c r="AC43" s="217"/>
+      <c r="AD43" s="218"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8253,27 +8598,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="193" t="s">
+      <c r="L44" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="194"/>
-      <c r="N44" s="194"/>
-      <c r="O44" s="194"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="194"/>
-      <c r="R44" s="194"/>
-      <c r="S44" s="194"/>
-      <c r="T44" s="194"/>
-      <c r="U44" s="194"/>
-      <c r="V44" s="194"/>
-      <c r="W44" s="194"/>
-      <c r="X44" s="194"/>
-      <c r="Y44" s="194"/>
-      <c r="Z44" s="194"/>
-      <c r="AA44" s="194"/>
-      <c r="AB44" s="194"/>
-      <c r="AC44" s="194"/>
-      <c r="AD44" s="195"/>
+      <c r="M44" s="217"/>
+      <c r="N44" s="217"/>
+      <c r="O44" s="217"/>
+      <c r="P44" s="217"/>
+      <c r="Q44" s="217"/>
+      <c r="R44" s="217"/>
+      <c r="S44" s="217"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="217"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="217"/>
+      <c r="X44" s="217"/>
+      <c r="Y44" s="217"/>
+      <c r="Z44" s="217"/>
+      <c r="AA44" s="217"/>
+      <c r="AB44" s="217"/>
+      <c r="AC44" s="217"/>
+      <c r="AD44" s="218"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8289,27 +8634,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="193" t="s">
+      <c r="L45" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="194"/>
-      <c r="N45" s="194"/>
-      <c r="O45" s="194"/>
-      <c r="P45" s="194"/>
-      <c r="Q45" s="194"/>
-      <c r="R45" s="194"/>
-      <c r="S45" s="194"/>
-      <c r="T45" s="194"/>
-      <c r="U45" s="194"/>
-      <c r="V45" s="194"/>
-      <c r="W45" s="194"/>
-      <c r="X45" s="194"/>
-      <c r="Y45" s="194"/>
-      <c r="Z45" s="194"/>
-      <c r="AA45" s="194"/>
-      <c r="AB45" s="194"/>
-      <c r="AC45" s="194"/>
-      <c r="AD45" s="195"/>
+      <c r="M45" s="217"/>
+      <c r="N45" s="217"/>
+      <c r="O45" s="217"/>
+      <c r="P45" s="217"/>
+      <c r="Q45" s="217"/>
+      <c r="R45" s="217"/>
+      <c r="S45" s="217"/>
+      <c r="T45" s="217"/>
+      <c r="U45" s="217"/>
+      <c r="V45" s="217"/>
+      <c r="W45" s="217"/>
+      <c r="X45" s="217"/>
+      <c r="Y45" s="217"/>
+      <c r="Z45" s="217"/>
+      <c r="AA45" s="217"/>
+      <c r="AB45" s="217"/>
+      <c r="AC45" s="217"/>
+      <c r="AD45" s="218"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8384,27 +8729,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="181" t="s">
+      <c r="L48" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="182"/>
-      <c r="N48" s="182"/>
-      <c r="O48" s="182"/>
-      <c r="P48" s="182"/>
-      <c r="Q48" s="182"/>
-      <c r="R48" s="182"/>
-      <c r="S48" s="182"/>
-      <c r="T48" s="182"/>
-      <c r="U48" s="182"/>
-      <c r="V48" s="182"/>
-      <c r="W48" s="182"/>
-      <c r="X48" s="182"/>
-      <c r="Y48" s="182"/>
-      <c r="Z48" s="182"/>
-      <c r="AA48" s="182"/>
-      <c r="AB48" s="182"/>
-      <c r="AC48" s="182"/>
-      <c r="AD48" s="183"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="193"/>
+      <c r="O48" s="193"/>
+      <c r="P48" s="193"/>
+      <c r="Q48" s="193"/>
+      <c r="R48" s="193"/>
+      <c r="S48" s="193"/>
+      <c r="T48" s="193"/>
+      <c r="U48" s="193"/>
+      <c r="V48" s="193"/>
+      <c r="W48" s="193"/>
+      <c r="X48" s="193"/>
+      <c r="Y48" s="193"/>
+      <c r="Z48" s="193"/>
+      <c r="AA48" s="193"/>
+      <c r="AB48" s="193"/>
+      <c r="AC48" s="193"/>
+      <c r="AD48" s="194"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8418,27 +8763,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="193" t="s">
+      <c r="L49" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="M49" s="194"/>
-      <c r="N49" s="194"/>
-      <c r="O49" s="194"/>
-      <c r="P49" s="194"/>
-      <c r="Q49" s="194"/>
-      <c r="R49" s="194"/>
-      <c r="S49" s="194"/>
-      <c r="T49" s="194"/>
-      <c r="U49" s="194"/>
-      <c r="V49" s="194"/>
-      <c r="W49" s="194"/>
-      <c r="X49" s="194"/>
-      <c r="Y49" s="194"/>
-      <c r="Z49" s="194"/>
-      <c r="AA49" s="194"/>
-      <c r="AB49" s="194"/>
-      <c r="AC49" s="194"/>
-      <c r="AD49" s="195"/>
+      <c r="M49" s="217"/>
+      <c r="N49" s="217"/>
+      <c r="O49" s="217"/>
+      <c r="P49" s="217"/>
+      <c r="Q49" s="217"/>
+      <c r="R49" s="217"/>
+      <c r="S49" s="217"/>
+      <c r="T49" s="217"/>
+      <c r="U49" s="217"/>
+      <c r="V49" s="217"/>
+      <c r="W49" s="217"/>
+      <c r="X49" s="217"/>
+      <c r="Y49" s="217"/>
+      <c r="Z49" s="217"/>
+      <c r="AA49" s="217"/>
+      <c r="AB49" s="217"/>
+      <c r="AC49" s="217"/>
+      <c r="AD49" s="218"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8452,27 +8797,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="193" t="s">
+      <c r="L50" s="216" t="s">
         <v>190</v>
       </c>
-      <c r="M50" s="194"/>
-      <c r="N50" s="194"/>
-      <c r="O50" s="194"/>
-      <c r="P50" s="194"/>
-      <c r="Q50" s="194"/>
-      <c r="R50" s="194"/>
-      <c r="S50" s="194"/>
-      <c r="T50" s="194"/>
-      <c r="U50" s="194"/>
-      <c r="V50" s="194"/>
-      <c r="W50" s="194"/>
-      <c r="X50" s="194"/>
-      <c r="Y50" s="194"/>
-      <c r="Z50" s="194"/>
-      <c r="AA50" s="194"/>
-      <c r="AB50" s="194"/>
-      <c r="AC50" s="194"/>
-      <c r="AD50" s="195"/>
+      <c r="M50" s="217"/>
+      <c r="N50" s="217"/>
+      <c r="O50" s="217"/>
+      <c r="P50" s="217"/>
+      <c r="Q50" s="217"/>
+      <c r="R50" s="217"/>
+      <c r="S50" s="217"/>
+      <c r="T50" s="217"/>
+      <c r="U50" s="217"/>
+      <c r="V50" s="217"/>
+      <c r="W50" s="217"/>
+      <c r="X50" s="217"/>
+      <c r="Y50" s="217"/>
+      <c r="Z50" s="217"/>
+      <c r="AA50" s="217"/>
+      <c r="AB50" s="217"/>
+      <c r="AC50" s="217"/>
+      <c r="AD50" s="218"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11075,30 +11420,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="181" t="s">
+      <c r="S125" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="182"/>
-      <c r="U125" s="182"/>
-      <c r="V125" s="182"/>
-      <c r="W125" s="182"/>
-      <c r="X125" s="183"/>
-      <c r="Y125" s="181" t="s">
+      <c r="T125" s="193"/>
+      <c r="U125" s="193"/>
+      <c r="V125" s="193"/>
+      <c r="W125" s="193"/>
+      <c r="X125" s="194"/>
+      <c r="Y125" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="182"/>
-      <c r="AA125" s="182"/>
-      <c r="AB125" s="182"/>
-      <c r="AC125" s="182"/>
-      <c r="AD125" s="183"/>
-      <c r="AE125" s="181" t="s">
+      <c r="Z125" s="193"/>
+      <c r="AA125" s="193"/>
+      <c r="AB125" s="193"/>
+      <c r="AC125" s="193"/>
+      <c r="AD125" s="194"/>
+      <c r="AE125" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="182"/>
-      <c r="AG125" s="182"/>
-      <c r="AH125" s="182"/>
-      <c r="AI125" s="182"/>
-      <c r="AJ125" s="183"/>
+      <c r="AF125" s="193"/>
+      <c r="AG125" s="193"/>
+      <c r="AH125" s="193"/>
+      <c r="AI125" s="193"/>
+      <c r="AJ125" s="194"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11120,30 +11465,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="193" t="s">
+      <c r="S126" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="194"/>
-      <c r="U126" s="194"/>
-      <c r="V126" s="194"/>
-      <c r="W126" s="194"/>
-      <c r="X126" s="195"/>
-      <c r="Y126" s="193" t="s">
+      <c r="T126" s="217"/>
+      <c r="U126" s="217"/>
+      <c r="V126" s="217"/>
+      <c r="W126" s="217"/>
+      <c r="X126" s="218"/>
+      <c r="Y126" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="194"/>
-      <c r="AA126" s="194"/>
-      <c r="AB126" s="194"/>
-      <c r="AC126" s="194"/>
-      <c r="AD126" s="195"/>
-      <c r="AE126" s="193" t="s">
+      <c r="Z126" s="217"/>
+      <c r="AA126" s="217"/>
+      <c r="AB126" s="217"/>
+      <c r="AC126" s="217"/>
+      <c r="AD126" s="218"/>
+      <c r="AE126" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="194"/>
-      <c r="AG126" s="194"/>
-      <c r="AH126" s="194"/>
-      <c r="AI126" s="194"/>
-      <c r="AJ126" s="195"/>
+      <c r="AF126" s="217"/>
+      <c r="AG126" s="217"/>
+      <c r="AH126" s="217"/>
+      <c r="AI126" s="217"/>
+      <c r="AJ126" s="218"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11204,30 +11549,30 @@
       <c r="P128" s="130"/>
       <c r="Q128" s="130"/>
       <c r="R128" s="131"/>
-      <c r="S128" s="214" t="s">
+      <c r="S128" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="215"/>
-      <c r="U128" s="215"/>
-      <c r="V128" s="215"/>
-      <c r="W128" s="215"/>
-      <c r="X128" s="216"/>
-      <c r="Y128" s="214" t="s">
+      <c r="T128" s="196"/>
+      <c r="U128" s="196"/>
+      <c r="V128" s="196"/>
+      <c r="W128" s="196"/>
+      <c r="X128" s="197"/>
+      <c r="Y128" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="215"/>
-      <c r="AA128" s="215"/>
-      <c r="AB128" s="215"/>
-      <c r="AC128" s="215"/>
-      <c r="AD128" s="216"/>
-      <c r="AE128" s="214" t="s">
+      <c r="Z128" s="196"/>
+      <c r="AA128" s="196"/>
+      <c r="AB128" s="196"/>
+      <c r="AC128" s="196"/>
+      <c r="AD128" s="197"/>
+      <c r="AE128" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="215"/>
-      <c r="AG128" s="215"/>
-      <c r="AH128" s="215"/>
-      <c r="AI128" s="215"/>
-      <c r="AJ128" s="216"/>
+      <c r="AF128" s="196"/>
+      <c r="AG128" s="196"/>
+      <c r="AH128" s="196"/>
+      <c r="AI128" s="196"/>
+      <c r="AJ128" s="197"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11249,30 +11594,30 @@
       <c r="P129" s="127"/>
       <c r="Q129" s="127"/>
       <c r="R129" s="132"/>
-      <c r="S129" s="217" t="s">
+      <c r="S129" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="217"/>
-      <c r="U129" s="217"/>
-      <c r="V129" s="217"/>
-      <c r="W129" s="217"/>
-      <c r="X129" s="217"/>
-      <c r="Y129" s="217" t="s">
+      <c r="T129" s="219"/>
+      <c r="U129" s="219"/>
+      <c r="V129" s="219"/>
+      <c r="W129" s="219"/>
+      <c r="X129" s="219"/>
+      <c r="Y129" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="217"/>
-      <c r="AA129" s="217"/>
-      <c r="AB129" s="217"/>
-      <c r="AC129" s="217"/>
-      <c r="AD129" s="217"/>
-      <c r="AE129" s="217" t="s">
+      <c r="Z129" s="219"/>
+      <c r="AA129" s="219"/>
+      <c r="AB129" s="219"/>
+      <c r="AC129" s="219"/>
+      <c r="AD129" s="219"/>
+      <c r="AE129" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="217"/>
-      <c r="AG129" s="217"/>
-      <c r="AH129" s="217"/>
-      <c r="AI129" s="217"/>
-      <c r="AJ129" s="217"/>
+      <c r="AF129" s="219"/>
+      <c r="AG129" s="219"/>
+      <c r="AH129" s="219"/>
+      <c r="AI129" s="219"/>
+      <c r="AJ129" s="219"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11296,30 +11641,30 @@
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
       <c r="R130" s="133"/>
-      <c r="S130" s="172" t="s">
+      <c r="S130" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="173"/>
-      <c r="U130" s="173"/>
-      <c r="V130" s="173"/>
-      <c r="W130" s="173"/>
-      <c r="X130" s="174"/>
-      <c r="Y130" s="172" t="s">
+      <c r="T130" s="199"/>
+      <c r="U130" s="199"/>
+      <c r="V130" s="199"/>
+      <c r="W130" s="199"/>
+      <c r="X130" s="200"/>
+      <c r="Y130" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="173"/>
-      <c r="AA130" s="173"/>
-      <c r="AB130" s="173"/>
-      <c r="AC130" s="173"/>
-      <c r="AD130" s="174"/>
-      <c r="AE130" s="172" t="s">
+      <c r="Z130" s="199"/>
+      <c r="AA130" s="199"/>
+      <c r="AB130" s="199"/>
+      <c r="AC130" s="199"/>
+      <c r="AD130" s="200"/>
+      <c r="AE130" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="173"/>
-      <c r="AG130" s="173"/>
-      <c r="AH130" s="173"/>
-      <c r="AI130" s="173"/>
-      <c r="AJ130" s="174"/>
+      <c r="AF130" s="199"/>
+      <c r="AG130" s="199"/>
+      <c r="AH130" s="199"/>
+      <c r="AI130" s="199"/>
+      <c r="AJ130" s="200"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11337,30 +11682,30 @@
       <c r="P131" s="75"/>
       <c r="Q131" s="75"/>
       <c r="R131" s="133"/>
-      <c r="S131" s="172" t="s">
+      <c r="S131" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="173"/>
-      <c r="U131" s="173"/>
-      <c r="V131" s="173"/>
-      <c r="W131" s="173"/>
-      <c r="X131" s="174"/>
-      <c r="Y131" s="172" t="s">
+      <c r="T131" s="199"/>
+      <c r="U131" s="199"/>
+      <c r="V131" s="199"/>
+      <c r="W131" s="199"/>
+      <c r="X131" s="200"/>
+      <c r="Y131" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="173"/>
-      <c r="AA131" s="173"/>
-      <c r="AB131" s="173"/>
-      <c r="AC131" s="173"/>
-      <c r="AD131" s="174"/>
-      <c r="AE131" s="172" t="s">
+      <c r="Z131" s="199"/>
+      <c r="AA131" s="199"/>
+      <c r="AB131" s="199"/>
+      <c r="AC131" s="199"/>
+      <c r="AD131" s="200"/>
+      <c r="AE131" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="173"/>
-      <c r="AG131" s="173"/>
-      <c r="AH131" s="173"/>
-      <c r="AI131" s="173"/>
-      <c r="AJ131" s="174"/>
+      <c r="AF131" s="199"/>
+      <c r="AG131" s="199"/>
+      <c r="AH131" s="199"/>
+      <c r="AI131" s="199"/>
+      <c r="AJ131" s="200"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11382,30 +11727,30 @@
       <c r="P132" s="75"/>
       <c r="Q132" s="75"/>
       <c r="R132" s="133"/>
-      <c r="S132" s="172" t="s">
+      <c r="S132" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="173"/>
-      <c r="U132" s="173"/>
-      <c r="V132" s="173"/>
-      <c r="W132" s="173"/>
-      <c r="X132" s="174"/>
-      <c r="Y132" s="172" t="s">
+      <c r="T132" s="199"/>
+      <c r="U132" s="199"/>
+      <c r="V132" s="199"/>
+      <c r="W132" s="199"/>
+      <c r="X132" s="200"/>
+      <c r="Y132" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="173"/>
-      <c r="AA132" s="173"/>
-      <c r="AB132" s="173"/>
-      <c r="AC132" s="173"/>
-      <c r="AD132" s="174"/>
-      <c r="AE132" s="172" t="s">
+      <c r="Z132" s="199"/>
+      <c r="AA132" s="199"/>
+      <c r="AB132" s="199"/>
+      <c r="AC132" s="199"/>
+      <c r="AD132" s="200"/>
+      <c r="AE132" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="173"/>
-      <c r="AG132" s="173"/>
-      <c r="AH132" s="173"/>
-      <c r="AI132" s="173"/>
-      <c r="AJ132" s="174"/>
+      <c r="AF132" s="199"/>
+      <c r="AG132" s="199"/>
+      <c r="AH132" s="199"/>
+      <c r="AI132" s="199"/>
+      <c r="AJ132" s="200"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11427,30 +11772,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="218" t="s">
+      <c r="S133" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="219"/>
-      <c r="U133" s="219"/>
-      <c r="V133" s="219"/>
-      <c r="W133" s="219"/>
-      <c r="X133" s="220"/>
-      <c r="Y133" s="218" t="s">
+      <c r="T133" s="208"/>
+      <c r="U133" s="208"/>
+      <c r="V133" s="208"/>
+      <c r="W133" s="208"/>
+      <c r="X133" s="209"/>
+      <c r="Y133" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="219"/>
-      <c r="AA133" s="219"/>
-      <c r="AB133" s="219"/>
-      <c r="AC133" s="219"/>
-      <c r="AD133" s="220"/>
-      <c r="AE133" s="218" t="s">
+      <c r="Z133" s="208"/>
+      <c r="AA133" s="208"/>
+      <c r="AB133" s="208"/>
+      <c r="AC133" s="208"/>
+      <c r="AD133" s="209"/>
+      <c r="AE133" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="219"/>
-      <c r="AG133" s="219"/>
-      <c r="AH133" s="219"/>
-      <c r="AI133" s="219"/>
-      <c r="AJ133" s="220"/>
+      <c r="AF133" s="208"/>
+      <c r="AG133" s="208"/>
+      <c r="AH133" s="208"/>
+      <c r="AI133" s="208"/>
+      <c r="AJ133" s="209"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11474,30 +11819,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="218" t="s">
+      <c r="S134" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="219"/>
-      <c r="U134" s="219"/>
-      <c r="V134" s="219"/>
-      <c r="W134" s="219"/>
-      <c r="X134" s="220"/>
-      <c r="Y134" s="218" t="s">
+      <c r="T134" s="208"/>
+      <c r="U134" s="208"/>
+      <c r="V134" s="208"/>
+      <c r="W134" s="208"/>
+      <c r="X134" s="209"/>
+      <c r="Y134" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="219"/>
-      <c r="AA134" s="219"/>
-      <c r="AB134" s="219"/>
-      <c r="AC134" s="219"/>
-      <c r="AD134" s="220"/>
-      <c r="AE134" s="218" t="s">
+      <c r="Z134" s="208"/>
+      <c r="AA134" s="208"/>
+      <c r="AB134" s="208"/>
+      <c r="AC134" s="208"/>
+      <c r="AD134" s="209"/>
+      <c r="AE134" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="219"/>
-      <c r="AG134" s="219"/>
-      <c r="AH134" s="219"/>
-      <c r="AI134" s="219"/>
-      <c r="AJ134" s="220"/>
+      <c r="AF134" s="208"/>
+      <c r="AG134" s="208"/>
+      <c r="AH134" s="208"/>
+      <c r="AI134" s="208"/>
+      <c r="AJ134" s="209"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11515,30 +11860,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="218" t="s">
+      <c r="S135" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="219"/>
-      <c r="U135" s="219"/>
-      <c r="V135" s="219"/>
-      <c r="W135" s="219"/>
-      <c r="X135" s="220"/>
-      <c r="Y135" s="218" t="s">
+      <c r="T135" s="208"/>
+      <c r="U135" s="208"/>
+      <c r="V135" s="208"/>
+      <c r="W135" s="208"/>
+      <c r="X135" s="209"/>
+      <c r="Y135" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="219"/>
-      <c r="AA135" s="219"/>
-      <c r="AB135" s="219"/>
-      <c r="AC135" s="219"/>
-      <c r="AD135" s="220"/>
-      <c r="AE135" s="218" t="s">
+      <c r="Z135" s="208"/>
+      <c r="AA135" s="208"/>
+      <c r="AB135" s="208"/>
+      <c r="AC135" s="208"/>
+      <c r="AD135" s="209"/>
+      <c r="AE135" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="219"/>
-      <c r="AG135" s="219"/>
-      <c r="AH135" s="219"/>
-      <c r="AI135" s="219"/>
-      <c r="AJ135" s="220"/>
+      <c r="AF135" s="208"/>
+      <c r="AG135" s="208"/>
+      <c r="AH135" s="208"/>
+      <c r="AI135" s="208"/>
+      <c r="AJ135" s="209"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11560,30 +11905,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="218" t="s">
+      <c r="S136" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="219"/>
-      <c r="U136" s="219"/>
-      <c r="V136" s="219"/>
-      <c r="W136" s="219"/>
-      <c r="X136" s="220"/>
-      <c r="Y136" s="218" t="s">
+      <c r="T136" s="208"/>
+      <c r="U136" s="208"/>
+      <c r="V136" s="208"/>
+      <c r="W136" s="208"/>
+      <c r="X136" s="209"/>
+      <c r="Y136" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="219"/>
-      <c r="AA136" s="219"/>
-      <c r="AB136" s="219"/>
-      <c r="AC136" s="219"/>
-      <c r="AD136" s="220"/>
-      <c r="AE136" s="218" t="s">
+      <c r="Z136" s="208"/>
+      <c r="AA136" s="208"/>
+      <c r="AB136" s="208"/>
+      <c r="AC136" s="208"/>
+      <c r="AD136" s="209"/>
+      <c r="AE136" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="219"/>
-      <c r="AG136" s="219"/>
-      <c r="AH136" s="219"/>
-      <c r="AI136" s="219"/>
-      <c r="AJ136" s="220"/>
+      <c r="AF136" s="208"/>
+      <c r="AG136" s="208"/>
+      <c r="AH136" s="208"/>
+      <c r="AI136" s="208"/>
+      <c r="AJ136" s="209"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11605,30 +11950,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="221" t="s">
+      <c r="S137" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="222"/>
-      <c r="U137" s="222"/>
-      <c r="V137" s="222"/>
-      <c r="W137" s="222"/>
-      <c r="X137" s="223"/>
-      <c r="Y137" s="221" t="s">
+      <c r="T137" s="205"/>
+      <c r="U137" s="205"/>
+      <c r="V137" s="205"/>
+      <c r="W137" s="205"/>
+      <c r="X137" s="206"/>
+      <c r="Y137" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="222"/>
-      <c r="AA137" s="222"/>
-      <c r="AB137" s="222"/>
-      <c r="AC137" s="222"/>
-      <c r="AD137" s="223"/>
-      <c r="AE137" s="218" t="s">
+      <c r="Z137" s="205"/>
+      <c r="AA137" s="205"/>
+      <c r="AB137" s="205"/>
+      <c r="AC137" s="205"/>
+      <c r="AD137" s="206"/>
+      <c r="AE137" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="219"/>
-      <c r="AG137" s="219"/>
-      <c r="AH137" s="219"/>
-      <c r="AI137" s="219"/>
-      <c r="AJ137" s="220"/>
+      <c r="AF137" s="208"/>
+      <c r="AG137" s="208"/>
+      <c r="AH137" s="208"/>
+      <c r="AI137" s="208"/>
+      <c r="AJ137" s="209"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11652,30 +11997,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="218" t="s">
+      <c r="S138" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="219"/>
-      <c r="U138" s="219"/>
-      <c r="V138" s="219"/>
-      <c r="W138" s="219"/>
-      <c r="X138" s="220"/>
-      <c r="Y138" s="218" t="s">
+      <c r="T138" s="208"/>
+      <c r="U138" s="208"/>
+      <c r="V138" s="208"/>
+      <c r="W138" s="208"/>
+      <c r="X138" s="209"/>
+      <c r="Y138" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="219"/>
-      <c r="AA138" s="219"/>
-      <c r="AB138" s="219"/>
-      <c r="AC138" s="219"/>
-      <c r="AD138" s="220"/>
-      <c r="AE138" s="218" t="s">
+      <c r="Z138" s="208"/>
+      <c r="AA138" s="208"/>
+      <c r="AB138" s="208"/>
+      <c r="AC138" s="208"/>
+      <c r="AD138" s="209"/>
+      <c r="AE138" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="219"/>
-      <c r="AG138" s="219"/>
-      <c r="AH138" s="219"/>
-      <c r="AI138" s="219"/>
-      <c r="AJ138" s="220"/>
+      <c r="AF138" s="208"/>
+      <c r="AG138" s="208"/>
+      <c r="AH138" s="208"/>
+      <c r="AI138" s="208"/>
+      <c r="AJ138" s="209"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -11693,30 +12038,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="218" t="s">
+      <c r="S139" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="219"/>
-      <c r="U139" s="219"/>
-      <c r="V139" s="219"/>
-      <c r="W139" s="219"/>
-      <c r="X139" s="220"/>
-      <c r="Y139" s="218" t="s">
+      <c r="T139" s="208"/>
+      <c r="U139" s="208"/>
+      <c r="V139" s="208"/>
+      <c r="W139" s="208"/>
+      <c r="X139" s="209"/>
+      <c r="Y139" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="219"/>
-      <c r="AA139" s="219"/>
-      <c r="AB139" s="219"/>
-      <c r="AC139" s="219"/>
-      <c r="AD139" s="220"/>
-      <c r="AE139" s="218" t="s">
+      <c r="Z139" s="208"/>
+      <c r="AA139" s="208"/>
+      <c r="AB139" s="208"/>
+      <c r="AC139" s="208"/>
+      <c r="AD139" s="209"/>
+      <c r="AE139" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="219"/>
-      <c r="AG139" s="219"/>
-      <c r="AH139" s="219"/>
-      <c r="AI139" s="219"/>
-      <c r="AJ139" s="220"/>
+      <c r="AF139" s="208"/>
+      <c r="AG139" s="208"/>
+      <c r="AH139" s="208"/>
+      <c r="AI139" s="208"/>
+      <c r="AJ139" s="209"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -11738,30 +12083,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="218" t="s">
+      <c r="S140" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="219"/>
-      <c r="U140" s="219"/>
-      <c r="V140" s="219"/>
-      <c r="W140" s="219"/>
-      <c r="X140" s="220"/>
-      <c r="Y140" s="218" t="s">
+      <c r="T140" s="208"/>
+      <c r="U140" s="208"/>
+      <c r="V140" s="208"/>
+      <c r="W140" s="208"/>
+      <c r="X140" s="209"/>
+      <c r="Y140" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="219"/>
-      <c r="AA140" s="219"/>
-      <c r="AB140" s="219"/>
-      <c r="AC140" s="219"/>
-      <c r="AD140" s="220"/>
-      <c r="AE140" s="218" t="s">
+      <c r="Z140" s="208"/>
+      <c r="AA140" s="208"/>
+      <c r="AB140" s="208"/>
+      <c r="AC140" s="208"/>
+      <c r="AD140" s="209"/>
+      <c r="AE140" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="219"/>
-      <c r="AG140" s="219"/>
-      <c r="AH140" s="219"/>
-      <c r="AI140" s="219"/>
-      <c r="AJ140" s="220"/>
+      <c r="AF140" s="208"/>
+      <c r="AG140" s="208"/>
+      <c r="AH140" s="208"/>
+      <c r="AI140" s="208"/>
+      <c r="AJ140" s="209"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -11783,30 +12128,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="218" t="s">
+      <c r="S141" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="T141" s="219"/>
-      <c r="U141" s="219"/>
-      <c r="V141" s="219"/>
-      <c r="W141" s="219"/>
-      <c r="X141" s="220"/>
-      <c r="Y141" s="218" t="s">
+      <c r="T141" s="208"/>
+      <c r="U141" s="208"/>
+      <c r="V141" s="208"/>
+      <c r="W141" s="208"/>
+      <c r="X141" s="209"/>
+      <c r="Y141" s="207" t="s">
         <v>218</v>
       </c>
-      <c r="Z141" s="219"/>
-      <c r="AA141" s="219"/>
-      <c r="AB141" s="219"/>
-      <c r="AC141" s="219"/>
-      <c r="AD141" s="220"/>
-      <c r="AE141" s="218" t="s">
+      <c r="Z141" s="208"/>
+      <c r="AA141" s="208"/>
+      <c r="AB141" s="208"/>
+      <c r="AC141" s="208"/>
+      <c r="AD141" s="209"/>
+      <c r="AE141" s="207" t="s">
         <v>218</v>
       </c>
-      <c r="AF141" s="219"/>
-      <c r="AG141" s="219"/>
-      <c r="AH141" s="219"/>
-      <c r="AI141" s="219"/>
-      <c r="AJ141" s="220"/>
+      <c r="AF141" s="208"/>
+      <c r="AG141" s="208"/>
+      <c r="AH141" s="208"/>
+      <c r="AI141" s="208"/>
+      <c r="AJ141" s="209"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -11830,30 +12175,30 @@
       <c r="P142" s="134"/>
       <c r="Q142" s="134"/>
       <c r="R142" s="135"/>
-      <c r="S142" s="218" t="s">
+      <c r="S142" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="219"/>
-      <c r="U142" s="219"/>
-      <c r="V142" s="219"/>
-      <c r="W142" s="219"/>
-      <c r="X142" s="220"/>
-      <c r="Y142" s="218" t="s">
+      <c r="T142" s="208"/>
+      <c r="U142" s="208"/>
+      <c r="V142" s="208"/>
+      <c r="W142" s="208"/>
+      <c r="X142" s="209"/>
+      <c r="Y142" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="219"/>
-      <c r="AA142" s="219"/>
-      <c r="AB142" s="219"/>
-      <c r="AC142" s="219"/>
-      <c r="AD142" s="220"/>
-      <c r="AE142" s="218" t="s">
+      <c r="Z142" s="208"/>
+      <c r="AA142" s="208"/>
+      <c r="AB142" s="208"/>
+      <c r="AC142" s="208"/>
+      <c r="AD142" s="209"/>
+      <c r="AE142" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="219"/>
-      <c r="AG142" s="219"/>
-      <c r="AH142" s="219"/>
-      <c r="AI142" s="219"/>
-      <c r="AJ142" s="220"/>
+      <c r="AF142" s="208"/>
+      <c r="AG142" s="208"/>
+      <c r="AH142" s="208"/>
+      <c r="AI142" s="208"/>
+      <c r="AJ142" s="209"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -11871,30 +12216,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="218" t="s">
+      <c r="S143" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="219"/>
-      <c r="U143" s="219"/>
-      <c r="V143" s="219"/>
-      <c r="W143" s="219"/>
-      <c r="X143" s="220"/>
-      <c r="Y143" s="218" t="s">
+      <c r="T143" s="208"/>
+      <c r="U143" s="208"/>
+      <c r="V143" s="208"/>
+      <c r="W143" s="208"/>
+      <c r="X143" s="209"/>
+      <c r="Y143" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="219"/>
-      <c r="AA143" s="219"/>
-      <c r="AB143" s="219"/>
-      <c r="AC143" s="219"/>
-      <c r="AD143" s="220"/>
-      <c r="AE143" s="218" t="s">
+      <c r="Z143" s="208"/>
+      <c r="AA143" s="208"/>
+      <c r="AB143" s="208"/>
+      <c r="AC143" s="208"/>
+      <c r="AD143" s="209"/>
+      <c r="AE143" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="219"/>
-      <c r="AG143" s="219"/>
-      <c r="AH143" s="219"/>
-      <c r="AI143" s="219"/>
-      <c r="AJ143" s="220"/>
+      <c r="AF143" s="208"/>
+      <c r="AG143" s="208"/>
+      <c r="AH143" s="208"/>
+      <c r="AI143" s="208"/>
+      <c r="AJ143" s="209"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -11916,30 +12261,30 @@
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="76"/>
-      <c r="S144" s="172" t="s">
+      <c r="S144" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="173"/>
-      <c r="U144" s="173"/>
-      <c r="V144" s="173"/>
-      <c r="W144" s="173"/>
-      <c r="X144" s="174"/>
-      <c r="Y144" s="172" t="s">
+      <c r="T144" s="199"/>
+      <c r="U144" s="199"/>
+      <c r="V144" s="199"/>
+      <c r="W144" s="199"/>
+      <c r="X144" s="200"/>
+      <c r="Y144" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z144" s="173"/>
-      <c r="AA144" s="173"/>
-      <c r="AB144" s="173"/>
-      <c r="AC144" s="173"/>
-      <c r="AD144" s="174"/>
-      <c r="AE144" s="172" t="s">
+      <c r="Z144" s="199"/>
+      <c r="AA144" s="199"/>
+      <c r="AB144" s="199"/>
+      <c r="AC144" s="199"/>
+      <c r="AD144" s="200"/>
+      <c r="AE144" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="173"/>
-      <c r="AG144" s="173"/>
-      <c r="AH144" s="173"/>
-      <c r="AI144" s="173"/>
-      <c r="AJ144" s="174"/>
+      <c r="AF144" s="199"/>
+      <c r="AG144" s="199"/>
+      <c r="AH144" s="199"/>
+      <c r="AI144" s="199"/>
+      <c r="AJ144" s="200"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -11961,30 +12306,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="218" t="s">
+      <c r="S145" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="219"/>
-      <c r="U145" s="219"/>
-      <c r="V145" s="219"/>
-      <c r="W145" s="219"/>
-      <c r="X145" s="220"/>
-      <c r="Y145" s="218" t="s">
+      <c r="T145" s="208"/>
+      <c r="U145" s="208"/>
+      <c r="V145" s="208"/>
+      <c r="W145" s="208"/>
+      <c r="X145" s="209"/>
+      <c r="Y145" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="219"/>
-      <c r="AA145" s="219"/>
-      <c r="AB145" s="219"/>
-      <c r="AC145" s="219"/>
-      <c r="AD145" s="220"/>
-      <c r="AE145" s="218" t="s">
+      <c r="Z145" s="208"/>
+      <c r="AA145" s="208"/>
+      <c r="AB145" s="208"/>
+      <c r="AC145" s="208"/>
+      <c r="AD145" s="209"/>
+      <c r="AE145" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="219"/>
-      <c r="AG145" s="219"/>
-      <c r="AH145" s="219"/>
-      <c r="AI145" s="219"/>
-      <c r="AJ145" s="220"/>
+      <c r="AF145" s="208"/>
+      <c r="AG145" s="208"/>
+      <c r="AH145" s="208"/>
+      <c r="AI145" s="208"/>
+      <c r="AJ145" s="209"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -12008,30 +12353,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="218" t="s">
+      <c r="S146" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="219"/>
-      <c r="U146" s="219"/>
-      <c r="V146" s="219"/>
-      <c r="W146" s="219"/>
-      <c r="X146" s="220"/>
-      <c r="Y146" s="221" t="s">
+      <c r="T146" s="208"/>
+      <c r="U146" s="208"/>
+      <c r="V146" s="208"/>
+      <c r="W146" s="208"/>
+      <c r="X146" s="209"/>
+      <c r="Y146" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="222"/>
-      <c r="AA146" s="222"/>
-      <c r="AB146" s="222"/>
-      <c r="AC146" s="222"/>
-      <c r="AD146" s="223"/>
-      <c r="AE146" s="221" t="s">
+      <c r="Z146" s="205"/>
+      <c r="AA146" s="205"/>
+      <c r="AB146" s="205"/>
+      <c r="AC146" s="205"/>
+      <c r="AD146" s="206"/>
+      <c r="AE146" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="222"/>
-      <c r="AG146" s="222"/>
-      <c r="AH146" s="222"/>
-      <c r="AI146" s="222"/>
-      <c r="AJ146" s="223"/>
+      <c r="AF146" s="205"/>
+      <c r="AG146" s="205"/>
+      <c r="AH146" s="205"/>
+      <c r="AI146" s="205"/>
+      <c r="AJ146" s="206"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -12049,30 +12394,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="218" t="s">
+      <c r="S147" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="219"/>
-      <c r="U147" s="219"/>
-      <c r="V147" s="219"/>
-      <c r="W147" s="219"/>
-      <c r="X147" s="220"/>
-      <c r="Y147" s="218" t="s">
+      <c r="T147" s="208"/>
+      <c r="U147" s="208"/>
+      <c r="V147" s="208"/>
+      <c r="W147" s="208"/>
+      <c r="X147" s="209"/>
+      <c r="Y147" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="219"/>
-      <c r="AA147" s="219"/>
-      <c r="AB147" s="219"/>
-      <c r="AC147" s="219"/>
-      <c r="AD147" s="220"/>
-      <c r="AE147" s="221" t="s">
+      <c r="Z147" s="208"/>
+      <c r="AA147" s="208"/>
+      <c r="AB147" s="208"/>
+      <c r="AC147" s="208"/>
+      <c r="AD147" s="209"/>
+      <c r="AE147" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="222"/>
-      <c r="AG147" s="222"/>
-      <c r="AH147" s="222"/>
-      <c r="AI147" s="222"/>
-      <c r="AJ147" s="223"/>
+      <c r="AF147" s="205"/>
+      <c r="AG147" s="205"/>
+      <c r="AH147" s="205"/>
+      <c r="AI147" s="205"/>
+      <c r="AJ147" s="206"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12094,30 +12439,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="218" t="s">
+      <c r="S148" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="219"/>
-      <c r="U148" s="219"/>
-      <c r="V148" s="219"/>
-      <c r="W148" s="219"/>
-      <c r="X148" s="220"/>
-      <c r="Y148" s="218" t="s">
+      <c r="T148" s="208"/>
+      <c r="U148" s="208"/>
+      <c r="V148" s="208"/>
+      <c r="W148" s="208"/>
+      <c r="X148" s="209"/>
+      <c r="Y148" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="219"/>
-      <c r="AA148" s="219"/>
-      <c r="AB148" s="219"/>
-      <c r="AC148" s="219"/>
-      <c r="AD148" s="220"/>
-      <c r="AE148" s="221" t="s">
+      <c r="Z148" s="208"/>
+      <c r="AA148" s="208"/>
+      <c r="AB148" s="208"/>
+      <c r="AC148" s="208"/>
+      <c r="AD148" s="209"/>
+      <c r="AE148" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="222"/>
-      <c r="AG148" s="222"/>
-      <c r="AH148" s="222"/>
-      <c r="AI148" s="222"/>
-      <c r="AJ148" s="223"/>
+      <c r="AF148" s="205"/>
+      <c r="AG148" s="205"/>
+      <c r="AH148" s="205"/>
+      <c r="AI148" s="205"/>
+      <c r="AJ148" s="206"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12141,30 +12486,30 @@
       <c r="P149" s="75"/>
       <c r="Q149" s="75"/>
       <c r="R149" s="76"/>
-      <c r="S149" s="172" t="s">
+      <c r="S149" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="173"/>
-      <c r="U149" s="173"/>
-      <c r="V149" s="173"/>
-      <c r="W149" s="173"/>
-      <c r="X149" s="174"/>
-      <c r="Y149" s="172" t="s">
+      <c r="T149" s="199"/>
+      <c r="U149" s="199"/>
+      <c r="V149" s="199"/>
+      <c r="W149" s="199"/>
+      <c r="X149" s="200"/>
+      <c r="Y149" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="173"/>
-      <c r="AA149" s="173"/>
-      <c r="AB149" s="173"/>
-      <c r="AC149" s="173"/>
-      <c r="AD149" s="174"/>
-      <c r="AE149" s="172" t="s">
+      <c r="Z149" s="199"/>
+      <c r="AA149" s="199"/>
+      <c r="AB149" s="199"/>
+      <c r="AC149" s="199"/>
+      <c r="AD149" s="200"/>
+      <c r="AE149" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="AF149" s="173"/>
-      <c r="AG149" s="173"/>
-      <c r="AH149" s="173"/>
-      <c r="AI149" s="173"/>
-      <c r="AJ149" s="174"/>
+      <c r="AF149" s="199"/>
+      <c r="AG149" s="199"/>
+      <c r="AH149" s="199"/>
+      <c r="AI149" s="199"/>
+      <c r="AJ149" s="200"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -12186,30 +12531,30 @@
       <c r="P150" s="75"/>
       <c r="Q150" s="75"/>
       <c r="R150" s="76"/>
-      <c r="S150" s="172" t="s">
+      <c r="S150" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="173"/>
-      <c r="U150" s="173"/>
-      <c r="V150" s="173"/>
-      <c r="W150" s="173"/>
-      <c r="X150" s="174"/>
-      <c r="Y150" s="172" t="s">
+      <c r="T150" s="199"/>
+      <c r="U150" s="199"/>
+      <c r="V150" s="199"/>
+      <c r="W150" s="199"/>
+      <c r="X150" s="200"/>
+      <c r="Y150" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="173"/>
-      <c r="AA150" s="173"/>
-      <c r="AB150" s="173"/>
-      <c r="AC150" s="173"/>
-      <c r="AD150" s="174"/>
-      <c r="AE150" s="172" t="s">
+      <c r="Z150" s="199"/>
+      <c r="AA150" s="199"/>
+      <c r="AB150" s="199"/>
+      <c r="AC150" s="199"/>
+      <c r="AD150" s="200"/>
+      <c r="AE150" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF150" s="173"/>
-      <c r="AG150" s="173"/>
-      <c r="AH150" s="173"/>
-      <c r="AI150" s="173"/>
-      <c r="AJ150" s="174"/>
+      <c r="AF150" s="199"/>
+      <c r="AG150" s="199"/>
+      <c r="AH150" s="199"/>
+      <c r="AI150" s="199"/>
+      <c r="AJ150" s="200"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12233,30 +12578,30 @@
       <c r="P151" s="75"/>
       <c r="Q151" s="75"/>
       <c r="R151" s="76"/>
-      <c r="S151" s="172" t="s">
+      <c r="S151" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="173"/>
-      <c r="U151" s="173"/>
-      <c r="V151" s="173"/>
-      <c r="W151" s="173"/>
-      <c r="X151" s="174"/>
-      <c r="Y151" s="172" t="s">
+      <c r="T151" s="199"/>
+      <c r="U151" s="199"/>
+      <c r="V151" s="199"/>
+      <c r="W151" s="199"/>
+      <c r="X151" s="200"/>
+      <c r="Y151" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="173"/>
-      <c r="AA151" s="173"/>
-      <c r="AB151" s="173"/>
-      <c r="AC151" s="173"/>
-      <c r="AD151" s="174"/>
-      <c r="AE151" s="172" t="s">
+      <c r="Z151" s="199"/>
+      <c r="AA151" s="199"/>
+      <c r="AB151" s="199"/>
+      <c r="AC151" s="199"/>
+      <c r="AD151" s="200"/>
+      <c r="AE151" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF151" s="173"/>
-      <c r="AG151" s="173"/>
-      <c r="AH151" s="173"/>
-      <c r="AI151" s="173"/>
-      <c r="AJ151" s="174"/>
+      <c r="AF151" s="199"/>
+      <c r="AG151" s="199"/>
+      <c r="AH151" s="199"/>
+      <c r="AI151" s="199"/>
+      <c r="AJ151" s="200"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12278,30 +12623,30 @@
       <c r="P152" s="75"/>
       <c r="Q152" s="75"/>
       <c r="R152" s="76"/>
-      <c r="S152" s="172" t="s">
+      <c r="S152" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="173"/>
-      <c r="U152" s="173"/>
-      <c r="V152" s="173"/>
-      <c r="W152" s="173"/>
-      <c r="X152" s="174"/>
-      <c r="Y152" s="172" t="s">
+      <c r="T152" s="199"/>
+      <c r="U152" s="199"/>
+      <c r="V152" s="199"/>
+      <c r="W152" s="199"/>
+      <c r="X152" s="200"/>
+      <c r="Y152" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="173"/>
-      <c r="AA152" s="173"/>
-      <c r="AB152" s="173"/>
-      <c r="AC152" s="173"/>
-      <c r="AD152" s="174"/>
-      <c r="AE152" s="172" t="s">
+      <c r="Z152" s="199"/>
+      <c r="AA152" s="199"/>
+      <c r="AB152" s="199"/>
+      <c r="AC152" s="199"/>
+      <c r="AD152" s="200"/>
+      <c r="AE152" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF152" s="173"/>
-      <c r="AG152" s="173"/>
-      <c r="AH152" s="173"/>
-      <c r="AI152" s="173"/>
-      <c r="AJ152" s="174"/>
+      <c r="AF152" s="199"/>
+      <c r="AG152" s="199"/>
+      <c r="AH152" s="199"/>
+      <c r="AI152" s="199"/>
+      <c r="AJ152" s="200"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12325,30 +12670,30 @@
       <c r="P153" s="75"/>
       <c r="Q153" s="75"/>
       <c r="R153" s="76"/>
-      <c r="S153" s="172" t="s">
+      <c r="S153" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="173"/>
-      <c r="U153" s="173"/>
-      <c r="V153" s="173"/>
-      <c r="W153" s="173"/>
-      <c r="X153" s="174"/>
-      <c r="Y153" s="172" t="s">
+      <c r="T153" s="199"/>
+      <c r="U153" s="199"/>
+      <c r="V153" s="199"/>
+      <c r="W153" s="199"/>
+      <c r="X153" s="200"/>
+      <c r="Y153" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="173"/>
-      <c r="AA153" s="173"/>
-      <c r="AB153" s="173"/>
-      <c r="AC153" s="173"/>
-      <c r="AD153" s="174"/>
-      <c r="AE153" s="175" t="s">
+      <c r="Z153" s="199"/>
+      <c r="AA153" s="199"/>
+      <c r="AB153" s="199"/>
+      <c r="AC153" s="199"/>
+      <c r="AD153" s="200"/>
+      <c r="AE153" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="AF153" s="176"/>
-      <c r="AG153" s="176"/>
-      <c r="AH153" s="176"/>
-      <c r="AI153" s="176"/>
-      <c r="AJ153" s="177"/>
+      <c r="AF153" s="211"/>
+      <c r="AG153" s="211"/>
+      <c r="AH153" s="211"/>
+      <c r="AI153" s="211"/>
+      <c r="AJ153" s="212"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12372,30 +12717,30 @@
       <c r="P154" s="75"/>
       <c r="Q154" s="75"/>
       <c r="R154" s="76"/>
-      <c r="S154" s="172" t="s">
+      <c r="S154" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="173"/>
-      <c r="U154" s="173"/>
-      <c r="V154" s="173"/>
-      <c r="W154" s="173"/>
-      <c r="X154" s="174"/>
-      <c r="Y154" s="172" t="s">
+      <c r="T154" s="199"/>
+      <c r="U154" s="199"/>
+      <c r="V154" s="199"/>
+      <c r="W154" s="199"/>
+      <c r="X154" s="200"/>
+      <c r="Y154" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="173"/>
-      <c r="AA154" s="173"/>
-      <c r="AB154" s="173"/>
-      <c r="AC154" s="173"/>
-      <c r="AD154" s="174"/>
-      <c r="AE154" s="172" t="s">
+      <c r="Z154" s="199"/>
+      <c r="AA154" s="199"/>
+      <c r="AB154" s="199"/>
+      <c r="AC154" s="199"/>
+      <c r="AD154" s="200"/>
+      <c r="AE154" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF154" s="173"/>
-      <c r="AG154" s="173"/>
-      <c r="AH154" s="173"/>
-      <c r="AI154" s="173"/>
-      <c r="AJ154" s="174"/>
+      <c r="AF154" s="199"/>
+      <c r="AG154" s="199"/>
+      <c r="AH154" s="199"/>
+      <c r="AI154" s="199"/>
+      <c r="AJ154" s="200"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12419,30 +12764,30 @@
       <c r="P155" s="75"/>
       <c r="Q155" s="75"/>
       <c r="R155" s="76"/>
-      <c r="S155" s="172" t="s">
+      <c r="S155" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="173"/>
-      <c r="U155" s="173"/>
-      <c r="V155" s="173"/>
-      <c r="W155" s="173"/>
-      <c r="X155" s="174"/>
-      <c r="Y155" s="172" t="s">
+      <c r="T155" s="199"/>
+      <c r="U155" s="199"/>
+      <c r="V155" s="199"/>
+      <c r="W155" s="199"/>
+      <c r="X155" s="200"/>
+      <c r="Y155" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="173"/>
-      <c r="AA155" s="173"/>
-      <c r="AB155" s="173"/>
-      <c r="AC155" s="173"/>
-      <c r="AD155" s="174"/>
-      <c r="AE155" s="175" t="s">
+      <c r="Z155" s="199"/>
+      <c r="AA155" s="199"/>
+      <c r="AB155" s="199"/>
+      <c r="AC155" s="199"/>
+      <c r="AD155" s="200"/>
+      <c r="AE155" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="AF155" s="176"/>
-      <c r="AG155" s="176"/>
-      <c r="AH155" s="176"/>
-      <c r="AI155" s="176"/>
-      <c r="AJ155" s="177"/>
+      <c r="AF155" s="211"/>
+      <c r="AG155" s="211"/>
+      <c r="AH155" s="211"/>
+      <c r="AI155" s="211"/>
+      <c r="AJ155" s="212"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12466,30 +12811,30 @@
       <c r="P156" s="75"/>
       <c r="Q156" s="75"/>
       <c r="R156" s="76"/>
-      <c r="S156" s="172" t="s">
+      <c r="S156" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="173"/>
-      <c r="U156" s="173"/>
-      <c r="V156" s="173"/>
-      <c r="W156" s="173"/>
-      <c r="X156" s="174"/>
-      <c r="Y156" s="172" t="s">
+      <c r="T156" s="199"/>
+      <c r="U156" s="199"/>
+      <c r="V156" s="199"/>
+      <c r="W156" s="199"/>
+      <c r="X156" s="200"/>
+      <c r="Y156" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="173"/>
-      <c r="AA156" s="173"/>
-      <c r="AB156" s="173"/>
-      <c r="AC156" s="173"/>
-      <c r="AD156" s="174"/>
-      <c r="AE156" s="172" t="s">
+      <c r="Z156" s="199"/>
+      <c r="AA156" s="199"/>
+      <c r="AB156" s="199"/>
+      <c r="AC156" s="199"/>
+      <c r="AD156" s="200"/>
+      <c r="AE156" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF156" s="173"/>
-      <c r="AG156" s="173"/>
-      <c r="AH156" s="173"/>
-      <c r="AI156" s="173"/>
-      <c r="AJ156" s="174"/>
+      <c r="AF156" s="199"/>
+      <c r="AG156" s="199"/>
+      <c r="AH156" s="199"/>
+      <c r="AI156" s="199"/>
+      <c r="AJ156" s="200"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12513,30 +12858,30 @@
       <c r="P157" s="75"/>
       <c r="Q157" s="75"/>
       <c r="R157" s="76"/>
-      <c r="S157" s="172" t="s">
+      <c r="S157" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="173"/>
-      <c r="U157" s="173"/>
-      <c r="V157" s="173"/>
-      <c r="W157" s="173"/>
-      <c r="X157" s="174"/>
-      <c r="Y157" s="172" t="s">
+      <c r="T157" s="199"/>
+      <c r="U157" s="199"/>
+      <c r="V157" s="199"/>
+      <c r="W157" s="199"/>
+      <c r="X157" s="200"/>
+      <c r="Y157" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="173"/>
-      <c r="AA157" s="173"/>
-      <c r="AB157" s="173"/>
-      <c r="AC157" s="173"/>
-      <c r="AD157" s="174"/>
-      <c r="AE157" s="172" t="s">
+      <c r="Z157" s="199"/>
+      <c r="AA157" s="199"/>
+      <c r="AB157" s="199"/>
+      <c r="AC157" s="199"/>
+      <c r="AD157" s="200"/>
+      <c r="AE157" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="AF157" s="173"/>
-      <c r="AG157" s="173"/>
-      <c r="AH157" s="173"/>
-      <c r="AI157" s="173"/>
-      <c r="AJ157" s="174"/>
+      <c r="AF157" s="199"/>
+      <c r="AG157" s="199"/>
+      <c r="AH157" s="199"/>
+      <c r="AI157" s="199"/>
+      <c r="AJ157" s="200"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12558,30 +12903,30 @@
       <c r="P158" s="75"/>
       <c r="Q158" s="75"/>
       <c r="R158" s="76"/>
-      <c r="S158" s="172" t="s">
+      <c r="S158" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="173"/>
-      <c r="U158" s="173"/>
-      <c r="V158" s="173"/>
-      <c r="W158" s="173"/>
-      <c r="X158" s="174"/>
-      <c r="Y158" s="172" t="s">
+      <c r="T158" s="199"/>
+      <c r="U158" s="199"/>
+      <c r="V158" s="199"/>
+      <c r="W158" s="199"/>
+      <c r="X158" s="200"/>
+      <c r="Y158" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="173"/>
-      <c r="AA158" s="173"/>
-      <c r="AB158" s="173"/>
-      <c r="AC158" s="173"/>
-      <c r="AD158" s="174"/>
-      <c r="AE158" s="172" t="s">
+      <c r="Z158" s="199"/>
+      <c r="AA158" s="199"/>
+      <c r="AB158" s="199"/>
+      <c r="AC158" s="199"/>
+      <c r="AD158" s="200"/>
+      <c r="AE158" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF158" s="173"/>
-      <c r="AG158" s="173"/>
-      <c r="AH158" s="173"/>
-      <c r="AI158" s="173"/>
-      <c r="AJ158" s="174"/>
+      <c r="AF158" s="199"/>
+      <c r="AG158" s="199"/>
+      <c r="AH158" s="199"/>
+      <c r="AI158" s="199"/>
+      <c r="AJ158" s="200"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12603,30 +12948,30 @@
       <c r="P159" s="134"/>
       <c r="Q159" s="134"/>
       <c r="R159" s="135"/>
-      <c r="S159" s="214" t="s">
+      <c r="S159" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="215"/>
-      <c r="U159" s="215"/>
-      <c r="V159" s="215"/>
-      <c r="W159" s="215"/>
-      <c r="X159" s="216"/>
-      <c r="Y159" s="214" t="s">
+      <c r="T159" s="196"/>
+      <c r="U159" s="196"/>
+      <c r="V159" s="196"/>
+      <c r="W159" s="196"/>
+      <c r="X159" s="197"/>
+      <c r="Y159" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="215"/>
-      <c r="AA159" s="215"/>
-      <c r="AB159" s="215"/>
-      <c r="AC159" s="215"/>
-      <c r="AD159" s="216"/>
-      <c r="AE159" s="214" t="s">
+      <c r="Z159" s="196"/>
+      <c r="AA159" s="196"/>
+      <c r="AB159" s="196"/>
+      <c r="AC159" s="196"/>
+      <c r="AD159" s="197"/>
+      <c r="AE159" s="195" t="s">
         <v>165</v>
       </c>
-      <c r="AF159" s="215"/>
-      <c r="AG159" s="215"/>
-      <c r="AH159" s="215"/>
-      <c r="AI159" s="215"/>
-      <c r="AJ159" s="216"/>
+      <c r="AF159" s="196"/>
+      <c r="AG159" s="196"/>
+      <c r="AH159" s="196"/>
+      <c r="AI159" s="196"/>
+      <c r="AJ159" s="197"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12648,30 +12993,30 @@
       <c r="P160" s="75"/>
       <c r="Q160" s="75"/>
       <c r="R160" s="76"/>
-      <c r="S160" s="172" t="s">
+      <c r="S160" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="173"/>
-      <c r="U160" s="173"/>
-      <c r="V160" s="173"/>
-      <c r="W160" s="173"/>
-      <c r="X160" s="174"/>
-      <c r="Y160" s="172" t="s">
+      <c r="T160" s="199"/>
+      <c r="U160" s="199"/>
+      <c r="V160" s="199"/>
+      <c r="W160" s="199"/>
+      <c r="X160" s="200"/>
+      <c r="Y160" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="173"/>
-      <c r="AA160" s="173"/>
-      <c r="AB160" s="173"/>
-      <c r="AC160" s="173"/>
-      <c r="AD160" s="174"/>
-      <c r="AE160" s="172" t="s">
+      <c r="Z160" s="199"/>
+      <c r="AA160" s="199"/>
+      <c r="AB160" s="199"/>
+      <c r="AC160" s="199"/>
+      <c r="AD160" s="200"/>
+      <c r="AE160" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF160" s="173"/>
-      <c r="AG160" s="173"/>
-      <c r="AH160" s="173"/>
-      <c r="AI160" s="173"/>
-      <c r="AJ160" s="174"/>
+      <c r="AF160" s="199"/>
+      <c r="AG160" s="199"/>
+      <c r="AH160" s="199"/>
+      <c r="AI160" s="199"/>
+      <c r="AJ160" s="200"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -12695,30 +13040,30 @@
       <c r="P161" s="75"/>
       <c r="Q161" s="75"/>
       <c r="R161" s="76"/>
-      <c r="S161" s="172" t="s">
+      <c r="S161" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="173"/>
-      <c r="U161" s="173"/>
-      <c r="V161" s="173"/>
-      <c r="W161" s="173"/>
-      <c r="X161" s="174"/>
-      <c r="Y161" s="175" t="s">
+      <c r="T161" s="199"/>
+      <c r="U161" s="199"/>
+      <c r="V161" s="199"/>
+      <c r="W161" s="199"/>
+      <c r="X161" s="200"/>
+      <c r="Y161" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="Z161" s="176"/>
-      <c r="AA161" s="176"/>
-      <c r="AB161" s="176"/>
-      <c r="AC161" s="176"/>
-      <c r="AD161" s="177"/>
-      <c r="AE161" s="190" t="s">
+      <c r="Z161" s="211"/>
+      <c r="AA161" s="211"/>
+      <c r="AB161" s="211"/>
+      <c r="AC161" s="211"/>
+      <c r="AD161" s="212"/>
+      <c r="AE161" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="AF161" s="191"/>
-      <c r="AG161" s="191"/>
-      <c r="AH161" s="191"/>
-      <c r="AI161" s="191"/>
-      <c r="AJ161" s="192"/>
+      <c r="AF161" s="214"/>
+      <c r="AG161" s="214"/>
+      <c r="AH161" s="214"/>
+      <c r="AI161" s="214"/>
+      <c r="AJ161" s="215"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -12742,30 +13087,30 @@
       <c r="P162" s="75"/>
       <c r="Q162" s="75"/>
       <c r="R162" s="76"/>
-      <c r="S162" s="172" t="s">
+      <c r="S162" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="173"/>
-      <c r="U162" s="173"/>
-      <c r="V162" s="173"/>
-      <c r="W162" s="173"/>
-      <c r="X162" s="174"/>
-      <c r="Y162" s="172" t="s">
+      <c r="T162" s="199"/>
+      <c r="U162" s="199"/>
+      <c r="V162" s="199"/>
+      <c r="W162" s="199"/>
+      <c r="X162" s="200"/>
+      <c r="Y162" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="173"/>
-      <c r="AA162" s="173"/>
-      <c r="AB162" s="173"/>
-      <c r="AC162" s="173"/>
-      <c r="AD162" s="174"/>
-      <c r="AE162" s="190" t="s">
+      <c r="Z162" s="199"/>
+      <c r="AA162" s="199"/>
+      <c r="AB162" s="199"/>
+      <c r="AC162" s="199"/>
+      <c r="AD162" s="200"/>
+      <c r="AE162" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="AF162" s="191"/>
-      <c r="AG162" s="191"/>
-      <c r="AH162" s="191"/>
-      <c r="AI162" s="191"/>
-      <c r="AJ162" s="192"/>
+      <c r="AF162" s="214"/>
+      <c r="AG162" s="214"/>
+      <c r="AH162" s="214"/>
+      <c r="AI162" s="214"/>
+      <c r="AJ162" s="215"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -12789,30 +13134,30 @@
       <c r="P163" s="75"/>
       <c r="Q163" s="75"/>
       <c r="R163" s="76"/>
-      <c r="S163" s="172" t="s">
+      <c r="S163" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="173"/>
-      <c r="U163" s="173"/>
-      <c r="V163" s="173"/>
-      <c r="W163" s="173"/>
-      <c r="X163" s="174"/>
-      <c r="Y163" s="172" t="s">
+      <c r="T163" s="199"/>
+      <c r="U163" s="199"/>
+      <c r="V163" s="199"/>
+      <c r="W163" s="199"/>
+      <c r="X163" s="200"/>
+      <c r="Y163" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="173"/>
-      <c r="AA163" s="173"/>
-      <c r="AB163" s="173"/>
-      <c r="AC163" s="173"/>
-      <c r="AD163" s="174"/>
-      <c r="AE163" s="190" t="s">
+      <c r="Z163" s="199"/>
+      <c r="AA163" s="199"/>
+      <c r="AB163" s="199"/>
+      <c r="AC163" s="199"/>
+      <c r="AD163" s="200"/>
+      <c r="AE163" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="AF163" s="191"/>
-      <c r="AG163" s="191"/>
-      <c r="AH163" s="191"/>
-      <c r="AI163" s="191"/>
-      <c r="AJ163" s="192"/>
+      <c r="AF163" s="214"/>
+      <c r="AG163" s="214"/>
+      <c r="AH163" s="214"/>
+      <c r="AI163" s="214"/>
+      <c r="AJ163" s="215"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -12836,30 +13181,30 @@
       <c r="P164" s="75"/>
       <c r="Q164" s="75"/>
       <c r="R164" s="76"/>
-      <c r="S164" s="172" t="s">
+      <c r="S164" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="173"/>
-      <c r="U164" s="173"/>
-      <c r="V164" s="173"/>
-      <c r="W164" s="173"/>
-      <c r="X164" s="174"/>
-      <c r="Y164" s="172" t="s">
+      <c r="T164" s="199"/>
+      <c r="U164" s="199"/>
+      <c r="V164" s="199"/>
+      <c r="W164" s="199"/>
+      <c r="X164" s="200"/>
+      <c r="Y164" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="173"/>
-      <c r="AA164" s="173"/>
-      <c r="AB164" s="173"/>
-      <c r="AC164" s="173"/>
-      <c r="AD164" s="174"/>
-      <c r="AE164" s="190" t="s">
+      <c r="Z164" s="199"/>
+      <c r="AA164" s="199"/>
+      <c r="AB164" s="199"/>
+      <c r="AC164" s="199"/>
+      <c r="AD164" s="200"/>
+      <c r="AE164" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="AF164" s="191"/>
-      <c r="AG164" s="191"/>
-      <c r="AH164" s="191"/>
-      <c r="AI164" s="191"/>
-      <c r="AJ164" s="192"/>
+      <c r="AF164" s="214"/>
+      <c r="AG164" s="214"/>
+      <c r="AH164" s="214"/>
+      <c r="AI164" s="214"/>
+      <c r="AJ164" s="215"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -12883,30 +13228,30 @@
       <c r="P165" s="75"/>
       <c r="Q165" s="75"/>
       <c r="R165" s="76"/>
-      <c r="S165" s="172" t="s">
+      <c r="S165" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="173"/>
-      <c r="U165" s="173"/>
-      <c r="V165" s="173"/>
-      <c r="W165" s="173"/>
-      <c r="X165" s="174"/>
-      <c r="Y165" s="172" t="s">
+      <c r="T165" s="199"/>
+      <c r="U165" s="199"/>
+      <c r="V165" s="199"/>
+      <c r="W165" s="199"/>
+      <c r="X165" s="200"/>
+      <c r="Y165" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="173"/>
-      <c r="AA165" s="173"/>
-      <c r="AB165" s="173"/>
-      <c r="AC165" s="173"/>
-      <c r="AD165" s="174"/>
-      <c r="AE165" s="172" t="s">
+      <c r="Z165" s="199"/>
+      <c r="AA165" s="199"/>
+      <c r="AB165" s="199"/>
+      <c r="AC165" s="199"/>
+      <c r="AD165" s="200"/>
+      <c r="AE165" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AF165" s="173"/>
-      <c r="AG165" s="173"/>
-      <c r="AH165" s="173"/>
-      <c r="AI165" s="173"/>
-      <c r="AJ165" s="174"/>
+      <c r="AF165" s="199"/>
+      <c r="AG165" s="199"/>
+      <c r="AH165" s="199"/>
+      <c r="AI165" s="199"/>
+      <c r="AJ165" s="200"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -12930,30 +13275,30 @@
       <c r="P166" s="75"/>
       <c r="Q166" s="75"/>
       <c r="R166" s="76"/>
-      <c r="S166" s="172" t="s">
+      <c r="S166" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="173"/>
-      <c r="U166" s="173"/>
-      <c r="V166" s="173"/>
-      <c r="W166" s="173"/>
-      <c r="X166" s="174"/>
-      <c r="Y166" s="172" t="s">
+      <c r="T166" s="199"/>
+      <c r="U166" s="199"/>
+      <c r="V166" s="199"/>
+      <c r="W166" s="199"/>
+      <c r="X166" s="200"/>
+      <c r="Y166" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z166" s="173"/>
-      <c r="AA166" s="173"/>
-      <c r="AB166" s="173"/>
-      <c r="AC166" s="173"/>
-      <c r="AD166" s="174"/>
-      <c r="AE166" s="190" t="s">
+      <c r="Z166" s="199"/>
+      <c r="AA166" s="199"/>
+      <c r="AB166" s="199"/>
+      <c r="AC166" s="199"/>
+      <c r="AD166" s="200"/>
+      <c r="AE166" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="191"/>
-      <c r="AG166" s="191"/>
-      <c r="AH166" s="191"/>
-      <c r="AI166" s="191"/>
-      <c r="AJ166" s="192"/>
+      <c r="AF166" s="214"/>
+      <c r="AG166" s="214"/>
+      <c r="AH166" s="214"/>
+      <c r="AI166" s="214"/>
+      <c r="AJ166" s="215"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -12975,30 +13320,30 @@
       <c r="P167" s="75"/>
       <c r="Q167" s="75"/>
       <c r="R167" s="76"/>
-      <c r="S167" s="172" t="s">
+      <c r="S167" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="173"/>
-      <c r="U167" s="173"/>
-      <c r="V167" s="173"/>
-      <c r="W167" s="173"/>
-      <c r="X167" s="174"/>
-      <c r="Y167" s="172" t="s">
+      <c r="T167" s="199"/>
+      <c r="U167" s="199"/>
+      <c r="V167" s="199"/>
+      <c r="W167" s="199"/>
+      <c r="X167" s="200"/>
+      <c r="Y167" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="173"/>
-      <c r="AA167" s="173"/>
-      <c r="AB167" s="173"/>
-      <c r="AC167" s="173"/>
-      <c r="AD167" s="174"/>
-      <c r="AE167" s="172" t="s">
+      <c r="Z167" s="199"/>
+      <c r="AA167" s="199"/>
+      <c r="AB167" s="199"/>
+      <c r="AC167" s="199"/>
+      <c r="AD167" s="200"/>
+      <c r="AE167" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF167" s="173"/>
-      <c r="AG167" s="173"/>
-      <c r="AH167" s="173"/>
-      <c r="AI167" s="173"/>
-      <c r="AJ167" s="174"/>
+      <c r="AF167" s="199"/>
+      <c r="AG167" s="199"/>
+      <c r="AH167" s="199"/>
+      <c r="AI167" s="199"/>
+      <c r="AJ167" s="200"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -13022,30 +13367,30 @@
       <c r="P168" s="134"/>
       <c r="Q168" s="134"/>
       <c r="R168" s="135"/>
-      <c r="S168" s="172" t="s">
+      <c r="S168" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="173"/>
-      <c r="U168" s="173"/>
-      <c r="V168" s="173"/>
-      <c r="W168" s="173"/>
-      <c r="X168" s="174"/>
-      <c r="Y168" s="175" t="s">
+      <c r="T168" s="199"/>
+      <c r="U168" s="199"/>
+      <c r="V168" s="199"/>
+      <c r="W168" s="199"/>
+      <c r="X168" s="200"/>
+      <c r="Y168" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="Z168" s="176"/>
-      <c r="AA168" s="176"/>
-      <c r="AB168" s="176"/>
-      <c r="AC168" s="176"/>
-      <c r="AD168" s="177"/>
-      <c r="AE168" s="175" t="s">
+      <c r="Z168" s="211"/>
+      <c r="AA168" s="211"/>
+      <c r="AB168" s="211"/>
+      <c r="AC168" s="211"/>
+      <c r="AD168" s="212"/>
+      <c r="AE168" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF168" s="176"/>
-      <c r="AG168" s="176"/>
-      <c r="AH168" s="176"/>
-      <c r="AI168" s="176"/>
-      <c r="AJ168" s="177"/>
+      <c r="AF168" s="211"/>
+      <c r="AG168" s="211"/>
+      <c r="AH168" s="211"/>
+      <c r="AI168" s="211"/>
+      <c r="AJ168" s="212"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -13067,30 +13412,30 @@
       <c r="P169" s="75"/>
       <c r="Q169" s="75"/>
       <c r="R169" s="76"/>
-      <c r="S169" s="172" t="s">
+      <c r="S169" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="173"/>
-      <c r="U169" s="173"/>
-      <c r="V169" s="173"/>
-      <c r="W169" s="173"/>
-      <c r="X169" s="174"/>
-      <c r="Y169" s="172" t="s">
+      <c r="T169" s="199"/>
+      <c r="U169" s="199"/>
+      <c r="V169" s="199"/>
+      <c r="W169" s="199"/>
+      <c r="X169" s="200"/>
+      <c r="Y169" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="173"/>
-      <c r="AA169" s="173"/>
-      <c r="AB169" s="173"/>
-      <c r="AC169" s="173"/>
-      <c r="AD169" s="174"/>
-      <c r="AE169" s="175" t="s">
+      <c r="Z169" s="199"/>
+      <c r="AA169" s="199"/>
+      <c r="AB169" s="199"/>
+      <c r="AC169" s="199"/>
+      <c r="AD169" s="200"/>
+      <c r="AE169" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="AF169" s="176"/>
-      <c r="AG169" s="176"/>
-      <c r="AH169" s="176"/>
-      <c r="AI169" s="176"/>
-      <c r="AJ169" s="177"/>
+      <c r="AF169" s="211"/>
+      <c r="AG169" s="211"/>
+      <c r="AH169" s="211"/>
+      <c r="AI169" s="211"/>
+      <c r="AJ169" s="212"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13112,30 +13457,30 @@
       <c r="P170" s="75"/>
       <c r="Q170" s="75"/>
       <c r="R170" s="76"/>
-      <c r="S170" s="172" t="s">
+      <c r="S170" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="173"/>
-      <c r="U170" s="173"/>
-      <c r="V170" s="173"/>
-      <c r="W170" s="173"/>
-      <c r="X170" s="174"/>
-      <c r="Y170" s="172" t="s">
+      <c r="T170" s="199"/>
+      <c r="U170" s="199"/>
+      <c r="V170" s="199"/>
+      <c r="W170" s="199"/>
+      <c r="X170" s="200"/>
+      <c r="Y170" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="173"/>
-      <c r="AA170" s="173"/>
-      <c r="AB170" s="173"/>
-      <c r="AC170" s="173"/>
-      <c r="AD170" s="174"/>
-      <c r="AE170" s="175" t="s">
+      <c r="Z170" s="199"/>
+      <c r="AA170" s="199"/>
+      <c r="AB170" s="199"/>
+      <c r="AC170" s="199"/>
+      <c r="AD170" s="200"/>
+      <c r="AE170" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="AF170" s="176"/>
-      <c r="AG170" s="176"/>
-      <c r="AH170" s="176"/>
-      <c r="AI170" s="176"/>
-      <c r="AJ170" s="177"/>
+      <c r="AF170" s="211"/>
+      <c r="AG170" s="211"/>
+      <c r="AH170" s="211"/>
+      <c r="AI170" s="211"/>
+      <c r="AJ170" s="212"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13157,30 +13502,30 @@
       <c r="P171" s="75"/>
       <c r="Q171" s="75"/>
       <c r="R171" s="76"/>
-      <c r="S171" s="172" t="s">
+      <c r="S171" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="173"/>
-      <c r="U171" s="173"/>
-      <c r="V171" s="173"/>
-      <c r="W171" s="173"/>
-      <c r="X171" s="174"/>
-      <c r="Y171" s="172" t="s">
+      <c r="T171" s="199"/>
+      <c r="U171" s="199"/>
+      <c r="V171" s="199"/>
+      <c r="W171" s="199"/>
+      <c r="X171" s="200"/>
+      <c r="Y171" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="173"/>
-      <c r="AA171" s="173"/>
-      <c r="AB171" s="173"/>
-      <c r="AC171" s="173"/>
-      <c r="AD171" s="174"/>
-      <c r="AE171" s="175" t="s">
+      <c r="Z171" s="199"/>
+      <c r="AA171" s="199"/>
+      <c r="AB171" s="199"/>
+      <c r="AC171" s="199"/>
+      <c r="AD171" s="200"/>
+      <c r="AE171" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF171" s="176"/>
-      <c r="AG171" s="176"/>
-      <c r="AH171" s="176"/>
-      <c r="AI171" s="176"/>
-      <c r="AJ171" s="177"/>
+      <c r="AF171" s="211"/>
+      <c r="AG171" s="211"/>
+      <c r="AH171" s="211"/>
+      <c r="AI171" s="211"/>
+      <c r="AJ171" s="212"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13202,30 +13547,30 @@
       <c r="P172" s="75"/>
       <c r="Q172" s="75"/>
       <c r="R172" s="76"/>
-      <c r="S172" s="172" t="s">
+      <c r="S172" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="173"/>
-      <c r="U172" s="173"/>
-      <c r="V172" s="173"/>
-      <c r="W172" s="173"/>
-      <c r="X172" s="174"/>
-      <c r="Y172" s="172" t="s">
+      <c r="T172" s="199"/>
+      <c r="U172" s="199"/>
+      <c r="V172" s="199"/>
+      <c r="W172" s="199"/>
+      <c r="X172" s="200"/>
+      <c r="Y172" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="173"/>
-      <c r="AA172" s="173"/>
-      <c r="AB172" s="173"/>
-      <c r="AC172" s="173"/>
-      <c r="AD172" s="174"/>
-      <c r="AE172" s="172" t="s">
+      <c r="Z172" s="199"/>
+      <c r="AA172" s="199"/>
+      <c r="AB172" s="199"/>
+      <c r="AC172" s="199"/>
+      <c r="AD172" s="200"/>
+      <c r="AE172" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AF172" s="173"/>
-      <c r="AG172" s="173"/>
-      <c r="AH172" s="173"/>
-      <c r="AI172" s="173"/>
-      <c r="AJ172" s="174"/>
+      <c r="AF172" s="199"/>
+      <c r="AG172" s="199"/>
+      <c r="AH172" s="199"/>
+      <c r="AI172" s="199"/>
+      <c r="AJ172" s="200"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13247,30 +13592,30 @@
       <c r="P173" s="75"/>
       <c r="Q173" s="75"/>
       <c r="R173" s="76"/>
-      <c r="S173" s="172" t="s">
+      <c r="S173" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="173"/>
-      <c r="U173" s="173"/>
-      <c r="V173" s="173"/>
-      <c r="W173" s="173"/>
-      <c r="X173" s="174"/>
-      <c r="Y173" s="172" t="s">
+      <c r="T173" s="199"/>
+      <c r="U173" s="199"/>
+      <c r="V173" s="199"/>
+      <c r="W173" s="199"/>
+      <c r="X173" s="200"/>
+      <c r="Y173" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="173"/>
-      <c r="AA173" s="173"/>
-      <c r="AB173" s="173"/>
-      <c r="AC173" s="173"/>
-      <c r="AD173" s="174"/>
-      <c r="AE173" s="175" t="s">
+      <c r="Z173" s="199"/>
+      <c r="AA173" s="199"/>
+      <c r="AB173" s="199"/>
+      <c r="AC173" s="199"/>
+      <c r="AD173" s="200"/>
+      <c r="AE173" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF173" s="176"/>
-      <c r="AG173" s="176"/>
-      <c r="AH173" s="176"/>
-      <c r="AI173" s="176"/>
-      <c r="AJ173" s="177"/>
+      <c r="AF173" s="211"/>
+      <c r="AG173" s="211"/>
+      <c r="AH173" s="211"/>
+      <c r="AI173" s="211"/>
+      <c r="AJ173" s="212"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13292,30 +13637,30 @@
       <c r="P174" s="75"/>
       <c r="Q174" s="75"/>
       <c r="R174" s="76"/>
-      <c r="S174" s="172" t="s">
+      <c r="S174" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="173"/>
-      <c r="U174" s="173"/>
-      <c r="V174" s="173"/>
-      <c r="W174" s="173"/>
-      <c r="X174" s="174"/>
-      <c r="Y174" s="172" t="s">
+      <c r="T174" s="199"/>
+      <c r="U174" s="199"/>
+      <c r="V174" s="199"/>
+      <c r="W174" s="199"/>
+      <c r="X174" s="200"/>
+      <c r="Y174" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="Z174" s="173"/>
-      <c r="AA174" s="173"/>
-      <c r="AB174" s="173"/>
-      <c r="AC174" s="173"/>
-      <c r="AD174" s="174"/>
-      <c r="AE174" s="172" t="s">
+      <c r="Z174" s="199"/>
+      <c r="AA174" s="199"/>
+      <c r="AB174" s="199"/>
+      <c r="AC174" s="199"/>
+      <c r="AD174" s="200"/>
+      <c r="AE174" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="AF174" s="173"/>
-      <c r="AG174" s="173"/>
-      <c r="AH174" s="173"/>
-      <c r="AI174" s="173"/>
-      <c r="AJ174" s="174"/>
+      <c r="AF174" s="199"/>
+      <c r="AG174" s="199"/>
+      <c r="AH174" s="199"/>
+      <c r="AI174" s="199"/>
+      <c r="AJ174" s="200"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13339,30 +13684,30 @@
       <c r="P175" s="134"/>
       <c r="Q175" s="134"/>
       <c r="R175" s="135"/>
-      <c r="S175" s="172" t="s">
+      <c r="S175" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="173"/>
-      <c r="U175" s="173"/>
-      <c r="V175" s="173"/>
-      <c r="W175" s="173"/>
-      <c r="X175" s="174"/>
-      <c r="Y175" s="172" t="s">
+      <c r="T175" s="199"/>
+      <c r="U175" s="199"/>
+      <c r="V175" s="199"/>
+      <c r="W175" s="199"/>
+      <c r="X175" s="200"/>
+      <c r="Y175" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="Z175" s="173"/>
-      <c r="AA175" s="173"/>
-      <c r="AB175" s="173"/>
-      <c r="AC175" s="173"/>
-      <c r="AD175" s="174"/>
-      <c r="AE175" s="172" t="s">
+      <c r="Z175" s="199"/>
+      <c r="AA175" s="199"/>
+      <c r="AB175" s="199"/>
+      <c r="AC175" s="199"/>
+      <c r="AD175" s="200"/>
+      <c r="AE175" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="AF175" s="173"/>
-      <c r="AG175" s="173"/>
-      <c r="AH175" s="173"/>
-      <c r="AI175" s="173"/>
-      <c r="AJ175" s="174"/>
+      <c r="AF175" s="199"/>
+      <c r="AG175" s="199"/>
+      <c r="AH175" s="199"/>
+      <c r="AI175" s="199"/>
+      <c r="AJ175" s="200"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13386,30 +13731,30 @@
       <c r="P176" s="75"/>
       <c r="Q176" s="75"/>
       <c r="R176" s="76"/>
-      <c r="S176" s="172" t="s">
+      <c r="S176" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="173"/>
-      <c r="U176" s="173"/>
-      <c r="V176" s="173"/>
-      <c r="W176" s="173"/>
-      <c r="X176" s="174"/>
-      <c r="Y176" s="175" t="s">
+      <c r="T176" s="199"/>
+      <c r="U176" s="199"/>
+      <c r="V176" s="199"/>
+      <c r="W176" s="199"/>
+      <c r="X176" s="200"/>
+      <c r="Y176" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="176"/>
-      <c r="AA176" s="176"/>
-      <c r="AB176" s="176"/>
-      <c r="AC176" s="176"/>
-      <c r="AD176" s="177"/>
-      <c r="AE176" s="172" t="s">
+      <c r="Z176" s="211"/>
+      <c r="AA176" s="211"/>
+      <c r="AB176" s="211"/>
+      <c r="AC176" s="211"/>
+      <c r="AD176" s="212"/>
+      <c r="AE176" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="AF176" s="173"/>
-      <c r="AG176" s="173"/>
-      <c r="AH176" s="173"/>
-      <c r="AI176" s="173"/>
-      <c r="AJ176" s="174"/>
+      <c r="AF176" s="199"/>
+      <c r="AG176" s="199"/>
+      <c r="AH176" s="199"/>
+      <c r="AI176" s="199"/>
+      <c r="AJ176" s="200"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13433,30 +13778,30 @@
       <c r="P177" s="75"/>
       <c r="Q177" s="75"/>
       <c r="R177" s="76"/>
-      <c r="S177" s="172" t="s">
+      <c r="S177" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T177" s="173"/>
-      <c r="U177" s="173"/>
-      <c r="V177" s="173"/>
-      <c r="W177" s="173"/>
-      <c r="X177" s="174"/>
-      <c r="Y177" s="175" t="s">
+      <c r="T177" s="199"/>
+      <c r="U177" s="199"/>
+      <c r="V177" s="199"/>
+      <c r="W177" s="199"/>
+      <c r="X177" s="200"/>
+      <c r="Y177" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="176"/>
-      <c r="AA177" s="176"/>
-      <c r="AB177" s="176"/>
-      <c r="AC177" s="176"/>
-      <c r="AD177" s="177"/>
-      <c r="AE177" s="172" t="s">
+      <c r="Z177" s="211"/>
+      <c r="AA177" s="211"/>
+      <c r="AB177" s="211"/>
+      <c r="AC177" s="211"/>
+      <c r="AD177" s="212"/>
+      <c r="AE177" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="173"/>
-      <c r="AG177" s="173"/>
-      <c r="AH177" s="173"/>
-      <c r="AI177" s="173"/>
-      <c r="AJ177" s="174"/>
+      <c r="AF177" s="199"/>
+      <c r="AG177" s="199"/>
+      <c r="AH177" s="199"/>
+      <c r="AI177" s="199"/>
+      <c r="AJ177" s="200"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13478,30 +13823,30 @@
       <c r="P178" s="75"/>
       <c r="Q178" s="75"/>
       <c r="R178" s="76"/>
-      <c r="S178" s="172" t="s">
+      <c r="S178" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T178" s="173"/>
-      <c r="U178" s="173"/>
-      <c r="V178" s="173"/>
-      <c r="W178" s="173"/>
-      <c r="X178" s="174"/>
-      <c r="Y178" s="175" t="s">
+      <c r="T178" s="199"/>
+      <c r="U178" s="199"/>
+      <c r="V178" s="199"/>
+      <c r="W178" s="199"/>
+      <c r="X178" s="200"/>
+      <c r="Y178" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="176"/>
-      <c r="AA178" s="176"/>
-      <c r="AB178" s="176"/>
-      <c r="AC178" s="176"/>
-      <c r="AD178" s="177"/>
-      <c r="AE178" s="172" t="s">
+      <c r="Z178" s="211"/>
+      <c r="AA178" s="211"/>
+      <c r="AB178" s="211"/>
+      <c r="AC178" s="211"/>
+      <c r="AD178" s="212"/>
+      <c r="AE178" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="AF178" s="173"/>
-      <c r="AG178" s="173"/>
-      <c r="AH178" s="173"/>
-      <c r="AI178" s="173"/>
-      <c r="AJ178" s="174"/>
+      <c r="AF178" s="199"/>
+      <c r="AG178" s="199"/>
+      <c r="AH178" s="199"/>
+      <c r="AI178" s="199"/>
+      <c r="AJ178" s="200"/>
       <c r="AP178" s="5"/>
       <c r="AQ178" s="2"/>
     </row>
@@ -13523,30 +13868,30 @@
       <c r="P179" s="75"/>
       <c r="Q179" s="75"/>
       <c r="R179" s="76"/>
-      <c r="S179" s="172" t="s">
+      <c r="S179" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T179" s="173"/>
-      <c r="U179" s="173"/>
-      <c r="V179" s="173"/>
-      <c r="W179" s="173"/>
-      <c r="X179" s="174"/>
-      <c r="Y179" s="175" t="s">
+      <c r="T179" s="199"/>
+      <c r="U179" s="199"/>
+      <c r="V179" s="199"/>
+      <c r="W179" s="199"/>
+      <c r="X179" s="200"/>
+      <c r="Y179" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="176"/>
-      <c r="AA179" s="176"/>
-      <c r="AB179" s="176"/>
-      <c r="AC179" s="176"/>
-      <c r="AD179" s="177"/>
-      <c r="AE179" s="175" t="s">
+      <c r="Z179" s="211"/>
+      <c r="AA179" s="211"/>
+      <c r="AB179" s="211"/>
+      <c r="AC179" s="211"/>
+      <c r="AD179" s="212"/>
+      <c r="AE179" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="176"/>
-      <c r="AG179" s="176"/>
-      <c r="AH179" s="176"/>
-      <c r="AI179" s="176"/>
-      <c r="AJ179" s="177"/>
+      <c r="AF179" s="211"/>
+      <c r="AG179" s="211"/>
+      <c r="AH179" s="211"/>
+      <c r="AI179" s="211"/>
+      <c r="AJ179" s="212"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13568,30 +13913,30 @@
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="175" t="s">
+      <c r="S180" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="176"/>
-      <c r="U180" s="176"/>
-      <c r="V180" s="176"/>
-      <c r="W180" s="176"/>
-      <c r="X180" s="177"/>
-      <c r="Y180" s="175" t="s">
+      <c r="T180" s="211"/>
+      <c r="U180" s="211"/>
+      <c r="V180" s="211"/>
+      <c r="W180" s="211"/>
+      <c r="X180" s="212"/>
+      <c r="Y180" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="176"/>
-      <c r="AA180" s="176"/>
-      <c r="AB180" s="176"/>
-      <c r="AC180" s="176"/>
-      <c r="AD180" s="177"/>
-      <c r="AE180" s="175" t="s">
+      <c r="Z180" s="211"/>
+      <c r="AA180" s="211"/>
+      <c r="AB180" s="211"/>
+      <c r="AC180" s="211"/>
+      <c r="AD180" s="212"/>
+      <c r="AE180" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="176"/>
-      <c r="AG180" s="176"/>
-      <c r="AH180" s="176"/>
-      <c r="AI180" s="176"/>
-      <c r="AJ180" s="177"/>
+      <c r="AF180" s="211"/>
+      <c r="AG180" s="211"/>
+      <c r="AH180" s="211"/>
+      <c r="AI180" s="211"/>
+      <c r="AJ180" s="212"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13613,30 +13958,30 @@
       <c r="P181" s="149"/>
       <c r="Q181" s="149"/>
       <c r="R181" s="150"/>
-      <c r="S181" s="227" t="s">
+      <c r="S181" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="228"/>
-      <c r="U181" s="228"/>
-      <c r="V181" s="228"/>
-      <c r="W181" s="228"/>
-      <c r="X181" s="229"/>
-      <c r="Y181" s="227" t="s">
+      <c r="T181" s="202"/>
+      <c r="U181" s="202"/>
+      <c r="V181" s="202"/>
+      <c r="W181" s="202"/>
+      <c r="X181" s="203"/>
+      <c r="Y181" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="228"/>
-      <c r="AA181" s="228"/>
-      <c r="AB181" s="228"/>
-      <c r="AC181" s="228"/>
-      <c r="AD181" s="229"/>
-      <c r="AE181" s="227" t="s">
+      <c r="Z181" s="202"/>
+      <c r="AA181" s="202"/>
+      <c r="AB181" s="202"/>
+      <c r="AC181" s="202"/>
+      <c r="AD181" s="203"/>
+      <c r="AE181" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="228"/>
-      <c r="AG181" s="228"/>
-      <c r="AH181" s="228"/>
-      <c r="AI181" s="228"/>
-      <c r="AJ181" s="229"/>
+      <c r="AF181" s="202"/>
+      <c r="AG181" s="202"/>
+      <c r="AH181" s="202"/>
+      <c r="AI181" s="202"/>
+      <c r="AJ181" s="203"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -13658,30 +14003,30 @@
       <c r="P182" s="75"/>
       <c r="Q182" s="75"/>
       <c r="R182" s="76"/>
-      <c r="S182" s="172" t="s">
+      <c r="S182" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T182" s="173"/>
-      <c r="U182" s="173"/>
-      <c r="V182" s="173"/>
-      <c r="W182" s="173"/>
-      <c r="X182" s="174"/>
-      <c r="Y182" s="172" t="s">
+      <c r="T182" s="199"/>
+      <c r="U182" s="199"/>
+      <c r="V182" s="199"/>
+      <c r="W182" s="199"/>
+      <c r="X182" s="200"/>
+      <c r="Y182" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="Z182" s="173"/>
-      <c r="AA182" s="173"/>
-      <c r="AB182" s="173"/>
-      <c r="AC182" s="173"/>
-      <c r="AD182" s="174"/>
-      <c r="AE182" s="172" t="s">
+      <c r="Z182" s="199"/>
+      <c r="AA182" s="199"/>
+      <c r="AB182" s="199"/>
+      <c r="AC182" s="199"/>
+      <c r="AD182" s="200"/>
+      <c r="AE182" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="AF182" s="173"/>
-      <c r="AG182" s="173"/>
-      <c r="AH182" s="173"/>
-      <c r="AI182" s="173"/>
-      <c r="AJ182" s="174"/>
+      <c r="AF182" s="199"/>
+      <c r="AG182" s="199"/>
+      <c r="AH182" s="199"/>
+      <c r="AI182" s="199"/>
+      <c r="AJ182" s="200"/>
       <c r="AP182" s="5"/>
       <c r="AQ182" s="2"/>
     </row>
@@ -13703,30 +14048,30 @@
       <c r="P183" s="149"/>
       <c r="Q183" s="149"/>
       <c r="R183" s="150"/>
-      <c r="S183" s="227" t="s">
+      <c r="S183" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="228"/>
-      <c r="U183" s="228"/>
-      <c r="V183" s="228"/>
-      <c r="W183" s="228"/>
-      <c r="X183" s="229"/>
-      <c r="Y183" s="227" t="s">
+      <c r="T183" s="202"/>
+      <c r="U183" s="202"/>
+      <c r="V183" s="202"/>
+      <c r="W183" s="202"/>
+      <c r="X183" s="203"/>
+      <c r="Y183" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="228"/>
-      <c r="AA183" s="228"/>
-      <c r="AB183" s="228"/>
-      <c r="AC183" s="228"/>
-      <c r="AD183" s="229"/>
-      <c r="AE183" s="227" t="s">
+      <c r="Z183" s="202"/>
+      <c r="AA183" s="202"/>
+      <c r="AB183" s="202"/>
+      <c r="AC183" s="202"/>
+      <c r="AD183" s="203"/>
+      <c r="AE183" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="228"/>
-      <c r="AG183" s="228"/>
-      <c r="AH183" s="228"/>
-      <c r="AI183" s="228"/>
-      <c r="AJ183" s="229"/>
+      <c r="AF183" s="202"/>
+      <c r="AG183" s="202"/>
+      <c r="AH183" s="202"/>
+      <c r="AI183" s="202"/>
+      <c r="AJ183" s="203"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -13748,30 +14093,30 @@
       <c r="P184" s="152"/>
       <c r="Q184" s="152"/>
       <c r="R184" s="153"/>
-      <c r="S184" s="224" t="s">
+      <c r="S184" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="225"/>
-      <c r="U184" s="225"/>
-      <c r="V184" s="225"/>
-      <c r="W184" s="225"/>
-      <c r="X184" s="226"/>
-      <c r="Y184" s="224" t="s">
+      <c r="T184" s="248"/>
+      <c r="U184" s="248"/>
+      <c r="V184" s="248"/>
+      <c r="W184" s="248"/>
+      <c r="X184" s="249"/>
+      <c r="Y184" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="225"/>
-      <c r="AA184" s="225"/>
-      <c r="AB184" s="225"/>
-      <c r="AC184" s="225"/>
-      <c r="AD184" s="226"/>
-      <c r="AE184" s="224" t="s">
+      <c r="Z184" s="248"/>
+      <c r="AA184" s="248"/>
+      <c r="AB184" s="248"/>
+      <c r="AC184" s="248"/>
+      <c r="AD184" s="249"/>
+      <c r="AE184" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="225"/>
-      <c r="AG184" s="225"/>
-      <c r="AH184" s="225"/>
-      <c r="AI184" s="225"/>
-      <c r="AJ184" s="226"/>
+      <c r="AF184" s="248"/>
+      <c r="AG184" s="248"/>
+      <c r="AH184" s="248"/>
+      <c r="AI184" s="248"/>
+      <c r="AJ184" s="249"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -15684,7 +16029,7 @@
         <v>11</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="F233" s="92"/>
       <c r="G233" s="92"/>
@@ -15726,9 +16071,6 @@
     </row>
     <row r="234" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="10"/>
       <c r="F234" s="92"/>
       <c r="G234" s="92"/>
       <c r="H234" s="92"/>
@@ -15769,20 +16111,19 @@
     </row>
     <row r="235" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
-      <c r="B235" s="9"/>
       <c r="C235" s="61" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="D235" s="62"/>
       <c r="E235" s="62"/>
       <c r="F235" s="62"/>
       <c r="G235" s="62"/>
-      <c r="H235" s="63"/>
-      <c r="I235" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="J235" s="62"/>
-      <c r="K235" s="62"/>
+      <c r="H235" s="62"/>
+      <c r="I235" s="62"/>
+      <c r="J235" s="63"/>
+      <c r="K235" s="62" t="s">
+        <v>180</v>
+      </c>
       <c r="L235" s="62"/>
       <c r="M235" s="62"/>
       <c r="N235" s="62"/>
@@ -15796,24 +16137,22 @@
       <c r="V235" s="62"/>
       <c r="W235" s="62"/>
       <c r="X235" s="62"/>
-      <c r="Y235" s="61" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y235" s="62"/>
       <c r="Z235" s="62"/>
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="181" t="s">
+      <c r="AD235" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="AE235" s="182"/>
-      <c r="AF235" s="182"/>
-      <c r="AG235" s="182"/>
-      <c r="AH235" s="182"/>
-      <c r="AI235" s="182"/>
-      <c r="AJ235" s="182"/>
-      <c r="AK235" s="182"/>
-      <c r="AL235" s="183"/>
+      <c r="AE235" s="193"/>
+      <c r="AF235" s="193"/>
+      <c r="AG235" s="193"/>
+      <c r="AH235" s="193"/>
+      <c r="AI235" s="193"/>
+      <c r="AJ235" s="193"/>
+      <c r="AK235" s="193"/>
+      <c r="AL235" s="194"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -15821,15 +16160,14 @@
     </row>
     <row r="236" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
-      <c r="B236" s="9"/>
       <c r="C236" s="64"/>
       <c r="D236" s="65"/>
       <c r="E236" s="65"/>
       <c r="F236" s="65"/>
       <c r="G236" s="65"/>
-      <c r="H236" s="66"/>
+      <c r="H236" s="65"/>
       <c r="I236" s="65"/>
-      <c r="J236" s="65"/>
+      <c r="J236" s="66"/>
       <c r="K236" s="65"/>
       <c r="L236" s="65"/>
       <c r="M236" s="65"/>
@@ -15844,7 +16182,7 @@
       <c r="V236" s="65"/>
       <c r="W236" s="65"/>
       <c r="X236" s="65"/>
-      <c r="Y236" s="64"/>
+      <c r="Y236" s="65"/>
       <c r="Z236" s="65"/>
       <c r="AA236" s="65"/>
       <c r="AB236" s="65"/>
@@ -15871,20 +16209,19 @@
     </row>
     <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
-      <c r="B237" s="9"/>
       <c r="C237" s="93" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="D237" s="94"/>
       <c r="E237" s="94"/>
       <c r="F237" s="100"/>
       <c r="G237" s="100"/>
-      <c r="H237" s="97"/>
-      <c r="I237" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="J237" s="100"/>
-      <c r="K237" s="100"/>
+      <c r="H237" s="95"/>
+      <c r="I237" s="96"/>
+      <c r="J237" s="104"/>
+      <c r="K237" s="100" t="s">
+        <v>280</v>
+      </c>
       <c r="L237" s="100"/>
       <c r="M237" s="100"/>
       <c r="N237" s="100"/>
@@ -15898,28 +16235,26 @@
       <c r="V237" s="100"/>
       <c r="W237" s="100"/>
       <c r="X237" s="100"/>
-      <c r="Y237" s="106" t="s">
-        <v>236</v>
-      </c>
+      <c r="Y237" s="100"/>
       <c r="Z237" s="100"/>
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="184" t="s">
+      <c r="AD237" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="185"/>
-      <c r="AF237" s="185"/>
-      <c r="AG237" s="186"/>
-      <c r="AH237" s="184" t="s">
+      <c r="AE237" s="184"/>
+      <c r="AF237" s="184"/>
+      <c r="AG237" s="185"/>
+      <c r="AH237" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="186"/>
-      <c r="AJ237" s="184" t="s">
+      <c r="AI237" s="185"/>
+      <c r="AJ237" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="185"/>
-      <c r="AL237" s="186"/>
+      <c r="AK237" s="184"/>
+      <c r="AL237" s="185"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -15927,45 +16262,44 @@
     </row>
     <row r="238" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
-      <c r="B238" s="9"/>
       <c r="C238" s="84"/>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
       <c r="F238" s="92"/>
       <c r="G238" s="92"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="J238" s="99"/>
-      <c r="K238" s="99"/>
-      <c r="L238" s="99"/>
-      <c r="M238" s="99"/>
-      <c r="N238" s="99"/>
-      <c r="O238" s="99"/>
-      <c r="P238" s="99"/>
-      <c r="Q238" s="99"/>
-      <c r="R238" s="99"/>
-      <c r="S238" s="99"/>
-      <c r="T238" s="99"/>
-      <c r="U238" s="99"/>
-      <c r="V238" s="99"/>
-      <c r="W238" s="99"/>
-      <c r="X238" s="99"/>
-      <c r="Y238" s="107"/>
-      <c r="Z238" s="99"/>
-      <c r="AA238" s="99"/>
-      <c r="AB238" s="99"/>
-      <c r="AC238" s="103"/>
-      <c r="AD238" s="187"/>
-      <c r="AE238" s="188"/>
-      <c r="AF238" s="188"/>
-      <c r="AG238" s="189"/>
-      <c r="AH238" s="187"/>
-      <c r="AI238" s="189"/>
-      <c r="AJ238" s="187"/>
-      <c r="AK238" s="188"/>
-      <c r="AL238" s="189"/>
+      <c r="H238" s="89"/>
+      <c r="I238" s="90"/>
+      <c r="J238" s="128"/>
+      <c r="K238" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="L238" s="92"/>
+      <c r="M238" s="92"/>
+      <c r="N238" s="92"/>
+      <c r="O238" s="92"/>
+      <c r="P238" s="92"/>
+      <c r="Q238" s="92"/>
+      <c r="R238" s="92"/>
+      <c r="S238" s="92"/>
+      <c r="T238" s="92"/>
+      <c r="U238" s="92"/>
+      <c r="V238" s="92"/>
+      <c r="W238" s="92"/>
+      <c r="X238" s="92"/>
+      <c r="Y238" s="92"/>
+      <c r="Z238" s="92"/>
+      <c r="AA238" s="92"/>
+      <c r="AB238" s="92"/>
+      <c r="AC238" s="128"/>
+      <c r="AD238" s="186"/>
+      <c r="AE238" s="187"/>
+      <c r="AF238" s="187"/>
+      <c r="AG238" s="188"/>
+      <c r="AH238" s="186"/>
+      <c r="AI238" s="188"/>
+      <c r="AJ238" s="186"/>
+      <c r="AK238" s="187"/>
+      <c r="AL238" s="188"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -15973,53 +16307,44 @@
     </row>
     <row r="239" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
-      <c r="B239" s="9"/>
       <c r="C239" s="84"/>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
       <c r="F239" s="92"/>
       <c r="G239" s="92"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="J239" s="98"/>
-      <c r="K239" s="98"/>
-      <c r="L239" s="98"/>
-      <c r="M239" s="98"/>
-      <c r="N239" s="98"/>
-      <c r="O239" s="98"/>
-      <c r="P239" s="98"/>
-      <c r="Q239" s="98"/>
-      <c r="R239" s="98"/>
-      <c r="S239" s="98"/>
-      <c r="T239" s="98"/>
-      <c r="U239" s="98"/>
-      <c r="V239" s="98"/>
-      <c r="W239" s="98"/>
-      <c r="X239" s="98"/>
-      <c r="Y239" s="108" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z239" s="98"/>
-      <c r="AA239" s="98"/>
-      <c r="AB239" s="98"/>
-      <c r="AC239" s="102"/>
-      <c r="AD239" s="184" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE239" s="185"/>
-      <c r="AF239" s="185"/>
-      <c r="AG239" s="186"/>
-      <c r="AH239" s="184" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI239" s="186"/>
-      <c r="AJ239" s="184" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK239" s="185"/>
-      <c r="AL239" s="186"/>
+      <c r="H239" s="89"/>
+      <c r="I239" s="90"/>
+      <c r="J239" s="128"/>
+      <c r="K239" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="L239" s="92"/>
+      <c r="M239" s="92"/>
+      <c r="N239" s="92"/>
+      <c r="O239" s="92"/>
+      <c r="P239" s="92"/>
+      <c r="Q239" s="92"/>
+      <c r="R239" s="92"/>
+      <c r="S239" s="92"/>
+      <c r="T239" s="92"/>
+      <c r="U239" s="92"/>
+      <c r="V239" s="92"/>
+      <c r="W239" s="92"/>
+      <c r="X239" s="92"/>
+      <c r="Y239" s="92"/>
+      <c r="Z239" s="92"/>
+      <c r="AA239" s="92"/>
+      <c r="AB239" s="92"/>
+      <c r="AC239" s="128"/>
+      <c r="AD239" s="186"/>
+      <c r="AE239" s="187"/>
+      <c r="AF239" s="187"/>
+      <c r="AG239" s="188"/>
+      <c r="AH239" s="186"/>
+      <c r="AI239" s="188"/>
+      <c r="AJ239" s="186"/>
+      <c r="AK239" s="187"/>
+      <c r="AL239" s="188"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -16027,53 +16352,44 @@
     </row>
     <row r="240" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
-      <c r="B240" s="9"/>
       <c r="C240" s="31"/>
       <c r="D240" s="32"/>
       <c r="E240" s="32"/>
       <c r="F240" s="99"/>
       <c r="G240" s="113"/>
-      <c r="H240" s="114"/>
-      <c r="I240" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="J240" s="105"/>
-      <c r="K240" s="105"/>
-      <c r="L240" s="105"/>
-      <c r="M240" s="105"/>
-      <c r="N240" s="105"/>
-      <c r="O240" s="105"/>
-      <c r="P240" s="105"/>
-      <c r="Q240" s="105"/>
-      <c r="R240" s="105"/>
-      <c r="S240" s="105"/>
-      <c r="T240" s="105"/>
-      <c r="U240" s="105"/>
-      <c r="V240" s="105"/>
-      <c r="W240" s="105"/>
-      <c r="X240" s="105"/>
-      <c r="Y240" s="109" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z240" s="105"/>
-      <c r="AA240" s="105"/>
-      <c r="AB240" s="105"/>
-      <c r="AC240" s="116"/>
-      <c r="AD240" s="178" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE240" s="179"/>
-      <c r="AF240" s="179"/>
-      <c r="AG240" s="180"/>
-      <c r="AH240" s="178" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI240" s="180"/>
-      <c r="AJ240" s="178" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK240" s="179"/>
-      <c r="AL240" s="180"/>
+      <c r="H240" s="157"/>
+      <c r="I240" s="172"/>
+      <c r="J240" s="121"/>
+      <c r="K240" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="L240" s="113"/>
+      <c r="M240" s="113"/>
+      <c r="N240" s="113"/>
+      <c r="O240" s="113"/>
+      <c r="P240" s="113"/>
+      <c r="Q240" s="113"/>
+      <c r="R240" s="113"/>
+      <c r="S240" s="113"/>
+      <c r="T240" s="113"/>
+      <c r="U240" s="113"/>
+      <c r="V240" s="113"/>
+      <c r="W240" s="113"/>
+      <c r="X240" s="113"/>
+      <c r="Y240" s="113"/>
+      <c r="Z240" s="113"/>
+      <c r="AA240" s="113"/>
+      <c r="AB240" s="113"/>
+      <c r="AC240" s="121"/>
+      <c r="AD240" s="189"/>
+      <c r="AE240" s="190"/>
+      <c r="AF240" s="190"/>
+      <c r="AG240" s="191"/>
+      <c r="AH240" s="189"/>
+      <c r="AI240" s="191"/>
+      <c r="AJ240" s="189"/>
+      <c r="AK240" s="190"/>
+      <c r="AL240" s="191"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16081,55 +16397,52 @@
     </row>
     <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
-      <c r="B241" s="9"/>
       <c r="C241" s="93" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="D241" s="94"/>
       <c r="E241" s="94"/>
       <c r="F241" s="100"/>
       <c r="G241" s="117"/>
-      <c r="H241" s="118"/>
-      <c r="I241" s="105" t="s">
-        <v>232</v>
-      </c>
-      <c r="J241" s="105"/>
-      <c r="K241" s="105"/>
-      <c r="L241" s="105"/>
-      <c r="M241" s="105"/>
-      <c r="N241" s="105"/>
-      <c r="O241" s="105"/>
-      <c r="P241" s="105"/>
-      <c r="Q241" s="105"/>
-      <c r="R241" s="105"/>
-      <c r="S241" s="105"/>
-      <c r="T241" s="105"/>
-      <c r="U241" s="105"/>
-      <c r="V241" s="105"/>
-      <c r="W241" s="105"/>
-      <c r="X241" s="105"/>
-      <c r="Y241" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z241" s="105"/>
-      <c r="AA241" s="105"/>
-      <c r="AB241" s="105"/>
-      <c r="AC241" s="116"/>
-      <c r="AD241" s="178" t="s">
+      <c r="H241" s="156"/>
+      <c r="I241" s="117"/>
+      <c r="J241" s="173"/>
+      <c r="K241" s="117" t="s">
+        <v>284</v>
+      </c>
+      <c r="L241" s="117"/>
+      <c r="M241" s="117"/>
+      <c r="N241" s="117"/>
+      <c r="O241" s="117"/>
+      <c r="P241" s="117"/>
+      <c r="Q241" s="117"/>
+      <c r="R241" s="117"/>
+      <c r="S241" s="117"/>
+      <c r="T241" s="117"/>
+      <c r="U241" s="117"/>
+      <c r="V241" s="117"/>
+      <c r="W241" s="117"/>
+      <c r="X241" s="117"/>
+      <c r="Y241" s="117"/>
+      <c r="Z241" s="117"/>
+      <c r="AA241" s="117"/>
+      <c r="AB241" s="117"/>
+      <c r="AC241" s="173"/>
+      <c r="AD241" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="179"/>
-      <c r="AF241" s="179"/>
-      <c r="AG241" s="180"/>
-      <c r="AH241" s="178" t="s">
+      <c r="AE241" s="175"/>
+      <c r="AF241" s="175"/>
+      <c r="AG241" s="176"/>
+      <c r="AH241" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="180"/>
-      <c r="AJ241" s="178" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK241" s="179"/>
-      <c r="AL241" s="180"/>
+      <c r="AI241" s="176"/>
+      <c r="AJ241" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK241" s="175"/>
+      <c r="AL241" s="176"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16137,53 +16450,44 @@
     </row>
     <row r="242" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
-      <c r="B242" s="9"/>
       <c r="C242" s="84"/>
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
       <c r="F242" s="92"/>
       <c r="G242" s="119"/>
-      <c r="H242" s="120"/>
-      <c r="I242" s="105" t="s">
-        <v>233</v>
-      </c>
-      <c r="J242" s="105"/>
-      <c r="K242" s="105"/>
-      <c r="L242" s="105"/>
-      <c r="M242" s="105"/>
-      <c r="N242" s="105"/>
-      <c r="O242" s="105"/>
-      <c r="P242" s="105"/>
-      <c r="Q242" s="105"/>
-      <c r="R242" s="105"/>
-      <c r="S242" s="105"/>
-      <c r="T242" s="105"/>
-      <c r="U242" s="105"/>
-      <c r="V242" s="105"/>
-      <c r="W242" s="105"/>
-      <c r="X242" s="105"/>
-      <c r="Y242" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z242" s="105"/>
-      <c r="AA242" s="105"/>
-      <c r="AB242" s="105"/>
-      <c r="AC242" s="116"/>
-      <c r="AD242" s="178" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE242" s="179"/>
-      <c r="AF242" s="179"/>
-      <c r="AG242" s="180"/>
-      <c r="AH242" s="178" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI242" s="180"/>
-      <c r="AJ242" s="178" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK242" s="179"/>
-      <c r="AL242" s="180"/>
+      <c r="H242" s="119"/>
+      <c r="I242" s="119"/>
+      <c r="J242" s="120"/>
+      <c r="K242" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="L242" s="119"/>
+      <c r="M242" s="119"/>
+      <c r="N242" s="119"/>
+      <c r="O242" s="119"/>
+      <c r="P242" s="119"/>
+      <c r="Q242" s="119"/>
+      <c r="R242" s="119"/>
+      <c r="S242" s="119"/>
+      <c r="T242" s="119"/>
+      <c r="U242" s="119"/>
+      <c r="V242" s="119"/>
+      <c r="W242" s="119"/>
+      <c r="X242" s="119"/>
+      <c r="Y242" s="119"/>
+      <c r="Z242" s="119"/>
+      <c r="AA242" s="119"/>
+      <c r="AB242" s="119"/>
+      <c r="AC242" s="120"/>
+      <c r="AD242" s="177"/>
+      <c r="AE242" s="178"/>
+      <c r="AF242" s="178"/>
+      <c r="AG242" s="179"/>
+      <c r="AH242" s="177"/>
+      <c r="AI242" s="179"/>
+      <c r="AJ242" s="177"/>
+      <c r="AK242" s="178"/>
+      <c r="AL242" s="179"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16191,53 +16495,44 @@
     </row>
     <row r="243" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
-      <c r="B243" s="9"/>
-      <c r="C243" s="31"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="99"/>
-      <c r="G243" s="113"/>
-      <c r="H243" s="121"/>
-      <c r="I243" s="105" t="s">
-        <v>242</v>
-      </c>
-      <c r="J243" s="105"/>
-      <c r="K243" s="105"/>
-      <c r="L243" s="105"/>
-      <c r="M243" s="105"/>
-      <c r="N243" s="105"/>
-      <c r="O243" s="105"/>
-      <c r="P243" s="105"/>
-      <c r="Q243" s="105"/>
-      <c r="R243" s="105"/>
-      <c r="S243" s="105"/>
-      <c r="T243" s="105"/>
-      <c r="U243" s="105"/>
-      <c r="V243" s="105"/>
-      <c r="W243" s="105"/>
-      <c r="X243" s="105"/>
-      <c r="Y243" s="109" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z243" s="105"/>
-      <c r="AA243" s="105"/>
-      <c r="AB243" s="105"/>
-      <c r="AC243" s="116"/>
-      <c r="AD243" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE243" s="197"/>
-      <c r="AF243" s="197"/>
-      <c r="AG243" s="198"/>
-      <c r="AH243" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI243" s="198"/>
-      <c r="AJ243" s="178" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK243" s="179"/>
-      <c r="AL243" s="180"/>
+      <c r="C243" s="84"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="92"/>
+      <c r="G243" s="119"/>
+      <c r="H243" s="119"/>
+      <c r="I243" s="119"/>
+      <c r="J243" s="120"/>
+      <c r="K243" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="L243" s="119"/>
+      <c r="M243" s="119"/>
+      <c r="N243" s="119"/>
+      <c r="O243" s="119"/>
+      <c r="P243" s="119"/>
+      <c r="Q243" s="119"/>
+      <c r="R243" s="119"/>
+      <c r="S243" s="119"/>
+      <c r="T243" s="119"/>
+      <c r="U243" s="119"/>
+      <c r="V243" s="119"/>
+      <c r="W243" s="119"/>
+      <c r="X243" s="119"/>
+      <c r="Y243" s="119"/>
+      <c r="Z243" s="119"/>
+      <c r="AA243" s="119"/>
+      <c r="AB243" s="119"/>
+      <c r="AC243" s="120"/>
+      <c r="AD243" s="177"/>
+      <c r="AE243" s="178"/>
+      <c r="AF243" s="178"/>
+      <c r="AG243" s="179"/>
+      <c r="AH243" s="177"/>
+      <c r="AI243" s="179"/>
+      <c r="AJ243" s="177"/>
+      <c r="AK243" s="178"/>
+      <c r="AL243" s="179"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16245,55 +16540,44 @@
     </row>
     <row r="244" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="98"/>
-      <c r="G244" s="98"/>
-      <c r="H244" s="102"/>
-      <c r="I244" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="J244" s="98"/>
-      <c r="K244" s="98"/>
-      <c r="L244" s="98"/>
-      <c r="M244" s="98"/>
-      <c r="N244" s="98"/>
-      <c r="O244" s="98"/>
-      <c r="P244" s="98"/>
-      <c r="Q244" s="98"/>
-      <c r="R244" s="98"/>
-      <c r="S244" s="98"/>
-      <c r="T244" s="98"/>
-      <c r="U244" s="98"/>
-      <c r="V244" s="98"/>
-      <c r="W244" s="98"/>
-      <c r="X244" s="98"/>
-      <c r="Y244" s="109" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z244" s="98"/>
-      <c r="AA244" s="98"/>
-      <c r="AB244" s="98"/>
-      <c r="AC244" s="102"/>
-      <c r="AD244" s="193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE244" s="194"/>
-      <c r="AF244" s="194"/>
-      <c r="AG244" s="195"/>
-      <c r="AH244" s="193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI244" s="195"/>
-      <c r="AJ244" s="193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK244" s="194"/>
-      <c r="AL244" s="195"/>
+      <c r="C244" s="31"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="99"/>
+      <c r="G244" s="113"/>
+      <c r="H244" s="113"/>
+      <c r="I244" s="113"/>
+      <c r="J244" s="121"/>
+      <c r="K244" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="L244" s="113"/>
+      <c r="M244" s="113"/>
+      <c r="N244" s="113"/>
+      <c r="O244" s="113"/>
+      <c r="P244" s="113"/>
+      <c r="Q244" s="113"/>
+      <c r="R244" s="113"/>
+      <c r="S244" s="113"/>
+      <c r="T244" s="113"/>
+      <c r="U244" s="113"/>
+      <c r="V244" s="113"/>
+      <c r="W244" s="113"/>
+      <c r="X244" s="113"/>
+      <c r="Y244" s="113"/>
+      <c r="Z244" s="113"/>
+      <c r="AA244" s="113"/>
+      <c r="AB244" s="113"/>
+      <c r="AC244" s="121"/>
+      <c r="AD244" s="180"/>
+      <c r="AE244" s="181"/>
+      <c r="AF244" s="181"/>
+      <c r="AG244" s="182"/>
+      <c r="AH244" s="180"/>
+      <c r="AI244" s="182"/>
+      <c r="AJ244" s="180"/>
+      <c r="AK244" s="181"/>
+      <c r="AL244" s="182"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
       <c r="AP244" s="5"/>
@@ -16301,42 +16585,52 @@
     </row>
     <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="92"/>
-      <c r="G245" s="92"/>
-      <c r="H245" s="92"/>
-      <c r="I245" s="92"/>
-      <c r="J245" s="92"/>
-      <c r="K245" s="92"/>
-      <c r="L245" s="92"/>
-      <c r="M245" s="92"/>
-      <c r="N245" s="92"/>
-      <c r="O245" s="92"/>
-      <c r="P245" s="92"/>
-      <c r="Q245" s="92"/>
-      <c r="R245" s="92"/>
-      <c r="S245" s="92"/>
-      <c r="T245" s="92"/>
-      <c r="U245" s="92"/>
-      <c r="V245" s="92"/>
-      <c r="W245" s="92"/>
-      <c r="X245" s="92"/>
-      <c r="Y245" s="92"/>
-      <c r="Z245" s="92"/>
-      <c r="AA245" s="92"/>
-      <c r="AB245" s="92"/>
-      <c r="AC245" s="92"/>
-      <c r="AD245" s="92"/>
-      <c r="AE245" s="92"/>
-      <c r="AF245" s="92"/>
-      <c r="AG245" s="92"/>
-      <c r="AH245" s="92"/>
-      <c r="AI245" s="92"/>
-      <c r="AJ245" s="92"/>
-      <c r="AK245" s="92"/>
-      <c r="AL245" s="92"/>
+      <c r="C245" s="93" t="s">
+        <v>293</v>
+      </c>
+      <c r="D245" s="94"/>
+      <c r="E245" s="94"/>
+      <c r="F245" s="100"/>
+      <c r="G245" s="117"/>
+      <c r="H245" s="117"/>
+      <c r="I245" s="117"/>
+      <c r="J245" s="173"/>
+      <c r="K245" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="L245" s="117"/>
+      <c r="M245" s="117"/>
+      <c r="N245" s="117"/>
+      <c r="O245" s="117"/>
+      <c r="P245" s="117"/>
+      <c r="Q245" s="117"/>
+      <c r="R245" s="117"/>
+      <c r="S245" s="117"/>
+      <c r="T245" s="117"/>
+      <c r="U245" s="117"/>
+      <c r="V245" s="117"/>
+      <c r="W245" s="117"/>
+      <c r="X245" s="117"/>
+      <c r="Y245" s="117"/>
+      <c r="Z245" s="117"/>
+      <c r="AA245" s="117"/>
+      <c r="AB245" s="117"/>
+      <c r="AC245" s="173"/>
+      <c r="AD245" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE245" s="175"/>
+      <c r="AF245" s="175"/>
+      <c r="AG245" s="176"/>
+      <c r="AH245" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI245" s="176"/>
+      <c r="AJ245" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK245" s="175"/>
+      <c r="AL245" s="176"/>
       <c r="AM245" s="92"/>
       <c r="AN245" s="2"/>
       <c r="AP245" s="5"/>
@@ -16344,234 +16638,234 @@
     </row>
     <row r="246" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
-      <c r="C246" s="16" t="s">
-        <v>244</v>
-      </c>
+      <c r="C246" s="84"/>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
       <c r="F246" s="92"/>
-      <c r="G246" s="92"/>
-      <c r="H246" s="92"/>
-      <c r="I246" s="92"/>
-      <c r="J246" s="92"/>
-      <c r="K246" s="92"/>
-      <c r="L246" s="92"/>
-      <c r="M246" s="92"/>
-      <c r="N246" s="92"/>
-      <c r="O246" s="92"/>
-      <c r="P246" s="92"/>
-      <c r="Q246" s="92"/>
-      <c r="R246" s="92"/>
-      <c r="S246" s="92"/>
-      <c r="T246" s="92"/>
-      <c r="U246" s="92"/>
-      <c r="V246" s="92"/>
-      <c r="W246" s="92"/>
-      <c r="X246" s="92"/>
-      <c r="Y246" s="92"/>
-      <c r="Z246" s="92"/>
-      <c r="AA246" s="92"/>
-      <c r="AB246" s="92"/>
-      <c r="AC246" s="92"/>
-      <c r="AD246" s="92"/>
-      <c r="AE246" s="92"/>
-      <c r="AF246" s="92"/>
-      <c r="AG246" s="92"/>
-      <c r="AH246" s="92"/>
-      <c r="AI246" s="92"/>
-      <c r="AJ246" s="92"/>
-      <c r="AK246" s="92"/>
-      <c r="AL246" s="92"/>
+      <c r="G246" s="119"/>
+      <c r="H246" s="119"/>
+      <c r="I246" s="119"/>
+      <c r="J246" s="120"/>
+      <c r="K246" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="L246" s="119"/>
+      <c r="M246" s="119"/>
+      <c r="N246" s="119"/>
+      <c r="O246" s="119"/>
+      <c r="P246" s="119"/>
+      <c r="Q246" s="119"/>
+      <c r="R246" s="119"/>
+      <c r="S246" s="119"/>
+      <c r="T246" s="119"/>
+      <c r="U246" s="119"/>
+      <c r="V246" s="119"/>
+      <c r="W246" s="119"/>
+      <c r="X246" s="119"/>
+      <c r="Y246" s="119"/>
+      <c r="Z246" s="119"/>
+      <c r="AA246" s="119"/>
+      <c r="AB246" s="119"/>
+      <c r="AC246" s="120"/>
+      <c r="AD246" s="177"/>
+      <c r="AE246" s="178"/>
+      <c r="AF246" s="178"/>
+      <c r="AG246" s="179"/>
+      <c r="AH246" s="177"/>
+      <c r="AI246" s="179"/>
+      <c r="AJ246" s="177"/>
+      <c r="AK246" s="178"/>
+      <c r="AL246" s="179"/>
       <c r="AM246" s="92"/>
-      <c r="AN246" s="110"/>
+      <c r="AN246" s="2"/>
       <c r="AP246" s="5"/>
       <c r="AQ246" s="2"/>
     </row>
     <row r="247" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
-      <c r="B247" s="9"/>
-      <c r="C247" s="111" t="s">
-        <v>245</v>
-      </c>
-      <c r="D247" s="112"/>
-      <c r="E247" s="112"/>
-      <c r="F247" s="62"/>
-      <c r="G247" s="62"/>
-      <c r="H247" s="62"/>
-      <c r="I247" s="62"/>
-      <c r="J247" s="62"/>
-      <c r="K247" s="62"/>
-      <c r="L247" s="62"/>
-      <c r="M247" s="62"/>
-      <c r="N247" s="62"/>
-      <c r="O247" s="62"/>
-      <c r="P247" s="62"/>
-      <c r="Q247" s="62"/>
-      <c r="R247" s="62"/>
-      <c r="S247" s="62"/>
-      <c r="T247" s="62"/>
-      <c r="U247" s="62"/>
-      <c r="V247" s="62"/>
-      <c r="W247" s="62"/>
-      <c r="X247" s="62"/>
-      <c r="Y247" s="62"/>
-      <c r="Z247" s="62"/>
-      <c r="AA247" s="62"/>
-      <c r="AB247" s="62"/>
-      <c r="AC247" s="62"/>
-      <c r="AD247" s="62"/>
-      <c r="AE247" s="62"/>
-      <c r="AF247" s="62"/>
-      <c r="AG247" s="62"/>
-      <c r="AH247" s="62"/>
-      <c r="AI247" s="62"/>
-      <c r="AJ247" s="62"/>
-      <c r="AK247" s="62"/>
-      <c r="AL247" s="62"/>
-      <c r="AM247" s="62"/>
-      <c r="AN247" s="63"/>
-      <c r="AO247" s="2"/>
+      <c r="C247" s="84"/>
+      <c r="D247" s="16"/>
+      <c r="E247" s="16"/>
+      <c r="F247" s="92"/>
+      <c r="G247" s="92"/>
+      <c r="H247" s="89"/>
+      <c r="I247" s="90"/>
+      <c r="J247" s="128"/>
+      <c r="K247" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="L247" s="92"/>
+      <c r="M247" s="92"/>
+      <c r="N247" s="92"/>
+      <c r="O247" s="92"/>
+      <c r="P247" s="92"/>
+      <c r="Q247" s="92"/>
+      <c r="R247" s="92"/>
+      <c r="S247" s="92"/>
+      <c r="T247" s="92"/>
+      <c r="U247" s="92"/>
+      <c r="V247" s="92"/>
+      <c r="W247" s="92"/>
+      <c r="X247" s="92"/>
+      <c r="Y247" s="92"/>
+      <c r="Z247" s="92"/>
+      <c r="AA247" s="92"/>
+      <c r="AB247" s="92"/>
+      <c r="AC247" s="128"/>
+      <c r="AD247" s="177"/>
+      <c r="AE247" s="178"/>
+      <c r="AF247" s="178"/>
+      <c r="AG247" s="179"/>
+      <c r="AH247" s="177"/>
+      <c r="AI247" s="179"/>
+      <c r="AJ247" s="177"/>
+      <c r="AK247" s="178"/>
+      <c r="AL247" s="179"/>
+      <c r="AM247" s="92"/>
+      <c r="AN247" s="2"/>
       <c r="AP247" s="5"/>
       <c r="AQ247" s="2"/>
     </row>
     <row r="248" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
-      <c r="B248" s="9"/>
-      <c r="C248" s="93" t="s">
-        <v>246</v>
-      </c>
-      <c r="D248" s="94"/>
-      <c r="E248" s="94"/>
-      <c r="F248" s="100"/>
-      <c r="G248" s="100"/>
-      <c r="H248" s="100"/>
-      <c r="I248" s="100"/>
-      <c r="J248" s="100"/>
-      <c r="K248" s="100"/>
-      <c r="L248" s="100"/>
-      <c r="M248" s="100"/>
-      <c r="N248" s="100"/>
-      <c r="O248" s="100"/>
-      <c r="P248" s="100"/>
-      <c r="Q248" s="100"/>
-      <c r="R248" s="100"/>
-      <c r="S248" s="100"/>
-      <c r="T248" s="100"/>
-      <c r="U248" s="100"/>
-      <c r="V248" s="100"/>
-      <c r="W248" s="100"/>
-      <c r="X248" s="100"/>
-      <c r="Y248" s="100"/>
-      <c r="Z248" s="100"/>
-      <c r="AA248" s="100"/>
-      <c r="AB248" s="100"/>
-      <c r="AC248" s="100"/>
-      <c r="AD248" s="100"/>
-      <c r="AE248" s="100"/>
-      <c r="AF248" s="100"/>
-      <c r="AG248" s="100"/>
-      <c r="AH248" s="100"/>
-      <c r="AI248" s="100"/>
-      <c r="AJ248" s="100"/>
-      <c r="AK248" s="100"/>
-      <c r="AL248" s="100"/>
-      <c r="AM248" s="100"/>
-      <c r="AN248" s="104"/>
-      <c r="AO248" s="2"/>
+      <c r="C248" s="31"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="32"/>
+      <c r="F248" s="99"/>
+      <c r="G248" s="113"/>
+      <c r="H248" s="157"/>
+      <c r="I248" s="172"/>
+      <c r="J248" s="121"/>
+      <c r="K248" s="113" t="s">
+        <v>295</v>
+      </c>
+      <c r="L248" s="113"/>
+      <c r="M248" s="113"/>
+      <c r="N248" s="113"/>
+      <c r="O248" s="113"/>
+      <c r="P248" s="113"/>
+      <c r="Q248" s="113"/>
+      <c r="R248" s="113"/>
+      <c r="S248" s="113"/>
+      <c r="T248" s="113"/>
+      <c r="U248" s="113"/>
+      <c r="V248" s="113"/>
+      <c r="W248" s="113"/>
+      <c r="X248" s="113"/>
+      <c r="Y248" s="113"/>
+      <c r="Z248" s="113"/>
+      <c r="AA248" s="113"/>
+      <c r="AB248" s="113"/>
+      <c r="AC248" s="121"/>
+      <c r="AD248" s="180"/>
+      <c r="AE248" s="181"/>
+      <c r="AF248" s="181"/>
+      <c r="AG248" s="182"/>
+      <c r="AH248" s="180"/>
+      <c r="AI248" s="182"/>
+      <c r="AJ248" s="180"/>
+      <c r="AK248" s="181"/>
+      <c r="AL248" s="182"/>
+      <c r="AM248" s="92"/>
+      <c r="AN248" s="2"/>
       <c r="AP248" s="5"/>
       <c r="AQ248" s="2"/>
     </row>
     <row r="249" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
-      <c r="B249" s="9"/>
       <c r="C249" s="93" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="D249" s="94"/>
       <c r="E249" s="94"/>
       <c r="F249" s="100"/>
-      <c r="G249" s="100"/>
-      <c r="H249" s="100"/>
-      <c r="I249" s="100"/>
-      <c r="J249" s="100"/>
-      <c r="K249" s="100"/>
-      <c r="L249" s="100"/>
-      <c r="M249" s="100"/>
-      <c r="N249" s="100"/>
-      <c r="O249" s="100"/>
-      <c r="P249" s="100"/>
-      <c r="Q249" s="100"/>
-      <c r="R249" s="100"/>
-      <c r="S249" s="100"/>
-      <c r="T249" s="100"/>
-      <c r="U249" s="100"/>
-      <c r="V249" s="100"/>
-      <c r="W249" s="100"/>
-      <c r="X249" s="100"/>
-      <c r="Y249" s="100"/>
-      <c r="Z249" s="100"/>
-      <c r="AA249" s="100"/>
-      <c r="AB249" s="100"/>
-      <c r="AC249" s="100"/>
-      <c r="AD249" s="100"/>
-      <c r="AE249" s="100"/>
-      <c r="AF249" s="100"/>
-      <c r="AG249" s="100"/>
-      <c r="AH249" s="100"/>
-      <c r="AI249" s="100"/>
-      <c r="AJ249" s="100"/>
-      <c r="AK249" s="100"/>
-      <c r="AL249" s="100"/>
-      <c r="AM249" s="100"/>
-      <c r="AN249" s="104"/>
-      <c r="AO249" s="2"/>
+      <c r="G249" s="117"/>
+      <c r="H249" s="156"/>
+      <c r="I249" s="117"/>
+      <c r="J249" s="173"/>
+      <c r="K249" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="L249" s="117"/>
+      <c r="M249" s="117"/>
+      <c r="N249" s="117"/>
+      <c r="O249" s="117"/>
+      <c r="P249" s="117"/>
+      <c r="Q249" s="117"/>
+      <c r="R249" s="117"/>
+      <c r="S249" s="117"/>
+      <c r="T249" s="117"/>
+      <c r="U249" s="117"/>
+      <c r="V249" s="117"/>
+      <c r="W249" s="117"/>
+      <c r="X249" s="117"/>
+      <c r="Y249" s="117"/>
+      <c r="Z249" s="117"/>
+      <c r="AA249" s="117"/>
+      <c r="AB249" s="117"/>
+      <c r="AC249" s="173"/>
+      <c r="AD249" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE249" s="175"/>
+      <c r="AF249" s="175"/>
+      <c r="AG249" s="176"/>
+      <c r="AH249" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI249" s="176"/>
+      <c r="AJ249" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK249" s="175"/>
+      <c r="AL249" s="176"/>
+      <c r="AM249" s="92"/>
+      <c r="AN249" s="2"/>
       <c r="AP249" s="5"/>
       <c r="AQ249" s="2"/>
     </row>
     <row r="250" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
-      <c r="B250" s="9"/>
-      <c r="C250" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="98"/>
-      <c r="G250" s="98"/>
-      <c r="H250" s="98"/>
-      <c r="I250" s="98"/>
-      <c r="J250" s="98"/>
-      <c r="K250" s="98"/>
-      <c r="L250" s="98"/>
-      <c r="M250" s="98"/>
-      <c r="N250" s="98"/>
-      <c r="O250" s="98"/>
-      <c r="P250" s="98"/>
-      <c r="Q250" s="98"/>
-      <c r="R250" s="98"/>
-      <c r="S250" s="98"/>
-      <c r="T250" s="98"/>
-      <c r="U250" s="98"/>
-      <c r="V250" s="98"/>
-      <c r="W250" s="98"/>
-      <c r="X250" s="98"/>
-      <c r="Y250" s="98"/>
-      <c r="Z250" s="98"/>
-      <c r="AA250" s="98"/>
-      <c r="AB250" s="98"/>
-      <c r="AC250" s="98"/>
-      <c r="AD250" s="98"/>
-      <c r="AE250" s="98"/>
-      <c r="AF250" s="98"/>
-      <c r="AG250" s="98"/>
-      <c r="AH250" s="98"/>
-      <c r="AI250" s="98"/>
-      <c r="AJ250" s="98"/>
-      <c r="AK250" s="98"/>
-      <c r="AL250" s="98"/>
-      <c r="AM250" s="98"/>
-      <c r="AN250" s="102"/>
-      <c r="AO250" s="2"/>
+      <c r="C250" s="31"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="99"/>
+      <c r="G250" s="113"/>
+      <c r="H250" s="113"/>
+      <c r="I250" s="113"/>
+      <c r="J250" s="121"/>
+      <c r="K250" s="113" t="s">
+        <v>291</v>
+      </c>
+      <c r="L250" s="113"/>
+      <c r="M250" s="113"/>
+      <c r="N250" s="113"/>
+      <c r="O250" s="113"/>
+      <c r="P250" s="113"/>
+      <c r="Q250" s="113"/>
+      <c r="R250" s="113"/>
+      <c r="S250" s="113"/>
+      <c r="T250" s="113"/>
+      <c r="U250" s="113"/>
+      <c r="V250" s="113"/>
+      <c r="W250" s="113"/>
+      <c r="X250" s="113"/>
+      <c r="Y250" s="113"/>
+      <c r="Z250" s="113"/>
+      <c r="AA250" s="113"/>
+      <c r="AB250" s="113"/>
+      <c r="AC250" s="121"/>
+      <c r="AD250" s="180"/>
+      <c r="AE250" s="181"/>
+      <c r="AF250" s="181"/>
+      <c r="AG250" s="182"/>
+      <c r="AH250" s="180"/>
+      <c r="AI250" s="182"/>
+      <c r="AJ250" s="180"/>
+      <c r="AK250" s="181"/>
+      <c r="AL250" s="182"/>
+      <c r="AM250" s="92"/>
+      <c r="AN250" s="2"/>
       <c r="AP250" s="5"/>
       <c r="AQ250" s="2"/>
     </row>
@@ -16614,7 +16908,7 @@
       <c r="AK251" s="92"/>
       <c r="AL251" s="92"/>
       <c r="AM251" s="92"/>
-      <c r="AN251" s="37"/>
+      <c r="AN251" s="2"/>
       <c r="AP251" s="5"/>
       <c r="AQ251" s="2"/>
     </row>
@@ -16664,352 +16958,1314 @@
         <v>12</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F253" s="92"/>
+      <c r="G253" s="92"/>
+      <c r="H253" s="92"/>
+      <c r="I253" s="92"/>
+      <c r="J253" s="92"/>
+      <c r="K253" s="92"/>
+      <c r="L253" s="92"/>
+      <c r="M253" s="92"/>
+      <c r="N253" s="92"/>
+      <c r="O253" s="92"/>
+      <c r="P253" s="92"/>
+      <c r="Q253" s="92"/>
+      <c r="R253" s="92"/>
+      <c r="S253" s="92"/>
+      <c r="T253" s="92"/>
+      <c r="U253" s="92"/>
+      <c r="V253" s="92"/>
+      <c r="W253" s="92"/>
+      <c r="X253" s="92"/>
+      <c r="Y253" s="92"/>
+      <c r="Z253" s="92"/>
+      <c r="AA253" s="92"/>
+      <c r="AB253" s="92"/>
+      <c r="AC253" s="92"/>
+      <c r="AD253" s="92"/>
+      <c r="AE253" s="92"/>
+      <c r="AF253" s="92"/>
+      <c r="AG253" s="92"/>
+      <c r="AH253" s="92"/>
+      <c r="AI253" s="92"/>
+      <c r="AJ253" s="92"/>
+      <c r="AK253" s="92"/>
+      <c r="AL253" s="92"/>
+      <c r="AM253" s="92"/>
+      <c r="AN253" s="2"/>
       <c r="AP253" s="5"/>
       <c r="AQ253" s="2"/>
     </row>
     <row r="254" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
-      <c r="C254" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="92"/>
+      <c r="G254" s="92"/>
+      <c r="H254" s="92"/>
+      <c r="I254" s="92"/>
+      <c r="J254" s="92"/>
+      <c r="K254" s="92"/>
+      <c r="L254" s="92"/>
+      <c r="M254" s="92"/>
+      <c r="N254" s="92"/>
+      <c r="O254" s="92"/>
+      <c r="P254" s="92"/>
+      <c r="Q254" s="92"/>
+      <c r="R254" s="92"/>
+      <c r="S254" s="92"/>
+      <c r="T254" s="92"/>
+      <c r="U254" s="92"/>
+      <c r="V254" s="92"/>
+      <c r="W254" s="92"/>
+      <c r="X254" s="92"/>
+      <c r="Y254" s="92"/>
+      <c r="Z254" s="92"/>
+      <c r="AA254" s="92"/>
+      <c r="AB254" s="92"/>
+      <c r="AC254" s="92"/>
+      <c r="AD254" s="92"/>
+      <c r="AE254" s="92"/>
+      <c r="AF254" s="92"/>
+      <c r="AG254" s="92"/>
+      <c r="AH254" s="92"/>
+      <c r="AI254" s="92"/>
+      <c r="AJ254" s="92"/>
+      <c r="AK254" s="92"/>
+      <c r="AL254" s="92"/>
+      <c r="AM254" s="92"/>
+      <c r="AN254" s="2"/>
       <c r="AP254" s="5"/>
       <c r="AQ254" s="2"/>
     </row>
     <row r="255" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
-      <c r="C255" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D255" s="62"/>
+      <c r="E255" s="62"/>
+      <c r="F255" s="62"/>
+      <c r="G255" s="62"/>
+      <c r="H255" s="63"/>
+      <c r="I255" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="J255" s="62"/>
+      <c r="K255" s="62"/>
+      <c r="L255" s="62"/>
+      <c r="M255" s="62"/>
+      <c r="N255" s="62"/>
+      <c r="O255" s="62"/>
+      <c r="P255" s="62"/>
+      <c r="Q255" s="62"/>
+      <c r="R255" s="62"/>
+      <c r="S255" s="62"/>
+      <c r="T255" s="62"/>
+      <c r="U255" s="62"/>
+      <c r="V255" s="62"/>
+      <c r="W255" s="62"/>
+      <c r="X255" s="62"/>
+      <c r="Y255" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z255" s="62"/>
+      <c r="AA255" s="62"/>
+      <c r="AB255" s="62"/>
+      <c r="AC255" s="63"/>
+      <c r="AD255" s="192" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE255" s="193"/>
+      <c r="AF255" s="193"/>
+      <c r="AG255" s="193"/>
+      <c r="AH255" s="193"/>
+      <c r="AI255" s="193"/>
+      <c r="AJ255" s="193"/>
+      <c r="AK255" s="193"/>
+      <c r="AL255" s="194"/>
+      <c r="AM255" s="92"/>
+      <c r="AN255" s="2"/>
       <c r="AP255" s="5"/>
       <c r="AQ255" s="2"/>
     </row>
     <row r="256" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
-      <c r="C256" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="B256" s="9"/>
+      <c r="C256" s="64"/>
+      <c r="D256" s="65"/>
+      <c r="E256" s="65"/>
+      <c r="F256" s="65"/>
+      <c r="G256" s="65"/>
+      <c r="H256" s="66"/>
+      <c r="I256" s="65"/>
+      <c r="J256" s="65"/>
+      <c r="K256" s="65"/>
+      <c r="L256" s="65"/>
+      <c r="M256" s="65"/>
+      <c r="N256" s="65"/>
+      <c r="O256" s="65"/>
+      <c r="P256" s="65"/>
+      <c r="Q256" s="65"/>
+      <c r="R256" s="65"/>
+      <c r="S256" s="65"/>
+      <c r="T256" s="65"/>
+      <c r="U256" s="65"/>
+      <c r="V256" s="65"/>
+      <c r="W256" s="65"/>
+      <c r="X256" s="65"/>
+      <c r="Y256" s="64"/>
+      <c r="Z256" s="65"/>
+      <c r="AA256" s="65"/>
+      <c r="AB256" s="65"/>
+      <c r="AC256" s="66"/>
+      <c r="AD256" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE256" s="53"/>
+      <c r="AF256" s="53"/>
+      <c r="AG256" s="54"/>
+      <c r="AH256" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI256" s="54"/>
+      <c r="AJ256" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK256" s="53"/>
+      <c r="AL256" s="54"/>
+      <c r="AM256" s="92"/>
+      <c r="AN256" s="2"/>
       <c r="AP256" s="5"/>
       <c r="AQ256" s="2"/>
     </row>
     <row r="257" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
-      <c r="C257" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="B257" s="9"/>
+      <c r="C257" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" s="94"/>
+      <c r="E257" s="94"/>
+      <c r="F257" s="100"/>
+      <c r="G257" s="100"/>
+      <c r="H257" s="97"/>
+      <c r="I257" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="J257" s="100"/>
+      <c r="K257" s="100"/>
+      <c r="L257" s="100"/>
+      <c r="M257" s="100"/>
+      <c r="N257" s="100"/>
+      <c r="O257" s="100"/>
+      <c r="P257" s="100"/>
+      <c r="Q257" s="100"/>
+      <c r="R257" s="100"/>
+      <c r="S257" s="100"/>
+      <c r="T257" s="100"/>
+      <c r="U257" s="100"/>
+      <c r="V257" s="100"/>
+      <c r="W257" s="100"/>
+      <c r="X257" s="100"/>
+      <c r="Y257" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z257" s="100"/>
+      <c r="AA257" s="100"/>
+      <c r="AB257" s="100"/>
+      <c r="AC257" s="104"/>
+      <c r="AD257" s="235" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE257" s="241"/>
+      <c r="AF257" s="241"/>
+      <c r="AG257" s="236"/>
+      <c r="AH257" s="235" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI257" s="236"/>
+      <c r="AJ257" s="235" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK257" s="241"/>
+      <c r="AL257" s="236"/>
+      <c r="AM257" s="92"/>
+      <c r="AN257" s="2"/>
       <c r="AP257" s="5"/>
       <c r="AQ257" s="2"/>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
-      <c r="D258" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="B258" s="9"/>
+      <c r="C258" s="84"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="92"/>
+      <c r="G258" s="92"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J258" s="99"/>
+      <c r="K258" s="99"/>
+      <c r="L258" s="99"/>
+      <c r="M258" s="99"/>
+      <c r="N258" s="99"/>
+      <c r="O258" s="99"/>
+      <c r="P258" s="99"/>
+      <c r="Q258" s="99"/>
+      <c r="R258" s="99"/>
+      <c r="S258" s="99"/>
+      <c r="T258" s="99"/>
+      <c r="U258" s="99"/>
+      <c r="V258" s="99"/>
+      <c r="W258" s="99"/>
+      <c r="X258" s="99"/>
+      <c r="Y258" s="107"/>
+      <c r="Z258" s="99"/>
+      <c r="AA258" s="99"/>
+      <c r="AB258" s="99"/>
+      <c r="AC258" s="103"/>
+      <c r="AD258" s="237"/>
+      <c r="AE258" s="242"/>
+      <c r="AF258" s="242"/>
+      <c r="AG258" s="238"/>
+      <c r="AH258" s="237"/>
+      <c r="AI258" s="238"/>
+      <c r="AJ258" s="237"/>
+      <c r="AK258" s="242"/>
+      <c r="AL258" s="238"/>
+      <c r="AM258" s="92"/>
+      <c r="AN258" s="2"/>
       <c r="AP258" s="5"/>
       <c r="AQ258" s="2"/>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="84"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="16"/>
+      <c r="F259" s="92"/>
+      <c r="G259" s="92"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J259" s="98"/>
+      <c r="K259" s="98"/>
+      <c r="L259" s="98"/>
+      <c r="M259" s="98"/>
+      <c r="N259" s="98"/>
+      <c r="O259" s="98"/>
+      <c r="P259" s="98"/>
+      <c r="Q259" s="98"/>
+      <c r="R259" s="98"/>
+      <c r="S259" s="98"/>
+      <c r="T259" s="98"/>
+      <c r="U259" s="98"/>
+      <c r="V259" s="98"/>
+      <c r="W259" s="98"/>
+      <c r="X259" s="98"/>
+      <c r="Y259" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z259" s="98"/>
+      <c r="AA259" s="98"/>
+      <c r="AB259" s="98"/>
+      <c r="AC259" s="102"/>
+      <c r="AD259" s="235" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE259" s="241"/>
+      <c r="AF259" s="241"/>
+      <c r="AG259" s="236"/>
+      <c r="AH259" s="235" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI259" s="236"/>
+      <c r="AJ259" s="235" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK259" s="241"/>
+      <c r="AL259" s="236"/>
+      <c r="AM259" s="92"/>
+      <c r="AN259" s="2"/>
       <c r="AP259" s="5"/>
       <c r="AQ259" s="2"/>
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="31"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="99"/>
+      <c r="G260" s="113"/>
+      <c r="H260" s="114"/>
+      <c r="I260" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="J260" s="105"/>
+      <c r="K260" s="105"/>
+      <c r="L260" s="105"/>
+      <c r="M260" s="105"/>
+      <c r="N260" s="105"/>
+      <c r="O260" s="105"/>
+      <c r="P260" s="105"/>
+      <c r="Q260" s="105"/>
+      <c r="R260" s="105"/>
+      <c r="S260" s="105"/>
+      <c r="T260" s="105"/>
+      <c r="U260" s="105"/>
+      <c r="V260" s="105"/>
+      <c r="W260" s="105"/>
+      <c r="X260" s="105"/>
+      <c r="Y260" s="109" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z260" s="105"/>
+      <c r="AA260" s="105"/>
+      <c r="AB260" s="105"/>
+      <c r="AC260" s="116"/>
+      <c r="AD260" s="239" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE260" s="243"/>
+      <c r="AF260" s="243"/>
+      <c r="AG260" s="240"/>
+      <c r="AH260" s="239" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI260" s="240"/>
+      <c r="AJ260" s="239" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK260" s="243"/>
+      <c r="AL260" s="240"/>
+      <c r="AM260" s="92"/>
+      <c r="AN260" s="2"/>
       <c r="AP260" s="5"/>
       <c r="AQ260" s="2"/>
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
-      <c r="B261" s="1">
-        <v>13</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="B261" s="9"/>
+      <c r="C261" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D261" s="94"/>
+      <c r="E261" s="94"/>
+      <c r="F261" s="100"/>
+      <c r="G261" s="117"/>
+      <c r="H261" s="118"/>
+      <c r="I261" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="J261" s="105"/>
+      <c r="K261" s="105"/>
+      <c r="L261" s="105"/>
+      <c r="M261" s="105"/>
+      <c r="N261" s="105"/>
+      <c r="O261" s="105"/>
+      <c r="P261" s="105"/>
+      <c r="Q261" s="105"/>
+      <c r="R261" s="105"/>
+      <c r="S261" s="105"/>
+      <c r="T261" s="105"/>
+      <c r="U261" s="105"/>
+      <c r="V261" s="105"/>
+      <c r="W261" s="105"/>
+      <c r="X261" s="105"/>
+      <c r="Y261" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z261" s="105"/>
+      <c r="AA261" s="105"/>
+      <c r="AB261" s="105"/>
+      <c r="AC261" s="116"/>
+      <c r="AD261" s="239" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE261" s="243"/>
+      <c r="AF261" s="243"/>
+      <c r="AG261" s="240"/>
+      <c r="AH261" s="239" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI261" s="240"/>
+      <c r="AJ261" s="239" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK261" s="243"/>
+      <c r="AL261" s="240"/>
+      <c r="AM261" s="92"/>
+      <c r="AN261" s="2"/>
       <c r="AP261" s="5"/>
       <c r="AQ261" s="2"/>
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
-      <c r="C262" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="B262" s="9"/>
+      <c r="C262" s="84"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="92"/>
+      <c r="G262" s="119"/>
+      <c r="H262" s="120"/>
+      <c r="I262" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="J262" s="105"/>
+      <c r="K262" s="105"/>
+      <c r="L262" s="105"/>
+      <c r="M262" s="105"/>
+      <c r="N262" s="105"/>
+      <c r="O262" s="105"/>
+      <c r="P262" s="105"/>
+      <c r="Q262" s="105"/>
+      <c r="R262" s="105"/>
+      <c r="S262" s="105"/>
+      <c r="T262" s="105"/>
+      <c r="U262" s="105"/>
+      <c r="V262" s="105"/>
+      <c r="W262" s="105"/>
+      <c r="X262" s="105"/>
+      <c r="Y262" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z262" s="105"/>
+      <c r="AA262" s="105"/>
+      <c r="AB262" s="105"/>
+      <c r="AC262" s="116"/>
+      <c r="AD262" s="239" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE262" s="243"/>
+      <c r="AF262" s="243"/>
+      <c r="AG262" s="240"/>
+      <c r="AH262" s="239" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI262" s="240"/>
+      <c r="AJ262" s="239" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK262" s="243"/>
+      <c r="AL262" s="240"/>
+      <c r="AM262" s="92"/>
+      <c r="AN262" s="2"/>
       <c r="AP262" s="5"/>
       <c r="AQ262" s="2"/>
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
-      <c r="C263" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="B263" s="9"/>
+      <c r="C263" s="31"/>
+      <c r="D263" s="32"/>
+      <c r="E263" s="32"/>
+      <c r="F263" s="99"/>
+      <c r="G263" s="113"/>
+      <c r="H263" s="121"/>
+      <c r="I263" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="J263" s="105"/>
+      <c r="K263" s="105"/>
+      <c r="L263" s="105"/>
+      <c r="M263" s="105"/>
+      <c r="N263" s="105"/>
+      <c r="O263" s="105"/>
+      <c r="P263" s="105"/>
+      <c r="Q263" s="105"/>
+      <c r="R263" s="105"/>
+      <c r="S263" s="105"/>
+      <c r="T263" s="105"/>
+      <c r="U263" s="105"/>
+      <c r="V263" s="105"/>
+      <c r="W263" s="105"/>
+      <c r="X263" s="105"/>
+      <c r="Y263" s="109" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z263" s="105"/>
+      <c r="AA263" s="105"/>
+      <c r="AB263" s="105"/>
+      <c r="AC263" s="116"/>
+      <c r="AD263" s="244" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE263" s="245"/>
+      <c r="AF263" s="245"/>
+      <c r="AG263" s="246"/>
+      <c r="AH263" s="244" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI263" s="246"/>
+      <c r="AJ263" s="239" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK263" s="243"/>
+      <c r="AL263" s="240"/>
+      <c r="AM263" s="92"/>
+      <c r="AN263" s="2"/>
       <c r="AP263" s="5"/>
       <c r="AQ263" s="2"/>
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="98"/>
+      <c r="G264" s="98"/>
+      <c r="H264" s="102"/>
+      <c r="I264" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="J264" s="98"/>
+      <c r="K264" s="98"/>
+      <c r="L264" s="98"/>
+      <c r="M264" s="98"/>
+      <c r="N264" s="98"/>
+      <c r="O264" s="98"/>
+      <c r="P264" s="98"/>
+      <c r="Q264" s="98"/>
+      <c r="R264" s="98"/>
+      <c r="S264" s="98"/>
+      <c r="T264" s="98"/>
+      <c r="U264" s="98"/>
+      <c r="V264" s="98"/>
+      <c r="W264" s="98"/>
+      <c r="X264" s="98"/>
+      <c r="Y264" s="109" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z264" s="98"/>
+      <c r="AA264" s="98"/>
+      <c r="AB264" s="98"/>
+      <c r="AC264" s="102"/>
+      <c r="AD264" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE264" s="217"/>
+      <c r="AF264" s="217"/>
+      <c r="AG264" s="218"/>
+      <c r="AH264" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI264" s="218"/>
+      <c r="AJ264" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK264" s="217"/>
+      <c r="AL264" s="218"/>
+      <c r="AM264" s="92"/>
+      <c r="AN264" s="2"/>
       <c r="AP264" s="5"/>
       <c r="AQ264" s="2"/>
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="92"/>
+      <c r="G265" s="92"/>
+      <c r="H265" s="92"/>
+      <c r="I265" s="92"/>
+      <c r="J265" s="92"/>
+      <c r="K265" s="92"/>
+      <c r="L265" s="92"/>
+      <c r="M265" s="92"/>
+      <c r="N265" s="92"/>
+      <c r="O265" s="92"/>
+      <c r="P265" s="92"/>
+      <c r="Q265" s="92"/>
+      <c r="R265" s="92"/>
+      <c r="S265" s="92"/>
+      <c r="T265" s="92"/>
+      <c r="U265" s="92"/>
+      <c r="V265" s="92"/>
+      <c r="W265" s="92"/>
+      <c r="X265" s="92"/>
+      <c r="Y265" s="92"/>
+      <c r="Z265" s="92"/>
+      <c r="AA265" s="92"/>
+      <c r="AB265" s="92"/>
+      <c r="AC265" s="92"/>
+      <c r="AD265" s="92"/>
+      <c r="AE265" s="92"/>
+      <c r="AF265" s="92"/>
+      <c r="AG265" s="92"/>
+      <c r="AH265" s="92"/>
+      <c r="AI265" s="92"/>
+      <c r="AJ265" s="92"/>
+      <c r="AK265" s="92"/>
+      <c r="AL265" s="92"/>
+      <c r="AM265" s="92"/>
+      <c r="AN265" s="2"/>
       <c r="AP265" s="5"/>
       <c r="AQ265" s="2"/>
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
+      <c r="C266" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D266" s="16"/>
+      <c r="E266" s="16"/>
+      <c r="F266" s="92"/>
+      <c r="G266" s="92"/>
+      <c r="H266" s="92"/>
+      <c r="I266" s="92"/>
+      <c r="J266" s="92"/>
+      <c r="K266" s="92"/>
+      <c r="L266" s="92"/>
+      <c r="M266" s="92"/>
+      <c r="N266" s="92"/>
+      <c r="O266" s="92"/>
+      <c r="P266" s="92"/>
+      <c r="Q266" s="92"/>
+      <c r="R266" s="92"/>
+      <c r="S266" s="92"/>
+      <c r="T266" s="92"/>
+      <c r="U266" s="92"/>
+      <c r="V266" s="92"/>
+      <c r="W266" s="92"/>
+      <c r="X266" s="92"/>
+      <c r="Y266" s="92"/>
+      <c r="Z266" s="92"/>
+      <c r="AA266" s="92"/>
+      <c r="AB266" s="92"/>
+      <c r="AC266" s="92"/>
+      <c r="AD266" s="92"/>
+      <c r="AE266" s="92"/>
+      <c r="AF266" s="92"/>
+      <c r="AG266" s="92"/>
+      <c r="AH266" s="92"/>
+      <c r="AI266" s="92"/>
+      <c r="AJ266" s="92"/>
+      <c r="AK266" s="92"/>
+      <c r="AL266" s="92"/>
+      <c r="AM266" s="92"/>
+      <c r="AN266" s="110"/>
       <c r="AP266" s="5"/>
       <c r="AQ266" s="2"/>
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="D267" s="112"/>
+      <c r="E267" s="112"/>
+      <c r="F267" s="62"/>
+      <c r="G267" s="62"/>
+      <c r="H267" s="62"/>
+      <c r="I267" s="62"/>
+      <c r="J267" s="62"/>
+      <c r="K267" s="62"/>
+      <c r="L267" s="62"/>
+      <c r="M267" s="62"/>
+      <c r="N267" s="62"/>
+      <c r="O267" s="62"/>
+      <c r="P267" s="62"/>
+      <c r="Q267" s="62"/>
+      <c r="R267" s="62"/>
+      <c r="S267" s="62"/>
+      <c r="T267" s="62"/>
+      <c r="U267" s="62"/>
+      <c r="V267" s="62"/>
+      <c r="W267" s="62"/>
+      <c r="X267" s="62"/>
+      <c r="Y267" s="62"/>
+      <c r="Z267" s="62"/>
+      <c r="AA267" s="62"/>
+      <c r="AB267" s="62"/>
+      <c r="AC267" s="62"/>
+      <c r="AD267" s="62"/>
+      <c r="AE267" s="62"/>
+      <c r="AF267" s="62"/>
+      <c r="AG267" s="62"/>
+      <c r="AH267" s="62"/>
+      <c r="AI267" s="62"/>
+      <c r="AJ267" s="62"/>
+      <c r="AK267" s="62"/>
+      <c r="AL267" s="62"/>
+      <c r="AM267" s="62"/>
+      <c r="AN267" s="63"/>
+      <c r="AO267" s="2"/>
       <c r="AP267" s="5"/>
       <c r="AQ267" s="2"/>
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="D268" s="94"/>
+      <c r="E268" s="94"/>
+      <c r="F268" s="100"/>
+      <c r="G268" s="100"/>
+      <c r="H268" s="100"/>
+      <c r="I268" s="100"/>
+      <c r="J268" s="100"/>
+      <c r="K268" s="100"/>
+      <c r="L268" s="100"/>
+      <c r="M268" s="100"/>
+      <c r="N268" s="100"/>
+      <c r="O268" s="100"/>
+      <c r="P268" s="100"/>
+      <c r="Q268" s="100"/>
+      <c r="R268" s="100"/>
+      <c r="S268" s="100"/>
+      <c r="T268" s="100"/>
+      <c r="U268" s="100"/>
+      <c r="V268" s="100"/>
+      <c r="W268" s="100"/>
+      <c r="X268" s="100"/>
+      <c r="Y268" s="100"/>
+      <c r="Z268" s="100"/>
+      <c r="AA268" s="100"/>
+      <c r="AB268" s="100"/>
+      <c r="AC268" s="100"/>
+      <c r="AD268" s="100"/>
+      <c r="AE268" s="100"/>
+      <c r="AF268" s="100"/>
+      <c r="AG268" s="100"/>
+      <c r="AH268" s="100"/>
+      <c r="AI268" s="100"/>
+      <c r="AJ268" s="100"/>
+      <c r="AK268" s="100"/>
+      <c r="AL268" s="100"/>
+      <c r="AM268" s="100"/>
+      <c r="AN268" s="104"/>
+      <c r="AO268" s="2"/>
       <c r="AP268" s="5"/>
       <c r="AQ268" s="2"/>
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="D269" s="94"/>
+      <c r="E269" s="94"/>
+      <c r="F269" s="100"/>
+      <c r="G269" s="100"/>
+      <c r="H269" s="100"/>
+      <c r="I269" s="100"/>
+      <c r="J269" s="100"/>
+      <c r="K269" s="100"/>
+      <c r="L269" s="100"/>
+      <c r="M269" s="100"/>
+      <c r="N269" s="100"/>
+      <c r="O269" s="100"/>
+      <c r="P269" s="100"/>
+      <c r="Q269" s="100"/>
+      <c r="R269" s="100"/>
+      <c r="S269" s="100"/>
+      <c r="T269" s="100"/>
+      <c r="U269" s="100"/>
+      <c r="V269" s="100"/>
+      <c r="W269" s="100"/>
+      <c r="X269" s="100"/>
+      <c r="Y269" s="100"/>
+      <c r="Z269" s="100"/>
+      <c r="AA269" s="100"/>
+      <c r="AB269" s="100"/>
+      <c r="AC269" s="100"/>
+      <c r="AD269" s="100"/>
+      <c r="AE269" s="100"/>
+      <c r="AF269" s="100"/>
+      <c r="AG269" s="100"/>
+      <c r="AH269" s="100"/>
+      <c r="AI269" s="100"/>
+      <c r="AJ269" s="100"/>
+      <c r="AK269" s="100"/>
+      <c r="AL269" s="100"/>
+      <c r="AM269" s="100"/>
+      <c r="AN269" s="104"/>
+      <c r="AO269" s="2"/>
       <c r="AP269" s="5"/>
       <c r="AQ269" s="2"/>
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="98"/>
+      <c r="G270" s="98"/>
+      <c r="H270" s="98"/>
+      <c r="I270" s="98"/>
+      <c r="J270" s="98"/>
+      <c r="K270" s="98"/>
+      <c r="L270" s="98"/>
+      <c r="M270" s="98"/>
+      <c r="N270" s="98"/>
+      <c r="O270" s="98"/>
+      <c r="P270" s="98"/>
+      <c r="Q270" s="98"/>
+      <c r="R270" s="98"/>
+      <c r="S270" s="98"/>
+      <c r="T270" s="98"/>
+      <c r="U270" s="98"/>
+      <c r="V270" s="98"/>
+      <c r="W270" s="98"/>
+      <c r="X270" s="98"/>
+      <c r="Y270" s="98"/>
+      <c r="Z270" s="98"/>
+      <c r="AA270" s="98"/>
+      <c r="AB270" s="98"/>
+      <c r="AC270" s="98"/>
+      <c r="AD270" s="98"/>
+      <c r="AE270" s="98"/>
+      <c r="AF270" s="98"/>
+      <c r="AG270" s="98"/>
+      <c r="AH270" s="98"/>
+      <c r="AI270" s="98"/>
+      <c r="AJ270" s="98"/>
+      <c r="AK270" s="98"/>
+      <c r="AL270" s="98"/>
+      <c r="AM270" s="98"/>
+      <c r="AN270" s="102"/>
+      <c r="AO270" s="2"/>
       <c r="AP270" s="5"/>
       <c r="AQ270" s="2"/>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="92"/>
+      <c r="G271" s="92"/>
+      <c r="H271" s="92"/>
+      <c r="I271" s="92"/>
+      <c r="J271" s="92"/>
+      <c r="K271" s="92"/>
+      <c r="L271" s="92"/>
+      <c r="M271" s="92"/>
+      <c r="N271" s="92"/>
+      <c r="O271" s="92"/>
+      <c r="P271" s="92"/>
+      <c r="Q271" s="92"/>
+      <c r="R271" s="92"/>
+      <c r="S271" s="92"/>
+      <c r="T271" s="92"/>
+      <c r="U271" s="92"/>
+      <c r="V271" s="92"/>
+      <c r="W271" s="92"/>
+      <c r="X271" s="92"/>
+      <c r="Y271" s="92"/>
+      <c r="Z271" s="92"/>
+      <c r="AA271" s="92"/>
+      <c r="AB271" s="92"/>
+      <c r="AC271" s="92"/>
+      <c r="AD271" s="92"/>
+      <c r="AE271" s="92"/>
+      <c r="AF271" s="92"/>
+      <c r="AG271" s="92"/>
+      <c r="AH271" s="92"/>
+      <c r="AI271" s="92"/>
+      <c r="AJ271" s="92"/>
+      <c r="AK271" s="92"/>
+      <c r="AL271" s="92"/>
+      <c r="AM271" s="92"/>
+      <c r="AN271" s="37"/>
       <c r="AP271" s="5"/>
       <c r="AQ271" s="2"/>
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A272" s="6"/>
-      <c r="B272" s="7"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="7"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7"/>
-      <c r="I272" s="7"/>
-      <c r="J272" s="7"/>
-      <c r="K272" s="7"/>
-      <c r="L272" s="7"/>
-      <c r="M272" s="7"/>
-      <c r="N272" s="7"/>
-      <c r="O272" s="7"/>
-      <c r="P272" s="7"/>
-      <c r="Q272" s="7"/>
-      <c r="R272" s="7"/>
-      <c r="S272" s="7"/>
-      <c r="T272" s="7"/>
-      <c r="U272" s="7"/>
-      <c r="V272" s="7"/>
-      <c r="W272" s="7"/>
-      <c r="X272" s="7"/>
-      <c r="Y272" s="7"/>
-      <c r="Z272" s="7"/>
-      <c r="AA272" s="7"/>
-      <c r="AB272" s="7"/>
-      <c r="AC272" s="7"/>
-      <c r="AD272" s="7"/>
-      <c r="AE272" s="7"/>
-      <c r="AF272" s="7"/>
-      <c r="AG272" s="7"/>
-      <c r="AH272" s="7"/>
-      <c r="AI272" s="7"/>
-      <c r="AJ272" s="7"/>
-      <c r="AK272" s="7"/>
-      <c r="AL272" s="7"/>
-      <c r="AM272" s="7"/>
-      <c r="AN272" s="7"/>
-      <c r="AO272" s="7"/>
-      <c r="AP272" s="8"/>
+      <c r="A272" s="4"/>
+      <c r="F272" s="92"/>
+      <c r="G272" s="92"/>
+      <c r="H272" s="92"/>
+      <c r="I272" s="92"/>
+      <c r="J272" s="92"/>
+      <c r="K272" s="92"/>
+      <c r="L272" s="92"/>
+      <c r="M272" s="92"/>
+      <c r="N272" s="92"/>
+      <c r="O272" s="92"/>
+      <c r="P272" s="92"/>
+      <c r="Q272" s="92"/>
+      <c r="R272" s="92"/>
+      <c r="S272" s="92"/>
+      <c r="T272" s="92"/>
+      <c r="U272" s="92"/>
+      <c r="V272" s="92"/>
+      <c r="W272" s="92"/>
+      <c r="X272" s="92"/>
+      <c r="Y272" s="92"/>
+      <c r="Z272" s="92"/>
+      <c r="AA272" s="92"/>
+      <c r="AB272" s="92"/>
+      <c r="AC272" s="92"/>
+      <c r="AD272" s="92"/>
+      <c r="AE272" s="92"/>
+      <c r="AF272" s="92"/>
+      <c r="AG272" s="92"/>
+      <c r="AH272" s="92"/>
+      <c r="AI272" s="92"/>
+      <c r="AJ272" s="92"/>
+      <c r="AK272" s="92"/>
+      <c r="AL272" s="92"/>
+      <c r="AM272" s="92"/>
+      <c r="AN272" s="2"/>
+      <c r="AP272" s="5"/>
       <c r="AQ272" s="2"/>
     </row>
-    <row r="273" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
-      <c r="N273" s="3"/>
-      <c r="O273" s="3"/>
-      <c r="P273" s="3"/>
-      <c r="Q273" s="3"/>
-      <c r="R273" s="3"/>
-      <c r="S273" s="3"/>
-      <c r="T273" s="3"/>
-      <c r="U273" s="3"/>
-      <c r="V273" s="3"/>
-      <c r="W273" s="3"/>
-      <c r="X273" s="3"/>
-      <c r="Y273" s="3"/>
-      <c r="Z273" s="3"/>
-      <c r="AA273" s="3"/>
-      <c r="AB273" s="3"/>
-      <c r="AC273" s="3"/>
-      <c r="AD273" s="3"/>
-      <c r="AE273" s="3"/>
-      <c r="AF273" s="3"/>
-      <c r="AG273" s="3"/>
-      <c r="AH273" s="3"/>
-      <c r="AI273" s="3"/>
-      <c r="AJ273" s="3"/>
-      <c r="AK273" s="3"/>
-      <c r="AL273" s="3"/>
-      <c r="AM273" s="3"/>
-      <c r="AN273" s="3"/>
-      <c r="AO273" s="3"/>
-      <c r="AP273" s="3"/>
+    <row r="273" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A273" s="4"/>
+      <c r="B273" s="1">
+        <v>13</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP273" s="5"/>
+      <c r="AQ273" s="2"/>
+    </row>
+    <row r="274" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A274" s="4"/>
+      <c r="C274" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP274" s="5"/>
+      <c r="AQ274" s="2"/>
+    </row>
+    <row r="275" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A275" s="4"/>
+      <c r="C275" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP275" s="5"/>
+      <c r="AQ275" s="2"/>
+    </row>
+    <row r="276" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A276" s="4"/>
+      <c r="C276" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP276" s="5"/>
+      <c r="AQ276" s="2"/>
+    </row>
+    <row r="277" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A277" s="4"/>
+      <c r="C277" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP277" s="5"/>
+      <c r="AQ277" s="2"/>
+    </row>
+    <row r="278" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A278" s="4"/>
+      <c r="D278" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP278" s="5"/>
+      <c r="AQ278" s="2"/>
+    </row>
+    <row r="279" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A279" s="4"/>
+      <c r="AP279" s="5"/>
+      <c r="AQ279" s="2"/>
+    </row>
+    <row r="280" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A280" s="4"/>
+      <c r="AP280" s="5"/>
+      <c r="AQ280" s="2"/>
+    </row>
+    <row r="281" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A281" s="4"/>
+      <c r="B281" s="1">
+        <v>14</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP281" s="5"/>
+      <c r="AQ281" s="2"/>
+    </row>
+    <row r="282" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A282" s="4"/>
+      <c r="C282" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP282" s="5"/>
+      <c r="AQ282" s="2"/>
+    </row>
+    <row r="283" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A283" s="4"/>
+      <c r="C283" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP283" s="5"/>
+      <c r="AQ283" s="2"/>
+    </row>
+    <row r="284" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A284" s="4"/>
+      <c r="AP284" s="5"/>
+      <c r="AQ284" s="2"/>
+    </row>
+    <row r="285" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A285" s="4"/>
+      <c r="AP285" s="5"/>
+      <c r="AQ285" s="2"/>
+    </row>
+    <row r="286" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A286" s="4"/>
+      <c r="AP286" s="5"/>
+      <c r="AQ286" s="2"/>
+    </row>
+    <row r="287" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A287" s="4"/>
+      <c r="AP287" s="5"/>
+      <c r="AQ287" s="2"/>
+    </row>
+    <row r="288" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A288" s="4"/>
+      <c r="AP288" s="5"/>
+      <c r="AQ288" s="2"/>
+    </row>
+    <row r="289" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A289" s="4"/>
+      <c r="AP289" s="5"/>
+      <c r="AQ289" s="2"/>
+    </row>
+    <row r="290" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A290" s="4"/>
+      <c r="AP290" s="5"/>
+      <c r="AQ290" s="2"/>
+    </row>
+    <row r="291" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A291" s="4"/>
+      <c r="AP291" s="5"/>
+      <c r="AQ291" s="2"/>
+    </row>
+    <row r="292" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A292" s="6"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+      <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="7"/>
+      <c r="N292" s="7"/>
+      <c r="O292" s="7"/>
+      <c r="P292" s="7"/>
+      <c r="Q292" s="7"/>
+      <c r="R292" s="7"/>
+      <c r="S292" s="7"/>
+      <c r="T292" s="7"/>
+      <c r="U292" s="7"/>
+      <c r="V292" s="7"/>
+      <c r="W292" s="7"/>
+      <c r="X292" s="7"/>
+      <c r="Y292" s="7"/>
+      <c r="Z292" s="7"/>
+      <c r="AA292" s="7"/>
+      <c r="AB292" s="7"/>
+      <c r="AC292" s="7"/>
+      <c r="AD292" s="7"/>
+      <c r="AE292" s="7"/>
+      <c r="AF292" s="7"/>
+      <c r="AG292" s="7"/>
+      <c r="AH292" s="7"/>
+      <c r="AI292" s="7"/>
+      <c r="AJ292" s="7"/>
+      <c r="AK292" s="7"/>
+      <c r="AL292" s="7"/>
+      <c r="AM292" s="7"/>
+      <c r="AN292" s="7"/>
+      <c r="AO292" s="7"/>
+      <c r="AP292" s="8"/>
+      <c r="AQ292" s="2"/>
+    </row>
+    <row r="293" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
+      <c r="P293" s="3"/>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="3"/>
+      <c r="T293" s="3"/>
+      <c r="U293" s="3"/>
+      <c r="V293" s="3"/>
+      <c r="W293" s="3"/>
+      <c r="X293" s="3"/>
+      <c r="Y293" s="3"/>
+      <c r="Z293" s="3"/>
+      <c r="AA293" s="3"/>
+      <c r="AB293" s="3"/>
+      <c r="AC293" s="3"/>
+      <c r="AD293" s="3"/>
+      <c r="AE293" s="3"/>
+      <c r="AF293" s="3"/>
+      <c r="AG293" s="3"/>
+      <c r="AH293" s="3"/>
+      <c r="AI293" s="3"/>
+      <c r="AJ293" s="3"/>
+      <c r="AK293" s="3"/>
+      <c r="AL293" s="3"/>
+      <c r="AM293" s="3"/>
+      <c r="AN293" s="3"/>
+      <c r="AO293" s="3"/>
+      <c r="AP293" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
-    <mergeCell ref="S183:X183"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S169:X169"/>
+  <mergeCells count="234">
+    <mergeCell ref="S184:X184"/>
+    <mergeCell ref="Y184:AD184"/>
+    <mergeCell ref="AE184:AJ184"/>
+    <mergeCell ref="S180:X180"/>
+    <mergeCell ref="Y180:AD180"/>
+    <mergeCell ref="AE180:AJ180"/>
+    <mergeCell ref="S177:X177"/>
+    <mergeCell ref="Y177:AD177"/>
+    <mergeCell ref="AE177:AJ177"/>
+    <mergeCell ref="S178:X178"/>
+    <mergeCell ref="Y178:AD178"/>
+    <mergeCell ref="AE178:AJ178"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="AE179:AJ179"/>
+    <mergeCell ref="S181:X181"/>
+    <mergeCell ref="AE181:AJ181"/>
+    <mergeCell ref="Y181:AD181"/>
     <mergeCell ref="S182:X182"/>
-    <mergeCell ref="S181:X181"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
     <mergeCell ref="S170:X170"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="Y148:AD148"/>
     <mergeCell ref="S166:X166"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="Y153:AD153"/>
     <mergeCell ref="S163:X163"/>
     <mergeCell ref="S167:X167"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="AE181:AJ181"/>
-    <mergeCell ref="Y181:AD181"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="AD255:AL255"/>
+    <mergeCell ref="AD257:AG257"/>
+    <mergeCell ref="AD258:AG258"/>
+    <mergeCell ref="AD259:AG259"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AD261:AG261"/>
+    <mergeCell ref="AD262:AG262"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
     <mergeCell ref="AE182:AJ182"/>
     <mergeCell ref="AE183:AJ183"/>
     <mergeCell ref="Y182:AD182"/>
     <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
     <mergeCell ref="Y163:AD163"/>
     <mergeCell ref="Y167:AD167"/>
     <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="Y130:AD130"/>
-    <mergeCell ref="Y131:AD131"/>
-    <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="AD264:AG264"/>
+    <mergeCell ref="AH257:AI257"/>
+    <mergeCell ref="AH258:AI258"/>
+    <mergeCell ref="AH259:AI259"/>
+    <mergeCell ref="AH260:AI260"/>
+    <mergeCell ref="AH261:AI261"/>
+    <mergeCell ref="AH262:AI262"/>
+    <mergeCell ref="AH264:AI264"/>
+    <mergeCell ref="AJ257:AL257"/>
+    <mergeCell ref="AJ258:AL258"/>
+    <mergeCell ref="AJ259:AL259"/>
+    <mergeCell ref="AJ260:AL260"/>
+    <mergeCell ref="AJ261:AL261"/>
+    <mergeCell ref="AJ262:AL262"/>
+    <mergeCell ref="AJ264:AL264"/>
+    <mergeCell ref="AD263:AG263"/>
+    <mergeCell ref="AH263:AI263"/>
+    <mergeCell ref="AJ263:AL263"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
     <mergeCell ref="S133:X133"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="Y132:AD132"/>
-    <mergeCell ref="Y134:AD134"/>
-    <mergeCell ref="Y135:AD135"/>
-    <mergeCell ref="Y136:AD136"/>
-    <mergeCell ref="Y145:AD145"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="Y133:AD133"/>
-    <mergeCell ref="Y138:AD138"/>
-    <mergeCell ref="Y139:AD139"/>
-    <mergeCell ref="Y140:AD140"/>
-    <mergeCell ref="Y141:AD141"/>
-    <mergeCell ref="Y142:AD142"/>
-    <mergeCell ref="Y143:AD143"/>
-    <mergeCell ref="Y144:AD144"/>
     <mergeCell ref="L50:AD50"/>
     <mergeCell ref="AE160:AJ160"/>
     <mergeCell ref="AE154:AJ154"/>
@@ -17033,89 +18289,120 @@
     <mergeCell ref="S131:X131"/>
     <mergeCell ref="S132:X132"/>
     <mergeCell ref="S134:X134"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="AD244:AG244"/>
-    <mergeCell ref="AH237:AI237"/>
-    <mergeCell ref="AH238:AI238"/>
-    <mergeCell ref="AH239:AI239"/>
-    <mergeCell ref="AH240:AI240"/>
-    <mergeCell ref="AH241:AI241"/>
-    <mergeCell ref="AH242:AI242"/>
-    <mergeCell ref="AH244:AI244"/>
-    <mergeCell ref="AJ237:AL237"/>
-    <mergeCell ref="AJ238:AL238"/>
-    <mergeCell ref="AJ239:AL239"/>
-    <mergeCell ref="AJ240:AL240"/>
-    <mergeCell ref="AJ241:AL241"/>
-    <mergeCell ref="AJ242:AL242"/>
-    <mergeCell ref="AJ244:AL244"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AH243:AI243"/>
+    <mergeCell ref="Y143:AD143"/>
+    <mergeCell ref="Y144:AD144"/>
     <mergeCell ref="S152:X152"/>
     <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="AJ243:AL243"/>
-    <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="AD237:AG237"/>
-    <mergeCell ref="AD238:AG238"/>
-    <mergeCell ref="AD239:AG239"/>
-    <mergeCell ref="AD240:AG240"/>
-    <mergeCell ref="AD241:AG241"/>
-    <mergeCell ref="AD242:AG242"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
     <mergeCell ref="S153:X153"/>
     <mergeCell ref="S154:X154"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE167:AJ167"/>
     <mergeCell ref="Y155:AD155"/>
     <mergeCell ref="Y156:AD156"/>
     <mergeCell ref="S158:X158"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="S180:X180"/>
-    <mergeCell ref="Y180:AD180"/>
-    <mergeCell ref="AE180:AJ180"/>
-    <mergeCell ref="S177:X177"/>
-    <mergeCell ref="Y177:AD177"/>
-    <mergeCell ref="AE177:AJ177"/>
-    <mergeCell ref="S178:X178"/>
-    <mergeCell ref="Y178:AD178"/>
-    <mergeCell ref="AE178:AJ178"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="AE179:AJ179"/>
-    <mergeCell ref="S184:X184"/>
-    <mergeCell ref="Y184:AD184"/>
-    <mergeCell ref="AE184:AJ184"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="Y132:AD132"/>
+    <mergeCell ref="Y134:AD134"/>
+    <mergeCell ref="Y135:AD135"/>
+    <mergeCell ref="Y136:AD136"/>
+    <mergeCell ref="Y130:AD130"/>
+    <mergeCell ref="Y131:AD131"/>
+    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="Y145:AD145"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="Y133:AD133"/>
+    <mergeCell ref="Y138:AD138"/>
+    <mergeCell ref="Y139:AD139"/>
+    <mergeCell ref="Y140:AD140"/>
+    <mergeCell ref="Y141:AD141"/>
+    <mergeCell ref="Y142:AD142"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="AD237:AG240"/>
+    <mergeCell ref="AJ237:AL240"/>
+    <mergeCell ref="AH237:AI240"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="S183:X183"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="Y137:AD137"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="AD245:AG248"/>
+    <mergeCell ref="AH245:AI248"/>
+    <mergeCell ref="AJ245:AL248"/>
+    <mergeCell ref="AJ249:AL250"/>
+    <mergeCell ref="AH249:AI250"/>
+    <mergeCell ref="AD249:AG250"/>
+    <mergeCell ref="AD241:AG244"/>
+    <mergeCell ref="AH241:AI244"/>
+    <mergeCell ref="AJ241:AL244"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -2838,13 +2838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　OKR削除、</t>
-    <rPh sb="4" eb="6">
-      <t>サク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自投稿操作</t>
     <rPh sb="0" eb="1">
       <t>ジ</t>
@@ -3205,6 +3198,16 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ハッシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　OKR削除、OKR追加、</t>
+    <rPh sb="4" eb="6">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4330,21 +4333,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="dotted">
@@ -4516,13 +4504,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4660,25 +4661,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4714,7 +4715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4732,6 +4733,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4741,7 +4787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4768,24 +4814,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4795,42 +4823,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4838,9 +4830,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4913,6 +4902,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6498,7 +6505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6729,13 +6736,13 @@
         <v>42979</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" s="71" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="71"/>
     </row>
@@ -6748,13 +6755,13 @@
         <v>42991</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="71" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F13" s="71"/>
     </row>
@@ -7250,7 +7257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ293"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
@@ -7260,15 +7267,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="225"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>72</v>
@@ -7279,53 +7286,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="232" t="s">
+      <c r="P1" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="233"/>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="233"/>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="230"/>
       <c r="AA1" s="44" t="s">
         <v>67</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="229">
+      <c r="AD1" s="225">
         <v>42760</v>
       </c>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="230"/>
-      <c r="AH1" s="231"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="227"/>
       <c r="AI1" s="44" t="s">
         <v>69</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="220" t="s">
+      <c r="AL1" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="221"/>
-      <c r="AN1" s="221"/>
-      <c r="AO1" s="221"/>
-      <c r="AP1" s="222"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="217"/>
+      <c r="AO1" s="217"/>
+      <c r="AP1" s="218"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="226"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="228"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="224"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>73</v>
@@ -7336,41 +7343,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="233"/>
-      <c r="R2" s="233"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="230"/>
       <c r="AA2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="229">
+      <c r="AD2" s="225">
         <v>42991</v>
       </c>
-      <c r="AE2" s="230"/>
-      <c r="AF2" s="230"/>
-      <c r="AG2" s="230"/>
-      <c r="AH2" s="231"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="227"/>
       <c r="AI2" s="44" t="s">
         <v>70</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="220" t="s">
+      <c r="AL2" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" s="221"/>
-      <c r="AN2" s="221"/>
-      <c r="AO2" s="221"/>
-      <c r="AP2" s="222"/>
+      <c r="AM2" s="217"/>
+      <c r="AN2" s="217"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="218"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7908,27 +7915,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="216" t="s">
+      <c r="L19" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="217"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
-      <c r="Q19" s="217"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="218"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
+      <c r="Q19" s="214"/>
+      <c r="R19" s="214"/>
+      <c r="S19" s="214"/>
+      <c r="T19" s="214"/>
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="214"/>
+      <c r="Z19" s="214"/>
+      <c r="AA19" s="214"/>
+      <c r="AB19" s="214"/>
+      <c r="AC19" s="214"/>
+      <c r="AD19" s="215"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7944,27 +7951,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="216" t="s">
+      <c r="L20" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="217"/>
-      <c r="N20" s="217"/>
-      <c r="O20" s="217"/>
-      <c r="P20" s="217"/>
-      <c r="Q20" s="217"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="217"/>
-      <c r="U20" s="217"/>
-      <c r="V20" s="217"/>
-      <c r="W20" s="217"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="217"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="217"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="218"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="214"/>
+      <c r="P20" s="214"/>
+      <c r="Q20" s="214"/>
+      <c r="R20" s="214"/>
+      <c r="S20" s="214"/>
+      <c r="T20" s="214"/>
+      <c r="U20" s="214"/>
+      <c r="V20" s="214"/>
+      <c r="W20" s="214"/>
+      <c r="X20" s="214"/>
+      <c r="Y20" s="214"/>
+      <c r="Z20" s="214"/>
+      <c r="AA20" s="214"/>
+      <c r="AB20" s="214"/>
+      <c r="AC20" s="214"/>
+      <c r="AD20" s="215"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7980,27 +7987,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="216" t="s">
+      <c r="L21" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="217"/>
-      <c r="N21" s="217"/>
-      <c r="O21" s="217"/>
-      <c r="P21" s="217"/>
-      <c r="Q21" s="217"/>
-      <c r="R21" s="217"/>
-      <c r="S21" s="217"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="217"/>
-      <c r="V21" s="217"/>
-      <c r="W21" s="217"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="217"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="217"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="218"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="214"/>
+      <c r="Q21" s="214"/>
+      <c r="R21" s="214"/>
+      <c r="S21" s="214"/>
+      <c r="T21" s="214"/>
+      <c r="U21" s="214"/>
+      <c r="V21" s="214"/>
+      <c r="W21" s="214"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="214"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="214"/>
+      <c r="AD21" s="215"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -8454,27 +8461,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="192" t="s">
+      <c r="L40" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="193"/>
-      <c r="N40" s="193"/>
-      <c r="O40" s="193"/>
-      <c r="P40" s="193"/>
-      <c r="Q40" s="193"/>
-      <c r="R40" s="193"/>
-      <c r="S40" s="193"/>
-      <c r="T40" s="193"/>
-      <c r="U40" s="193"/>
-      <c r="V40" s="193"/>
-      <c r="W40" s="193"/>
-      <c r="X40" s="193"/>
-      <c r="Y40" s="193"/>
-      <c r="Z40" s="193"/>
-      <c r="AA40" s="193"/>
-      <c r="AB40" s="193"/>
-      <c r="AC40" s="193"/>
-      <c r="AD40" s="194"/>
+      <c r="M40" s="208"/>
+      <c r="N40" s="208"/>
+      <c r="O40" s="208"/>
+      <c r="P40" s="208"/>
+      <c r="Q40" s="208"/>
+      <c r="R40" s="208"/>
+      <c r="S40" s="208"/>
+      <c r="T40" s="208"/>
+      <c r="U40" s="208"/>
+      <c r="V40" s="208"/>
+      <c r="W40" s="208"/>
+      <c r="X40" s="208"/>
+      <c r="Y40" s="208"/>
+      <c r="Z40" s="208"/>
+      <c r="AA40" s="208"/>
+      <c r="AB40" s="208"/>
+      <c r="AC40" s="208"/>
+      <c r="AD40" s="209"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8490,27 +8497,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="216" t="s">
+      <c r="L41" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="217"/>
-      <c r="N41" s="217"/>
-      <c r="O41" s="217"/>
-      <c r="P41" s="217"/>
-      <c r="Q41" s="217"/>
-      <c r="R41" s="217"/>
-      <c r="S41" s="217"/>
-      <c r="T41" s="217"/>
-      <c r="U41" s="217"/>
-      <c r="V41" s="217"/>
-      <c r="W41" s="217"/>
-      <c r="X41" s="217"/>
-      <c r="Y41" s="217"/>
-      <c r="Z41" s="217"/>
-      <c r="AA41" s="217"/>
-      <c r="AB41" s="217"/>
-      <c r="AC41" s="217"/>
-      <c r="AD41" s="218"/>
+      <c r="M41" s="214"/>
+      <c r="N41" s="214"/>
+      <c r="O41" s="214"/>
+      <c r="P41" s="214"/>
+      <c r="Q41" s="214"/>
+      <c r="R41" s="214"/>
+      <c r="S41" s="214"/>
+      <c r="T41" s="214"/>
+      <c r="U41" s="214"/>
+      <c r="V41" s="214"/>
+      <c r="W41" s="214"/>
+      <c r="X41" s="214"/>
+      <c r="Y41" s="214"/>
+      <c r="Z41" s="214"/>
+      <c r="AA41" s="214"/>
+      <c r="AB41" s="214"/>
+      <c r="AC41" s="214"/>
+      <c r="AD41" s="215"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8526,27 +8533,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="216" t="s">
+      <c r="L42" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="217"/>
-      <c r="N42" s="217"/>
-      <c r="O42" s="217"/>
-      <c r="P42" s="217"/>
-      <c r="Q42" s="217"/>
-      <c r="R42" s="217"/>
-      <c r="S42" s="217"/>
-      <c r="T42" s="217"/>
-      <c r="U42" s="217"/>
-      <c r="V42" s="217"/>
-      <c r="W42" s="217"/>
-      <c r="X42" s="217"/>
-      <c r="Y42" s="217"/>
-      <c r="Z42" s="217"/>
-      <c r="AA42" s="217"/>
-      <c r="AB42" s="217"/>
-      <c r="AC42" s="217"/>
-      <c r="AD42" s="218"/>
+      <c r="M42" s="214"/>
+      <c r="N42" s="214"/>
+      <c r="O42" s="214"/>
+      <c r="P42" s="214"/>
+      <c r="Q42" s="214"/>
+      <c r="R42" s="214"/>
+      <c r="S42" s="214"/>
+      <c r="T42" s="214"/>
+      <c r="U42" s="214"/>
+      <c r="V42" s="214"/>
+      <c r="W42" s="214"/>
+      <c r="X42" s="214"/>
+      <c r="Y42" s="214"/>
+      <c r="Z42" s="214"/>
+      <c r="AA42" s="214"/>
+      <c r="AB42" s="214"/>
+      <c r="AC42" s="214"/>
+      <c r="AD42" s="215"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8562,27 +8569,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="216" t="s">
+      <c r="L43" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="M43" s="217"/>
-      <c r="N43" s="217"/>
-      <c r="O43" s="217"/>
-      <c r="P43" s="217"/>
-      <c r="Q43" s="217"/>
-      <c r="R43" s="217"/>
-      <c r="S43" s="217"/>
-      <c r="T43" s="217"/>
-      <c r="U43" s="217"/>
-      <c r="V43" s="217"/>
-      <c r="W43" s="217"/>
-      <c r="X43" s="217"/>
-      <c r="Y43" s="217"/>
-      <c r="Z43" s="217"/>
-      <c r="AA43" s="217"/>
-      <c r="AB43" s="217"/>
-      <c r="AC43" s="217"/>
-      <c r="AD43" s="218"/>
+      <c r="M43" s="214"/>
+      <c r="N43" s="214"/>
+      <c r="O43" s="214"/>
+      <c r="P43" s="214"/>
+      <c r="Q43" s="214"/>
+      <c r="R43" s="214"/>
+      <c r="S43" s="214"/>
+      <c r="T43" s="214"/>
+      <c r="U43" s="214"/>
+      <c r="V43" s="214"/>
+      <c r="W43" s="214"/>
+      <c r="X43" s="214"/>
+      <c r="Y43" s="214"/>
+      <c r="Z43" s="214"/>
+      <c r="AA43" s="214"/>
+      <c r="AB43" s="214"/>
+      <c r="AC43" s="214"/>
+      <c r="AD43" s="215"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8598,27 +8605,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="216" t="s">
+      <c r="L44" s="213" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="217"/>
-      <c r="N44" s="217"/>
-      <c r="O44" s="217"/>
-      <c r="P44" s="217"/>
-      <c r="Q44" s="217"/>
-      <c r="R44" s="217"/>
-      <c r="S44" s="217"/>
-      <c r="T44" s="217"/>
-      <c r="U44" s="217"/>
-      <c r="V44" s="217"/>
-      <c r="W44" s="217"/>
-      <c r="X44" s="217"/>
-      <c r="Y44" s="217"/>
-      <c r="Z44" s="217"/>
-      <c r="AA44" s="217"/>
-      <c r="AB44" s="217"/>
-      <c r="AC44" s="217"/>
-      <c r="AD44" s="218"/>
+      <c r="M44" s="214"/>
+      <c r="N44" s="214"/>
+      <c r="O44" s="214"/>
+      <c r="P44" s="214"/>
+      <c r="Q44" s="214"/>
+      <c r="R44" s="214"/>
+      <c r="S44" s="214"/>
+      <c r="T44" s="214"/>
+      <c r="U44" s="214"/>
+      <c r="V44" s="214"/>
+      <c r="W44" s="214"/>
+      <c r="X44" s="214"/>
+      <c r="Y44" s="214"/>
+      <c r="Z44" s="214"/>
+      <c r="AA44" s="214"/>
+      <c r="AB44" s="214"/>
+      <c r="AC44" s="214"/>
+      <c r="AD44" s="215"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8634,27 +8641,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="216" t="s">
+      <c r="L45" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="217"/>
-      <c r="N45" s="217"/>
-      <c r="O45" s="217"/>
-      <c r="P45" s="217"/>
-      <c r="Q45" s="217"/>
-      <c r="R45" s="217"/>
-      <c r="S45" s="217"/>
-      <c r="T45" s="217"/>
-      <c r="U45" s="217"/>
-      <c r="V45" s="217"/>
-      <c r="W45" s="217"/>
-      <c r="X45" s="217"/>
-      <c r="Y45" s="217"/>
-      <c r="Z45" s="217"/>
-      <c r="AA45" s="217"/>
-      <c r="AB45" s="217"/>
-      <c r="AC45" s="217"/>
-      <c r="AD45" s="218"/>
+      <c r="M45" s="214"/>
+      <c r="N45" s="214"/>
+      <c r="O45" s="214"/>
+      <c r="P45" s="214"/>
+      <c r="Q45" s="214"/>
+      <c r="R45" s="214"/>
+      <c r="S45" s="214"/>
+      <c r="T45" s="214"/>
+      <c r="U45" s="214"/>
+      <c r="V45" s="214"/>
+      <c r="W45" s="214"/>
+      <c r="X45" s="214"/>
+      <c r="Y45" s="214"/>
+      <c r="Z45" s="214"/>
+      <c r="AA45" s="214"/>
+      <c r="AB45" s="214"/>
+      <c r="AC45" s="214"/>
+      <c r="AD45" s="215"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8729,27 +8736,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="192" t="s">
+      <c r="L48" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="193"/>
-      <c r="N48" s="193"/>
-      <c r="O48" s="193"/>
-      <c r="P48" s="193"/>
-      <c r="Q48" s="193"/>
-      <c r="R48" s="193"/>
-      <c r="S48" s="193"/>
-      <c r="T48" s="193"/>
-      <c r="U48" s="193"/>
-      <c r="V48" s="193"/>
-      <c r="W48" s="193"/>
-      <c r="X48" s="193"/>
-      <c r="Y48" s="193"/>
-      <c r="Z48" s="193"/>
-      <c r="AA48" s="193"/>
-      <c r="AB48" s="193"/>
-      <c r="AC48" s="193"/>
-      <c r="AD48" s="194"/>
+      <c r="M48" s="208"/>
+      <c r="N48" s="208"/>
+      <c r="O48" s="208"/>
+      <c r="P48" s="208"/>
+      <c r="Q48" s="208"/>
+      <c r="R48" s="208"/>
+      <c r="S48" s="208"/>
+      <c r="T48" s="208"/>
+      <c r="U48" s="208"/>
+      <c r="V48" s="208"/>
+      <c r="W48" s="208"/>
+      <c r="X48" s="208"/>
+      <c r="Y48" s="208"/>
+      <c r="Z48" s="208"/>
+      <c r="AA48" s="208"/>
+      <c r="AB48" s="208"/>
+      <c r="AC48" s="208"/>
+      <c r="AD48" s="209"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8763,27 +8770,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="216" t="s">
+      <c r="L49" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="M49" s="217"/>
-      <c r="N49" s="217"/>
-      <c r="O49" s="217"/>
-      <c r="P49" s="217"/>
-      <c r="Q49" s="217"/>
-      <c r="R49" s="217"/>
-      <c r="S49" s="217"/>
-      <c r="T49" s="217"/>
-      <c r="U49" s="217"/>
-      <c r="V49" s="217"/>
-      <c r="W49" s="217"/>
-      <c r="X49" s="217"/>
-      <c r="Y49" s="217"/>
-      <c r="Z49" s="217"/>
-      <c r="AA49" s="217"/>
-      <c r="AB49" s="217"/>
-      <c r="AC49" s="217"/>
-      <c r="AD49" s="218"/>
+      <c r="M49" s="214"/>
+      <c r="N49" s="214"/>
+      <c r="O49" s="214"/>
+      <c r="P49" s="214"/>
+      <c r="Q49" s="214"/>
+      <c r="R49" s="214"/>
+      <c r="S49" s="214"/>
+      <c r="T49" s="214"/>
+      <c r="U49" s="214"/>
+      <c r="V49" s="214"/>
+      <c r="W49" s="214"/>
+      <c r="X49" s="214"/>
+      <c r="Y49" s="214"/>
+      <c r="Z49" s="214"/>
+      <c r="AA49" s="214"/>
+      <c r="AB49" s="214"/>
+      <c r="AC49" s="214"/>
+      <c r="AD49" s="215"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8797,27 +8804,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="216" t="s">
+      <c r="L50" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="M50" s="217"/>
-      <c r="N50" s="217"/>
-      <c r="O50" s="217"/>
-      <c r="P50" s="217"/>
-      <c r="Q50" s="217"/>
-      <c r="R50" s="217"/>
-      <c r="S50" s="217"/>
-      <c r="T50" s="217"/>
-      <c r="U50" s="217"/>
-      <c r="V50" s="217"/>
-      <c r="W50" s="217"/>
-      <c r="X50" s="217"/>
-      <c r="Y50" s="217"/>
-      <c r="Z50" s="217"/>
-      <c r="AA50" s="217"/>
-      <c r="AB50" s="217"/>
-      <c r="AC50" s="217"/>
-      <c r="AD50" s="218"/>
+      <c r="M50" s="214"/>
+      <c r="N50" s="214"/>
+      <c r="O50" s="214"/>
+      <c r="P50" s="214"/>
+      <c r="Q50" s="214"/>
+      <c r="R50" s="214"/>
+      <c r="S50" s="214"/>
+      <c r="T50" s="214"/>
+      <c r="U50" s="214"/>
+      <c r="V50" s="214"/>
+      <c r="W50" s="214"/>
+      <c r="X50" s="214"/>
+      <c r="Y50" s="214"/>
+      <c r="Z50" s="214"/>
+      <c r="AA50" s="214"/>
+      <c r="AB50" s="214"/>
+      <c r="AC50" s="214"/>
+      <c r="AD50" s="215"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11420,30 +11427,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="192" t="s">
+      <c r="S125" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="193"/>
-      <c r="U125" s="193"/>
-      <c r="V125" s="193"/>
-      <c r="W125" s="193"/>
-      <c r="X125" s="194"/>
-      <c r="Y125" s="192" t="s">
+      <c r="T125" s="208"/>
+      <c r="U125" s="208"/>
+      <c r="V125" s="208"/>
+      <c r="W125" s="208"/>
+      <c r="X125" s="209"/>
+      <c r="Y125" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="193"/>
-      <c r="AA125" s="193"/>
-      <c r="AB125" s="193"/>
-      <c r="AC125" s="193"/>
-      <c r="AD125" s="194"/>
-      <c r="AE125" s="192" t="s">
+      <c r="Z125" s="208"/>
+      <c r="AA125" s="208"/>
+      <c r="AB125" s="208"/>
+      <c r="AC125" s="208"/>
+      <c r="AD125" s="209"/>
+      <c r="AE125" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="193"/>
-      <c r="AG125" s="193"/>
-      <c r="AH125" s="193"/>
-      <c r="AI125" s="193"/>
-      <c r="AJ125" s="194"/>
+      <c r="AF125" s="208"/>
+      <c r="AG125" s="208"/>
+      <c r="AH125" s="208"/>
+      <c r="AI125" s="208"/>
+      <c r="AJ125" s="209"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11465,30 +11472,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="216" t="s">
+      <c r="S126" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="217"/>
-      <c r="U126" s="217"/>
-      <c r="V126" s="217"/>
-      <c r="W126" s="217"/>
-      <c r="X126" s="218"/>
-      <c r="Y126" s="216" t="s">
+      <c r="T126" s="214"/>
+      <c r="U126" s="214"/>
+      <c r="V126" s="214"/>
+      <c r="W126" s="214"/>
+      <c r="X126" s="215"/>
+      <c r="Y126" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="217"/>
-      <c r="AA126" s="217"/>
-      <c r="AB126" s="217"/>
-      <c r="AC126" s="217"/>
-      <c r="AD126" s="218"/>
-      <c r="AE126" s="216" t="s">
+      <c r="Z126" s="214"/>
+      <c r="AA126" s="214"/>
+      <c r="AB126" s="214"/>
+      <c r="AC126" s="214"/>
+      <c r="AD126" s="215"/>
+      <c r="AE126" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="217"/>
-      <c r="AG126" s="217"/>
-      <c r="AH126" s="217"/>
-      <c r="AI126" s="217"/>
-      <c r="AJ126" s="218"/>
+      <c r="AF126" s="214"/>
+      <c r="AG126" s="214"/>
+      <c r="AH126" s="214"/>
+      <c r="AI126" s="214"/>
+      <c r="AJ126" s="215"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11549,30 +11556,30 @@
       <c r="P128" s="130"/>
       <c r="Q128" s="130"/>
       <c r="R128" s="131"/>
-      <c r="S128" s="195" t="s">
+      <c r="S128" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="196"/>
-      <c r="U128" s="196"/>
-      <c r="V128" s="196"/>
-      <c r="W128" s="196"/>
-      <c r="X128" s="197"/>
-      <c r="Y128" s="195" t="s">
+      <c r="T128" s="250"/>
+      <c r="U128" s="250"/>
+      <c r="V128" s="250"/>
+      <c r="W128" s="250"/>
+      <c r="X128" s="251"/>
+      <c r="Y128" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="196"/>
-      <c r="AA128" s="196"/>
-      <c r="AB128" s="196"/>
-      <c r="AC128" s="196"/>
-      <c r="AD128" s="197"/>
-      <c r="AE128" s="195" t="s">
+      <c r="Z128" s="250"/>
+      <c r="AA128" s="250"/>
+      <c r="AB128" s="250"/>
+      <c r="AC128" s="250"/>
+      <c r="AD128" s="251"/>
+      <c r="AE128" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="196"/>
-      <c r="AG128" s="196"/>
-      <c r="AH128" s="196"/>
-      <c r="AI128" s="196"/>
-      <c r="AJ128" s="197"/>
+      <c r="AF128" s="250"/>
+      <c r="AG128" s="250"/>
+      <c r="AH128" s="250"/>
+      <c r="AI128" s="250"/>
+      <c r="AJ128" s="251"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11594,30 +11601,30 @@
       <c r="P129" s="127"/>
       <c r="Q129" s="127"/>
       <c r="R129" s="132"/>
-      <c r="S129" s="219" t="s">
+      <c r="S129" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="219"/>
-      <c r="U129" s="219"/>
-      <c r="V129" s="219"/>
-      <c r="W129" s="219"/>
-      <c r="X129" s="219"/>
-      <c r="Y129" s="219" t="s">
+      <c r="T129" s="247"/>
+      <c r="U129" s="247"/>
+      <c r="V129" s="247"/>
+      <c r="W129" s="247"/>
+      <c r="X129" s="248"/>
+      <c r="Y129" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="219"/>
-      <c r="AA129" s="219"/>
-      <c r="AB129" s="219"/>
-      <c r="AC129" s="219"/>
-      <c r="AD129" s="219"/>
-      <c r="AE129" s="219" t="s">
+      <c r="Z129" s="247"/>
+      <c r="AA129" s="247"/>
+      <c r="AB129" s="247"/>
+      <c r="AC129" s="247"/>
+      <c r="AD129" s="248"/>
+      <c r="AE129" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="219"/>
-      <c r="AG129" s="219"/>
-      <c r="AH129" s="219"/>
-      <c r="AI129" s="219"/>
-      <c r="AJ129" s="219"/>
+      <c r="AF129" s="247"/>
+      <c r="AG129" s="247"/>
+      <c r="AH129" s="247"/>
+      <c r="AI129" s="247"/>
+      <c r="AJ129" s="248"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11641,30 +11648,30 @@
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
       <c r="R130" s="133"/>
-      <c r="S130" s="198" t="s">
+      <c r="S130" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="199"/>
-      <c r="U130" s="199"/>
-      <c r="V130" s="199"/>
-      <c r="W130" s="199"/>
-      <c r="X130" s="200"/>
-      <c r="Y130" s="198" t="s">
+      <c r="T130" s="190"/>
+      <c r="U130" s="190"/>
+      <c r="V130" s="190"/>
+      <c r="W130" s="190"/>
+      <c r="X130" s="191"/>
+      <c r="Y130" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="199"/>
-      <c r="AA130" s="199"/>
-      <c r="AB130" s="199"/>
-      <c r="AC130" s="199"/>
-      <c r="AD130" s="200"/>
-      <c r="AE130" s="198" t="s">
+      <c r="Z130" s="190"/>
+      <c r="AA130" s="190"/>
+      <c r="AB130" s="190"/>
+      <c r="AC130" s="190"/>
+      <c r="AD130" s="191"/>
+      <c r="AE130" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="199"/>
-      <c r="AG130" s="199"/>
-      <c r="AH130" s="199"/>
-      <c r="AI130" s="199"/>
-      <c r="AJ130" s="200"/>
+      <c r="AF130" s="190"/>
+      <c r="AG130" s="190"/>
+      <c r="AH130" s="190"/>
+      <c r="AI130" s="190"/>
+      <c r="AJ130" s="191"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11682,30 +11689,30 @@
       <c r="P131" s="75"/>
       <c r="Q131" s="75"/>
       <c r="R131" s="133"/>
-      <c r="S131" s="198" t="s">
+      <c r="S131" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="199"/>
-      <c r="U131" s="199"/>
-      <c r="V131" s="199"/>
-      <c r="W131" s="199"/>
-      <c r="X131" s="200"/>
-      <c r="Y131" s="198" t="s">
+      <c r="T131" s="190"/>
+      <c r="U131" s="190"/>
+      <c r="V131" s="190"/>
+      <c r="W131" s="190"/>
+      <c r="X131" s="191"/>
+      <c r="Y131" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="199"/>
-      <c r="AA131" s="199"/>
-      <c r="AB131" s="199"/>
-      <c r="AC131" s="199"/>
-      <c r="AD131" s="200"/>
-      <c r="AE131" s="198" t="s">
+      <c r="Z131" s="190"/>
+      <c r="AA131" s="190"/>
+      <c r="AB131" s="190"/>
+      <c r="AC131" s="190"/>
+      <c r="AD131" s="191"/>
+      <c r="AE131" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="199"/>
-      <c r="AG131" s="199"/>
-      <c r="AH131" s="199"/>
-      <c r="AI131" s="199"/>
-      <c r="AJ131" s="200"/>
+      <c r="AF131" s="190"/>
+      <c r="AG131" s="190"/>
+      <c r="AH131" s="190"/>
+      <c r="AI131" s="190"/>
+      <c r="AJ131" s="191"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11727,30 +11734,30 @@
       <c r="P132" s="75"/>
       <c r="Q132" s="75"/>
       <c r="R132" s="133"/>
-      <c r="S132" s="198" t="s">
+      <c r="S132" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="199"/>
-      <c r="U132" s="199"/>
-      <c r="V132" s="199"/>
-      <c r="W132" s="199"/>
-      <c r="X132" s="200"/>
-      <c r="Y132" s="198" t="s">
+      <c r="T132" s="190"/>
+      <c r="U132" s="190"/>
+      <c r="V132" s="190"/>
+      <c r="W132" s="190"/>
+      <c r="X132" s="191"/>
+      <c r="Y132" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="199"/>
-      <c r="AA132" s="199"/>
-      <c r="AB132" s="199"/>
-      <c r="AC132" s="199"/>
-      <c r="AD132" s="200"/>
-      <c r="AE132" s="198" t="s">
+      <c r="Z132" s="190"/>
+      <c r="AA132" s="190"/>
+      <c r="AB132" s="190"/>
+      <c r="AC132" s="190"/>
+      <c r="AD132" s="191"/>
+      <c r="AE132" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="199"/>
-      <c r="AG132" s="199"/>
-      <c r="AH132" s="199"/>
-      <c r="AI132" s="199"/>
-      <c r="AJ132" s="200"/>
+      <c r="AF132" s="190"/>
+      <c r="AG132" s="190"/>
+      <c r="AH132" s="190"/>
+      <c r="AI132" s="190"/>
+      <c r="AJ132" s="191"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11772,30 +11779,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="207" t="s">
+      <c r="S133" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="208"/>
-      <c r="U133" s="208"/>
-      <c r="V133" s="208"/>
-      <c r="W133" s="208"/>
-      <c r="X133" s="209"/>
-      <c r="Y133" s="207" t="s">
+      <c r="T133" s="187"/>
+      <c r="U133" s="187"/>
+      <c r="V133" s="187"/>
+      <c r="W133" s="187"/>
+      <c r="X133" s="188"/>
+      <c r="Y133" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="208"/>
-      <c r="AA133" s="208"/>
-      <c r="AB133" s="208"/>
-      <c r="AC133" s="208"/>
-      <c r="AD133" s="209"/>
-      <c r="AE133" s="207" t="s">
+      <c r="Z133" s="187"/>
+      <c r="AA133" s="187"/>
+      <c r="AB133" s="187"/>
+      <c r="AC133" s="187"/>
+      <c r="AD133" s="188"/>
+      <c r="AE133" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="208"/>
-      <c r="AG133" s="208"/>
-      <c r="AH133" s="208"/>
-      <c r="AI133" s="208"/>
-      <c r="AJ133" s="209"/>
+      <c r="AF133" s="187"/>
+      <c r="AG133" s="187"/>
+      <c r="AH133" s="187"/>
+      <c r="AI133" s="187"/>
+      <c r="AJ133" s="188"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11819,30 +11826,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="207" t="s">
+      <c r="S134" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="208"/>
-      <c r="U134" s="208"/>
-      <c r="V134" s="208"/>
-      <c r="W134" s="208"/>
-      <c r="X134" s="209"/>
-      <c r="Y134" s="207" t="s">
+      <c r="T134" s="187"/>
+      <c r="U134" s="187"/>
+      <c r="V134" s="187"/>
+      <c r="W134" s="187"/>
+      <c r="X134" s="188"/>
+      <c r="Y134" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="208"/>
-      <c r="AA134" s="208"/>
-      <c r="AB134" s="208"/>
-      <c r="AC134" s="208"/>
-      <c r="AD134" s="209"/>
-      <c r="AE134" s="207" t="s">
+      <c r="Z134" s="187"/>
+      <c r="AA134" s="187"/>
+      <c r="AB134" s="187"/>
+      <c r="AC134" s="187"/>
+      <c r="AD134" s="188"/>
+      <c r="AE134" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="208"/>
-      <c r="AG134" s="208"/>
-      <c r="AH134" s="208"/>
-      <c r="AI134" s="208"/>
-      <c r="AJ134" s="209"/>
+      <c r="AF134" s="187"/>
+      <c r="AG134" s="187"/>
+      <c r="AH134" s="187"/>
+      <c r="AI134" s="187"/>
+      <c r="AJ134" s="188"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11860,30 +11867,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="207" t="s">
+      <c r="S135" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="208"/>
-      <c r="U135" s="208"/>
-      <c r="V135" s="208"/>
-      <c r="W135" s="208"/>
-      <c r="X135" s="209"/>
-      <c r="Y135" s="207" t="s">
+      <c r="T135" s="187"/>
+      <c r="U135" s="187"/>
+      <c r="V135" s="187"/>
+      <c r="W135" s="187"/>
+      <c r="X135" s="188"/>
+      <c r="Y135" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="208"/>
-      <c r="AA135" s="208"/>
-      <c r="AB135" s="208"/>
-      <c r="AC135" s="208"/>
-      <c r="AD135" s="209"/>
-      <c r="AE135" s="207" t="s">
+      <c r="Z135" s="187"/>
+      <c r="AA135" s="187"/>
+      <c r="AB135" s="187"/>
+      <c r="AC135" s="187"/>
+      <c r="AD135" s="188"/>
+      <c r="AE135" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="208"/>
-      <c r="AG135" s="208"/>
-      <c r="AH135" s="208"/>
-      <c r="AI135" s="208"/>
-      <c r="AJ135" s="209"/>
+      <c r="AF135" s="187"/>
+      <c r="AG135" s="187"/>
+      <c r="AH135" s="187"/>
+      <c r="AI135" s="187"/>
+      <c r="AJ135" s="188"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11905,30 +11912,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="207" t="s">
+      <c r="S136" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="208"/>
-      <c r="U136" s="208"/>
-      <c r="V136" s="208"/>
-      <c r="W136" s="208"/>
-      <c r="X136" s="209"/>
-      <c r="Y136" s="207" t="s">
+      <c r="T136" s="187"/>
+      <c r="U136" s="187"/>
+      <c r="V136" s="187"/>
+      <c r="W136" s="187"/>
+      <c r="X136" s="188"/>
+      <c r="Y136" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="208"/>
-      <c r="AA136" s="208"/>
-      <c r="AB136" s="208"/>
-      <c r="AC136" s="208"/>
-      <c r="AD136" s="209"/>
-      <c r="AE136" s="207" t="s">
+      <c r="Z136" s="187"/>
+      <c r="AA136" s="187"/>
+      <c r="AB136" s="187"/>
+      <c r="AC136" s="187"/>
+      <c r="AD136" s="188"/>
+      <c r="AE136" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="208"/>
-      <c r="AG136" s="208"/>
-      <c r="AH136" s="208"/>
-      <c r="AI136" s="208"/>
-      <c r="AJ136" s="209"/>
+      <c r="AF136" s="187"/>
+      <c r="AG136" s="187"/>
+      <c r="AH136" s="187"/>
+      <c r="AI136" s="187"/>
+      <c r="AJ136" s="188"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11950,30 +11957,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="204" t="s">
+      <c r="S137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="205"/>
-      <c r="U137" s="205"/>
-      <c r="V137" s="205"/>
-      <c r="W137" s="205"/>
-      <c r="X137" s="206"/>
-      <c r="Y137" s="204" t="s">
+      <c r="T137" s="184"/>
+      <c r="U137" s="184"/>
+      <c r="V137" s="184"/>
+      <c r="W137" s="184"/>
+      <c r="X137" s="185"/>
+      <c r="Y137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="205"/>
-      <c r="AA137" s="205"/>
-      <c r="AB137" s="205"/>
-      <c r="AC137" s="205"/>
-      <c r="AD137" s="206"/>
-      <c r="AE137" s="207" t="s">
+      <c r="Z137" s="184"/>
+      <c r="AA137" s="184"/>
+      <c r="AB137" s="184"/>
+      <c r="AC137" s="184"/>
+      <c r="AD137" s="185"/>
+      <c r="AE137" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="208"/>
-      <c r="AG137" s="208"/>
-      <c r="AH137" s="208"/>
-      <c r="AI137" s="208"/>
-      <c r="AJ137" s="209"/>
+      <c r="AF137" s="187"/>
+      <c r="AG137" s="187"/>
+      <c r="AH137" s="187"/>
+      <c r="AI137" s="187"/>
+      <c r="AJ137" s="188"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11997,30 +12004,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="207" t="s">
+      <c r="S138" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="208"/>
-      <c r="U138" s="208"/>
-      <c r="V138" s="208"/>
-      <c r="W138" s="208"/>
-      <c r="X138" s="209"/>
-      <c r="Y138" s="207" t="s">
+      <c r="T138" s="187"/>
+      <c r="U138" s="187"/>
+      <c r="V138" s="187"/>
+      <c r="W138" s="187"/>
+      <c r="X138" s="188"/>
+      <c r="Y138" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="208"/>
-      <c r="AA138" s="208"/>
-      <c r="AB138" s="208"/>
-      <c r="AC138" s="208"/>
-      <c r="AD138" s="209"/>
-      <c r="AE138" s="207" t="s">
+      <c r="Z138" s="187"/>
+      <c r="AA138" s="187"/>
+      <c r="AB138" s="187"/>
+      <c r="AC138" s="187"/>
+      <c r="AD138" s="188"/>
+      <c r="AE138" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="208"/>
-      <c r="AG138" s="208"/>
-      <c r="AH138" s="208"/>
-      <c r="AI138" s="208"/>
-      <c r="AJ138" s="209"/>
+      <c r="AF138" s="187"/>
+      <c r="AG138" s="187"/>
+      <c r="AH138" s="187"/>
+      <c r="AI138" s="187"/>
+      <c r="AJ138" s="188"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -12038,30 +12045,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="207" t="s">
+      <c r="S139" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="208"/>
-      <c r="U139" s="208"/>
-      <c r="V139" s="208"/>
-      <c r="W139" s="208"/>
-      <c r="X139" s="209"/>
-      <c r="Y139" s="207" t="s">
+      <c r="T139" s="187"/>
+      <c r="U139" s="187"/>
+      <c r="V139" s="187"/>
+      <c r="W139" s="187"/>
+      <c r="X139" s="188"/>
+      <c r="Y139" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="208"/>
-      <c r="AA139" s="208"/>
-      <c r="AB139" s="208"/>
-      <c r="AC139" s="208"/>
-      <c r="AD139" s="209"/>
-      <c r="AE139" s="207" t="s">
+      <c r="Z139" s="187"/>
+      <c r="AA139" s="187"/>
+      <c r="AB139" s="187"/>
+      <c r="AC139" s="187"/>
+      <c r="AD139" s="188"/>
+      <c r="AE139" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="208"/>
-      <c r="AG139" s="208"/>
-      <c r="AH139" s="208"/>
-      <c r="AI139" s="208"/>
-      <c r="AJ139" s="209"/>
+      <c r="AF139" s="187"/>
+      <c r="AG139" s="187"/>
+      <c r="AH139" s="187"/>
+      <c r="AI139" s="187"/>
+      <c r="AJ139" s="188"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -12083,30 +12090,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="207" t="s">
+      <c r="S140" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="208"/>
-      <c r="U140" s="208"/>
-      <c r="V140" s="208"/>
-      <c r="W140" s="208"/>
-      <c r="X140" s="209"/>
-      <c r="Y140" s="207" t="s">
+      <c r="T140" s="187"/>
+      <c r="U140" s="187"/>
+      <c r="V140" s="187"/>
+      <c r="W140" s="187"/>
+      <c r="X140" s="188"/>
+      <c r="Y140" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="208"/>
-      <c r="AA140" s="208"/>
-      <c r="AB140" s="208"/>
-      <c r="AC140" s="208"/>
-      <c r="AD140" s="209"/>
-      <c r="AE140" s="207" t="s">
+      <c r="Z140" s="187"/>
+      <c r="AA140" s="187"/>
+      <c r="AB140" s="187"/>
+      <c r="AC140" s="187"/>
+      <c r="AD140" s="188"/>
+      <c r="AE140" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="208"/>
-      <c r="AG140" s="208"/>
-      <c r="AH140" s="208"/>
-      <c r="AI140" s="208"/>
-      <c r="AJ140" s="209"/>
+      <c r="AF140" s="187"/>
+      <c r="AG140" s="187"/>
+      <c r="AH140" s="187"/>
+      <c r="AI140" s="187"/>
+      <c r="AJ140" s="188"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -12128,30 +12135,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="207" t="s">
+      <c r="S141" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="T141" s="208"/>
-      <c r="U141" s="208"/>
-      <c r="V141" s="208"/>
-      <c r="W141" s="208"/>
-      <c r="X141" s="209"/>
-      <c r="Y141" s="207" t="s">
+      <c r="T141" s="187"/>
+      <c r="U141" s="187"/>
+      <c r="V141" s="187"/>
+      <c r="W141" s="187"/>
+      <c r="X141" s="188"/>
+      <c r="Y141" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="Z141" s="208"/>
-      <c r="AA141" s="208"/>
-      <c r="AB141" s="208"/>
-      <c r="AC141" s="208"/>
-      <c r="AD141" s="209"/>
-      <c r="AE141" s="207" t="s">
+      <c r="Z141" s="187"/>
+      <c r="AA141" s="187"/>
+      <c r="AB141" s="187"/>
+      <c r="AC141" s="187"/>
+      <c r="AD141" s="188"/>
+      <c r="AE141" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="AF141" s="208"/>
-      <c r="AG141" s="208"/>
-      <c r="AH141" s="208"/>
-      <c r="AI141" s="208"/>
-      <c r="AJ141" s="209"/>
+      <c r="AF141" s="187"/>
+      <c r="AG141" s="187"/>
+      <c r="AH141" s="187"/>
+      <c r="AI141" s="187"/>
+      <c r="AJ141" s="188"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -12175,30 +12182,30 @@
       <c r="P142" s="134"/>
       <c r="Q142" s="134"/>
       <c r="R142" s="135"/>
-      <c r="S142" s="207" t="s">
+      <c r="S142" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="208"/>
-      <c r="U142" s="208"/>
-      <c r="V142" s="208"/>
-      <c r="W142" s="208"/>
-      <c r="X142" s="209"/>
-      <c r="Y142" s="207" t="s">
+      <c r="T142" s="187"/>
+      <c r="U142" s="187"/>
+      <c r="V142" s="187"/>
+      <c r="W142" s="187"/>
+      <c r="X142" s="188"/>
+      <c r="Y142" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="208"/>
-      <c r="AA142" s="208"/>
-      <c r="AB142" s="208"/>
-      <c r="AC142" s="208"/>
-      <c r="AD142" s="209"/>
-      <c r="AE142" s="207" t="s">
+      <c r="Z142" s="187"/>
+      <c r="AA142" s="187"/>
+      <c r="AB142" s="187"/>
+      <c r="AC142" s="187"/>
+      <c r="AD142" s="188"/>
+      <c r="AE142" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="208"/>
-      <c r="AG142" s="208"/>
-      <c r="AH142" s="208"/>
-      <c r="AI142" s="208"/>
-      <c r="AJ142" s="209"/>
+      <c r="AF142" s="187"/>
+      <c r="AG142" s="187"/>
+      <c r="AH142" s="187"/>
+      <c r="AI142" s="187"/>
+      <c r="AJ142" s="188"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -12216,30 +12223,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="207" t="s">
+      <c r="S143" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="208"/>
-      <c r="U143" s="208"/>
-      <c r="V143" s="208"/>
-      <c r="W143" s="208"/>
-      <c r="X143" s="209"/>
-      <c r="Y143" s="207" t="s">
+      <c r="T143" s="187"/>
+      <c r="U143" s="187"/>
+      <c r="V143" s="187"/>
+      <c r="W143" s="187"/>
+      <c r="X143" s="188"/>
+      <c r="Y143" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="208"/>
-      <c r="AA143" s="208"/>
-      <c r="AB143" s="208"/>
-      <c r="AC143" s="208"/>
-      <c r="AD143" s="209"/>
-      <c r="AE143" s="207" t="s">
+      <c r="Z143" s="187"/>
+      <c r="AA143" s="187"/>
+      <c r="AB143" s="187"/>
+      <c r="AC143" s="187"/>
+      <c r="AD143" s="188"/>
+      <c r="AE143" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="208"/>
-      <c r="AG143" s="208"/>
-      <c r="AH143" s="208"/>
-      <c r="AI143" s="208"/>
-      <c r="AJ143" s="209"/>
+      <c r="AF143" s="187"/>
+      <c r="AG143" s="187"/>
+      <c r="AH143" s="187"/>
+      <c r="AI143" s="187"/>
+      <c r="AJ143" s="188"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -12261,30 +12268,30 @@
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="76"/>
-      <c r="S144" s="198" t="s">
+      <c r="S144" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="199"/>
-      <c r="U144" s="199"/>
-      <c r="V144" s="199"/>
-      <c r="W144" s="199"/>
-      <c r="X144" s="200"/>
-      <c r="Y144" s="198" t="s">
+      <c r="T144" s="190"/>
+      <c r="U144" s="190"/>
+      <c r="V144" s="190"/>
+      <c r="W144" s="190"/>
+      <c r="X144" s="191"/>
+      <c r="Y144" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z144" s="199"/>
-      <c r="AA144" s="199"/>
-      <c r="AB144" s="199"/>
-      <c r="AC144" s="199"/>
-      <c r="AD144" s="200"/>
-      <c r="AE144" s="198" t="s">
+      <c r="Z144" s="190"/>
+      <c r="AA144" s="190"/>
+      <c r="AB144" s="190"/>
+      <c r="AC144" s="190"/>
+      <c r="AD144" s="191"/>
+      <c r="AE144" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="199"/>
-      <c r="AG144" s="199"/>
-      <c r="AH144" s="199"/>
-      <c r="AI144" s="199"/>
-      <c r="AJ144" s="200"/>
+      <c r="AF144" s="190"/>
+      <c r="AG144" s="190"/>
+      <c r="AH144" s="190"/>
+      <c r="AI144" s="190"/>
+      <c r="AJ144" s="191"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -12306,30 +12313,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="207" t="s">
+      <c r="S145" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="208"/>
-      <c r="U145" s="208"/>
-      <c r="V145" s="208"/>
-      <c r="W145" s="208"/>
-      <c r="X145" s="209"/>
-      <c r="Y145" s="207" t="s">
+      <c r="T145" s="187"/>
+      <c r="U145" s="187"/>
+      <c r="V145" s="187"/>
+      <c r="W145" s="187"/>
+      <c r="X145" s="188"/>
+      <c r="Y145" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="208"/>
-      <c r="AA145" s="208"/>
-      <c r="AB145" s="208"/>
-      <c r="AC145" s="208"/>
-      <c r="AD145" s="209"/>
-      <c r="AE145" s="207" t="s">
+      <c r="Z145" s="187"/>
+      <c r="AA145" s="187"/>
+      <c r="AB145" s="187"/>
+      <c r="AC145" s="187"/>
+      <c r="AD145" s="188"/>
+      <c r="AE145" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="208"/>
-      <c r="AG145" s="208"/>
-      <c r="AH145" s="208"/>
-      <c r="AI145" s="208"/>
-      <c r="AJ145" s="209"/>
+      <c r="AF145" s="187"/>
+      <c r="AG145" s="187"/>
+      <c r="AH145" s="187"/>
+      <c r="AI145" s="187"/>
+      <c r="AJ145" s="188"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -12353,30 +12360,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="207" t="s">
+      <c r="S146" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="208"/>
-      <c r="U146" s="208"/>
-      <c r="V146" s="208"/>
-      <c r="W146" s="208"/>
-      <c r="X146" s="209"/>
-      <c r="Y146" s="204" t="s">
+      <c r="T146" s="187"/>
+      <c r="U146" s="187"/>
+      <c r="V146" s="187"/>
+      <c r="W146" s="187"/>
+      <c r="X146" s="188"/>
+      <c r="Y146" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="205"/>
-      <c r="AA146" s="205"/>
-      <c r="AB146" s="205"/>
-      <c r="AC146" s="205"/>
-      <c r="AD146" s="206"/>
-      <c r="AE146" s="204" t="s">
+      <c r="Z146" s="184"/>
+      <c r="AA146" s="184"/>
+      <c r="AB146" s="184"/>
+      <c r="AC146" s="184"/>
+      <c r="AD146" s="185"/>
+      <c r="AE146" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="205"/>
-      <c r="AG146" s="205"/>
-      <c r="AH146" s="205"/>
-      <c r="AI146" s="205"/>
-      <c r="AJ146" s="206"/>
+      <c r="AF146" s="184"/>
+      <c r="AG146" s="184"/>
+      <c r="AH146" s="184"/>
+      <c r="AI146" s="184"/>
+      <c r="AJ146" s="185"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -12394,30 +12401,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="207" t="s">
+      <c r="S147" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="208"/>
-      <c r="U147" s="208"/>
-      <c r="V147" s="208"/>
-      <c r="W147" s="208"/>
-      <c r="X147" s="209"/>
-      <c r="Y147" s="207" t="s">
+      <c r="T147" s="187"/>
+      <c r="U147" s="187"/>
+      <c r="V147" s="187"/>
+      <c r="W147" s="187"/>
+      <c r="X147" s="188"/>
+      <c r="Y147" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="208"/>
-      <c r="AA147" s="208"/>
-      <c r="AB147" s="208"/>
-      <c r="AC147" s="208"/>
-      <c r="AD147" s="209"/>
-      <c r="AE147" s="204" t="s">
+      <c r="Z147" s="187"/>
+      <c r="AA147" s="187"/>
+      <c r="AB147" s="187"/>
+      <c r="AC147" s="187"/>
+      <c r="AD147" s="188"/>
+      <c r="AE147" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="205"/>
-      <c r="AG147" s="205"/>
-      <c r="AH147" s="205"/>
-      <c r="AI147" s="205"/>
-      <c r="AJ147" s="206"/>
+      <c r="AF147" s="184"/>
+      <c r="AG147" s="184"/>
+      <c r="AH147" s="184"/>
+      <c r="AI147" s="184"/>
+      <c r="AJ147" s="185"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12439,30 +12446,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="207" t="s">
+      <c r="S148" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="208"/>
-      <c r="U148" s="208"/>
-      <c r="V148" s="208"/>
-      <c r="W148" s="208"/>
-      <c r="X148" s="209"/>
-      <c r="Y148" s="207" t="s">
+      <c r="T148" s="187"/>
+      <c r="U148" s="187"/>
+      <c r="V148" s="187"/>
+      <c r="W148" s="187"/>
+      <c r="X148" s="188"/>
+      <c r="Y148" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="208"/>
-      <c r="AA148" s="208"/>
-      <c r="AB148" s="208"/>
-      <c r="AC148" s="208"/>
-      <c r="AD148" s="209"/>
-      <c r="AE148" s="204" t="s">
+      <c r="Z148" s="187"/>
+      <c r="AA148" s="187"/>
+      <c r="AB148" s="187"/>
+      <c r="AC148" s="187"/>
+      <c r="AD148" s="188"/>
+      <c r="AE148" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="205"/>
-      <c r="AG148" s="205"/>
-      <c r="AH148" s="205"/>
-      <c r="AI148" s="205"/>
-      <c r="AJ148" s="206"/>
+      <c r="AF148" s="184"/>
+      <c r="AG148" s="184"/>
+      <c r="AH148" s="184"/>
+      <c r="AI148" s="184"/>
+      <c r="AJ148" s="185"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12486,30 +12493,30 @@
       <c r="P149" s="75"/>
       <c r="Q149" s="75"/>
       <c r="R149" s="76"/>
-      <c r="S149" s="198" t="s">
+      <c r="S149" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="199"/>
-      <c r="U149" s="199"/>
-      <c r="V149" s="199"/>
-      <c r="W149" s="199"/>
-      <c r="X149" s="200"/>
-      <c r="Y149" s="198" t="s">
+      <c r="T149" s="190"/>
+      <c r="U149" s="190"/>
+      <c r="V149" s="190"/>
+      <c r="W149" s="190"/>
+      <c r="X149" s="191"/>
+      <c r="Y149" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="199"/>
-      <c r="AA149" s="199"/>
-      <c r="AB149" s="199"/>
-      <c r="AC149" s="199"/>
-      <c r="AD149" s="200"/>
-      <c r="AE149" s="198" t="s">
+      <c r="Z149" s="190"/>
+      <c r="AA149" s="190"/>
+      <c r="AB149" s="190"/>
+      <c r="AC149" s="190"/>
+      <c r="AD149" s="191"/>
+      <c r="AE149" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="AF149" s="199"/>
-      <c r="AG149" s="199"/>
-      <c r="AH149" s="199"/>
-      <c r="AI149" s="199"/>
-      <c r="AJ149" s="200"/>
+      <c r="AF149" s="190"/>
+      <c r="AG149" s="190"/>
+      <c r="AH149" s="190"/>
+      <c r="AI149" s="190"/>
+      <c r="AJ149" s="191"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -12531,30 +12538,30 @@
       <c r="P150" s="75"/>
       <c r="Q150" s="75"/>
       <c r="R150" s="76"/>
-      <c r="S150" s="198" t="s">
+      <c r="S150" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="199"/>
-      <c r="U150" s="199"/>
-      <c r="V150" s="199"/>
-      <c r="W150" s="199"/>
-      <c r="X150" s="200"/>
-      <c r="Y150" s="198" t="s">
+      <c r="T150" s="190"/>
+      <c r="U150" s="190"/>
+      <c r="V150" s="190"/>
+      <c r="W150" s="190"/>
+      <c r="X150" s="191"/>
+      <c r="Y150" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="199"/>
-      <c r="AA150" s="199"/>
-      <c r="AB150" s="199"/>
-      <c r="AC150" s="199"/>
-      <c r="AD150" s="200"/>
-      <c r="AE150" s="198" t="s">
+      <c r="Z150" s="190"/>
+      <c r="AA150" s="190"/>
+      <c r="AB150" s="190"/>
+      <c r="AC150" s="190"/>
+      <c r="AD150" s="191"/>
+      <c r="AE150" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF150" s="199"/>
-      <c r="AG150" s="199"/>
-      <c r="AH150" s="199"/>
-      <c r="AI150" s="199"/>
-      <c r="AJ150" s="200"/>
+      <c r="AF150" s="190"/>
+      <c r="AG150" s="190"/>
+      <c r="AH150" s="190"/>
+      <c r="AI150" s="190"/>
+      <c r="AJ150" s="191"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12578,30 +12585,30 @@
       <c r="P151" s="75"/>
       <c r="Q151" s="75"/>
       <c r="R151" s="76"/>
-      <c r="S151" s="198" t="s">
+      <c r="S151" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="199"/>
-      <c r="U151" s="199"/>
-      <c r="V151" s="199"/>
-      <c r="W151" s="199"/>
-      <c r="X151" s="200"/>
-      <c r="Y151" s="198" t="s">
+      <c r="T151" s="190"/>
+      <c r="U151" s="190"/>
+      <c r="V151" s="190"/>
+      <c r="W151" s="190"/>
+      <c r="X151" s="191"/>
+      <c r="Y151" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="199"/>
-      <c r="AA151" s="199"/>
-      <c r="AB151" s="199"/>
-      <c r="AC151" s="199"/>
-      <c r="AD151" s="200"/>
-      <c r="AE151" s="198" t="s">
+      <c r="Z151" s="190"/>
+      <c r="AA151" s="190"/>
+      <c r="AB151" s="190"/>
+      <c r="AC151" s="190"/>
+      <c r="AD151" s="191"/>
+      <c r="AE151" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF151" s="199"/>
-      <c r="AG151" s="199"/>
-      <c r="AH151" s="199"/>
-      <c r="AI151" s="199"/>
-      <c r="AJ151" s="200"/>
+      <c r="AF151" s="190"/>
+      <c r="AG151" s="190"/>
+      <c r="AH151" s="190"/>
+      <c r="AI151" s="190"/>
+      <c r="AJ151" s="191"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12623,30 +12630,30 @@
       <c r="P152" s="75"/>
       <c r="Q152" s="75"/>
       <c r="R152" s="76"/>
-      <c r="S152" s="198" t="s">
+      <c r="S152" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="199"/>
-      <c r="U152" s="199"/>
-      <c r="V152" s="199"/>
-      <c r="W152" s="199"/>
-      <c r="X152" s="200"/>
-      <c r="Y152" s="198" t="s">
+      <c r="T152" s="190"/>
+      <c r="U152" s="190"/>
+      <c r="V152" s="190"/>
+      <c r="W152" s="190"/>
+      <c r="X152" s="191"/>
+      <c r="Y152" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="199"/>
-      <c r="AA152" s="199"/>
-      <c r="AB152" s="199"/>
-      <c r="AC152" s="199"/>
-      <c r="AD152" s="200"/>
-      <c r="AE152" s="198" t="s">
+      <c r="Z152" s="190"/>
+      <c r="AA152" s="190"/>
+      <c r="AB152" s="190"/>
+      <c r="AC152" s="190"/>
+      <c r="AD152" s="191"/>
+      <c r="AE152" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF152" s="199"/>
-      <c r="AG152" s="199"/>
-      <c r="AH152" s="199"/>
-      <c r="AI152" s="199"/>
-      <c r="AJ152" s="200"/>
+      <c r="AF152" s="190"/>
+      <c r="AG152" s="190"/>
+      <c r="AH152" s="190"/>
+      <c r="AI152" s="190"/>
+      <c r="AJ152" s="191"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12670,30 +12677,30 @@
       <c r="P153" s="75"/>
       <c r="Q153" s="75"/>
       <c r="R153" s="76"/>
-      <c r="S153" s="198" t="s">
+      <c r="S153" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="199"/>
-      <c r="U153" s="199"/>
-      <c r="V153" s="199"/>
-      <c r="W153" s="199"/>
-      <c r="X153" s="200"/>
-      <c r="Y153" s="198" t="s">
+      <c r="T153" s="190"/>
+      <c r="U153" s="190"/>
+      <c r="V153" s="190"/>
+      <c r="W153" s="190"/>
+      <c r="X153" s="191"/>
+      <c r="Y153" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="199"/>
-      <c r="AA153" s="199"/>
-      <c r="AB153" s="199"/>
-      <c r="AC153" s="199"/>
-      <c r="AD153" s="200"/>
-      <c r="AE153" s="210" t="s">
+      <c r="Z153" s="190"/>
+      <c r="AA153" s="190"/>
+      <c r="AB153" s="190"/>
+      <c r="AC153" s="190"/>
+      <c r="AD153" s="191"/>
+      <c r="AE153" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AF153" s="211"/>
-      <c r="AG153" s="211"/>
-      <c r="AH153" s="211"/>
-      <c r="AI153" s="211"/>
-      <c r="AJ153" s="212"/>
+      <c r="AF153" s="190"/>
+      <c r="AG153" s="190"/>
+      <c r="AH153" s="190"/>
+      <c r="AI153" s="190"/>
+      <c r="AJ153" s="191"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12717,30 +12724,30 @@
       <c r="P154" s="75"/>
       <c r="Q154" s="75"/>
       <c r="R154" s="76"/>
-      <c r="S154" s="198" t="s">
+      <c r="S154" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="199"/>
-      <c r="U154" s="199"/>
-      <c r="V154" s="199"/>
-      <c r="W154" s="199"/>
-      <c r="X154" s="200"/>
-      <c r="Y154" s="198" t="s">
+      <c r="T154" s="190"/>
+      <c r="U154" s="190"/>
+      <c r="V154" s="190"/>
+      <c r="W154" s="190"/>
+      <c r="X154" s="191"/>
+      <c r="Y154" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="199"/>
-      <c r="AA154" s="199"/>
-      <c r="AB154" s="199"/>
-      <c r="AC154" s="199"/>
-      <c r="AD154" s="200"/>
-      <c r="AE154" s="198" t="s">
+      <c r="Z154" s="190"/>
+      <c r="AA154" s="190"/>
+      <c r="AB154" s="190"/>
+      <c r="AC154" s="190"/>
+      <c r="AD154" s="191"/>
+      <c r="AE154" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF154" s="199"/>
-      <c r="AG154" s="199"/>
-      <c r="AH154" s="199"/>
-      <c r="AI154" s="199"/>
-      <c r="AJ154" s="200"/>
+      <c r="AF154" s="190"/>
+      <c r="AG154" s="190"/>
+      <c r="AH154" s="190"/>
+      <c r="AI154" s="190"/>
+      <c r="AJ154" s="191"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12764,30 +12771,30 @@
       <c r="P155" s="75"/>
       <c r="Q155" s="75"/>
       <c r="R155" s="76"/>
-      <c r="S155" s="198" t="s">
+      <c r="S155" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="199"/>
-      <c r="U155" s="199"/>
-      <c r="V155" s="199"/>
-      <c r="W155" s="199"/>
-      <c r="X155" s="200"/>
-      <c r="Y155" s="198" t="s">
+      <c r="T155" s="190"/>
+      <c r="U155" s="190"/>
+      <c r="V155" s="190"/>
+      <c r="W155" s="190"/>
+      <c r="X155" s="191"/>
+      <c r="Y155" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="199"/>
-      <c r="AA155" s="199"/>
-      <c r="AB155" s="199"/>
-      <c r="AC155" s="199"/>
-      <c r="AD155" s="200"/>
-      <c r="AE155" s="210" t="s">
+      <c r="Z155" s="190"/>
+      <c r="AA155" s="190"/>
+      <c r="AB155" s="190"/>
+      <c r="AC155" s="190"/>
+      <c r="AD155" s="191"/>
+      <c r="AE155" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AF155" s="211"/>
-      <c r="AG155" s="211"/>
-      <c r="AH155" s="211"/>
-      <c r="AI155" s="211"/>
-      <c r="AJ155" s="212"/>
+      <c r="AF155" s="190"/>
+      <c r="AG155" s="190"/>
+      <c r="AH155" s="190"/>
+      <c r="AI155" s="190"/>
+      <c r="AJ155" s="191"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12811,30 +12818,30 @@
       <c r="P156" s="75"/>
       <c r="Q156" s="75"/>
       <c r="R156" s="76"/>
-      <c r="S156" s="198" t="s">
+      <c r="S156" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="199"/>
-      <c r="U156" s="199"/>
-      <c r="V156" s="199"/>
-      <c r="W156" s="199"/>
-      <c r="X156" s="200"/>
-      <c r="Y156" s="198" t="s">
+      <c r="T156" s="190"/>
+      <c r="U156" s="190"/>
+      <c r="V156" s="190"/>
+      <c r="W156" s="190"/>
+      <c r="X156" s="191"/>
+      <c r="Y156" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="199"/>
-      <c r="AA156" s="199"/>
-      <c r="AB156" s="199"/>
-      <c r="AC156" s="199"/>
-      <c r="AD156" s="200"/>
-      <c r="AE156" s="198" t="s">
+      <c r="Z156" s="190"/>
+      <c r="AA156" s="190"/>
+      <c r="AB156" s="190"/>
+      <c r="AC156" s="190"/>
+      <c r="AD156" s="191"/>
+      <c r="AE156" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF156" s="199"/>
-      <c r="AG156" s="199"/>
-      <c r="AH156" s="199"/>
-      <c r="AI156" s="199"/>
-      <c r="AJ156" s="200"/>
+      <c r="AF156" s="190"/>
+      <c r="AG156" s="190"/>
+      <c r="AH156" s="190"/>
+      <c r="AI156" s="190"/>
+      <c r="AJ156" s="191"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12858,30 +12865,30 @@
       <c r="P157" s="75"/>
       <c r="Q157" s="75"/>
       <c r="R157" s="76"/>
-      <c r="S157" s="198" t="s">
+      <c r="S157" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="199"/>
-      <c r="U157" s="199"/>
-      <c r="V157" s="199"/>
-      <c r="W157" s="199"/>
-      <c r="X157" s="200"/>
-      <c r="Y157" s="198" t="s">
+      <c r="T157" s="190"/>
+      <c r="U157" s="190"/>
+      <c r="V157" s="190"/>
+      <c r="W157" s="190"/>
+      <c r="X157" s="191"/>
+      <c r="Y157" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="199"/>
-      <c r="AA157" s="199"/>
-      <c r="AB157" s="199"/>
-      <c r="AC157" s="199"/>
-      <c r="AD157" s="200"/>
-      <c r="AE157" s="198" t="s">
+      <c r="Z157" s="190"/>
+      <c r="AA157" s="190"/>
+      <c r="AB157" s="190"/>
+      <c r="AC157" s="190"/>
+      <c r="AD157" s="191"/>
+      <c r="AE157" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AF157" s="199"/>
-      <c r="AG157" s="199"/>
-      <c r="AH157" s="199"/>
-      <c r="AI157" s="199"/>
-      <c r="AJ157" s="200"/>
+      <c r="AF157" s="190"/>
+      <c r="AG157" s="190"/>
+      <c r="AH157" s="190"/>
+      <c r="AI157" s="190"/>
+      <c r="AJ157" s="191"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12903,30 +12910,30 @@
       <c r="P158" s="75"/>
       <c r="Q158" s="75"/>
       <c r="R158" s="76"/>
-      <c r="S158" s="198" t="s">
+      <c r="S158" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="199"/>
-      <c r="U158" s="199"/>
-      <c r="V158" s="199"/>
-      <c r="W158" s="199"/>
-      <c r="X158" s="200"/>
-      <c r="Y158" s="198" t="s">
+      <c r="T158" s="190"/>
+      <c r="U158" s="190"/>
+      <c r="V158" s="190"/>
+      <c r="W158" s="190"/>
+      <c r="X158" s="191"/>
+      <c r="Y158" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="199"/>
-      <c r="AA158" s="199"/>
-      <c r="AB158" s="199"/>
-      <c r="AC158" s="199"/>
-      <c r="AD158" s="200"/>
-      <c r="AE158" s="198" t="s">
+      <c r="Z158" s="190"/>
+      <c r="AA158" s="190"/>
+      <c r="AB158" s="190"/>
+      <c r="AC158" s="190"/>
+      <c r="AD158" s="191"/>
+      <c r="AE158" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF158" s="199"/>
-      <c r="AG158" s="199"/>
-      <c r="AH158" s="199"/>
-      <c r="AI158" s="199"/>
-      <c r="AJ158" s="200"/>
+      <c r="AF158" s="190"/>
+      <c r="AG158" s="190"/>
+      <c r="AH158" s="190"/>
+      <c r="AI158" s="190"/>
+      <c r="AJ158" s="191"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12948,30 +12955,30 @@
       <c r="P159" s="134"/>
       <c r="Q159" s="134"/>
       <c r="R159" s="135"/>
-      <c r="S159" s="195" t="s">
+      <c r="S159" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="196"/>
-      <c r="U159" s="196"/>
-      <c r="V159" s="196"/>
-      <c r="W159" s="196"/>
-      <c r="X159" s="197"/>
-      <c r="Y159" s="195" t="s">
+      <c r="T159" s="190"/>
+      <c r="U159" s="190"/>
+      <c r="V159" s="190"/>
+      <c r="W159" s="190"/>
+      <c r="X159" s="191"/>
+      <c r="Y159" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="196"/>
-      <c r="AA159" s="196"/>
-      <c r="AB159" s="196"/>
-      <c r="AC159" s="196"/>
-      <c r="AD159" s="197"/>
-      <c r="AE159" s="195" t="s">
+      <c r="Z159" s="190"/>
+      <c r="AA159" s="190"/>
+      <c r="AB159" s="190"/>
+      <c r="AC159" s="190"/>
+      <c r="AD159" s="191"/>
+      <c r="AE159" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF159" s="196"/>
-      <c r="AG159" s="196"/>
-      <c r="AH159" s="196"/>
-      <c r="AI159" s="196"/>
-      <c r="AJ159" s="197"/>
+      <c r="AF159" s="190"/>
+      <c r="AG159" s="190"/>
+      <c r="AH159" s="190"/>
+      <c r="AI159" s="190"/>
+      <c r="AJ159" s="191"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12993,30 +13000,30 @@
       <c r="P160" s="75"/>
       <c r="Q160" s="75"/>
       <c r="R160" s="76"/>
-      <c r="S160" s="198" t="s">
+      <c r="S160" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="199"/>
-      <c r="U160" s="199"/>
-      <c r="V160" s="199"/>
-      <c r="W160" s="199"/>
-      <c r="X160" s="200"/>
-      <c r="Y160" s="198" t="s">
+      <c r="T160" s="190"/>
+      <c r="U160" s="190"/>
+      <c r="V160" s="190"/>
+      <c r="W160" s="190"/>
+      <c r="X160" s="191"/>
+      <c r="Y160" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="199"/>
-      <c r="AA160" s="199"/>
-      <c r="AB160" s="199"/>
-      <c r="AC160" s="199"/>
-      <c r="AD160" s="200"/>
-      <c r="AE160" s="198" t="s">
+      <c r="Z160" s="190"/>
+      <c r="AA160" s="190"/>
+      <c r="AB160" s="190"/>
+      <c r="AC160" s="190"/>
+      <c r="AD160" s="191"/>
+      <c r="AE160" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF160" s="199"/>
-      <c r="AG160" s="199"/>
-      <c r="AH160" s="199"/>
-      <c r="AI160" s="199"/>
-      <c r="AJ160" s="200"/>
+      <c r="AF160" s="190"/>
+      <c r="AG160" s="190"/>
+      <c r="AH160" s="190"/>
+      <c r="AI160" s="190"/>
+      <c r="AJ160" s="191"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -13040,30 +13047,30 @@
       <c r="P161" s="75"/>
       <c r="Q161" s="75"/>
       <c r="R161" s="76"/>
-      <c r="S161" s="198" t="s">
+      <c r="S161" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="199"/>
-      <c r="U161" s="199"/>
-      <c r="V161" s="199"/>
-      <c r="W161" s="199"/>
-      <c r="X161" s="200"/>
-      <c r="Y161" s="210" t="s">
+      <c r="T161" s="190"/>
+      <c r="U161" s="190"/>
+      <c r="V161" s="190"/>
+      <c r="W161" s="190"/>
+      <c r="X161" s="191"/>
+      <c r="Y161" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="Z161" s="211"/>
-      <c r="AA161" s="211"/>
-      <c r="AB161" s="211"/>
-      <c r="AC161" s="211"/>
-      <c r="AD161" s="212"/>
-      <c r="AE161" s="213" t="s">
+      <c r="Z161" s="193"/>
+      <c r="AA161" s="193"/>
+      <c r="AB161" s="193"/>
+      <c r="AC161" s="193"/>
+      <c r="AD161" s="194"/>
+      <c r="AE161" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="AF161" s="214"/>
-      <c r="AG161" s="214"/>
-      <c r="AH161" s="214"/>
-      <c r="AI161" s="214"/>
-      <c r="AJ161" s="215"/>
+      <c r="AF161" s="196"/>
+      <c r="AG161" s="196"/>
+      <c r="AH161" s="196"/>
+      <c r="AI161" s="196"/>
+      <c r="AJ161" s="197"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -13087,30 +13094,30 @@
       <c r="P162" s="75"/>
       <c r="Q162" s="75"/>
       <c r="R162" s="76"/>
-      <c r="S162" s="198" t="s">
+      <c r="S162" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="199"/>
-      <c r="U162" s="199"/>
-      <c r="V162" s="199"/>
-      <c r="W162" s="199"/>
-      <c r="X162" s="200"/>
-      <c r="Y162" s="198" t="s">
+      <c r="T162" s="190"/>
+      <c r="U162" s="190"/>
+      <c r="V162" s="190"/>
+      <c r="W162" s="190"/>
+      <c r="X162" s="191"/>
+      <c r="Y162" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="199"/>
-      <c r="AA162" s="199"/>
-      <c r="AB162" s="199"/>
-      <c r="AC162" s="199"/>
-      <c r="AD162" s="200"/>
-      <c r="AE162" s="213" t="s">
+      <c r="Z162" s="190"/>
+      <c r="AA162" s="190"/>
+      <c r="AB162" s="190"/>
+      <c r="AC162" s="190"/>
+      <c r="AD162" s="191"/>
+      <c r="AE162" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="AF162" s="214"/>
-      <c r="AG162" s="214"/>
-      <c r="AH162" s="214"/>
-      <c r="AI162" s="214"/>
-      <c r="AJ162" s="215"/>
+      <c r="AF162" s="196"/>
+      <c r="AG162" s="196"/>
+      <c r="AH162" s="196"/>
+      <c r="AI162" s="196"/>
+      <c r="AJ162" s="197"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -13134,30 +13141,30 @@
       <c r="P163" s="75"/>
       <c r="Q163" s="75"/>
       <c r="R163" s="76"/>
-      <c r="S163" s="198" t="s">
+      <c r="S163" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="199"/>
-      <c r="U163" s="199"/>
-      <c r="V163" s="199"/>
-      <c r="W163" s="199"/>
-      <c r="X163" s="200"/>
-      <c r="Y163" s="198" t="s">
+      <c r="T163" s="190"/>
+      <c r="U163" s="190"/>
+      <c r="V163" s="190"/>
+      <c r="W163" s="190"/>
+      <c r="X163" s="191"/>
+      <c r="Y163" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="199"/>
-      <c r="AA163" s="199"/>
-      <c r="AB163" s="199"/>
-      <c r="AC163" s="199"/>
-      <c r="AD163" s="200"/>
-      <c r="AE163" s="213" t="s">
+      <c r="Z163" s="190"/>
+      <c r="AA163" s="190"/>
+      <c r="AB163" s="190"/>
+      <c r="AC163" s="190"/>
+      <c r="AD163" s="191"/>
+      <c r="AE163" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="AF163" s="214"/>
-      <c r="AG163" s="214"/>
-      <c r="AH163" s="214"/>
-      <c r="AI163" s="214"/>
-      <c r="AJ163" s="215"/>
+      <c r="AF163" s="196"/>
+      <c r="AG163" s="196"/>
+      <c r="AH163" s="196"/>
+      <c r="AI163" s="196"/>
+      <c r="AJ163" s="197"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -13181,30 +13188,30 @@
       <c r="P164" s="75"/>
       <c r="Q164" s="75"/>
       <c r="R164" s="76"/>
-      <c r="S164" s="198" t="s">
+      <c r="S164" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="199"/>
-      <c r="U164" s="199"/>
-      <c r="V164" s="199"/>
-      <c r="W164" s="199"/>
-      <c r="X164" s="200"/>
-      <c r="Y164" s="198" t="s">
+      <c r="T164" s="190"/>
+      <c r="U164" s="190"/>
+      <c r="V164" s="190"/>
+      <c r="W164" s="190"/>
+      <c r="X164" s="191"/>
+      <c r="Y164" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="199"/>
-      <c r="AA164" s="199"/>
-      <c r="AB164" s="199"/>
-      <c r="AC164" s="199"/>
-      <c r="AD164" s="200"/>
-      <c r="AE164" s="213" t="s">
+      <c r="Z164" s="190"/>
+      <c r="AA164" s="190"/>
+      <c r="AB164" s="190"/>
+      <c r="AC164" s="190"/>
+      <c r="AD164" s="191"/>
+      <c r="AE164" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="AF164" s="214"/>
-      <c r="AG164" s="214"/>
-      <c r="AH164" s="214"/>
-      <c r="AI164" s="214"/>
-      <c r="AJ164" s="215"/>
+      <c r="AF164" s="196"/>
+      <c r="AG164" s="196"/>
+      <c r="AH164" s="196"/>
+      <c r="AI164" s="196"/>
+      <c r="AJ164" s="197"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -13213,7 +13220,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="15"/>
       <c r="G165" s="139" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="H165" s="92"/>
       <c r="I165" s="92"/>
@@ -13228,30 +13235,30 @@
       <c r="P165" s="75"/>
       <c r="Q165" s="75"/>
       <c r="R165" s="76"/>
-      <c r="S165" s="198" t="s">
+      <c r="S165" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="199"/>
-      <c r="U165" s="199"/>
-      <c r="V165" s="199"/>
-      <c r="W165" s="199"/>
-      <c r="X165" s="200"/>
-      <c r="Y165" s="198" t="s">
+      <c r="T165" s="190"/>
+      <c r="U165" s="190"/>
+      <c r="V165" s="190"/>
+      <c r="W165" s="190"/>
+      <c r="X165" s="191"/>
+      <c r="Y165" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="199"/>
-      <c r="AA165" s="199"/>
-      <c r="AB165" s="199"/>
-      <c r="AC165" s="199"/>
-      <c r="AD165" s="200"/>
-      <c r="AE165" s="198" t="s">
+      <c r="Z165" s="190"/>
+      <c r="AA165" s="190"/>
+      <c r="AB165" s="190"/>
+      <c r="AC165" s="190"/>
+      <c r="AD165" s="191"/>
+      <c r="AE165" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AF165" s="199"/>
-      <c r="AG165" s="199"/>
-      <c r="AH165" s="199"/>
-      <c r="AI165" s="199"/>
-      <c r="AJ165" s="200"/>
+      <c r="AF165" s="190"/>
+      <c r="AG165" s="190"/>
+      <c r="AH165" s="190"/>
+      <c r="AI165" s="190"/>
+      <c r="AJ165" s="191"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -13260,7 +13267,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="15"/>
       <c r="G166" s="136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H166" s="134"/>
       <c r="I166" s="134"/>
@@ -13275,30 +13282,30 @@
       <c r="P166" s="75"/>
       <c r="Q166" s="75"/>
       <c r="R166" s="76"/>
-      <c r="S166" s="198" t="s">
+      <c r="S166" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="199"/>
-      <c r="U166" s="199"/>
-      <c r="V166" s="199"/>
-      <c r="W166" s="199"/>
-      <c r="X166" s="200"/>
-      <c r="Y166" s="198" t="s">
+      <c r="T166" s="190"/>
+      <c r="U166" s="190"/>
+      <c r="V166" s="190"/>
+      <c r="W166" s="190"/>
+      <c r="X166" s="191"/>
+      <c r="Y166" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z166" s="199"/>
-      <c r="AA166" s="199"/>
-      <c r="AB166" s="199"/>
-      <c r="AC166" s="199"/>
-      <c r="AD166" s="200"/>
-      <c r="AE166" s="213" t="s">
+      <c r="Z166" s="190"/>
+      <c r="AA166" s="190"/>
+      <c r="AB166" s="190"/>
+      <c r="AC166" s="190"/>
+      <c r="AD166" s="191"/>
+      <c r="AE166" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="214"/>
-      <c r="AG166" s="214"/>
-      <c r="AH166" s="214"/>
-      <c r="AI166" s="214"/>
-      <c r="AJ166" s="215"/>
+      <c r="AF166" s="196"/>
+      <c r="AG166" s="196"/>
+      <c r="AH166" s="196"/>
+      <c r="AI166" s="196"/>
+      <c r="AJ166" s="197"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -13320,30 +13327,30 @@
       <c r="P167" s="75"/>
       <c r="Q167" s="75"/>
       <c r="R167" s="76"/>
-      <c r="S167" s="198" t="s">
+      <c r="S167" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="199"/>
-      <c r="U167" s="199"/>
-      <c r="V167" s="199"/>
-      <c r="W167" s="199"/>
-      <c r="X167" s="200"/>
-      <c r="Y167" s="198" t="s">
+      <c r="T167" s="190"/>
+      <c r="U167" s="190"/>
+      <c r="V167" s="190"/>
+      <c r="W167" s="190"/>
+      <c r="X167" s="191"/>
+      <c r="Y167" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="199"/>
-      <c r="AA167" s="199"/>
-      <c r="AB167" s="199"/>
-      <c r="AC167" s="199"/>
-      <c r="AD167" s="200"/>
-      <c r="AE167" s="198" t="s">
+      <c r="Z167" s="190"/>
+      <c r="AA167" s="190"/>
+      <c r="AB167" s="190"/>
+      <c r="AC167" s="190"/>
+      <c r="AD167" s="191"/>
+      <c r="AE167" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF167" s="199"/>
-      <c r="AG167" s="199"/>
-      <c r="AH167" s="199"/>
-      <c r="AI167" s="199"/>
-      <c r="AJ167" s="200"/>
+      <c r="AF167" s="190"/>
+      <c r="AG167" s="190"/>
+      <c r="AH167" s="190"/>
+      <c r="AI167" s="190"/>
+      <c r="AJ167" s="191"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -13367,30 +13374,30 @@
       <c r="P168" s="134"/>
       <c r="Q168" s="134"/>
       <c r="R168" s="135"/>
-      <c r="S168" s="198" t="s">
+      <c r="S168" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="199"/>
-      <c r="U168" s="199"/>
-      <c r="V168" s="199"/>
-      <c r="W168" s="199"/>
-      <c r="X168" s="200"/>
-      <c r="Y168" s="210" t="s">
+      <c r="T168" s="190"/>
+      <c r="U168" s="190"/>
+      <c r="V168" s="190"/>
+      <c r="W168" s="190"/>
+      <c r="X168" s="191"/>
+      <c r="Y168" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="Z168" s="211"/>
-      <c r="AA168" s="211"/>
-      <c r="AB168" s="211"/>
-      <c r="AC168" s="211"/>
-      <c r="AD168" s="212"/>
-      <c r="AE168" s="210" t="s">
+      <c r="Z168" s="193"/>
+      <c r="AA168" s="193"/>
+      <c r="AB168" s="193"/>
+      <c r="AC168" s="193"/>
+      <c r="AD168" s="194"/>
+      <c r="AE168" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AF168" s="211"/>
-      <c r="AG168" s="211"/>
-      <c r="AH168" s="211"/>
-      <c r="AI168" s="211"/>
-      <c r="AJ168" s="212"/>
+      <c r="AF168" s="193"/>
+      <c r="AG168" s="193"/>
+      <c r="AH168" s="193"/>
+      <c r="AI168" s="193"/>
+      <c r="AJ168" s="194"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -13412,30 +13419,30 @@
       <c r="P169" s="75"/>
       <c r="Q169" s="75"/>
       <c r="R169" s="76"/>
-      <c r="S169" s="198" t="s">
+      <c r="S169" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="199"/>
-      <c r="U169" s="199"/>
-      <c r="V169" s="199"/>
-      <c r="W169" s="199"/>
-      <c r="X169" s="200"/>
-      <c r="Y169" s="198" t="s">
+      <c r="T169" s="190"/>
+      <c r="U169" s="190"/>
+      <c r="V169" s="190"/>
+      <c r="W169" s="190"/>
+      <c r="X169" s="191"/>
+      <c r="Y169" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="199"/>
-      <c r="AA169" s="199"/>
-      <c r="AB169" s="199"/>
-      <c r="AC169" s="199"/>
-      <c r="AD169" s="200"/>
-      <c r="AE169" s="210" t="s">
+      <c r="Z169" s="190"/>
+      <c r="AA169" s="190"/>
+      <c r="AB169" s="190"/>
+      <c r="AC169" s="190"/>
+      <c r="AD169" s="191"/>
+      <c r="AE169" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="AF169" s="211"/>
-      <c r="AG169" s="211"/>
-      <c r="AH169" s="211"/>
-      <c r="AI169" s="211"/>
-      <c r="AJ169" s="212"/>
+      <c r="AF169" s="193"/>
+      <c r="AG169" s="193"/>
+      <c r="AH169" s="193"/>
+      <c r="AI169" s="193"/>
+      <c r="AJ169" s="194"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13457,30 +13464,30 @@
       <c r="P170" s="75"/>
       <c r="Q170" s="75"/>
       <c r="R170" s="76"/>
-      <c r="S170" s="198" t="s">
+      <c r="S170" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="199"/>
-      <c r="U170" s="199"/>
-      <c r="V170" s="199"/>
-      <c r="W170" s="199"/>
-      <c r="X170" s="200"/>
-      <c r="Y170" s="198" t="s">
+      <c r="T170" s="190"/>
+      <c r="U170" s="190"/>
+      <c r="V170" s="190"/>
+      <c r="W170" s="190"/>
+      <c r="X170" s="191"/>
+      <c r="Y170" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="199"/>
-      <c r="AA170" s="199"/>
-      <c r="AB170" s="199"/>
-      <c r="AC170" s="199"/>
-      <c r="AD170" s="200"/>
-      <c r="AE170" s="210" t="s">
+      <c r="Z170" s="190"/>
+      <c r="AA170" s="190"/>
+      <c r="AB170" s="190"/>
+      <c r="AC170" s="190"/>
+      <c r="AD170" s="191"/>
+      <c r="AE170" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="AF170" s="211"/>
-      <c r="AG170" s="211"/>
-      <c r="AH170" s="211"/>
-      <c r="AI170" s="211"/>
-      <c r="AJ170" s="212"/>
+      <c r="AF170" s="193"/>
+      <c r="AG170" s="193"/>
+      <c r="AH170" s="193"/>
+      <c r="AI170" s="193"/>
+      <c r="AJ170" s="194"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13502,30 +13509,30 @@
       <c r="P171" s="75"/>
       <c r="Q171" s="75"/>
       <c r="R171" s="76"/>
-      <c r="S171" s="198" t="s">
+      <c r="S171" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="199"/>
-      <c r="U171" s="199"/>
-      <c r="V171" s="199"/>
-      <c r="W171" s="199"/>
-      <c r="X171" s="200"/>
-      <c r="Y171" s="198" t="s">
+      <c r="T171" s="190"/>
+      <c r="U171" s="190"/>
+      <c r="V171" s="190"/>
+      <c r="W171" s="190"/>
+      <c r="X171" s="191"/>
+      <c r="Y171" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="199"/>
-      <c r="AA171" s="199"/>
-      <c r="AB171" s="199"/>
-      <c r="AC171" s="199"/>
-      <c r="AD171" s="200"/>
-      <c r="AE171" s="210" t="s">
+      <c r="Z171" s="190"/>
+      <c r="AA171" s="190"/>
+      <c r="AB171" s="190"/>
+      <c r="AC171" s="190"/>
+      <c r="AD171" s="191"/>
+      <c r="AE171" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AF171" s="211"/>
-      <c r="AG171" s="211"/>
-      <c r="AH171" s="211"/>
-      <c r="AI171" s="211"/>
-      <c r="AJ171" s="212"/>
+      <c r="AF171" s="193"/>
+      <c r="AG171" s="193"/>
+      <c r="AH171" s="193"/>
+      <c r="AI171" s="193"/>
+      <c r="AJ171" s="194"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13547,30 +13554,30 @@
       <c r="P172" s="75"/>
       <c r="Q172" s="75"/>
       <c r="R172" s="76"/>
-      <c r="S172" s="198" t="s">
+      <c r="S172" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="199"/>
-      <c r="U172" s="199"/>
-      <c r="V172" s="199"/>
-      <c r="W172" s="199"/>
-      <c r="X172" s="200"/>
-      <c r="Y172" s="198" t="s">
+      <c r="T172" s="190"/>
+      <c r="U172" s="190"/>
+      <c r="V172" s="190"/>
+      <c r="W172" s="190"/>
+      <c r="X172" s="191"/>
+      <c r="Y172" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="199"/>
-      <c r="AA172" s="199"/>
-      <c r="AB172" s="199"/>
-      <c r="AC172" s="199"/>
-      <c r="AD172" s="200"/>
-      <c r="AE172" s="198" t="s">
+      <c r="Z172" s="190"/>
+      <c r="AA172" s="190"/>
+      <c r="AB172" s="190"/>
+      <c r="AC172" s="190"/>
+      <c r="AD172" s="191"/>
+      <c r="AE172" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AF172" s="199"/>
-      <c r="AG172" s="199"/>
-      <c r="AH172" s="199"/>
-      <c r="AI172" s="199"/>
-      <c r="AJ172" s="200"/>
+      <c r="AF172" s="190"/>
+      <c r="AG172" s="190"/>
+      <c r="AH172" s="190"/>
+      <c r="AI172" s="190"/>
+      <c r="AJ172" s="191"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13592,30 +13599,30 @@
       <c r="P173" s="75"/>
       <c r="Q173" s="75"/>
       <c r="R173" s="76"/>
-      <c r="S173" s="198" t="s">
+      <c r="S173" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="199"/>
-      <c r="U173" s="199"/>
-      <c r="V173" s="199"/>
-      <c r="W173" s="199"/>
-      <c r="X173" s="200"/>
-      <c r="Y173" s="198" t="s">
+      <c r="T173" s="190"/>
+      <c r="U173" s="190"/>
+      <c r="V173" s="190"/>
+      <c r="W173" s="190"/>
+      <c r="X173" s="191"/>
+      <c r="Y173" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="199"/>
-      <c r="AA173" s="199"/>
-      <c r="AB173" s="199"/>
-      <c r="AC173" s="199"/>
-      <c r="AD173" s="200"/>
-      <c r="AE173" s="210" t="s">
+      <c r="Z173" s="190"/>
+      <c r="AA173" s="190"/>
+      <c r="AB173" s="190"/>
+      <c r="AC173" s="190"/>
+      <c r="AD173" s="191"/>
+      <c r="AE173" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AF173" s="211"/>
-      <c r="AG173" s="211"/>
-      <c r="AH173" s="211"/>
-      <c r="AI173" s="211"/>
-      <c r="AJ173" s="212"/>
+      <c r="AF173" s="193"/>
+      <c r="AG173" s="193"/>
+      <c r="AH173" s="193"/>
+      <c r="AI173" s="193"/>
+      <c r="AJ173" s="194"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13624,7 +13631,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="15"/>
       <c r="G174" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H174" s="75"/>
       <c r="I174" s="75"/>
@@ -13637,30 +13644,30 @@
       <c r="P174" s="75"/>
       <c r="Q174" s="75"/>
       <c r="R174" s="76"/>
-      <c r="S174" s="198" t="s">
+      <c r="S174" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="199"/>
-      <c r="U174" s="199"/>
-      <c r="V174" s="199"/>
-      <c r="W174" s="199"/>
-      <c r="X174" s="200"/>
-      <c r="Y174" s="198" t="s">
+      <c r="T174" s="190"/>
+      <c r="U174" s="190"/>
+      <c r="V174" s="190"/>
+      <c r="W174" s="190"/>
+      <c r="X174" s="191"/>
+      <c r="Y174" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z174" s="199"/>
-      <c r="AA174" s="199"/>
-      <c r="AB174" s="199"/>
-      <c r="AC174" s="199"/>
-      <c r="AD174" s="200"/>
-      <c r="AE174" s="198" t="s">
+      <c r="Z174" s="190"/>
+      <c r="AA174" s="190"/>
+      <c r="AB174" s="190"/>
+      <c r="AC174" s="190"/>
+      <c r="AD174" s="191"/>
+      <c r="AE174" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="AF174" s="199"/>
-      <c r="AG174" s="199"/>
-      <c r="AH174" s="199"/>
-      <c r="AI174" s="199"/>
-      <c r="AJ174" s="200"/>
+      <c r="AF174" s="190"/>
+      <c r="AG174" s="190"/>
+      <c r="AH174" s="190"/>
+      <c r="AI174" s="190"/>
+      <c r="AJ174" s="191"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13669,7 +13676,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="15"/>
       <c r="G175" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H175" s="23"/>
       <c r="I175" s="23"/>
@@ -13684,30 +13691,30 @@
       <c r="P175" s="134"/>
       <c r="Q175" s="134"/>
       <c r="R175" s="135"/>
-      <c r="S175" s="198" t="s">
+      <c r="S175" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="199"/>
-      <c r="U175" s="199"/>
-      <c r="V175" s="199"/>
-      <c r="W175" s="199"/>
-      <c r="X175" s="200"/>
-      <c r="Y175" s="198" t="s">
+      <c r="T175" s="190"/>
+      <c r="U175" s="190"/>
+      <c r="V175" s="190"/>
+      <c r="W175" s="190"/>
+      <c r="X175" s="191"/>
+      <c r="Y175" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z175" s="199"/>
-      <c r="AA175" s="199"/>
-      <c r="AB175" s="199"/>
-      <c r="AC175" s="199"/>
-      <c r="AD175" s="200"/>
-      <c r="AE175" s="198" t="s">
+      <c r="Z175" s="190"/>
+      <c r="AA175" s="190"/>
+      <c r="AB175" s="190"/>
+      <c r="AC175" s="190"/>
+      <c r="AD175" s="191"/>
+      <c r="AE175" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AF175" s="199"/>
-      <c r="AG175" s="199"/>
-      <c r="AH175" s="199"/>
-      <c r="AI175" s="199"/>
-      <c r="AJ175" s="200"/>
+      <c r="AF175" s="190"/>
+      <c r="AG175" s="190"/>
+      <c r="AH175" s="190"/>
+      <c r="AI175" s="190"/>
+      <c r="AJ175" s="191"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13716,7 +13723,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="15"/>
       <c r="G176" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -13731,30 +13738,30 @@
       <c r="P176" s="75"/>
       <c r="Q176" s="75"/>
       <c r="R176" s="76"/>
-      <c r="S176" s="198" t="s">
+      <c r="S176" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="199"/>
-      <c r="U176" s="199"/>
-      <c r="V176" s="199"/>
-      <c r="W176" s="199"/>
-      <c r="X176" s="200"/>
-      <c r="Y176" s="210" t="s">
+      <c r="T176" s="190"/>
+      <c r="U176" s="190"/>
+      <c r="V176" s="190"/>
+      <c r="W176" s="190"/>
+      <c r="X176" s="191"/>
+      <c r="Y176" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="211"/>
-      <c r="AA176" s="211"/>
-      <c r="AB176" s="211"/>
-      <c r="AC176" s="211"/>
-      <c r="AD176" s="212"/>
-      <c r="AE176" s="198" t="s">
+      <c r="Z176" s="193"/>
+      <c r="AA176" s="193"/>
+      <c r="AB176" s="193"/>
+      <c r="AC176" s="193"/>
+      <c r="AD176" s="194"/>
+      <c r="AE176" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AF176" s="199"/>
-      <c r="AG176" s="199"/>
-      <c r="AH176" s="199"/>
-      <c r="AI176" s="199"/>
-      <c r="AJ176" s="200"/>
+      <c r="AF176" s="190"/>
+      <c r="AG176" s="190"/>
+      <c r="AH176" s="190"/>
+      <c r="AI176" s="190"/>
+      <c r="AJ176" s="191"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13763,7 +13770,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="15"/>
       <c r="G177" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
@@ -13778,30 +13785,30 @@
       <c r="P177" s="75"/>
       <c r="Q177" s="75"/>
       <c r="R177" s="76"/>
-      <c r="S177" s="198" t="s">
+      <c r="S177" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T177" s="199"/>
-      <c r="U177" s="199"/>
-      <c r="V177" s="199"/>
-      <c r="W177" s="199"/>
-      <c r="X177" s="200"/>
-      <c r="Y177" s="210" t="s">
+      <c r="T177" s="190"/>
+      <c r="U177" s="190"/>
+      <c r="V177" s="190"/>
+      <c r="W177" s="190"/>
+      <c r="X177" s="191"/>
+      <c r="Y177" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="211"/>
-      <c r="AA177" s="211"/>
-      <c r="AB177" s="211"/>
-      <c r="AC177" s="211"/>
-      <c r="AD177" s="212"/>
-      <c r="AE177" s="198" t="s">
+      <c r="Z177" s="193"/>
+      <c r="AA177" s="193"/>
+      <c r="AB177" s="193"/>
+      <c r="AC177" s="193"/>
+      <c r="AD177" s="194"/>
+      <c r="AE177" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="199"/>
-      <c r="AG177" s="199"/>
-      <c r="AH177" s="199"/>
-      <c r="AI177" s="199"/>
-      <c r="AJ177" s="200"/>
+      <c r="AF177" s="190"/>
+      <c r="AG177" s="190"/>
+      <c r="AH177" s="190"/>
+      <c r="AI177" s="190"/>
+      <c r="AJ177" s="191"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13823,30 +13830,30 @@
       <c r="P178" s="75"/>
       <c r="Q178" s="75"/>
       <c r="R178" s="76"/>
-      <c r="S178" s="198" t="s">
+      <c r="S178" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T178" s="199"/>
-      <c r="U178" s="199"/>
-      <c r="V178" s="199"/>
-      <c r="W178" s="199"/>
-      <c r="X178" s="200"/>
-      <c r="Y178" s="210" t="s">
+      <c r="T178" s="190"/>
+      <c r="U178" s="190"/>
+      <c r="V178" s="190"/>
+      <c r="W178" s="190"/>
+      <c r="X178" s="191"/>
+      <c r="Y178" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="211"/>
-      <c r="AA178" s="211"/>
-      <c r="AB178" s="211"/>
-      <c r="AC178" s="211"/>
-      <c r="AD178" s="212"/>
-      <c r="AE178" s="198" t="s">
+      <c r="Z178" s="193"/>
+      <c r="AA178" s="193"/>
+      <c r="AB178" s="193"/>
+      <c r="AC178" s="193"/>
+      <c r="AD178" s="194"/>
+      <c r="AE178" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AF178" s="199"/>
-      <c r="AG178" s="199"/>
-      <c r="AH178" s="199"/>
-      <c r="AI178" s="199"/>
-      <c r="AJ178" s="200"/>
+      <c r="AF178" s="190"/>
+      <c r="AG178" s="190"/>
+      <c r="AH178" s="190"/>
+      <c r="AI178" s="190"/>
+      <c r="AJ178" s="191"/>
       <c r="AP178" s="5"/>
       <c r="AQ178" s="2"/>
     </row>
@@ -13868,30 +13875,30 @@
       <c r="P179" s="75"/>
       <c r="Q179" s="75"/>
       <c r="R179" s="76"/>
-      <c r="S179" s="198" t="s">
+      <c r="S179" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T179" s="199"/>
-      <c r="U179" s="199"/>
-      <c r="V179" s="199"/>
-      <c r="W179" s="199"/>
-      <c r="X179" s="200"/>
-      <c r="Y179" s="210" t="s">
+      <c r="T179" s="190"/>
+      <c r="U179" s="190"/>
+      <c r="V179" s="190"/>
+      <c r="W179" s="190"/>
+      <c r="X179" s="191"/>
+      <c r="Y179" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="211"/>
-      <c r="AA179" s="211"/>
-      <c r="AB179" s="211"/>
-      <c r="AC179" s="211"/>
-      <c r="AD179" s="212"/>
-      <c r="AE179" s="210" t="s">
+      <c r="Z179" s="193"/>
+      <c r="AA179" s="193"/>
+      <c r="AB179" s="193"/>
+      <c r="AC179" s="193"/>
+      <c r="AD179" s="194"/>
+      <c r="AE179" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="211"/>
-      <c r="AG179" s="211"/>
-      <c r="AH179" s="211"/>
-      <c r="AI179" s="211"/>
-      <c r="AJ179" s="212"/>
+      <c r="AF179" s="193"/>
+      <c r="AG179" s="193"/>
+      <c r="AH179" s="193"/>
+      <c r="AI179" s="193"/>
+      <c r="AJ179" s="194"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13913,30 +13920,30 @@
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="210" t="s">
+      <c r="S180" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="211"/>
-      <c r="U180" s="211"/>
-      <c r="V180" s="211"/>
-      <c r="W180" s="211"/>
-      <c r="X180" s="212"/>
-      <c r="Y180" s="210" t="s">
+      <c r="T180" s="193"/>
+      <c r="U180" s="193"/>
+      <c r="V180" s="193"/>
+      <c r="W180" s="193"/>
+      <c r="X180" s="194"/>
+      <c r="Y180" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="211"/>
-      <c r="AA180" s="211"/>
-      <c r="AB180" s="211"/>
-      <c r="AC180" s="211"/>
-      <c r="AD180" s="212"/>
-      <c r="AE180" s="210" t="s">
+      <c r="Z180" s="193"/>
+      <c r="AA180" s="193"/>
+      <c r="AB180" s="193"/>
+      <c r="AC180" s="193"/>
+      <c r="AD180" s="194"/>
+      <c r="AE180" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="211"/>
-      <c r="AG180" s="211"/>
-      <c r="AH180" s="211"/>
-      <c r="AI180" s="211"/>
-      <c r="AJ180" s="212"/>
+      <c r="AF180" s="193"/>
+      <c r="AG180" s="193"/>
+      <c r="AH180" s="193"/>
+      <c r="AI180" s="193"/>
+      <c r="AJ180" s="194"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13958,30 +13965,30 @@
       <c r="P181" s="149"/>
       <c r="Q181" s="149"/>
       <c r="R181" s="150"/>
-      <c r="S181" s="201" t="s">
+      <c r="S181" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="202"/>
-      <c r="U181" s="202"/>
-      <c r="V181" s="202"/>
-      <c r="W181" s="202"/>
-      <c r="X181" s="203"/>
-      <c r="Y181" s="201" t="s">
+      <c r="T181" s="211"/>
+      <c r="U181" s="211"/>
+      <c r="V181" s="211"/>
+      <c r="W181" s="211"/>
+      <c r="X181" s="212"/>
+      <c r="Y181" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="202"/>
-      <c r="AA181" s="202"/>
-      <c r="AB181" s="202"/>
-      <c r="AC181" s="202"/>
-      <c r="AD181" s="203"/>
-      <c r="AE181" s="201" t="s">
+      <c r="Z181" s="211"/>
+      <c r="AA181" s="211"/>
+      <c r="AB181" s="211"/>
+      <c r="AC181" s="211"/>
+      <c r="AD181" s="212"/>
+      <c r="AE181" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="202"/>
-      <c r="AG181" s="202"/>
-      <c r="AH181" s="202"/>
-      <c r="AI181" s="202"/>
-      <c r="AJ181" s="203"/>
+      <c r="AF181" s="211"/>
+      <c r="AG181" s="211"/>
+      <c r="AH181" s="211"/>
+      <c r="AI181" s="211"/>
+      <c r="AJ181" s="212"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -14003,30 +14010,30 @@
       <c r="P182" s="75"/>
       <c r="Q182" s="75"/>
       <c r="R182" s="76"/>
-      <c r="S182" s="198" t="s">
+      <c r="S182" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T182" s="199"/>
-      <c r="U182" s="199"/>
-      <c r="V182" s="199"/>
-      <c r="W182" s="199"/>
-      <c r="X182" s="200"/>
-      <c r="Y182" s="198" t="s">
+      <c r="T182" s="190"/>
+      <c r="U182" s="190"/>
+      <c r="V182" s="190"/>
+      <c r="W182" s="190"/>
+      <c r="X182" s="191"/>
+      <c r="Y182" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="Z182" s="199"/>
-      <c r="AA182" s="199"/>
-      <c r="AB182" s="199"/>
-      <c r="AC182" s="199"/>
-      <c r="AD182" s="200"/>
-      <c r="AE182" s="198" t="s">
+      <c r="Z182" s="190"/>
+      <c r="AA182" s="190"/>
+      <c r="AB182" s="190"/>
+      <c r="AC182" s="190"/>
+      <c r="AD182" s="191"/>
+      <c r="AE182" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="AF182" s="199"/>
-      <c r="AG182" s="199"/>
-      <c r="AH182" s="199"/>
-      <c r="AI182" s="199"/>
-      <c r="AJ182" s="200"/>
+      <c r="AF182" s="190"/>
+      <c r="AG182" s="190"/>
+      <c r="AH182" s="190"/>
+      <c r="AI182" s="190"/>
+      <c r="AJ182" s="191"/>
       <c r="AP182" s="5"/>
       <c r="AQ182" s="2"/>
     </row>
@@ -14048,30 +14055,30 @@
       <c r="P183" s="149"/>
       <c r="Q183" s="149"/>
       <c r="R183" s="150"/>
-      <c r="S183" s="201" t="s">
+      <c r="S183" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="202"/>
-      <c r="U183" s="202"/>
-      <c r="V183" s="202"/>
-      <c r="W183" s="202"/>
-      <c r="X183" s="203"/>
-      <c r="Y183" s="201" t="s">
+      <c r="T183" s="211"/>
+      <c r="U183" s="211"/>
+      <c r="V183" s="211"/>
+      <c r="W183" s="211"/>
+      <c r="X183" s="212"/>
+      <c r="Y183" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="202"/>
-      <c r="AA183" s="202"/>
-      <c r="AB183" s="202"/>
-      <c r="AC183" s="202"/>
-      <c r="AD183" s="203"/>
-      <c r="AE183" s="201" t="s">
+      <c r="Z183" s="211"/>
+      <c r="AA183" s="211"/>
+      <c r="AB183" s="211"/>
+      <c r="AC183" s="211"/>
+      <c r="AD183" s="212"/>
+      <c r="AE183" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="202"/>
-      <c r="AG183" s="202"/>
-      <c r="AH183" s="202"/>
-      <c r="AI183" s="202"/>
-      <c r="AJ183" s="203"/>
+      <c r="AF183" s="211"/>
+      <c r="AG183" s="211"/>
+      <c r="AH183" s="211"/>
+      <c r="AI183" s="211"/>
+      <c r="AJ183" s="212"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -14093,30 +14100,30 @@
       <c r="P184" s="152"/>
       <c r="Q184" s="152"/>
       <c r="R184" s="153"/>
-      <c r="S184" s="247" t="s">
+      <c r="S184" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="248"/>
-      <c r="U184" s="248"/>
-      <c r="V184" s="248"/>
-      <c r="W184" s="248"/>
-      <c r="X184" s="249"/>
-      <c r="Y184" s="247" t="s">
+      <c r="T184" s="244"/>
+      <c r="U184" s="244"/>
+      <c r="V184" s="244"/>
+      <c r="W184" s="244"/>
+      <c r="X184" s="245"/>
+      <c r="Y184" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="248"/>
-      <c r="AA184" s="248"/>
-      <c r="AB184" s="248"/>
-      <c r="AC184" s="248"/>
-      <c r="AD184" s="249"/>
-      <c r="AE184" s="247" t="s">
+      <c r="Z184" s="244"/>
+      <c r="AA184" s="244"/>
+      <c r="AB184" s="244"/>
+      <c r="AC184" s="244"/>
+      <c r="AD184" s="245"/>
+      <c r="AE184" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="248"/>
-      <c r="AG184" s="248"/>
-      <c r="AH184" s="248"/>
-      <c r="AI184" s="248"/>
-      <c r="AJ184" s="249"/>
+      <c r="AF184" s="244"/>
+      <c r="AG184" s="244"/>
+      <c r="AH184" s="244"/>
+      <c r="AI184" s="244"/>
+      <c r="AJ184" s="245"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -14510,7 +14517,7 @@
       <c r="AK199" s="98"/>
       <c r="AL199" s="102"/>
       <c r="AM199" s="169" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN199" s="170"/>
       <c r="AO199" s="171"/>
@@ -14559,7 +14566,7 @@
       <c r="AK200" s="99"/>
       <c r="AL200" s="103"/>
       <c r="AM200" s="125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN200" s="105"/>
       <c r="AO200" s="116"/>
@@ -14606,7 +14613,7 @@
       <c r="AK201" s="100"/>
       <c r="AL201" s="104"/>
       <c r="AM201" s="160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN201" s="161"/>
       <c r="AO201" s="162"/>
@@ -14696,7 +14703,7 @@
       <c r="AK203" s="99"/>
       <c r="AL203" s="103"/>
       <c r="AM203" s="169" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN203" s="164"/>
       <c r="AO203" s="165"/>
@@ -14869,7 +14876,7 @@
       <c r="AK207" s="40"/>
       <c r="AL207" s="17"/>
       <c r="AM207" s="125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN207" s="155"/>
       <c r="AO207" s="51"/>
@@ -14916,7 +14923,7 @@
       <c r="AK208" s="90"/>
       <c r="AL208" s="97"/>
       <c r="AM208" s="160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN208" s="161"/>
       <c r="AO208" s="162"/>
@@ -15006,7 +15013,7 @@
       <c r="AK210" s="91"/>
       <c r="AL210" s="33"/>
       <c r="AM210" s="169" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN210" s="164"/>
       <c r="AO210" s="165"/>
@@ -15055,7 +15062,7 @@
       <c r="AK211" s="40"/>
       <c r="AL211" s="17"/>
       <c r="AM211" s="125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN211" s="155"/>
       <c r="AO211" s="51"/>
@@ -15102,7 +15109,7 @@
       <c r="AK212" s="90"/>
       <c r="AL212" s="97"/>
       <c r="AM212" s="160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN212" s="161"/>
       <c r="AO212" s="162"/>
@@ -15192,7 +15199,7 @@
       <c r="AK214" s="91"/>
       <c r="AL214" s="33"/>
       <c r="AM214" s="169" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN214" s="164"/>
       <c r="AO214" s="165"/>
@@ -16029,7 +16036,7 @@
         <v>11</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F233" s="92"/>
       <c r="G233" s="92"/>
@@ -16142,17 +16149,17 @@
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="192" t="s">
+      <c r="AD235" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="AE235" s="193"/>
-      <c r="AF235" s="193"/>
-      <c r="AG235" s="193"/>
-      <c r="AH235" s="193"/>
-      <c r="AI235" s="193"/>
-      <c r="AJ235" s="193"/>
-      <c r="AK235" s="193"/>
-      <c r="AL235" s="194"/>
+      <c r="AE235" s="208"/>
+      <c r="AF235" s="208"/>
+      <c r="AG235" s="208"/>
+      <c r="AH235" s="208"/>
+      <c r="AI235" s="208"/>
+      <c r="AJ235" s="208"/>
+      <c r="AK235" s="208"/>
+      <c r="AL235" s="209"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -16210,7 +16217,7 @@
     <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="C237" s="93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D237" s="94"/>
       <c r="E237" s="94"/>
@@ -16220,7 +16227,7 @@
       <c r="I237" s="96"/>
       <c r="J237" s="104"/>
       <c r="K237" s="100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L237" s="100"/>
       <c r="M237" s="100"/>
@@ -16240,21 +16247,21 @@
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="183" t="s">
+      <c r="AD237" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="184"/>
-      <c r="AF237" s="184"/>
-      <c r="AG237" s="185"/>
-      <c r="AH237" s="183" t="s">
+      <c r="AE237" s="199"/>
+      <c r="AF237" s="199"/>
+      <c r="AG237" s="200"/>
+      <c r="AH237" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="185"/>
-      <c r="AJ237" s="183" t="s">
+      <c r="AI237" s="200"/>
+      <c r="AJ237" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="184"/>
-      <c r="AL237" s="185"/>
+      <c r="AK237" s="199"/>
+      <c r="AL237" s="200"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -16271,7 +16278,7 @@
       <c r="I238" s="90"/>
       <c r="J238" s="128"/>
       <c r="K238" s="92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L238" s="92"/>
       <c r="M238" s="92"/>
@@ -16291,15 +16298,15 @@
       <c r="AA238" s="92"/>
       <c r="AB238" s="92"/>
       <c r="AC238" s="128"/>
-      <c r="AD238" s="186"/>
-      <c r="AE238" s="187"/>
-      <c r="AF238" s="187"/>
-      <c r="AG238" s="188"/>
-      <c r="AH238" s="186"/>
-      <c r="AI238" s="188"/>
-      <c r="AJ238" s="186"/>
-      <c r="AK238" s="187"/>
-      <c r="AL238" s="188"/>
+      <c r="AD238" s="201"/>
+      <c r="AE238" s="202"/>
+      <c r="AF238" s="202"/>
+      <c r="AG238" s="203"/>
+      <c r="AH238" s="201"/>
+      <c r="AI238" s="203"/>
+      <c r="AJ238" s="201"/>
+      <c r="AK238" s="202"/>
+      <c r="AL238" s="203"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -16316,7 +16323,7 @@
       <c r="I239" s="90"/>
       <c r="J239" s="128"/>
       <c r="K239" s="119" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L239" s="92"/>
       <c r="M239" s="92"/>
@@ -16336,15 +16343,15 @@
       <c r="AA239" s="92"/>
       <c r="AB239" s="92"/>
       <c r="AC239" s="128"/>
-      <c r="AD239" s="186"/>
-      <c r="AE239" s="187"/>
-      <c r="AF239" s="187"/>
-      <c r="AG239" s="188"/>
-      <c r="AH239" s="186"/>
-      <c r="AI239" s="188"/>
-      <c r="AJ239" s="186"/>
-      <c r="AK239" s="187"/>
-      <c r="AL239" s="188"/>
+      <c r="AD239" s="201"/>
+      <c r="AE239" s="202"/>
+      <c r="AF239" s="202"/>
+      <c r="AG239" s="203"/>
+      <c r="AH239" s="201"/>
+      <c r="AI239" s="203"/>
+      <c r="AJ239" s="201"/>
+      <c r="AK239" s="202"/>
+      <c r="AL239" s="203"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -16361,7 +16368,7 @@
       <c r="I240" s="172"/>
       <c r="J240" s="121"/>
       <c r="K240" s="113" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L240" s="113"/>
       <c r="M240" s="113"/>
@@ -16381,15 +16388,15 @@
       <c r="AA240" s="113"/>
       <c r="AB240" s="113"/>
       <c r="AC240" s="121"/>
-      <c r="AD240" s="189"/>
-      <c r="AE240" s="190"/>
-      <c r="AF240" s="190"/>
-      <c r="AG240" s="191"/>
-      <c r="AH240" s="189"/>
-      <c r="AI240" s="191"/>
-      <c r="AJ240" s="189"/>
-      <c r="AK240" s="190"/>
-      <c r="AL240" s="191"/>
+      <c r="AD240" s="204"/>
+      <c r="AE240" s="205"/>
+      <c r="AF240" s="205"/>
+      <c r="AG240" s="206"/>
+      <c r="AH240" s="204"/>
+      <c r="AI240" s="206"/>
+      <c r="AJ240" s="204"/>
+      <c r="AK240" s="205"/>
+      <c r="AL240" s="206"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16398,7 +16405,7 @@
     <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="C241" s="93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D241" s="94"/>
       <c r="E241" s="94"/>
@@ -16408,7 +16415,7 @@
       <c r="I241" s="117"/>
       <c r="J241" s="173"/>
       <c r="K241" s="117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L241" s="117"/>
       <c r="M241" s="117"/>
@@ -16459,7 +16466,7 @@
       <c r="I242" s="119"/>
       <c r="J242" s="120"/>
       <c r="K242" s="119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L242" s="119"/>
       <c r="M242" s="119"/>
@@ -16504,7 +16511,7 @@
       <c r="I243" s="119"/>
       <c r="J243" s="120"/>
       <c r="K243" s="119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L243" s="119"/>
       <c r="M243" s="119"/>
@@ -16549,7 +16556,7 @@
       <c r="I244" s="113"/>
       <c r="J244" s="121"/>
       <c r="K244" s="113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L244" s="113"/>
       <c r="M244" s="113"/>
@@ -16586,7 +16593,7 @@
     <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="C245" s="93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D245" s="94"/>
       <c r="E245" s="94"/>
@@ -16596,7 +16603,7 @@
       <c r="I245" s="117"/>
       <c r="J245" s="173"/>
       <c r="K245" s="117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L245" s="117"/>
       <c r="M245" s="117"/>
@@ -16647,7 +16654,7 @@
       <c r="I246" s="119"/>
       <c r="J246" s="120"/>
       <c r="K246" s="119" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L246" s="119"/>
       <c r="M246" s="119"/>
@@ -16692,7 +16699,7 @@
       <c r="I247" s="90"/>
       <c r="J247" s="128"/>
       <c r="K247" s="119" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L247" s="92"/>
       <c r="M247" s="92"/>
@@ -16737,7 +16744,7 @@
       <c r="I248" s="172"/>
       <c r="J248" s="121"/>
       <c r="K248" s="113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L248" s="113"/>
       <c r="M248" s="113"/>
@@ -16774,7 +16781,7 @@
     <row r="249" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="C249" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D249" s="94"/>
       <c r="E249" s="94"/>
@@ -16784,7 +16791,7 @@
       <c r="I249" s="117"/>
       <c r="J249" s="173"/>
       <c r="K249" s="117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L249" s="117"/>
       <c r="M249" s="117"/>
@@ -16835,7 +16842,7 @@
       <c r="I250" s="113"/>
       <c r="J250" s="121"/>
       <c r="K250" s="113" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L250" s="113"/>
       <c r="M250" s="113"/>
@@ -17077,17 +17084,17 @@
       <c r="AA255" s="62"/>
       <c r="AB255" s="62"/>
       <c r="AC255" s="63"/>
-      <c r="AD255" s="192" t="s">
+      <c r="AD255" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="AE255" s="193"/>
-      <c r="AF255" s="193"/>
-      <c r="AG255" s="193"/>
-      <c r="AH255" s="193"/>
-      <c r="AI255" s="193"/>
-      <c r="AJ255" s="193"/>
-      <c r="AK255" s="193"/>
-      <c r="AL255" s="194"/>
+      <c r="AE255" s="208"/>
+      <c r="AF255" s="208"/>
+      <c r="AG255" s="208"/>
+      <c r="AH255" s="208"/>
+      <c r="AI255" s="208"/>
+      <c r="AJ255" s="208"/>
+      <c r="AK255" s="208"/>
+      <c r="AL255" s="209"/>
       <c r="AM255" s="92"/>
       <c r="AN255" s="2"/>
       <c r="AP255" s="5"/>
@@ -17179,21 +17186,21 @@
       <c r="AA257" s="100"/>
       <c r="AB257" s="100"/>
       <c r="AC257" s="104"/>
-      <c r="AD257" s="235" t="s">
+      <c r="AD257" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="AE257" s="241"/>
-      <c r="AF257" s="241"/>
-      <c r="AG257" s="236"/>
-      <c r="AH257" s="235" t="s">
+      <c r="AE257" s="237"/>
+      <c r="AF257" s="237"/>
+      <c r="AG257" s="232"/>
+      <c r="AH257" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="AI257" s="236"/>
-      <c r="AJ257" s="235" t="s">
+      <c r="AI257" s="232"/>
+      <c r="AJ257" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="AK257" s="241"/>
-      <c r="AL257" s="236"/>
+      <c r="AK257" s="237"/>
+      <c r="AL257" s="232"/>
       <c r="AM257" s="92"/>
       <c r="AN257" s="2"/>
       <c r="AP257" s="5"/>
@@ -17231,15 +17238,15 @@
       <c r="AA258" s="99"/>
       <c r="AB258" s="99"/>
       <c r="AC258" s="103"/>
-      <c r="AD258" s="237"/>
-      <c r="AE258" s="242"/>
-      <c r="AF258" s="242"/>
-      <c r="AG258" s="238"/>
-      <c r="AH258" s="237"/>
-      <c r="AI258" s="238"/>
-      <c r="AJ258" s="237"/>
-      <c r="AK258" s="242"/>
-      <c r="AL258" s="238"/>
+      <c r="AD258" s="233"/>
+      <c r="AE258" s="238"/>
+      <c r="AF258" s="238"/>
+      <c r="AG258" s="234"/>
+      <c r="AH258" s="233"/>
+      <c r="AI258" s="234"/>
+      <c r="AJ258" s="233"/>
+      <c r="AK258" s="238"/>
+      <c r="AL258" s="234"/>
       <c r="AM258" s="92"/>
       <c r="AN258" s="2"/>
       <c r="AP258" s="5"/>
@@ -17279,21 +17286,21 @@
       <c r="AA259" s="98"/>
       <c r="AB259" s="98"/>
       <c r="AC259" s="102"/>
-      <c r="AD259" s="235" t="s">
+      <c r="AD259" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="AE259" s="241"/>
-      <c r="AF259" s="241"/>
-      <c r="AG259" s="236"/>
-      <c r="AH259" s="235" t="s">
+      <c r="AE259" s="237"/>
+      <c r="AF259" s="237"/>
+      <c r="AG259" s="232"/>
+      <c r="AH259" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="AI259" s="236"/>
-      <c r="AJ259" s="235" t="s">
+      <c r="AI259" s="232"/>
+      <c r="AJ259" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="AK259" s="241"/>
-      <c r="AL259" s="236"/>
+      <c r="AK259" s="237"/>
+      <c r="AL259" s="232"/>
       <c r="AM259" s="92"/>
       <c r="AN259" s="2"/>
       <c r="AP259" s="5"/>
@@ -17333,21 +17340,21 @@
       <c r="AA260" s="105"/>
       <c r="AB260" s="105"/>
       <c r="AC260" s="116"/>
-      <c r="AD260" s="239" t="s">
+      <c r="AD260" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AE260" s="243"/>
-      <c r="AF260" s="243"/>
-      <c r="AG260" s="240"/>
-      <c r="AH260" s="239" t="s">
+      <c r="AE260" s="239"/>
+      <c r="AF260" s="239"/>
+      <c r="AG260" s="236"/>
+      <c r="AH260" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AI260" s="240"/>
-      <c r="AJ260" s="239" t="s">
+      <c r="AI260" s="236"/>
+      <c r="AJ260" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AK260" s="243"/>
-      <c r="AL260" s="240"/>
+      <c r="AK260" s="239"/>
+      <c r="AL260" s="236"/>
       <c r="AM260" s="92"/>
       <c r="AN260" s="2"/>
       <c r="AP260" s="5"/>
@@ -17389,21 +17396,21 @@
       <c r="AA261" s="105"/>
       <c r="AB261" s="105"/>
       <c r="AC261" s="116"/>
-      <c r="AD261" s="239" t="s">
+      <c r="AD261" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AE261" s="243"/>
-      <c r="AF261" s="243"/>
-      <c r="AG261" s="240"/>
-      <c r="AH261" s="239" t="s">
+      <c r="AE261" s="239"/>
+      <c r="AF261" s="239"/>
+      <c r="AG261" s="236"/>
+      <c r="AH261" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AI261" s="240"/>
-      <c r="AJ261" s="239" t="s">
+      <c r="AI261" s="236"/>
+      <c r="AJ261" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="AK261" s="243"/>
-      <c r="AL261" s="240"/>
+      <c r="AK261" s="239"/>
+      <c r="AL261" s="236"/>
       <c r="AM261" s="92"/>
       <c r="AN261" s="2"/>
       <c r="AP261" s="5"/>
@@ -17443,21 +17450,21 @@
       <c r="AA262" s="105"/>
       <c r="AB262" s="105"/>
       <c r="AC262" s="116"/>
-      <c r="AD262" s="239" t="s">
+      <c r="AD262" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="AE262" s="243"/>
-      <c r="AF262" s="243"/>
-      <c r="AG262" s="240"/>
-      <c r="AH262" s="239" t="s">
+      <c r="AE262" s="239"/>
+      <c r="AF262" s="239"/>
+      <c r="AG262" s="236"/>
+      <c r="AH262" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="AI262" s="240"/>
-      <c r="AJ262" s="239" t="s">
+      <c r="AI262" s="236"/>
+      <c r="AJ262" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="AK262" s="243"/>
-      <c r="AL262" s="240"/>
+      <c r="AK262" s="239"/>
+      <c r="AL262" s="236"/>
       <c r="AM262" s="92"/>
       <c r="AN262" s="2"/>
       <c r="AP262" s="5"/>
@@ -17497,21 +17504,21 @@
       <c r="AA263" s="105"/>
       <c r="AB263" s="105"/>
       <c r="AC263" s="116"/>
-      <c r="AD263" s="244" t="s">
+      <c r="AD263" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="AE263" s="245"/>
-      <c r="AF263" s="245"/>
-      <c r="AG263" s="246"/>
-      <c r="AH263" s="244" t="s">
+      <c r="AE263" s="241"/>
+      <c r="AF263" s="241"/>
+      <c r="AG263" s="242"/>
+      <c r="AH263" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="AI263" s="246"/>
-      <c r="AJ263" s="239" t="s">
+      <c r="AI263" s="242"/>
+      <c r="AJ263" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="AK263" s="243"/>
-      <c r="AL263" s="240"/>
+      <c r="AK263" s="239"/>
+      <c r="AL263" s="236"/>
       <c r="AM263" s="92"/>
       <c r="AN263" s="2"/>
       <c r="AP263" s="5"/>
@@ -17553,21 +17560,21 @@
       <c r="AA264" s="98"/>
       <c r="AB264" s="98"/>
       <c r="AC264" s="102"/>
-      <c r="AD264" s="216" t="s">
+      <c r="AD264" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="AE264" s="217"/>
-      <c r="AF264" s="217"/>
-      <c r="AG264" s="218"/>
-      <c r="AH264" s="216" t="s">
+      <c r="AE264" s="214"/>
+      <c r="AF264" s="214"/>
+      <c r="AG264" s="215"/>
+      <c r="AH264" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="AI264" s="218"/>
-      <c r="AJ264" s="216" t="s">
+      <c r="AI264" s="215"/>
+      <c r="AJ264" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="AK264" s="217"/>
-      <c r="AL264" s="218"/>
+      <c r="AK264" s="214"/>
+      <c r="AL264" s="215"/>
       <c r="AM264" s="92"/>
       <c r="AN264" s="2"/>
       <c r="AP264" s="5"/>
@@ -18169,6 +18176,19 @@
     </row>
   </sheetData>
   <mergeCells count="234">
+    <mergeCell ref="Y129:AD129"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
     <mergeCell ref="S184:X184"/>
     <mergeCell ref="Y184:AD184"/>
     <mergeCell ref="AE184:AJ184"/>
@@ -18204,15 +18224,11 @@
     <mergeCell ref="S167:X167"/>
     <mergeCell ref="S165:X165"/>
     <mergeCell ref="S169:X169"/>
-    <mergeCell ref="AD255:AL255"/>
-    <mergeCell ref="AD257:AG257"/>
-    <mergeCell ref="AD258:AG258"/>
-    <mergeCell ref="AD259:AG259"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="S168:X168"/>
     <mergeCell ref="AD260:AG260"/>
     <mergeCell ref="AD261:AG261"/>
     <mergeCell ref="AD262:AG262"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y158:AD158"/>
     <mergeCell ref="AE162:AJ162"/>
     <mergeCell ref="AE163:AJ163"/>
     <mergeCell ref="AE167:AJ167"/>
@@ -18228,6 +18244,8 @@
     <mergeCell ref="AE170:AJ170"/>
     <mergeCell ref="Y166:AD166"/>
     <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE133:AJ133"/>
     <mergeCell ref="AD264:AG264"/>
     <mergeCell ref="AH257:AI257"/>
     <mergeCell ref="AH258:AI258"/>
@@ -18246,7 +18264,10 @@
     <mergeCell ref="AD263:AG263"/>
     <mergeCell ref="AH263:AI263"/>
     <mergeCell ref="AJ263:AL263"/>
-    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="AD255:AL255"/>
+    <mergeCell ref="AD257:AG257"/>
+    <mergeCell ref="AD258:AG258"/>
+    <mergeCell ref="AD259:AG259"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="AL2:AP2"/>
@@ -18265,24 +18286,6 @@
     <mergeCell ref="L40:AD40"/>
     <mergeCell ref="L43:AD43"/>
     <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="Y129:AD129"/>
     <mergeCell ref="S156:X156"/>
     <mergeCell ref="S157:X157"/>
     <mergeCell ref="S130:X130"/>
@@ -18291,8 +18294,14 @@
     <mergeCell ref="S134:X134"/>
     <mergeCell ref="Y143:AD143"/>
     <mergeCell ref="Y144:AD144"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
     <mergeCell ref="S153:X153"/>
     <mergeCell ref="S154:X154"/>
     <mergeCell ref="Y155:AD155"/>
@@ -18315,9 +18324,8 @@
     <mergeCell ref="AE145:AJ145"/>
     <mergeCell ref="AE146:AJ146"/>
     <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="AE155:AJ155"/>
     <mergeCell ref="Y132:AD132"/>
     <mergeCell ref="Y134:AD134"/>
     <mergeCell ref="Y135:AD135"/>
@@ -18327,8 +18335,6 @@
     <mergeCell ref="S148:X148"/>
     <mergeCell ref="S143:X143"/>
     <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
     <mergeCell ref="S136:X136"/>
     <mergeCell ref="S145:X145"/>
     <mergeCell ref="S146:X146"/>
@@ -18339,7 +18345,6 @@
     <mergeCell ref="S141:X141"/>
     <mergeCell ref="Y145:AD145"/>
     <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="Y147:AD147"/>
     <mergeCell ref="Y133:AD133"/>
     <mergeCell ref="Y138:AD138"/>
     <mergeCell ref="Y139:AD139"/>
@@ -18348,36 +18353,30 @@
     <mergeCell ref="Y142:AD142"/>
     <mergeCell ref="Y164:AD164"/>
     <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE139:AJ139"/>
     <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="Y148:AD148"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="S161:X161"/>
     <mergeCell ref="AD237:AG240"/>
     <mergeCell ref="AJ237:AL240"/>
     <mergeCell ref="AH237:AI240"/>
     <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="S160:X160"/>
     <mergeCell ref="S183:X183"/>
-    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="AE161:AJ161"/>
     <mergeCell ref="S137:X137"/>
     <mergeCell ref="Y137:AD137"/>
     <mergeCell ref="AE137:AJ137"/>
@@ -18394,6 +18393,14 @@
     <mergeCell ref="AE165:AJ165"/>
     <mergeCell ref="AE166:AJ166"/>
     <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S152:X152"/>
     <mergeCell ref="AD245:AG248"/>
     <mergeCell ref="AH245:AI248"/>
     <mergeCell ref="AJ245:AL248"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -4706,40 +4706,85 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4751,31 +4796,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4805,122 +4895,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4942,16 +4942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4960,8 +4960,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1003300" y="25273000"/>
-          <a:ext cx="7670800" cy="787400"/>
+          <a:off x="1117600" y="4546600"/>
+          <a:ext cx="6680200" cy="787400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5022,8 +5022,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3619500" y="15468600"/>
-          <a:ext cx="1981200" cy="1981200"/>
+          <a:off x="3162300" y="15468600"/>
+          <a:ext cx="1714500" cy="1981200"/>
           <a:chOff x="3479800" y="21310600"/>
           <a:chExt cx="1981200" cy="1981200"/>
         </a:xfrm>
@@ -5141,8 +5141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6743700" y="15468600"/>
-          <a:ext cx="1981200" cy="1981200"/>
+          <a:off x="5867400" y="15468600"/>
+          <a:ext cx="1752600" cy="1981200"/>
           <a:chOff x="6743700" y="21310600"/>
           <a:chExt cx="1981200" cy="1981200"/>
         </a:xfrm>
@@ -6509,12 +6509,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="13" style="69" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,9 +7261,9 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.33203125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.28515625" style="1"/>
+    <col min="1" max="16384" width="3.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
@@ -7915,27 +7915,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="213" t="s">
+      <c r="L19" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="214"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="214"/>
-      <c r="Q19" s="214"/>
-      <c r="R19" s="214"/>
-      <c r="S19" s="214"/>
-      <c r="T19" s="214"/>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="214"/>
-      <c r="AA19" s="214"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="214"/>
-      <c r="AD19" s="215"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="199"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="199"/>
+      <c r="S19" s="199"/>
+      <c r="T19" s="199"/>
+      <c r="U19" s="199"/>
+      <c r="V19" s="199"/>
+      <c r="W19" s="199"/>
+      <c r="X19" s="199"/>
+      <c r="Y19" s="199"/>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
+      <c r="AB19" s="199"/>
+      <c r="AC19" s="199"/>
+      <c r="AD19" s="200"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7951,27 +7951,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="213" t="s">
+      <c r="L20" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="214"/>
-      <c r="P20" s="214"/>
-      <c r="Q20" s="214"/>
-      <c r="R20" s="214"/>
-      <c r="S20" s="214"/>
-      <c r="T20" s="214"/>
-      <c r="U20" s="214"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="214"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="214"/>
-      <c r="AD20" s="215"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="199"/>
+      <c r="O20" s="199"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="199"/>
+      <c r="R20" s="199"/>
+      <c r="S20" s="199"/>
+      <c r="T20" s="199"/>
+      <c r="U20" s="199"/>
+      <c r="V20" s="199"/>
+      <c r="W20" s="199"/>
+      <c r="X20" s="199"/>
+      <c r="Y20" s="199"/>
+      <c r="Z20" s="199"/>
+      <c r="AA20" s="199"/>
+      <c r="AB20" s="199"/>
+      <c r="AC20" s="199"/>
+      <c r="AD20" s="200"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7987,27 +7987,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="213" t="s">
+      <c r="L21" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="214"/>
-      <c r="Q21" s="214"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="214"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214"/>
-      <c r="AA21" s="214"/>
-      <c r="AB21" s="214"/>
-      <c r="AC21" s="214"/>
-      <c r="AD21" s="215"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="199"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
+      <c r="W21" s="199"/>
+      <c r="X21" s="199"/>
+      <c r="Y21" s="199"/>
+      <c r="Z21" s="199"/>
+      <c r="AA21" s="199"/>
+      <c r="AB21" s="199"/>
+      <c r="AC21" s="199"/>
+      <c r="AD21" s="200"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -8461,27 +8461,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="207" t="s">
+      <c r="L40" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="208"/>
-      <c r="P40" s="208"/>
-      <c r="Q40" s="208"/>
-      <c r="R40" s="208"/>
-      <c r="S40" s="208"/>
-      <c r="T40" s="208"/>
-      <c r="U40" s="208"/>
-      <c r="V40" s="208"/>
-      <c r="W40" s="208"/>
-      <c r="X40" s="208"/>
-      <c r="Y40" s="208"/>
-      <c r="Z40" s="208"/>
-      <c r="AA40" s="208"/>
-      <c r="AB40" s="208"/>
-      <c r="AC40" s="208"/>
-      <c r="AD40" s="209"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214"/>
+      <c r="P40" s="214"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="214"/>
+      <c r="S40" s="214"/>
+      <c r="T40" s="214"/>
+      <c r="U40" s="214"/>
+      <c r="V40" s="214"/>
+      <c r="W40" s="214"/>
+      <c r="X40" s="214"/>
+      <c r="Y40" s="214"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="214"/>
+      <c r="AB40" s="214"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="215"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8497,27 +8497,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="213" t="s">
+      <c r="L41" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="214"/>
-      <c r="N41" s="214"/>
-      <c r="O41" s="214"/>
-      <c r="P41" s="214"/>
-      <c r="Q41" s="214"/>
-      <c r="R41" s="214"/>
-      <c r="S41" s="214"/>
-      <c r="T41" s="214"/>
-      <c r="U41" s="214"/>
-      <c r="V41" s="214"/>
-      <c r="W41" s="214"/>
-      <c r="X41" s="214"/>
-      <c r="Y41" s="214"/>
-      <c r="Z41" s="214"/>
-      <c r="AA41" s="214"/>
-      <c r="AB41" s="214"/>
-      <c r="AC41" s="214"/>
-      <c r="AD41" s="215"/>
+      <c r="M41" s="199"/>
+      <c r="N41" s="199"/>
+      <c r="O41" s="199"/>
+      <c r="P41" s="199"/>
+      <c r="Q41" s="199"/>
+      <c r="R41" s="199"/>
+      <c r="S41" s="199"/>
+      <c r="T41" s="199"/>
+      <c r="U41" s="199"/>
+      <c r="V41" s="199"/>
+      <c r="W41" s="199"/>
+      <c r="X41" s="199"/>
+      <c r="Y41" s="199"/>
+      <c r="Z41" s="199"/>
+      <c r="AA41" s="199"/>
+      <c r="AB41" s="199"/>
+      <c r="AC41" s="199"/>
+      <c r="AD41" s="200"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8533,27 +8533,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="213" t="s">
+      <c r="L42" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="214"/>
-      <c r="N42" s="214"/>
-      <c r="O42" s="214"/>
-      <c r="P42" s="214"/>
-      <c r="Q42" s="214"/>
-      <c r="R42" s="214"/>
-      <c r="S42" s="214"/>
-      <c r="T42" s="214"/>
-      <c r="U42" s="214"/>
-      <c r="V42" s="214"/>
-      <c r="W42" s="214"/>
-      <c r="X42" s="214"/>
-      <c r="Y42" s="214"/>
-      <c r="Z42" s="214"/>
-      <c r="AA42" s="214"/>
-      <c r="AB42" s="214"/>
-      <c r="AC42" s="214"/>
-      <c r="AD42" s="215"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="199"/>
+      <c r="O42" s="199"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="199"/>
+      <c r="R42" s="199"/>
+      <c r="S42" s="199"/>
+      <c r="T42" s="199"/>
+      <c r="U42" s="199"/>
+      <c r="V42" s="199"/>
+      <c r="W42" s="199"/>
+      <c r="X42" s="199"/>
+      <c r="Y42" s="199"/>
+      <c r="Z42" s="199"/>
+      <c r="AA42" s="199"/>
+      <c r="AB42" s="199"/>
+      <c r="AC42" s="199"/>
+      <c r="AD42" s="200"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8569,27 +8569,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="213" t="s">
+      <c r="L43" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="M43" s="214"/>
-      <c r="N43" s="214"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="214"/>
-      <c r="Q43" s="214"/>
-      <c r="R43" s="214"/>
-      <c r="S43" s="214"/>
-      <c r="T43" s="214"/>
-      <c r="U43" s="214"/>
-      <c r="V43" s="214"/>
-      <c r="W43" s="214"/>
-      <c r="X43" s="214"/>
-      <c r="Y43" s="214"/>
-      <c r="Z43" s="214"/>
-      <c r="AA43" s="214"/>
-      <c r="AB43" s="214"/>
-      <c r="AC43" s="214"/>
-      <c r="AD43" s="215"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="199"/>
+      <c r="O43" s="199"/>
+      <c r="P43" s="199"/>
+      <c r="Q43" s="199"/>
+      <c r="R43" s="199"/>
+      <c r="S43" s="199"/>
+      <c r="T43" s="199"/>
+      <c r="U43" s="199"/>
+      <c r="V43" s="199"/>
+      <c r="W43" s="199"/>
+      <c r="X43" s="199"/>
+      <c r="Y43" s="199"/>
+      <c r="Z43" s="199"/>
+      <c r="AA43" s="199"/>
+      <c r="AB43" s="199"/>
+      <c r="AC43" s="199"/>
+      <c r="AD43" s="200"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8605,27 +8605,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="213" t="s">
+      <c r="L44" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="214"/>
-      <c r="N44" s="214"/>
-      <c r="O44" s="214"/>
-      <c r="P44" s="214"/>
-      <c r="Q44" s="214"/>
-      <c r="R44" s="214"/>
-      <c r="S44" s="214"/>
-      <c r="T44" s="214"/>
-      <c r="U44" s="214"/>
-      <c r="V44" s="214"/>
-      <c r="W44" s="214"/>
-      <c r="X44" s="214"/>
-      <c r="Y44" s="214"/>
-      <c r="Z44" s="214"/>
-      <c r="AA44" s="214"/>
-      <c r="AB44" s="214"/>
-      <c r="AC44" s="214"/>
-      <c r="AD44" s="215"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="199"/>
+      <c r="O44" s="199"/>
+      <c r="P44" s="199"/>
+      <c r="Q44" s="199"/>
+      <c r="R44" s="199"/>
+      <c r="S44" s="199"/>
+      <c r="T44" s="199"/>
+      <c r="U44" s="199"/>
+      <c r="V44" s="199"/>
+      <c r="W44" s="199"/>
+      <c r="X44" s="199"/>
+      <c r="Y44" s="199"/>
+      <c r="Z44" s="199"/>
+      <c r="AA44" s="199"/>
+      <c r="AB44" s="199"/>
+      <c r="AC44" s="199"/>
+      <c r="AD44" s="200"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8641,27 +8641,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="213" t="s">
+      <c r="L45" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="214"/>
-      <c r="N45" s="214"/>
-      <c r="O45" s="214"/>
-      <c r="P45" s="214"/>
-      <c r="Q45" s="214"/>
-      <c r="R45" s="214"/>
-      <c r="S45" s="214"/>
-      <c r="T45" s="214"/>
-      <c r="U45" s="214"/>
-      <c r="V45" s="214"/>
-      <c r="W45" s="214"/>
-      <c r="X45" s="214"/>
-      <c r="Y45" s="214"/>
-      <c r="Z45" s="214"/>
-      <c r="AA45" s="214"/>
-      <c r="AB45" s="214"/>
-      <c r="AC45" s="214"/>
-      <c r="AD45" s="215"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="199"/>
+      <c r="O45" s="199"/>
+      <c r="P45" s="199"/>
+      <c r="Q45" s="199"/>
+      <c r="R45" s="199"/>
+      <c r="S45" s="199"/>
+      <c r="T45" s="199"/>
+      <c r="U45" s="199"/>
+      <c r="V45" s="199"/>
+      <c r="W45" s="199"/>
+      <c r="X45" s="199"/>
+      <c r="Y45" s="199"/>
+      <c r="Z45" s="199"/>
+      <c r="AA45" s="199"/>
+      <c r="AB45" s="199"/>
+      <c r="AC45" s="199"/>
+      <c r="AD45" s="200"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8736,27 +8736,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="207" t="s">
+      <c r="L48" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="208"/>
-      <c r="N48" s="208"/>
-      <c r="O48" s="208"/>
-      <c r="P48" s="208"/>
-      <c r="Q48" s="208"/>
-      <c r="R48" s="208"/>
-      <c r="S48" s="208"/>
-      <c r="T48" s="208"/>
-      <c r="U48" s="208"/>
-      <c r="V48" s="208"/>
-      <c r="W48" s="208"/>
-      <c r="X48" s="208"/>
-      <c r="Y48" s="208"/>
-      <c r="Z48" s="208"/>
-      <c r="AA48" s="208"/>
-      <c r="AB48" s="208"/>
-      <c r="AC48" s="208"/>
-      <c r="AD48" s="209"/>
+      <c r="M48" s="214"/>
+      <c r="N48" s="214"/>
+      <c r="O48" s="214"/>
+      <c r="P48" s="214"/>
+      <c r="Q48" s="214"/>
+      <c r="R48" s="214"/>
+      <c r="S48" s="214"/>
+      <c r="T48" s="214"/>
+      <c r="U48" s="214"/>
+      <c r="V48" s="214"/>
+      <c r="W48" s="214"/>
+      <c r="X48" s="214"/>
+      <c r="Y48" s="214"/>
+      <c r="Z48" s="214"/>
+      <c r="AA48" s="214"/>
+      <c r="AB48" s="214"/>
+      <c r="AC48" s="214"/>
+      <c r="AD48" s="215"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8770,27 +8770,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="213" t="s">
+      <c r="L49" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M49" s="214"/>
-      <c r="N49" s="214"/>
-      <c r="O49" s="214"/>
-      <c r="P49" s="214"/>
-      <c r="Q49" s="214"/>
-      <c r="R49" s="214"/>
-      <c r="S49" s="214"/>
-      <c r="T49" s="214"/>
-      <c r="U49" s="214"/>
-      <c r="V49" s="214"/>
-      <c r="W49" s="214"/>
-      <c r="X49" s="214"/>
-      <c r="Y49" s="214"/>
-      <c r="Z49" s="214"/>
-      <c r="AA49" s="214"/>
-      <c r="AB49" s="214"/>
-      <c r="AC49" s="214"/>
-      <c r="AD49" s="215"/>
+      <c r="M49" s="199"/>
+      <c r="N49" s="199"/>
+      <c r="O49" s="199"/>
+      <c r="P49" s="199"/>
+      <c r="Q49" s="199"/>
+      <c r="R49" s="199"/>
+      <c r="S49" s="199"/>
+      <c r="T49" s="199"/>
+      <c r="U49" s="199"/>
+      <c r="V49" s="199"/>
+      <c r="W49" s="199"/>
+      <c r="X49" s="199"/>
+      <c r="Y49" s="199"/>
+      <c r="Z49" s="199"/>
+      <c r="AA49" s="199"/>
+      <c r="AB49" s="199"/>
+      <c r="AC49" s="199"/>
+      <c r="AD49" s="200"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8804,27 +8804,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="213" t="s">
+      <c r="L50" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="M50" s="214"/>
-      <c r="N50" s="214"/>
-      <c r="O50" s="214"/>
-      <c r="P50" s="214"/>
-      <c r="Q50" s="214"/>
-      <c r="R50" s="214"/>
-      <c r="S50" s="214"/>
-      <c r="T50" s="214"/>
-      <c r="U50" s="214"/>
-      <c r="V50" s="214"/>
-      <c r="W50" s="214"/>
-      <c r="X50" s="214"/>
-      <c r="Y50" s="214"/>
-      <c r="Z50" s="214"/>
-      <c r="AA50" s="214"/>
-      <c r="AB50" s="214"/>
-      <c r="AC50" s="214"/>
-      <c r="AD50" s="215"/>
+      <c r="M50" s="199"/>
+      <c r="N50" s="199"/>
+      <c r="O50" s="199"/>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="199"/>
+      <c r="R50" s="199"/>
+      <c r="S50" s="199"/>
+      <c r="T50" s="199"/>
+      <c r="U50" s="199"/>
+      <c r="V50" s="199"/>
+      <c r="W50" s="199"/>
+      <c r="X50" s="199"/>
+      <c r="Y50" s="199"/>
+      <c r="Z50" s="199"/>
+      <c r="AA50" s="199"/>
+      <c r="AB50" s="199"/>
+      <c r="AC50" s="199"/>
+      <c r="AD50" s="200"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11427,30 +11427,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="207" t="s">
+      <c r="S125" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="208"/>
-      <c r="U125" s="208"/>
-      <c r="V125" s="208"/>
-      <c r="W125" s="208"/>
-      <c r="X125" s="209"/>
-      <c r="Y125" s="207" t="s">
+      <c r="T125" s="214"/>
+      <c r="U125" s="214"/>
+      <c r="V125" s="214"/>
+      <c r="W125" s="214"/>
+      <c r="X125" s="215"/>
+      <c r="Y125" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="208"/>
-      <c r="AA125" s="208"/>
-      <c r="AB125" s="208"/>
-      <c r="AC125" s="208"/>
-      <c r="AD125" s="209"/>
-      <c r="AE125" s="207" t="s">
+      <c r="Z125" s="214"/>
+      <c r="AA125" s="214"/>
+      <c r="AB125" s="214"/>
+      <c r="AC125" s="214"/>
+      <c r="AD125" s="215"/>
+      <c r="AE125" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="208"/>
-      <c r="AG125" s="208"/>
-      <c r="AH125" s="208"/>
-      <c r="AI125" s="208"/>
-      <c r="AJ125" s="209"/>
+      <c r="AF125" s="214"/>
+      <c r="AG125" s="214"/>
+      <c r="AH125" s="214"/>
+      <c r="AI125" s="214"/>
+      <c r="AJ125" s="215"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11472,30 +11472,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="213" t="s">
+      <c r="S126" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="214"/>
-      <c r="U126" s="214"/>
-      <c r="V126" s="214"/>
-      <c r="W126" s="214"/>
-      <c r="X126" s="215"/>
-      <c r="Y126" s="213" t="s">
+      <c r="T126" s="199"/>
+      <c r="U126" s="199"/>
+      <c r="V126" s="199"/>
+      <c r="W126" s="199"/>
+      <c r="X126" s="200"/>
+      <c r="Y126" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="214"/>
-      <c r="AA126" s="214"/>
-      <c r="AB126" s="214"/>
-      <c r="AC126" s="214"/>
-      <c r="AD126" s="215"/>
-      <c r="AE126" s="213" t="s">
+      <c r="Z126" s="199"/>
+      <c r="AA126" s="199"/>
+      <c r="AB126" s="199"/>
+      <c r="AC126" s="199"/>
+      <c r="AD126" s="200"/>
+      <c r="AE126" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="214"/>
-      <c r="AG126" s="214"/>
-      <c r="AH126" s="214"/>
-      <c r="AI126" s="214"/>
-      <c r="AJ126" s="215"/>
+      <c r="AF126" s="199"/>
+      <c r="AG126" s="199"/>
+      <c r="AH126" s="199"/>
+      <c r="AI126" s="199"/>
+      <c r="AJ126" s="200"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11556,30 +11556,30 @@
       <c r="P128" s="130"/>
       <c r="Q128" s="130"/>
       <c r="R128" s="131"/>
-      <c r="S128" s="249" t="s">
+      <c r="S128" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="250"/>
-      <c r="U128" s="250"/>
-      <c r="V128" s="250"/>
-      <c r="W128" s="250"/>
-      <c r="X128" s="251"/>
-      <c r="Y128" s="249" t="s">
+      <c r="T128" s="178"/>
+      <c r="U128" s="178"/>
+      <c r="V128" s="178"/>
+      <c r="W128" s="178"/>
+      <c r="X128" s="179"/>
+      <c r="Y128" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="250"/>
-      <c r="AA128" s="250"/>
-      <c r="AB128" s="250"/>
-      <c r="AC128" s="250"/>
-      <c r="AD128" s="251"/>
-      <c r="AE128" s="249" t="s">
+      <c r="Z128" s="178"/>
+      <c r="AA128" s="178"/>
+      <c r="AB128" s="178"/>
+      <c r="AC128" s="178"/>
+      <c r="AD128" s="179"/>
+      <c r="AE128" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="250"/>
-      <c r="AG128" s="250"/>
-      <c r="AH128" s="250"/>
-      <c r="AI128" s="250"/>
-      <c r="AJ128" s="251"/>
+      <c r="AF128" s="178"/>
+      <c r="AG128" s="178"/>
+      <c r="AH128" s="178"/>
+      <c r="AI128" s="178"/>
+      <c r="AJ128" s="179"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11601,30 +11601,30 @@
       <c r="P129" s="127"/>
       <c r="Q129" s="127"/>
       <c r="R129" s="132"/>
-      <c r="S129" s="246" t="s">
+      <c r="S129" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="247"/>
-      <c r="U129" s="247"/>
-      <c r="V129" s="247"/>
-      <c r="W129" s="247"/>
-      <c r="X129" s="248"/>
-      <c r="Y129" s="246" t="s">
+      <c r="T129" s="175"/>
+      <c r="U129" s="175"/>
+      <c r="V129" s="175"/>
+      <c r="W129" s="175"/>
+      <c r="X129" s="176"/>
+      <c r="Y129" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="247"/>
-      <c r="AA129" s="247"/>
-      <c r="AB129" s="247"/>
-      <c r="AC129" s="247"/>
-      <c r="AD129" s="248"/>
-      <c r="AE129" s="246" t="s">
+      <c r="Z129" s="175"/>
+      <c r="AA129" s="175"/>
+      <c r="AB129" s="175"/>
+      <c r="AC129" s="175"/>
+      <c r="AD129" s="176"/>
+      <c r="AE129" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="247"/>
-      <c r="AG129" s="247"/>
-      <c r="AH129" s="247"/>
-      <c r="AI129" s="247"/>
-      <c r="AJ129" s="248"/>
+      <c r="AF129" s="175"/>
+      <c r="AG129" s="175"/>
+      <c r="AH129" s="175"/>
+      <c r="AI129" s="175"/>
+      <c r="AJ129" s="176"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11648,30 +11648,30 @@
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
       <c r="R130" s="133"/>
-      <c r="S130" s="189" t="s">
+      <c r="S130" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="190"/>
-      <c r="U130" s="190"/>
-      <c r="V130" s="190"/>
-      <c r="W130" s="190"/>
-      <c r="X130" s="191"/>
-      <c r="Y130" s="189" t="s">
+      <c r="T130" s="181"/>
+      <c r="U130" s="181"/>
+      <c r="V130" s="181"/>
+      <c r="W130" s="181"/>
+      <c r="X130" s="182"/>
+      <c r="Y130" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="190"/>
-      <c r="AA130" s="190"/>
-      <c r="AB130" s="190"/>
-      <c r="AC130" s="190"/>
-      <c r="AD130" s="191"/>
-      <c r="AE130" s="189" t="s">
+      <c r="Z130" s="181"/>
+      <c r="AA130" s="181"/>
+      <c r="AB130" s="181"/>
+      <c r="AC130" s="181"/>
+      <c r="AD130" s="182"/>
+      <c r="AE130" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="190"/>
-      <c r="AG130" s="190"/>
-      <c r="AH130" s="190"/>
-      <c r="AI130" s="190"/>
-      <c r="AJ130" s="191"/>
+      <c r="AF130" s="181"/>
+      <c r="AG130" s="181"/>
+      <c r="AH130" s="181"/>
+      <c r="AI130" s="181"/>
+      <c r="AJ130" s="182"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11689,30 +11689,30 @@
       <c r="P131" s="75"/>
       <c r="Q131" s="75"/>
       <c r="R131" s="133"/>
-      <c r="S131" s="189" t="s">
+      <c r="S131" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="190"/>
-      <c r="U131" s="190"/>
-      <c r="V131" s="190"/>
-      <c r="W131" s="190"/>
-      <c r="X131" s="191"/>
-      <c r="Y131" s="189" t="s">
+      <c r="T131" s="181"/>
+      <c r="U131" s="181"/>
+      <c r="V131" s="181"/>
+      <c r="W131" s="181"/>
+      <c r="X131" s="182"/>
+      <c r="Y131" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="190"/>
-      <c r="AA131" s="190"/>
-      <c r="AB131" s="190"/>
-      <c r="AC131" s="190"/>
-      <c r="AD131" s="191"/>
-      <c r="AE131" s="189" t="s">
+      <c r="Z131" s="181"/>
+      <c r="AA131" s="181"/>
+      <c r="AB131" s="181"/>
+      <c r="AC131" s="181"/>
+      <c r="AD131" s="182"/>
+      <c r="AE131" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="190"/>
-      <c r="AG131" s="190"/>
-      <c r="AH131" s="190"/>
-      <c r="AI131" s="190"/>
-      <c r="AJ131" s="191"/>
+      <c r="AF131" s="181"/>
+      <c r="AG131" s="181"/>
+      <c r="AH131" s="181"/>
+      <c r="AI131" s="181"/>
+      <c r="AJ131" s="182"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11734,30 +11734,30 @@
       <c r="P132" s="75"/>
       <c r="Q132" s="75"/>
       <c r="R132" s="133"/>
-      <c r="S132" s="189" t="s">
+      <c r="S132" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="190"/>
-      <c r="U132" s="190"/>
-      <c r="V132" s="190"/>
-      <c r="W132" s="190"/>
-      <c r="X132" s="191"/>
-      <c r="Y132" s="189" t="s">
+      <c r="T132" s="181"/>
+      <c r="U132" s="181"/>
+      <c r="V132" s="181"/>
+      <c r="W132" s="181"/>
+      <c r="X132" s="182"/>
+      <c r="Y132" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="190"/>
-      <c r="AA132" s="190"/>
-      <c r="AB132" s="190"/>
-      <c r="AC132" s="190"/>
-      <c r="AD132" s="191"/>
-      <c r="AE132" s="189" t="s">
+      <c r="Z132" s="181"/>
+      <c r="AA132" s="181"/>
+      <c r="AB132" s="181"/>
+      <c r="AC132" s="181"/>
+      <c r="AD132" s="182"/>
+      <c r="AE132" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="190"/>
-      <c r="AG132" s="190"/>
-      <c r="AH132" s="190"/>
-      <c r="AI132" s="190"/>
-      <c r="AJ132" s="191"/>
+      <c r="AF132" s="181"/>
+      <c r="AG132" s="181"/>
+      <c r="AH132" s="181"/>
+      <c r="AI132" s="181"/>
+      <c r="AJ132" s="182"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11779,30 +11779,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="186" t="s">
+      <c r="S133" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="187"/>
-      <c r="U133" s="187"/>
-      <c r="V133" s="187"/>
-      <c r="W133" s="187"/>
-      <c r="X133" s="188"/>
-      <c r="Y133" s="186" t="s">
+      <c r="T133" s="202"/>
+      <c r="U133" s="202"/>
+      <c r="V133" s="202"/>
+      <c r="W133" s="202"/>
+      <c r="X133" s="203"/>
+      <c r="Y133" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="187"/>
-      <c r="AA133" s="187"/>
-      <c r="AB133" s="187"/>
-      <c r="AC133" s="187"/>
-      <c r="AD133" s="188"/>
-      <c r="AE133" s="186" t="s">
+      <c r="Z133" s="202"/>
+      <c r="AA133" s="202"/>
+      <c r="AB133" s="202"/>
+      <c r="AC133" s="202"/>
+      <c r="AD133" s="203"/>
+      <c r="AE133" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="187"/>
-      <c r="AG133" s="187"/>
-      <c r="AH133" s="187"/>
-      <c r="AI133" s="187"/>
-      <c r="AJ133" s="188"/>
+      <c r="AF133" s="202"/>
+      <c r="AG133" s="202"/>
+      <c r="AH133" s="202"/>
+      <c r="AI133" s="202"/>
+      <c r="AJ133" s="203"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11826,30 +11826,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="186" t="s">
+      <c r="S134" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="187"/>
-      <c r="U134" s="187"/>
-      <c r="V134" s="187"/>
-      <c r="W134" s="187"/>
-      <c r="X134" s="188"/>
-      <c r="Y134" s="186" t="s">
+      <c r="T134" s="202"/>
+      <c r="U134" s="202"/>
+      <c r="V134" s="202"/>
+      <c r="W134" s="202"/>
+      <c r="X134" s="203"/>
+      <c r="Y134" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="187"/>
-      <c r="AA134" s="187"/>
-      <c r="AB134" s="187"/>
-      <c r="AC134" s="187"/>
-      <c r="AD134" s="188"/>
-      <c r="AE134" s="186" t="s">
+      <c r="Z134" s="202"/>
+      <c r="AA134" s="202"/>
+      <c r="AB134" s="202"/>
+      <c r="AC134" s="202"/>
+      <c r="AD134" s="203"/>
+      <c r="AE134" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="187"/>
-      <c r="AG134" s="187"/>
-      <c r="AH134" s="187"/>
-      <c r="AI134" s="187"/>
-      <c r="AJ134" s="188"/>
+      <c r="AF134" s="202"/>
+      <c r="AG134" s="202"/>
+      <c r="AH134" s="202"/>
+      <c r="AI134" s="202"/>
+      <c r="AJ134" s="203"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11867,30 +11867,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="186" t="s">
+      <c r="S135" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="187"/>
-      <c r="U135" s="187"/>
-      <c r="V135" s="187"/>
-      <c r="W135" s="187"/>
-      <c r="X135" s="188"/>
-      <c r="Y135" s="186" t="s">
+      <c r="T135" s="202"/>
+      <c r="U135" s="202"/>
+      <c r="V135" s="202"/>
+      <c r="W135" s="202"/>
+      <c r="X135" s="203"/>
+      <c r="Y135" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="187"/>
-      <c r="AA135" s="187"/>
-      <c r="AB135" s="187"/>
-      <c r="AC135" s="187"/>
-      <c r="AD135" s="188"/>
-      <c r="AE135" s="186" t="s">
+      <c r="Z135" s="202"/>
+      <c r="AA135" s="202"/>
+      <c r="AB135" s="202"/>
+      <c r="AC135" s="202"/>
+      <c r="AD135" s="203"/>
+      <c r="AE135" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="187"/>
-      <c r="AG135" s="187"/>
-      <c r="AH135" s="187"/>
-      <c r="AI135" s="187"/>
-      <c r="AJ135" s="188"/>
+      <c r="AF135" s="202"/>
+      <c r="AG135" s="202"/>
+      <c r="AH135" s="202"/>
+      <c r="AI135" s="202"/>
+      <c r="AJ135" s="203"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11912,30 +11912,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="186" t="s">
+      <c r="S136" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="187"/>
-      <c r="U136" s="187"/>
-      <c r="V136" s="187"/>
-      <c r="W136" s="187"/>
-      <c r="X136" s="188"/>
-      <c r="Y136" s="186" t="s">
+      <c r="T136" s="202"/>
+      <c r="U136" s="202"/>
+      <c r="V136" s="202"/>
+      <c r="W136" s="202"/>
+      <c r="X136" s="203"/>
+      <c r="Y136" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="187"/>
-      <c r="AA136" s="187"/>
-      <c r="AB136" s="187"/>
-      <c r="AC136" s="187"/>
-      <c r="AD136" s="188"/>
-      <c r="AE136" s="186" t="s">
+      <c r="Z136" s="202"/>
+      <c r="AA136" s="202"/>
+      <c r="AB136" s="202"/>
+      <c r="AC136" s="202"/>
+      <c r="AD136" s="203"/>
+      <c r="AE136" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="187"/>
-      <c r="AG136" s="187"/>
-      <c r="AH136" s="187"/>
-      <c r="AI136" s="187"/>
-      <c r="AJ136" s="188"/>
+      <c r="AF136" s="202"/>
+      <c r="AG136" s="202"/>
+      <c r="AH136" s="202"/>
+      <c r="AI136" s="202"/>
+      <c r="AJ136" s="203"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11957,30 +11957,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="183" t="s">
+      <c r="S137" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="184"/>
-      <c r="U137" s="184"/>
-      <c r="V137" s="184"/>
-      <c r="W137" s="184"/>
-      <c r="X137" s="185"/>
-      <c r="Y137" s="183" t="s">
+      <c r="T137" s="232"/>
+      <c r="U137" s="232"/>
+      <c r="V137" s="232"/>
+      <c r="W137" s="232"/>
+      <c r="X137" s="233"/>
+      <c r="Y137" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="184"/>
-      <c r="AA137" s="184"/>
-      <c r="AB137" s="184"/>
-      <c r="AC137" s="184"/>
-      <c r="AD137" s="185"/>
-      <c r="AE137" s="186" t="s">
+      <c r="Z137" s="232"/>
+      <c r="AA137" s="232"/>
+      <c r="AB137" s="232"/>
+      <c r="AC137" s="232"/>
+      <c r="AD137" s="233"/>
+      <c r="AE137" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="187"/>
-      <c r="AG137" s="187"/>
-      <c r="AH137" s="187"/>
-      <c r="AI137" s="187"/>
-      <c r="AJ137" s="188"/>
+      <c r="AF137" s="202"/>
+      <c r="AG137" s="202"/>
+      <c r="AH137" s="202"/>
+      <c r="AI137" s="202"/>
+      <c r="AJ137" s="203"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -12004,30 +12004,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="186" t="s">
+      <c r="S138" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="187"/>
-      <c r="U138" s="187"/>
-      <c r="V138" s="187"/>
-      <c r="W138" s="187"/>
-      <c r="X138" s="188"/>
-      <c r="Y138" s="186" t="s">
+      <c r="T138" s="202"/>
+      <c r="U138" s="202"/>
+      <c r="V138" s="202"/>
+      <c r="W138" s="202"/>
+      <c r="X138" s="203"/>
+      <c r="Y138" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="187"/>
-      <c r="AA138" s="187"/>
-      <c r="AB138" s="187"/>
-      <c r="AC138" s="187"/>
-      <c r="AD138" s="188"/>
-      <c r="AE138" s="186" t="s">
+      <c r="Z138" s="202"/>
+      <c r="AA138" s="202"/>
+      <c r="AB138" s="202"/>
+      <c r="AC138" s="202"/>
+      <c r="AD138" s="203"/>
+      <c r="AE138" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="187"/>
-      <c r="AG138" s="187"/>
-      <c r="AH138" s="187"/>
-      <c r="AI138" s="187"/>
-      <c r="AJ138" s="188"/>
+      <c r="AF138" s="202"/>
+      <c r="AG138" s="202"/>
+      <c r="AH138" s="202"/>
+      <c r="AI138" s="202"/>
+      <c r="AJ138" s="203"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -12045,30 +12045,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="186" t="s">
+      <c r="S139" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="187"/>
-      <c r="U139" s="187"/>
-      <c r="V139" s="187"/>
-      <c r="W139" s="187"/>
-      <c r="X139" s="188"/>
-      <c r="Y139" s="186" t="s">
+      <c r="T139" s="202"/>
+      <c r="U139" s="202"/>
+      <c r="V139" s="202"/>
+      <c r="W139" s="202"/>
+      <c r="X139" s="203"/>
+      <c r="Y139" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="187"/>
-      <c r="AA139" s="187"/>
-      <c r="AB139" s="187"/>
-      <c r="AC139" s="187"/>
-      <c r="AD139" s="188"/>
-      <c r="AE139" s="186" t="s">
+      <c r="Z139" s="202"/>
+      <c r="AA139" s="202"/>
+      <c r="AB139" s="202"/>
+      <c r="AC139" s="202"/>
+      <c r="AD139" s="203"/>
+      <c r="AE139" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="187"/>
-      <c r="AG139" s="187"/>
-      <c r="AH139" s="187"/>
-      <c r="AI139" s="187"/>
-      <c r="AJ139" s="188"/>
+      <c r="AF139" s="202"/>
+      <c r="AG139" s="202"/>
+      <c r="AH139" s="202"/>
+      <c r="AI139" s="202"/>
+      <c r="AJ139" s="203"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -12090,30 +12090,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="186" t="s">
+      <c r="S140" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="187"/>
-      <c r="U140" s="187"/>
-      <c r="V140" s="187"/>
-      <c r="W140" s="187"/>
-      <c r="X140" s="188"/>
-      <c r="Y140" s="186" t="s">
+      <c r="T140" s="202"/>
+      <c r="U140" s="202"/>
+      <c r="V140" s="202"/>
+      <c r="W140" s="202"/>
+      <c r="X140" s="203"/>
+      <c r="Y140" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="187"/>
-      <c r="AA140" s="187"/>
-      <c r="AB140" s="187"/>
-      <c r="AC140" s="187"/>
-      <c r="AD140" s="188"/>
-      <c r="AE140" s="186" t="s">
+      <c r="Z140" s="202"/>
+      <c r="AA140" s="202"/>
+      <c r="AB140" s="202"/>
+      <c r="AC140" s="202"/>
+      <c r="AD140" s="203"/>
+      <c r="AE140" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="187"/>
-      <c r="AG140" s="187"/>
-      <c r="AH140" s="187"/>
-      <c r="AI140" s="187"/>
-      <c r="AJ140" s="188"/>
+      <c r="AF140" s="202"/>
+      <c r="AG140" s="202"/>
+      <c r="AH140" s="202"/>
+      <c r="AI140" s="202"/>
+      <c r="AJ140" s="203"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -12135,30 +12135,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="186" t="s">
+      <c r="S141" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="T141" s="187"/>
-      <c r="U141" s="187"/>
-      <c r="V141" s="187"/>
-      <c r="W141" s="187"/>
-      <c r="X141" s="188"/>
-      <c r="Y141" s="186" t="s">
+      <c r="T141" s="202"/>
+      <c r="U141" s="202"/>
+      <c r="V141" s="202"/>
+      <c r="W141" s="202"/>
+      <c r="X141" s="203"/>
+      <c r="Y141" s="201" t="s">
         <v>218</v>
       </c>
-      <c r="Z141" s="187"/>
-      <c r="AA141" s="187"/>
-      <c r="AB141" s="187"/>
-      <c r="AC141" s="187"/>
-      <c r="AD141" s="188"/>
-      <c r="AE141" s="186" t="s">
+      <c r="Z141" s="202"/>
+      <c r="AA141" s="202"/>
+      <c r="AB141" s="202"/>
+      <c r="AC141" s="202"/>
+      <c r="AD141" s="203"/>
+      <c r="AE141" s="201" t="s">
         <v>218</v>
       </c>
-      <c r="AF141" s="187"/>
-      <c r="AG141" s="187"/>
-      <c r="AH141" s="187"/>
-      <c r="AI141" s="187"/>
-      <c r="AJ141" s="188"/>
+      <c r="AF141" s="202"/>
+      <c r="AG141" s="202"/>
+      <c r="AH141" s="202"/>
+      <c r="AI141" s="202"/>
+      <c r="AJ141" s="203"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -12182,30 +12182,30 @@
       <c r="P142" s="134"/>
       <c r="Q142" s="134"/>
       <c r="R142" s="135"/>
-      <c r="S142" s="186" t="s">
+      <c r="S142" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="187"/>
-      <c r="U142" s="187"/>
-      <c r="V142" s="187"/>
-      <c r="W142" s="187"/>
-      <c r="X142" s="188"/>
-      <c r="Y142" s="186" t="s">
+      <c r="T142" s="202"/>
+      <c r="U142" s="202"/>
+      <c r="V142" s="202"/>
+      <c r="W142" s="202"/>
+      <c r="X142" s="203"/>
+      <c r="Y142" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="187"/>
-      <c r="AA142" s="187"/>
-      <c r="AB142" s="187"/>
-      <c r="AC142" s="187"/>
-      <c r="AD142" s="188"/>
-      <c r="AE142" s="186" t="s">
+      <c r="Z142" s="202"/>
+      <c r="AA142" s="202"/>
+      <c r="AB142" s="202"/>
+      <c r="AC142" s="202"/>
+      <c r="AD142" s="203"/>
+      <c r="AE142" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="187"/>
-      <c r="AG142" s="187"/>
-      <c r="AH142" s="187"/>
-      <c r="AI142" s="187"/>
-      <c r="AJ142" s="188"/>
+      <c r="AF142" s="202"/>
+      <c r="AG142" s="202"/>
+      <c r="AH142" s="202"/>
+      <c r="AI142" s="202"/>
+      <c r="AJ142" s="203"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -12223,30 +12223,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="186" t="s">
+      <c r="S143" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="187"/>
-      <c r="U143" s="187"/>
-      <c r="V143" s="187"/>
-      <c r="W143" s="187"/>
-      <c r="X143" s="188"/>
-      <c r="Y143" s="186" t="s">
+      <c r="T143" s="202"/>
+      <c r="U143" s="202"/>
+      <c r="V143" s="202"/>
+      <c r="W143" s="202"/>
+      <c r="X143" s="203"/>
+      <c r="Y143" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="187"/>
-      <c r="AA143" s="187"/>
-      <c r="AB143" s="187"/>
-      <c r="AC143" s="187"/>
-      <c r="AD143" s="188"/>
-      <c r="AE143" s="186" t="s">
+      <c r="Z143" s="202"/>
+      <c r="AA143" s="202"/>
+      <c r="AB143" s="202"/>
+      <c r="AC143" s="202"/>
+      <c r="AD143" s="203"/>
+      <c r="AE143" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="187"/>
-      <c r="AG143" s="187"/>
-      <c r="AH143" s="187"/>
-      <c r="AI143" s="187"/>
-      <c r="AJ143" s="188"/>
+      <c r="AF143" s="202"/>
+      <c r="AG143" s="202"/>
+      <c r="AH143" s="202"/>
+      <c r="AI143" s="202"/>
+      <c r="AJ143" s="203"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -12268,30 +12268,30 @@
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="76"/>
-      <c r="S144" s="189" t="s">
+      <c r="S144" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="190"/>
-      <c r="U144" s="190"/>
-      <c r="V144" s="190"/>
-      <c r="W144" s="190"/>
-      <c r="X144" s="191"/>
-      <c r="Y144" s="189" t="s">
+      <c r="T144" s="181"/>
+      <c r="U144" s="181"/>
+      <c r="V144" s="181"/>
+      <c r="W144" s="181"/>
+      <c r="X144" s="182"/>
+      <c r="Y144" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z144" s="190"/>
-      <c r="AA144" s="190"/>
-      <c r="AB144" s="190"/>
-      <c r="AC144" s="190"/>
-      <c r="AD144" s="191"/>
-      <c r="AE144" s="189" t="s">
+      <c r="Z144" s="181"/>
+      <c r="AA144" s="181"/>
+      <c r="AB144" s="181"/>
+      <c r="AC144" s="181"/>
+      <c r="AD144" s="182"/>
+      <c r="AE144" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="190"/>
-      <c r="AG144" s="190"/>
-      <c r="AH144" s="190"/>
-      <c r="AI144" s="190"/>
-      <c r="AJ144" s="191"/>
+      <c r="AF144" s="181"/>
+      <c r="AG144" s="181"/>
+      <c r="AH144" s="181"/>
+      <c r="AI144" s="181"/>
+      <c r="AJ144" s="182"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -12313,30 +12313,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="186" t="s">
+      <c r="S145" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="187"/>
-      <c r="U145" s="187"/>
-      <c r="V145" s="187"/>
-      <c r="W145" s="187"/>
-      <c r="X145" s="188"/>
-      <c r="Y145" s="186" t="s">
+      <c r="T145" s="202"/>
+      <c r="U145" s="202"/>
+      <c r="V145" s="202"/>
+      <c r="W145" s="202"/>
+      <c r="X145" s="203"/>
+      <c r="Y145" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="187"/>
-      <c r="AA145" s="187"/>
-      <c r="AB145" s="187"/>
-      <c r="AC145" s="187"/>
-      <c r="AD145" s="188"/>
-      <c r="AE145" s="186" t="s">
+      <c r="Z145" s="202"/>
+      <c r="AA145" s="202"/>
+      <c r="AB145" s="202"/>
+      <c r="AC145" s="202"/>
+      <c r="AD145" s="203"/>
+      <c r="AE145" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="187"/>
-      <c r="AG145" s="187"/>
-      <c r="AH145" s="187"/>
-      <c r="AI145" s="187"/>
-      <c r="AJ145" s="188"/>
+      <c r="AF145" s="202"/>
+      <c r="AG145" s="202"/>
+      <c r="AH145" s="202"/>
+      <c r="AI145" s="202"/>
+      <c r="AJ145" s="203"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -12360,30 +12360,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="186" t="s">
+      <c r="S146" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="187"/>
-      <c r="U146" s="187"/>
-      <c r="V146" s="187"/>
-      <c r="W146" s="187"/>
-      <c r="X146" s="188"/>
-      <c r="Y146" s="183" t="s">
+      <c r="T146" s="202"/>
+      <c r="U146" s="202"/>
+      <c r="V146" s="202"/>
+      <c r="W146" s="202"/>
+      <c r="X146" s="203"/>
+      <c r="Y146" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="184"/>
-      <c r="AA146" s="184"/>
-      <c r="AB146" s="184"/>
-      <c r="AC146" s="184"/>
-      <c r="AD146" s="185"/>
-      <c r="AE146" s="183" t="s">
+      <c r="Z146" s="232"/>
+      <c r="AA146" s="232"/>
+      <c r="AB146" s="232"/>
+      <c r="AC146" s="232"/>
+      <c r="AD146" s="233"/>
+      <c r="AE146" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="184"/>
-      <c r="AG146" s="184"/>
-      <c r="AH146" s="184"/>
-      <c r="AI146" s="184"/>
-      <c r="AJ146" s="185"/>
+      <c r="AF146" s="232"/>
+      <c r="AG146" s="232"/>
+      <c r="AH146" s="232"/>
+      <c r="AI146" s="232"/>
+      <c r="AJ146" s="233"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -12401,30 +12401,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="186" t="s">
+      <c r="S147" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="187"/>
-      <c r="U147" s="187"/>
-      <c r="V147" s="187"/>
-      <c r="W147" s="187"/>
-      <c r="X147" s="188"/>
-      <c r="Y147" s="186" t="s">
+      <c r="T147" s="202"/>
+      <c r="U147" s="202"/>
+      <c r="V147" s="202"/>
+      <c r="W147" s="202"/>
+      <c r="X147" s="203"/>
+      <c r="Y147" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="187"/>
-      <c r="AA147" s="187"/>
-      <c r="AB147" s="187"/>
-      <c r="AC147" s="187"/>
-      <c r="AD147" s="188"/>
-      <c r="AE147" s="183" t="s">
+      <c r="Z147" s="202"/>
+      <c r="AA147" s="202"/>
+      <c r="AB147" s="202"/>
+      <c r="AC147" s="202"/>
+      <c r="AD147" s="203"/>
+      <c r="AE147" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="184"/>
-      <c r="AG147" s="184"/>
-      <c r="AH147" s="184"/>
-      <c r="AI147" s="184"/>
-      <c r="AJ147" s="185"/>
+      <c r="AF147" s="232"/>
+      <c r="AG147" s="232"/>
+      <c r="AH147" s="232"/>
+      <c r="AI147" s="232"/>
+      <c r="AJ147" s="233"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12446,30 +12446,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="186" t="s">
+      <c r="S148" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="187"/>
-      <c r="U148" s="187"/>
-      <c r="V148" s="187"/>
-      <c r="W148" s="187"/>
-      <c r="X148" s="188"/>
-      <c r="Y148" s="186" t="s">
+      <c r="T148" s="202"/>
+      <c r="U148" s="202"/>
+      <c r="V148" s="202"/>
+      <c r="W148" s="202"/>
+      <c r="X148" s="203"/>
+      <c r="Y148" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="187"/>
-      <c r="AA148" s="187"/>
-      <c r="AB148" s="187"/>
-      <c r="AC148" s="187"/>
-      <c r="AD148" s="188"/>
-      <c r="AE148" s="183" t="s">
+      <c r="Z148" s="202"/>
+      <c r="AA148" s="202"/>
+      <c r="AB148" s="202"/>
+      <c r="AC148" s="202"/>
+      <c r="AD148" s="203"/>
+      <c r="AE148" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="184"/>
-      <c r="AG148" s="184"/>
-      <c r="AH148" s="184"/>
-      <c r="AI148" s="184"/>
-      <c r="AJ148" s="185"/>
+      <c r="AF148" s="232"/>
+      <c r="AG148" s="232"/>
+      <c r="AH148" s="232"/>
+      <c r="AI148" s="232"/>
+      <c r="AJ148" s="233"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12493,30 +12493,30 @@
       <c r="P149" s="75"/>
       <c r="Q149" s="75"/>
       <c r="R149" s="76"/>
-      <c r="S149" s="189" t="s">
+      <c r="S149" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="190"/>
-      <c r="U149" s="190"/>
-      <c r="V149" s="190"/>
-      <c r="W149" s="190"/>
-      <c r="X149" s="191"/>
-      <c r="Y149" s="189" t="s">
+      <c r="T149" s="181"/>
+      <c r="U149" s="181"/>
+      <c r="V149" s="181"/>
+      <c r="W149" s="181"/>
+      <c r="X149" s="182"/>
+      <c r="Y149" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="190"/>
-      <c r="AA149" s="190"/>
-      <c r="AB149" s="190"/>
-      <c r="AC149" s="190"/>
-      <c r="AD149" s="191"/>
-      <c r="AE149" s="189" t="s">
+      <c r="Z149" s="181"/>
+      <c r="AA149" s="181"/>
+      <c r="AB149" s="181"/>
+      <c r="AC149" s="181"/>
+      <c r="AD149" s="182"/>
+      <c r="AE149" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF149" s="190"/>
-      <c r="AG149" s="190"/>
-      <c r="AH149" s="190"/>
-      <c r="AI149" s="190"/>
-      <c r="AJ149" s="191"/>
+      <c r="AF149" s="181"/>
+      <c r="AG149" s="181"/>
+      <c r="AH149" s="181"/>
+      <c r="AI149" s="181"/>
+      <c r="AJ149" s="182"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -12538,30 +12538,30 @@
       <c r="P150" s="75"/>
       <c r="Q150" s="75"/>
       <c r="R150" s="76"/>
-      <c r="S150" s="189" t="s">
+      <c r="S150" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="190"/>
-      <c r="U150" s="190"/>
-      <c r="V150" s="190"/>
-      <c r="W150" s="190"/>
-      <c r="X150" s="191"/>
-      <c r="Y150" s="189" t="s">
+      <c r="T150" s="181"/>
+      <c r="U150" s="181"/>
+      <c r="V150" s="181"/>
+      <c r="W150" s="181"/>
+      <c r="X150" s="182"/>
+      <c r="Y150" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="190"/>
-      <c r="AA150" s="190"/>
-      <c r="AB150" s="190"/>
-      <c r="AC150" s="190"/>
-      <c r="AD150" s="191"/>
-      <c r="AE150" s="189" t="s">
+      <c r="Z150" s="181"/>
+      <c r="AA150" s="181"/>
+      <c r="AB150" s="181"/>
+      <c r="AC150" s="181"/>
+      <c r="AD150" s="182"/>
+      <c r="AE150" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF150" s="190"/>
-      <c r="AG150" s="190"/>
-      <c r="AH150" s="190"/>
-      <c r="AI150" s="190"/>
-      <c r="AJ150" s="191"/>
+      <c r="AF150" s="181"/>
+      <c r="AG150" s="181"/>
+      <c r="AH150" s="181"/>
+      <c r="AI150" s="181"/>
+      <c r="AJ150" s="182"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12585,30 +12585,30 @@
       <c r="P151" s="75"/>
       <c r="Q151" s="75"/>
       <c r="R151" s="76"/>
-      <c r="S151" s="189" t="s">
+      <c r="S151" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="190"/>
-      <c r="U151" s="190"/>
-      <c r="V151" s="190"/>
-      <c r="W151" s="190"/>
-      <c r="X151" s="191"/>
-      <c r="Y151" s="189" t="s">
+      <c r="T151" s="181"/>
+      <c r="U151" s="181"/>
+      <c r="V151" s="181"/>
+      <c r="W151" s="181"/>
+      <c r="X151" s="182"/>
+      <c r="Y151" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="190"/>
-      <c r="AA151" s="190"/>
-      <c r="AB151" s="190"/>
-      <c r="AC151" s="190"/>
-      <c r="AD151" s="191"/>
-      <c r="AE151" s="189" t="s">
+      <c r="Z151" s="181"/>
+      <c r="AA151" s="181"/>
+      <c r="AB151" s="181"/>
+      <c r="AC151" s="181"/>
+      <c r="AD151" s="182"/>
+      <c r="AE151" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF151" s="190"/>
-      <c r="AG151" s="190"/>
-      <c r="AH151" s="190"/>
-      <c r="AI151" s="190"/>
-      <c r="AJ151" s="191"/>
+      <c r="AF151" s="181"/>
+      <c r="AG151" s="181"/>
+      <c r="AH151" s="181"/>
+      <c r="AI151" s="181"/>
+      <c r="AJ151" s="182"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12630,30 +12630,30 @@
       <c r="P152" s="75"/>
       <c r="Q152" s="75"/>
       <c r="R152" s="76"/>
-      <c r="S152" s="189" t="s">
+      <c r="S152" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="190"/>
-      <c r="U152" s="190"/>
-      <c r="V152" s="190"/>
-      <c r="W152" s="190"/>
-      <c r="X152" s="191"/>
-      <c r="Y152" s="189" t="s">
+      <c r="T152" s="181"/>
+      <c r="U152" s="181"/>
+      <c r="V152" s="181"/>
+      <c r="W152" s="181"/>
+      <c r="X152" s="182"/>
+      <c r="Y152" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="190"/>
-      <c r="AA152" s="190"/>
-      <c r="AB152" s="190"/>
-      <c r="AC152" s="190"/>
-      <c r="AD152" s="191"/>
-      <c r="AE152" s="189" t="s">
+      <c r="Z152" s="181"/>
+      <c r="AA152" s="181"/>
+      <c r="AB152" s="181"/>
+      <c r="AC152" s="181"/>
+      <c r="AD152" s="182"/>
+      <c r="AE152" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF152" s="190"/>
-      <c r="AG152" s="190"/>
-      <c r="AH152" s="190"/>
-      <c r="AI152" s="190"/>
-      <c r="AJ152" s="191"/>
+      <c r="AF152" s="181"/>
+      <c r="AG152" s="181"/>
+      <c r="AH152" s="181"/>
+      <c r="AI152" s="181"/>
+      <c r="AJ152" s="182"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12677,30 +12677,30 @@
       <c r="P153" s="75"/>
       <c r="Q153" s="75"/>
       <c r="R153" s="76"/>
-      <c r="S153" s="189" t="s">
+      <c r="S153" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="190"/>
-      <c r="U153" s="190"/>
-      <c r="V153" s="190"/>
-      <c r="W153" s="190"/>
-      <c r="X153" s="191"/>
-      <c r="Y153" s="189" t="s">
+      <c r="T153" s="181"/>
+      <c r="U153" s="181"/>
+      <c r="V153" s="181"/>
+      <c r="W153" s="181"/>
+      <c r="X153" s="182"/>
+      <c r="Y153" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="190"/>
-      <c r="AA153" s="190"/>
-      <c r="AB153" s="190"/>
-      <c r="AC153" s="190"/>
-      <c r="AD153" s="191"/>
-      <c r="AE153" s="189" t="s">
+      <c r="Z153" s="181"/>
+      <c r="AA153" s="181"/>
+      <c r="AB153" s="181"/>
+      <c r="AC153" s="181"/>
+      <c r="AD153" s="182"/>
+      <c r="AE153" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF153" s="190"/>
-      <c r="AG153" s="190"/>
-      <c r="AH153" s="190"/>
-      <c r="AI153" s="190"/>
-      <c r="AJ153" s="191"/>
+      <c r="AF153" s="181"/>
+      <c r="AG153" s="181"/>
+      <c r="AH153" s="181"/>
+      <c r="AI153" s="181"/>
+      <c r="AJ153" s="182"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12724,30 +12724,30 @@
       <c r="P154" s="75"/>
       <c r="Q154" s="75"/>
       <c r="R154" s="76"/>
-      <c r="S154" s="189" t="s">
+      <c r="S154" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="190"/>
-      <c r="U154" s="190"/>
-      <c r="V154" s="190"/>
-      <c r="W154" s="190"/>
-      <c r="X154" s="191"/>
-      <c r="Y154" s="189" t="s">
+      <c r="T154" s="181"/>
+      <c r="U154" s="181"/>
+      <c r="V154" s="181"/>
+      <c r="W154" s="181"/>
+      <c r="X154" s="182"/>
+      <c r="Y154" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="190"/>
-      <c r="AA154" s="190"/>
-      <c r="AB154" s="190"/>
-      <c r="AC154" s="190"/>
-      <c r="AD154" s="191"/>
-      <c r="AE154" s="189" t="s">
+      <c r="Z154" s="181"/>
+      <c r="AA154" s="181"/>
+      <c r="AB154" s="181"/>
+      <c r="AC154" s="181"/>
+      <c r="AD154" s="182"/>
+      <c r="AE154" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF154" s="190"/>
-      <c r="AG154" s="190"/>
-      <c r="AH154" s="190"/>
-      <c r="AI154" s="190"/>
-      <c r="AJ154" s="191"/>
+      <c r="AF154" s="181"/>
+      <c r="AG154" s="181"/>
+      <c r="AH154" s="181"/>
+      <c r="AI154" s="181"/>
+      <c r="AJ154" s="182"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12771,30 +12771,30 @@
       <c r="P155" s="75"/>
       <c r="Q155" s="75"/>
       <c r="R155" s="76"/>
-      <c r="S155" s="189" t="s">
+      <c r="S155" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="190"/>
-      <c r="U155" s="190"/>
-      <c r="V155" s="190"/>
-      <c r="W155" s="190"/>
-      <c r="X155" s="191"/>
-      <c r="Y155" s="189" t="s">
+      <c r="T155" s="181"/>
+      <c r="U155" s="181"/>
+      <c r="V155" s="181"/>
+      <c r="W155" s="181"/>
+      <c r="X155" s="182"/>
+      <c r="Y155" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="190"/>
-      <c r="AA155" s="190"/>
-      <c r="AB155" s="190"/>
-      <c r="AC155" s="190"/>
-      <c r="AD155" s="191"/>
-      <c r="AE155" s="189" t="s">
+      <c r="Z155" s="181"/>
+      <c r="AA155" s="181"/>
+      <c r="AB155" s="181"/>
+      <c r="AC155" s="181"/>
+      <c r="AD155" s="182"/>
+      <c r="AE155" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF155" s="190"/>
-      <c r="AG155" s="190"/>
-      <c r="AH155" s="190"/>
-      <c r="AI155" s="190"/>
-      <c r="AJ155" s="191"/>
+      <c r="AF155" s="181"/>
+      <c r="AG155" s="181"/>
+      <c r="AH155" s="181"/>
+      <c r="AI155" s="181"/>
+      <c r="AJ155" s="182"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12818,30 +12818,30 @@
       <c r="P156" s="75"/>
       <c r="Q156" s="75"/>
       <c r="R156" s="76"/>
-      <c r="S156" s="189" t="s">
+      <c r="S156" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="190"/>
-      <c r="U156" s="190"/>
-      <c r="V156" s="190"/>
-      <c r="W156" s="190"/>
-      <c r="X156" s="191"/>
-      <c r="Y156" s="189" t="s">
+      <c r="T156" s="181"/>
+      <c r="U156" s="181"/>
+      <c r="V156" s="181"/>
+      <c r="W156" s="181"/>
+      <c r="X156" s="182"/>
+      <c r="Y156" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="190"/>
-      <c r="AA156" s="190"/>
-      <c r="AB156" s="190"/>
-      <c r="AC156" s="190"/>
-      <c r="AD156" s="191"/>
-      <c r="AE156" s="189" t="s">
+      <c r="Z156" s="181"/>
+      <c r="AA156" s="181"/>
+      <c r="AB156" s="181"/>
+      <c r="AC156" s="181"/>
+      <c r="AD156" s="182"/>
+      <c r="AE156" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF156" s="190"/>
-      <c r="AG156" s="190"/>
-      <c r="AH156" s="190"/>
-      <c r="AI156" s="190"/>
-      <c r="AJ156" s="191"/>
+      <c r="AF156" s="181"/>
+      <c r="AG156" s="181"/>
+      <c r="AH156" s="181"/>
+      <c r="AI156" s="181"/>
+      <c r="AJ156" s="182"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12865,30 +12865,30 @@
       <c r="P157" s="75"/>
       <c r="Q157" s="75"/>
       <c r="R157" s="76"/>
-      <c r="S157" s="189" t="s">
+      <c r="S157" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="190"/>
-      <c r="U157" s="190"/>
-      <c r="V157" s="190"/>
-      <c r="W157" s="190"/>
-      <c r="X157" s="191"/>
-      <c r="Y157" s="189" t="s">
+      <c r="T157" s="181"/>
+      <c r="U157" s="181"/>
+      <c r="V157" s="181"/>
+      <c r="W157" s="181"/>
+      <c r="X157" s="182"/>
+      <c r="Y157" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="190"/>
-      <c r="AA157" s="190"/>
-      <c r="AB157" s="190"/>
-      <c r="AC157" s="190"/>
-      <c r="AD157" s="191"/>
-      <c r="AE157" s="189" t="s">
+      <c r="Z157" s="181"/>
+      <c r="AA157" s="181"/>
+      <c r="AB157" s="181"/>
+      <c r="AC157" s="181"/>
+      <c r="AD157" s="182"/>
+      <c r="AE157" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF157" s="190"/>
-      <c r="AG157" s="190"/>
-      <c r="AH157" s="190"/>
-      <c r="AI157" s="190"/>
-      <c r="AJ157" s="191"/>
+      <c r="AF157" s="181"/>
+      <c r="AG157" s="181"/>
+      <c r="AH157" s="181"/>
+      <c r="AI157" s="181"/>
+      <c r="AJ157" s="182"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12910,30 +12910,30 @@
       <c r="P158" s="75"/>
       <c r="Q158" s="75"/>
       <c r="R158" s="76"/>
-      <c r="S158" s="189" t="s">
+      <c r="S158" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="190"/>
-      <c r="U158" s="190"/>
-      <c r="V158" s="190"/>
-      <c r="W158" s="190"/>
-      <c r="X158" s="191"/>
-      <c r="Y158" s="189" t="s">
+      <c r="T158" s="181"/>
+      <c r="U158" s="181"/>
+      <c r="V158" s="181"/>
+      <c r="W158" s="181"/>
+      <c r="X158" s="182"/>
+      <c r="Y158" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="190"/>
-      <c r="AA158" s="190"/>
-      <c r="AB158" s="190"/>
-      <c r="AC158" s="190"/>
-      <c r="AD158" s="191"/>
-      <c r="AE158" s="189" t="s">
+      <c r="Z158" s="181"/>
+      <c r="AA158" s="181"/>
+      <c r="AB158" s="181"/>
+      <c r="AC158" s="181"/>
+      <c r="AD158" s="182"/>
+      <c r="AE158" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF158" s="190"/>
-      <c r="AG158" s="190"/>
-      <c r="AH158" s="190"/>
-      <c r="AI158" s="190"/>
-      <c r="AJ158" s="191"/>
+      <c r="AF158" s="181"/>
+      <c r="AG158" s="181"/>
+      <c r="AH158" s="181"/>
+      <c r="AI158" s="181"/>
+      <c r="AJ158" s="182"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12955,30 +12955,30 @@
       <c r="P159" s="134"/>
       <c r="Q159" s="134"/>
       <c r="R159" s="135"/>
-      <c r="S159" s="189" t="s">
+      <c r="S159" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="190"/>
-      <c r="U159" s="190"/>
-      <c r="V159" s="190"/>
-      <c r="W159" s="190"/>
-      <c r="X159" s="191"/>
-      <c r="Y159" s="189" t="s">
+      <c r="T159" s="181"/>
+      <c r="U159" s="181"/>
+      <c r="V159" s="181"/>
+      <c r="W159" s="181"/>
+      <c r="X159" s="182"/>
+      <c r="Y159" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="190"/>
-      <c r="AA159" s="190"/>
-      <c r="AB159" s="190"/>
-      <c r="AC159" s="190"/>
-      <c r="AD159" s="191"/>
-      <c r="AE159" s="189" t="s">
+      <c r="Z159" s="181"/>
+      <c r="AA159" s="181"/>
+      <c r="AB159" s="181"/>
+      <c r="AC159" s="181"/>
+      <c r="AD159" s="182"/>
+      <c r="AE159" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF159" s="190"/>
-      <c r="AG159" s="190"/>
-      <c r="AH159" s="190"/>
-      <c r="AI159" s="190"/>
-      <c r="AJ159" s="191"/>
+      <c r="AF159" s="181"/>
+      <c r="AG159" s="181"/>
+      <c r="AH159" s="181"/>
+      <c r="AI159" s="181"/>
+      <c r="AJ159" s="182"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -13000,30 +13000,30 @@
       <c r="P160" s="75"/>
       <c r="Q160" s="75"/>
       <c r="R160" s="76"/>
-      <c r="S160" s="189" t="s">
+      <c r="S160" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="190"/>
-      <c r="U160" s="190"/>
-      <c r="V160" s="190"/>
-      <c r="W160" s="190"/>
-      <c r="X160" s="191"/>
-      <c r="Y160" s="189" t="s">
+      <c r="T160" s="181"/>
+      <c r="U160" s="181"/>
+      <c r="V160" s="181"/>
+      <c r="W160" s="181"/>
+      <c r="X160" s="182"/>
+      <c r="Y160" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="190"/>
-      <c r="AA160" s="190"/>
-      <c r="AB160" s="190"/>
-      <c r="AC160" s="190"/>
-      <c r="AD160" s="191"/>
-      <c r="AE160" s="189" t="s">
+      <c r="Z160" s="181"/>
+      <c r="AA160" s="181"/>
+      <c r="AB160" s="181"/>
+      <c r="AC160" s="181"/>
+      <c r="AD160" s="182"/>
+      <c r="AE160" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF160" s="190"/>
-      <c r="AG160" s="190"/>
-      <c r="AH160" s="190"/>
-      <c r="AI160" s="190"/>
-      <c r="AJ160" s="191"/>
+      <c r="AF160" s="181"/>
+      <c r="AG160" s="181"/>
+      <c r="AH160" s="181"/>
+      <c r="AI160" s="181"/>
+      <c r="AJ160" s="182"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -13047,22 +13047,22 @@
       <c r="P161" s="75"/>
       <c r="Q161" s="75"/>
       <c r="R161" s="76"/>
-      <c r="S161" s="189" t="s">
+      <c r="S161" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="190"/>
-      <c r="U161" s="190"/>
-      <c r="V161" s="190"/>
-      <c r="W161" s="190"/>
-      <c r="X161" s="191"/>
-      <c r="Y161" s="192" t="s">
+      <c r="T161" s="181"/>
+      <c r="U161" s="181"/>
+      <c r="V161" s="181"/>
+      <c r="W161" s="181"/>
+      <c r="X161" s="182"/>
+      <c r="Y161" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="Z161" s="193"/>
-      <c r="AA161" s="193"/>
-      <c r="AB161" s="193"/>
-      <c r="AC161" s="193"/>
-      <c r="AD161" s="194"/>
+      <c r="Z161" s="187"/>
+      <c r="AA161" s="187"/>
+      <c r="AB161" s="187"/>
+      <c r="AC161" s="187"/>
+      <c r="AD161" s="188"/>
       <c r="AE161" s="195" t="s">
         <v>14</v>
       </c>
@@ -13094,22 +13094,22 @@
       <c r="P162" s="75"/>
       <c r="Q162" s="75"/>
       <c r="R162" s="76"/>
-      <c r="S162" s="189" t="s">
+      <c r="S162" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="190"/>
-      <c r="U162" s="190"/>
-      <c r="V162" s="190"/>
-      <c r="W162" s="190"/>
-      <c r="X162" s="191"/>
-      <c r="Y162" s="189" t="s">
+      <c r="T162" s="181"/>
+      <c r="U162" s="181"/>
+      <c r="V162" s="181"/>
+      <c r="W162" s="181"/>
+      <c r="X162" s="182"/>
+      <c r="Y162" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="190"/>
-      <c r="AA162" s="190"/>
-      <c r="AB162" s="190"/>
-      <c r="AC162" s="190"/>
-      <c r="AD162" s="191"/>
+      <c r="Z162" s="181"/>
+      <c r="AA162" s="181"/>
+      <c r="AB162" s="181"/>
+      <c r="AC162" s="181"/>
+      <c r="AD162" s="182"/>
       <c r="AE162" s="195" t="s">
         <v>39</v>
       </c>
@@ -13141,22 +13141,22 @@
       <c r="P163" s="75"/>
       <c r="Q163" s="75"/>
       <c r="R163" s="76"/>
-      <c r="S163" s="189" t="s">
+      <c r="S163" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="190"/>
-      <c r="U163" s="190"/>
-      <c r="V163" s="190"/>
-      <c r="W163" s="190"/>
-      <c r="X163" s="191"/>
-      <c r="Y163" s="189" t="s">
+      <c r="T163" s="181"/>
+      <c r="U163" s="181"/>
+      <c r="V163" s="181"/>
+      <c r="W163" s="181"/>
+      <c r="X163" s="182"/>
+      <c r="Y163" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="190"/>
-      <c r="AA163" s="190"/>
-      <c r="AB163" s="190"/>
-      <c r="AC163" s="190"/>
-      <c r="AD163" s="191"/>
+      <c r="Z163" s="181"/>
+      <c r="AA163" s="181"/>
+      <c r="AB163" s="181"/>
+      <c r="AC163" s="181"/>
+      <c r="AD163" s="182"/>
       <c r="AE163" s="195" t="s">
         <v>39</v>
       </c>
@@ -13188,22 +13188,22 @@
       <c r="P164" s="75"/>
       <c r="Q164" s="75"/>
       <c r="R164" s="76"/>
-      <c r="S164" s="189" t="s">
+      <c r="S164" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="190"/>
-      <c r="U164" s="190"/>
-      <c r="V164" s="190"/>
-      <c r="W164" s="190"/>
-      <c r="X164" s="191"/>
-      <c r="Y164" s="189" t="s">
+      <c r="T164" s="181"/>
+      <c r="U164" s="181"/>
+      <c r="V164" s="181"/>
+      <c r="W164" s="181"/>
+      <c r="X164" s="182"/>
+      <c r="Y164" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="190"/>
-      <c r="AA164" s="190"/>
-      <c r="AB164" s="190"/>
-      <c r="AC164" s="190"/>
-      <c r="AD164" s="191"/>
+      <c r="Z164" s="181"/>
+      <c r="AA164" s="181"/>
+      <c r="AB164" s="181"/>
+      <c r="AC164" s="181"/>
+      <c r="AD164" s="182"/>
       <c r="AE164" s="195" t="s">
         <v>14</v>
       </c>
@@ -13235,30 +13235,30 @@
       <c r="P165" s="75"/>
       <c r="Q165" s="75"/>
       <c r="R165" s="76"/>
-      <c r="S165" s="189" t="s">
+      <c r="S165" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="190"/>
-      <c r="U165" s="190"/>
-      <c r="V165" s="190"/>
-      <c r="W165" s="190"/>
-      <c r="X165" s="191"/>
-      <c r="Y165" s="189" t="s">
+      <c r="T165" s="181"/>
+      <c r="U165" s="181"/>
+      <c r="V165" s="181"/>
+      <c r="W165" s="181"/>
+      <c r="X165" s="182"/>
+      <c r="Y165" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="190"/>
-      <c r="AA165" s="190"/>
-      <c r="AB165" s="190"/>
-      <c r="AC165" s="190"/>
-      <c r="AD165" s="191"/>
-      <c r="AE165" s="189" t="s">
+      <c r="Z165" s="181"/>
+      <c r="AA165" s="181"/>
+      <c r="AB165" s="181"/>
+      <c r="AC165" s="181"/>
+      <c r="AD165" s="182"/>
+      <c r="AE165" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AF165" s="190"/>
-      <c r="AG165" s="190"/>
-      <c r="AH165" s="190"/>
-      <c r="AI165" s="190"/>
-      <c r="AJ165" s="191"/>
+      <c r="AF165" s="181"/>
+      <c r="AG165" s="181"/>
+      <c r="AH165" s="181"/>
+      <c r="AI165" s="181"/>
+      <c r="AJ165" s="182"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -13282,22 +13282,22 @@
       <c r="P166" s="75"/>
       <c r="Q166" s="75"/>
       <c r="R166" s="76"/>
-      <c r="S166" s="189" t="s">
+      <c r="S166" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="190"/>
-      <c r="U166" s="190"/>
-      <c r="V166" s="190"/>
-      <c r="W166" s="190"/>
-      <c r="X166" s="191"/>
-      <c r="Y166" s="189" t="s">
+      <c r="T166" s="181"/>
+      <c r="U166" s="181"/>
+      <c r="V166" s="181"/>
+      <c r="W166" s="181"/>
+      <c r="X166" s="182"/>
+      <c r="Y166" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z166" s="190"/>
-      <c r="AA166" s="190"/>
-      <c r="AB166" s="190"/>
-      <c r="AC166" s="190"/>
-      <c r="AD166" s="191"/>
+      <c r="Z166" s="181"/>
+      <c r="AA166" s="181"/>
+      <c r="AB166" s="181"/>
+      <c r="AC166" s="181"/>
+      <c r="AD166" s="182"/>
       <c r="AE166" s="195" t="s">
         <v>14</v>
       </c>
@@ -13327,30 +13327,30 @@
       <c r="P167" s="75"/>
       <c r="Q167" s="75"/>
       <c r="R167" s="76"/>
-      <c r="S167" s="189" t="s">
+      <c r="S167" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="190"/>
-      <c r="U167" s="190"/>
-      <c r="V167" s="190"/>
-      <c r="W167" s="190"/>
-      <c r="X167" s="191"/>
-      <c r="Y167" s="189" t="s">
+      <c r="T167" s="181"/>
+      <c r="U167" s="181"/>
+      <c r="V167" s="181"/>
+      <c r="W167" s="181"/>
+      <c r="X167" s="182"/>
+      <c r="Y167" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="190"/>
-      <c r="AA167" s="190"/>
-      <c r="AB167" s="190"/>
-      <c r="AC167" s="190"/>
-      <c r="AD167" s="191"/>
-      <c r="AE167" s="189" t="s">
+      <c r="Z167" s="181"/>
+      <c r="AA167" s="181"/>
+      <c r="AB167" s="181"/>
+      <c r="AC167" s="181"/>
+      <c r="AD167" s="182"/>
+      <c r="AE167" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF167" s="190"/>
-      <c r="AG167" s="190"/>
-      <c r="AH167" s="190"/>
-      <c r="AI167" s="190"/>
-      <c r="AJ167" s="191"/>
+      <c r="AF167" s="181"/>
+      <c r="AG167" s="181"/>
+      <c r="AH167" s="181"/>
+      <c r="AI167" s="181"/>
+      <c r="AJ167" s="182"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -13374,30 +13374,30 @@
       <c r="P168" s="134"/>
       <c r="Q168" s="134"/>
       <c r="R168" s="135"/>
-      <c r="S168" s="189" t="s">
+      <c r="S168" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="190"/>
-      <c r="U168" s="190"/>
-      <c r="V168" s="190"/>
-      <c r="W168" s="190"/>
-      <c r="X168" s="191"/>
-      <c r="Y168" s="192" t="s">
+      <c r="T168" s="181"/>
+      <c r="U168" s="181"/>
+      <c r="V168" s="181"/>
+      <c r="W168" s="181"/>
+      <c r="X168" s="182"/>
+      <c r="Y168" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="Z168" s="193"/>
-      <c r="AA168" s="193"/>
-      <c r="AB168" s="193"/>
-      <c r="AC168" s="193"/>
-      <c r="AD168" s="194"/>
-      <c r="AE168" s="192" t="s">
+      <c r="Z168" s="187"/>
+      <c r="AA168" s="187"/>
+      <c r="AB168" s="187"/>
+      <c r="AC168" s="187"/>
+      <c r="AD168" s="188"/>
+      <c r="AE168" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF168" s="193"/>
-      <c r="AG168" s="193"/>
-      <c r="AH168" s="193"/>
-      <c r="AI168" s="193"/>
-      <c r="AJ168" s="194"/>
+      <c r="AF168" s="187"/>
+      <c r="AG168" s="187"/>
+      <c r="AH168" s="187"/>
+      <c r="AI168" s="187"/>
+      <c r="AJ168" s="188"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -13419,30 +13419,30 @@
       <c r="P169" s="75"/>
       <c r="Q169" s="75"/>
       <c r="R169" s="76"/>
-      <c r="S169" s="189" t="s">
+      <c r="S169" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="190"/>
-      <c r="U169" s="190"/>
-      <c r="V169" s="190"/>
-      <c r="W169" s="190"/>
-      <c r="X169" s="191"/>
-      <c r="Y169" s="189" t="s">
+      <c r="T169" s="181"/>
+      <c r="U169" s="181"/>
+      <c r="V169" s="181"/>
+      <c r="W169" s="181"/>
+      <c r="X169" s="182"/>
+      <c r="Y169" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="190"/>
-      <c r="AA169" s="190"/>
-      <c r="AB169" s="190"/>
-      <c r="AC169" s="190"/>
-      <c r="AD169" s="191"/>
-      <c r="AE169" s="192" t="s">
+      <c r="Z169" s="181"/>
+      <c r="AA169" s="181"/>
+      <c r="AB169" s="181"/>
+      <c r="AC169" s="181"/>
+      <c r="AD169" s="182"/>
+      <c r="AE169" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="AF169" s="193"/>
-      <c r="AG169" s="193"/>
-      <c r="AH169" s="193"/>
-      <c r="AI169" s="193"/>
-      <c r="AJ169" s="194"/>
+      <c r="AF169" s="187"/>
+      <c r="AG169" s="187"/>
+      <c r="AH169" s="187"/>
+      <c r="AI169" s="187"/>
+      <c r="AJ169" s="188"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13464,30 +13464,30 @@
       <c r="P170" s="75"/>
       <c r="Q170" s="75"/>
       <c r="R170" s="76"/>
-      <c r="S170" s="189" t="s">
+      <c r="S170" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="190"/>
-      <c r="U170" s="190"/>
-      <c r="V170" s="190"/>
-      <c r="W170" s="190"/>
-      <c r="X170" s="191"/>
-      <c r="Y170" s="189" t="s">
+      <c r="T170" s="181"/>
+      <c r="U170" s="181"/>
+      <c r="V170" s="181"/>
+      <c r="W170" s="181"/>
+      <c r="X170" s="182"/>
+      <c r="Y170" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="190"/>
-      <c r="AA170" s="190"/>
-      <c r="AB170" s="190"/>
-      <c r="AC170" s="190"/>
-      <c r="AD170" s="191"/>
-      <c r="AE170" s="192" t="s">
+      <c r="Z170" s="181"/>
+      <c r="AA170" s="181"/>
+      <c r="AB170" s="181"/>
+      <c r="AC170" s="181"/>
+      <c r="AD170" s="182"/>
+      <c r="AE170" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="AF170" s="193"/>
-      <c r="AG170" s="193"/>
-      <c r="AH170" s="193"/>
-      <c r="AI170" s="193"/>
-      <c r="AJ170" s="194"/>
+      <c r="AF170" s="187"/>
+      <c r="AG170" s="187"/>
+      <c r="AH170" s="187"/>
+      <c r="AI170" s="187"/>
+      <c r="AJ170" s="188"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13509,30 +13509,30 @@
       <c r="P171" s="75"/>
       <c r="Q171" s="75"/>
       <c r="R171" s="76"/>
-      <c r="S171" s="189" t="s">
+      <c r="S171" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="190"/>
-      <c r="U171" s="190"/>
-      <c r="V171" s="190"/>
-      <c r="W171" s="190"/>
-      <c r="X171" s="191"/>
-      <c r="Y171" s="189" t="s">
+      <c r="T171" s="181"/>
+      <c r="U171" s="181"/>
+      <c r="V171" s="181"/>
+      <c r="W171" s="181"/>
+      <c r="X171" s="182"/>
+      <c r="Y171" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="190"/>
-      <c r="AA171" s="190"/>
-      <c r="AB171" s="190"/>
-      <c r="AC171" s="190"/>
-      <c r="AD171" s="191"/>
-      <c r="AE171" s="192" t="s">
+      <c r="Z171" s="181"/>
+      <c r="AA171" s="181"/>
+      <c r="AB171" s="181"/>
+      <c r="AC171" s="181"/>
+      <c r="AD171" s="182"/>
+      <c r="AE171" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF171" s="193"/>
-      <c r="AG171" s="193"/>
-      <c r="AH171" s="193"/>
-      <c r="AI171" s="193"/>
-      <c r="AJ171" s="194"/>
+      <c r="AF171" s="187"/>
+      <c r="AG171" s="187"/>
+      <c r="AH171" s="187"/>
+      <c r="AI171" s="187"/>
+      <c r="AJ171" s="188"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13554,30 +13554,30 @@
       <c r="P172" s="75"/>
       <c r="Q172" s="75"/>
       <c r="R172" s="76"/>
-      <c r="S172" s="189" t="s">
+      <c r="S172" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="190"/>
-      <c r="U172" s="190"/>
-      <c r="V172" s="190"/>
-      <c r="W172" s="190"/>
-      <c r="X172" s="191"/>
-      <c r="Y172" s="189" t="s">
+      <c r="T172" s="181"/>
+      <c r="U172" s="181"/>
+      <c r="V172" s="181"/>
+      <c r="W172" s="181"/>
+      <c r="X172" s="182"/>
+      <c r="Y172" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="190"/>
-      <c r="AA172" s="190"/>
-      <c r="AB172" s="190"/>
-      <c r="AC172" s="190"/>
-      <c r="AD172" s="191"/>
-      <c r="AE172" s="189" t="s">
+      <c r="Z172" s="181"/>
+      <c r="AA172" s="181"/>
+      <c r="AB172" s="181"/>
+      <c r="AC172" s="181"/>
+      <c r="AD172" s="182"/>
+      <c r="AE172" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AF172" s="190"/>
-      <c r="AG172" s="190"/>
-      <c r="AH172" s="190"/>
-      <c r="AI172" s="190"/>
-      <c r="AJ172" s="191"/>
+      <c r="AF172" s="181"/>
+      <c r="AG172" s="181"/>
+      <c r="AH172" s="181"/>
+      <c r="AI172" s="181"/>
+      <c r="AJ172" s="182"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13599,30 +13599,30 @@
       <c r="P173" s="75"/>
       <c r="Q173" s="75"/>
       <c r="R173" s="76"/>
-      <c r="S173" s="189" t="s">
+      <c r="S173" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="190"/>
-      <c r="U173" s="190"/>
-      <c r="V173" s="190"/>
-      <c r="W173" s="190"/>
-      <c r="X173" s="191"/>
-      <c r="Y173" s="189" t="s">
+      <c r="T173" s="181"/>
+      <c r="U173" s="181"/>
+      <c r="V173" s="181"/>
+      <c r="W173" s="181"/>
+      <c r="X173" s="182"/>
+      <c r="Y173" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="190"/>
-      <c r="AA173" s="190"/>
-      <c r="AB173" s="190"/>
-      <c r="AC173" s="190"/>
-      <c r="AD173" s="191"/>
-      <c r="AE173" s="192" t="s">
+      <c r="Z173" s="181"/>
+      <c r="AA173" s="181"/>
+      <c r="AB173" s="181"/>
+      <c r="AC173" s="181"/>
+      <c r="AD173" s="182"/>
+      <c r="AE173" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF173" s="193"/>
-      <c r="AG173" s="193"/>
-      <c r="AH173" s="193"/>
-      <c r="AI173" s="193"/>
-      <c r="AJ173" s="194"/>
+      <c r="AF173" s="187"/>
+      <c r="AG173" s="187"/>
+      <c r="AH173" s="187"/>
+      <c r="AI173" s="187"/>
+      <c r="AJ173" s="188"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13644,30 +13644,30 @@
       <c r="P174" s="75"/>
       <c r="Q174" s="75"/>
       <c r="R174" s="76"/>
-      <c r="S174" s="189" t="s">
+      <c r="S174" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="190"/>
-      <c r="U174" s="190"/>
-      <c r="V174" s="190"/>
-      <c r="W174" s="190"/>
-      <c r="X174" s="191"/>
-      <c r="Y174" s="189" t="s">
+      <c r="T174" s="181"/>
+      <c r="U174" s="181"/>
+      <c r="V174" s="181"/>
+      <c r="W174" s="181"/>
+      <c r="X174" s="182"/>
+      <c r="Y174" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z174" s="190"/>
-      <c r="AA174" s="190"/>
-      <c r="AB174" s="190"/>
-      <c r="AC174" s="190"/>
-      <c r="AD174" s="191"/>
-      <c r="AE174" s="189" t="s">
+      <c r="Z174" s="181"/>
+      <c r="AA174" s="181"/>
+      <c r="AB174" s="181"/>
+      <c r="AC174" s="181"/>
+      <c r="AD174" s="182"/>
+      <c r="AE174" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="AF174" s="190"/>
-      <c r="AG174" s="190"/>
-      <c r="AH174" s="190"/>
-      <c r="AI174" s="190"/>
-      <c r="AJ174" s="191"/>
+      <c r="AF174" s="181"/>
+      <c r="AG174" s="181"/>
+      <c r="AH174" s="181"/>
+      <c r="AI174" s="181"/>
+      <c r="AJ174" s="182"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13691,30 +13691,30 @@
       <c r="P175" s="134"/>
       <c r="Q175" s="134"/>
       <c r="R175" s="135"/>
-      <c r="S175" s="189" t="s">
+      <c r="S175" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="190"/>
-      <c r="U175" s="190"/>
-      <c r="V175" s="190"/>
-      <c r="W175" s="190"/>
-      <c r="X175" s="191"/>
-      <c r="Y175" s="189" t="s">
+      <c r="T175" s="181"/>
+      <c r="U175" s="181"/>
+      <c r="V175" s="181"/>
+      <c r="W175" s="181"/>
+      <c r="X175" s="182"/>
+      <c r="Y175" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="Z175" s="190"/>
-      <c r="AA175" s="190"/>
-      <c r="AB175" s="190"/>
-      <c r="AC175" s="190"/>
-      <c r="AD175" s="191"/>
-      <c r="AE175" s="189" t="s">
+      <c r="Z175" s="181"/>
+      <c r="AA175" s="181"/>
+      <c r="AB175" s="181"/>
+      <c r="AC175" s="181"/>
+      <c r="AD175" s="182"/>
+      <c r="AE175" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF175" s="190"/>
-      <c r="AG175" s="190"/>
-      <c r="AH175" s="190"/>
-      <c r="AI175" s="190"/>
-      <c r="AJ175" s="191"/>
+      <c r="AF175" s="181"/>
+      <c r="AG175" s="181"/>
+      <c r="AH175" s="181"/>
+      <c r="AI175" s="181"/>
+      <c r="AJ175" s="182"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13738,30 +13738,30 @@
       <c r="P176" s="75"/>
       <c r="Q176" s="75"/>
       <c r="R176" s="76"/>
-      <c r="S176" s="189" t="s">
+      <c r="S176" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="190"/>
-      <c r="U176" s="190"/>
-      <c r="V176" s="190"/>
-      <c r="W176" s="190"/>
-      <c r="X176" s="191"/>
-      <c r="Y176" s="192" t="s">
+      <c r="T176" s="181"/>
+      <c r="U176" s="181"/>
+      <c r="V176" s="181"/>
+      <c r="W176" s="181"/>
+      <c r="X176" s="182"/>
+      <c r="Y176" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="193"/>
-      <c r="AA176" s="193"/>
-      <c r="AB176" s="193"/>
-      <c r="AC176" s="193"/>
-      <c r="AD176" s="194"/>
-      <c r="AE176" s="189" t="s">
+      <c r="Z176" s="187"/>
+      <c r="AA176" s="187"/>
+      <c r="AB176" s="187"/>
+      <c r="AC176" s="187"/>
+      <c r="AD176" s="188"/>
+      <c r="AE176" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF176" s="190"/>
-      <c r="AG176" s="190"/>
-      <c r="AH176" s="190"/>
-      <c r="AI176" s="190"/>
-      <c r="AJ176" s="191"/>
+      <c r="AF176" s="181"/>
+      <c r="AG176" s="181"/>
+      <c r="AH176" s="181"/>
+      <c r="AI176" s="181"/>
+      <c r="AJ176" s="182"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13785,30 +13785,30 @@
       <c r="P177" s="75"/>
       <c r="Q177" s="75"/>
       <c r="R177" s="76"/>
-      <c r="S177" s="189" t="s">
+      <c r="S177" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T177" s="190"/>
-      <c r="U177" s="190"/>
-      <c r="V177" s="190"/>
-      <c r="W177" s="190"/>
-      <c r="X177" s="191"/>
-      <c r="Y177" s="192" t="s">
+      <c r="T177" s="181"/>
+      <c r="U177" s="181"/>
+      <c r="V177" s="181"/>
+      <c r="W177" s="181"/>
+      <c r="X177" s="182"/>
+      <c r="Y177" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="193"/>
-      <c r="AA177" s="193"/>
-      <c r="AB177" s="193"/>
-      <c r="AC177" s="193"/>
-      <c r="AD177" s="194"/>
-      <c r="AE177" s="189" t="s">
+      <c r="Z177" s="187"/>
+      <c r="AA177" s="187"/>
+      <c r="AB177" s="187"/>
+      <c r="AC177" s="187"/>
+      <c r="AD177" s="188"/>
+      <c r="AE177" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="190"/>
-      <c r="AG177" s="190"/>
-      <c r="AH177" s="190"/>
-      <c r="AI177" s="190"/>
-      <c r="AJ177" s="191"/>
+      <c r="AF177" s="181"/>
+      <c r="AG177" s="181"/>
+      <c r="AH177" s="181"/>
+      <c r="AI177" s="181"/>
+      <c r="AJ177" s="182"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13830,30 +13830,30 @@
       <c r="P178" s="75"/>
       <c r="Q178" s="75"/>
       <c r="R178" s="76"/>
-      <c r="S178" s="189" t="s">
+      <c r="S178" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T178" s="190"/>
-      <c r="U178" s="190"/>
-      <c r="V178" s="190"/>
-      <c r="W178" s="190"/>
-      <c r="X178" s="191"/>
-      <c r="Y178" s="192" t="s">
+      <c r="T178" s="181"/>
+      <c r="U178" s="181"/>
+      <c r="V178" s="181"/>
+      <c r="W178" s="181"/>
+      <c r="X178" s="182"/>
+      <c r="Y178" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="193"/>
-      <c r="AA178" s="193"/>
-      <c r="AB178" s="193"/>
-      <c r="AC178" s="193"/>
-      <c r="AD178" s="194"/>
-      <c r="AE178" s="189" t="s">
+      <c r="Z178" s="187"/>
+      <c r="AA178" s="187"/>
+      <c r="AB178" s="187"/>
+      <c r="AC178" s="187"/>
+      <c r="AD178" s="188"/>
+      <c r="AE178" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF178" s="190"/>
-      <c r="AG178" s="190"/>
-      <c r="AH178" s="190"/>
-      <c r="AI178" s="190"/>
-      <c r="AJ178" s="191"/>
+      <c r="AF178" s="181"/>
+      <c r="AG178" s="181"/>
+      <c r="AH178" s="181"/>
+      <c r="AI178" s="181"/>
+      <c r="AJ178" s="182"/>
       <c r="AP178" s="5"/>
       <c r="AQ178" s="2"/>
     </row>
@@ -13875,30 +13875,30 @@
       <c r="P179" s="75"/>
       <c r="Q179" s="75"/>
       <c r="R179" s="76"/>
-      <c r="S179" s="189" t="s">
+      <c r="S179" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T179" s="190"/>
-      <c r="U179" s="190"/>
-      <c r="V179" s="190"/>
-      <c r="W179" s="190"/>
-      <c r="X179" s="191"/>
-      <c r="Y179" s="192" t="s">
+      <c r="T179" s="181"/>
+      <c r="U179" s="181"/>
+      <c r="V179" s="181"/>
+      <c r="W179" s="181"/>
+      <c r="X179" s="182"/>
+      <c r="Y179" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="193"/>
-      <c r="AA179" s="193"/>
-      <c r="AB179" s="193"/>
-      <c r="AC179" s="193"/>
-      <c r="AD179" s="194"/>
-      <c r="AE179" s="192" t="s">
+      <c r="Z179" s="187"/>
+      <c r="AA179" s="187"/>
+      <c r="AB179" s="187"/>
+      <c r="AC179" s="187"/>
+      <c r="AD179" s="188"/>
+      <c r="AE179" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="193"/>
-      <c r="AG179" s="193"/>
-      <c r="AH179" s="193"/>
-      <c r="AI179" s="193"/>
-      <c r="AJ179" s="194"/>
+      <c r="AF179" s="187"/>
+      <c r="AG179" s="187"/>
+      <c r="AH179" s="187"/>
+      <c r="AI179" s="187"/>
+      <c r="AJ179" s="188"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13920,30 +13920,30 @@
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="192" t="s">
+      <c r="S180" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="193"/>
-      <c r="U180" s="193"/>
-      <c r="V180" s="193"/>
-      <c r="W180" s="193"/>
-      <c r="X180" s="194"/>
-      <c r="Y180" s="192" t="s">
+      <c r="T180" s="187"/>
+      <c r="U180" s="187"/>
+      <c r="V180" s="187"/>
+      <c r="W180" s="187"/>
+      <c r="X180" s="188"/>
+      <c r="Y180" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="193"/>
-      <c r="AA180" s="193"/>
-      <c r="AB180" s="193"/>
-      <c r="AC180" s="193"/>
-      <c r="AD180" s="194"/>
-      <c r="AE180" s="192" t="s">
+      <c r="Z180" s="187"/>
+      <c r="AA180" s="187"/>
+      <c r="AB180" s="187"/>
+      <c r="AC180" s="187"/>
+      <c r="AD180" s="188"/>
+      <c r="AE180" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="193"/>
-      <c r="AG180" s="193"/>
-      <c r="AH180" s="193"/>
-      <c r="AI180" s="193"/>
-      <c r="AJ180" s="194"/>
+      <c r="AF180" s="187"/>
+      <c r="AG180" s="187"/>
+      <c r="AH180" s="187"/>
+      <c r="AI180" s="187"/>
+      <c r="AJ180" s="188"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13965,30 +13965,30 @@
       <c r="P181" s="149"/>
       <c r="Q181" s="149"/>
       <c r="R181" s="150"/>
-      <c r="S181" s="210" t="s">
+      <c r="S181" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="211"/>
-      <c r="U181" s="211"/>
-      <c r="V181" s="211"/>
-      <c r="W181" s="211"/>
-      <c r="X181" s="212"/>
-      <c r="Y181" s="210" t="s">
+      <c r="T181" s="190"/>
+      <c r="U181" s="190"/>
+      <c r="V181" s="190"/>
+      <c r="W181" s="190"/>
+      <c r="X181" s="191"/>
+      <c r="Y181" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="211"/>
-      <c r="AA181" s="211"/>
-      <c r="AB181" s="211"/>
-      <c r="AC181" s="211"/>
-      <c r="AD181" s="212"/>
-      <c r="AE181" s="210" t="s">
+      <c r="Z181" s="190"/>
+      <c r="AA181" s="190"/>
+      <c r="AB181" s="190"/>
+      <c r="AC181" s="190"/>
+      <c r="AD181" s="191"/>
+      <c r="AE181" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="211"/>
-      <c r="AG181" s="211"/>
-      <c r="AH181" s="211"/>
-      <c r="AI181" s="211"/>
-      <c r="AJ181" s="212"/>
+      <c r="AF181" s="190"/>
+      <c r="AG181" s="190"/>
+      <c r="AH181" s="190"/>
+      <c r="AI181" s="190"/>
+      <c r="AJ181" s="191"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -14010,30 +14010,30 @@
       <c r="P182" s="75"/>
       <c r="Q182" s="75"/>
       <c r="R182" s="76"/>
-      <c r="S182" s="189" t="s">
+      <c r="S182" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T182" s="190"/>
-      <c r="U182" s="190"/>
-      <c r="V182" s="190"/>
-      <c r="W182" s="190"/>
-      <c r="X182" s="191"/>
-      <c r="Y182" s="189" t="s">
+      <c r="T182" s="181"/>
+      <c r="U182" s="181"/>
+      <c r="V182" s="181"/>
+      <c r="W182" s="181"/>
+      <c r="X182" s="182"/>
+      <c r="Y182" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="Z182" s="190"/>
-      <c r="AA182" s="190"/>
-      <c r="AB182" s="190"/>
-      <c r="AC182" s="190"/>
-      <c r="AD182" s="191"/>
-      <c r="AE182" s="189" t="s">
+      <c r="Z182" s="181"/>
+      <c r="AA182" s="181"/>
+      <c r="AB182" s="181"/>
+      <c r="AC182" s="181"/>
+      <c r="AD182" s="182"/>
+      <c r="AE182" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF182" s="190"/>
-      <c r="AG182" s="190"/>
-      <c r="AH182" s="190"/>
-      <c r="AI182" s="190"/>
-      <c r="AJ182" s="191"/>
+      <c r="AF182" s="181"/>
+      <c r="AG182" s="181"/>
+      <c r="AH182" s="181"/>
+      <c r="AI182" s="181"/>
+      <c r="AJ182" s="182"/>
       <c r="AP182" s="5"/>
       <c r="AQ182" s="2"/>
     </row>
@@ -14055,30 +14055,30 @@
       <c r="P183" s="149"/>
       <c r="Q183" s="149"/>
       <c r="R183" s="150"/>
-      <c r="S183" s="210" t="s">
+      <c r="S183" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="211"/>
-      <c r="U183" s="211"/>
-      <c r="V183" s="211"/>
-      <c r="W183" s="211"/>
-      <c r="X183" s="212"/>
-      <c r="Y183" s="210" t="s">
+      <c r="T183" s="190"/>
+      <c r="U183" s="190"/>
+      <c r="V183" s="190"/>
+      <c r="W183" s="190"/>
+      <c r="X183" s="191"/>
+      <c r="Y183" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="211"/>
-      <c r="AA183" s="211"/>
-      <c r="AB183" s="211"/>
-      <c r="AC183" s="211"/>
-      <c r="AD183" s="212"/>
-      <c r="AE183" s="210" t="s">
+      <c r="Z183" s="190"/>
+      <c r="AA183" s="190"/>
+      <c r="AB183" s="190"/>
+      <c r="AC183" s="190"/>
+      <c r="AD183" s="191"/>
+      <c r="AE183" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="211"/>
-      <c r="AG183" s="211"/>
-      <c r="AH183" s="211"/>
-      <c r="AI183" s="211"/>
-      <c r="AJ183" s="212"/>
+      <c r="AF183" s="190"/>
+      <c r="AG183" s="190"/>
+      <c r="AH183" s="190"/>
+      <c r="AI183" s="190"/>
+      <c r="AJ183" s="191"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -14100,30 +14100,30 @@
       <c r="P184" s="152"/>
       <c r="Q184" s="152"/>
       <c r="R184" s="153"/>
-      <c r="S184" s="243" t="s">
+      <c r="S184" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="244"/>
-      <c r="U184" s="244"/>
-      <c r="V184" s="244"/>
-      <c r="W184" s="244"/>
-      <c r="X184" s="245"/>
-      <c r="Y184" s="243" t="s">
+      <c r="T184" s="184"/>
+      <c r="U184" s="184"/>
+      <c r="V184" s="184"/>
+      <c r="W184" s="184"/>
+      <c r="X184" s="185"/>
+      <c r="Y184" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="244"/>
-      <c r="AA184" s="244"/>
-      <c r="AB184" s="244"/>
-      <c r="AC184" s="244"/>
-      <c r="AD184" s="245"/>
-      <c r="AE184" s="243" t="s">
+      <c r="Z184" s="184"/>
+      <c r="AA184" s="184"/>
+      <c r="AB184" s="184"/>
+      <c r="AC184" s="184"/>
+      <c r="AD184" s="185"/>
+      <c r="AE184" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="244"/>
-      <c r="AG184" s="244"/>
-      <c r="AH184" s="244"/>
-      <c r="AI184" s="244"/>
-      <c r="AJ184" s="245"/>
+      <c r="AF184" s="184"/>
+      <c r="AG184" s="184"/>
+      <c r="AH184" s="184"/>
+      <c r="AI184" s="184"/>
+      <c r="AJ184" s="185"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -16149,17 +16149,17 @@
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="207" t="s">
+      <c r="AD235" s="213" t="s">
         <v>239</v>
       </c>
-      <c r="AE235" s="208"/>
-      <c r="AF235" s="208"/>
-      <c r="AG235" s="208"/>
-      <c r="AH235" s="208"/>
-      <c r="AI235" s="208"/>
-      <c r="AJ235" s="208"/>
-      <c r="AK235" s="208"/>
-      <c r="AL235" s="209"/>
+      <c r="AE235" s="214"/>
+      <c r="AF235" s="214"/>
+      <c r="AG235" s="214"/>
+      <c r="AH235" s="214"/>
+      <c r="AI235" s="214"/>
+      <c r="AJ235" s="214"/>
+      <c r="AK235" s="214"/>
+      <c r="AL235" s="215"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -16247,21 +16247,21 @@
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="198" t="s">
+      <c r="AD237" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="199"/>
-      <c r="AF237" s="199"/>
-      <c r="AG237" s="200"/>
-      <c r="AH237" s="198" t="s">
+      <c r="AE237" s="235"/>
+      <c r="AF237" s="235"/>
+      <c r="AG237" s="236"/>
+      <c r="AH237" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="200"/>
-      <c r="AJ237" s="198" t="s">
+      <c r="AI237" s="236"/>
+      <c r="AJ237" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="199"/>
-      <c r="AL237" s="200"/>
+      <c r="AK237" s="235"/>
+      <c r="AL237" s="236"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -16298,15 +16298,15 @@
       <c r="AA238" s="92"/>
       <c r="AB238" s="92"/>
       <c r="AC238" s="128"/>
-      <c r="AD238" s="201"/>
-      <c r="AE238" s="202"/>
-      <c r="AF238" s="202"/>
-      <c r="AG238" s="203"/>
-      <c r="AH238" s="201"/>
-      <c r="AI238" s="203"/>
-      <c r="AJ238" s="201"/>
-      <c r="AK238" s="202"/>
-      <c r="AL238" s="203"/>
+      <c r="AD238" s="237"/>
+      <c r="AE238" s="238"/>
+      <c r="AF238" s="238"/>
+      <c r="AG238" s="239"/>
+      <c r="AH238" s="237"/>
+      <c r="AI238" s="239"/>
+      <c r="AJ238" s="237"/>
+      <c r="AK238" s="238"/>
+      <c r="AL238" s="239"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -16343,15 +16343,15 @@
       <c r="AA239" s="92"/>
       <c r="AB239" s="92"/>
       <c r="AC239" s="128"/>
-      <c r="AD239" s="201"/>
-      <c r="AE239" s="202"/>
-      <c r="AF239" s="202"/>
-      <c r="AG239" s="203"/>
-      <c r="AH239" s="201"/>
-      <c r="AI239" s="203"/>
-      <c r="AJ239" s="201"/>
-      <c r="AK239" s="202"/>
-      <c r="AL239" s="203"/>
+      <c r="AD239" s="237"/>
+      <c r="AE239" s="238"/>
+      <c r="AF239" s="238"/>
+      <c r="AG239" s="239"/>
+      <c r="AH239" s="237"/>
+      <c r="AI239" s="239"/>
+      <c r="AJ239" s="237"/>
+      <c r="AK239" s="238"/>
+      <c r="AL239" s="239"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -16388,15 +16388,15 @@
       <c r="AA240" s="113"/>
       <c r="AB240" s="113"/>
       <c r="AC240" s="121"/>
-      <c r="AD240" s="204"/>
-      <c r="AE240" s="205"/>
-      <c r="AF240" s="205"/>
-      <c r="AG240" s="206"/>
-      <c r="AH240" s="204"/>
-      <c r="AI240" s="206"/>
-      <c r="AJ240" s="204"/>
-      <c r="AK240" s="205"/>
-      <c r="AL240" s="206"/>
+      <c r="AD240" s="240"/>
+      <c r="AE240" s="241"/>
+      <c r="AF240" s="241"/>
+      <c r="AG240" s="242"/>
+      <c r="AH240" s="240"/>
+      <c r="AI240" s="242"/>
+      <c r="AJ240" s="240"/>
+      <c r="AK240" s="241"/>
+      <c r="AL240" s="242"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16435,21 +16435,21 @@
       <c r="AA241" s="117"/>
       <c r="AB241" s="117"/>
       <c r="AC241" s="173"/>
-      <c r="AD241" s="174" t="s">
+      <c r="AD241" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="175"/>
-      <c r="AF241" s="175"/>
-      <c r="AG241" s="176"/>
-      <c r="AH241" s="174" t="s">
+      <c r="AE241" s="244"/>
+      <c r="AF241" s="244"/>
+      <c r="AG241" s="245"/>
+      <c r="AH241" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="176"/>
-      <c r="AJ241" s="174" t="s">
+      <c r="AI241" s="245"/>
+      <c r="AJ241" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AK241" s="175"/>
-      <c r="AL241" s="176"/>
+      <c r="AK241" s="244"/>
+      <c r="AL241" s="245"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16486,15 +16486,15 @@
       <c r="AA242" s="119"/>
       <c r="AB242" s="119"/>
       <c r="AC242" s="120"/>
-      <c r="AD242" s="177"/>
-      <c r="AE242" s="178"/>
-      <c r="AF242" s="178"/>
-      <c r="AG242" s="179"/>
-      <c r="AH242" s="177"/>
-      <c r="AI242" s="179"/>
-      <c r="AJ242" s="177"/>
-      <c r="AK242" s="178"/>
-      <c r="AL242" s="179"/>
+      <c r="AD242" s="246"/>
+      <c r="AE242" s="247"/>
+      <c r="AF242" s="247"/>
+      <c r="AG242" s="248"/>
+      <c r="AH242" s="246"/>
+      <c r="AI242" s="248"/>
+      <c r="AJ242" s="246"/>
+      <c r="AK242" s="247"/>
+      <c r="AL242" s="248"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16531,15 +16531,15 @@
       <c r="AA243" s="119"/>
       <c r="AB243" s="119"/>
       <c r="AC243" s="120"/>
-      <c r="AD243" s="177"/>
-      <c r="AE243" s="178"/>
-      <c r="AF243" s="178"/>
-      <c r="AG243" s="179"/>
-      <c r="AH243" s="177"/>
-      <c r="AI243" s="179"/>
-      <c r="AJ243" s="177"/>
-      <c r="AK243" s="178"/>
-      <c r="AL243" s="179"/>
+      <c r="AD243" s="246"/>
+      <c r="AE243" s="247"/>
+      <c r="AF243" s="247"/>
+      <c r="AG243" s="248"/>
+      <c r="AH243" s="246"/>
+      <c r="AI243" s="248"/>
+      <c r="AJ243" s="246"/>
+      <c r="AK243" s="247"/>
+      <c r="AL243" s="248"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16576,15 +16576,15 @@
       <c r="AA244" s="113"/>
       <c r="AB244" s="113"/>
       <c r="AC244" s="121"/>
-      <c r="AD244" s="180"/>
-      <c r="AE244" s="181"/>
-      <c r="AF244" s="181"/>
-      <c r="AG244" s="182"/>
-      <c r="AH244" s="180"/>
-      <c r="AI244" s="182"/>
-      <c r="AJ244" s="180"/>
-      <c r="AK244" s="181"/>
-      <c r="AL244" s="182"/>
+      <c r="AD244" s="249"/>
+      <c r="AE244" s="250"/>
+      <c r="AF244" s="250"/>
+      <c r="AG244" s="251"/>
+      <c r="AH244" s="249"/>
+      <c r="AI244" s="251"/>
+      <c r="AJ244" s="249"/>
+      <c r="AK244" s="250"/>
+      <c r="AL244" s="251"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
       <c r="AP244" s="5"/>
@@ -16623,21 +16623,21 @@
       <c r="AA245" s="117"/>
       <c r="AB245" s="117"/>
       <c r="AC245" s="173"/>
-      <c r="AD245" s="174" t="s">
+      <c r="AD245" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AE245" s="175"/>
-      <c r="AF245" s="175"/>
-      <c r="AG245" s="176"/>
-      <c r="AH245" s="174" t="s">
+      <c r="AE245" s="244"/>
+      <c r="AF245" s="244"/>
+      <c r="AG245" s="245"/>
+      <c r="AH245" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AI245" s="176"/>
-      <c r="AJ245" s="174" t="s">
+      <c r="AI245" s="245"/>
+      <c r="AJ245" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AK245" s="175"/>
-      <c r="AL245" s="176"/>
+      <c r="AK245" s="244"/>
+      <c r="AL245" s="245"/>
       <c r="AM245" s="92"/>
       <c r="AN245" s="2"/>
       <c r="AP245" s="5"/>
@@ -16674,15 +16674,15 @@
       <c r="AA246" s="119"/>
       <c r="AB246" s="119"/>
       <c r="AC246" s="120"/>
-      <c r="AD246" s="177"/>
-      <c r="AE246" s="178"/>
-      <c r="AF246" s="178"/>
-      <c r="AG246" s="179"/>
-      <c r="AH246" s="177"/>
-      <c r="AI246" s="179"/>
-      <c r="AJ246" s="177"/>
-      <c r="AK246" s="178"/>
-      <c r="AL246" s="179"/>
+      <c r="AD246" s="246"/>
+      <c r="AE246" s="247"/>
+      <c r="AF246" s="247"/>
+      <c r="AG246" s="248"/>
+      <c r="AH246" s="246"/>
+      <c r="AI246" s="248"/>
+      <c r="AJ246" s="246"/>
+      <c r="AK246" s="247"/>
+      <c r="AL246" s="248"/>
       <c r="AM246" s="92"/>
       <c r="AN246" s="2"/>
       <c r="AP246" s="5"/>
@@ -16719,15 +16719,15 @@
       <c r="AA247" s="92"/>
       <c r="AB247" s="92"/>
       <c r="AC247" s="128"/>
-      <c r="AD247" s="177"/>
-      <c r="AE247" s="178"/>
-      <c r="AF247" s="178"/>
-      <c r="AG247" s="179"/>
-      <c r="AH247" s="177"/>
-      <c r="AI247" s="179"/>
-      <c r="AJ247" s="177"/>
-      <c r="AK247" s="178"/>
-      <c r="AL247" s="179"/>
+      <c r="AD247" s="246"/>
+      <c r="AE247" s="247"/>
+      <c r="AF247" s="247"/>
+      <c r="AG247" s="248"/>
+      <c r="AH247" s="246"/>
+      <c r="AI247" s="248"/>
+      <c r="AJ247" s="246"/>
+      <c r="AK247" s="247"/>
+      <c r="AL247" s="248"/>
       <c r="AM247" s="92"/>
       <c r="AN247" s="2"/>
       <c r="AP247" s="5"/>
@@ -16764,15 +16764,15 @@
       <c r="AA248" s="113"/>
       <c r="AB248" s="113"/>
       <c r="AC248" s="121"/>
-      <c r="AD248" s="180"/>
-      <c r="AE248" s="181"/>
-      <c r="AF248" s="181"/>
-      <c r="AG248" s="182"/>
-      <c r="AH248" s="180"/>
-      <c r="AI248" s="182"/>
-      <c r="AJ248" s="180"/>
-      <c r="AK248" s="181"/>
-      <c r="AL248" s="182"/>
+      <c r="AD248" s="249"/>
+      <c r="AE248" s="250"/>
+      <c r="AF248" s="250"/>
+      <c r="AG248" s="251"/>
+      <c r="AH248" s="249"/>
+      <c r="AI248" s="251"/>
+      <c r="AJ248" s="249"/>
+      <c r="AK248" s="250"/>
+      <c r="AL248" s="251"/>
       <c r="AM248" s="92"/>
       <c r="AN248" s="2"/>
       <c r="AP248" s="5"/>
@@ -16811,21 +16811,21 @@
       <c r="AA249" s="117"/>
       <c r="AB249" s="117"/>
       <c r="AC249" s="173"/>
-      <c r="AD249" s="174" t="s">
+      <c r="AD249" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AE249" s="175"/>
-      <c r="AF249" s="175"/>
-      <c r="AG249" s="176"/>
-      <c r="AH249" s="174" t="s">
+      <c r="AE249" s="244"/>
+      <c r="AF249" s="244"/>
+      <c r="AG249" s="245"/>
+      <c r="AH249" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AI249" s="176"/>
-      <c r="AJ249" s="174" t="s">
+      <c r="AI249" s="245"/>
+      <c r="AJ249" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AK249" s="175"/>
-      <c r="AL249" s="176"/>
+      <c r="AK249" s="244"/>
+      <c r="AL249" s="245"/>
       <c r="AM249" s="92"/>
       <c r="AN249" s="2"/>
       <c r="AP249" s="5"/>
@@ -16862,15 +16862,15 @@
       <c r="AA250" s="113"/>
       <c r="AB250" s="113"/>
       <c r="AC250" s="121"/>
-      <c r="AD250" s="180"/>
-      <c r="AE250" s="181"/>
-      <c r="AF250" s="181"/>
-      <c r="AG250" s="182"/>
-      <c r="AH250" s="180"/>
-      <c r="AI250" s="182"/>
-      <c r="AJ250" s="180"/>
-      <c r="AK250" s="181"/>
-      <c r="AL250" s="182"/>
+      <c r="AD250" s="249"/>
+      <c r="AE250" s="250"/>
+      <c r="AF250" s="250"/>
+      <c r="AG250" s="251"/>
+      <c r="AH250" s="249"/>
+      <c r="AI250" s="251"/>
+      <c r="AJ250" s="249"/>
+      <c r="AK250" s="250"/>
+      <c r="AL250" s="251"/>
       <c r="AM250" s="92"/>
       <c r="AN250" s="2"/>
       <c r="AP250" s="5"/>
@@ -17084,17 +17084,17 @@
       <c r="AA255" s="62"/>
       <c r="AB255" s="62"/>
       <c r="AC255" s="63"/>
-      <c r="AD255" s="207" t="s">
+      <c r="AD255" s="213" t="s">
         <v>239</v>
       </c>
-      <c r="AE255" s="208"/>
-      <c r="AF255" s="208"/>
-      <c r="AG255" s="208"/>
-      <c r="AH255" s="208"/>
-      <c r="AI255" s="208"/>
-      <c r="AJ255" s="208"/>
-      <c r="AK255" s="208"/>
-      <c r="AL255" s="209"/>
+      <c r="AE255" s="214"/>
+      <c r="AF255" s="214"/>
+      <c r="AG255" s="214"/>
+      <c r="AH255" s="214"/>
+      <c r="AI255" s="214"/>
+      <c r="AJ255" s="214"/>
+      <c r="AK255" s="214"/>
+      <c r="AL255" s="215"/>
       <c r="AM255" s="92"/>
       <c r="AN255" s="2"/>
       <c r="AP255" s="5"/>
@@ -17186,21 +17186,21 @@
       <c r="AA257" s="100"/>
       <c r="AB257" s="100"/>
       <c r="AC257" s="104"/>
-      <c r="AD257" s="231" t="s">
+      <c r="AD257" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AE257" s="237"/>
-      <c r="AF257" s="237"/>
-      <c r="AG257" s="232"/>
-      <c r="AH257" s="231" t="s">
+      <c r="AE257" s="208"/>
+      <c r="AF257" s="208"/>
+      <c r="AG257" s="205"/>
+      <c r="AH257" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AI257" s="232"/>
-      <c r="AJ257" s="231" t="s">
+      <c r="AI257" s="205"/>
+      <c r="AJ257" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AK257" s="237"/>
-      <c r="AL257" s="232"/>
+      <c r="AK257" s="208"/>
+      <c r="AL257" s="205"/>
       <c r="AM257" s="92"/>
       <c r="AN257" s="2"/>
       <c r="AP257" s="5"/>
@@ -17238,15 +17238,15 @@
       <c r="AA258" s="99"/>
       <c r="AB258" s="99"/>
       <c r="AC258" s="103"/>
-      <c r="AD258" s="233"/>
-      <c r="AE258" s="238"/>
-      <c r="AF258" s="238"/>
-      <c r="AG258" s="234"/>
-      <c r="AH258" s="233"/>
-      <c r="AI258" s="234"/>
-      <c r="AJ258" s="233"/>
-      <c r="AK258" s="238"/>
-      <c r="AL258" s="234"/>
+      <c r="AD258" s="206"/>
+      <c r="AE258" s="209"/>
+      <c r="AF258" s="209"/>
+      <c r="AG258" s="207"/>
+      <c r="AH258" s="206"/>
+      <c r="AI258" s="207"/>
+      <c r="AJ258" s="206"/>
+      <c r="AK258" s="209"/>
+      <c r="AL258" s="207"/>
       <c r="AM258" s="92"/>
       <c r="AN258" s="2"/>
       <c r="AP258" s="5"/>
@@ -17286,21 +17286,21 @@
       <c r="AA259" s="98"/>
       <c r="AB259" s="98"/>
       <c r="AC259" s="102"/>
-      <c r="AD259" s="231" t="s">
+      <c r="AD259" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AE259" s="237"/>
-      <c r="AF259" s="237"/>
-      <c r="AG259" s="232"/>
-      <c r="AH259" s="231" t="s">
+      <c r="AE259" s="208"/>
+      <c r="AF259" s="208"/>
+      <c r="AG259" s="205"/>
+      <c r="AH259" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AI259" s="232"/>
-      <c r="AJ259" s="231" t="s">
+      <c r="AI259" s="205"/>
+      <c r="AJ259" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AK259" s="237"/>
-      <c r="AL259" s="232"/>
+      <c r="AK259" s="208"/>
+      <c r="AL259" s="205"/>
       <c r="AM259" s="92"/>
       <c r="AN259" s="2"/>
       <c r="AP259" s="5"/>
@@ -17340,21 +17340,21 @@
       <c r="AA260" s="105"/>
       <c r="AB260" s="105"/>
       <c r="AC260" s="116"/>
-      <c r="AD260" s="235" t="s">
+      <c r="AD260" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE260" s="239"/>
-      <c r="AF260" s="239"/>
-      <c r="AG260" s="236"/>
-      <c r="AH260" s="235" t="s">
+      <c r="AE260" s="193"/>
+      <c r="AF260" s="193"/>
+      <c r="AG260" s="194"/>
+      <c r="AH260" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI260" s="236"/>
-      <c r="AJ260" s="235" t="s">
+      <c r="AI260" s="194"/>
+      <c r="AJ260" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK260" s="239"/>
-      <c r="AL260" s="236"/>
+      <c r="AK260" s="193"/>
+      <c r="AL260" s="194"/>
       <c r="AM260" s="92"/>
       <c r="AN260" s="2"/>
       <c r="AP260" s="5"/>
@@ -17396,21 +17396,21 @@
       <c r="AA261" s="105"/>
       <c r="AB261" s="105"/>
       <c r="AC261" s="116"/>
-      <c r="AD261" s="235" t="s">
+      <c r="AD261" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE261" s="239"/>
-      <c r="AF261" s="239"/>
-      <c r="AG261" s="236"/>
-      <c r="AH261" s="235" t="s">
+      <c r="AE261" s="193"/>
+      <c r="AF261" s="193"/>
+      <c r="AG261" s="194"/>
+      <c r="AH261" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI261" s="236"/>
-      <c r="AJ261" s="235" t="s">
+      <c r="AI261" s="194"/>
+      <c r="AJ261" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AK261" s="239"/>
-      <c r="AL261" s="236"/>
+      <c r="AK261" s="193"/>
+      <c r="AL261" s="194"/>
       <c r="AM261" s="92"/>
       <c r="AN261" s="2"/>
       <c r="AP261" s="5"/>
@@ -17450,21 +17450,21 @@
       <c r="AA262" s="105"/>
       <c r="AB262" s="105"/>
       <c r="AC262" s="116"/>
-      <c r="AD262" s="235" t="s">
+      <c r="AD262" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AE262" s="239"/>
-      <c r="AF262" s="239"/>
-      <c r="AG262" s="236"/>
-      <c r="AH262" s="235" t="s">
+      <c r="AE262" s="193"/>
+      <c r="AF262" s="193"/>
+      <c r="AG262" s="194"/>
+      <c r="AH262" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AI262" s="236"/>
-      <c r="AJ262" s="235" t="s">
+      <c r="AI262" s="194"/>
+      <c r="AJ262" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK262" s="239"/>
-      <c r="AL262" s="236"/>
+      <c r="AK262" s="193"/>
+      <c r="AL262" s="194"/>
       <c r="AM262" s="92"/>
       <c r="AN262" s="2"/>
       <c r="AP262" s="5"/>
@@ -17504,21 +17504,21 @@
       <c r="AA263" s="105"/>
       <c r="AB263" s="105"/>
       <c r="AC263" s="116"/>
-      <c r="AD263" s="240" t="s">
+      <c r="AD263" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="AE263" s="241"/>
-      <c r="AF263" s="241"/>
-      <c r="AG263" s="242"/>
-      <c r="AH263" s="240" t="s">
+      <c r="AE263" s="211"/>
+      <c r="AF263" s="211"/>
+      <c r="AG263" s="212"/>
+      <c r="AH263" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="AI263" s="242"/>
-      <c r="AJ263" s="235" t="s">
+      <c r="AI263" s="212"/>
+      <c r="AJ263" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="AK263" s="239"/>
-      <c r="AL263" s="236"/>
+      <c r="AK263" s="193"/>
+      <c r="AL263" s="194"/>
       <c r="AM263" s="92"/>
       <c r="AN263" s="2"/>
       <c r="AP263" s="5"/>
@@ -17560,21 +17560,21 @@
       <c r="AA264" s="98"/>
       <c r="AB264" s="98"/>
       <c r="AC264" s="102"/>
-      <c r="AD264" s="213" t="s">
+      <c r="AD264" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AE264" s="214"/>
-      <c r="AF264" s="214"/>
-      <c r="AG264" s="215"/>
-      <c r="AH264" s="213" t="s">
+      <c r="AE264" s="199"/>
+      <c r="AF264" s="199"/>
+      <c r="AG264" s="200"/>
+      <c r="AH264" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AI264" s="215"/>
-      <c r="AJ264" s="213" t="s">
+      <c r="AI264" s="200"/>
+      <c r="AJ264" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AK264" s="214"/>
-      <c r="AL264" s="215"/>
+      <c r="AK264" s="199"/>
+      <c r="AL264" s="200"/>
       <c r="AM264" s="92"/>
       <c r="AN264" s="2"/>
       <c r="AP264" s="5"/>
@@ -18176,17 +18176,192 @@
     </row>
   </sheetData>
   <mergeCells count="234">
-    <mergeCell ref="Y129:AD129"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="AH245:AI248"/>
+    <mergeCell ref="AJ245:AL248"/>
+    <mergeCell ref="AJ249:AL250"/>
+    <mergeCell ref="AH249:AI250"/>
+    <mergeCell ref="AD249:AG250"/>
+    <mergeCell ref="AD241:AG244"/>
+    <mergeCell ref="AH241:AI244"/>
+    <mergeCell ref="AJ241:AL244"/>
+    <mergeCell ref="Y137:AD137"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AD237:AG240"/>
+    <mergeCell ref="AJ237:AL240"/>
+    <mergeCell ref="AH237:AI240"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="S183:X183"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="AE155:AJ155"/>
+    <mergeCell ref="Y132:AD132"/>
+    <mergeCell ref="Y134:AD134"/>
+    <mergeCell ref="Y135:AD135"/>
+    <mergeCell ref="Y136:AD136"/>
+    <mergeCell ref="Y130:AD130"/>
+    <mergeCell ref="Y131:AD131"/>
+    <mergeCell ref="Y145:AD145"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="Y133:AD133"/>
+    <mergeCell ref="Y138:AD138"/>
+    <mergeCell ref="Y139:AD139"/>
+    <mergeCell ref="Y140:AD140"/>
+    <mergeCell ref="Y141:AD141"/>
+    <mergeCell ref="Y142:AD142"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AD264:AG264"/>
+    <mergeCell ref="AH257:AI257"/>
+    <mergeCell ref="AH258:AI258"/>
+    <mergeCell ref="AH259:AI259"/>
+    <mergeCell ref="AH260:AI260"/>
+    <mergeCell ref="AH261:AI261"/>
+    <mergeCell ref="AH262:AI262"/>
+    <mergeCell ref="AH264:AI264"/>
+    <mergeCell ref="AJ257:AL257"/>
+    <mergeCell ref="AJ258:AL258"/>
+    <mergeCell ref="AJ259:AL259"/>
+    <mergeCell ref="AJ260:AL260"/>
+    <mergeCell ref="AJ261:AL261"/>
+    <mergeCell ref="AJ262:AL262"/>
+    <mergeCell ref="AJ264:AL264"/>
+    <mergeCell ref="AD263:AG263"/>
+    <mergeCell ref="AH263:AI263"/>
+    <mergeCell ref="AJ263:AL263"/>
+    <mergeCell ref="AD255:AL255"/>
+    <mergeCell ref="AD257:AG257"/>
+    <mergeCell ref="AD258:AG258"/>
+    <mergeCell ref="AD259:AG259"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AD261:AG261"/>
+    <mergeCell ref="AD262:AG262"/>
+    <mergeCell ref="AD245:AG248"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="S166:X166"/>
     <mergeCell ref="AE149:AJ149"/>
     <mergeCell ref="Y149:AD149"/>
     <mergeCell ref="S184:X184"/>
@@ -18211,81 +18386,17 @@
     <mergeCell ref="S162:X162"/>
     <mergeCell ref="S174:X174"/>
     <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AD261:AG261"/>
-    <mergeCell ref="AD262:AG262"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AD264:AG264"/>
-    <mergeCell ref="AH257:AI257"/>
-    <mergeCell ref="AH258:AI258"/>
-    <mergeCell ref="AH259:AI259"/>
-    <mergeCell ref="AH260:AI260"/>
-    <mergeCell ref="AH261:AI261"/>
-    <mergeCell ref="AH262:AI262"/>
-    <mergeCell ref="AH264:AI264"/>
-    <mergeCell ref="AJ257:AL257"/>
-    <mergeCell ref="AJ258:AL258"/>
-    <mergeCell ref="AJ259:AL259"/>
-    <mergeCell ref="AJ260:AL260"/>
-    <mergeCell ref="AJ261:AL261"/>
-    <mergeCell ref="AJ262:AL262"/>
-    <mergeCell ref="AJ264:AL264"/>
-    <mergeCell ref="AD263:AG263"/>
-    <mergeCell ref="AH263:AI263"/>
-    <mergeCell ref="AJ263:AL263"/>
-    <mergeCell ref="AD255:AL255"/>
-    <mergeCell ref="AD257:AG257"/>
-    <mergeCell ref="AD258:AG258"/>
-    <mergeCell ref="AD259:AG259"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="Y129:AD129"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y150:AD150"/>
     <mergeCell ref="S156:X156"/>
     <mergeCell ref="S157:X157"/>
     <mergeCell ref="S130:X130"/>
@@ -18297,119 +18408,8 @@
     <mergeCell ref="S135:X135"/>
     <mergeCell ref="S133:X133"/>
     <mergeCell ref="Y148:AD148"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="Y156:AD156"/>
     <mergeCell ref="S158:X158"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="Y132:AD132"/>
-    <mergeCell ref="Y134:AD134"/>
-    <mergeCell ref="Y135:AD135"/>
-    <mergeCell ref="Y136:AD136"/>
-    <mergeCell ref="Y130:AD130"/>
-    <mergeCell ref="Y131:AD131"/>
     <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="Y145:AD145"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="Y133:AD133"/>
-    <mergeCell ref="Y138:AD138"/>
-    <mergeCell ref="Y139:AD139"/>
-    <mergeCell ref="Y140:AD140"/>
-    <mergeCell ref="Y141:AD141"/>
-    <mergeCell ref="Y142:AD142"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AD237:AG240"/>
-    <mergeCell ref="AJ237:AL240"/>
-    <mergeCell ref="AH237:AI240"/>
-    <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="S183:X183"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="AD245:AG248"/>
-    <mergeCell ref="AH245:AI248"/>
-    <mergeCell ref="AJ245:AL248"/>
-    <mergeCell ref="AJ249:AL250"/>
-    <mergeCell ref="AH249:AI250"/>
-    <mergeCell ref="AD249:AG250"/>
-    <mergeCell ref="AD241:AG244"/>
-    <mergeCell ref="AH241:AI244"/>
-    <mergeCell ref="AJ241:AL244"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -3283,7 +3283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3305,12 +3305,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4523,7 +4517,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4692,18 +4686,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4733,22 +4727,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4769,13 +4754,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4785,15 +4797,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4859,15 +4862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4893,33 +4887,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5022,8 +4989,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3162300" y="15468600"/>
-          <a:ext cx="1714500" cy="1981200"/>
+          <a:off x="3619500" y="15468600"/>
+          <a:ext cx="1981200" cy="1981200"/>
           <a:chOff x="3479800" y="21310600"/>
           <a:chExt cx="1981200" cy="1981200"/>
         </a:xfrm>
@@ -5141,8 +5108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5867400" y="15468600"/>
-          <a:ext cx="1752600" cy="1981200"/>
+          <a:off x="6743700" y="15468600"/>
+          <a:ext cx="1981200" cy="1981200"/>
           <a:chOff x="6743700" y="21310600"/>
           <a:chExt cx="1981200" cy="1981200"/>
         </a:xfrm>
@@ -6509,12 +6476,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" style="69" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,21 +7228,21 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.33203125" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="16384" width="3.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="221"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>72</v>
@@ -7286,53 +7253,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="228" t="s">
+      <c r="P1" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="230"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="232"/>
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
       <c r="AA1" s="44" t="s">
         <v>67</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="225">
+      <c r="AD1" s="228">
         <v>42760</v>
       </c>
-      <c r="AE1" s="226"/>
-      <c r="AF1" s="226"/>
-      <c r="AG1" s="226"/>
-      <c r="AH1" s="227"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="230"/>
       <c r="AI1" s="44" t="s">
         <v>69</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="216" t="s">
+      <c r="AL1" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="217"/>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="218"/>
+      <c r="AM1" s="220"/>
+      <c r="AN1" s="220"/>
+      <c r="AO1" s="220"/>
+      <c r="AP1" s="221"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="222"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="224"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="227"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>73</v>
@@ -7343,41 +7310,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="229"/>
-      <c r="V2" s="229"/>
-      <c r="W2" s="229"/>
-      <c r="X2" s="229"/>
-      <c r="Y2" s="229"/>
-      <c r="Z2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="232"/>
+      <c r="Z2" s="233"/>
       <c r="AA2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="225">
+      <c r="AD2" s="228">
         <v>42991</v>
       </c>
-      <c r="AE2" s="226"/>
-      <c r="AF2" s="226"/>
-      <c r="AG2" s="226"/>
-      <c r="AH2" s="227"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="229"/>
+      <c r="AG2" s="229"/>
+      <c r="AH2" s="230"/>
       <c r="AI2" s="44" t="s">
         <v>70</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="216" t="s">
+      <c r="AL2" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" s="217"/>
-      <c r="AN2" s="217"/>
-      <c r="AO2" s="217"/>
-      <c r="AP2" s="218"/>
+      <c r="AM2" s="220"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
+      <c r="AP2" s="221"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7915,27 +7882,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="198" t="s">
+      <c r="L19" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
-      <c r="U19" s="199"/>
-      <c r="V19" s="199"/>
-      <c r="W19" s="199"/>
-      <c r="X19" s="199"/>
-      <c r="Y19" s="199"/>
-      <c r="Z19" s="199"/>
-      <c r="AA19" s="199"/>
-      <c r="AB19" s="199"/>
-      <c r="AC19" s="199"/>
-      <c r="AD19" s="200"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="205"/>
+      <c r="W19" s="205"/>
+      <c r="X19" s="205"/>
+      <c r="Y19" s="205"/>
+      <c r="Z19" s="205"/>
+      <c r="AA19" s="205"/>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="205"/>
+      <c r="AD19" s="206"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7951,27 +7918,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="198" t="s">
+      <c r="L20" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="199"/>
-      <c r="N20" s="199"/>
-      <c r="O20" s="199"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="199"/>
-      <c r="S20" s="199"/>
-      <c r="T20" s="199"/>
-      <c r="U20" s="199"/>
-      <c r="V20" s="199"/>
-      <c r="W20" s="199"/>
-      <c r="X20" s="199"/>
-      <c r="Y20" s="199"/>
-      <c r="Z20" s="199"/>
-      <c r="AA20" s="199"/>
-      <c r="AB20" s="199"/>
-      <c r="AC20" s="199"/>
-      <c r="AD20" s="200"/>
+      <c r="M20" s="205"/>
+      <c r="N20" s="205"/>
+      <c r="O20" s="205"/>
+      <c r="P20" s="205"/>
+      <c r="Q20" s="205"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
+      <c r="W20" s="205"/>
+      <c r="X20" s="205"/>
+      <c r="Y20" s="205"/>
+      <c r="Z20" s="205"/>
+      <c r="AA20" s="205"/>
+      <c r="AB20" s="205"/>
+      <c r="AC20" s="205"/>
+      <c r="AD20" s="206"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7987,27 +7954,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="198" t="s">
+      <c r="L21" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="199"/>
-      <c r="N21" s="199"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
-      <c r="W21" s="199"/>
-      <c r="X21" s="199"/>
-      <c r="Y21" s="199"/>
-      <c r="Z21" s="199"/>
-      <c r="AA21" s="199"/>
-      <c r="AB21" s="199"/>
-      <c r="AC21" s="199"/>
-      <c r="AD21" s="200"/>
+      <c r="M21" s="205"/>
+      <c r="N21" s="205"/>
+      <c r="O21" s="205"/>
+      <c r="P21" s="205"/>
+      <c r="Q21" s="205"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="205"/>
+      <c r="T21" s="205"/>
+      <c r="U21" s="205"/>
+      <c r="V21" s="205"/>
+      <c r="W21" s="205"/>
+      <c r="X21" s="205"/>
+      <c r="Y21" s="205"/>
+      <c r="Z21" s="205"/>
+      <c r="AA21" s="205"/>
+      <c r="AB21" s="205"/>
+      <c r="AC21" s="205"/>
+      <c r="AD21" s="206"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -8461,27 +8428,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="213" t="s">
+      <c r="L40" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="214"/>
-      <c r="P40" s="214"/>
-      <c r="Q40" s="214"/>
-      <c r="R40" s="214"/>
-      <c r="S40" s="214"/>
-      <c r="T40" s="214"/>
-      <c r="U40" s="214"/>
-      <c r="V40" s="214"/>
-      <c r="W40" s="214"/>
-      <c r="X40" s="214"/>
-      <c r="Y40" s="214"/>
-      <c r="Z40" s="214"/>
-      <c r="AA40" s="214"/>
-      <c r="AB40" s="214"/>
-      <c r="AC40" s="214"/>
-      <c r="AD40" s="215"/>
+      <c r="M40" s="217"/>
+      <c r="N40" s="217"/>
+      <c r="O40" s="217"/>
+      <c r="P40" s="217"/>
+      <c r="Q40" s="217"/>
+      <c r="R40" s="217"/>
+      <c r="S40" s="217"/>
+      <c r="T40" s="217"/>
+      <c r="U40" s="217"/>
+      <c r="V40" s="217"/>
+      <c r="W40" s="217"/>
+      <c r="X40" s="217"/>
+      <c r="Y40" s="217"/>
+      <c r="Z40" s="217"/>
+      <c r="AA40" s="217"/>
+      <c r="AB40" s="217"/>
+      <c r="AC40" s="217"/>
+      <c r="AD40" s="218"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8497,27 +8464,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="198" t="s">
+      <c r="L41" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="199"/>
-      <c r="N41" s="199"/>
-      <c r="O41" s="199"/>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="199"/>
-      <c r="R41" s="199"/>
-      <c r="S41" s="199"/>
-      <c r="T41" s="199"/>
-      <c r="U41" s="199"/>
-      <c r="V41" s="199"/>
-      <c r="W41" s="199"/>
-      <c r="X41" s="199"/>
-      <c r="Y41" s="199"/>
-      <c r="Z41" s="199"/>
-      <c r="AA41" s="199"/>
-      <c r="AB41" s="199"/>
-      <c r="AC41" s="199"/>
-      <c r="AD41" s="200"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="205"/>
+      <c r="O41" s="205"/>
+      <c r="P41" s="205"/>
+      <c r="Q41" s="205"/>
+      <c r="R41" s="205"/>
+      <c r="S41" s="205"/>
+      <c r="T41" s="205"/>
+      <c r="U41" s="205"/>
+      <c r="V41" s="205"/>
+      <c r="W41" s="205"/>
+      <c r="X41" s="205"/>
+      <c r="Y41" s="205"/>
+      <c r="Z41" s="205"/>
+      <c r="AA41" s="205"/>
+      <c r="AB41" s="205"/>
+      <c r="AC41" s="205"/>
+      <c r="AD41" s="206"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8533,27 +8500,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="198" t="s">
+      <c r="L42" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="199"/>
-      <c r="N42" s="199"/>
-      <c r="O42" s="199"/>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="199"/>
-      <c r="R42" s="199"/>
-      <c r="S42" s="199"/>
-      <c r="T42" s="199"/>
-      <c r="U42" s="199"/>
-      <c r="V42" s="199"/>
-      <c r="W42" s="199"/>
-      <c r="X42" s="199"/>
-      <c r="Y42" s="199"/>
-      <c r="Z42" s="199"/>
-      <c r="AA42" s="199"/>
-      <c r="AB42" s="199"/>
-      <c r="AC42" s="199"/>
-      <c r="AD42" s="200"/>
+      <c r="M42" s="205"/>
+      <c r="N42" s="205"/>
+      <c r="O42" s="205"/>
+      <c r="P42" s="205"/>
+      <c r="Q42" s="205"/>
+      <c r="R42" s="205"/>
+      <c r="S42" s="205"/>
+      <c r="T42" s="205"/>
+      <c r="U42" s="205"/>
+      <c r="V42" s="205"/>
+      <c r="W42" s="205"/>
+      <c r="X42" s="205"/>
+      <c r="Y42" s="205"/>
+      <c r="Z42" s="205"/>
+      <c r="AA42" s="205"/>
+      <c r="AB42" s="205"/>
+      <c r="AC42" s="205"/>
+      <c r="AD42" s="206"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8569,27 +8536,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="198" t="s">
+      <c r="L43" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="M43" s="199"/>
-      <c r="N43" s="199"/>
-      <c r="O43" s="199"/>
-      <c r="P43" s="199"/>
-      <c r="Q43" s="199"/>
-      <c r="R43" s="199"/>
-      <c r="S43" s="199"/>
-      <c r="T43" s="199"/>
-      <c r="U43" s="199"/>
-      <c r="V43" s="199"/>
-      <c r="W43" s="199"/>
-      <c r="X43" s="199"/>
-      <c r="Y43" s="199"/>
-      <c r="Z43" s="199"/>
-      <c r="AA43" s="199"/>
-      <c r="AB43" s="199"/>
-      <c r="AC43" s="199"/>
-      <c r="AD43" s="200"/>
+      <c r="M43" s="205"/>
+      <c r="N43" s="205"/>
+      <c r="O43" s="205"/>
+      <c r="P43" s="205"/>
+      <c r="Q43" s="205"/>
+      <c r="R43" s="205"/>
+      <c r="S43" s="205"/>
+      <c r="T43" s="205"/>
+      <c r="U43" s="205"/>
+      <c r="V43" s="205"/>
+      <c r="W43" s="205"/>
+      <c r="X43" s="205"/>
+      <c r="Y43" s="205"/>
+      <c r="Z43" s="205"/>
+      <c r="AA43" s="205"/>
+      <c r="AB43" s="205"/>
+      <c r="AC43" s="205"/>
+      <c r="AD43" s="206"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8605,27 +8572,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="198" t="s">
+      <c r="L44" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="199"/>
-      <c r="N44" s="199"/>
-      <c r="O44" s="199"/>
-      <c r="P44" s="199"/>
-      <c r="Q44" s="199"/>
-      <c r="R44" s="199"/>
-      <c r="S44" s="199"/>
-      <c r="T44" s="199"/>
-      <c r="U44" s="199"/>
-      <c r="V44" s="199"/>
-      <c r="W44" s="199"/>
-      <c r="X44" s="199"/>
-      <c r="Y44" s="199"/>
-      <c r="Z44" s="199"/>
-      <c r="AA44" s="199"/>
-      <c r="AB44" s="199"/>
-      <c r="AC44" s="199"/>
-      <c r="AD44" s="200"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="205"/>
+      <c r="O44" s="205"/>
+      <c r="P44" s="205"/>
+      <c r="Q44" s="205"/>
+      <c r="R44" s="205"/>
+      <c r="S44" s="205"/>
+      <c r="T44" s="205"/>
+      <c r="U44" s="205"/>
+      <c r="V44" s="205"/>
+      <c r="W44" s="205"/>
+      <c r="X44" s="205"/>
+      <c r="Y44" s="205"/>
+      <c r="Z44" s="205"/>
+      <c r="AA44" s="205"/>
+      <c r="AB44" s="205"/>
+      <c r="AC44" s="205"/>
+      <c r="AD44" s="206"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8641,27 +8608,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="198" t="s">
+      <c r="L45" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="199"/>
-      <c r="N45" s="199"/>
-      <c r="O45" s="199"/>
-      <c r="P45" s="199"/>
-      <c r="Q45" s="199"/>
-      <c r="R45" s="199"/>
-      <c r="S45" s="199"/>
-      <c r="T45" s="199"/>
-      <c r="U45" s="199"/>
-      <c r="V45" s="199"/>
-      <c r="W45" s="199"/>
-      <c r="X45" s="199"/>
-      <c r="Y45" s="199"/>
-      <c r="Z45" s="199"/>
-      <c r="AA45" s="199"/>
-      <c r="AB45" s="199"/>
-      <c r="AC45" s="199"/>
-      <c r="AD45" s="200"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="205"/>
+      <c r="O45" s="205"/>
+      <c r="P45" s="205"/>
+      <c r="Q45" s="205"/>
+      <c r="R45" s="205"/>
+      <c r="S45" s="205"/>
+      <c r="T45" s="205"/>
+      <c r="U45" s="205"/>
+      <c r="V45" s="205"/>
+      <c r="W45" s="205"/>
+      <c r="X45" s="205"/>
+      <c r="Y45" s="205"/>
+      <c r="Z45" s="205"/>
+      <c r="AA45" s="205"/>
+      <c r="AB45" s="205"/>
+      <c r="AC45" s="205"/>
+      <c r="AD45" s="206"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8736,27 +8703,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="213" t="s">
+      <c r="L48" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="214"/>
-      <c r="N48" s="214"/>
-      <c r="O48" s="214"/>
-      <c r="P48" s="214"/>
-      <c r="Q48" s="214"/>
-      <c r="R48" s="214"/>
-      <c r="S48" s="214"/>
-      <c r="T48" s="214"/>
-      <c r="U48" s="214"/>
-      <c r="V48" s="214"/>
-      <c r="W48" s="214"/>
-      <c r="X48" s="214"/>
-      <c r="Y48" s="214"/>
-      <c r="Z48" s="214"/>
-      <c r="AA48" s="214"/>
-      <c r="AB48" s="214"/>
-      <c r="AC48" s="214"/>
-      <c r="AD48" s="215"/>
+      <c r="M48" s="217"/>
+      <c r="N48" s="217"/>
+      <c r="O48" s="217"/>
+      <c r="P48" s="217"/>
+      <c r="Q48" s="217"/>
+      <c r="R48" s="217"/>
+      <c r="S48" s="217"/>
+      <c r="T48" s="217"/>
+      <c r="U48" s="217"/>
+      <c r="V48" s="217"/>
+      <c r="W48" s="217"/>
+      <c r="X48" s="217"/>
+      <c r="Y48" s="217"/>
+      <c r="Z48" s="217"/>
+      <c r="AA48" s="217"/>
+      <c r="AB48" s="217"/>
+      <c r="AC48" s="217"/>
+      <c r="AD48" s="218"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8770,27 +8737,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="198" t="s">
+      <c r="L49" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="M49" s="199"/>
-      <c r="N49" s="199"/>
-      <c r="O49" s="199"/>
-      <c r="P49" s="199"/>
-      <c r="Q49" s="199"/>
-      <c r="R49" s="199"/>
-      <c r="S49" s="199"/>
-      <c r="T49" s="199"/>
-      <c r="U49" s="199"/>
-      <c r="V49" s="199"/>
-      <c r="W49" s="199"/>
-      <c r="X49" s="199"/>
-      <c r="Y49" s="199"/>
-      <c r="Z49" s="199"/>
-      <c r="AA49" s="199"/>
-      <c r="AB49" s="199"/>
-      <c r="AC49" s="199"/>
-      <c r="AD49" s="200"/>
+      <c r="M49" s="205"/>
+      <c r="N49" s="205"/>
+      <c r="O49" s="205"/>
+      <c r="P49" s="205"/>
+      <c r="Q49" s="205"/>
+      <c r="R49" s="205"/>
+      <c r="S49" s="205"/>
+      <c r="T49" s="205"/>
+      <c r="U49" s="205"/>
+      <c r="V49" s="205"/>
+      <c r="W49" s="205"/>
+      <c r="X49" s="205"/>
+      <c r="Y49" s="205"/>
+      <c r="Z49" s="205"/>
+      <c r="AA49" s="205"/>
+      <c r="AB49" s="205"/>
+      <c r="AC49" s="205"/>
+      <c r="AD49" s="206"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8804,27 +8771,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="198" t="s">
+      <c r="L50" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="M50" s="199"/>
-      <c r="N50" s="199"/>
-      <c r="O50" s="199"/>
-      <c r="P50" s="199"/>
-      <c r="Q50" s="199"/>
-      <c r="R50" s="199"/>
-      <c r="S50" s="199"/>
-      <c r="T50" s="199"/>
-      <c r="U50" s="199"/>
-      <c r="V50" s="199"/>
-      <c r="W50" s="199"/>
-      <c r="X50" s="199"/>
-      <c r="Y50" s="199"/>
-      <c r="Z50" s="199"/>
-      <c r="AA50" s="199"/>
-      <c r="AB50" s="199"/>
-      <c r="AC50" s="199"/>
-      <c r="AD50" s="200"/>
+      <c r="M50" s="205"/>
+      <c r="N50" s="205"/>
+      <c r="O50" s="205"/>
+      <c r="P50" s="205"/>
+      <c r="Q50" s="205"/>
+      <c r="R50" s="205"/>
+      <c r="S50" s="205"/>
+      <c r="T50" s="205"/>
+      <c r="U50" s="205"/>
+      <c r="V50" s="205"/>
+      <c r="W50" s="205"/>
+      <c r="X50" s="205"/>
+      <c r="Y50" s="205"/>
+      <c r="Z50" s="205"/>
+      <c r="AA50" s="205"/>
+      <c r="AB50" s="205"/>
+      <c r="AC50" s="205"/>
+      <c r="AD50" s="206"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11427,30 +11394,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="213" t="s">
+      <c r="S125" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="214"/>
-      <c r="U125" s="214"/>
-      <c r="V125" s="214"/>
-      <c r="W125" s="214"/>
-      <c r="X125" s="215"/>
-      <c r="Y125" s="213" t="s">
+      <c r="T125" s="217"/>
+      <c r="U125" s="217"/>
+      <c r="V125" s="217"/>
+      <c r="W125" s="217"/>
+      <c r="X125" s="218"/>
+      <c r="Y125" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="214"/>
-      <c r="AA125" s="214"/>
-      <c r="AB125" s="214"/>
-      <c r="AC125" s="214"/>
-      <c r="AD125" s="215"/>
-      <c r="AE125" s="213" t="s">
+      <c r="Z125" s="217"/>
+      <c r="AA125" s="217"/>
+      <c r="AB125" s="217"/>
+      <c r="AC125" s="217"/>
+      <c r="AD125" s="218"/>
+      <c r="AE125" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="214"/>
-      <c r="AG125" s="214"/>
-      <c r="AH125" s="214"/>
-      <c r="AI125" s="214"/>
-      <c r="AJ125" s="215"/>
+      <c r="AF125" s="217"/>
+      <c r="AG125" s="217"/>
+      <c r="AH125" s="217"/>
+      <c r="AI125" s="217"/>
+      <c r="AJ125" s="218"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11472,30 +11439,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="198" t="s">
+      <c r="S126" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="199"/>
-      <c r="U126" s="199"/>
-      <c r="V126" s="199"/>
-      <c r="W126" s="199"/>
-      <c r="X126" s="200"/>
-      <c r="Y126" s="198" t="s">
+      <c r="T126" s="205"/>
+      <c r="U126" s="205"/>
+      <c r="V126" s="205"/>
+      <c r="W126" s="205"/>
+      <c r="X126" s="206"/>
+      <c r="Y126" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="199"/>
-      <c r="AA126" s="199"/>
-      <c r="AB126" s="199"/>
-      <c r="AC126" s="199"/>
-      <c r="AD126" s="200"/>
-      <c r="AE126" s="198" t="s">
+      <c r="Z126" s="205"/>
+      <c r="AA126" s="205"/>
+      <c r="AB126" s="205"/>
+      <c r="AC126" s="205"/>
+      <c r="AD126" s="206"/>
+      <c r="AE126" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="199"/>
-      <c r="AG126" s="199"/>
-      <c r="AH126" s="199"/>
-      <c r="AI126" s="199"/>
-      <c r="AJ126" s="200"/>
+      <c r="AF126" s="205"/>
+      <c r="AG126" s="205"/>
+      <c r="AH126" s="205"/>
+      <c r="AI126" s="205"/>
+      <c r="AJ126" s="206"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11779,30 +11746,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="201" t="s">
+      <c r="S133" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="202"/>
-      <c r="U133" s="202"/>
-      <c r="V133" s="202"/>
-      <c r="W133" s="202"/>
-      <c r="X133" s="203"/>
-      <c r="Y133" s="201" t="s">
+      <c r="T133" s="184"/>
+      <c r="U133" s="184"/>
+      <c r="V133" s="184"/>
+      <c r="W133" s="184"/>
+      <c r="X133" s="185"/>
+      <c r="Y133" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="202"/>
-      <c r="AA133" s="202"/>
-      <c r="AB133" s="202"/>
-      <c r="AC133" s="202"/>
-      <c r="AD133" s="203"/>
-      <c r="AE133" s="201" t="s">
+      <c r="Z133" s="184"/>
+      <c r="AA133" s="184"/>
+      <c r="AB133" s="184"/>
+      <c r="AC133" s="184"/>
+      <c r="AD133" s="185"/>
+      <c r="AE133" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="202"/>
-      <c r="AG133" s="202"/>
-      <c r="AH133" s="202"/>
-      <c r="AI133" s="202"/>
-      <c r="AJ133" s="203"/>
+      <c r="AF133" s="184"/>
+      <c r="AG133" s="184"/>
+      <c r="AH133" s="184"/>
+      <c r="AI133" s="184"/>
+      <c r="AJ133" s="185"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11826,30 +11793,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="201" t="s">
+      <c r="S134" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="202"/>
-      <c r="U134" s="202"/>
-      <c r="V134" s="202"/>
-      <c r="W134" s="202"/>
-      <c r="X134" s="203"/>
-      <c r="Y134" s="201" t="s">
+      <c r="T134" s="184"/>
+      <c r="U134" s="184"/>
+      <c r="V134" s="184"/>
+      <c r="W134" s="184"/>
+      <c r="X134" s="185"/>
+      <c r="Y134" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="202"/>
-      <c r="AA134" s="202"/>
-      <c r="AB134" s="202"/>
-      <c r="AC134" s="202"/>
-      <c r="AD134" s="203"/>
-      <c r="AE134" s="201" t="s">
+      <c r="Z134" s="184"/>
+      <c r="AA134" s="184"/>
+      <c r="AB134" s="184"/>
+      <c r="AC134" s="184"/>
+      <c r="AD134" s="185"/>
+      <c r="AE134" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="202"/>
-      <c r="AG134" s="202"/>
-      <c r="AH134" s="202"/>
-      <c r="AI134" s="202"/>
-      <c r="AJ134" s="203"/>
+      <c r="AF134" s="184"/>
+      <c r="AG134" s="184"/>
+      <c r="AH134" s="184"/>
+      <c r="AI134" s="184"/>
+      <c r="AJ134" s="185"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11867,30 +11834,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="201" t="s">
+      <c r="S135" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="202"/>
-      <c r="U135" s="202"/>
-      <c r="V135" s="202"/>
-      <c r="W135" s="202"/>
-      <c r="X135" s="203"/>
-      <c r="Y135" s="201" t="s">
+      <c r="T135" s="184"/>
+      <c r="U135" s="184"/>
+      <c r="V135" s="184"/>
+      <c r="W135" s="184"/>
+      <c r="X135" s="185"/>
+      <c r="Y135" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="202"/>
-      <c r="AA135" s="202"/>
-      <c r="AB135" s="202"/>
-      <c r="AC135" s="202"/>
-      <c r="AD135" s="203"/>
-      <c r="AE135" s="201" t="s">
+      <c r="Z135" s="184"/>
+      <c r="AA135" s="184"/>
+      <c r="AB135" s="184"/>
+      <c r="AC135" s="184"/>
+      <c r="AD135" s="185"/>
+      <c r="AE135" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="202"/>
-      <c r="AG135" s="202"/>
-      <c r="AH135" s="202"/>
-      <c r="AI135" s="202"/>
-      <c r="AJ135" s="203"/>
+      <c r="AF135" s="184"/>
+      <c r="AG135" s="184"/>
+      <c r="AH135" s="184"/>
+      <c r="AI135" s="184"/>
+      <c r="AJ135" s="185"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11912,30 +11879,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="201" t="s">
+      <c r="S136" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="202"/>
-      <c r="U136" s="202"/>
-      <c r="V136" s="202"/>
-      <c r="W136" s="202"/>
-      <c r="X136" s="203"/>
-      <c r="Y136" s="201" t="s">
+      <c r="T136" s="184"/>
+      <c r="U136" s="184"/>
+      <c r="V136" s="184"/>
+      <c r="W136" s="184"/>
+      <c r="X136" s="185"/>
+      <c r="Y136" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="202"/>
-      <c r="AA136" s="202"/>
-      <c r="AB136" s="202"/>
-      <c r="AC136" s="202"/>
-      <c r="AD136" s="203"/>
-      <c r="AE136" s="201" t="s">
+      <c r="Z136" s="184"/>
+      <c r="AA136" s="184"/>
+      <c r="AB136" s="184"/>
+      <c r="AC136" s="184"/>
+      <c r="AD136" s="185"/>
+      <c r="AE136" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="202"/>
-      <c r="AG136" s="202"/>
-      <c r="AH136" s="202"/>
-      <c r="AI136" s="202"/>
-      <c r="AJ136" s="203"/>
+      <c r="AF136" s="184"/>
+      <c r="AG136" s="184"/>
+      <c r="AH136" s="184"/>
+      <c r="AI136" s="184"/>
+      <c r="AJ136" s="185"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11957,30 +11924,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="231" t="s">
+      <c r="S137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="232"/>
-      <c r="U137" s="232"/>
-      <c r="V137" s="232"/>
-      <c r="W137" s="232"/>
-      <c r="X137" s="233"/>
-      <c r="Y137" s="231" t="s">
+      <c r="T137" s="184"/>
+      <c r="U137" s="184"/>
+      <c r="V137" s="184"/>
+      <c r="W137" s="184"/>
+      <c r="X137" s="185"/>
+      <c r="Y137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="232"/>
-      <c r="AA137" s="232"/>
-      <c r="AB137" s="232"/>
-      <c r="AC137" s="232"/>
-      <c r="AD137" s="233"/>
-      <c r="AE137" s="201" t="s">
+      <c r="Z137" s="184"/>
+      <c r="AA137" s="184"/>
+      <c r="AB137" s="184"/>
+      <c r="AC137" s="184"/>
+      <c r="AD137" s="185"/>
+      <c r="AE137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="202"/>
-      <c r="AG137" s="202"/>
-      <c r="AH137" s="202"/>
-      <c r="AI137" s="202"/>
-      <c r="AJ137" s="203"/>
+      <c r="AF137" s="184"/>
+      <c r="AG137" s="184"/>
+      <c r="AH137" s="184"/>
+      <c r="AI137" s="184"/>
+      <c r="AJ137" s="185"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -12004,30 +11971,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="201" t="s">
+      <c r="S138" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="202"/>
-      <c r="U138" s="202"/>
-      <c r="V138" s="202"/>
-      <c r="W138" s="202"/>
-      <c r="X138" s="203"/>
-      <c r="Y138" s="201" t="s">
+      <c r="T138" s="184"/>
+      <c r="U138" s="184"/>
+      <c r="V138" s="184"/>
+      <c r="W138" s="184"/>
+      <c r="X138" s="185"/>
+      <c r="Y138" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="202"/>
-      <c r="AA138" s="202"/>
-      <c r="AB138" s="202"/>
-      <c r="AC138" s="202"/>
-      <c r="AD138" s="203"/>
-      <c r="AE138" s="201" t="s">
+      <c r="Z138" s="184"/>
+      <c r="AA138" s="184"/>
+      <c r="AB138" s="184"/>
+      <c r="AC138" s="184"/>
+      <c r="AD138" s="185"/>
+      <c r="AE138" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="202"/>
-      <c r="AG138" s="202"/>
-      <c r="AH138" s="202"/>
-      <c r="AI138" s="202"/>
-      <c r="AJ138" s="203"/>
+      <c r="AF138" s="184"/>
+      <c r="AG138" s="184"/>
+      <c r="AH138" s="184"/>
+      <c r="AI138" s="184"/>
+      <c r="AJ138" s="185"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -12045,30 +12012,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="201" t="s">
+      <c r="S139" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="202"/>
-      <c r="U139" s="202"/>
-      <c r="V139" s="202"/>
-      <c r="W139" s="202"/>
-      <c r="X139" s="203"/>
-      <c r="Y139" s="201" t="s">
+      <c r="T139" s="184"/>
+      <c r="U139" s="184"/>
+      <c r="V139" s="184"/>
+      <c r="W139" s="184"/>
+      <c r="X139" s="185"/>
+      <c r="Y139" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="202"/>
-      <c r="AA139" s="202"/>
-      <c r="AB139" s="202"/>
-      <c r="AC139" s="202"/>
-      <c r="AD139" s="203"/>
-      <c r="AE139" s="201" t="s">
+      <c r="Z139" s="184"/>
+      <c r="AA139" s="184"/>
+      <c r="AB139" s="184"/>
+      <c r="AC139" s="184"/>
+      <c r="AD139" s="185"/>
+      <c r="AE139" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="202"/>
-      <c r="AG139" s="202"/>
-      <c r="AH139" s="202"/>
-      <c r="AI139" s="202"/>
-      <c r="AJ139" s="203"/>
+      <c r="AF139" s="184"/>
+      <c r="AG139" s="184"/>
+      <c r="AH139" s="184"/>
+      <c r="AI139" s="184"/>
+      <c r="AJ139" s="185"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -12090,30 +12057,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="201" t="s">
+      <c r="S140" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="202"/>
-      <c r="U140" s="202"/>
-      <c r="V140" s="202"/>
-      <c r="W140" s="202"/>
-      <c r="X140" s="203"/>
-      <c r="Y140" s="201" t="s">
+      <c r="T140" s="184"/>
+      <c r="U140" s="184"/>
+      <c r="V140" s="184"/>
+      <c r="W140" s="184"/>
+      <c r="X140" s="185"/>
+      <c r="Y140" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="202"/>
-      <c r="AA140" s="202"/>
-      <c r="AB140" s="202"/>
-      <c r="AC140" s="202"/>
-      <c r="AD140" s="203"/>
-      <c r="AE140" s="201" t="s">
+      <c r="Z140" s="184"/>
+      <c r="AA140" s="184"/>
+      <c r="AB140" s="184"/>
+      <c r="AC140" s="184"/>
+      <c r="AD140" s="185"/>
+      <c r="AE140" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="202"/>
-      <c r="AG140" s="202"/>
-      <c r="AH140" s="202"/>
-      <c r="AI140" s="202"/>
-      <c r="AJ140" s="203"/>
+      <c r="AF140" s="184"/>
+      <c r="AG140" s="184"/>
+      <c r="AH140" s="184"/>
+      <c r="AI140" s="184"/>
+      <c r="AJ140" s="185"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -12135,30 +12102,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="201" t="s">
+      <c r="S141" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="T141" s="202"/>
-      <c r="U141" s="202"/>
-      <c r="V141" s="202"/>
-      <c r="W141" s="202"/>
-      <c r="X141" s="203"/>
-      <c r="Y141" s="201" t="s">
+      <c r="T141" s="184"/>
+      <c r="U141" s="184"/>
+      <c r="V141" s="184"/>
+      <c r="W141" s="184"/>
+      <c r="X141" s="185"/>
+      <c r="Y141" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="Z141" s="202"/>
-      <c r="AA141" s="202"/>
-      <c r="AB141" s="202"/>
-      <c r="AC141" s="202"/>
-      <c r="AD141" s="203"/>
-      <c r="AE141" s="201" t="s">
+      <c r="Z141" s="184"/>
+      <c r="AA141" s="184"/>
+      <c r="AB141" s="184"/>
+      <c r="AC141" s="184"/>
+      <c r="AD141" s="185"/>
+      <c r="AE141" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="AF141" s="202"/>
-      <c r="AG141" s="202"/>
-      <c r="AH141" s="202"/>
-      <c r="AI141" s="202"/>
-      <c r="AJ141" s="203"/>
+      <c r="AF141" s="184"/>
+      <c r="AG141" s="184"/>
+      <c r="AH141" s="184"/>
+      <c r="AI141" s="184"/>
+      <c r="AJ141" s="185"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -12182,30 +12149,30 @@
       <c r="P142" s="134"/>
       <c r="Q142" s="134"/>
       <c r="R142" s="135"/>
-      <c r="S142" s="201" t="s">
+      <c r="S142" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="202"/>
-      <c r="U142" s="202"/>
-      <c r="V142" s="202"/>
-      <c r="W142" s="202"/>
-      <c r="X142" s="203"/>
-      <c r="Y142" s="201" t="s">
+      <c r="T142" s="184"/>
+      <c r="U142" s="184"/>
+      <c r="V142" s="184"/>
+      <c r="W142" s="184"/>
+      <c r="X142" s="185"/>
+      <c r="Y142" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="202"/>
-      <c r="AA142" s="202"/>
-      <c r="AB142" s="202"/>
-      <c r="AC142" s="202"/>
-      <c r="AD142" s="203"/>
-      <c r="AE142" s="201" t="s">
+      <c r="Z142" s="184"/>
+      <c r="AA142" s="184"/>
+      <c r="AB142" s="184"/>
+      <c r="AC142" s="184"/>
+      <c r="AD142" s="185"/>
+      <c r="AE142" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="202"/>
-      <c r="AG142" s="202"/>
-      <c r="AH142" s="202"/>
-      <c r="AI142" s="202"/>
-      <c r="AJ142" s="203"/>
+      <c r="AF142" s="184"/>
+      <c r="AG142" s="184"/>
+      <c r="AH142" s="184"/>
+      <c r="AI142" s="184"/>
+      <c r="AJ142" s="185"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -12223,30 +12190,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="201" t="s">
+      <c r="S143" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="202"/>
-      <c r="U143" s="202"/>
-      <c r="V143" s="202"/>
-      <c r="W143" s="202"/>
-      <c r="X143" s="203"/>
-      <c r="Y143" s="201" t="s">
+      <c r="T143" s="184"/>
+      <c r="U143" s="184"/>
+      <c r="V143" s="184"/>
+      <c r="W143" s="184"/>
+      <c r="X143" s="185"/>
+      <c r="Y143" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="202"/>
-      <c r="AA143" s="202"/>
-      <c r="AB143" s="202"/>
-      <c r="AC143" s="202"/>
-      <c r="AD143" s="203"/>
-      <c r="AE143" s="201" t="s">
+      <c r="Z143" s="184"/>
+      <c r="AA143" s="184"/>
+      <c r="AB143" s="184"/>
+      <c r="AC143" s="184"/>
+      <c r="AD143" s="185"/>
+      <c r="AE143" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="202"/>
-      <c r="AG143" s="202"/>
-      <c r="AH143" s="202"/>
-      <c r="AI143" s="202"/>
-      <c r="AJ143" s="203"/>
+      <c r="AF143" s="184"/>
+      <c r="AG143" s="184"/>
+      <c r="AH143" s="184"/>
+      <c r="AI143" s="184"/>
+      <c r="AJ143" s="185"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -12313,30 +12280,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="201" t="s">
+      <c r="S145" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="202"/>
-      <c r="U145" s="202"/>
-      <c r="V145" s="202"/>
-      <c r="W145" s="202"/>
-      <c r="X145" s="203"/>
-      <c r="Y145" s="201" t="s">
+      <c r="T145" s="184"/>
+      <c r="U145" s="184"/>
+      <c r="V145" s="184"/>
+      <c r="W145" s="184"/>
+      <c r="X145" s="185"/>
+      <c r="Y145" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="202"/>
-      <c r="AA145" s="202"/>
-      <c r="AB145" s="202"/>
-      <c r="AC145" s="202"/>
-      <c r="AD145" s="203"/>
-      <c r="AE145" s="201" t="s">
+      <c r="Z145" s="184"/>
+      <c r="AA145" s="184"/>
+      <c r="AB145" s="184"/>
+      <c r="AC145" s="184"/>
+      <c r="AD145" s="185"/>
+      <c r="AE145" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="202"/>
-      <c r="AG145" s="202"/>
-      <c r="AH145" s="202"/>
-      <c r="AI145" s="202"/>
-      <c r="AJ145" s="203"/>
+      <c r="AF145" s="184"/>
+      <c r="AG145" s="184"/>
+      <c r="AH145" s="184"/>
+      <c r="AI145" s="184"/>
+      <c r="AJ145" s="185"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -12360,30 +12327,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="201" t="s">
+      <c r="S146" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="202"/>
-      <c r="U146" s="202"/>
-      <c r="V146" s="202"/>
-      <c r="W146" s="202"/>
-      <c r="X146" s="203"/>
-      <c r="Y146" s="231" t="s">
+      <c r="T146" s="184"/>
+      <c r="U146" s="184"/>
+      <c r="V146" s="184"/>
+      <c r="W146" s="184"/>
+      <c r="X146" s="185"/>
+      <c r="Y146" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="232"/>
-      <c r="AA146" s="232"/>
-      <c r="AB146" s="232"/>
-      <c r="AC146" s="232"/>
-      <c r="AD146" s="233"/>
-      <c r="AE146" s="231" t="s">
+      <c r="Z146" s="184"/>
+      <c r="AA146" s="184"/>
+      <c r="AB146" s="184"/>
+      <c r="AC146" s="184"/>
+      <c r="AD146" s="185"/>
+      <c r="AE146" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="232"/>
-      <c r="AG146" s="232"/>
-      <c r="AH146" s="232"/>
-      <c r="AI146" s="232"/>
-      <c r="AJ146" s="233"/>
+      <c r="AF146" s="184"/>
+      <c r="AG146" s="184"/>
+      <c r="AH146" s="184"/>
+      <c r="AI146" s="184"/>
+      <c r="AJ146" s="185"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -12401,30 +12368,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="201" t="s">
+      <c r="S147" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="202"/>
-      <c r="U147" s="202"/>
-      <c r="V147" s="202"/>
-      <c r="W147" s="202"/>
-      <c r="X147" s="203"/>
-      <c r="Y147" s="201" t="s">
+      <c r="T147" s="184"/>
+      <c r="U147" s="184"/>
+      <c r="V147" s="184"/>
+      <c r="W147" s="184"/>
+      <c r="X147" s="185"/>
+      <c r="Y147" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="202"/>
-      <c r="AA147" s="202"/>
-      <c r="AB147" s="202"/>
-      <c r="AC147" s="202"/>
-      <c r="AD147" s="203"/>
-      <c r="AE147" s="231" t="s">
+      <c r="Z147" s="184"/>
+      <c r="AA147" s="184"/>
+      <c r="AB147" s="184"/>
+      <c r="AC147" s="184"/>
+      <c r="AD147" s="185"/>
+      <c r="AE147" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="232"/>
-      <c r="AG147" s="232"/>
-      <c r="AH147" s="232"/>
-      <c r="AI147" s="232"/>
-      <c r="AJ147" s="233"/>
+      <c r="AF147" s="184"/>
+      <c r="AG147" s="184"/>
+      <c r="AH147" s="184"/>
+      <c r="AI147" s="184"/>
+      <c r="AJ147" s="185"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12446,30 +12413,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="201" t="s">
+      <c r="S148" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="202"/>
-      <c r="U148" s="202"/>
-      <c r="V148" s="202"/>
-      <c r="W148" s="202"/>
-      <c r="X148" s="203"/>
-      <c r="Y148" s="201" t="s">
+      <c r="T148" s="184"/>
+      <c r="U148" s="184"/>
+      <c r="V148" s="184"/>
+      <c r="W148" s="184"/>
+      <c r="X148" s="185"/>
+      <c r="Y148" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="202"/>
-      <c r="AA148" s="202"/>
-      <c r="AB148" s="202"/>
-      <c r="AC148" s="202"/>
-      <c r="AD148" s="203"/>
-      <c r="AE148" s="231" t="s">
+      <c r="Z148" s="184"/>
+      <c r="AA148" s="184"/>
+      <c r="AB148" s="184"/>
+      <c r="AC148" s="184"/>
+      <c r="AD148" s="185"/>
+      <c r="AE148" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="232"/>
-      <c r="AG148" s="232"/>
-      <c r="AH148" s="232"/>
-      <c r="AI148" s="232"/>
-      <c r="AJ148" s="233"/>
+      <c r="AF148" s="184"/>
+      <c r="AG148" s="184"/>
+      <c r="AH148" s="184"/>
+      <c r="AI148" s="184"/>
+      <c r="AJ148" s="185"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -13055,22 +13022,22 @@
       <c r="V161" s="181"/>
       <c r="W161" s="181"/>
       <c r="X161" s="182"/>
-      <c r="Y161" s="186" t="s">
+      <c r="Y161" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="Z161" s="187"/>
-      <c r="AA161" s="187"/>
-      <c r="AB161" s="187"/>
-      <c r="AC161" s="187"/>
-      <c r="AD161" s="188"/>
-      <c r="AE161" s="195" t="s">
+      <c r="Z161" s="181"/>
+      <c r="AA161" s="181"/>
+      <c r="AB161" s="181"/>
+      <c r="AC161" s="181"/>
+      <c r="AD161" s="182"/>
+      <c r="AE161" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF161" s="196"/>
-      <c r="AG161" s="196"/>
-      <c r="AH161" s="196"/>
-      <c r="AI161" s="196"/>
-      <c r="AJ161" s="197"/>
+      <c r="AF161" s="181"/>
+      <c r="AG161" s="181"/>
+      <c r="AH161" s="181"/>
+      <c r="AI161" s="181"/>
+      <c r="AJ161" s="182"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -13110,14 +13077,14 @@
       <c r="AB162" s="181"/>
       <c r="AC162" s="181"/>
       <c r="AD162" s="182"/>
-      <c r="AE162" s="195" t="s">
+      <c r="AE162" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF162" s="196"/>
-      <c r="AG162" s="196"/>
-      <c r="AH162" s="196"/>
-      <c r="AI162" s="196"/>
-      <c r="AJ162" s="197"/>
+      <c r="AF162" s="181"/>
+      <c r="AG162" s="181"/>
+      <c r="AH162" s="181"/>
+      <c r="AI162" s="181"/>
+      <c r="AJ162" s="182"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -13157,14 +13124,14 @@
       <c r="AB163" s="181"/>
       <c r="AC163" s="181"/>
       <c r="AD163" s="182"/>
-      <c r="AE163" s="195" t="s">
+      <c r="AE163" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF163" s="196"/>
-      <c r="AG163" s="196"/>
-      <c r="AH163" s="196"/>
-      <c r="AI163" s="196"/>
-      <c r="AJ163" s="197"/>
+      <c r="AF163" s="181"/>
+      <c r="AG163" s="181"/>
+      <c r="AH163" s="181"/>
+      <c r="AI163" s="181"/>
+      <c r="AJ163" s="182"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -13204,14 +13171,14 @@
       <c r="AB164" s="181"/>
       <c r="AC164" s="181"/>
       <c r="AD164" s="182"/>
-      <c r="AE164" s="195" t="s">
+      <c r="AE164" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF164" s="196"/>
-      <c r="AG164" s="196"/>
-      <c r="AH164" s="196"/>
-      <c r="AI164" s="196"/>
-      <c r="AJ164" s="197"/>
+      <c r="AF164" s="181"/>
+      <c r="AG164" s="181"/>
+      <c r="AH164" s="181"/>
+      <c r="AI164" s="181"/>
+      <c r="AJ164" s="182"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -13298,14 +13265,14 @@
       <c r="AB166" s="181"/>
       <c r="AC166" s="181"/>
       <c r="AD166" s="182"/>
-      <c r="AE166" s="195" t="s">
+      <c r="AE166" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="196"/>
-      <c r="AG166" s="196"/>
-      <c r="AH166" s="196"/>
-      <c r="AI166" s="196"/>
-      <c r="AJ166" s="197"/>
+      <c r="AF166" s="181"/>
+      <c r="AG166" s="181"/>
+      <c r="AH166" s="181"/>
+      <c r="AI166" s="181"/>
+      <c r="AJ166" s="182"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -13382,22 +13349,22 @@
       <c r="V168" s="181"/>
       <c r="W168" s="181"/>
       <c r="X168" s="182"/>
-      <c r="Y168" s="186" t="s">
+      <c r="Y168" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="Z168" s="187"/>
-      <c r="AA168" s="187"/>
-      <c r="AB168" s="187"/>
-      <c r="AC168" s="187"/>
-      <c r="AD168" s="188"/>
-      <c r="AE168" s="186" t="s">
+      <c r="Z168" s="181"/>
+      <c r="AA168" s="181"/>
+      <c r="AB168" s="181"/>
+      <c r="AC168" s="181"/>
+      <c r="AD168" s="182"/>
+      <c r="AE168" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF168" s="187"/>
-      <c r="AG168" s="187"/>
-      <c r="AH168" s="187"/>
-      <c r="AI168" s="187"/>
-      <c r="AJ168" s="188"/>
+      <c r="AF168" s="181"/>
+      <c r="AG168" s="181"/>
+      <c r="AH168" s="181"/>
+      <c r="AI168" s="181"/>
+      <c r="AJ168" s="182"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -13435,14 +13402,14 @@
       <c r="AB169" s="181"/>
       <c r="AC169" s="181"/>
       <c r="AD169" s="182"/>
-      <c r="AE169" s="186" t="s">
+      <c r="AE169" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF169" s="187"/>
-      <c r="AG169" s="187"/>
-      <c r="AH169" s="187"/>
-      <c r="AI169" s="187"/>
-      <c r="AJ169" s="188"/>
+      <c r="AF169" s="181"/>
+      <c r="AG169" s="181"/>
+      <c r="AH169" s="181"/>
+      <c r="AI169" s="181"/>
+      <c r="AJ169" s="182"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13480,14 +13447,14 @@
       <c r="AB170" s="181"/>
       <c r="AC170" s="181"/>
       <c r="AD170" s="182"/>
-      <c r="AE170" s="186" t="s">
+      <c r="AE170" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF170" s="187"/>
-      <c r="AG170" s="187"/>
-      <c r="AH170" s="187"/>
-      <c r="AI170" s="187"/>
-      <c r="AJ170" s="188"/>
+      <c r="AF170" s="181"/>
+      <c r="AG170" s="181"/>
+      <c r="AH170" s="181"/>
+      <c r="AI170" s="181"/>
+      <c r="AJ170" s="182"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13525,14 +13492,14 @@
       <c r="AB171" s="181"/>
       <c r="AC171" s="181"/>
       <c r="AD171" s="182"/>
-      <c r="AE171" s="186" t="s">
+      <c r="AE171" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF171" s="187"/>
-      <c r="AG171" s="187"/>
-      <c r="AH171" s="187"/>
-      <c r="AI171" s="187"/>
-      <c r="AJ171" s="188"/>
+      <c r="AF171" s="181"/>
+      <c r="AG171" s="181"/>
+      <c r="AH171" s="181"/>
+      <c r="AI171" s="181"/>
+      <c r="AJ171" s="182"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13615,14 +13582,14 @@
       <c r="AB173" s="181"/>
       <c r="AC173" s="181"/>
       <c r="AD173" s="182"/>
-      <c r="AE173" s="186" t="s">
+      <c r="AE173" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF173" s="187"/>
-      <c r="AG173" s="187"/>
-      <c r="AH173" s="187"/>
-      <c r="AI173" s="187"/>
-      <c r="AJ173" s="188"/>
+      <c r="AF173" s="181"/>
+      <c r="AG173" s="181"/>
+      <c r="AH173" s="181"/>
+      <c r="AI173" s="181"/>
+      <c r="AJ173" s="182"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13746,14 +13713,14 @@
       <c r="V176" s="181"/>
       <c r="W176" s="181"/>
       <c r="X176" s="182"/>
-      <c r="Y176" s="186" t="s">
+      <c r="Y176" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="187"/>
-      <c r="AA176" s="187"/>
-      <c r="AB176" s="187"/>
-      <c r="AC176" s="187"/>
-      <c r="AD176" s="188"/>
+      <c r="Z176" s="181"/>
+      <c r="AA176" s="181"/>
+      <c r="AB176" s="181"/>
+      <c r="AC176" s="181"/>
+      <c r="AD176" s="182"/>
       <c r="AE176" s="180" t="s">
         <v>14</v>
       </c>
@@ -13793,14 +13760,14 @@
       <c r="V177" s="181"/>
       <c r="W177" s="181"/>
       <c r="X177" s="182"/>
-      <c r="Y177" s="186" t="s">
+      <c r="Y177" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="187"/>
-      <c r="AA177" s="187"/>
-      <c r="AB177" s="187"/>
-      <c r="AC177" s="187"/>
-      <c r="AD177" s="188"/>
+      <c r="Z177" s="181"/>
+      <c r="AA177" s="181"/>
+      <c r="AB177" s="181"/>
+      <c r="AC177" s="181"/>
+      <c r="AD177" s="182"/>
       <c r="AE177" s="180" t="s">
         <v>14</v>
       </c>
@@ -13838,14 +13805,14 @@
       <c r="V178" s="181"/>
       <c r="W178" s="181"/>
       <c r="X178" s="182"/>
-      <c r="Y178" s="186" t="s">
+      <c r="Y178" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="187"/>
-      <c r="AA178" s="187"/>
-      <c r="AB178" s="187"/>
-      <c r="AC178" s="187"/>
-      <c r="AD178" s="188"/>
+      <c r="Z178" s="181"/>
+      <c r="AA178" s="181"/>
+      <c r="AB178" s="181"/>
+      <c r="AC178" s="181"/>
+      <c r="AD178" s="182"/>
       <c r="AE178" s="180" t="s">
         <v>14</v>
       </c>
@@ -13883,22 +13850,22 @@
       <c r="V179" s="181"/>
       <c r="W179" s="181"/>
       <c r="X179" s="182"/>
-      <c r="Y179" s="186" t="s">
+      <c r="Y179" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="187"/>
-      <c r="AA179" s="187"/>
-      <c r="AB179" s="187"/>
-      <c r="AC179" s="187"/>
-      <c r="AD179" s="188"/>
-      <c r="AE179" s="186" t="s">
+      <c r="Z179" s="181"/>
+      <c r="AA179" s="181"/>
+      <c r="AB179" s="181"/>
+      <c r="AC179" s="181"/>
+      <c r="AD179" s="182"/>
+      <c r="AE179" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="187"/>
-      <c r="AG179" s="187"/>
-      <c r="AH179" s="187"/>
-      <c r="AI179" s="187"/>
-      <c r="AJ179" s="188"/>
+      <c r="AF179" s="181"/>
+      <c r="AG179" s="181"/>
+      <c r="AH179" s="181"/>
+      <c r="AI179" s="181"/>
+      <c r="AJ179" s="182"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13920,30 +13887,30 @@
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="186" t="s">
+      <c r="S180" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="187"/>
-      <c r="U180" s="187"/>
-      <c r="V180" s="187"/>
-      <c r="W180" s="187"/>
-      <c r="X180" s="188"/>
-      <c r="Y180" s="186" t="s">
+      <c r="T180" s="181"/>
+      <c r="U180" s="181"/>
+      <c r="V180" s="181"/>
+      <c r="W180" s="181"/>
+      <c r="X180" s="182"/>
+      <c r="Y180" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="187"/>
-      <c r="AA180" s="187"/>
-      <c r="AB180" s="187"/>
-      <c r="AC180" s="187"/>
-      <c r="AD180" s="188"/>
-      <c r="AE180" s="186" t="s">
+      <c r="Z180" s="181"/>
+      <c r="AA180" s="181"/>
+      <c r="AB180" s="181"/>
+      <c r="AC180" s="181"/>
+      <c r="AD180" s="182"/>
+      <c r="AE180" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="187"/>
-      <c r="AG180" s="187"/>
-      <c r="AH180" s="187"/>
-      <c r="AI180" s="187"/>
-      <c r="AJ180" s="188"/>
+      <c r="AF180" s="181"/>
+      <c r="AG180" s="181"/>
+      <c r="AH180" s="181"/>
+      <c r="AI180" s="181"/>
+      <c r="AJ180" s="182"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13965,30 +13932,30 @@
       <c r="P181" s="149"/>
       <c r="Q181" s="149"/>
       <c r="R181" s="150"/>
-      <c r="S181" s="189" t="s">
+      <c r="S181" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="190"/>
-      <c r="U181" s="190"/>
-      <c r="V181" s="190"/>
-      <c r="W181" s="190"/>
-      <c r="X181" s="191"/>
-      <c r="Y181" s="189" t="s">
+      <c r="T181" s="187"/>
+      <c r="U181" s="187"/>
+      <c r="V181" s="187"/>
+      <c r="W181" s="187"/>
+      <c r="X181" s="188"/>
+      <c r="Y181" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="190"/>
-      <c r="AA181" s="190"/>
-      <c r="AB181" s="190"/>
-      <c r="AC181" s="190"/>
-      <c r="AD181" s="191"/>
-      <c r="AE181" s="189" t="s">
+      <c r="Z181" s="187"/>
+      <c r="AA181" s="187"/>
+      <c r="AB181" s="187"/>
+      <c r="AC181" s="187"/>
+      <c r="AD181" s="188"/>
+      <c r="AE181" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="190"/>
-      <c r="AG181" s="190"/>
-      <c r="AH181" s="190"/>
-      <c r="AI181" s="190"/>
-      <c r="AJ181" s="191"/>
+      <c r="AF181" s="187"/>
+      <c r="AG181" s="187"/>
+      <c r="AH181" s="187"/>
+      <c r="AI181" s="187"/>
+      <c r="AJ181" s="188"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -14055,30 +14022,30 @@
       <c r="P183" s="149"/>
       <c r="Q183" s="149"/>
       <c r="R183" s="150"/>
-      <c r="S183" s="189" t="s">
+      <c r="S183" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="190"/>
-      <c r="U183" s="190"/>
-      <c r="V183" s="190"/>
-      <c r="W183" s="190"/>
-      <c r="X183" s="191"/>
-      <c r="Y183" s="189" t="s">
+      <c r="T183" s="187"/>
+      <c r="U183" s="187"/>
+      <c r="V183" s="187"/>
+      <c r="W183" s="187"/>
+      <c r="X183" s="188"/>
+      <c r="Y183" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="190"/>
-      <c r="AA183" s="190"/>
-      <c r="AB183" s="190"/>
-      <c r="AC183" s="190"/>
-      <c r="AD183" s="191"/>
-      <c r="AE183" s="189" t="s">
+      <c r="Z183" s="187"/>
+      <c r="AA183" s="187"/>
+      <c r="AB183" s="187"/>
+      <c r="AC183" s="187"/>
+      <c r="AD183" s="188"/>
+      <c r="AE183" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="190"/>
-      <c r="AG183" s="190"/>
-      <c r="AH183" s="190"/>
-      <c r="AI183" s="190"/>
-      <c r="AJ183" s="191"/>
+      <c r="AF183" s="187"/>
+      <c r="AG183" s="187"/>
+      <c r="AH183" s="187"/>
+      <c r="AI183" s="187"/>
+      <c r="AJ183" s="188"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -14100,30 +14067,30 @@
       <c r="P184" s="152"/>
       <c r="Q184" s="152"/>
       <c r="R184" s="153"/>
-      <c r="S184" s="183" t="s">
+      <c r="S184" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="184"/>
-      <c r="U184" s="184"/>
-      <c r="V184" s="184"/>
-      <c r="W184" s="184"/>
-      <c r="X184" s="185"/>
-      <c r="Y184" s="183" t="s">
+      <c r="T184" s="202"/>
+      <c r="U184" s="202"/>
+      <c r="V184" s="202"/>
+      <c r="W184" s="202"/>
+      <c r="X184" s="203"/>
+      <c r="Y184" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="184"/>
-      <c r="AA184" s="184"/>
-      <c r="AB184" s="184"/>
-      <c r="AC184" s="184"/>
-      <c r="AD184" s="185"/>
-      <c r="AE184" s="183" t="s">
+      <c r="Z184" s="202"/>
+      <c r="AA184" s="202"/>
+      <c r="AB184" s="202"/>
+      <c r="AC184" s="202"/>
+      <c r="AD184" s="203"/>
+      <c r="AE184" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="184"/>
-      <c r="AG184" s="184"/>
-      <c r="AH184" s="184"/>
-      <c r="AI184" s="184"/>
-      <c r="AJ184" s="185"/>
+      <c r="AF184" s="202"/>
+      <c r="AG184" s="202"/>
+      <c r="AH184" s="202"/>
+      <c r="AI184" s="202"/>
+      <c r="AJ184" s="203"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -16149,17 +16116,17 @@
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="213" t="s">
+      <c r="AD235" s="216" t="s">
         <v>239</v>
       </c>
-      <c r="AE235" s="214"/>
-      <c r="AF235" s="214"/>
-      <c r="AG235" s="214"/>
-      <c r="AH235" s="214"/>
-      <c r="AI235" s="214"/>
-      <c r="AJ235" s="214"/>
-      <c r="AK235" s="214"/>
-      <c r="AL235" s="215"/>
+      <c r="AE235" s="217"/>
+      <c r="AF235" s="217"/>
+      <c r="AG235" s="217"/>
+      <c r="AH235" s="217"/>
+      <c r="AI235" s="217"/>
+      <c r="AJ235" s="217"/>
+      <c r="AK235" s="217"/>
+      <c r="AL235" s="218"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -16435,21 +16402,21 @@
       <c r="AA241" s="117"/>
       <c r="AB241" s="117"/>
       <c r="AC241" s="173"/>
-      <c r="AD241" s="243" t="s">
+      <c r="AD241" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="244"/>
-      <c r="AF241" s="244"/>
-      <c r="AG241" s="245"/>
-      <c r="AH241" s="243" t="s">
+      <c r="AE241" s="193"/>
+      <c r="AF241" s="193"/>
+      <c r="AG241" s="194"/>
+      <c r="AH241" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="245"/>
-      <c r="AJ241" s="243" t="s">
+      <c r="AI241" s="194"/>
+      <c r="AJ241" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK241" s="244"/>
-      <c r="AL241" s="245"/>
+      <c r="AK241" s="193"/>
+      <c r="AL241" s="194"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16486,15 +16453,15 @@
       <c r="AA242" s="119"/>
       <c r="AB242" s="119"/>
       <c r="AC242" s="120"/>
-      <c r="AD242" s="246"/>
-      <c r="AE242" s="247"/>
-      <c r="AF242" s="247"/>
-      <c r="AG242" s="248"/>
-      <c r="AH242" s="246"/>
-      <c r="AI242" s="248"/>
-      <c r="AJ242" s="246"/>
-      <c r="AK242" s="247"/>
-      <c r="AL242" s="248"/>
+      <c r="AD242" s="195"/>
+      <c r="AE242" s="196"/>
+      <c r="AF242" s="196"/>
+      <c r="AG242" s="197"/>
+      <c r="AH242" s="195"/>
+      <c r="AI242" s="197"/>
+      <c r="AJ242" s="195"/>
+      <c r="AK242" s="196"/>
+      <c r="AL242" s="197"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16531,15 +16498,15 @@
       <c r="AA243" s="119"/>
       <c r="AB243" s="119"/>
       <c r="AC243" s="120"/>
-      <c r="AD243" s="246"/>
-      <c r="AE243" s="247"/>
-      <c r="AF243" s="247"/>
-      <c r="AG243" s="248"/>
-      <c r="AH243" s="246"/>
-      <c r="AI243" s="248"/>
-      <c r="AJ243" s="246"/>
-      <c r="AK243" s="247"/>
-      <c r="AL243" s="248"/>
+      <c r="AD243" s="195"/>
+      <c r="AE243" s="196"/>
+      <c r="AF243" s="196"/>
+      <c r="AG243" s="197"/>
+      <c r="AH243" s="195"/>
+      <c r="AI243" s="197"/>
+      <c r="AJ243" s="195"/>
+      <c r="AK243" s="196"/>
+      <c r="AL243" s="197"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16576,15 +16543,15 @@
       <c r="AA244" s="113"/>
       <c r="AB244" s="113"/>
       <c r="AC244" s="121"/>
-      <c r="AD244" s="249"/>
-      <c r="AE244" s="250"/>
-      <c r="AF244" s="250"/>
-      <c r="AG244" s="251"/>
-      <c r="AH244" s="249"/>
-      <c r="AI244" s="251"/>
-      <c r="AJ244" s="249"/>
-      <c r="AK244" s="250"/>
-      <c r="AL244" s="251"/>
+      <c r="AD244" s="198"/>
+      <c r="AE244" s="199"/>
+      <c r="AF244" s="199"/>
+      <c r="AG244" s="200"/>
+      <c r="AH244" s="198"/>
+      <c r="AI244" s="200"/>
+      <c r="AJ244" s="198"/>
+      <c r="AK244" s="199"/>
+      <c r="AL244" s="200"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
       <c r="AP244" s="5"/>
@@ -16623,21 +16590,21 @@
       <c r="AA245" s="117"/>
       <c r="AB245" s="117"/>
       <c r="AC245" s="173"/>
-      <c r="AD245" s="243" t="s">
+      <c r="AD245" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE245" s="244"/>
-      <c r="AF245" s="244"/>
-      <c r="AG245" s="245"/>
-      <c r="AH245" s="243" t="s">
+      <c r="AE245" s="193"/>
+      <c r="AF245" s="193"/>
+      <c r="AG245" s="194"/>
+      <c r="AH245" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI245" s="245"/>
-      <c r="AJ245" s="243" t="s">
+      <c r="AI245" s="194"/>
+      <c r="AJ245" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK245" s="244"/>
-      <c r="AL245" s="245"/>
+      <c r="AK245" s="193"/>
+      <c r="AL245" s="194"/>
       <c r="AM245" s="92"/>
       <c r="AN245" s="2"/>
       <c r="AP245" s="5"/>
@@ -16674,15 +16641,15 @@
       <c r="AA246" s="119"/>
       <c r="AB246" s="119"/>
       <c r="AC246" s="120"/>
-      <c r="AD246" s="246"/>
-      <c r="AE246" s="247"/>
-      <c r="AF246" s="247"/>
-      <c r="AG246" s="248"/>
-      <c r="AH246" s="246"/>
-      <c r="AI246" s="248"/>
-      <c r="AJ246" s="246"/>
-      <c r="AK246" s="247"/>
-      <c r="AL246" s="248"/>
+      <c r="AD246" s="195"/>
+      <c r="AE246" s="196"/>
+      <c r="AF246" s="196"/>
+      <c r="AG246" s="197"/>
+      <c r="AH246" s="195"/>
+      <c r="AI246" s="197"/>
+      <c r="AJ246" s="195"/>
+      <c r="AK246" s="196"/>
+      <c r="AL246" s="197"/>
       <c r="AM246" s="92"/>
       <c r="AN246" s="2"/>
       <c r="AP246" s="5"/>
@@ -16719,15 +16686,15 @@
       <c r="AA247" s="92"/>
       <c r="AB247" s="92"/>
       <c r="AC247" s="128"/>
-      <c r="AD247" s="246"/>
-      <c r="AE247" s="247"/>
-      <c r="AF247" s="247"/>
-      <c r="AG247" s="248"/>
-      <c r="AH247" s="246"/>
-      <c r="AI247" s="248"/>
-      <c r="AJ247" s="246"/>
-      <c r="AK247" s="247"/>
-      <c r="AL247" s="248"/>
+      <c r="AD247" s="195"/>
+      <c r="AE247" s="196"/>
+      <c r="AF247" s="196"/>
+      <c r="AG247" s="197"/>
+      <c r="AH247" s="195"/>
+      <c r="AI247" s="197"/>
+      <c r="AJ247" s="195"/>
+      <c r="AK247" s="196"/>
+      <c r="AL247" s="197"/>
       <c r="AM247" s="92"/>
       <c r="AN247" s="2"/>
       <c r="AP247" s="5"/>
@@ -16764,15 +16731,15 @@
       <c r="AA248" s="113"/>
       <c r="AB248" s="113"/>
       <c r="AC248" s="121"/>
-      <c r="AD248" s="249"/>
-      <c r="AE248" s="250"/>
-      <c r="AF248" s="250"/>
-      <c r="AG248" s="251"/>
-      <c r="AH248" s="249"/>
-      <c r="AI248" s="251"/>
-      <c r="AJ248" s="249"/>
-      <c r="AK248" s="250"/>
-      <c r="AL248" s="251"/>
+      <c r="AD248" s="198"/>
+      <c r="AE248" s="199"/>
+      <c r="AF248" s="199"/>
+      <c r="AG248" s="200"/>
+      <c r="AH248" s="198"/>
+      <c r="AI248" s="200"/>
+      <c r="AJ248" s="198"/>
+      <c r="AK248" s="199"/>
+      <c r="AL248" s="200"/>
       <c r="AM248" s="92"/>
       <c r="AN248" s="2"/>
       <c r="AP248" s="5"/>
@@ -16811,21 +16778,21 @@
       <c r="AA249" s="117"/>
       <c r="AB249" s="117"/>
       <c r="AC249" s="173"/>
-      <c r="AD249" s="243" t="s">
+      <c r="AD249" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE249" s="244"/>
-      <c r="AF249" s="244"/>
-      <c r="AG249" s="245"/>
-      <c r="AH249" s="243" t="s">
+      <c r="AE249" s="193"/>
+      <c r="AF249" s="193"/>
+      <c r="AG249" s="194"/>
+      <c r="AH249" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI249" s="245"/>
-      <c r="AJ249" s="243" t="s">
+      <c r="AI249" s="194"/>
+      <c r="AJ249" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK249" s="244"/>
-      <c r="AL249" s="245"/>
+      <c r="AK249" s="193"/>
+      <c r="AL249" s="194"/>
       <c r="AM249" s="92"/>
       <c r="AN249" s="2"/>
       <c r="AP249" s="5"/>
@@ -16862,15 +16829,15 @@
       <c r="AA250" s="113"/>
       <c r="AB250" s="113"/>
       <c r="AC250" s="121"/>
-      <c r="AD250" s="249"/>
-      <c r="AE250" s="250"/>
-      <c r="AF250" s="250"/>
-      <c r="AG250" s="251"/>
-      <c r="AH250" s="249"/>
-      <c r="AI250" s="251"/>
-      <c r="AJ250" s="249"/>
-      <c r="AK250" s="250"/>
-      <c r="AL250" s="251"/>
+      <c r="AD250" s="198"/>
+      <c r="AE250" s="199"/>
+      <c r="AF250" s="199"/>
+      <c r="AG250" s="200"/>
+      <c r="AH250" s="198"/>
+      <c r="AI250" s="200"/>
+      <c r="AJ250" s="198"/>
+      <c r="AK250" s="199"/>
+      <c r="AL250" s="200"/>
       <c r="AM250" s="92"/>
       <c r="AN250" s="2"/>
       <c r="AP250" s="5"/>
@@ -17084,17 +17051,17 @@
       <c r="AA255" s="62"/>
       <c r="AB255" s="62"/>
       <c r="AC255" s="63"/>
-      <c r="AD255" s="213" t="s">
+      <c r="AD255" s="216" t="s">
         <v>239</v>
       </c>
-      <c r="AE255" s="214"/>
-      <c r="AF255" s="214"/>
-      <c r="AG255" s="214"/>
-      <c r="AH255" s="214"/>
-      <c r="AI255" s="214"/>
-      <c r="AJ255" s="214"/>
-      <c r="AK255" s="214"/>
-      <c r="AL255" s="215"/>
+      <c r="AE255" s="217"/>
+      <c r="AF255" s="217"/>
+      <c r="AG255" s="217"/>
+      <c r="AH255" s="217"/>
+      <c r="AI255" s="217"/>
+      <c r="AJ255" s="217"/>
+      <c r="AK255" s="217"/>
+      <c r="AL255" s="218"/>
       <c r="AM255" s="92"/>
       <c r="AN255" s="2"/>
       <c r="AP255" s="5"/>
@@ -17186,21 +17153,21 @@
       <c r="AA257" s="100"/>
       <c r="AB257" s="100"/>
       <c r="AC257" s="104"/>
-      <c r="AD257" s="204" t="s">
+      <c r="AD257" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="AE257" s="208"/>
-      <c r="AF257" s="208"/>
-      <c r="AG257" s="205"/>
-      <c r="AH257" s="204" t="s">
+      <c r="AE257" s="211"/>
+      <c r="AF257" s="211"/>
+      <c r="AG257" s="208"/>
+      <c r="AH257" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="AI257" s="205"/>
-      <c r="AJ257" s="204" t="s">
+      <c r="AI257" s="208"/>
+      <c r="AJ257" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="AK257" s="208"/>
-      <c r="AL257" s="205"/>
+      <c r="AK257" s="211"/>
+      <c r="AL257" s="208"/>
       <c r="AM257" s="92"/>
       <c r="AN257" s="2"/>
       <c r="AP257" s="5"/>
@@ -17238,15 +17205,15 @@
       <c r="AA258" s="99"/>
       <c r="AB258" s="99"/>
       <c r="AC258" s="103"/>
-      <c r="AD258" s="206"/>
-      <c r="AE258" s="209"/>
-      <c r="AF258" s="209"/>
-      <c r="AG258" s="207"/>
-      <c r="AH258" s="206"/>
-      <c r="AI258" s="207"/>
-      <c r="AJ258" s="206"/>
-      <c r="AK258" s="209"/>
-      <c r="AL258" s="207"/>
+      <c r="AD258" s="209"/>
+      <c r="AE258" s="212"/>
+      <c r="AF258" s="212"/>
+      <c r="AG258" s="210"/>
+      <c r="AH258" s="209"/>
+      <c r="AI258" s="210"/>
+      <c r="AJ258" s="209"/>
+      <c r="AK258" s="212"/>
+      <c r="AL258" s="210"/>
       <c r="AM258" s="92"/>
       <c r="AN258" s="2"/>
       <c r="AP258" s="5"/>
@@ -17286,21 +17253,21 @@
       <c r="AA259" s="98"/>
       <c r="AB259" s="98"/>
       <c r="AC259" s="102"/>
-      <c r="AD259" s="204" t="s">
+      <c r="AD259" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="AE259" s="208"/>
-      <c r="AF259" s="208"/>
-      <c r="AG259" s="205"/>
-      <c r="AH259" s="204" t="s">
+      <c r="AE259" s="211"/>
+      <c r="AF259" s="211"/>
+      <c r="AG259" s="208"/>
+      <c r="AH259" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="AI259" s="205"/>
-      <c r="AJ259" s="204" t="s">
+      <c r="AI259" s="208"/>
+      <c r="AJ259" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="AK259" s="208"/>
-      <c r="AL259" s="205"/>
+      <c r="AK259" s="211"/>
+      <c r="AL259" s="208"/>
       <c r="AM259" s="92"/>
       <c r="AN259" s="2"/>
       <c r="AP259" s="5"/>
@@ -17340,21 +17307,21 @@
       <c r="AA260" s="105"/>
       <c r="AB260" s="105"/>
       <c r="AC260" s="116"/>
-      <c r="AD260" s="192" t="s">
+      <c r="AD260" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AE260" s="193"/>
-      <c r="AF260" s="193"/>
-      <c r="AG260" s="194"/>
-      <c r="AH260" s="192" t="s">
+      <c r="AE260" s="190"/>
+      <c r="AF260" s="190"/>
+      <c r="AG260" s="191"/>
+      <c r="AH260" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AI260" s="194"/>
-      <c r="AJ260" s="192" t="s">
+      <c r="AI260" s="191"/>
+      <c r="AJ260" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AK260" s="193"/>
-      <c r="AL260" s="194"/>
+      <c r="AK260" s="190"/>
+      <c r="AL260" s="191"/>
       <c r="AM260" s="92"/>
       <c r="AN260" s="2"/>
       <c r="AP260" s="5"/>
@@ -17396,21 +17363,21 @@
       <c r="AA261" s="105"/>
       <c r="AB261" s="105"/>
       <c r="AC261" s="116"/>
-      <c r="AD261" s="192" t="s">
+      <c r="AD261" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AE261" s="193"/>
-      <c r="AF261" s="193"/>
-      <c r="AG261" s="194"/>
-      <c r="AH261" s="192" t="s">
+      <c r="AE261" s="190"/>
+      <c r="AF261" s="190"/>
+      <c r="AG261" s="191"/>
+      <c r="AH261" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AI261" s="194"/>
-      <c r="AJ261" s="192" t="s">
+      <c r="AI261" s="191"/>
+      <c r="AJ261" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AK261" s="193"/>
-      <c r="AL261" s="194"/>
+      <c r="AK261" s="190"/>
+      <c r="AL261" s="191"/>
       <c r="AM261" s="92"/>
       <c r="AN261" s="2"/>
       <c r="AP261" s="5"/>
@@ -17450,21 +17417,21 @@
       <c r="AA262" s="105"/>
       <c r="AB262" s="105"/>
       <c r="AC262" s="116"/>
-      <c r="AD262" s="192" t="s">
+      <c r="AD262" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AE262" s="193"/>
-      <c r="AF262" s="193"/>
-      <c r="AG262" s="194"/>
-      <c r="AH262" s="192" t="s">
+      <c r="AE262" s="190"/>
+      <c r="AF262" s="190"/>
+      <c r="AG262" s="191"/>
+      <c r="AH262" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AI262" s="194"/>
-      <c r="AJ262" s="192" t="s">
+      <c r="AI262" s="191"/>
+      <c r="AJ262" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AK262" s="193"/>
-      <c r="AL262" s="194"/>
+      <c r="AK262" s="190"/>
+      <c r="AL262" s="191"/>
       <c r="AM262" s="92"/>
       <c r="AN262" s="2"/>
       <c r="AP262" s="5"/>
@@ -17504,21 +17471,21 @@
       <c r="AA263" s="105"/>
       <c r="AB263" s="105"/>
       <c r="AC263" s="116"/>
-      <c r="AD263" s="210" t="s">
+      <c r="AD263" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="AE263" s="211"/>
-      <c r="AF263" s="211"/>
-      <c r="AG263" s="212"/>
-      <c r="AH263" s="210" t="s">
+      <c r="AE263" s="214"/>
+      <c r="AF263" s="214"/>
+      <c r="AG263" s="215"/>
+      <c r="AH263" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="AI263" s="212"/>
-      <c r="AJ263" s="192" t="s">
+      <c r="AI263" s="215"/>
+      <c r="AJ263" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AK263" s="193"/>
-      <c r="AL263" s="194"/>
+      <c r="AK263" s="190"/>
+      <c r="AL263" s="191"/>
       <c r="AM263" s="92"/>
       <c r="AN263" s="2"/>
       <c r="AP263" s="5"/>
@@ -17560,21 +17527,21 @@
       <c r="AA264" s="98"/>
       <c r="AB264" s="98"/>
       <c r="AC264" s="102"/>
-      <c r="AD264" s="198" t="s">
+      <c r="AD264" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AE264" s="199"/>
-      <c r="AF264" s="199"/>
-      <c r="AG264" s="200"/>
-      <c r="AH264" s="198" t="s">
+      <c r="AE264" s="205"/>
+      <c r="AF264" s="205"/>
+      <c r="AG264" s="206"/>
+      <c r="AH264" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AI264" s="200"/>
-      <c r="AJ264" s="198" t="s">
+      <c r="AI264" s="206"/>
+      <c r="AJ264" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AK264" s="199"/>
-      <c r="AL264" s="200"/>
+      <c r="AK264" s="205"/>
+      <c r="AL264" s="206"/>
       <c r="AM264" s="92"/>
       <c r="AN264" s="2"/>
       <c r="AP264" s="5"/>
@@ -18176,6 +18143,27 @@
     </row>
   </sheetData>
   <mergeCells count="234">
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AD237:AG240"/>
+    <mergeCell ref="AJ237:AL240"/>
+    <mergeCell ref="AH237:AI240"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="AE172:AJ172"/>
     <mergeCell ref="AH245:AI248"/>
     <mergeCell ref="AJ245:AL248"/>
     <mergeCell ref="AJ249:AL250"/>
@@ -18184,21 +18172,6 @@
     <mergeCell ref="AD241:AG244"/>
     <mergeCell ref="AH241:AI244"/>
     <mergeCell ref="AJ241:AL244"/>
-    <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="S164:X164"/>
     <mergeCell ref="S161:X161"/>
     <mergeCell ref="Y153:AD153"/>
     <mergeCell ref="Y154:AD154"/>
@@ -18207,11 +18180,8 @@
     <mergeCell ref="S149:X149"/>
     <mergeCell ref="S150:X150"/>
     <mergeCell ref="S152:X152"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AD237:AG240"/>
-    <mergeCell ref="AJ237:AL240"/>
-    <mergeCell ref="AH237:AI240"/>
-    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
     <mergeCell ref="S183:X183"/>
     <mergeCell ref="Y161:AD161"/>
     <mergeCell ref="Y162:AD162"/>
@@ -18222,11 +18192,20 @@
     <mergeCell ref="AE158:AJ158"/>
     <mergeCell ref="AE159:AJ159"/>
     <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="Y166:AD166"/>
     <mergeCell ref="S136:X136"/>
     <mergeCell ref="S145:X145"/>
     <mergeCell ref="S146:X146"/>
@@ -18236,9 +18215,6 @@
     <mergeCell ref="S140:X140"/>
     <mergeCell ref="S141:X141"/>
     <mergeCell ref="S137:X137"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE154:AJ154"/>
     <mergeCell ref="AE155:AJ155"/>
     <mergeCell ref="Y132:AD132"/>
     <mergeCell ref="Y134:AD134"/>
@@ -18260,6 +18236,9 @@
     <mergeCell ref="AE141:AJ141"/>
     <mergeCell ref="AE140:AJ140"/>
     <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="Y137:AD137"/>
     <mergeCell ref="S125:X125"/>
     <mergeCell ref="Y125:AD125"/>
     <mergeCell ref="Y126:AD126"/>
@@ -18326,29 +18305,6 @@
     <mergeCell ref="AD257:AG257"/>
     <mergeCell ref="AD258:AG258"/>
     <mergeCell ref="AD259:AG259"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="S168:X168"/>
     <mergeCell ref="AD260:AG260"/>
     <mergeCell ref="AD261:AG261"/>
     <mergeCell ref="AD262:AG262"/>
@@ -18360,10 +18316,6 @@
     <mergeCell ref="S176:X176"/>
     <mergeCell ref="Y176:AD176"/>
     <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
     <mergeCell ref="S184:X184"/>
     <mergeCell ref="Y184:AD184"/>
     <mergeCell ref="AE184:AJ184"/>
@@ -18386,6 +18338,21 @@
     <mergeCell ref="S162:X162"/>
     <mergeCell ref="S174:X174"/>
     <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="AE173:AJ173"/>
     <mergeCell ref="Y129:AD129"/>
     <mergeCell ref="S129:X129"/>
     <mergeCell ref="Y128:AD128"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="298">
   <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
@@ -550,29 +550,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属するグループメンバーのみ（及びスーパー管理者）</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾk</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オヨb</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>カn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属するグループの管理者のみ（及びスーパー管理者）</t>
-    <rPh sb="0" eb="2">
-      <t>sh</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3208,6 +3185,36 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属するグループメンバーのみ（及びスーパー管理者ユーザ）</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾk</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オヨb</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての管理者ユーザ（及びスーパー管理者ユーザ）</t>
+    <rPh sb="4" eb="7">
+      <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属するグループの管理者ユーザのみ（及びスーパー管理者ユーザ）</t>
+    <rPh sb="0" eb="2">
+      <t>sh</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4700,13 +4707,103 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4718,121 +4815,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4863,31 +4852,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6486,22 +6493,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="70" t="s">
+      <c r="F1" s="70" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6513,13 +6520,13 @@
         <v>42761</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" s="71"/>
     </row>
@@ -6532,13 +6539,13 @@
         <v>42771</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" s="71"/>
     </row>
@@ -6551,13 +6558,13 @@
         <v>42805</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="71"/>
     </row>
@@ -6570,13 +6577,13 @@
         <v>42913</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F5" s="71"/>
     </row>
@@ -6589,13 +6596,13 @@
         <v>42929</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" s="71"/>
     </row>
@@ -6608,13 +6615,13 @@
         <v>42937</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F7" s="71"/>
     </row>
@@ -6627,13 +6634,13 @@
         <v>42941</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8" s="71"/>
     </row>
@@ -6646,13 +6653,13 @@
         <v>42947</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F9" s="71"/>
     </row>
@@ -6665,13 +6672,13 @@
         <v>42974</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F10" s="71"/>
     </row>
@@ -6684,13 +6691,13 @@
         <v>42978</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F11" s="71"/>
     </row>
@@ -6703,13 +6710,13 @@
         <v>42979</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F12" s="71"/>
     </row>
@@ -6722,13 +6729,13 @@
         <v>42991</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F13" s="71"/>
     </row>
@@ -7234,18 +7241,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="222" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="224"/>
+      <c r="A1" s="216" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="218"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
@@ -7253,56 +7260,56 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="231" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="232"/>
-      <c r="Z1" s="233"/>
+      <c r="P1" s="225" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="227"/>
       <c r="AA1" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="228">
+      <c r="AD1" s="222">
         <v>42760</v>
       </c>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="230"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="223"/>
+      <c r="AG1" s="223"/>
+      <c r="AH1" s="224"/>
       <c r="AI1" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="219" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM1" s="220"/>
-      <c r="AN1" s="220"/>
-      <c r="AO1" s="220"/>
-      <c r="AP1" s="221"/>
+      <c r="AL1" s="213" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM1" s="214"/>
+      <c r="AN1" s="214"/>
+      <c r="AO1" s="214"/>
+      <c r="AP1" s="215"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="225"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="227"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="221"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
@@ -7310,41 +7317,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="233"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
       <c r="AA2" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="228">
+      <c r="AD2" s="222">
         <v>42991</v>
       </c>
-      <c r="AE2" s="229"/>
-      <c r="AF2" s="229"/>
-      <c r="AG2" s="229"/>
-      <c r="AH2" s="230"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="223"/>
+      <c r="AG2" s="223"/>
+      <c r="AH2" s="224"/>
       <c r="AI2" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="219" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" s="220"/>
-      <c r="AN2" s="220"/>
-      <c r="AO2" s="220"/>
-      <c r="AP2" s="221"/>
+      <c r="AL2" s="213" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="215"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7488,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -7538,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -7587,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -7633,10 +7640,10 @@
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -7785,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="2"/>
@@ -7796,7 +7803,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="2"/>
@@ -7807,7 +7814,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AP15" s="5"/>
       <c r="AQ15" s="2"/>
@@ -7818,7 +7825,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="2"/>
@@ -7832,7 +7839,7 @@
         <v>43</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="2"/>
@@ -8060,7 +8067,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -8107,10 +8114,10 @@
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -8259,7 +8266,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AP29" s="5"/>
       <c r="AQ29" s="2"/>
@@ -8298,7 +8305,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="2"/>
@@ -8306,10 +8313,10 @@
     <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="2"/>
@@ -8320,7 +8327,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AP34" s="5"/>
       <c r="AQ34" s="2"/>
@@ -8350,7 +8357,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AP37" s="5"/>
       <c r="AQ37" s="2"/>
@@ -8389,7 +8396,7 @@
       <c r="A39" s="4"/>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
@@ -8428,27 +8435,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="216" t="s">
+      <c r="L40" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="217"/>
-      <c r="N40" s="217"/>
-      <c r="O40" s="217"/>
-      <c r="P40" s="217"/>
-      <c r="Q40" s="217"/>
-      <c r="R40" s="217"/>
-      <c r="S40" s="217"/>
-      <c r="T40" s="217"/>
-      <c r="U40" s="217"/>
-      <c r="V40" s="217"/>
-      <c r="W40" s="217"/>
-      <c r="X40" s="217"/>
-      <c r="Y40" s="217"/>
-      <c r="Z40" s="217"/>
-      <c r="AA40" s="217"/>
-      <c r="AB40" s="217"/>
-      <c r="AC40" s="217"/>
-      <c r="AD40" s="218"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="190"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="190"/>
+      <c r="Q40" s="190"/>
+      <c r="R40" s="190"/>
+      <c r="S40" s="190"/>
+      <c r="T40" s="190"/>
+      <c r="U40" s="190"/>
+      <c r="V40" s="190"/>
+      <c r="W40" s="190"/>
+      <c r="X40" s="190"/>
+      <c r="Y40" s="190"/>
+      <c r="Z40" s="190"/>
+      <c r="AA40" s="190"/>
+      <c r="AB40" s="190"/>
+      <c r="AC40" s="190"/>
+      <c r="AD40" s="191"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8493,7 +8500,7 @@
       <c r="A42" s="4"/>
       <c r="E42" s="9"/>
       <c r="F42" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
@@ -8501,7 +8508,7 @@
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
       <c r="L42" s="204" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="M42" s="205"/>
       <c r="N42" s="205"/>
@@ -8529,7 +8536,7 @@
       <c r="A43" s="4"/>
       <c r="E43" s="9"/>
       <c r="F43" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -8537,7 +8544,7 @@
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
       <c r="L43" s="204" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="M43" s="205"/>
       <c r="N43" s="205"/>
@@ -8565,7 +8572,7 @@
       <c r="A44" s="4"/>
       <c r="E44" s="9"/>
       <c r="F44" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -8573,7 +8580,7 @@
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
       <c r="L44" s="204" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="M44" s="205"/>
       <c r="N44" s="205"/>
@@ -8666,7 +8673,7 @@
     <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="F47" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -8703,27 +8710,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="216" t="s">
+      <c r="L48" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="217"/>
-      <c r="N48" s="217"/>
-      <c r="O48" s="217"/>
-      <c r="P48" s="217"/>
-      <c r="Q48" s="217"/>
-      <c r="R48" s="217"/>
-      <c r="S48" s="217"/>
-      <c r="T48" s="217"/>
-      <c r="U48" s="217"/>
-      <c r="V48" s="217"/>
-      <c r="W48" s="217"/>
-      <c r="X48" s="217"/>
-      <c r="Y48" s="217"/>
-      <c r="Z48" s="217"/>
-      <c r="AA48" s="217"/>
-      <c r="AB48" s="217"/>
-      <c r="AC48" s="217"/>
-      <c r="AD48" s="218"/>
+      <c r="M48" s="190"/>
+      <c r="N48" s="190"/>
+      <c r="O48" s="190"/>
+      <c r="P48" s="190"/>
+      <c r="Q48" s="190"/>
+      <c r="R48" s="190"/>
+      <c r="S48" s="190"/>
+      <c r="T48" s="190"/>
+      <c r="U48" s="190"/>
+      <c r="V48" s="190"/>
+      <c r="W48" s="190"/>
+      <c r="X48" s="190"/>
+      <c r="Y48" s="190"/>
+      <c r="Z48" s="190"/>
+      <c r="AA48" s="190"/>
+      <c r="AB48" s="190"/>
+      <c r="AC48" s="190"/>
+      <c r="AD48" s="191"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8764,7 +8771,7 @@
     <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="F50" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
@@ -8772,7 +8779,7 @@
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
       <c r="L50" s="204" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M50" s="205"/>
       <c r="N50" s="205"/>
@@ -8991,7 +8998,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -9038,10 +9045,10 @@
       <c r="A76" s="14"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -9087,10 +9094,10 @@
       <c r="A77" s="14"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -9136,10 +9143,10 @@
       <c r="A78" s="14"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -9185,10 +9192,10 @@
       <c r="A79" s="14"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -9235,7 +9242,7 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -9373,7 +9380,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -9420,7 +9427,7 @@
       <c r="A84" s="14"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -9467,10 +9474,10 @@
       <c r="A85" s="14"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -9517,7 +9524,7 @@
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -9563,10 +9570,10 @@
       <c r="A87" s="14"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -9613,7 +9620,7 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -9707,13 +9714,13 @@
       <c r="D90" s="3"/>
       <c r="E90" s="38"/>
       <c r="F90" s="61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G90" s="62"/>
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K90" s="56"/>
       <c r="L90" s="56"/>
@@ -9726,14 +9733,14 @@
       <c r="S90" s="56"/>
       <c r="T90" s="57"/>
       <c r="U90" s="62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V90" s="62"/>
       <c r="W90" s="62"/>
       <c r="X90" s="62"/>
       <c r="Y90" s="62"/>
       <c r="Z90" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA90" s="62"/>
       <c r="AB90" s="62"/>
@@ -9741,7 +9748,7 @@
       <c r="AD90" s="62"/>
       <c r="AE90" s="63"/>
       <c r="AF90" s="62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG90" s="62"/>
       <c r="AH90" s="62"/>
@@ -9766,13 +9773,13 @@
       <c r="H91" s="65"/>
       <c r="I91" s="65"/>
       <c r="J91" s="58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K91" s="59"/>
       <c r="L91" s="59"/>
       <c r="M91" s="60"/>
       <c r="N91" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O91" s="59"/>
       <c r="P91" s="59"/>
@@ -9811,19 +9818,19 @@
       <c r="D92" s="3"/>
       <c r="E92" s="38"/>
       <c r="F92" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="34"/>
       <c r="J92" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="34"/>
       <c r="N92" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O92" s="12"/>
       <c r="P92" s="12"/>
@@ -9832,14 +9839,14 @@
       <c r="S92" s="12"/>
       <c r="T92" s="13"/>
       <c r="U92" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="13"/>
       <c r="Z92" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA92" s="12"/>
       <c r="AB92" s="12"/>
@@ -9847,7 +9854,7 @@
       <c r="AD92" s="12"/>
       <c r="AE92" s="13"/>
       <c r="AF92" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG92" s="12"/>
       <c r="AH92" s="12"/>
@@ -9868,19 +9875,19 @@
       <c r="D93" s="3"/>
       <c r="E93" s="38"/>
       <c r="F93" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="34"/>
       <c r="J93" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="34"/>
       <c r="N93" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
@@ -9889,14 +9896,14 @@
       <c r="S93" s="12"/>
       <c r="T93" s="13"/>
       <c r="U93" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="13"/>
       <c r="Z93" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
@@ -9904,7 +9911,7 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="13"/>
       <c r="AF93" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG93" s="12"/>
       <c r="AH93" s="12"/>
@@ -9925,19 +9932,19 @@
       <c r="D94" s="3"/>
       <c r="E94" s="38"/>
       <c r="F94" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="34"/>
       <c r="J94" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="34"/>
       <c r="N94" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
@@ -9946,14 +9953,14 @@
       <c r="S94" s="12"/>
       <c r="T94" s="13"/>
       <c r="U94" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="13"/>
       <c r="Z94" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
@@ -9961,7 +9968,7 @@
       <c r="AD94" s="12"/>
       <c r="AE94" s="13"/>
       <c r="AF94" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AG94" s="12"/>
       <c r="AH94" s="12"/>
@@ -9988,13 +9995,13 @@
       <c r="H95" s="12"/>
       <c r="I95" s="34"/>
       <c r="J95" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="34"/>
       <c r="N95" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
@@ -10003,14 +10010,14 @@
       <c r="S95" s="12"/>
       <c r="T95" s="13"/>
       <c r="U95" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V95" s="12"/>
       <c r="W95" s="12"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA95" s="12"/>
       <c r="AB95" s="12"/>
@@ -10018,7 +10025,7 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="13"/>
       <c r="AF95" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG95" s="12"/>
       <c r="AH95" s="12"/>
@@ -10045,13 +10052,13 @@
       <c r="H96" s="12"/>
       <c r="I96" s="34"/>
       <c r="J96" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="34"/>
       <c r="N96" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
@@ -10060,14 +10067,14 @@
       <c r="S96" s="12"/>
       <c r="T96" s="13"/>
       <c r="U96" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="13"/>
       <c r="Z96" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA96" s="12"/>
       <c r="AB96" s="12"/>
@@ -10075,7 +10082,7 @@
       <c r="AD96" s="12"/>
       <c r="AE96" s="13"/>
       <c r="AF96" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG96" s="12"/>
       <c r="AH96" s="12"/>
@@ -10138,7 +10145,7 @@
       <c r="A98" s="14"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -10185,10 +10192,10 @@
       <c r="A99" s="14"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -10234,10 +10241,10 @@
       <c r="A100" s="14"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -10284,7 +10291,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -10378,13 +10385,13 @@
       <c r="D103" s="3"/>
       <c r="E103" s="38"/>
       <c r="F103" s="61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G103" s="62"/>
       <c r="H103" s="62"/>
       <c r="I103" s="62"/>
       <c r="J103" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K103" s="56"/>
       <c r="L103" s="56"/>
@@ -10397,14 +10404,14 @@
       <c r="S103" s="56"/>
       <c r="T103" s="57"/>
       <c r="U103" s="62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V103" s="62"/>
       <c r="W103" s="62"/>
       <c r="X103" s="62"/>
       <c r="Y103" s="62"/>
       <c r="Z103" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA103" s="62"/>
       <c r="AB103" s="62"/>
@@ -10412,7 +10419,7 @@
       <c r="AD103" s="62"/>
       <c r="AE103" s="63"/>
       <c r="AF103" s="62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG103" s="62"/>
       <c r="AH103" s="62"/>
@@ -10437,13 +10444,13 @@
       <c r="H104" s="65"/>
       <c r="I104" s="65"/>
       <c r="J104" s="58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K104" s="59"/>
       <c r="L104" s="59"/>
       <c r="M104" s="60"/>
       <c r="N104" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O104" s="59"/>
       <c r="P104" s="59"/>
@@ -10482,19 +10489,19 @@
       <c r="D105" s="3"/>
       <c r="E105" s="38"/>
       <c r="F105" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="34"/>
       <c r="J105" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="34"/>
       <c r="N105" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
@@ -10503,14 +10510,14 @@
       <c r="S105" s="12"/>
       <c r="T105" s="13"/>
       <c r="U105" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V105" s="12"/>
       <c r="W105" s="12"/>
       <c r="X105" s="12"/>
       <c r="Y105" s="13"/>
       <c r="Z105" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA105" s="12"/>
       <c r="AB105" s="12"/>
@@ -10518,7 +10525,7 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="13"/>
       <c r="AF105" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG105" s="12"/>
       <c r="AH105" s="12"/>
@@ -10539,19 +10546,19 @@
       <c r="D106" s="3"/>
       <c r="E106" s="38"/>
       <c r="F106" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="34"/>
       <c r="J106" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="34"/>
       <c r="N106" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
@@ -10560,14 +10567,14 @@
       <c r="S106" s="12"/>
       <c r="T106" s="13"/>
       <c r="U106" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V106" s="12"/>
       <c r="W106" s="12"/>
       <c r="X106" s="12"/>
       <c r="Y106" s="13"/>
       <c r="Z106" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA106" s="12"/>
       <c r="AB106" s="12"/>
@@ -10575,7 +10582,7 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="13"/>
       <c r="AF106" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG106" s="12"/>
       <c r="AH106" s="12"/>
@@ -10596,19 +10603,19 @@
       <c r="D107" s="3"/>
       <c r="E107" s="38"/>
       <c r="F107" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="34"/>
       <c r="J107" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="34"/>
       <c r="N107" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
@@ -10617,14 +10624,14 @@
       <c r="S107" s="12"/>
       <c r="T107" s="13"/>
       <c r="U107" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA107" s="12"/>
       <c r="AB107" s="12"/>
@@ -10632,7 +10639,7 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="13"/>
       <c r="AF107" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AG107" s="12"/>
       <c r="AH107" s="12"/>
@@ -10659,13 +10666,13 @@
       <c r="H108" s="12"/>
       <c r="I108" s="34"/>
       <c r="J108" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="34"/>
       <c r="N108" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
@@ -10674,14 +10681,14 @@
       <c r="S108" s="12"/>
       <c r="T108" s="13"/>
       <c r="U108" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="13"/>
       <c r="Z108" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA108" s="12"/>
       <c r="AB108" s="12"/>
@@ -10689,7 +10696,7 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="13"/>
       <c r="AF108" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG108" s="12"/>
       <c r="AH108" s="12"/>
@@ -10716,13 +10723,13 @@
       <c r="H109" s="12"/>
       <c r="I109" s="34"/>
       <c r="J109" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="34"/>
       <c r="N109" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O109" s="12"/>
       <c r="P109" s="12"/>
@@ -10731,14 +10738,14 @@
       <c r="S109" s="12"/>
       <c r="T109" s="13"/>
       <c r="U109" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V109" s="12"/>
       <c r="W109" s="12"/>
       <c r="X109" s="12"/>
       <c r="Y109" s="13"/>
       <c r="Z109" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA109" s="12"/>
       <c r="AB109" s="12"/>
@@ -10746,7 +10753,7 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="13"/>
       <c r="AF109" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG109" s="12"/>
       <c r="AH109" s="12"/>
@@ -10849,7 +10856,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -10899,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -10948,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -11042,14 +11049,14 @@
       <c r="D116" s="3"/>
       <c r="E116" s="38"/>
       <c r="F116" s="85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G116" s="86"/>
       <c r="H116" s="86"/>
       <c r="I116" s="86"/>
       <c r="J116" s="86"/>
       <c r="K116" s="85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L116" s="86"/>
       <c r="M116" s="86"/>
@@ -11091,14 +11098,14 @@
       <c r="D117" s="3"/>
       <c r="E117" s="38"/>
       <c r="F117" s="84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="17"/>
       <c r="K117" s="84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -11140,14 +11147,14 @@
       <c r="D118" s="3"/>
       <c r="E118" s="38"/>
       <c r="F118" s="109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G118" s="105"/>
       <c r="H118" s="105"/>
       <c r="I118" s="105"/>
       <c r="J118" s="105"/>
       <c r="K118" s="109" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L118" s="105"/>
       <c r="M118" s="105"/>
@@ -11189,14 +11196,14 @@
       <c r="D119" s="3"/>
       <c r="E119" s="38"/>
       <c r="F119" s="125" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G119" s="113"/>
       <c r="H119" s="113"/>
       <c r="I119" s="113"/>
       <c r="J119" s="113"/>
       <c r="K119" s="125" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L119" s="113"/>
       <c r="M119" s="113"/>
@@ -11338,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AP123" s="5"/>
       <c r="AQ123" s="2"/>
@@ -11394,30 +11401,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="216" t="s">
+      <c r="S125" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="217"/>
-      <c r="U125" s="217"/>
-      <c r="V125" s="217"/>
-      <c r="W125" s="217"/>
-      <c r="X125" s="218"/>
-      <c r="Y125" s="216" t="s">
+      <c r="T125" s="190"/>
+      <c r="U125" s="190"/>
+      <c r="V125" s="190"/>
+      <c r="W125" s="190"/>
+      <c r="X125" s="191"/>
+      <c r="Y125" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="217"/>
-      <c r="AA125" s="217"/>
-      <c r="AB125" s="217"/>
-      <c r="AC125" s="217"/>
-      <c r="AD125" s="218"/>
-      <c r="AE125" s="216" t="s">
+      <c r="Z125" s="190"/>
+      <c r="AA125" s="190"/>
+      <c r="AB125" s="190"/>
+      <c r="AC125" s="190"/>
+      <c r="AD125" s="191"/>
+      <c r="AE125" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="217"/>
-      <c r="AG125" s="217"/>
-      <c r="AH125" s="217"/>
-      <c r="AI125" s="217"/>
-      <c r="AJ125" s="218"/>
+      <c r="AF125" s="190"/>
+      <c r="AG125" s="190"/>
+      <c r="AH125" s="190"/>
+      <c r="AI125" s="190"/>
+      <c r="AJ125" s="191"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11523,30 +11530,30 @@
       <c r="P128" s="130"/>
       <c r="Q128" s="130"/>
       <c r="R128" s="131"/>
-      <c r="S128" s="177" t="s">
+      <c r="S128" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="178"/>
-      <c r="U128" s="178"/>
-      <c r="V128" s="178"/>
-      <c r="W128" s="178"/>
-      <c r="X128" s="179"/>
-      <c r="Y128" s="177" t="s">
+      <c r="T128" s="208"/>
+      <c r="U128" s="208"/>
+      <c r="V128" s="208"/>
+      <c r="W128" s="208"/>
+      <c r="X128" s="209"/>
+      <c r="Y128" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="178"/>
-      <c r="AA128" s="178"/>
-      <c r="AB128" s="178"/>
-      <c r="AC128" s="178"/>
-      <c r="AD128" s="179"/>
-      <c r="AE128" s="177" t="s">
+      <c r="Z128" s="208"/>
+      <c r="AA128" s="208"/>
+      <c r="AB128" s="208"/>
+      <c r="AC128" s="208"/>
+      <c r="AD128" s="209"/>
+      <c r="AE128" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="178"/>
-      <c r="AG128" s="178"/>
-      <c r="AH128" s="178"/>
-      <c r="AI128" s="178"/>
-      <c r="AJ128" s="179"/>
+      <c r="AF128" s="208"/>
+      <c r="AG128" s="208"/>
+      <c r="AH128" s="208"/>
+      <c r="AI128" s="208"/>
+      <c r="AJ128" s="209"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11568,30 +11575,30 @@
       <c r="P129" s="127"/>
       <c r="Q129" s="127"/>
       <c r="R129" s="132"/>
-      <c r="S129" s="174" t="s">
+      <c r="S129" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="175"/>
-      <c r="U129" s="175"/>
-      <c r="V129" s="175"/>
-      <c r="W129" s="175"/>
-      <c r="X129" s="176"/>
-      <c r="Y129" s="174" t="s">
+      <c r="T129" s="211"/>
+      <c r="U129" s="211"/>
+      <c r="V129" s="211"/>
+      <c r="W129" s="211"/>
+      <c r="X129" s="212"/>
+      <c r="Y129" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="175"/>
-      <c r="AA129" s="175"/>
-      <c r="AB129" s="175"/>
-      <c r="AC129" s="175"/>
-      <c r="AD129" s="176"/>
-      <c r="AE129" s="174" t="s">
+      <c r="Z129" s="211"/>
+      <c r="AA129" s="211"/>
+      <c r="AB129" s="211"/>
+      <c r="AC129" s="211"/>
+      <c r="AD129" s="212"/>
+      <c r="AE129" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="175"/>
-      <c r="AG129" s="175"/>
-      <c r="AH129" s="175"/>
-      <c r="AI129" s="175"/>
-      <c r="AJ129" s="176"/>
+      <c r="AF129" s="211"/>
+      <c r="AG129" s="211"/>
+      <c r="AH129" s="211"/>
+      <c r="AI129" s="211"/>
+      <c r="AJ129" s="212"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11615,30 +11622,30 @@
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
       <c r="R130" s="133"/>
-      <c r="S130" s="180" t="s">
+      <c r="S130" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="181"/>
-      <c r="U130" s="181"/>
-      <c r="V130" s="181"/>
-      <c r="W130" s="181"/>
-      <c r="X130" s="182"/>
-      <c r="Y130" s="180" t="s">
+      <c r="T130" s="178"/>
+      <c r="U130" s="178"/>
+      <c r="V130" s="178"/>
+      <c r="W130" s="178"/>
+      <c r="X130" s="179"/>
+      <c r="Y130" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="181"/>
-      <c r="AA130" s="181"/>
-      <c r="AB130" s="181"/>
-      <c r="AC130" s="181"/>
-      <c r="AD130" s="182"/>
-      <c r="AE130" s="180" t="s">
+      <c r="Z130" s="178"/>
+      <c r="AA130" s="178"/>
+      <c r="AB130" s="178"/>
+      <c r="AC130" s="178"/>
+      <c r="AD130" s="179"/>
+      <c r="AE130" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="181"/>
-      <c r="AG130" s="181"/>
-      <c r="AH130" s="181"/>
-      <c r="AI130" s="181"/>
-      <c r="AJ130" s="182"/>
+      <c r="AF130" s="178"/>
+      <c r="AG130" s="178"/>
+      <c r="AH130" s="178"/>
+      <c r="AI130" s="178"/>
+      <c r="AJ130" s="179"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11656,30 +11663,30 @@
       <c r="P131" s="75"/>
       <c r="Q131" s="75"/>
       <c r="R131" s="133"/>
-      <c r="S131" s="180" t="s">
+      <c r="S131" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="181"/>
-      <c r="U131" s="181"/>
-      <c r="V131" s="181"/>
-      <c r="W131" s="181"/>
-      <c r="X131" s="182"/>
-      <c r="Y131" s="180" t="s">
+      <c r="T131" s="178"/>
+      <c r="U131" s="178"/>
+      <c r="V131" s="178"/>
+      <c r="W131" s="178"/>
+      <c r="X131" s="179"/>
+      <c r="Y131" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="181"/>
-      <c r="AA131" s="181"/>
-      <c r="AB131" s="181"/>
-      <c r="AC131" s="181"/>
-      <c r="AD131" s="182"/>
-      <c r="AE131" s="180" t="s">
+      <c r="Z131" s="178"/>
+      <c r="AA131" s="178"/>
+      <c r="AB131" s="178"/>
+      <c r="AC131" s="178"/>
+      <c r="AD131" s="179"/>
+      <c r="AE131" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="181"/>
-      <c r="AG131" s="181"/>
-      <c r="AH131" s="181"/>
-      <c r="AI131" s="181"/>
-      <c r="AJ131" s="182"/>
+      <c r="AF131" s="178"/>
+      <c r="AG131" s="178"/>
+      <c r="AH131" s="178"/>
+      <c r="AI131" s="178"/>
+      <c r="AJ131" s="179"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11701,30 +11708,30 @@
       <c r="P132" s="75"/>
       <c r="Q132" s="75"/>
       <c r="R132" s="133"/>
-      <c r="S132" s="180" t="s">
+      <c r="S132" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="181"/>
-      <c r="U132" s="181"/>
-      <c r="V132" s="181"/>
-      <c r="W132" s="181"/>
-      <c r="X132" s="182"/>
-      <c r="Y132" s="180" t="s">
+      <c r="T132" s="178"/>
+      <c r="U132" s="178"/>
+      <c r="V132" s="178"/>
+      <c r="W132" s="178"/>
+      <c r="X132" s="179"/>
+      <c r="Y132" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="181"/>
-      <c r="AA132" s="181"/>
-      <c r="AB132" s="181"/>
-      <c r="AC132" s="181"/>
-      <c r="AD132" s="182"/>
-      <c r="AE132" s="180" t="s">
+      <c r="Z132" s="178"/>
+      <c r="AA132" s="178"/>
+      <c r="AB132" s="178"/>
+      <c r="AC132" s="178"/>
+      <c r="AD132" s="179"/>
+      <c r="AE132" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="181"/>
-      <c r="AG132" s="181"/>
-      <c r="AH132" s="181"/>
-      <c r="AI132" s="181"/>
-      <c r="AJ132" s="182"/>
+      <c r="AF132" s="178"/>
+      <c r="AG132" s="178"/>
+      <c r="AH132" s="178"/>
+      <c r="AI132" s="178"/>
+      <c r="AJ132" s="179"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11733,7 +11740,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="68"/>
       <c r="G133" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
@@ -11746,30 +11753,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="183" t="s">
+      <c r="S133" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="184"/>
-      <c r="U133" s="184"/>
-      <c r="V133" s="184"/>
-      <c r="W133" s="184"/>
-      <c r="X133" s="185"/>
-      <c r="Y133" s="183" t="s">
+      <c r="T133" s="175"/>
+      <c r="U133" s="175"/>
+      <c r="V133" s="175"/>
+      <c r="W133" s="175"/>
+      <c r="X133" s="176"/>
+      <c r="Y133" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="184"/>
-      <c r="AA133" s="184"/>
-      <c r="AB133" s="184"/>
-      <c r="AC133" s="184"/>
-      <c r="AD133" s="185"/>
-      <c r="AE133" s="183" t="s">
+      <c r="Z133" s="175"/>
+      <c r="AA133" s="175"/>
+      <c r="AB133" s="175"/>
+      <c r="AC133" s="175"/>
+      <c r="AD133" s="176"/>
+      <c r="AE133" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="184"/>
-      <c r="AG133" s="184"/>
-      <c r="AH133" s="184"/>
-      <c r="AI133" s="184"/>
-      <c r="AJ133" s="185"/>
+      <c r="AF133" s="175"/>
+      <c r="AG133" s="175"/>
+      <c r="AH133" s="175"/>
+      <c r="AI133" s="175"/>
+      <c r="AJ133" s="176"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11778,7 +11785,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="15"/>
       <c r="G134" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H134" s="23"/>
       <c r="I134" s="23"/>
@@ -11793,30 +11800,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="183" t="s">
+      <c r="S134" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="184"/>
-      <c r="U134" s="184"/>
-      <c r="V134" s="184"/>
-      <c r="W134" s="184"/>
-      <c r="X134" s="185"/>
-      <c r="Y134" s="183" t="s">
+      <c r="T134" s="175"/>
+      <c r="U134" s="175"/>
+      <c r="V134" s="175"/>
+      <c r="W134" s="175"/>
+      <c r="X134" s="176"/>
+      <c r="Y134" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="184"/>
-      <c r="AA134" s="184"/>
-      <c r="AB134" s="184"/>
-      <c r="AC134" s="184"/>
-      <c r="AD134" s="185"/>
-      <c r="AE134" s="183" t="s">
+      <c r="Z134" s="175"/>
+      <c r="AA134" s="175"/>
+      <c r="AB134" s="175"/>
+      <c r="AC134" s="175"/>
+      <c r="AD134" s="176"/>
+      <c r="AE134" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="184"/>
-      <c r="AG134" s="184"/>
-      <c r="AH134" s="184"/>
-      <c r="AI134" s="184"/>
-      <c r="AJ134" s="185"/>
+      <c r="AF134" s="175"/>
+      <c r="AG134" s="175"/>
+      <c r="AH134" s="175"/>
+      <c r="AI134" s="175"/>
+      <c r="AJ134" s="176"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11834,30 +11841,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="183" t="s">
+      <c r="S135" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="184"/>
-      <c r="U135" s="184"/>
-      <c r="V135" s="184"/>
-      <c r="W135" s="184"/>
-      <c r="X135" s="185"/>
-      <c r="Y135" s="183" t="s">
+      <c r="T135" s="175"/>
+      <c r="U135" s="175"/>
+      <c r="V135" s="175"/>
+      <c r="W135" s="175"/>
+      <c r="X135" s="176"/>
+      <c r="Y135" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="184"/>
-      <c r="AA135" s="184"/>
-      <c r="AB135" s="184"/>
-      <c r="AC135" s="184"/>
-      <c r="AD135" s="185"/>
-      <c r="AE135" s="183" t="s">
+      <c r="Z135" s="175"/>
+      <c r="AA135" s="175"/>
+      <c r="AB135" s="175"/>
+      <c r="AC135" s="175"/>
+      <c r="AD135" s="176"/>
+      <c r="AE135" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="184"/>
-      <c r="AG135" s="184"/>
-      <c r="AH135" s="184"/>
-      <c r="AI135" s="184"/>
-      <c r="AJ135" s="185"/>
+      <c r="AF135" s="175"/>
+      <c r="AG135" s="175"/>
+      <c r="AH135" s="175"/>
+      <c r="AI135" s="175"/>
+      <c r="AJ135" s="176"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11879,30 +11886,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="183" t="s">
+      <c r="S136" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="184"/>
-      <c r="U136" s="184"/>
-      <c r="V136" s="184"/>
-      <c r="W136" s="184"/>
-      <c r="X136" s="185"/>
-      <c r="Y136" s="183" t="s">
+      <c r="T136" s="175"/>
+      <c r="U136" s="175"/>
+      <c r="V136" s="175"/>
+      <c r="W136" s="175"/>
+      <c r="X136" s="176"/>
+      <c r="Y136" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="184"/>
-      <c r="AA136" s="184"/>
-      <c r="AB136" s="184"/>
-      <c r="AC136" s="184"/>
-      <c r="AD136" s="185"/>
-      <c r="AE136" s="183" t="s">
+      <c r="Z136" s="175"/>
+      <c r="AA136" s="175"/>
+      <c r="AB136" s="175"/>
+      <c r="AC136" s="175"/>
+      <c r="AD136" s="176"/>
+      <c r="AE136" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="184"/>
-      <c r="AG136" s="184"/>
-      <c r="AH136" s="184"/>
-      <c r="AI136" s="184"/>
-      <c r="AJ136" s="185"/>
+      <c r="AF136" s="175"/>
+      <c r="AG136" s="175"/>
+      <c r="AH136" s="175"/>
+      <c r="AI136" s="175"/>
+      <c r="AJ136" s="176"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11911,7 +11918,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="68"/>
       <c r="G137" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
@@ -11924,30 +11931,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="183" t="s">
+      <c r="S137" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="184"/>
-      <c r="U137" s="184"/>
-      <c r="V137" s="184"/>
-      <c r="W137" s="184"/>
-      <c r="X137" s="185"/>
-      <c r="Y137" s="183" t="s">
+      <c r="T137" s="175"/>
+      <c r="U137" s="175"/>
+      <c r="V137" s="175"/>
+      <c r="W137" s="175"/>
+      <c r="X137" s="176"/>
+      <c r="Y137" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="184"/>
-      <c r="AA137" s="184"/>
-      <c r="AB137" s="184"/>
-      <c r="AC137" s="184"/>
-      <c r="AD137" s="185"/>
-      <c r="AE137" s="183" t="s">
+      <c r="Z137" s="175"/>
+      <c r="AA137" s="175"/>
+      <c r="AB137" s="175"/>
+      <c r="AC137" s="175"/>
+      <c r="AD137" s="176"/>
+      <c r="AE137" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="184"/>
-      <c r="AG137" s="184"/>
-      <c r="AH137" s="184"/>
-      <c r="AI137" s="184"/>
-      <c r="AJ137" s="185"/>
+      <c r="AF137" s="175"/>
+      <c r="AG137" s="175"/>
+      <c r="AH137" s="175"/>
+      <c r="AI137" s="175"/>
+      <c r="AJ137" s="176"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11956,7 +11963,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="15"/>
       <c r="G138" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H138" s="23"/>
       <c r="I138" s="23"/>
@@ -11971,30 +11978,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="183" t="s">
+      <c r="S138" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="184"/>
-      <c r="U138" s="184"/>
-      <c r="V138" s="184"/>
-      <c r="W138" s="184"/>
-      <c r="X138" s="185"/>
-      <c r="Y138" s="183" t="s">
+      <c r="T138" s="175"/>
+      <c r="U138" s="175"/>
+      <c r="V138" s="175"/>
+      <c r="W138" s="175"/>
+      <c r="X138" s="176"/>
+      <c r="Y138" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="184"/>
-      <c r="AA138" s="184"/>
-      <c r="AB138" s="184"/>
-      <c r="AC138" s="184"/>
-      <c r="AD138" s="185"/>
-      <c r="AE138" s="183" t="s">
+      <c r="Z138" s="175"/>
+      <c r="AA138" s="175"/>
+      <c r="AB138" s="175"/>
+      <c r="AC138" s="175"/>
+      <c r="AD138" s="176"/>
+      <c r="AE138" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="184"/>
-      <c r="AG138" s="184"/>
-      <c r="AH138" s="184"/>
-      <c r="AI138" s="184"/>
-      <c r="AJ138" s="185"/>
+      <c r="AF138" s="175"/>
+      <c r="AG138" s="175"/>
+      <c r="AH138" s="175"/>
+      <c r="AI138" s="175"/>
+      <c r="AJ138" s="176"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -12012,30 +12019,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="183" t="s">
+      <c r="S139" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="184"/>
-      <c r="U139" s="184"/>
-      <c r="V139" s="184"/>
-      <c r="W139" s="184"/>
-      <c r="X139" s="185"/>
-      <c r="Y139" s="183" t="s">
+      <c r="T139" s="175"/>
+      <c r="U139" s="175"/>
+      <c r="V139" s="175"/>
+      <c r="W139" s="175"/>
+      <c r="X139" s="176"/>
+      <c r="Y139" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="184"/>
-      <c r="AA139" s="184"/>
-      <c r="AB139" s="184"/>
-      <c r="AC139" s="184"/>
-      <c r="AD139" s="185"/>
-      <c r="AE139" s="183" t="s">
+      <c r="Z139" s="175"/>
+      <c r="AA139" s="175"/>
+      <c r="AB139" s="175"/>
+      <c r="AC139" s="175"/>
+      <c r="AD139" s="176"/>
+      <c r="AE139" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="184"/>
-      <c r="AG139" s="184"/>
-      <c r="AH139" s="184"/>
-      <c r="AI139" s="184"/>
-      <c r="AJ139" s="185"/>
+      <c r="AF139" s="175"/>
+      <c r="AG139" s="175"/>
+      <c r="AH139" s="175"/>
+      <c r="AI139" s="175"/>
+      <c r="AJ139" s="176"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -12057,30 +12064,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="183" t="s">
+      <c r="S140" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="184"/>
-      <c r="U140" s="184"/>
-      <c r="V140" s="184"/>
-      <c r="W140" s="184"/>
-      <c r="X140" s="185"/>
-      <c r="Y140" s="183" t="s">
+      <c r="T140" s="175"/>
+      <c r="U140" s="175"/>
+      <c r="V140" s="175"/>
+      <c r="W140" s="175"/>
+      <c r="X140" s="176"/>
+      <c r="Y140" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="184"/>
-      <c r="AA140" s="184"/>
-      <c r="AB140" s="184"/>
-      <c r="AC140" s="184"/>
-      <c r="AD140" s="185"/>
-      <c r="AE140" s="183" t="s">
+      <c r="Z140" s="175"/>
+      <c r="AA140" s="175"/>
+      <c r="AB140" s="175"/>
+      <c r="AC140" s="175"/>
+      <c r="AD140" s="176"/>
+      <c r="AE140" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="184"/>
-      <c r="AG140" s="184"/>
-      <c r="AH140" s="184"/>
-      <c r="AI140" s="184"/>
-      <c r="AJ140" s="185"/>
+      <c r="AF140" s="175"/>
+      <c r="AG140" s="175"/>
+      <c r="AH140" s="175"/>
+      <c r="AI140" s="175"/>
+      <c r="AJ140" s="176"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -12089,7 +12096,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="15"/>
       <c r="G141" s="74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H141" s="75"/>
       <c r="I141" s="75"/>
@@ -12102,30 +12109,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="183" t="s">
+      <c r="S141" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="T141" s="184"/>
-      <c r="U141" s="184"/>
-      <c r="V141" s="184"/>
-      <c r="W141" s="184"/>
-      <c r="X141" s="185"/>
-      <c r="Y141" s="183" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z141" s="184"/>
-      <c r="AA141" s="184"/>
-      <c r="AB141" s="184"/>
-      <c r="AC141" s="184"/>
-      <c r="AD141" s="185"/>
-      <c r="AE141" s="183" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF141" s="184"/>
-      <c r="AG141" s="184"/>
-      <c r="AH141" s="184"/>
-      <c r="AI141" s="184"/>
-      <c r="AJ141" s="185"/>
+      <c r="T141" s="175"/>
+      <c r="U141" s="175"/>
+      <c r="V141" s="175"/>
+      <c r="W141" s="175"/>
+      <c r="X141" s="176"/>
+      <c r="Y141" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z141" s="175"/>
+      <c r="AA141" s="175"/>
+      <c r="AB141" s="175"/>
+      <c r="AC141" s="175"/>
+      <c r="AD141" s="176"/>
+      <c r="AE141" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF141" s="175"/>
+      <c r="AG141" s="175"/>
+      <c r="AH141" s="175"/>
+      <c r="AI141" s="175"/>
+      <c r="AJ141" s="176"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -12134,7 +12141,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="15"/>
       <c r="G142" s="73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -12149,30 +12156,30 @@
       <c r="P142" s="134"/>
       <c r="Q142" s="134"/>
       <c r="R142" s="135"/>
-      <c r="S142" s="183" t="s">
+      <c r="S142" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="184"/>
-      <c r="U142" s="184"/>
-      <c r="V142" s="184"/>
-      <c r="W142" s="184"/>
-      <c r="X142" s="185"/>
-      <c r="Y142" s="183" t="s">
+      <c r="T142" s="175"/>
+      <c r="U142" s="175"/>
+      <c r="V142" s="175"/>
+      <c r="W142" s="175"/>
+      <c r="X142" s="176"/>
+      <c r="Y142" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="184"/>
-      <c r="AA142" s="184"/>
-      <c r="AB142" s="184"/>
-      <c r="AC142" s="184"/>
-      <c r="AD142" s="185"/>
-      <c r="AE142" s="183" t="s">
+      <c r="Z142" s="175"/>
+      <c r="AA142" s="175"/>
+      <c r="AB142" s="175"/>
+      <c r="AC142" s="175"/>
+      <c r="AD142" s="176"/>
+      <c r="AE142" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="184"/>
-      <c r="AG142" s="184"/>
-      <c r="AH142" s="184"/>
-      <c r="AI142" s="184"/>
-      <c r="AJ142" s="185"/>
+      <c r="AF142" s="175"/>
+      <c r="AG142" s="175"/>
+      <c r="AH142" s="175"/>
+      <c r="AI142" s="175"/>
+      <c r="AJ142" s="176"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -12190,30 +12197,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="183" t="s">
+      <c r="S143" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="184"/>
-      <c r="U143" s="184"/>
-      <c r="V143" s="184"/>
-      <c r="W143" s="184"/>
-      <c r="X143" s="185"/>
-      <c r="Y143" s="183" t="s">
+      <c r="T143" s="175"/>
+      <c r="U143" s="175"/>
+      <c r="V143" s="175"/>
+      <c r="W143" s="175"/>
+      <c r="X143" s="176"/>
+      <c r="Y143" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="184"/>
-      <c r="AA143" s="184"/>
-      <c r="AB143" s="184"/>
-      <c r="AC143" s="184"/>
-      <c r="AD143" s="185"/>
-      <c r="AE143" s="183" t="s">
+      <c r="Z143" s="175"/>
+      <c r="AA143" s="175"/>
+      <c r="AB143" s="175"/>
+      <c r="AC143" s="175"/>
+      <c r="AD143" s="176"/>
+      <c r="AE143" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="184"/>
-      <c r="AG143" s="184"/>
-      <c r="AH143" s="184"/>
-      <c r="AI143" s="184"/>
-      <c r="AJ143" s="185"/>
+      <c r="AF143" s="175"/>
+      <c r="AG143" s="175"/>
+      <c r="AH143" s="175"/>
+      <c r="AI143" s="175"/>
+      <c r="AJ143" s="176"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -12235,30 +12242,30 @@
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="76"/>
-      <c r="S144" s="180" t="s">
+      <c r="S144" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="181"/>
-      <c r="U144" s="181"/>
-      <c r="V144" s="181"/>
-      <c r="W144" s="181"/>
-      <c r="X144" s="182"/>
-      <c r="Y144" s="180" t="s">
+      <c r="T144" s="178"/>
+      <c r="U144" s="178"/>
+      <c r="V144" s="178"/>
+      <c r="W144" s="178"/>
+      <c r="X144" s="179"/>
+      <c r="Y144" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z144" s="181"/>
-      <c r="AA144" s="181"/>
-      <c r="AB144" s="181"/>
-      <c r="AC144" s="181"/>
-      <c r="AD144" s="182"/>
-      <c r="AE144" s="180" t="s">
+      <c r="Z144" s="178"/>
+      <c r="AA144" s="178"/>
+      <c r="AB144" s="178"/>
+      <c r="AC144" s="178"/>
+      <c r="AD144" s="179"/>
+      <c r="AE144" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="181"/>
-      <c r="AG144" s="181"/>
-      <c r="AH144" s="181"/>
-      <c r="AI144" s="181"/>
-      <c r="AJ144" s="182"/>
+      <c r="AF144" s="178"/>
+      <c r="AG144" s="178"/>
+      <c r="AH144" s="178"/>
+      <c r="AI144" s="178"/>
+      <c r="AJ144" s="179"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -12280,30 +12287,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="183" t="s">
+      <c r="S145" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="184"/>
-      <c r="U145" s="184"/>
-      <c r="V145" s="184"/>
-      <c r="W145" s="184"/>
-      <c r="X145" s="185"/>
-      <c r="Y145" s="183" t="s">
+      <c r="T145" s="175"/>
+      <c r="U145" s="175"/>
+      <c r="V145" s="175"/>
+      <c r="W145" s="175"/>
+      <c r="X145" s="176"/>
+      <c r="Y145" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="184"/>
-      <c r="AA145" s="184"/>
-      <c r="AB145" s="184"/>
-      <c r="AC145" s="184"/>
-      <c r="AD145" s="185"/>
-      <c r="AE145" s="183" t="s">
+      <c r="Z145" s="175"/>
+      <c r="AA145" s="175"/>
+      <c r="AB145" s="175"/>
+      <c r="AC145" s="175"/>
+      <c r="AD145" s="176"/>
+      <c r="AE145" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="184"/>
-      <c r="AG145" s="184"/>
-      <c r="AH145" s="184"/>
-      <c r="AI145" s="184"/>
-      <c r="AJ145" s="185"/>
+      <c r="AF145" s="175"/>
+      <c r="AG145" s="175"/>
+      <c r="AH145" s="175"/>
+      <c r="AI145" s="175"/>
+      <c r="AJ145" s="176"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -12312,7 +12319,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="15"/>
       <c r="G146" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H146" s="23"/>
       <c r="I146" s="23"/>
@@ -12327,30 +12334,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="183" t="s">
+      <c r="S146" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="184"/>
-      <c r="U146" s="184"/>
-      <c r="V146" s="184"/>
-      <c r="W146" s="184"/>
-      <c r="X146" s="185"/>
-      <c r="Y146" s="183" t="s">
+      <c r="T146" s="175"/>
+      <c r="U146" s="175"/>
+      <c r="V146" s="175"/>
+      <c r="W146" s="175"/>
+      <c r="X146" s="176"/>
+      <c r="Y146" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="184"/>
-      <c r="AA146" s="184"/>
-      <c r="AB146" s="184"/>
-      <c r="AC146" s="184"/>
-      <c r="AD146" s="185"/>
-      <c r="AE146" s="183" t="s">
+      <c r="Z146" s="175"/>
+      <c r="AA146" s="175"/>
+      <c r="AB146" s="175"/>
+      <c r="AC146" s="175"/>
+      <c r="AD146" s="176"/>
+      <c r="AE146" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="184"/>
-      <c r="AG146" s="184"/>
-      <c r="AH146" s="184"/>
-      <c r="AI146" s="184"/>
-      <c r="AJ146" s="185"/>
+      <c r="AF146" s="175"/>
+      <c r="AG146" s="175"/>
+      <c r="AH146" s="175"/>
+      <c r="AI146" s="175"/>
+      <c r="AJ146" s="176"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -12368,30 +12375,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="183" t="s">
+      <c r="S147" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="184"/>
-      <c r="U147" s="184"/>
-      <c r="V147" s="184"/>
-      <c r="W147" s="184"/>
-      <c r="X147" s="185"/>
-      <c r="Y147" s="183" t="s">
+      <c r="T147" s="175"/>
+      <c r="U147" s="175"/>
+      <c r="V147" s="175"/>
+      <c r="W147" s="175"/>
+      <c r="X147" s="176"/>
+      <c r="Y147" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="184"/>
-      <c r="AA147" s="184"/>
-      <c r="AB147" s="184"/>
-      <c r="AC147" s="184"/>
-      <c r="AD147" s="185"/>
-      <c r="AE147" s="183" t="s">
+      <c r="Z147" s="175"/>
+      <c r="AA147" s="175"/>
+      <c r="AB147" s="175"/>
+      <c r="AC147" s="175"/>
+      <c r="AD147" s="176"/>
+      <c r="AE147" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="184"/>
-      <c r="AG147" s="184"/>
-      <c r="AH147" s="184"/>
-      <c r="AI147" s="184"/>
-      <c r="AJ147" s="185"/>
+      <c r="AF147" s="175"/>
+      <c r="AG147" s="175"/>
+      <c r="AH147" s="175"/>
+      <c r="AI147" s="175"/>
+      <c r="AJ147" s="176"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12413,30 +12420,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="183" t="s">
+      <c r="S148" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="184"/>
-      <c r="U148" s="184"/>
-      <c r="V148" s="184"/>
-      <c r="W148" s="184"/>
-      <c r="X148" s="185"/>
-      <c r="Y148" s="183" t="s">
+      <c r="T148" s="175"/>
+      <c r="U148" s="175"/>
+      <c r="V148" s="175"/>
+      <c r="W148" s="175"/>
+      <c r="X148" s="176"/>
+      <c r="Y148" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="184"/>
-      <c r="AA148" s="184"/>
-      <c r="AB148" s="184"/>
-      <c r="AC148" s="184"/>
-      <c r="AD148" s="185"/>
-      <c r="AE148" s="183" t="s">
+      <c r="Z148" s="175"/>
+      <c r="AA148" s="175"/>
+      <c r="AB148" s="175"/>
+      <c r="AC148" s="175"/>
+      <c r="AD148" s="176"/>
+      <c r="AE148" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="184"/>
-      <c r="AG148" s="184"/>
-      <c r="AH148" s="184"/>
-      <c r="AI148" s="184"/>
-      <c r="AJ148" s="185"/>
+      <c r="AF148" s="175"/>
+      <c r="AG148" s="175"/>
+      <c r="AH148" s="175"/>
+      <c r="AI148" s="175"/>
+      <c r="AJ148" s="176"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12460,30 +12467,30 @@
       <c r="P149" s="75"/>
       <c r="Q149" s="75"/>
       <c r="R149" s="76"/>
-      <c r="S149" s="180" t="s">
+      <c r="S149" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="181"/>
-      <c r="U149" s="181"/>
-      <c r="V149" s="181"/>
-      <c r="W149" s="181"/>
-      <c r="X149" s="182"/>
-      <c r="Y149" s="180" t="s">
+      <c r="T149" s="178"/>
+      <c r="U149" s="178"/>
+      <c r="V149" s="178"/>
+      <c r="W149" s="178"/>
+      <c r="X149" s="179"/>
+      <c r="Y149" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="181"/>
-      <c r="AA149" s="181"/>
-      <c r="AB149" s="181"/>
-      <c r="AC149" s="181"/>
-      <c r="AD149" s="182"/>
-      <c r="AE149" s="180" t="s">
+      <c r="Z149" s="178"/>
+      <c r="AA149" s="178"/>
+      <c r="AB149" s="178"/>
+      <c r="AC149" s="178"/>
+      <c r="AD149" s="179"/>
+      <c r="AE149" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF149" s="181"/>
-      <c r="AG149" s="181"/>
-      <c r="AH149" s="181"/>
-      <c r="AI149" s="181"/>
-      <c r="AJ149" s="182"/>
+      <c r="AF149" s="178"/>
+      <c r="AG149" s="178"/>
+      <c r="AH149" s="178"/>
+      <c r="AI149" s="178"/>
+      <c r="AJ149" s="179"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -12505,30 +12512,30 @@
       <c r="P150" s="75"/>
       <c r="Q150" s="75"/>
       <c r="R150" s="76"/>
-      <c r="S150" s="180" t="s">
+      <c r="S150" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="181"/>
-      <c r="U150" s="181"/>
-      <c r="V150" s="181"/>
-      <c r="W150" s="181"/>
-      <c r="X150" s="182"/>
-      <c r="Y150" s="180" t="s">
+      <c r="T150" s="178"/>
+      <c r="U150" s="178"/>
+      <c r="V150" s="178"/>
+      <c r="W150" s="178"/>
+      <c r="X150" s="179"/>
+      <c r="Y150" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="181"/>
-      <c r="AA150" s="181"/>
-      <c r="AB150" s="181"/>
-      <c r="AC150" s="181"/>
-      <c r="AD150" s="182"/>
-      <c r="AE150" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF150" s="181"/>
-      <c r="AG150" s="181"/>
-      <c r="AH150" s="181"/>
-      <c r="AI150" s="181"/>
-      <c r="AJ150" s="182"/>
+      <c r="Z150" s="178"/>
+      <c r="AA150" s="178"/>
+      <c r="AB150" s="178"/>
+      <c r="AC150" s="178"/>
+      <c r="AD150" s="179"/>
+      <c r="AE150" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF150" s="178"/>
+      <c r="AG150" s="178"/>
+      <c r="AH150" s="178"/>
+      <c r="AI150" s="178"/>
+      <c r="AJ150" s="179"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12537,7 +12544,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="15"/>
       <c r="G151" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H151" s="23"/>
       <c r="I151" s="23"/>
@@ -12552,30 +12559,30 @@
       <c r="P151" s="75"/>
       <c r="Q151" s="75"/>
       <c r="R151" s="76"/>
-      <c r="S151" s="180" t="s">
+      <c r="S151" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="181"/>
-      <c r="U151" s="181"/>
-      <c r="V151" s="181"/>
-      <c r="W151" s="181"/>
-      <c r="X151" s="182"/>
-      <c r="Y151" s="180" t="s">
+      <c r="T151" s="178"/>
+      <c r="U151" s="178"/>
+      <c r="V151" s="178"/>
+      <c r="W151" s="178"/>
+      <c r="X151" s="179"/>
+      <c r="Y151" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="181"/>
-      <c r="AA151" s="181"/>
-      <c r="AB151" s="181"/>
-      <c r="AC151" s="181"/>
-      <c r="AD151" s="182"/>
-      <c r="AE151" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF151" s="181"/>
-      <c r="AG151" s="181"/>
-      <c r="AH151" s="181"/>
-      <c r="AI151" s="181"/>
-      <c r="AJ151" s="182"/>
+      <c r="Z151" s="178"/>
+      <c r="AA151" s="178"/>
+      <c r="AB151" s="178"/>
+      <c r="AC151" s="178"/>
+      <c r="AD151" s="179"/>
+      <c r="AE151" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF151" s="178"/>
+      <c r="AG151" s="178"/>
+      <c r="AH151" s="178"/>
+      <c r="AI151" s="178"/>
+      <c r="AJ151" s="179"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12597,30 +12604,30 @@
       <c r="P152" s="75"/>
       <c r="Q152" s="75"/>
       <c r="R152" s="76"/>
-      <c r="S152" s="180" t="s">
+      <c r="S152" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="181"/>
-      <c r="U152" s="181"/>
-      <c r="V152" s="181"/>
-      <c r="W152" s="181"/>
-      <c r="X152" s="182"/>
-      <c r="Y152" s="180" t="s">
+      <c r="T152" s="178"/>
+      <c r="U152" s="178"/>
+      <c r="V152" s="178"/>
+      <c r="W152" s="178"/>
+      <c r="X152" s="179"/>
+      <c r="Y152" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="181"/>
-      <c r="AA152" s="181"/>
-      <c r="AB152" s="181"/>
-      <c r="AC152" s="181"/>
-      <c r="AD152" s="182"/>
-      <c r="AE152" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF152" s="181"/>
-      <c r="AG152" s="181"/>
-      <c r="AH152" s="181"/>
-      <c r="AI152" s="181"/>
-      <c r="AJ152" s="182"/>
+      <c r="Z152" s="178"/>
+      <c r="AA152" s="178"/>
+      <c r="AB152" s="178"/>
+      <c r="AC152" s="178"/>
+      <c r="AD152" s="179"/>
+      <c r="AE152" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF152" s="178"/>
+      <c r="AG152" s="178"/>
+      <c r="AH152" s="178"/>
+      <c r="AI152" s="178"/>
+      <c r="AJ152" s="179"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12644,30 +12651,30 @@
       <c r="P153" s="75"/>
       <c r="Q153" s="75"/>
       <c r="R153" s="76"/>
-      <c r="S153" s="180" t="s">
+      <c r="S153" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="181"/>
-      <c r="U153" s="181"/>
-      <c r="V153" s="181"/>
-      <c r="W153" s="181"/>
-      <c r="X153" s="182"/>
-      <c r="Y153" s="180" t="s">
+      <c r="T153" s="178"/>
+      <c r="U153" s="178"/>
+      <c r="V153" s="178"/>
+      <c r="W153" s="178"/>
+      <c r="X153" s="179"/>
+      <c r="Y153" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="181"/>
-      <c r="AA153" s="181"/>
-      <c r="AB153" s="181"/>
-      <c r="AC153" s="181"/>
-      <c r="AD153" s="182"/>
-      <c r="AE153" s="180" t="s">
+      <c r="Z153" s="178"/>
+      <c r="AA153" s="178"/>
+      <c r="AB153" s="178"/>
+      <c r="AC153" s="178"/>
+      <c r="AD153" s="179"/>
+      <c r="AE153" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF153" s="181"/>
-      <c r="AG153" s="181"/>
-      <c r="AH153" s="181"/>
-      <c r="AI153" s="181"/>
-      <c r="AJ153" s="182"/>
+      <c r="AF153" s="178"/>
+      <c r="AG153" s="178"/>
+      <c r="AH153" s="178"/>
+      <c r="AI153" s="178"/>
+      <c r="AJ153" s="179"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12691,30 +12698,30 @@
       <c r="P154" s="75"/>
       <c r="Q154" s="75"/>
       <c r="R154" s="76"/>
-      <c r="S154" s="180" t="s">
+      <c r="S154" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="181"/>
-      <c r="U154" s="181"/>
-      <c r="V154" s="181"/>
-      <c r="W154" s="181"/>
-      <c r="X154" s="182"/>
-      <c r="Y154" s="180" t="s">
+      <c r="T154" s="178"/>
+      <c r="U154" s="178"/>
+      <c r="V154" s="178"/>
+      <c r="W154" s="178"/>
+      <c r="X154" s="179"/>
+      <c r="Y154" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="181"/>
-      <c r="AA154" s="181"/>
-      <c r="AB154" s="181"/>
-      <c r="AC154" s="181"/>
-      <c r="AD154" s="182"/>
-      <c r="AE154" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF154" s="181"/>
-      <c r="AG154" s="181"/>
-      <c r="AH154" s="181"/>
-      <c r="AI154" s="181"/>
-      <c r="AJ154" s="182"/>
+      <c r="Z154" s="178"/>
+      <c r="AA154" s="178"/>
+      <c r="AB154" s="178"/>
+      <c r="AC154" s="178"/>
+      <c r="AD154" s="179"/>
+      <c r="AE154" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF154" s="178"/>
+      <c r="AG154" s="178"/>
+      <c r="AH154" s="178"/>
+      <c r="AI154" s="178"/>
+      <c r="AJ154" s="179"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12738,30 +12745,30 @@
       <c r="P155" s="75"/>
       <c r="Q155" s="75"/>
       <c r="R155" s="76"/>
-      <c r="S155" s="180" t="s">
+      <c r="S155" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="181"/>
-      <c r="U155" s="181"/>
-      <c r="V155" s="181"/>
-      <c r="W155" s="181"/>
-      <c r="X155" s="182"/>
-      <c r="Y155" s="180" t="s">
+      <c r="T155" s="178"/>
+      <c r="U155" s="178"/>
+      <c r="V155" s="178"/>
+      <c r="W155" s="178"/>
+      <c r="X155" s="179"/>
+      <c r="Y155" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="181"/>
-      <c r="AA155" s="181"/>
-      <c r="AB155" s="181"/>
-      <c r="AC155" s="181"/>
-      <c r="AD155" s="182"/>
-      <c r="AE155" s="180" t="s">
+      <c r="Z155" s="178"/>
+      <c r="AA155" s="178"/>
+      <c r="AB155" s="178"/>
+      <c r="AC155" s="178"/>
+      <c r="AD155" s="179"/>
+      <c r="AE155" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF155" s="181"/>
-      <c r="AG155" s="181"/>
-      <c r="AH155" s="181"/>
-      <c r="AI155" s="181"/>
-      <c r="AJ155" s="182"/>
+      <c r="AF155" s="178"/>
+      <c r="AG155" s="178"/>
+      <c r="AH155" s="178"/>
+      <c r="AI155" s="178"/>
+      <c r="AJ155" s="179"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12785,30 +12792,30 @@
       <c r="P156" s="75"/>
       <c r="Q156" s="75"/>
       <c r="R156" s="76"/>
-      <c r="S156" s="180" t="s">
+      <c r="S156" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="181"/>
-      <c r="U156" s="181"/>
-      <c r="V156" s="181"/>
-      <c r="W156" s="181"/>
-      <c r="X156" s="182"/>
-      <c r="Y156" s="180" t="s">
+      <c r="T156" s="178"/>
+      <c r="U156" s="178"/>
+      <c r="V156" s="178"/>
+      <c r="W156" s="178"/>
+      <c r="X156" s="179"/>
+      <c r="Y156" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="181"/>
-      <c r="AA156" s="181"/>
-      <c r="AB156" s="181"/>
-      <c r="AC156" s="181"/>
-      <c r="AD156" s="182"/>
-      <c r="AE156" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF156" s="181"/>
-      <c r="AG156" s="181"/>
-      <c r="AH156" s="181"/>
-      <c r="AI156" s="181"/>
-      <c r="AJ156" s="182"/>
+      <c r="Z156" s="178"/>
+      <c r="AA156" s="178"/>
+      <c r="AB156" s="178"/>
+      <c r="AC156" s="178"/>
+      <c r="AD156" s="179"/>
+      <c r="AE156" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF156" s="178"/>
+      <c r="AG156" s="178"/>
+      <c r="AH156" s="178"/>
+      <c r="AI156" s="178"/>
+      <c r="AJ156" s="179"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12832,30 +12839,30 @@
       <c r="P157" s="75"/>
       <c r="Q157" s="75"/>
       <c r="R157" s="76"/>
-      <c r="S157" s="180" t="s">
+      <c r="S157" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="181"/>
-      <c r="U157" s="181"/>
-      <c r="V157" s="181"/>
-      <c r="W157" s="181"/>
-      <c r="X157" s="182"/>
-      <c r="Y157" s="180" t="s">
+      <c r="T157" s="178"/>
+      <c r="U157" s="178"/>
+      <c r="V157" s="178"/>
+      <c r="W157" s="178"/>
+      <c r="X157" s="179"/>
+      <c r="Y157" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="181"/>
-      <c r="AA157" s="181"/>
-      <c r="AB157" s="181"/>
-      <c r="AC157" s="181"/>
-      <c r="AD157" s="182"/>
-      <c r="AE157" s="180" t="s">
+      <c r="Z157" s="178"/>
+      <c r="AA157" s="178"/>
+      <c r="AB157" s="178"/>
+      <c r="AC157" s="178"/>
+      <c r="AD157" s="179"/>
+      <c r="AE157" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF157" s="181"/>
-      <c r="AG157" s="181"/>
-      <c r="AH157" s="181"/>
-      <c r="AI157" s="181"/>
-      <c r="AJ157" s="182"/>
+      <c r="AF157" s="178"/>
+      <c r="AG157" s="178"/>
+      <c r="AH157" s="178"/>
+      <c r="AI157" s="178"/>
+      <c r="AJ157" s="179"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12877,30 +12884,30 @@
       <c r="P158" s="75"/>
       <c r="Q158" s="75"/>
       <c r="R158" s="76"/>
-      <c r="S158" s="180" t="s">
+      <c r="S158" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="181"/>
-      <c r="U158" s="181"/>
-      <c r="V158" s="181"/>
-      <c r="W158" s="181"/>
-      <c r="X158" s="182"/>
-      <c r="Y158" s="180" t="s">
+      <c r="T158" s="178"/>
+      <c r="U158" s="178"/>
+      <c r="V158" s="178"/>
+      <c r="W158" s="178"/>
+      <c r="X158" s="179"/>
+      <c r="Y158" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="181"/>
-      <c r="AA158" s="181"/>
-      <c r="AB158" s="181"/>
-      <c r="AC158" s="181"/>
-      <c r="AD158" s="182"/>
-      <c r="AE158" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF158" s="181"/>
-      <c r="AG158" s="181"/>
-      <c r="AH158" s="181"/>
-      <c r="AI158" s="181"/>
-      <c r="AJ158" s="182"/>
+      <c r="Z158" s="178"/>
+      <c r="AA158" s="178"/>
+      <c r="AB158" s="178"/>
+      <c r="AC158" s="178"/>
+      <c r="AD158" s="179"/>
+      <c r="AE158" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF158" s="178"/>
+      <c r="AG158" s="178"/>
+      <c r="AH158" s="178"/>
+      <c r="AI158" s="178"/>
+      <c r="AJ158" s="179"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12909,7 +12916,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="15"/>
       <c r="G159" s="136" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H159" s="134"/>
       <c r="I159" s="134"/>
@@ -12922,30 +12929,30 @@
       <c r="P159" s="134"/>
       <c r="Q159" s="134"/>
       <c r="R159" s="135"/>
-      <c r="S159" s="180" t="s">
+      <c r="S159" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="181"/>
-      <c r="U159" s="181"/>
-      <c r="V159" s="181"/>
-      <c r="W159" s="181"/>
-      <c r="X159" s="182"/>
-      <c r="Y159" s="180" t="s">
+      <c r="T159" s="178"/>
+      <c r="U159" s="178"/>
+      <c r="V159" s="178"/>
+      <c r="W159" s="178"/>
+      <c r="X159" s="179"/>
+      <c r="Y159" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="181"/>
-      <c r="AA159" s="181"/>
-      <c r="AB159" s="181"/>
-      <c r="AC159" s="181"/>
-      <c r="AD159" s="182"/>
-      <c r="AE159" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF159" s="181"/>
-      <c r="AG159" s="181"/>
-      <c r="AH159" s="181"/>
-      <c r="AI159" s="181"/>
-      <c r="AJ159" s="182"/>
+      <c r="Z159" s="178"/>
+      <c r="AA159" s="178"/>
+      <c r="AB159" s="178"/>
+      <c r="AC159" s="178"/>
+      <c r="AD159" s="179"/>
+      <c r="AE159" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF159" s="178"/>
+      <c r="AG159" s="178"/>
+      <c r="AH159" s="178"/>
+      <c r="AI159" s="178"/>
+      <c r="AJ159" s="179"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12954,7 +12961,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="15"/>
       <c r="G160" s="74" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H160" s="75"/>
       <c r="I160" s="75"/>
@@ -12967,30 +12974,30 @@
       <c r="P160" s="75"/>
       <c r="Q160" s="75"/>
       <c r="R160" s="76"/>
-      <c r="S160" s="180" t="s">
+      <c r="S160" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="181"/>
-      <c r="U160" s="181"/>
-      <c r="V160" s="181"/>
-      <c r="W160" s="181"/>
-      <c r="X160" s="182"/>
-      <c r="Y160" s="180" t="s">
+      <c r="T160" s="178"/>
+      <c r="U160" s="178"/>
+      <c r="V160" s="178"/>
+      <c r="W160" s="178"/>
+      <c r="X160" s="179"/>
+      <c r="Y160" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="181"/>
-      <c r="AA160" s="181"/>
-      <c r="AB160" s="181"/>
-      <c r="AC160" s="181"/>
-      <c r="AD160" s="182"/>
-      <c r="AE160" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF160" s="181"/>
-      <c r="AG160" s="181"/>
-      <c r="AH160" s="181"/>
-      <c r="AI160" s="181"/>
-      <c r="AJ160" s="182"/>
+      <c r="Z160" s="178"/>
+      <c r="AA160" s="178"/>
+      <c r="AB160" s="178"/>
+      <c r="AC160" s="178"/>
+      <c r="AD160" s="179"/>
+      <c r="AE160" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF160" s="178"/>
+      <c r="AG160" s="178"/>
+      <c r="AH160" s="178"/>
+      <c r="AI160" s="178"/>
+      <c r="AJ160" s="179"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -12999,7 +13006,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="15"/>
       <c r="G161" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H161" s="138"/>
       <c r="I161" s="138"/>
@@ -13014,30 +13021,30 @@
       <c r="P161" s="75"/>
       <c r="Q161" s="75"/>
       <c r="R161" s="76"/>
-      <c r="S161" s="180" t="s">
+      <c r="S161" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="181"/>
-      <c r="U161" s="181"/>
-      <c r="V161" s="181"/>
-      <c r="W161" s="181"/>
-      <c r="X161" s="182"/>
-      <c r="Y161" s="180" t="s">
+      <c r="T161" s="178"/>
+      <c r="U161" s="178"/>
+      <c r="V161" s="178"/>
+      <c r="W161" s="178"/>
+      <c r="X161" s="179"/>
+      <c r="Y161" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="Z161" s="181"/>
-      <c r="AA161" s="181"/>
-      <c r="AB161" s="181"/>
-      <c r="AC161" s="181"/>
-      <c r="AD161" s="182"/>
-      <c r="AE161" s="180" t="s">
+      <c r="Z161" s="178"/>
+      <c r="AA161" s="178"/>
+      <c r="AB161" s="178"/>
+      <c r="AC161" s="178"/>
+      <c r="AD161" s="179"/>
+      <c r="AE161" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF161" s="181"/>
-      <c r="AG161" s="181"/>
-      <c r="AH161" s="181"/>
-      <c r="AI161" s="181"/>
-      <c r="AJ161" s="182"/>
+      <c r="AF161" s="178"/>
+      <c r="AG161" s="178"/>
+      <c r="AH161" s="178"/>
+      <c r="AI161" s="178"/>
+      <c r="AJ161" s="179"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -13046,7 +13053,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="15"/>
       <c r="G162" s="49" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H162" s="16"/>
       <c r="I162" s="16"/>
@@ -13061,30 +13068,30 @@
       <c r="P162" s="75"/>
       <c r="Q162" s="75"/>
       <c r="R162" s="76"/>
-      <c r="S162" s="180" t="s">
+      <c r="S162" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="181"/>
-      <c r="U162" s="181"/>
-      <c r="V162" s="181"/>
-      <c r="W162" s="181"/>
-      <c r="X162" s="182"/>
-      <c r="Y162" s="180" t="s">
+      <c r="T162" s="178"/>
+      <c r="U162" s="178"/>
+      <c r="V162" s="178"/>
+      <c r="W162" s="178"/>
+      <c r="X162" s="179"/>
+      <c r="Y162" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="181"/>
-      <c r="AA162" s="181"/>
-      <c r="AB162" s="181"/>
-      <c r="AC162" s="181"/>
-      <c r="AD162" s="182"/>
-      <c r="AE162" s="180" t="s">
+      <c r="Z162" s="178"/>
+      <c r="AA162" s="178"/>
+      <c r="AB162" s="178"/>
+      <c r="AC162" s="178"/>
+      <c r="AD162" s="179"/>
+      <c r="AE162" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF162" s="181"/>
-      <c r="AG162" s="181"/>
-      <c r="AH162" s="181"/>
-      <c r="AI162" s="181"/>
-      <c r="AJ162" s="182"/>
+      <c r="AF162" s="178"/>
+      <c r="AG162" s="178"/>
+      <c r="AH162" s="178"/>
+      <c r="AI162" s="178"/>
+      <c r="AJ162" s="179"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -13093,7 +13100,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="15"/>
       <c r="G163" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
@@ -13108,30 +13115,30 @@
       <c r="P163" s="75"/>
       <c r="Q163" s="75"/>
       <c r="R163" s="76"/>
-      <c r="S163" s="180" t="s">
+      <c r="S163" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="181"/>
-      <c r="U163" s="181"/>
-      <c r="V163" s="181"/>
-      <c r="W163" s="181"/>
-      <c r="X163" s="182"/>
-      <c r="Y163" s="180" t="s">
+      <c r="T163" s="178"/>
+      <c r="U163" s="178"/>
+      <c r="V163" s="178"/>
+      <c r="W163" s="178"/>
+      <c r="X163" s="179"/>
+      <c r="Y163" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="181"/>
-      <c r="AA163" s="181"/>
-      <c r="AB163" s="181"/>
-      <c r="AC163" s="181"/>
-      <c r="AD163" s="182"/>
-      <c r="AE163" s="180" t="s">
+      <c r="Z163" s="178"/>
+      <c r="AA163" s="178"/>
+      <c r="AB163" s="178"/>
+      <c r="AC163" s="178"/>
+      <c r="AD163" s="179"/>
+      <c r="AE163" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF163" s="181"/>
-      <c r="AG163" s="181"/>
-      <c r="AH163" s="181"/>
-      <c r="AI163" s="181"/>
-      <c r="AJ163" s="182"/>
+      <c r="AF163" s="178"/>
+      <c r="AG163" s="178"/>
+      <c r="AH163" s="178"/>
+      <c r="AI163" s="178"/>
+      <c r="AJ163" s="179"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -13140,7 +13147,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="15"/>
       <c r="G164" s="139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H164" s="92"/>
       <c r="I164" s="92"/>
@@ -13155,30 +13162,30 @@
       <c r="P164" s="75"/>
       <c r="Q164" s="75"/>
       <c r="R164" s="76"/>
-      <c r="S164" s="180" t="s">
+      <c r="S164" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="181"/>
-      <c r="U164" s="181"/>
-      <c r="V164" s="181"/>
-      <c r="W164" s="181"/>
-      <c r="X164" s="182"/>
-      <c r="Y164" s="180" t="s">
+      <c r="T164" s="178"/>
+      <c r="U164" s="178"/>
+      <c r="V164" s="178"/>
+      <c r="W164" s="178"/>
+      <c r="X164" s="179"/>
+      <c r="Y164" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="181"/>
-      <c r="AA164" s="181"/>
-      <c r="AB164" s="181"/>
-      <c r="AC164" s="181"/>
-      <c r="AD164" s="182"/>
-      <c r="AE164" s="180" t="s">
+      <c r="Z164" s="178"/>
+      <c r="AA164" s="178"/>
+      <c r="AB164" s="178"/>
+      <c r="AC164" s="178"/>
+      <c r="AD164" s="179"/>
+      <c r="AE164" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF164" s="181"/>
-      <c r="AG164" s="181"/>
-      <c r="AH164" s="181"/>
-      <c r="AI164" s="181"/>
-      <c r="AJ164" s="182"/>
+      <c r="AF164" s="178"/>
+      <c r="AG164" s="178"/>
+      <c r="AH164" s="178"/>
+      <c r="AI164" s="178"/>
+      <c r="AJ164" s="179"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -13187,7 +13194,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="15"/>
       <c r="G165" s="139" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H165" s="92"/>
       <c r="I165" s="92"/>
@@ -13202,30 +13209,30 @@
       <c r="P165" s="75"/>
       <c r="Q165" s="75"/>
       <c r="R165" s="76"/>
-      <c r="S165" s="180" t="s">
+      <c r="S165" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="181"/>
-      <c r="U165" s="181"/>
-      <c r="V165" s="181"/>
-      <c r="W165" s="181"/>
-      <c r="X165" s="182"/>
-      <c r="Y165" s="180" t="s">
+      <c r="T165" s="178"/>
+      <c r="U165" s="178"/>
+      <c r="V165" s="178"/>
+      <c r="W165" s="178"/>
+      <c r="X165" s="179"/>
+      <c r="Y165" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="181"/>
-      <c r="AA165" s="181"/>
-      <c r="AB165" s="181"/>
-      <c r="AC165" s="181"/>
-      <c r="AD165" s="182"/>
-      <c r="AE165" s="180" t="s">
+      <c r="Z165" s="178"/>
+      <c r="AA165" s="178"/>
+      <c r="AB165" s="178"/>
+      <c r="AC165" s="178"/>
+      <c r="AD165" s="179"/>
+      <c r="AE165" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AF165" s="181"/>
-      <c r="AG165" s="181"/>
-      <c r="AH165" s="181"/>
-      <c r="AI165" s="181"/>
-      <c r="AJ165" s="182"/>
+      <c r="AF165" s="178"/>
+      <c r="AG165" s="178"/>
+      <c r="AH165" s="178"/>
+      <c r="AI165" s="178"/>
+      <c r="AJ165" s="179"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -13234,7 +13241,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="15"/>
       <c r="G166" s="136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H166" s="134"/>
       <c r="I166" s="134"/>
@@ -13242,37 +13249,37 @@
       <c r="K166" s="134"/>
       <c r="L166" s="134"/>
       <c r="M166" s="141" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N166" s="75"/>
       <c r="O166" s="75"/>
       <c r="P166" s="75"/>
       <c r="Q166" s="75"/>
       <c r="R166" s="76"/>
-      <c r="S166" s="180" t="s">
+      <c r="S166" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="181"/>
-      <c r="U166" s="181"/>
-      <c r="V166" s="181"/>
-      <c r="W166" s="181"/>
-      <c r="X166" s="182"/>
-      <c r="Y166" s="180" t="s">
+      <c r="T166" s="178"/>
+      <c r="U166" s="178"/>
+      <c r="V166" s="178"/>
+      <c r="W166" s="178"/>
+      <c r="X166" s="179"/>
+      <c r="Y166" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z166" s="181"/>
-      <c r="AA166" s="181"/>
-      <c r="AB166" s="181"/>
-      <c r="AC166" s="181"/>
-      <c r="AD166" s="182"/>
-      <c r="AE166" s="180" t="s">
+      <c r="Z166" s="178"/>
+      <c r="AA166" s="178"/>
+      <c r="AB166" s="178"/>
+      <c r="AC166" s="178"/>
+      <c r="AD166" s="179"/>
+      <c r="AE166" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="181"/>
-      <c r="AG166" s="181"/>
-      <c r="AH166" s="181"/>
-      <c r="AI166" s="181"/>
-      <c r="AJ166" s="182"/>
+      <c r="AF166" s="178"/>
+      <c r="AG166" s="178"/>
+      <c r="AH166" s="178"/>
+      <c r="AI166" s="178"/>
+      <c r="AJ166" s="179"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -13281,7 +13288,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="15"/>
       <c r="G167" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H167" s="75"/>
       <c r="I167" s="75"/>
@@ -13294,30 +13301,30 @@
       <c r="P167" s="75"/>
       <c r="Q167" s="75"/>
       <c r="R167" s="76"/>
-      <c r="S167" s="180" t="s">
+      <c r="S167" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="181"/>
-      <c r="U167" s="181"/>
-      <c r="V167" s="181"/>
-      <c r="W167" s="181"/>
-      <c r="X167" s="182"/>
-      <c r="Y167" s="180" t="s">
+      <c r="T167" s="178"/>
+      <c r="U167" s="178"/>
+      <c r="V167" s="178"/>
+      <c r="W167" s="178"/>
+      <c r="X167" s="179"/>
+      <c r="Y167" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="181"/>
-      <c r="AA167" s="181"/>
-      <c r="AB167" s="181"/>
-      <c r="AC167" s="181"/>
-      <c r="AD167" s="182"/>
-      <c r="AE167" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF167" s="181"/>
-      <c r="AG167" s="181"/>
-      <c r="AH167" s="181"/>
-      <c r="AI167" s="181"/>
-      <c r="AJ167" s="182"/>
+      <c r="Z167" s="178"/>
+      <c r="AA167" s="178"/>
+      <c r="AB167" s="178"/>
+      <c r="AC167" s="178"/>
+      <c r="AD167" s="179"/>
+      <c r="AE167" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF167" s="178"/>
+      <c r="AG167" s="178"/>
+      <c r="AH167" s="178"/>
+      <c r="AI167" s="178"/>
+      <c r="AJ167" s="179"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -13326,7 +13333,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="15"/>
       <c r="G168" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H168" s="23"/>
       <c r="I168" s="23"/>
@@ -13341,30 +13348,30 @@
       <c r="P168" s="134"/>
       <c r="Q168" s="134"/>
       <c r="R168" s="135"/>
-      <c r="S168" s="180" t="s">
+      <c r="S168" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="181"/>
-      <c r="U168" s="181"/>
-      <c r="V168" s="181"/>
-      <c r="W168" s="181"/>
-      <c r="X168" s="182"/>
-      <c r="Y168" s="180" t="s">
+      <c r="T168" s="178"/>
+      <c r="U168" s="178"/>
+      <c r="V168" s="178"/>
+      <c r="W168" s="178"/>
+      <c r="X168" s="179"/>
+      <c r="Y168" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="Z168" s="181"/>
-      <c r="AA168" s="181"/>
-      <c r="AB168" s="181"/>
-      <c r="AC168" s="181"/>
-      <c r="AD168" s="182"/>
-      <c r="AE168" s="180" t="s">
+      <c r="Z168" s="178"/>
+      <c r="AA168" s="178"/>
+      <c r="AB168" s="178"/>
+      <c r="AC168" s="178"/>
+      <c r="AD168" s="179"/>
+      <c r="AE168" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF168" s="181"/>
-      <c r="AG168" s="181"/>
-      <c r="AH168" s="181"/>
-      <c r="AI168" s="181"/>
-      <c r="AJ168" s="182"/>
+      <c r="AF168" s="178"/>
+      <c r="AG168" s="178"/>
+      <c r="AH168" s="178"/>
+      <c r="AI168" s="178"/>
+      <c r="AJ168" s="179"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -13386,30 +13393,30 @@
       <c r="P169" s="75"/>
       <c r="Q169" s="75"/>
       <c r="R169" s="76"/>
-      <c r="S169" s="180" t="s">
+      <c r="S169" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="181"/>
-      <c r="U169" s="181"/>
-      <c r="V169" s="181"/>
-      <c r="W169" s="181"/>
-      <c r="X169" s="182"/>
-      <c r="Y169" s="180" t="s">
+      <c r="T169" s="178"/>
+      <c r="U169" s="178"/>
+      <c r="V169" s="178"/>
+      <c r="W169" s="178"/>
+      <c r="X169" s="179"/>
+      <c r="Y169" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="181"/>
-      <c r="AA169" s="181"/>
-      <c r="AB169" s="181"/>
-      <c r="AC169" s="181"/>
-      <c r="AD169" s="182"/>
-      <c r="AE169" s="180" t="s">
+      <c r="Z169" s="178"/>
+      <c r="AA169" s="178"/>
+      <c r="AB169" s="178"/>
+      <c r="AC169" s="178"/>
+      <c r="AD169" s="179"/>
+      <c r="AE169" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF169" s="181"/>
-      <c r="AG169" s="181"/>
-      <c r="AH169" s="181"/>
-      <c r="AI169" s="181"/>
-      <c r="AJ169" s="182"/>
+      <c r="AF169" s="178"/>
+      <c r="AG169" s="178"/>
+      <c r="AH169" s="178"/>
+      <c r="AI169" s="178"/>
+      <c r="AJ169" s="179"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13431,30 +13438,30 @@
       <c r="P170" s="75"/>
       <c r="Q170" s="75"/>
       <c r="R170" s="76"/>
-      <c r="S170" s="180" t="s">
+      <c r="S170" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="181"/>
-      <c r="U170" s="181"/>
-      <c r="V170" s="181"/>
-      <c r="W170" s="181"/>
-      <c r="X170" s="182"/>
-      <c r="Y170" s="180" t="s">
+      <c r="T170" s="178"/>
+      <c r="U170" s="178"/>
+      <c r="V170" s="178"/>
+      <c r="W170" s="178"/>
+      <c r="X170" s="179"/>
+      <c r="Y170" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="181"/>
-      <c r="AA170" s="181"/>
-      <c r="AB170" s="181"/>
-      <c r="AC170" s="181"/>
-      <c r="AD170" s="182"/>
-      <c r="AE170" s="180" t="s">
+      <c r="Z170" s="178"/>
+      <c r="AA170" s="178"/>
+      <c r="AB170" s="178"/>
+      <c r="AC170" s="178"/>
+      <c r="AD170" s="179"/>
+      <c r="AE170" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF170" s="181"/>
-      <c r="AG170" s="181"/>
-      <c r="AH170" s="181"/>
-      <c r="AI170" s="181"/>
-      <c r="AJ170" s="182"/>
+      <c r="AF170" s="178"/>
+      <c r="AG170" s="178"/>
+      <c r="AH170" s="178"/>
+      <c r="AI170" s="178"/>
+      <c r="AJ170" s="179"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13476,30 +13483,30 @@
       <c r="P171" s="75"/>
       <c r="Q171" s="75"/>
       <c r="R171" s="76"/>
-      <c r="S171" s="180" t="s">
+      <c r="S171" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="181"/>
-      <c r="U171" s="181"/>
-      <c r="V171" s="181"/>
-      <c r="W171" s="181"/>
-      <c r="X171" s="182"/>
-      <c r="Y171" s="180" t="s">
+      <c r="T171" s="178"/>
+      <c r="U171" s="178"/>
+      <c r="V171" s="178"/>
+      <c r="W171" s="178"/>
+      <c r="X171" s="179"/>
+      <c r="Y171" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="181"/>
-      <c r="AA171" s="181"/>
-      <c r="AB171" s="181"/>
-      <c r="AC171" s="181"/>
-      <c r="AD171" s="182"/>
-      <c r="AE171" s="180" t="s">
+      <c r="Z171" s="178"/>
+      <c r="AA171" s="178"/>
+      <c r="AB171" s="178"/>
+      <c r="AC171" s="178"/>
+      <c r="AD171" s="179"/>
+      <c r="AE171" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF171" s="181"/>
-      <c r="AG171" s="181"/>
-      <c r="AH171" s="181"/>
-      <c r="AI171" s="181"/>
-      <c r="AJ171" s="182"/>
+      <c r="AF171" s="178"/>
+      <c r="AG171" s="178"/>
+      <c r="AH171" s="178"/>
+      <c r="AI171" s="178"/>
+      <c r="AJ171" s="179"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13521,30 +13528,30 @@
       <c r="P172" s="75"/>
       <c r="Q172" s="75"/>
       <c r="R172" s="76"/>
-      <c r="S172" s="180" t="s">
+      <c r="S172" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="181"/>
-      <c r="U172" s="181"/>
-      <c r="V172" s="181"/>
-      <c r="W172" s="181"/>
-      <c r="X172" s="182"/>
-      <c r="Y172" s="180" t="s">
+      <c r="T172" s="178"/>
+      <c r="U172" s="178"/>
+      <c r="V172" s="178"/>
+      <c r="W172" s="178"/>
+      <c r="X172" s="179"/>
+      <c r="Y172" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="181"/>
-      <c r="AA172" s="181"/>
-      <c r="AB172" s="181"/>
-      <c r="AC172" s="181"/>
-      <c r="AD172" s="182"/>
-      <c r="AE172" s="180" t="s">
+      <c r="Z172" s="178"/>
+      <c r="AA172" s="178"/>
+      <c r="AB172" s="178"/>
+      <c r="AC172" s="178"/>
+      <c r="AD172" s="179"/>
+      <c r="AE172" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AF172" s="181"/>
-      <c r="AG172" s="181"/>
-      <c r="AH172" s="181"/>
-      <c r="AI172" s="181"/>
-      <c r="AJ172" s="182"/>
+      <c r="AF172" s="178"/>
+      <c r="AG172" s="178"/>
+      <c r="AH172" s="178"/>
+      <c r="AI172" s="178"/>
+      <c r="AJ172" s="179"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13559,37 +13566,37 @@
       <c r="K173" s="134"/>
       <c r="L173" s="147"/>
       <c r="M173" s="75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N173" s="75"/>
       <c r="O173" s="75"/>
       <c r="P173" s="75"/>
       <c r="Q173" s="75"/>
       <c r="R173" s="76"/>
-      <c r="S173" s="180" t="s">
+      <c r="S173" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="181"/>
-      <c r="U173" s="181"/>
-      <c r="V173" s="181"/>
-      <c r="W173" s="181"/>
-      <c r="X173" s="182"/>
-      <c r="Y173" s="180" t="s">
+      <c r="T173" s="178"/>
+      <c r="U173" s="178"/>
+      <c r="V173" s="178"/>
+      <c r="W173" s="178"/>
+      <c r="X173" s="179"/>
+      <c r="Y173" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="181"/>
-      <c r="AA173" s="181"/>
-      <c r="AB173" s="181"/>
-      <c r="AC173" s="181"/>
-      <c r="AD173" s="182"/>
-      <c r="AE173" s="180" t="s">
+      <c r="Z173" s="178"/>
+      <c r="AA173" s="178"/>
+      <c r="AB173" s="178"/>
+      <c r="AC173" s="178"/>
+      <c r="AD173" s="179"/>
+      <c r="AE173" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF173" s="181"/>
-      <c r="AG173" s="181"/>
-      <c r="AH173" s="181"/>
-      <c r="AI173" s="181"/>
-      <c r="AJ173" s="182"/>
+      <c r="AF173" s="178"/>
+      <c r="AG173" s="178"/>
+      <c r="AH173" s="178"/>
+      <c r="AI173" s="178"/>
+      <c r="AJ173" s="179"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13598,7 +13605,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="15"/>
       <c r="G174" s="74" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H174" s="75"/>
       <c r="I174" s="75"/>
@@ -13611,30 +13618,30 @@
       <c r="P174" s="75"/>
       <c r="Q174" s="75"/>
       <c r="R174" s="76"/>
-      <c r="S174" s="180" t="s">
+      <c r="S174" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="181"/>
-      <c r="U174" s="181"/>
-      <c r="V174" s="181"/>
-      <c r="W174" s="181"/>
-      <c r="X174" s="182"/>
-      <c r="Y174" s="180" t="s">
+      <c r="T174" s="178"/>
+      <c r="U174" s="178"/>
+      <c r="V174" s="178"/>
+      <c r="W174" s="178"/>
+      <c r="X174" s="179"/>
+      <c r="Y174" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z174" s="181"/>
-      <c r="AA174" s="181"/>
-      <c r="AB174" s="181"/>
-      <c r="AC174" s="181"/>
-      <c r="AD174" s="182"/>
-      <c r="AE174" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF174" s="181"/>
-      <c r="AG174" s="181"/>
-      <c r="AH174" s="181"/>
-      <c r="AI174" s="181"/>
-      <c r="AJ174" s="182"/>
+      <c r="Z174" s="178"/>
+      <c r="AA174" s="178"/>
+      <c r="AB174" s="178"/>
+      <c r="AC174" s="178"/>
+      <c r="AD174" s="179"/>
+      <c r="AE174" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF174" s="178"/>
+      <c r="AG174" s="178"/>
+      <c r="AH174" s="178"/>
+      <c r="AI174" s="178"/>
+      <c r="AJ174" s="179"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13643,7 +13650,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="15"/>
       <c r="G175" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H175" s="23"/>
       <c r="I175" s="23"/>
@@ -13658,30 +13665,30 @@
       <c r="P175" s="134"/>
       <c r="Q175" s="134"/>
       <c r="R175" s="135"/>
-      <c r="S175" s="180" t="s">
+      <c r="S175" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="181"/>
-      <c r="U175" s="181"/>
-      <c r="V175" s="181"/>
-      <c r="W175" s="181"/>
-      <c r="X175" s="182"/>
-      <c r="Y175" s="180" t="s">
+      <c r="T175" s="178"/>
+      <c r="U175" s="178"/>
+      <c r="V175" s="178"/>
+      <c r="W175" s="178"/>
+      <c r="X175" s="179"/>
+      <c r="Y175" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z175" s="181"/>
-      <c r="AA175" s="181"/>
-      <c r="AB175" s="181"/>
-      <c r="AC175" s="181"/>
-      <c r="AD175" s="182"/>
-      <c r="AE175" s="180" t="s">
+      <c r="Z175" s="178"/>
+      <c r="AA175" s="178"/>
+      <c r="AB175" s="178"/>
+      <c r="AC175" s="178"/>
+      <c r="AD175" s="179"/>
+      <c r="AE175" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF175" s="181"/>
-      <c r="AG175" s="181"/>
-      <c r="AH175" s="181"/>
-      <c r="AI175" s="181"/>
-      <c r="AJ175" s="182"/>
+      <c r="AF175" s="178"/>
+      <c r="AG175" s="178"/>
+      <c r="AH175" s="178"/>
+      <c r="AI175" s="178"/>
+      <c r="AJ175" s="179"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13690,7 +13697,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="15"/>
       <c r="G176" s="49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
@@ -13705,30 +13712,30 @@
       <c r="P176" s="75"/>
       <c r="Q176" s="75"/>
       <c r="R176" s="76"/>
-      <c r="S176" s="180" t="s">
+      <c r="S176" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="181"/>
-      <c r="U176" s="181"/>
-      <c r="V176" s="181"/>
-      <c r="W176" s="181"/>
-      <c r="X176" s="182"/>
-      <c r="Y176" s="180" t="s">
+      <c r="T176" s="178"/>
+      <c r="U176" s="178"/>
+      <c r="V176" s="178"/>
+      <c r="W176" s="178"/>
+      <c r="X176" s="179"/>
+      <c r="Y176" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="181"/>
-      <c r="AA176" s="181"/>
-      <c r="AB176" s="181"/>
-      <c r="AC176" s="181"/>
-      <c r="AD176" s="182"/>
-      <c r="AE176" s="180" t="s">
+      <c r="Z176" s="178"/>
+      <c r="AA176" s="178"/>
+      <c r="AB176" s="178"/>
+      <c r="AC176" s="178"/>
+      <c r="AD176" s="179"/>
+      <c r="AE176" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF176" s="181"/>
-      <c r="AG176" s="181"/>
-      <c r="AH176" s="181"/>
-      <c r="AI176" s="181"/>
-      <c r="AJ176" s="182"/>
+      <c r="AF176" s="178"/>
+      <c r="AG176" s="178"/>
+      <c r="AH176" s="178"/>
+      <c r="AI176" s="178"/>
+      <c r="AJ176" s="179"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13737,7 +13744,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="15"/>
       <c r="G177" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
@@ -13752,30 +13759,30 @@
       <c r="P177" s="75"/>
       <c r="Q177" s="75"/>
       <c r="R177" s="76"/>
-      <c r="S177" s="180" t="s">
+      <c r="S177" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T177" s="181"/>
-      <c r="U177" s="181"/>
-      <c r="V177" s="181"/>
-      <c r="W177" s="181"/>
-      <c r="X177" s="182"/>
-      <c r="Y177" s="180" t="s">
+      <c r="T177" s="178"/>
+      <c r="U177" s="178"/>
+      <c r="V177" s="178"/>
+      <c r="W177" s="178"/>
+      <c r="X177" s="179"/>
+      <c r="Y177" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="181"/>
-      <c r="AA177" s="181"/>
-      <c r="AB177" s="181"/>
-      <c r="AC177" s="181"/>
-      <c r="AD177" s="182"/>
-      <c r="AE177" s="180" t="s">
+      <c r="Z177" s="178"/>
+      <c r="AA177" s="178"/>
+      <c r="AB177" s="178"/>
+      <c r="AC177" s="178"/>
+      <c r="AD177" s="179"/>
+      <c r="AE177" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="181"/>
-      <c r="AG177" s="181"/>
-      <c r="AH177" s="181"/>
-      <c r="AI177" s="181"/>
-      <c r="AJ177" s="182"/>
+      <c r="AF177" s="178"/>
+      <c r="AG177" s="178"/>
+      <c r="AH177" s="178"/>
+      <c r="AI177" s="178"/>
+      <c r="AJ177" s="179"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13797,30 +13804,30 @@
       <c r="P178" s="75"/>
       <c r="Q178" s="75"/>
       <c r="R178" s="76"/>
-      <c r="S178" s="180" t="s">
+      <c r="S178" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T178" s="181"/>
-      <c r="U178" s="181"/>
-      <c r="V178" s="181"/>
-      <c r="W178" s="181"/>
-      <c r="X178" s="182"/>
-      <c r="Y178" s="180" t="s">
+      <c r="T178" s="178"/>
+      <c r="U178" s="178"/>
+      <c r="V178" s="178"/>
+      <c r="W178" s="178"/>
+      <c r="X178" s="179"/>
+      <c r="Y178" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="181"/>
-      <c r="AA178" s="181"/>
-      <c r="AB178" s="181"/>
-      <c r="AC178" s="181"/>
-      <c r="AD178" s="182"/>
-      <c r="AE178" s="180" t="s">
+      <c r="Z178" s="178"/>
+      <c r="AA178" s="178"/>
+      <c r="AB178" s="178"/>
+      <c r="AC178" s="178"/>
+      <c r="AD178" s="179"/>
+      <c r="AE178" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF178" s="181"/>
-      <c r="AG178" s="181"/>
-      <c r="AH178" s="181"/>
-      <c r="AI178" s="181"/>
-      <c r="AJ178" s="182"/>
+      <c r="AF178" s="178"/>
+      <c r="AG178" s="178"/>
+      <c r="AH178" s="178"/>
+      <c r="AI178" s="178"/>
+      <c r="AJ178" s="179"/>
       <c r="AP178" s="5"/>
       <c r="AQ178" s="2"/>
     </row>
@@ -13842,30 +13849,30 @@
       <c r="P179" s="75"/>
       <c r="Q179" s="75"/>
       <c r="R179" s="76"/>
-      <c r="S179" s="180" t="s">
+      <c r="S179" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T179" s="181"/>
-      <c r="U179" s="181"/>
-      <c r="V179" s="181"/>
-      <c r="W179" s="181"/>
-      <c r="X179" s="182"/>
-      <c r="Y179" s="180" t="s">
+      <c r="T179" s="178"/>
+      <c r="U179" s="178"/>
+      <c r="V179" s="178"/>
+      <c r="W179" s="178"/>
+      <c r="X179" s="179"/>
+      <c r="Y179" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="181"/>
-      <c r="AA179" s="181"/>
-      <c r="AB179" s="181"/>
-      <c r="AC179" s="181"/>
-      <c r="AD179" s="182"/>
-      <c r="AE179" s="180" t="s">
+      <c r="Z179" s="178"/>
+      <c r="AA179" s="178"/>
+      <c r="AB179" s="178"/>
+      <c r="AC179" s="178"/>
+      <c r="AD179" s="179"/>
+      <c r="AE179" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="181"/>
-      <c r="AG179" s="181"/>
-      <c r="AH179" s="181"/>
-      <c r="AI179" s="181"/>
-      <c r="AJ179" s="182"/>
+      <c r="AF179" s="178"/>
+      <c r="AG179" s="178"/>
+      <c r="AH179" s="178"/>
+      <c r="AI179" s="178"/>
+      <c r="AJ179" s="179"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13880,37 +13887,37 @@
       <c r="K180" s="134"/>
       <c r="L180" s="147"/>
       <c r="M180" s="75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N180" s="75"/>
       <c r="O180" s="75"/>
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="180" t="s">
+      <c r="S180" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="181"/>
-      <c r="U180" s="181"/>
-      <c r="V180" s="181"/>
-      <c r="W180" s="181"/>
-      <c r="X180" s="182"/>
-      <c r="Y180" s="180" t="s">
+      <c r="T180" s="178"/>
+      <c r="U180" s="178"/>
+      <c r="V180" s="178"/>
+      <c r="W180" s="178"/>
+      <c r="X180" s="179"/>
+      <c r="Y180" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="181"/>
-      <c r="AA180" s="181"/>
-      <c r="AB180" s="181"/>
-      <c r="AC180" s="181"/>
-      <c r="AD180" s="182"/>
-      <c r="AE180" s="180" t="s">
+      <c r="Z180" s="178"/>
+      <c r="AA180" s="178"/>
+      <c r="AB180" s="178"/>
+      <c r="AC180" s="178"/>
+      <c r="AD180" s="179"/>
+      <c r="AE180" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="181"/>
-      <c r="AG180" s="181"/>
-      <c r="AH180" s="181"/>
-      <c r="AI180" s="181"/>
-      <c r="AJ180" s="182"/>
+      <c r="AF180" s="178"/>
+      <c r="AG180" s="178"/>
+      <c r="AH180" s="178"/>
+      <c r="AI180" s="178"/>
+      <c r="AJ180" s="179"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13932,30 +13939,30 @@
       <c r="P181" s="149"/>
       <c r="Q181" s="149"/>
       <c r="R181" s="150"/>
-      <c r="S181" s="186" t="s">
+      <c r="S181" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="187"/>
-      <c r="U181" s="187"/>
-      <c r="V181" s="187"/>
-      <c r="W181" s="187"/>
-      <c r="X181" s="188"/>
-      <c r="Y181" s="186" t="s">
+      <c r="T181" s="202"/>
+      <c r="U181" s="202"/>
+      <c r="V181" s="202"/>
+      <c r="W181" s="202"/>
+      <c r="X181" s="203"/>
+      <c r="Y181" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="187"/>
-      <c r="AA181" s="187"/>
-      <c r="AB181" s="187"/>
-      <c r="AC181" s="187"/>
-      <c r="AD181" s="188"/>
-      <c r="AE181" s="186" t="s">
+      <c r="Z181" s="202"/>
+      <c r="AA181" s="202"/>
+      <c r="AB181" s="202"/>
+      <c r="AC181" s="202"/>
+      <c r="AD181" s="203"/>
+      <c r="AE181" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="187"/>
-      <c r="AG181" s="187"/>
-      <c r="AH181" s="187"/>
-      <c r="AI181" s="187"/>
-      <c r="AJ181" s="188"/>
+      <c r="AF181" s="202"/>
+      <c r="AG181" s="202"/>
+      <c r="AH181" s="202"/>
+      <c r="AI181" s="202"/>
+      <c r="AJ181" s="203"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -13964,7 +13971,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="15"/>
       <c r="G182" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H182" s="20"/>
       <c r="I182" s="20"/>
@@ -13977,30 +13984,30 @@
       <c r="P182" s="75"/>
       <c r="Q182" s="75"/>
       <c r="R182" s="76"/>
-      <c r="S182" s="180" t="s">
+      <c r="S182" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T182" s="181"/>
-      <c r="U182" s="181"/>
-      <c r="V182" s="181"/>
-      <c r="W182" s="181"/>
-      <c r="X182" s="182"/>
-      <c r="Y182" s="180" t="s">
+      <c r="T182" s="178"/>
+      <c r="U182" s="178"/>
+      <c r="V182" s="178"/>
+      <c r="W182" s="178"/>
+      <c r="X182" s="179"/>
+      <c r="Y182" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="Z182" s="181"/>
-      <c r="AA182" s="181"/>
-      <c r="AB182" s="181"/>
-      <c r="AC182" s="181"/>
-      <c r="AD182" s="182"/>
-      <c r="AE182" s="180" t="s">
+      <c r="Z182" s="178"/>
+      <c r="AA182" s="178"/>
+      <c r="AB182" s="178"/>
+      <c r="AC182" s="178"/>
+      <c r="AD182" s="179"/>
+      <c r="AE182" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AF182" s="181"/>
-      <c r="AG182" s="181"/>
-      <c r="AH182" s="181"/>
-      <c r="AI182" s="181"/>
-      <c r="AJ182" s="182"/>
+      <c r="AF182" s="178"/>
+      <c r="AG182" s="178"/>
+      <c r="AH182" s="178"/>
+      <c r="AI182" s="178"/>
+      <c r="AJ182" s="179"/>
       <c r="AP182" s="5"/>
       <c r="AQ182" s="2"/>
     </row>
@@ -14022,30 +14029,30 @@
       <c r="P183" s="149"/>
       <c r="Q183" s="149"/>
       <c r="R183" s="150"/>
-      <c r="S183" s="186" t="s">
+      <c r="S183" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="187"/>
-      <c r="U183" s="187"/>
-      <c r="V183" s="187"/>
-      <c r="W183" s="187"/>
-      <c r="X183" s="188"/>
-      <c r="Y183" s="186" t="s">
+      <c r="T183" s="202"/>
+      <c r="U183" s="202"/>
+      <c r="V183" s="202"/>
+      <c r="W183" s="202"/>
+      <c r="X183" s="203"/>
+      <c r="Y183" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="187"/>
-      <c r="AA183" s="187"/>
-      <c r="AB183" s="187"/>
-      <c r="AC183" s="187"/>
-      <c r="AD183" s="188"/>
-      <c r="AE183" s="186" t="s">
+      <c r="Z183" s="202"/>
+      <c r="AA183" s="202"/>
+      <c r="AB183" s="202"/>
+      <c r="AC183" s="202"/>
+      <c r="AD183" s="203"/>
+      <c r="AE183" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="187"/>
-      <c r="AG183" s="187"/>
-      <c r="AH183" s="187"/>
-      <c r="AI183" s="187"/>
-      <c r="AJ183" s="188"/>
+      <c r="AF183" s="202"/>
+      <c r="AG183" s="202"/>
+      <c r="AH183" s="202"/>
+      <c r="AI183" s="202"/>
+      <c r="AJ183" s="203"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -14067,30 +14074,30 @@
       <c r="P184" s="152"/>
       <c r="Q184" s="152"/>
       <c r="R184" s="153"/>
-      <c r="S184" s="201" t="s">
+      <c r="S184" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="202"/>
-      <c r="U184" s="202"/>
-      <c r="V184" s="202"/>
-      <c r="W184" s="202"/>
-      <c r="X184" s="203"/>
-      <c r="Y184" s="201" t="s">
+      <c r="T184" s="241"/>
+      <c r="U184" s="241"/>
+      <c r="V184" s="241"/>
+      <c r="W184" s="241"/>
+      <c r="X184" s="242"/>
+      <c r="Y184" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="202"/>
-      <c r="AA184" s="202"/>
-      <c r="AB184" s="202"/>
-      <c r="AC184" s="202"/>
-      <c r="AD184" s="203"/>
-      <c r="AE184" s="201" t="s">
+      <c r="Z184" s="241"/>
+      <c r="AA184" s="241"/>
+      <c r="AB184" s="241"/>
+      <c r="AC184" s="241"/>
+      <c r="AD184" s="242"/>
+      <c r="AE184" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="202"/>
-      <c r="AG184" s="202"/>
-      <c r="AH184" s="202"/>
-      <c r="AI184" s="202"/>
-      <c r="AJ184" s="203"/>
+      <c r="AF184" s="241"/>
+      <c r="AG184" s="241"/>
+      <c r="AH184" s="241"/>
+      <c r="AI184" s="241"/>
+      <c r="AJ184" s="242"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -14141,7 +14148,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AP187" s="5"/>
       <c r="AQ187" s="2"/>
@@ -14149,10 +14156,10 @@
     <row r="188" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="C188" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AP188" s="5"/>
       <c r="AQ188" s="2"/>
@@ -14160,10 +14167,10 @@
     <row r="189" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="C189" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AP189" s="5"/>
       <c r="AQ189" s="2"/>
@@ -14171,10 +14178,10 @@
     <row r="190" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="C190" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="AP190" s="5"/>
       <c r="AQ190" s="2"/>
@@ -14182,10 +14189,10 @@
     <row r="191" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="C191" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AP191" s="5"/>
       <c r="AQ191" s="2"/>
@@ -14256,7 +14263,7 @@
         <v>10</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -14292,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -14355,7 +14362,7 @@
     <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="F197" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G197" s="92"/>
       <c r="H197" s="92"/>
@@ -14396,7 +14403,7 @@
     <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="F198" s="85" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G198" s="86"/>
       <c r="H198" s="86"/>
@@ -14407,13 +14414,13 @@
       <c r="M198" s="86"/>
       <c r="N198" s="86"/>
       <c r="O198" s="85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P198" s="86"/>
       <c r="Q198" s="86"/>
       <c r="R198" s="86"/>
       <c r="S198" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T198" s="86"/>
       <c r="U198" s="86"/>
@@ -14435,7 +14442,7 @@
       <c r="AK198" s="86"/>
       <c r="AL198" s="87"/>
       <c r="AM198" s="85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN198" s="86"/>
       <c r="AO198" s="87"/>
@@ -14445,7 +14452,7 @@
     <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="F199" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G199" s="16"/>
       <c r="H199" s="16"/>
@@ -14462,7 +14469,7 @@
       <c r="Q199" s="16"/>
       <c r="R199" s="16"/>
       <c r="S199" s="84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T199" s="16"/>
       <c r="U199" s="16"/>
@@ -14484,7 +14491,7 @@
       <c r="AK199" s="98"/>
       <c r="AL199" s="102"/>
       <c r="AM199" s="169" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN199" s="170"/>
       <c r="AO199" s="171"/>
@@ -14494,7 +14501,7 @@
     <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="F200" s="93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G200" s="94"/>
       <c r="H200" s="94"/>
@@ -14505,13 +14512,13 @@
       <c r="M200" s="96"/>
       <c r="N200" s="97"/>
       <c r="O200" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P200" s="34"/>
       <c r="Q200" s="12"/>
       <c r="R200" s="12"/>
       <c r="S200" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T200" s="12"/>
       <c r="U200" s="12"/>
@@ -14533,7 +14540,7 @@
       <c r="AK200" s="99"/>
       <c r="AL200" s="103"/>
       <c r="AM200" s="125" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN200" s="105"/>
       <c r="AO200" s="116"/>
@@ -14552,13 +14559,13 @@
       <c r="M201" s="90"/>
       <c r="N201" s="17"/>
       <c r="O201" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P201" s="95"/>
       <c r="Q201" s="94"/>
       <c r="R201" s="94"/>
       <c r="S201" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T201" s="94"/>
       <c r="U201" s="94"/>
@@ -14580,7 +14587,7 @@
       <c r="AK201" s="100"/>
       <c r="AL201" s="104"/>
       <c r="AM201" s="160" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN201" s="161"/>
       <c r="AO201" s="162"/>
@@ -14603,7 +14610,7 @@
       <c r="Q202" s="32"/>
       <c r="R202" s="32"/>
       <c r="S202" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T202" s="32"/>
       <c r="U202" s="32"/>
@@ -14642,13 +14649,13 @@
       <c r="M203" s="91"/>
       <c r="N203" s="33"/>
       <c r="O203" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P203" s="35"/>
       <c r="Q203" s="32"/>
       <c r="R203" s="32"/>
       <c r="S203" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T203" s="32"/>
       <c r="U203" s="32"/>
@@ -14670,7 +14677,7 @@
       <c r="AK203" s="99"/>
       <c r="AL203" s="103"/>
       <c r="AM203" s="169" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN203" s="164"/>
       <c r="AO203" s="165"/>
@@ -14715,7 +14722,7 @@
     <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="F205" s="92" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G205" s="92"/>
       <c r="H205" s="92"/>
@@ -14755,7 +14762,7 @@
     <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="F206" s="85" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G206" s="86"/>
       <c r="H206" s="86"/>
@@ -14766,13 +14773,13 @@
       <c r="M206" s="86"/>
       <c r="N206" s="86"/>
       <c r="O206" s="85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P206" s="86"/>
       <c r="Q206" s="86"/>
       <c r="R206" s="86"/>
       <c r="S206" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T206" s="86"/>
       <c r="U206" s="86"/>
@@ -14794,7 +14801,7 @@
       <c r="AK206" s="86"/>
       <c r="AL206" s="87"/>
       <c r="AM206" s="85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN206" s="86"/>
       <c r="AO206" s="87"/>
@@ -14804,7 +14811,7 @@
     <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="F207" s="84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G207" s="94"/>
       <c r="H207" s="94"/>
@@ -14815,13 +14822,13 @@
       <c r="M207" s="96"/>
       <c r="N207" s="97"/>
       <c r="O207" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P207" s="34"/>
       <c r="Q207" s="12"/>
       <c r="R207" s="12"/>
       <c r="S207" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T207" s="12"/>
       <c r="U207" s="12"/>
@@ -14843,7 +14850,7 @@
       <c r="AK207" s="40"/>
       <c r="AL207" s="17"/>
       <c r="AM207" s="125" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN207" s="155"/>
       <c r="AO207" s="51"/>
@@ -14862,13 +14869,13 @@
       <c r="M208" s="90"/>
       <c r="N208" s="17"/>
       <c r="O208" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P208" s="95"/>
       <c r="Q208" s="94"/>
       <c r="R208" s="94"/>
       <c r="S208" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T208" s="94"/>
       <c r="U208" s="94"/>
@@ -14890,7 +14897,7 @@
       <c r="AK208" s="90"/>
       <c r="AL208" s="97"/>
       <c r="AM208" s="160" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN208" s="161"/>
       <c r="AO208" s="162"/>
@@ -14913,7 +14920,7 @@
       <c r="Q209" s="32"/>
       <c r="R209" s="32"/>
       <c r="S209" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T209" s="32"/>
       <c r="U209" s="32"/>
@@ -14952,13 +14959,13 @@
       <c r="M210" s="91"/>
       <c r="N210" s="33"/>
       <c r="O210" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P210" s="35"/>
       <c r="Q210" s="32"/>
       <c r="R210" s="32"/>
       <c r="S210" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T210" s="32"/>
       <c r="U210" s="32"/>
@@ -14980,7 +14987,7 @@
       <c r="AK210" s="91"/>
       <c r="AL210" s="33"/>
       <c r="AM210" s="169" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN210" s="164"/>
       <c r="AO210" s="165"/>
@@ -14990,7 +14997,7 @@
     <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="F211" s="84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G211" s="94"/>
       <c r="H211" s="94"/>
@@ -15001,13 +15008,13 @@
       <c r="M211" s="96"/>
       <c r="N211" s="97"/>
       <c r="O211" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P211" s="34"/>
       <c r="Q211" s="12"/>
       <c r="R211" s="12"/>
       <c r="S211" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T211" s="12"/>
       <c r="U211" s="12"/>
@@ -15029,7 +15036,7 @@
       <c r="AK211" s="40"/>
       <c r="AL211" s="17"/>
       <c r="AM211" s="125" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN211" s="155"/>
       <c r="AO211" s="51"/>
@@ -15048,13 +15055,13 @@
       <c r="M212" s="90"/>
       <c r="N212" s="17"/>
       <c r="O212" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P212" s="95"/>
       <c r="Q212" s="94"/>
       <c r="R212" s="94"/>
       <c r="S212" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T212" s="94"/>
       <c r="U212" s="94"/>
@@ -15076,7 +15083,7 @@
       <c r="AK212" s="90"/>
       <c r="AL212" s="97"/>
       <c r="AM212" s="160" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN212" s="161"/>
       <c r="AO212" s="162"/>
@@ -15099,7 +15106,7 @@
       <c r="Q213" s="32"/>
       <c r="R213" s="32"/>
       <c r="S213" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T213" s="32"/>
       <c r="U213" s="32"/>
@@ -15138,13 +15145,13 @@
       <c r="M214" s="91"/>
       <c r="N214" s="33"/>
       <c r="O214" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P214" s="35"/>
       <c r="Q214" s="32"/>
       <c r="R214" s="32"/>
       <c r="S214" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T214" s="32"/>
       <c r="U214" s="32"/>
@@ -15166,7 +15173,7 @@
       <c r="AK214" s="91"/>
       <c r="AL214" s="33"/>
       <c r="AM214" s="169" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AN214" s="164"/>
       <c r="AO214" s="165"/>
@@ -15176,7 +15183,7 @@
     <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="F215" s="84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G215" s="94"/>
       <c r="H215" s="94"/>
@@ -15187,13 +15194,13 @@
       <c r="M215" s="96"/>
       <c r="N215" s="97"/>
       <c r="O215" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P215" s="34"/>
       <c r="Q215" s="12"/>
       <c r="R215" s="12"/>
       <c r="S215" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T215" s="12"/>
       <c r="U215" s="12"/>
@@ -15215,7 +15222,7 @@
       <c r="AK215" s="40"/>
       <c r="AL215" s="17"/>
       <c r="AM215" s="166" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN215" s="167"/>
       <c r="AO215" s="168"/>
@@ -15234,13 +15241,13 @@
       <c r="M216" s="90"/>
       <c r="N216" s="17"/>
       <c r="O216" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P216" s="95"/>
       <c r="Q216" s="94"/>
       <c r="R216" s="94"/>
       <c r="S216" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T216" s="94"/>
       <c r="U216" s="94"/>
@@ -15262,7 +15269,7 @@
       <c r="AK216" s="90"/>
       <c r="AL216" s="97"/>
       <c r="AM216" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN216" s="156"/>
       <c r="AO216" s="118"/>
@@ -15285,7 +15292,7 @@
       <c r="Q217" s="32"/>
       <c r="R217" s="32"/>
       <c r="S217" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T217" s="32"/>
       <c r="U217" s="32"/>
@@ -15324,13 +15331,13 @@
       <c r="M218" s="91"/>
       <c r="N218" s="33"/>
       <c r="O218" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P218" s="35"/>
       <c r="Q218" s="32"/>
       <c r="R218" s="32"/>
       <c r="S218" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T218" s="32"/>
       <c r="U218" s="32"/>
@@ -15352,7 +15359,7 @@
       <c r="AK218" s="91"/>
       <c r="AL218" s="33"/>
       <c r="AM218" s="154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AN218" s="157"/>
       <c r="AO218" s="114"/>
@@ -15362,7 +15369,7 @@
     <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="F219" s="84" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G219" s="94"/>
       <c r="H219" s="94"/>
@@ -15373,13 +15380,13 @@
       <c r="M219" s="96"/>
       <c r="N219" s="97"/>
       <c r="O219" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P219" s="34"/>
       <c r="Q219" s="12"/>
       <c r="R219" s="12"/>
       <c r="S219" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T219" s="12"/>
       <c r="U219" s="12"/>
@@ -15401,7 +15408,7 @@
       <c r="AK219" s="40"/>
       <c r="AL219" s="17"/>
       <c r="AM219" s="166" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN219" s="167"/>
       <c r="AO219" s="168"/>
@@ -15420,13 +15427,13 @@
       <c r="M220" s="90"/>
       <c r="N220" s="17"/>
       <c r="O220" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P220" s="95"/>
       <c r="Q220" s="94"/>
       <c r="R220" s="94"/>
       <c r="S220" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T220" s="94"/>
       <c r="U220" s="94"/>
@@ -15448,7 +15455,7 @@
       <c r="AK220" s="90"/>
       <c r="AL220" s="97"/>
       <c r="AM220" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN220" s="156"/>
       <c r="AO220" s="118"/>
@@ -15471,7 +15478,7 @@
       <c r="Q221" s="32"/>
       <c r="R221" s="32"/>
       <c r="S221" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T221" s="32"/>
       <c r="U221" s="32"/>
@@ -15510,13 +15517,13 @@
       <c r="M222" s="91"/>
       <c r="N222" s="33"/>
       <c r="O222" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P222" s="35"/>
       <c r="Q222" s="32"/>
       <c r="R222" s="32"/>
       <c r="S222" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T222" s="32"/>
       <c r="U222" s="32"/>
@@ -15538,7 +15545,7 @@
       <c r="AK222" s="91"/>
       <c r="AL222" s="33"/>
       <c r="AM222" s="154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AN222" s="157"/>
       <c r="AO222" s="114"/>
@@ -15548,7 +15555,7 @@
     <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="F223" s="84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G223" s="94"/>
       <c r="H223" s="94"/>
@@ -15559,13 +15566,13 @@
       <c r="M223" s="96"/>
       <c r="N223" s="97"/>
       <c r="O223" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P223" s="34"/>
       <c r="Q223" s="12"/>
       <c r="R223" s="12"/>
       <c r="S223" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T223" s="12"/>
       <c r="U223" s="12"/>
@@ -15587,7 +15594,7 @@
       <c r="AK223" s="40"/>
       <c r="AL223" s="17"/>
       <c r="AM223" s="166" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN223" s="167"/>
       <c r="AO223" s="168"/>
@@ -15606,13 +15613,13 @@
       <c r="M224" s="90"/>
       <c r="N224" s="17"/>
       <c r="O224" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P224" s="95"/>
       <c r="Q224" s="94"/>
       <c r="R224" s="94"/>
       <c r="S224" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T224" s="94"/>
       <c r="U224" s="94"/>
@@ -15634,7 +15641,7 @@
       <c r="AK224" s="90"/>
       <c r="AL224" s="97"/>
       <c r="AM224" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN224" s="156"/>
       <c r="AO224" s="118"/>
@@ -15657,7 +15664,7 @@
       <c r="Q225" s="32"/>
       <c r="R225" s="32"/>
       <c r="S225" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T225" s="32"/>
       <c r="U225" s="32"/>
@@ -15696,13 +15703,13 @@
       <c r="M226" s="91"/>
       <c r="N226" s="33"/>
       <c r="O226" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P226" s="35"/>
       <c r="Q226" s="32"/>
       <c r="R226" s="32"/>
       <c r="S226" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T226" s="32"/>
       <c r="U226" s="32"/>
@@ -15724,7 +15731,7 @@
       <c r="AK226" s="91"/>
       <c r="AL226" s="33"/>
       <c r="AM226" s="154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AN226" s="157"/>
       <c r="AO226" s="114"/>
@@ -15734,7 +15741,7 @@
     <row r="227" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="F227" s="84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G227" s="94"/>
       <c r="H227" s="94"/>
@@ -15745,13 +15752,13 @@
       <c r="M227" s="96"/>
       <c r="N227" s="97"/>
       <c r="O227" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P227" s="34"/>
       <c r="Q227" s="12"/>
       <c r="R227" s="12"/>
       <c r="S227" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T227" s="12"/>
       <c r="U227" s="12"/>
@@ -15773,7 +15780,7 @@
       <c r="AK227" s="40"/>
       <c r="AL227" s="17"/>
       <c r="AM227" s="166" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN227" s="167"/>
       <c r="AO227" s="168"/>
@@ -15792,13 +15799,13 @@
       <c r="M228" s="90"/>
       <c r="N228" s="17"/>
       <c r="O228" s="93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P228" s="95"/>
       <c r="Q228" s="94"/>
       <c r="R228" s="94"/>
       <c r="S228" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T228" s="94"/>
       <c r="U228" s="94"/>
@@ -15820,7 +15827,7 @@
       <c r="AK228" s="90"/>
       <c r="AL228" s="97"/>
       <c r="AM228" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN228" s="156"/>
       <c r="AO228" s="118"/>
@@ -15843,7 +15850,7 @@
       <c r="Q229" s="32"/>
       <c r="R229" s="32"/>
       <c r="S229" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T229" s="32"/>
       <c r="U229" s="32"/>
@@ -15882,13 +15889,13 @@
       <c r="M230" s="91"/>
       <c r="N230" s="33"/>
       <c r="O230" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P230" s="35"/>
       <c r="Q230" s="32"/>
       <c r="R230" s="32"/>
       <c r="S230" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T230" s="32"/>
       <c r="U230" s="32"/>
@@ -15910,7 +15917,7 @@
       <c r="AK230" s="91"/>
       <c r="AL230" s="33"/>
       <c r="AM230" s="154" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AN230" s="157"/>
       <c r="AO230" s="114"/>
@@ -16003,7 +16010,7 @@
         <v>11</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F233" s="92"/>
       <c r="G233" s="92"/>
@@ -16086,7 +16093,7 @@
     <row r="235" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="C235" s="61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D235" s="62"/>
       <c r="E235" s="62"/>
@@ -16096,7 +16103,7 @@
       <c r="I235" s="62"/>
       <c r="J235" s="63"/>
       <c r="K235" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L235" s="62"/>
       <c r="M235" s="62"/>
@@ -16116,17 +16123,17 @@
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="216" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE235" s="217"/>
-      <c r="AF235" s="217"/>
-      <c r="AG235" s="217"/>
-      <c r="AH235" s="217"/>
-      <c r="AI235" s="217"/>
-      <c r="AJ235" s="217"/>
-      <c r="AK235" s="217"/>
-      <c r="AL235" s="218"/>
+      <c r="AD235" s="189" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE235" s="190"/>
+      <c r="AF235" s="190"/>
+      <c r="AG235" s="190"/>
+      <c r="AH235" s="190"/>
+      <c r="AI235" s="190"/>
+      <c r="AJ235" s="190"/>
+      <c r="AK235" s="190"/>
+      <c r="AL235" s="191"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -16162,7 +16169,7 @@
       <c r="AB236" s="65"/>
       <c r="AC236" s="66"/>
       <c r="AD236" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AE236" s="53"/>
       <c r="AF236" s="53"/>
@@ -16184,7 +16191,7 @@
     <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="C237" s="93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D237" s="94"/>
       <c r="E237" s="94"/>
@@ -16194,7 +16201,7 @@
       <c r="I237" s="96"/>
       <c r="J237" s="104"/>
       <c r="K237" s="100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L237" s="100"/>
       <c r="M237" s="100"/>
@@ -16214,21 +16221,21 @@
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="234" t="s">
+      <c r="AD237" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="235"/>
-      <c r="AF237" s="235"/>
-      <c r="AG237" s="236"/>
-      <c r="AH237" s="234" t="s">
+      <c r="AE237" s="181"/>
+      <c r="AF237" s="181"/>
+      <c r="AG237" s="182"/>
+      <c r="AH237" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="236"/>
-      <c r="AJ237" s="234" t="s">
+      <c r="AI237" s="182"/>
+      <c r="AJ237" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="235"/>
-      <c r="AL237" s="236"/>
+      <c r="AK237" s="181"/>
+      <c r="AL237" s="182"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -16245,7 +16252,7 @@
       <c r="I238" s="90"/>
       <c r="J238" s="128"/>
       <c r="K238" s="92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L238" s="92"/>
       <c r="M238" s="92"/>
@@ -16265,15 +16272,15 @@
       <c r="AA238" s="92"/>
       <c r="AB238" s="92"/>
       <c r="AC238" s="128"/>
-      <c r="AD238" s="237"/>
-      <c r="AE238" s="238"/>
-      <c r="AF238" s="238"/>
-      <c r="AG238" s="239"/>
-      <c r="AH238" s="237"/>
-      <c r="AI238" s="239"/>
-      <c r="AJ238" s="237"/>
-      <c r="AK238" s="238"/>
-      <c r="AL238" s="239"/>
+      <c r="AD238" s="183"/>
+      <c r="AE238" s="184"/>
+      <c r="AF238" s="184"/>
+      <c r="AG238" s="185"/>
+      <c r="AH238" s="183"/>
+      <c r="AI238" s="185"/>
+      <c r="AJ238" s="183"/>
+      <c r="AK238" s="184"/>
+      <c r="AL238" s="185"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -16290,7 +16297,7 @@
       <c r="I239" s="90"/>
       <c r="J239" s="128"/>
       <c r="K239" s="119" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L239" s="92"/>
       <c r="M239" s="92"/>
@@ -16310,15 +16317,15 @@
       <c r="AA239" s="92"/>
       <c r="AB239" s="92"/>
       <c r="AC239" s="128"/>
-      <c r="AD239" s="237"/>
-      <c r="AE239" s="238"/>
-      <c r="AF239" s="238"/>
-      <c r="AG239" s="239"/>
-      <c r="AH239" s="237"/>
-      <c r="AI239" s="239"/>
-      <c r="AJ239" s="237"/>
-      <c r="AK239" s="238"/>
-      <c r="AL239" s="239"/>
+      <c r="AD239" s="183"/>
+      <c r="AE239" s="184"/>
+      <c r="AF239" s="184"/>
+      <c r="AG239" s="185"/>
+      <c r="AH239" s="183"/>
+      <c r="AI239" s="185"/>
+      <c r="AJ239" s="183"/>
+      <c r="AK239" s="184"/>
+      <c r="AL239" s="185"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -16335,7 +16342,7 @@
       <c r="I240" s="172"/>
       <c r="J240" s="121"/>
       <c r="K240" s="113" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L240" s="113"/>
       <c r="M240" s="113"/>
@@ -16355,15 +16362,15 @@
       <c r="AA240" s="113"/>
       <c r="AB240" s="113"/>
       <c r="AC240" s="121"/>
-      <c r="AD240" s="240"/>
-      <c r="AE240" s="241"/>
-      <c r="AF240" s="241"/>
-      <c r="AG240" s="242"/>
-      <c r="AH240" s="240"/>
-      <c r="AI240" s="242"/>
-      <c r="AJ240" s="240"/>
-      <c r="AK240" s="241"/>
-      <c r="AL240" s="242"/>
+      <c r="AD240" s="186"/>
+      <c r="AE240" s="187"/>
+      <c r="AF240" s="187"/>
+      <c r="AG240" s="188"/>
+      <c r="AH240" s="186"/>
+      <c r="AI240" s="188"/>
+      <c r="AJ240" s="186"/>
+      <c r="AK240" s="187"/>
+      <c r="AL240" s="188"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16372,7 +16379,7 @@
     <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="C241" s="93" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D241" s="94"/>
       <c r="E241" s="94"/>
@@ -16382,7 +16389,7 @@
       <c r="I241" s="117"/>
       <c r="J241" s="173"/>
       <c r="K241" s="117" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L241" s="117"/>
       <c r="M241" s="117"/>
@@ -16405,18 +16412,18 @@
       <c r="AD241" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="193"/>
-      <c r="AF241" s="193"/>
-      <c r="AG241" s="194"/>
+      <c r="AE241" s="198"/>
+      <c r="AF241" s="198"/>
+      <c r="AG241" s="193"/>
       <c r="AH241" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="194"/>
+      <c r="AI241" s="193"/>
       <c r="AJ241" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK241" s="193"/>
-      <c r="AL241" s="194"/>
+      <c r="AK241" s="198"/>
+      <c r="AL241" s="193"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16433,7 +16440,7 @@
       <c r="I242" s="119"/>
       <c r="J242" s="120"/>
       <c r="K242" s="119" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L242" s="119"/>
       <c r="M242" s="119"/>
@@ -16453,15 +16460,15 @@
       <c r="AA242" s="119"/>
       <c r="AB242" s="119"/>
       <c r="AC242" s="120"/>
-      <c r="AD242" s="195"/>
-      <c r="AE242" s="196"/>
-      <c r="AF242" s="196"/>
-      <c r="AG242" s="197"/>
-      <c r="AH242" s="195"/>
-      <c r="AI242" s="197"/>
-      <c r="AJ242" s="195"/>
-      <c r="AK242" s="196"/>
-      <c r="AL242" s="197"/>
+      <c r="AD242" s="194"/>
+      <c r="AE242" s="199"/>
+      <c r="AF242" s="199"/>
+      <c r="AG242" s="195"/>
+      <c r="AH242" s="194"/>
+      <c r="AI242" s="195"/>
+      <c r="AJ242" s="194"/>
+      <c r="AK242" s="199"/>
+      <c r="AL242" s="195"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16478,7 +16485,7 @@
       <c r="I243" s="119"/>
       <c r="J243" s="120"/>
       <c r="K243" s="119" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L243" s="119"/>
       <c r="M243" s="119"/>
@@ -16498,15 +16505,15 @@
       <c r="AA243" s="119"/>
       <c r="AB243" s="119"/>
       <c r="AC243" s="120"/>
-      <c r="AD243" s="195"/>
-      <c r="AE243" s="196"/>
-      <c r="AF243" s="196"/>
-      <c r="AG243" s="197"/>
-      <c r="AH243" s="195"/>
-      <c r="AI243" s="197"/>
-      <c r="AJ243" s="195"/>
-      <c r="AK243" s="196"/>
-      <c r="AL243" s="197"/>
+      <c r="AD243" s="194"/>
+      <c r="AE243" s="199"/>
+      <c r="AF243" s="199"/>
+      <c r="AG243" s="195"/>
+      <c r="AH243" s="194"/>
+      <c r="AI243" s="195"/>
+      <c r="AJ243" s="194"/>
+      <c r="AK243" s="199"/>
+      <c r="AL243" s="195"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16523,7 +16530,7 @@
       <c r="I244" s="113"/>
       <c r="J244" s="121"/>
       <c r="K244" s="113" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L244" s="113"/>
       <c r="M244" s="113"/>
@@ -16543,15 +16550,15 @@
       <c r="AA244" s="113"/>
       <c r="AB244" s="113"/>
       <c r="AC244" s="121"/>
-      <c r="AD244" s="198"/>
-      <c r="AE244" s="199"/>
-      <c r="AF244" s="199"/>
-      <c r="AG244" s="200"/>
-      <c r="AH244" s="198"/>
-      <c r="AI244" s="200"/>
-      <c r="AJ244" s="198"/>
-      <c r="AK244" s="199"/>
-      <c r="AL244" s="200"/>
+      <c r="AD244" s="196"/>
+      <c r="AE244" s="200"/>
+      <c r="AF244" s="200"/>
+      <c r="AG244" s="197"/>
+      <c r="AH244" s="196"/>
+      <c r="AI244" s="197"/>
+      <c r="AJ244" s="196"/>
+      <c r="AK244" s="200"/>
+      <c r="AL244" s="197"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
       <c r="AP244" s="5"/>
@@ -16560,7 +16567,7 @@
     <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="C245" s="93" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D245" s="94"/>
       <c r="E245" s="94"/>
@@ -16570,7 +16577,7 @@
       <c r="I245" s="117"/>
       <c r="J245" s="173"/>
       <c r="K245" s="117" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L245" s="117"/>
       <c r="M245" s="117"/>
@@ -16593,18 +16600,18 @@
       <c r="AD245" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE245" s="193"/>
-      <c r="AF245" s="193"/>
-      <c r="AG245" s="194"/>
+      <c r="AE245" s="198"/>
+      <c r="AF245" s="198"/>
+      <c r="AG245" s="193"/>
       <c r="AH245" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI245" s="194"/>
+      <c r="AI245" s="193"/>
       <c r="AJ245" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK245" s="193"/>
-      <c r="AL245" s="194"/>
+      <c r="AK245" s="198"/>
+      <c r="AL245" s="193"/>
       <c r="AM245" s="92"/>
       <c r="AN245" s="2"/>
       <c r="AP245" s="5"/>
@@ -16621,7 +16628,7 @@
       <c r="I246" s="119"/>
       <c r="J246" s="120"/>
       <c r="K246" s="119" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L246" s="119"/>
       <c r="M246" s="119"/>
@@ -16641,15 +16648,15 @@
       <c r="AA246" s="119"/>
       <c r="AB246" s="119"/>
       <c r="AC246" s="120"/>
-      <c r="AD246" s="195"/>
-      <c r="AE246" s="196"/>
-      <c r="AF246" s="196"/>
-      <c r="AG246" s="197"/>
-      <c r="AH246" s="195"/>
-      <c r="AI246" s="197"/>
-      <c r="AJ246" s="195"/>
-      <c r="AK246" s="196"/>
-      <c r="AL246" s="197"/>
+      <c r="AD246" s="194"/>
+      <c r="AE246" s="199"/>
+      <c r="AF246" s="199"/>
+      <c r="AG246" s="195"/>
+      <c r="AH246" s="194"/>
+      <c r="AI246" s="195"/>
+      <c r="AJ246" s="194"/>
+      <c r="AK246" s="199"/>
+      <c r="AL246" s="195"/>
       <c r="AM246" s="92"/>
       <c r="AN246" s="2"/>
       <c r="AP246" s="5"/>
@@ -16666,7 +16673,7 @@
       <c r="I247" s="90"/>
       <c r="J247" s="128"/>
       <c r="K247" s="119" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L247" s="92"/>
       <c r="M247" s="92"/>
@@ -16686,15 +16693,15 @@
       <c r="AA247" s="92"/>
       <c r="AB247" s="92"/>
       <c r="AC247" s="128"/>
-      <c r="AD247" s="195"/>
-      <c r="AE247" s="196"/>
-      <c r="AF247" s="196"/>
-      <c r="AG247" s="197"/>
-      <c r="AH247" s="195"/>
-      <c r="AI247" s="197"/>
-      <c r="AJ247" s="195"/>
-      <c r="AK247" s="196"/>
-      <c r="AL247" s="197"/>
+      <c r="AD247" s="194"/>
+      <c r="AE247" s="199"/>
+      <c r="AF247" s="199"/>
+      <c r="AG247" s="195"/>
+      <c r="AH247" s="194"/>
+      <c r="AI247" s="195"/>
+      <c r="AJ247" s="194"/>
+      <c r="AK247" s="199"/>
+      <c r="AL247" s="195"/>
       <c r="AM247" s="92"/>
       <c r="AN247" s="2"/>
       <c r="AP247" s="5"/>
@@ -16711,7 +16718,7 @@
       <c r="I248" s="172"/>
       <c r="J248" s="121"/>
       <c r="K248" s="113" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L248" s="113"/>
       <c r="M248" s="113"/>
@@ -16731,15 +16738,15 @@
       <c r="AA248" s="113"/>
       <c r="AB248" s="113"/>
       <c r="AC248" s="121"/>
-      <c r="AD248" s="198"/>
-      <c r="AE248" s="199"/>
-      <c r="AF248" s="199"/>
-      <c r="AG248" s="200"/>
-      <c r="AH248" s="198"/>
-      <c r="AI248" s="200"/>
-      <c r="AJ248" s="198"/>
-      <c r="AK248" s="199"/>
-      <c r="AL248" s="200"/>
+      <c r="AD248" s="196"/>
+      <c r="AE248" s="200"/>
+      <c r="AF248" s="200"/>
+      <c r="AG248" s="197"/>
+      <c r="AH248" s="196"/>
+      <c r="AI248" s="197"/>
+      <c r="AJ248" s="196"/>
+      <c r="AK248" s="200"/>
+      <c r="AL248" s="197"/>
       <c r="AM248" s="92"/>
       <c r="AN248" s="2"/>
       <c r="AP248" s="5"/>
@@ -16748,7 +16755,7 @@
     <row r="249" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="C249" s="93" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D249" s="94"/>
       <c r="E249" s="94"/>
@@ -16758,7 +16765,7 @@
       <c r="I249" s="117"/>
       <c r="J249" s="173"/>
       <c r="K249" s="117" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L249" s="117"/>
       <c r="M249" s="117"/>
@@ -16781,18 +16788,18 @@
       <c r="AD249" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AE249" s="193"/>
-      <c r="AF249" s="193"/>
-      <c r="AG249" s="194"/>
+      <c r="AE249" s="198"/>
+      <c r="AF249" s="198"/>
+      <c r="AG249" s="193"/>
       <c r="AH249" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AI249" s="194"/>
+      <c r="AI249" s="193"/>
       <c r="AJ249" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="AK249" s="193"/>
-      <c r="AL249" s="194"/>
+      <c r="AK249" s="198"/>
+      <c r="AL249" s="193"/>
       <c r="AM249" s="92"/>
       <c r="AN249" s="2"/>
       <c r="AP249" s="5"/>
@@ -16809,7 +16816,7 @@
       <c r="I250" s="113"/>
       <c r="J250" s="121"/>
       <c r="K250" s="113" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L250" s="113"/>
       <c r="M250" s="113"/>
@@ -16829,15 +16836,15 @@
       <c r="AA250" s="113"/>
       <c r="AB250" s="113"/>
       <c r="AC250" s="121"/>
-      <c r="AD250" s="198"/>
-      <c r="AE250" s="199"/>
-      <c r="AF250" s="199"/>
-      <c r="AG250" s="200"/>
-      <c r="AH250" s="198"/>
-      <c r="AI250" s="200"/>
-      <c r="AJ250" s="198"/>
-      <c r="AK250" s="199"/>
-      <c r="AL250" s="200"/>
+      <c r="AD250" s="196"/>
+      <c r="AE250" s="200"/>
+      <c r="AF250" s="200"/>
+      <c r="AG250" s="197"/>
+      <c r="AH250" s="196"/>
+      <c r="AI250" s="197"/>
+      <c r="AJ250" s="196"/>
+      <c r="AK250" s="200"/>
+      <c r="AL250" s="197"/>
       <c r="AM250" s="92"/>
       <c r="AN250" s="2"/>
       <c r="AP250" s="5"/>
@@ -16932,7 +16939,7 @@
         <v>12</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F253" s="92"/>
       <c r="G253" s="92"/>
@@ -17019,7 +17026,7 @@
       <c r="A255" s="4"/>
       <c r="B255" s="9"/>
       <c r="C255" s="61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D255" s="62"/>
       <c r="E255" s="62"/>
@@ -17027,7 +17034,7 @@
       <c r="G255" s="62"/>
       <c r="H255" s="63"/>
       <c r="I255" s="62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J255" s="62"/>
       <c r="K255" s="62"/>
@@ -17045,23 +17052,23 @@
       <c r="W255" s="62"/>
       <c r="X255" s="62"/>
       <c r="Y255" s="61" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Z255" s="62"/>
       <c r="AA255" s="62"/>
       <c r="AB255" s="62"/>
       <c r="AC255" s="63"/>
-      <c r="AD255" s="216" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE255" s="217"/>
-      <c r="AF255" s="217"/>
-      <c r="AG255" s="217"/>
-      <c r="AH255" s="217"/>
-      <c r="AI255" s="217"/>
-      <c r="AJ255" s="217"/>
-      <c r="AK255" s="217"/>
-      <c r="AL255" s="218"/>
+      <c r="AD255" s="189" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE255" s="190"/>
+      <c r="AF255" s="190"/>
+      <c r="AG255" s="190"/>
+      <c r="AH255" s="190"/>
+      <c r="AI255" s="190"/>
+      <c r="AJ255" s="190"/>
+      <c r="AK255" s="190"/>
+      <c r="AL255" s="191"/>
       <c r="AM255" s="92"/>
       <c r="AN255" s="2"/>
       <c r="AP255" s="5"/>
@@ -17098,7 +17105,7 @@
       <c r="AB256" s="65"/>
       <c r="AC256" s="66"/>
       <c r="AD256" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AE256" s="53"/>
       <c r="AF256" s="53"/>
@@ -17121,7 +17128,7 @@
       <c r="A257" s="4"/>
       <c r="B257" s="9"/>
       <c r="C257" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D257" s="94"/>
       <c r="E257" s="94"/>
@@ -17129,7 +17136,7 @@
       <c r="G257" s="100"/>
       <c r="H257" s="97"/>
       <c r="I257" s="93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J257" s="100"/>
       <c r="K257" s="100"/>
@@ -17147,27 +17154,27 @@
       <c r="W257" s="100"/>
       <c r="X257" s="100"/>
       <c r="Y257" s="106" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z257" s="100"/>
       <c r="AA257" s="100"/>
       <c r="AB257" s="100"/>
       <c r="AC257" s="104"/>
-      <c r="AD257" s="207" t="s">
+      <c r="AD257" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="AE257" s="211"/>
-      <c r="AF257" s="211"/>
-      <c r="AG257" s="208"/>
-      <c r="AH257" s="207" t="s">
+      <c r="AE257" s="234"/>
+      <c r="AF257" s="234"/>
+      <c r="AG257" s="229"/>
+      <c r="AH257" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="AI257" s="208"/>
-      <c r="AJ257" s="207" t="s">
+      <c r="AI257" s="229"/>
+      <c r="AJ257" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="AK257" s="211"/>
-      <c r="AL257" s="208"/>
+      <c r="AK257" s="234"/>
+      <c r="AL257" s="229"/>
       <c r="AM257" s="92"/>
       <c r="AN257" s="2"/>
       <c r="AP257" s="5"/>
@@ -17183,7 +17190,7 @@
       <c r="G258" s="92"/>
       <c r="H258" s="17"/>
       <c r="I258" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J258" s="99"/>
       <c r="K258" s="99"/>
@@ -17205,15 +17212,15 @@
       <c r="AA258" s="99"/>
       <c r="AB258" s="99"/>
       <c r="AC258" s="103"/>
-      <c r="AD258" s="209"/>
-      <c r="AE258" s="212"/>
-      <c r="AF258" s="212"/>
-      <c r="AG258" s="210"/>
-      <c r="AH258" s="209"/>
-      <c r="AI258" s="210"/>
-      <c r="AJ258" s="209"/>
-      <c r="AK258" s="212"/>
-      <c r="AL258" s="210"/>
+      <c r="AD258" s="230"/>
+      <c r="AE258" s="235"/>
+      <c r="AF258" s="235"/>
+      <c r="AG258" s="231"/>
+      <c r="AH258" s="230"/>
+      <c r="AI258" s="231"/>
+      <c r="AJ258" s="230"/>
+      <c r="AK258" s="235"/>
+      <c r="AL258" s="231"/>
       <c r="AM258" s="92"/>
       <c r="AN258" s="2"/>
       <c r="AP258" s="5"/>
@@ -17229,7 +17236,7 @@
       <c r="G259" s="92"/>
       <c r="H259" s="17"/>
       <c r="I259" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J259" s="98"/>
       <c r="K259" s="98"/>
@@ -17247,27 +17254,27 @@
       <c r="W259" s="98"/>
       <c r="X259" s="98"/>
       <c r="Y259" s="108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z259" s="98"/>
       <c r="AA259" s="98"/>
       <c r="AB259" s="98"/>
       <c r="AC259" s="102"/>
-      <c r="AD259" s="207" t="s">
+      <c r="AD259" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="AE259" s="211"/>
-      <c r="AF259" s="211"/>
-      <c r="AG259" s="208"/>
-      <c r="AH259" s="207" t="s">
+      <c r="AE259" s="234"/>
+      <c r="AF259" s="234"/>
+      <c r="AG259" s="229"/>
+      <c r="AH259" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="AI259" s="208"/>
-      <c r="AJ259" s="207" t="s">
+      <c r="AI259" s="229"/>
+      <c r="AJ259" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="AK259" s="211"/>
-      <c r="AL259" s="208"/>
+      <c r="AK259" s="234"/>
+      <c r="AL259" s="229"/>
       <c r="AM259" s="92"/>
       <c r="AN259" s="2"/>
       <c r="AP259" s="5"/>
@@ -17283,7 +17290,7 @@
       <c r="G260" s="113"/>
       <c r="H260" s="114"/>
       <c r="I260" s="115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J260" s="105"/>
       <c r="K260" s="105"/>
@@ -17301,27 +17308,27 @@
       <c r="W260" s="105"/>
       <c r="X260" s="105"/>
       <c r="Y260" s="109" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Z260" s="105"/>
       <c r="AA260" s="105"/>
       <c r="AB260" s="105"/>
       <c r="AC260" s="116"/>
-      <c r="AD260" s="189" t="s">
+      <c r="AD260" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="AE260" s="190"/>
-      <c r="AF260" s="190"/>
-      <c r="AG260" s="191"/>
-      <c r="AH260" s="189" t="s">
+      <c r="AE260" s="236"/>
+      <c r="AF260" s="236"/>
+      <c r="AG260" s="233"/>
+      <c r="AH260" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="AI260" s="191"/>
-      <c r="AJ260" s="189" t="s">
+      <c r="AI260" s="233"/>
+      <c r="AJ260" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="AK260" s="190"/>
-      <c r="AL260" s="191"/>
+      <c r="AK260" s="236"/>
+      <c r="AL260" s="233"/>
       <c r="AM260" s="92"/>
       <c r="AN260" s="2"/>
       <c r="AP260" s="5"/>
@@ -17331,7 +17338,7 @@
       <c r="A261" s="4"/>
       <c r="B261" s="9"/>
       <c r="C261" s="93" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D261" s="94"/>
       <c r="E261" s="94"/>
@@ -17339,7 +17346,7 @@
       <c r="G261" s="117"/>
       <c r="H261" s="118"/>
       <c r="I261" s="105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J261" s="105"/>
       <c r="K261" s="105"/>
@@ -17357,27 +17364,27 @@
       <c r="W261" s="105"/>
       <c r="X261" s="105"/>
       <c r="Y261" s="109" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z261" s="105"/>
       <c r="AA261" s="105"/>
       <c r="AB261" s="105"/>
       <c r="AC261" s="116"/>
-      <c r="AD261" s="189" t="s">
+      <c r="AD261" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="AE261" s="190"/>
-      <c r="AF261" s="190"/>
-      <c r="AG261" s="191"/>
-      <c r="AH261" s="189" t="s">
+      <c r="AE261" s="236"/>
+      <c r="AF261" s="236"/>
+      <c r="AG261" s="233"/>
+      <c r="AH261" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="AI261" s="191"/>
-      <c r="AJ261" s="189" t="s">
+      <c r="AI261" s="233"/>
+      <c r="AJ261" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="AK261" s="190"/>
-      <c r="AL261" s="191"/>
+      <c r="AK261" s="236"/>
+      <c r="AL261" s="233"/>
       <c r="AM261" s="92"/>
       <c r="AN261" s="2"/>
       <c r="AP261" s="5"/>
@@ -17393,7 +17400,7 @@
       <c r="G262" s="119"/>
       <c r="H262" s="120"/>
       <c r="I262" s="105" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J262" s="105"/>
       <c r="K262" s="105"/>
@@ -17411,27 +17418,27 @@
       <c r="W262" s="105"/>
       <c r="X262" s="105"/>
       <c r="Y262" s="109" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z262" s="105"/>
       <c r="AA262" s="105"/>
       <c r="AB262" s="105"/>
       <c r="AC262" s="116"/>
-      <c r="AD262" s="189" t="s">
+      <c r="AD262" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="AE262" s="190"/>
-      <c r="AF262" s="190"/>
-      <c r="AG262" s="191"/>
-      <c r="AH262" s="189" t="s">
+      <c r="AE262" s="236"/>
+      <c r="AF262" s="236"/>
+      <c r="AG262" s="233"/>
+      <c r="AH262" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="AI262" s="191"/>
-      <c r="AJ262" s="189" t="s">
+      <c r="AI262" s="233"/>
+      <c r="AJ262" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="AK262" s="190"/>
-      <c r="AL262" s="191"/>
+      <c r="AK262" s="236"/>
+      <c r="AL262" s="233"/>
       <c r="AM262" s="92"/>
       <c r="AN262" s="2"/>
       <c r="AP262" s="5"/>
@@ -17447,7 +17454,7 @@
       <c r="G263" s="113"/>
       <c r="H263" s="121"/>
       <c r="I263" s="105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J263" s="105"/>
       <c r="K263" s="105"/>
@@ -17465,27 +17472,27 @@
       <c r="W263" s="105"/>
       <c r="X263" s="105"/>
       <c r="Y263" s="109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Z263" s="105"/>
       <c r="AA263" s="105"/>
       <c r="AB263" s="105"/>
       <c r="AC263" s="116"/>
-      <c r="AD263" s="213" t="s">
+      <c r="AD263" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="AE263" s="214"/>
-      <c r="AF263" s="214"/>
-      <c r="AG263" s="215"/>
-      <c r="AH263" s="213" t="s">
+      <c r="AE263" s="238"/>
+      <c r="AF263" s="238"/>
+      <c r="AG263" s="239"/>
+      <c r="AH263" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="AI263" s="215"/>
-      <c r="AJ263" s="189" t="s">
+      <c r="AI263" s="239"/>
+      <c r="AJ263" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="AK263" s="190"/>
-      <c r="AL263" s="191"/>
+      <c r="AK263" s="236"/>
+      <c r="AL263" s="233"/>
       <c r="AM263" s="92"/>
       <c r="AN263" s="2"/>
       <c r="AP263" s="5"/>
@@ -17495,7 +17502,7 @@
       <c r="A264" s="4"/>
       <c r="B264" s="9"/>
       <c r="C264" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
@@ -17503,7 +17510,7 @@
       <c r="G264" s="98"/>
       <c r="H264" s="102"/>
       <c r="I264" s="105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J264" s="98"/>
       <c r="K264" s="98"/>
@@ -17521,7 +17528,7 @@
       <c r="W264" s="98"/>
       <c r="X264" s="98"/>
       <c r="Y264" s="109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z264" s="98"/>
       <c r="AA264" s="98"/>
@@ -17593,7 +17600,7 @@
     <row r="266" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="C266" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
@@ -17639,7 +17646,7 @@
       <c r="A267" s="4"/>
       <c r="B267" s="9"/>
       <c r="C267" s="111" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D267" s="112"/>
       <c r="E267" s="112"/>
@@ -17686,7 +17693,7 @@
       <c r="A268" s="4"/>
       <c r="B268" s="9"/>
       <c r="C268" s="93" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D268" s="94"/>
       <c r="E268" s="94"/>
@@ -17733,7 +17740,7 @@
       <c r="A269" s="4"/>
       <c r="B269" s="9"/>
       <c r="C269" s="93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D269" s="94"/>
       <c r="E269" s="94"/>
@@ -17780,7 +17787,7 @@
       <c r="A270" s="4"/>
       <c r="B270" s="9"/>
       <c r="C270" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
@@ -17912,7 +17919,7 @@
         <v>13</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AP273" s="5"/>
       <c r="AQ273" s="2"/>
@@ -17920,10 +17927,10 @@
     <row r="274" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="C274" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AP274" s="5"/>
       <c r="AQ274" s="2"/>
@@ -17931,10 +17938,10 @@
     <row r="275" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="C275" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AP275" s="5"/>
       <c r="AQ275" s="2"/>
@@ -17942,10 +17949,10 @@
     <row r="276" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="C276" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AP276" s="5"/>
       <c r="AQ276" s="2"/>
@@ -17953,10 +17960,10 @@
     <row r="277" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="C277" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AP277" s="5"/>
       <c r="AQ277" s="2"/>
@@ -17964,7 +17971,7 @@
     <row r="278" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="D278" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AP278" s="5"/>
       <c r="AQ278" s="2"/>
@@ -17985,7 +17992,7 @@
         <v>14</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AP281" s="5"/>
       <c r="AQ281" s="2"/>
@@ -17993,10 +18000,10 @@
     <row r="282" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="C282" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AP282" s="5"/>
       <c r="AQ282" s="2"/>
@@ -18004,10 +18011,10 @@
     <row r="283" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="C283" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP283" s="5"/>
       <c r="AQ283" s="2"/>
@@ -18143,78 +18150,137 @@
     </row>
   </sheetData>
   <mergeCells count="234">
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AD237:AG240"/>
-    <mergeCell ref="AJ237:AL240"/>
-    <mergeCell ref="AH237:AI240"/>
-    <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AH245:AI248"/>
-    <mergeCell ref="AJ245:AL248"/>
-    <mergeCell ref="AJ249:AL250"/>
-    <mergeCell ref="AH249:AI250"/>
-    <mergeCell ref="AD249:AG250"/>
-    <mergeCell ref="AD241:AG244"/>
-    <mergeCell ref="AH241:AI244"/>
-    <mergeCell ref="AJ241:AL244"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="S183:X183"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="Y129:AD129"/>
+    <mergeCell ref="S129:X129"/>
+    <mergeCell ref="Y128:AD128"/>
+    <mergeCell ref="S128:X128"/>
+    <mergeCell ref="S160:X160"/>
+    <mergeCell ref="Y159:AD159"/>
+    <mergeCell ref="S159:X159"/>
+    <mergeCell ref="Y158:AD158"/>
+    <mergeCell ref="Y157:AD157"/>
+    <mergeCell ref="Y151:AD151"/>
+    <mergeCell ref="Y150:AD150"/>
+    <mergeCell ref="S156:X156"/>
+    <mergeCell ref="S157:X157"/>
+    <mergeCell ref="S130:X130"/>
+    <mergeCell ref="S131:X131"/>
+    <mergeCell ref="S132:X132"/>
+    <mergeCell ref="S134:X134"/>
+    <mergeCell ref="Y143:AD143"/>
+    <mergeCell ref="Y144:AD144"/>
+    <mergeCell ref="S135:X135"/>
+    <mergeCell ref="S133:X133"/>
+    <mergeCell ref="Y148:AD148"/>
+    <mergeCell ref="S158:X158"/>
+    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AD261:AG261"/>
+    <mergeCell ref="AD262:AG262"/>
+    <mergeCell ref="AD245:AG248"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="S184:X184"/>
+    <mergeCell ref="Y184:AD184"/>
+    <mergeCell ref="AE184:AJ184"/>
+    <mergeCell ref="S180:X180"/>
+    <mergeCell ref="Y180:AD180"/>
+    <mergeCell ref="AE180:AJ180"/>
+    <mergeCell ref="S177:X177"/>
+    <mergeCell ref="Y177:AD177"/>
+    <mergeCell ref="AE177:AJ177"/>
+    <mergeCell ref="S178:X178"/>
+    <mergeCell ref="Y178:AD178"/>
+    <mergeCell ref="AE178:AJ178"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AD264:AG264"/>
+    <mergeCell ref="AH257:AI257"/>
+    <mergeCell ref="AH258:AI258"/>
+    <mergeCell ref="AH259:AI259"/>
+    <mergeCell ref="AH260:AI260"/>
+    <mergeCell ref="AH261:AI261"/>
+    <mergeCell ref="AH262:AI262"/>
+    <mergeCell ref="AH264:AI264"/>
+    <mergeCell ref="AJ257:AL257"/>
+    <mergeCell ref="AJ258:AL258"/>
+    <mergeCell ref="AJ259:AL259"/>
+    <mergeCell ref="AJ260:AL260"/>
+    <mergeCell ref="AJ261:AL261"/>
+    <mergeCell ref="AJ262:AL262"/>
+    <mergeCell ref="AJ264:AL264"/>
+    <mergeCell ref="AD263:AG263"/>
+    <mergeCell ref="AH263:AI263"/>
+    <mergeCell ref="AJ263:AL263"/>
+    <mergeCell ref="AD255:AL255"/>
+    <mergeCell ref="AD257:AG257"/>
+    <mergeCell ref="AD258:AG258"/>
+    <mergeCell ref="AD259:AG259"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
     <mergeCell ref="AE155:AJ155"/>
     <mergeCell ref="Y132:AD132"/>
     <mergeCell ref="Y134:AD134"/>
@@ -18239,144 +18305,85 @@
     <mergeCell ref="AE149:AJ149"/>
     <mergeCell ref="Y149:AD149"/>
     <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AD264:AG264"/>
-    <mergeCell ref="AH257:AI257"/>
-    <mergeCell ref="AH258:AI258"/>
-    <mergeCell ref="AH259:AI259"/>
-    <mergeCell ref="AH260:AI260"/>
-    <mergeCell ref="AH261:AI261"/>
-    <mergeCell ref="AH262:AI262"/>
-    <mergeCell ref="AH264:AI264"/>
-    <mergeCell ref="AJ257:AL257"/>
-    <mergeCell ref="AJ258:AL258"/>
-    <mergeCell ref="AJ259:AL259"/>
-    <mergeCell ref="AJ260:AL260"/>
-    <mergeCell ref="AJ261:AL261"/>
-    <mergeCell ref="AJ262:AL262"/>
-    <mergeCell ref="AJ264:AL264"/>
-    <mergeCell ref="AD263:AG263"/>
-    <mergeCell ref="AH263:AI263"/>
-    <mergeCell ref="AJ263:AL263"/>
-    <mergeCell ref="AD255:AL255"/>
-    <mergeCell ref="AD257:AG257"/>
-    <mergeCell ref="AD258:AG258"/>
-    <mergeCell ref="AD259:AG259"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AD261:AG261"/>
-    <mergeCell ref="AD262:AG262"/>
-    <mergeCell ref="AD245:AG248"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="S184:X184"/>
-    <mergeCell ref="Y184:AD184"/>
-    <mergeCell ref="AE184:AJ184"/>
-    <mergeCell ref="S180:X180"/>
-    <mergeCell ref="Y180:AD180"/>
-    <mergeCell ref="AE180:AJ180"/>
-    <mergeCell ref="S177:X177"/>
-    <mergeCell ref="Y177:AD177"/>
-    <mergeCell ref="AE177:AJ177"/>
-    <mergeCell ref="S178:X178"/>
-    <mergeCell ref="Y178:AD178"/>
-    <mergeCell ref="AE178:AJ178"/>
-    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="Y166:AD166"/>
     <mergeCell ref="Y179:AD179"/>
     <mergeCell ref="AE179:AJ179"/>
-    <mergeCell ref="S181:X181"/>
     <mergeCell ref="AE181:AJ181"/>
     <mergeCell ref="Y181:AD181"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="S172:X172"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="AH245:AI248"/>
+    <mergeCell ref="AJ245:AL248"/>
+    <mergeCell ref="AJ249:AL250"/>
+    <mergeCell ref="AH249:AI250"/>
+    <mergeCell ref="AD249:AG250"/>
+    <mergeCell ref="AD241:AG244"/>
+    <mergeCell ref="AH241:AI244"/>
+    <mergeCell ref="AJ241:AL244"/>
+    <mergeCell ref="S183:X183"/>
+    <mergeCell ref="S181:X181"/>
     <mergeCell ref="S182:X182"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="Y129:AD129"/>
-    <mergeCell ref="S129:X129"/>
-    <mergeCell ref="Y128:AD128"/>
-    <mergeCell ref="S128:X128"/>
-    <mergeCell ref="S160:X160"/>
-    <mergeCell ref="Y159:AD159"/>
-    <mergeCell ref="S159:X159"/>
-    <mergeCell ref="Y158:AD158"/>
-    <mergeCell ref="Y157:AD157"/>
-    <mergeCell ref="Y151:AD151"/>
-    <mergeCell ref="Y150:AD150"/>
-    <mergeCell ref="S156:X156"/>
-    <mergeCell ref="S157:X157"/>
-    <mergeCell ref="S130:X130"/>
-    <mergeCell ref="S131:X131"/>
-    <mergeCell ref="S132:X132"/>
-    <mergeCell ref="S134:X134"/>
-    <mergeCell ref="Y143:AD143"/>
-    <mergeCell ref="Y144:AD144"/>
-    <mergeCell ref="S135:X135"/>
-    <mergeCell ref="S133:X133"/>
-    <mergeCell ref="Y148:AD148"/>
-    <mergeCell ref="S158:X158"/>
-    <mergeCell ref="S148:X148"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AD237:AG240"/>
+    <mergeCell ref="AJ237:AL240"/>
+    <mergeCell ref="AH237:AI240"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -3041,19 +3041,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・発信相手は3人まで同時指定できる。</t>
-    <rPh sb="1" eb="5">
-      <t>ハッシn</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ニンマd</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ドウj</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送受信一元管理</t>
     <rPh sb="0" eb="3">
       <t>ソウジュシn</t>
@@ -3215,6 +3202,19 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・発信相手は複数人を同時指定できる。</t>
+    <rPh sb="1" eb="5">
+      <t>ハッシn</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フクス</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ドウj</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4707,13 +4707,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4725,43 +4734,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4770,31 +4764,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4806,22 +4797,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4851,50 +4860,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6735,7 +6735,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F13" s="71"/>
     </row>
@@ -7241,15 +7241,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>70</v>
@@ -7260,53 +7260,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="225" t="s">
+      <c r="P1" s="228" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="227"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="230"/>
       <c r="AA1" s="44" t="s">
         <v>65</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="222">
+      <c r="AD1" s="225">
         <v>42760</v>
       </c>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="223"/>
-      <c r="AH1" s="224"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="227"/>
       <c r="AI1" s="44" t="s">
         <v>67</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="213" t="s">
+      <c r="AL1" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="214"/>
-      <c r="AN1" s="214"/>
-      <c r="AO1" s="214"/>
-      <c r="AP1" s="215"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="217"/>
+      <c r="AO1" s="217"/>
+      <c r="AP1" s="218"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="219"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="221"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="224"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>71</v>
@@ -7317,41 +7317,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="230"/>
       <c r="AA2" s="44" t="s">
         <v>66</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="222">
+      <c r="AD2" s="225">
         <v>42991</v>
       </c>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="223"/>
-      <c r="AH2" s="224"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="227"/>
       <c r="AI2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="213" t="s">
+      <c r="AL2" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="215"/>
+      <c r="AM2" s="217"/>
+      <c r="AN2" s="217"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="218"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7889,27 +7889,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="204" t="s">
+      <c r="L19" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="205"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="205"/>
-      <c r="W19" s="205"/>
-      <c r="X19" s="205"/>
-      <c r="Y19" s="205"/>
-      <c r="Z19" s="205"/>
-      <c r="AA19" s="205"/>
-      <c r="AB19" s="205"/>
-      <c r="AC19" s="205"/>
-      <c r="AD19" s="206"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="202"/>
+      <c r="R19" s="202"/>
+      <c r="S19" s="202"/>
+      <c r="T19" s="202"/>
+      <c r="U19" s="202"/>
+      <c r="V19" s="202"/>
+      <c r="W19" s="202"/>
+      <c r="X19" s="202"/>
+      <c r="Y19" s="202"/>
+      <c r="Z19" s="202"/>
+      <c r="AA19" s="202"/>
+      <c r="AB19" s="202"/>
+      <c r="AC19" s="202"/>
+      <c r="AD19" s="203"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7925,27 +7925,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="204" t="s">
+      <c r="L20" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
-      <c r="U20" s="205"/>
-      <c r="V20" s="205"/>
-      <c r="W20" s="205"/>
-      <c r="X20" s="205"/>
-      <c r="Y20" s="205"/>
-      <c r="Z20" s="205"/>
-      <c r="AA20" s="205"/>
-      <c r="AB20" s="205"/>
-      <c r="AC20" s="205"/>
-      <c r="AD20" s="206"/>
+      <c r="M20" s="202"/>
+      <c r="N20" s="202"/>
+      <c r="O20" s="202"/>
+      <c r="P20" s="202"/>
+      <c r="Q20" s="202"/>
+      <c r="R20" s="202"/>
+      <c r="S20" s="202"/>
+      <c r="T20" s="202"/>
+      <c r="U20" s="202"/>
+      <c r="V20" s="202"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="202"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
+      <c r="AD20" s="203"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7961,27 +7961,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="204" t="s">
+      <c r="L21" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="205"/>
-      <c r="U21" s="205"/>
-      <c r="V21" s="205"/>
-      <c r="W21" s="205"/>
-      <c r="X21" s="205"/>
-      <c r="Y21" s="205"/>
-      <c r="Z21" s="205"/>
-      <c r="AA21" s="205"/>
-      <c r="AB21" s="205"/>
-      <c r="AC21" s="205"/>
-      <c r="AD21" s="206"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="202"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="202"/>
+      <c r="R21" s="202"/>
+      <c r="S21" s="202"/>
+      <c r="T21" s="202"/>
+      <c r="U21" s="202"/>
+      <c r="V21" s="202"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="202"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
+      <c r="AD21" s="203"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -8435,27 +8435,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="189" t="s">
+      <c r="L40" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="190"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="190"/>
-      <c r="P40" s="190"/>
-      <c r="Q40" s="190"/>
-      <c r="R40" s="190"/>
-      <c r="S40" s="190"/>
-      <c r="T40" s="190"/>
-      <c r="U40" s="190"/>
-      <c r="V40" s="190"/>
-      <c r="W40" s="190"/>
-      <c r="X40" s="190"/>
-      <c r="Y40" s="190"/>
-      <c r="Z40" s="190"/>
-      <c r="AA40" s="190"/>
-      <c r="AB40" s="190"/>
-      <c r="AC40" s="190"/>
-      <c r="AD40" s="191"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214"/>
+      <c r="P40" s="214"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="214"/>
+      <c r="S40" s="214"/>
+      <c r="T40" s="214"/>
+      <c r="U40" s="214"/>
+      <c r="V40" s="214"/>
+      <c r="W40" s="214"/>
+      <c r="X40" s="214"/>
+      <c r="Y40" s="214"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="214"/>
+      <c r="AB40" s="214"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="215"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8471,27 +8471,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="204" t="s">
+      <c r="L41" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="205"/>
-      <c r="N41" s="205"/>
-      <c r="O41" s="205"/>
-      <c r="P41" s="205"/>
-      <c r="Q41" s="205"/>
-      <c r="R41" s="205"/>
-      <c r="S41" s="205"/>
-      <c r="T41" s="205"/>
-      <c r="U41" s="205"/>
-      <c r="V41" s="205"/>
-      <c r="W41" s="205"/>
-      <c r="X41" s="205"/>
-      <c r="Y41" s="205"/>
-      <c r="Z41" s="205"/>
-      <c r="AA41" s="205"/>
-      <c r="AB41" s="205"/>
-      <c r="AC41" s="205"/>
-      <c r="AD41" s="206"/>
+      <c r="M41" s="202"/>
+      <c r="N41" s="202"/>
+      <c r="O41" s="202"/>
+      <c r="P41" s="202"/>
+      <c r="Q41" s="202"/>
+      <c r="R41" s="202"/>
+      <c r="S41" s="202"/>
+      <c r="T41" s="202"/>
+      <c r="U41" s="202"/>
+      <c r="V41" s="202"/>
+      <c r="W41" s="202"/>
+      <c r="X41" s="202"/>
+      <c r="Y41" s="202"/>
+      <c r="Z41" s="202"/>
+      <c r="AA41" s="202"/>
+      <c r="AB41" s="202"/>
+      <c r="AC41" s="202"/>
+      <c r="AD41" s="203"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8507,27 +8507,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="204" t="s">
-        <v>295</v>
-      </c>
-      <c r="M42" s="205"/>
-      <c r="N42" s="205"/>
-      <c r="O42" s="205"/>
-      <c r="P42" s="205"/>
-      <c r="Q42" s="205"/>
-      <c r="R42" s="205"/>
-      <c r="S42" s="205"/>
-      <c r="T42" s="205"/>
-      <c r="U42" s="205"/>
-      <c r="V42" s="205"/>
-      <c r="W42" s="205"/>
-      <c r="X42" s="205"/>
-      <c r="Y42" s="205"/>
-      <c r="Z42" s="205"/>
-      <c r="AA42" s="205"/>
-      <c r="AB42" s="205"/>
-      <c r="AC42" s="205"/>
-      <c r="AD42" s="206"/>
+      <c r="L42" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" s="202"/>
+      <c r="N42" s="202"/>
+      <c r="O42" s="202"/>
+      <c r="P42" s="202"/>
+      <c r="Q42" s="202"/>
+      <c r="R42" s="202"/>
+      <c r="S42" s="202"/>
+      <c r="T42" s="202"/>
+      <c r="U42" s="202"/>
+      <c r="V42" s="202"/>
+      <c r="W42" s="202"/>
+      <c r="X42" s="202"/>
+      <c r="Y42" s="202"/>
+      <c r="Z42" s="202"/>
+      <c r="AA42" s="202"/>
+      <c r="AB42" s="202"/>
+      <c r="AC42" s="202"/>
+      <c r="AD42" s="203"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8543,27 +8543,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="204" t="s">
-        <v>296</v>
-      </c>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="205"/>
-      <c r="Q43" s="205"/>
-      <c r="R43" s="205"/>
-      <c r="S43" s="205"/>
-      <c r="T43" s="205"/>
-      <c r="U43" s="205"/>
-      <c r="V43" s="205"/>
-      <c r="W43" s="205"/>
-      <c r="X43" s="205"/>
-      <c r="Y43" s="205"/>
-      <c r="Z43" s="205"/>
-      <c r="AA43" s="205"/>
-      <c r="AB43" s="205"/>
-      <c r="AC43" s="205"/>
-      <c r="AD43" s="206"/>
+      <c r="L43" s="201" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43" s="202"/>
+      <c r="N43" s="202"/>
+      <c r="O43" s="202"/>
+      <c r="P43" s="202"/>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="202"/>
+      <c r="S43" s="202"/>
+      <c r="T43" s="202"/>
+      <c r="U43" s="202"/>
+      <c r="V43" s="202"/>
+      <c r="W43" s="202"/>
+      <c r="X43" s="202"/>
+      <c r="Y43" s="202"/>
+      <c r="Z43" s="202"/>
+      <c r="AA43" s="202"/>
+      <c r="AB43" s="202"/>
+      <c r="AC43" s="202"/>
+      <c r="AD43" s="203"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8579,27 +8579,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="204" t="s">
-        <v>297</v>
-      </c>
-      <c r="M44" s="205"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="205"/>
-      <c r="Q44" s="205"/>
-      <c r="R44" s="205"/>
-      <c r="S44" s="205"/>
-      <c r="T44" s="205"/>
-      <c r="U44" s="205"/>
-      <c r="V44" s="205"/>
-      <c r="W44" s="205"/>
-      <c r="X44" s="205"/>
-      <c r="Y44" s="205"/>
-      <c r="Z44" s="205"/>
-      <c r="AA44" s="205"/>
-      <c r="AB44" s="205"/>
-      <c r="AC44" s="205"/>
-      <c r="AD44" s="206"/>
+      <c r="L44" s="201" t="s">
+        <v>296</v>
+      </c>
+      <c r="M44" s="202"/>
+      <c r="N44" s="202"/>
+      <c r="O44" s="202"/>
+      <c r="P44" s="202"/>
+      <c r="Q44" s="202"/>
+      <c r="R44" s="202"/>
+      <c r="S44" s="202"/>
+      <c r="T44" s="202"/>
+      <c r="U44" s="202"/>
+      <c r="V44" s="202"/>
+      <c r="W44" s="202"/>
+      <c r="X44" s="202"/>
+      <c r="Y44" s="202"/>
+      <c r="Z44" s="202"/>
+      <c r="AA44" s="202"/>
+      <c r="AB44" s="202"/>
+      <c r="AC44" s="202"/>
+      <c r="AD44" s="203"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8615,27 +8615,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="204" t="s">
+      <c r="L45" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="205"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="205"/>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="205"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="205"/>
-      <c r="U45" s="205"/>
-      <c r="V45" s="205"/>
-      <c r="W45" s="205"/>
-      <c r="X45" s="205"/>
-      <c r="Y45" s="205"/>
-      <c r="Z45" s="205"/>
-      <c r="AA45" s="205"/>
-      <c r="AB45" s="205"/>
-      <c r="AC45" s="205"/>
-      <c r="AD45" s="206"/>
+      <c r="M45" s="202"/>
+      <c r="N45" s="202"/>
+      <c r="O45" s="202"/>
+      <c r="P45" s="202"/>
+      <c r="Q45" s="202"/>
+      <c r="R45" s="202"/>
+      <c r="S45" s="202"/>
+      <c r="T45" s="202"/>
+      <c r="U45" s="202"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202"/>
+      <c r="X45" s="202"/>
+      <c r="Y45" s="202"/>
+      <c r="Z45" s="202"/>
+      <c r="AA45" s="202"/>
+      <c r="AB45" s="202"/>
+      <c r="AC45" s="202"/>
+      <c r="AD45" s="203"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8710,27 +8710,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="189" t="s">
+      <c r="L48" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="190"/>
-      <c r="N48" s="190"/>
-      <c r="O48" s="190"/>
-      <c r="P48" s="190"/>
-      <c r="Q48" s="190"/>
-      <c r="R48" s="190"/>
-      <c r="S48" s="190"/>
-      <c r="T48" s="190"/>
-      <c r="U48" s="190"/>
-      <c r="V48" s="190"/>
-      <c r="W48" s="190"/>
-      <c r="X48" s="190"/>
-      <c r="Y48" s="190"/>
-      <c r="Z48" s="190"/>
-      <c r="AA48" s="190"/>
-      <c r="AB48" s="190"/>
-      <c r="AC48" s="190"/>
-      <c r="AD48" s="191"/>
+      <c r="M48" s="214"/>
+      <c r="N48" s="214"/>
+      <c r="O48" s="214"/>
+      <c r="P48" s="214"/>
+      <c r="Q48" s="214"/>
+      <c r="R48" s="214"/>
+      <c r="S48" s="214"/>
+      <c r="T48" s="214"/>
+      <c r="U48" s="214"/>
+      <c r="V48" s="214"/>
+      <c r="W48" s="214"/>
+      <c r="X48" s="214"/>
+      <c r="Y48" s="214"/>
+      <c r="Z48" s="214"/>
+      <c r="AA48" s="214"/>
+      <c r="AB48" s="214"/>
+      <c r="AC48" s="214"/>
+      <c r="AD48" s="215"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8744,27 +8744,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="204" t="s">
+      <c r="L49" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="M49" s="205"/>
-      <c r="N49" s="205"/>
-      <c r="O49" s="205"/>
-      <c r="P49" s="205"/>
-      <c r="Q49" s="205"/>
-      <c r="R49" s="205"/>
-      <c r="S49" s="205"/>
-      <c r="T49" s="205"/>
-      <c r="U49" s="205"/>
-      <c r="V49" s="205"/>
-      <c r="W49" s="205"/>
-      <c r="X49" s="205"/>
-      <c r="Y49" s="205"/>
-      <c r="Z49" s="205"/>
-      <c r="AA49" s="205"/>
-      <c r="AB49" s="205"/>
-      <c r="AC49" s="205"/>
-      <c r="AD49" s="206"/>
+      <c r="M49" s="202"/>
+      <c r="N49" s="202"/>
+      <c r="O49" s="202"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="202"/>
+      <c r="R49" s="202"/>
+      <c r="S49" s="202"/>
+      <c r="T49" s="202"/>
+      <c r="U49" s="202"/>
+      <c r="V49" s="202"/>
+      <c r="W49" s="202"/>
+      <c r="X49" s="202"/>
+      <c r="Y49" s="202"/>
+      <c r="Z49" s="202"/>
+      <c r="AA49" s="202"/>
+      <c r="AB49" s="202"/>
+      <c r="AC49" s="202"/>
+      <c r="AD49" s="203"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8778,27 +8778,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="204" t="s">
+      <c r="L50" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="M50" s="205"/>
-      <c r="N50" s="205"/>
-      <c r="O50" s="205"/>
-      <c r="P50" s="205"/>
-      <c r="Q50" s="205"/>
-      <c r="R50" s="205"/>
-      <c r="S50" s="205"/>
-      <c r="T50" s="205"/>
-      <c r="U50" s="205"/>
-      <c r="V50" s="205"/>
-      <c r="W50" s="205"/>
-      <c r="X50" s="205"/>
-      <c r="Y50" s="205"/>
-      <c r="Z50" s="205"/>
-      <c r="AA50" s="205"/>
-      <c r="AB50" s="205"/>
-      <c r="AC50" s="205"/>
-      <c r="AD50" s="206"/>
+      <c r="M50" s="202"/>
+      <c r="N50" s="202"/>
+      <c r="O50" s="202"/>
+      <c r="P50" s="202"/>
+      <c r="Q50" s="202"/>
+      <c r="R50" s="202"/>
+      <c r="S50" s="202"/>
+      <c r="T50" s="202"/>
+      <c r="U50" s="202"/>
+      <c r="V50" s="202"/>
+      <c r="W50" s="202"/>
+      <c r="X50" s="202"/>
+      <c r="Y50" s="202"/>
+      <c r="Z50" s="202"/>
+      <c r="AA50" s="202"/>
+      <c r="AB50" s="202"/>
+      <c r="AC50" s="202"/>
+      <c r="AD50" s="203"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11401,30 +11401,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="189" t="s">
+      <c r="S125" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="190"/>
-      <c r="U125" s="190"/>
-      <c r="V125" s="190"/>
-      <c r="W125" s="190"/>
-      <c r="X125" s="191"/>
-      <c r="Y125" s="189" t="s">
+      <c r="T125" s="214"/>
+      <c r="U125" s="214"/>
+      <c r="V125" s="214"/>
+      <c r="W125" s="214"/>
+      <c r="X125" s="215"/>
+      <c r="Y125" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="190"/>
-      <c r="AA125" s="190"/>
-      <c r="AB125" s="190"/>
-      <c r="AC125" s="190"/>
-      <c r="AD125" s="191"/>
-      <c r="AE125" s="189" t="s">
+      <c r="Z125" s="214"/>
+      <c r="AA125" s="214"/>
+      <c r="AB125" s="214"/>
+      <c r="AC125" s="214"/>
+      <c r="AD125" s="215"/>
+      <c r="AE125" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="190"/>
-      <c r="AG125" s="190"/>
-      <c r="AH125" s="190"/>
-      <c r="AI125" s="190"/>
-      <c r="AJ125" s="191"/>
+      <c r="AF125" s="214"/>
+      <c r="AG125" s="214"/>
+      <c r="AH125" s="214"/>
+      <c r="AI125" s="214"/>
+      <c r="AJ125" s="215"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11446,30 +11446,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="204" t="s">
+      <c r="S126" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="205"/>
-      <c r="U126" s="205"/>
-      <c r="V126" s="205"/>
-      <c r="W126" s="205"/>
-      <c r="X126" s="206"/>
-      <c r="Y126" s="204" t="s">
+      <c r="T126" s="202"/>
+      <c r="U126" s="202"/>
+      <c r="V126" s="202"/>
+      <c r="W126" s="202"/>
+      <c r="X126" s="203"/>
+      <c r="Y126" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="205"/>
-      <c r="AA126" s="205"/>
-      <c r="AB126" s="205"/>
-      <c r="AC126" s="205"/>
-      <c r="AD126" s="206"/>
-      <c r="AE126" s="204" t="s">
+      <c r="Z126" s="202"/>
+      <c r="AA126" s="202"/>
+      <c r="AB126" s="202"/>
+      <c r="AC126" s="202"/>
+      <c r="AD126" s="203"/>
+      <c r="AE126" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="205"/>
-      <c r="AG126" s="205"/>
-      <c r="AH126" s="205"/>
-      <c r="AI126" s="205"/>
-      <c r="AJ126" s="206"/>
+      <c r="AF126" s="202"/>
+      <c r="AG126" s="202"/>
+      <c r="AH126" s="202"/>
+      <c r="AI126" s="202"/>
+      <c r="AJ126" s="203"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11530,30 +11530,30 @@
       <c r="P128" s="130"/>
       <c r="Q128" s="130"/>
       <c r="R128" s="131"/>
-      <c r="S128" s="207" t="s">
+      <c r="S128" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="208"/>
-      <c r="U128" s="208"/>
-      <c r="V128" s="208"/>
-      <c r="W128" s="208"/>
-      <c r="X128" s="209"/>
-      <c r="Y128" s="207" t="s">
+      <c r="T128" s="178"/>
+      <c r="U128" s="178"/>
+      <c r="V128" s="178"/>
+      <c r="W128" s="178"/>
+      <c r="X128" s="179"/>
+      <c r="Y128" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="208"/>
-      <c r="AA128" s="208"/>
-      <c r="AB128" s="208"/>
-      <c r="AC128" s="208"/>
-      <c r="AD128" s="209"/>
-      <c r="AE128" s="207" t="s">
+      <c r="Z128" s="178"/>
+      <c r="AA128" s="178"/>
+      <c r="AB128" s="178"/>
+      <c r="AC128" s="178"/>
+      <c r="AD128" s="179"/>
+      <c r="AE128" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="208"/>
-      <c r="AG128" s="208"/>
-      <c r="AH128" s="208"/>
-      <c r="AI128" s="208"/>
-      <c r="AJ128" s="209"/>
+      <c r="AF128" s="178"/>
+      <c r="AG128" s="178"/>
+      <c r="AH128" s="178"/>
+      <c r="AI128" s="178"/>
+      <c r="AJ128" s="179"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11575,30 +11575,30 @@
       <c r="P129" s="127"/>
       <c r="Q129" s="127"/>
       <c r="R129" s="132"/>
-      <c r="S129" s="210" t="s">
+      <c r="S129" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="211"/>
-      <c r="U129" s="211"/>
-      <c r="V129" s="211"/>
-      <c r="W129" s="211"/>
-      <c r="X129" s="212"/>
-      <c r="Y129" s="210" t="s">
+      <c r="T129" s="175"/>
+      <c r="U129" s="175"/>
+      <c r="V129" s="175"/>
+      <c r="W129" s="175"/>
+      <c r="X129" s="176"/>
+      <c r="Y129" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="211"/>
-      <c r="AA129" s="211"/>
-      <c r="AB129" s="211"/>
-      <c r="AC129" s="211"/>
-      <c r="AD129" s="212"/>
-      <c r="AE129" s="210" t="s">
+      <c r="Z129" s="175"/>
+      <c r="AA129" s="175"/>
+      <c r="AB129" s="175"/>
+      <c r="AC129" s="175"/>
+      <c r="AD129" s="176"/>
+      <c r="AE129" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="211"/>
-      <c r="AG129" s="211"/>
-      <c r="AH129" s="211"/>
-      <c r="AI129" s="211"/>
-      <c r="AJ129" s="212"/>
+      <c r="AF129" s="175"/>
+      <c r="AG129" s="175"/>
+      <c r="AH129" s="175"/>
+      <c r="AI129" s="175"/>
+      <c r="AJ129" s="176"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11622,30 +11622,30 @@
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
       <c r="R130" s="133"/>
-      <c r="S130" s="177" t="s">
+      <c r="S130" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="178"/>
-      <c r="U130" s="178"/>
-      <c r="V130" s="178"/>
-      <c r="W130" s="178"/>
-      <c r="X130" s="179"/>
-      <c r="Y130" s="177" t="s">
+      <c r="T130" s="181"/>
+      <c r="U130" s="181"/>
+      <c r="V130" s="181"/>
+      <c r="W130" s="181"/>
+      <c r="X130" s="182"/>
+      <c r="Y130" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="178"/>
-      <c r="AA130" s="178"/>
-      <c r="AB130" s="178"/>
-      <c r="AC130" s="178"/>
-      <c r="AD130" s="179"/>
-      <c r="AE130" s="177" t="s">
+      <c r="Z130" s="181"/>
+      <c r="AA130" s="181"/>
+      <c r="AB130" s="181"/>
+      <c r="AC130" s="181"/>
+      <c r="AD130" s="182"/>
+      <c r="AE130" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="178"/>
-      <c r="AG130" s="178"/>
-      <c r="AH130" s="178"/>
-      <c r="AI130" s="178"/>
-      <c r="AJ130" s="179"/>
+      <c r="AF130" s="181"/>
+      <c r="AG130" s="181"/>
+      <c r="AH130" s="181"/>
+      <c r="AI130" s="181"/>
+      <c r="AJ130" s="182"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="2"/>
     </row>
@@ -11663,30 +11663,30 @@
       <c r="P131" s="75"/>
       <c r="Q131" s="75"/>
       <c r="R131" s="133"/>
-      <c r="S131" s="177" t="s">
+      <c r="S131" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T131" s="178"/>
-      <c r="U131" s="178"/>
-      <c r="V131" s="178"/>
-      <c r="W131" s="178"/>
-      <c r="X131" s="179"/>
-      <c r="Y131" s="177" t="s">
+      <c r="T131" s="181"/>
+      <c r="U131" s="181"/>
+      <c r="V131" s="181"/>
+      <c r="W131" s="181"/>
+      <c r="X131" s="182"/>
+      <c r="Y131" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z131" s="178"/>
-      <c r="AA131" s="178"/>
-      <c r="AB131" s="178"/>
-      <c r="AC131" s="178"/>
-      <c r="AD131" s="179"/>
-      <c r="AE131" s="177" t="s">
+      <c r="Z131" s="181"/>
+      <c r="AA131" s="181"/>
+      <c r="AB131" s="181"/>
+      <c r="AC131" s="181"/>
+      <c r="AD131" s="182"/>
+      <c r="AE131" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF131" s="178"/>
-      <c r="AG131" s="178"/>
-      <c r="AH131" s="178"/>
-      <c r="AI131" s="178"/>
-      <c r="AJ131" s="179"/>
+      <c r="AF131" s="181"/>
+      <c r="AG131" s="181"/>
+      <c r="AH131" s="181"/>
+      <c r="AI131" s="181"/>
+      <c r="AJ131" s="182"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="2"/>
     </row>
@@ -11708,30 +11708,30 @@
       <c r="P132" s="75"/>
       <c r="Q132" s="75"/>
       <c r="R132" s="133"/>
-      <c r="S132" s="177" t="s">
+      <c r="S132" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T132" s="178"/>
-      <c r="U132" s="178"/>
-      <c r="V132" s="178"/>
-      <c r="W132" s="178"/>
-      <c r="X132" s="179"/>
-      <c r="Y132" s="177" t="s">
+      <c r="T132" s="181"/>
+      <c r="U132" s="181"/>
+      <c r="V132" s="181"/>
+      <c r="W132" s="181"/>
+      <c r="X132" s="182"/>
+      <c r="Y132" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z132" s="178"/>
-      <c r="AA132" s="178"/>
-      <c r="AB132" s="178"/>
-      <c r="AC132" s="178"/>
-      <c r="AD132" s="179"/>
-      <c r="AE132" s="177" t="s">
+      <c r="Z132" s="181"/>
+      <c r="AA132" s="181"/>
+      <c r="AB132" s="181"/>
+      <c r="AC132" s="181"/>
+      <c r="AD132" s="182"/>
+      <c r="AE132" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF132" s="178"/>
-      <c r="AG132" s="178"/>
-      <c r="AH132" s="178"/>
-      <c r="AI132" s="178"/>
-      <c r="AJ132" s="179"/>
+      <c r="AF132" s="181"/>
+      <c r="AG132" s="181"/>
+      <c r="AH132" s="181"/>
+      <c r="AI132" s="181"/>
+      <c r="AJ132" s="182"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="2"/>
     </row>
@@ -11753,30 +11753,30 @@
       <c r="P133" s="75"/>
       <c r="Q133" s="75"/>
       <c r="R133" s="76"/>
-      <c r="S133" s="174" t="s">
+      <c r="S133" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="T133" s="175"/>
-      <c r="U133" s="175"/>
-      <c r="V133" s="175"/>
-      <c r="W133" s="175"/>
-      <c r="X133" s="176"/>
-      <c r="Y133" s="174" t="s">
+      <c r="T133" s="184"/>
+      <c r="U133" s="184"/>
+      <c r="V133" s="184"/>
+      <c r="W133" s="184"/>
+      <c r="X133" s="185"/>
+      <c r="Y133" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z133" s="175"/>
-      <c r="AA133" s="175"/>
-      <c r="AB133" s="175"/>
-      <c r="AC133" s="175"/>
-      <c r="AD133" s="176"/>
-      <c r="AE133" s="174" t="s">
+      <c r="Z133" s="184"/>
+      <c r="AA133" s="184"/>
+      <c r="AB133" s="184"/>
+      <c r="AC133" s="184"/>
+      <c r="AD133" s="185"/>
+      <c r="AE133" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AF133" s="175"/>
-      <c r="AG133" s="175"/>
-      <c r="AH133" s="175"/>
-      <c r="AI133" s="175"/>
-      <c r="AJ133" s="176"/>
+      <c r="AF133" s="184"/>
+      <c r="AG133" s="184"/>
+      <c r="AH133" s="184"/>
+      <c r="AI133" s="184"/>
+      <c r="AJ133" s="185"/>
       <c r="AP133" s="5"/>
       <c r="AQ133" s="2"/>
     </row>
@@ -11800,30 +11800,30 @@
       <c r="P134" s="75"/>
       <c r="Q134" s="75"/>
       <c r="R134" s="76"/>
-      <c r="S134" s="174" t="s">
+      <c r="S134" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T134" s="175"/>
-      <c r="U134" s="175"/>
-      <c r="V134" s="175"/>
-      <c r="W134" s="175"/>
-      <c r="X134" s="176"/>
-      <c r="Y134" s="174" t="s">
+      <c r="T134" s="184"/>
+      <c r="U134" s="184"/>
+      <c r="V134" s="184"/>
+      <c r="W134" s="184"/>
+      <c r="X134" s="185"/>
+      <c r="Y134" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z134" s="175"/>
-      <c r="AA134" s="175"/>
-      <c r="AB134" s="175"/>
-      <c r="AC134" s="175"/>
-      <c r="AD134" s="176"/>
-      <c r="AE134" s="174" t="s">
+      <c r="Z134" s="184"/>
+      <c r="AA134" s="184"/>
+      <c r="AB134" s="184"/>
+      <c r="AC134" s="184"/>
+      <c r="AD134" s="185"/>
+      <c r="AE134" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF134" s="175"/>
-      <c r="AG134" s="175"/>
-      <c r="AH134" s="175"/>
-      <c r="AI134" s="175"/>
-      <c r="AJ134" s="176"/>
+      <c r="AF134" s="184"/>
+      <c r="AG134" s="184"/>
+      <c r="AH134" s="184"/>
+      <c r="AI134" s="184"/>
+      <c r="AJ134" s="185"/>
       <c r="AP134" s="5"/>
       <c r="AQ134" s="2"/>
     </row>
@@ -11841,30 +11841,30 @@
       <c r="P135" s="75"/>
       <c r="Q135" s="75"/>
       <c r="R135" s="76"/>
-      <c r="S135" s="174" t="s">
+      <c r="S135" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T135" s="175"/>
-      <c r="U135" s="175"/>
-      <c r="V135" s="175"/>
-      <c r="W135" s="175"/>
-      <c r="X135" s="176"/>
-      <c r="Y135" s="174" t="s">
+      <c r="T135" s="184"/>
+      <c r="U135" s="184"/>
+      <c r="V135" s="184"/>
+      <c r="W135" s="184"/>
+      <c r="X135" s="185"/>
+      <c r="Y135" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z135" s="175"/>
-      <c r="AA135" s="175"/>
-      <c r="AB135" s="175"/>
-      <c r="AC135" s="175"/>
-      <c r="AD135" s="176"/>
-      <c r="AE135" s="174" t="s">
+      <c r="Z135" s="184"/>
+      <c r="AA135" s="184"/>
+      <c r="AB135" s="184"/>
+      <c r="AC135" s="184"/>
+      <c r="AD135" s="185"/>
+      <c r="AE135" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF135" s="175"/>
-      <c r="AG135" s="175"/>
-      <c r="AH135" s="175"/>
-      <c r="AI135" s="175"/>
-      <c r="AJ135" s="176"/>
+      <c r="AF135" s="184"/>
+      <c r="AG135" s="184"/>
+      <c r="AH135" s="184"/>
+      <c r="AI135" s="184"/>
+      <c r="AJ135" s="185"/>
       <c r="AP135" s="5"/>
       <c r="AQ135" s="2"/>
     </row>
@@ -11886,30 +11886,30 @@
       <c r="P136" s="75"/>
       <c r="Q136" s="75"/>
       <c r="R136" s="76"/>
-      <c r="S136" s="174" t="s">
+      <c r="S136" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T136" s="175"/>
-      <c r="U136" s="175"/>
-      <c r="V136" s="175"/>
-      <c r="W136" s="175"/>
-      <c r="X136" s="176"/>
-      <c r="Y136" s="174" t="s">
+      <c r="T136" s="184"/>
+      <c r="U136" s="184"/>
+      <c r="V136" s="184"/>
+      <c r="W136" s="184"/>
+      <c r="X136" s="185"/>
+      <c r="Y136" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z136" s="175"/>
-      <c r="AA136" s="175"/>
-      <c r="AB136" s="175"/>
-      <c r="AC136" s="175"/>
-      <c r="AD136" s="176"/>
-      <c r="AE136" s="174" t="s">
+      <c r="Z136" s="184"/>
+      <c r="AA136" s="184"/>
+      <c r="AB136" s="184"/>
+      <c r="AC136" s="184"/>
+      <c r="AD136" s="185"/>
+      <c r="AE136" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF136" s="175"/>
-      <c r="AG136" s="175"/>
-      <c r="AH136" s="175"/>
-      <c r="AI136" s="175"/>
-      <c r="AJ136" s="176"/>
+      <c r="AF136" s="184"/>
+      <c r="AG136" s="184"/>
+      <c r="AH136" s="184"/>
+      <c r="AI136" s="184"/>
+      <c r="AJ136" s="185"/>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="2"/>
     </row>
@@ -11931,30 +11931,30 @@
       <c r="P137" s="75"/>
       <c r="Q137" s="75"/>
       <c r="R137" s="76"/>
-      <c r="S137" s="174" t="s">
+      <c r="S137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="T137" s="175"/>
-      <c r="U137" s="175"/>
-      <c r="V137" s="175"/>
-      <c r="W137" s="175"/>
-      <c r="X137" s="176"/>
-      <c r="Y137" s="174" t="s">
+      <c r="T137" s="184"/>
+      <c r="U137" s="184"/>
+      <c r="V137" s="184"/>
+      <c r="W137" s="184"/>
+      <c r="X137" s="185"/>
+      <c r="Y137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z137" s="175"/>
-      <c r="AA137" s="175"/>
-      <c r="AB137" s="175"/>
-      <c r="AC137" s="175"/>
-      <c r="AD137" s="176"/>
-      <c r="AE137" s="174" t="s">
+      <c r="Z137" s="184"/>
+      <c r="AA137" s="184"/>
+      <c r="AB137" s="184"/>
+      <c r="AC137" s="184"/>
+      <c r="AD137" s="185"/>
+      <c r="AE137" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AF137" s="175"/>
-      <c r="AG137" s="175"/>
-      <c r="AH137" s="175"/>
-      <c r="AI137" s="175"/>
-      <c r="AJ137" s="176"/>
+      <c r="AF137" s="184"/>
+      <c r="AG137" s="184"/>
+      <c r="AH137" s="184"/>
+      <c r="AI137" s="184"/>
+      <c r="AJ137" s="185"/>
       <c r="AP137" s="5"/>
       <c r="AQ137" s="2"/>
     </row>
@@ -11978,30 +11978,30 @@
       <c r="P138" s="75"/>
       <c r="Q138" s="75"/>
       <c r="R138" s="76"/>
-      <c r="S138" s="174" t="s">
+      <c r="S138" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T138" s="175"/>
-      <c r="U138" s="175"/>
-      <c r="V138" s="175"/>
-      <c r="W138" s="175"/>
-      <c r="X138" s="176"/>
-      <c r="Y138" s="174" t="s">
+      <c r="T138" s="184"/>
+      <c r="U138" s="184"/>
+      <c r="V138" s="184"/>
+      <c r="W138" s="184"/>
+      <c r="X138" s="185"/>
+      <c r="Y138" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z138" s="175"/>
-      <c r="AA138" s="175"/>
-      <c r="AB138" s="175"/>
-      <c r="AC138" s="175"/>
-      <c r="AD138" s="176"/>
-      <c r="AE138" s="174" t="s">
+      <c r="Z138" s="184"/>
+      <c r="AA138" s="184"/>
+      <c r="AB138" s="184"/>
+      <c r="AC138" s="184"/>
+      <c r="AD138" s="185"/>
+      <c r="AE138" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF138" s="175"/>
-      <c r="AG138" s="175"/>
-      <c r="AH138" s="175"/>
-      <c r="AI138" s="175"/>
-      <c r="AJ138" s="176"/>
+      <c r="AF138" s="184"/>
+      <c r="AG138" s="184"/>
+      <c r="AH138" s="184"/>
+      <c r="AI138" s="184"/>
+      <c r="AJ138" s="185"/>
       <c r="AP138" s="5"/>
       <c r="AQ138" s="2"/>
     </row>
@@ -12019,30 +12019,30 @@
       <c r="P139" s="75"/>
       <c r="Q139" s="75"/>
       <c r="R139" s="76"/>
-      <c r="S139" s="174" t="s">
+      <c r="S139" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T139" s="175"/>
-      <c r="U139" s="175"/>
-      <c r="V139" s="175"/>
-      <c r="W139" s="175"/>
-      <c r="X139" s="176"/>
-      <c r="Y139" s="174" t="s">
+      <c r="T139" s="184"/>
+      <c r="U139" s="184"/>
+      <c r="V139" s="184"/>
+      <c r="W139" s="184"/>
+      <c r="X139" s="185"/>
+      <c r="Y139" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z139" s="175"/>
-      <c r="AA139" s="175"/>
-      <c r="AB139" s="175"/>
-      <c r="AC139" s="175"/>
-      <c r="AD139" s="176"/>
-      <c r="AE139" s="174" t="s">
+      <c r="Z139" s="184"/>
+      <c r="AA139" s="184"/>
+      <c r="AB139" s="184"/>
+      <c r="AC139" s="184"/>
+      <c r="AD139" s="185"/>
+      <c r="AE139" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF139" s="175"/>
-      <c r="AG139" s="175"/>
-      <c r="AH139" s="175"/>
-      <c r="AI139" s="175"/>
-      <c r="AJ139" s="176"/>
+      <c r="AF139" s="184"/>
+      <c r="AG139" s="184"/>
+      <c r="AH139" s="184"/>
+      <c r="AI139" s="184"/>
+      <c r="AJ139" s="185"/>
       <c r="AP139" s="5"/>
       <c r="AQ139" s="2"/>
     </row>
@@ -12064,30 +12064,30 @@
       <c r="P140" s="75"/>
       <c r="Q140" s="75"/>
       <c r="R140" s="76"/>
-      <c r="S140" s="174" t="s">
+      <c r="S140" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T140" s="175"/>
-      <c r="U140" s="175"/>
-      <c r="V140" s="175"/>
-      <c r="W140" s="175"/>
-      <c r="X140" s="176"/>
-      <c r="Y140" s="174" t="s">
+      <c r="T140" s="184"/>
+      <c r="U140" s="184"/>
+      <c r="V140" s="184"/>
+      <c r="W140" s="184"/>
+      <c r="X140" s="185"/>
+      <c r="Y140" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z140" s="175"/>
-      <c r="AA140" s="175"/>
-      <c r="AB140" s="175"/>
-      <c r="AC140" s="175"/>
-      <c r="AD140" s="176"/>
-      <c r="AE140" s="174" t="s">
+      <c r="Z140" s="184"/>
+      <c r="AA140" s="184"/>
+      <c r="AB140" s="184"/>
+      <c r="AC140" s="184"/>
+      <c r="AD140" s="185"/>
+      <c r="AE140" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF140" s="175"/>
-      <c r="AG140" s="175"/>
-      <c r="AH140" s="175"/>
-      <c r="AI140" s="175"/>
-      <c r="AJ140" s="176"/>
+      <c r="AF140" s="184"/>
+      <c r="AG140" s="184"/>
+      <c r="AH140" s="184"/>
+      <c r="AI140" s="184"/>
+      <c r="AJ140" s="185"/>
       <c r="AP140" s="5"/>
       <c r="AQ140" s="2"/>
     </row>
@@ -12109,30 +12109,30 @@
       <c r="P141" s="75"/>
       <c r="Q141" s="75"/>
       <c r="R141" s="76"/>
-      <c r="S141" s="174" t="s">
+      <c r="S141" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="T141" s="175"/>
-      <c r="U141" s="175"/>
-      <c r="V141" s="175"/>
-      <c r="W141" s="175"/>
-      <c r="X141" s="176"/>
-      <c r="Y141" s="174" t="s">
+      <c r="T141" s="184"/>
+      <c r="U141" s="184"/>
+      <c r="V141" s="184"/>
+      <c r="W141" s="184"/>
+      <c r="X141" s="185"/>
+      <c r="Y141" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="Z141" s="175"/>
-      <c r="AA141" s="175"/>
-      <c r="AB141" s="175"/>
-      <c r="AC141" s="175"/>
-      <c r="AD141" s="176"/>
-      <c r="AE141" s="174" t="s">
+      <c r="Z141" s="184"/>
+      <c r="AA141" s="184"/>
+      <c r="AB141" s="184"/>
+      <c r="AC141" s="184"/>
+      <c r="AD141" s="185"/>
+      <c r="AE141" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="AF141" s="175"/>
-      <c r="AG141" s="175"/>
-      <c r="AH141" s="175"/>
-      <c r="AI141" s="175"/>
-      <c r="AJ141" s="176"/>
+      <c r="AF141" s="184"/>
+      <c r="AG141" s="184"/>
+      <c r="AH141" s="184"/>
+      <c r="AI141" s="184"/>
+      <c r="AJ141" s="185"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="2"/>
     </row>
@@ -12156,30 +12156,30 @@
       <c r="P142" s="134"/>
       <c r="Q142" s="134"/>
       <c r="R142" s="135"/>
-      <c r="S142" s="174" t="s">
+      <c r="S142" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T142" s="175"/>
-      <c r="U142" s="175"/>
-      <c r="V142" s="175"/>
-      <c r="W142" s="175"/>
-      <c r="X142" s="176"/>
-      <c r="Y142" s="174" t="s">
+      <c r="T142" s="184"/>
+      <c r="U142" s="184"/>
+      <c r="V142" s="184"/>
+      <c r="W142" s="184"/>
+      <c r="X142" s="185"/>
+      <c r="Y142" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="Z142" s="175"/>
-      <c r="AA142" s="175"/>
-      <c r="AB142" s="175"/>
-      <c r="AC142" s="175"/>
-      <c r="AD142" s="176"/>
-      <c r="AE142" s="174" t="s">
+      <c r="Z142" s="184"/>
+      <c r="AA142" s="184"/>
+      <c r="AB142" s="184"/>
+      <c r="AC142" s="184"/>
+      <c r="AD142" s="185"/>
+      <c r="AE142" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF142" s="175"/>
-      <c r="AG142" s="175"/>
-      <c r="AH142" s="175"/>
-      <c r="AI142" s="175"/>
-      <c r="AJ142" s="176"/>
+      <c r="AF142" s="184"/>
+      <c r="AG142" s="184"/>
+      <c r="AH142" s="184"/>
+      <c r="AI142" s="184"/>
+      <c r="AJ142" s="185"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="2"/>
     </row>
@@ -12197,30 +12197,30 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="75"/>
       <c r="R143" s="76"/>
-      <c r="S143" s="174" t="s">
+      <c r="S143" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T143" s="175"/>
-      <c r="U143" s="175"/>
-      <c r="V143" s="175"/>
-      <c r="W143" s="175"/>
-      <c r="X143" s="176"/>
-      <c r="Y143" s="174" t="s">
+      <c r="T143" s="184"/>
+      <c r="U143" s="184"/>
+      <c r="V143" s="184"/>
+      <c r="W143" s="184"/>
+      <c r="X143" s="185"/>
+      <c r="Y143" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z143" s="175"/>
-      <c r="AA143" s="175"/>
-      <c r="AB143" s="175"/>
-      <c r="AC143" s="175"/>
-      <c r="AD143" s="176"/>
-      <c r="AE143" s="174" t="s">
+      <c r="Z143" s="184"/>
+      <c r="AA143" s="184"/>
+      <c r="AB143" s="184"/>
+      <c r="AC143" s="184"/>
+      <c r="AD143" s="185"/>
+      <c r="AE143" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF143" s="175"/>
-      <c r="AG143" s="175"/>
-      <c r="AH143" s="175"/>
-      <c r="AI143" s="175"/>
-      <c r="AJ143" s="176"/>
+      <c r="AF143" s="184"/>
+      <c r="AG143" s="184"/>
+      <c r="AH143" s="184"/>
+      <c r="AI143" s="184"/>
+      <c r="AJ143" s="185"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="2"/>
     </row>
@@ -12242,30 +12242,30 @@
       <c r="P144" s="75"/>
       <c r="Q144" s="75"/>
       <c r="R144" s="76"/>
-      <c r="S144" s="177" t="s">
+      <c r="S144" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T144" s="178"/>
-      <c r="U144" s="178"/>
-      <c r="V144" s="178"/>
-      <c r="W144" s="178"/>
-      <c r="X144" s="179"/>
-      <c r="Y144" s="177" t="s">
+      <c r="T144" s="181"/>
+      <c r="U144" s="181"/>
+      <c r="V144" s="181"/>
+      <c r="W144" s="181"/>
+      <c r="X144" s="182"/>
+      <c r="Y144" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z144" s="178"/>
-      <c r="AA144" s="178"/>
-      <c r="AB144" s="178"/>
-      <c r="AC144" s="178"/>
-      <c r="AD144" s="179"/>
-      <c r="AE144" s="177" t="s">
+      <c r="Z144" s="181"/>
+      <c r="AA144" s="181"/>
+      <c r="AB144" s="181"/>
+      <c r="AC144" s="181"/>
+      <c r="AD144" s="182"/>
+      <c r="AE144" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF144" s="178"/>
-      <c r="AG144" s="178"/>
-      <c r="AH144" s="178"/>
-      <c r="AI144" s="178"/>
-      <c r="AJ144" s="179"/>
+      <c r="AF144" s="181"/>
+      <c r="AG144" s="181"/>
+      <c r="AH144" s="181"/>
+      <c r="AI144" s="181"/>
+      <c r="AJ144" s="182"/>
       <c r="AP144" s="5"/>
       <c r="AQ144" s="2"/>
     </row>
@@ -12287,30 +12287,30 @@
       <c r="P145" s="75"/>
       <c r="Q145" s="75"/>
       <c r="R145" s="76"/>
-      <c r="S145" s="174" t="s">
+      <c r="S145" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T145" s="175"/>
-      <c r="U145" s="175"/>
-      <c r="V145" s="175"/>
-      <c r="W145" s="175"/>
-      <c r="X145" s="176"/>
-      <c r="Y145" s="174" t="s">
+      <c r="T145" s="184"/>
+      <c r="U145" s="184"/>
+      <c r="V145" s="184"/>
+      <c r="W145" s="184"/>
+      <c r="X145" s="185"/>
+      <c r="Y145" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z145" s="175"/>
-      <c r="AA145" s="175"/>
-      <c r="AB145" s="175"/>
-      <c r="AC145" s="175"/>
-      <c r="AD145" s="176"/>
-      <c r="AE145" s="174" t="s">
+      <c r="Z145" s="184"/>
+      <c r="AA145" s="184"/>
+      <c r="AB145" s="184"/>
+      <c r="AC145" s="184"/>
+      <c r="AD145" s="185"/>
+      <c r="AE145" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AF145" s="175"/>
-      <c r="AG145" s="175"/>
-      <c r="AH145" s="175"/>
-      <c r="AI145" s="175"/>
-      <c r="AJ145" s="176"/>
+      <c r="AF145" s="184"/>
+      <c r="AG145" s="184"/>
+      <c r="AH145" s="184"/>
+      <c r="AI145" s="184"/>
+      <c r="AJ145" s="185"/>
       <c r="AP145" s="5"/>
       <c r="AQ145" s="2"/>
     </row>
@@ -12334,30 +12334,30 @@
       <c r="P146" s="75"/>
       <c r="Q146" s="75"/>
       <c r="R146" s="76"/>
-      <c r="S146" s="174" t="s">
+      <c r="S146" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T146" s="175"/>
-      <c r="U146" s="175"/>
-      <c r="V146" s="175"/>
-      <c r="W146" s="175"/>
-      <c r="X146" s="176"/>
-      <c r="Y146" s="174" t="s">
+      <c r="T146" s="184"/>
+      <c r="U146" s="184"/>
+      <c r="V146" s="184"/>
+      <c r="W146" s="184"/>
+      <c r="X146" s="185"/>
+      <c r="Y146" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="Z146" s="175"/>
-      <c r="AA146" s="175"/>
-      <c r="AB146" s="175"/>
-      <c r="AC146" s="175"/>
-      <c r="AD146" s="176"/>
-      <c r="AE146" s="174" t="s">
+      <c r="Z146" s="184"/>
+      <c r="AA146" s="184"/>
+      <c r="AB146" s="184"/>
+      <c r="AC146" s="184"/>
+      <c r="AD146" s="185"/>
+      <c r="AE146" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF146" s="175"/>
-      <c r="AG146" s="175"/>
-      <c r="AH146" s="175"/>
-      <c r="AI146" s="175"/>
-      <c r="AJ146" s="176"/>
+      <c r="AF146" s="184"/>
+      <c r="AG146" s="184"/>
+      <c r="AH146" s="184"/>
+      <c r="AI146" s="184"/>
+      <c r="AJ146" s="185"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="2"/>
     </row>
@@ -12375,30 +12375,30 @@
       <c r="P147" s="75"/>
       <c r="Q147" s="75"/>
       <c r="R147" s="76"/>
-      <c r="S147" s="174" t="s">
+      <c r="S147" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T147" s="175"/>
-      <c r="U147" s="175"/>
-      <c r="V147" s="175"/>
-      <c r="W147" s="175"/>
-      <c r="X147" s="176"/>
-      <c r="Y147" s="174" t="s">
+      <c r="T147" s="184"/>
+      <c r="U147" s="184"/>
+      <c r="V147" s="184"/>
+      <c r="W147" s="184"/>
+      <c r="X147" s="185"/>
+      <c r="Y147" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z147" s="175"/>
-      <c r="AA147" s="175"/>
-      <c r="AB147" s="175"/>
-      <c r="AC147" s="175"/>
-      <c r="AD147" s="176"/>
-      <c r="AE147" s="174" t="s">
+      <c r="Z147" s="184"/>
+      <c r="AA147" s="184"/>
+      <c r="AB147" s="184"/>
+      <c r="AC147" s="184"/>
+      <c r="AD147" s="185"/>
+      <c r="AE147" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF147" s="175"/>
-      <c r="AG147" s="175"/>
-      <c r="AH147" s="175"/>
-      <c r="AI147" s="175"/>
-      <c r="AJ147" s="176"/>
+      <c r="AF147" s="184"/>
+      <c r="AG147" s="184"/>
+      <c r="AH147" s="184"/>
+      <c r="AI147" s="184"/>
+      <c r="AJ147" s="185"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="2"/>
     </row>
@@ -12420,30 +12420,30 @@
       <c r="P148" s="75"/>
       <c r="Q148" s="75"/>
       <c r="R148" s="76"/>
-      <c r="S148" s="174" t="s">
+      <c r="S148" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="T148" s="175"/>
-      <c r="U148" s="175"/>
-      <c r="V148" s="175"/>
-      <c r="W148" s="175"/>
-      <c r="X148" s="176"/>
-      <c r="Y148" s="174" t="s">
+      <c r="T148" s="184"/>
+      <c r="U148" s="184"/>
+      <c r="V148" s="184"/>
+      <c r="W148" s="184"/>
+      <c r="X148" s="185"/>
+      <c r="Y148" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="Z148" s="175"/>
-      <c r="AA148" s="175"/>
-      <c r="AB148" s="175"/>
-      <c r="AC148" s="175"/>
-      <c r="AD148" s="176"/>
-      <c r="AE148" s="174" t="s">
+      <c r="Z148" s="184"/>
+      <c r="AA148" s="184"/>
+      <c r="AB148" s="184"/>
+      <c r="AC148" s="184"/>
+      <c r="AD148" s="185"/>
+      <c r="AE148" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="AF148" s="175"/>
-      <c r="AG148" s="175"/>
-      <c r="AH148" s="175"/>
-      <c r="AI148" s="175"/>
-      <c r="AJ148" s="176"/>
+      <c r="AF148" s="184"/>
+      <c r="AG148" s="184"/>
+      <c r="AH148" s="184"/>
+      <c r="AI148" s="184"/>
+      <c r="AJ148" s="185"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="2"/>
     </row>
@@ -12467,30 +12467,30 @@
       <c r="P149" s="75"/>
       <c r="Q149" s="75"/>
       <c r="R149" s="76"/>
-      <c r="S149" s="177" t="s">
+      <c r="S149" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T149" s="178"/>
-      <c r="U149" s="178"/>
-      <c r="V149" s="178"/>
-      <c r="W149" s="178"/>
-      <c r="X149" s="179"/>
-      <c r="Y149" s="177" t="s">
+      <c r="T149" s="181"/>
+      <c r="U149" s="181"/>
+      <c r="V149" s="181"/>
+      <c r="W149" s="181"/>
+      <c r="X149" s="182"/>
+      <c r="Y149" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z149" s="178"/>
-      <c r="AA149" s="178"/>
-      <c r="AB149" s="178"/>
-      <c r="AC149" s="178"/>
-      <c r="AD149" s="179"/>
-      <c r="AE149" s="177" t="s">
+      <c r="Z149" s="181"/>
+      <c r="AA149" s="181"/>
+      <c r="AB149" s="181"/>
+      <c r="AC149" s="181"/>
+      <c r="AD149" s="182"/>
+      <c r="AE149" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF149" s="178"/>
-      <c r="AG149" s="178"/>
-      <c r="AH149" s="178"/>
-      <c r="AI149" s="178"/>
-      <c r="AJ149" s="179"/>
+      <c r="AF149" s="181"/>
+      <c r="AG149" s="181"/>
+      <c r="AH149" s="181"/>
+      <c r="AI149" s="181"/>
+      <c r="AJ149" s="182"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="2"/>
     </row>
@@ -12512,30 +12512,30 @@
       <c r="P150" s="75"/>
       <c r="Q150" s="75"/>
       <c r="R150" s="76"/>
-      <c r="S150" s="177" t="s">
+      <c r="S150" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T150" s="178"/>
-      <c r="U150" s="178"/>
-      <c r="V150" s="178"/>
-      <c r="W150" s="178"/>
-      <c r="X150" s="179"/>
-      <c r="Y150" s="177" t="s">
+      <c r="T150" s="181"/>
+      <c r="U150" s="181"/>
+      <c r="V150" s="181"/>
+      <c r="W150" s="181"/>
+      <c r="X150" s="182"/>
+      <c r="Y150" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z150" s="178"/>
-      <c r="AA150" s="178"/>
-      <c r="AB150" s="178"/>
-      <c r="AC150" s="178"/>
-      <c r="AD150" s="179"/>
-      <c r="AE150" s="177" t="s">
+      <c r="Z150" s="181"/>
+      <c r="AA150" s="181"/>
+      <c r="AB150" s="181"/>
+      <c r="AC150" s="181"/>
+      <c r="AD150" s="182"/>
+      <c r="AE150" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF150" s="178"/>
-      <c r="AG150" s="178"/>
-      <c r="AH150" s="178"/>
-      <c r="AI150" s="178"/>
-      <c r="AJ150" s="179"/>
+      <c r="AF150" s="181"/>
+      <c r="AG150" s="181"/>
+      <c r="AH150" s="181"/>
+      <c r="AI150" s="181"/>
+      <c r="AJ150" s="182"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="2"/>
     </row>
@@ -12559,30 +12559,30 @@
       <c r="P151" s="75"/>
       <c r="Q151" s="75"/>
       <c r="R151" s="76"/>
-      <c r="S151" s="177" t="s">
+      <c r="S151" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T151" s="178"/>
-      <c r="U151" s="178"/>
-      <c r="V151" s="178"/>
-      <c r="W151" s="178"/>
-      <c r="X151" s="179"/>
-      <c r="Y151" s="177" t="s">
+      <c r="T151" s="181"/>
+      <c r="U151" s="181"/>
+      <c r="V151" s="181"/>
+      <c r="W151" s="181"/>
+      <c r="X151" s="182"/>
+      <c r="Y151" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z151" s="178"/>
-      <c r="AA151" s="178"/>
-      <c r="AB151" s="178"/>
-      <c r="AC151" s="178"/>
-      <c r="AD151" s="179"/>
-      <c r="AE151" s="177" t="s">
+      <c r="Z151" s="181"/>
+      <c r="AA151" s="181"/>
+      <c r="AB151" s="181"/>
+      <c r="AC151" s="181"/>
+      <c r="AD151" s="182"/>
+      <c r="AE151" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF151" s="178"/>
-      <c r="AG151" s="178"/>
-      <c r="AH151" s="178"/>
-      <c r="AI151" s="178"/>
-      <c r="AJ151" s="179"/>
+      <c r="AF151" s="181"/>
+      <c r="AG151" s="181"/>
+      <c r="AH151" s="181"/>
+      <c r="AI151" s="181"/>
+      <c r="AJ151" s="182"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="2"/>
     </row>
@@ -12604,30 +12604,30 @@
       <c r="P152" s="75"/>
       <c r="Q152" s="75"/>
       <c r="R152" s="76"/>
-      <c r="S152" s="177" t="s">
+      <c r="S152" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T152" s="178"/>
-      <c r="U152" s="178"/>
-      <c r="V152" s="178"/>
-      <c r="W152" s="178"/>
-      <c r="X152" s="179"/>
-      <c r="Y152" s="177" t="s">
+      <c r="T152" s="181"/>
+      <c r="U152" s="181"/>
+      <c r="V152" s="181"/>
+      <c r="W152" s="181"/>
+      <c r="X152" s="182"/>
+      <c r="Y152" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z152" s="178"/>
-      <c r="AA152" s="178"/>
-      <c r="AB152" s="178"/>
-      <c r="AC152" s="178"/>
-      <c r="AD152" s="179"/>
-      <c r="AE152" s="177" t="s">
+      <c r="Z152" s="181"/>
+      <c r="AA152" s="181"/>
+      <c r="AB152" s="181"/>
+      <c r="AC152" s="181"/>
+      <c r="AD152" s="182"/>
+      <c r="AE152" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF152" s="178"/>
-      <c r="AG152" s="178"/>
-      <c r="AH152" s="178"/>
-      <c r="AI152" s="178"/>
-      <c r="AJ152" s="179"/>
+      <c r="AF152" s="181"/>
+      <c r="AG152" s="181"/>
+      <c r="AH152" s="181"/>
+      <c r="AI152" s="181"/>
+      <c r="AJ152" s="182"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="2"/>
     </row>
@@ -12651,30 +12651,30 @@
       <c r="P153" s="75"/>
       <c r="Q153" s="75"/>
       <c r="R153" s="76"/>
-      <c r="S153" s="177" t="s">
+      <c r="S153" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T153" s="178"/>
-      <c r="U153" s="178"/>
-      <c r="V153" s="178"/>
-      <c r="W153" s="178"/>
-      <c r="X153" s="179"/>
-      <c r="Y153" s="177" t="s">
+      <c r="T153" s="181"/>
+      <c r="U153" s="181"/>
+      <c r="V153" s="181"/>
+      <c r="W153" s="181"/>
+      <c r="X153" s="182"/>
+      <c r="Y153" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z153" s="178"/>
-      <c r="AA153" s="178"/>
-      <c r="AB153" s="178"/>
-      <c r="AC153" s="178"/>
-      <c r="AD153" s="179"/>
-      <c r="AE153" s="177" t="s">
+      <c r="Z153" s="181"/>
+      <c r="AA153" s="181"/>
+      <c r="AB153" s="181"/>
+      <c r="AC153" s="181"/>
+      <c r="AD153" s="182"/>
+      <c r="AE153" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF153" s="178"/>
-      <c r="AG153" s="178"/>
-      <c r="AH153" s="178"/>
-      <c r="AI153" s="178"/>
-      <c r="AJ153" s="179"/>
+      <c r="AF153" s="181"/>
+      <c r="AG153" s="181"/>
+      <c r="AH153" s="181"/>
+      <c r="AI153" s="181"/>
+      <c r="AJ153" s="182"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="2"/>
     </row>
@@ -12698,30 +12698,30 @@
       <c r="P154" s="75"/>
       <c r="Q154" s="75"/>
       <c r="R154" s="76"/>
-      <c r="S154" s="177" t="s">
+      <c r="S154" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T154" s="178"/>
-      <c r="U154" s="178"/>
-      <c r="V154" s="178"/>
-      <c r="W154" s="178"/>
-      <c r="X154" s="179"/>
-      <c r="Y154" s="177" t="s">
+      <c r="T154" s="181"/>
+      <c r="U154" s="181"/>
+      <c r="V154" s="181"/>
+      <c r="W154" s="181"/>
+      <c r="X154" s="182"/>
+      <c r="Y154" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z154" s="178"/>
-      <c r="AA154" s="178"/>
-      <c r="AB154" s="178"/>
-      <c r="AC154" s="178"/>
-      <c r="AD154" s="179"/>
-      <c r="AE154" s="177" t="s">
+      <c r="Z154" s="181"/>
+      <c r="AA154" s="181"/>
+      <c r="AB154" s="181"/>
+      <c r="AC154" s="181"/>
+      <c r="AD154" s="182"/>
+      <c r="AE154" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF154" s="178"/>
-      <c r="AG154" s="178"/>
-      <c r="AH154" s="178"/>
-      <c r="AI154" s="178"/>
-      <c r="AJ154" s="179"/>
+      <c r="AF154" s="181"/>
+      <c r="AG154" s="181"/>
+      <c r="AH154" s="181"/>
+      <c r="AI154" s="181"/>
+      <c r="AJ154" s="182"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="2"/>
     </row>
@@ -12745,30 +12745,30 @@
       <c r="P155" s="75"/>
       <c r="Q155" s="75"/>
       <c r="R155" s="76"/>
-      <c r="S155" s="177" t="s">
+      <c r="S155" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T155" s="178"/>
-      <c r="U155" s="178"/>
-      <c r="V155" s="178"/>
-      <c r="W155" s="178"/>
-      <c r="X155" s="179"/>
-      <c r="Y155" s="177" t="s">
+      <c r="T155" s="181"/>
+      <c r="U155" s="181"/>
+      <c r="V155" s="181"/>
+      <c r="W155" s="181"/>
+      <c r="X155" s="182"/>
+      <c r="Y155" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z155" s="178"/>
-      <c r="AA155" s="178"/>
-      <c r="AB155" s="178"/>
-      <c r="AC155" s="178"/>
-      <c r="AD155" s="179"/>
-      <c r="AE155" s="177" t="s">
+      <c r="Z155" s="181"/>
+      <c r="AA155" s="181"/>
+      <c r="AB155" s="181"/>
+      <c r="AC155" s="181"/>
+      <c r="AD155" s="182"/>
+      <c r="AE155" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF155" s="178"/>
-      <c r="AG155" s="178"/>
-      <c r="AH155" s="178"/>
-      <c r="AI155" s="178"/>
-      <c r="AJ155" s="179"/>
+      <c r="AF155" s="181"/>
+      <c r="AG155" s="181"/>
+      <c r="AH155" s="181"/>
+      <c r="AI155" s="181"/>
+      <c r="AJ155" s="182"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="2"/>
     </row>
@@ -12792,30 +12792,30 @@
       <c r="P156" s="75"/>
       <c r="Q156" s="75"/>
       <c r="R156" s="76"/>
-      <c r="S156" s="177" t="s">
+      <c r="S156" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T156" s="178"/>
-      <c r="U156" s="178"/>
-      <c r="V156" s="178"/>
-      <c r="W156" s="178"/>
-      <c r="X156" s="179"/>
-      <c r="Y156" s="177" t="s">
+      <c r="T156" s="181"/>
+      <c r="U156" s="181"/>
+      <c r="V156" s="181"/>
+      <c r="W156" s="181"/>
+      <c r="X156" s="182"/>
+      <c r="Y156" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z156" s="178"/>
-      <c r="AA156" s="178"/>
-      <c r="AB156" s="178"/>
-      <c r="AC156" s="178"/>
-      <c r="AD156" s="179"/>
-      <c r="AE156" s="177" t="s">
+      <c r="Z156" s="181"/>
+      <c r="AA156" s="181"/>
+      <c r="AB156" s="181"/>
+      <c r="AC156" s="181"/>
+      <c r="AD156" s="182"/>
+      <c r="AE156" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF156" s="178"/>
-      <c r="AG156" s="178"/>
-      <c r="AH156" s="178"/>
-      <c r="AI156" s="178"/>
-      <c r="AJ156" s="179"/>
+      <c r="AF156" s="181"/>
+      <c r="AG156" s="181"/>
+      <c r="AH156" s="181"/>
+      <c r="AI156" s="181"/>
+      <c r="AJ156" s="182"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="2"/>
     </row>
@@ -12839,30 +12839,30 @@
       <c r="P157" s="75"/>
       <c r="Q157" s="75"/>
       <c r="R157" s="76"/>
-      <c r="S157" s="177" t="s">
+      <c r="S157" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T157" s="178"/>
-      <c r="U157" s="178"/>
-      <c r="V157" s="178"/>
-      <c r="W157" s="178"/>
-      <c r="X157" s="179"/>
-      <c r="Y157" s="177" t="s">
+      <c r="T157" s="181"/>
+      <c r="U157" s="181"/>
+      <c r="V157" s="181"/>
+      <c r="W157" s="181"/>
+      <c r="X157" s="182"/>
+      <c r="Y157" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z157" s="178"/>
-      <c r="AA157" s="178"/>
-      <c r="AB157" s="178"/>
-      <c r="AC157" s="178"/>
-      <c r="AD157" s="179"/>
-      <c r="AE157" s="177" t="s">
+      <c r="Z157" s="181"/>
+      <c r="AA157" s="181"/>
+      <c r="AB157" s="181"/>
+      <c r="AC157" s="181"/>
+      <c r="AD157" s="182"/>
+      <c r="AE157" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF157" s="178"/>
-      <c r="AG157" s="178"/>
-      <c r="AH157" s="178"/>
-      <c r="AI157" s="178"/>
-      <c r="AJ157" s="179"/>
+      <c r="AF157" s="181"/>
+      <c r="AG157" s="181"/>
+      <c r="AH157" s="181"/>
+      <c r="AI157" s="181"/>
+      <c r="AJ157" s="182"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="2"/>
     </row>
@@ -12884,30 +12884,30 @@
       <c r="P158" s="75"/>
       <c r="Q158" s="75"/>
       <c r="R158" s="76"/>
-      <c r="S158" s="177" t="s">
+      <c r="S158" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T158" s="178"/>
-      <c r="U158" s="178"/>
-      <c r="V158" s="178"/>
-      <c r="W158" s="178"/>
-      <c r="X158" s="179"/>
-      <c r="Y158" s="177" t="s">
+      <c r="T158" s="181"/>
+      <c r="U158" s="181"/>
+      <c r="V158" s="181"/>
+      <c r="W158" s="181"/>
+      <c r="X158" s="182"/>
+      <c r="Y158" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z158" s="178"/>
-      <c r="AA158" s="178"/>
-      <c r="AB158" s="178"/>
-      <c r="AC158" s="178"/>
-      <c r="AD158" s="179"/>
-      <c r="AE158" s="177" t="s">
+      <c r="Z158" s="181"/>
+      <c r="AA158" s="181"/>
+      <c r="AB158" s="181"/>
+      <c r="AC158" s="181"/>
+      <c r="AD158" s="182"/>
+      <c r="AE158" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF158" s="178"/>
-      <c r="AG158" s="178"/>
-      <c r="AH158" s="178"/>
-      <c r="AI158" s="178"/>
-      <c r="AJ158" s="179"/>
+      <c r="AF158" s="181"/>
+      <c r="AG158" s="181"/>
+      <c r="AH158" s="181"/>
+      <c r="AI158" s="181"/>
+      <c r="AJ158" s="182"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="2"/>
     </row>
@@ -12929,30 +12929,30 @@
       <c r="P159" s="134"/>
       <c r="Q159" s="134"/>
       <c r="R159" s="135"/>
-      <c r="S159" s="177" t="s">
+      <c r="S159" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T159" s="178"/>
-      <c r="U159" s="178"/>
-      <c r="V159" s="178"/>
-      <c r="W159" s="178"/>
-      <c r="X159" s="179"/>
-      <c r="Y159" s="177" t="s">
+      <c r="T159" s="181"/>
+      <c r="U159" s="181"/>
+      <c r="V159" s="181"/>
+      <c r="W159" s="181"/>
+      <c r="X159" s="182"/>
+      <c r="Y159" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z159" s="178"/>
-      <c r="AA159" s="178"/>
-      <c r="AB159" s="178"/>
-      <c r="AC159" s="178"/>
-      <c r="AD159" s="179"/>
-      <c r="AE159" s="177" t="s">
+      <c r="Z159" s="181"/>
+      <c r="AA159" s="181"/>
+      <c r="AB159" s="181"/>
+      <c r="AC159" s="181"/>
+      <c r="AD159" s="182"/>
+      <c r="AE159" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF159" s="178"/>
-      <c r="AG159" s="178"/>
-      <c r="AH159" s="178"/>
-      <c r="AI159" s="178"/>
-      <c r="AJ159" s="179"/>
+      <c r="AF159" s="181"/>
+      <c r="AG159" s="181"/>
+      <c r="AH159" s="181"/>
+      <c r="AI159" s="181"/>
+      <c r="AJ159" s="182"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="2"/>
     </row>
@@ -12974,30 +12974,30 @@
       <c r="P160" s="75"/>
       <c r="Q160" s="75"/>
       <c r="R160" s="76"/>
-      <c r="S160" s="177" t="s">
+      <c r="S160" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T160" s="178"/>
-      <c r="U160" s="178"/>
-      <c r="V160" s="178"/>
-      <c r="W160" s="178"/>
-      <c r="X160" s="179"/>
-      <c r="Y160" s="177" t="s">
+      <c r="T160" s="181"/>
+      <c r="U160" s="181"/>
+      <c r="V160" s="181"/>
+      <c r="W160" s="181"/>
+      <c r="X160" s="182"/>
+      <c r="Y160" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z160" s="178"/>
-      <c r="AA160" s="178"/>
-      <c r="AB160" s="178"/>
-      <c r="AC160" s="178"/>
-      <c r="AD160" s="179"/>
-      <c r="AE160" s="177" t="s">
+      <c r="Z160" s="181"/>
+      <c r="AA160" s="181"/>
+      <c r="AB160" s="181"/>
+      <c r="AC160" s="181"/>
+      <c r="AD160" s="182"/>
+      <c r="AE160" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF160" s="178"/>
-      <c r="AG160" s="178"/>
-      <c r="AH160" s="178"/>
-      <c r="AI160" s="178"/>
-      <c r="AJ160" s="179"/>
+      <c r="AF160" s="181"/>
+      <c r="AG160" s="181"/>
+      <c r="AH160" s="181"/>
+      <c r="AI160" s="181"/>
+      <c r="AJ160" s="182"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="2"/>
     </row>
@@ -13021,30 +13021,30 @@
       <c r="P161" s="75"/>
       <c r="Q161" s="75"/>
       <c r="R161" s="76"/>
-      <c r="S161" s="177" t="s">
+      <c r="S161" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T161" s="178"/>
-      <c r="U161" s="178"/>
-      <c r="V161" s="178"/>
-      <c r="W161" s="178"/>
-      <c r="X161" s="179"/>
-      <c r="Y161" s="177" t="s">
+      <c r="T161" s="181"/>
+      <c r="U161" s="181"/>
+      <c r="V161" s="181"/>
+      <c r="W161" s="181"/>
+      <c r="X161" s="182"/>
+      <c r="Y161" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="Z161" s="178"/>
-      <c r="AA161" s="178"/>
-      <c r="AB161" s="178"/>
-      <c r="AC161" s="178"/>
-      <c r="AD161" s="179"/>
-      <c r="AE161" s="177" t="s">
+      <c r="Z161" s="181"/>
+      <c r="AA161" s="181"/>
+      <c r="AB161" s="181"/>
+      <c r="AC161" s="181"/>
+      <c r="AD161" s="182"/>
+      <c r="AE161" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF161" s="178"/>
-      <c r="AG161" s="178"/>
-      <c r="AH161" s="178"/>
-      <c r="AI161" s="178"/>
-      <c r="AJ161" s="179"/>
+      <c r="AF161" s="181"/>
+      <c r="AG161" s="181"/>
+      <c r="AH161" s="181"/>
+      <c r="AI161" s="181"/>
+      <c r="AJ161" s="182"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="2"/>
     </row>
@@ -13068,30 +13068,30 @@
       <c r="P162" s="75"/>
       <c r="Q162" s="75"/>
       <c r="R162" s="76"/>
-      <c r="S162" s="177" t="s">
+      <c r="S162" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T162" s="178"/>
-      <c r="U162" s="178"/>
-      <c r="V162" s="178"/>
-      <c r="W162" s="178"/>
-      <c r="X162" s="179"/>
-      <c r="Y162" s="177" t="s">
+      <c r="T162" s="181"/>
+      <c r="U162" s="181"/>
+      <c r="V162" s="181"/>
+      <c r="W162" s="181"/>
+      <c r="X162" s="182"/>
+      <c r="Y162" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z162" s="178"/>
-      <c r="AA162" s="178"/>
-      <c r="AB162" s="178"/>
-      <c r="AC162" s="178"/>
-      <c r="AD162" s="179"/>
-      <c r="AE162" s="177" t="s">
+      <c r="Z162" s="181"/>
+      <c r="AA162" s="181"/>
+      <c r="AB162" s="181"/>
+      <c r="AC162" s="181"/>
+      <c r="AD162" s="182"/>
+      <c r="AE162" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF162" s="178"/>
-      <c r="AG162" s="178"/>
-      <c r="AH162" s="178"/>
-      <c r="AI162" s="178"/>
-      <c r="AJ162" s="179"/>
+      <c r="AF162" s="181"/>
+      <c r="AG162" s="181"/>
+      <c r="AH162" s="181"/>
+      <c r="AI162" s="181"/>
+      <c r="AJ162" s="182"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="2"/>
     </row>
@@ -13115,30 +13115,30 @@
       <c r="P163" s="75"/>
       <c r="Q163" s="75"/>
       <c r="R163" s="76"/>
-      <c r="S163" s="177" t="s">
+      <c r="S163" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T163" s="178"/>
-      <c r="U163" s="178"/>
-      <c r="V163" s="178"/>
-      <c r="W163" s="178"/>
-      <c r="X163" s="179"/>
-      <c r="Y163" s="177" t="s">
+      <c r="T163" s="181"/>
+      <c r="U163" s="181"/>
+      <c r="V163" s="181"/>
+      <c r="W163" s="181"/>
+      <c r="X163" s="182"/>
+      <c r="Y163" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z163" s="178"/>
-      <c r="AA163" s="178"/>
-      <c r="AB163" s="178"/>
-      <c r="AC163" s="178"/>
-      <c r="AD163" s="179"/>
-      <c r="AE163" s="177" t="s">
+      <c r="Z163" s="181"/>
+      <c r="AA163" s="181"/>
+      <c r="AB163" s="181"/>
+      <c r="AC163" s="181"/>
+      <c r="AD163" s="182"/>
+      <c r="AE163" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF163" s="178"/>
-      <c r="AG163" s="178"/>
-      <c r="AH163" s="178"/>
-      <c r="AI163" s="178"/>
-      <c r="AJ163" s="179"/>
+      <c r="AF163" s="181"/>
+      <c r="AG163" s="181"/>
+      <c r="AH163" s="181"/>
+      <c r="AI163" s="181"/>
+      <c r="AJ163" s="182"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="2"/>
     </row>
@@ -13162,30 +13162,30 @@
       <c r="P164" s="75"/>
       <c r="Q164" s="75"/>
       <c r="R164" s="76"/>
-      <c r="S164" s="177" t="s">
+      <c r="S164" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T164" s="178"/>
-      <c r="U164" s="178"/>
-      <c r="V164" s="178"/>
-      <c r="W164" s="178"/>
-      <c r="X164" s="179"/>
-      <c r="Y164" s="177" t="s">
+      <c r="T164" s="181"/>
+      <c r="U164" s="181"/>
+      <c r="V164" s="181"/>
+      <c r="W164" s="181"/>
+      <c r="X164" s="182"/>
+      <c r="Y164" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z164" s="178"/>
-      <c r="AA164" s="178"/>
-      <c r="AB164" s="178"/>
-      <c r="AC164" s="178"/>
-      <c r="AD164" s="179"/>
-      <c r="AE164" s="177" t="s">
+      <c r="Z164" s="181"/>
+      <c r="AA164" s="181"/>
+      <c r="AB164" s="181"/>
+      <c r="AC164" s="181"/>
+      <c r="AD164" s="182"/>
+      <c r="AE164" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF164" s="178"/>
-      <c r="AG164" s="178"/>
-      <c r="AH164" s="178"/>
-      <c r="AI164" s="178"/>
-      <c r="AJ164" s="179"/>
+      <c r="AF164" s="181"/>
+      <c r="AG164" s="181"/>
+      <c r="AH164" s="181"/>
+      <c r="AI164" s="181"/>
+      <c r="AJ164" s="182"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="2"/>
     </row>
@@ -13194,7 +13194,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="15"/>
       <c r="G165" s="139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H165" s="92"/>
       <c r="I165" s="92"/>
@@ -13209,30 +13209,30 @@
       <c r="P165" s="75"/>
       <c r="Q165" s="75"/>
       <c r="R165" s="76"/>
-      <c r="S165" s="177" t="s">
+      <c r="S165" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T165" s="178"/>
-      <c r="U165" s="178"/>
-      <c r="V165" s="178"/>
-      <c r="W165" s="178"/>
-      <c r="X165" s="179"/>
-      <c r="Y165" s="177" t="s">
+      <c r="T165" s="181"/>
+      <c r="U165" s="181"/>
+      <c r="V165" s="181"/>
+      <c r="W165" s="181"/>
+      <c r="X165" s="182"/>
+      <c r="Y165" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z165" s="178"/>
-      <c r="AA165" s="178"/>
-      <c r="AB165" s="178"/>
-      <c r="AC165" s="178"/>
-      <c r="AD165" s="179"/>
-      <c r="AE165" s="177" t="s">
+      <c r="Z165" s="181"/>
+      <c r="AA165" s="181"/>
+      <c r="AB165" s="181"/>
+      <c r="AC165" s="181"/>
+      <c r="AD165" s="182"/>
+      <c r="AE165" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AF165" s="178"/>
-      <c r="AG165" s="178"/>
-      <c r="AH165" s="178"/>
-      <c r="AI165" s="178"/>
-      <c r="AJ165" s="179"/>
+      <c r="AF165" s="181"/>
+      <c r="AG165" s="181"/>
+      <c r="AH165" s="181"/>
+      <c r="AI165" s="181"/>
+      <c r="AJ165" s="182"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="2"/>
     </row>
@@ -13256,30 +13256,30 @@
       <c r="P166" s="75"/>
       <c r="Q166" s="75"/>
       <c r="R166" s="76"/>
-      <c r="S166" s="177" t="s">
+      <c r="S166" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T166" s="178"/>
-      <c r="U166" s="178"/>
-      <c r="V166" s="178"/>
-      <c r="W166" s="178"/>
-      <c r="X166" s="179"/>
-      <c r="Y166" s="177" t="s">
+      <c r="T166" s="181"/>
+      <c r="U166" s="181"/>
+      <c r="V166" s="181"/>
+      <c r="W166" s="181"/>
+      <c r="X166" s="182"/>
+      <c r="Y166" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z166" s="178"/>
-      <c r="AA166" s="178"/>
-      <c r="AB166" s="178"/>
-      <c r="AC166" s="178"/>
-      <c r="AD166" s="179"/>
-      <c r="AE166" s="177" t="s">
+      <c r="Z166" s="181"/>
+      <c r="AA166" s="181"/>
+      <c r="AB166" s="181"/>
+      <c r="AC166" s="181"/>
+      <c r="AD166" s="182"/>
+      <c r="AE166" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF166" s="178"/>
-      <c r="AG166" s="178"/>
-      <c r="AH166" s="178"/>
-      <c r="AI166" s="178"/>
-      <c r="AJ166" s="179"/>
+      <c r="AF166" s="181"/>
+      <c r="AG166" s="181"/>
+      <c r="AH166" s="181"/>
+      <c r="AI166" s="181"/>
+      <c r="AJ166" s="182"/>
       <c r="AP166" s="5"/>
       <c r="AQ166" s="2"/>
     </row>
@@ -13301,30 +13301,30 @@
       <c r="P167" s="75"/>
       <c r="Q167" s="75"/>
       <c r="R167" s="76"/>
-      <c r="S167" s="177" t="s">
+      <c r="S167" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T167" s="178"/>
-      <c r="U167" s="178"/>
-      <c r="V167" s="178"/>
-      <c r="W167" s="178"/>
-      <c r="X167" s="179"/>
-      <c r="Y167" s="177" t="s">
+      <c r="T167" s="181"/>
+      <c r="U167" s="181"/>
+      <c r="V167" s="181"/>
+      <c r="W167" s="181"/>
+      <c r="X167" s="182"/>
+      <c r="Y167" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z167" s="178"/>
-      <c r="AA167" s="178"/>
-      <c r="AB167" s="178"/>
-      <c r="AC167" s="178"/>
-      <c r="AD167" s="179"/>
-      <c r="AE167" s="177" t="s">
+      <c r="Z167" s="181"/>
+      <c r="AA167" s="181"/>
+      <c r="AB167" s="181"/>
+      <c r="AC167" s="181"/>
+      <c r="AD167" s="182"/>
+      <c r="AE167" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF167" s="178"/>
-      <c r="AG167" s="178"/>
-      <c r="AH167" s="178"/>
-      <c r="AI167" s="178"/>
-      <c r="AJ167" s="179"/>
+      <c r="AF167" s="181"/>
+      <c r="AG167" s="181"/>
+      <c r="AH167" s="181"/>
+      <c r="AI167" s="181"/>
+      <c r="AJ167" s="182"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="2"/>
     </row>
@@ -13348,30 +13348,30 @@
       <c r="P168" s="134"/>
       <c r="Q168" s="134"/>
       <c r="R168" s="135"/>
-      <c r="S168" s="177" t="s">
+      <c r="S168" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T168" s="178"/>
-      <c r="U168" s="178"/>
-      <c r="V168" s="178"/>
-      <c r="W168" s="178"/>
-      <c r="X168" s="179"/>
-      <c r="Y168" s="177" t="s">
+      <c r="T168" s="181"/>
+      <c r="U168" s="181"/>
+      <c r="V168" s="181"/>
+      <c r="W168" s="181"/>
+      <c r="X168" s="182"/>
+      <c r="Y168" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="Z168" s="178"/>
-      <c r="AA168" s="178"/>
-      <c r="AB168" s="178"/>
-      <c r="AC168" s="178"/>
-      <c r="AD168" s="179"/>
-      <c r="AE168" s="177" t="s">
+      <c r="Z168" s="181"/>
+      <c r="AA168" s="181"/>
+      <c r="AB168" s="181"/>
+      <c r="AC168" s="181"/>
+      <c r="AD168" s="182"/>
+      <c r="AE168" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF168" s="178"/>
-      <c r="AG168" s="178"/>
-      <c r="AH168" s="178"/>
-      <c r="AI168" s="178"/>
-      <c r="AJ168" s="179"/>
+      <c r="AF168" s="181"/>
+      <c r="AG168" s="181"/>
+      <c r="AH168" s="181"/>
+      <c r="AI168" s="181"/>
+      <c r="AJ168" s="182"/>
       <c r="AP168" s="5"/>
       <c r="AQ168" s="2"/>
     </row>
@@ -13393,30 +13393,30 @@
       <c r="P169" s="75"/>
       <c r="Q169" s="75"/>
       <c r="R169" s="76"/>
-      <c r="S169" s="177" t="s">
+      <c r="S169" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T169" s="178"/>
-      <c r="U169" s="178"/>
-      <c r="V169" s="178"/>
-      <c r="W169" s="178"/>
-      <c r="X169" s="179"/>
-      <c r="Y169" s="177" t="s">
+      <c r="T169" s="181"/>
+      <c r="U169" s="181"/>
+      <c r="V169" s="181"/>
+      <c r="W169" s="181"/>
+      <c r="X169" s="182"/>
+      <c r="Y169" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z169" s="178"/>
-      <c r="AA169" s="178"/>
-      <c r="AB169" s="178"/>
-      <c r="AC169" s="178"/>
-      <c r="AD169" s="179"/>
-      <c r="AE169" s="177" t="s">
+      <c r="Z169" s="181"/>
+      <c r="AA169" s="181"/>
+      <c r="AB169" s="181"/>
+      <c r="AC169" s="181"/>
+      <c r="AD169" s="182"/>
+      <c r="AE169" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF169" s="178"/>
-      <c r="AG169" s="178"/>
-      <c r="AH169" s="178"/>
-      <c r="AI169" s="178"/>
-      <c r="AJ169" s="179"/>
+      <c r="AF169" s="181"/>
+      <c r="AG169" s="181"/>
+      <c r="AH169" s="181"/>
+      <c r="AI169" s="181"/>
+      <c r="AJ169" s="182"/>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="2"/>
     </row>
@@ -13438,30 +13438,30 @@
       <c r="P170" s="75"/>
       <c r="Q170" s="75"/>
       <c r="R170" s="76"/>
-      <c r="S170" s="177" t="s">
+      <c r="S170" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T170" s="178"/>
-      <c r="U170" s="178"/>
-      <c r="V170" s="178"/>
-      <c r="W170" s="178"/>
-      <c r="X170" s="179"/>
-      <c r="Y170" s="177" t="s">
+      <c r="T170" s="181"/>
+      <c r="U170" s="181"/>
+      <c r="V170" s="181"/>
+      <c r="W170" s="181"/>
+      <c r="X170" s="182"/>
+      <c r="Y170" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z170" s="178"/>
-      <c r="AA170" s="178"/>
-      <c r="AB170" s="178"/>
-      <c r="AC170" s="178"/>
-      <c r="AD170" s="179"/>
-      <c r="AE170" s="177" t="s">
+      <c r="Z170" s="181"/>
+      <c r="AA170" s="181"/>
+      <c r="AB170" s="181"/>
+      <c r="AC170" s="181"/>
+      <c r="AD170" s="182"/>
+      <c r="AE170" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF170" s="178"/>
-      <c r="AG170" s="178"/>
-      <c r="AH170" s="178"/>
-      <c r="AI170" s="178"/>
-      <c r="AJ170" s="179"/>
+      <c r="AF170" s="181"/>
+      <c r="AG170" s="181"/>
+      <c r="AH170" s="181"/>
+      <c r="AI170" s="181"/>
+      <c r="AJ170" s="182"/>
       <c r="AP170" s="5"/>
       <c r="AQ170" s="2"/>
     </row>
@@ -13483,30 +13483,30 @@
       <c r="P171" s="75"/>
       <c r="Q171" s="75"/>
       <c r="R171" s="76"/>
-      <c r="S171" s="177" t="s">
+      <c r="S171" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T171" s="178"/>
-      <c r="U171" s="178"/>
-      <c r="V171" s="178"/>
-      <c r="W171" s="178"/>
-      <c r="X171" s="179"/>
-      <c r="Y171" s="177" t="s">
+      <c r="T171" s="181"/>
+      <c r="U171" s="181"/>
+      <c r="V171" s="181"/>
+      <c r="W171" s="181"/>
+      <c r="X171" s="182"/>
+      <c r="Y171" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z171" s="178"/>
-      <c r="AA171" s="178"/>
-      <c r="AB171" s="178"/>
-      <c r="AC171" s="178"/>
-      <c r="AD171" s="179"/>
-      <c r="AE171" s="177" t="s">
+      <c r="Z171" s="181"/>
+      <c r="AA171" s="181"/>
+      <c r="AB171" s="181"/>
+      <c r="AC171" s="181"/>
+      <c r="AD171" s="182"/>
+      <c r="AE171" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF171" s="178"/>
-      <c r="AG171" s="178"/>
-      <c r="AH171" s="178"/>
-      <c r="AI171" s="178"/>
-      <c r="AJ171" s="179"/>
+      <c r="AF171" s="181"/>
+      <c r="AG171" s="181"/>
+      <c r="AH171" s="181"/>
+      <c r="AI171" s="181"/>
+      <c r="AJ171" s="182"/>
       <c r="AP171" s="5"/>
       <c r="AQ171" s="2"/>
     </row>
@@ -13528,30 +13528,30 @@
       <c r="P172" s="75"/>
       <c r="Q172" s="75"/>
       <c r="R172" s="76"/>
-      <c r="S172" s="177" t="s">
+      <c r="S172" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T172" s="178"/>
-      <c r="U172" s="178"/>
-      <c r="V172" s="178"/>
-      <c r="W172" s="178"/>
-      <c r="X172" s="179"/>
-      <c r="Y172" s="177" t="s">
+      <c r="T172" s="181"/>
+      <c r="U172" s="181"/>
+      <c r="V172" s="181"/>
+      <c r="W172" s="181"/>
+      <c r="X172" s="182"/>
+      <c r="Y172" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z172" s="178"/>
-      <c r="AA172" s="178"/>
-      <c r="AB172" s="178"/>
-      <c r="AC172" s="178"/>
-      <c r="AD172" s="179"/>
-      <c r="AE172" s="177" t="s">
+      <c r="Z172" s="181"/>
+      <c r="AA172" s="181"/>
+      <c r="AB172" s="181"/>
+      <c r="AC172" s="181"/>
+      <c r="AD172" s="182"/>
+      <c r="AE172" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AF172" s="178"/>
-      <c r="AG172" s="178"/>
-      <c r="AH172" s="178"/>
-      <c r="AI172" s="178"/>
-      <c r="AJ172" s="179"/>
+      <c r="AF172" s="181"/>
+      <c r="AG172" s="181"/>
+      <c r="AH172" s="181"/>
+      <c r="AI172" s="181"/>
+      <c r="AJ172" s="182"/>
       <c r="AP172" s="5"/>
       <c r="AQ172" s="2"/>
     </row>
@@ -13573,30 +13573,30 @@
       <c r="P173" s="75"/>
       <c r="Q173" s="75"/>
       <c r="R173" s="76"/>
-      <c r="S173" s="177" t="s">
+      <c r="S173" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T173" s="178"/>
-      <c r="U173" s="178"/>
-      <c r="V173" s="178"/>
-      <c r="W173" s="178"/>
-      <c r="X173" s="179"/>
-      <c r="Y173" s="177" t="s">
+      <c r="T173" s="181"/>
+      <c r="U173" s="181"/>
+      <c r="V173" s="181"/>
+      <c r="W173" s="181"/>
+      <c r="X173" s="182"/>
+      <c r="Y173" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z173" s="178"/>
-      <c r="AA173" s="178"/>
-      <c r="AB173" s="178"/>
-      <c r="AC173" s="178"/>
-      <c r="AD173" s="179"/>
-      <c r="AE173" s="177" t="s">
+      <c r="Z173" s="181"/>
+      <c r="AA173" s="181"/>
+      <c r="AB173" s="181"/>
+      <c r="AC173" s="181"/>
+      <c r="AD173" s="182"/>
+      <c r="AE173" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF173" s="178"/>
-      <c r="AG173" s="178"/>
-      <c r="AH173" s="178"/>
-      <c r="AI173" s="178"/>
-      <c r="AJ173" s="179"/>
+      <c r="AF173" s="181"/>
+      <c r="AG173" s="181"/>
+      <c r="AH173" s="181"/>
+      <c r="AI173" s="181"/>
+      <c r="AJ173" s="182"/>
       <c r="AP173" s="5"/>
       <c r="AQ173" s="2"/>
     </row>
@@ -13618,30 +13618,30 @@
       <c r="P174" s="75"/>
       <c r="Q174" s="75"/>
       <c r="R174" s="76"/>
-      <c r="S174" s="177" t="s">
+      <c r="S174" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T174" s="178"/>
-      <c r="U174" s="178"/>
-      <c r="V174" s="178"/>
-      <c r="W174" s="178"/>
-      <c r="X174" s="179"/>
-      <c r="Y174" s="177" t="s">
+      <c r="T174" s="181"/>
+      <c r="U174" s="181"/>
+      <c r="V174" s="181"/>
+      <c r="W174" s="181"/>
+      <c r="X174" s="182"/>
+      <c r="Y174" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z174" s="178"/>
-      <c r="AA174" s="178"/>
-      <c r="AB174" s="178"/>
-      <c r="AC174" s="178"/>
-      <c r="AD174" s="179"/>
-      <c r="AE174" s="177" t="s">
+      <c r="Z174" s="181"/>
+      <c r="AA174" s="181"/>
+      <c r="AB174" s="181"/>
+      <c r="AC174" s="181"/>
+      <c r="AD174" s="182"/>
+      <c r="AE174" s="180" t="s">
         <v>163</v>
       </c>
-      <c r="AF174" s="178"/>
-      <c r="AG174" s="178"/>
-      <c r="AH174" s="178"/>
-      <c r="AI174" s="178"/>
-      <c r="AJ174" s="179"/>
+      <c r="AF174" s="181"/>
+      <c r="AG174" s="181"/>
+      <c r="AH174" s="181"/>
+      <c r="AI174" s="181"/>
+      <c r="AJ174" s="182"/>
       <c r="AP174" s="5"/>
       <c r="AQ174" s="2"/>
     </row>
@@ -13665,30 +13665,30 @@
       <c r="P175" s="134"/>
       <c r="Q175" s="134"/>
       <c r="R175" s="135"/>
-      <c r="S175" s="177" t="s">
+      <c r="S175" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T175" s="178"/>
-      <c r="U175" s="178"/>
-      <c r="V175" s="178"/>
-      <c r="W175" s="178"/>
-      <c r="X175" s="179"/>
-      <c r="Y175" s="177" t="s">
+      <c r="T175" s="181"/>
+      <c r="U175" s="181"/>
+      <c r="V175" s="181"/>
+      <c r="W175" s="181"/>
+      <c r="X175" s="182"/>
+      <c r="Y175" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="Z175" s="178"/>
-      <c r="AA175" s="178"/>
-      <c r="AB175" s="178"/>
-      <c r="AC175" s="178"/>
-      <c r="AD175" s="179"/>
-      <c r="AE175" s="177" t="s">
+      <c r="Z175" s="181"/>
+      <c r="AA175" s="181"/>
+      <c r="AB175" s="181"/>
+      <c r="AC175" s="181"/>
+      <c r="AD175" s="182"/>
+      <c r="AE175" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF175" s="178"/>
-      <c r="AG175" s="178"/>
-      <c r="AH175" s="178"/>
-      <c r="AI175" s="178"/>
-      <c r="AJ175" s="179"/>
+      <c r="AF175" s="181"/>
+      <c r="AG175" s="181"/>
+      <c r="AH175" s="181"/>
+      <c r="AI175" s="181"/>
+      <c r="AJ175" s="182"/>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="2"/>
     </row>
@@ -13712,30 +13712,30 @@
       <c r="P176" s="75"/>
       <c r="Q176" s="75"/>
       <c r="R176" s="76"/>
-      <c r="S176" s="177" t="s">
+      <c r="S176" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="178"/>
-      <c r="U176" s="178"/>
-      <c r="V176" s="178"/>
-      <c r="W176" s="178"/>
-      <c r="X176" s="179"/>
-      <c r="Y176" s="177" t="s">
+      <c r="T176" s="181"/>
+      <c r="U176" s="181"/>
+      <c r="V176" s="181"/>
+      <c r="W176" s="181"/>
+      <c r="X176" s="182"/>
+      <c r="Y176" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z176" s="178"/>
-      <c r="AA176" s="178"/>
-      <c r="AB176" s="178"/>
-      <c r="AC176" s="178"/>
-      <c r="AD176" s="179"/>
-      <c r="AE176" s="177" t="s">
+      <c r="Z176" s="181"/>
+      <c r="AA176" s="181"/>
+      <c r="AB176" s="181"/>
+      <c r="AC176" s="181"/>
+      <c r="AD176" s="182"/>
+      <c r="AE176" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF176" s="178"/>
-      <c r="AG176" s="178"/>
-      <c r="AH176" s="178"/>
-      <c r="AI176" s="178"/>
-      <c r="AJ176" s="179"/>
+      <c r="AF176" s="181"/>
+      <c r="AG176" s="181"/>
+      <c r="AH176" s="181"/>
+      <c r="AI176" s="181"/>
+      <c r="AJ176" s="182"/>
       <c r="AP176" s="5"/>
       <c r="AQ176" s="2"/>
     </row>
@@ -13759,30 +13759,30 @@
       <c r="P177" s="75"/>
       <c r="Q177" s="75"/>
       <c r="R177" s="76"/>
-      <c r="S177" s="177" t="s">
+      <c r="S177" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T177" s="178"/>
-      <c r="U177" s="178"/>
-      <c r="V177" s="178"/>
-      <c r="W177" s="178"/>
-      <c r="X177" s="179"/>
-      <c r="Y177" s="177" t="s">
+      <c r="T177" s="181"/>
+      <c r="U177" s="181"/>
+      <c r="V177" s="181"/>
+      <c r="W177" s="181"/>
+      <c r="X177" s="182"/>
+      <c r="Y177" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z177" s="178"/>
-      <c r="AA177" s="178"/>
-      <c r="AB177" s="178"/>
-      <c r="AC177" s="178"/>
-      <c r="AD177" s="179"/>
-      <c r="AE177" s="177" t="s">
+      <c r="Z177" s="181"/>
+      <c r="AA177" s="181"/>
+      <c r="AB177" s="181"/>
+      <c r="AC177" s="181"/>
+      <c r="AD177" s="182"/>
+      <c r="AE177" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF177" s="178"/>
-      <c r="AG177" s="178"/>
-      <c r="AH177" s="178"/>
-      <c r="AI177" s="178"/>
-      <c r="AJ177" s="179"/>
+      <c r="AF177" s="181"/>
+      <c r="AG177" s="181"/>
+      <c r="AH177" s="181"/>
+      <c r="AI177" s="181"/>
+      <c r="AJ177" s="182"/>
       <c r="AP177" s="5"/>
       <c r="AQ177" s="2"/>
     </row>
@@ -13804,30 +13804,30 @@
       <c r="P178" s="75"/>
       <c r="Q178" s="75"/>
       <c r="R178" s="76"/>
-      <c r="S178" s="177" t="s">
+      <c r="S178" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T178" s="178"/>
-      <c r="U178" s="178"/>
-      <c r="V178" s="178"/>
-      <c r="W178" s="178"/>
-      <c r="X178" s="179"/>
-      <c r="Y178" s="177" t="s">
+      <c r="T178" s="181"/>
+      <c r="U178" s="181"/>
+      <c r="V178" s="181"/>
+      <c r="W178" s="181"/>
+      <c r="X178" s="182"/>
+      <c r="Y178" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z178" s="178"/>
-      <c r="AA178" s="178"/>
-      <c r="AB178" s="178"/>
-      <c r="AC178" s="178"/>
-      <c r="AD178" s="179"/>
-      <c r="AE178" s="177" t="s">
+      <c r="Z178" s="181"/>
+      <c r="AA178" s="181"/>
+      <c r="AB178" s="181"/>
+      <c r="AC178" s="181"/>
+      <c r="AD178" s="182"/>
+      <c r="AE178" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF178" s="178"/>
-      <c r="AG178" s="178"/>
-      <c r="AH178" s="178"/>
-      <c r="AI178" s="178"/>
-      <c r="AJ178" s="179"/>
+      <c r="AF178" s="181"/>
+      <c r="AG178" s="181"/>
+      <c r="AH178" s="181"/>
+      <c r="AI178" s="181"/>
+      <c r="AJ178" s="182"/>
       <c r="AP178" s="5"/>
       <c r="AQ178" s="2"/>
     </row>
@@ -13849,30 +13849,30 @@
       <c r="P179" s="75"/>
       <c r="Q179" s="75"/>
       <c r="R179" s="76"/>
-      <c r="S179" s="177" t="s">
+      <c r="S179" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T179" s="178"/>
-      <c r="U179" s="178"/>
-      <c r="V179" s="178"/>
-      <c r="W179" s="178"/>
-      <c r="X179" s="179"/>
-      <c r="Y179" s="177" t="s">
+      <c r="T179" s="181"/>
+      <c r="U179" s="181"/>
+      <c r="V179" s="181"/>
+      <c r="W179" s="181"/>
+      <c r="X179" s="182"/>
+      <c r="Y179" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z179" s="178"/>
-      <c r="AA179" s="178"/>
-      <c r="AB179" s="178"/>
-      <c r="AC179" s="178"/>
-      <c r="AD179" s="179"/>
-      <c r="AE179" s="177" t="s">
+      <c r="Z179" s="181"/>
+      <c r="AA179" s="181"/>
+      <c r="AB179" s="181"/>
+      <c r="AC179" s="181"/>
+      <c r="AD179" s="182"/>
+      <c r="AE179" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="AF179" s="178"/>
-      <c r="AG179" s="178"/>
-      <c r="AH179" s="178"/>
-      <c r="AI179" s="178"/>
-      <c r="AJ179" s="179"/>
+      <c r="AF179" s="181"/>
+      <c r="AG179" s="181"/>
+      <c r="AH179" s="181"/>
+      <c r="AI179" s="181"/>
+      <c r="AJ179" s="182"/>
       <c r="AP179" s="5"/>
       <c r="AQ179" s="2"/>
     </row>
@@ -13894,30 +13894,30 @@
       <c r="P180" s="75"/>
       <c r="Q180" s="75"/>
       <c r="R180" s="76"/>
-      <c r="S180" s="177" t="s">
+      <c r="S180" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T180" s="178"/>
-      <c r="U180" s="178"/>
-      <c r="V180" s="178"/>
-      <c r="W180" s="178"/>
-      <c r="X180" s="179"/>
-      <c r="Y180" s="177" t="s">
+      <c r="T180" s="181"/>
+      <c r="U180" s="181"/>
+      <c r="V180" s="181"/>
+      <c r="W180" s="181"/>
+      <c r="X180" s="182"/>
+      <c r="Y180" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z180" s="178"/>
-      <c r="AA180" s="178"/>
-      <c r="AB180" s="178"/>
-      <c r="AC180" s="178"/>
-      <c r="AD180" s="179"/>
-      <c r="AE180" s="177" t="s">
+      <c r="Z180" s="181"/>
+      <c r="AA180" s="181"/>
+      <c r="AB180" s="181"/>
+      <c r="AC180" s="181"/>
+      <c r="AD180" s="182"/>
+      <c r="AE180" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="AF180" s="178"/>
-      <c r="AG180" s="178"/>
-      <c r="AH180" s="178"/>
-      <c r="AI180" s="178"/>
-      <c r="AJ180" s="179"/>
+      <c r="AF180" s="181"/>
+      <c r="AG180" s="181"/>
+      <c r="AH180" s="181"/>
+      <c r="AI180" s="181"/>
+      <c r="AJ180" s="182"/>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="2"/>
     </row>
@@ -13939,30 +13939,30 @@
       <c r="P181" s="149"/>
       <c r="Q181" s="149"/>
       <c r="R181" s="150"/>
-      <c r="S181" s="201" t="s">
+      <c r="S181" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="T181" s="202"/>
-      <c r="U181" s="202"/>
-      <c r="V181" s="202"/>
-      <c r="W181" s="202"/>
-      <c r="X181" s="203"/>
-      <c r="Y181" s="201" t="s">
+      <c r="T181" s="232"/>
+      <c r="U181" s="232"/>
+      <c r="V181" s="232"/>
+      <c r="W181" s="232"/>
+      <c r="X181" s="233"/>
+      <c r="Y181" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="Z181" s="202"/>
-      <c r="AA181" s="202"/>
-      <c r="AB181" s="202"/>
-      <c r="AC181" s="202"/>
-      <c r="AD181" s="203"/>
-      <c r="AE181" s="201" t="s">
+      <c r="Z181" s="232"/>
+      <c r="AA181" s="232"/>
+      <c r="AB181" s="232"/>
+      <c r="AC181" s="232"/>
+      <c r="AD181" s="233"/>
+      <c r="AE181" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AF181" s="202"/>
-      <c r="AG181" s="202"/>
-      <c r="AH181" s="202"/>
-      <c r="AI181" s="202"/>
-      <c r="AJ181" s="203"/>
+      <c r="AF181" s="232"/>
+      <c r="AG181" s="232"/>
+      <c r="AH181" s="232"/>
+      <c r="AI181" s="232"/>
+      <c r="AJ181" s="233"/>
       <c r="AP181" s="5"/>
       <c r="AQ181" s="2"/>
     </row>
@@ -13984,30 +13984,30 @@
       <c r="P182" s="75"/>
       <c r="Q182" s="75"/>
       <c r="R182" s="76"/>
-      <c r="S182" s="177" t="s">
+      <c r="S182" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T182" s="178"/>
-      <c r="U182" s="178"/>
-      <c r="V182" s="178"/>
-      <c r="W182" s="178"/>
-      <c r="X182" s="179"/>
-      <c r="Y182" s="177" t="s">
+      <c r="T182" s="181"/>
+      <c r="U182" s="181"/>
+      <c r="V182" s="181"/>
+      <c r="W182" s="181"/>
+      <c r="X182" s="182"/>
+      <c r="Y182" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="Z182" s="178"/>
-      <c r="AA182" s="178"/>
-      <c r="AB182" s="178"/>
-      <c r="AC182" s="178"/>
-      <c r="AD182" s="179"/>
-      <c r="AE182" s="177" t="s">
+      <c r="Z182" s="181"/>
+      <c r="AA182" s="181"/>
+      <c r="AB182" s="181"/>
+      <c r="AC182" s="181"/>
+      <c r="AD182" s="182"/>
+      <c r="AE182" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="AF182" s="178"/>
-      <c r="AG182" s="178"/>
-      <c r="AH182" s="178"/>
-      <c r="AI182" s="178"/>
-      <c r="AJ182" s="179"/>
+      <c r="AF182" s="181"/>
+      <c r="AG182" s="181"/>
+      <c r="AH182" s="181"/>
+      <c r="AI182" s="181"/>
+      <c r="AJ182" s="182"/>
       <c r="AP182" s="5"/>
       <c r="AQ182" s="2"/>
     </row>
@@ -14029,30 +14029,30 @@
       <c r="P183" s="149"/>
       <c r="Q183" s="149"/>
       <c r="R183" s="150"/>
-      <c r="S183" s="201" t="s">
+      <c r="S183" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="T183" s="202"/>
-      <c r="U183" s="202"/>
-      <c r="V183" s="202"/>
-      <c r="W183" s="202"/>
-      <c r="X183" s="203"/>
-      <c r="Y183" s="201" t="s">
+      <c r="T183" s="232"/>
+      <c r="U183" s="232"/>
+      <c r="V183" s="232"/>
+      <c r="W183" s="232"/>
+      <c r="X183" s="233"/>
+      <c r="Y183" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="Z183" s="202"/>
-      <c r="AA183" s="202"/>
-      <c r="AB183" s="202"/>
-      <c r="AC183" s="202"/>
-      <c r="AD183" s="203"/>
-      <c r="AE183" s="201" t="s">
+      <c r="Z183" s="232"/>
+      <c r="AA183" s="232"/>
+      <c r="AB183" s="232"/>
+      <c r="AC183" s="232"/>
+      <c r="AD183" s="233"/>
+      <c r="AE183" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AF183" s="202"/>
-      <c r="AG183" s="202"/>
-      <c r="AH183" s="202"/>
-      <c r="AI183" s="202"/>
-      <c r="AJ183" s="203"/>
+      <c r="AF183" s="232"/>
+      <c r="AG183" s="232"/>
+      <c r="AH183" s="232"/>
+      <c r="AI183" s="232"/>
+      <c r="AJ183" s="233"/>
       <c r="AP183" s="5"/>
       <c r="AQ183" s="2"/>
     </row>
@@ -14074,30 +14074,30 @@
       <c r="P184" s="152"/>
       <c r="Q184" s="152"/>
       <c r="R184" s="153"/>
-      <c r="S184" s="240" t="s">
+      <c r="S184" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="T184" s="241"/>
-      <c r="U184" s="241"/>
-      <c r="V184" s="241"/>
-      <c r="W184" s="241"/>
-      <c r="X184" s="242"/>
-      <c r="Y184" s="240" t="s">
+      <c r="T184" s="199"/>
+      <c r="U184" s="199"/>
+      <c r="V184" s="199"/>
+      <c r="W184" s="199"/>
+      <c r="X184" s="200"/>
+      <c r="Y184" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="Z184" s="241"/>
-      <c r="AA184" s="241"/>
-      <c r="AB184" s="241"/>
-      <c r="AC184" s="241"/>
-      <c r="AD184" s="242"/>
-      <c r="AE184" s="240" t="s">
+      <c r="Z184" s="199"/>
+      <c r="AA184" s="199"/>
+      <c r="AB184" s="199"/>
+      <c r="AC184" s="199"/>
+      <c r="AD184" s="200"/>
+      <c r="AE184" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="AF184" s="241"/>
-      <c r="AG184" s="241"/>
-      <c r="AH184" s="241"/>
-      <c r="AI184" s="241"/>
-      <c r="AJ184" s="242"/>
+      <c r="AF184" s="199"/>
+      <c r="AG184" s="199"/>
+      <c r="AH184" s="199"/>
+      <c r="AI184" s="199"/>
+      <c r="AJ184" s="200"/>
       <c r="AP184" s="5"/>
       <c r="AQ184" s="2"/>
     </row>
@@ -16123,17 +16123,17 @@
       <c r="AA235" s="62"/>
       <c r="AB235" s="62"/>
       <c r="AC235" s="63"/>
-      <c r="AD235" s="189" t="s">
+      <c r="AD235" s="213" t="s">
         <v>237</v>
       </c>
-      <c r="AE235" s="190"/>
-      <c r="AF235" s="190"/>
-      <c r="AG235" s="190"/>
-      <c r="AH235" s="190"/>
-      <c r="AI235" s="190"/>
-      <c r="AJ235" s="190"/>
-      <c r="AK235" s="190"/>
-      <c r="AL235" s="191"/>
+      <c r="AE235" s="214"/>
+      <c r="AF235" s="214"/>
+      <c r="AG235" s="214"/>
+      <c r="AH235" s="214"/>
+      <c r="AI235" s="214"/>
+      <c r="AJ235" s="214"/>
+      <c r="AK235" s="214"/>
+      <c r="AL235" s="215"/>
       <c r="AM235" s="92"/>
       <c r="AN235" s="2"/>
       <c r="AP235" s="5"/>
@@ -16221,21 +16221,21 @@
       <c r="AA237" s="100"/>
       <c r="AB237" s="100"/>
       <c r="AC237" s="104"/>
-      <c r="AD237" s="180" t="s">
+      <c r="AD237" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="AE237" s="181"/>
-      <c r="AF237" s="181"/>
-      <c r="AG237" s="182"/>
-      <c r="AH237" s="180" t="s">
+      <c r="AE237" s="235"/>
+      <c r="AF237" s="235"/>
+      <c r="AG237" s="236"/>
+      <c r="AH237" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="AI237" s="182"/>
-      <c r="AJ237" s="180" t="s">
+      <c r="AI237" s="236"/>
+      <c r="AJ237" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="AK237" s="181"/>
-      <c r="AL237" s="182"/>
+      <c r="AK237" s="235"/>
+      <c r="AL237" s="236"/>
       <c r="AM237" s="92"/>
       <c r="AN237" s="2"/>
       <c r="AP237" s="5"/>
@@ -16272,15 +16272,15 @@
       <c r="AA238" s="92"/>
       <c r="AB238" s="92"/>
       <c r="AC238" s="128"/>
-      <c r="AD238" s="183"/>
-      <c r="AE238" s="184"/>
-      <c r="AF238" s="184"/>
-      <c r="AG238" s="185"/>
-      <c r="AH238" s="183"/>
-      <c r="AI238" s="185"/>
-      <c r="AJ238" s="183"/>
-      <c r="AK238" s="184"/>
-      <c r="AL238" s="185"/>
+      <c r="AD238" s="237"/>
+      <c r="AE238" s="238"/>
+      <c r="AF238" s="238"/>
+      <c r="AG238" s="239"/>
+      <c r="AH238" s="237"/>
+      <c r="AI238" s="239"/>
+      <c r="AJ238" s="237"/>
+      <c r="AK238" s="238"/>
+      <c r="AL238" s="239"/>
       <c r="AM238" s="92"/>
       <c r="AN238" s="2"/>
       <c r="AP238" s="5"/>
@@ -16317,15 +16317,15 @@
       <c r="AA239" s="92"/>
       <c r="AB239" s="92"/>
       <c r="AC239" s="128"/>
-      <c r="AD239" s="183"/>
-      <c r="AE239" s="184"/>
-      <c r="AF239" s="184"/>
-      <c r="AG239" s="185"/>
-      <c r="AH239" s="183"/>
-      <c r="AI239" s="185"/>
-      <c r="AJ239" s="183"/>
-      <c r="AK239" s="184"/>
-      <c r="AL239" s="185"/>
+      <c r="AD239" s="237"/>
+      <c r="AE239" s="238"/>
+      <c r="AF239" s="238"/>
+      <c r="AG239" s="239"/>
+      <c r="AH239" s="237"/>
+      <c r="AI239" s="239"/>
+      <c r="AJ239" s="237"/>
+      <c r="AK239" s="238"/>
+      <c r="AL239" s="239"/>
       <c r="AM239" s="92"/>
       <c r="AN239" s="2"/>
       <c r="AP239" s="5"/>
@@ -16362,15 +16362,15 @@
       <c r="AA240" s="113"/>
       <c r="AB240" s="113"/>
       <c r="AC240" s="121"/>
-      <c r="AD240" s="186"/>
-      <c r="AE240" s="187"/>
-      <c r="AF240" s="187"/>
-      <c r="AG240" s="188"/>
-      <c r="AH240" s="186"/>
-      <c r="AI240" s="188"/>
-      <c r="AJ240" s="186"/>
-      <c r="AK240" s="187"/>
-      <c r="AL240" s="188"/>
+      <c r="AD240" s="240"/>
+      <c r="AE240" s="241"/>
+      <c r="AF240" s="241"/>
+      <c r="AG240" s="242"/>
+      <c r="AH240" s="240"/>
+      <c r="AI240" s="242"/>
+      <c r="AJ240" s="240"/>
+      <c r="AK240" s="241"/>
+      <c r="AL240" s="242"/>
       <c r="AM240" s="92"/>
       <c r="AN240" s="2"/>
       <c r="AP240" s="5"/>
@@ -16409,21 +16409,21 @@
       <c r="AA241" s="117"/>
       <c r="AB241" s="117"/>
       <c r="AC241" s="173"/>
-      <c r="AD241" s="192" t="s">
+      <c r="AD241" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AE241" s="198"/>
-      <c r="AF241" s="198"/>
-      <c r="AG241" s="193"/>
-      <c r="AH241" s="192" t="s">
+      <c r="AE241" s="190"/>
+      <c r="AF241" s="190"/>
+      <c r="AG241" s="191"/>
+      <c r="AH241" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AI241" s="193"/>
-      <c r="AJ241" s="192" t="s">
+      <c r="AI241" s="191"/>
+      <c r="AJ241" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AK241" s="198"/>
-      <c r="AL241" s="193"/>
+      <c r="AK241" s="190"/>
+      <c r="AL241" s="191"/>
       <c r="AM241" s="92"/>
       <c r="AN241" s="2"/>
       <c r="AP241" s="5"/>
@@ -16460,15 +16460,15 @@
       <c r="AA242" s="119"/>
       <c r="AB242" s="119"/>
       <c r="AC242" s="120"/>
-      <c r="AD242" s="194"/>
-      <c r="AE242" s="199"/>
-      <c r="AF242" s="199"/>
-      <c r="AG242" s="195"/>
-      <c r="AH242" s="194"/>
-      <c r="AI242" s="195"/>
-      <c r="AJ242" s="194"/>
-      <c r="AK242" s="199"/>
-      <c r="AL242" s="195"/>
+      <c r="AD242" s="192"/>
+      <c r="AE242" s="193"/>
+      <c r="AF242" s="193"/>
+      <c r="AG242" s="194"/>
+      <c r="AH242" s="192"/>
+      <c r="AI242" s="194"/>
+      <c r="AJ242" s="192"/>
+      <c r="AK242" s="193"/>
+      <c r="AL242" s="194"/>
       <c r="AM242" s="92"/>
       <c r="AN242" s="2"/>
       <c r="AP242" s="5"/>
@@ -16505,15 +16505,15 @@
       <c r="AA243" s="119"/>
       <c r="AB243" s="119"/>
       <c r="AC243" s="120"/>
-      <c r="AD243" s="194"/>
-      <c r="AE243" s="199"/>
-      <c r="AF243" s="199"/>
-      <c r="AG243" s="195"/>
-      <c r="AH243" s="194"/>
-      <c r="AI243" s="195"/>
-      <c r="AJ243" s="194"/>
-      <c r="AK243" s="199"/>
-      <c r="AL243" s="195"/>
+      <c r="AD243" s="192"/>
+      <c r="AE243" s="193"/>
+      <c r="AF243" s="193"/>
+      <c r="AG243" s="194"/>
+      <c r="AH243" s="192"/>
+      <c r="AI243" s="194"/>
+      <c r="AJ243" s="192"/>
+      <c r="AK243" s="193"/>
+      <c r="AL243" s="194"/>
       <c r="AM243" s="92"/>
       <c r="AN243" s="2"/>
       <c r="AP243" s="5"/>
@@ -16550,14 +16550,14 @@
       <c r="AA244" s="113"/>
       <c r="AB244" s="113"/>
       <c r="AC244" s="121"/>
-      <c r="AD244" s="196"/>
-      <c r="AE244" s="200"/>
-      <c r="AF244" s="200"/>
+      <c r="AD244" s="195"/>
+      <c r="AE244" s="196"/>
+      <c r="AF244" s="196"/>
       <c r="AG244" s="197"/>
-      <c r="AH244" s="196"/>
+      <c r="AH244" s="195"/>
       <c r="AI244" s="197"/>
-      <c r="AJ244" s="196"/>
-      <c r="AK244" s="200"/>
+      <c r="AJ244" s="195"/>
+      <c r="AK244" s="196"/>
       <c r="AL244" s="197"/>
       <c r="AM244" s="92"/>
       <c r="AN244" s="2"/>
@@ -16567,7 +16567,7 @@
     <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="C245" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D245" s="94"/>
       <c r="E245" s="94"/>
@@ -16577,7 +16577,7 @@
       <c r="I245" s="117"/>
       <c r="J245" s="173"/>
       <c r="K245" s="117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L245" s="117"/>
       <c r="M245" s="117"/>
@@ -16597,21 +16597,21 @@
       <c r="AA245" s="117"/>
       <c r="AB245" s="117"/>
       <c r="AC245" s="173"/>
-      <c r="AD245" s="192" t="s">
+      <c r="AD245" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AE245" s="198"/>
-      <c r="AF245" s="198"/>
-      <c r="AG245" s="193"/>
-      <c r="AH245" s="192" t="s">
+      <c r="AE245" s="190"/>
+      <c r="AF245" s="190"/>
+      <c r="AG245" s="191"/>
+      <c r="AH245" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AI245" s="193"/>
-      <c r="AJ245" s="192" t="s">
+      <c r="AI245" s="191"/>
+      <c r="AJ245" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AK245" s="198"/>
-      <c r="AL245" s="193"/>
+      <c r="AK245" s="190"/>
+      <c r="AL245" s="191"/>
       <c r="AM245" s="92"/>
       <c r="AN245" s="2"/>
       <c r="AP245" s="5"/>
@@ -16628,7 +16628,7 @@
       <c r="I246" s="119"/>
       <c r="J246" s="120"/>
       <c r="K246" s="119" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L246" s="119"/>
       <c r="M246" s="119"/>
@@ -16648,15 +16648,15 @@
       <c r="AA246" s="119"/>
       <c r="AB246" s="119"/>
       <c r="AC246" s="120"/>
-      <c r="AD246" s="194"/>
-      <c r="AE246" s="199"/>
-      <c r="AF246" s="199"/>
-      <c r="AG246" s="195"/>
-      <c r="AH246" s="194"/>
-      <c r="AI246" s="195"/>
-      <c r="AJ246" s="194"/>
-      <c r="AK246" s="199"/>
-      <c r="AL246" s="195"/>
+      <c r="AD246" s="192"/>
+      <c r="AE246" s="193"/>
+      <c r="AF246" s="193"/>
+      <c r="AG246" s="194"/>
+      <c r="AH246" s="192"/>
+      <c r="AI246" s="194"/>
+      <c r="AJ246" s="192"/>
+      <c r="AK246" s="193"/>
+      <c r="AL246" s="194"/>
       <c r="AM246" s="92"/>
       <c r="AN246" s="2"/>
       <c r="AP246" s="5"/>
@@ -16673,7 +16673,7 @@
       <c r="I247" s="90"/>
       <c r="J247" s="128"/>
       <c r="K247" s="119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L247" s="92"/>
       <c r="M247" s="92"/>
@@ -16693,15 +16693,15 @@
       <c r="AA247" s="92"/>
       <c r="AB247" s="92"/>
       <c r="AC247" s="128"/>
-      <c r="AD247" s="194"/>
-      <c r="AE247" s="199"/>
-      <c r="AF247" s="199"/>
-      <c r="AG247" s="195"/>
-      <c r="AH247" s="194"/>
-      <c r="AI247" s="195"/>
-      <c r="AJ247" s="194"/>
-      <c r="AK247" s="199"/>
-      <c r="AL247" s="195"/>
+      <c r="AD247" s="192"/>
+      <c r="AE247" s="193"/>
+      <c r="AF247" s="193"/>
+      <c r="AG247" s="194"/>
+      <c r="AH247" s="192"/>
+      <c r="AI247" s="194"/>
+      <c r="AJ247" s="192"/>
+      <c r="AK247" s="193"/>
+      <c r="AL247" s="194"/>
       <c r="AM247" s="92"/>
       <c r="AN247" s="2"/>
       <c r="AP247" s="5"/>
@@ -16718,7 +16718,7 @@
       <c r="I248" s="172"/>
       <c r="J248" s="121"/>
       <c r="K248" s="113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L248" s="113"/>
       <c r="M248" s="113"/>
@@ -16738,14 +16738,14 @@
       <c r="AA248" s="113"/>
       <c r="AB248" s="113"/>
       <c r="AC248" s="121"/>
-      <c r="AD248" s="196"/>
-      <c r="AE248" s="200"/>
-      <c r="AF248" s="200"/>
+      <c r="AD248" s="195"/>
+      <c r="AE248" s="196"/>
+      <c r="AF248" s="196"/>
       <c r="AG248" s="197"/>
-      <c r="AH248" s="196"/>
+      <c r="AH248" s="195"/>
       <c r="AI248" s="197"/>
-      <c r="AJ248" s="196"/>
-      <c r="AK248" s="200"/>
+      <c r="AJ248" s="195"/>
+      <c r="AK248" s="196"/>
       <c r="AL248" s="197"/>
       <c r="AM248" s="92"/>
       <c r="AN248" s="2"/>
@@ -16755,7 +16755,7 @@
     <row r="249" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="C249" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D249" s="94"/>
       <c r="E249" s="94"/>
@@ -16765,7 +16765,7 @@
       <c r="I249" s="117"/>
       <c r="J249" s="173"/>
       <c r="K249" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L249" s="117"/>
       <c r="M249" s="117"/>
@@ -16785,21 +16785,21 @@
       <c r="AA249" s="117"/>
       <c r="AB249" s="117"/>
       <c r="AC249" s="173"/>
-      <c r="AD249" s="192" t="s">
+      <c r="AD249" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AE249" s="198"/>
-      <c r="AF249" s="198"/>
-      <c r="AG249" s="193"/>
-      <c r="AH249" s="192" t="s">
+      <c r="AE249" s="190"/>
+      <c r="AF249" s="190"/>
+      <c r="AG249" s="191"/>
+      <c r="AH249" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AI249" s="193"/>
-      <c r="AJ249" s="192" t="s">
+      <c r="AI249" s="191"/>
+      <c r="AJ249" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="AK249" s="198"/>
-      <c r="AL249" s="193"/>
+      <c r="AK249" s="190"/>
+      <c r="AL249" s="191"/>
       <c r="AM249" s="92"/>
       <c r="AN249" s="2"/>
       <c r="AP249" s="5"/>
@@ -16816,7 +16816,7 @@
       <c r="I250" s="113"/>
       <c r="J250" s="121"/>
       <c r="K250" s="113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L250" s="113"/>
       <c r="M250" s="113"/>
@@ -16836,14 +16836,14 @@
       <c r="AA250" s="113"/>
       <c r="AB250" s="113"/>
       <c r="AC250" s="121"/>
-      <c r="AD250" s="196"/>
-      <c r="AE250" s="200"/>
-      <c r="AF250" s="200"/>
+      <c r="AD250" s="195"/>
+      <c r="AE250" s="196"/>
+      <c r="AF250" s="196"/>
       <c r="AG250" s="197"/>
-      <c r="AH250" s="196"/>
+      <c r="AH250" s="195"/>
       <c r="AI250" s="197"/>
-      <c r="AJ250" s="196"/>
-      <c r="AK250" s="200"/>
+      <c r="AJ250" s="195"/>
+      <c r="AK250" s="196"/>
       <c r="AL250" s="197"/>
       <c r="AM250" s="92"/>
       <c r="AN250" s="2"/>
@@ -17058,17 +17058,17 @@
       <c r="AA255" s="62"/>
       <c r="AB255" s="62"/>
       <c r="AC255" s="63"/>
-      <c r="AD255" s="189" t="s">
+      <c r="AD255" s="213" t="s">
         <v>237</v>
       </c>
-      <c r="AE255" s="190"/>
-      <c r="AF255" s="190"/>
-      <c r="AG255" s="190"/>
-      <c r="AH255" s="190"/>
-      <c r="AI255" s="190"/>
-      <c r="AJ255" s="190"/>
-      <c r="AK255" s="190"/>
-      <c r="AL255" s="191"/>
+      <c r="AE255" s="214"/>
+      <c r="AF255" s="214"/>
+      <c r="AG255" s="214"/>
+      <c r="AH255" s="214"/>
+      <c r="AI255" s="214"/>
+      <c r="AJ255" s="214"/>
+      <c r="AK255" s="214"/>
+      <c r="AL255" s="215"/>
       <c r="AM255" s="92"/>
       <c r="AN255" s="2"/>
       <c r="AP255" s="5"/>
@@ -17160,21 +17160,21 @@
       <c r="AA257" s="100"/>
       <c r="AB257" s="100"/>
       <c r="AC257" s="104"/>
-      <c r="AD257" s="228" t="s">
+      <c r="AD257" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AE257" s="234"/>
-      <c r="AF257" s="234"/>
-      <c r="AG257" s="229"/>
-      <c r="AH257" s="228" t="s">
+      <c r="AE257" s="208"/>
+      <c r="AF257" s="208"/>
+      <c r="AG257" s="205"/>
+      <c r="AH257" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AI257" s="229"/>
-      <c r="AJ257" s="228" t="s">
+      <c r="AI257" s="205"/>
+      <c r="AJ257" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AK257" s="234"/>
-      <c r="AL257" s="229"/>
+      <c r="AK257" s="208"/>
+      <c r="AL257" s="205"/>
       <c r="AM257" s="92"/>
       <c r="AN257" s="2"/>
       <c r="AP257" s="5"/>
@@ -17212,15 +17212,15 @@
       <c r="AA258" s="99"/>
       <c r="AB258" s="99"/>
       <c r="AC258" s="103"/>
-      <c r="AD258" s="230"/>
-      <c r="AE258" s="235"/>
-      <c r="AF258" s="235"/>
-      <c r="AG258" s="231"/>
-      <c r="AH258" s="230"/>
-      <c r="AI258" s="231"/>
-      <c r="AJ258" s="230"/>
-      <c r="AK258" s="235"/>
-      <c r="AL258" s="231"/>
+      <c r="AD258" s="206"/>
+      <c r="AE258" s="209"/>
+      <c r="AF258" s="209"/>
+      <c r="AG258" s="207"/>
+      <c r="AH258" s="206"/>
+      <c r="AI258" s="207"/>
+      <c r="AJ258" s="206"/>
+      <c r="AK258" s="209"/>
+      <c r="AL258" s="207"/>
       <c r="AM258" s="92"/>
       <c r="AN258" s="2"/>
       <c r="AP258" s="5"/>
@@ -17260,21 +17260,21 @@
       <c r="AA259" s="98"/>
       <c r="AB259" s="98"/>
       <c r="AC259" s="102"/>
-      <c r="AD259" s="228" t="s">
+      <c r="AD259" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AE259" s="234"/>
-      <c r="AF259" s="234"/>
-      <c r="AG259" s="229"/>
-      <c r="AH259" s="228" t="s">
+      <c r="AE259" s="208"/>
+      <c r="AF259" s="208"/>
+      <c r="AG259" s="205"/>
+      <c r="AH259" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AI259" s="229"/>
-      <c r="AJ259" s="228" t="s">
+      <c r="AI259" s="205"/>
+      <c r="AJ259" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AK259" s="234"/>
-      <c r="AL259" s="229"/>
+      <c r="AK259" s="208"/>
+      <c r="AL259" s="205"/>
       <c r="AM259" s="92"/>
       <c r="AN259" s="2"/>
       <c r="AP259" s="5"/>
@@ -17314,21 +17314,21 @@
       <c r="AA260" s="105"/>
       <c r="AB260" s="105"/>
       <c r="AC260" s="116"/>
-      <c r="AD260" s="232" t="s">
+      <c r="AD260" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AE260" s="236"/>
-      <c r="AF260" s="236"/>
-      <c r="AG260" s="233"/>
-      <c r="AH260" s="232" t="s">
+      <c r="AE260" s="187"/>
+      <c r="AF260" s="187"/>
+      <c r="AG260" s="188"/>
+      <c r="AH260" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AI260" s="233"/>
-      <c r="AJ260" s="232" t="s">
+      <c r="AI260" s="188"/>
+      <c r="AJ260" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AK260" s="236"/>
-      <c r="AL260" s="233"/>
+      <c r="AK260" s="187"/>
+      <c r="AL260" s="188"/>
       <c r="AM260" s="92"/>
       <c r="AN260" s="2"/>
       <c r="AP260" s="5"/>
@@ -17370,21 +17370,21 @@
       <c r="AA261" s="105"/>
       <c r="AB261" s="105"/>
       <c r="AC261" s="116"/>
-      <c r="AD261" s="232" t="s">
+      <c r="AD261" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AE261" s="236"/>
-      <c r="AF261" s="236"/>
-      <c r="AG261" s="233"/>
-      <c r="AH261" s="232" t="s">
+      <c r="AE261" s="187"/>
+      <c r="AF261" s="187"/>
+      <c r="AG261" s="188"/>
+      <c r="AH261" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AI261" s="233"/>
-      <c r="AJ261" s="232" t="s">
+      <c r="AI261" s="188"/>
+      <c r="AJ261" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AK261" s="236"/>
-      <c r="AL261" s="233"/>
+      <c r="AK261" s="187"/>
+      <c r="AL261" s="188"/>
       <c r="AM261" s="92"/>
       <c r="AN261" s="2"/>
       <c r="AP261" s="5"/>
@@ -17424,21 +17424,21 @@
       <c r="AA262" s="105"/>
       <c r="AB262" s="105"/>
       <c r="AC262" s="116"/>
-      <c r="AD262" s="232" t="s">
+      <c r="AD262" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AE262" s="236"/>
-      <c r="AF262" s="236"/>
-      <c r="AG262" s="233"/>
-      <c r="AH262" s="232" t="s">
+      <c r="AE262" s="187"/>
+      <c r="AF262" s="187"/>
+      <c r="AG262" s="188"/>
+      <c r="AH262" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AI262" s="233"/>
-      <c r="AJ262" s="232" t="s">
+      <c r="AI262" s="188"/>
+      <c r="AJ262" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="AK262" s="236"/>
-      <c r="AL262" s="233"/>
+      <c r="AK262" s="187"/>
+      <c r="AL262" s="188"/>
       <c r="AM262" s="92"/>
       <c r="AN262" s="2"/>
       <c r="AP262" s="5"/>
@@ -17478,21 +17478,21 @@
       <c r="AA263" s="105"/>
       <c r="AB263" s="105"/>
       <c r="AC263" s="116"/>
-      <c r="AD263" s="237" t="s">
+      <c r="AD263" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="AE263" s="238"/>
-      <c r="AF263" s="238"/>
-      <c r="AG263" s="239"/>
-      <c r="AH263" s="237" t="s">
+      <c r="AE263" s="211"/>
+      <c r="AF263" s="211"/>
+      <c r="AG263" s="212"/>
+      <c r="AH263" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="AI263" s="239"/>
-      <c r="AJ263" s="232" t="s">
+      <c r="AI263" s="212"/>
+      <c r="AJ263" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="AK263" s="236"/>
-      <c r="AL263" s="233"/>
+      <c r="AK263" s="187"/>
+      <c r="AL263" s="188"/>
       <c r="AM263" s="92"/>
       <c r="AN263" s="2"/>
       <c r="AP263" s="5"/>
@@ -17534,21 +17534,21 @@
       <c r="AA264" s="98"/>
       <c r="AB264" s="98"/>
       <c r="AC264" s="102"/>
-      <c r="AD264" s="204" t="s">
+      <c r="AD264" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="AE264" s="205"/>
-      <c r="AF264" s="205"/>
-      <c r="AG264" s="206"/>
-      <c r="AH264" s="204" t="s">
+      <c r="AE264" s="202"/>
+      <c r="AF264" s="202"/>
+      <c r="AG264" s="203"/>
+      <c r="AH264" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="AI264" s="206"/>
-      <c r="AJ264" s="204" t="s">
+      <c r="AI264" s="203"/>
+      <c r="AJ264" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="AK264" s="205"/>
-      <c r="AL264" s="206"/>
+      <c r="AK264" s="202"/>
+      <c r="AL264" s="203"/>
       <c r="AM264" s="92"/>
       <c r="AN264" s="2"/>
       <c r="AP264" s="5"/>
@@ -18150,6 +18150,216 @@
     </row>
   </sheetData>
   <mergeCells count="234">
+    <mergeCell ref="AE162:AJ162"/>
+    <mergeCell ref="AE163:AJ163"/>
+    <mergeCell ref="S181:X181"/>
+    <mergeCell ref="S182:X182"/>
+    <mergeCell ref="AE137:AJ137"/>
+    <mergeCell ref="AE164:AJ164"/>
+    <mergeCell ref="AE165:AJ165"/>
+    <mergeCell ref="AE166:AJ166"/>
+    <mergeCell ref="AE138:AJ138"/>
+    <mergeCell ref="AD237:AG240"/>
+    <mergeCell ref="AJ237:AL240"/>
+    <mergeCell ref="AH237:AI240"/>
+    <mergeCell ref="AD235:AL235"/>
+    <mergeCell ref="AE144:AJ144"/>
+    <mergeCell ref="AE143:AJ143"/>
+    <mergeCell ref="AE142:AJ142"/>
+    <mergeCell ref="AE146:AJ146"/>
+    <mergeCell ref="AE147:AJ147"/>
+    <mergeCell ref="AE154:AJ154"/>
+    <mergeCell ref="Y162:AD162"/>
+    <mergeCell ref="AE161:AJ161"/>
+    <mergeCell ref="AE160:AJ160"/>
+    <mergeCell ref="AE156:AJ156"/>
+    <mergeCell ref="AE157:AJ157"/>
+    <mergeCell ref="AE158:AJ158"/>
+    <mergeCell ref="AE159:AJ159"/>
+    <mergeCell ref="AH245:AI248"/>
+    <mergeCell ref="AJ245:AL248"/>
+    <mergeCell ref="AJ249:AL250"/>
+    <mergeCell ref="AH249:AI250"/>
+    <mergeCell ref="AD249:AG250"/>
+    <mergeCell ref="AD241:AG244"/>
+    <mergeCell ref="AH241:AI244"/>
+    <mergeCell ref="AJ241:AL244"/>
+    <mergeCell ref="S183:X183"/>
+    <mergeCell ref="S161:X161"/>
+    <mergeCell ref="Y153:AD153"/>
+    <mergeCell ref="Y154:AD154"/>
+    <mergeCell ref="Y147:AD147"/>
+    <mergeCell ref="S142:X142"/>
+    <mergeCell ref="S149:X149"/>
+    <mergeCell ref="S150:X150"/>
+    <mergeCell ref="S152:X152"/>
+    <mergeCell ref="S143:X143"/>
+    <mergeCell ref="S144:X144"/>
+    <mergeCell ref="Y161:AD161"/>
+    <mergeCell ref="Y160:AD160"/>
+    <mergeCell ref="AE167:AJ167"/>
+    <mergeCell ref="AE168:AJ168"/>
+    <mergeCell ref="AE182:AJ182"/>
+    <mergeCell ref="AE183:AJ183"/>
+    <mergeCell ref="Y182:AD182"/>
+    <mergeCell ref="Y183:AD183"/>
+    <mergeCell ref="Y163:AD163"/>
+    <mergeCell ref="Y167:AD167"/>
+    <mergeCell ref="Y168:AD168"/>
+    <mergeCell ref="AE169:AJ169"/>
+    <mergeCell ref="AE170:AJ170"/>
+    <mergeCell ref="Y166:AD166"/>
+    <mergeCell ref="Y179:AD179"/>
+    <mergeCell ref="AE179:AJ179"/>
+    <mergeCell ref="AE181:AJ181"/>
+    <mergeCell ref="Y181:AD181"/>
+    <mergeCell ref="AE173:AJ173"/>
+    <mergeCell ref="Y171:AD171"/>
+    <mergeCell ref="AE171:AJ171"/>
+    <mergeCell ref="Y172:AD172"/>
+    <mergeCell ref="AE172:AJ172"/>
+    <mergeCell ref="S136:X136"/>
+    <mergeCell ref="S145:X145"/>
+    <mergeCell ref="S146:X146"/>
+    <mergeCell ref="S147:X147"/>
+    <mergeCell ref="S138:X138"/>
+    <mergeCell ref="S139:X139"/>
+    <mergeCell ref="S140:X140"/>
+    <mergeCell ref="S141:X141"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="AE155:AJ155"/>
+    <mergeCell ref="Y132:AD132"/>
+    <mergeCell ref="Y134:AD134"/>
+    <mergeCell ref="Y135:AD135"/>
+    <mergeCell ref="Y136:AD136"/>
+    <mergeCell ref="Y130:AD130"/>
+    <mergeCell ref="Y131:AD131"/>
+    <mergeCell ref="Y145:AD145"/>
+    <mergeCell ref="Y146:AD146"/>
+    <mergeCell ref="Y133:AD133"/>
+    <mergeCell ref="Y138:AD138"/>
+    <mergeCell ref="Y139:AD139"/>
+    <mergeCell ref="Y140:AD140"/>
+    <mergeCell ref="Y141:AD141"/>
+    <mergeCell ref="Y142:AD142"/>
+    <mergeCell ref="AE148:AJ148"/>
+    <mergeCell ref="AE151:AJ151"/>
+    <mergeCell ref="Y152:AD152"/>
+    <mergeCell ref="AE141:AJ141"/>
+    <mergeCell ref="AE140:AJ140"/>
+    <mergeCell ref="AE139:AJ139"/>
+    <mergeCell ref="AE149:AJ149"/>
+    <mergeCell ref="Y149:AD149"/>
+    <mergeCell ref="Y137:AD137"/>
+    <mergeCell ref="S125:X125"/>
+    <mergeCell ref="Y125:AD125"/>
+    <mergeCell ref="Y126:AD126"/>
+    <mergeCell ref="AE125:AJ125"/>
+    <mergeCell ref="AE126:AJ126"/>
+    <mergeCell ref="S153:X153"/>
+    <mergeCell ref="S154:X154"/>
+    <mergeCell ref="Y155:AD155"/>
+    <mergeCell ref="Y156:AD156"/>
+    <mergeCell ref="S126:X126"/>
+    <mergeCell ref="AE150:AJ150"/>
+    <mergeCell ref="AE153:AJ153"/>
+    <mergeCell ref="S155:X155"/>
+    <mergeCell ref="AE128:AJ128"/>
+    <mergeCell ref="AE129:AJ129"/>
+    <mergeCell ref="AE152:AJ152"/>
+    <mergeCell ref="AE130:AJ130"/>
+    <mergeCell ref="S151:X151"/>
+    <mergeCell ref="AE131:AJ131"/>
+    <mergeCell ref="AE132:AJ132"/>
+    <mergeCell ref="AE134:AJ134"/>
+    <mergeCell ref="AE135:AJ135"/>
+    <mergeCell ref="AE136:AJ136"/>
+    <mergeCell ref="AE145:AJ145"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="L48:AD48"/>
+    <mergeCell ref="L49:AD49"/>
+    <mergeCell ref="L19:AD19"/>
+    <mergeCell ref="L20:AD20"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="L41:AD41"/>
+    <mergeCell ref="L42:AD42"/>
+    <mergeCell ref="L44:AD44"/>
+    <mergeCell ref="L40:AD40"/>
+    <mergeCell ref="L43:AD43"/>
+    <mergeCell ref="L45:AD45"/>
+    <mergeCell ref="L50:AD50"/>
+    <mergeCell ref="AE133:AJ133"/>
+    <mergeCell ref="AD264:AG264"/>
+    <mergeCell ref="AH257:AI257"/>
+    <mergeCell ref="AH258:AI258"/>
+    <mergeCell ref="AH259:AI259"/>
+    <mergeCell ref="AH260:AI260"/>
+    <mergeCell ref="AH261:AI261"/>
+    <mergeCell ref="AH262:AI262"/>
+    <mergeCell ref="AH264:AI264"/>
+    <mergeCell ref="AJ257:AL257"/>
+    <mergeCell ref="AJ258:AL258"/>
+    <mergeCell ref="AJ259:AL259"/>
+    <mergeCell ref="AJ260:AL260"/>
+    <mergeCell ref="AJ261:AL261"/>
+    <mergeCell ref="AJ262:AL262"/>
+    <mergeCell ref="AJ264:AL264"/>
+    <mergeCell ref="AD263:AG263"/>
+    <mergeCell ref="AH263:AI263"/>
+    <mergeCell ref="AJ263:AL263"/>
+    <mergeCell ref="AD255:AL255"/>
+    <mergeCell ref="AD257:AG257"/>
+    <mergeCell ref="AD258:AG258"/>
+    <mergeCell ref="AD259:AG259"/>
+    <mergeCell ref="AD260:AG260"/>
+    <mergeCell ref="AD261:AG261"/>
+    <mergeCell ref="AD262:AG262"/>
+    <mergeCell ref="AD245:AG248"/>
+    <mergeCell ref="AE174:AJ174"/>
+    <mergeCell ref="S175:X175"/>
+    <mergeCell ref="Y175:AD175"/>
+    <mergeCell ref="AE175:AJ175"/>
+    <mergeCell ref="S176:X176"/>
+    <mergeCell ref="Y176:AD176"/>
+    <mergeCell ref="AE176:AJ176"/>
+    <mergeCell ref="S184:X184"/>
+    <mergeCell ref="Y184:AD184"/>
+    <mergeCell ref="AE184:AJ184"/>
+    <mergeCell ref="S180:X180"/>
+    <mergeCell ref="Y180:AD180"/>
+    <mergeCell ref="AE180:AJ180"/>
+    <mergeCell ref="S177:X177"/>
+    <mergeCell ref="Y177:AD177"/>
+    <mergeCell ref="AE177:AJ177"/>
+    <mergeCell ref="S178:X178"/>
+    <mergeCell ref="Y178:AD178"/>
+    <mergeCell ref="AE178:AJ178"/>
+    <mergeCell ref="S179:X179"/>
+    <mergeCell ref="S162:X162"/>
+    <mergeCell ref="S174:X174"/>
+    <mergeCell ref="Y174:AD174"/>
+    <mergeCell ref="Y165:AD165"/>
+    <mergeCell ref="Y164:AD164"/>
+    <mergeCell ref="Y169:AD169"/>
+    <mergeCell ref="S163:X163"/>
+    <mergeCell ref="S167:X167"/>
+    <mergeCell ref="S165:X165"/>
+    <mergeCell ref="S169:X169"/>
+    <mergeCell ref="Y170:AD170"/>
+    <mergeCell ref="S168:X168"/>
+    <mergeCell ref="S170:X170"/>
+    <mergeCell ref="S166:X166"/>
+    <mergeCell ref="S164:X164"/>
+    <mergeCell ref="S173:X173"/>
+    <mergeCell ref="Y173:AD173"/>
+    <mergeCell ref="S171:X171"/>
+    <mergeCell ref="S172:X172"/>
     <mergeCell ref="Y129:AD129"/>
     <mergeCell ref="S129:X129"/>
     <mergeCell ref="Y128:AD128"/>
@@ -18174,216 +18384,6 @@
     <mergeCell ref="Y148:AD148"/>
     <mergeCell ref="S158:X158"/>
     <mergeCell ref="S148:X148"/>
-    <mergeCell ref="S162:X162"/>
-    <mergeCell ref="S174:X174"/>
-    <mergeCell ref="Y174:AD174"/>
-    <mergeCell ref="Y165:AD165"/>
-    <mergeCell ref="Y164:AD164"/>
-    <mergeCell ref="Y169:AD169"/>
-    <mergeCell ref="S163:X163"/>
-    <mergeCell ref="S167:X167"/>
-    <mergeCell ref="S165:X165"/>
-    <mergeCell ref="S169:X169"/>
-    <mergeCell ref="Y170:AD170"/>
-    <mergeCell ref="S168:X168"/>
-    <mergeCell ref="S170:X170"/>
-    <mergeCell ref="S166:X166"/>
-    <mergeCell ref="S164:X164"/>
-    <mergeCell ref="S173:X173"/>
-    <mergeCell ref="Y173:AD173"/>
-    <mergeCell ref="AD260:AG260"/>
-    <mergeCell ref="AD261:AG261"/>
-    <mergeCell ref="AD262:AG262"/>
-    <mergeCell ref="AD245:AG248"/>
-    <mergeCell ref="AE174:AJ174"/>
-    <mergeCell ref="S175:X175"/>
-    <mergeCell ref="Y175:AD175"/>
-    <mergeCell ref="AE175:AJ175"/>
-    <mergeCell ref="S176:X176"/>
-    <mergeCell ref="Y176:AD176"/>
-    <mergeCell ref="AE176:AJ176"/>
-    <mergeCell ref="S184:X184"/>
-    <mergeCell ref="Y184:AD184"/>
-    <mergeCell ref="AE184:AJ184"/>
-    <mergeCell ref="S180:X180"/>
-    <mergeCell ref="Y180:AD180"/>
-    <mergeCell ref="AE180:AJ180"/>
-    <mergeCell ref="S177:X177"/>
-    <mergeCell ref="Y177:AD177"/>
-    <mergeCell ref="AE177:AJ177"/>
-    <mergeCell ref="S178:X178"/>
-    <mergeCell ref="Y178:AD178"/>
-    <mergeCell ref="AE178:AJ178"/>
-    <mergeCell ref="S179:X179"/>
-    <mergeCell ref="L50:AD50"/>
-    <mergeCell ref="AE133:AJ133"/>
-    <mergeCell ref="AD264:AG264"/>
-    <mergeCell ref="AH257:AI257"/>
-    <mergeCell ref="AH258:AI258"/>
-    <mergeCell ref="AH259:AI259"/>
-    <mergeCell ref="AH260:AI260"/>
-    <mergeCell ref="AH261:AI261"/>
-    <mergeCell ref="AH262:AI262"/>
-    <mergeCell ref="AH264:AI264"/>
-    <mergeCell ref="AJ257:AL257"/>
-    <mergeCell ref="AJ258:AL258"/>
-    <mergeCell ref="AJ259:AL259"/>
-    <mergeCell ref="AJ260:AL260"/>
-    <mergeCell ref="AJ261:AL261"/>
-    <mergeCell ref="AJ262:AL262"/>
-    <mergeCell ref="AJ264:AL264"/>
-    <mergeCell ref="AD263:AG263"/>
-    <mergeCell ref="AH263:AI263"/>
-    <mergeCell ref="AJ263:AL263"/>
-    <mergeCell ref="AD255:AL255"/>
-    <mergeCell ref="AD257:AG257"/>
-    <mergeCell ref="AD258:AG258"/>
-    <mergeCell ref="AD259:AG259"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="L48:AD48"/>
-    <mergeCell ref="L49:AD49"/>
-    <mergeCell ref="L19:AD19"/>
-    <mergeCell ref="L20:AD20"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="L41:AD41"/>
-    <mergeCell ref="L42:AD42"/>
-    <mergeCell ref="L44:AD44"/>
-    <mergeCell ref="L40:AD40"/>
-    <mergeCell ref="L43:AD43"/>
-    <mergeCell ref="L45:AD45"/>
-    <mergeCell ref="S125:X125"/>
-    <mergeCell ref="Y125:AD125"/>
-    <mergeCell ref="Y126:AD126"/>
-    <mergeCell ref="AE125:AJ125"/>
-    <mergeCell ref="AE126:AJ126"/>
-    <mergeCell ref="S153:X153"/>
-    <mergeCell ref="S154:X154"/>
-    <mergeCell ref="Y155:AD155"/>
-    <mergeCell ref="Y156:AD156"/>
-    <mergeCell ref="S126:X126"/>
-    <mergeCell ref="AE150:AJ150"/>
-    <mergeCell ref="AE153:AJ153"/>
-    <mergeCell ref="S155:X155"/>
-    <mergeCell ref="AE128:AJ128"/>
-    <mergeCell ref="AE129:AJ129"/>
-    <mergeCell ref="AE152:AJ152"/>
-    <mergeCell ref="AE130:AJ130"/>
-    <mergeCell ref="S151:X151"/>
-    <mergeCell ref="AE131:AJ131"/>
-    <mergeCell ref="AE132:AJ132"/>
-    <mergeCell ref="AE134:AJ134"/>
-    <mergeCell ref="AE135:AJ135"/>
-    <mergeCell ref="AE136:AJ136"/>
-    <mergeCell ref="AE145:AJ145"/>
-    <mergeCell ref="AE155:AJ155"/>
-    <mergeCell ref="Y132:AD132"/>
-    <mergeCell ref="Y134:AD134"/>
-    <mergeCell ref="Y135:AD135"/>
-    <mergeCell ref="Y136:AD136"/>
-    <mergeCell ref="Y130:AD130"/>
-    <mergeCell ref="Y131:AD131"/>
-    <mergeCell ref="Y145:AD145"/>
-    <mergeCell ref="Y146:AD146"/>
-    <mergeCell ref="Y133:AD133"/>
-    <mergeCell ref="Y138:AD138"/>
-    <mergeCell ref="Y139:AD139"/>
-    <mergeCell ref="Y140:AD140"/>
-    <mergeCell ref="Y141:AD141"/>
-    <mergeCell ref="Y142:AD142"/>
-    <mergeCell ref="AE148:AJ148"/>
-    <mergeCell ref="AE151:AJ151"/>
-    <mergeCell ref="Y152:AD152"/>
-    <mergeCell ref="AE141:AJ141"/>
-    <mergeCell ref="AE140:AJ140"/>
-    <mergeCell ref="AE139:AJ139"/>
-    <mergeCell ref="AE149:AJ149"/>
-    <mergeCell ref="Y149:AD149"/>
-    <mergeCell ref="Y137:AD137"/>
-    <mergeCell ref="S136:X136"/>
-    <mergeCell ref="S145:X145"/>
-    <mergeCell ref="S146:X146"/>
-    <mergeCell ref="S147:X147"/>
-    <mergeCell ref="S138:X138"/>
-    <mergeCell ref="S139:X139"/>
-    <mergeCell ref="S140:X140"/>
-    <mergeCell ref="S141:X141"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="AE167:AJ167"/>
-    <mergeCell ref="AE168:AJ168"/>
-    <mergeCell ref="AE182:AJ182"/>
-    <mergeCell ref="AE183:AJ183"/>
-    <mergeCell ref="Y182:AD182"/>
-    <mergeCell ref="Y183:AD183"/>
-    <mergeCell ref="Y163:AD163"/>
-    <mergeCell ref="Y167:AD167"/>
-    <mergeCell ref="Y168:AD168"/>
-    <mergeCell ref="AE169:AJ169"/>
-    <mergeCell ref="AE170:AJ170"/>
-    <mergeCell ref="Y166:AD166"/>
-    <mergeCell ref="Y179:AD179"/>
-    <mergeCell ref="AE179:AJ179"/>
-    <mergeCell ref="AE181:AJ181"/>
-    <mergeCell ref="Y181:AD181"/>
-    <mergeCell ref="AE173:AJ173"/>
-    <mergeCell ref="S161:X161"/>
-    <mergeCell ref="Y153:AD153"/>
-    <mergeCell ref="Y154:AD154"/>
-    <mergeCell ref="Y147:AD147"/>
-    <mergeCell ref="S142:X142"/>
-    <mergeCell ref="S149:X149"/>
-    <mergeCell ref="S150:X150"/>
-    <mergeCell ref="S152:X152"/>
-    <mergeCell ref="S143:X143"/>
-    <mergeCell ref="S144:X144"/>
-    <mergeCell ref="Y161:AD161"/>
-    <mergeCell ref="Y160:AD160"/>
-    <mergeCell ref="S171:X171"/>
-    <mergeCell ref="Y171:AD171"/>
-    <mergeCell ref="AE171:AJ171"/>
-    <mergeCell ref="S172:X172"/>
-    <mergeCell ref="Y172:AD172"/>
-    <mergeCell ref="AE172:AJ172"/>
-    <mergeCell ref="AH245:AI248"/>
-    <mergeCell ref="AJ245:AL248"/>
-    <mergeCell ref="AJ249:AL250"/>
-    <mergeCell ref="AH249:AI250"/>
-    <mergeCell ref="AD249:AG250"/>
-    <mergeCell ref="AD241:AG244"/>
-    <mergeCell ref="AH241:AI244"/>
-    <mergeCell ref="AJ241:AL244"/>
-    <mergeCell ref="S183:X183"/>
-    <mergeCell ref="S181:X181"/>
-    <mergeCell ref="S182:X182"/>
-    <mergeCell ref="AE137:AJ137"/>
-    <mergeCell ref="AE164:AJ164"/>
-    <mergeCell ref="AE165:AJ165"/>
-    <mergeCell ref="AE166:AJ166"/>
-    <mergeCell ref="AE138:AJ138"/>
-    <mergeCell ref="AD237:AG240"/>
-    <mergeCell ref="AJ237:AL240"/>
-    <mergeCell ref="AH237:AI240"/>
-    <mergeCell ref="AD235:AL235"/>
-    <mergeCell ref="AE144:AJ144"/>
-    <mergeCell ref="AE143:AJ143"/>
-    <mergeCell ref="AE142:AJ142"/>
-    <mergeCell ref="AE146:AJ146"/>
-    <mergeCell ref="AE147:AJ147"/>
-    <mergeCell ref="AE154:AJ154"/>
-    <mergeCell ref="Y162:AD162"/>
-    <mergeCell ref="AE161:AJ161"/>
-    <mergeCell ref="AE160:AJ160"/>
-    <mergeCell ref="AE156:AJ156"/>
-    <mergeCell ref="AE157:AJ157"/>
-    <mergeCell ref="AE158:AJ158"/>
-    <mergeCell ref="AE159:AJ159"/>
-    <mergeCell ref="AE162:AJ162"/>
-    <mergeCell ref="AE163:AJ163"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
+++ b/skrum_docs/02_SpecificationDocs/RequirementDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -3290,7 +3290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3318,6 +3318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4524,7 +4530,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -4707,6 +4713,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4716,13 +4749,130 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4752,148 +4902,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7241,15 +7256,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="H1" s="47"/>
       <c r="I1" s="44" t="s">
         <v>70</v>
@@ -7260,53 +7275,53 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="46"/>
-      <c r="P1" s="225" t="s">
+      <c r="P1" s="228" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="227"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="230"/>
       <c r="AA1" s="44" t="s">
         <v>65</v>
       </c>
       <c r="AB1" s="42"/>
       <c r="AC1" s="43"/>
-      <c r="AD1" s="222">
+      <c r="AD1" s="225">
         <v>42760</v>
       </c>
-      <c r="AE1" s="223"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="223"/>
-      <c r="AH1" s="224"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="227"/>
       <c r="AI1" s="44" t="s">
         <v>67</v>
       </c>
       <c r="AJ1" s="45"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="213" t="s">
+      <c r="AL1" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="214"/>
-      <c r="AN1" s="214"/>
-      <c r="AO1" s="214"/>
-      <c r="AP1" s="215"/>
+      <c r="AM1" s="217"/>
+      <c r="AN1" s="217"/>
+      <c r="AO1" s="217"/>
+      <c r="AP1" s="218"/>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="219"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="221"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="224"/>
       <c r="H2" s="48"/>
       <c r="I2" s="44" t="s">
         <v>71</v>
@@ -7317,41 +7332,41 @@
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="230"/>
       <c r="AA2" s="44" t="s">
         <v>66</v>
       </c>
       <c r="AB2" s="42"/>
       <c r="AC2" s="43"/>
-      <c r="AD2" s="222">
+      <c r="AD2" s="225">
         <v>42991</v>
       </c>
-      <c r="AE2" s="223"/>
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="223"/>
-      <c r="AH2" s="224"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="227"/>
       <c r="AI2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="AJ2" s="45"/>
       <c r="AK2" s="46"/>
-      <c r="AL2" s="213" t="s">
+      <c r="AL2" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="215"/>
+      <c r="AM2" s="217"/>
+      <c r="AN2" s="217"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="218"/>
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
@@ -7889,27 +7904,27 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="204" t="s">
+      <c r="L19" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="205"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="205"/>
-      <c r="W19" s="205"/>
-      <c r="X19" s="205"/>
-      <c r="Y19" s="205"/>
-      <c r="Z19" s="205"/>
-      <c r="AA19" s="205"/>
-      <c r="AB19" s="205"/>
-      <c r="AC19" s="205"/>
-      <c r="AD19" s="206"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="202"/>
+      <c r="R19" s="202"/>
+      <c r="S19" s="202"/>
+      <c r="T19" s="202"/>
+      <c r="U19" s="202"/>
+      <c r="V19" s="202"/>
+      <c r="W19" s="202"/>
+      <c r="X19" s="202"/>
+      <c r="Y19" s="202"/>
+      <c r="Z19" s="202"/>
+      <c r="AA19" s="202"/>
+      <c r="AB19" s="202"/>
+      <c r="AC19" s="202"/>
+      <c r="AD19" s="203"/>
       <c r="AE19" s="2"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="2"/>
@@ -7925,27 +7940,27 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="204" t="s">
+      <c r="L20" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
-      <c r="U20" s="205"/>
-      <c r="V20" s="205"/>
-      <c r="W20" s="205"/>
-      <c r="X20" s="205"/>
-      <c r="Y20" s="205"/>
-      <c r="Z20" s="205"/>
-      <c r="AA20" s="205"/>
-      <c r="AB20" s="205"/>
-      <c r="AC20" s="205"/>
-      <c r="AD20" s="206"/>
+      <c r="M20" s="202"/>
+      <c r="N20" s="202"/>
+      <c r="O20" s="202"/>
+      <c r="P20" s="202"/>
+      <c r="Q20" s="202"/>
+      <c r="R20" s="202"/>
+      <c r="S20" s="202"/>
+      <c r="T20" s="202"/>
+      <c r="U20" s="202"/>
+      <c r="V20" s="202"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="202"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
+      <c r="AD20" s="203"/>
       <c r="AE20" s="2"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="2"/>
@@ -7961,27 +7976,27 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="204" t="s">
+      <c r="L21" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="205"/>
-      <c r="U21" s="205"/>
-      <c r="V21" s="205"/>
-      <c r="W21" s="205"/>
-      <c r="X21" s="205"/>
-      <c r="Y21" s="205"/>
-      <c r="Z21" s="205"/>
-      <c r="AA21" s="205"/>
-      <c r="AB21" s="205"/>
-      <c r="AC21" s="205"/>
-      <c r="AD21" s="206"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="202"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="202"/>
+      <c r="R21" s="202"/>
+      <c r="S21" s="202"/>
+      <c r="T21" s="202"/>
+      <c r="U21" s="202"/>
+      <c r="V21" s="202"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="202"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
+      <c r="AD21" s="203"/>
       <c r="AE21" s="2"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="2"/>
@@ -8435,27 +8450,27 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="189" t="s">
+      <c r="L40" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="M40" s="190"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="190"/>
-      <c r="P40" s="190"/>
-      <c r="Q40" s="190"/>
-      <c r="R40" s="190"/>
-      <c r="S40" s="190"/>
-      <c r="T40" s="190"/>
-      <c r="U40" s="190"/>
-      <c r="V40" s="190"/>
-      <c r="W40" s="190"/>
-      <c r="X40" s="190"/>
-      <c r="Y40" s="190"/>
-      <c r="Z40" s="190"/>
-      <c r="AA40" s="190"/>
-      <c r="AB40" s="190"/>
-      <c r="AC40" s="190"/>
-      <c r="AD40" s="191"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="214"/>
+      <c r="P40" s="214"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="214"/>
+      <c r="S40" s="214"/>
+      <c r="T40" s="214"/>
+      <c r="U40" s="214"/>
+      <c r="V40" s="214"/>
+      <c r="W40" s="214"/>
+      <c r="X40" s="214"/>
+      <c r="Y40" s="214"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="214"/>
+      <c r="AB40" s="214"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="215"/>
       <c r="AE40" s="2"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="2"/>
@@ -8471,27 +8486,27 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="204" t="s">
+      <c r="L41" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="205"/>
-      <c r="N41" s="205"/>
-      <c r="O41" s="205"/>
-      <c r="P41" s="205"/>
-      <c r="Q41" s="205"/>
-      <c r="R41" s="205"/>
-      <c r="S41" s="205"/>
-      <c r="T41" s="205"/>
-      <c r="U41" s="205"/>
-      <c r="V41" s="205"/>
-      <c r="W41" s="205"/>
-      <c r="X41" s="205"/>
-      <c r="Y41" s="205"/>
-      <c r="Z41" s="205"/>
-      <c r="AA41" s="205"/>
-      <c r="AB41" s="205"/>
-      <c r="AC41" s="205"/>
-      <c r="AD41" s="206"/>
+      <c r="M41" s="202"/>
+      <c r="N41" s="202"/>
+      <c r="O41" s="202"/>
+      <c r="P41" s="202"/>
+      <c r="Q41" s="202"/>
+      <c r="R41" s="202"/>
+      <c r="S41" s="202"/>
+      <c r="T41" s="202"/>
+      <c r="U41" s="202"/>
+      <c r="V41" s="202"/>
+      <c r="W41" s="202"/>
+      <c r="X41" s="202"/>
+      <c r="Y41" s="202"/>
+      <c r="Z41" s="202"/>
+      <c r="AA41" s="202"/>
+      <c r="AB41" s="202"/>
+      <c r="AC41" s="202"/>
+      <c r="AD41" s="203"/>
       <c r="AE41" s="2"/>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="2"/>
@@ -8507,27 +8522,27 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="204" t="s">
+      <c r="L42" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="M42" s="205"/>
-      <c r="N42" s="205"/>
-      <c r="O42" s="205"/>
-      <c r="P42" s="205"/>
-      <c r="Q42" s="205"/>
-      <c r="R42" s="205"/>
-      <c r="S42" s="205"/>
-      <c r="T42" s="205"/>
-      <c r="U42" s="205"/>
-      <c r="V42" s="205"/>
-      <c r="W42" s="205"/>
-      <c r="X42" s="205"/>
-      <c r="Y42" s="205"/>
-      <c r="Z42" s="205"/>
-      <c r="AA42" s="205"/>
-      <c r="AB42" s="205"/>
-      <c r="AC42" s="205"/>
-      <c r="AD42" s="206"/>
+      <c r="M42" s="202"/>
+      <c r="N42" s="202"/>
+      <c r="O42" s="202"/>
+      <c r="P42" s="202"/>
+      <c r="Q42" s="202"/>
+      <c r="R42" s="202"/>
+      <c r="S42" s="202"/>
+      <c r="T42" s="202"/>
+      <c r="U42" s="202"/>
+      <c r="V42" s="202"/>
+      <c r="W42" s="202"/>
+      <c r="X42" s="202"/>
+      <c r="Y42" s="202"/>
+      <c r="Z42" s="202"/>
+      <c r="AA42" s="202"/>
+      <c r="AB42" s="202"/>
+      <c r="AC42" s="202"/>
+      <c r="AD42" s="203"/>
       <c r="AE42" s="2"/>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="2"/>
@@ -8543,27 +8558,27 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="33"/>
-      <c r="L43" s="204" t="s">
+      <c r="L43" s="201" t="s">
         <v>296</v>
       </c>
-      <c r="M43" s="205"/>
-      <c r="N43" s="205"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="205"/>
-      <c r="Q43" s="205"/>
-      <c r="R43" s="205"/>
-      <c r="S43" s="205"/>
-      <c r="T43" s="205"/>
-      <c r="U43" s="205"/>
-      <c r="V43" s="205"/>
-      <c r="W43" s="205"/>
-      <c r="X43" s="205"/>
-      <c r="Y43" s="205"/>
-      <c r="Z43" s="205"/>
-      <c r="AA43" s="205"/>
-      <c r="AB43" s="205"/>
-      <c r="AC43" s="205"/>
-      <c r="AD43" s="206"/>
+      <c r="M43" s="202"/>
+      <c r="N43" s="202"/>
+      <c r="O43" s="202"/>
+      <c r="P43" s="202"/>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="202"/>
+      <c r="S43" s="202"/>
+      <c r="T43" s="202"/>
+      <c r="U43" s="202"/>
+      <c r="V43" s="202"/>
+      <c r="W43" s="202"/>
+      <c r="X43" s="202"/>
+      <c r="Y43" s="202"/>
+      <c r="Z43" s="202"/>
+      <c r="AA43" s="202"/>
+      <c r="AB43" s="202"/>
+      <c r="AC43" s="202"/>
+      <c r="AD43" s="203"/>
       <c r="AE43" s="2"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="2"/>
@@ -8579,27 +8594,27 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="33"/>
-      <c r="L44" s="204" t="s">
+      <c r="L44" s="201" t="s">
         <v>297</v>
       </c>
-      <c r="M44" s="205"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="205"/>
-      <c r="Q44" s="205"/>
-      <c r="R44" s="205"/>
-      <c r="S44" s="205"/>
-      <c r="T44" s="205"/>
-      <c r="U44" s="205"/>
-      <c r="V44" s="205"/>
-      <c r="W44" s="205"/>
-      <c r="X44" s="205"/>
-      <c r="Y44" s="205"/>
-      <c r="Z44" s="205"/>
-      <c r="AA44" s="205"/>
-      <c r="AB44" s="205"/>
-      <c r="AC44" s="205"/>
-      <c r="AD44" s="206"/>
+      <c r="M44" s="202"/>
+      <c r="N44" s="202"/>
+      <c r="O44" s="202"/>
+      <c r="P44" s="202"/>
+      <c r="Q44" s="202"/>
+      <c r="R44" s="202"/>
+      <c r="S44" s="202"/>
+      <c r="T44" s="202"/>
+      <c r="U44" s="202"/>
+      <c r="V44" s="202"/>
+      <c r="W44" s="202"/>
+      <c r="X44" s="202"/>
+      <c r="Y44" s="202"/>
+      <c r="Z44" s="202"/>
+      <c r="AA44" s="202"/>
+      <c r="AB44" s="202"/>
+      <c r="AC44" s="202"/>
+      <c r="AD44" s="203"/>
       <c r="AE44" s="2"/>
       <c r="AP44" s="5"/>
       <c r="AQ44" s="2"/>
@@ -8615,27 +8630,27 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="33"/>
-      <c r="L45" s="204" t="s">
+      <c r="L45" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="M45" s="205"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="205"/>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="205"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="205"/>
-      <c r="U45" s="205"/>
-      <c r="V45" s="205"/>
-      <c r="W45" s="205"/>
-      <c r="X45" s="205"/>
-      <c r="Y45" s="205"/>
-      <c r="Z45" s="205"/>
-      <c r="AA45" s="205"/>
-      <c r="AB45" s="205"/>
-      <c r="AC45" s="205"/>
-      <c r="AD45" s="206"/>
+      <c r="M45" s="202"/>
+      <c r="N45" s="202"/>
+      <c r="O45" s="202"/>
+      <c r="P45" s="202"/>
+      <c r="Q45" s="202"/>
+      <c r="R45" s="202"/>
+      <c r="S45" s="202"/>
+      <c r="T45" s="202"/>
+      <c r="U45" s="202"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202"/>
+      <c r="X45" s="202"/>
+      <c r="Y45" s="202"/>
+      <c r="Z45" s="202"/>
+      <c r="AA45" s="202"/>
+      <c r="AB45" s="202"/>
+      <c r="AC45" s="202"/>
+      <c r="AD45" s="203"/>
       <c r="AE45" s="2"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="2"/>
@@ -8710,27 +8725,27 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="189" t="s">
+      <c r="L48" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="190"/>
-      <c r="N48" s="190"/>
-      <c r="O48" s="190"/>
-      <c r="P48" s="190"/>
-      <c r="Q48" s="190"/>
-      <c r="R48" s="190"/>
-      <c r="S48" s="190"/>
-      <c r="T48" s="190"/>
-      <c r="U48" s="190"/>
-      <c r="V48" s="190"/>
-      <c r="W48" s="190"/>
-      <c r="X48" s="190"/>
-      <c r="Y48" s="190"/>
-      <c r="Z48" s="190"/>
-      <c r="AA48" s="190"/>
-      <c r="AB48" s="190"/>
-      <c r="AC48" s="190"/>
-      <c r="AD48" s="191"/>
+      <c r="M48" s="214"/>
+      <c r="N48" s="214"/>
+      <c r="O48" s="214"/>
+      <c r="P48" s="214"/>
+      <c r="Q48" s="214"/>
+      <c r="R48" s="214"/>
+      <c r="S48" s="214"/>
+      <c r="T48" s="214"/>
+      <c r="U48" s="214"/>
+      <c r="V48" s="214"/>
+      <c r="W48" s="214"/>
+      <c r="X48" s="214"/>
+      <c r="Y48" s="214"/>
+      <c r="Z48" s="214"/>
+      <c r="AA48" s="214"/>
+      <c r="AB48" s="214"/>
+      <c r="AC48" s="214"/>
+      <c r="AD48" s="215"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="2"/>
     </row>
@@ -8744,27 +8759,27 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="204" t="s">
+      <c r="L49" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="M49" s="205"/>
-      <c r="N49" s="205"/>
-      <c r="O49" s="205"/>
-      <c r="P49" s="205"/>
-      <c r="Q49" s="205"/>
-      <c r="R49" s="205"/>
-      <c r="S49" s="205"/>
-      <c r="T49" s="205"/>
-      <c r="U49" s="205"/>
-      <c r="V49" s="205"/>
-      <c r="W49" s="205"/>
-      <c r="X49" s="205"/>
-      <c r="Y49" s="205"/>
-      <c r="Z49" s="205"/>
-      <c r="AA49" s="205"/>
-      <c r="AB49" s="205"/>
-      <c r="AC49" s="205"/>
-      <c r="AD49" s="206"/>
+      <c r="M49" s="202"/>
+      <c r="N49" s="202"/>
+      <c r="O49" s="202"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="202"/>
+      <c r="R49" s="202"/>
+      <c r="S49" s="202"/>
+      <c r="T49" s="202"/>
+      <c r="U49" s="202"/>
+      <c r="V49" s="202"/>
+      <c r="W49" s="202"/>
+      <c r="X49" s="202"/>
+      <c r="Y49" s="202"/>
+      <c r="Z49" s="202"/>
+      <c r="AA49" s="202"/>
+      <c r="AB49" s="202"/>
+      <c r="AC49" s="202"/>
+      <c r="AD49" s="203"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="2"/>
     </row>
@@ -8778,27 +8793,27 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
-      <c r="L50" s="204" t="s">
+      <c r="L50" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="M50" s="205"/>
-      <c r="N50" s="205"/>
-      <c r="O50" s="205"/>
-      <c r="P50" s="205"/>
-      <c r="Q50" s="205"/>
-      <c r="R50" s="205"/>
-      <c r="S50" s="205"/>
-      <c r="T50" s="205"/>
-      <c r="U50" s="205"/>
-      <c r="V50" s="205"/>
-      <c r="W50" s="205"/>
-      <c r="X50" s="205"/>
-      <c r="Y50" s="205"/>
-      <c r="Z50" s="205"/>
-      <c r="AA50" s="205"/>
-      <c r="AB50" s="205"/>
-      <c r="AC50" s="205"/>
-      <c r="AD50" s="206"/>
+      <c r="M50" s="202"/>
+      <c r="N50" s="202"/>
+      <c r="O50" s="202"/>
+      <c r="P50" s="202"/>
+      <c r="Q50" s="202"/>
+      <c r="R50" s="202"/>
+      <c r="S50" s="202"/>
+      <c r="T50" s="202"/>
+      <c r="U50" s="202"/>
+      <c r="V50" s="202"/>
+      <c r="W50" s="202"/>
+      <c r="X50" s="202"/>
+      <c r="Y50" s="202"/>
+      <c r="Z50" s="202"/>
+      <c r="AA50" s="202"/>
+      <c r="AB50" s="202"/>
+      <c r="AC50" s="202"/>
+      <c r="AD50" s="203"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="2"/>
     </row>
@@ -11401,30 +11416,30 @@
       <c r="P125" s="53"/>
       <c r="Q125" s="53"/>
       <c r="R125" s="54"/>
-      <c r="S125" s="189" t="s">
+      <c r="S125" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="T125" s="190"/>
-      <c r="U125" s="190"/>
-      <c r="V125" s="190"/>
-      <c r="W125" s="190"/>
-      <c r="X125" s="191"/>
-      <c r="Y125" s="189" t="s">
+      <c r="T125" s="214"/>
+      <c r="U125" s="214"/>
+      <c r="V125" s="214"/>
+      <c r="W125" s="214"/>
+      <c r="X125" s="215"/>
+      <c r="Y125" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="Z125" s="190"/>
-      <c r="AA125" s="190"/>
-      <c r="AB125" s="190"/>
-      <c r="AC125" s="190"/>
-      <c r="AD125" s="191"/>
-      <c r="AE125" s="189" t="s">
+      <c r="Z125" s="214"/>
+      <c r="AA125" s="214"/>
+      <c r="AB125" s="214"/>
+      <c r="AC125" s="214"/>
+      <c r="AD125" s="215"/>
+      <c r="AE125" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="AF125" s="190"/>
-      <c r="AG125" s="190"/>
-      <c r="AH125" s="190"/>
-      <c r="AI125" s="190"/>
-      <c r="AJ125" s="191"/>
+      <c r="AF125" s="214"/>
+      <c r="AG125" s="214"/>
+      <c r="AH125" s="214"/>
+      <c r="AI125" s="214"/>
+      <c r="AJ125" s="215"/>
       <c r="AP125" s="5"/>
       <c r="AQ125" s="2"/>
     </row>
@@ -11446,30 +11461,30 @@
       <c r="P126" s="98"/>
       <c r="Q126" s="98"/>
       <c r="R126" s="102"/>
-      <c r="S126" s="204" t="s">
+      <c r="S126" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="T126" s="205"/>
-      <c r="U126" s="205"/>
-      <c r="V126" s="205"/>
-      <c r="W126" s="205"/>
-      <c r="X126" s="206"/>
-      <c r="Y126" s="204" t="s">
+      <c r="T126" s="202"/>
+      <c r="U126" s="202"/>
+      <c r="V126" s="202"/>
+      <c r="W126" s="202"/>
+      <c r="X126" s="203"/>
+      <c r="Y126" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="Z126" s="205"/>
-      <c r="AA126" s="205"/>
-      <c r="AB126" s="205"/>
-      <c r="AC126" s="205"/>
-      <c r="AD126" s="206"/>
-      <c r="AE126" s="204" t="s">
+      <c r="Z126" s="202"/>
+      <c r="AA126" s="202"/>
+      <c r="AB126" s="202"/>
+      <c r="AC126" s="202"/>
+      <c r="AD126" s="203"/>
+      <c r="AE126" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="AF126" s="205"/>
-      <c r="AG126" s="205"/>
-      <c r="AH126" s="205"/>
-      <c r="AI126" s="205"/>
-      <c r="AJ126" s="206"/>
+      <c r="AF126" s="202"/>
+      <c r="AG126" s="202"/>
+      <c r="AH126" s="202"/>
+      <c r="AI126" s="202"/>
+      <c r="AJ126" s="203"/>
       <c r="AP126" s="5"/>
       <c r="AQ126" s="2"/>
     </row>
@@ -11530,30 +11545,30 @@
       <c r="P128" s="130"/>
       <c r="Q128" s="130"/>
       <c r="R128" s="131"/>
-      <c r="S128" s="207" t="s">
+      <c r="S128" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="208"/>
-      <c r="U128" s="208"/>
-      <c r="V128" s="208"/>
-      <c r="W128" s="208"/>
-      <c r="X128" s="209"/>
-      <c r="Y128" s="207" t="s">
+      <c r="T128" s="178"/>
+      <c r="U128" s="178"/>
+      <c r="V128" s="178"/>
+      <c r="W128" s="178"/>
+      <c r="X128" s="179"/>
+      <c r="Y128" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="Z128" s="208"/>
-      <c r="AA128" s="208"/>
-      <c r="AB128" s="208"/>
-      <c r="AC128" s="208"/>
-      <c r="AD128" s="209"/>
-      <c r="AE128" s="207" t="s">
+      <c r="Z128" s="178"/>
+      <c r="AA128" s="178"/>
+      <c r="AB128" s="178"/>
+      <c r="AC128" s="178"/>
+      <c r="AD128" s="179"/>
+      <c r="AE128" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF128" s="208"/>
-      <c r="AG128" s="208"/>
-      <c r="AH128" s="208"/>
-      <c r="AI128" s="208"/>
-      <c r="AJ128" s="209"/>
+      <c r="AF128" s="178"/>
+      <c r="AG128" s="178"/>
+      <c r="AH128" s="178"/>
+      <c r="AI128" s="178"/>
+      <c r="AJ128" s="179"/>
       <c r="AP128" s="5"/>
       <c r="AQ128" s="2"/>
     </row>
@@ -11575,30 +11590,30 @@
       <c r="P129" s="127"/>
       <c r="Q129" s="127"/>
       <c r="R129" s="132"/>
-      <c r="S129" s="210" t="s">
+      <c r="S129" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="T129" s="211"/>
-      <c r="U129" s="211"/>
-      <c r="V129" s="211"/>
-      <c r="W129" s="211"/>
-      <c r="X129" s="212"/>
-      <c r="Y129" s="210" t="s">
+      <c r="T129" s="175"/>
+      <c r="U129" s="175"/>
+      <c r="V129" s="175"/>
+      <c r="W129" s="175"/>
+      <c r="X129" s="176"/>
+      <c r="Y129" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Z129" s="211"/>
-      <c r="AA129" s="211"/>
-      <c r="AB129" s="211"/>
-      <c r="AC129" s="211"/>
-      <c r="AD129" s="212"/>
-      <c r="AE129" s="210" t="s">
+      <c r="Z129" s="175"/>
+      <c r="AA129" s="175"/>
+      <c r="AB129" s="175"/>
+      <c r="AC129" s="175"/>
+      <c r="AD129" s="176"/>
+      <c r="AE129" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF129" s="211"/>
-      <c r="AG129" s="211"/>
-      <c r="AH129" s="211"/>
-      <c r="AI129" s="211"/>
-      <c r="AJ129" s="212"/>
+      <c r="AF129" s="175"/>
+      <c r="AG129" s="175"/>
+      <c r="AH129" s="175"/>
+      <c r="AI129" s="175"/>
+      <c r="AJ129" s="176"/>
       <c r="AP129" s="5"/>
       <c r="AQ129" s="2"/>
     </row>
@@ -11622,30 +11637,30 @@
       <c r="P130" s="75"/>
       <c r="Q130" s="75"/>
       <c r="R130" s="133"/>
-      <c r="S130" s="177" t="s">
+      <c r="S130" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="T130" s="178"/>
-      <c r="U130" s="178"/>
-      <c r="V130" s="178"/>
-      <c r="W130" s="178"/>
-      <c r="X130" s="179"/>
-      <c r="Y130" s="177" t="s">
+      <c r="T130" s="181"/>
+      <c r="U130" s="181"/>
+      <c r="V130" s="181"/>
+      <c r="W130" s="181"/>
+      <c r="X130" s="182"/>
+      <c r="Y130" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="Z130" s="178"/>
-      <c r="AA130" s="178"/>
-      <c r="AB130" s="178"/>
-      <c r="AC130" s="178"/>
-      <c r="AD130" s="179"/>
-      <c r="AE130" s="177" t="s">
+      <c r="Z130" s="181"/>
+      <c r="AA130" s="181"/>
+      <c r="AB130" s="181"/>
+      <c r="AC130" s="181"/>
+      <c r="AD130" s="182"/>
+      <c r="AE130" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="AF130" s="178"/>
-      <c r="AG130" s="178"/>
-      <c r="AH130" s="178"/>
-      <c r="AI130" s="178"/>
-      <c r="AJ130" s="179"/>
+      <c r="AF130" s="181"/>
+      <